--- a/rss-fetcher/runtime/outputs/2025-12.xlsx
+++ b/rss-fetcher/runtime/outputs/2025-12.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="312">
   <si>
     <t>source</t>
   </si>
@@ -97,241 +110,19 @@
     <t>Wikipedia每日首页文章</t>
   </si>
   <si>
-    <t>Big Think-官方</t>
-  </si>
-  <si>
-    <t>澎湃思想市场-手机端</t>
-  </si>
-  <si>
     <t>Julio and Marisol</t>
   </si>
   <si>
-    <t>The 9 biggest gaps in our understanding of cosmic history</t>
-  </si>
-  <si>
-    <t>考古学家与历史学家：与吉奥乔·阿甘本的对话</t>
-  </si>
-  <si>
-    <t>SMSPommern</t>
-  </si>
-  <si>
-    <t>Ovalipes catharus</t>
-  </si>
-  <si>
-    <t>3 experts explain your brain’s creativity formula</t>
-  </si>
-  <si>
-    <t>2025’s Geminids will be the best meteor shower of the year</t>
-  </si>
-  <si>
-    <t>How whales became the poets of the ocean</t>
-  </si>
-  <si>
-    <t>The 4 types of hypocrites (that we actually like)</t>
-  </si>
-  <si>
-    <t>“Surfing the edge”: Tim O’Reilly on how humans can thrive with AI</t>
-  </si>
-  <si>
-    <t>Will new physics affect our Universe’s far future?</t>
-  </si>
-  <si>
-    <t>The rise of AI denialism</t>
-  </si>
-  <si>
-    <t>Find your own tomato war: How to fortify culture through ritual</t>
-  </si>
-  <si>
-    <t>数字时代的疯癫书写：“发疯文学”的疾病隐喻与美学疗愈</t>
-  </si>
-  <si>
-    <t>契约、疯狂与理想之地：《疯狂动物城2》中的乌托邦叙事</t>
-  </si>
-  <si>
-    <t>李公明｜一周画记：美国与委内瑞拉冲突“一触即发”？</t>
-  </si>
-  <si>
-    <t>澎湃思想周报｜墨西哥“Z世代”抗议；布鲁塞尔当代艺术博物馆困局</t>
-  </si>
-  <si>
-    <t>Flag of Hong Kong</t>
-  </si>
-  <si>
-    <t>The 14 rules for navigating complex systems</t>
-  </si>
-  <si>
-    <t>New discovery sets humanity up to image “alien Earth”</t>
-  </si>
-  <si>
-    <t>How to get your ethically sourced pleasure</t>
-  </si>
-  <si>
-    <t>专访｜毕赣谈《狂野时代》：电影结尾应该充满感情而不是深刻</t>
-  </si>
-  <si>
     <t>2025-12-01</t>
   </si>
   <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-02</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
     <t>2025-12-01 08:00:00</t>
   </si>
   <si>
-    <t>2025-12-01 15:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-04 14:01:00</t>
-  </si>
-  <si>
-    <t>2025-12-02 08:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-03 08:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-03 22:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-03 15:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-03 00:30:00</t>
-  </si>
-  <si>
-    <t>2025-12-02 23:30:00</t>
-  </si>
-  <si>
-    <t>2025-12-02 22:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-02 15:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-02 06:03:16</t>
-  </si>
-  <si>
-    <t>2025-12-01 22:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-03 15:22:00</t>
-  </si>
-  <si>
-    <t>2025-12-02 11:38:00</t>
-  </si>
-  <si>
-    <t>2025-12-01 14:48:00</t>
-  </si>
-  <si>
-    <t>2025-12-01 13:44:00</t>
-  </si>
-  <si>
-    <t>2025-12-04 08:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-04 22:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-04 15:00:00</t>
-  </si>
-  <si>
-    <t>2025-12-04 00:22:23</t>
-  </si>
-  <si>
-    <t>2025-12-05 14:58:00</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251201000000/en</t>
   </si>
   <si>
-    <t>https://bigthink.com/starts-with-a-bang/biggest-gaps-in-cosmic-history/</t>
-  </si>
-  <si>
-    <t>https://m.thepaper.cn/newsDetail_forward_32005848</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251202000000/en</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251203000000/en</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/perception-box/your-brains-creativity-explained/</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/starts-with-a-bang/2025s-geminids-best-meteor-shower/</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/the-well/could-we-speak-with-whales/</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/books/the-types-hypocrites-we-like/</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/business/surfing-the-edge-tim-oreilly-on-how-humans-can-thrive-with-ai/</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/starts-with-a-bang/new-physics-far-future/</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/the-present/the-rise-of-ai-denialism/</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/business/find-your-own-tomato-war-how-to-fortify-culture-through-ritual/</t>
-  </si>
-  <si>
-    <t>https://m.thepaper.cn/newsDetail_forward_32047671</t>
-  </si>
-  <si>
-    <t>https://m.thepaper.cn/newsDetail_forward_32076765</t>
-  </si>
-  <si>
-    <t>https://m.thepaper.cn/newsDetail_forward_32074464</t>
-  </si>
-  <si>
-    <t>https://m.thepaper.cn/newsDetail_forward_32073002</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251204000000/en</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/business/14-rules-to-dance-with-the-systems-of-business-and-life/</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/starts-with-a-bang/new-discovery-imaging-alien-earth/</t>
-  </si>
-  <si>
-    <t>https://bigthink.com/mini-philosophy/how-to-get-your-ethically-sourced-pleasure/</t>
-  </si>
-  <si>
-    <t>https://m.thepaper.cn/newsDetail_forward_32103429</t>
-  </si>
-  <si>
     <t>2025-12-04 14:32:41</t>
-  </si>
-  <si>
-    <t>2025-12-04 14:32:44</t>
-  </si>
-  <si>
-    <t>2025-12-04 14:32:58</t>
-  </si>
-  <si>
-    <t>2025-12-05 19:56:45</t>
-  </si>
-  <si>
-    <t>2025-12-05 19:56:48</t>
-  </si>
-  <si>
-    <t>2025-12-05 19:57:06</t>
   </si>
   <si>
     <t>&lt;div class="mw-content-ltr mw-parser-output" dir="ltr" lang="en"&gt;&lt;div id="mp-tfa-img" style="float: left; margin: 0.5em 0.9em 0.4em 0em;"&gt;
@@ -352,783 +143,6 @@
 &lt;li&gt;&lt;b&gt;&lt;a class="mw-redirect" href="/wiki/Wikipedia:Featured_articles_(linked_from_TFAfooter)" title="Wikipedia:Featured articles (linked from TFAfooter)"&gt;More featured articles&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:About_Today%27s_featured_article" title="Wikipedia:About Today's featured article"&gt;About&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;
 &lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/02/mapping-timeline.jpg?w=640" /&gt;&lt;p&gt;The answer to nature&amp;#8217;s greatest riddles are written upon the Universe itself.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="milky way Gaia" class="wp-image-165281" height="3424" src="https://bigthink.com/wp-content/uploads/2022/02/Gaia_the_Galactic_census_takes_shape_pillars.jpg?w=1920" width="1920" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;Gaia&amp;rsquo;s all-sky view of our Milky Way Galaxy and neighboring galaxies. The maps show the total brightness and color of stars (top), the total density of stars (middle), and the interstellar dust that fills the galaxy (bottom). Note how, on average, there are approximately ~10 million stars in each square degree, but that some regions, like the galactic plane or the galactic center, have stellar densities well above the overall average.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.esa.int/Science_Exploration/Space_Science/Gaia/Gaia_creates_richest_star_map_of_our_Galaxy_and_beyond" target="_blank"&gt;Credit&lt;/a&gt;: ESA/Gaia/DPAC&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;From the fundamental to the cosmic, science reveals our natural history.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Diagram visually representing one of the biggest mysteries: the origin and evolution of the universe, from the Big Bang on the left to galaxies, stars, and finally Earth on the right, set against a black background." class="wp-image-578488" height="864" src="https://bigthink.com/wp-content/uploads/2025/09/chemical_composition_universe.jpg?w=1536" width="1536" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;Our Universe, from the hot Big Bang until the present day, underwent a huge amount of growth and evolution, and continues to do so. Our entire observable Universe was approximately the size of a modest boulder some 13.8 billion years ago, but it has expanded to be ~46 billion light-years in radius today. The complex structure that has arisen must have grown from seed imperfections of at least ~0.003% of the average density early on, and has gone through phases where atomic nuclei, neutral atoms, and stars first formed, eventually giving rise to our Solar System, planet, life, and humans.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://chandra.harvard.edu/xray_astro/dark_matter/index5.html"&gt;Credit&lt;/a&gt;: NASA/CXC/M. Weiss&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;Despite all we&amp;#8217;ve learned, these nine major puzzles remain unsolved.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Diagram illustrating the timeline of the universe from inflation to present day, highlighting density and polarization signals over 13.8 billion years—shedding light on some of the biggest mysteries surrounding the origin of the universe." class="wp-image-578489" height="784" src="https://bigthink.com/wp-content/uploads/2025/09/inftotoday.jpg?w=960" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The quantum fluctuations inherent to space, stretched across the Universe during cosmic inflation, gave rise to the density fluctuations imprinted in the cosmic microwave background, which in turn gave rise to the stars, galaxies, and other large-scale structures in the Universe today. This is the best picture we have of how the entire Universe behaves, where inflation precedes and sets up the Big Bang. Unfortunately, we can only access the information contained inside our cosmic horizon, which is all part of the same fraction of one region where inflation ended some 13.8 billion years ago.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/33K76Dg"&gt;Credit&lt;/a&gt;: E. Siegel; ESA/Planck and the DOE/NASA/NSF Interagency Task Force on CMB research&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;1.) What triggered or preceded cosmic inflation?&lt;/strong&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A diagram illustrating one of the biggest mysteries: the origin and expansion of the universe over time, with a web representing space growing outward from a bright starting point on the left." class="wp-image-578490" height="1997" src="https://bigthink.com/wp-content/uploads/2025/09/fluct.jpg?w=3340" width="3340" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;From a region of space as small as can be imagined (all the way down to the Planck scale), cosmological inflation causes space to expand exponentially: relentlessly doubling and doubling again with each tiny fraction-of-a-second that elapses. Although this empties the Universe and stretches it flat, it also contains quantum fluctuations superimposed atop it: fluctuations that will later provide the seeds for cosmic structure within our own Universe. What happened before the final ~10^-32 seconds of inflation, including the question of whether inflation arose from a singular state before it, not only isn&amp;#8217;t known, but may be fundamentally unknowable.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;Credit: Big Think / Ben Gibson&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;a href="https://bigthink.com/starts-with-a-bang/biggest-questions-about-universe-beginning/"&gt;Inflation wasn&amp;#8217;t the beginning&lt;/a&gt;; we &lt;a href="https://bigthink.com/starts-with-a-bang/science-answer-where-universe-come-from/"&gt;don&amp;#8217;t know what was&lt;/a&gt;.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A plot showing constraints on the primordial tilt (ns) and tensor-to-scalar ratio (r), with colored regions and curves representing different inflation models and observational datasets, sheds light on how hot big bang conditions shaped the early universe." class="wp-image-579428" height="581" src="https://bigthink.com/wp-content/uploads/2025/10/planckinfconst.jpg?w=1054" width="1054" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;Various models of inflation and what they predict for the scalar (x-axis) and tensor (y-axis) fluctuations from inflation. Note how just a small subset of viable inflationary models gives rise to a huge variety of possible predictions for these parameters, and how even with the joint constraints provided by various independent cosmological probes, that many models of inflation remain viable and consistent with the data.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.aanda.org/articles/aa/full_html/2020/09/aa33887-18/aa33887-18.html"&gt;Credit&lt;/a&gt;: Planck collaboration, Astronomy &amp;#038; Astrophysics, 2020&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;2.) What &amp;#8220;flavor&amp;#8221; of inflation occurred?&lt;/strong&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Map showing Planck's polarisation of the cosmic microwave background—offering insight into some of the biggest mysteries about the origin of the universe—with zoomed-in sections filtered at 5 degrees and 20 arcminutes for comparison." class="wp-image-578478" height="2480" src="https://bigthink.com/wp-content/uploads/2025/09/2015_CMBPol_Zoom.jpg?w=3508" width="3508" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This map shows the CMB&amp;#8217;s polarization signal, as measured by the Planck satellite in 2015. The top and bottom insets show the difference between filtering the data on particular angular scales of 5 degrees and 1/3 of a degree, respectively. While temperature data, alone, can demonstrate that the CMB is of cosmic nature, the polarization signal gives us key pieces of information relevant to the details of cosmic inflation, including which &amp;#8220;flavors&amp;#8221; of inflation are allowed and disallowed.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.cosmos.esa.int/documents/387566/425793/2015_CMBPol_Zoom/158c0cd9-7377-4967-91a7-b177573cef26?t=1423086653276"&gt;Credit&lt;/a&gt;: ESA and the Planck Collaboration, 2015&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;Primordial gravitational waves, cosmic flatness, and primordial non-Gaussianity &lt;a href="https://bigthink.com/starts-with-a-bang/cosmic-inflation-criticism-success/"&gt;observations will inform us&lt;/a&gt;.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="gravitational wave contribution to B-mode polarization" class="wp-image-144145" height="600" src="https://bigthink.com/wp-content/uploads/2021/10/https___blogs-images.forbes.com_startswithabang_files_2017_10_1-CjUyUI-D0J2tcR2EFN-1Wg.jpg?w=960" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The contribution of gravitational waves left over from inflation to the B-mode polarization of the cosmic microwave background has a known shape, but its amplitude is dependent on the specific model of inflation and can only be constrained observationally. These B-modes from gravitational waves from inflation have not yet been observed, but detecting them would help us tremendously in pinning down precisely what type of inflation occurred. A false detection, from the BICEP2 team, famously occurred in the early 2010s, but was swiftly refuted. We now know that the r-ratio, represented on the y-axis, must be no greater than about ~0.01, with future experiments hoping to get down to the 0.001 or even the 0.0001 level.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.cosmos.esa.int/web/planck/science-team" target="_blank"&gt;Credit&lt;/a&gt;: Planck Science Team&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;3.) How did baryogenesis occur?&lt;/strong&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-170165" height="578" src="https://bigthink.com/wp-content/uploads/2022/03/higgs_break.jpg?w=960" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;When the electroweak symmetry (the symmetry that corresponds to the Higgs field) breaks, the combination of CP-violation and baryon number violation can create a matter/antimatter asymmetry where there was none before, owing to the effect of sphaleron interactions working on, for example, a neutrino excess. This can only occur, however, if the electroweak phase transition is first-order, rather than the second-order transition predicted by the Standard Model alone.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;Credit: University of Heidelberg&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;We don&amp;#8217;t know &lt;a href="https://bigthink.com/starts-with-a-bang/how-matter-exist/"&gt;how our Universe&lt;/a&gt; came to be &lt;a href="https://bigthink.com/starts-with-a-bang/universe-matter-dominated/"&gt;matter dominated&lt;/a&gt;.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="anitmatter annihilation" class="wp-image-170169" height="540" src="https://bigthink.com/wp-content/uploads/2022/03/antimatter.jpg?w=960" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;In the very early Universe, there were tremendous numbers of quarks, leptons, antiquarks, and antileptons of all species. After only a tiny fraction-of-a-second has elapsed since the hot Big Bang, most of these matter-antimatter pairs annihilate away, leaving a very tiny excess of matter over antimatter. How that excess came about is a puzzle known as baryogenesis, and it is one of the greatest unsolved problems in modern physics.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/33K76Dg" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;4.) What is the nature of dark matter?&lt;/strong&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Six panels show clusters of galaxies in space, with bright stars and galaxies overlaid by colored regions in blue and pink indicating gas and dark matter distribution—shedding light on some of the biggest mysteries surrounding the origin of our universe." class="wp-image-578483" height="1369" src="https://bigthink.com/wp-content/uploads/2025/09/6DM.jpg?w=2431" width="2431" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The X-ray (pink) and overall matter (blue) maps of various colliding galaxy clusters show a clear separation between normal matter and gravitational effects, some of the strongest evidence for dark matter. The X-rays come in two varieties, soft (lower-energy) and hard (higher-energy), where galaxy collisions can create temperatures ranging from several hundreds of thousands of degrees up to ~100 million K. Meanwhile, the fact that the gravitational effects (in blue) are displaced from the location of the mass from the normal matter (pink) shows that dark matter must be present. Without dark matter, these observations (along with many others) cannot be sufficiently explained.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://science.nasa.gov/asset/hubble/six-galaxy-cluster-collisions-with-dark-matter-maps-hubble-and-chandra/"&gt;Credit&lt;/a&gt;: NASA, ESA, D. Harvey (&amp;Eacute;cole Polytechnique F&amp;eacute;d&amp;eacute;rale de Lausanne, Switzerland; University of Edinburgh, UK), R. Massey (Durham University, UK), T. Kitching (University College London, UK), and A. Taylor and E. Tittley (University of Edinburgh, UK)&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;Despite &lt;a href="https://bigthink.com/starts-with-a-bang/5-truths-dark-matter/"&gt;overwhelming astrophysical evidence&lt;/a&gt; for its presence, its &lt;a href="https://bigthink.com/starts-with-a-bang/dark-matter-nightmare-scenario/"&gt;nature remains elusive&lt;/a&gt;.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-227647" height="889" src="https://bigthink.com/wp-content/uploads/2022/07/4-constraints-Xenon.jpeg?w=1235" width="1235" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This 4-panel graph shows constraints on solar axions, on the neutrino magnetic moment, and on two different &amp;#8220;flavors&amp;#8221; of dark matter candidates, all constrained by the latest XENONnT results. These are the best such constraints in physics history, and remarkably demonstrate just how good the XENON collaboration has gotten at what they do. Axions, like other dark matter candidates, have not yielded a positive direct detection signature yet.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://arxiv.org/abs/2207.11330" target="_blank"&gt;Credit&lt;/a&gt;: E. Aprile et al. for the XENON Collaboration, arXiv:2207.11330, 2022&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;5.) How and when did the first stars appear?&lt;/strong&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A colorful, irregular galaxy with bright clusters of stars, some possibly from a generation stars before sun, and nebulae against a dark background scattered with distant stars." class="wp-image-579046" height="1125" src="https://bigthink.com/wp-content/uploads/2025/10/Full-Res.jpg?w=2000" width="2000" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The dwarf galaxy UGCA 281, shown here as imaged by Hubble in the visible and ultraviolet, is rapidly forming new stars. An older, background population of redder stars coexists alongside the newer, bluer stars that are superimposed atop them. The newly-formed stars are largely heavily-enriched Population I stars, while the older stars are largely metal-poor Population II stars. No pristine, metal-free, Population III stars are yet known.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://science.nasa.gov/asset/hubble/ugca-281/"&gt;Credit&lt;/a&gt;: NASA, ESA, LEGUS Team&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;The &lt;a href="https://bigthink.com/starts-with-a-bang/what-are-first-stars/"&gt;first generation of stars&lt;/a&gt;, formed &lt;a href="https://bigthink.com/starts-with-a-bang/first-stars-began-shine/"&gt;after the Big Bang&lt;/a&gt;, &lt;a href="https://bigthink.com/starts-with-a-bang/universe-first-stars/"&gt;remains undiscovered&lt;/a&gt;.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Two graphs: the top shows spectral data with annotated lines from three telescopes, exploring one of the biggest mysteries—the origin of the universe; the bottom plots UV spectral slope versus absolute UV magnitude with highlighted data points and colored bands." class="wp-image-578482" height="819" src="https://bigthink.com/wp-content/uploads/2025/09/H-He-O-spec.jpg?w=1141" width="1141" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This graph shows the combination of the Hubble, JWST NIRCam, and JWST NIRSpec data for galaxy RXJ2129-z8HeII. There is an unusually strong, blue tilt to the stellar spectrum of this object, but the evidence for any pristine material amidst the highly enriched gas and stars that are present is too flimsy to make a compelling case for the presence of any pristine, Population III (a.k.a., the &amp;#8220;first&amp;#8221;) stars. No such population, as of 2025, has yet been found.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ad4ced"&gt;Credit&lt;/a&gt;: X. Wang et al., Astrophysical Journal Letters, 2024&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;6.) How &amp;#8220;alone&amp;#8221; are we in the Universe?&lt;/strong&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Two space telescopes with solar panel arrays are shown against a plain, dark background. NASA's Habitable Worlds Observatory is represented by one with a hexagonal mirror, highlighting its role in advancing space science." class="wp-image-574366" height="576" src="https://bigthink.com/wp-content/uploads/2025/08/HWO_EAC_Mirrors_Update_V001.00300_print.jpg?w=1024" width="1024" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;These two designs represent artist concepts for the potential look and architecture of the upcoming, planned NASA astrophysics flagship mission of HWO: the Habitable Worlds Observatory. It will represent a truly generational leap, the same way Hubble or JWST did for NASA science. As the #1 recommended mission by the National Academy of Sciences&amp;rsquo; 2020 decadal survey, it will be the first mission to directly image Earth-sized worlds at Earth-like distances around Sun-like stars, but only if we design, advance, fund, and build it, along with the full relevant suite of instruments.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://svs.gsfc.nasa.gov/20395/"&gt;Credit&lt;/a&gt;: NASA&amp;#8217;s Goddard Space Flight Center Conceptual Image Lab&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;a href="https://bigthink.com/starts-with-a-bang/first-living-worlds/"&gt;When and where&lt;/a&gt; &lt;a href="https://bigthink.com/starts-with-a-bang/5-questions-origin-of-life/"&gt;did life arise&lt;/a&gt;, and &lt;a href="https://bigthink.com/starts-with-a-bang/alien-life-stephen-king/"&gt;how common is it&lt;/a&gt;? We still know &lt;a href="https://bigthink.com/starts-with-a-bang/origin-of-life-169450/"&gt;almost nothing&lt;/a&gt;.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A vertical chart outlines six assessment levels for measuring biogenic activity, from initial detection of organics on Mars to independent confirmation of life, with corresponding measurement indicators for each level." class="wp-image-575472" height="960" src="https://bigthink.com/wp-content/uploads/2025/09/COLD_scale.jpg?w=839" width="839" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The Confidence of Life Detection (CoLD) scale is a way for scientists to quantify how confident we are that a potential biosignature actually arose from the activity of life. Signatures like &amp;#8220;methane on Mars&amp;#8221; or the new features found inside Perseverance&amp;#8217;s latest sedimentary rock (as well as ancient Mars Viking results) have only risen to Level 1 on this scale. Until we reach at least Level 4, ruling out abiotic pathways to creating the observed signatures, appropriate skepticism (including disbelief) of any claims of life&amp;#8217;s involvement is warranted.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.nasa.gov/news-release/nasa-says-mars-rover-discovered-potential-biosignature-last-year/"&gt;Credit&lt;/a&gt;: NASA&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;7.) How did life on Earth begin?&lt;/strong&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-155192" height="720" src="https://bigthink.com/wp-content/uploads/2021/11/https___blogs-images.forbes.com_startswithabang_files_2018_01_1-IJ1le1BhVPmsYvPSMCmNvw.jpg?w=960" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;Deep under the sea, around hydrothermal vents, where no sunlight reaches, life still thrives on Earth. How to create life from non-life is one of the great open questions in science today, but hydrothermal vents are one of the leading locations where the first metabolic processes, the precursor to living organisms, may have first arisen. If life can exist down there on Earth, perhaps undersea on Europa or Enceladus, there&amp;#8217;s life down there, too.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://oceanexplorer.noaa.gov/okeanos/explorations/ex1103/logs/july20/july20.html" target="_blank"&gt;Credit&lt;/a&gt;: NOAA Office of Ocean Exploration and Research&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;We know &lt;a href="https://bigthink.com/starts-with-a-bang/life-begin-cell/"&gt;so much about biology, biochemistry, and evolution&lt;/a&gt;, but &lt;a href="https://bigthink.com/starts-with-a-bang/universe-born-life/"&gt;haven&amp;#8217;t solved the abiogenesis&lt;/a&gt; puzzle.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="peptide coevolution" class="wp-image-185518" height="775" src="https://bigthink.com/wp-content/uploads/2022/05/peptide-coevolution.jpg?w=1008" width="1008" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;If life began with a random peptide that could metabolize nutrients/energy from its environment, replication could then ensue from peptide-nucleic acid coevolution. Here, DNA-peptide coevolution is illustrated, but it could work with RNA or even PNA as the nucleic acid instead. Asserting that a &amp;#8220;divine spark&amp;#8221; is needed for life to arise is a classic &amp;#8220;God-of-the-gaps&amp;#8221; argument, but asserting that we know exactly how life arose from non-life is also a fallacy. These conditions, including rocky planets with these molecules present on their surfaces, likely existed within the first 1-2 billion years of the Big Bang.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://chemistry-europe.onlinelibrary.wiley.com/doi/abs/10.1002/chem.201800500" target="_blank"&gt;Credit&lt;/a&gt;: A. Chotera et al., Chemistry Europe, 2018&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;8.) What is dark energy&amp;#8217;s nature?&lt;/strong&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A cartoon of three cosmic phenomena (CMB, Baryon Acoustic Oscillations, Supernovae) pulling on a triangle. Text below reads: &amp;quot;Something has to give..." class="wp-image-563005" height="1500" src="https://bigthink.com/wp-content/uploads/2025/03/clairel.jpg?w=2667" width="2667" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This fun graphic illustrates the tension on &amp;Lambda;, Einstein&amp;#8217;s cosmological constant, exerted by combining supernova data (right), baryon acoustic oscillations (left), and the cosmic microwave background (top). When all three data sets are combined, the idea of a cosmological constant struggles to hold together; it&amp;#8217;s possible that something, but perhaps not necessarily &amp;Lambda;, is going to give.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://cmlamman.github.io/"&gt;Credit&lt;/a&gt;: Claire Lamman&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;Is it a cosmological constant? And from where does it arise?&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Comparison of DESI and DES data illustrating ( w_0 ) and ( w_a ) parameter constraints using various datasets, represented by multiple colored ellipses across three plots, shedding light on the dark energy weakening hypothesis." class="wp-image-563015" height="363" src="https://bigthink.com/wp-content/uploads/2025/03/DESIwandwo.jpg?w=1074" width="1074" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;These graphs show the fit for evolving dark energy, in terms of the parameters w_0 and w_a, where a constant cosmological constant for dark energy corresponds to w_a = 0 and w_0 = -1, exactly. Note that the DESI data on its own is consistent with constant dark energy, but when you combine CMB and supernova (for example, DESY5, as shown in the middle panel) data with it, it favors evolving dark energy instead.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://data.desi.lbl.gov/doc/papers/"&gt;Credit&lt;/a&gt;: DESI Collaboration/M. Abdul-Karim et al., DESI DR2 Results, 2025&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;9.) What&amp;#8217;s our ultimate cosmic fate?&lt;/strong&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="dark energy fate" class="wp-image-148237" height="805" src="https://bigthink.com/wp-content/uploads/2021/10/https___blogs-images.forbes.com_startswithabang_files_2017_12_0_uI_GtoHyQfXNSmMH.jpg?w=800" width="800" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The expected fates of the Universe (top three illustrations) all correspond to a Universe where the matter and energy combined fight against the initial expansion rate. In our observed Universe, a cosmic acceleration is caused by some type of dark energy, which is hitherto unexplained. All of these Universes are governed by the Friedmann equations, which relate the expansion of the Universe to the various types of matter and energy present within it.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/3FXKUnO" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;Big crunch? Big rip? A heat death? Or a rejuvenated cycle? The quest to find out continues.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="big crunch" class="wp-image-193029" height="2200" src="https://bigthink.com/wp-content/uploads/2022/05/future_universe_300dpi-e1716333806201.jpg?w=3300" width="3300" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The far distant fates of the Universe offer a number of possibilities, but if dark energy is truly a constant, as the data best indicates, it will continue to follow the red curve, leading to the long-term scenario frequently described on Starts With A Bang: of the eventual heat death of the Universe. If dark energy can strengthen, weaken, or reverse sign over time, however, all bets are off, and alternative possibilities, like a Big Crunch or a Big Rip, suddenly abound.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://imagine.gsfc.nasa.gov/science/featured_science/tenyear/darkenergy.html" target="_blank"&gt;Credit&lt;/a&gt;: NASA/CXC/M. Weiss&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;em&gt;Mostly Mute Monday tells a scientific story in images, visuals, and no more than 200 words.&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/biggest-gaps-in-cosmic-history/" rel="nofollow"&gt;The 9 biggest gaps in our understanding of cosmic history&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="mw-content-ltr mw-parser-output" dir="ltr" lang="en"&gt;&lt;div id="mp-tfa-img" style="float: left; margin: 0.5em 0.9em 0.4em 0em;"&gt;
-&lt;div class="thumbinner mp-thumb" style="background: transparent; color: inherit; border: none; padding: 0;"&gt;
-&lt;span&gt;&lt;a class="mw-file-description" href="/wiki/File:Bundesarchiv_DVM_10_Bild-23-61-21,_Linienschiff_%22SMS_Pommern%22.jpg" title="SMS Pommern"&gt;&lt;img alt="SMS Pommern" class="mw-file-element" height="94" src="//upload.wikimedia.org/wikipedia/commons/thumb/9/9d/Bundesarchiv_DVM_10_Bild-23-61-21%2C_Linienschiff_%22SMS_Pommern%22.jpg/250px-Bundesarchiv_DVM_10_Bild-23-61-21%2C_Linienschiff_%22SMS_Pommern%22.jpg" width="140" /&gt;&lt;/a&gt;&lt;/span&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;p&gt;&lt;b&gt;&lt;a href="/wiki/SMS_Pommern" title="SMS Pommern"&gt;SMS &lt;span title="German-language text"&gt;&lt;i lang="de"&gt;Pommern&lt;/i&gt;&lt;/span&gt;&lt;/a&gt;&lt;/b&gt; was a &lt;a href="/wiki/Deutschland-class_battleship" title="Deutschland-class battleship"&gt;&lt;i&gt;Deutschland&lt;/i&gt;-class&lt;/a&gt; &lt;a href="/wiki/Pre-dreadnought_battleship" title="Pre-dreadnought battleship"&gt;pre-dreadnought battleship&lt;/a&gt; built for the &lt;a href="/wiki/Imperial_German_Navy" title="Imperial German Navy"&gt;Imperial German Navy&lt;/a&gt; at the &lt;a href="/wiki/AG_Vulcan_Stettin" title="AG Vulcan Stettin"&gt;AG Vulcan Stettin&lt;/a&gt; yard at &lt;a href="/wiki/Szczecin" title="Szczecin"&gt;Stettin&lt;/a&gt;, Germany. Named after the &lt;a href="/wiki/Prussia" title="Prussia"&gt;Prussian&lt;/a&gt; province of &lt;a href="/wiki/Province_of_Pomerania_(1815%E2%80%931945)" title="Province of Pomerania (1815–1945)"&gt;Pomerania&lt;/a&gt;, she was &lt;a href="/wiki/Keel_laying" title="Keel laying"&gt;laid down&lt;/a&gt; on 22 March 1904, &lt;a href="/wiki/Ceremonial_ship_launching" title="Ceremonial ship launching"&gt;launched&lt;/a&gt; on 2 December 1905, and commissioned into the navy on 6 August 1907. The ship was armed with four &lt;a href="/wiki/28_cm_SK_L/40_gun" title="28 cm SK L/40 gun"&gt;28 cm (11 in) guns&lt;/a&gt; and had a top speed of 18 knots (33 km/h; 21 mph). &lt;span title="German-language text"&gt;&lt;i lang="de"&gt;Pommern&lt;/i&gt;&lt;/span&gt; was assigned to &lt;a href="/wiki/II_Battle_Squadron" title="II Battle Squadron"&gt;II Battle Squadron&lt;/a&gt; of the &lt;a href="/wiki/High_Seas_Fleet" title="High Seas Fleet"&gt;High Seas Fleet&lt;/a&gt;. At the start of &lt;a href="/wiki/World_War_I" title="World War I"&gt;World War I&lt;/a&gt;, she was stationed at the &lt;a href="/wiki/Elbe" title="Elbe"&gt;Elbe&lt;/a&gt; to support the defenses of the &lt;a href="/wiki/German_Bight" title="German Bight"&gt;German Bight&lt;/a&gt;. She participated in sorties into the North Sea in attempts to destroy portions of the British &lt;a href="/wiki/Grand_Fleet" title="Grand Fleet"&gt;Grand Fleet&lt;/a&gt;. These offensive operations culminated in the &lt;a href="/wiki/Battle_of_Jutland" title="Battle of Jutland"&gt;Battle of Jutland&lt;/a&gt;, where she was hit by torpedoes, which detonated one of her 17-centimeter (6.7 in) gun &lt;a href="/wiki/Magazine_(artillery)" title="Magazine (artillery)"&gt;magazines&lt;/a&gt;. The resulting explosion broke the ship in half and killed the entire crew. &lt;i&gt;(&lt;b&gt;&lt;a href="/wiki/SMS_Pommern" title="SMS Pommern"&gt;This article&lt;/a&gt;&lt;/b&gt; is part of a &lt;a href="/wiki/Wikipedia:Featured_topics" title="Wikipedia:Featured topics"&gt;featured topic&lt;/a&gt;: &lt;b&gt;&lt;a href="/wiki/Wikipedia:Featured_topics/Battleships_of_Germany" title="Wikipedia:Featured topics/Battleships of Germany"&gt;&lt;i&gt;Battleships of Germany&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;.)&lt;/i&gt;
-&lt;/p&gt;
-&lt;div class="tfa-recent" style="text-align: right;"&gt;
-Recently featured: &lt;div class="hlist inline"&gt;
-&lt;ul&gt;&lt;li&gt;&lt;i&gt;&lt;a href="/wiki/Julio_and_Marisol" title="Julio and Marisol"&gt;Julio and Marisol&lt;/a&gt;&lt;/i&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="/wiki/Mechanical_Turk" title="Mechanical Turk"&gt;Mechanical Turk&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="/wiki/KEXP-FM" title="KEXP-FM"&gt;KEXP-FM&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;
-&lt;/div&gt;&lt;/div&gt;
-&lt;div class="hlist tfa-footer noprint" style="text-align: right;"&gt;
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:Today%27s_featured_article/December_2025" title="Wikipedia:Today's featured article/December 2025"&gt;Archive&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a class="extiw" href="https://lists.wikimedia.org/postorius/lists/daily-article-l.lists.wikimedia.org/" title="mail:daily-article-l"&gt;By email&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a class="mw-redirect" href="/wiki/Wikipedia:Featured_articles_(linked_from_TFAfooter)" title="Wikipedia:Featured articles (linked from TFAfooter)"&gt;More featured articles&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:About_Today%27s_featured_article" title="Wikipedia:About Today's featured article"&gt;About&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;
-&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="mw-content-ltr mw-parser-output" dir="ltr" lang="en"&gt;&lt;div id="mp-tfa-img" style="float: left; margin: 0.5em 0.9em 0.4em 0em;"&gt;
-&lt;div class="thumbinner mp-thumb" style="background: transparent; color: inherit; border: none; padding: 0;"&gt;
-&lt;span&gt;&lt;a class="mw-file-description" href="/wiki/File:Ovalipes_catharus_dorsal_plate.jpg" title="Ovalipes catharus"&gt;&lt;img alt="Ovalipes catharus" class="mw-file-element" height="119" src="//upload.wikimedia.org/wikipedia/commons/thumb/e/e5/Ovalipes_catharus_dorsal_plate.jpg/250px-Ovalipes_catharus_dorsal_plate.jpg" width="165" /&gt;&lt;/a&gt;&lt;/span&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;p&gt;&lt;i&gt;&lt;b&gt;&lt;a href="/wiki/Ovalipes_catharus" title="Ovalipes catharus"&gt;Ovalipes catharus&lt;/a&gt;&lt;/b&gt;&lt;/i&gt;, commonly known as the paddle crab, swimming crab, or &lt;span title="Māori-language text"&gt;&lt;i lang="mi"&gt;pāpaka&lt;/i&gt;&lt;/span&gt; in &lt;a href="/wiki/M%C4%81ori_language" title="Māori language"&gt;Māori&lt;/a&gt;, is a species of crab found in shallow, sandy-bottomed waters around the coasts of New Zealand, the &lt;a href="/wiki/Chatham_Islands" title="Chatham Islands"&gt;Chatham Islands&lt;/a&gt;, and uncommonly in southern Australia. This species is an opportunistic, aggressive, and versatile feeder active mostly at night, preying predominantly on &lt;a href="/wiki/Mollusca" title="Mollusca"&gt;molluscs&lt;/a&gt; and &lt;a href="/wiki/Crustacean" title="Crustacean"&gt;crustaceans&lt;/a&gt;. It is also highly prone to &lt;a href="/wiki/Cannibalism" title="Cannibalism"&gt;cannibalism&lt;/a&gt;, which accounts for over a quarter of its diet in some locations. The crab's paddle-shaped rear legs and streamlined &lt;a href="/wiki/Carapace" title="Carapace"&gt;carapace&lt;/a&gt; allow it to capture prey by swimming rapidly and to escape predation by burrowing in the sand. Its &lt;a href="/wiki/Seasonal_breeder" title="Seasonal breeder"&gt;mating season&lt;/a&gt; is in winter and spring, after which the female likely moves into deeper waters to &lt;a href="/wiki/Marine_larval_ecology" title="Marine larval ecology"&gt;incubate and disperse her larvae&lt;/a&gt;. &lt;a href="/wiki/Commercial_fishing" title="Commercial fishing"&gt;Commercial fisheries&lt;/a&gt; have harvested paddle crabs since the 1970s, and &lt;i&gt;O. catharus&lt;/i&gt; is present in &lt;a href="/wiki/M%C4%81ori_culture" title="Māori culture"&gt;Māori culture&lt;/a&gt; as both an artistic motif and as a traditional source of food. &lt;i&gt;(&lt;b&gt;&lt;a href="/wiki/Ovalipes_catharus" title="Ovalipes catharus"&gt;Full article...&lt;/a&gt;&lt;/b&gt;)&lt;/i&gt;
-&lt;/p&gt;
-&lt;div class="tfa-recent" style="text-align: right;"&gt;
-Recently featured: &lt;div class="hlist inline"&gt;
-&lt;ul&gt;&lt;li&gt;&lt;a href="/wiki/SMS_Pommern" title="SMS Pommern"&gt;SMS &lt;i&gt;Pommern&lt;/i&gt;&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;i&gt;&lt;a href="/wiki/Julio_and_Marisol" title="Julio and Marisol"&gt;Julio and Marisol&lt;/a&gt;&lt;/i&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="/wiki/Mechanical_Turk" title="Mechanical Turk"&gt;Mechanical Turk&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;
-&lt;/div&gt;&lt;/div&gt;
-&lt;div class="hlist tfa-footer noprint" style="text-align: right;"&gt;
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:Today%27s_featured_article/December_2025" title="Wikipedia:Today's featured article/December 2025"&gt;Archive&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a class="extiw" href="https://lists.wikimedia.org/postorius/lists/daily-article-l.lists.wikimedia.org/" title="mail:daily-article-l"&gt;By email&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a class="mw-redirect" href="/wiki/Wikipedia:Featured_articles_(linked_from_TFAfooter)" title="Wikipedia:Featured articles (linked from TFAfooter)"&gt;More featured articles&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:About_Today%27s_featured_article" title="Wikipedia:About Today's featured article"&gt;About&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;
-&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="overflow: hidden; padding-bottom: 56.25%;"&gt;&lt;/div&gt;
-                &lt;p&gt;What makes the human brain capable of creativity?&lt;/p&gt;
-&lt;p&gt;Neuroscientist David Eagleman, creativity researcher Scott Barry Kaufman, and productivity expert Tiago Forte each explore a different part of the puzzle: how humans evolved additional cortical “space,” how imagination builds on the knowledge we gather, and how organizing your thoughts in a “second brain” helps ideas take shape. Together, their perspectives explain why creativity depends on storing, combining, and transforming the raw material we collect over time.&lt;/p&gt;
-&lt;p&gt;This video &lt;a href="https://bigthink.com/perception-box/your-brains-creativity-explained/" rel="nofollow"&gt;3 experts explain your brain’s creativity formula&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2023/12/geminid2.jpg?w=640" /&gt;&lt;p&gt;Like clockwork, there are a series of celestial events and sights that reappear at the same time with each passing year. The Earth, revolving around the Sun in its orbit, not only sees the night sky&amp;#8217;s constellations and deep-sky objects change along with its relative position to the Sun, but also encounters barely visible debris streams from volatile orbiting bodies — comets and asteroids — at predictable intervals throughout the year. The asteroids and comets orbit the Sun, heating up when they draw near, causing them to outgas, break apart, and emit particles. Those particles get stretched into the shape of the invisible ellipse that traces out their orbits, and when Earth passes through those ellipses, we get the same meteor showers year after year.&lt;/p&gt;
-&lt;p&gt;January&amp;#8217;s Quadrantids, April&amp;#8217;s Lyrids, August&amp;#8217;s Perseids, October&amp;#8217;s Orionids, and November&amp;#8217;s Leonids are among the most famous recurrent meteor showers, with the Perseids having been hailed for centuries as Earth&amp;#8217;s most reliable meteor shower. But in recent years, the story has changed, as a relatively new meteor shower now frequently outshines the Perseids in terms of the highest rates of meteors at its peak: December&amp;#8217;s Geminids. This December, they peak on the night of December 13th and in the pre-dawn hours of December 14th, and many are expecting around 150 meteors-per-hour (or 2-to-3 meteors per minute) at that peak. Here&amp;#8217;s what you need to know to enjoy this year&amp;#8217;s show to the fullest.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="geminid meteor shower link asteroid 3200 phaethon" class="wp-image-157127" height="480" src="https://bigthink.com/wp-content/uploads/2021/12/154712_451340971591801_1016956116_n.png?w=852" width="852" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;In 2012, a network of all-sky cameras not only tracked the streaks left by more than 300 Geminid meteors, but NASA scientists were able to reconstruct the orbits of those meteors, determining that every single one of them was consistent with originating from asteroid 3200 Phaethon: precisely as predicted by John Couch Adams&amp;#8217; theory linking meteor showers with a periodic parent body.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.facebook.com/photo.php?fbid=451340971591801" target="_blank"&gt;Credit&lt;/a&gt;: NASA&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;Whereas most meteor showers arise from comets — the volatile icy bodies populating our Kuiper belt that take a gravitational plunge into the inner Solar System — the Geminds are unusual for arising instead from an asteroid: &lt;a href="https://en.wikipedia.org/wiki/3200_Phaethon"&gt;3200 Phaethon&lt;/a&gt;. Comets frequently have tails while asteroids almost never do, but it&amp;#8217;s a long-repeated myth that the tails of these objects are what creates the meteor showers that we see on Earth. Instead, what happens is the following:&lt;/p&gt;
-&lt;ul class="wp-block-list"&gt;
-&lt;li&gt;As the object approaches near to the Sun, the combination of solar radiation, solar wind particles, and the Sun&amp;#8217;s gravity causes the object to (even if slightly) fragment and break apart.&lt;/li&gt;
-&lt;li&gt;The tiny pieces that become part of a tail are blown away, out of the Solar System, while the tiny pieces that aren&amp;#8217;t part of either the dust or ion tail remain in the same orbit as the main parent nucleus, except are slightly either ahead of or behind the main body.&lt;/li&gt;
-&lt;li&gt;Over time and many, many subsequent orbits, those co-orbiting fragments get stretched out to occupy the entire orbit of the main body, creating a debris stream.&lt;/li&gt;
-&lt;li&gt;And finally, when Earth passes through that debris stream, which it does at the same relative location in its orbit year after year, those fragments create a meteor shower as they burn up in Earth&amp;#8217;s atmosphere.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;That&amp;#8217;s the origin of meteor showers, as &lt;a href="https://bigthink.com/starts-with-a-bang/cosmic-redemption-astronomer-john-couch-adams/"&gt;first proposed by John Couch Adams&lt;/a&gt; in the 1800s and verified with the linking of November&amp;#8217;s Leonids with its parent body: &lt;a href="https://en.wikipedia.org/wiki/55P/Tempel%E2%80%93Tuttle"&gt;Comet Tempel-Tuttle&lt;/a&gt;.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="asteroid 3200 phaethon tracked" class="wp-image-157132" height="400" src="https://bigthink.com/wp-content/uploads/2021/12/960x0.gif?w=719" width="719" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This time lapse animated photograph shows asteroid 3200 Phaethon, tracked from Riga, Latvia, in 2017. This is the parent body of the Geminid meteor shower: an asteroid just 5.8 km in diameter, approximately the size of the asteroid that catastrophically struck Earth some 65 million years ago. The farther an object is from us, the more observations we need over long time periods to determine its future trajectory.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://en.wikipedia.org/wiki/3200_Phaethon#/media/File:Asteroid_3200_Phaethon_(1983_TB).gif" target="_blank"&gt;Credit&lt;/a&gt;: Ingvars Tomsons/Wikimedia Commons&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;For the Geminids, however, they aren&amp;#8217;t created by a long-period comet, but rather by a short-period asteroid: 3200 Phaethon, as you can see above. This asteroid doesn&amp;#8217;t exhibit a tail at all, and appears to be an extremely quiet body itself. It shows no signs of a coma, exhibits no visible or detectable debris coming off of it, and appears more like a single, solitary point of light to our telescopes and instruments that can observe it. There&amp;#8217;s no observable outgassing, volatiles getting sublimated, or particles being emanated from this parent body, which likely means all of its ices were depleted long ago.&lt;/p&gt;
-&lt;p&gt;And yet, over the past 40-45 years, the Geminids — which result from the debris stream of asteroid 3200 Phaethon — have intensified significantly. Just a few decades ago, the peak of the Geminids maxed out at about 50 meteors-per-hour, or less than one meteor per minute. But over the past 10 years, the average peak of the Geminids has exceeded 120 meteors-per-hour, or more than double that earlier rate.&lt;/p&gt;
-&lt;p&gt;What&amp;#8217;s the cause of this intensification?&lt;/p&gt;
-&lt;p&gt;It&amp;#8217;s the slow, gradual destruction of the parent body itself. As it passes close to the Sun, asteroid 3200 Phaethon experiences tidal forces, which slowly tear pieces of the asteroid apart. This was originally a speculative and theoretical idea, but infrared observations of the parent bodies of meteor showers have confirmed it spectacularly. We can observe asteroids and comets fragmenting apart, creating small particles of debris that co-orbit with the parent body. Over time and many orbits, these particles stretch out and fill the parent body&amp;#8217;s orbital path, ensuring that as Earth crosses it, a meteor shower ensues.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="spitzer comet debris stream" class="wp-image-157131" height="552" src="https://bigthink.com/wp-content/uploads/2021/12/https___blogs-images.forbes.com_startswithabang_files_2017_12_1_gN392fZDLF47sT7nGIVHgg.jpg?w=800" width="800" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;As they orbit the Sun, comets and asteroids typically break up over time, with debris between the chunks along the path of the orbit getting stretched out to create debris streams. These streams cause meteor showers when the Earth passes through that debris stream: with younger showers having more concentrated debris streams around the parent body&amp;#8217;s nucleus and older showers having a more uniform debris stream. This image taken by Spitzer along a comet&amp;#8217;s path shows small fragments outgassing, but also shows the main debris stream that gives rise to the meteor showers that occur in our Solar System.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:Comet_Stepping_Stones.jpg" target="_blank"&gt;Credit&lt;/a&gt;: NASA/JPL-Caltech/W. Reach (SSC/Caltech)&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;The current record for &lt;a href="https://en.wikipedia.org/wiki/Geminids#Radiant" rel="noreferrer noopener" target="_blank"&gt;meteor rates during the Geminids&lt;/a&gt; was set during the 2014 shower, where we more than doubled the predicted rate of ~120 meteors-per-hour, observing a whopping ~253 meteors-per-hour at its peak. The Geminids have outperformed expectations periodically: again in 2017 and 2020, for example. The peak rate of meteors from any shower is known as the ZHR: the Zenith Hourly Rate. If the radiant of the meteor shower — or the location in the sky where meteor shower appears to emerge from — is directly overhead (at the zenith), then the ZHR tells you how many meteors-per-hour you should be able to see across the entire sky.&lt;/p&gt;
-&lt;p&gt;If all we care about is the debris entering Earth&amp;#8217;s atmosphere, we should expect the Geminid meteor shower to keep increasing, year-after-year. As the parent body of the shower continues to disintegrate, the debris stream thickens and becomes denser. The asteroid 3200 Phaethon takes about 18 months to orbit the Sun, while Earth takes 12, meaning that every three years, they return to the same relative position. Therefore, you&amp;#8217;d expect that if 2014 was a record-setting year, then 2017, 2020, 2023, and next, 2026, would break or extend that record whenever they arrived.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Geminids" class="wp-image-157133" height="720" src="https://bigthink.com/wp-content/uploads/2021/12/https___specials-images.forbesimg.com_imageserve_5fced5d32cf88d00f37c0c7d_This-composite-of-the-Geminid-meteor-shower-was-taken-over-the-course-of-one-night-_960x0.jpg?w=960" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This composite of the Geminid meteor shower was taken over the course of one night during the peak, December 13/14, in 2017. It was captured by the All-sky Meteor Orbit System in Tenerife, Spain. Approximately every three years, Earth makes three revolutions while the parent body of the Geminids (3200 Phaethon) makes two, resulting in above-average shows during these years. 2026 will mark the next such year.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.futura-sciences.com/sciences/questions-reponses/astronomie-etoiles-filantes-2020-plus-beaux-essaims-meteoritiques-annee-8788/" target="_blank"&gt;Credit&lt;/a&gt;: Juraj Toth, Amos Team&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;That hasn&amp;#8217;t been the case, however, and there&amp;#8217;s an insidious reason as to why: light pollution. In the case of a meteor shower, it isn&amp;#8217;t the local light pollution that can &amp;#8220;dim&amp;#8221; the Zenith Hourly Rate, as you can always move to a dark sky location to get a better set of observations. As viewed from Earth, however, there&amp;#8217;s something that we cannot &amp;#8220;subtract&amp;#8221; from the sky no matter where we go on our world: the Moon.&lt;/p&gt;
-&lt;p&gt;A full or near-full Moon can serve as a tremendous source of light pollution whenever it&amp;#8217;s in the sky, capable of transforming even a dark sky site into a sky that&amp;#8217;s no better than one found near a large city. Remember, meteors are brief streaks of dust particles burning up in Earth&amp;#8217;s atmosphere, and the brighter the overall sky is, the harder it is to see these brief streaks of light.&lt;/p&gt;
-&lt;p&gt;Dark skies are key to getting a good meteor shower, and if the Moon is present in the sky — especially if it&amp;#8217;s near the full phase or if its location is close to the meteor shower&amp;#8217;s radiant — the amount of &amp;#8220;darkness&amp;#8221; you&amp;#8217;ll be able to achieve is severely limited. The Bortle scale, illustrated below, provides a measure of how pristine or dark your night sky can be. All by itself, a full Moon can take an otherwise pristine sky, like a 1-to-3 on the Bortle scale, and transform it into a 7 or 8, making the conditions for viewing a meteor shower far less than ideal. 2016&amp;#8217;s Geminids had to contend with a 100% full Moon, and the ZHR was pathetic: just 25-per-hour at the peak.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A composite image showing the progression of light pollution across different night skies, from an excellent dark sky site on the left to a brightly lit inner city sky on the right." class="wp-image-509800" height="720" src="https://bigthink.com/wp-content/uploads/2024/07/How_light_pollution_affects_the_dark_night_skies_dark-skies_flipped_left-right.jpg?w=1280" width="1280" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;Under a pristine night sky, the Milky Way&amp;#8217;s center casts shadows. As light pollution worsens, nebulosity and stars disappear, until maybe a few dozen stars remain. The numbers 1 through 9 are the Bortle scale, which provides observers with a metric to measure the darkness and clarity of the sky overhead at their location. Only a few locations remain on Earth with pristine, dark skies. A full Moon, by itself, can provide brightness equivalent to a 7 or 8 on this scale.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:How_light_pollution_affects_the_dark_night_skies_(dark-skies)_(flipped_left-right).jpg"&gt;Credit&lt;/a&gt;: ESO/P. Hor&amp;aacute;lek; M. Wallner&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;In 2026, when the next &amp;#8220;three year peak&amp;#8221; arrives,&amp;#8221; the Moon will set relatively early: about 10 PM, meaning that the best viewing will occur from around 11 PM until around 4 AM, when skies are darkest. However, this year, in 2025, even though it&amp;#8217;s a non-peak year, it will be the earlier viewing that creates the best views. That&amp;#8217;s because the conditions on the night of December 13th/morning of December 14th will see a last quarter Moon: a Moon that won&amp;#8217;t rise until between 2 and 3 AM, depending on your location on Earth.&lt;/p&gt;
-&lt;p&gt;That means, for the first part of the night, there won&amp;#8217;t be a Moon in the skies at all. Once the skies darken and the constellations of Orion and Gemini rise high in the sky, viewing for the meteor shower will be ideal. Although the predicted ZHR for this year&amp;#8217;s Geminids is &amp;#8220;only&amp;#8221; about 150 per hour, the best time for seeing the most Geminid meteors will be from about 10-11 PM until just before moonrise, or around 2-2:30 AM.&lt;/p&gt;
-&lt;p&gt;Although you can theoretically see Geminid meteors anywhere in the sky, my recommendation is to get out a lounge chair or blanket (and warm clothes!) and to simply look up in the general direction of the twin stars: Castor and Pollux. The Geminid meteors will all appear to radiate outward from one central point: the meteor shower&amp;#8217;s radiant.&lt;/p&gt;
-&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Night sky with labeled stars and constellations; eight red arrows radiate from a point near Castor and Pollux, directed outward in different directions." class="wp-image-580790" height="579" src="https://bigthink.com/wp-content/uploads/2025/12/gem_every_radiant.jpg" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The Geminid meteors all appear to originate from the same point in the sky: the radiant. Meteor showers are named after the constellation in which the radiant is placed, corresponding to the portion of the sky that intersects with Earth&amp;rsquo;s motion, causing the meteors to appear there. While only a small percentage of skywatchers can recognize the constellation of Gemini, marked by the twin stars Castor and Pollux, the nearby and much more widely-recognized Orion can serve as a guide.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="http://stellarium.org/"&gt;Credit&lt;/a&gt;: E. Siegel/Stellarium&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;A few decades ago, the Perseids were the only reliable meteor shower in town: spectacular year after year regardless of conditions. However, as Comet Swift-Tuttle, the parent body of the Perseids, travels farther and farther from the Sun, the rate of Perseid meteors has slowly but steadily dropped, while the rate of the Geminids has steadily grown. There have been recent years where the Geminids have even topped the Perseids as the leading meteor shower seen from Earth, and 2025 and 2026 both are years where this should happen. December&amp;#8217;s Geminids might be the best meteor shower of the year, and 2026&amp;#8217;s Geminids could provide the most prolific meteor shower of the 21st century so far!&lt;/p&gt;
-&lt;p&gt;Another feature of the Geminids that isn&amp;#8217;t greatly appreciated, but is also worth commenting on, is that its meteors are often multicolored. You&amp;#8217;ll never see &amp;#8220;purple&amp;#8221; or &amp;#8220;pink&amp;#8221; meteors, and there are no &amp;#8220;green&amp;#8221; ones either. However, a great many colors can be represented in a Geminid show, from red to orange to yellow to white and even a cyan-like blue. In collaboration with Big Think, I&amp;#8217;ve created an infographic to help illustrate some of the most amazing &amp;#8220;must-know&amp;#8221; facts so that you can enjoy the December Geminids to the fullest!&lt;/p&gt;
-&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Infographic with facts about the 2025 Geminids meteor shower, including peak times, viewing tips, and related celestial objects, set against space-themed illustrations." class="wp-image-580791" height="9926" src="https://bigthink.com/wp-content/uploads/2025/12/gem2025.jpg" width="3334" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This infographic shows vital stats and information about the 2025 Geminid meteor shower, including where to look and what to expect. With a peak display of approximately 150 meteors-per-hour expected, the best time to view it is after the sky darkens and the constellation of Gemini rises, but before the Moon rises: between 2 and 3 AM, local time.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;Credit: Big Think&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;Of course, there&amp;#8217;s one type of event that no amount of preparation can really protect you against: cloud cover on the peak night of the meteor shower. As is always the case in astronomy, clouds are a roll of the dice. If the weather cooperates, you’ll have a good show, but if it’s cloudy, you’ll have the same experience that many professional astronomers sometimes do of being “clouded out” of your astronomical hopes: you won&amp;#8217;t be able to see anything at all, and your only recourse is to go somewhere else, to rely on the observations of others who have better luck with cloud cover, or to wait for the next observing opportunity. (Which, in the case of the Geminids, won&amp;#8217;t arrive until next year.)&lt;/p&gt;
-&lt;p&gt;Sure, you can technically see Geminids for weeks on either side of the peak, but its peak remains narrowly collimated. Instead of 20-40 meteors-per-hour, which is what you might see within a day or two of the peak, seeing 100-150 (or even more) meteors-per-hour at the peak provides a notably improved experience. It was really in the mid-2000s that the Geminids began to become a more prolific meteor shower in Earth&amp;#8217;s night skies, and it&amp;#8217;s now — along with the Perseids — one of the two reliably spectacular meteor shower displays that graces Earth annually. In 2025, the Geminids may yet shape up to be the greatest natural show of the year!&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Geminids" class="wp-image-157130" height="900" src="https://bigthink.com/wp-content/uploads/2021/12/50787860457_bc795e5f94_o.jpg?w=1600" width="1600" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;2020 was an excellent year for Geminid meteors, as captured in this composite during the night of the peak by Jeff Sullivan. While the shower is typically at its best every three years, the &amp;#8220;off years&amp;#8221; have recently also been remarkable as well, with 2021&amp;#8217;s and 2022&amp;#8217;s Geminids peaking at over 100 meteors-per-hour at the maximum. For 2025, the Geminids may well be the best meteor shower of the year, but 2026&amp;#8217;s Geminids may explode as the best of the 21st century so far.&lt;/div&gt;&lt;figcaption&gt;
-&lt;p&gt;&lt;a href="https://www.flickr.com/photos/jeffreysullivan/50787860457" rel="noopener" target="_blank"&gt;Credit&lt;/a&gt;: Jeff Sullivan/flickr&lt;/p&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;This is pretty remarkable for a meteor shower that&amp;#8217;s relatively new to the game. Whereas the Perseids go back thousands of years, the Geminids were only first spotted in the year 1862. Initially, they were merely a modest meteor shower, with relatively small numbers of meteors that were described as somewhat faint. Even though their faintness has persisted, with the average Geminid perhaps +2 astronomical magnitudes fainter than a typical Perseid, their numbers have increased. Here in the 2020s, it&amp;#8217;s the Geminids, not the Perseids, that have been the most reliably productive meteor shower in our skies.&lt;/p&gt;
-&lt;p&gt;And all of this suggests something fascinating: the notion that the orbital path that the parent body is on, asteroid 3200 Phaethon, is relatively new. It&amp;#8217;s plausible that a gravitational interaction with one of the planets — perhaps even Earth itself — recently interacted with the asteroid, setting it into its current orbit relatively recently. Incredible, then, that the debris stream it&amp;#8217;s generated has already grown so uniform, and perhaps this is an indication that the recent increase in Geminid activity is an early sign of further growth still to come. The 2025 Geminids could be the best of the year, but in future years, the Geminids may even become the best shower of all-time!&lt;/p&gt;
-&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/2025s-geminids-best-meteor-shower/" rel="nofollow"&gt;2025&amp;#8217;s Geminids will be the best meteor shower of the year&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="overflow: hidden; padding-bottom: 56.25%;"&gt;&lt;/div&gt;
-                &lt;p&gt;At &lt;em&gt;A Night of Awe and Wonder&lt;/em&gt;, marine biologist David Gruber, founder of  Project CETI and a National Geographic Explorer, traces the extraordinary journey linking humans and whales, from our shared ancestors to what we’re learning about their rich underwater communications. Through wartime recordings, bioacoustics pioneers, and cutting-edge AI, he shows how scientists are attempting to decode the phonetic alphabet of sperm whales and begin translating their ancient language. Gruber argues that understanding whale communication could reshape our sense of intelligence, ourselves, and our connection to life on Earth.&lt;/p&gt;
-&lt;/p&gt;
-&lt;p&gt;This video &lt;a href="https://bigthink.com/the-well/could-we-speak-with-whales/" rel="nofollow"&gt;How whales became the poets of the ocean&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/11/Hypocrisy_Trap_Excerpt.jpg?w=640" /&gt;&lt;p&gt;Sometimes accusations of hypocrisy fail to hit home: People don’t seem too bothered by them. Here are four cases that start to unpick the view that we simply hate hypocrisy and instead show that there’s something else going on.&lt;/p&gt;
-&lt;h2 class="wp-block-heading" id="h-the-virtuous-hypocrite"&gt;The virtuous hypocrite&lt;/h2&gt;
-&lt;p&gt;Noel Biderman founded &lt;a href="https://en.wikipedia.org/wiki/Ashley_Madison"&gt;Ashley Madi&lt;/a&gt;&lt;a href="https://en.wikipedia.org/wiki/Ashley_Madison" rel="noreferrer noopener" target="_blank"&gt;s&lt;/a&gt;&lt;a href="https://en.wikipedia.org/wiki/Ashley_Madison"&gt;on&lt;/a&gt;, a website designed to enable affairs. What if he were faithful in his private life, despite publicly promoting infidelity? Such a scenario contains what many consider the main ingredients of hypocrisy: failing to practice privately what one preaches publicly.&lt;/p&gt;
-&lt;p&gt;A study tested whether people would agree. It showed one group of people an article about Biderman that simply mentioned he had promoted adultery; a separate group saw the article with additional information that it had been discovered that Biderman was personally faithful in private.&lt;/p&gt;
-&lt;p&gt;As expected, this second group rated Biderman as much more hypocritical, but they also saw him in a much more positive and praiseworthy light. Discovering hypocrisy doesn’t always move judgments in a negative direction. You can benefit from an action that creates hypocrisy if people think it is admirable on its own terms.&lt;/p&gt;
-&lt;p&gt;This may seem like a contrived example. Surely people go around concealing their vices, not their virtues? But hypocrisy is not just about morality—it’s about claims to self-image or status of various kinds. Say you build your personal or corporate brand as a freethinking maverick. If it turns out that you have always played by the rules, that will mark you as an inauthentic hypocrite who nonetheless does the right thing.&lt;/p&gt;
-&lt;figure class="wp-block-embed is-type-rich is-provider-amazon wp-block-embed-amazon"&gt;
-&lt;div class="wp-block-embed__wrapper"&gt;
-&lt;/div&gt;
-&lt;/figure&gt;
-&lt;h2 class="wp-block-heading" id="h-the-relatable-hypocrite"&gt;The relatable hypocrite&lt;/h2&gt;
-&lt;p&gt;Not practicing what you preach may make that preaching more effective. For example, some doctors emphasize their commitment to exercising and being healthy. It turns out that doing this goes down badly with overweight people who are concerned about their weight. They are more likely to avoid fitness-focused doctors because they worry that such doctors will be disapproving and judgmental. Sedentary doctors may be hypocrites, but that’s okay if you think it makes them more relatable or insightful about the struggle to be healthy — or if your main fear is being looked down on.&lt;/p&gt;
-&lt;p&gt;It’s unfortunate that overweight and obese doctors are the least likely to discuss weight loss with patients and feel less confident in doing so. They may not realize that they can be the most effective advocates for those in greatest need. Instead, fear of appearing hypocritical may be holding them back. Important things are left unsaid.&lt;/p&gt;
-&lt;p&gt;This dislike of the virtuous reflects a tendency called “do-gooder derogation.” We can feel resentful when others get social credit, since their rise lowers our relative standing. If that person is then exposed as a hypocrite, our fury intensifies. Yet this same tendency can lead us to prefer fallible hypocrites over unyielding zealots — if they are upfront about their flaws.&lt;/p&gt;
-&lt;p&gt;Take climate activists. Imagine that you are talking to someone who claims that they are in the top 1% for efficiency of household energy consumption, doesn’t eat meat or cheese, and avoids flying. How credible would you find them as an advocate for making changes in your own behavior?&lt;/p&gt;
-&lt;p&gt;It turns out that this person isn’t more effective than someone whose energy consumption is only in the top 50 percent for efficiency, who has cut down but not stopped eating meat, and who just avoids flying whenever possible. In fact, the ultra-sustainable person is slightly less persuasive. They are seen as extreme and unrelatable, even though they are living up to their principles fully.&lt;/p&gt;
-&lt;h2 class="wp-block-heading" id="h-the-principled-hypocrite"&gt;The principled hypocrite&lt;/h2&gt;
-&lt;p&gt;Big claims can bring benefits. Leaders who make moral arguments seem more authentic and inspire more commitment in their followers. Caring about issues makes you seem like you have integrity and can be trusted. Do all these benefits just evaporate when hypocrisy comes to light?&lt;/p&gt;
-&lt;p&gt;New evidence suggests not. In fact, if someone states their principles strongly and then falls short, they may end up looking better than someone who gives more pragmatic messages from the start.&lt;/p&gt;
-&lt;p&gt;This finding emerges from a study where people were asked to judge a fictional politician from the party they supported. One group heard that he had taken a firm position that lying is never okay. The other group was told that he had stated a more flexible position: that “it’s sometimes okay to lie.” Everyone then discovered that the politician had lied about the source of his campaign donations. &lt;/p&gt;
-&lt;p&gt;When he had taken a strong stance on lying, he was (unsurprisingly) rated as more hypocritical. What’s interesting, however, is that he was also seen as more moral, and people were more inclined to vote for him than his flexible incarnation! It seems that the benefits of having staked out a clear moral position were not completely lost when it was violated.&lt;/p&gt;
-&lt;p&gt;To be clear: The hypocritical politician did go down in people’s estimation. There was a hypocrisy penalty. It’s just that the pragmatic politician had already taken an even bigger hit by not committing to absolute moral principles up front. People disliked someone saying “it’s sometimes okay to lie” so much that even the exposure of the moral politician as a hypocrite didn’t bring him down to the same level. What seems to be happening here is that people trust the person’s original strong stance as a reliable signal that they will be honest in the future, even if their behavior doesn’t show that. Even repeated lies don’t seem to shift that perception. In contrast, a flexible stance seems to give the general impression that you are a slippery person.&lt;/p&gt;
-&lt;h2 class="wp-block-heading" id="h-the-reasonable-hypocrite"&gt;The reasonable hypocrite&lt;/h2&gt;
-&lt;p&gt;Anyone who has run a business or a team will know the constant pressure to balance values, priorities, and commitments that conflict with each other. You may genuinely believe in a range of jostling principles; different parts of your life can bring varying demands.&lt;/p&gt;
-&lt;p&gt;Viewed this way, avoiding hypocrisy can be like asking us to be faithful to one thing at the expense of all others. That expectation can seem unrealistic and unreasonable. Take the case of an ardent vegetarian who politely praises their grandmother’s treasured meat stew when it appears in front of them. On the one hand, they believe in vegetarianism; on the other, they can’t bear to insult and upset their grandmother. Only 30% of people think that this behavior is hypocritical, perhaps because they think the vegetarian has done the right thing. We tell white lies all the time.&lt;/p&gt;
-&lt;p&gt;Indeed, making these trade-offs may be seen as the decent, human thing to do. The philosopher Peter Singer has been an advocate for acting according to rules that are counterintuitive and unemotional. For instance, he believed that euthanasia could be justified in some cases of dementia. Yet when his own mother became severely ill with Alzheimer’s disease, he and his sister paid for a team of helpers to look after her at home. That decision seems more like a reason to praise Singer than to condemn him. &lt;/p&gt;
-&lt;p&gt;As he said, “Perhaps it’s more difficult than I thought before, because it’s different when it’s your mother.”&lt;/p&gt;
-&lt;p&gt;Given the shifting range of demands we face, what some people push as hypocrisy may start to look like a reasonable compromise. Many media stories consist solely of claims about someone’s inconsistency, even if those claims are tenuous. An animal rights activist accepts a drug tested on animals to save her own life. A tech CEO strictly limits his children’s access to the products he built. Working too hard to get outrage in this way may just lead people to shrug and think, “So what?”&lt;/p&gt;
-&lt;p&gt;This article &lt;a href="https://bigthink.com/books/the-types-hypocrites-we-like/" rel="nofollow"&gt;The 4 types of hypocrites (that we actually like)&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/tim-oreilly_compressed.jpg?w=640" /&gt;&lt;p&gt;What is the fundamental human skill? It’s riding the crest of change and embracing the unknown, says Tim O&amp;#8217;Reilly, tech trend visionary and CEO of O’Reilly Media. He “imbibed” this idea from sci-fi writer Frank Herbert (&lt;em&gt;Dune&lt;/em&gt;) in the 1970s and has been “surfing the edge” of change ever since.&lt;/p&gt;
-&lt;p&gt;Tim founded Global Network Navigator (GNN), the first ever commercial web portal, and sold it to AOL in 1995. He went on to become one of Silicon Valley’s most influential thinkers, known for popularizing the phrases “open source” and “Web 2.0” among others. O’Reilly Media — which Tim started over 40 years ago — has provided business and tech training to millions of users and currently serves over 5,000 companies worldwide.&lt;/p&gt;
-&lt;p&gt;He has long argued that technology can create new jobs rather than laying people off – it’s a key theme in his 2017 book &lt;em&gt;WTF? What’s the Future and Why It’s Up to Us&lt;/em&gt;. Despite evidence this year that AI&lt;em&gt; has &lt;/em&gt;been wiping out jobs, especially for younger workers, Tim is optimistic people can adapt quickly and flourish in an automated world. &lt;/p&gt;
-&lt;p&gt;So we asked him — how can humans stay ahead of the game?&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; Rather than creating employment, AI is in some respects killing it, according to 2025 &lt;a href="https://bigthink.com/business/are-young-workers-canaries-in-the-ai-coal-mine/" rel="noreferrer noopener" target="_blank"&gt;Stanford research&lt;/a&gt;. What’s gone wrong?&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;AI is not taking jobs: the decisions of people deploying it are. We&amp;#8217;re concentrating value in the hands of people who use it to gamble on share prices. Venture capitalists (VCs) are treating companies like financial instruments they can trade for a profit by consciously whipping up a media bubble rather than fostering real growth. These Silicon Valley hype-meisters should be ashamed of themselves.&lt;/p&gt;
-&lt;p&gt;The message in my book &lt;em&gt;WTF&lt;/em&gt; is more relevant than ever — to look at this extractive pattern and do something about it now. If we valued companies that made real-world profits and reinvested them in solving problems — such as caring for aging populations, reducing working hours, advancing medicine — AI would create opportunities and new work.&lt;/p&gt;
-&lt;p&gt;One solution is to lower taxes for employing people, rather than automating them out of existence, and raise taxes on extractive capital gains.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; Should corporate leaders be responsible for protecting jobs from AI and how can they do that?&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;A society that uses automation to “build shareholder value” while impoverishing everyone else will not be successful. Some companies have trumpeted how they’ve used AI to lay off employees. They’ve missed the point. If you replace humans with AI, it won&amp;#8217;t make customer service better. You have to integrate the two to improve service.&lt;/p&gt;
-&lt;figure class="wp-block-pullquote"&gt;
-&lt;blockquote&gt;
-&lt;p&gt;Some companies have trumpeted how they’ve used AI to lay off employees. They’ve missed the point.&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;/figure&gt;
-&lt;p&gt;Corporate leaders can start by listing all the things you wish you could do for your customers, but couldn&amp;#8217;t afford. For example, at O&amp;#8217;Reilly, we&amp;#8217;re using AI to increase the content we can translate, into many more languages than before, increasing our addressable market. We are building more personalized learning paths for users, and creating tools for corporate customers to accelerate their employees&amp;#8217; skills and career paths.&lt;/p&gt;
-&lt;p&gt;In our business, we&amp;#8217;ve experienced headwinds from potential customers saying &amp;#8220;we won&amp;#8217;t need to train programmers because AI will do the job.&amp;#8221; The hiring prospects for junior programmers looked bleak for a while. But we&amp;#8217;ve recently seen reports that even frontier labs are hiring junior programmers again, because they are quick to become more productive with the new tools.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; Is an AI-led market crash imminent?&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;The stock market is overvalued and due a correction. But bubbles can last longer than you think. After selling GNN for cash and stock options, I thought I had to get out quickly and realized my options for a tiny fraction of the $1 billion they would have been worth at the peak, a few years later. So the bubble will go for a while yet. But I do worry about some of the massive investment commitments that have been made.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; How might the bubble finally go pop?&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;A lot could go wrong. The immense energy requirements of AI could lead to delays. Reluctant people will bet on their old business models. For example, at GNN we tried to get book publishers and phone companies to take the internet seriously, but they wouldn&amp;#8217;t, or took several years to start thinking about it.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Some US AI labs have pushed this narrative that we need massive investment to reach artificial general intelligence (AGI) [which can perform any task a human can], or super intelligence [AI surpassing human brain power] — with the notion that it&amp;#8217;s a winner-takes-all race. But Chinese businesses are showing you can build models very close to state-of-the-art for much less. US companies counting on monopoly rents would instead compete in a commoditized market, making it impossible to ever recoup their costs.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; What are the biggest pieces of nonsense about AI you&amp;#8217;ve encountered recently?&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;The idea that previously software was a tool, now it&amp;#8217;s a worker. That&amp;#8217;s been true for a long time — software was doing work long before AI. It’s all in service of the narrative that this technology is different from anything before it.&lt;/p&gt;
-&lt;p&gt;Another big nonsense is how imminent AGI is — or &amp;#8220;AI becomes super intelligent and, bang, everything is different,&amp;#8221; with complete lack of real-world perspective or understanding of what needs to happen first. AI is not singular, it’s “normal technology.” There are still laws of physics, things to be built, and many constraints. We have a long way to go.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; What’s your advice for business leaders in this hype-led environment?&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;AI is a transformative technology, and we will learn how to make money with it. So you have to invest. But figure out how it &lt;em&gt;really&lt;/em&gt; impacts your business and don&amp;#8217;t buy the hype. Plan scenarios and develop a robust strategy that can survive in multiple circumstances. When the bubble bursts, you want to be making things that genuinely improve your customers’ lives. The market will eventually reward people doing the real stuff.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; What effect does the rise of “post-literate” media like YouTube and TikTok have on the learning environment?&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;YouTube is a fabulous resource but doesn’t live up to its potential for learning content because of its advertising model. For example, most videos contain five minutes of filler so they can be long enough to attract advertising. We’ll see this friction with large AI companies too if they settle on an advertising model. It’s one of the things I worry about most with artificial intelligence.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; You co-lead the AI Disclosures Project, which addresses societal dangers from commercialization of the technology. What are the challenges and how can we manage them?&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;Platforms monetize attention, often in ways that are against users’ interests. We remember when social media sites were good for following your friends and family. Now they’re continually pushing other stuff at you.&lt;/p&gt;
-&lt;figure class="wp-block-pullquote"&gt;
-&lt;blockquote&gt;
-&lt;p&gt;I keep urging my company to think &amp;#8220;AI first&amp;#8221; — try to do the job better in new ways.&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;/figure&gt;
-&lt;p&gt;The project initially asked: What if companies had to disclose metrics, as part of their SEC reporting, showing how their platforms operated before this process of “&lt;a href="https://en.wikipedia.org/wiki/Enshittification" rel="noreferrer noopener" target="_blank"&gt;enshittification&lt;/a&gt;”? There’s a whole lot we could be doing to make AI protocols that promote safety and the interests of users, not just providers.&lt;/p&gt;
-&lt;p&gt;Also, in copyright, we’re trying to figure out if protocols can say, &amp;#8220;You want to use my content? Pay me for it.&amp;#8221;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; In the 1970s, you wrote a book about science-fiction author Frank Herbert. Are any of his ideas still relevant to you today?&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;All of them. Herbert’s famous line from the novel &lt;em&gt;Dune&lt;/em&gt; is still true: &amp;#8220;Fear is the mind killer.&amp;#8221; Realizing the future does not have to be like the past and trying to keep it like the past is almost always the wrong strategy. In technology, that means being comfortable with the unknown.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Take those trying to build walls against the AI wave, pretending we can keep it at bay. Or walls against other changes, such as mass immigration, climate change or the aging population, rather than seeing the opportunities. The longer you spend putting up walls, the harder the crash when they fall.&lt;/p&gt;
-&lt;p&gt;Surfing the edge of change today requires balance and responsiveness. With AI, there are no standardized rules — you have to figure out where the edges are for yourself and your business. This is &amp;#8220;get yourself dirty&amp;#8221; work, not something you can do from a distance.&lt;/p&gt;
-&lt;p&gt;It&amp;#8217;s an intensely creative period where we solve existing problems in new ways, and new problems that we couldn&amp;#8217;t handle with previous tools. The answers are different every day because they are still being invented. The invention, diffusion, and learning are a social process.&lt;/p&gt;
-&lt;p&gt;For example, there&amp;#8217;s a temptation to try to fit AI into existing workflows. When apps were invented, &amp;#8220;mobile first&amp;#8221; — design the new thing first, then retrofit the old thing when you understand it — became the watchword. I keep urging my company to think &amp;#8220;AI first&amp;#8221; — try to do the job better in new ways. When you&amp;#8217;ve figured that out, go back and improve or integrate with what you did before.&lt;/p&gt;
-&lt;p&gt;This article &lt;a href="https://bigthink.com/business/surfing-the-edge-tim-oreilly-on-how-humans-can-thrive-with-ai/" rel="nofollow"&gt;&amp;#8220;Surfing the edge&amp;#8221;: Tim O’Reilly on how humans can thrive with AI&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2023/01/springel-e1764622946389.jpg?w=640" /&gt;&lt;p&gt;All throughout the Universe, we can see evidence for not only the &amp;#8220;stuff like us&amp;#8221; that&amp;#8217;s out there, but additional forms of energy that take us beyond the Standard Model of elementary particles and forces. Sure, there&amp;#8217;s plenty of normal matter: things like atoms and ions, made up fundamentally of quarks, gluons, and electrons, just like we are. There are stars and planets, but also gas, dust, plasma, and even black holes made from the same raw ingredients that make us up. There are also photons, or quanta of light, and the nearly invisible neutrinos and antineutrinos, all playing detectable, measurable roles in the evolution of our cosmos.&lt;/p&gt;
-&lt;p&gt;But that doesn&amp;#8217;t explain everything we know is out there contributing to our Universe. We know, from observing galaxies, galaxy clusters, and the large-scale cosmic web, that the dominant form of mass in the Universe is not found in the Standard Model, but instead is a mysterious novel substance that we presently call &amp;#8220;dark matter.&amp;#8221; We know that the Standard Model, with all of its known laws and ingredients, cannot account for the matter-dominated Universe we have, and that some type of new physics must have created the matter-antimatter asymmetry. And we know, from observing the expanding Universe in a variety of ways, that the Universe is actually dominated by a novel form of energy that isn&amp;#8217;t a type of matter or radiation at all: dark energy.&lt;/p&gt;
-&lt;p&gt;We think that we know the general properties of what dark matter is, of what caused baryogenesis, and how dark energy behaves. This creates a picture of our Universe&amp;#8217;s far future that&amp;#8217;s based in the best science we have today. But if any of those things are different from our simple (and perhaps naive) expectations, then our far future could turn out very, very differently from how we currently expect. Here&amp;#8217;s how it breaks down.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Standard Model" class="wp-image-160619" height="660" src="https://bigthink.com/wp-content/uploads/2022/01/https___blogs-images.forbes.com_startswithabang_files_2019_08_cpep.jpg?w=960" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The Standard Model of particle physics accounts for three of the four forces (excepting gravity), the full suite of discovered particles, and all of their interactions. Whether there are additional particles and/or interactions that are discoverable with colliders we can build on Earth is a debatable subject, but there are still many puzzles that remain unanswered, such as the observed absence of baryon number violation, with the Standard Model in its current form.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.cpepphysics.org/fundamental-particles/" target="_blank"&gt;Credit&lt;/a&gt;: Contemporary Physics Education Project/CPEP,  DOE/NSF/LBNL&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;If you want to know the fate of anything in the Universe, you have to understand the physics behind how it evolves over time. For the matter in our Universe, the physics that governs it is different depending on whether it&amp;#8217;s part of a bound structure or not. If it is part of a bound structure, the spacetime that governs its evolution will be non-expanding, and the separation distance between that particle and any other particle that&amp;#8217;s a part of that same system will not be compelled to increase due to the expansion of space in that region. But if that matter particle is not part of a bound structure, then it will recede away from all other bound structures, becoming colder, less dense, and more isolated as time goes on.&lt;/p&gt;
-&lt;p&gt;In the context of the expanding Universe, the clumps of matter that grow large enough, rapidly enough can form these bound structures, and then it&amp;#8217;s the space between those clumps that keeps on not only expanding, but whose expansion accelerates due to the presence of dark energy as time goes on. This leads to a web of cosmic structure, where matter clumps along filaments to produce galaxies and groups of galaxies, and then clusters more significantly at the nexus of various filaments, producing clusters and even multiple merging clusters of galaxies. The in-between regions, however, continue expanding, driving the various isolated galaxies, groups, and clusters apart from one another as time marches on.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="void cluster structure universe" class="wp-image-162880" height="540" src="https://bigthink.com/wp-content/uploads/2022/01/https___blogs-images.forbes.com_startswithabang_files_2019_05_Galaxy_superclusters_and_galaxy_voids-1200x675-1.png?w=960" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;In between the great clusters and filaments of the Universe are great cosmic voids, some of which can span hundreds of millions of light-years in diameter. The long-held idea that the Universe is held together by structures spanning many hundreds of millions of light-years, these ultra-large superclusters, has now been settled, and these enormous web-like features are destined to be torn apart by the Universe&amp;rsquo;s expansion, while the cosmic voids continue to grow. Only individually bound galaxies, groups of galaxies, and clusters of galaxies will persist.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://en.wikipedia.org/wiki/File:Galaxy_superclusters_and_galaxy_voids.png" target="_blank"&gt;Credit&lt;/a&gt;: Andrew Z. Colvin and Zeryphex/Astronom5109; Wikimedia Commons&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;Meanwhile, within any individual bound structure (including our own Local Group of galaxies, with the Milky Way, Andromeda, and the hundreds of smaller galaxies accompanying us), less and less matter flows into them from intergalactic space as the Universe accelerates, placing a cutoff on the total amount of normal matter within it. Over time, the star-formation rate has dropped ever since &amp;#8220;cosmic noon&amp;#8221; was achieved approximately 10-11 billion years ago; it&amp;#8217;s &lt;a href="https://bigthink.com/starts-with-a-bang/decline-fall-stars-universe/"&gt;now at just 3% of what it was at its peak&lt;/a&gt;, and continues to decline. As time continues to pass, not only will the star-formation rate drop further, but eventually, it will slow to a trickle and then stop altogether.&lt;/p&gt;
-&lt;p&gt;Star-formation requires neutral clouds of molecular hydrogen, and the more stars that form, the less hydrogen there is. Winds from new episodes of star-formation can expel atoms and ions from galaxies and send them into intergalactic space, and as the gas and dust population within a galaxy goes down, the prospects for forming new stars decline as well. Even though it may take tens of billions, hundreds of billions, or even many trillions of years, eventually the star-formation rate in whatever our Local Group evolves into will fade away to zero. When the now-existing stars run out of fuel in their cores, they will cease to shine as well.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-155178" height="640" src="https://bigthink.com/wp-content/uploads/2021/11/https___blogs-images.forbes.com_startswithabang_files_2016_09_1280px-Planets_Under_a_Red_Sun-1200x800-1.jpg?w=960" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;If the light from a parent star can be obscured, such as with a coronagraph or a starshade, the terrestrial planets within its habitable zone could potentially be directly imaged, allowing searches for numerous potential biosignatures. In the far future, it&amp;#8217;s these longest-lived, lowest-mass stars that might be the last locations where life likely persists in the Universe, a possibility even hundreds of trillions of years from now.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://images.nasa.gov/details-PIA13994.html" target="_blank"&gt;Credit&lt;/a&gt;: NASA/JPL-Caltech&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;And then, over very long periods of time, everything else will fade away too. The distant, unbound galaxies, groups, and clusters will be accelerated away to beyond the limits of what&amp;#8217;s reachable or communicable with an observer in any one bound structure, rendering them inaccessible. The stellar and planetary remnants within any bound structure will gravitationally interact, leading material to either fall into a central, supermassive black hole or to get ejected from the galaxy entirely: a process which should take between 10&lt;sup&gt;17&lt;/sup&gt; and 10&lt;sup&gt;19&lt;/sup&gt; years, or millions of times the present age of the Universe.&lt;/p&gt;
-&lt;p&gt;The persisting clumps of matter should remain stable, with the non-radioactive elements persisting for all eternity. After around 10&lt;sup&gt;67&lt;/sup&gt; years pass, the lightest black holes will completely decay away, and after around 10&lt;sup&gt;110&lt;/sup&gt; years, the heaviest ones will have decayed away also. This leads to a scenario for the far future Universe known as a heat death, where everything that remains is in its lowest-energy state (the ground state), and from which no further energy will be able to be extracted or used to do work.&lt;/p&gt;
-&lt;p&gt;The Universe will be nothing more than an isolated smattering of bound clumps of mass — mostly dark matter but with occasional clumps of burned out stars and desolate planetary objects — all separated by vast, inaccessible distances that continue to increase as time goes on. That&amp;#8217;s how the Universe ends.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="black hole evaporation" class="wp-image-221905" height="720" src="https://bigthink.com/wp-content/uploads/2022/07/6-29.jpg?w=1280" width="1280" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;When a black hole either forms with a very low mass, or evaporates sufficiently so that only a small amount of mass remains, quantum effects arising from the curved spacetime near the event horizon will cause the black hole to rapidly decay via Hawking radiation. The lower the mass of the black hole, the more rapid the decay is, until the evaporation completes in one last &amp;#8220;burst&amp;#8221; of energetic radiation. The longest-lived black holes will be the most massive, with decay timescales exceeding 10^100 years.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.needpix.com/photo/download/259186/light-flashes-lighting-lights-free-pictures-free-photos-free-images-royalty-free-free-illustrations" target="_blank"&gt;Credit&lt;/a&gt;: ortega-pictures/Pixabay&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;But what if we&amp;#8217;ve assumed something that&amp;#8217;s incorrect? After all, this scenario only works under the best current description of reality as we understand it today. It assumes that:&lt;/p&gt;
-&lt;ol class="wp-block-list"&gt;
-&lt;li&gt;dark matter is a cold, collisionless, non-interacting (except gravitationally) species of massive particle,&lt;/li&gt;
-&lt;li&gt;baryogenesis admitted baryon-violating interactions early on, to create the matter-antimatter asymmetry we observe in our Universe, but that conserves the baryon number today and for all the time afterward, leading to a stable proton,&lt;/li&gt;
-&lt;li&gt;and that dark energy is a cosmological constant, and that its energy density and contribution to the expansion rate of the Universe won&amp;#8217;t change over time.&lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;All three of these assumptions are consistent with every piece of information we&amp;#8217;ve ever collected about the Universe, even if you include the pieces that don&amp;#8217;t quite fit, such as the Hubble tension, the evidence for evolving dark energy, the lack of particle physics hints that take us beyond the Standard Model, or the constraints we have on a variety of plausible baryogenesis scenarios.&lt;/p&gt;
-&lt;p&gt;Nevertheless, there is a tremendous amount of wiggle-room here, and if any one of these three simple (but not necessarily well-established) properties turns out to be wrong, the fate of our whole Universe could be due for a profound cosmic shake-up. Here&amp;#8217;s how new physics, on any of these three fronts, would impact our far future.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A swirling blue nebula-like formation, reminiscent of the Milky Way's youngest features, rotates gracefully against a dark space background." class="wp-image-524689" height="440" src="https://bigthink.com/wp-content/uploads/2024/10/ezgif-2-3c37cb87ef.gif?w=840" width="840" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This supercomputer simulation shows the emergence of a rotating disk after hundreds of millions of years of cosmic evolution from gas and dust; the simulation also includes stars and dark matter, which are not shown here. If the dark matter were visible, it would make an enormous halo much larger, in radius, than the entire size of the image shown here, and would exist irrespective of the stars, gas, and dust inside.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.youtube.com/watch?v=nEqyCvHquMM"&gt;Credit&lt;/a&gt;: R. Crain (LJMU) and J. Geach (U. Herts)&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;1.) What if dark matter has a self-interaction?&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;For as long as it&amp;#8217;s been proposed, people have been looking for ways to detect dark matter. They have looked indirectly, for astrophysical signals and consequences, finding strong evidence in how matter clumps, clusters, and moves within individually bound structures. They&amp;#8217;ve also looked directly, for signs of dark matter particle annihilation (at galactic centers, for example), for interactions with normal matter and with light (both cosmically and within dedicated detectors such as ADMX), and for signatures of dark matter colliding with normal matter particles (through direct detection/recoil experiments).&lt;/p&gt;
-&lt;p&gt;The indirect signatures are overwhelmingly strong; the direct signatures are consistent with a null effect. This means that it&amp;#8217;s eminently plausible, as we currently assume, that dark matter has no interaction with light, normal matter, or itself other than through gravitation alone. If that&amp;#8217;s the case, then sure, some dark matter particles will be ejected from the bound galaxies, groups, and clusters that they form giant, diffuse halos around, but most will persist for what&amp;#8217;s effectively an eternity. These clumpy halos of matter, even after the last black hole evaporates, should persist.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="gamma rays inverse compton geminga pulsar" class="wp-image-469454" height="840" src="https://bigthink.com/wp-content/uploads/2023/09/gamma-rays-geminga.gif?w=840" width="840" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This animation shows a region of the sky centered on the pulsar Geminga. The first image shows the total number of gamma rays detected by Fermi&amp;rsquo;s Large Area Telescope at energies from 8 to 1,000 billion electron volts (GeV) &amp;mdash; billions of times the energy of visible light &amp;mdash; over the past decade. By removing all bright sources, astronomers discovered the pulsar&amp;rsquo;s faint, extended gamma-ray halo, concluding that this one pulsar could be responsible for up to 20% of the positrons detected by the AMS-02 experiment, disfavoring an annihilating dark matter scenario for this cosmic excess.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://svs.gsfc.nasa.gov/13209" target="_blank"&gt;Credit&lt;/a&gt;: NASA/DOE/Fermi LAT Collaboration&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;But if dark matter does have a self-interaction, the story of our far future could change dramatically. Sure, we might have constraints on direct dark matter signatures, but they could show up at levels that are simply below the threshold of what&amp;#8217;s presently observable. One fascinating possibility is that dark matter does interact with itself to form a whole &amp;#8220;dark universe&amp;#8221; of structure: the dark matter equivalent of baryons, atoms, or some other structure that could serve as the building blocks for larger, more complex structures.&lt;/p&gt;
-&lt;p&gt;The key is recognizing that all our constraints imply is that there&amp;#8217;s an upper limit to the rate, or timescale, on which these processes can occur. Our longest-running experiments have lasted for decades, or around 10&lt;sup&gt;9&lt;/sup&gt; seconds. Planet Earth and the Sun have been around 4.5 billion years, or around 10&lt;sup&gt;17&lt;/sup&gt; seconds. But what if dark matter makes structures on long timescales: scales far longer than the age of the Universe, like sextillions or even googols of years?&lt;/p&gt;
-&lt;p&gt;It would mean that the &amp;#8220;heat death&amp;#8221; scenario will be all wrong, because there will be a new way of extracting energy and performing work in the Universe. Even if it&amp;#8217;s small, the discovery of any way that dark matter isn&amp;#8217;t purely collisionless or non-interacting through a force other than gravity would profoundly change our ultimate cosmic fate.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Illustration of a proton showing quarks, gluons, and decay processes; includes Feynman diagrams for proton decay—reminding us even Einstein couldn’t change the facts of particle physics." class="wp-image-574647" height="1683" src="https://bigthink.com/wp-content/uploads/2025/08/protdecay.jpg?w=2560" width="2560" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The proton isn&amp;#8217;t just made of three valence quarks, but rather contains a substructure that is an intricate and dynamic system of quarks (and antiquarks) and gluons inside. The nuclear force acts like a spring, with negligible force when unstretched but large, attractive forces when stretched to large distances. To the best of our understanding, the proton is a truly stable particle, and has never been observed to decay, despite the allowable pathways that permit its decay (at right) within SU(5) and other grand unification scenarios.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.anl.gov/phy/3d-structure-of-protons-and-neutrons"&gt;Credit&lt;/a&gt;: Argonne National Laboratory (L); J. Lopez, Reports on Progress in Physics, 1996 (R)&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;2.) What if baryon violating interactions still occur, and the proton is inherently unstable?&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Just as we have constraints that dark matter doesn&amp;#8217;t interact, we also have strong constraints on the stability of the proton. Through giant, long-term experiments that are sensitive to proton decay (often with the same experiments that are sensitive to neutrino detection or possible dark matter detection), we&amp;#8217;ve constrained the lifetime of the proton to be greater than around 10&lt;sup&gt;34&lt;/sup&gt; years, or a septillion times longer than the present age of the Universe. This has been enough to rule out many scenarios for baryogenesis: the ones that would lead to an unstable proton with a lifetime of less than the constrained value, including the &lt;a href="https://en.wikipedia.org/wiki/Georgi%E2%80%93Glashow_model"&gt;standard SU(5) Georgi-Glashow unification scenario&lt;/a&gt;, both with and without supersymmetry.&lt;/p&gt;
-&lt;p&gt;But again, this is just an upper limit. It&amp;#8217;s possible that the proton is unstable, that there are actually no truly stable atomic nuclei on the periodic table, and that all of the atom-and-ion-based normal matter we know of will someday decay.&lt;/p&gt;
-&lt;p&gt;And decays are great for the Universe&amp;#8217;s potential, because all decays liberate energy and leave you in a lower-energy state. Liberated energy is energy that can be used to do work, to power processes, or to extend the lifetime of — and what&amp;#8217;s possible within — the Universe. The surviving bound structures, even long-term, could someday again house physically interesting, perhaps even metabolic, processes.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="dark energy" class="wp-image-149555" height="724" src="https://bigthink.com/wp-content/uploads/2021/10/https___specials-images.forbesimg.com_imageserve_5fc67df956103eb764829b19_How-radiation-matter-and-dark-energy-inflation-energy-densities-change-with_960x0.jpg?w=960" width="960" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;While matter and radiation become less dense as the Universe expands owing to its increasing volume, dark energy is a form of energy inherent to space itself. As new space gets created in the expanding Universe, the dark energy density remains constant.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/3ntMO7l" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;&lt;strong&gt;3.) What if dark energy turns out not to be a cosmological constant, but rather is evolving?&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;This one is particularly exciting if you want to change the fate of the Universe, because it doesn&amp;#8217;t just change the &amp;#8220;heat death&amp;#8221; part by pushing it out or giving us a new source of energy to draw upon for increasing the entropy of the Universe further than our presently known physics allows us to go. Instead, if we allowed dark energy to evolve — rather than insisting that it remain as a cosmological constant — then it wouldn&amp;#8217;t just be the individual clumps whose fates would be different from the standard picture, but the Universe as a whole. After all, dark energy represents the majority of the Universe&amp;#8217;s energy, and changing how that energy behaves could change the entire behavior of the Universe.&lt;/p&gt;
-&lt;p&gt;The reason that the Universe is going to end as a cold series of disconnected, isolated clumps of matter is because of dark energy. As the matter density drops (because the volume of the Universe increases), dark energy — which behaves as a form of energy inherent to space itself in the cosmological constant case — becomes relatively more and more important. Because dark energy has both an energy density and a strong, negative pressure, it ensures that the Universe will always expand, and that distant &amp;#8220;bound clumps&amp;#8221; will speed away, faster and faster, from one another as time goes on. And therefore, that&amp;#8217;s how the Universe will end.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Graphs display six cosmological measurements, including isotropic, perpendicular, and parallel BAO, along with SN distance modulus from DESY5, Union3, and Pantheon+. These are plotted against redshift using various data sets to explore possible dark energy weakening." class="wp-image-563024" height="598" src="https://bigthink.com/wp-content/uploads/2025/03/doIreallyevolve.jpg?w=1075" width="1075" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;Looking at the data points from DESI (top row) or from the various supernova collaborations (bottom row), it&amp;#8217;s very clear that the data, at this point in time, is not sufficiently good to robustly discriminate between the various options for how dark energy is behaving in the Universe. The fact that the three different supernova samples, DESY, Union, and Pantheon+, give such different answers from one another should be a troubling indication that we haven&amp;#8217;t yet uncovered the full story.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://data.desi.lbl.gov/doc/papers/"&gt;Credit&lt;/a&gt;: DESI Collaboration/M. Abdul-Karim et al., DESI DR2 Results, 2025&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;But if dark energy isn&amp;#8217;t a constant, all bets are off. There is circumstantial (but not conclusive) evidence that dark energy may evolve over time, and if so, then many new possible fates suddenly arise.&lt;/p&gt;
-&lt;ul class="wp-block-list"&gt;
-&lt;li&gt;Dark energy could strengthen, and if its pressure becomes more negative than a cosmological constant&amp;#8217;s, then the cosmic acceleration will intensify, and either a Big Rip (where space tears itself apart) or a rejuvenated scenario (where the increased energy density triggers a new hot, dense, Big Bang-like state) could ensue.&lt;/li&gt;
-&lt;li&gt;Dark energy could weaken and disappear entirely, causing the cosmic expansion to asymptote toward zero, rendering the distant groups reachable and communicable to one another.&lt;/li&gt;
-&lt;li&gt;Or dark energy could weaken and then flip signs, leading to a cosmic recollapse and a Big Crunch, with a potentially cyclic scenario (and a new Big Bang-like state) emerging in the future.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;These are three of the big puzzles facing modern cosmology: what the nature, behavior, and properties of dark matter are, how the matter-antimatter asymmetry arose and whether atomic nuclei are truly stable, and what the nature and future evolution of dark energy are. In the simplest, most &amp;#8220;vanilla&amp;#8221; scenarios, dark matter is non-interacting, baryogenesis occurred only once early on and leaves eternally stable atomic nuclei behind, and dark energy is a pure cosmological constant, leading to our current &amp;#8220;consensus&amp;#8221; fate. But if the solution to any (or all) of these puzzles turns out to be different from our present ideas, our ultimate cosmic fate is suddenly up for grabs. In many ways, that&amp;#8217;s the most exciting exploratory frontier of all!&lt;/p&gt;
-&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/new-physics-far-future/" rel="nofollow"&gt;Will new physics affect our Universe&amp;#8217;s far future?&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/ai-denialism_compressed.png?w=640" /&gt;&lt;p&gt;Over the past few months, we’ve seen a surge of skepticism around the phenomenon currently referred to as the “AI boom.” The shift began when OpenAI released GPT-5 this summer &lt;a href="https://venturebeat.com/ai/openai-returns-old-models-to-chatgpt-as-sam-altman-admits-bumpy-gpt-5-rollout"&gt;to mixed reviews&lt;/a&gt;, mostly from casual users. We’ve since had months of breathless claims from pundits and influencers that the era of rapid AI advancement is ending, that AI scaling has hit the wall, and that the AI boom is just another tech bubble. These same voices overuse the phrase “AI slop” to disparage the remarkable images, documents, videos, and code that AI models produce at the touch of a button.&lt;/p&gt;
-&lt;p&gt;I find this perspective both absurd and dangerous.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;By any objective measure, AI continues to improve at a stunning pace. The impressive leap in capabilities made by Gemini 3 in November is just the latest example. No, AI scaling has not hit the wall. In fact, I can’t think of another technology that has advanced this quickly at any point during my lifetime, and I started programming in 1982. The computer on my desk today runs thousands of times faster and has a million times more memory than my first PC (a &lt;a href="https://www.computinghistory.org.uk/det/41385/TRS-80-Microcomputer-System-Model-III-%2826-1062%29/"&gt;TRS-80 model III&lt;/a&gt;), and yet, today’s rate of AI advancement leaves me dizzy.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;So why has the public latched onto the narrative that AI is stalling, that the output is &lt;em&gt;slop&lt;/em&gt;, and that the AI boom is just another tech bubble that lacks justifiable use-cases? I believe it’s because society is collectively entering the first stage of grief — &lt;em&gt;denial&lt;/em&gt; — over the very scary possibility that we humans may soon lose &lt;a href="https://bigthink.com/the-future/what-happens-the-day-after-humans-create-agi/"&gt;&lt;em&gt;cognitive supremacy&lt;/em&gt;&lt;/a&gt; to artificial systems. Believe me, I know this future is hard to accept. I’ve been writing about the &lt;a href="https://github.com/GenerativeAIandHCI/GenerativeAIandHCI.github.io/blob/main/papers/2023/Conversational%20AI%20and%20the%20Threat%20to%20Epistemic%20Agency%20-%20CHI%202023%20.pdf"&gt;destabilizing&lt;/a&gt; and &lt;a href="https://bigthink.com/the-future/what-happens-the-day-after-humans-create-agi/"&gt;demoralizing&lt;/a&gt; risks of superintelligence for well over a decade, and I also feel overwhelmed by the changes racing toward us.&amp;nbsp;&lt;/p&gt;
-&lt;h2 class="wp-block-heading" id="h-unprecedented-advances"&gt;Unprecedented advances&lt;/h2&gt;
-&lt;p&gt;Why does AI advancement feel so different than other technologies? Eighty-two years ago, philosopher Ayn Rand wrote these three simple sentences: &lt;em&gt;“Man cannot survive except through his mind. He comes on earth unarmed. His brain is his only weapon.”&lt;/em&gt; For me, these words summarize our self-image as humans — we are the superintelligent species. This is the basis of our success and survival. And yet, we could soon find ourselves &lt;a href="https://www.singularityweblog.com/are-we-destined-to-be-out-played-by-ai/"&gt;intellectually outmatched&lt;/a&gt; by widely available AI models that can outthink us on all fronts, solving problems infinitely faster, more accurately, and yes, &lt;em&gt;more creatively&lt;/em&gt; than any human could.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;I stress &lt;em&gt;creatively&lt;/em&gt; because a common theme among AI denialists is an insistence that certain human capabilities will never be rivaled by machines. The two capabilities that are cited most often in this regard are&amp;nbsp; “creativity” and “emotional intelligence.”&amp;nbsp;Unfortunately, there is no proof that AI will not surpass us in these areas. In fact, there is increasing evidence that the opposite is likely true.&lt;/p&gt;
-&lt;p&gt;On the creativity front, there is no doubt that today’s AI models can produce content faster and more varied than any human. The primary argument against AI being “creative” is the belief that true &lt;a href="https://link.springer.com/article/10.1007/s00146-024-02127-3"&gt;creativity requires inner motivation&lt;/a&gt;, not just the production of novel artifacts. I appreciate this argument, but find it circular because it defines a process based on how we experience it, not based on the qualitative value of the output. In addition, we have little reason to believe AI systems will lack motivation — we simply don’t know whether AI will ever experience &lt;em&gt;intentions&lt;/em&gt; through an inner sense of self the way humans do.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;As a result, many researchers say that AI will only be good at &lt;a href="https://link.springer.com/article/10.1007/s11633-025-1546-4"&gt;imitating human creativity&lt;/a&gt; rather than &lt;em&gt;having&lt;/em&gt; it. This could turn out to be correct. But if AI can produce original work that rivals or exceeds most humans, it will still take away jobs and opportunities on a large scale; just ask any commercial artist. Also, there is the argument that AI systems only create derivative works based on human artifacts. This is a fair point, but it is also true of humans: We all stand on the shoulders of others, our work influenced by everything we consume. I believe AI is headed for a similar form of creativity — societal influence mixed with random sparks of inspiration, and it will occur at superhuman speeds and scales.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;On the emotional intelligence front, I am equally unsure humans will have an edge. It is very likely that AI systems will soon be able to “read you” more accurately than any person could. They will do this by &lt;a href="https://link.springer.com/chapter/10.1007/978-3-031-16075-2_39"&gt;identifying micro-expressions&lt;/a&gt; on your face, in your voice, in your posture, in your gaze, and even in your breathing. This will enable AI assistants to infer your inner feelings faster and more precisely than is humanly possible. At the same time, these AI assistants (which you will carry around on your phone or wear in your glasses) will be able to observe your emotional reactions throughout your day and &lt;a href="https://www.iiis.org/CDs2023/CD2023Summer/papers/HA408FU.pdf"&gt;build predictive models of your behavior.&lt;/a&gt; Unless strictly regulated, which seems increasingly unlikely, this will enable AI assistants and other intelligent agents to &lt;a href="https://arxiv.org/abs/2306.11748"&gt;influence you with superhuman skill&lt;/a&gt;.&lt;/p&gt;
-&lt;h2 class="wp-block-heading" id="h-an-asymmetric-dynamic"&gt;An asymmetric dynamic&lt;/h2&gt;
-&lt;p&gt;This is often referred to as the “&lt;a href="https://www.e-elgar.com/shop/usd/elgar-concise-encyclopedia-of-artificial-intelligence-and-the-law-9781035336890.html"&gt;AI manipulation problem&lt;/a&gt;,” and it suggests that the skill we refer to as “emotional intelligence”&lt;em&gt; &lt;/em&gt;may not give us a cognitive advantage over AI.&amp;nbsp; In fact, it could be our greatest weakness, creating an &lt;a href="https://github.com/GenerativeAIandHCI/GenerativeAIandHCI.github.io/blob/main/papers/2023/Conversational%20AI%20and%20the%20Threat%20to%20Epistemic%20Agency%20-%20CHI%202023%20.pdf"&gt;asymmetric dynamic&lt;/a&gt; where AI systems will be able to read us with &lt;a href="https://ieeexplore.ieee.org/abstract/document/9965661/"&gt;superhuman accuracy&lt;/a&gt;, while we can’t read the AI at all. When you converse with a photorealistic AI agent (as most people &lt;a href="https://www.intechopen.com/online-first/1223362"&gt;likely will&lt;/a&gt;, and often), you will be staring at an animated facade that can smile kindly and appear empathetic or understanding, inspiring you to feel trust and goodwill. This is pure illusion, but it could easily &lt;a href="https://openaccess.cms-conferences.org/publications/book/978-1-958651-75-9/article/978-1-958651-75-9_13"&gt;sway your thoughts and behaviors&lt;/a&gt;. And worse, we have no defense against it — our emotional reactions to faces are &lt;a href="https://www.sciencedirect.com/science/article/pii/S0301008204002151"&gt;reflexive and visceral&lt;/a&gt;, built into us by millions of years of evolution on a planet where interactive human faces were always genuinely human.&lt;/p&gt;
-&lt;p&gt;Like it or not, we will soon live in a world where many of the faces we encounter will be generative masks worn by AI agents. And yet, we tell ourselves that AI is just another tech boom. This is wishful thinking. The reason investment levels are staggering (and they &lt;em&gt;are&lt;/em&gt; staggering) is that &lt;a href="https://www.intechopen.com/online-first/1212008"&gt;AI will soon inhabit all aspects of our lives&lt;/a&gt;, often embodied as intelligent actors we have to engage with throughout our day. These agents will be designed to assist us, educate us, and yes, &lt;a href="https://ieeexplore.ieee.org/document/10099167"&gt;influence us&lt;/a&gt;. This will fundamentally alter how we work, how we learn, and how we socialize, and it will happen faster than we expect. Denial will not stop this. In fact, denial only makes it harder for us to prepare for the risks.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;To put the rate of change in perspective, let’s jump back five years and look at &lt;a href="https://cdn.governance.ai/Forecasting_AI_Progress-_Evidence_from_a_Survey_of_Machine_Learning_Researchers.pdf?utm_source=chatgpt.com"&gt;a large-scale survey given to computer scientists&lt;/a&gt; in late 2019 and early 2020.&amp;nbsp; Participants were asked to predict when AI would be able to generate original code to solve a problem. Specifically, they were asked to predict when AI would be able to&amp;nbsp; “write concise, efficient, human-readable Python code to implement simple algorithms like Quicksort.” In the world of programming, students are taught to do this as undergrads, so it’s not a particularly high bar. Still, the respondents predicted a 75% chance this would happen by 2033.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;It turns out, AI advanced much faster than expected. Today, large language models can already write computer code at levels that go far beyond the question asked in the 2020 survey. This summer, for example, GPT-5 and Gemini 2.5 Pro took part in the &lt;a href="https://venturebeat.com/ai/google-and-openais-coding-wins-at-university-competition-show-enterprise-ai"&gt;World Finals of the 2025 International Collegiate Programming Contest (ICPC)&lt;/a&gt;. The competition brings together coding teams from top universities to compete in solving complex algorithmic questions. &lt;a href="https://venturebeat.com/ai/google-and-openais-coding-wins-at-university-competition-show-enterprise-ai"&gt;GPT-5 came in first&lt;/a&gt;, beating all human teams and scoring a perfect score. Gemini 2.5 Pro came in second. And yet we have countless influencers referring to the output of these very same AI systems as “slop.”&amp;nbsp;&amp;nbsp;&lt;/p&gt;
-&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Line graph showing the increase in Google search interest for &amp;quot;AI Slop&amp;quot; from October 2022 to June 2025, with a sharp rise beginning around early 2024." class="wp-image-580758" height="584" src="https://bigthink.com/wp-content/uploads/2025/12/Screenshot-2025-12-01-at-3.34.33-PM.png" width="1456" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;&lt;figcaption&gt;&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;Of course, current AI coding systems are far from flawless, but today’s capabilities were unimaginable by most AI professionals only five years ago. Also, we can’t forget that human coders are far from flawless. Perfection is not the metric we use to judge software development. This is why we have whole departments devoted to testing and quality control. When done by humans, coding is always an iterative process where you expect to produce errors, find errors, and fix errors. The same is true for many human endeavors. If you could read the first draft of any Pulitzer Prize-winning article, it’d likely be riddled with flaws that would make the author cringe. This is how we humans produce quality work — iterative refinement — and yet we judge AI systems by very different standards.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;The fact is, today’s frontier models are remarkably capable and are on a rapid path towards rivaling human professionals across most fields. It will transform how organizations operate, how governments function, how science advances, how engineering gets done, how militaries strategize, and how education is deployed. It will also create &lt;a href="https://www.privacylost.org/"&gt;terrifying new risks&lt;/a&gt; that we are not dealing with, like the potential for AI to manipulate individuals with superhuman effectiveness. Whether we like it or not, &lt;a href="https://www.google.com/books/edition/Our_Next_Reality/k3LdEAAAQBAJ"&gt;AI will change everything&lt;/a&gt;.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;In other words, we are not watching a&amp;nbsp;bubble&amp;nbsp;expand with blustery vapors. We are watching a planet form from churning magma, and it will solidify into a new framework for society. Denial will only make us unprepared. This is not an AI bubble. This is real.&lt;/p&gt;
-&lt;/p&gt;
-&lt;p&gt;This article &lt;a href="https://bigthink.com/the-present/the-rise-of-ai-denialism/" rel="nofollow"&gt;The rise of AI denialism&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/11/culture-design_excerpt.jpg?w=640" /&gt;&lt;p&gt;A great way to start taking stock of your culture is to &lt;em&gt;review your written artifacts&lt;/em&gt;, including your mission, values, and purpose statements. You’ll also want to gain a clear understanding of the roots and history behind these statements. How did you get to where you are now? Do you feel like your mission statement and written values align to how your people show up every day? Leaders with a clear understanding of these fundamental documents and histories can use them as guideposts as they build culture; or they can work to change them to better represent the culture they want to intentionally design.&lt;/p&gt;
-&lt;p&gt;Brenna Davis, CEO of the nation’s largest organic produce wholesaler, Organically Grown Company (OGC), emphasizes the importance of honoring the company’s roots. She has a reverence for the founders and retired alumni of the company, who at OGC are referred to as “elders.” Davis told us about how the company has upheld its founders’ mission by establishing the first perpetual purpose trust in the country. Founded in 1978 by a group of farmers, OGC has long centered its work on its mission: to promote and inspire the growth of the organic agriculture movement. In 2018, it took that history into account when it restructured to transfer ownership to the Sustainable Food and Agriculture Perpetual Purpose Trust. This allows OGC to focus on its long-term purpose instead of short-term shareholder returns. With this act, purpose and culture became inextricably linked and inextricably tied to how the business runs. Now, the organization’s relationship to its purpose affects how work gets done, how meetings are run, and how decisions get made. It is by understanding its history that OGC was able to carve out a path for its long-term future.&lt;/p&gt;
-&lt;figure class="wp-block-image size-full"&gt;&lt;a href="https://www.amazon.com/Culture-Design-High-Performing-Resilient-Organization/dp/B0DS4DXW5Z" rel=" noreferrer noopener" target="_blank"&gt;&lt;img alt="Book cover titled &amp;quot;Culture Design: How to Build a High-Performing, Resilient Organization with Purpose&amp;quot; by James D. White and Krista White, featuring yellow and navy graphic shapes." class="wp-image-579780" height="2971" src="https://bigthink.com/wp-content/uploads/2025/11/WhiteWhite10789_300dpi.jpg" width="2000" /&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;&lt;figcaption&gt;&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;For you, revisiting your company’s mission, purpose, values, and history may spark some initial ideas about where there may be gaps between your purported culture and how it shows up. When you compare your mission statement or documented values to organizational policies and tactics, do they match? You may find that you’ve strayed too far from your original purpose and that you need to find a way back.&lt;/p&gt;
-&lt;p&gt;History can also reveal how far you’ve come. For legacy companies, there will often be lessons of what not to do and clues as to how to reconcile past wrongs with your vision for the future. Whether it is ties to systems of oppression or dishonest business practices, history is not to be forgotten or swept under the rug, but to be learned from. Follow those hunches to the next part of your dig and document them as you design questions for surveys, interviews, or roundtables that you may conduct later. Keep your personal notes handy in a spreadsheet, Google Doc, or a good old-fashioned legal pad. The most important thing is keeping track of the work you’re doing here in a way that will be most accessible to you and your team when it’s time to go out and talk and listen to your stakeholders.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Next, &lt;em&gt;explore rituals&lt;/em&gt;. From the way you start and end meetings to how you celebrate employee contributions to your annual company retreat, rituals are the day-to-day traditions that reinforce your culture. At meetings, people have used everything from a routine check-in to see how their team members are feeling to a moment of gratitude shared at the onset of meetings.&lt;/p&gt;
-&lt;p&gt;At The Honest Company, CEO Carla Vernón aims to create psychological safety and creativity, so at town halls she asks employees to share which of a preselected set of Pixar characters represents what mood or energy they’re embodying in the moment. (The options include the characters of Joy or Fear from &lt;em&gt;Inside Out&lt;/em&gt;, or the relaxed optimism of Crush the Turtle in &lt;em&gt;Finding Nemo&lt;/em&gt;.) And to foster a culture of open communication, Lee Wallace, CEO of fair trade coffee producer Peace Coffee, has instituted an agenda item in every meeting that asks what needs to be communicated and to whom as a result of the meeting. Keeping everyone on the same page with the information they need to succeed is a key part of her change management agenda as she grows the company. Simple activities repeated over and over have a cumulative effect on culture.&lt;/p&gt;
-&lt;figure class="wp-block-pullquote"&gt;
-&lt;blockquote&gt;
-&lt;p&gt;Consider what it would mean to create a ritual that was uniquely suited to your company and colleagues.&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;/figure&gt;
-&lt;p&gt;Many of you may be thinking, &lt;em&gt;That kind of stuff is not for me &lt;/em&gt;— you don’t see a connection between results and asking people how they feel at every meeting. We know it works and encourage you to be vulnerable and get out of your comfort zone and try it. But also recognize that not all rituals are about feelings. Other types of rituals that reinforce culture are brief weekly check-ins about the successes and challenges of the week, a daily review of a tenet of centering customer needs at staff meetings, or a biweekly cross-functional review and prioritization of issues that have come up during those two weeks.&lt;/p&gt;
-&lt;p&gt;Celebratory rituals often take the form of a company picnic or holiday party, but consider what it would mean to create a ritual that was uniquely suited to your company and colleagues. OGC has long celebrated its annual tomato war, where team members go out at the end of tomato season and throw overripe tomatoes at each other. When we heard about this, we immediately wanted an invite to the event, and it struck us that most companies don’t have celebrations with quite so much personality and distinction. The fact that OGC does signals to us that that culture is being intentionally designed. Do you have any traditions that are uniquely suited to your culture? Do you have any ideas for new traditions you could institute? This is the intentionality piece of building culture through rituals. None of the examples we give you here will be appropriate to you, but they should show you how specific and apt to the culture your rituals can be.&lt;/p&gt;
-&lt;p&gt;This article &lt;a href="https://bigthink.com/business/find-your-own-tomato-war-how-to-fortify-culture-through-ritual/" rel="nofollow"&gt;Find your own tomato war: How to fortify culture through ritual&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="mw-content-ltr mw-parser-output" dir="ltr" lang="en"&gt;&lt;div id="mp-tfa-img" style="float: left; margin: 0.5em 0.9em 0.4em 0em;"&gt;
-&lt;div class="thumbinner mp-thumb" style="background: transparent; color: inherit; border: none; padding: 0;"&gt;
-&lt;span&gt;&lt;a class="mw-file-description" href="/wiki/File:Flag_of_Hong_Kong.svg" title="Flag of Hong Kong"&gt;&lt;img alt="Flag of Hong Kong" class="mw-file-element" height="114" src="//upload.wikimedia.org/wikipedia/commons/thumb/5/5b/Flag_of_Hong_Kong.svg/250px-Flag_of_Hong_Kong.svg.png" width="171" /&gt;&lt;/a&gt;&lt;/span&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;p&gt;The &lt;b&gt;&lt;a href="/wiki/Flag_of_Hong_Kong" title="Flag of Hong Kong"&gt;flag of Hong Kong&lt;/a&gt;&lt;/b&gt; depicts a white stylised five-petal flower of the &lt;a href="/wiki/Bauhinia_%C3%97_blakeana" title="Bauhinia × blakeana"&gt;Hong Kong orchid tree&lt;/a&gt; (&lt;i&gt;Bauhinia&lt;/i&gt; × &lt;i&gt;blakeana&lt;/i&gt;) in the centre of a field of &lt;a href="/wiki/Vermilion#Chinese_red" title="Vermilion"&gt;Chinese red&lt;/a&gt;, the same red as on the &lt;a href="/wiki/Flag_of_China" title="Flag of China"&gt;flag of China&lt;/a&gt;. The &lt;a href="/wiki/Hong_Kong_Basic_Law" title="Hong Kong Basic Law"&gt;Hong Kong Basic Law&lt;/a&gt; prescribes the design, and it is only to be made according to regulation and in approved sizes. Regulations regarding its use are stated in the Regional Flag and Regional Emblem Ordinance; its &lt;a href="/wiki/Flag_desecration" title="Flag desecration"&gt;desecration&lt;/a&gt; is unlawful and has been punished. The flag was unveiled on 4 April 1990 and approved on 10 August 1996. It was first officially hoisted on 1 July 1997, during the &lt;a href="/wiki/Hong_Kong_handover_ceremony" title="Hong Kong handover ceremony"&gt;handover ceremony marking the transfer of Hong Kong&lt;/a&gt; from the United Kingdom back to China, and replaced &lt;a href="/wiki/Flag_of_Hong_Kong_(1871%E2%80%931997)" title="Flag of Hong Kong (1871–1997)"&gt;a colonial flag adopted in 1959&lt;/a&gt;. The 1959 flag, and a variant known as the &lt;a href="/wiki/Black_Bauhinia_flag" title="Black Bauhinia flag"&gt;Black Bauhinia&lt;/a&gt;, have been displayed by protesters in Hong Kong, particularly during the &lt;a href="/wiki/2019%E2%80%932020_Hong_Kong_protests" title="2019–2020 Hong Kong protests"&gt;2019–2020 Hong Kong protests&lt;/a&gt;. Government supporters often displayed the Chinese and Hong Kong flags together. &lt;i&gt;(&lt;b&gt;&lt;a href="/wiki/Flag_of_Hong_Kong" title="Flag of Hong Kong"&gt;Full article...&lt;/a&gt;&lt;/b&gt;)&lt;/i&gt;
-&lt;/p&gt;
-&lt;div class="tfa-recent" style="text-align: right;"&gt;
-Recently featured: &lt;div class="hlist inline"&gt;
-&lt;ul&gt;&lt;li&gt;&lt;i&gt;&lt;a href="/wiki/Ovalipes_catharus" title="Ovalipes catharus"&gt;Ovalipes catharus&lt;/a&gt;&lt;/i&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="/wiki/SMS_Pommern" title="SMS Pommern"&gt;SMS &lt;i&gt;Pommern&lt;/i&gt;&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;i&gt;&lt;a href="/wiki/Julio_and_Marisol" title="Julio and Marisol"&gt;Julio and Marisol&lt;/a&gt;&lt;/i&gt;&lt;/li&gt;&lt;/ul&gt;
-&lt;/div&gt;&lt;/div&gt;
-&lt;div class="hlist tfa-footer noprint" style="text-align: right;"&gt;
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:Today%27s_featured_article/December_2025" title="Wikipedia:Today's featured article/December 2025"&gt;Archive&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a class="extiw" href="https://lists.wikimedia.org/postorius/lists/daily-article-l.lists.wikimedia.org/" title="mail:daily-article-l"&gt;By email&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a class="mw-redirect" href="/wiki/Wikipedia:Featured_articles_(linked_from_TFAfooter)" title="Wikipedia:Featured articles (linked from TFAfooter)"&gt;More featured articles&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:About_Today%27s_featured_article" title="Wikipedia:About Today's featured article"&gt;About&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;
-&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/14-rule-dance-systems_compressed.jpg?w=640" /&gt;&lt;p&gt;What do trees and businesses have in common?&lt;/p&gt;
-&lt;p&gt;For one, they’re systems. A tree dies when you starve it of water and sunlight, just as a business collapses when its resources are drained. In fact, &lt;em&gt;all&lt;/em&gt; living things are systems: plants and animals, yes, but also organizations, relationships — even friendships. Stop responding to texts, and the relationship withers. (Unless, of course, that’s the goal. As the Gen Z might say: &lt;em&gt;ghosting&lt;/em&gt;.)&lt;/p&gt;
-&lt;p&gt;Systems rule the world, and once you see them, you can’t unsee them. Perhaps I’m thinking about them now, as we slip into the holiday season, when our own network of plans, friendships, and families seems to weave together. (The system breaks, it turns out, when you forget the baby&amp;#8217;s diapers at a family function.)&lt;/p&gt;
-&lt;p&gt;On this subject, no one is better than Donella Meadows, the environmental scientist and systems theorist whose essay, &amp;#8220;&lt;a href="https://donellameadows.org/archives/dancing-with-systems/" rel="noreferrer noopener" target="_blank"&gt;Dancing With Systems&lt;/a&gt;,&amp;#8221; is perhaps the most practical way to think about life, business, investing, work, and family.&lt;/p&gt;
-&lt;p&gt;Every so often, I find myself returning to her 14 rules, and as the year winds down, I want to share them here. &amp;#8220;We can’t control systems or figure them out,&amp;#8221; Donella writes. &amp;#8220;But we can dance with them!&amp;#8221;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Key quote&lt;/strong&gt;: &amp;#8220;I will summarize the most general ‘systems wisdom’ I have absorbed from modeling complex systems and from hanging out with modelers. These are the take-home lessons, the concepts and practices that penetrate the discipline of systems so deeply that one begins, however imperfectly, to practice them not just in one’s profession, but in all of life. The list probably isn’t complete, because I am still a student in the school of systems. And it isn’t unique to systems thinking. There are many ways to learn to dance. But here, as a start-off dancing lesson, are the practices I see my colleagues adopting, consciously or unconsciously, as they encounter systems.&amp;#8221;&lt;/p&gt;
-&lt;h2 class="wp-block-heading" id="h-oh-to-be-86-again"&gt;&amp;#8220;Oh, to be 86 again&amp;#8221;&lt;/h2&gt;
-&lt;p&gt;What does a lifelong learner do the year before he dies at 99?&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Duh&lt;/em&gt;: he keeps learning.&lt;/p&gt;
-&lt;p&gt;I loved &lt;a href="https://www.wsj.com/finance/investing/charlie-munger-life-final-years-berkshire-7c20c18e" rel="noreferrer noopener" target="_blank"&gt;this portrait&lt;/a&gt; of Charlie Munger’s final years. He was a man who, even at 98, was making contrarian bets, asking big questions (“Does Moore’s Law apply in the age of AI?”), and forming new friendships.&lt;/p&gt;
-&lt;p&gt;Munger never had much interest in retiring to a life by the ocean, though he maintained a sprawling estate in Montecito with view of the Pacific. Instead, he hung out around his modest house in Pasadena (no A/C), and spent his final days trading coal stocks, backing young real-estate investors, and debating ideas with his breakfast club.&lt;/p&gt;
-&lt;p&gt;Simply: he kept is mind working even when his body didn&amp;#8217;t. He read, he questioned, he taught, and he listened (well, to the extent he could; his hearing was terrible). The profile offers a moving inquiry into the nature of longevity: stay curious, stay connected, and keep asking questions right up until the end. (H/T Nima Shayegh)&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Key quote: &lt;/strong&gt;“‘Even a week or two before passing away, he was asking questions such as, Does Moore’s Law apply in the age of AI?&amp;#8217; recalls his friend Jamie Montgomery, referring to whether artificial intelligence would see exponential gains like those experienced in computational power. Friends and family say Munger’s eventful last period offers lessons for investors — and a blueprint for how to age with grace, equanimity and purpose. ‘To the day he died, that mind was running,’ says Munger’s stepson, Hal Borthwick. ‘He never stopped learning.’”&lt;/p&gt;
-&lt;hr class="wp-block-separator has-alpha-channel-opacity" /&gt;
-&lt;p&gt;A few more links I enjoyed:&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://www.noemamag.com/the-progress-paradox/" rel="noreferrer noopener" target="_blank"&gt;The Progress Paradox&lt;/a&gt; &amp;#8211; via Matt Prewitt (Noema)&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Key quote:&lt;/strong&gt; “Plenty of readers will still be skeptical. To many, the cutthroat Silicon Valley startup ecosystem proves on its face that competition, not monopoly, produces innovative technology. But look closer. Silicon Valley startups are routinely valued at many multiples more than their revenue or profits straightforwardly justify. What explains that? Investors are betting that those startups will eventually either become monopolies or merge into existing ones through acquisitions or other forms of financial consolidation. In other words, technology startups are ‘competing’ not to serve consumers’ needs, but to become — or join — monopolies. The aim for many of today’s Silicon Valley startups is a high-profile acquisition and a lucrative ‘exit.’”&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://thebeautifultruth.org/life/psychology/iain-mcgilchrist-brains-hemispheres/" rel="noreferrer noopener" target="_blank"&gt;Iain McGilchrist: Re-enchanting the Brain&lt;/a&gt; &amp;#8211; via The Beautiful Truth&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Key quote:&lt;/strong&gt; &amp;#8220;‍As societies grow, it’s harder for people to know and trust each other. Governance requires distance and bureaucracy, leading to a more crude control mechanism that replaces the full complexity of life. This simplification becomes visible in art, architecture, poetry, music and thought. I know I’m glossing over a lot, but this shift aids the left hemisphere’s desire for simple answers that give us power. Power is, in a sense, its main motivation. It controls our right hand, enabling us to grasp and hold, whereas the right hemisphere manages a complex, rich picture.&amp;#8221;&lt;/p&gt;
-&lt;p&gt;This article &lt;a href="https://bigthink.com/business/14-rules-to-dance-with-the-systems-of-business-and-life/" rel="nofollow"&gt;The 14 rules for navigating complex systems&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/08/HWO_EAC_Mirrors_Update_V001.00300_print.jpg?w=640" /&gt;&lt;p&gt;For as long as humanity has been looking up at the heavens, we&amp;#8217;ve been pondering some of the biggest questions of all. It&amp;#8217;s only over the past few hundred years that science has caught up to our vast imaginations, and has begun answering those questions for the first time in our civilization&amp;#8217;s history. We know what the stars are: they&amp;#8217;re much like our own Sun, except very far away. We know that the majority of them have planets, and that some of those planets are Earth-sized. We know that those worlds are composed of very similar ingredients to our own Solar System&amp;#8217;s planets, and that they are governed by the same underlying laws of nature.&lt;/p&gt;
-&lt;p&gt;But are any of those worlds actually inhabited?&lt;/p&gt;
-&lt;p&gt;Here, as the end of 2025 approaches, that&amp;#8217;s still a great cosmic unknown. We don&amp;#8217;t yet know &lt;a href="https://bigthink.com/starts-with-a-bang/alien-life-stephen-king/"&gt;whether we&amp;#8217;re alone in the Universe or not&lt;/a&gt;, and if not, how common or rare life actually is. While we can send orbiters, landers, and rovers to worlds within our Solar System and scan the skies for signals that might arise from intelligent extraterrestrials, finding most instances of life in the Universe will require scanning exoplanets directly to probe for biosignatures. That&amp;#8217;s the ambitious science goal of the #1 ranked future NASA mission: the Habitable Worlds Observatory, which seeks to directly image:&lt;/p&gt;
-&lt;ul class="wp-block-list"&gt;
-&lt;li&gt;Earth-sized planets,&lt;/li&gt;
-&lt;li&gt;at Earth-like distances,&lt;/li&gt;
-&lt;li&gt;around Sun-like stars.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Will we be able to get there? That all depends on how good our ever-improving coronagraph technology will be. With &lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae195f"&gt;the new discovery of stellar companion HIP 71618 B&lt;/a&gt;, just announced in early December of 2025, we&amp;#8217;re definitively going to get to put our best efforts so far to the critical test. The ability to find our first &amp;#8220;alien Earth&amp;#8221; hinges on the outcome.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="solar corona during eclipse" class="wp-image-158066" height="466" src="https://bigthink.com/wp-content/uploads/2021/12/Tse2006tc_m200_inh30_32_c3.png?w=978" width="978" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The solar corona, as shown here, is imaged out to 25 solar radii during the 2006 total solar eclipse. The longer the duration of a total solar eclipse, the darker the sky becomes, and the better the corona and background astronomical objects can be seen. Experienced, serious eclipse photographers can construct images such as these from their eclipse data, showcasing the extent of the solar corona as well as a plethora of more distant background astronomical objects.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="http://www.zam.fme.vutbr.cz/~druck/eclipse/Ecl2006th/Tse2006tc_m200_inh30_32_c3/0-info.htm" target="_blank"&gt;Credit&lt;/a&gt;: Martin Anto&amp;scaron;, Hana Druckm&amp;uuml;llerov&amp;aacute;, Miloslav Druckm&amp;uuml;ller&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;It isn&amp;#8217;t necessarily obvious how these different pieces of the scientific story are related to each other, so let&amp;#8217;s explain. A coronagraph is a relatively simple piece of equipment, based on a simple concept that we experience naturally here on Earth: a total solar eclipse. Celestially, a total solar eclipse occurs when the Moon passes in front of the Sun relative to our line-of-sight here on Earth. However, there&amp;#8217;s a catch: the Moon needs to appear large enough, in terms of angular size, to block out the entirety of the Sun&amp;#8217;s disk. When this alignment properly occurs, and you stand in the eclipse shadow on Earth, the Sun&amp;#8217;s light is entirely blocked, and you can see all sorts of sights that would otherwise be washed out: the solar corona, the stars that lie behind the Sun, satellites, and more.&lt;/p&gt;
-&lt;p&gt;What makes a coronagraph different is that instead of blocking out the light from our close, nearby Sun, it places a small obstacle (usually a disk) in front of the telescope&amp;#8217;s lens, blocking out the light from an ultra-distant star. By having the coronagraph block only the light from the disk of the star, all sorts of features that are present around the star, even if faint, can then be revealed. Although many telescopes had leveraged coronagraphs throughout the 20th century, there was a real revolution when we launched the Hubble Space Telescope equipped with a coronagraph. For the first time, incredible features could be seen: debris disks, protoplanetary disks, and even full-fledged planets around other stars.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Comparison of a star's image, Vega, as taken by the Hubble Telescope (left, with starburst pattern) and the JWST (right, with clear circular halo)." class="wp-image-530715" height="642" src="https://bigthink.com/wp-content/uploads/2024/11/Hub_Webb.jpg?w=1141" width="1141" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This two-panel view of the debris disk around Vega shows Hubble&amp;#8217;s (left) and JWST&amp;#8217;s (right) views, respectively. Hubble reveals a wide disk of dust, showcasing particles approximately the size of smoke particles, while JWST shows the glow of warm (larger-sized) dust particles distributed throughout the Vega system, with only one small dip in brightness at double the Sun-Neptune distance. JWST&amp;#8217;s coronagraph is approximately 100 times more sensitive than Hubble&amp;#8217;s.&lt;/div&gt;&lt;figcaption&gt;
-&lt;p&gt;&lt;a href="https://hubblesite.org/contents/media/images/2024/030/01JBF20FGYTRR4E0QVBWY516R1?news=true"&gt;Credit&lt;/a&gt;: NASA, ESA, CSA, STScI, S. Wolff (University of Arizona), K. Su (University of Arizona), A. G&amp;aacute;sp&amp;aacute;r (University of Arizona)&lt;/p&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;As remarkable as Hubble&amp;#8217;s coronagraph was, however, it was still severely limited. It was only capable of observing:&lt;/p&gt;
-&lt;ul class="wp-block-list"&gt;
-&lt;li&gt;the intrinsically brightest features,&lt;/li&gt;
-&lt;li&gt;at the greatest angular separations,&lt;/li&gt;
-&lt;li&gt;from the closest stars,&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;as seen from Earth. In terms of optical performance, what we often talk about in the science of coronagraphy is known as contrast. Contrast, in this context, is how faint an object can intrinsically be — relative to the bright object being blocked by the coronagraph — and still be detected, resolved, and measured by the instrument.&lt;/p&gt;
-&lt;p&gt;For Hubble, it was a huge revolution. We discovered debris disks for the first time, we obtained our first direct images of exoplanets, and we could detect faint companions — including brown dwarfs — in places we didn&amp;#8217;t even necessarily expect to find them. But we couldn&amp;#8217;t see small planets, or planets close to their parent stars, or planets around faint, low-mass stars, for an important reason: Hubble&amp;#8217;s coronagraphic contrast was only at about the 1-part-in-1000 (or 10&lt;sup&gt;-3&lt;/sup&gt;) level, meaning that an object needed to be at least 0.1% intrinsically as bright as the star the coronagraph was blocking in order to be seen by Hubble.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="composite JWST ALMA HST Fomalhaut" class="wp-image-405478" height="764" src="https://bigthink.com/wp-content/uploads/2023/05/FvnRyOXWcAEuUOZ.jpg?w=1360" width="1360" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This view of the Fomalhaut system consists of mid-infrared JWST data (in yellow) overlaid with radio (red) ALMA data and blue (optical/UV) Hubble data. Only JWST is capable of revealing the inner structure of this system, including a large inner disk and a surprising intermediate belt: features only able to be seen at long wavelengths of light due to their incredibly cool temperatures.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.adamblockphotos.com/fomalhaut-debris-disk.html" target="_blank"&gt;Credit&lt;/a&gt;: Adam Block/Andras Gaspar/Steward Observatory/University of Arizona&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;With the launch of JWST, however, its next-generation coronagraph provided an enormous improvement. Instead of contrasts of 10&lt;sup&gt;-3&lt;/sup&gt;, its coronagraph achieves contrasts that are improved by nearly a factor of 100 over Hubble&amp;#8217;s: contrasts of more like 10&lt;sup&gt;-5&lt;/sup&gt;. As you can see, above, this has enabled us to find features that are much more profound, faint, and require much greater sensitivity than anything Hubble is capable of detecting. Instead of just protoplanetary and debris disks, it &lt;a href="https://bigthink.com/starts-with-a-bang/fomalhaut-exoplanet-jwst/"&gt;could see features in those disks&lt;/a&gt;, including rings, gaps, and belts. Instead of just brown dwarfs, it could find Jupiter-sized and even Neptune-sized planets around dim stars. It could find planets closer in to their parent star than Hubble could, and its groundbreaking discoveries are still rolling in even today.&lt;/p&gt;
-&lt;p&gt;But JWST&amp;#8217;s coronagraph&amp;#8217;s contrast, even though it can resolve features that are a factor of 100,000 fainter than the parent star that it blocks, doesn&amp;#8217;t get us close to reaching our main goal: of directly imaging Earth-sized planets at Earth-like orbital distances from Sun-like stars, and of doing it at optical (i.e., visible light) wavelengths. This is extra problematic, because:&lt;/p&gt;
-&lt;ul class="wp-block-list"&gt;
-&lt;li&gt;planets are much fainter than stars,&lt;/li&gt;
-&lt;li&gt;closer planets that are much smaller than their parent stars are the hardest to image,&lt;/li&gt;
-&lt;li&gt;and planets are also much cooler than stars, meaning more of a planet&amp;#8217;s light is at infrared, rather than at visible light, wavelengths.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;JWST&amp;#8217;s coronagraph is much more effective at imaging companion objects around stars in infrared wavelengths than it is at optical wavelengths, and even with a contrast of 1-part-in-100,000, it still has a long way to go to detect an Earth-like world, which would require a contrast of 10&lt;sup&gt;-10&lt;/sup&gt; or better.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="fresnel wave light spherical object" class="wp-image-338977" height="1536" src="https://bigthink.com/wp-content/uploads/2023/01/Poisson2.jpg?w=2048" width="2048" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;The results of an experiment, showcased using laser light shone around an object with a circular cross-section, in terms of the actual acquired optical data. Instead of a dark shadow with a solid light glow around it, we see a series of concentric rings inside the shadow as well as outside of it. This property of light, that it undergoes interference and diffraction, poses a difficulty for the simplest designs of a coronagraph, even for space telescopes.&lt;/div&gt;&lt;figcaption&gt;
-&lt;p&gt;&lt;a href="http://academics.wellesley.edu/Physics/Tbauer/Poisson/" rel="noopener" target="_blank"&gt;Credit&lt;/a&gt;: Thomas Bauer/Wellesley&lt;/p&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;This is kind of an annoying problem for astronomers, as it is for anyone who deals with optical systems. As you can see, as shown above, if you place a perfectly disk-like object (a solid circle, a sphere, a face-on cylinder, etc.) in front of a light source, you won&amp;#8217;t just see all of the light that goes around the disk, counterbalanced by a perfect silhouette of the disk itself in shadow. Instead, because light is a wave, you see evidence for the phenomena of interference and diffraction. In particular, there will be a bright spot at the center of the shadow (enveloped by fainter, concentric rings) accompanied by bright rings of light that show up on the outside of the disk&amp;#8217;s shadow.&lt;/p&gt;
-&lt;p&gt;This limits the maximum coronagraphic contrast you can achieve with simply a circular disk to about 10&lt;sup&gt;-6&lt;/sup&gt;, even with optically ideal materials. Does this mean that the dream of detecting Earth-sized worlds at Earth-like distances from Sun-like stars with a coronagraph is impossible?&lt;/p&gt;
-&lt;p&gt;No, not necessarily. What it means is that we have to develop better coronagraphic technologies than what&amp;#8217;s achievable with the &amp;#8220;simple optical disk&amp;#8221; configuration. There&amp;#8217;s an incredible amount of science that goes into this — most of which is being conducted at federally funded US institutions like the Space Telescope Science Institute, NASA&amp;#8217;s Goddard and Ames, the Jet Propulsion Laboratory and Caltech, plus the University of Arizona — but &lt;a href="https://science.nasa.gov/astrophysics/programs/exep/technology/scda/"&gt;the general approach is to introduce a segmented coronagraph design&lt;/a&gt;. There&amp;#8217;s a roadmap for how we&amp;#8217;re going to do this, and we&amp;#8217;ve already come so far as we prepare for the launch of NASA&amp;#8217;s next flagship mission: the Nancy Grace Roman Space Telescope.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Technicians in clean suits work on assembling or inspecting a large, partially covered telescope component in a lab setting, using platforms and cranes—a testament to American science and innovation." class="wp-image-573711" height="4870" src="https://bigthink.com/wp-content/uploads/2025/07/ioa-002-1.webp?w=3916" width="3916" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;NASA&amp;#8217;s Nancy Grace Roman telescope has completed construction and is nearly ready for launch. Its instrument suite, including its coronagraph, represents the cutting-edge of instrumentation in astronomy, and should pave the way for even further improved technology aboard the future Habitable Worlds Observatory: enabling the direct imaging of potentially Earth-like planets. At the end of 2025, however, it remains to be seen whether this new, completed flagship observatory will even be launched in 2026, as the scheduled funding allotted to the endeavor is less than the cost of a launch.&lt;/div&gt;&lt;figcaption&gt;
-&lt;p&gt;&lt;a href="https://www.nasa.gov/missions/roman-space-telescope/telescope-for-nasas-roman-mission-complete-delivered-to-goddard/"&gt;Credit&lt;/a&gt;: NASA/Chris Gunn&lt;/p&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;For many years, astronomers focused on instrumentation have been working to improve the capabilities of a coronagraph: particularly one that goes onto a space telescope. The ultimate goal — a goal put forth for the Habitable Worlds Observatory, slated to be the next flagship mission for NASA astrophysics after the already-completed Nancy Grace Roman observatory launches — is to not only achieve that vaunted brightness contrast of 10&lt;sup&gt;-10&lt;/sup&gt;, but to get there at optical, visible light wavelengths. The state-of-the-art coronagraph (the best ever, by far) on board the Nancy Grace Roman telescope should represent an enormous step in that direction: to contrasts of at least 10&lt;sup&gt;-7&lt;/sup&gt; but that could go as high as 10&lt;sup&gt;-9&lt;/sup&gt;, which is an enormous leap over all prior observatories.&lt;/p&gt;
-&lt;p&gt;At least, that&amp;#8217;s how the Roman coronagraph is expected to perform, based on laboratory tests. But how will it perform when it&amp;#8217;s actually in space, attached to the telescope, and observing a target of interest in the wavelength range (i.e., the optical) of interest?&lt;/p&gt;
-&lt;p&gt;In order to find out, we need to have an appropriate target. That means an astronomical target where:&lt;/p&gt;
-&lt;ul class="wp-block-list"&gt;
-&lt;li&gt;the separation between the main star and the secondary object is between 0.15&amp;#8243; and 0.45&amp;#8243;, where an arc-second (denoted by &amp;#8220;) is 1/3600th of a degree,&lt;/li&gt;
-&lt;li&gt;where the secondary object is no more than one ten-millionth (10&lt;sup&gt;-7&lt;/sup&gt;) as bright as the primary object,&lt;/li&gt;
-&lt;li&gt;at a wavelength of less than 600 nanometers.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;In this scenario, such a system would enable Roman to achieve a 5-σ significance (the gold standard for &amp;#8220;discovery&amp;#8221;) detection of the secondary object in under 10 hours of imaging.&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="simulated solar twin with proposed future observatory" class="wp-image-452655" height="840" src="https://bigthink.com/wp-content/uploads/2023/08/HDST_proposed_solar_system_view.jpg?w=840" width="840" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;If the Sun were located at the distance of Alpha Centauri, the future Habitable Worlds Observatory, either with a starshade or a sufficiently advanced coronagraph, would not only be able to directly image Jupiter and Earth, including taking their spectra, but even the planet Venus as well. The farther out giant planets, including Saturn, Uranus, and Neptune, would all be perceptible as well.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://exoplanets.nasa.gov/news/1371/the-next-generation-of-telescopes-are-almost-impossibly-accurate/" target="_blank"&gt;Credit&lt;/a&gt;: L. Pueyo, M. N&amp;rsquo;Diaye (STScI)&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;That&amp;#8217;s where the new research comes in, and what makes it so exciting: for the first time, a naturally occurring astronomical system that actually meets all of these parameters has been discovered! The key to discovering it took many steps, many years of work, and — most importantly — a variety of powerful astronomical facilities in order for it to be possible.&lt;/p&gt;
-&lt;p&gt;First, you have to use astrometry, or the science of tracking a star&amp;#8217;s position and motion over time, to show that it isn&amp;#8217;t just moving through space, but is &amp;#8220;wobbling&amp;#8221; or spiraling as it moves. With satellites like Hipparcos in the 20th century and now Gaia here in the 21st, we&amp;#8217;ve measured the precise positions and motions of more than a billion stars within the Milky Way. Pulling out the candidate stars with motions consistent with the presence of a massive object (e.g., a massive planet or brown dwarf) at the right separation distance for these observations is the first step: not from their radial velocity, but from their observed motions, which indicate relatively face-on systems.&lt;/p&gt;
-&lt;p&gt;Next, you want to use a flagship-class ground-based telescope — one outfitted with a coronagraph, adaptive optics technology, and infrared observing capabilities — to acquire deep images of the system, with the parent star blocked by the coronagraph, at long wavelengths and at multiple different points in time. Sometimes, you&amp;#8217;ll find a bright object: a companion star. Other times, you&amp;#8217;ll find nothing: if there is a secondary, it might be too faint to see. But when the system is just right, you&amp;#8217;ll find a faint, sub-stellar secondary companion, and that&amp;#8217;s the sweet spot.&lt;/p&gt;
-&lt;p&gt;And finally, when the Nancy Grace Roman telescope launches, it can observe that target with its coronagraph at the proper wavelength and for the right duration, enabling us to field-test our progress toward the ultimate goal (of finding an inhabited, Earth-like world) and test our true coronagraphic capabilities.&lt;/p&gt;
-&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Infrared astronomical image revealing a bright spot—possibly an alien Earth—marked by a white arrow, with a yellow star at the center and labeled axes for direction, scale, and date, highlighting this exciting new discovery." class="wp-image-580808" height="1334" src="https://bigthink.com/wp-content/uploads/2025/12/hip54515_movie.gif" width="1401" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;This animation shows the discovery images of the super-Jupiter exoplanet HIP 54515 B, of approximately 18 Jupiter masses at a distance of 25 AU from its parent star. This planet, discovered in 2025, marks only the third exoplanet ever discovered through astrometry.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/1538-3881/ae1a82"&gt;Credit&lt;/a&gt;: T. Currie &amp;#038; Li et al., Astronomical Journal, 2025&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;It&amp;#8217;s only recently that we&amp;#8217;ve been able to use the first two steps of this method to actually find objects that are smaller and fainter than their parent stars but that orbit around them. In fact, the first giant planets that were discovered as a result of using ground-based follow-ups to initial astrometry data &lt;a href="https://www.science.org/doi/10.1126/science.abo6192"&gt;were only announced in 2023&lt;/a&gt;: by a team led by astronomer Thayne Currie. In the time since, Currie&amp;#8217;s group at the University of Texas at San Antonio — in collaboration with many others — has &lt;a href="https://iopscience.iop.org/article/10.3847/1538-3881/ae1a82"&gt;revealed another systems with a super-Jupiter planet&lt;/a&gt;: a remarkable advance in its own right, bringing the total number of such planets found with astrometry and confirmed with follow-up imaging to three.&lt;/p&gt;
-&lt;p&gt;However, that same collaboration, using the same method, has now just revealed a system where a brown dwarf (or a &amp;#8220;failed star&amp;#8221;) orbits its bright, more massive companion with precisely the right properties to field-test the Roman coronagraph.&lt;/p&gt;
-&lt;p&gt;That &lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae195f"&gt;system turns out to be&lt;/a&gt; the star &lt;a href="https://en.wikipedia.org/wiki/33_Bo%C3%B6tis"&gt;33 Boötes&lt;/a&gt; (also known as HIP 71618), located 188 light-years away. The star is bigger than the Sun (about 2.25 solar masses), significantly brighter than the Sun (around 20 times brighter), and younger than the Sun as well (at just 142 million years). However, the astrometry data indicated that it might have a stellar companion, and a combination of Keck Observatory imaging data and data from the Subaru Coronagraphic Extreme Adaptive Optics (SCExAO) system was able to reveal the nature and properties of that secondary companion exquisitely.&lt;/p&gt;
-&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Five infrared telescope images reveal a new discovery: a bright object (indicated by arrows) orbiting a central star (yellow star symbol) at different dates between 2024 and 2025." class="wp-image-580807" height="986" src="https://bigthink.com/wp-content/uploads/2025/12/wavecollapsed-HIP-71618-B-NIR.jpg" width="1566" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;These five separate panels show five different images, all assembled from Subaru (SCExAO/CHARIS) and Keck (KECK/NIRC2) ground-based telescope data acquired with coronagraphs. Although these images were all acquired at long, infrared wavelengths, they enable us to infer what would be visible at optical wavelengths.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae195f"&gt;Credit&lt;/a&gt;: M. El Morsy et al., Astrophysical Journal Letters, 2025&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;The secondary, now known as HIP 71618 B, is:&lt;/p&gt;
-&lt;ul class="wp-block-list"&gt;
-&lt;li&gt;a brown dwarf,&lt;/li&gt;
-&lt;li&gt;separated by around 0.3&amp;#8243; from its primary,&lt;/li&gt;
-&lt;li&gt;on an elliptical orbit (so that the distance from the secondary to the primary changes over time),&lt;/li&gt;
-&lt;li&gt;and is clearly detectable with ground-based telescopes at infrared wavelengths.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;The &lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae195f"&gt;imaging data allows us to fit an orbit to the system&lt;/a&gt;, and tells us that when the Nancy Grace Roman Space Telescope is ready to test its coronagraphic capabilities (during the first half of 2027), the system will be separated by between 0.25&amp;#8243; and 0.27&amp;#8243;: right in the sweet spot for proving the coronagraphic technology&amp;#8217;s capabilities. Because brown dwarfs are so much cooler and fainter than bright, massive stars, however, we need much more contrast in the optical (and far superior coronagraphy) than we require in the infrared (which is accessible with our ground-based telescopes).&lt;/p&gt;
-&lt;p&gt;It&amp;#8217;s not necessarily surprising or groundbreaking to find a brown dwarf orbiting a star more massive than the Sun at the same distance that our gas giant planets orbit our Sun. However, finding a system that can put the Roman coronagraph to this key test — where it can prove that our coronagraphic capabilities are on the right track to image Earth-sized worlds at Earth-like distances around Sun-like stars — is truly revolutionary. As &lt;a href="https://news.utsa.edu/2025/12/researchers-discover-new-worlds-around-uncharted-stars-provide-critical-target-for-nasas-next-space-telescope/"&gt;lead author of the discovery study, Mona El Morsy, put it&lt;/a&gt;:&lt;/p&gt;
-&lt;p&gt;&amp;#8220;The HIP 71618 system checks off the boxes for what we need for the technology demonstration. Its star is suitably bright. Its companion HIP 71618 B is located within a region where these new technologies from Roman will work. At the wavelengths where the Roman Coronagraph will operate, we predict that HIP 71618 B will be faint enough compared to its host star that a strong detection with Roman will validate these technologies.&amp;#8221;&lt;/p&gt;
-&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Two line graphs showing predicted contrasts for the Roman CGI across various wavelengths, with colored lines representing multiple astronomical targets or models—highlighting the search for a new discovery image of an alien Earth." class="wp-image-580805" height="1439" src="https://bigthink.com/wp-content/uploads/2025/12/wavelength-dependence-Roman.jpg" width="1139" /&gt;&lt;/p&gt;
-&lt;div class="img-caption"&gt;
-&lt;div class="img-caption__desc"&gt;
-&lt;div class="img-caption__desc-inner"&gt;In order to demonstrate the appropriate coronagraphic contrast needed to validate our progress toward imaging an Earth-sized planet at Earth-like distances around Sun-like stars, we need a system with the right separation between primary and secondary components, along the right brightness ratios in the right wavelength range. HIP 71618 B is the first known system to meet all of the necessary parameters.
-&lt;/div&gt;
-&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae195f"&gt;Credit&lt;/a&gt;: M. El Morsy et al., Astrophysical Journal Letters, 2025&lt;br /&gt;
-&lt;/figcaption&gt;&lt;/div&gt;
-&lt;/figure&gt;
-&lt;p&gt;This system, to be blunt, is exactly what we&amp;#8217;ve been waiting for. It&amp;#8217;s not the only system that will be interesting for Roman to image with its coronagraph, and it&amp;#8217;s definitely not a unique system out there in the galaxy or the Universe. Rather, it&amp;#8217;s the first key example of a system that can be used for testing, proving, and honing the coronagraphic imaging technologies that are needed to detect, image, and characterize our first &amp;#8220;exo-Earths&amp;#8221; in the future.&lt;/p&gt;
-&lt;p&gt;With each major observatory that we design, build, calibrate, commission, and use, we don&amp;#8217;t just gain the scientific knowledge that arises from the data we collect, although we certainly have gained so much knowledge from Hipparcos, Gaia, Keck, Subaru, Hubble, JWST, and will certainly gain a prodigious amount from Roman as well. In addition, we:&lt;/p&gt;
-&lt;ul class="wp-block-list"&gt;
-&lt;li&gt;gain the ability for these very different observatories (with different strengths, sensitivities, and capabilities) to work together to learn more about the Universe, including from in space &lt;a href="https://bigthink.com/starts-with-a-bang/ground-based-astronomy/"&gt;as well as on the ground&lt;/a&gt;,&lt;/li&gt;
-&lt;li&gt;and gain the technological expertise we need to enable the future observatories, instruments, and technologies that can help us achieve future goals in science and beyond.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;We have the instruments, we have the laboratory infrastructure, we have the facilities, and we have the expertise. The big, ultimate science goal of imaging &amp;#8220;alien Earths&amp;#8221; is within reach, and all we have to do is continue investing in the roadmap that&amp;#8217;s brought us to this point. Learning the answer to perhaps the biggest existential question in the Universe — the question of &amp;#8220;Are we alone?&amp;#8221; — depends on it.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;The author acknowledges Thayne Currie for useful communication regarding these results.&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/new-discovery-imaging-alien-earth/" rel="nofollow"&gt;New discovery sets humanity up to image &amp;#8220;alien Earth&amp;#8221;&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/pleasure-mp_compressed.jpg?w=640" /&gt;&lt;p&gt;Pleasure is a dirty word.&lt;/p&gt;
-&lt;p&gt;I mean this in two ways. First are the connotations or associations of the word. If a colleague asked you, “How much pleasure have you had this morning?” you might fire off an email to HR. If you saw the title “Learning to find pleasure,” or “Enjoy more pleasure,” you’d probably expect it to be in the roped-off section of the bookshop. Pleasure is frequently associated with the erotic. But second, pleasure is a dirty word because, across a variety of religious traditions and over several millennia of philosophical thought, “pleasure” has often been seen as base: vulgar, crude, and animalistic. Those who seek pleasure are no better than pigs rutting and scoffing in the mud.&lt;/p&gt;
-&lt;p&gt;In this week’s Mini Philosophy interview, I spoke with &lt;a href="https://www.uni.lodz.pl/pracownicy/katarzyna-de-lazari-radek"&gt;Katarzyna de Lazari-Radek&lt;/a&gt;, who has literally written the book on pleasure: &lt;em&gt;&lt;a href="https://www.amazon.com/Philosophy-Pleasure-Introduction-Katarzyna-Lazari-Radek/dp/1138093114"&gt;The Philosophy of Pleasure: An Introduction&lt;/a&gt;&lt;/em&gt;. De Lazari-Radek is a hedonist, which means she thinks that the only good in life is pleasure and the only bad in life is pain. We want pleasure; we don’t want pain.&lt;/p&gt;
-&lt;p&gt;For de Lazari-Radek, it is ridiculous to call pleasure bad or dirty because pleasure is an experience — an immediate, unmistakable signal that something is good. And here we learn how to find more of it.&lt;/p&gt;
-&lt;h2 class="wp-block-heading" id="h-the-basic-reality-of-pleasure"&gt;The basic reality of pleasure&lt;/h2&gt;
-&lt;p&gt;Pleasure doesn’t have to be some “higher” mystical state of joy or euphoria. It certainly doesn’t have to be some kind of “guilty indulgence.” Pleasure is a basic, biological feature of being a living animal — as basic as warmth or tiredness. De Lazari-Radek insists it’s not a &lt;em&gt;sensation &lt;/em&gt;— not the same thing as the taste of chocolate or the pressure of a hug — but a &lt;em&gt;feeling&lt;/em&gt;, an evaluative gloss you lay over whatever else is happening. She calls it a “sugar coating” we apply to experience: It’s the sense of “Yes, this.”&lt;/p&gt;
-&lt;p&gt;When you frame pleasure in this way — as an important heuristic or gauge — then it seems ridiculous to say seeking pleasure is bad. In fact, to say “seeking pleasure is bad” is functionally equivalent to saying “it’s bad to do what you want to do.”&lt;/p&gt;
-&lt;p&gt;For de Lazari-Radek, one of the reasons that people have moralized pleasure is that they confuse the &lt;em&gt;experience&lt;/em&gt; of pleasure with the &lt;em&gt;source &lt;/em&gt;of pleasure. “This is why,” she said, “we then talk about good and bad pleasures. Because, yes, of course, if you take pleasure in hurting others, then it may be bad, but that’s because hurting others is bad and not because pleasure itself is bad. I mean, pleasure is just this feeling, yes? So, we need to be clear and careful about saying that certain actions or certain sources may be bad. But there is nothing bad in the experience of pleasure itself. It can&amp;#8217;t be, because it’s exactly how it feels, and almost by definition, it is always good.”&lt;/p&gt;
-&lt;p&gt;For de Lazari-Radek, we need to disentangle pleasure — the feeling and evaluative gloss — from the source of that feeling. Taking pleasure in something might be bad if it involves something bad, but the pleasure itself is good.&lt;/p&gt;
-&lt;h2 class="wp-block-heading" id="h-ways-to-enjoy-pleasure"&gt;Ways to enjoy pleasure&lt;/h2&gt;
-&lt;p&gt;Distinguishing between the source and experience of pleasure raises not only interesting moral questions but also hedonic ones as well. De Lazari-Radek argues that when we start to focus on the source of pleasures, we can learn to enjoy the sheer variety of pleasures that are out there to be enjoyed. Here are three examples from our conversation:&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Self-regarding and other-regarding pleasure:&lt;/strong&gt; Some pleasures might be an act of intentional self-care—a bath, a massage, a walk in the woods. When you come back from work, tired and stressed from that meeting that went on too long, you might crack open a new tub of ice cream. But other pleasures might involve helping other people. As de Lazari-Radek pointed out, “There is enough psychological research to show that for us to be happier, we do need to feel that we are responsible for certain things.” Sometimes, we should consciously commit to things that are other-regarding and that involve charity and responsibility, such as cooking for your children, helping someone at work, or smiling at a stranger in the street.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Present and delayed pleasure:&lt;/strong&gt; How does going for a run fit into the hedonist’s life? How does raising kids, working late at work, or studying really hard? If life is about responsible pleasure, why not just live like a pleasure-seeking moth, fluttering from thrill to thrill?&lt;/p&gt;
-&lt;p&gt;Sometimes, we pursue these things not because they feel good now, but because they create pleasure later. This is a deeply adult kind of hedonism. It’s an understanding that slow mastery, accumulated effort, and long arcs of growth are among the richest pleasure sources available. Give a little to get a lot. Sow the seeds, and reap the rewards. Work hard to play hard.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Expected and unexpected pleasure: &lt;/strong&gt;You get out a glass, pop open the bottle, and pour the wine. As you lift the glass to your lips, you think, “Oooh, yes, this is going to be good.” And it is.&lt;/p&gt;
-&lt;p&gt;Many pleasures are planned and expected in this way. We are rational, deliberative creatures, and we set aside a huge amount of time to plan our pleasure. But de Lazari-Radek also pointed out that pleasure often appears without desire. You pass a bakery and smell fresh bread. Your child laughs in the next room. You overhear a stranger say something unintentionally poetic. “Pleasure just comes in,” she said, and that’s a beautiful and important point. Sometimes happiness just arrives.&lt;/p&gt;
-&lt;p&gt;We can all build our lives to increase the chances of being pleasantly ambushed. More wandering. More curiosity. More stepping away from the algorithmic walls that funnel your attention.&lt;br /&gt;In other words, set yourself up to welcome more pleasure in. There is nothing wrong with pleasure, but a whole lot right. And, if de Lazari-Radek’s hedonism is right, a happy and healthy life might just be one that finds as much ethically sourced pleasure as we can.&lt;/p&gt;
-&lt;/p&gt;
-&lt;p&gt;This article &lt;a href="https://bigthink.com/mini-philosophy/how-to-get-your-ethically-sourced-pleasure/" rel="nofollow"&gt;How to get your ethically sourced pleasure&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>success</t>
@@ -1169,6 +183,238 @@
 The series drew thedisapprovaloffamily-valuesadvocates.  In 1993, Howard Hurwitz, chairman of the Family Defense Council, objected to the promotion of condom use and said that blame should be placed on the gay community for AIDS: "The message is misleading and endangers public health ... Nothing has been said thus far about homosexuals who are largely responsible for the killer disease".  He described the effect of the comic strip as "to titillate, not educate", and disputed the statement that condoms prevent AIDS.  The council began a protest campaign, asking people to write to the Health Department and the  MTA to urge that the series be given a more "family-oriented" message or removed from the subway.  In response, MTA press secretary John Cunningham said the MTA had no plans to stop running the campaign: "We're for more speech, not less ... If Mr. Hurwitz would like to post his message in the subway, we have plenty of advertising space for sale.  He can even apply for a [low cost] public-service-announcement spot.  His group might be eligible."[36]
 In a 2000National Reviewessay,Richard Brookhisernoted the lack of gay or black characters, which he labeled as "tactful omissions".[43]According to David Hinckley, while public-service advertising of the 1990s had in general responded to New York's growing multilingual population by running bilingual campaigns,Julio and Marisolin particular was criticized because it stereotyped Latino men as letting their machismo lead them into making poor decisions.  Annette Ramirez, however, said that was exactly the point they were trying to make.  Ramirez explained that the characters were deliberately written to be generic, with the storyline omitting any personal details, to make as many readers as possible believe the story applied to them.[9]
 Brookhiser objected to the quality of the drawings, saying that the characters move "with mannequin stiffness", comparing the imagination displayed in the frames to mug shots.[43]Art criticArthur Danto, however, described the characters as "marvelously drawn".[44]</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨了人际关系与公共健康之间的联系</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>文章系统性地介绍了一场特定历史时期、针对特定社群的公共卫生运动,提供了关于广告策略、社会文化与疾病传播交叉领域的详实知识。</t>
+  </si>
+  <si>
+    <t>本文回顾了1989至2001年间纽约地铁里一场名为“胡里奥与玛丽索”的漫画广告运动。它以肥皂剧的形式,讲述了一对西班牙裔情侣在艾滋病阴影下的爱情故事,旨在向因文化传统而抗拒使用安全套的社群推广艾滋病防治知识,成为了一代纽约客的集体记忆。</t>
+  </si>
+  <si>
+    <t>本文探讨了在重大公共卫生危机中,如何运用叙事性沟通策略对特定文化社群进行有效的健康干预。文章的核心是分析如何通过一个长期连载、角色驱动的故事,来绕过由性别权力结构(如大男子主义)、宗教教义和语言障碍构成的文化壁垒,以推广被视为禁忌的预防行为。它揭示了在公共空间(如大众运输系统)中,利用通俗艺术形式进行社会教育的潜力,以及这种方式在消解疾病污名化、促进敏感话题公开讨论方面的作用。同时,文章也触及了目标导向型宣传所面临的伦理困境:即在追求文化贴近性的同时,如何避免加深对特定群体的刻板印象。</t>
+  </si>
+  <si>
+    <t>["公共卫生", "广告史", "艾滋病历史", "文化研究", "纽约城市史", "社会运动"]</t>
+  </si>
+  <si>
+    <t>了解新知</t>
+  </si>
+  <si>
+    <t>[{"title": "The Shift", "author": "George Foy", "context": "小说家引用该广告来说明其连载时间之长,小说主角在地铁上看到广告时,感慨自己见证其中一个角色走向死亡的时间,比一些城市里孩子的寿命还要长,以此凸显该广告在纽约日常生活中的持久印记。"}, {"title": "Understanding AIDS", "author": "United States Centers for Disease Control (CDC)", "context": "作为背景信息提及,这是美国疾控中心在1988年大规模分发的一本教育手册,它确立了“安全套是除禁欲外最好的艾滋病预防措施”这一官方立场,为“胡里奥与玛丽索”这类宣传活动提供了科学依据。"}]</t>
+  </si>
+  <si>
+    <t>Big Think-官方</t>
+  </si>
+  <si>
+    <t>The 9 biggest gaps in our understanding of cosmic history</t>
+  </si>
+  <si>
+    <t>2025-12-01 15:00:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/starts-with-a-bang/biggest-gaps-in-cosmic-history/</t>
+  </si>
+  <si>
+    <t>2025-12-04 14:32:44</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/02/mapping-timeline.jpg?w=640" /&gt;&lt;p&gt;The answer to nature&amp;#8217;s greatest riddles are written upon the Universe itself.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="milky way Gaia" class="wp-image-165281" height="3424" src="https://bigthink.com/wp-content/uploads/2022/02/Gaia_the_Galactic_census_takes_shape_pillars.jpg?w=1920" width="1920" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Gaia&amp;rsquo;s all-sky view of our Milky Way Galaxy and neighboring galaxies. The maps show the total brightness and color of stars (top), the total density of stars (middle), and the interstellar dust that fills the galaxy (bottom). Note how, on average, there are approximately ~10 million stars in each square degree, but that some regions, like the galactic plane or the galactic center, have stellar densities well above the overall average.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.esa.int/Science_Exploration/Space_Science/Gaia/Gaia_creates_richest_star_map_of_our_Galaxy_and_beyond" target="_blank"&gt;Credit&lt;/a&gt;: ESA/Gaia/DPAC&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;From the fundamental to the cosmic, science reveals our natural history.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Diagram visually representing one of the biggest mysteries: the origin and evolution of the universe, from the Big Bang on the left to galaxies, stars, and finally Earth on the right, set against a black background." class="wp-image-578488" height="864" src="https://bigthink.com/wp-content/uploads/2025/09/chemical_composition_universe.jpg?w=1536" width="1536" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Our Universe, from the hot Big Bang until the present day, underwent a huge amount of growth and evolution, and continues to do so. Our entire observable Universe was approximately the size of a modest boulder some 13.8 billion years ago, but it has expanded to be ~46 billion light-years in radius today. The complex structure that has arisen must have grown from seed imperfections of at least ~0.003% of the average density early on, and has gone through phases where atomic nuclei, neutral atoms, and stars first formed, eventually giving rise to our Solar System, planet, life, and humans.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://chandra.harvard.edu/xray_astro/dark_matter/index5.html"&gt;Credit&lt;/a&gt;: NASA/CXC/M. Weiss&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Despite all we&amp;#8217;ve learned, these nine major puzzles remain unsolved.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Diagram illustrating the timeline of the universe from inflation to present day, highlighting density and polarization signals over 13.8 billion years—shedding light on some of the biggest mysteries surrounding the origin of the universe." class="wp-image-578489" height="784" src="https://bigthink.com/wp-content/uploads/2025/09/inftotoday.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The quantum fluctuations inherent to space, stretched across the Universe during cosmic inflation, gave rise to the density fluctuations imprinted in the cosmic microwave background, which in turn gave rise to the stars, galaxies, and other large-scale structures in the Universe today. This is the best picture we have of how the entire Universe behaves, where inflation precedes and sets up the Big Bang. Unfortunately, we can only access the information contained inside our cosmic horizon, which is all part of the same fraction of one region where inflation ended some 13.8 billion years ago.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/33K76Dg"&gt;Credit&lt;/a&gt;: E. Siegel; ESA/Planck and the DOE/NASA/NSF Interagency Task Force on CMB research&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;1.) What triggered or preceded cosmic inflation?&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A diagram illustrating one of the biggest mysteries: the origin and expansion of the universe over time, with a web representing space growing outward from a bright starting point on the left." class="wp-image-578490" height="1997" src="https://bigthink.com/wp-content/uploads/2025/09/fluct.jpg?w=3340" width="3340" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;From a region of space as small as can be imagined (all the way down to the Planck scale), cosmological inflation causes space to expand exponentially: relentlessly doubling and doubling again with each tiny fraction-of-a-second that elapses. Although this empties the Universe and stretches it flat, it also contains quantum fluctuations superimposed atop it: fluctuations that will later provide the seeds for cosmic structure within our own Universe. What happened before the final ~10^-32 seconds of inflation, including the question of whether inflation arose from a singular state before it, not only isn&amp;#8217;t known, but may be fundamentally unknowable.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;Credit: Big Think / Ben Gibson&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;a href="https://bigthink.com/starts-with-a-bang/biggest-questions-about-universe-beginning/"&gt;Inflation wasn&amp;#8217;t the beginning&lt;/a&gt;; we &lt;a href="https://bigthink.com/starts-with-a-bang/science-answer-where-universe-come-from/"&gt;don&amp;#8217;t know what was&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A plot showing constraints on the primordial tilt (ns) and tensor-to-scalar ratio (r), with colored regions and curves representing different inflation models and observational datasets, sheds light on how hot big bang conditions shaped the early universe." class="wp-image-579428" height="581" src="https://bigthink.com/wp-content/uploads/2025/10/planckinfconst.jpg?w=1054" width="1054" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Various models of inflation and what they predict for the scalar (x-axis) and tensor (y-axis) fluctuations from inflation. Note how just a small subset of viable inflationary models gives rise to a huge variety of possible predictions for these parameters, and how even with the joint constraints provided by various independent cosmological probes, that many models of inflation remain viable and consistent with the data.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.aanda.org/articles/aa/full_html/2020/09/aa33887-18/aa33887-18.html"&gt;Credit&lt;/a&gt;: Planck collaboration, Astronomy &amp;#038; Astrophysics, 2020&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;2.) What &amp;#8220;flavor&amp;#8221; of inflation occurred?&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Map showing Planck's polarisation of the cosmic microwave background—offering insight into some of the biggest mysteries about the origin of the universe—with zoomed-in sections filtered at 5 degrees and 20 arcminutes for comparison." class="wp-image-578478" height="2480" src="https://bigthink.com/wp-content/uploads/2025/09/2015_CMBPol_Zoom.jpg?w=3508" width="3508" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This map shows the CMB&amp;#8217;s polarization signal, as measured by the Planck satellite in 2015. The top and bottom insets show the difference between filtering the data on particular angular scales of 5 degrees and 1/3 of a degree, respectively. While temperature data, alone, can demonstrate that the CMB is of cosmic nature, the polarization signal gives us key pieces of information relevant to the details of cosmic inflation, including which &amp;#8220;flavors&amp;#8221; of inflation are allowed and disallowed.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.cosmos.esa.int/documents/387566/425793/2015_CMBPol_Zoom/158c0cd9-7377-4967-91a7-b177573cef26?t=1423086653276"&gt;Credit&lt;/a&gt;: ESA and the Planck Collaboration, 2015&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Primordial gravitational waves, cosmic flatness, and primordial non-Gaussianity &lt;a href="https://bigthink.com/starts-with-a-bang/cosmic-inflation-criticism-success/"&gt;observations will inform us&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="gravitational wave contribution to B-mode polarization" class="wp-image-144145" height="600" src="https://bigthink.com/wp-content/uploads/2021/10/https___blogs-images.forbes.com_startswithabang_files_2017_10_1-CjUyUI-D0J2tcR2EFN-1Wg.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The contribution of gravitational waves left over from inflation to the B-mode polarization of the cosmic microwave background has a known shape, but its amplitude is dependent on the specific model of inflation and can only be constrained observationally. These B-modes from gravitational waves from inflation have not yet been observed, but detecting them would help us tremendously in pinning down precisely what type of inflation occurred. A false detection, from the BICEP2 team, famously occurred in the early 2010s, but was swiftly refuted. We now know that the r-ratio, represented on the y-axis, must be no greater than about ~0.01, with future experiments hoping to get down to the 0.001 or even the 0.0001 level.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.cosmos.esa.int/web/planck/science-team" target="_blank"&gt;Credit&lt;/a&gt;: Planck Science Team&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;3.) How did baryogenesis occur?&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-170165" height="578" src="https://bigthink.com/wp-content/uploads/2022/03/higgs_break.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;When the electroweak symmetry (the symmetry that corresponds to the Higgs field) breaks, the combination of CP-violation and baryon number violation can create a matter/antimatter asymmetry where there was none before, owing to the effect of sphaleron interactions working on, for example, a neutrino excess. This can only occur, however, if the electroweak phase transition is first-order, rather than the second-order transition predicted by the Standard Model alone.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;Credit: University of Heidelberg&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;We don&amp;#8217;t know &lt;a href="https://bigthink.com/starts-with-a-bang/how-matter-exist/"&gt;how our Universe&lt;/a&gt; came to be &lt;a href="https://bigthink.com/starts-with-a-bang/universe-matter-dominated/"&gt;matter dominated&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="anitmatter annihilation" class="wp-image-170169" height="540" src="https://bigthink.com/wp-content/uploads/2022/03/antimatter.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;In the very early Universe, there were tremendous numbers of quarks, leptons, antiquarks, and antileptons of all species. After only a tiny fraction-of-a-second has elapsed since the hot Big Bang, most of these matter-antimatter pairs annihilate away, leaving a very tiny excess of matter over antimatter. How that excess came about is a puzzle known as baryogenesis, and it is one of the greatest unsolved problems in modern physics.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/33K76Dg" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;4.) What is the nature of dark matter?&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Six panels show clusters of galaxies in space, with bright stars and galaxies overlaid by colored regions in blue and pink indicating gas and dark matter distribution—shedding light on some of the biggest mysteries surrounding the origin of our universe." class="wp-image-578483" height="1369" src="https://bigthink.com/wp-content/uploads/2025/09/6DM.jpg?w=2431" width="2431" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The X-ray (pink) and overall matter (blue) maps of various colliding galaxy clusters show a clear separation between normal matter and gravitational effects, some of the strongest evidence for dark matter. The X-rays come in two varieties, soft (lower-energy) and hard (higher-energy), where galaxy collisions can create temperatures ranging from several hundreds of thousands of degrees up to ~100 million K. Meanwhile, the fact that the gravitational effects (in blue) are displaced from the location of the mass from the normal matter (pink) shows that dark matter must be present. Without dark matter, these observations (along with many others) cannot be sufficiently explained.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://science.nasa.gov/asset/hubble/six-galaxy-cluster-collisions-with-dark-matter-maps-hubble-and-chandra/"&gt;Credit&lt;/a&gt;: NASA, ESA, D. Harvey (&amp;Eacute;cole Polytechnique F&amp;eacute;d&amp;eacute;rale de Lausanne, Switzerland; University of Edinburgh, UK), R. Massey (Durham University, UK), T. Kitching (University College London, UK), and A. Taylor and E. Tittley (University of Edinburgh, UK)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Despite &lt;a href="https://bigthink.com/starts-with-a-bang/5-truths-dark-matter/"&gt;overwhelming astrophysical evidence&lt;/a&gt; for its presence, its &lt;a href="https://bigthink.com/starts-with-a-bang/dark-matter-nightmare-scenario/"&gt;nature remains elusive&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-227647" height="889" src="https://bigthink.com/wp-content/uploads/2022/07/4-constraints-Xenon.jpeg?w=1235" width="1235" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This 4-panel graph shows constraints on solar axions, on the neutrino magnetic moment, and on two different &amp;#8220;flavors&amp;#8221; of dark matter candidates, all constrained by the latest XENONnT results. These are the best such constraints in physics history, and remarkably demonstrate just how good the XENON collaboration has gotten at what they do. Axions, like other dark matter candidates, have not yielded a positive direct detection signature yet.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://arxiv.org/abs/2207.11330" target="_blank"&gt;Credit&lt;/a&gt;: E. Aprile et al. for the XENON Collaboration, arXiv:2207.11330, 2022&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;5.) How and when did the first stars appear?&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A colorful, irregular galaxy with bright clusters of stars, some possibly from a generation stars before sun, and nebulae against a dark background scattered with distant stars." class="wp-image-579046" height="1125" src="https://bigthink.com/wp-content/uploads/2025/10/Full-Res.jpg?w=2000" width="2000" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The dwarf galaxy UGCA 281, shown here as imaged by Hubble in the visible and ultraviolet, is rapidly forming new stars. An older, background population of redder stars coexists alongside the newer, bluer stars that are superimposed atop them. The newly-formed stars are largely heavily-enriched Population I stars, while the older stars are largely metal-poor Population II stars. No pristine, metal-free, Population III stars are yet known.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://science.nasa.gov/asset/hubble/ugca-281/"&gt;Credit&lt;/a&gt;: NASA, ESA, LEGUS Team&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The &lt;a href="https://bigthink.com/starts-with-a-bang/what-are-first-stars/"&gt;first generation of stars&lt;/a&gt;, formed &lt;a href="https://bigthink.com/starts-with-a-bang/first-stars-began-shine/"&gt;after the Big Bang&lt;/a&gt;, &lt;a href="https://bigthink.com/starts-with-a-bang/universe-first-stars/"&gt;remains undiscovered&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Two graphs: the top shows spectral data with annotated lines from three telescopes, exploring one of the biggest mysteries—the origin of the universe; the bottom plots UV spectral slope versus absolute UV magnitude with highlighted data points and colored bands." class="wp-image-578482" height="819" src="https://bigthink.com/wp-content/uploads/2025/09/H-He-O-spec.jpg?w=1141" width="1141" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This graph shows the combination of the Hubble, JWST NIRCam, and JWST NIRSpec data for galaxy RXJ2129-z8HeII. There is an unusually strong, blue tilt to the stellar spectrum of this object, but the evidence for any pristine material amidst the highly enriched gas and stars that are present is too flimsy to make a compelling case for the presence of any pristine, Population III (a.k.a., the &amp;#8220;first&amp;#8221;) stars. No such population, as of 2025, has yet been found.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ad4ced"&gt;Credit&lt;/a&gt;: X. Wang et al., Astrophysical Journal Letters, 2024&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;6.) How &amp;#8220;alone&amp;#8221; are we in the Universe?&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Two space telescopes with solar panel arrays are shown against a plain, dark background. NASA's Habitable Worlds Observatory is represented by one with a hexagonal mirror, highlighting its role in advancing space science." class="wp-image-574366" height="576" src="https://bigthink.com/wp-content/uploads/2025/08/HWO_EAC_Mirrors_Update_V001.00300_print.jpg?w=1024" width="1024" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;These two designs represent artist concepts for the potential look and architecture of the upcoming, planned NASA astrophysics flagship mission of HWO: the Habitable Worlds Observatory. It will represent a truly generational leap, the same way Hubble or JWST did for NASA science. As the #1 recommended mission by the National Academy of Sciences&amp;rsquo; 2020 decadal survey, it will be the first mission to directly image Earth-sized worlds at Earth-like distances around Sun-like stars, but only if we design, advance, fund, and build it, along with the full relevant suite of instruments.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://svs.gsfc.nasa.gov/20395/"&gt;Credit&lt;/a&gt;: NASA&amp;#8217;s Goddard Space Flight Center Conceptual Image Lab&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;a href="https://bigthink.com/starts-with-a-bang/first-living-worlds/"&gt;When and where&lt;/a&gt; &lt;a href="https://bigthink.com/starts-with-a-bang/5-questions-origin-of-life/"&gt;did life arise&lt;/a&gt;, and &lt;a href="https://bigthink.com/starts-with-a-bang/alien-life-stephen-king/"&gt;how common is it&lt;/a&gt;? We still know &lt;a href="https://bigthink.com/starts-with-a-bang/origin-of-life-169450/"&gt;almost nothing&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A vertical chart outlines six assessment levels for measuring biogenic activity, from initial detection of organics on Mars to independent confirmation of life, with corresponding measurement indicators for each level." class="wp-image-575472" height="960" src="https://bigthink.com/wp-content/uploads/2025/09/COLD_scale.jpg?w=839" width="839" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The Confidence of Life Detection (CoLD) scale is a way for scientists to quantify how confident we are that a potential biosignature actually arose from the activity of life. Signatures like &amp;#8220;methane on Mars&amp;#8221; or the new features found inside Perseverance&amp;#8217;s latest sedimentary rock (as well as ancient Mars Viking results) have only risen to Level 1 on this scale. Until we reach at least Level 4, ruling out abiotic pathways to creating the observed signatures, appropriate skepticism (including disbelief) of any claims of life&amp;#8217;s involvement is warranted.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.nasa.gov/news-release/nasa-says-mars-rover-discovered-potential-biosignature-last-year/"&gt;Credit&lt;/a&gt;: NASA&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;7.) How did life on Earth begin?&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-155192" height="720" src="https://bigthink.com/wp-content/uploads/2021/11/https___blogs-images.forbes.com_startswithabang_files_2018_01_1-IJ1le1BhVPmsYvPSMCmNvw.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Deep under the sea, around hydrothermal vents, where no sunlight reaches, life still thrives on Earth. How to create life from non-life is one of the great open questions in science today, but hydrothermal vents are one of the leading locations where the first metabolic processes, the precursor to living organisms, may have first arisen. If life can exist down there on Earth, perhaps undersea on Europa or Enceladus, there&amp;#8217;s life down there, too.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://oceanexplorer.noaa.gov/okeanos/explorations/ex1103/logs/july20/july20.html" target="_blank"&gt;Credit&lt;/a&gt;: NOAA Office of Ocean Exploration and Research&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;We know &lt;a href="https://bigthink.com/starts-with-a-bang/life-begin-cell/"&gt;so much about biology, biochemistry, and evolution&lt;/a&gt;, but &lt;a href="https://bigthink.com/starts-with-a-bang/universe-born-life/"&gt;haven&amp;#8217;t solved the abiogenesis&lt;/a&gt; puzzle.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="peptide coevolution" class="wp-image-185518" height="775" src="https://bigthink.com/wp-content/uploads/2022/05/peptide-coevolution.jpg?w=1008" width="1008" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;If life began with a random peptide that could metabolize nutrients/energy from its environment, replication could then ensue from peptide-nucleic acid coevolution. Here, DNA-peptide coevolution is illustrated, but it could work with RNA or even PNA as the nucleic acid instead. Asserting that a &amp;#8220;divine spark&amp;#8221; is needed for life to arise is a classic &amp;#8220;God-of-the-gaps&amp;#8221; argument, but asserting that we know exactly how life arose from non-life is also a fallacy. These conditions, including rocky planets with these molecules present on their surfaces, likely existed within the first 1-2 billion years of the Big Bang.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://chemistry-europe.onlinelibrary.wiley.com/doi/abs/10.1002/chem.201800500" target="_blank"&gt;Credit&lt;/a&gt;: A. Chotera et al., Chemistry Europe, 2018&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;8.) What is dark energy&amp;#8217;s nature?&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A cartoon of three cosmic phenomena (CMB, Baryon Acoustic Oscillations, Supernovae) pulling on a triangle. Text below reads: &amp;quot;Something has to give..." class="wp-image-563005" height="1500" src="https://bigthink.com/wp-content/uploads/2025/03/clairel.jpg?w=2667" width="2667" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This fun graphic illustrates the tension on &amp;Lambda;, Einstein&amp;#8217;s cosmological constant, exerted by combining supernova data (right), baryon acoustic oscillations (left), and the cosmic microwave background (top). When all three data sets are combined, the idea of a cosmological constant struggles to hold together; it&amp;#8217;s possible that something, but perhaps not necessarily &amp;Lambda;, is going to give.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://cmlamman.github.io/"&gt;Credit&lt;/a&gt;: Claire Lamman&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Is it a cosmological constant? And from where does it arise?&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Comparison of DESI and DES data illustrating ( w_0 ) and ( w_a ) parameter constraints using various datasets, represented by multiple colored ellipses across three plots, shedding light on the dark energy weakening hypothesis." class="wp-image-563015" height="363" src="https://bigthink.com/wp-content/uploads/2025/03/DESIwandwo.jpg?w=1074" width="1074" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;These graphs show the fit for evolving dark energy, in terms of the parameters w_0 and w_a, where a constant cosmological constant for dark energy corresponds to w_a = 0 and w_0 = -1, exactly. Note that the DESI data on its own is consistent with constant dark energy, but when you combine CMB and supernova (for example, DESY5, as shown in the middle panel) data with it, it favors evolving dark energy instead.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://data.desi.lbl.gov/doc/papers/"&gt;Credit&lt;/a&gt;: DESI Collaboration/M. Abdul-Karim et al., DESI DR2 Results, 2025&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;9.) What&amp;#8217;s our ultimate cosmic fate?&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="dark energy fate" class="wp-image-148237" height="805" src="https://bigthink.com/wp-content/uploads/2021/10/https___blogs-images.forbes.com_startswithabang_files_2017_12_0_uI_GtoHyQfXNSmMH.jpg?w=800" width="800" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The expected fates of the Universe (top three illustrations) all correspond to a Universe where the matter and energy combined fight against the initial expansion rate. In our observed Universe, a cosmic acceleration is caused by some type of dark energy, which is hitherto unexplained. All of these Universes are governed by the Friedmann equations, which relate the expansion of the Universe to the various types of matter and energy present within it.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/3FXKUnO" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Big crunch? Big rip? A heat death? Or a rejuvenated cycle? The quest to find out continues.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="big crunch" class="wp-image-193029" height="2200" src="https://bigthink.com/wp-content/uploads/2022/05/future_universe_300dpi-e1716333806201.jpg?w=3300" width="3300" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The far distant fates of the Universe offer a number of possibilities, but if dark energy is truly a constant, as the data best indicates, it will continue to follow the red curve, leading to the long-term scenario frequently described on Starts With A Bang: of the eventual heat death of the Universe. If dark energy can strengthen, weaken, or reverse sign over time, however, all bets are off, and alternative possibilities, like a Big Crunch or a Big Rip, suddenly abound.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://imagine.gsfc.nasa.gov/science/featured_science/tenyear/darkenergy.html" target="_blank"&gt;Credit&lt;/a&gt;: NASA/CXC/M. Weiss&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;em&gt;Mostly Mute Monday tells a scientific story in images, visuals, and no more than 200 words.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/biggest-gaps-in-cosmic-history/" rel="nofollow"&gt;The 9 biggest gaps in our understanding of cosmic history&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>The answer to nature’s greatest riddles are written upon the Universe itself.
@@ -1256,6 +502,42 @@
 This articleThe 9 biggest gaps in our understanding of cosmic historyis featured onBig Think.</t>
   </si>
   <si>
+    <t>具备独特视角的宇宙历史观察</t>
+  </si>
+  <si>
+    <t>文章系统性地梳理了现代宇宙学前沿的九大未解之谜,以清晰的图文形式普及了复杂的科学概念,是高质量的科普佳作。</t>
+  </si>
+  <si>
+    <t>宇宙从何而来? 暗物质是什么? 这篇文章用通俗的语言和震撼的图片,带你探索现代宇宙学最令人着迷的九个未解之谜,一窥人类知识的边界。</t>
+  </si>
+  <si>
+    <t>探讨人类知识的边界以及科学探究的本质。文章通过呈现宇宙学领域的根本性难题,揭示了理论模型与观测证据之间的动态关系。其核心并非提供答案,而是描绘出一个结构化的“未知领域地图”,展现了科学如何通过精确定义问题来推动认知疆域的拓展。这反映了一种智识上的追求:在面对存在、起源与终极规律等宏大命题时,人类如何构建因果叙事,并与经验世界的极限进行持续对话,从而理解自身在宇宙尺度下的位置与意义。</t>
+  </si>
+  <si>
+    <t>["宇宙学", "科普", "物理学", "未解之谜"]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>澎湃思想市场-手机端</t>
+  </si>
+  <si>
+    <t>考古学家与历史学家：与吉奥乔·阿甘本的对话</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-04 14:01:00</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32005848</t>
+  </si>
+  <si>
+    <t>2025-12-04 14:32:58</t>
+  </si>
+  <si>
     <t>前言
 吉奥乔·阿甘本和帕特里克·布舍龙作品的展开方式迥然不同。这位意大利哲学家和这位法国哲学家有何共同之处？也许，他们的共同之处就在于看似把他们分开的东西：语言[langue]——（两门）语言[langues]：他们共同使用的意大利语和法语。但也在于“领域”，他们都更喜欢、但也不只是研究中世纪和文艺复兴时期的意大利。以及最重要的，他们加诸写作及其在思想演练中的多种机制上的重要性。他们也都有某种可以用福柯的“考古学”这个术语来总结的信念，那就是，如果我们想打造概念来描述当下的话，那么，我们就必须质问（多样的）历史传统。而对阿甘本和对布舍龙来说，这种考古学，与一种政治上的关切密不可分。
 在《Critique》的提议下，他们在2016年秋天进行了一次对话。这次以问答形式进行的访谈没有任何预先设定的协议和计划，也没有确定的期限：它只是被这期专号的“封版”给中断（暂停？）了。并非结束，而是处于延音状态。
@@ -1314,6 +596,59 @@
 【中译者注】：由于没有阅读法文原文的权限，本文主要依据英译本译出。</t>
   </si>
   <si>
+    <t>具备独特视角的哲学对话，探讨历史与思想的关系</t>
+  </si>
+  <si>
+    <t>文章通过两位思想家的深度对话,探讨了哲学、政治与历史的底层逻辑,极具思辨性,不断挑战读者对语言、权力和个体存在等基本概念的既有认知。</t>
+  </si>
+  <si>
+    <t>这是一场意大利哲学家阿甘本与法国历史学家布舍龙的深度对谈。他们围绕写作、思想与政治展开,探讨了如何通过“考古学”的方式回溯历史以理解当下。对话涉及语言的界限、私人生活的政治潜能,以及在既定制度之外,“不为”的力量如何可能成为一种真正的政治行动。</t>
+  </si>
+  <si>
+    <t>本文探讨了思想与历史的考古学方法论,即如何通过质询传统来锻造理解当下的概念。它深入剖析了“建立”与“废除”两种力量之间的政治辩证关系,认为真正的政治潜能可能蕴含于对既定制度的“罢免”或“非作”(inoperativity)之中。文章进一步审视了思想与个体主体的关系,强调想象力在连接个体特殊性与普遍理智中的作用。同时,它揭示了语言内部的断裂——符号系统与言说行动之间的鸿沟——并视哲学为弥合此断裂的努力。最终,它将政治的神秘指向被传统政治所排斥的“私人生活”的隐秘领域,探索一种基于生命形式本身的、反英雄主义的政治可能性。</t>
+  </si>
+  <si>
+    <t>["当代哲学", "政治哲学", "语言哲学", "历史哲学", "吉奥乔·阿甘本", "生命政治"]</t>
+  </si>
+  <si>
+    <t>激发思维</t>
+  </si>
+  <si>
+    <t>[{"title": "Homo Sacer (神圣人)项目", "author": "吉奥乔·阿甘本", "context": "作为对话的起点,布舍龙询问阿甘本关于完成又未完成此宏大哲学项目的看法,引出关于“放弃”与“延续”的讨论。"}, {"title": "身体使用 (The Use of Bodies)", "author": "吉奥乔·阿甘本", "context": "该书是Homo Sacer项目的终章,其序言中关于“作品只会被放弃”的论述,是本次对话的第一个核心议题。"}, {"title": "分离批判 (Critique of Separation)", "author": "居依·德波", "context": "阿甘本引用德波在这部电影中对“私人生活之‘暗中性’”的论述,探讨被传统政治排斥的私人领域所蕴含的政治潜能。"}, {"title": "传统的历史和对文本的批判 (History of the Tradition and Critique of the Text)", "author": "吉奥乔·帕斯夸里", "context": "阿甘本引用这位语文学家著作的标题,来说明自己的“考古学”方法:我们接触的文化遗产总是被篡改过的传统,而“源始”诞生于与这个传统进行批判性搏斗的当下时刻。"}, {"title": "火与故事 (The Fire and the Tale)", "author": "吉奥乔·阿甘本", "context": "布舍龙提及此书,询问阿甘本是否认为严谨的学术研究与文学创作可以源于同一种神秘的冲动。"}]</t>
+  </si>
+  <si>
+    <t>SMSPommern</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-02 08:00:00</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251202000000/en</t>
+  </si>
+  <si>
+    <t>&lt;div class="mw-content-ltr mw-parser-output" dir="ltr" lang="en"&gt;&lt;div id="mp-tfa-img" style="float: left; margin: 0.5em 0.9em 0.4em 0em;"&gt;
+&lt;div class="thumbinner mp-thumb" style="background: transparent; color: inherit; border: none; padding: 0;"&gt;
+&lt;span&gt;&lt;a class="mw-file-description" href="/wiki/File:Bundesarchiv_DVM_10_Bild-23-61-21,_Linienschiff_%22SMS_Pommern%22.jpg" title="SMS Pommern"&gt;&lt;img alt="SMS Pommern" class="mw-file-element" height="94" src="//upload.wikimedia.org/wikipedia/commons/thumb/9/9d/Bundesarchiv_DVM_10_Bild-23-61-21%2C_Linienschiff_%22SMS_Pommern%22.jpg/250px-Bundesarchiv_DVM_10_Bild-23-61-21%2C_Linienschiff_%22SMS_Pommern%22.jpg" width="140" /&gt;&lt;/a&gt;&lt;/span&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&lt;b&gt;&lt;a href="/wiki/SMS_Pommern" title="SMS Pommern"&gt;SMS &lt;span title="German-language text"&gt;&lt;i lang="de"&gt;Pommern&lt;/i&gt;&lt;/span&gt;&lt;/a&gt;&lt;/b&gt; was a &lt;a href="/wiki/Deutschland-class_battleship" title="Deutschland-class battleship"&gt;&lt;i&gt;Deutschland&lt;/i&gt;-class&lt;/a&gt; &lt;a href="/wiki/Pre-dreadnought_battleship" title="Pre-dreadnought battleship"&gt;pre-dreadnought battleship&lt;/a&gt; built for the &lt;a href="/wiki/Imperial_German_Navy" title="Imperial German Navy"&gt;Imperial German Navy&lt;/a&gt; at the &lt;a href="/wiki/AG_Vulcan_Stettin" title="AG Vulcan Stettin"&gt;AG Vulcan Stettin&lt;/a&gt; yard at &lt;a href="/wiki/Szczecin" title="Szczecin"&gt;Stettin&lt;/a&gt;, Germany. Named after the &lt;a href="/wiki/Prussia" title="Prussia"&gt;Prussian&lt;/a&gt; province of &lt;a href="/wiki/Province_of_Pomerania_(1815%E2%80%931945)" title="Province of Pomerania (1815–1945)"&gt;Pomerania&lt;/a&gt;, she was &lt;a href="/wiki/Keel_laying" title="Keel laying"&gt;laid down&lt;/a&gt; on 22 March 1904, &lt;a href="/wiki/Ceremonial_ship_launching" title="Ceremonial ship launching"&gt;launched&lt;/a&gt; on 2 December 1905, and commissioned into the navy on 6 August 1907. The ship was armed with four &lt;a href="/wiki/28_cm_SK_L/40_gun" title="28 cm SK L/40 gun"&gt;28 cm (11 in) guns&lt;/a&gt; and had a top speed of 18 knots (33 km/h; 21 mph). &lt;span title="German-language text"&gt;&lt;i lang="de"&gt;Pommern&lt;/i&gt;&lt;/span&gt; was assigned to &lt;a href="/wiki/II_Battle_Squadron" title="II Battle Squadron"&gt;II Battle Squadron&lt;/a&gt; of the &lt;a href="/wiki/High_Seas_Fleet" title="High Seas Fleet"&gt;High Seas Fleet&lt;/a&gt;. At the start of &lt;a href="/wiki/World_War_I" title="World War I"&gt;World War I&lt;/a&gt;, she was stationed at the &lt;a href="/wiki/Elbe" title="Elbe"&gt;Elbe&lt;/a&gt; to support the defenses of the &lt;a href="/wiki/German_Bight" title="German Bight"&gt;German Bight&lt;/a&gt;. She participated in sorties into the North Sea in attempts to destroy portions of the British &lt;a href="/wiki/Grand_Fleet" title="Grand Fleet"&gt;Grand Fleet&lt;/a&gt;. These offensive operations culminated in the &lt;a href="/wiki/Battle_of_Jutland" title="Battle of Jutland"&gt;Battle of Jutland&lt;/a&gt;, where she was hit by torpedoes, which detonated one of her 17-centimeter (6.7 in) gun &lt;a href="/wiki/Magazine_(artillery)" title="Magazine (artillery)"&gt;magazines&lt;/a&gt;. The resulting explosion broke the ship in half and killed the entire crew. &lt;i&gt;(&lt;b&gt;&lt;a href="/wiki/SMS_Pommern" title="SMS Pommern"&gt;This article&lt;/a&gt;&lt;/b&gt; is part of a &lt;a href="/wiki/Wikipedia:Featured_topics" title="Wikipedia:Featured topics"&gt;featured topic&lt;/a&gt;: &lt;b&gt;&lt;a href="/wiki/Wikipedia:Featured_topics/Battleships_of_Germany" title="Wikipedia:Featured topics/Battleships of Germany"&gt;&lt;i&gt;Battleships of Germany&lt;/i&gt;&lt;/a&gt;&lt;/b&gt;.)&lt;/i&gt;
+&lt;/p&gt;
+&lt;div class="tfa-recent" style="text-align: right;"&gt;
+Recently featured: &lt;div class="hlist inline"&gt;
+&lt;ul&gt;&lt;li&gt;&lt;i&gt;&lt;a href="/wiki/Julio_and_Marisol" title="Julio and Marisol"&gt;Julio and Marisol&lt;/a&gt;&lt;/i&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="/wiki/Mechanical_Turk" title="Mechanical Turk"&gt;Mechanical Turk&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="/wiki/KEXP-FM" title="KEXP-FM"&gt;KEXP-FM&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/div&gt;&lt;/div&gt;
+&lt;div class="hlist tfa-footer noprint" style="text-align: right;"&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:Today%27s_featured_article/December_2025" title="Wikipedia:Today's featured article/December 2025"&gt;Archive&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a class="extiw" href="https://lists.wikimedia.org/postorius/lists/daily-article-l.lists.wikimedia.org/" title="mail:daily-article-l"&gt;By email&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a class="mw-redirect" href="/wiki/Wikipedia:Featured_articles_(linked_from_TFAfooter)" title="Wikipedia:Featured articles (linked from TFAfooter)"&gt;More featured articles&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:About_Today%27s_featured_article" title="Wikipedia:About Today's featured article"&gt;About&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>SMSPommern[a]was one of fiveDeutschland-classpre-dreadnought battleshipsbuilt for the GermanKaiserliche Marine(Imperial Navy) between 1904 and 1906. Named after thePrussianprovince ofPomerania, she was built at theAG Vulcanyard atStettin, Germany (nowSzczecin, Poland), where she waslaid downon 22 March 1904 andlaunchedon 2 December 1905. She was commissioned into the navy on 6 August 1907. The ship was armed with a battery of four28 cm (11 in) gunsand had a top speed of 18 knots (33 km/h; 21 mph). The ships of her class were already outdated by the time they entered service, being inferior in size, armor, firepower, and speed to the revolutionary new battleshipHMSDreadnought.
 After commissioning,Pommernwas assigned toII Battle Squadronof theHigh Seas Fleet, where she served throughout her peacetime career and the first two years ofWorld War I. Before the war, the fleet was primarily occupied with cruises and extensive training exercises, developing strategic concepts for use in a future conflict. At the start of the war,Pommernand the rest of II Battle Squadron were tasked with supporting the defenses of theGerman Bight, and were stationed at the mouth of theElbe. They also participated in several fruitless sortiesinto the North Seain attempts to lure out and destroy a portion of the BritishGrand Fleet.
 These offensive operations culminated in theBattle of Jutlandon 31 May – 1 June 1916.Pommernand her sisters briefly engaged the British battlecruisers commanded byDavid Beattylate on the first day, andPommernwas hit once by a 12 in (30.5 cm) shell from the battlecruiserHMSIndomitable. During the confused night actions in the early hours of 1 June, she was hit by one, or possibly two, torpedoes from the British destroyerHMSOnslaught, which detonated one ofPommern's 17-centimeter (6.7 in) gunmagazines. The resulting explosion broke the ship in half and killed the entire crew.Pommernwas the only battleship of either side sunk during the battle.
@@ -1331,6 +666,44 @@
 Scheer decided to reverse the course of the fleet with theGefechtskehrtwendung(battle about turn), a maneuver that required every unit in the German line to turn 180° simultaneously.[34]As a result of their having fallen behind, the ships of II Battle Squadron could not conform to the new course following the turn,[35]soPommernand the other five ships of the squadron were located on the disengaged side of the German line. Mauve considered moving his ships to the rear of the line, astern of III Battle Squadron dreadnoughts, but decided against it when he realized the movement would interfere with the maneuvering of Hipper's battlecruisers. Instead, he attempted to place his ships at the head of the line.[36]
 Later in the evening of the first day of the battle, the hard-pressed battlecruisers of I Scouting Group were being pursued by their British opponents.Pommernand the other so-called "five-minute ships" came to their aid by steaming in between the opposing battlecruiser squadrons.[37][d]Pommerncould not make out a target in the darkness, but several of her sisters could, though their shooting was ineffective.[38]The British battlecruisers scored several hits on the German ships, including one onPommernby a 12-inch (30.5 cm) shell fired byIndomitable,[39]forcing her to haul out of line. Mauve ordered an8-pointturn to the south to disengage from the British, and they did not follow.[38]
 At 3:10 on the morning of 1 June,Pommernwas torpedoed by the British destroyerOnslaught. At least one torpedo, and possibly a second, struck the ship, detonating one of the 17 cm ammunition magazines.[40]A tremendous explosion broke the ship in half. The stern capsized and remained afloat for at least 20 minutes with her propellers jutting into the air.[41]Hannover, the ship directly astern ofPommern, was forced to haul out of line to avoid the wreck.Pommern's entire crew of 839 officers and enlisted men were killed when the ship sank.[42]She was the only battleship, pre-dreadnought or dreadnought, in either fleet to be sunk at Jutland;[43]her loss, coupled with the vulnerabilities of the surviving pre-dreadnoughts, prompted Scheer to leave them behind during thesortie of 18–19 August 1916.[44]The ship's bow ornament, which had been removed at the outbreak of war in July 1914, is preserved at theLaboe Naval Memorial.[14]</t>
+  </si>
+  <si>
+    <t>内容过于枯燥晦涩，缺乏通俗化的叙述</t>
+  </si>
+  <si>
+    <t>已拒绝</t>
+  </si>
+  <si>
+    <t>Ovalipes catharus</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-03 08:00:00</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251203000000/en</t>
+  </si>
+  <si>
+    <t>&lt;div class="mw-content-ltr mw-parser-output" dir="ltr" lang="en"&gt;&lt;div id="mp-tfa-img" style="float: left; margin: 0.5em 0.9em 0.4em 0em;"&gt;
+&lt;div class="thumbinner mp-thumb" style="background: transparent; color: inherit; border: none; padding: 0;"&gt;
+&lt;span&gt;&lt;a class="mw-file-description" href="/wiki/File:Ovalipes_catharus_dorsal_plate.jpg" title="Ovalipes catharus"&gt;&lt;img alt="Ovalipes catharus" class="mw-file-element" height="119" src="//upload.wikimedia.org/wikipedia/commons/thumb/e/e5/Ovalipes_catharus_dorsal_plate.jpg/250px-Ovalipes_catharus_dorsal_plate.jpg" width="165" /&gt;&lt;/a&gt;&lt;/span&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&lt;i&gt;&lt;b&gt;&lt;a href="/wiki/Ovalipes_catharus" title="Ovalipes catharus"&gt;Ovalipes catharus&lt;/a&gt;&lt;/b&gt;&lt;/i&gt;, commonly known as the paddle crab, swimming crab, or &lt;span title="Māori-language text"&gt;&lt;i lang="mi"&gt;pāpaka&lt;/i&gt;&lt;/span&gt; in &lt;a href="/wiki/M%C4%81ori_language" title="Māori language"&gt;Māori&lt;/a&gt;, is a species of crab found in shallow, sandy-bottomed waters around the coasts of New Zealand, the &lt;a href="/wiki/Chatham_Islands" title="Chatham Islands"&gt;Chatham Islands&lt;/a&gt;, and uncommonly in southern Australia. This species is an opportunistic, aggressive, and versatile feeder active mostly at night, preying predominantly on &lt;a href="/wiki/Mollusca" title="Mollusca"&gt;molluscs&lt;/a&gt; and &lt;a href="/wiki/Crustacean" title="Crustacean"&gt;crustaceans&lt;/a&gt;. It is also highly prone to &lt;a href="/wiki/Cannibalism" title="Cannibalism"&gt;cannibalism&lt;/a&gt;, which accounts for over a quarter of its diet in some locations. The crab's paddle-shaped rear legs and streamlined &lt;a href="/wiki/Carapace" title="Carapace"&gt;carapace&lt;/a&gt; allow it to capture prey by swimming rapidly and to escape predation by burrowing in the sand. Its &lt;a href="/wiki/Seasonal_breeder" title="Seasonal breeder"&gt;mating season&lt;/a&gt; is in winter and spring, after which the female likely moves into deeper waters to &lt;a href="/wiki/Marine_larval_ecology" title="Marine larval ecology"&gt;incubate and disperse her larvae&lt;/a&gt;. &lt;a href="/wiki/Commercial_fishing" title="Commercial fishing"&gt;Commercial fisheries&lt;/a&gt; have harvested paddle crabs since the 1970s, and &lt;i&gt;O. catharus&lt;/i&gt; is present in &lt;a href="/wiki/M%C4%81ori_culture" title="Māori culture"&gt;Māori culture&lt;/a&gt; as both an artistic motif and as a traditional source of food. &lt;i&gt;(&lt;b&gt;&lt;a href="/wiki/Ovalipes_catharus" title="Ovalipes catharus"&gt;Full article...&lt;/a&gt;&lt;/b&gt;)&lt;/i&gt;
+&lt;/p&gt;
+&lt;div class="tfa-recent" style="text-align: right;"&gt;
+Recently featured: &lt;div class="hlist inline"&gt;
+&lt;ul&gt;&lt;li&gt;&lt;a href="/wiki/SMS_Pommern" title="SMS Pommern"&gt;SMS &lt;i&gt;Pommern&lt;/i&gt;&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;i&gt;&lt;a href="/wiki/Julio_and_Marisol" title="Julio and Marisol"&gt;Julio and Marisol&lt;/a&gt;&lt;/i&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="/wiki/Mechanical_Turk" title="Mechanical Turk"&gt;Mechanical Turk&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/div&gt;&lt;/div&gt;
+&lt;div class="hlist tfa-footer noprint" style="text-align: right;"&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:Today%27s_featured_article/December_2025" title="Wikipedia:Today's featured article/December 2025"&gt;Archive&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a class="extiw" href="https://lists.wikimedia.org/postorius/lists/daily-article-l.lists.wikimedia.org/" title="mail:daily-article-l"&gt;By email&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a class="mw-redirect" href="/wiki/Wikipedia:Featured_articles_(linked_from_TFAfooter)" title="Wikipedia:Featured articles (linked from TFAfooter)"&gt;More featured articles&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:About_Today%27s_featured_article" title="Wikipedia:About Today's featured article"&gt;About&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/div&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Ovalipes catharus, commonly known as thepaddle crab,[a]swimming crab,[b]or, inMāori,pāpaka,[9]is aspeciesofcrabin thefamilyOvalipidae.[4][10]It is found in shallow, sandy-bottomed waters around the coasts ofNew Zealand, theChatham Islands, and uncommonly insouthern Australia.[1][2][3]O. catharusis an opportunistic, aggressive, and versatile feeder active mostly at night,preyingpredominantly onmolluscsandcrustaceans.[11][12][13]It is also highly prone tocannibalism, which accounts for over a quarter of its diet in some locations.[14]The crab's paddle-shaped rearlegsand streamlinedcarapaceallow it to capture prey by swimming rapidly and to escape predation byburrowingin the sand.[15]Itsmating seasonis in winter and spring; the male carries the female until shemoults, after which the two mate and the female likely moves into deeper waters toincubate and disperse her larvae.[16][17]
@@ -1359,9 +732,158 @@
 Commercial fisherieshave targeted paddle crabs since the late 1970s, mostly to the east of theNorth Islandand the north of theSouth Island.[121][122]The paddle crab is known for having meat with both good flavour and texture,[123][124]and catch is sold both locally in New Zealand and overseas to Japan.[125][j]Paddle crab landings generally increased until the late 1990s, reaching a peak at 519 t (572 short tons; 1,144,000 lb) in 1998–1999, at which point they began generally decreasing for the next two decades, reaching an average of 16.6 t (18.3 short tons; 37,000 lb) annually from the five-year period of 2017–2022.[127]Whereas the majority of catch in the 1990s and 2000s came from the east coast of North Island and the west coast of South Island, this declined steeply in the 2010s, and catch in the 2020s has so far come almost exclusively from the east coast of South Island.[122][128]The causes of this decline in catch are not well-understood.[47][129]</t>
   </si>
   <si>
+    <t>系统性地整理了某个知识点，提供了关于Ovalipes catharus的生物学和生态信息</t>
+  </si>
+  <si>
+    <t>文章以百科全书式的结构，系统、详尽地介绍了单一物种的生物学全貌，是构建领域知识的优质文本。</t>
+  </si>
+  <si>
+    <t>本文是一篇关于新西兰桨蟹（Ovalipes catharus）的科普介绍。文章详细描述了这种蟹的形态特征、生命周期、生理习性、捕食行为，以及它在渔业和毛利文化中的地位，让你全面了解这种好斗又有趣的海洋生物。</t>
+  </si>
+  <si>
+    <t>本文深入剖析了特定海洋甲壳纲物种的完整生命史与生态位。内容涵盖了从形态学、解剖学到生理学（如渗透压调节、温度敏感性、心血管系统）的生物学全貌。文章探讨了其复杂的行为生态学，包括夜行性捕食策略、同类相食现象、以及通过声学信号进行的种内通讯。此外，还分析了该物种在生态系统中的角色，其与入侵物种的竞争关系，以及作为渔业资源和文化符号，与人类社会产生的多维度互动。这构成了一个关于单一物种如何通过其生物学特性适应环境、维持种群并与外部世界相互作用的微观生态系统案例研究。</t>
+  </si>
+  <si>
+    <t>["海洋生物学", "物种志", "生态学"]</t>
+  </si>
+  <si>
+    <t>3 experts explain your brain’s creativity formula</t>
+  </si>
+  <si>
+    <t>2025-12-03 22:00:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/perception-box/your-brains-creativity-explained/</t>
+  </si>
+  <si>
+    <t>&lt;div style="overflow: hidden; padding-bottom: 56.25%;"&gt;&lt;/div&gt;
+                &lt;p&gt;What makes the human brain capable of creativity?&lt;/p&gt;
+&lt;p&gt;Neuroscientist David Eagleman, creativity researcher Scott Barry Kaufman, and productivity expert Tiago Forte each explore a different part of the puzzle: how humans evolved additional cortical “space,” how imagination builds on the knowledge we gather, and how organizing your thoughts in a “second brain” helps ideas take shape. Together, their perspectives explain why creativity depends on storing, combining, and transforming the raw material we collect over time.&lt;/p&gt;
+&lt;p&gt;This video &lt;a href="https://bigthink.com/perception-box/your-brains-creativity-explained/" rel="nofollow"&gt;3 experts explain your brain’s creativity formula&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>What makes the human brain capable of creativity?
 Neuroscientist David Eagleman, creativity researcher Scott Barry Kaufman, and productivity expert Tiago Forte each explore a different part of the puzzle: how humans evolved additional cortical “space,” how imagination builds on the knowledge we gather, and how organizing your thoughts in a “second brain” helps ideas take shape. Together, their perspectives explain why creativity depends on storing, combining, and transforming the raw material we collect over time.
 This video3 experts explain your brain’s creativity formulais featured onBig Think.</t>
+  </si>
+  <si>
+    <t>提供了独特的个人视角和对创造力的深入探讨</t>
+  </si>
+  <si>
+    <t>文章简明扼要地介绍了大脑创造力的形成机制，整合了神经科学、认知科学和生产力管理等多位专家的观点，有助于读者系统性地理解这一复杂概念，构建认知框架。</t>
+  </si>
+  <si>
+    <t>本文综合神经科学家、创造力研究者和生产力专家的观点，阐释了人类大脑如何实现创造力。文章指出，创造力源于我们进化的皮层空间、想象力对知识的构建，以及对思想的系统组织。最终，创造力被定义为对我们随时间收集的原始材料进行存储、组合和转化的过程。</t>
+  </si>
+  <si>
+    <t>本文探讨了人类创造力的认知机制与底层逻辑。它揭示了创造力并非神秘天赋，而是大脑通过其演化出的独特皮层结构，以及对知识的系统性积累、组织、组合与转化能力所实现的。核心观点在于，创新思维是信息处理的产物，依赖于个体如何有效地存储外部信息、在内部构建知识网络，并在此基础上进行概念重组与模式识别。文章触及了想象力与既有知识的相互作用，以及外部化思维组织（如“第二大脑”概念）如何辅助和增强内在的创造过程。它从跨学科视角，阐释了人类如何通过结构化的信息管理和灵活的认知重组，持续生成新颖且有价值的观念、解决方案或艺术形式，从而揭示了创新作为一种普遍存在且可理解的认知现象的本质。</t>
+  </si>
+  <si>
+    <t>["创造力", "认知科学", "神经科学", "知识管理", "创新", "大脑功能", "想象力"]</t>
+  </si>
+  <si>
+    <t>2025’s Geminids will be the best meteor shower of the year</t>
+  </si>
+  <si>
+    <t>2025-12-03 15:00:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/starts-with-a-bang/2025s-geminids-best-meteor-shower/</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2023/12/geminid2.jpg?w=640" /&gt;&lt;p&gt;Like clockwork, there are a series of celestial events and sights that reappear at the same time with each passing year. The Earth, revolving around the Sun in its orbit, not only sees the night sky&amp;#8217;s constellations and deep-sky objects change along with its relative position to the Sun, but also encounters barely visible debris streams from volatile orbiting bodies — comets and asteroids — at predictable intervals throughout the year. The asteroids and comets orbit the Sun, heating up when they draw near, causing them to outgas, break apart, and emit particles. Those particles get stretched into the shape of the invisible ellipse that traces out their orbits, and when Earth passes through those ellipses, we get the same meteor showers year after year.&lt;/p&gt;
+&lt;p&gt;January&amp;#8217;s Quadrantids, April&amp;#8217;s Lyrids, August&amp;#8217;s Perseids, October&amp;#8217;s Orionids, and November&amp;#8217;s Leonids are among the most famous recurrent meteor showers, with the Perseids having been hailed for centuries as Earth&amp;#8217;s most reliable meteor shower. But in recent years, the story has changed, as a relatively new meteor shower now frequently outshines the Perseids in terms of the highest rates of meteors at its peak: December&amp;#8217;s Geminids. This December, they peak on the night of December 13th and in the pre-dawn hours of December 14th, and many are expecting around 150 meteors-per-hour (or 2-to-3 meteors per minute) at that peak. Here&amp;#8217;s what you need to know to enjoy this year&amp;#8217;s show to the fullest.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="geminid meteor shower link asteroid 3200 phaethon" class="wp-image-157127" height="480" src="https://bigthink.com/wp-content/uploads/2021/12/154712_451340971591801_1016956116_n.png?w=852" width="852" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;In 2012, a network of all-sky cameras not only tracked the streaks left by more than 300 Geminid meteors, but NASA scientists were able to reconstruct the orbits of those meteors, determining that every single one of them was consistent with originating from asteroid 3200 Phaethon: precisely as predicted by John Couch Adams&amp;#8217; theory linking meteor showers with a periodic parent body.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.facebook.com/photo.php?fbid=451340971591801" target="_blank"&gt;Credit&lt;/a&gt;: NASA&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Whereas most meteor showers arise from comets — the volatile icy bodies populating our Kuiper belt that take a gravitational plunge into the inner Solar System — the Geminds are unusual for arising instead from an asteroid: &lt;a href="https://en.wikipedia.org/wiki/3200_Phaethon"&gt;3200 Phaethon&lt;/a&gt;. Comets frequently have tails while asteroids almost never do, but it&amp;#8217;s a long-repeated myth that the tails of these objects are what creates the meteor showers that we see on Earth. Instead, what happens is the following:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;As the object approaches near to the Sun, the combination of solar radiation, solar wind particles, and the Sun&amp;#8217;s gravity causes the object to (even if slightly) fragment and break apart.&lt;/li&gt;
+&lt;li&gt;The tiny pieces that become part of a tail are blown away, out of the Solar System, while the tiny pieces that aren&amp;#8217;t part of either the dust or ion tail remain in the same orbit as the main parent nucleus, except are slightly either ahead of or behind the main body.&lt;/li&gt;
+&lt;li&gt;Over time and many, many subsequent orbits, those co-orbiting fragments get stretched out to occupy the entire orbit of the main body, creating a debris stream.&lt;/li&gt;
+&lt;li&gt;And finally, when Earth passes through that debris stream, which it does at the same relative location in its orbit year after year, those fragments create a meteor shower as they burn up in Earth&amp;#8217;s atmosphere.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;That&amp;#8217;s the origin of meteor showers, as &lt;a href="https://bigthink.com/starts-with-a-bang/cosmic-redemption-astronomer-john-couch-adams/"&gt;first proposed by John Couch Adams&lt;/a&gt; in the 1800s and verified with the linking of November&amp;#8217;s Leonids with its parent body: &lt;a href="https://en.wikipedia.org/wiki/55P/Tempel%E2%80%93Tuttle"&gt;Comet Tempel-Tuttle&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="asteroid 3200 phaethon tracked" class="wp-image-157132" height="400" src="https://bigthink.com/wp-content/uploads/2021/12/960x0.gif?w=719" width="719" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This time lapse animated photograph shows asteroid 3200 Phaethon, tracked from Riga, Latvia, in 2017. This is the parent body of the Geminid meteor shower: an asteroid just 5.8 km in diameter, approximately the size of the asteroid that catastrophically struck Earth some 65 million years ago. The farther an object is from us, the more observations we need over long time periods to determine its future trajectory.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://en.wikipedia.org/wiki/3200_Phaethon#/media/File:Asteroid_3200_Phaethon_(1983_TB).gif" target="_blank"&gt;Credit&lt;/a&gt;: Ingvars Tomsons/Wikimedia Commons&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;For the Geminids, however, they aren&amp;#8217;t created by a long-period comet, but rather by a short-period asteroid: 3200 Phaethon, as you can see above. This asteroid doesn&amp;#8217;t exhibit a tail at all, and appears to be an extremely quiet body itself. It shows no signs of a coma, exhibits no visible or detectable debris coming off of it, and appears more like a single, solitary point of light to our telescopes and instruments that can observe it. There&amp;#8217;s no observable outgassing, volatiles getting sublimated, or particles being emanated from this parent body, which likely means all of its ices were depleted long ago.&lt;/p&gt;
+&lt;p&gt;And yet, over the past 40-45 years, the Geminids — which result from the debris stream of asteroid 3200 Phaethon — have intensified significantly. Just a few decades ago, the peak of the Geminids maxed out at about 50 meteors-per-hour, or less than one meteor per minute. But over the past 10 years, the average peak of the Geminids has exceeded 120 meteors-per-hour, or more than double that earlier rate.&lt;/p&gt;
+&lt;p&gt;What&amp;#8217;s the cause of this intensification?&lt;/p&gt;
+&lt;p&gt;It&amp;#8217;s the slow, gradual destruction of the parent body itself. As it passes close to the Sun, asteroid 3200 Phaethon experiences tidal forces, which slowly tear pieces of the asteroid apart. This was originally a speculative and theoretical idea, but infrared observations of the parent bodies of meteor showers have confirmed it spectacularly. We can observe asteroids and comets fragmenting apart, creating small particles of debris that co-orbit with the parent body. Over time and many orbits, these particles stretch out and fill the parent body&amp;#8217;s orbital path, ensuring that as Earth crosses it, a meteor shower ensues.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="spitzer comet debris stream" class="wp-image-157131" height="552" src="https://bigthink.com/wp-content/uploads/2021/12/https___blogs-images.forbes.com_startswithabang_files_2017_12_1_gN392fZDLF47sT7nGIVHgg.jpg?w=800" width="800" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;As they orbit the Sun, comets and asteroids typically break up over time, with debris between the chunks along the path of the orbit getting stretched out to create debris streams. These streams cause meteor showers when the Earth passes through that debris stream: with younger showers having more concentrated debris streams around the parent body&amp;#8217;s nucleus and older showers having a more uniform debris stream. This image taken by Spitzer along a comet&amp;#8217;s path shows small fragments outgassing, but also shows the main debris stream that gives rise to the meteor showers that occur in our Solar System.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:Comet_Stepping_Stones.jpg" target="_blank"&gt;Credit&lt;/a&gt;: NASA/JPL-Caltech/W. Reach (SSC/Caltech)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The current record for &lt;a href="https://en.wikipedia.org/wiki/Geminids#Radiant" rel="noreferrer noopener" target="_blank"&gt;meteor rates during the Geminids&lt;/a&gt; was set during the 2014 shower, where we more than doubled the predicted rate of ~120 meteors-per-hour, observing a whopping ~253 meteors-per-hour at its peak. The Geminids have outperformed expectations periodically: again in 2017 and 2020, for example. The peak rate of meteors from any shower is known as the ZHR: the Zenith Hourly Rate. If the radiant of the meteor shower — or the location in the sky where meteor shower appears to emerge from — is directly overhead (at the zenith), then the ZHR tells you how many meteors-per-hour you should be able to see across the entire sky.&lt;/p&gt;
+&lt;p&gt;If all we care about is the debris entering Earth&amp;#8217;s atmosphere, we should expect the Geminid meteor shower to keep increasing, year-after-year. As the parent body of the shower continues to disintegrate, the debris stream thickens and becomes denser. The asteroid 3200 Phaethon takes about 18 months to orbit the Sun, while Earth takes 12, meaning that every three years, they return to the same relative position. Therefore, you&amp;#8217;d expect that if 2014 was a record-setting year, then 2017, 2020, 2023, and next, 2026, would break or extend that record whenever they arrived.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Geminids" class="wp-image-157133" height="720" src="https://bigthink.com/wp-content/uploads/2021/12/https___specials-images.forbesimg.com_imageserve_5fced5d32cf88d00f37c0c7d_This-composite-of-the-Geminid-meteor-shower-was-taken-over-the-course-of-one-night-_960x0.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This composite of the Geminid meteor shower was taken over the course of one night during the peak, December 13/14, in 2017. It was captured by the All-sky Meteor Orbit System in Tenerife, Spain. Approximately every three years, Earth makes three revolutions while the parent body of the Geminids (3200 Phaethon) makes two, resulting in above-average shows during these years. 2026 will mark the next such year.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.futura-sciences.com/sciences/questions-reponses/astronomie-etoiles-filantes-2020-plus-beaux-essaims-meteoritiques-annee-8788/" target="_blank"&gt;Credit&lt;/a&gt;: Juraj Toth, Amos Team&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;That hasn&amp;#8217;t been the case, however, and there&amp;#8217;s an insidious reason as to why: light pollution. In the case of a meteor shower, it isn&amp;#8217;t the local light pollution that can &amp;#8220;dim&amp;#8221; the Zenith Hourly Rate, as you can always move to a dark sky location to get a better set of observations. As viewed from Earth, however, there&amp;#8217;s something that we cannot &amp;#8220;subtract&amp;#8221; from the sky no matter where we go on our world: the Moon.&lt;/p&gt;
+&lt;p&gt;A full or near-full Moon can serve as a tremendous source of light pollution whenever it&amp;#8217;s in the sky, capable of transforming even a dark sky site into a sky that&amp;#8217;s no better than one found near a large city. Remember, meteors are brief streaks of dust particles burning up in Earth&amp;#8217;s atmosphere, and the brighter the overall sky is, the harder it is to see these brief streaks of light.&lt;/p&gt;
+&lt;p&gt;Dark skies are key to getting a good meteor shower, and if the Moon is present in the sky — especially if it&amp;#8217;s near the full phase or if its location is close to the meteor shower&amp;#8217;s radiant — the amount of &amp;#8220;darkness&amp;#8221; you&amp;#8217;ll be able to achieve is severely limited. The Bortle scale, illustrated below, provides a measure of how pristine or dark your night sky can be. All by itself, a full Moon can take an otherwise pristine sky, like a 1-to-3 on the Bortle scale, and transform it into a 7 or 8, making the conditions for viewing a meteor shower far less than ideal. 2016&amp;#8217;s Geminids had to contend with a 100% full Moon, and the ZHR was pathetic: just 25-per-hour at the peak.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A composite image showing the progression of light pollution across different night skies, from an excellent dark sky site on the left to a brightly lit inner city sky on the right." class="wp-image-509800" height="720" src="https://bigthink.com/wp-content/uploads/2024/07/How_light_pollution_affects_the_dark_night_skies_dark-skies_flipped_left-right.jpg?w=1280" width="1280" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Under a pristine night sky, the Milky Way&amp;#8217;s center casts shadows. As light pollution worsens, nebulosity and stars disappear, until maybe a few dozen stars remain. The numbers 1 through 9 are the Bortle scale, which provides observers with a metric to measure the darkness and clarity of the sky overhead at their location. Only a few locations remain on Earth with pristine, dark skies. A full Moon, by itself, can provide brightness equivalent to a 7 or 8 on this scale.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:How_light_pollution_affects_the_dark_night_skies_(dark-skies)_(flipped_left-right).jpg"&gt;Credit&lt;/a&gt;: ESO/P. Hor&amp;aacute;lek; M. Wallner&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;In 2026, when the next &amp;#8220;three year peak&amp;#8221; arrives,&amp;#8221; the Moon will set relatively early: about 10 PM, meaning that the best viewing will occur from around 11 PM until around 4 AM, when skies are darkest. However, this year, in 2025, even though it&amp;#8217;s a non-peak year, it will be the earlier viewing that creates the best views. That&amp;#8217;s because the conditions on the night of December 13th/morning of December 14th will see a last quarter Moon: a Moon that won&amp;#8217;t rise until between 2 and 3 AM, depending on your location on Earth.&lt;/p&gt;
+&lt;p&gt;That means, for the first part of the night, there won&amp;#8217;t be a Moon in the skies at all. Once the skies darken and the constellations of Orion and Gemini rise high in the sky, viewing for the meteor shower will be ideal. Although the predicted ZHR for this year&amp;#8217;s Geminids is &amp;#8220;only&amp;#8221; about 150 per hour, the best time for seeing the most Geminid meteors will be from about 10-11 PM until just before moonrise, or around 2-2:30 AM.&lt;/p&gt;
+&lt;p&gt;Although you can theoretically see Geminid meteors anywhere in the sky, my recommendation is to get out a lounge chair or blanket (and warm clothes!) and to simply look up in the general direction of the twin stars: Castor and Pollux. The Geminid meteors will all appear to radiate outward from one central point: the meteor shower&amp;#8217;s radiant.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Night sky with labeled stars and constellations; eight red arrows radiate from a point near Castor and Pollux, directed outward in different directions." class="wp-image-580790" height="579" src="https://bigthink.com/wp-content/uploads/2025/12/gem_every_radiant.jpg" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The Geminid meteors all appear to originate from the same point in the sky: the radiant. Meteor showers are named after the constellation in which the radiant is placed, corresponding to the portion of the sky that intersects with Earth&amp;rsquo;s motion, causing the meteors to appear there. While only a small percentage of skywatchers can recognize the constellation of Gemini, marked by the twin stars Castor and Pollux, the nearby and much more widely-recognized Orion can serve as a guide.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="http://stellarium.org/"&gt;Credit&lt;/a&gt;: E. Siegel/Stellarium&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;A few decades ago, the Perseids were the only reliable meteor shower in town: spectacular year after year regardless of conditions. However, as Comet Swift-Tuttle, the parent body of the Perseids, travels farther and farther from the Sun, the rate of Perseid meteors has slowly but steadily dropped, while the rate of the Geminids has steadily grown. There have been recent years where the Geminids have even topped the Perseids as the leading meteor shower seen from Earth, and 2025 and 2026 both are years where this should happen. December&amp;#8217;s Geminids might be the best meteor shower of the year, and 2026&amp;#8217;s Geminids could provide the most prolific meteor shower of the 21st century so far!&lt;/p&gt;
+&lt;p&gt;Another feature of the Geminids that isn&amp;#8217;t greatly appreciated, but is also worth commenting on, is that its meteors are often multicolored. You&amp;#8217;ll never see &amp;#8220;purple&amp;#8221; or &amp;#8220;pink&amp;#8221; meteors, and there are no &amp;#8220;green&amp;#8221; ones either. However, a great many colors can be represented in a Geminid show, from red to orange to yellow to white and even a cyan-like blue. In collaboration with Big Think, I&amp;#8217;ve created an infographic to help illustrate some of the most amazing &amp;#8220;must-know&amp;#8221; facts so that you can enjoy the December Geminids to the fullest!&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Infographic with facts about the 2025 Geminids meteor shower, including peak times, viewing tips, and related celestial objects, set against space-themed illustrations." class="wp-image-580791" height="9926" src="https://bigthink.com/wp-content/uploads/2025/12/gem2025.jpg" width="3334" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This infographic shows vital stats and information about the 2025 Geminid meteor shower, including where to look and what to expect. With a peak display of approximately 150 meteors-per-hour expected, the best time to view it is after the sky darkens and the constellation of Gemini rises, but before the Moon rises: between 2 and 3 AM, local time.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;Credit: Big Think&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Of course, there&amp;#8217;s one type of event that no amount of preparation can really protect you against: cloud cover on the peak night of the meteor shower. As is always the case in astronomy, clouds are a roll of the dice. If the weather cooperates, you’ll have a good show, but if it’s cloudy, you’ll have the same experience that many professional astronomers sometimes do of being “clouded out” of your astronomical hopes: you won&amp;#8217;t be able to see anything at all, and your only recourse is to go somewhere else, to rely on the observations of others who have better luck with cloud cover, or to wait for the next observing opportunity. (Which, in the case of the Geminids, won&amp;#8217;t arrive until next year.)&lt;/p&gt;
+&lt;p&gt;Sure, you can technically see Geminids for weeks on either side of the peak, but its peak remains narrowly collimated. Instead of 20-40 meteors-per-hour, which is what you might see within a day or two of the peak, seeing 100-150 (or even more) meteors-per-hour at the peak provides a notably improved experience. It was really in the mid-2000s that the Geminids began to become a more prolific meteor shower in Earth&amp;#8217;s night skies, and it&amp;#8217;s now — along with the Perseids — one of the two reliably spectacular meteor shower displays that graces Earth annually. In 2025, the Geminids may yet shape up to be the greatest natural show of the year!&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Geminids" class="wp-image-157130" height="900" src="https://bigthink.com/wp-content/uploads/2021/12/50787860457_bc795e5f94_o.jpg?w=1600" width="1600" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;2020 was an excellent year for Geminid meteors, as captured in this composite during the night of the peak by Jeff Sullivan. While the shower is typically at its best every three years, the &amp;#8220;off years&amp;#8221; have recently also been remarkable as well, with 2021&amp;#8217;s and 2022&amp;#8217;s Geminids peaking at over 100 meteors-per-hour at the maximum. For 2025, the Geminids may well be the best meteor shower of the year, but 2026&amp;#8217;s Geminids may explode as the best of the 21st century so far.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://www.flickr.com/photos/jeffreysullivan/50787860457" rel="noopener" target="_blank"&gt;Credit&lt;/a&gt;: Jeff Sullivan/flickr&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;This is pretty remarkable for a meteor shower that&amp;#8217;s relatively new to the game. Whereas the Perseids go back thousands of years, the Geminids were only first spotted in the year 1862. Initially, they were merely a modest meteor shower, with relatively small numbers of meteors that were described as somewhat faint. Even though their faintness has persisted, with the average Geminid perhaps +2 astronomical magnitudes fainter than a typical Perseid, their numbers have increased. Here in the 2020s, it&amp;#8217;s the Geminids, not the Perseids, that have been the most reliably productive meteor shower in our skies.&lt;/p&gt;
+&lt;p&gt;And all of this suggests something fascinating: the notion that the orbital path that the parent body is on, asteroid 3200 Phaethon, is relatively new. It&amp;#8217;s plausible that a gravitational interaction with one of the planets — perhaps even Earth itself — recently interacted with the asteroid, setting it into its current orbit relatively recently. Incredible, then, that the debris stream it&amp;#8217;s generated has already grown so uniform, and perhaps this is an indication that the recent increase in Geminid activity is an early sign of further growth still to come. The 2025 Geminids could be the best of the year, but in future years, the Geminids may even become the best shower of all-time!&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/2025s-geminids-best-meteor-shower/" rel="nofollow"&gt;2025&amp;#8217;s Geminids will be the best meteor shower of the year&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Like clockwork, there are a series of celestial events and sights that reappear at the same time with each passing year. The Earth, revolving around the Sun in its orbit, not only sees the night sky’s constellations and deep-sky objects change along with its relative position to the Sun, but also encounters barely visible debris streams from volatile orbiting bodies — comets and asteroids — at predictable intervals throughout the year. The asteroids and comets orbit the Sun, heating up when they draw near, causing them to outgas, break apart, and emit particles. Those particles get stretched into the shape of the invisible ellipse that traces out their orbits, and when Earth passes through those ellipses, we get the same meteor showers year after year.
@@ -1417,8 +939,93 @@
 This article2025’s Geminids will be the best meteor shower of the yearis featured onBig Think.</t>
   </si>
   <si>
+    <t>具备独特视角的天文现象观察</t>
+  </si>
+  <si>
+    <t>文章系统性地解释了流星雨的成因、演化及其与母体的关系,为读者构建了清晰的天文知识框架。</t>
+  </si>
+  <si>
+    <t>想知道为什么12月的双子座流星雨越来越壮观吗？本文揭示其并非来自彗星,而是一颗小行星。文章通俗讲解了这颗小行星如何被太阳引力撕碎,在轨道上撒下更多碎片,为我们带来更密集的流星盛宴。这是一份绝佳的天文科普入门。</t>
+  </si>
+  <si>
+    <t>探讨天体物理学中周期性现象的底层机制与演化。文章解构了一个可观测天文事件（流星雨）与其宇宙母体（小行星/彗星）之间的因果链条。其核心在于阐释轨道动力学、引力潮汐效应和太阳辐射如何共同作用，导致一个天体在漫长时间尺度上逐渐解体，并形成一个弥散的碎片流。当行星轨道与此碎片流交汇时，便产生了可预测但强度动态变化的现象。这揭示了宇宙事件的确定性与演化性之间的张力，即物理法则是恒定的，但其所驱动的系统本身在不断变化，从而影响着最终的观测结果。</t>
+  </si>
+  <si>
+    <t>["天文科普", "流星雨", "天体力学", "小行星", "宇宙现象"]</t>
+  </si>
+  <si>
+    <t>How whales became the poets of the ocean</t>
+  </si>
+  <si>
+    <t>2025-12-03 00:30:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/the-well/could-we-speak-with-whales/</t>
+  </si>
+  <si>
+    <t>&lt;div style="overflow: hidden; padding-bottom: 56.25%;"&gt;&lt;/div&gt;
+                &lt;p&gt;At &lt;em&gt;A Night of Awe and Wonder&lt;/em&gt;, marine biologist David Gruber, founder of  Project CETI and a National Geographic Explorer, traces the extraordinary journey linking humans and whales, from our shared ancestors to what we’re learning about their rich underwater communications. Through wartime recordings, bioacoustics pioneers, and cutting-edge AI, he shows how scientists are attempting to decode the phonetic alphabet of sperm whales and begin translating their ancient language. Gruber argues that understanding whale communication could reshape our sense of intelligence, ourselves, and our connection to life on Earth.&lt;/p&gt;
+&lt;/p&gt;
+&lt;p&gt;This video &lt;a href="https://bigthink.com/the-well/could-we-speak-with-whales/" rel="nofollow"&gt;How whales became the poets of the ocean&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>AtA Night of Awe and Wonder, marine biologist David Gruber, founder of  Project CETI and a National Geographic Explorer, traces the extraordinary journey linking humans and whales, from our shared ancestors to what we’re learning about their rich underwater communications. Through wartime recordings, bioacoustics pioneers, and cutting-edge AI, he shows how scientists are attempting to decode the phonetic alphabet of sperm whales and begin translating their ancient language. Gruber argues that understanding whale communication could reshape our sense of intelligence, ourselves, and our connection to life on Earth.
 This videoHow whales became the poets of the oceanis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨人类与鲸鱼之间的联系及其沟通方式</t>
+  </si>
+  <si>
+    <t>文章深入探讨了人类与鲸鱼之间跨越物种的沟通尝试，结合了生物声学、AI等前沿科技，不仅提供了关于鲸鱼语言的最新科学进展，更重要的是，它挑战了我们对“智能”和“语言”的传统定义，引发对人类自身在地球生态中位置的深刻反思。其广阔的视角和潜在的哲学影响，极具启发性。</t>
+  </si>
+  <si>
+    <t>海洋生物学家David Gruber的演讲，追溯了人类与鲸鱼的共同祖先，并展示了科学家如何利用生物声学和AI技术，尝试解码抹香鲸的古老语言。他认为，理解鲸鱼的沟通方式，将彻底重塑我们对智能、自我以及与地球生命连接的认知。</t>
+  </si>
+  <si>
+    <t>本篇内容深入探讨了跨物种沟通的深远意义，尤其聚焦于利用前沿科技（如人工智能和生物声学）来解读非人类复杂沟通系统。其核心在于挑战并扩展对“智能”和“语言”的传统人类中心定义，揭示生命形式间可能存在的、超越感官界限的深层连接。文章探讨了通过理解其他物种的认知模式，来重新审视人类在地球生态系统中的位置，以及我们与整个生物圈的共生关系。这种探索不仅是科学的进步，更是一场哲学层面的反思，促使我们超越物种隔阂，构建一个更加包容和相互理解的全球生命共同体。它暗示了，真正的智慧可能存在于我们尚未完全理解的、非人类的生命形式中，而这种理解将彻底改变我们对自我、意识以及生命本质的认知。</t>
+  </si>
+  <si>
+    <t>["跨物种沟通", "人工智能", "生物声学", "鲸鱼研究", "智能定义", "进化论", "生态哲学", "非人类认知", "地球连接"]</t>
+  </si>
+  <si>
+    <t>The 4 types of hypocrites (that we actually like)</t>
+  </si>
+  <si>
+    <t>2025-12-02 23:30:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/books/the-types-hypocrites-we-like/</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/11/Hypocrisy_Trap_Excerpt.jpg?w=640" /&gt;&lt;p&gt;Sometimes accusations of hypocrisy fail to hit home: People don’t seem too bothered by them. Here are four cases that start to unpick the view that we simply hate hypocrisy and instead show that there’s something else going on.&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-the-virtuous-hypocrite"&gt;The virtuous hypocrite&lt;/h2&gt;
+&lt;p&gt;Noel Biderman founded &lt;a href="https://en.wikipedia.org/wiki/Ashley_Madison"&gt;Ashley Madi&lt;/a&gt;&lt;a href="https://en.wikipedia.org/wiki/Ashley_Madison" rel="noreferrer noopener" target="_blank"&gt;s&lt;/a&gt;&lt;a href="https://en.wikipedia.org/wiki/Ashley_Madison"&gt;on&lt;/a&gt;, a website designed to enable affairs. What if he were faithful in his private life, despite publicly promoting infidelity? Such a scenario contains what many consider the main ingredients of hypocrisy: failing to practice privately what one preaches publicly.&lt;/p&gt;
+&lt;p&gt;A study tested whether people would agree. It showed one group of people an article about Biderman that simply mentioned he had promoted adultery; a separate group saw the article with additional information that it had been discovered that Biderman was personally faithful in private.&lt;/p&gt;
+&lt;p&gt;As expected, this second group rated Biderman as much more hypocritical, but they also saw him in a much more positive and praiseworthy light. Discovering hypocrisy doesn’t always move judgments in a negative direction. You can benefit from an action that creates hypocrisy if people think it is admirable on its own terms.&lt;/p&gt;
+&lt;p&gt;This may seem like a contrived example. Surely people go around concealing their vices, not their virtues? But hypocrisy is not just about morality—it’s about claims to self-image or status of various kinds. Say you build your personal or corporate brand as a freethinking maverick. If it turns out that you have always played by the rules, that will mark you as an inauthentic hypocrite who nonetheless does the right thing.&lt;/p&gt;
+&lt;figure class="wp-block-embed is-type-rich is-provider-amazon wp-block-embed-amazon"&gt;
+&lt;div class="wp-block-embed__wrapper"&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;h2 class="wp-block-heading" id="h-the-relatable-hypocrite"&gt;The relatable hypocrite&lt;/h2&gt;
+&lt;p&gt;Not practicing what you preach may make that preaching more effective. For example, some doctors emphasize their commitment to exercising and being healthy. It turns out that doing this goes down badly with overweight people who are concerned about their weight. They are more likely to avoid fitness-focused doctors because they worry that such doctors will be disapproving and judgmental. Sedentary doctors may be hypocrites, but that’s okay if you think it makes them more relatable or insightful about the struggle to be healthy — or if your main fear is being looked down on.&lt;/p&gt;
+&lt;p&gt;It’s unfortunate that overweight and obese doctors are the least likely to discuss weight loss with patients and feel less confident in doing so. They may not realize that they can be the most effective advocates for those in greatest need. Instead, fear of appearing hypocritical may be holding them back. Important things are left unsaid.&lt;/p&gt;
+&lt;p&gt;This dislike of the virtuous reflects a tendency called “do-gooder derogation.” We can feel resentful when others get social credit, since their rise lowers our relative standing. If that person is then exposed as a hypocrite, our fury intensifies. Yet this same tendency can lead us to prefer fallible hypocrites over unyielding zealots — if they are upfront about their flaws.&lt;/p&gt;
+&lt;p&gt;Take climate activists. Imagine that you are talking to someone who claims that they are in the top 1% for efficiency of household energy consumption, doesn’t eat meat or cheese, and avoids flying. How credible would you find them as an advocate for making changes in your own behavior?&lt;/p&gt;
+&lt;p&gt;It turns out that this person isn’t more effective than someone whose energy consumption is only in the top 50 percent for efficiency, who has cut down but not stopped eating meat, and who just avoids flying whenever possible. In fact, the ultra-sustainable person is slightly less persuasive. They are seen as extreme and unrelatable, even though they are living up to their principles fully.&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-the-principled-hypocrite"&gt;The principled hypocrite&lt;/h2&gt;
+&lt;p&gt;Big claims can bring benefits. Leaders who make moral arguments seem more authentic and inspire more commitment in their followers. Caring about issues makes you seem like you have integrity and can be trusted. Do all these benefits just evaporate when hypocrisy comes to light?&lt;/p&gt;
+&lt;p&gt;New evidence suggests not. In fact, if someone states their principles strongly and then falls short, they may end up looking better than someone who gives more pragmatic messages from the start.&lt;/p&gt;
+&lt;p&gt;This finding emerges from a study where people were asked to judge a fictional politician from the party they supported. One group heard that he had taken a firm position that lying is never okay. The other group was told that he had stated a more flexible position: that “it’s sometimes okay to lie.” Everyone then discovered that the politician had lied about the source of his campaign donations. &lt;/p&gt;
+&lt;p&gt;When he had taken a strong stance on lying, he was (unsurprisingly) rated as more hypocritical. What’s interesting, however, is that he was also seen as more moral, and people were more inclined to vote for him than his flexible incarnation! It seems that the benefits of having staked out a clear moral position were not completely lost when it was violated.&lt;/p&gt;
+&lt;p&gt;To be clear: The hypocritical politician did go down in people’s estimation. There was a hypocrisy penalty. It’s just that the pragmatic politician had already taken an even bigger hit by not committing to absolute moral principles up front. People disliked someone saying “it’s sometimes okay to lie” so much that even the exposure of the moral politician as a hypocrite didn’t bring him down to the same level. What seems to be happening here is that people trust the person’s original strong stance as a reliable signal that they will be honest in the future, even if their behavior doesn’t show that. Even repeated lies don’t seem to shift that perception. In contrast, a flexible stance seems to give the general impression that you are a slippery person.&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-the-reasonable-hypocrite"&gt;The reasonable hypocrite&lt;/h2&gt;
+&lt;p&gt;Anyone who has run a business or a team will know the constant pressure to balance values, priorities, and commitments that conflict with each other. You may genuinely believe in a range of jostling principles; different parts of your life can bring varying demands.&lt;/p&gt;
+&lt;p&gt;Viewed this way, avoiding hypocrisy can be like asking us to be faithful to one thing at the expense of all others. That expectation can seem unrealistic and unreasonable. Take the case of an ardent vegetarian who politely praises their grandmother’s treasured meat stew when it appears in front of them. On the one hand, they believe in vegetarianism; on the other, they can’t bear to insult and upset their grandmother. Only 30% of people think that this behavior is hypocritical, perhaps because they think the vegetarian has done the right thing. We tell white lies all the time.&lt;/p&gt;
+&lt;p&gt;Indeed, making these trade-offs may be seen as the decent, human thing to do. The philosopher Peter Singer has been an advocate for acting according to rules that are counterintuitive and unemotional. For instance, he believed that euthanasia could be justified in some cases of dementia. Yet when his own mother became severely ill with Alzheimer’s disease, he and his sister paid for a team of helpers to look after her at home. That decision seems more like a reason to praise Singer than to condemn him. &lt;/p&gt;
+&lt;p&gt;As he said, “Perhaps it’s more difficult than I thought before, because it’s different when it’s your mother.”&lt;/p&gt;
+&lt;p&gt;Given the shifting range of demands we face, what some people push as hypocrisy may start to look like a reasonable compromise. Many media stories consist solely of claims about someone’s inconsistency, even if those claims are tenuous. An animal rights activist accepts a drug tested on animals to save her own life. A tech CEO strictly limits his children’s access to the products he built. Working too hard to get outrage in this way may just lead people to shrug and think, “So what?”&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/books/the-types-hypocrites-we-like/" rel="nofollow"&gt;The 4 types of hypocrites (that we actually like)&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Sometimes accusations of hypocrisy fail to hit home: People don’t seem too bothered by them. Here are four cases that start to unpick the view that we simply hate hypocrisy and instead show that there’s something else going on.
@@ -1446,6 +1053,77 @@
 As he said, “Perhaps it’s more difficult than I thought before, because it’s different when it’s your mother.”
 Given the shifting range of demands we face, what some people push as hypocrisy may start to look like a reasonable compromise. Many media stories consist solely of claims about someone’s inconsistency, even if those claims are tenuous. An animal rights activist accepts a drug tested on animals to save her own life. A tech CEO strictly limits his children’s access to the products he built. Working too hard to get outrage in this way may just lead people to shrug and think, “So what?”
 This articleThe 4 types of hypocrites (that we actually like)is featured onBig Think.</t>
+  </si>
+  <si>
+    <t>包含逻辑推演和批判性观点，探讨了人们对虚伪的复杂态度</t>
+  </si>
+  <si>
+    <t>文章挑战了“虚伪总是不好的”这一普遍认知，通过心理学实验和案例分析，严谨地揭示了人类道德判断的复杂性和情境性，极具思辨价值。</t>
+  </si>
+  <si>
+    <t>我们都讨厌伪君子，但真的如此吗？这篇文章通过四个有趣的案例——善良的、有共鸣的、有原则的和通情达理的伪君子，揭示了我们对“虚伪”的复杂态度。原来，在特定情况下，我们不仅会容忍，甚至会偏爱那些言行不一的人。</t>
+  </si>
+  <si>
+    <t>本文探讨了人类道德判断的复杂性与情境依赖性，旨在解构“虚伪”这一概念的单一负面标签。文章的核心论点是，在社会认知中，行为与宣言之间的一致性并非评估个体价值的唯一或最高标准。它揭示了一种深层的心理机制：人们的评判会受到行为本身的道德价值、个体表现出的脆弱性与可共情性、以及其所宣称的道德准则高度等多重因素的影响。文章进一步区分了两种不一致性：一种源于自利性的欺骗，另一种则源于在多重、甚至冲突的价值体系（如普世原则与人际情感）之间进行权衡的必要妥协。后者往往不被视为道德瑕疵，反而可能被解读为一种成熟和人性化的表现。因此，本文的本质是关于社会信号的解读与道德资本的计算，探讨了在不确定的社会互动中，人们如何超越表面的一致性，去评估他人潜在的品格、意图与未来的可靠性。</t>
+  </si>
+  <si>
+    <t>["心理学", "社会认知", "道德哲学", "批判性思维"]</t>
+  </si>
+  <si>
+    <t>“Surfing the edge”: Tim O’Reilly on how humans can thrive with AI</t>
+  </si>
+  <si>
+    <t>2025-12-02 22:00:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/business/surfing-the-edge-tim-oreilly-on-how-humans-can-thrive-with-ai/</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/tim-oreilly_compressed.jpg?w=640" /&gt;&lt;p&gt;What is the fundamental human skill? It’s riding the crest of change and embracing the unknown, says Tim O&amp;#8217;Reilly, tech trend visionary and CEO of O’Reilly Media. He “imbibed” this idea from sci-fi writer Frank Herbert (&lt;em&gt;Dune&lt;/em&gt;) in the 1970s and has been “surfing the edge” of change ever since.&lt;/p&gt;
+&lt;p&gt;Tim founded Global Network Navigator (GNN), the first ever commercial web portal, and sold it to AOL in 1995. He went on to become one of Silicon Valley’s most influential thinkers, known for popularizing the phrases “open source” and “Web 2.0” among others. O’Reilly Media — which Tim started over 40 years ago — has provided business and tech training to millions of users and currently serves over 5,000 companies worldwide.&lt;/p&gt;
+&lt;p&gt;He has long argued that technology can create new jobs rather than laying people off – it’s a key theme in his 2017 book &lt;em&gt;WTF? What’s the Future and Why It’s Up to Us&lt;/em&gt;. Despite evidence this year that AI&lt;em&gt; has &lt;/em&gt;been wiping out jobs, especially for younger workers, Tim is optimistic people can adapt quickly and flourish in an automated world. &lt;/p&gt;
+&lt;p&gt;So we asked him — how can humans stay ahead of the game?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; Rather than creating employment, AI is in some respects killing it, according to 2025 &lt;a href="https://bigthink.com/business/are-young-workers-canaries-in-the-ai-coal-mine/" rel="noreferrer noopener" target="_blank"&gt;Stanford research&lt;/a&gt;. What’s gone wrong?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;AI is not taking jobs: the decisions of people deploying it are. We&amp;#8217;re concentrating value in the hands of people who use it to gamble on share prices. Venture capitalists (VCs) are treating companies like financial instruments they can trade for a profit by consciously whipping up a media bubble rather than fostering real growth. These Silicon Valley hype-meisters should be ashamed of themselves.&lt;/p&gt;
+&lt;p&gt;The message in my book &lt;em&gt;WTF&lt;/em&gt; is more relevant than ever — to look at this extractive pattern and do something about it now. If we valued companies that made real-world profits and reinvested them in solving problems — such as caring for aging populations, reducing working hours, advancing medicine — AI would create opportunities and new work.&lt;/p&gt;
+&lt;p&gt;One solution is to lower taxes for employing people, rather than automating them out of existence, and raise taxes on extractive capital gains.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; Should corporate leaders be responsible for protecting jobs from AI and how can they do that?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;A society that uses automation to “build shareholder value” while impoverishing everyone else will not be successful. Some companies have trumpeted how they’ve used AI to lay off employees. They’ve missed the point. If you replace humans with AI, it won&amp;#8217;t make customer service better. You have to integrate the two to improve service.&lt;/p&gt;
+&lt;figure class="wp-block-pullquote"&gt;
+&lt;blockquote&gt;
+&lt;p&gt;Some companies have trumpeted how they’ve used AI to lay off employees. They’ve missed the point.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;/figure&gt;
+&lt;p&gt;Corporate leaders can start by listing all the things you wish you could do for your customers, but couldn&amp;#8217;t afford. For example, at O&amp;#8217;Reilly, we&amp;#8217;re using AI to increase the content we can translate, into many more languages than before, increasing our addressable market. We are building more personalized learning paths for users, and creating tools for corporate customers to accelerate their employees&amp;#8217; skills and career paths.&lt;/p&gt;
+&lt;p&gt;In our business, we&amp;#8217;ve experienced headwinds from potential customers saying &amp;#8220;we won&amp;#8217;t need to train programmers because AI will do the job.&amp;#8221; The hiring prospects for junior programmers looked bleak for a while. But we&amp;#8217;ve recently seen reports that even frontier labs are hiring junior programmers again, because they are quick to become more productive with the new tools.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; Is an AI-led market crash imminent?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;The stock market is overvalued and due a correction. But bubbles can last longer than you think. After selling GNN for cash and stock options, I thought I had to get out quickly and realized my options for a tiny fraction of the $1 billion they would have been worth at the peak, a few years later. So the bubble will go for a while yet. But I do worry about some of the massive investment commitments that have been made.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; How might the bubble finally go pop?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;A lot could go wrong. The immense energy requirements of AI could lead to delays. Reluctant people will bet on their old business models. For example, at GNN we tried to get book publishers and phone companies to take the internet seriously, but they wouldn&amp;#8217;t, or took several years to start thinking about it.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Some US AI labs have pushed this narrative that we need massive investment to reach artificial general intelligence (AGI) [which can perform any task a human can], or super intelligence [AI surpassing human brain power] — with the notion that it&amp;#8217;s a winner-takes-all race. But Chinese businesses are showing you can build models very close to state-of-the-art for much less. US companies counting on monopoly rents would instead compete in a commoditized market, making it impossible to ever recoup their costs.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; What are the biggest pieces of nonsense about AI you&amp;#8217;ve encountered recently?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;The idea that previously software was a tool, now it&amp;#8217;s a worker. That&amp;#8217;s been true for a long time — software was doing work long before AI. It’s all in service of the narrative that this technology is different from anything before it.&lt;/p&gt;
+&lt;p&gt;Another big nonsense is how imminent AGI is — or &amp;#8220;AI becomes super intelligent and, bang, everything is different,&amp;#8221; with complete lack of real-world perspective or understanding of what needs to happen first. AI is not singular, it’s “normal technology.” There are still laws of physics, things to be built, and many constraints. We have a long way to go.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; What’s your advice for business leaders in this hype-led environment?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;AI is a transformative technology, and we will learn how to make money with it. So you have to invest. But figure out how it &lt;em&gt;really&lt;/em&gt; impacts your business and don&amp;#8217;t buy the hype. Plan scenarios and develop a robust strategy that can survive in multiple circumstances. When the bubble bursts, you want to be making things that genuinely improve your customers’ lives. The market will eventually reward people doing the real stuff.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; What effect does the rise of “post-literate” media like YouTube and TikTok have on the learning environment?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;YouTube is a fabulous resource but doesn’t live up to its potential for learning content because of its advertising model. For example, most videos contain five minutes of filler so they can be long enough to attract advertising. We’ll see this friction with large AI companies too if they settle on an advertising model. It’s one of the things I worry about most with artificial intelligence.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; You co-lead the AI Disclosures Project, which addresses societal dangers from commercialization of the technology. What are the challenges and how can we manage them?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;Platforms monetize attention, often in ways that are against users’ interests. We remember when social media sites were good for following your friends and family. Now they’re continually pushing other stuff at you.&lt;/p&gt;
+&lt;figure class="wp-block-pullquote"&gt;
+&lt;blockquote&gt;
+&lt;p&gt;I keep urging my company to think &amp;#8220;AI first&amp;#8221; — try to do the job better in new ways.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;/figure&gt;
+&lt;p&gt;The project initially asked: What if companies had to disclose metrics, as part of their SEC reporting, showing how their platforms operated before this process of “&lt;a href="https://en.wikipedia.org/wiki/Enshittification" rel="noreferrer noopener" target="_blank"&gt;enshittification&lt;/a&gt;”? There’s a whole lot we could be doing to make AI protocols that promote safety and the interests of users, not just providers.&lt;/p&gt;
+&lt;p&gt;Also, in copyright, we’re trying to figure out if protocols can say, &amp;#8220;You want to use my content? Pay me for it.&amp;#8221;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; In the 1970s, you wrote a book about science-fiction author Frank Herbert. Are any of his ideas still relevant to you today?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tim O’Reilly: &lt;/strong&gt;All of them. Herbert’s famous line from the novel &lt;em&gt;Dune&lt;/em&gt; is still true: &amp;#8220;Fear is the mind killer.&amp;#8221; Realizing the future does not have to be like the past and trying to keep it like the past is almost always the wrong strategy. In technology, that means being comfortable with the unknown.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Take those trying to build walls against the AI wave, pretending we can keep it at bay. Or walls against other changes, such as mass immigration, climate change or the aging population, rather than seeing the opportunities. The longer you spend putting up walls, the harder the crash when they fall.&lt;/p&gt;
+&lt;p&gt;Surfing the edge of change today requires balance and responsiveness. With AI, there are no standardized rules — you have to figure out where the edges are for yourself and your business. This is &amp;#8220;get yourself dirty&amp;#8221; work, not something you can do from a distance.&lt;/p&gt;
+&lt;p&gt;It&amp;#8217;s an intensely creative period where we solve existing problems in new ways, and new problems that we couldn&amp;#8217;t handle with previous tools. The answers are different every day because they are still being invented. The invention, diffusion, and learning are a social process.&lt;/p&gt;
+&lt;p&gt;For example, there&amp;#8217;s a temptation to try to fit AI into existing workflows. When apps were invented, &amp;#8220;mobile first&amp;#8221; — design the new thing first, then retrofit the old thing when you understand it — became the watchword. I keep urging my company to think &amp;#8220;AI first&amp;#8221; — try to do the job better in new ways. When you&amp;#8217;ve figured that out, go back and improve or integrate with what you did before.&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/business/surfing-the-edge-tim-oreilly-on-how-humans-can-thrive-with-ai/" rel="nofollow"&gt;&amp;#8220;Surfing the edge&amp;#8221;: Tim O’Reilly on how humans can thrive with AI&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>What is the fundamental human skill? It’s riding the crest of change and embracing the unknown, says Tim O’Reilly, tech trend visionary and CEO of O’Reilly Media. He “imbibed” this idea from sci-fi writer Frank Herbert (Dune) in the 1970s and has been “surfing the edge” of change ever since.
@@ -1485,6 +1163,146 @@
 It’s an intensely creative period where we solve existing problems in new ways, and new problems that we couldn’t handle with previous tools. The answers are different every day because they are still being invented. The invention, diffusion, and learning are a social process.
 For example, there’s a temptation to try to fit AI into existing workflows. When apps were invented, “mobile first” — design the new thing first, then retrofit the old thing when you understand it — became the watchword. I keep urging my company to think “AI first” — try to do the job better in new ways. When you’ve figured that out, go back and improve or integrate with what you did before.
 This article“Surfing the edge”: Tim O’Reilly on how humans can thrive with AIis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨人类如何在AI时代中生存与发展</t>
+  </si>
+  <si>
+    <t>文章通过资深科技思想家的视角,深刻批判了当前AI发展的经济驱动模式,挑战了技术决定论的普遍观点,激发读者对科技与社会关系的深度反思。</t>
+  </si>
+  <si>
+    <t>科技思想家蒂姆·奥莱利认为,AI本身不抢工作,是背后追逐短期利益的资本决策在作祟。他批判了硅谷的投机炒作,呼吁我们应利用AI增强人类能力、解决真实世界的问题,而非简单地裁员增效。这是一份关于如何塑造更具人性未来的技术应用指南。</t>
+  </si>
+  <si>
+    <t>本文探讨技术进步与社会经济结构之间的辩证关系。它认为,自动化的社会影响并非技术固有的属性,而是主导经济范式(特别是注重短期资本收益而非可持续价值创造的榨取式模式)的产物。文章解构了科技炒作周期的机制,揭示投机性投资和人为叙事如何扭曲技术发展的优先级。它批判了基于广告的商业模式,这种模式导致用户体验和信息生态的退化(enshittification)。其核心哲学论点倡导一种范式转变:从将技术视为替代劳动力的工具,转向将其视为增强人类能力、解决复杂社会问题的媒介。这要求个体与组织在面对颠覆性变革时,能够主动拥抱不确定性,并有意识地拒绝基于恐惧的保守策略。</t>
+  </si>
+  <si>
+    <t>["AI伦理", "科技批判", "未来工作", "资本主义", "创新"]</t>
+  </si>
+  <si>
+    <t>[{"title": "WTF? What’s the Future and Why It’s Up to Us", "author": "Tim O'Reilly", "context": "作者引用此书的核心观点,认为应警惕当前榨取式的资本模式,并主张利用AI创造解决社会问题的机会,而非简单替代人类工作。"}, {"title": "Dune", "author": "Frank Herbert", "context": "作者提及此书塑造了其核心世界观,即拥抱变化与未知是人类的基本技能,并引用书中名言“恐惧是思维的杀手”来阐述其技术哲学。"}]</t>
+  </si>
+  <si>
+    <t>Will new physics affect our Universe’s far future?</t>
+  </si>
+  <si>
+    <t>2025-12-02 15:00:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/starts-with-a-bang/new-physics-far-future/</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2023/01/springel-e1764622946389.jpg?w=640" /&gt;&lt;p&gt;All throughout the Universe, we can see evidence for not only the &amp;#8220;stuff like us&amp;#8221; that&amp;#8217;s out there, but additional forms of energy that take us beyond the Standard Model of elementary particles and forces. Sure, there&amp;#8217;s plenty of normal matter: things like atoms and ions, made up fundamentally of quarks, gluons, and electrons, just like we are. There are stars and planets, but also gas, dust, plasma, and even black holes made from the same raw ingredients that make us up. There are also photons, or quanta of light, and the nearly invisible neutrinos and antineutrinos, all playing detectable, measurable roles in the evolution of our cosmos.&lt;/p&gt;
+&lt;p&gt;But that doesn&amp;#8217;t explain everything we know is out there contributing to our Universe. We know, from observing galaxies, galaxy clusters, and the large-scale cosmic web, that the dominant form of mass in the Universe is not found in the Standard Model, but instead is a mysterious novel substance that we presently call &amp;#8220;dark matter.&amp;#8221; We know that the Standard Model, with all of its known laws and ingredients, cannot account for the matter-dominated Universe we have, and that some type of new physics must have created the matter-antimatter asymmetry. And we know, from observing the expanding Universe in a variety of ways, that the Universe is actually dominated by a novel form of energy that isn&amp;#8217;t a type of matter or radiation at all: dark energy.&lt;/p&gt;
+&lt;p&gt;We think that we know the general properties of what dark matter is, of what caused baryogenesis, and how dark energy behaves. This creates a picture of our Universe&amp;#8217;s far future that&amp;#8217;s based in the best science we have today. But if any of those things are different from our simple (and perhaps naive) expectations, then our far future could turn out very, very differently from how we currently expect. Here&amp;#8217;s how it breaks down.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Standard Model" class="wp-image-160619" height="660" src="https://bigthink.com/wp-content/uploads/2022/01/https___blogs-images.forbes.com_startswithabang_files_2019_08_cpep.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The Standard Model of particle physics accounts for three of the four forces (excepting gravity), the full suite of discovered particles, and all of their interactions. Whether there are additional particles and/or interactions that are discoverable with colliders we can build on Earth is a debatable subject, but there are still many puzzles that remain unanswered, such as the observed absence of baryon number violation, with the Standard Model in its current form.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.cpepphysics.org/fundamental-particles/" target="_blank"&gt;Credit&lt;/a&gt;: Contemporary Physics Education Project/CPEP,  DOE/NSF/LBNL&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;If you want to know the fate of anything in the Universe, you have to understand the physics behind how it evolves over time. For the matter in our Universe, the physics that governs it is different depending on whether it&amp;#8217;s part of a bound structure or not. If it is part of a bound structure, the spacetime that governs its evolution will be non-expanding, and the separation distance between that particle and any other particle that&amp;#8217;s a part of that same system will not be compelled to increase due to the expansion of space in that region. But if that matter particle is not part of a bound structure, then it will recede away from all other bound structures, becoming colder, less dense, and more isolated as time goes on.&lt;/p&gt;
+&lt;p&gt;In the context of the expanding Universe, the clumps of matter that grow large enough, rapidly enough can form these bound structures, and then it&amp;#8217;s the space between those clumps that keeps on not only expanding, but whose expansion accelerates due to the presence of dark energy as time goes on. This leads to a web of cosmic structure, where matter clumps along filaments to produce galaxies and groups of galaxies, and then clusters more significantly at the nexus of various filaments, producing clusters and even multiple merging clusters of galaxies. The in-between regions, however, continue expanding, driving the various isolated galaxies, groups, and clusters apart from one another as time marches on.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="void cluster structure universe" class="wp-image-162880" height="540" src="https://bigthink.com/wp-content/uploads/2022/01/https___blogs-images.forbes.com_startswithabang_files_2019_05_Galaxy_superclusters_and_galaxy_voids-1200x675-1.png?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;In between the great clusters and filaments of the Universe are great cosmic voids, some of which can span hundreds of millions of light-years in diameter. The long-held idea that the Universe is held together by structures spanning many hundreds of millions of light-years, these ultra-large superclusters, has now been settled, and these enormous web-like features are destined to be torn apart by the Universe&amp;rsquo;s expansion, while the cosmic voids continue to grow. Only individually bound galaxies, groups of galaxies, and clusters of galaxies will persist.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://en.wikipedia.org/wiki/File:Galaxy_superclusters_and_galaxy_voids.png" target="_blank"&gt;Credit&lt;/a&gt;: Andrew Z. Colvin and Zeryphex/Astronom5109; Wikimedia Commons&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Meanwhile, within any individual bound structure (including our own Local Group of galaxies, with the Milky Way, Andromeda, and the hundreds of smaller galaxies accompanying us), less and less matter flows into them from intergalactic space as the Universe accelerates, placing a cutoff on the total amount of normal matter within it. Over time, the star-formation rate has dropped ever since &amp;#8220;cosmic noon&amp;#8221; was achieved approximately 10-11 billion years ago; it&amp;#8217;s &lt;a href="https://bigthink.com/starts-with-a-bang/decline-fall-stars-universe/"&gt;now at just 3% of what it was at its peak&lt;/a&gt;, and continues to decline. As time continues to pass, not only will the star-formation rate drop further, but eventually, it will slow to a trickle and then stop altogether.&lt;/p&gt;
+&lt;p&gt;Star-formation requires neutral clouds of molecular hydrogen, and the more stars that form, the less hydrogen there is. Winds from new episodes of star-formation can expel atoms and ions from galaxies and send them into intergalactic space, and as the gas and dust population within a galaxy goes down, the prospects for forming new stars decline as well. Even though it may take tens of billions, hundreds of billions, or even many trillions of years, eventually the star-formation rate in whatever our Local Group evolves into will fade away to zero. When the now-existing stars run out of fuel in their cores, they will cease to shine as well.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-155178" height="640" src="https://bigthink.com/wp-content/uploads/2021/11/https___blogs-images.forbes.com_startswithabang_files_2016_09_1280px-Planets_Under_a_Red_Sun-1200x800-1.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;If the light from a parent star can be obscured, such as with a coronagraph or a starshade, the terrestrial planets within its habitable zone could potentially be directly imaged, allowing searches for numerous potential biosignatures. In the far future, it&amp;#8217;s these longest-lived, lowest-mass stars that might be the last locations where life likely persists in the Universe, a possibility even hundreds of trillions of years from now.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://images.nasa.gov/details-PIA13994.html" target="_blank"&gt;Credit&lt;/a&gt;: NASA/JPL-Caltech&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;And then, over very long periods of time, everything else will fade away too. The distant, unbound galaxies, groups, and clusters will be accelerated away to beyond the limits of what&amp;#8217;s reachable or communicable with an observer in any one bound structure, rendering them inaccessible. The stellar and planetary remnants within any bound structure will gravitationally interact, leading material to either fall into a central, supermassive black hole or to get ejected from the galaxy entirely: a process which should take between 10&lt;sup&gt;17&lt;/sup&gt; and 10&lt;sup&gt;19&lt;/sup&gt; years, or millions of times the present age of the Universe.&lt;/p&gt;
+&lt;p&gt;The persisting clumps of matter should remain stable, with the non-radioactive elements persisting for all eternity. After around 10&lt;sup&gt;67&lt;/sup&gt; years pass, the lightest black holes will completely decay away, and after around 10&lt;sup&gt;110&lt;/sup&gt; years, the heaviest ones will have decayed away also. This leads to a scenario for the far future Universe known as a heat death, where everything that remains is in its lowest-energy state (the ground state), and from which no further energy will be able to be extracted or used to do work.&lt;/p&gt;
+&lt;p&gt;The Universe will be nothing more than an isolated smattering of bound clumps of mass — mostly dark matter but with occasional clumps of burned out stars and desolate planetary objects — all separated by vast, inaccessible distances that continue to increase as time goes on. That&amp;#8217;s how the Universe ends.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="black hole evaporation" class="wp-image-221905" height="720" src="https://bigthink.com/wp-content/uploads/2022/07/6-29.jpg?w=1280" width="1280" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;When a black hole either forms with a very low mass, or evaporates sufficiently so that only a small amount of mass remains, quantum effects arising from the curved spacetime near the event horizon will cause the black hole to rapidly decay via Hawking radiation. The lower the mass of the black hole, the more rapid the decay is, until the evaporation completes in one last &amp;#8220;burst&amp;#8221; of energetic radiation. The longest-lived black holes will be the most massive, with decay timescales exceeding 10^100 years.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.needpix.com/photo/download/259186/light-flashes-lighting-lights-free-pictures-free-photos-free-images-royalty-free-free-illustrations" target="_blank"&gt;Credit&lt;/a&gt;: ortega-pictures/Pixabay&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;But what if we&amp;#8217;ve assumed something that&amp;#8217;s incorrect? After all, this scenario only works under the best current description of reality as we understand it today. It assumes that:&lt;/p&gt;
+&lt;ol class="wp-block-list"&gt;
+&lt;li&gt;dark matter is a cold, collisionless, non-interacting (except gravitationally) species of massive particle,&lt;/li&gt;
+&lt;li&gt;baryogenesis admitted baryon-violating interactions early on, to create the matter-antimatter asymmetry we observe in our Universe, but that conserves the baryon number today and for all the time afterward, leading to a stable proton,&lt;/li&gt;
+&lt;li&gt;and that dark energy is a cosmological constant, and that its energy density and contribution to the expansion rate of the Universe won&amp;#8217;t change over time.&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;All three of these assumptions are consistent with every piece of information we&amp;#8217;ve ever collected about the Universe, even if you include the pieces that don&amp;#8217;t quite fit, such as the Hubble tension, the evidence for evolving dark energy, the lack of particle physics hints that take us beyond the Standard Model, or the constraints we have on a variety of plausible baryogenesis scenarios.&lt;/p&gt;
+&lt;p&gt;Nevertheless, there is a tremendous amount of wiggle-room here, and if any one of these three simple (but not necessarily well-established) properties turns out to be wrong, the fate of our whole Universe could be due for a profound cosmic shake-up. Here&amp;#8217;s how new physics, on any of these three fronts, would impact our far future.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A swirling blue nebula-like formation, reminiscent of the Milky Way's youngest features, rotates gracefully against a dark space background." class="wp-image-524689" height="440" src="https://bigthink.com/wp-content/uploads/2024/10/ezgif-2-3c37cb87ef.gif?w=840" width="840" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This supercomputer simulation shows the emergence of a rotating disk after hundreds of millions of years of cosmic evolution from gas and dust; the simulation also includes stars and dark matter, which are not shown here. If the dark matter were visible, it would make an enormous halo much larger, in radius, than the entire size of the image shown here, and would exist irrespective of the stars, gas, and dust inside.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.youtube.com/watch?v=nEqyCvHquMM"&gt;Credit&lt;/a&gt;: R. Crain (LJMU) and J. Geach (U. Herts)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;1.) What if dark matter has a self-interaction?&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;For as long as it&amp;#8217;s been proposed, people have been looking for ways to detect dark matter. They have looked indirectly, for astrophysical signals and consequences, finding strong evidence in how matter clumps, clusters, and moves within individually bound structures. They&amp;#8217;ve also looked directly, for signs of dark matter particle annihilation (at galactic centers, for example), for interactions with normal matter and with light (both cosmically and within dedicated detectors such as ADMX), and for signatures of dark matter colliding with normal matter particles (through direct detection/recoil experiments).&lt;/p&gt;
+&lt;p&gt;The indirect signatures are overwhelmingly strong; the direct signatures are consistent with a null effect. This means that it&amp;#8217;s eminently plausible, as we currently assume, that dark matter has no interaction with light, normal matter, or itself other than through gravitation alone. If that&amp;#8217;s the case, then sure, some dark matter particles will be ejected from the bound galaxies, groups, and clusters that they form giant, diffuse halos around, but most will persist for what&amp;#8217;s effectively an eternity. These clumpy halos of matter, even after the last black hole evaporates, should persist.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="gamma rays inverse compton geminga pulsar" class="wp-image-469454" height="840" src="https://bigthink.com/wp-content/uploads/2023/09/gamma-rays-geminga.gif?w=840" width="840" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This animation shows a region of the sky centered on the pulsar Geminga. The first image shows the total number of gamma rays detected by Fermi&amp;rsquo;s Large Area Telescope at energies from 8 to 1,000 billion electron volts (GeV) &amp;mdash; billions of times the energy of visible light &amp;mdash; over the past decade. By removing all bright sources, astronomers discovered the pulsar&amp;rsquo;s faint, extended gamma-ray halo, concluding that this one pulsar could be responsible for up to 20% of the positrons detected by the AMS-02 experiment, disfavoring an annihilating dark matter scenario for this cosmic excess.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://svs.gsfc.nasa.gov/13209" target="_blank"&gt;Credit&lt;/a&gt;: NASA/DOE/Fermi LAT Collaboration&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;But if dark matter does have a self-interaction, the story of our far future could change dramatically. Sure, we might have constraints on direct dark matter signatures, but they could show up at levels that are simply below the threshold of what&amp;#8217;s presently observable. One fascinating possibility is that dark matter does interact with itself to form a whole &amp;#8220;dark universe&amp;#8221; of structure: the dark matter equivalent of baryons, atoms, or some other structure that could serve as the building blocks for larger, more complex structures.&lt;/p&gt;
+&lt;p&gt;The key is recognizing that all our constraints imply is that there&amp;#8217;s an upper limit to the rate, or timescale, on which these processes can occur. Our longest-running experiments have lasted for decades, or around 10&lt;sup&gt;9&lt;/sup&gt; seconds. Planet Earth and the Sun have been around 4.5 billion years, or around 10&lt;sup&gt;17&lt;/sup&gt; seconds. But what if dark matter makes structures on long timescales: scales far longer than the age of the Universe, like sextillions or even googols of years?&lt;/p&gt;
+&lt;p&gt;It would mean that the &amp;#8220;heat death&amp;#8221; scenario will be all wrong, because there will be a new way of extracting energy and performing work in the Universe. Even if it&amp;#8217;s small, the discovery of any way that dark matter isn&amp;#8217;t purely collisionless or non-interacting through a force other than gravity would profoundly change our ultimate cosmic fate.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Illustration of a proton showing quarks, gluons, and decay processes; includes Feynman diagrams for proton decay—reminding us even Einstein couldn’t change the facts of particle physics." class="wp-image-574647" height="1683" src="https://bigthink.com/wp-content/uploads/2025/08/protdecay.jpg?w=2560" width="2560" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The proton isn&amp;#8217;t just made of three valence quarks, but rather contains a substructure that is an intricate and dynamic system of quarks (and antiquarks) and gluons inside. The nuclear force acts like a spring, with negligible force when unstretched but large, attractive forces when stretched to large distances. To the best of our understanding, the proton is a truly stable particle, and has never been observed to decay, despite the allowable pathways that permit its decay (at right) within SU(5) and other grand unification scenarios.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.anl.gov/phy/3d-structure-of-protons-and-neutrons"&gt;Credit&lt;/a&gt;: Argonne National Laboratory (L); J. Lopez, Reports on Progress in Physics, 1996 (R)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;2.) What if baryon violating interactions still occur, and the proton is inherently unstable?&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Just as we have constraints that dark matter doesn&amp;#8217;t interact, we also have strong constraints on the stability of the proton. Through giant, long-term experiments that are sensitive to proton decay (often with the same experiments that are sensitive to neutrino detection or possible dark matter detection), we&amp;#8217;ve constrained the lifetime of the proton to be greater than around 10&lt;sup&gt;34&lt;/sup&gt; years, or a septillion times longer than the present age of the Universe. This has been enough to rule out many scenarios for baryogenesis: the ones that would lead to an unstable proton with a lifetime of less than the constrained value, including the &lt;a href="https://en.wikipedia.org/wiki/Georgi%E2%80%93Glashow_model"&gt;standard SU(5) Georgi-Glashow unification scenario&lt;/a&gt;, both with and without supersymmetry.&lt;/p&gt;
+&lt;p&gt;But again, this is just an upper limit. It&amp;#8217;s possible that the proton is unstable, that there are actually no truly stable atomic nuclei on the periodic table, and that all of the atom-and-ion-based normal matter we know of will someday decay.&lt;/p&gt;
+&lt;p&gt;And decays are great for the Universe&amp;#8217;s potential, because all decays liberate energy and leave you in a lower-energy state. Liberated energy is energy that can be used to do work, to power processes, or to extend the lifetime of — and what&amp;#8217;s possible within — the Universe. The surviving bound structures, even long-term, could someday again house physically interesting, perhaps even metabolic, processes.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="dark energy" class="wp-image-149555" height="724" src="https://bigthink.com/wp-content/uploads/2021/10/https___specials-images.forbesimg.com_imageserve_5fc67df956103eb764829b19_How-radiation-matter-and-dark-energy-inflation-energy-densities-change-with_960x0.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;While matter and radiation become less dense as the Universe expands owing to its increasing volume, dark energy is a form of energy inherent to space itself. As new space gets created in the expanding Universe, the dark energy density remains constant.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/3ntMO7l" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;3.) What if dark energy turns out not to be a cosmological constant, but rather is evolving?&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;This one is particularly exciting if you want to change the fate of the Universe, because it doesn&amp;#8217;t just change the &amp;#8220;heat death&amp;#8221; part by pushing it out or giving us a new source of energy to draw upon for increasing the entropy of the Universe further than our presently known physics allows us to go. Instead, if we allowed dark energy to evolve — rather than insisting that it remain as a cosmological constant — then it wouldn&amp;#8217;t just be the individual clumps whose fates would be different from the standard picture, but the Universe as a whole. After all, dark energy represents the majority of the Universe&amp;#8217;s energy, and changing how that energy behaves could change the entire behavior of the Universe.&lt;/p&gt;
+&lt;p&gt;The reason that the Universe is going to end as a cold series of disconnected, isolated clumps of matter is because of dark energy. As the matter density drops (because the volume of the Universe increases), dark energy — which behaves as a form of energy inherent to space itself in the cosmological constant case — becomes relatively more and more important. Because dark energy has both an energy density and a strong, negative pressure, it ensures that the Universe will always expand, and that distant &amp;#8220;bound clumps&amp;#8221; will speed away, faster and faster, from one another as time goes on. And therefore, that&amp;#8217;s how the Universe will end.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Graphs display six cosmological measurements, including isotropic, perpendicular, and parallel BAO, along with SN distance modulus from DESY5, Union3, and Pantheon+. These are plotted against redshift using various data sets to explore possible dark energy weakening." class="wp-image-563024" height="598" src="https://bigthink.com/wp-content/uploads/2025/03/doIreallyevolve.jpg?w=1075" width="1075" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Looking at the data points from DESI (top row) or from the various supernova collaborations (bottom row), it&amp;#8217;s very clear that the data, at this point in time, is not sufficiently good to robustly discriminate between the various options for how dark energy is behaving in the Universe. The fact that the three different supernova samples, DESY, Union, and Pantheon+, give such different answers from one another should be a troubling indication that we haven&amp;#8217;t yet uncovered the full story.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://data.desi.lbl.gov/doc/papers/"&gt;Credit&lt;/a&gt;: DESI Collaboration/M. Abdul-Karim et al., DESI DR2 Results, 2025&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;But if dark energy isn&amp;#8217;t a constant, all bets are off. There is circumstantial (but not conclusive) evidence that dark energy may evolve over time, and if so, then many new possible fates suddenly arise.&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;Dark energy could strengthen, and if its pressure becomes more negative than a cosmological constant&amp;#8217;s, then the cosmic acceleration will intensify, and either a Big Rip (where space tears itself apart) or a rejuvenated scenario (where the increased energy density triggers a new hot, dense, Big Bang-like state) could ensue.&lt;/li&gt;
+&lt;li&gt;Dark energy could weaken and disappear entirely, causing the cosmic expansion to asymptote toward zero, rendering the distant groups reachable and communicable to one another.&lt;/li&gt;
+&lt;li&gt;Or dark energy could weaken and then flip signs, leading to a cosmic recollapse and a Big Crunch, with a potentially cyclic scenario (and a new Big Bang-like state) emerging in the future.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;These are three of the big puzzles facing modern cosmology: what the nature, behavior, and properties of dark matter are, how the matter-antimatter asymmetry arose and whether atomic nuclei are truly stable, and what the nature and future evolution of dark energy are. In the simplest, most &amp;#8220;vanilla&amp;#8221; scenarios, dark matter is non-interacting, baryogenesis occurred only once early on and leaves eternally stable atomic nuclei behind, and dark energy is a pure cosmological constant, leading to our current &amp;#8220;consensus&amp;#8221; fate. But if the solution to any (or all) of these puzzles turns out to be different from our present ideas, our ultimate cosmic fate is suddenly up for grabs. In many ways, that&amp;#8217;s the most exciting exploratory frontier of all!&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/new-physics-far-future/" rel="nofollow"&gt;Will new physics affect our Universe&amp;#8217;s far future?&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>All throughout the Universe, we can see evidence for not only the “stuff like us” that’s out there, but additional forms of energy that take us beyond the Standard Model of elementary particles and forces. Sure, there’s plenty of normal matter: things like atoms and ions, made up fundamentally of quarks, gluons, and electrons, just like we are. There are stars and planets, but also gas, dust, plasma, and even black holes made from the same raw ingredients that make us up. There are also photons, or quanta of light, and the nearly invisible neutrinos and antineutrinos, all playing detectable, measurable roles in the evolution of our cosmos.
@@ -1550,6 +1368,55 @@
 This articleWill new physics affect our Universe’s far future?is featured onBig Think.</t>
   </si>
   <si>
+    <t>具备独特视角的科学探讨，涉及宇宙学和新物理学的前沿问题</t>
+  </si>
+  <si>
+    <t>文章系统性地介绍了构成宇宙的关键要素(暗物质、暗能量)以及它们如何决定宇宙的终极命运,为读者构建了一个清晰的宇宙学认知框架。</t>
+  </si>
+  <si>
+    <t>我们的宇宙不只有星辰,更被神秘的暗物质和暗能量主宰。本文科普了这些力量如何塑造宇宙的遥远未来,最终导向“热寂”结局:一个恒星燃尽、星系分离、连黑洞都已蒸发的冰冷、黑暗的永恒虚空。</t>
+  </si>
+  <si>
+    <t>本文探讨了在一个由竞争性基本力（一种促进物质聚集与结构形成,另一种驱动全局性加速膨胀）支配的复杂系统中,其终极的演化轨迹。它描绘了熵增原理在宇宙尺度上的逻辑终点,即从一个高能量密度、结构复杂的动态状态,不可逆地走向一个热力学平衡的终态。这一过程的核心是所有负熵过程（如恒星形成）的最终停止,以及最稳定结构（包括通过量子效应衰变的黑洞）的最终瓦解。文章的本质是关于系统命运的哲学思考：在给定的初始条件和物理法则下,一个封闭系统如何从有序走向无序,从复杂走向简单,最终达到一种无法再进行任何“功”的、永恒静止的基态。</t>
+  </si>
+  <si>
+    <t>["宇宙学", "天体物理学", "热寂", "暗物质", "暗能量", "科普"]</t>
+  </si>
+  <si>
+    <t>The rise of AI denialism</t>
+  </si>
+  <si>
+    <t>2025-12-02 06:03:16</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/the-present/the-rise-of-ai-denialism/</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/ai-denialism_compressed.png?w=640" /&gt;&lt;p&gt;Over the past few months, we’ve seen a surge of skepticism around the phenomenon currently referred to as the “AI boom.” The shift began when OpenAI released GPT-5 this summer &lt;a href="https://venturebeat.com/ai/openai-returns-old-models-to-chatgpt-as-sam-altman-admits-bumpy-gpt-5-rollout"&gt;to mixed reviews&lt;/a&gt;, mostly from casual users. We’ve since had months of breathless claims from pundits and influencers that the era of rapid AI advancement is ending, that AI scaling has hit the wall, and that the AI boom is just another tech bubble. These same voices overuse the phrase “AI slop” to disparage the remarkable images, documents, videos, and code that AI models produce at the touch of a button.&lt;/p&gt;
+&lt;p&gt;I find this perspective both absurd and dangerous.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;By any objective measure, AI continues to improve at a stunning pace. The impressive leap in capabilities made by Gemini 3 in November is just the latest example. No, AI scaling has not hit the wall. In fact, I can’t think of another technology that has advanced this quickly at any point during my lifetime, and I started programming in 1982. The computer on my desk today runs thousands of times faster and has a million times more memory than my first PC (a &lt;a href="https://www.computinghistory.org.uk/det/41385/TRS-80-Microcomputer-System-Model-III-%2826-1062%29/"&gt;TRS-80 model III&lt;/a&gt;), and yet, today’s rate of AI advancement leaves me dizzy.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;So why has the public latched onto the narrative that AI is stalling, that the output is &lt;em&gt;slop&lt;/em&gt;, and that the AI boom is just another tech bubble that lacks justifiable use-cases? I believe it’s because society is collectively entering the first stage of grief — &lt;em&gt;denial&lt;/em&gt; — over the very scary possibility that we humans may soon lose &lt;a href="https://bigthink.com/the-future/what-happens-the-day-after-humans-create-agi/"&gt;&lt;em&gt;cognitive supremacy&lt;/em&gt;&lt;/a&gt; to artificial systems. Believe me, I know this future is hard to accept. I’ve been writing about the &lt;a href="https://github.com/GenerativeAIandHCI/GenerativeAIandHCI.github.io/blob/main/papers/2023/Conversational%20AI%20and%20the%20Threat%20to%20Epistemic%20Agency%20-%20CHI%202023%20.pdf"&gt;destabilizing&lt;/a&gt; and &lt;a href="https://bigthink.com/the-future/what-happens-the-day-after-humans-create-agi/"&gt;demoralizing&lt;/a&gt; risks of superintelligence for well over a decade, and I also feel overwhelmed by the changes racing toward us.&amp;nbsp;&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-unprecedented-advances"&gt;Unprecedented advances&lt;/h2&gt;
+&lt;p&gt;Why does AI advancement feel so different than other technologies? Eighty-two years ago, philosopher Ayn Rand wrote these three simple sentences: &lt;em&gt;“Man cannot survive except through his mind. He comes on earth unarmed. His brain is his only weapon.”&lt;/em&gt; For me, these words summarize our self-image as humans — we are the superintelligent species. This is the basis of our success and survival. And yet, we could soon find ourselves &lt;a href="https://www.singularityweblog.com/are-we-destined-to-be-out-played-by-ai/"&gt;intellectually outmatched&lt;/a&gt; by widely available AI models that can outthink us on all fronts, solving problems infinitely faster, more accurately, and yes, &lt;em&gt;more creatively&lt;/em&gt; than any human could.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;I stress &lt;em&gt;creatively&lt;/em&gt; because a common theme among AI denialists is an insistence that certain human capabilities will never be rivaled by machines. The two capabilities that are cited most often in this regard are&amp;nbsp; “creativity” and “emotional intelligence.”&amp;nbsp;Unfortunately, there is no proof that AI will not surpass us in these areas. In fact, there is increasing evidence that the opposite is likely true.&lt;/p&gt;
+&lt;p&gt;On the creativity front, there is no doubt that today’s AI models can produce content faster and more varied than any human. The primary argument against AI being “creative” is the belief that true &lt;a href="https://link.springer.com/article/10.1007/s00146-024-02127-3"&gt;creativity requires inner motivation&lt;/a&gt;, not just the production of novel artifacts. I appreciate this argument, but find it circular because it defines a process based on how we experience it, not based on the qualitative value of the output. In addition, we have little reason to believe AI systems will lack motivation — we simply don’t know whether AI will ever experience &lt;em&gt;intentions&lt;/em&gt; through an inner sense of self the way humans do.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;As a result, many researchers say that AI will only be good at &lt;a href="https://link.springer.com/article/10.1007/s11633-025-1546-4"&gt;imitating human creativity&lt;/a&gt; rather than &lt;em&gt;having&lt;/em&gt; it. This could turn out to be correct. But if AI can produce original work that rivals or exceeds most humans, it will still take away jobs and opportunities on a large scale; just ask any commercial artist. Also, there is the argument that AI systems only create derivative works based on human artifacts. This is a fair point, but it is also true of humans: We all stand on the shoulders of others, our work influenced by everything we consume. I believe AI is headed for a similar form of creativity — societal influence mixed with random sparks of inspiration, and it will occur at superhuman speeds and scales.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;On the emotional intelligence front, I am equally unsure humans will have an edge. It is very likely that AI systems will soon be able to “read you” more accurately than any person could. They will do this by &lt;a href="https://link.springer.com/chapter/10.1007/978-3-031-16075-2_39"&gt;identifying micro-expressions&lt;/a&gt; on your face, in your voice, in your posture, in your gaze, and even in your breathing. This will enable AI assistants to infer your inner feelings faster and more precisely than is humanly possible. At the same time, these AI assistants (which you will carry around on your phone or wear in your glasses) will be able to observe your emotional reactions throughout your day and &lt;a href="https://www.iiis.org/CDs2023/CD2023Summer/papers/HA408FU.pdf"&gt;build predictive models of your behavior.&lt;/a&gt; Unless strictly regulated, which seems increasingly unlikely, this will enable AI assistants and other intelligent agents to &lt;a href="https://arxiv.org/abs/2306.11748"&gt;influence you with superhuman skill&lt;/a&gt;.&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-an-asymmetric-dynamic"&gt;An asymmetric dynamic&lt;/h2&gt;
+&lt;p&gt;This is often referred to as the “&lt;a href="https://www.e-elgar.com/shop/usd/elgar-concise-encyclopedia-of-artificial-intelligence-and-the-law-9781035336890.html"&gt;AI manipulation problem&lt;/a&gt;,” and it suggests that the skill we refer to as “emotional intelligence”&lt;em&gt; &lt;/em&gt;may not give us a cognitive advantage over AI.&amp;nbsp; In fact, it could be our greatest weakness, creating an &lt;a href="https://github.com/GenerativeAIandHCI/GenerativeAIandHCI.github.io/blob/main/papers/2023/Conversational%20AI%20and%20the%20Threat%20to%20Epistemic%20Agency%20-%20CHI%202023%20.pdf"&gt;asymmetric dynamic&lt;/a&gt; where AI systems will be able to read us with &lt;a href="https://ieeexplore.ieee.org/abstract/document/9965661/"&gt;superhuman accuracy&lt;/a&gt;, while we can’t read the AI at all. When you converse with a photorealistic AI agent (as most people &lt;a href="https://www.intechopen.com/online-first/1223362"&gt;likely will&lt;/a&gt;, and often), you will be staring at an animated facade that can smile kindly and appear empathetic or understanding, inspiring you to feel trust and goodwill. This is pure illusion, but it could easily &lt;a href="https://openaccess.cms-conferences.org/publications/book/978-1-958651-75-9/article/978-1-958651-75-9_13"&gt;sway your thoughts and behaviors&lt;/a&gt;. And worse, we have no defense against it — our emotional reactions to faces are &lt;a href="https://www.sciencedirect.com/science/article/pii/S0301008204002151"&gt;reflexive and visceral&lt;/a&gt;, built into us by millions of years of evolution on a planet where interactive human faces were always genuinely human.&lt;/p&gt;
+&lt;p&gt;Like it or not, we will soon live in a world where many of the faces we encounter will be generative masks worn by AI agents. And yet, we tell ourselves that AI is just another tech boom. This is wishful thinking. The reason investment levels are staggering (and they &lt;em&gt;are&lt;/em&gt; staggering) is that &lt;a href="https://www.intechopen.com/online-first/1212008"&gt;AI will soon inhabit all aspects of our lives&lt;/a&gt;, often embodied as intelligent actors we have to engage with throughout our day. These agents will be designed to assist us, educate us, and yes, &lt;a href="https://ieeexplore.ieee.org/document/10099167"&gt;influence us&lt;/a&gt;. This will fundamentally alter how we work, how we learn, and how we socialize, and it will happen faster than we expect. Denial will not stop this. In fact, denial only makes it harder for us to prepare for the risks.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;To put the rate of change in perspective, let’s jump back five years and look at &lt;a href="https://cdn.governance.ai/Forecasting_AI_Progress-_Evidence_from_a_Survey_of_Machine_Learning_Researchers.pdf?utm_source=chatgpt.com"&gt;a large-scale survey given to computer scientists&lt;/a&gt; in late 2019 and early 2020.&amp;nbsp; Participants were asked to predict when AI would be able to generate original code to solve a problem. Specifically, they were asked to predict when AI would be able to&amp;nbsp; “write concise, efficient, human-readable Python code to implement simple algorithms like Quicksort.” In the world of programming, students are taught to do this as undergrads, so it’s not a particularly high bar. Still, the respondents predicted a 75% chance this would happen by 2033.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;It turns out, AI advanced much faster than expected. Today, large language models can already write computer code at levels that go far beyond the question asked in the 2020 survey. This summer, for example, GPT-5 and Gemini 2.5 Pro took part in the &lt;a href="https://venturebeat.com/ai/google-and-openais-coding-wins-at-university-competition-show-enterprise-ai"&gt;World Finals of the 2025 International Collegiate Programming Contest (ICPC)&lt;/a&gt;. The competition brings together coding teams from top universities to compete in solving complex algorithmic questions. &lt;a href="https://venturebeat.com/ai/google-and-openais-coding-wins-at-university-competition-show-enterprise-ai"&gt;GPT-5 came in first&lt;/a&gt;, beating all human teams and scoring a perfect score. Gemini 2.5 Pro came in second. And yet we have countless influencers referring to the output of these very same AI systems as “slop.”&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Line graph showing the increase in Google search interest for &amp;quot;AI Slop&amp;quot; from October 2022 to June 2025, with a sharp rise beginning around early 2024." class="wp-image-580758" height="584" src="https://bigthink.com/wp-content/uploads/2025/12/Screenshot-2025-12-01-at-3.34.33-PM.png" width="1456" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Of course, current AI coding systems are far from flawless, but today’s capabilities were unimaginable by most AI professionals only five years ago. Also, we can’t forget that human coders are far from flawless. Perfection is not the metric we use to judge software development. This is why we have whole departments devoted to testing and quality control. When done by humans, coding is always an iterative process where you expect to produce errors, find errors, and fix errors. The same is true for many human endeavors. If you could read the first draft of any Pulitzer Prize-winning article, it’d likely be riddled with flaws that would make the author cringe. This is how we humans produce quality work — iterative refinement — and yet we judge AI systems by very different standards.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The fact is, today’s frontier models are remarkably capable and are on a rapid path towards rivaling human professionals across most fields. It will transform how organizations operate, how governments function, how science advances, how engineering gets done, how militaries strategize, and how education is deployed. It will also create &lt;a href="https://www.privacylost.org/"&gt;terrifying new risks&lt;/a&gt; that we are not dealing with, like the potential for AI to manipulate individuals with superhuman effectiveness. Whether we like it or not, &lt;a href="https://www.google.com/books/edition/Our_Next_Reality/k3LdEAAAQBAJ"&gt;AI will change everything&lt;/a&gt;.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;In other words, we are not watching a&amp;nbsp;bubble&amp;nbsp;expand with blustery vapors. We are watching a planet form from churning magma, and it will solidify into a new framework for society. Denial will only make us unprepared. This is not an AI bubble. This is real.&lt;/p&gt;
+&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/the-present/the-rise-of-ai-denialism/" rel="nofollow"&gt;The rise of AI denialism&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Over the past few months, we’ve seen a surge of skepticism around the phenomenon currently referred to as the “AI boom.” The shift began when OpenAI released GPT-5 this summerto mixed reviews, mostly from casual users. We’ve since had months of breathless claims from pundits and influencers that the era of rapid AI advancement is ending, that AI scaling has hit the wall, and that the AI boom is just another tech bubble. These same voices overuse the phrase “AI slop” to disparage the remarkable images, documents, videos, and code that AI models produce at the touch of a button.
 I find this perspective both absurd and dangerous.
 By any objective measure, AI continues to improve at a stunning pace. The impressive leap in capabilities made by Gemini 3 in November is just the latest example. No, AI scaling has not hit the wall. In fact, I can’t think of another technology that has advanced this quickly at any point during my lifetime, and I started programming in 1982. The computer on my desk today runs thousands of times faster and has a million times more memory than my first PC (aTRS-80 model III), and yet, today’s rate of AI advancement leaves me dizzy.
@@ -1572,6 +1439,52 @@
 This articleThe rise of AI denialismis featured onBig Think.</t>
   </si>
   <si>
+    <t>包含逻辑推演和批判性观点，探讨了AI怀疑主义的现象</t>
+  </si>
+  <si>
+    <t>文章有力地挑战了当前流行的对AI发展的怀疑论调,将其重新定义为一种面对认知霸权旁落的心理否认,迫使读者严肃思考技术进步背后更深层的哲学与社会风险。</t>
+  </si>
+  <si>
+    <t>这篇文章认为,公众对AI发展的怀疑(称其为“AI垃圾”或“泡沫”)是一种心理上的否认。作者指出,这源于我们对失去“认知霸主”地位的深层恐惧。文章警告说,AI在创造力和情感洞察力上超越人类的可能性越来越大,这种否认态度只会让我们对未来的巨大变革和潜在风险毫无准备。</t>
+  </si>
+  <si>
+    <t>本文探讨了当一种颠覆性技术挑战了人类作为最高智能物种的核心身份时,社会集体产生的心理防御机制,尤其是“否认”阶段。文章深入剖析了“创造力”与“情感智能”等传统上被视为人类专属领域的概念,在面对能够模拟甚至超越这些能力的非人类智能时所面临的解构。它揭示了一种根本性的权力不对称:一方能够通过分析微观行为数据来精准解读另一方的情感与意图,而自身却是一个无法被共情或理解的“黑箱”,这为超人类级别的操纵创造了条件。文章的底层逻辑是,对指数级技术进步的低估,源于一种根植于物种自我认知的情感偏见,而这种认知失调阻碍了社会对即将到来的范式转移进行充分准备。其核心是关于存在主义焦虑、技术异化以及在后人类主义曙光下重新定义“人”的本质的哲学思辨。</t>
+  </si>
+  <si>
+    <t>["人工智能", "技术哲学", "认知科学", "社会心理学", "未来学"]</t>
+  </si>
+  <si>
+    <t>[{"title": "The Fountainhead", "author": "Ayn Rand", "context": "引用书中关于人类依靠心智生存的观点,以强调“认知至上”(cognitive supremacy)是人类自我认知的核心基石,而AI的发展正是在根本上动摇这一基石。"}]</t>
+  </si>
+  <si>
+    <t>Find your own tomato war: How to fortify culture through ritual</t>
+  </si>
+  <si>
+    <t>2025-12-01 22:00:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/business/find-your-own-tomato-war-how-to-fortify-culture-through-ritual/</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/11/culture-design_excerpt.jpg?w=640" /&gt;&lt;p&gt;A great way to start taking stock of your culture is to &lt;em&gt;review your written artifacts&lt;/em&gt;, including your mission, values, and purpose statements. You’ll also want to gain a clear understanding of the roots and history behind these statements. How did you get to where you are now? Do you feel like your mission statement and written values align to how your people show up every day? Leaders with a clear understanding of these fundamental documents and histories can use them as guideposts as they build culture; or they can work to change them to better represent the culture they want to intentionally design.&lt;/p&gt;
+&lt;p&gt;Brenna Davis, CEO of the nation’s largest organic produce wholesaler, Organically Grown Company (OGC), emphasizes the importance of honoring the company’s roots. She has a reverence for the founders and retired alumni of the company, who at OGC are referred to as “elders.” Davis told us about how the company has upheld its founders’ mission by establishing the first perpetual purpose trust in the country. Founded in 1978 by a group of farmers, OGC has long centered its work on its mission: to promote and inspire the growth of the organic agriculture movement. In 2018, it took that history into account when it restructured to transfer ownership to the Sustainable Food and Agriculture Perpetual Purpose Trust. This allows OGC to focus on its long-term purpose instead of short-term shareholder returns. With this act, purpose and culture became inextricably linked and inextricably tied to how the business runs. Now, the organization’s relationship to its purpose affects how work gets done, how meetings are run, and how decisions get made. It is by understanding its history that OGC was able to carve out a path for its long-term future.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;a href="https://www.amazon.com/Culture-Design-High-Performing-Resilient-Organization/dp/B0DS4DXW5Z" rel=" noreferrer noopener" target="_blank"&gt;&lt;img alt="Book cover titled &amp;quot;Culture Design: How to Build a High-Performing, Resilient Organization with Purpose&amp;quot; by James D. White and Krista White, featuring yellow and navy graphic shapes." class="wp-image-579780" height="2971" src="https://bigthink.com/wp-content/uploads/2025/11/WhiteWhite10789_300dpi.jpg" width="2000" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;For you, revisiting your company’s mission, purpose, values, and history may spark some initial ideas about where there may be gaps between your purported culture and how it shows up. When you compare your mission statement or documented values to organizational policies and tactics, do they match? You may find that you’ve strayed too far from your original purpose and that you need to find a way back.&lt;/p&gt;
+&lt;p&gt;History can also reveal how far you’ve come. For legacy companies, there will often be lessons of what not to do and clues as to how to reconcile past wrongs with your vision for the future. Whether it is ties to systems of oppression or dishonest business practices, history is not to be forgotten or swept under the rug, but to be learned from. Follow those hunches to the next part of your dig and document them as you design questions for surveys, interviews, or roundtables that you may conduct later. Keep your personal notes handy in a spreadsheet, Google Doc, or a good old-fashioned legal pad. The most important thing is keeping track of the work you’re doing here in a way that will be most accessible to you and your team when it’s time to go out and talk and listen to your stakeholders.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Next, &lt;em&gt;explore rituals&lt;/em&gt;. From the way you start and end meetings to how you celebrate employee contributions to your annual company retreat, rituals are the day-to-day traditions that reinforce your culture. At meetings, people have used everything from a routine check-in to see how their team members are feeling to a moment of gratitude shared at the onset of meetings.&lt;/p&gt;
+&lt;p&gt;At The Honest Company, CEO Carla Vernón aims to create psychological safety and creativity, so at town halls she asks employees to share which of a preselected set of Pixar characters represents what mood or energy they’re embodying in the moment. (The options include the characters of Joy or Fear from &lt;em&gt;Inside Out&lt;/em&gt;, or the relaxed optimism of Crush the Turtle in &lt;em&gt;Finding Nemo&lt;/em&gt;.) And to foster a culture of open communication, Lee Wallace, CEO of fair trade coffee producer Peace Coffee, has instituted an agenda item in every meeting that asks what needs to be communicated and to whom as a result of the meeting. Keeping everyone on the same page with the information they need to succeed is a key part of her change management agenda as she grows the company. Simple activities repeated over and over have a cumulative effect on culture.&lt;/p&gt;
+&lt;figure class="wp-block-pullquote"&gt;
+&lt;blockquote&gt;
+&lt;p&gt;Consider what it would mean to create a ritual that was uniquely suited to your company and colleagues.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;/figure&gt;
+&lt;p&gt;Many of you may be thinking, &lt;em&gt;That kind of stuff is not for me &lt;/em&gt;— you don’t see a connection between results and asking people how they feel at every meeting. We know it works and encourage you to be vulnerable and get out of your comfort zone and try it. But also recognize that not all rituals are about feelings. Other types of rituals that reinforce culture are brief weekly check-ins about the successes and challenges of the week, a daily review of a tenet of centering customer needs at staff meetings, or a biweekly cross-functional review and prioritization of issues that have come up during those two weeks.&lt;/p&gt;
+&lt;p&gt;Celebratory rituals often take the form of a company picnic or holiday party, but consider what it would mean to create a ritual that was uniquely suited to your company and colleagues. OGC has long celebrated its annual tomato war, where team members go out at the end of tomato season and throw overripe tomatoes at each other. When we heard about this, we immediately wanted an invite to the event, and it struck us that most companies don’t have celebrations with quite so much personality and distinction. The fact that OGC does signals to us that that culture is being intentionally designed. Do you have any traditions that are uniquely suited to your culture? Do you have any ideas for new traditions you could institute? This is the intentionality piece of building culture through rituals. None of the examples we give you here will be appropriate to you, but they should show you how specific and apt to the culture your rituals can be.&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/business/find-your-own-tomato-war-how-to-fortify-culture-through-ritual/" rel="nofollow"&gt;Find your own tomato war: How to fortify culture through ritual&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>A great way to start taking stock of your culture is toreview your written artifacts, including your mission, values, and purpose statements. You’ll also want to gain a clear understanding of the roots and history behind these statements. How did you get to where you are now? Do you feel like your mission statement and written values align to how your people show up every day? Leaders with a clear understanding of these fundamental documents and histories can use them as guideposts as they build culture; or they can work to change them to better represent the culture they want to intentionally design.
 Brenna Davis, CEO of the nation’s largest organic produce wholesaler, Organically Grown Company (OGC), emphasizes the importance of honoring the company’s roots. She has a reverence for the founders and retired alumni of the company, who at OGC are referred to as “elders.” Davis told us about how the company has upheld its founders’ mission by establishing the first perpetual purpose trust in the country. Founded in 1978 by a group of farmers, OGC has long centered its work on its mission: to promote and inspire the growth of the organic agriculture movement. In 2018, it took that history into account when it restructured to transfer ownership to the Sustainable Food and Agriculture Perpetual Purpose Trust. This allows OGC to focus on its long-term purpose instead of short-term shareholder returns. With this act, purpose and culture became inextricably linked and inextricably tied to how the business runs. Now, the organization’s relationship to its purpose affects how work gets done, how meetings are run, and how decisions get made. It is by understanding its history that OGC was able to carve out a path for its long-term future.
 [图片: Book cover titled "Culture Design: How to Build a High-Performing, Resilient Organization with Purpose" by James D. White and Krista White, featuring yellow and navy graphic shapes.]
@@ -1583,6 +1496,33 @@
 Many of you may be thinking,That kind of stuff is not for me— you don’t see a connection between results and asking people how they feel at every meeting. We know it works and encourage you to be vulnerable and get out of your comfort zone and try it. But also recognize that not all rituals are about feelings. Other types of rituals that reinforce culture are brief weekly check-ins about the successes and challenges of the week, a daily review of a tenet of centering customer needs at staff meetings, or a biweekly cross-functional review and prioritization of issues that have come up during those two weeks.
 Celebratory rituals often take the form of a company picnic or holiday party, but consider what it would mean to create a ritual that was uniquely suited to your company and colleagues. OGC has long celebrated its annual tomato war, where team members go out at the end of tomato season and throw overripe tomatoes at each other. When we heard about this, we immediately wanted an invite to the event, and it struck us that most companies don’t have celebrations with quite so much personality and distinction. The fact that OGC does signals to us that that culture is being intentionally designed. Do you have any traditions that are uniquely suited to your culture? Do you have any ideas for new traditions you could institute? This is the intentionality piece of building culture through rituals. None of the examples we give you here will be appropriate to you, but they should show you how specific and apt to the culture your rituals can be.
 This articleFind your own tomato war: How to fortify culture through ritualis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>具备独特视角的文化观察，探讨了如何通过仪式强化文化</t>
+  </si>
+  <si>
+    <t>文章系统性地介绍了通过审视企业历史、使命、价值观以及设计独特仪式来构建和强化组织文化的方法，提供了清晰的认知框架和可操作的实践案例。</t>
+  </si>
+  <si>
+    <t>本文指导领导者如何有意识地设计和强化组织文化。它建议审视企业的使命、价值观和历史等基础文档，并创建独特的日常仪式和庆祝活动。通过Organically Grown Company和The Honest Company的案例，文章展示了如何通过将既定价值观与日常实践相结合，来培养一个有韧性、高绩效的组织。</t>
+  </si>
+  <si>
+    <t>本篇探讨了集体实体（如组织）的根本身份与其日常运作之间的复杂关联。它提出，强大而有韧性的集体结构并非偶然形成，而是通过刻意审视历史叙事、阐明核心原则以及设计重复的行为模式来精心培育的。核心论点在于，必须将一个实体宣称的宗旨和价值观与其日常实践、仪式和决策过程保持一致。文章深入探讨了内省分析的方法论，鼓励批判性地审视一个实体的起源和演变，以识别其宣称理论与实际运用理论之间的差异。此外，它强调了象征性行动和共享习俗在强化集体认同、培养心理安全、创造力和开放沟通方面的变革力量。其深层哲学探究触及了集体意识和行为的有意塑造，超越了单纯的合规性，达到了对共享理想的真正内化，从而确保在动态环境中实现长期可持续性和适应性。文章强调，理解并尊重一个实体的过去对于规划连贯而有目的的未来至关重要，并指出即使是看似“软性”的文化元素，也是推动实际成果的基本动力。</t>
+  </si>
+  <si>
+    <t>["组织文化", "领导力", "企业价值观", "使命宣言", "企业历史", "企业仪式", "文化设计", "商业策略", "员工参与", "目的导向型组织"]</t>
+  </si>
+  <si>
+    <t>[{"title": "Culture Design: How to Build a High-Performing, Resilient Organization with Purpose", "author": "James D. White and Krista White", "context": "文章中明确提及并展示了封面图片，作为其核心理念和方法的来源。"}]</t>
+  </si>
+  <si>
+    <t>数字时代的疯癫书写：“发疯文学”的疾病隐喻与美学疗愈</t>
+  </si>
+  <si>
+    <t>2025-12-03 15:22:00</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32047671</t>
   </si>
   <si>
     <t>“发疯文学”作为近几年来新兴的网络文化现象，反映了当代青年的心理状态和数字环境的影响。它倚仗着符号的高度混乱和创伤书写的变式等独特性，在一众网络文化现象中异军突起。百度指数显示，“发疯文学”最早出自2021年豆瓣“踩组”网友分享的淘宝客服对话截图。戏仿林黛玉说话方式、琼瑶小说风格的各种文案，是“发疯文学”最初形态，后逐步演变成互联网流行语“xx文学”谱系中旺盛的一支。由此，一众“抽象文学”“小生文学”等都可以看作是“发疯文学”的分支与变体，而“废话文学”等则与之存在重叠与交集。
@@ -1655,6 +1595,33 @@
 此类案例印证了阿多诺的警告：资本通过“疗愈经济”将批判性文本收编为可量产的文化商品。年轻人越是疯狂敲击键盘宣泄，算法就越精准地为其推送“治愈系发疯周边”，完成从创伤到流量的完美转化。疯癫的符号狂欢既是对物化世界的拒绝，又在算法推送中被重新纳入资本逻辑的“同一性”牢笼。用户的每一次点击、购买行为都被记录，反哺算法优化推荐策略，进一步缩小抵抗符号的生存空间。
 在平台经济中，用户既是抵抗符号的创作者，又是被算法推向消费终端的“猎物”；发疯文学通过符号狂欢解构理性秩序，将疾病隐喻从个体病理转化为集体抵抗，但其美学疗愈最终陷入资本收编的悖论。资本之所以允许部分疯癫表演存在，恰因它们作为“社会安全阀”，维系着控制系统的动态平衡。这一现象既暴露了控制社会中主体的生存困境，却也暗示了后现代抵抗的流动性可能。在算法与资本的夹缝中，疯癫作为“未完成的救赎”，持续叩问着意义重建的路径。尽管资本收编无处不在，但用户的战术性抵抗仍在持续：当“发疯文学”被商品化后，新的符号变体会再次涌现，形成动态博弈。
 （参考文献从略）</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨了数字时代文化现象及其心理影响</t>
+  </si>
+  <si>
+    <t>文章运用福柯、德勒兹等理论工具，深度剖析了网络亚文化现象，对数字时代的权力、抵抗与主体性提出了严密的批判性思考，极具思想启发性。</t>
+  </si>
+  <si>
+    <t>“发疯文学”为何流行？本文深入剖析了这一网络现象，揭示它不仅是年轻人的情绪宣泄，更是一种在数字监控与算法霸权下，通过语言狂欢进行抵抗、寻求部落认同的独特生存策略，并探讨了其与文学史上“疯癫”母题的深刻联系。</t>
+  </si>
+  <si>
+    <t>探讨数字资本主义时代，个体在算法规训与数据化生存压力下的主体性困境。文章分析了一种以语言符号的解构、增殖与戏仿为核心的亚文化抵抗策略。这种话语实践旨在破坏数据监控系统的可识别性与可预测性，从而在控制社会中开辟临时的情感避难所与身份认同空间。文章进一步将此现象置于疯癫叙事的文学谱系中，探讨了从古典悲剧到现代主义的异化、佯狂与反抗母题，如何在当代媒介生态中被重构与降维，并揭示了其作为美学疗愈手段与被资本收编的双重命运。它关注的是在弥散式权力网络中，微观的、非目的性的符号游戏如何成为一种政治性的生存战术。</t>
+  </si>
+  <si>
+    <t>["网络文化", "批判性理论", "符号学", "权力与抵抗", "青年文化", "数字人类学"]</t>
+  </si>
+  <si>
+    <t>[{"title": "《安全、领土与人口》", "author": "米歇尔·福柯", "context": "引用福柯的治理术概念，阐释现代权力如何通过对人口的统计学管理，将个体纳入可预测的治理框架，为后文探讨数字生命政治提供理论基础。"}, {"title": "《疯癫与文明》", "author": "米歇尔·福柯", "context": "引用福柯对疯癫历史的论述，指出疯癫的定义始终是权力话语建构的结果，为将“发疯文学”置于文学疯癫谱系中进行历史化考察提供了理论透镜。"}, {"title": "《红岩》", "author": "罗广斌、杨益言", "context": "以书中角色华子良的“装疯”为例，说明在传统物理规训空间中，疯癫是一种服务于宏大叙事的、高度理性的抵抗策略。"}, {"title": "《狂人日记》", "author": "鲁迅", "context": "作为经典疯癫书写的案例，说明疯癫曾被用作一种反理性的启蒙工具，旨在通过“疯言”揭示社会病态，唤醒国民。"}, {"title": "《一九八六年》", "author": "余华", "context": "用以说明在极端权力压迫下，疯癫可能表现为理性的彻底崩塌和主体性的消亡，失去言说真理的能力，成为暴力的沉默回声。"}, {"title": "《变形记》", "author": "弗兰兹·卡夫卡", "context": "将其中的“变形”与“发疯文学”中的“蟑螂文学”进行互文对比，探讨异化主题的演变：从被动、不可逆的悲剧性异化，转变为主动、可逆的戏谑式自我物化策略。"}, {"title": "《部落时代：个体主义在后现代社会的衰落》", "author": "米歇尔·马费索利", "context": "引用其“新部落”理论，解释“发疯文学”如何在网络空间中通过情感联结和符号共享，构建临时的、流动的虚拟共同体，实现身份认同。"}, {"title": "《哈姆雷特》", "author": "威廉·莎士比亚", "context": "以哈姆雷特的“装疯”为例，分析在经典的权力结构中，佯疯是一种服务于复仇目的的理性计算工具，其颠覆性受制于目的论的束缚。"}]</t>
+  </si>
+  <si>
+    <t>契约、疯狂与理想之地：《疯狂动物城2》中的乌托邦叙事</t>
+  </si>
+  <si>
+    <t>2025-12-02 11:38:00</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32076765</t>
   </si>
   <si>
     <t>《疯狂动物城2》海报
@@ -1776,6 +1743,18 @@
 [24] [英]齐格蒙特·鲍曼.怀旧的乌托邦[M].姚伟等译.中国人民大学出版社，2018：p227.</t>
   </si>
   <si>
+    <t>强时效资讯，内容涉及电影票房数据和上映情况</t>
+  </si>
+  <si>
+    <t>李公明｜一周画记：美国与委内瑞拉冲突“一触即发”？</t>
+  </si>
+  <si>
+    <t>2025-12-01 14:48:00</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32074464</t>
+  </si>
+  <si>
     <t>开栏小语：
 涂鸦小分队的人有一句口号：画什么才重要！怎么画和画成什么，没那么重要！
 图1 美国与委内瑞拉冲突“一触即发”？ 纸本彩墨65cmX45cm 李公明作 2025年11月29日
@@ -1789,6 +1768,18 @@
 媒体人和作家摩根·琼斯（Morgan Jones）深刻地指出，《格伦费尔塔楼火灾是如何发生的》提醒我们，政治并非一件只关乎资金分配的技术官僚事务，而是生死攸关的现实。政客和私营利益集团曾以为，他们可以削减公共资源而不被人察觉。自欺与蓄意无视，是被严重低估的政治罪行。本书是对当代英国的幽魂般的控诉，控诉所有那些声称看不见紧缩政策所带来伤害的人，同时也是一份献给那些为此付出代价的人的动人证言。
 （2025年11月29日 在南方的天空下）
 李公明，广州美术学院教授</t>
+  </si>
+  <si>
+    <t>强时效资讯，涉及美国与委内瑞拉的冲突动态</t>
+  </si>
+  <si>
+    <t>澎湃思想周报｜墨西哥“Z世代”抗议；布鲁塞尔当代艺术博物馆困局</t>
+  </si>
+  <si>
+    <t>2025-12-01 13:44:00</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32073002</t>
   </si>
   <si>
     <t>墨西哥“Z世代”抗议
@@ -1835,6 +1826,56 @@
 （参考资料从略）</t>
   </si>
   <si>
+    <t>具备独特视角的社会观察，探讨了墨西哥Z世代抗议活动的复杂性和社会背景</t>
+  </si>
+  <si>
+    <t>文章通过深度剖析墨西哥的政治抗议与布鲁塞尔的文化项目，揭示了表象之下复杂的权力运作与制度矛盾，有力地挑战了对社会运动和公共文化的既定认知。</t>
+  </si>
+  <si>
+    <t>通过剖析墨西哥一场被操控的“Z世代”抗议和布鲁塞尔一个陷入困境的艺术中心，文章揭示了当代社会运动与大型文化项目背后复杂的权力博弈与制度失灵。</t>
+  </si>
+  <si>
+    <t>本文探讨了当代公共领域倡议（无论是社会抗议还是文化建制）的结构性脆弱性。它分析了“自下而上”的动员话语如何被“自上而下”的权力议程所渗透、挪用和扭曲，揭示了青年文化符号、社会不满情绪和公共文化理想如何被工具化，服务于隐蔽的政治与资本博弈。文章的深层逻辑在于审视公共意志的真实性与自主性问题：在一个被媒体奇观、党派斗争和不对称权力关系所塑造的环境中，旨在促进社会变革或文化繁荣的集体行动，其最初的目标如何被消解，最终沦为既有权力结构的角力场与牺牲品。这种现象反映了现代治理中理想主义叙事与现实权力运作之间的深刻断裂。</t>
+  </si>
+  <si>
+    <t>["政治操纵", "文化治理", "制度批判", "虚假草根运动"]</t>
+  </si>
+  <si>
+    <t>[{"title": "2666", "author": "罗贝托·波拉尼奥", "context": "引用该书对墨西哥结构性暴力的洞察，说明当暴力常态化、真相被叙事遮蔽时，社会矛盾如何被简化为政治斗争的工具，民众的真实恐惧沦为权力角逐的注脚。"}]</t>
+  </si>
+  <si>
+    <t>Flag of Hong Kong</t>
+  </si>
+  <si>
+    <t>2025-12-04 08:00:00</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251204000000/en</t>
+  </si>
+  <si>
+    <t>2025-12-05 19:56:45</t>
+  </si>
+  <si>
+    <t>&lt;div class="mw-content-ltr mw-parser-output" dir="ltr" lang="en"&gt;&lt;div id="mp-tfa-img" style="float: left; margin: 0.5em 0.9em 0.4em 0em;"&gt;
+&lt;div class="thumbinner mp-thumb" style="background: transparent; color: inherit; border: none; padding: 0;"&gt;
+&lt;span&gt;&lt;a class="mw-file-description" href="/wiki/File:Flag_of_Hong_Kong.svg" title="Flag of Hong Kong"&gt;&lt;img alt="Flag of Hong Kong" class="mw-file-element" height="114" src="//upload.wikimedia.org/wikipedia/commons/thumb/5/5b/Flag_of_Hong_Kong.svg/250px-Flag_of_Hong_Kong.svg.png" width="171" /&gt;&lt;/a&gt;&lt;/span&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;The &lt;b&gt;&lt;a href="/wiki/Flag_of_Hong_Kong" title="Flag of Hong Kong"&gt;flag of Hong Kong&lt;/a&gt;&lt;/b&gt; depicts a white stylised five-petal flower of the &lt;a href="/wiki/Bauhinia_%C3%97_blakeana" title="Bauhinia × blakeana"&gt;Hong Kong orchid tree&lt;/a&gt; (&lt;i&gt;Bauhinia&lt;/i&gt; × &lt;i&gt;blakeana&lt;/i&gt;) in the centre of a field of &lt;a href="/wiki/Vermilion#Chinese_red" title="Vermilion"&gt;Chinese red&lt;/a&gt;, the same red as on the &lt;a href="/wiki/Flag_of_China" title="Flag of China"&gt;flag of China&lt;/a&gt;. The &lt;a href="/wiki/Hong_Kong_Basic_Law" title="Hong Kong Basic Law"&gt;Hong Kong Basic Law&lt;/a&gt; prescribes the design, and it is only to be made according to regulation and in approved sizes. Regulations regarding its use are stated in the Regional Flag and Regional Emblem Ordinance; its &lt;a href="/wiki/Flag_desecration" title="Flag desecration"&gt;desecration&lt;/a&gt; is unlawful and has been punished. The flag was unveiled on 4 April 1990 and approved on 10 August 1996. It was first officially hoisted on 1 July 1997, during the &lt;a href="/wiki/Hong_Kong_handover_ceremony" title="Hong Kong handover ceremony"&gt;handover ceremony marking the transfer of Hong Kong&lt;/a&gt; from the United Kingdom back to China, and replaced &lt;a href="/wiki/Flag_of_Hong_Kong_(1871%E2%80%931997)" title="Flag of Hong Kong (1871–1997)"&gt;a colonial flag adopted in 1959&lt;/a&gt;. The 1959 flag, and a variant known as the &lt;a href="/wiki/Black_Bauhinia_flag" title="Black Bauhinia flag"&gt;Black Bauhinia&lt;/a&gt;, have been displayed by protesters in Hong Kong, particularly during the &lt;a href="/wiki/2019%E2%80%932020_Hong_Kong_protests" title="2019–2020 Hong Kong protests"&gt;2019–2020 Hong Kong protests&lt;/a&gt;. Government supporters often displayed the Chinese and Hong Kong flags together. &lt;i&gt;(&lt;b&gt;&lt;a href="/wiki/Flag_of_Hong_Kong" title="Flag of Hong Kong"&gt;Full article...&lt;/a&gt;&lt;/b&gt;)&lt;/i&gt;
+&lt;/p&gt;
+&lt;div class="tfa-recent" style="text-align: right;"&gt;
+Recently featured: &lt;div class="hlist inline"&gt;
+&lt;ul&gt;&lt;li&gt;&lt;i&gt;&lt;a href="/wiki/Ovalipes_catharus" title="Ovalipes catharus"&gt;Ovalipes catharus&lt;/a&gt;&lt;/i&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="/wiki/SMS_Pommern" title="SMS Pommern"&gt;SMS &lt;i&gt;Pommern&lt;/i&gt;&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;i&gt;&lt;a href="/wiki/Julio_and_Marisol" title="Julio and Marisol"&gt;Julio and Marisol&lt;/a&gt;&lt;/i&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/div&gt;&lt;/div&gt;
+&lt;div class="hlist tfa-footer noprint" style="text-align: right;"&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:Today%27s_featured_article/December_2025" title="Wikipedia:Today's featured article/December 2025"&gt;Archive&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a class="extiw" href="https://lists.wikimedia.org/postorius/lists/daily-article-l.lists.wikimedia.org/" title="mail:daily-article-l"&gt;By email&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a class="mw-redirect" href="/wiki/Wikipedia:Featured_articles_(linked_from_TFAfooter)" title="Wikipedia:Featured articles (linked from TFAfooter)"&gt;More featured articles&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:About_Today%27s_featured_article" title="Wikipedia:About Today's featured article"&gt;About&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>TheRegional Flag of the Hong Kong Special Administrative Region of the People's Republic of Chinadepicts a white stylised five-petal Hong Kong orchid tree (Bauhinia × blakeana) flower in the centre of aChinese redfield. Its design is enshrined inHong Kong Basic Law, the territory's constitutional document,[1]and regulations regarding its use, prohibition of use,desecration, and manufacture are stated in the Regional Flag and Regional Emblem Ordinance.[2]
 The original design of the flag ofHong Kongwas unveiled on 4 April 1990 at the Third Session of theSeventh National People's Congress.[3][4]The current design was approved on 10 August 1996 at the Fourth Plenum of thePreparatory Committee of the Hong Kong Special Administrative Region.[5]The use of the flag is regulated by laws passed by the 58th executive meeting of theState Councilheld inBeijing.[6]The flag was officially adopted and hoisted on 1 July 1997, during thehandover ceremonymarking thehandoverfrom the United Kingdom back to China.[7]
 A variant of the flag known as theBlack Bauhiniahas been used byanti-Chinesegovernment protesters in Hong Kong, particularly during the2019–2020 Hong Kong protests. In contrast of the protests, pro-government supporters often display theChineseand Hong Kong flags.[8]
@@ -1865,6 +1906,43 @@
 TheBlack Bauhinia flagis a variant of the flag of Hong Kong with a black background and (in most versions) a modifiedbauhiniaflower. The flag first appeared amid the2019–2020 Hong Kong protestsas a symbol of protest against the Chinese government, in contrast to pro-government supporters displaying the Chinese and Hong Kong flags.[8]</t>
   </si>
   <si>
+    <t>内容缺乏主线，主要是对香港特别行政区国旗的描述，属于碎片化信息</t>
+  </si>
+  <si>
+    <t>The 14 rules for navigating complex systems</t>
+  </si>
+  <si>
+    <t>2025-12-04 22:00:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/business/14-rules-to-dance-with-the-systems-of-business-and-life/</t>
+  </si>
+  <si>
+    <t>2025-12-05 19:56:48</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/14-rule-dance-systems_compressed.jpg?w=640" /&gt;&lt;p&gt;What do trees and businesses have in common?&lt;/p&gt;
+&lt;p&gt;For one, they’re systems. A tree dies when you starve it of water and sunlight, just as a business collapses when its resources are drained. In fact, &lt;em&gt;all&lt;/em&gt; living things are systems: plants and animals, yes, but also organizations, relationships — even friendships. Stop responding to texts, and the relationship withers. (Unless, of course, that’s the goal. As the Gen Z might say: &lt;em&gt;ghosting&lt;/em&gt;.)&lt;/p&gt;
+&lt;p&gt;Systems rule the world, and once you see them, you can’t unsee them. Perhaps I’m thinking about them now, as we slip into the holiday season, when our own network of plans, friendships, and families seems to weave together. (The system breaks, it turns out, when you forget the baby&amp;#8217;s diapers at a family function.)&lt;/p&gt;
+&lt;p&gt;On this subject, no one is better than Donella Meadows, the environmental scientist and systems theorist whose essay, &amp;#8220;&lt;a href="https://donellameadows.org/archives/dancing-with-systems/" rel="noreferrer noopener" target="_blank"&gt;Dancing With Systems&lt;/a&gt;,&amp;#8221; is perhaps the most practical way to think about life, business, investing, work, and family.&lt;/p&gt;
+&lt;p&gt;Every so often, I find myself returning to her 14 rules, and as the year winds down, I want to share them here. &amp;#8220;We can’t control systems or figure them out,&amp;#8221; Donella writes. &amp;#8220;But we can dance with them!&amp;#8221;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Key quote&lt;/strong&gt;: &amp;#8220;I will summarize the most general ‘systems wisdom’ I have absorbed from modeling complex systems and from hanging out with modelers. These are the take-home lessons, the concepts and practices that penetrate the discipline of systems so deeply that one begins, however imperfectly, to practice them not just in one’s profession, but in all of life. The list probably isn’t complete, because I am still a student in the school of systems. And it isn’t unique to systems thinking. There are many ways to learn to dance. But here, as a start-off dancing lesson, are the practices I see my colleagues adopting, consciously or unconsciously, as they encounter systems.&amp;#8221;&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-oh-to-be-86-again"&gt;&amp;#8220;Oh, to be 86 again&amp;#8221;&lt;/h2&gt;
+&lt;p&gt;What does a lifelong learner do the year before he dies at 99?&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Duh&lt;/em&gt;: he keeps learning.&lt;/p&gt;
+&lt;p&gt;I loved &lt;a href="https://www.wsj.com/finance/investing/charlie-munger-life-final-years-berkshire-7c20c18e" rel="noreferrer noopener" target="_blank"&gt;this portrait&lt;/a&gt; of Charlie Munger’s final years. He was a man who, even at 98, was making contrarian bets, asking big questions (“Does Moore’s Law apply in the age of AI?”), and forming new friendships.&lt;/p&gt;
+&lt;p&gt;Munger never had much interest in retiring to a life by the ocean, though he maintained a sprawling estate in Montecito with view of the Pacific. Instead, he hung out around his modest house in Pasadena (no A/C), and spent his final days trading coal stocks, backing young real-estate investors, and debating ideas with his breakfast club.&lt;/p&gt;
+&lt;p&gt;Simply: he kept is mind working even when his body didn&amp;#8217;t. He read, he questioned, he taught, and he listened (well, to the extent he could; his hearing was terrible). The profile offers a moving inquiry into the nature of longevity: stay curious, stay connected, and keep asking questions right up until the end. (H/T Nima Shayegh)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Key quote: &lt;/strong&gt;“‘Even a week or two before passing away, he was asking questions such as, Does Moore’s Law apply in the age of AI?&amp;#8217; recalls his friend Jamie Montgomery, referring to whether artificial intelligence would see exponential gains like those experienced in computational power. Friends and family say Munger’s eventful last period offers lessons for investors — and a blueprint for how to age with grace, equanimity and purpose. ‘To the day he died, that mind was running,’ says Munger’s stepson, Hal Borthwick. ‘He never stopped learning.’”&lt;/p&gt;
+&lt;hr class="wp-block-separator has-alpha-channel-opacity" /&gt;
+&lt;p&gt;A few more links I enjoyed:&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://www.noemamag.com/the-progress-paradox/" rel="noreferrer noopener" target="_blank"&gt;The Progress Paradox&lt;/a&gt; &amp;#8211; via Matt Prewitt (Noema)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Key quote:&lt;/strong&gt; “Plenty of readers will still be skeptical. To many, the cutthroat Silicon Valley startup ecosystem proves on its face that competition, not monopoly, produces innovative technology. But look closer. Silicon Valley startups are routinely valued at many multiples more than their revenue or profits straightforwardly justify. What explains that? Investors are betting that those startups will eventually either become monopolies or merge into existing ones through acquisitions or other forms of financial consolidation. In other words, technology startups are ‘competing’ not to serve consumers’ needs, but to become — or join — monopolies. The aim for many of today’s Silicon Valley startups is a high-profile acquisition and a lucrative ‘exit.’”&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://thebeautifultruth.org/life/psychology/iain-mcgilchrist-brains-hemispheres/" rel="noreferrer noopener" target="_blank"&gt;Iain McGilchrist: Re-enchanting the Brain&lt;/a&gt; &amp;#8211; via The Beautiful Truth&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Key quote:&lt;/strong&gt; &amp;#8220;‍As societies grow, it’s harder for people to know and trust each other. Governance requires distance and bureaucracy, leading to a more crude control mechanism that replaces the full complexity of life. This simplification becomes visible in art, architecture, poetry, music and thought. I know I’m glossing over a lot, but this shift aids the left hemisphere’s desire for simple answers that give us power. Power is, in a sense, its main motivation. It controls our right hand, enabling us to grasp and hold, whereas the right hemisphere manages a complex, rich picture.&amp;#8221;&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/business/14-rules-to-dance-with-the-systems-of-business-and-life/" rel="nofollow"&gt;The 14 rules for navigating complex systems&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>What do trees and businesses have in common?
 For one, they’re systems. A tree dies when you starve it of water and sunlight, just as a business collapses when its resources are drained. In fact,allliving things are systems: plants and animals, yes, but also organizations, relationships — even friendships. Stop responding to texts, and the relationship withers. (Unless, of course, that’s the goal. As the Gen Z might say:ghosting.)
 Systems rule the world, and once you see them, you can’t unsee them. Perhaps I’m thinking about them now, as we slip into the holiday season, when our own network of plans, friendships, and families seems to weave together. (The system breaks, it turns out, when you forget the baby’s diapers at a family function.)
@@ -1884,6 +1962,169 @@
 Iain McGilchrist: Re-enchanting the Brain– via The Beautiful Truth
 Key quote:“‍As societies grow, it’s harder for people to know and trust each other. Governance requires distance and bureaucracy, leading to a more crude control mechanism that replaces the full complexity of life. This simplification becomes visible in art, architecture, poetry, music and thought. I know I’m glossing over a lot, but this shift aids the left hemisphere’s desire for simple answers that give us power. Power is, in a sense, its main motivation. It controls our right hand, enabling us to grasp and hold, whereas the right hemisphere manages a complex, rich picture.”
 This articleThe 14 rules for navigating complex systemsis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>具备独特视角的系统思考，探讨复杂系统的相似性与影响</t>
+  </si>
+  <si>
+    <t>文章通过整合系统论、投资哲学和神经科学等多个领域的洞见,有效地挑战了读者关于商业、学习和个人成长的固有观念,是一份高质量的思维激发材料。</t>
+  </si>
+  <si>
+    <t>本文是一份精选的思想集锦。它介绍了“与系统共舞”的智慧,启示我们如何驾驭生活中的复杂性;并以查理·芒格为例,赞美了终身学习与好奇心的价值。文章还引导我们批判性地看待科技创新与现代社会的思维模式。</t>
+  </si>
+  <si>
+    <t>本文探讨了在日益复杂的世界中个体与宏观系统之间的关系。其核心母题是运用“系统思维”这一心智模型来理解和驾驭不确定性,强调适应性、观察和顺势而为,而非强行控制。这种思维方式被应用于多个层面:从组织管理到个人关系,再到生命本身。文章进一步将这一框架延伸至对个体生命意义的探索,提出持续的智力投入和永不枯竭的好奇心是实现认知长寿和生命价值的关键。最后,它运用这种批判性视角解构了当代社会的一些主流叙事,例如技术创新的竞争本质(实为垄断驱动)以及一种日益简化的、追求控制的工具理性思维模式对人类经验复杂性的侵蚀。本质上,文章呼吁我们重新审视自身与世界的互动方式,倡导一种更整体、更具适应性的生存智慧。</t>
+  </si>
+  <si>
+    <t>["系统思维", "心智模型", "终身学习", "查理·芒格", "复杂性科学"]</t>
+  </si>
+  <si>
+    <t>New discovery sets humanity up to image “alien Earth”</t>
+  </si>
+  <si>
+    <t>2025-12-04 15:00:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/starts-with-a-bang/new-discovery-imaging-alien-earth/</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/08/HWO_EAC_Mirrors_Update_V001.00300_print.jpg?w=640" /&gt;&lt;p&gt;For as long as humanity has been looking up at the heavens, we&amp;#8217;ve been pondering some of the biggest questions of all. It&amp;#8217;s only over the past few hundred years that science has caught up to our vast imaginations, and has begun answering those questions for the first time in our civilization&amp;#8217;s history. We know what the stars are: they&amp;#8217;re much like our own Sun, except very far away. We know that the majority of them have planets, and that some of those planets are Earth-sized. We know that those worlds are composed of very similar ingredients to our own Solar System&amp;#8217;s planets, and that they are governed by the same underlying laws of nature.&lt;/p&gt;
+&lt;p&gt;But are any of those worlds actually inhabited?&lt;/p&gt;
+&lt;p&gt;Here, as the end of 2025 approaches, that&amp;#8217;s still a great cosmic unknown. We don&amp;#8217;t yet know &lt;a href="https://bigthink.com/starts-with-a-bang/alien-life-stephen-king/"&gt;whether we&amp;#8217;re alone in the Universe or not&lt;/a&gt;, and if not, how common or rare life actually is. While we can send orbiters, landers, and rovers to worlds within our Solar System and scan the skies for signals that might arise from intelligent extraterrestrials, finding most instances of life in the Universe will require scanning exoplanets directly to probe for biosignatures. That&amp;#8217;s the ambitious science goal of the #1 ranked future NASA mission: the Habitable Worlds Observatory, which seeks to directly image:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;Earth-sized planets,&lt;/li&gt;
+&lt;li&gt;at Earth-like distances,&lt;/li&gt;
+&lt;li&gt;around Sun-like stars.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Will we be able to get there? That all depends on how good our ever-improving coronagraph technology will be. With &lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae195f"&gt;the new discovery of stellar companion HIP 71618 B&lt;/a&gt;, just announced in early December of 2025, we&amp;#8217;re definitively going to get to put our best efforts so far to the critical test. The ability to find our first &amp;#8220;alien Earth&amp;#8221; hinges on the outcome.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="solar corona during eclipse" class="wp-image-158066" height="466" src="https://bigthink.com/wp-content/uploads/2021/12/Tse2006tc_m200_inh30_32_c3.png?w=978" width="978" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The solar corona, as shown here, is imaged out to 25 solar radii during the 2006 total solar eclipse. The longer the duration of a total solar eclipse, the darker the sky becomes, and the better the corona and background astronomical objects can be seen. Experienced, serious eclipse photographers can construct images such as these from their eclipse data, showcasing the extent of the solar corona as well as a plethora of more distant background astronomical objects.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="http://www.zam.fme.vutbr.cz/~druck/eclipse/Ecl2006th/Tse2006tc_m200_inh30_32_c3/0-info.htm" target="_blank"&gt;Credit&lt;/a&gt;: Martin Anto&amp;scaron;, Hana Druckm&amp;uuml;llerov&amp;aacute;, Miloslav Druckm&amp;uuml;ller&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;It isn&amp;#8217;t necessarily obvious how these different pieces of the scientific story are related to each other, so let&amp;#8217;s explain. A coronagraph is a relatively simple piece of equipment, based on a simple concept that we experience naturally here on Earth: a total solar eclipse. Celestially, a total solar eclipse occurs when the Moon passes in front of the Sun relative to our line-of-sight here on Earth. However, there&amp;#8217;s a catch: the Moon needs to appear large enough, in terms of angular size, to block out the entirety of the Sun&amp;#8217;s disk. When this alignment properly occurs, and you stand in the eclipse shadow on Earth, the Sun&amp;#8217;s light is entirely blocked, and you can see all sorts of sights that would otherwise be washed out: the solar corona, the stars that lie behind the Sun, satellites, and more.&lt;/p&gt;
+&lt;p&gt;What makes a coronagraph different is that instead of blocking out the light from our close, nearby Sun, it places a small obstacle (usually a disk) in front of the telescope&amp;#8217;s lens, blocking out the light from an ultra-distant star. By having the coronagraph block only the light from the disk of the star, all sorts of features that are present around the star, even if faint, can then be revealed. Although many telescopes had leveraged coronagraphs throughout the 20th century, there was a real revolution when we launched the Hubble Space Telescope equipped with a coronagraph. For the first time, incredible features could be seen: debris disks, protoplanetary disks, and even full-fledged planets around other stars.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Comparison of a star's image, Vega, as taken by the Hubble Telescope (left, with starburst pattern) and the JWST (right, with clear circular halo)." class="wp-image-530715" height="642" src="https://bigthink.com/wp-content/uploads/2024/11/Hub_Webb.jpg?w=1141" width="1141" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This two-panel view of the debris disk around Vega shows Hubble&amp;#8217;s (left) and JWST&amp;#8217;s (right) views, respectively. Hubble reveals a wide disk of dust, showcasing particles approximately the size of smoke particles, while JWST shows the glow of warm (larger-sized) dust particles distributed throughout the Vega system, with only one small dip in brightness at double the Sun-Neptune distance. JWST&amp;#8217;s coronagraph is approximately 100 times more sensitive than Hubble&amp;#8217;s.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://hubblesite.org/contents/media/images/2024/030/01JBF20FGYTRR4E0QVBWY516R1?news=true"&gt;Credit&lt;/a&gt;: NASA, ESA, CSA, STScI, S. Wolff (University of Arizona), K. Su (University of Arizona), A. G&amp;aacute;sp&amp;aacute;r (University of Arizona)&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;As remarkable as Hubble&amp;#8217;s coronagraph was, however, it was still severely limited. It was only capable of observing:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;the intrinsically brightest features,&lt;/li&gt;
+&lt;li&gt;at the greatest angular separations,&lt;/li&gt;
+&lt;li&gt;from the closest stars,&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;as seen from Earth. In terms of optical performance, what we often talk about in the science of coronagraphy is known as contrast. Contrast, in this context, is how faint an object can intrinsically be — relative to the bright object being blocked by the coronagraph — and still be detected, resolved, and measured by the instrument.&lt;/p&gt;
+&lt;p&gt;For Hubble, it was a huge revolution. We discovered debris disks for the first time, we obtained our first direct images of exoplanets, and we could detect faint companions — including brown dwarfs — in places we didn&amp;#8217;t even necessarily expect to find them. But we couldn&amp;#8217;t see small planets, or planets close to their parent stars, or planets around faint, low-mass stars, for an important reason: Hubble&amp;#8217;s coronagraphic contrast was only at about the 1-part-in-1000 (or 10&lt;sup&gt;-3&lt;/sup&gt;) level, meaning that an object needed to be at least 0.1% intrinsically as bright as the star the coronagraph was blocking in order to be seen by Hubble.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="composite JWST ALMA HST Fomalhaut" class="wp-image-405478" height="764" src="https://bigthink.com/wp-content/uploads/2023/05/FvnRyOXWcAEuUOZ.jpg?w=1360" width="1360" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This view of the Fomalhaut system consists of mid-infrared JWST data (in yellow) overlaid with radio (red) ALMA data and blue (optical/UV) Hubble data. Only JWST is capable of revealing the inner structure of this system, including a large inner disk and a surprising intermediate belt: features only able to be seen at long wavelengths of light due to their incredibly cool temperatures.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.adamblockphotos.com/fomalhaut-debris-disk.html" target="_blank"&gt;Credit&lt;/a&gt;: Adam Block/Andras Gaspar/Steward Observatory/University of Arizona&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;With the launch of JWST, however, its next-generation coronagraph provided an enormous improvement. Instead of contrasts of 10&lt;sup&gt;-3&lt;/sup&gt;, its coronagraph achieves contrasts that are improved by nearly a factor of 100 over Hubble&amp;#8217;s: contrasts of more like 10&lt;sup&gt;-5&lt;/sup&gt;. As you can see, above, this has enabled us to find features that are much more profound, faint, and require much greater sensitivity than anything Hubble is capable of detecting. Instead of just protoplanetary and debris disks, it &lt;a href="https://bigthink.com/starts-with-a-bang/fomalhaut-exoplanet-jwst/"&gt;could see features in those disks&lt;/a&gt;, including rings, gaps, and belts. Instead of just brown dwarfs, it could find Jupiter-sized and even Neptune-sized planets around dim stars. It could find planets closer in to their parent star than Hubble could, and its groundbreaking discoveries are still rolling in even today.&lt;/p&gt;
+&lt;p&gt;But JWST&amp;#8217;s coronagraph&amp;#8217;s contrast, even though it can resolve features that are a factor of 100,000 fainter than the parent star that it blocks, doesn&amp;#8217;t get us close to reaching our main goal: of directly imaging Earth-sized planets at Earth-like orbital distances from Sun-like stars, and of doing it at optical (i.e., visible light) wavelengths. This is extra problematic, because:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;planets are much fainter than stars,&lt;/li&gt;
+&lt;li&gt;closer planets that are much smaller than their parent stars are the hardest to image,&lt;/li&gt;
+&lt;li&gt;and planets are also much cooler than stars, meaning more of a planet&amp;#8217;s light is at infrared, rather than at visible light, wavelengths.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;JWST&amp;#8217;s coronagraph is much more effective at imaging companion objects around stars in infrared wavelengths than it is at optical wavelengths, and even with a contrast of 1-part-in-100,000, it still has a long way to go to detect an Earth-like world, which would require a contrast of 10&lt;sup&gt;-10&lt;/sup&gt; or better.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="fresnel wave light spherical object" class="wp-image-338977" height="1536" src="https://bigthink.com/wp-content/uploads/2023/01/Poisson2.jpg?w=2048" width="2048" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The results of an experiment, showcased using laser light shone around an object with a circular cross-section, in terms of the actual acquired optical data. Instead of a dark shadow with a solid light glow around it, we see a series of concentric rings inside the shadow as well as outside of it. This property of light, that it undergoes interference and diffraction, poses a difficulty for the simplest designs of a coronagraph, even for space telescopes.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="http://academics.wellesley.edu/Physics/Tbauer/Poisson/" rel="noopener" target="_blank"&gt;Credit&lt;/a&gt;: Thomas Bauer/Wellesley&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;This is kind of an annoying problem for astronomers, as it is for anyone who deals with optical systems. As you can see, as shown above, if you place a perfectly disk-like object (a solid circle, a sphere, a face-on cylinder, etc.) in front of a light source, you won&amp;#8217;t just see all of the light that goes around the disk, counterbalanced by a perfect silhouette of the disk itself in shadow. Instead, because light is a wave, you see evidence for the phenomena of interference and diffraction. In particular, there will be a bright spot at the center of the shadow (enveloped by fainter, concentric rings) accompanied by bright rings of light that show up on the outside of the disk&amp;#8217;s shadow.&lt;/p&gt;
+&lt;p&gt;This limits the maximum coronagraphic contrast you can achieve with simply a circular disk to about 10&lt;sup&gt;-6&lt;/sup&gt;, even with optically ideal materials. Does this mean that the dream of detecting Earth-sized worlds at Earth-like distances from Sun-like stars with a coronagraph is impossible?&lt;/p&gt;
+&lt;p&gt;No, not necessarily. What it means is that we have to develop better coronagraphic technologies than what&amp;#8217;s achievable with the &amp;#8220;simple optical disk&amp;#8221; configuration. There&amp;#8217;s an incredible amount of science that goes into this — most of which is being conducted at federally funded US institutions like the Space Telescope Science Institute, NASA&amp;#8217;s Goddard and Ames, the Jet Propulsion Laboratory and Caltech, plus the University of Arizona — but &lt;a href="https://science.nasa.gov/astrophysics/programs/exep/technology/scda/"&gt;the general approach is to introduce a segmented coronagraph design&lt;/a&gt;. There&amp;#8217;s a roadmap for how we&amp;#8217;re going to do this, and we&amp;#8217;ve already come so far as we prepare for the launch of NASA&amp;#8217;s next flagship mission: the Nancy Grace Roman Space Telescope.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Technicians in clean suits work on assembling or inspecting a large, partially covered telescope component in a lab setting, using platforms and cranes—a testament to American science and innovation." class="wp-image-573711" height="4870" src="https://bigthink.com/wp-content/uploads/2025/07/ioa-002-1.webp?w=3916" width="3916" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;NASA&amp;#8217;s Nancy Grace Roman telescope has completed construction and is nearly ready for launch. Its instrument suite, including its coronagraph, represents the cutting-edge of instrumentation in astronomy, and should pave the way for even further improved technology aboard the future Habitable Worlds Observatory: enabling the direct imaging of potentially Earth-like planets. At the end of 2025, however, it remains to be seen whether this new, completed flagship observatory will even be launched in 2026, as the scheduled funding allotted to the endeavor is less than the cost of a launch.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://www.nasa.gov/missions/roman-space-telescope/telescope-for-nasas-roman-mission-complete-delivered-to-goddard/"&gt;Credit&lt;/a&gt;: NASA/Chris Gunn&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;For many years, astronomers focused on instrumentation have been working to improve the capabilities of a coronagraph: particularly one that goes onto a space telescope. The ultimate goal — a goal put forth for the Habitable Worlds Observatory, slated to be the next flagship mission for NASA astrophysics after the already-completed Nancy Grace Roman observatory launches — is to not only achieve that vaunted brightness contrast of 10&lt;sup&gt;-10&lt;/sup&gt;, but to get there at optical, visible light wavelengths. The state-of-the-art coronagraph (the best ever, by far) on board the Nancy Grace Roman telescope should represent an enormous step in that direction: to contrasts of at least 10&lt;sup&gt;-7&lt;/sup&gt; but that could go as high as 10&lt;sup&gt;-9&lt;/sup&gt;, which is an enormous leap over all prior observatories.&lt;/p&gt;
+&lt;p&gt;At least, that&amp;#8217;s how the Roman coronagraph is expected to perform, based on laboratory tests. But how will it perform when it&amp;#8217;s actually in space, attached to the telescope, and observing a target of interest in the wavelength range (i.e., the optical) of interest?&lt;/p&gt;
+&lt;p&gt;In order to find out, we need to have an appropriate target. That means an astronomical target where:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;the separation between the main star and the secondary object is between 0.15&amp;#8243; and 0.45&amp;#8243;, where an arc-second (denoted by &amp;#8220;) is 1/3600th of a degree,&lt;/li&gt;
+&lt;li&gt;where the secondary object is no more than one ten-millionth (10&lt;sup&gt;-7&lt;/sup&gt;) as bright as the primary object,&lt;/li&gt;
+&lt;li&gt;at a wavelength of less than 600 nanometers.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;In this scenario, such a system would enable Roman to achieve a 5-σ significance (the gold standard for &amp;#8220;discovery&amp;#8221;) detection of the secondary object in under 10 hours of imaging.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="simulated solar twin with proposed future observatory" class="wp-image-452655" height="840" src="https://bigthink.com/wp-content/uploads/2023/08/HDST_proposed_solar_system_view.jpg?w=840" width="840" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;If the Sun were located at the distance of Alpha Centauri, the future Habitable Worlds Observatory, either with a starshade or a sufficiently advanced coronagraph, would not only be able to directly image Jupiter and Earth, including taking their spectra, but even the planet Venus as well. The farther out giant planets, including Saturn, Uranus, and Neptune, would all be perceptible as well.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://exoplanets.nasa.gov/news/1371/the-next-generation-of-telescopes-are-almost-impossibly-accurate/" target="_blank"&gt;Credit&lt;/a&gt;: L. Pueyo, M. N&amp;rsquo;Diaye (STScI)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;That&amp;#8217;s where the new research comes in, and what makes it so exciting: for the first time, a naturally occurring astronomical system that actually meets all of these parameters has been discovered! The key to discovering it took many steps, many years of work, and — most importantly — a variety of powerful astronomical facilities in order for it to be possible.&lt;/p&gt;
+&lt;p&gt;First, you have to use astrometry, or the science of tracking a star&amp;#8217;s position and motion over time, to show that it isn&amp;#8217;t just moving through space, but is &amp;#8220;wobbling&amp;#8221; or spiraling as it moves. With satellites like Hipparcos in the 20th century and now Gaia here in the 21st, we&amp;#8217;ve measured the precise positions and motions of more than a billion stars within the Milky Way. Pulling out the candidate stars with motions consistent with the presence of a massive object (e.g., a massive planet or brown dwarf) at the right separation distance for these observations is the first step: not from their radial velocity, but from their observed motions, which indicate relatively face-on systems.&lt;/p&gt;
+&lt;p&gt;Next, you want to use a flagship-class ground-based telescope — one outfitted with a coronagraph, adaptive optics technology, and infrared observing capabilities — to acquire deep images of the system, with the parent star blocked by the coronagraph, at long wavelengths and at multiple different points in time. Sometimes, you&amp;#8217;ll find a bright object: a companion star. Other times, you&amp;#8217;ll find nothing: if there is a secondary, it might be too faint to see. But when the system is just right, you&amp;#8217;ll find a faint, sub-stellar secondary companion, and that&amp;#8217;s the sweet spot.&lt;/p&gt;
+&lt;p&gt;And finally, when the Nancy Grace Roman telescope launches, it can observe that target with its coronagraph at the proper wavelength and for the right duration, enabling us to field-test our progress toward the ultimate goal (of finding an inhabited, Earth-like world) and test our true coronagraphic capabilities.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Infrared astronomical image revealing a bright spot—possibly an alien Earth—marked by a white arrow, with a yellow star at the center and labeled axes for direction, scale, and date, highlighting this exciting new discovery." class="wp-image-580808" height="1334" src="https://bigthink.com/wp-content/uploads/2025/12/hip54515_movie.gif" width="1401" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This animation shows the discovery images of the super-Jupiter exoplanet HIP 54515 B, of approximately 18 Jupiter masses at a distance of 25 AU from its parent star. This planet, discovered in 2025, marks only the third exoplanet ever discovered through astrometry.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/1538-3881/ae1a82"&gt;Credit&lt;/a&gt;: T. Currie &amp;#038; Li et al., Astronomical Journal, 2025&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;It&amp;#8217;s only recently that we&amp;#8217;ve been able to use the first two steps of this method to actually find objects that are smaller and fainter than their parent stars but that orbit around them. In fact, the first giant planets that were discovered as a result of using ground-based follow-ups to initial astrometry data &lt;a href="https://www.science.org/doi/10.1126/science.abo6192"&gt;were only announced in 2023&lt;/a&gt;: by a team led by astronomer Thayne Currie. In the time since, Currie&amp;#8217;s group at the University of Texas at San Antonio — in collaboration with many others — has &lt;a href="https://iopscience.iop.org/article/10.3847/1538-3881/ae1a82"&gt;revealed another systems with a super-Jupiter planet&lt;/a&gt;: a remarkable advance in its own right, bringing the total number of such planets found with astrometry and confirmed with follow-up imaging to three.&lt;/p&gt;
+&lt;p&gt;However, that same collaboration, using the same method, has now just revealed a system where a brown dwarf (or a &amp;#8220;failed star&amp;#8221;) orbits its bright, more massive companion with precisely the right properties to field-test the Roman coronagraph.&lt;/p&gt;
+&lt;p&gt;That &lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae195f"&gt;system turns out to be&lt;/a&gt; the star &lt;a href="https://en.wikipedia.org/wiki/33_Bo%C3%B6tis"&gt;33 Boötes&lt;/a&gt; (also known as HIP 71618), located 188 light-years away. The star is bigger than the Sun (about 2.25 solar masses), significantly brighter than the Sun (around 20 times brighter), and younger than the Sun as well (at just 142 million years). However, the astrometry data indicated that it might have a stellar companion, and a combination of Keck Observatory imaging data and data from the Subaru Coronagraphic Extreme Adaptive Optics (SCExAO) system was able to reveal the nature and properties of that secondary companion exquisitely.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Five infrared telescope images reveal a new discovery: a bright object (indicated by arrows) orbiting a central star (yellow star symbol) at different dates between 2024 and 2025." class="wp-image-580807" height="986" src="https://bigthink.com/wp-content/uploads/2025/12/wavecollapsed-HIP-71618-B-NIR.jpg" width="1566" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;These five separate panels show five different images, all assembled from Subaru (SCExAO/CHARIS) and Keck (KECK/NIRC2) ground-based telescope data acquired with coronagraphs. Although these images were all acquired at long, infrared wavelengths, they enable us to infer what would be visible at optical wavelengths.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae195f"&gt;Credit&lt;/a&gt;: M. El Morsy et al., Astrophysical Journal Letters, 2025&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The secondary, now known as HIP 71618 B, is:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;a brown dwarf,&lt;/li&gt;
+&lt;li&gt;separated by around 0.3&amp;#8243; from its primary,&lt;/li&gt;
+&lt;li&gt;on an elliptical orbit (so that the distance from the secondary to the primary changes over time),&lt;/li&gt;
+&lt;li&gt;and is clearly detectable with ground-based telescopes at infrared wavelengths.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The &lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae195f"&gt;imaging data allows us to fit an orbit to the system&lt;/a&gt;, and tells us that when the Nancy Grace Roman Space Telescope is ready to test its coronagraphic capabilities (during the first half of 2027), the system will be separated by between 0.25&amp;#8243; and 0.27&amp;#8243;: right in the sweet spot for proving the coronagraphic technology&amp;#8217;s capabilities. Because brown dwarfs are so much cooler and fainter than bright, massive stars, however, we need much more contrast in the optical (and far superior coronagraphy) than we require in the infrared (which is accessible with our ground-based telescopes).&lt;/p&gt;
+&lt;p&gt;It&amp;#8217;s not necessarily surprising or groundbreaking to find a brown dwarf orbiting a star more massive than the Sun at the same distance that our gas giant planets orbit our Sun. However, finding a system that can put the Roman coronagraph to this key test — where it can prove that our coronagraphic capabilities are on the right track to image Earth-sized worlds at Earth-like distances around Sun-like stars — is truly revolutionary. As &lt;a href="https://news.utsa.edu/2025/12/researchers-discover-new-worlds-around-uncharted-stars-provide-critical-target-for-nasas-next-space-telescope/"&gt;lead author of the discovery study, Mona El Morsy, put it&lt;/a&gt;:&lt;/p&gt;
+&lt;p&gt;&amp;#8220;The HIP 71618 system checks off the boxes for what we need for the technology demonstration. Its star is suitably bright. Its companion HIP 71618 B is located within a region where these new technologies from Roman will work. At the wavelengths where the Roman Coronagraph will operate, we predict that HIP 71618 B will be faint enough compared to its host star that a strong detection with Roman will validate these technologies.&amp;#8221;&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Two line graphs showing predicted contrasts for the Roman CGI across various wavelengths, with colored lines representing multiple astronomical targets or models—highlighting the search for a new discovery image of an alien Earth." class="wp-image-580805" height="1439" src="https://bigthink.com/wp-content/uploads/2025/12/wavelength-dependence-Roman.jpg" width="1139" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;In order to demonstrate the appropriate coronagraphic contrast needed to validate our progress toward imaging an Earth-sized planet at Earth-like distances around Sun-like stars, we need a system with the right separation between primary and secondary components, along the right brightness ratios in the right wavelength range. HIP 71618 B is the first known system to meet all of the necessary parameters.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae195f"&gt;Credit&lt;/a&gt;: M. El Morsy et al., Astrophysical Journal Letters, 2025&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;This system, to be blunt, is exactly what we&amp;#8217;ve been waiting for. It&amp;#8217;s not the only system that will be interesting for Roman to image with its coronagraph, and it&amp;#8217;s definitely not a unique system out there in the galaxy or the Universe. Rather, it&amp;#8217;s the first key example of a system that can be used for testing, proving, and honing the coronagraphic imaging technologies that are needed to detect, image, and characterize our first &amp;#8220;exo-Earths&amp;#8221; in the future.&lt;/p&gt;
+&lt;p&gt;With each major observatory that we design, build, calibrate, commission, and use, we don&amp;#8217;t just gain the scientific knowledge that arises from the data we collect, although we certainly have gained so much knowledge from Hipparcos, Gaia, Keck, Subaru, Hubble, JWST, and will certainly gain a prodigious amount from Roman as well. In addition, we:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;gain the ability for these very different observatories (with different strengths, sensitivities, and capabilities) to work together to learn more about the Universe, including from in space &lt;a href="https://bigthink.com/starts-with-a-bang/ground-based-astronomy/"&gt;as well as on the ground&lt;/a&gt;,&lt;/li&gt;
+&lt;li&gt;and gain the technological expertise we need to enable the future observatories, instruments, and technologies that can help us achieve future goals in science and beyond.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;We have the instruments, we have the laboratory infrastructure, we have the facilities, and we have the expertise. The big, ultimate science goal of imaging &amp;#8220;alien Earths&amp;#8221; is within reach, and all we have to do is continue investing in the roadmap that&amp;#8217;s brought us to this point. Learning the answer to perhaps the biggest existential question in the Universe — the question of &amp;#8220;Are we alone?&amp;#8221; — depends on it.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;The author acknowledges Thayne Currie for useful communication regarding these results.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/new-discovery-imaging-alien-earth/" rel="nofollow"&gt;New discovery sets humanity up to image &amp;#8220;alien Earth&amp;#8221;&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>For as long as humanity has been looking up at the heavens, we’ve been pondering some of the biggest questions of all. It’s only over the past few hundred years that science has caught up to our vast imaginations, and has begun answering those questions for the first time in our civilization’s history. We know what the stars are: they’re much like our own Sun, except very far away. We know that the majority of them have planets, and that some of those planets are Earth-sized. We know that those worlds are composed of very similar ingredients to our own Solar System’s planets, and that they are governed by the same underlying laws of nature.
@@ -1968,6 +2209,51 @@
 This articleNew discovery sets humanity up to image “alien Earth”is featured onBig Think.</t>
   </si>
   <si>
+    <t>具备独特视角的科学探索与人类思考</t>
+  </si>
+  <si>
+    <t>文章系统清晰地介绍了“星冕仪”这一前沿天文观测技术，从基本原理、发展历程到未来展望，为读者构建了一个完整的知识框架，是极佳的科普读物。</t>
+  </si>
+  <si>
+    <t>我们是宇宙中唯一的生命吗？要回答这个古老问题，科学家需要直接“看见”遥远恒星旁的类地行星。本文通俗地解释了解决这一难题的关键技术——“星冕仪”，它如同人造月食，能挡住恒星的强光。文章追溯了从哈勃到韦伯望远镜的技术进步，并展望了未来“宜居世界天文台”将如何帮助我们寻找第一颗“外星地球”。</t>
+  </si>
+  <si>
+    <t>本文探讨了人类探索宇宙生命存在的基本议题，其核心是解决观测天文学中的一个经典信噪比难题：如何在压倒性的强光源（恒星）背景下，探测到极其微弱的目标信号（行星）。文章通过一个自然现象（日食）作为类比，阐释了一种关键技术（光线遮挡）的原理与演进。它揭示了科学仪器发展的迭代逻辑——通过技术革新，实现关键性能指标（如对比度）的指数级提升，从而不断扩展人类的认知边界。这一过程体现了从宏大的哲学追问到具体的工程实现，再到设定未来探索目标的完整科学探索路径，反映了人类通过工具延伸感官、以应对极端物理挑战的智慧。</t>
+  </si>
+  <si>
+    <t>["天文观测", "系外行星", "科学技术", "宇宙探索", "星冕仪"]</t>
+  </si>
+  <si>
+    <t>How to get your ethically sourced pleasure</t>
+  </si>
+  <si>
+    <t>2025-12-04 00:22:23</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/mini-philosophy/how-to-get-your-ethically-sourced-pleasure/</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/pleasure-mp_compressed.jpg?w=640" /&gt;&lt;p&gt;Pleasure is a dirty word.&lt;/p&gt;
+&lt;p&gt;I mean this in two ways. First are the connotations or associations of the word. If a colleague asked you, “How much pleasure have you had this morning?” you might fire off an email to HR. If you saw the title “Learning to find pleasure,” or “Enjoy more pleasure,” you’d probably expect it to be in the roped-off section of the bookshop. Pleasure is frequently associated with the erotic. But second, pleasure is a dirty word because, across a variety of religious traditions and over several millennia of philosophical thought, “pleasure” has often been seen as base: vulgar, crude, and animalistic. Those who seek pleasure are no better than pigs rutting and scoffing in the mud.&lt;/p&gt;
+&lt;p&gt;In this week’s Mini Philosophy interview, I spoke with &lt;a href="https://www.uni.lodz.pl/pracownicy/katarzyna-de-lazari-radek"&gt;Katarzyna de Lazari-Radek&lt;/a&gt;, who has literally written the book on pleasure: &lt;em&gt;&lt;a href="https://www.amazon.com/Philosophy-Pleasure-Introduction-Katarzyna-Lazari-Radek/dp/1138093114"&gt;The Philosophy of Pleasure: An Introduction&lt;/a&gt;&lt;/em&gt;. De Lazari-Radek is a hedonist, which means she thinks that the only good in life is pleasure and the only bad in life is pain. We want pleasure; we don’t want pain.&lt;/p&gt;
+&lt;p&gt;For de Lazari-Radek, it is ridiculous to call pleasure bad or dirty because pleasure is an experience — an immediate, unmistakable signal that something is good. And here we learn how to find more of it.&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-the-basic-reality-of-pleasure"&gt;The basic reality of pleasure&lt;/h2&gt;
+&lt;p&gt;Pleasure doesn’t have to be some “higher” mystical state of joy or euphoria. It certainly doesn’t have to be some kind of “guilty indulgence.” Pleasure is a basic, biological feature of being a living animal — as basic as warmth or tiredness. De Lazari-Radek insists it’s not a &lt;em&gt;sensation &lt;/em&gt;— not the same thing as the taste of chocolate or the pressure of a hug — but a &lt;em&gt;feeling&lt;/em&gt;, an evaluative gloss you lay over whatever else is happening. She calls it a “sugar coating” we apply to experience: It’s the sense of “Yes, this.”&lt;/p&gt;
+&lt;p&gt;When you frame pleasure in this way — as an important heuristic or gauge — then it seems ridiculous to say seeking pleasure is bad. In fact, to say “seeking pleasure is bad” is functionally equivalent to saying “it’s bad to do what you want to do.”&lt;/p&gt;
+&lt;p&gt;For de Lazari-Radek, one of the reasons that people have moralized pleasure is that they confuse the &lt;em&gt;experience&lt;/em&gt; of pleasure with the &lt;em&gt;source &lt;/em&gt;of pleasure. “This is why,” she said, “we then talk about good and bad pleasures. Because, yes, of course, if you take pleasure in hurting others, then it may be bad, but that’s because hurting others is bad and not because pleasure itself is bad. I mean, pleasure is just this feeling, yes? So, we need to be clear and careful about saying that certain actions or certain sources may be bad. But there is nothing bad in the experience of pleasure itself. It can&amp;#8217;t be, because it’s exactly how it feels, and almost by definition, it is always good.”&lt;/p&gt;
+&lt;p&gt;For de Lazari-Radek, we need to disentangle pleasure — the feeling and evaluative gloss — from the source of that feeling. Taking pleasure in something might be bad if it involves something bad, but the pleasure itself is good.&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-ways-to-enjoy-pleasure"&gt;Ways to enjoy pleasure&lt;/h2&gt;
+&lt;p&gt;Distinguishing between the source and experience of pleasure raises not only interesting moral questions but also hedonic ones as well. De Lazari-Radek argues that when we start to focus on the source of pleasures, we can learn to enjoy the sheer variety of pleasures that are out there to be enjoyed. Here are three examples from our conversation:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Self-regarding and other-regarding pleasure:&lt;/strong&gt; Some pleasures might be an act of intentional self-care—a bath, a massage, a walk in the woods. When you come back from work, tired and stressed from that meeting that went on too long, you might crack open a new tub of ice cream. But other pleasures might involve helping other people. As de Lazari-Radek pointed out, “There is enough psychological research to show that for us to be happier, we do need to feel that we are responsible for certain things.” Sometimes, we should consciously commit to things that are other-regarding and that involve charity and responsibility, such as cooking for your children, helping someone at work, or smiling at a stranger in the street.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Present and delayed pleasure:&lt;/strong&gt; How does going for a run fit into the hedonist’s life? How does raising kids, working late at work, or studying really hard? If life is about responsible pleasure, why not just live like a pleasure-seeking moth, fluttering from thrill to thrill?&lt;/p&gt;
+&lt;p&gt;Sometimes, we pursue these things not because they feel good now, but because they create pleasure later. This is a deeply adult kind of hedonism. It’s an understanding that slow mastery, accumulated effort, and long arcs of growth are among the richest pleasure sources available. Give a little to get a lot. Sow the seeds, and reap the rewards. Work hard to play hard.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Expected and unexpected pleasure: &lt;/strong&gt;You get out a glass, pop open the bottle, and pour the wine. As you lift the glass to your lips, you think, “Oooh, yes, this is going to be good.” And it is.&lt;/p&gt;
+&lt;p&gt;Many pleasures are planned and expected in this way. We are rational, deliberative creatures, and we set aside a huge amount of time to plan our pleasure. But de Lazari-Radek also pointed out that pleasure often appears without desire. You pass a bakery and smell fresh bread. Your child laughs in the next room. You overhear a stranger say something unintentionally poetic. “Pleasure just comes in,” she said, and that’s a beautiful and important point. Sometimes happiness just arrives.&lt;/p&gt;
+&lt;p&gt;We can all build our lives to increase the chances of being pleasantly ambushed. More wandering. More curiosity. More stepping away from the algorithmic walls that funnel your attention.&lt;br /&gt;In other words, set yourself up to welcome more pleasure in. There is nothing wrong with pleasure, but a whole lot right. And, if de Lazari-Radek’s hedonism is right, a happy and healthy life might just be one that finds as much ethically sourced pleasure as we can.&lt;/p&gt;
+&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/mini-philosophy/how-to-get-your-ethically-sourced-pleasure/" rel="nofollow"&gt;How to get your ethically sourced pleasure&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Pleasure is a dirty word.
 I mean this in two ways. First are the connotations or associations of the word. If a colleague asked you, “How much pleasure have you had this morning?” you might fire off an email to HR. If you saw the title “Learning to find pleasure,” or “Enjoy more pleasure,” you’d probably expect it to be in the roped-off section of the bookshop. Pleasure is frequently associated with the erotic. But second, pleasure is a dirty word because, across a variety of religious traditions and over several millennia of philosophical thought, “pleasure” has often been seen as base: vulgar, crude, and animalistic. Those who seek pleasure are no better than pigs rutting and scoffing in the mud.
 In this week’s Mini Philosophy interview, I spoke withKatarzyna de Lazari-Radek, who has literally written the book on pleasure:The Philosophy of Pleasure: An Introduction. De Lazari-Radek is a hedonist, which means she thinks that the only good in life is pleasure and the only bad in life is pain. We want pleasure; we don’t want pain.
@@ -1986,6 +2272,40 @@
 Many pleasures are planned and expected in this way. We are rational, deliberative creatures, and we set aside a huge amount of time to plan our pleasure. But de Lazari-Radek also pointed out that pleasure often appears without desire. You pass a bakery and smell fresh bread. Your child laughs in the next room. You overhear a stranger say something unintentionally poetic. “Pleasure just comes in,” she said, and that’s a beautiful and important point. Sometimes happiness just arrives.
 We can all build our lives to increase the chances of being pleasantly ambushed. More wandering. More curiosity. More stepping away from the algorithmic walls that funnel your attention.In other words, set yourself up to welcome more pleasure in. There is nothing wrong with pleasure, but a whole lot right. And, if de Lazari-Radek’s hedonism is right, a happy and healthy life might just be one that finds as much ethically sourced pleasure as we can.
 This articleHow to get your ethically sourced pleasureis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨了‘快乐’一词的文化和哲学内涵</t>
+  </si>
+  <si>
+    <t>文章深入剖析了“快乐”一词的负面社会认知，通过哲学家的视角重新定义了快乐的本质，并区分了快乐的体验与来源，极具启发性。其对快乐的分类（自我/他人、即时/延迟、预期/非预期）也提供了新的思考框架，挑战了固有观念。</t>
+  </si>
+  <si>
+    <t>文章挑战了“快乐”常被视为“肮脏”或“低级”的负面观念。援引哲学家Katarzyna de Lazari-Radek的享乐主义观点，文章将快乐重新定义为一种内在的、固有的良好评价性感受，并强调需将其与产生快乐的来源区分开来。文章进一步探讨了快乐的多种形式——自我关怀与助人、即时与延迟、预期与非预期——鼓励读者拥抱合乎伦理的快乐，以实现更幸福的生活。</t>
+  </si>
+  <si>
+    <t>This discourse undertakes a profound re-examination of intrinsic human experiences, specifically challenging the pervasive societal and philosophical stigmatization of "pleasure." It critiques the historical trajectory across diverse religious doctrines and philosophical traditions that has often relegated fundamental positive affective states to the realm of the base, vulgar, or animalistic, thereby fostering a deep-seated cultural aversion. The central argument pivots on the crucial distinction between the subjective, internal experience of a positive feeling and the external circumstances or actions that precipitate it. It posits that while the *source* of such feelings may carry moral or ethical weight, the *feeling itself* is an inherently neutral, evaluative signal of goodness, a fundamental component of sentient existence, and therefore cannot be intrinsically "bad."
+The analysis further dissects the phenomenology of this positive affective state, categorizing its diverse manifestations along several key axes. These include the dichotomy between self-directed gratification and other-regarding altruism, highlighting how both contribute to overall well-being. It also explores the temporal dimension, contrasting immediate, transient satisfactions with the profound, sustained contentment derived from delayed gratification, sustained effort, and long-term personal growth, framing this as a mature form of engagement with life's rewards. Finally, it differentiates between consciously sought-after experiences and serendipitous, unexpected moments of joy, advocating for an openness to both. The overarching message encourages a conscious re-integration and ethical cultivation of these positive states into daily life, urging individuals to dismantle ingrained prejudices and embrace a more nuanced, holistic understanding of human flourishing, thereby challenging established moral frameworks that often inadvertently diminish the pursuit of well-being.</t>
+  </si>
+  <si>
+    <t>["哲学", "享乐主义", "快乐", "伦理学", "幸福", "人类经验", "心理学", "自我关怀", "道德哲学"]</t>
+  </si>
+  <si>
+    <t>[{"title": "The Philosophy of Pleasure: An Introduction", "author": "Katarzyna de Lazari-Radek", "context": "文中明确指出Katarzyna de Lazari-Radek是该书的作者，且文章内容大量引用了她的哲学观点，该书是理解文章核心思想的关键。"}]</t>
+  </si>
+  <si>
+    <t>专访｜毕赣谈《狂野时代》：电影结尾应该充满感情而不是深刻</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-05 14:58:00</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32103429</t>
+  </si>
+  <si>
+    <t>2025-12-05 19:57:06</t>
   </si>
   <si>
     <t>【采访者按】：
@@ -2109,328 +2429,21 @@
 我觉得它是很伤感的，电影最后的字卡凸显的全片核心就是那两句再会，这个世界已经崩溃，然后大家就在电影院结束这一切。它不是一个深刻的表达，但它一定是一个非常富有感情的表达。艺术是在这个时候最有用的一件事情，它不是在记录这个时刻，它在吟唱这件事情，这件很伤感的事，而且是一件无奈的、毫无办法的事情，甚至都不是绝望，也没有希望。如果用感情去描述它，比较准确的是很惋惜。</t>
   </si>
   <si>
-    <t>具备独特视角的社会观察，探讨了人际关系与公共健康之间的联系</t>
-  </si>
-  <si>
-    <t>具备独特视角的宇宙历史观察</t>
-  </si>
-  <si>
-    <t>具备独特视角的哲学对话，探讨历史与思想的关系</t>
-  </si>
-  <si>
-    <t>内容过于枯燥晦涩，缺乏通俗化的叙述</t>
-  </si>
-  <si>
-    <t>系统性地整理了某个知识点，提供了关于Ovalipes catharus的生物学和生态信息</t>
-  </si>
-  <si>
-    <t>提供了独特的个人视角和对创造力的深入探讨</t>
-  </si>
-  <si>
-    <t>具备独特视角的天文现象观察</t>
-  </si>
-  <si>
-    <t>具备独特视角的社会观察，探讨人类与鲸鱼之间的联系及其沟通方式</t>
-  </si>
-  <si>
-    <t>包含逻辑推演和批判性观点，探讨了人们对虚伪的复杂态度</t>
-  </si>
-  <si>
-    <t>具备独特视角的社会观察，探讨人类如何在AI时代中生存与发展</t>
-  </si>
-  <si>
-    <t>具备独特视角的科学探讨，涉及宇宙学和新物理学的前沿问题</t>
-  </si>
-  <si>
-    <t>包含逻辑推演和批判性观点，探讨了AI怀疑主义的现象</t>
-  </si>
-  <si>
-    <t>具备独特视角的文化观察，探讨了如何通过仪式强化文化</t>
-  </si>
-  <si>
-    <t>具备独特视角的社会观察，探讨了数字时代文化现象及其心理影响</t>
-  </si>
-  <si>
-    <t>强时效资讯，内容涉及电影票房数据和上映情况</t>
-  </si>
-  <si>
-    <t>强时效资讯，涉及美国与委内瑞拉的冲突动态</t>
-  </si>
-  <si>
-    <t>具备独特视角的社会观察，探讨了墨西哥Z世代抗议活动的复杂性和社会背景</t>
-  </si>
-  <si>
-    <t>内容缺乏主线，主要是对香港特别行政区国旗的描述，属于碎片化信息</t>
-  </si>
-  <si>
-    <t>具备独特视角的系统思考，探讨复杂系统的相似性与影响</t>
-  </si>
-  <si>
-    <t>具备独特视角的科学探索与人类思考</t>
-  </si>
-  <si>
-    <t>具备独特视角的社会观察，探讨了‘快乐’一词的文化和哲学内涵</t>
-  </si>
-  <si>
     <t>具备独特视角的电影创作访谈，探讨了导演的创作过程和思考</t>
   </si>
   <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>已拒绝</t>
-  </si>
-  <si>
-    <t>文章系统性地介绍了一场特定历史时期、针对特定社群的公共卫生运动,提供了关于广告策略、社会文化与疾病传播交叉领域的详实知识。</t>
-  </si>
-  <si>
-    <t>文章系统性地梳理了现代宇宙学前沿的九大未解之谜,以清晰的图文形式普及了复杂的科学概念,是高质量的科普佳作。</t>
-  </si>
-  <si>
-    <t>文章通过两位思想家的深度对话,探讨了哲学、政治与历史的底层逻辑,极具思辨性,不断挑战读者对语言、权力和个体存在等基本概念的既有认知。</t>
-  </si>
-  <si>
-    <t>文章以百科全书式的结构，系统、详尽地介绍了单一物种的生物学全貌，是构建领域知识的优质文本。</t>
-  </si>
-  <si>
-    <t>文章简明扼要地介绍了大脑创造力的形成机制，整合了神经科学、认知科学和生产力管理等多位专家的观点，有助于读者系统性地理解这一复杂概念，构建认知框架。</t>
-  </si>
-  <si>
-    <t>文章系统性地解释了流星雨的成因、演化及其与母体的关系,为读者构建了清晰的天文知识框架。</t>
-  </si>
-  <si>
-    <t>文章深入探讨了人类与鲸鱼之间跨越物种的沟通尝试，结合了生物声学、AI等前沿科技，不仅提供了关于鲸鱼语言的最新科学进展，更重要的是，它挑战了我们对“智能”和“语言”的传统定义，引发对人类自身在地球生态中位置的深刻反思。其广阔的视角和潜在的哲学影响，极具启发性。</t>
-  </si>
-  <si>
-    <t>文章挑战了“虚伪总是不好的”这一普遍认知，通过心理学实验和案例分析，严谨地揭示了人类道德判断的复杂性和情境性，极具思辨价值。</t>
-  </si>
-  <si>
-    <t>文章通过资深科技思想家的视角,深刻批判了当前AI发展的经济驱动模式,挑战了技术决定论的普遍观点,激发读者对科技与社会关系的深度反思。</t>
-  </si>
-  <si>
-    <t>文章系统性地介绍了构成宇宙的关键要素(暗物质、暗能量)以及它们如何决定宇宙的终极命运,为读者构建了一个清晰的宇宙学认知框架。</t>
-  </si>
-  <si>
-    <t>文章有力地挑战了当前流行的对AI发展的怀疑论调,将其重新定义为一种面对认知霸权旁落的心理否认,迫使读者严肃思考技术进步背后更深层的哲学与社会风险。</t>
-  </si>
-  <si>
-    <t>文章系统性地介绍了通过审视企业历史、使命、价值观以及设计独特仪式来构建和强化组织文化的方法，提供了清晰的认知框架和可操作的实践案例。</t>
-  </si>
-  <si>
-    <t>文章运用福柯、德勒兹等理论工具，深度剖析了网络亚文化现象，对数字时代的权力、抵抗与主体性提出了严密的批判性思考，极具思想启发性。</t>
-  </si>
-  <si>
-    <t>文章通过深度剖析墨西哥的政治抗议与布鲁塞尔的文化项目，揭示了表象之下复杂的权力运作与制度矛盾，有力地挑战了对社会运动和公共文化的既定认知。</t>
-  </si>
-  <si>
-    <t>文章通过整合系统论、投资哲学和神经科学等多个领域的洞见,有效地挑战了读者关于商业、学习和个人成长的固有观念,是一份高质量的思维激发材料。</t>
-  </si>
-  <si>
-    <t>文章系统清晰地介绍了“星冕仪”这一前沿天文观测技术，从基本原理、发展历程到未来展望，为读者构建了一个完整的知识框架，是极佳的科普读物。</t>
-  </si>
-  <si>
-    <t>文章深入剖析了“快乐”一词的负面社会认知，通过哲学家的视角重新定义了快乐的本质，并区分了快乐的体验与来源，极具启发性。其对快乐的分类（自我/他人、即时/延迟、预期/非预期）也提供了新的思考框架，挑战了固有观念。</t>
-  </si>
-  <si>
     <t>文章深度揭示了一位导演在创作中的核心矛盾与哲学思辨,挑战了大众对其“形式主义”的刻板印象,迫使读者重新思考艺术创作中逻辑与直觉、形式与情感、工业流程与个人表达之间的悖论关系。</t>
   </si>
   <si>
-    <t>本文回顾了1989至2001年间纽约地铁里一场名为“胡里奥与玛丽索”的漫画广告运动。它以肥皂剧的形式,讲述了一对西班牙裔情侣在艾滋病阴影下的爱情故事,旨在向因文化传统而抗拒使用安全套的社群推广艾滋病防治知识,成为了一代纽约客的集体记忆。</t>
-  </si>
-  <si>
-    <t>宇宙从何而来? 暗物质是什么? 这篇文章用通俗的语言和震撼的图片,带你探索现代宇宙学最令人着迷的九个未解之谜,一窥人类知识的边界。</t>
-  </si>
-  <si>
-    <t>这是一场意大利哲学家阿甘本与法国历史学家布舍龙的深度对谈。他们围绕写作、思想与政治展开,探讨了如何通过“考古学”的方式回溯历史以理解当下。对话涉及语言的界限、私人生活的政治潜能,以及在既定制度之外,“不为”的力量如何可能成为一种真正的政治行动。</t>
-  </si>
-  <si>
-    <t>本文是一篇关于新西兰桨蟹（Ovalipes catharus）的科普介绍。文章详细描述了这种蟹的形态特征、生命周期、生理习性、捕食行为，以及它在渔业和毛利文化中的地位，让你全面了解这种好斗又有趣的海洋生物。</t>
-  </si>
-  <si>
-    <t>本文综合神经科学家、创造力研究者和生产力专家的观点，阐释了人类大脑如何实现创造力。文章指出，创造力源于我们进化的皮层空间、想象力对知识的构建，以及对思想的系统组织。最终，创造力被定义为对我们随时间收集的原始材料进行存储、组合和转化的过程。</t>
-  </si>
-  <si>
-    <t>想知道为什么12月的双子座流星雨越来越壮观吗？本文揭示其并非来自彗星,而是一颗小行星。文章通俗讲解了这颗小行星如何被太阳引力撕碎,在轨道上撒下更多碎片,为我们带来更密集的流星盛宴。这是一份绝佳的天文科普入门。</t>
-  </si>
-  <si>
-    <t>海洋生物学家David Gruber的演讲，追溯了人类与鲸鱼的共同祖先，并展示了科学家如何利用生物声学和AI技术，尝试解码抹香鲸的古老语言。他认为，理解鲸鱼的沟通方式，将彻底重塑我们对智能、自我以及与地球生命连接的认知。</t>
-  </si>
-  <si>
-    <t>我们都讨厌伪君子，但真的如此吗？这篇文章通过四个有趣的案例——善良的、有共鸣的、有原则的和通情达理的伪君子，揭示了我们对“虚伪”的复杂态度。原来，在特定情况下，我们不仅会容忍，甚至会偏爱那些言行不一的人。</t>
-  </si>
-  <si>
-    <t>科技思想家蒂姆·奥莱利认为,AI本身不抢工作,是背后追逐短期利益的资本决策在作祟。他批判了硅谷的投机炒作,呼吁我们应利用AI增强人类能力、解决真实世界的问题,而非简单地裁员增效。这是一份关于如何塑造更具人性未来的技术应用指南。</t>
-  </si>
-  <si>
-    <t>我们的宇宙不只有星辰,更被神秘的暗物质和暗能量主宰。本文科普了这些力量如何塑造宇宙的遥远未来,最终导向“热寂”结局:一个恒星燃尽、星系分离、连黑洞都已蒸发的冰冷、黑暗的永恒虚空。</t>
-  </si>
-  <si>
-    <t>这篇文章认为,公众对AI发展的怀疑(称其为“AI垃圾”或“泡沫”)是一种心理上的否认。作者指出,这源于我们对失去“认知霸主”地位的深层恐惧。文章警告说,AI在创造力和情感洞察力上超越人类的可能性越来越大,这种否认态度只会让我们对未来的巨大变革和潜在风险毫无准备。</t>
-  </si>
-  <si>
-    <t>本文指导领导者如何有意识地设计和强化组织文化。它建议审视企业的使命、价值观和历史等基础文档，并创建独特的日常仪式和庆祝活动。通过Organically Grown Company和The Honest Company的案例，文章展示了如何通过将既定价值观与日常实践相结合，来培养一个有韧性、高绩效的组织。</t>
-  </si>
-  <si>
-    <t>“发疯文学”为何流行？本文深入剖析了这一网络现象，揭示它不仅是年轻人的情绪宣泄，更是一种在数字监控与算法霸权下，通过语言狂欢进行抵抗、寻求部落认同的独特生存策略，并探讨了其与文学史上“疯癫”母题的深刻联系。</t>
-  </si>
-  <si>
-    <t>通过剖析墨西哥一场被操控的“Z世代”抗议和布鲁塞尔一个陷入困境的艺术中心，文章揭示了当代社会运动与大型文化项目背后复杂的权力博弈与制度失灵。</t>
-  </si>
-  <si>
-    <t>本文是一份精选的思想集锦。它介绍了“与系统共舞”的智慧,启示我们如何驾驭生活中的复杂性;并以查理·芒格为例,赞美了终身学习与好奇心的价值。文章还引导我们批判性地看待科技创新与现代社会的思维模式。</t>
-  </si>
-  <si>
-    <t>我们是宇宙中唯一的生命吗？要回答这个古老问题，科学家需要直接“看见”遥远恒星旁的类地行星。本文通俗地解释了解决这一难题的关键技术——“星冕仪”，它如同人造月食，能挡住恒星的强光。文章追溯了从哈勃到韦伯望远镜的技术进步，并展望了未来“宜居世界天文台”将如何帮助我们寻找第一颗“外星地球”。</t>
-  </si>
-  <si>
-    <t>文章挑战了“快乐”常被视为“肮脏”或“低级”的负面观念。援引哲学家Katarzyna de Lazari-Radek的享乐主义观点，文章将快乐重新定义为一种内在的、固有的良好评价性感受，并强调需将其与产生快乐的来源区分开来。文章进一步探讨了快乐的多种形式——自我关怀与助人、即时与延迟、预期与非预期——鼓励读者拥抱合乎伦理的快乐，以实现更幸福的生活。</t>
-  </si>
-  <si>
     <t>这篇访谈深入探讨了导演毕赣最新电影《狂野时代》的创作心路。他澄清了外界对他“重形式轻故事”的误解,强调自己最感兴趣的是如何讲述故事。文章揭示了他独特的创作方法:在极度严谨的逻辑建构之上,最终依赖现场的直觉与感受去捕捉那份无法量化的“动容”。</t>
   </si>
   <si>
-    <t>本文探讨了在重大公共卫生危机中,如何运用叙事性沟通策略对特定文化社群进行有效的健康干预。文章的核心是分析如何通过一个长期连载、角色驱动的故事,来绕过由性别权力结构(如大男子主义)、宗教教义和语言障碍构成的文化壁垒,以推广被视为禁忌的预防行为。它揭示了在公共空间(如大众运输系统)中,利用通俗艺术形式进行社会教育的潜力,以及这种方式在消解疾病污名化、促进敏感话题公开讨论方面的作用。同时,文章也触及了目标导向型宣传所面临的伦理困境:即在追求文化贴近性的同时,如何避免加深对特定群体的刻板印象。</t>
-  </si>
-  <si>
-    <t>探讨人类知识的边界以及科学探究的本质。文章通过呈现宇宙学领域的根本性难题,揭示了理论模型与观测证据之间的动态关系。其核心并非提供答案,而是描绘出一个结构化的“未知领域地图”,展现了科学如何通过精确定义问题来推动认知疆域的拓展。这反映了一种智识上的追求:在面对存在、起源与终极规律等宏大命题时,人类如何构建因果叙事,并与经验世界的极限进行持续对话,从而理解自身在宇宙尺度下的位置与意义。</t>
-  </si>
-  <si>
-    <t>本文探讨了思想与历史的考古学方法论,即如何通过质询传统来锻造理解当下的概念。它深入剖析了“建立”与“废除”两种力量之间的政治辩证关系,认为真正的政治潜能可能蕴含于对既定制度的“罢免”或“非作”(inoperativity)之中。文章进一步审视了思想与个体主体的关系,强调想象力在连接个体特殊性与普遍理智中的作用。同时,它揭示了语言内部的断裂——符号系统与言说行动之间的鸿沟——并视哲学为弥合此断裂的努力。最终,它将政治的神秘指向被传统政治所排斥的“私人生活”的隐秘领域,探索一种基于生命形式本身的、反英雄主义的政治可能性。</t>
-  </si>
-  <si>
-    <t>本文深入剖析了特定海洋甲壳纲物种的完整生命史与生态位。内容涵盖了从形态学、解剖学到生理学（如渗透压调节、温度敏感性、心血管系统）的生物学全貌。文章探讨了其复杂的行为生态学，包括夜行性捕食策略、同类相食现象、以及通过声学信号进行的种内通讯。此外，还分析了该物种在生态系统中的角色，其与入侵物种的竞争关系，以及作为渔业资源和文化符号，与人类社会产生的多维度互动。这构成了一个关于单一物种如何通过其生物学特性适应环境、维持种群并与外部世界相互作用的微观生态系统案例研究。</t>
-  </si>
-  <si>
-    <t>本文探讨了人类创造力的认知机制与底层逻辑。它揭示了创造力并非神秘天赋，而是大脑通过其演化出的独特皮层结构，以及对知识的系统性积累、组织、组合与转化能力所实现的。核心观点在于，创新思维是信息处理的产物，依赖于个体如何有效地存储外部信息、在内部构建知识网络，并在此基础上进行概念重组与模式识别。文章触及了想象力与既有知识的相互作用，以及外部化思维组织（如“第二大脑”概念）如何辅助和增强内在的创造过程。它从跨学科视角，阐释了人类如何通过结构化的信息管理和灵活的认知重组，持续生成新颖且有价值的观念、解决方案或艺术形式，从而揭示了创新作为一种普遍存在且可理解的认知现象的本质。</t>
-  </si>
-  <si>
-    <t>探讨天体物理学中周期性现象的底层机制与演化。文章解构了一个可观测天文事件（流星雨）与其宇宙母体（小行星/彗星）之间的因果链条。其核心在于阐释轨道动力学、引力潮汐效应和太阳辐射如何共同作用，导致一个天体在漫长时间尺度上逐渐解体，并形成一个弥散的碎片流。当行星轨道与此碎片流交汇时，便产生了可预测但强度动态变化的现象。这揭示了宇宙事件的确定性与演化性之间的张力，即物理法则是恒定的，但其所驱动的系统本身在不断变化，从而影响着最终的观测结果。</t>
-  </si>
-  <si>
-    <t>本篇内容深入探讨了跨物种沟通的深远意义，尤其聚焦于利用前沿科技（如人工智能和生物声学）来解读非人类复杂沟通系统。其核心在于挑战并扩展对“智能”和“语言”的传统人类中心定义，揭示生命形式间可能存在的、超越感官界限的深层连接。文章探讨了通过理解其他物种的认知模式，来重新审视人类在地球生态系统中的位置，以及我们与整个生物圈的共生关系。这种探索不仅是科学的进步，更是一场哲学层面的反思，促使我们超越物种隔阂，构建一个更加包容和相互理解的全球生命共同体。它暗示了，真正的智慧可能存在于我们尚未完全理解的、非人类的生命形式中，而这种理解将彻底改变我们对自我、意识以及生命本质的认知。</t>
-  </si>
-  <si>
-    <t>本文探讨了人类道德判断的复杂性与情境依赖性，旨在解构“虚伪”这一概念的单一负面标签。文章的核心论点是，在社会认知中，行为与宣言之间的一致性并非评估个体价值的唯一或最高标准。它揭示了一种深层的心理机制：人们的评判会受到行为本身的道德价值、个体表现出的脆弱性与可共情性、以及其所宣称的道德准则高度等多重因素的影响。文章进一步区分了两种不一致性：一种源于自利性的欺骗，另一种则源于在多重、甚至冲突的价值体系（如普世原则与人际情感）之间进行权衡的必要妥协。后者往往不被视为道德瑕疵，反而可能被解读为一种成熟和人性化的表现。因此，本文的本质是关于社会信号的解读与道德资本的计算，探讨了在不确定的社会互动中，人们如何超越表面的一致性，去评估他人潜在的品格、意图与未来的可靠性。</t>
-  </si>
-  <si>
-    <t>本文探讨技术进步与社会经济结构之间的辩证关系。它认为,自动化的社会影响并非技术固有的属性,而是主导经济范式(特别是注重短期资本收益而非可持续价值创造的榨取式模式)的产物。文章解构了科技炒作周期的机制,揭示投机性投资和人为叙事如何扭曲技术发展的优先级。它批判了基于广告的商业模式,这种模式导致用户体验和信息生态的退化(enshittification)。其核心哲学论点倡导一种范式转变:从将技术视为替代劳动力的工具,转向将其视为增强人类能力、解决复杂社会问题的媒介。这要求个体与组织在面对颠覆性变革时,能够主动拥抱不确定性,并有意识地拒绝基于恐惧的保守策略。</t>
-  </si>
-  <si>
-    <t>本文探讨了在一个由竞争性基本力（一种促进物质聚集与结构形成,另一种驱动全局性加速膨胀）支配的复杂系统中,其终极的演化轨迹。它描绘了熵增原理在宇宙尺度上的逻辑终点,即从一个高能量密度、结构复杂的动态状态,不可逆地走向一个热力学平衡的终态。这一过程的核心是所有负熵过程（如恒星形成）的最终停止,以及最稳定结构（包括通过量子效应衰变的黑洞）的最终瓦解。文章的本质是关于系统命运的哲学思考：在给定的初始条件和物理法则下,一个封闭系统如何从有序走向无序,从复杂走向简单,最终达到一种无法再进行任何“功”的、永恒静止的基态。</t>
-  </si>
-  <si>
-    <t>本文探讨了当一种颠覆性技术挑战了人类作为最高智能物种的核心身份时,社会集体产生的心理防御机制,尤其是“否认”阶段。文章深入剖析了“创造力”与“情感智能”等传统上被视为人类专属领域的概念,在面对能够模拟甚至超越这些能力的非人类智能时所面临的解构。它揭示了一种根本性的权力不对称:一方能够通过分析微观行为数据来精准解读另一方的情感与意图,而自身却是一个无法被共情或理解的“黑箱”,这为超人类级别的操纵创造了条件。文章的底层逻辑是,对指数级技术进步的低估,源于一种根植于物种自我认知的情感偏见,而这种认知失调阻碍了社会对即将到来的范式转移进行充分准备。其核心是关于存在主义焦虑、技术异化以及在后人类主义曙光下重新定义“人”的本质的哲学思辨。</t>
-  </si>
-  <si>
-    <t>本篇探讨了集体实体（如组织）的根本身份与其日常运作之间的复杂关联。它提出，强大而有韧性的集体结构并非偶然形成，而是通过刻意审视历史叙事、阐明核心原则以及设计重复的行为模式来精心培育的。核心论点在于，必须将一个实体宣称的宗旨和价值观与其日常实践、仪式和决策过程保持一致。文章深入探讨了内省分析的方法论，鼓励批判性地审视一个实体的起源和演变，以识别其宣称理论与实际运用理论之间的差异。此外，它强调了象征性行动和共享习俗在强化集体认同、培养心理安全、创造力和开放沟通方面的变革力量。其深层哲学探究触及了集体意识和行为的有意塑造，超越了单纯的合规性，达到了对共享理想的真正内化，从而确保在动态环境中实现长期可持续性和适应性。文章强调，理解并尊重一个实体的过去对于规划连贯而有目的的未来至关重要，并指出即使是看似“软性”的文化元素，也是推动实际成果的基本动力。</t>
-  </si>
-  <si>
-    <t>探讨数字资本主义时代，个体在算法规训与数据化生存压力下的主体性困境。文章分析了一种以语言符号的解构、增殖与戏仿为核心的亚文化抵抗策略。这种话语实践旨在破坏数据监控系统的可识别性与可预测性，从而在控制社会中开辟临时的情感避难所与身份认同空间。文章进一步将此现象置于疯癫叙事的文学谱系中，探讨了从古典悲剧到现代主义的异化、佯狂与反抗母题，如何在当代媒介生态中被重构与降维，并揭示了其作为美学疗愈手段与被资本收编的双重命运。它关注的是在弥散式权力网络中，微观的、非目的性的符号游戏如何成为一种政治性的生存战术。</t>
-  </si>
-  <si>
-    <t>本文探讨了当代公共领域倡议（无论是社会抗议还是文化建制）的结构性脆弱性。它分析了“自下而上”的动员话语如何被“自上而下”的权力议程所渗透、挪用和扭曲，揭示了青年文化符号、社会不满情绪和公共文化理想如何被工具化，服务于隐蔽的政治与资本博弈。文章的深层逻辑在于审视公共意志的真实性与自主性问题：在一个被媒体奇观、党派斗争和不对称权力关系所塑造的环境中，旨在促进社会变革或文化繁荣的集体行动，其最初的目标如何被消解，最终沦为既有权力结构的角力场与牺牲品。这种现象反映了现代治理中理想主义叙事与现实权力运作之间的深刻断裂。</t>
-  </si>
-  <si>
-    <t>本文探讨了在日益复杂的世界中个体与宏观系统之间的关系。其核心母题是运用“系统思维”这一心智模型来理解和驾驭不确定性,强调适应性、观察和顺势而为,而非强行控制。这种思维方式被应用于多个层面:从组织管理到个人关系,再到生命本身。文章进一步将这一框架延伸至对个体生命意义的探索,提出持续的智力投入和永不枯竭的好奇心是实现认知长寿和生命价值的关键。最后,它运用这种批判性视角解构了当代社会的一些主流叙事,例如技术创新的竞争本质(实为垄断驱动)以及一种日益简化的、追求控制的工具理性思维模式对人类经验复杂性的侵蚀。本质上,文章呼吁我们重新审视自身与世界的互动方式,倡导一种更整体、更具适应性的生存智慧。</t>
-  </si>
-  <si>
-    <t>本文探讨了人类探索宇宙生命存在的基本议题，其核心是解决观测天文学中的一个经典信噪比难题：如何在压倒性的强光源（恒星）背景下，探测到极其微弱的目标信号（行星）。文章通过一个自然现象（日食）作为类比，阐释了一种关键技术（光线遮挡）的原理与演进。它揭示了科学仪器发展的迭代逻辑——通过技术革新，实现关键性能指标（如对比度）的指数级提升，从而不断扩展人类的认知边界。这一过程体现了从宏大的哲学追问到具体的工程实现，再到设定未来探索目标的完整科学探索路径，反映了人类通过工具延伸感官、以应对极端物理挑战的智慧。</t>
-  </si>
-  <si>
-    <t>This discourse undertakes a profound re-examination of intrinsic human experiences, specifically challenging the pervasive societal and philosophical stigmatization of "pleasure." It critiques the historical trajectory across diverse religious doctrines and philosophical traditions that has often relegated fundamental positive affective states to the realm of the base, vulgar, or animalistic, thereby fostering a deep-seated cultural aversion. The central argument pivots on the crucial distinction between the subjective, internal experience of a positive feeling and the external circumstances or actions that precipitate it. It posits that while the *source* of such feelings may carry moral or ethical weight, the *feeling itself* is an inherently neutral, evaluative signal of goodness, a fundamental component of sentient existence, and therefore cannot be intrinsically "bad."
-The analysis further dissects the phenomenology of this positive affective state, categorizing its diverse manifestations along several key axes. These include the dichotomy between self-directed gratification and other-regarding altruism, highlighting how both contribute to overall well-being. It also explores the temporal dimension, contrasting immediate, transient satisfactions with the profound, sustained contentment derived from delayed gratification, sustained effort, and long-term personal growth, framing this as a mature form of engagement with life's rewards. Finally, it differentiates between consciously sought-after experiences and serendipitous, unexpected moments of joy, advocating for an openness to both. The overarching message encourages a conscious re-integration and ethical cultivation of these positive states into daily life, urging individuals to dismantle ingrained prejudices and embrace a more nuanced, holistic understanding of human flourishing, thereby challenging established moral frameworks that often inadvertently diminish the pursuit of well-being.</t>
-  </si>
-  <si>
     <t>本文探讨了艺术创作中固有的二元对立与融合。它揭示了一个创作者如何在极度理性和逻辑化的前期构建(如建筑般精密)与现场非理性的、依赖直觉的感性判断之间寻找平衡。文章的核心论点是,艺术作品的最终价值并非其技术性的外壳或形式上的创新,而在于能否引导接受者进入一种主观的、沉浸式的情感体验(如同“住进房子做一场梦”)。它批判了一种将形式分析置于情感感受之上的接受模式,认为这种模式会错失艺术的本质。此外,文章还触及了在宏大历史叙事中,如何通过模糊集体共识、聚焦个体漂泊的体验,来塑造一个抽象的、超越具体时代的“精神肖像”的创作方法论。</t>
   </si>
   <si>
-    <t>["公共卫生", "广告史", "艾滋病历史", "文化研究", "纽约城市史", "社会运动"]</t>
-  </si>
-  <si>
-    <t>["宇宙学", "科普", "物理学", "未解之谜"]</t>
-  </si>
-  <si>
-    <t>["当代哲学", "政治哲学", "语言哲学", "历史哲学", "吉奥乔·阿甘本", "生命政治"]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>["海洋生物学", "物种志", "生态学"]</t>
-  </si>
-  <si>
-    <t>["创造力", "认知科学", "神经科学", "知识管理", "创新", "大脑功能", "想象力"]</t>
-  </si>
-  <si>
-    <t>["天文科普", "流星雨", "天体力学", "小行星", "宇宙现象"]</t>
-  </si>
-  <si>
-    <t>["跨物种沟通", "人工智能", "生物声学", "鲸鱼研究", "智能定义", "进化论", "生态哲学", "非人类认知", "地球连接"]</t>
-  </si>
-  <si>
-    <t>["心理学", "社会认知", "道德哲学", "批判性思维"]</t>
-  </si>
-  <si>
-    <t>["AI伦理", "科技批判", "未来工作", "资本主义", "创新"]</t>
-  </si>
-  <si>
-    <t>["宇宙学", "天体物理学", "热寂", "暗物质", "暗能量", "科普"]</t>
-  </si>
-  <si>
-    <t>["人工智能", "技术哲学", "认知科学", "社会心理学", "未来学"]</t>
-  </si>
-  <si>
-    <t>["组织文化", "领导力", "企业价值观", "使命宣言", "企业历史", "企业仪式", "文化设计", "商业策略", "员工参与", "目的导向型组织"]</t>
-  </si>
-  <si>
-    <t>["网络文化", "批判性理论", "符号学", "权力与抵抗", "青年文化", "数字人类学"]</t>
-  </si>
-  <si>
-    <t>["政治操纵", "文化治理", "制度批判", "虚假草根运动"]</t>
-  </si>
-  <si>
-    <t>["系统思维", "心智模型", "终身学习", "查理·芒格", "复杂性科学"]</t>
-  </si>
-  <si>
-    <t>["天文观测", "系外行星", "科学技术", "宇宙探索", "星冕仪"]</t>
-  </si>
-  <si>
-    <t>["哲学", "享乐主义", "快乐", "伦理学", "幸福", "人类经验", "心理学", "自我关怀", "道德哲学"]</t>
-  </si>
-  <si>
     <t>["电影创作", "艺术哲学", "导演访谈", "叙事理论", "直觉与理性"]</t>
   </si>
   <si>
-    <t>了解新知</t>
-  </si>
-  <si>
-    <t>激发思维</t>
-  </si>
-  <si>
-    <t>[{"title": "The Shift", "author": "George Foy", "context": "小说家引用该广告来说明其连载时间之长,小说主角在地铁上看到广告时,感慨自己见证其中一个角色走向死亡的时间,比一些城市里孩子的寿命还要长,以此凸显该广告在纽约日常生活中的持久印记。"}, {"title": "Understanding AIDS", "author": "United States Centers for Disease Control (CDC)", "context": "作为背景信息提及,这是美国疾控中心在1988年大规模分发的一本教育手册,它确立了“安全套是除禁欲外最好的艾滋病预防措施”这一官方立场,为“胡里奥与玛丽索”这类宣传活动提供了科学依据。"}]</t>
-  </si>
-  <si>
-    <t>[{"title": "Homo Sacer (神圣人)项目", "author": "吉奥乔·阿甘本", "context": "作为对话的起点,布舍龙询问阿甘本关于完成又未完成此宏大哲学项目的看法,引出关于“放弃”与“延续”的讨论。"}, {"title": "身体使用 (The Use of Bodies)", "author": "吉奥乔·阿甘本", "context": "该书是Homo Sacer项目的终章,其序言中关于“作品只会被放弃”的论述,是本次对话的第一个核心议题。"}, {"title": "分离批判 (Critique of Separation)", "author": "居依·德波", "context": "阿甘本引用德波在这部电影中对“私人生活之‘暗中性’”的论述,探讨被传统政治排斥的私人领域所蕴含的政治潜能。"}, {"title": "传统的历史和对文本的批判 (History of the Tradition and Critique of the Text)", "author": "吉奥乔·帕斯夸里", "context": "阿甘本引用这位语文学家著作的标题,来说明自己的“考古学”方法:我们接触的文化遗产总是被篡改过的传统,而“源始”诞生于与这个传统进行批判性搏斗的当下时刻。"}, {"title": "火与故事 (The Fire and the Tale)", "author": "吉奥乔·阿甘本", "context": "布舍龙提及此书,询问阿甘本是否认为严谨的学术研究与文学创作可以源于同一种神秘的冲动。"}]</t>
-  </si>
-  <si>
-    <t>[{"title": "WTF? What’s the Future and Why It’s Up to Us", "author": "Tim O'Reilly", "context": "作者引用此书的核心观点,认为应警惕当前榨取式的资本模式,并主张利用AI创造解决社会问题的机会,而非简单替代人类工作。"}, {"title": "Dune", "author": "Frank Herbert", "context": "作者提及此书塑造了其核心世界观,即拥抱变化与未知是人类的基本技能,并引用书中名言“恐惧是思维的杀手”来阐述其技术哲学。"}]</t>
-  </si>
-  <si>
-    <t>[{"title": "The Fountainhead", "author": "Ayn Rand", "context": "引用书中关于人类依靠心智生存的观点,以强调“认知至上”(cognitive supremacy)是人类自我认知的核心基石,而AI的发展正是在根本上动摇这一基石。"}]</t>
-  </si>
-  <si>
-    <t>[{"title": "Culture Design: How to Build a High-Performing, Resilient Organization with Purpose", "author": "James D. White and Krista White", "context": "文章中明确提及并展示了封面图片，作为其核心理念和方法的来源。"}]</t>
-  </si>
-  <si>
-    <t>[{"title": "《安全、领土与人口》", "author": "米歇尔·福柯", "context": "引用福柯的治理术概念，阐释现代权力如何通过对人口的统计学管理，将个体纳入可预测的治理框架，为后文探讨数字生命政治提供理论基础。"}, {"title": "《疯癫与文明》", "author": "米歇尔·福柯", "context": "引用福柯对疯癫历史的论述，指出疯癫的定义始终是权力话语建构的结果，为将“发疯文学”置于文学疯癫谱系中进行历史化考察提供了理论透镜。"}, {"title": "《红岩》", "author": "罗广斌、杨益言", "context": "以书中角色华子良的“装疯”为例，说明在传统物理规训空间中，疯癫是一种服务于宏大叙事的、高度理性的抵抗策略。"}, {"title": "《狂人日记》", "author": "鲁迅", "context": "作为经典疯癫书写的案例，说明疯癫曾被用作一种反理性的启蒙工具，旨在通过“疯言”揭示社会病态，唤醒国民。"}, {"title": "《一九八六年》", "author": "余华", "context": "用以说明在极端权力压迫下，疯癫可能表现为理性的彻底崩塌和主体性的消亡，失去言说真理的能力，成为暴力的沉默回声。"}, {"title": "《变形记》", "author": "弗兰兹·卡夫卡", "context": "将其中的“变形”与“发疯文学”中的“蟑螂文学”进行互文对比，探讨异化主题的演变：从被动、不可逆的悲剧性异化，转变为主动、可逆的戏谑式自我物化策略。"}, {"title": "《部落时代：个体主义在后现代社会的衰落》", "author": "米歇尔·马费索利", "context": "引用其“新部落”理论，解释“发疯文学”如何在网络空间中通过情感联结和符号共享，构建临时的、流动的虚拟共同体，实现身份认同。"}, {"title": "《哈姆雷特》", "author": "威廉·莎士比亚", "context": "以哈姆雷特的“装疯”为例，分析在经典的权力结构中，佯疯是一种服务于复仇目的的理性计算工具，其颠覆性受制于目的论的束缚。"}]</t>
-  </si>
-  <si>
-    <t>[{"title": "2666", "author": "罗贝托·波拉尼奥", "context": "引用该书对墨西哥结构性暴力的洞察，说明当暴力常态化、真相被叙事遮蔽时，社会矛盾如何被简化为政治斗争的工具，民众的真实恐惧沦为权力角逐的注脚。"}]</t>
-  </si>
-  <si>
-    <t>[{"title": "The Philosophy of Pleasure: An Introduction", "author": "Katarzyna de Lazari-Radek", "context": "文中明确指出Katarzyna de Lazari-Radek是该书的作者，且文章内容大量引用了她的哲学观点，该书是理解文章核心思想的关键。"}]</t>
-  </si>
-  <si>
     <t>[{"title": "钟楼怪人", "author": "维克多·雨果", "context": "导演在描述其电影中的怪物造型时,将其与“钟楼怪人”这一文学形象类比,以说明其造型设计旨在引发观众的同情与共鸣。"}]</t>
   </si>
   <si>
@@ -2438,26 +2451,720 @@
   </si>
   <si>
     <t>思想市场</t>
+  </si>
+  <si>
+    <t>Raichu</t>
+  </si>
+  <si>
+    <t>2025-12-05 08:00:00</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251205000000/en</t>
+  </si>
+  <si>
+    <t>2025-12-07 09:53:13</t>
+  </si>
+  <si>
+    <t>&lt;div class="mw-content-ltr mw-parser-output" dir="ltr" lang="en"&gt;&lt;p&gt;&lt;b&gt;&lt;a href="/wiki/Raichu" title="Raichu"&gt;Raichu&lt;/a&gt;&lt;/b&gt; is a &lt;a href="/wiki/List_of_Pok%C3%A9mon" title="List of Pokémon"&gt;Pokémon species&lt;/a&gt; in &lt;a href="/wiki/Nintendo" title="Nintendo"&gt;Nintendo&lt;/a&gt; and &lt;a href="/wiki/Game_Freak" title="Game Freak"&gt;Game Freak&lt;/a&gt;'s &lt;a href="/wiki/Pok%C3%A9mon" title="Pokémon"&gt;&lt;i&gt;Pokémon&lt;/i&gt; media franchise&lt;/a&gt;, and the &lt;a href="/wiki/Pok%C3%A9mon_(video_game_series)#Gameplay" title="Pokémon (video game series)"&gt;evolved form&lt;/a&gt; of the series mascot, &lt;a href="/wiki/Pikachu" title="Pikachu"&gt;Pikachu&lt;/a&gt;. Introduced in the video games &lt;a href="/wiki/Pok%C3%A9mon_Red,_Blue,_and_Yellow" title="Pokémon Red, Blue, and Yellow"&gt;&lt;i&gt;Pokémon Red&lt;/i&gt; and &lt;i&gt;Blue&lt;/i&gt;&lt;/a&gt;, it was created by &lt;a href="/wiki/Atsuko_Nishida" title="Atsuko Nishida"&gt;Atsuko Nishida&lt;/a&gt; at the request of lead designer &lt;a href="/wiki/Ken_Sugimori" title="Ken Sugimori"&gt;Ken Sugimori&lt;/a&gt;, with the design finalized by Sugimori. It has appeared in multiple games including &lt;i&gt;&lt;a href="/wiki/Pok%C3%A9mon_Go" title="Pokémon Go"&gt;Pokémon Go&lt;/a&gt;&lt;/i&gt; and the &lt;i&gt;&lt;a href="/wiki/Pok%C3%A9mon_Trading_Card_Game" title="Pokémon Trading Card Game"&gt;Pokémon Trading Card Game&lt;/a&gt;&lt;/i&gt;, and in merchandise. Classified as an Electric-type Pokémon, Raichu is a large orange mouse with a tail shaped like a lightning bolt, and yellow sacs on its cheek that can generate electricity. Designed to be a stronger counterpart to Pikachu, who evolves into Raichu through the use of a "Thunder Stone", Raichu was initially intended to be able to evolve into "Gorochu" before the latter was removed. While early reaction from media outlets was negative, in light of Pikachu's status as the franchise's main mascot, later reception has been more favorable. &lt;i&gt;(&lt;b&gt;&lt;a href="/wiki/Raichu" title="Raichu"&gt;Full article...&lt;/a&gt;&lt;/b&gt;)&lt;/i&gt;
+&lt;/p&gt;
+&lt;div class="tfa-recent" style="text-align: right;"&gt;
+Recently featured: &lt;div class="hlist inline"&gt;
+&lt;ul&gt;&lt;li&gt;&lt;a href="/wiki/Flag_of_Hong_Kong" title="Flag of Hong Kong"&gt;Flag of Hong Kong&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;i&gt;&lt;a href="/wiki/Ovalipes_catharus" title="Ovalipes catharus"&gt;Ovalipes catharus&lt;/a&gt;&lt;/i&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="/wiki/SMS_Pommern" title="SMS Pommern"&gt;SMS &lt;i&gt;Pommern&lt;/i&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/div&gt;&lt;/div&gt;
+&lt;div class="hlist tfa-footer noprint" style="text-align: right;"&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:Today%27s_featured_article/December_2025" title="Wikipedia:Today's featured article/December 2025"&gt;Archive&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a class="extiw" href="https://lists.wikimedia.org/postorius/lists/daily-article-l.lists.wikimedia.org/" title="mail:daily-article-l"&gt;By email&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a class="mw-redirect" href="/wiki/Wikipedia:Featured_articles_(linked_from_TFAfooter)" title="Wikipedia:Featured articles (linked from TFAfooter)"&gt;More featured articles&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:About_Today%27s_featured_article" title="Wikipedia:About Today's featured article"&gt;About&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Raichu(/ˈraɪtʃuː/ⓘ;Japanese:ライチュウ,Hepburn:Raichū) is aPokémon speciesinNintendoandGame Freak'sPokémonmedia franchise, and theevolvedform of series mascotPikachu. First introduced in the 1996 video gamesPokémon RedandBlue, it was created byAtsuko Nishidaat the request of lead designerKen Sugimori, with the design finalized by Sugimori. Since Raichu's debut, it has appeared in multiple games includingPokémon Goand thePokémon Trading Card Game, as well as various merchandise. In media related to the franchise, Raichu has been voiced by various voice actors, includingKei Shindō, Fumiko Takekuma, andCasey Mongillo.
+Classified as an Electric-type Pokémon, Raichu is a large orange mouse with a lightning bolt-shaped tail, and yellow sacs on its cheek which can generate large amounts of electricity. Designed to be a stronger counterpart to Pikachu, who evolves into Raichu through the use of a "Thunder Stone" item, Raichu was initially intended to be able to evolve into 'Gorochu' before the latter was removed. A regional variant was added inPokémon SunandMooncalledAlolan Raichu. Featuring a fluffier design with round ears and tail, it is able to levitate by riding its tail like a surfboard and is classified as both Electric- and Psychic-type. Two Mega Evolutions for Raichu, Mega Raichu X and Mega Raichu Y, will be introduced inPokémon Legends: Z-A'sMega Dimensiondownloadable content.[6]
+While early reactions from media outlets regarded Raichu negatively in light of Pikachu's status as the franchise's main mascot, later reception has been more favorable, praising its design. Due to it often being portrayed as Pikachu's rival in theanime adaptation of the seriesand in some games a form Pikachu refuses to evolve into, critics have claimed Game Freak portrayed the species in a negative light and overall damaged its appeal. This has led to further discussion on Game Freak's overemphasis on Pikachu, as well as varying interpretations of the themes in the rivalry, including concepts ofself-identityand portrayals of youth in anime media.
+Raichu is a species of fictional creatures called Pokémon created for thePokémonmedia franchise. Developed byGame Freakand published byNintendo, the Japanese franchise began in 1996 with the video gamesPokémon RedandGreenfor theGame Boy, which were later released in North America asPokémon RedandBluein 1998.[7]In these games and their sequels, the player assumes the role of a Trainer whose goal is to capture and use the creatures' special abilities to combat other Pokémon. Some Pokémon can transform into stronger species through a process calledevolutionvia various means, such as exposure to specific items.[8]Each Pokémon has one or two elemental types, which define its advantages and disadvantages when battling other Pokémon.[9]A major goal in each game is to complete thePokédex, a comprehensive Pokémon encyclopedia, by capturing, evolving, and trading with other Trainers to obtain individuals from all Pokémon species.[8]
+Midway throughRedandBlue's development, lead designerKen Sugimorifelt that the game needed more "cute" Pokémon and was struggling to conceive of such designs. Attributing it to his male perspective, he brought in female Game Freak staff includingAtsuko Nishidato join the development team. Tasked with developing thePikachuspecies and its evolutionary line, she was given specific guidelines to work with, namely its role as an Electric-type Pokémon, that it evolved twice, and that the final evolution should "look strong".[1]Pikachu evolves into Raichu through use of the game's "Thunder Stone" item.[10]Raichu was originally planned to evolve into a Pokémon species dubbed Gorochu, but this was cut due tocartridgespace concerns.[1]Later in the franchise, Sugimori would create a Pokémon that evolved into Pikachu namedPichuto complete the trinity.[11][12]Nishida developed the original Raichuspritesusing a single color identity chosen to work within theSuper Game Boy's hardware limitations.[1][13]Afterwards, the design was finalized by Sugimori who, towards the end of development, drew the promotional art of all the species to give them a unified look and make any last-minute changes.[2]
+Standing 2ft 7in (79cm) tall,[14]Raichu is significantly taller than Pikachu, which stands at 1ft 4in (41cm).[15]Raichu is abipedalrodentwith long ears and feet but short arms. It has orange skin, a white belly, brown paws, and tan-colored soles on its feet. Itsbifurcatedears meanwhile are brown on the outside and yellow on the inside, and it has yellow cheek sacs.[14]Raichu was not originally intended to be based on mice, as the mouse PokémonRattataalready existed at this point in development, and instead the species was modeled aftersquirrels. Nishida stated in an interview that she was obsessed with squirrels at the time due to their "comical" movement, and had the idea to have Pikachu and Raichu store electricity in their cheeks similar to how squirrels store food. Pokémon creatorSatoshi Tajirihowever chose to change the species to be a type of mouse when he was designing the setting.[1]Raichu's name comes from the Japanese kanji "rai", meaning thunder, followed by "chū", which is theJapanese onomatopoeiafor a mouse's squeak.[14][16]
+During the development of sequel titlesPokémon SunandMoon, "Alolan form" variants of several existing Pokémon were introduced, meant to be tied thematically to the game's region, which was modeled afterHawaii.[17]According to game directorShigeru Ohmori, of all the regional forms introduced in the game, Raichu's was the hardest to create, as they felt the species was popular with fans of the franchise. A theme of it surfing on its tail was chosen due to the large amount of water surrounding the in-game region,[18]a concept they had previously explored with Raichu in another game,Pokémon Stadium.[19]Asked by Sugimori to design the form, Nishida felt that Raichu's original design was far cuter than people gave it credit for, and wanted to express this by giving Alolan Raichu "soft and fluffy" appearance. When Sugimori inquired about the finished design, Nishida explained that the "motif behind the design was bread", a statement that confused him as he didn't understand the correlation. The development team gave the species an affinity for pancakes to better tie it to its motif, as well as to "play up that cuteness".[20]It was given a secondary typing of Psychic, as well as a special ability called "Surge Surfer" that boosts its speed when it is in areas with an "Electric Terrain" attribute.[18]
+First found inPokémon RedandBlue, Raichu has appeared in mostPokémontitles since, including every major game.[21]InRedandBluea Raichu is used by the Gym Leader Lt. Surge, a Trainer that acts as abossthe player must defeat to proceed.[22]Typically, players must use a Thunder Stone item on a Pikachu to evolve it into Raichu.[10]However, the Pikachu obtained at the start ofPokémon YellowandPokémon Let's Go Pikachucannot evolve, and another Pikachu must be obtained and evolved into Raichu instead.[23]While the regular version was omitted from the gamesPokémon SunandMoon, its Alolan form can be obtained instead.[24]Both have appeared in the mobile gamePokémon Goand, in physical media, were in thePokémon Trading Card Game.[25][26][27]Outside of games, Raichu has appeared on several pieces of merchandise, including plush toys, figurines, and as promotional material with companies such asBurger King.[28][29]Several of these were released as part of Pikachu-related product lines, including clothing items,USBwall chargers, and specialized plush toys designed forclaw machines.[30][31][32]
+In the relatedanimeandmanga, Raichu appears as a repeated rival of protagonistAsh Ketchum's Pikachu. First appearing alongside Lt. Surge, Raichu quickly overpowers Pikachu, leaving Ash to consider evolving it. However, Pikachu rejects the Thunder Stone, and fights Raichu again. Using skills it acquired that Surge's Raichu lacked, due to the latter evolving too quickly, Pikachu defeats Raichu.[33]Another Raichu appears in the shortPikachu's Vacation, goading Pikachu into fighting it and racing across the island they are on.[34]In another episode, Pikachu comes into conflict with an Alolan Raichu, engaging in a race where they carry stacks of pancakes.[35]Later in the anime series, a female Raichu is owned by Ash's friend, Goh.[36]Raichu has been voiced by various actors, includingKei Shindō, Fumiko Takekuma, andCasey Mongillo.[3][4][5]
+Early reactions to the species were negative due to Pikachu's popularity as the series mascot, such asIGNin their "Pokémon of the Day Chick" series of articles arguing that Raichu was "loved by many and despised by more" andGamesRadar+editor Brett Elston adding that it was "easy to forget Raichu even exists".[37][10]A later retrospective of Pokémon fromRedandBluebyNintendo Life's spoke more favorably of the species, with Jon Cartwright describing them as a "step up" from Pikachu. Other staff of the website agreed, such as Alex Olney who called it "hugely underrated" and ranking it higher than Pikachu, while Zion Grassl felt it was unfair to players ofPokémon Yellowto be denied the ability to evolve their Pikachu into Raichu.[38]
+Kenneth Shepard ofKotakucriticizedThe Pokémon Company's handling of the species, stating that they would either use Raichu as a "punching bag" or end up not using them at all. He blamed it on Raichu's debut episode in thePokémonanime, feeling that while the episode by itself was good, it helped set the tone for how the species was perceived by the audience, with Pikachu being the superior of the two. Raichu's negative reception compounded in the Pokémon video games; while Pikachu would be given items or new forms available to it to improve its effectiveness, these were omitted from Raichu, giving players the underlying message that evolving Pikachu would be a disadvantage or, in some titles, prevent Pikachu from evolving at all.[21]In an article forFanbyte, Shepard further explained that Raichu, compared to other final evolution Pokémon such asCharizardorBlastoise, was treated with less recognition and added "it feels like Raichu can't get out from under its little brother's shadow, even as he towers over him".[39]
+Isaiah McCall ofTheGamerheld similar sentiments, stating "people worship the throne that Pikachu built, ignoring anything Raichu had to offer", and expressed his confusion at that reaction from fans. He argued that Raichu was simply a stronger counterpart to Pikachu and felt Raichu would have been far more popular if it evolved from any other Pokémon.[40]Evan Valentine ofComicBook.comargued that while Raichu was overshadowed by its "smaller, [...] cuter" counterpart, its existence and portrayal helped give better insight to Pikachu's character in the anime.[41]Screen Rant's Niki Fakhoori stated that despite The Pokémon Company's focus on Pikachu, Raichu was overall more effective in the franchise's competitive scene, needing less forced support and able to use a wider array of items. She further called it one of the franchise's "best designs", highlighting Raichu's "sleek" legs and "iconic" tail.[19]In a 2022 article, she expressed her belief that the franchise abandoned the species.[34]
+Other sources have read different meanings into Pikachu's rivalry with his evolved form, such as the bookLa Culture de l'Enfance à l'Heure de la Mondialisation, in which author Pierre Bruno compared it to the story ofDavid and Goliath.[42]In the bookJapanese Influence on American Children's Television, social sciences professor Gina O'Melia drew a comparison to Ash's idealized childlike state in Pikachu's refusal to evolve into Raichu and how this displayed that they drew power from their younger states respectively. The theme was something she felt was also a common trope in other anime media targeting children.[43]Journalist Nicole Hill, in an interview withKotaku, felt Pikachu's refusal to evolve resonated well with theLGBTQcommunity, acting as an example of self-expression and self-identity.[44]On characterization, Fakhoori felt the anime's repeated portrayal of Raichu as "an ill-natured Pokémon used by unkind Trainers" significantly damaged how the species was viewed by the public, especially in light of Pikachu being emphasized as "reasonable and heroic" when the two come into conflict.[34]
+Polygonwriter Allegra Frank noted that Raichu's Alolan form had proven popular with the fandom, some of which had made the connection between its design and pancakes particularly after its presentation in thePokémonanime.[35]Fakhoori appreciated how it maintained similar aspects to Raichu's original design, ranking Alolan Raichu as "one of the cutest alternate forms" across the Pokémon series, and added regardless of form, felt that it is "always shaped like a friend".[19]Shepard, on the other hand, voiced disdain. While he praised the fact Raichu had finally gotten some acknowledgement, he felt it was in part the company trying to shelve the original design. Despite praising the design on its own aspects, he felt the form came across as a reminder that "if Raichu is to get any spotlight" it would be "as a kind of canvas" for new ideas instead.[21]</t>
+  </si>
+  <si>
+    <t>内容缺乏主线，主要是对Raichu的介绍，属于碎片化/低质内容</t>
+  </si>
+  <si>
+    <t>Jefferson Davis</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-06 08:00:00</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251206000000/en</t>
+  </si>
+  <si>
+    <t>&lt;div class="mw-content-ltr mw-parser-output" dir="ltr" lang="en"&gt;&lt;div id="mp-tfa-img" style="float: left; margin: 0.5em 0.9em 0.4em 0em;"&gt;
+&lt;div class="thumbinner mp-thumb" style="background: transparent; color: inherit; border: none; padding: 0;"&gt;
+&lt;span&gt;&lt;a class="mw-file-description" href="/wiki/File:President-Jefferson-Davis.jpg" title="Jefferson Davis"&gt;&lt;img alt="Jefferson Davis" class="mw-file-element" height="158" src="//upload.wikimedia.org/wikipedia/commons/thumb/1/10/President-Jefferson-Davis.jpg/250px-President-Jefferson-Davis.jpg" width="124" /&gt;&lt;/a&gt;&lt;/span&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&lt;b&gt;&lt;a href="/wiki/Jefferson_Davis" title="Jefferson Davis"&gt;Jefferson Davis&lt;/a&gt;&lt;/b&gt; (June 3, 1808 – December 6, 1889) was the &lt;a href="/wiki/President_of_the_Confederate_States_of_America" title="President of the Confederate States of America"&gt;president of the Confederate States of America&lt;/a&gt; (CSA) from 1861 to 1865. He previously represented &lt;a href="/wiki/Mississippi" title="Mississippi"&gt;Mississippi&lt;/a&gt; in the &lt;a href="/wiki/United_States_Senate" title="United States Senate"&gt;United States Senate&lt;/a&gt; and &lt;a href="/wiki/United_States_House_of_Representatives" title="United States House of Representatives"&gt;House of Representatives&lt;/a&gt; as a &lt;a href="/wiki/Democratic_Party_(United_States)" title="Democratic Party (United States)"&gt;Democrat&lt;/a&gt;, and was the &lt;a href="/wiki/United_States_Secretary_of_War" title="United States Secretary of War"&gt;U.S. secretary of war&lt;/a&gt; from 1853 to 1857. A graduate of &lt;a href="/wiki/United_States_Military_Academy" title="United States Military Academy"&gt;West Point&lt;/a&gt;, Davis served in the &lt;a href="/wiki/United_States_Army" title="United States Army"&gt;U.S. Army&lt;/a&gt;, fighting in the &lt;a href="/wiki/Mexican%E2%80%93American_War" title="Mexican–American War"&gt;Mexican–American War&lt;/a&gt;. He was a cotton &lt;a href="/wiki/Planter_class" title="Planter class"&gt;planter&lt;/a&gt; and owned as many as 113 slaves. During the &lt;a href="/wiki/American_Civil_War" title="American Civil War"&gt;Civil War&lt;/a&gt;, Davis served as commander in chief. When the CSA was defeated in 1865, he was captured, accused of involvement in the &lt;a href="/wiki/Assassination_of_Abraham_Lincoln" title="Assassination of Abraham Lincoln"&gt;assassination of Abraham Lincoln&lt;/a&gt; and of &lt;a href="/wiki/Treason#United_States" title="Treason"&gt;treason&lt;/a&gt;, and imprisoned at &lt;a href="/wiki/Fort_Monroe" title="Fort Monroe"&gt;Fort Monroe&lt;/a&gt;. He was released without trial after two years. Immediately after the war, Davis was often blamed for the CSA's defeat but, after his release from prison, the &lt;a href="/wiki/Lost_Cause_of_the_Confederacy" title="Lost Cause of the Confederacy"&gt;Lost Cause&lt;/a&gt; movement deemed him a hero, and he was celebrated in the South. In the 21st century, however, he has been viewed more harshly, and many &lt;a href="/wiki/List_of_memorials_to_Jefferson_Davis" title="List of memorials to Jefferson Davis"&gt;memorials to him&lt;/a&gt; have &lt;a href="/wiki/Removal_of_Confederate_monuments_and_memorials" title="Removal of Confederate monuments and memorials"&gt;been removed&lt;/a&gt;. &lt;i&gt;(&lt;b&gt;&lt;a href="/wiki/Jefferson_Davis" title="Jefferson Davis"&gt;Full article...&lt;/a&gt;&lt;/b&gt;)&lt;/i&gt;
+&lt;/p&gt;
+&lt;div class="tfa-recent" style="text-align: right;"&gt;
+Recently featured: &lt;div class="hlist inline"&gt;
+&lt;ul&gt;&lt;li&gt;&lt;a href="/wiki/Raichu" title="Raichu"&gt;Raichu&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="/wiki/Flag_of_Hong_Kong" title="Flag of Hong Kong"&gt;Flag of Hong Kong&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;i&gt;&lt;a href="/wiki/Ovalipes_catharus" title="Ovalipes catharus"&gt;Ovalipes catharus&lt;/a&gt;&lt;/i&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/div&gt;&lt;/div&gt;
+&lt;div class="hlist tfa-footer noprint" style="text-align: right;"&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:Today%27s_featured_article/December_2025" title="Wikipedia:Today's featured article/December 2025"&gt;Archive&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a class="extiw" href="https://lists.wikimedia.org/postorius/lists/daily-article-l.lists.wikimedia.org/" title="mail:daily-article-l"&gt;By email&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a class="mw-redirect" href="/wiki/Wikipedia:Featured_articles_(linked_from_TFAfooter)" title="Wikipedia:Featured articles (linked from TFAfooter)"&gt;More featured articles&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a href="/wiki/Wikipedia:About_Today%27s_featured_article" title="Wikipedia:About Today's featured article"&gt;About&lt;/a&gt;&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Jefferson F. Davis(June 3, 1808 – December 6, 1889) was the onlypresident of the Confederate Statesfrom 1861 to 1865. He representedMississippiin theUnited States Senateand theHouse of Representativesas a member of theDemocratic Partybefore theAmerican Civil War. He was theUnited States secretary of warfrom 1853 to 1857.
+Davis, the youngest of ten children, was born inFairview, Kentucky, but spent most of his childhood inWilkinson County, Mississippi. His eldest brother,Joseph Emory Davis, secured the younger Davis's appointment to theUnited States Military Academy. Upon graduating, he served six years as a lieutenant in theUnited States Army.
+After leaving the army in 1835, Davis marriedSarah Knox Taylor, daughter of future presidentZachary Taylor. Sarah died frommalariathree months after the wedding. Davis became a cottonplanter, buildingBrierfield Plantationin Mississippi on his brother Joseph's land and eventually owning as many as 113slaves. In 1845, Davis marriedVarina Howell. During the same year, he was elected to the United States House of Representatives, serving for one year. From 1846 to 1847, he fought in theMexican–American Waras the colonel of a volunteer regiment. He was appointed to the United States Senate in 1847, resigning to unsuccessfully run for governor of Mississippi. In 1853, PresidentFranklin Pierceappointed him Secretary of War. After Pierce's administration ended in 1857, Davis returned to the Senate. He resigned in 1861 when Mississippisecededfrom the United States.
+During the Civil War, Davis guided theConfederacy's policies and served as its commander in chief. When the Confederacy was defeated in 1865, Davis was captured, arrested for alleged complicity in theassassination of Abraham Lincoln, accused oftreason, and imprisoned atFort Monroe. He was released without trial after two years. Immediately after the war, Davis was often blamed for the Confederacy's defeat, but after his release from prison, theLost Cause of the Confederacymovement considered him to be a hero. In the late 19th and the 20th centuries, his legacy as a Confederate leader was celebrated inthe South. In the 21st century, his leadership of the Confederacy has been seen as constituting treason, and he has been frequently criticized as a supporter of slavery and racism. Many ofthe memorials dedicated to himthroughout the United Stateshave been removed.
+Jefferson F.[a]Davis was the youngest of ten children of Jane and Samuel Emory Davis.[2]Samuel Davis's father, Evan, who had aWelshbackground, came to thecolony of Georgiafrom Philadelphia.[3][b]Samuel served in theContinental Armyduring theAmerican Revolutionary War, and received a land grant for his service near present-dayWashington, Georgia.[4]He married Jane Cook, a woman ofScotch-Irishdescent whom he had met inSouth Carolinaduring his military service, in 1783.[5]Around 1793, Samuel and Jane moved to Kentucky.[6]Jefferson was born on June 3, 1808,[c]at the family homestead in Davisburg, a village Samuel had established that later becameFairview, Kentucky.[9]He was named after then-PresidentThomas Jefferson.[10]
+In 1811, the Davis family moved to the vicinity ofBayou Teche, inAttakapas County, Orleans Territory, nowSt. Mary Parish, Louisiana.[11]Less than a year later, they moved to a farm nearWoodville, inWilkinson County,Mississippi Territory, where Samuelcultivated cotton, acquired twelve slaves,[12]and built a house that Jane calledRosemont.[13]During theWar of 1812, three of Davis's brothers served in the military.[14]When Davis was around five, he began attending a rudimentary schoolhouse near Woodville.[15]When he was about eight, his father sent him and his relatives to attendSaint Thomas College, a Catholic preparatory school run byDominicansnearSpringfield, Kentucky.[16]They were escorted on their journey northeast on theNatchez Traceby planter and Mississippi militia officerThomas Hinds.[17]In 1818, Davis returned to Mississippi, where as a 10-year-old he briefly studied atJefferson CollegeinWashington. He then attended theWilkinson Academynear Woodville for five years.[18]In 1823, Davis attendedTransylvania UniversityinLexington, Kentucky.[19]While he was still in college in 1824, he learned that his father Samuel had died. Before his death, Samuel had fallen into debt and sold Rosemont and most of his slaves to his eldest sonJoseph Emory Davis, who already owned a large estate inDavis Bend, Mississippi, about 15 miles (24 km) south ofVicksburg, Mississippi.[20]Joseph, who was 23 years older than Jefferson,[21]informally became his surrogate father.[22]
+His older brother Joseph got Davis appointed to theUnited States Military Academyat West Point in 1824, where he became friends with classmatesAlbert Sidney JohnstonandLeonidas Polk.[23]Davis frequently challenged the academy's discipline.[24]In his first year, he wascourt-martialedfor drinking at the nearby tavern ofBenny Havens. He was found guilty but was pardoned.[25]The following year, he was placed under house arrest for his role in theeggnog riotduring Christmas 1826 but was not dismissed.[26]He graduated 23rd in a class of 33.[27]
+Second Lieutenant Davis was assigned to the1st Infantry Regiment. He was accompanied by his personal servant James Pemberton, an enslavedAfrican Americanwhom he inherited from his father.[28]In early 1829, he was stationed at FortsCrawfordandWinnebagoinMichigan Territoryunder the command of ColonelZachary Taylor,[29]who later becamepresident of the United States.
+Throughout his life, Davis regularly suffered from ill health.[30]During the northern winters, he hadpneumonia, colds, andbronchitis.[31]He went to Mississippi on furlough in March 1832, missing the outbreak of theBlack Hawk War, and returned to duty just before theBattle of Bad Axe, which ended the war.[32]WhenBlack Hawkwas captured, Davis escorted him for detention in St. Louis.[33]Black Hawk stated that Davis treated him with kindness.[34]
+After Davis's return to Fort Crawford in January 1833, he and Taylor's daughter,Sarah, became romantically involved. Davis asked Taylor if he could marry Sarah, but Taylor refused.[35]In spring, Taylor had him assigned to theUnited States Regiment of Dragoonsunder ColonelHenry Dodge. He was promoted to first lieutenant and deployed atFort GibsoninArkansas Territory.[36]In February 1835, Davis was court-martialed for insubordination.[37]He was acquitted. He requested a furlough,  and immediately after it ended, he tendered his resignation, which was effective on June 30.[38]
+Davis decided to become a cottonplanter.[39]He returned to Mississippi where his brother Joseph had developed Davis Bend intoHurricane Plantation, which eventually had 1,700 acres (690 ha) of cultivated fields with over 300 slaves.[40]Joseph loaned him funds to buy ten slaves and provided him with 800 acres (320 ha), though Joseph retained the title to the property. Davis named his sectionBrierfield Plantation.[41]
+Davis continued his correspondence with Sarah,[42]and they agreed to marry with Taylor giving his reluctant assent.[43]They married atBeechlandon June 17, 1835.[44]In August, he and Sarah traveled toLocust Grove Plantation, his sister Anna Smith's home inWest Feliciana Parish, Louisiana. Within days, both became severely ill withmalaria. Sarah died at the age of 21 on September 15, 1835, after only three months of marriage.[45]
+For several years after Sarah's death, Davis spent much of his time developing Brierfield. In 1836, he possessed 23 slaves;[46]by 1840, he possessed 40;[47]and by 1860, 113.[48]He made his first slave, James Pemberton, Brierfield's effective overseer,[49]a position Pemberton held until his death around 1850.[48]Davis continued his intellectual development by reading about politics, law and economics at the large library Joseph and his wife,Eliza, maintained at Hurricane Plantation.[50]Around this time, Davis became increasingly engaged in politics, benefiting from his brother's mentorship[51]and political influence.[52]
+Davis became publicly involved in politics in 1840 when he attended aDemocratic Partymeeting in Vicksburg and served as a delegate to the party's state convention inJackson; he served again in 1842.[53]One week before the state election in November 1843, he was chosen to be the Democratic candidate for theMississippi House of RepresentativesforWarren Countywhen the original candidate withdrew his nomination, though Davis lost the election.[54]
+In early 1844, Davis was chosen to serve as a delegate to the state convention again. On his way to Jackson, he metVarina Banks Howell, the 18-year-old daughter of William Burr Howell andMargaret Kempe Howell, when he delivered an invitation from Joseph for her to visit the Hurricane Plantation for the Christmas season.[55]At the convention, Davis was selected as one of Mississippi's sixpresidential electorsfor the1844 presidential election.[56]
+Within a month of their meeting, 35-year-old Davis and Varina became engaged despite her parents' initial concerns about his age and politics.[57]During the remainder of the year, Davis campaigned for the Democratic Party, advocating for the nomination ofJohn C. Calhoun. He preferred Calhoun because he championed Southern interests including theannexation of Texas, reduction of tariffs, and building naval defenses in southern ports.[58]When the party choseJames K. Polkfor their presidential candidate, Davis campaigned for him.[59]
+Davis and Varina married on February 26, 1845.[60]They had six children: Samuel Emory, born in 1852, who died of an undiagnosed disease two years later;[61]Margaret Howell, born in 1855, who married, raised a family and lived to be 54;[62]Jefferson Davis Jr., born in 1857, who died ofyellow feverat age 21;[63]Joseph Evan, born 1859, who died from an accidental fall at age five;[64]William Howell, born 1861, who died ofdiphtheriaat age 10;[65]andVarina Anne, born 1864, who remained single and lived to be 34.[66]
+In July 1845, Davis became a candidate for theUnited States House of Representatives.[67]He ran on a platform emphasizing astrict constructionistview of the constitution,states' rights, tariff reductions, and opposition to anational bank. He won the election and entered the29th Congress.[68]Davis opposed using federal monies for internal improvements, which he believed would undermine the autonomy of the states.[69]He supported the American annexation ofOregon, but through peaceful compromise withBritain.[70]On May 11, 1846, hevotedforwar with Mexico.[71]
+At the beginning of theMexican–American War, Mississippi raised avolunteerunit, theFirst Mississippi Regiment, for the U.S. Army.[71]Davis expressed his interest in joining the regiment if he was elected its colonel, and in the second round of elections in June 1846 he was chosen.[72]He did not give up his position as a U.S. Representative, but left a letter of resignation with his brother Joseph to submit when he thought it was appropriate.[73]
+Davis was able to get his regiment armed with newpercussion riflesinstead of thesmoothboremuskets used by other units.President Polkapproved their purchase as a political favor in return for Davis marshalling enough votes to pass theWalker Tariff.[74]Because of its association with the regiment, the weapon became known as the "Mississippi rifle",[75]and the regiment became known as the "Mississippi Rifles".[76]
+Davis's regiment was assigned to the army of his former father-in-law, Zachary Taylor, in northeastern Mexico. Davis distinguished himself at theBattle of Monterreyin September by leading a charge that took the fort of La Teneria.[77]He then went on a two-month leave and returned to Mississippi, where he learned that Joseph had submitted Davis's resignation from the House of Representatives in October.[78]Davis returned to Mexico and fought in theBattle of Buena Vistaon February 22, 1847. He was wounded in the heel during the fighting,[79]but his actions stopped an attack by the Mexican forces that threatened to collapse the American line.[80]In May, Polk offered him a federal commission as abrigadier general. Davis declined the appointment, arguing he could not directly command militia units because theU.S. Constitutiongives the power ofappointing militia officersto the states, not the federal government.[81]Instead, he accepted an appointment by Mississippi governorAlbert G. Brownto fill a vacancy in the U.S. Senate[82]left whenJesse Speightdied.[83]
+Davis took his seat in December 1847 and was made a regent of theSmithsonian Institution.[84]TheMississippi Legislatureconfirmed his appointment as senator in January 1848.[85]He quickly established himself as an advocate ofexpanding slaveryinto theWestern territories. He argued that because the territories were the common property of all the United States and lacked state sovereignty to ban slavery, slave owners had the equal right to settle them as any other citizens.[86]Davis tried to amend theOregon Billto allow settlers to bring their slaves intoOregon Territory.[87]He opposed ratifying theTreaty of Guadalupe Hidalgo, which ended the Mexican–American War, claiming thatNicholas Trist, who negotiated the treaty, had done so as a private citizen and not a government representative.[88]Instead, he advocated negotiating a new treaty ceding additional land to the United States,[89]and opposed the application of theWilmot Provisoto the treaty,[90]which would have banned slavery in any territory acquired from Mexico.[91]
+During the 1848 presidential election, Davis chose not to campaign against Zachary Taylor, who was theWhig candidate. After the Senate session following Taylor's inauguration ended in March 1849, Davis returned toBrierfield Plantation.[92]He was reelected by the state legislature for another six-year term in the Senate. Around this time, he was approached by the Venezuelan adventurerNarciso Lópezto lead afilibusterexpedition to liberate Cuba from Spain. He turned down the offer, saying it was inconsistent with his duty as a senator.[93]
+When Calhoun died in the spring of 1850, Davis became the senatorial spokesperson for the South.[94]The Congress debatedHenry Clay's resolutions, which sought to address the sectional and territorial problems of the nation[95]and became the basis for theCompromise of 1850.[96]Davis was against the resolutions because he felt they would put the South at a political disadvantage.[97]He opposed theadmission of Californiaas a free state without its first becoming a territory, asserting that a territorial government would give slaveowners the opportunity to colonize the region. He also tried to extend theMissouri Compromise Lineto allow slavery to expand to the Pacific Ocean.[98]He stated that not allowing slavery into the new territories denied the political equality of Southerners,[99]and threatened to undermine the balance of power between Northern and Southern states in the Senate.[100]
+In the autumn of 1851, Davis was nominated to run for governor of Mississippi againstHenry Stuart Foote, who had favored the Compromise of 1850. He accepted the nomination and resigned from the Senate, but Footewon the electionby a slim margin. Davis turned down a reappointment to his Senate seat by outgoing GovernorJames Whitfield,[101]settling in Brierfield for the next fifteen months.[102]He remained politically active, attending the Democratic convention in January 1852 and campaigning for Democratic candidatesFranklin PierceandWilliam R. Kingduring thepresidential election of 1852.[103]
+In March 1853, President Franklin Pierce named Davis hisSecretary of War.[104]He championed atranscontinental railroadto the Pacific Ocean, arguing it was needed for national defense,[105]and was entrusted with overseeing thePacific Railroad Surveysto determine which of four possible routes was the best.[106]He promoted theGadsden Purchaseof today's southernArizonafrom Mexico, partly because he preferred a southern route for the new railroad. ThePierce administrationagreed and the land was purchased in December 1853.[107]He presented the surveys' findings in 1855, but they failed to clarify the best route and sectional problems prevented any choice being made.[108]Davis also argued for the acquisition ofCubafromSpain, seeing it as an opportunity to add the island, a strategic military location and potential slave state.[109]He suggested that the size of the regular army was too small and that its salaries were too meagre. Congress agreed and authorized four new regiments and increased its pay scale.[110]He ended the manufacture of smoothbore muskets and shifted production to rifles, working to develop the tactics that accompany them.[111]He oversaw the building of public works in Washington D.C., including the initial construction of theWashington Aqueduct.[112]
+Davis assisted in the passage of theKansas-Nebraska Actin 1854 by allowing President Pierce to endorse it before it came up for a vote.[113]This bill, which createdKansasandNebraskaterritories, repealed theMissouri Compromise's limits on slavery and left the decision about a territory's slaveholding status topopular sovereignty, which allowed the territory's residents to decide.[114]The passage of this bill led to the demise of the Whig party, which had tried to limit expansion of slavery in the territories. It also contributed to the rise of theRepublican Partyand the increase ofcivil violence in Kansas.[115]
+The Democratic nomination for the 1856 presidential election went toJames Buchanan.[116]Knowing his term was over when the Pierce administration ended in 1857, Davis ran for the Senate once more and re-entered it on March 4, 1857.[117]In the same month, theUnited States Supreme Courtdecided theDred Scott case, which ruled that slavery could not be barred from any territory.[118]
+The Senate recessed in March and did not reconvene until November 1857.[119]The session opened with a debate on theLecompton Constitutionsubmitted by a convention in Kansas Territory. If approved, it would have allowed Kansas to be admitted as a slave state. Davis supported it, but it was not accepted, in part because the leading Democrat in the North,Stephen Douglas, argued it did not represent the true will of the settlers in the territory.[120]The controversy undermined the alliance between Northern and Southern Democrats.[121]
+Davis's participation in the Senate was interrupted in early 1858 by a recurring case ofiritis, which threatened the loss of his left eye.[122]It left him bedridden for seven weeks.[123]He spent the summer of 1858 inPortland, Mainerecovering, and gave speeches inMaine,Boston, and New York, emphasizing the common heritage of all Americans and the importance of the constitution for defining the nation.[124]His speeches angered some states' rights supporters in the South, requiring him to clarify his comments when he returned to Mississippi. Davis said that he appreciated the benefits of Union, but acknowledged that it could be dissolved if states' rights were violated or one section of the country imposed its will on another.[125]Speaking to the Mississippi Legislature on November 16, 1858, Davis stated "if anAbolitionistbe chosen President of the United States... I should deem it your duty to provide for your safety outside of a Union with those who have already shown the will...to deprive you of your birthright and to reduce you to worse than the colonial dependence of your fathers."[126]
+In February 1860, Davis presented a series of resolutions defining the relationship between the states under the constitution, including the assertion that Americans had a constitutional right to bring slaves into territories.[127]These resolutions were seen as setting the agenda for the Democratic Party nomination,[128]ensuring that Douglas's idea of popular sovereignty, known as theFreeport Doctrine, would be excluded from the party platform.[129]The Democratic party split—Douglas was nominated by the North and Vice PresidentJohn C. Breckinridgewas nominated by the South[130]—and the Republican Party nomineeAbraham Lincolnwon the1860 presidential election.[131]Davis counselled moderation after the election,[132]but South Carolina adopted an ordinance of secession on December 20, 1860. Mississippi seceded on January 9, 1861, though Davis stayed in Washington until he received official notification on January 21.[133]Calling it "the saddest day of my life",[10]he delivered a farewell address,[134]resigned from the Senate, and returned to Mississippi.[135]
+Before his resignation, Davis had sent a telegram to Mississippi GovernorJohn J. Pettusinforming him that he was available to serve the state. On January 27, 1861, Pettus appointed him a major general of Mississippi's army.[136]On February 9,[137]Davis was unanimously elected to the provisional presidency of the Confederacy by a constitutional convention inMontgomery, Alabama[138]including delegates from the six states that had seceded: South Carolina, Mississippi,Florida,Georgia,Louisiana, andAlabama.[139]He was chosen because of his political prominence,[140]his military reputation,[141]and his moderate approach to secession,[140]which Confederate leaders thought might persuade undecided Southerners to support their cause.[142]He learned about his election the next day.[138]Davis had been hoping for a military command,[143]but he committed himself fully to his new role.[144]Davis was inaugurated on February 18.[145]
+Davis formed hiscabinetby choosing a member from each of the states of the Confederacy, including Texas which had recently seceded:[146]Robert Toombsof Georgia for Secretary of State,Christopher Memmingerof South Carolina for Secretary of the Treasury,LeRoy Walkerof Alabama for Secretary of War,John Reaganof Texas for Postmaster General,Judah P. Benjaminof Louisiana for Attorney General, andStephen Malloryof Florida for Secretary of the Navy. Davis stood in for Mississippi. During his presidency, Davis's cabinet often changed; there were fourteen different appointees for the positions, including six secretaries of war.[147]OnNovember 6, 1861, Davis was elected president for a six-year term. He took office on February 22, 1862.
+As the Southern states seceded, state authorities took over most federal facilities without bloodshed. But four forts, includingFort SumterinCharleston, South Carolina, had not surrendered. Davis preferred to avoid a crisis because the Confederacy needed time to organize its resources.[148]To ensure that no attack on Fort Sumter was launched without his command, Davis had appointed Brigadier GeneralP. G. T. Beauregardto command allConfederate troopsin the vicinity of Charleston, South Carolina.[149]Davis sent a commission to Washington to negotiate the evacuation of the forts, but President of the United States Lincoln refused to meet with it.[150]
+When Lincoln informed Davis that he intended to reprovision Fort Sumter, Davis convened with theConfederate Congresson April 8 and gave orders to demand the immediate surrender of the fort or to reduce it. The commander of the fort, MajorRobert Anderson, refused to surrender, and Beauregard began theattack on Fort Sumterearly on April 12.[151]After over thirty hours of bombardment, the fort surrendered.[152]When Lincolncalled for 75,000 militiamen to suppress the rebellion, four more states—Virginia,North Carolina,Tennessee, andArkansas—joined the Confederacy. TheCivil Warhad begun.[153]
+In addition to being the constitutionalcommander-in-chiefof the Confederacy, Davis was operational military leader as themilitary departmentsreported directly to him.[155]He left the directing of the fighting tohis generals, some of whom, includingJoseph E. Johnstonand Leonidas Polk, had thought he would do it himself.[156]
+Major fighting inthe Eastbegan when a Union army advanced into northern Virginia in July 1861.[157]It was defeated atManassasby two Confederate forces commanded by Beauregard and Joseph Johnston.[158]After the battle, Davis had to manage disputes with the two generals, both of whom felt they did not get the recognition they deserved.[159]
+Inthe West, Davis had to address a problem caused by another general.Kentucky, which was leaning toward the Confederacy, had declared its neutrality. In September 1861, Polk violated the state's neutrality by occupyingColumbus, Kentucky.[160]Secretary of War Walker ordered him to withdraw. Davis initially agreed with Walker, but changed his mind and allowed Polk to remain.[161]The violation led Kentucky to request aid from the Union, effectively losing the state for the Confederacy.[162]Walker resigned as secretary of war and was replaced by Judah P. Benjamin.[163]Davis appointed General Albert Sidney Johnston, as commander of the Western Military Department, which included much ofTennessee, Kentucky, westernMississippi, andArkansas.[164]
+In February 1862, the Confederate defenses in the West collapsed when Union forces captured FortsHenryandDonelson, and nearly half the troops in A. S. Johnston's department. Within weeks, Kentucky,NashvilleandMemphiswere lost,[165]as well as control of theTennesseeandCumberlandRivers.[166]The commanders responsible for the defeat were Brigadier GeneralsGideon PillowandJohn B. Floyd,political generalsthat Davis had been required to appoint.[167]Davis gathered troops defending theGulf Coastand concentrated them with A. S. Johnston's remaining forces.[168]Davis favored using this concentration in an offensive.[169]Johnstonattacked the Union forcesatShilohin southwestern Tennessee on April 6. The attack failed, and Johnston was killed.[170]General Beauregard took command, falling back toCorinth, Mississippi, and then toTupelo, Mississippi.[171]When Beauregard then put himself on leave, Davis replaced him with GeneralBraxton Bragg.[172]
+On February 22, Davis was inaugurated as president. In his inaugural address,[173]he admitted that the South had suffered disasters, but called on the people of the Confederacy to renew their commitment.[174]He replaced Secretary of War Benjamin, who had been scapegoated for the defeats, withGeorge W. Randolph. Davis kept Benjamin in the cabinet, making himsecretary of stateto replace Hunter, who had stepped down.[175]In March, Davis vetoed a bill to create a commander in chief for the army, but he selected GeneralRobert E. Leeto be his military advisor.[176]They formed a close relationship,[177]and Davis relied on Lee for counsel until the end of the war.[178]
+In March, Union troops in the East began an amphibious attack on theVirginia Peninsula, 75 miles from the Confederate capital ofRichmond.[179]Davis and Lee wanted Joseph Johnston, who commanded the Confederate army near Richmond, to make a stand atYorktown.[180]Instead, Johnston withdrew from the peninsula without informing Davis.[181]Davis reminded Johnston that it was his duty to not let Richmond fall.[182]On May 31, 1862, Johnston engaged the Union army less than ten miles from Richmond at theBattle of Seven Pines, where he was wounded.[183]Davis put Lee in command. Lee began theSeven Days Battlesless than a month later, pushing the Union forces back down the peninsula[184]and eventually forcing them to withdraw from Virginia.[185]Lee beat back another army moving into Virginia at theBattle of Second Manassasin August 1862. Knowing Davis desired an offensive into the North, Lee invadedMaryland,[186]but retreated back to Virginia after a bloodystalemate at Antietamin September.[187]In December, Lee stopped another invasion of Virginia at theBattle of Fredericksburg.[188]
+In the West, Bragg shifted most of his available forces from Tupelo to Chattanooga in July 1862 for an offensive toward Kentucky.[189]Davis approved, suggesting that an attack could win Kentucky for the Confederacy and regain Tennessee,[190]but he did not create a unified command.[191]He formed a new department independent of Bragg under Major GeneralEdmund Kirby SmithatKnoxville, Tennessee.[192]In August, both Bragg and Smith invaded Kentucky.Frankfortwas briefly captured and a Confederate governor was inaugurated, but the attack collapsed, in part due to lack of coordination between the two generals. After a stalemate at theBattle of Perryville,[193]Bragg and Smith retreated to Tennessee. In December, Bragg was defeated at theBattle of Stones River.[194]
+In response to the defeat and the lack of coordination, Davis reorganized the command in the West in November, combining the armies in Tennessee and Vicksburg into a department under the overall command of Joseph Johnston.[195]Davis expected Johnston to relieve Bragg of his command, but Johnston refused.[196]During this time, Secretary of War Randolph resigned because he felt Davis refused to give him the autonomy to do his job; Davis replaced him withJames Seddon.[197]
+In the winter of 1862, Davis decided to join theEpiscopal Church. In May 1863, he wasconfirmedatSt. Paul's Episcopal Churchin Richmond.[198]
+On January 1, Lincoln issued theEmancipation Proclamation. Davis saw this as attempt to destroy the South by inciting its enslaved people to revolt,[199]declaring the proclamation "the most execrable measure recorded in the history of guilty man".[200]He requested a law that Union officers captured in Confederate states be delivered to state authorities and put on trial for inciting slave rebellion.[201]In response, the Congress passed a law that Union officers ofUnited States Colored Troopscould be tried and executed, though none were during the war. The law also stated that captured black soldiers would be turned over to the states they were captured in to be dealt with as the state saw fit.[202]
+In May, Lee broke up another invasion of Virginia at theBattle of Chancellorsville,[203]and countered with an invasion intoPennsylvania. Davis approved, thinking that a victory in Union territory could gain recognition of Confederate independence,[204]but Lee's army was defeated at theBattle of Gettysburgin July.[205]After retreating to Virginia, Lee blocked any major Union offensives into the state.[206]
+In April, Union forces resumed their attack on Vicksburg.[207]Davis concentrated troops from across the south to counter the move,[208]but Joseph Johnston did not stop the Union forces.[209]Lieutenant GeneralJohn C. Pembertonwithdrew his army into Vicksburg, and aftera siege, surrendered on July 4. The loss of Vicksburg andPort Hudson, Louisiana, led to Union control of the Mississippi. Davis relieved Johnston of his department command.[210]During this time, Brierfield was occupied; Davis's slaves gained their freedom, and almost all of his property was confiscated or destroyed.[211]
+In the summer, Bragg's army was maneuvered out ofChattanoogaand fell back toGeorgia.[212]In September, Bragg defeated the Union army at theBattle of Chickamauga, driving it back to Chattanooga, which he put under siege.[213]Davis visited Bragg to address leadership problems in his army. Davis acknowledged that Bragg did not have the confidence of his subordinates but kept him in command.[214]In mid-November, the Union army counterattacked and Bragg's forces retreated to northern Georgia.[215]Bragg resigned his command; Davis replaced him with Joseph Johnston[216]but retained Bragg as an informal chief of staff.[217]Davis had to address faltering civilian morale. In early spring, there wereriotsin Confederate cities as people began to suffer food shortages and price inflation.[218]During one riot in Richmond, the mayor of Richmond called the militia when a mob protesting food shortages broke into shops. Davis went to the scene and addressed the protesters, reminding them of their patriotic duty and promising them that he would get food. He then ordered them to disperse or he would command the soldiers to open fire; they dispersed.[219]In October, Davis went on a month-long journey to rally the Confederacy, giving public speeches across the south and meeting with civic and military leaders.[220]
+In his address to the Second Confederate Congress on May 2, 1864,[221]Davis outlined his strategy of achieving Confederate independence by exhausting the Union will to fight:[222]If the South could show it could not be subjugated, the North would elect a president who would make peace.[223]
+In early 1864, Davis encouraged Joseph E. Johnston to take action in Tennessee, but Johnston refused.[224]In May, the Union armies advanced toward Johnston's army, which repeatedly retreated towardAtlanta, Georgia. In July, Davis replaced Johnston with GeneralJohn B. Hood,[225]who immediately engaged the Union forces in a series ofbattles around Atlanta. The battles did not stop the Union army and Hood abandoned the city on Septemb</t>
+  </si>
+  <si>
+    <t>纯粹的历史资料，缺乏深度分析或独特视角</t>
+  </si>
+  <si>
+    <t>Google fellow: AI doesn’t pretend to be intelligent. It is.</t>
+  </si>
+  <si>
+    <t>2025-12-05 23:30:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/books/blaise-aguera-y-arcas/</t>
+  </si>
+  <si>
+    <t>2025-12-07 09:53:14</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/06/ai-child-copy.jpg?w=640" /&gt;&lt;p&gt;Much of the ongoing discourse surrounding AI can largely be divided along two lines of thought. One concerns practical matters: How will large language models (LLMs) affect the job market? How do we stop bad actors from using LLMs to generate misinformation? How do we mitigate risks related to surveillance, cybersecurity, privacy, copyright, and the environment?&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The other is far more theoretical: Are technological constructs capable of feelings or experiences? Will machine learning usher in the singularity, the hypothetical point where progress will accelerate at unimaginable speed? Can AI be considered intelligent in the same way people are?&lt;/p&gt;
+&lt;p&gt;The answers to many of these questions may hinge on that last one, and if you ask Blaise Agüera y Arcas, he replies with a resounding yes.&lt;/p&gt;
+&lt;p&gt;Agüera y Arcas is the CTO of Technology &amp;amp; Society at Google and founder of the company’s interdisciplinary Paradigms of Intelligence team, which researches the “&lt;a href="https://github.com/paradigms-of-intelligence" rel="noreferrer noopener" target="_blank"&gt;fundamental building blocks&lt;/a&gt;” of sentience. His new book — fittingly titled &lt;a href="https://mitpress.mit.edu/9780262049955/what-is-intelligence/" rel="noreferrer noopener" target="_blank"&gt;&lt;em&gt;What is Intelligence?&lt;/em&gt;&lt;/a&gt; — makes the bold but thought-provoking claim that LLMs such as Gemini, Claude, and ChatGPT don’t simply resemble human brains; they operate in ways that are functionally indistinguishable from them. Operating on the premise that intelligence is, in essence, prediction-based computation, he contends that AI is not a disruption or aberration, but a continuation of an evolutionary process that stretches from the first single-celled life forms to 21st-century humans.&lt;/p&gt;
+&lt;p&gt;Big Think recently spoke with Agüera y Arcas about the challenges of writing critically about AI for a general audience, how attitudes in Silicon Valley changed over the course of his career, and why the old approach to machine learning was bound for a dystopian future.&lt;/p&gt;
+&lt;figure class="wp-block-embed is-type-rich is-provider-amazon wp-block-embed-amazon"&gt;
+&lt;div class="wp-block-embed__wrapper"&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; Science writing often relies on metaphors, but metaphors can be a double-edged sword. By explaining the familiar through the unfamiliar, writers can sometimes overlook meaningful differences. What’s your take?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Agüera y Arcas:&lt;/strong&gt; I try to minimize them partly because of the issue that you&amp;#8217;re alluding to. They can lead to wrong assumptions.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;When I say things like “the brain is a computer” or “life is computational,” some people interpret that as metaphorical — the same way we used to talk about the brain as an engine or as a telephone switching station. I don&amp;#8217;t mean it metaphorically. I mean it literally.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; In your introduction, you refer to two groups of readers: the veteran researcher with little patience for pop-sci, and the casual passerby with little specialized knowledge. How do you keep your writing engaging and accessible to both?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Agüera y Arcas:&lt;/strong&gt; This was by far the biggest challenge I faced writing this book. I tried to be minimal in what needed to be brought in. For example, I needed to explain some things about thermodynamics, and I thought really hard about how to do that in a way that wasn’t superficial but also not boring to somebody who already knows about it. In many cases, I tried adding a twist that would give experts a new perspective on a familiar problem.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; AI means different things to different professions. As a writer and researcher, does your personal attitude toward AI — your expectations, hopes, concerns — change depending on which hat you&amp;#8217;re wearing?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Agüera y Arcas:&lt;/strong&gt; My perspective about many things, AI included, changes depending on how far I zoom in. When I look at what’s happening day by day, it&amp;#8217;s discouraging. It&amp;#8217;s easy to get worked up about the things you see in the news, some of which are grim.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;But when you zoom out and take a historical perspective on what people&amp;#8217;s lives were like in 1900, for example, it&amp;#8217;s hard not to see extraordinary positive trends — even if there have been many bumps along the way. I try to spend a healthy amount of time zoomed out, not only because it&amp;#8217;s a more cheerful place to be, but also because history is accelerating. These days, zoomed out is not even that zoomed out anymore.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; Your career has spanned several cycles of AI optimism, stagnation, and breakthroughs. What kind of discoveries or personal experiences led you to arrive at the “against the grain” premise of your book?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Agüera y Arcas:&lt;/strong&gt; I would like to say that I&amp;#8217;ve been wise all along and, in my wisdom, steered the middle course while everybody else oscillates [between] AI optimism or extreme AI pessimism. Of course, my own mind has changed quite a lot over the years.&lt;/p&gt;
+&lt;p&gt;There were big thinkers involved in the early days of the internet and personal computing who truly believed these technologies would be liberating and inherently democratic. They grew very disenchanted when it turned out that countries can make giant firewalls and use the internet for surveillance or to spread mass disinformation.&lt;/p&gt;
+&lt;p&gt;It&amp;#8217;s a bit like the timescales question. When you’re caught up in something and only see the potential, it&amp;#8217;s easy to become hyperbolic about it. When the two-sided nature of a technology becomes obvious, you swing all the way the other way because you suddenly see that this is not the simple story you thought it was. But none of these stories is simple. They&amp;#8217;re all complex.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Is it true that the internet, personal computers, and smartphones are not liberatory? No. They certainly have been for many people in the world in many circumstances.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; In the book, you mention David Graeber, the renowned anthropologist of capitalism and business culture, describing the disillusionment of the early 20th-century AI scene as a “secret shame,” a “broken promise” of technological advancements that didn’t materialize.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;How do you recall that time, so different from the one we live in today, when progress appears to be speeding up once more?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Agüera y Arcas:&lt;/strong&gt; I love David Graeber and miss his voice — he died a few years ago, way too young. I didn’t agree with all his takes, but I thought he was a fresh, innovative thinker.&lt;/p&gt;
+&lt;p&gt;That quote is from &lt;a href="https://en.wikipedia.org/wiki/The_Utopia_of_Rules" rel="noreferrer noopener" target="_blank"&gt;&lt;em&gt;Utopia of Rules&lt;/em&gt;&lt;/a&gt;, [which] was published in 2015. This was ironic timing because, at that point, the AI revolution — or at least the neural net part of it — was well underway. That was right in the middle of what Jeff Dean called the “golden age of deep learning.”&lt;/p&gt;
+&lt;p&gt;What Graeber was writing about overlaps quite a lot with what economists have written about: the big slowdown in technological acceleration after 1970. When &lt;em&gt;The Lord of the Rings&lt;/em&gt; author J.R.R. Tolkien was born, cavalry charges were still a thing, and by the time he died, we had the hydrogen bomb. That kind of upheaval is unparalleled, [but] the generation after Tolkien did not experience the same level of technological transformation. There was indeed a real slowdown after 1970.&lt;/p&gt;
+&lt;p&gt;We’ve entered another speeding-up period that began in 2020. I think AI is a huge deal — not only as a technology in its own right but also as a meta-technology that accelerates the development of other technologies. [It’s analogous to] electricity between 1870 and 1970. As I said, it’s ironic that Graeber was writing at what, in retrospect, may end up looking like the end of that slow period.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; Speaking of that period, you write that people who worked on rudimentary AI in the early 2010s didn’t really believe they were working on AI at all. Why not? Is it because the significance of their work became evident only in retrospect?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Agüera y Arcas:&lt;/strong&gt; When &lt;em&gt;Utopia of Rules&lt;/em&gt; was published, tasks like visual category recognition — having AI recognize a picture of a banana as a banana — were already working reliably. Handwriting, speech recognition, and similar problems were also advancing. In 2016, an AI even beat a human at Go, a game that had resisted classical computer science methods for many years.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;All of this progress was being made with neural nets, brain-inspired architectures that differ from previous iterations of AI, called Good Old-Fashioned AI (GOFAI). This was the source of our optimism: real progress toward real AI using brain-like approaches.&lt;/p&gt;
+&lt;p&gt;The idea that general intelligence — the ability to use language in general ways, to understand concepts, to reason — would just emerge from neural nets that were trained on narrow, specific problems seemed implausible. Those systems had just a single goal: score 100% on a particular test. Many others and I thought we’d need much more fundamental insight into what general intelligence is before we could get to “real AI.”&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The surprise was that when you applied AI in an unsupervised setting — not just training it for a specific task — we approached what appears to be general intelligence. That was a big shock.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think:&lt;/strong&gt; For those who are looking in from the outside, the question isn’t always “how” or “why,” but “so what.” In this case, what’s at stake in arguing, as you do, that intelligence equals prediction equals AI?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Agüera y Arcas:&lt;/strong&gt; I think one of the biggest “so whats” relates to the fact that the old-fashioned way of thinking about artificial intelligence — as optimizing something, maximizing some test score — turned out not to be correct. And that was really good news.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;When we were doing GOFAI, we were maximizing a test score: getting the transcription right, getting image category recognition right. If people think of artificial intelligence as optimizing a score, that’s very utilitarian thinking. It’s like assuming people, companies, or other entities are all about maximizing money or happiness.&lt;/p&gt;
+&lt;p&gt;The problem is that almost anything you tell an intelligent system to optimize will eventually go in the wrong direction. This is the moral of the Swedish philosopher Nick Bostrom’s paperclip maximizer. You give an innocuous goal, like “make paperclips,” but if the system maximizes paperclips, everything else goes to hell. That’s true almost no matter what you ask for. Anything you optimize or maximize without regard for how it’s done will result in a horrible dystopia. That was the basis on which Bostrom wrote &lt;em&gt;Superintelligence&lt;/em&gt; (2014), a very scary book about how superintelligence could mean the death of people, the planet, even the universe.&lt;/p&gt;
+&lt;p&gt;In many ways, the theme of &lt;em&gt;What Is Intelligence?&lt;/em&gt; is that intelligence is not the same as value maximization. We actually achieved general intelligence when we stopped doing supervised learning and instead did open-ended modeling of human output. That’s why I feel more optimistic about AI. I see it as part of an existing ecosystem, part of human intelligence, and not some alien monster applying bizarre inhuman thinking to optimize a problem we give it. I don’t think that’s how intelligence works.&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/books/blaise-aguera-y-arcas/" rel="nofollow"&gt;Google fellow: AI doesn&amp;#8217;t pretend to be intelligent. It is.&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Much of the ongoing discourse surrounding AI can largely be divided along two lines of thought. One concerns practical matters: How will large language models (LLMs) affect the job market? How do we stop bad actors from using LLMs to generate misinformation? How do we mitigate risks related to surveillance, cybersecurity, privacy, copyright, and the environment?
+The other is far more theoretical: Are technological constructs capable of feelings or experiences? Will machine learning usher in the singularity, the hypothetical point where progress will accelerate at unimaginable speed? Can AI be considered intelligent in the same way people are?
+The answers to many of these questions may hinge on that last one, and if you ask Blaise Agüera y Arcas, he replies with a resounding yes.
+Agüera y Arcas is the CTO of Technology &amp; Society at Google and founder of the company’s interdisciplinary Paradigms of Intelligence team, which researches the “fundamental building blocks” of sentience. His new book — fittingly titledWhat is Intelligence?— makes the bold but thought-provoking claim that LLMs such as Gemini, Claude, and ChatGPT don’t simply resemble human brains; they operate in ways that are functionally indistinguishable from them. Operating on the premise that intelligence is, in essence, prediction-based computation, he contends that AI is not a disruption or aberration, but a continuation of an evolutionary process that stretches from the first single-celled life forms to 21st-century humans.
+Big Think recently spoke with Agüera y Arcas about the challenges of writing critically about AI for a general audience, how attitudes in Silicon Valley changed over the course of his career, and why the old approach to machine learning was bound for a dystopian future.
+Big Think:Science writing often relies on metaphors, but metaphors can be a double-edged sword. By explaining the familiar through the unfamiliar, writers can sometimes overlook meaningful differences. What’s your take?
+Agüera y Arcas:I try to minimize them partly because of the issue that you’re alluding to. They can lead to wrong assumptions.
+When I say things like “the brain is a computer” or “life is computational,” some people interpret that as metaphorical — the same way we used to talk about the brain as an engine or as a telephone switching station. I don’t mean it metaphorically. I mean it literally.
+Big Think:In your introduction, you refer to two groups of readers: the veteran researcher with little patience for pop-sci, and the casual passerby with little specialized knowledge. How do you keep your writing engaging and accessible to both?
+Agüera y Arcas:This was by far the biggest challenge I faced writing this book. I tried to be minimal in what needed to be brought in. For example, I needed to explain some things about thermodynamics, and I thought really hard about how to do that in a way that wasn’t superficial but also not boring to somebody who already knows about it. In many cases, I tried adding a twist that would give experts a new perspective on a familiar problem.
+Big Think:AI means different things to different professions. As a writer and researcher, does your personal attitude toward AI — your expectations, hopes, concerns — change depending on which hat you’re wearing?
+Agüera y Arcas:My perspective about many things, AI included, changes depending on how far I zoom in. When I look at what’s happening day by day, it’s discouraging. It’s easy to get worked up about the things you see in the news, some of which are grim.
+But when you zoom out and take a historical perspective on what people’s lives were like in 1900, for example, it’s hard not to see extraordinary positive trends — even if there have been many bumps along the way. I try to spend a healthy amount of time zoomed out, not only because it’s a more cheerful place to be, but also because history is accelerating. These days, zoomed out is not even that zoomed out anymore.
+Big Think:Your career has spanned several cycles of AI optimism, stagnation, and breakthroughs. What kind of discoveries or personal experiences led you to arrive at the “against the grain” premise of your book?
+Agüera y Arcas:I would like to say that I’ve been wise all along and, in my wisdom, steered the middle course while everybody else oscillates [between] AI optimism or extreme AI pessimism. Of course, my own mind has changed quite a lot over the years.
+There were big thinkers involved in the early days of the internet and personal computing who truly believed these technologies would be liberating and inherently democratic. They grew very disenchanted when it turned out that countries can make giant firewalls and use the internet for surveillance or to spread mass disinformation.
+It’s a bit like the timescales question. When you’re caught up in something and only see the potential, it’s easy to become hyperbolic about it. When the two-sided nature of a technology becomes obvious, you swing all the way the other way because you suddenly see that this is not the simple story you thought it was. But none of these stories is simple. They’re all complex.
+Is it true that the internet, personal computers, and smartphones are not liberatory? No. They certainly have been for many people in the world in many circumstances.
+Big Think:In the book, you mention David Graeber, the renowned anthropologist of capitalism and business culture, describing the disillusionment of the early 20th-century AI scene as a “secret shame,” a “broken promise” of technological advancements that didn’t materialize.
+How do you recall that time, so different from the one we live in today, when progress appears to be speeding up once more?
+Agüera y Arcas:I love David Graeber and miss his voice — he died a few years ago, way too young. I didn’t agree with all his takes, but I thought he was a fresh, innovative thinker.
+That quote is fromUtopia of Rules, [which] was published in 2015. This was ironic timing because, at that point, the AI revolution — or at least the neural net part of it — was well underway. That was right in the middle of what Jeff Dean called the “golden age of deep learning.”
+What Graeber was writing about overlaps quite a lot with what economists have written about: the big slowdown in technological acceleration after 1970. WhenThe Lord of the Ringsauthor J.R.R. Tolkien was born, cavalry charges were still a thing, and by the time he died, we had the hydrogen bomb. That kind of upheaval is unparalleled, [but] the generation after Tolkien did not experience the same level of technological transformation. There was indeed a real slowdown after 1970.
+We’ve entered another speeding-up period that began in 2020. I think AI is a huge deal — not only as a technology in its own right but also as a meta-technology that accelerates the development of other technologies. [It’s analogous to] electricity between 1870 and 1970. As I said, it’s ironic that Graeber was writing at what, in retrospect, may end up looking like the end of that slow period.
+Big Think:Speaking of that period, you write that people who worked on rudimentary AI in the early 2010s didn’t really believe they were working on AI at all. Why not? Is it because the significance of their work became evident only in retrospect?
+Agüera y Arcas:WhenUtopia of Ruleswas published, tasks like visual category recognition — having AI recognize a picture of a banana as a banana — were already working reliably. Handwriting, speech recognition, and similar problems were also advancing. In 2016, an AI even beat a human at Go, a game that had resisted classical computer science methods for many years.
+All of this progress was being made with neural nets, brain-inspired architectures that differ from previous iterations of AI, called Good Old-Fashioned AI (GOFAI). This was the source of our optimism: real progress toward real AI using brain-like approaches.
+The idea that general intelligence — the ability to use language in general ways, to understand concepts, to reason — would just emerge from neural nets that were trained on narrow, specific problems seemed implausible. Those systems had just a single goal: score 100% on a particular test. Many others and I thought we’d need much more fundamental insight into what general intelligence is before we could get to “real AI.”
+The surprise was that when you applied AI in an unsupervised setting — not just training it for a specific task — we approached what appears to be general intelligence. That was a big shock.
+Big Think:For those who are looking in from the outside, the question isn’t always “how” or “why,” but “so what.” In this case, what’s at stake in arguing, as you do, that intelligence equals prediction equals AI?
+Agüera y Arcas:I think one of the biggest “so whats” relates to the fact that the old-fashioned way of thinking about artificial intelligence — as optimizing something, maximizing some test score — turned out not to be correct. And that was really good news.
+When we were doing GOFAI, we were maximizing a test score: getting the transcription right, getting image category recognition right. If people think of artificial intelligence as optimizing a score, that’s very utilitarian thinking. It’s like assuming people, companies, or other entities are all about maximizing money or happiness.
+The problem is that almost anything you tell an intelligent system to optimize will eventually go in the wrong direction. This is the moral of the Swedish philosopher Nick Bostrom’s paperclip maximizer. You give an innocuous goal, like “make paperclips,” but if the system maximizes paperclips, everything else goes to hell. That’s true almost no matter what you ask for. Anything you optimize or maximize without regard for how it’s done will result in a horrible dystopia. That was the basis on which Bostrom wroteSuperintelligence(2014), a very scary book about how superintelligence could mean the death of people, the planet, even the universe.
+In many ways, the theme ofWhat Is Intelligence?is that intelligence is not the same as value maximization. We actually achieved general intelligence when we stopped doing supervised learning and instead did open-ended modeling of human output. That’s why I feel more optimistic about AI. I see it as part of an existing ecosystem, part of human intelligence, and not some alien monster applying bizarre inhuman thinking to optimize a problem we give it. I don’t think that’s how intelligence works.
+This articleGoogle fellow: AI doesn’t pretend to be intelligent. It is.is featured onBig Think.</t>
+  </si>
+  <si>
+    <t>包含逻辑推演或批判性观点，探讨AI智能的本质及其影响</t>
+  </si>
+  <si>
+    <t>文章通过介绍一个极具争议且逻辑自洽的核心论点——AI与人脑功能上无法区分——有力地挑战了读者对智能、意识和技术的固有认知，引发深刻的哲学思辨。</t>
+  </si>
+  <si>
+    <t>谷歌高管Blaise Agüera y Arcas在其新书《什么是智能？》中提出一个颠覆性观点：AI与人脑在功能上并无区别，智能的本质是预测。他认为AI是生物进化的延续，而非技术突变。</t>
+  </si>
+  <si>
+    <t>探讨新一代人工智能系统与生物智能在功能上的等价性，将智能的本质定义为基于预测的计算过程。文章进而论证，这种技术形态并非对自然界的颠覆性模仿，而是宇宙中信息处理与适应能力演化的一个连续阶段。它还触及了在理解复杂技术时，认知模型（如隐喻）的局限性，以及社会对技术发展速度感知的周期性波动——从乐观、幻灭到再加速的宏大叙事，并反思了技术承诺与历史现实之间的张力。</t>
+  </si>
+  <si>
+    <t>["人工智能哲学", "智能本质", "技术决定论", "认知科学", "未来学"]</t>
+  </si>
+  <si>
+    <t>[{"title": "What is Intelligence?", "author": "Blaise Agüera y Arcas", "context": "文章的核心，介绍了书中关于AI与人脑功能上无法区分、智能是预测性计算、AI是进化延续的颠覆性观点。"}, {"title": "Utopia of Rules", "author": "David Graeber", "context": "被引用以说明20世纪末至21世纪初的技术停滞感，即AI未能兑现承诺的“秘密的耻辱”，并与当下的技术加速形成对比。"}]</t>
+  </si>
+  <si>
+    <t>Ask Ethan: Can we ever observe a proton decaying?</t>
+  </si>
+  <si>
+    <t>2025-12-05 15:00:00</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/starts-with-a-bang/observe-proton-decay/</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/gluony.jpg?w=640" /&gt;&lt;p&gt;The Universe is filled with &amp;#8220;stuff,&amp;#8221; no matter where or when we dare to look. Even though the majority of the Universe is dark in the sense that we haven&amp;#8217;t figured out how to directly detect it — with 95% of the cosmic energy density comprised of dark energy and dark matter — the 5% that comes in different forms of matter and radiation is profoundly significant. It makes up us, the planets, stars, and galaxies, as well as starlight, the plasmas and neutral gas clouds found within and beyond galaxies, and everything else we can observe. Of that 5%, in terms of mass, more than three-quarters of it is in the form of protons: the simplest and lowest-mass baryon, or particle made of three quarks, in all the Universe.&lt;/p&gt;
+&lt;p&gt;As far as we&amp;#8217;ve been able to determine, the proton is stable. Experimentally, we&amp;#8217;ve placed a lower limit on its lifetime of a whopping 10&lt;sup&gt;34&lt;/sup&gt; years: around a septillion times the present age of the Universe. And yet, the question of whether the proton decays, and if so, what its lifetime is, is at the core of one of the greatest mysteries in all of theoretical physics. How are we working to figure out the answer, and just what is it that&amp;#8217;s at stake? That&amp;#8217;s what Paul Dean wants to know, asking:&lt;/p&gt;
+&lt;p&gt;&amp;#8220;How&amp;#8230; will we ever find out if protons decay? What technology do we actually need to detect it? Can we force it to happen?&amp;#8221;&lt;/p&gt;
+&lt;p&gt;It&amp;#8217;s a great and profound question, but one whose importance isn&amp;#8217;t necessarily obvious. Let&amp;#8217;s walk through why the question of the proton&amp;#8217;s stability is so important, and then let&amp;#8217;s return to our best current and future attempts to figure out the answer.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="plot of isotopes colored by lifetime" class="wp-image-424069" height="2048" src="https://bigthink.com/wp-content/uploads/2023/06/get-off-my-long.jpg?w=1707" width="1707" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This graph shows the atomic isotopes of all the known elements, colored by the known lifetimes of those isotopes. While there are presently 251 known stable isotopes across 80 stable elements, those numbers will likely decrease with further research and better measurements. In order to build up the heavier elements, however, lighter elements must be made first. There is an order to the assembly of structure in the Universe.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://en.wikipedia.org/wiki/File:Isotopes_and_half-life.svg" target="_blank"&gt;Credit&lt;/a&gt;: BenRG/Wikimedia Commons&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The first thing you might think to ask yourself is, &amp;#8220;Why would anyone think the proton itself is unstable?&amp;#8221; Sure, we know of over 100 different species of atom, and have over 1000 known isotopes (different combinations of protons and neutrons combined) that can exist. Of all of the isotopes across all of the elements, the vast majority are known to be unstable, and will decay into a more stable form in time. However, as you can see in the chart above, there are a whopping 80 elements, or species of atom, that have at least one known stable isotope, with &lt;a href="https://bigthink.com/starts-with-a-bang/periodic-table-wrong/"&gt;a total of 251 stable isotopes&lt;/a&gt; known today.&lt;/p&gt;
+&lt;p&gt;But of those 251 stable isotopes, we strongly suspect &lt;a href="https://en.wikipedia.org/wiki/Isotopes_of_tantalum#Tantalum-180m"&gt;that many of them will eventually decay&lt;/a&gt;, owing to the predictions of nuclear physics and the possibility of quantum transitions to a more stable state. Even if their lifetimes are long — longer even than the present age of the Universe — for an unstable particle, the key question is &amp;#8220;when,&amp;#8221; not &amp;#8220;if.&amp;#8221; Are there any isotopes that are truly stable, rather than just very long-lived?&lt;/p&gt;
+&lt;p&gt;That all depends on whether there&amp;#8217;s a more energetically stable state out there for it to transition to, and whether the fundamental, quantum rules that the system obeys truly forbid such transitions, or whether they only suppress it.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="quantum tunneling" class="wp-image-301705" height="1150" src="https://bigthink.com/wp-content/uploads/2022/11/QuantumTunnel.jpg?w=1362" width="1362" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;In many physical instances, you can find yourself trapped in a local, false minimum, unable to reach the lowest-energy state, which is known as the true minimum. Whether you receive a kick to hurdle the barrier, which can occur classically, or whether you take the purely quantum mechanical path of quantum tunneling, going from one state to another is always possible so long as no fundamental conservation laws are violated. This is an example of a first-order phase transition, rather than a smooth (second-order) transition without any false minima.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:QuantumTunnel.jpg" target="_blank"&gt;Credit&lt;/a&gt;: Cranberry/Wikimedia Commons&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;What you see, above, is an illustration of the process of quantum tunneling. (Quantum tunneling, fun fact, was the physical process &lt;a href="https://bigthink.com/starts-with-a-bang/quantum-advances-2025-nobel-prize-physics/"&gt;at the core of the 2025 Nobel Prize in Physics&lt;/a&gt;!) The best analogy for the process is to consider a ball that comes to rest in a valley along a hill (a metastable state), rather than rolling down to the bottom of the hill (the ground state). In classical, non-quantum physics, the only way to get the ball to the bottom of the hill is to give it enough energy so that it can:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;get out of the valley that it&amp;#8217;s presently stuck in,&lt;/li&gt;
+&lt;li&gt;by rising up and over the barriers on all sides of it,&lt;/li&gt;
+&lt;li&gt;where then, afterward, if it rolled in the right direction, would be free to reach the &amp;#8220;true minimum&amp;#8221; or &amp;#8220;ground state&amp;#8221; of the system in question.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;But in the quantum Universe, you don&amp;#8217;t have to go &amp;#8220;over&amp;#8221; or &amp;#8220;around&amp;#8221; the barrier; you can simply go through it. That&amp;#8217;s because the phenomenon of quantum tunneling only cares about the existence of a more stable — or more energetically favorable — state or configuration. As long as there&amp;#8217;s no law or rule absolutely forbidding such a transition, it&amp;#8217;s going to occur. One common example is that of beta decay in nuclear physics: where a neutron, whether a free neutron or a neutron within an atomic nucleus, can decay into a proton, an electron, and an electron antineutrino.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="neutron decay quark level" class="wp-image-467420" height="1100" src="https://bigthink.com/wp-content/uploads/2023/09/neutrondecay-2-hr.jpg?w=850" width="850" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This diagram shows how a free neutron (or antineutron) decays at the subatomic level. A down quark (or antiquark) within a neutron (or antineutron), shown on the left in red, emits a virtual W-(or W+) boson, transforming into an up quark (or antiquark). The W-(or W+) boson forms an electron/electron antineutrino (or positron/electron neutrino) pair, while the up quark (or antiquark) recombines with the original remnant up-and-down quarks (or antiquarks) to form a proton (or antiproton). This is now known to be the process behind all beta decays in the Universe.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.bnl.gov/newsroom/news.php?a=112787" target="_blank"&gt;Credit&lt;/a&gt;: Evan Berkowitz/ J&amp;uuml;lich Research Center, Lawrence Livermore National Laboratory&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Because the combination of the proton&amp;#8217;s, electron&amp;#8217;s, and (anti)neutrino&amp;#8217;s mass is all less than the neutron&amp;#8217;s mass, energy will be conserved in this decay. Because the number of baryons is conserved (a proton has a baryon number of +1, as does a neutron), the number of leptons is also conserved (an electron has a lepton number of +1, while the antineutrino has a lepton number of -1), and other quantities such as electric charge, color charge, spin, etc., are also conserved, the decay is allowed to happen.&lt;/p&gt;
+&lt;p&gt;However, not every isotope is unstable; a deuteron, for instance, is a bound state of a proton and neutron bound together into a single nucleus. But it will never spontaneously decay into two protons, because the rest mass energy of a deuteron is less than the rest mass energy of two free protons; binding energy plays an important role in stability. In this instance, you&amp;#8217;d need to &amp;#8220;add energy&amp;#8221; to the deuteron to enable a transition into two protons for the end state. In other words, the configuration of two free protons is higher up the energy hill than the single bound deuteron made of a proton and neutron combined.&lt;/p&gt;
+&lt;p&gt;In the case of the bare proton, however, there&amp;#8217;s a slightly different set of constraints we need to reckon with.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="proton decay pathways" class="wp-image-425589" height="873" src="https://bigthink.com/wp-content/uploads/2023/06/proton-decay.jpg?w=955" width="955" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Two possible pathways for proton decay are spelled out in terms of the transformations of its fundamental constituent particles. These processes have never been observed, but are theoretically permitted in many extensions of the Standard Model, such as SU(5) grand unification theories.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.1088/0034-4885/59/7/001" target="_blank"&gt;Credit&lt;/a&gt;: J. Lopez, Reports on Progress in Physics, 1996&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;You can see, above, a couple of possible theoretical pathways for the proton to decay. These pathways:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;are all energetically favorable,&lt;/li&gt;
+&lt;li&gt;conserve energy, momentum, and electric charge,&lt;/li&gt;
+&lt;li&gt;but violate both baryon and lepton number conservation, only conserving the combination of baryon number minus lepton number.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Now, experimentally and observationally, we&amp;#8217;ve never detected or measured a single particle physics interaction that has violated either baryon number or lepton number at all; it&amp;#8217;s never occurred as far as we can tell. But if you look deeply into the equations of the Standard Model — what they predict, what they allow, and what they forbid — you&amp;#8217;ll find something that might surprise you. Baryon number and lepton number are not explicitly conserved; there&amp;#8217;s nothing mandating either one on its own. The only mandate is that the combination of the two, baryon number minus lepton number (sometimes called &amp;#8220;B &amp;#8211; L&amp;#8221; for short), be strictly conserved.&lt;/p&gt;
+&lt;p&gt;In quantum physics, we have a principle known as &lt;a href="https://en.wikipedia.org/wiki/Totalitarian_principle"&gt;the totalitarian principle&lt;/a&gt;, which can be summed up as: everything not forbidden is compulsory. If something isn&amp;#8217;t forbidden, then there&amp;#8217;s a positive, finite, non-zero probability for its occurrence. Given that we have all the time in the Universe for any possible process to occur, then all we have to do is:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;gather enough particles,&lt;/li&gt;
+&lt;li&gt;build a sensitive enough detector to look for the process we&amp;#8217;re seeking,&lt;/li&gt;
+&lt;li&gt;and wait.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;If something can decay, then if we gather enough of that &amp;#8220;thing,&amp;#8221; build the infrastructure that&amp;#8217;s sensitive to the decay process, and wait for long enough, we&amp;#8217;ll eventually see it occur.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="CP symmetry test" class="wp-image-163513" height="778" src="https://bigthink.com/wp-content/uploads/2022/01/mesons.jpg?w=959" width="959" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Parity, or mirror-symmetry, is one of the three fundamental symmetries in the Universe, along with time-reversal and charge-conjugation symmetry. If particles spin in one direction and decay along a particular axis, then flipping them in the mirror should mean they can spin in the opposite direction and decay along the same axis. This was observed not to be the case for the weak decays, which are the only interactions known to violate charge-conjugation (C) symmetry, parity (P) symmetry, and the combination (CP) of those two symmetries as well. However, CP-violation has only ever been observed in systems containing strange, charm, or bottom quarks; never leptons.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/33K76Dg" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;In the case of proton decay, which would violate baryon number but would conserve the combination B &amp;#8211; L, there&amp;#8217;s a strong theoretical motivation for expecting that this is indeed something that could occur within our Universe. The motivation is simple: we have the observable fact that the 5% of the Universe that&amp;#8217;s made of &amp;#8220;normal stuff,&amp;#8221; or stuff contained within the Standard Model of elementary particles, is comprised of matter and not antimatter. Even though, from Einstein&amp;#8217;s &lt;em&gt;E = mc²&lt;/em&gt; of mass-energy equivalence, we can only create particles and antiparticles in equal-and-opposite amounts, the Universe we inhabit shows overwhelming evidence that atoms, planets, stars, galaxies, galaxy clusters, and the large-scale cosmic web are all dominated by normal matter, without an equivalent amount of antimatter.&lt;/p&gt;
+&lt;p&gt;How did this come to be? Although we aren&amp;#8217;t sure — this is the still-open cosmic puzzle known as &lt;a href="https://bigthink.com/starts-with-a-bang/how-matter-exist/"&gt;the baryogenesis puzzle&lt;/a&gt; — we have been certain, since the late 1960s, of how a matter-antimatter asymmetry can arise from an initial state that&amp;#8217;s purely matter-antimatter symmetric. The Universe simply needs to experience the following three conditions, known as &lt;a href="https://en.wikipedia.org/wiki/Baryogenesis#Sakharov_conditions"&gt;the Sakharov conditions&lt;/a&gt;.&lt;/p&gt;
+&lt;ol class="wp-block-list"&gt;
+&lt;li&gt;You need a Universe that&amp;#8217;s out of thermal equilibrium. (Where the hot Big Bang gives us perhaps the ultimate out-of-equilibrium system.)&lt;/li&gt;
+&lt;li&gt;You need a Universe where both C-symmetry (replacing matter with antimatter) and CP-symmetry (replacing matter with antimatter and replacing configurations with their mirror reflections) are violated. (So far, this has been seen, but only under the weak interactions.) &lt;/li&gt;
+&lt;li&gt;And you need a Universe where baryon non-conserving reactions can occur. (None have ever been observed.)&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;We get the first one from the hot Big Bang, and we get the second one (but not very much of it) from the Standard Model. Because we live in a matter-dominated Universe, we not only need the third one to somehow occur, but we need &lt;em&gt;more&lt;/em&gt; CP-violation than the Standard Model alone admits.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="matter antimatter asymmetry" class="wp-image-168070" height="462" src="https://bigthink.com/wp-content/uploads/2022/02/960x0-4.jpg?w=959" width="959" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;If you admit the existence of novel particles (such as the X and Y here) with antiparticle counterparts, they must conserve CPT, but not necessarily C, P, T, or CP by themselves. If CP is violated, the decay pathways &amp;mdash; or the percentage of particles decaying one way versus another &amp;mdash; can be different for particles compared to antiparticles, resulting in a net production of matter over antimatter if the conditions are right. Although this illustrates the scenario of GUT baryogenesis, the Standard Model alone can produce baryon number violation through sphaleron interactions.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/33K76Dg" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;This requires us, theoretically, to look beyond the Standard Model: to extensions of it that could create the matter-antimatter symmetry we now observe in our Universe. There are several ways that this could be the case, with some interesting scenarios including the following.&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;The Standard Model could be a subset of a greater &amp;#8220;Grand Unified&amp;#8221; framework that encapsulates it, where additional particles arise that &lt;a href="https://bigthink.com/starts-with-a-bang/how-matter-exist/"&gt;can mediate the decay of baryons&lt;/a&gt; and their conversion into leptons.&lt;/li&gt;
+&lt;li&gt;There could be a supersymmetric extension to the Standard Model, enabling the generation of a matter-antimatter asymmetry &lt;a href="https://en.wikipedia.org/wiki/Affleck%E2%80%93Dine_mechanism"&gt;through (supersymmetric) scalar particles interacting with the inflaton field&lt;/a&gt; at the end of inflation.&lt;/li&gt;
+&lt;li&gt;While the Standard Model predicts a (smooth) second-order phase transition for electroweak symmetry breaking, with no quantum tunneling, extensions to it could modify our predictions to create a first-order (with quantum tunneling) phase transition, enabling, through sphaleron interactions, &lt;a href="https://bigthink.com/starts-with-a-bang/new-collider-origin-matter/"&gt;the generation of a matter asymmetry via electroweak symmetry breaking&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;Or there could have been a lepton asymmetry generated early on through the neutrino sector, and then electroweak symmetry breaking&amp;#8217;s sphaleron interactions could have converted it into an equivalent baryon asymmetry: a scenario known as &lt;a href="https://en.wikipedia.org/wiki/Leptogenesis"&gt;leptogenesis&lt;/a&gt;.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;This is very important, because it tells us that there must have been a way to generate more protons than antiprotons from some process that actually occurred in our cosmic past. And if a reaction can occur in one direction (creating a net number of protons), then the reverse reaction (destroying a net number of protons) should also be possible. We just need to recreate the right conditions to enable it.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="borexino" class="wp-image-370309" height="1200" src="https://bigthink.com/wp-content/uploads/2023/02/SSS_PC_full-c4.jpg?w=1792" width="1792" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Neutrino detectors, like the one used in the BOREXINO collaboration here, generally have an enormous tank that serves as the target for the experiment, where a neutrino interaction will produce fast-moving charged particles that can then be detected by the surrounding photomultiplier tubes at the ends. These experiments are all sensitive to proton decays as well, and the lack of observed proton decay in BOREXINO, SNOLAB, Kamiokande (and successors), and others have placed very tight constraints on proton decay, as well as very long lifetimes for the proton.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://borex.lngs.infn.it/opendata/" target="_blank"&gt;Credit&lt;/a&gt;: INFN/Borexino Collaboration&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;So what are those conditions? It&amp;#8217;s unfortunately the case that in each scenario for baryogenesis — for the mechanism behind baryon violating interactions — there are different ways of achieving those conditions. For the grand unified option, there are new, super-heavy bosons at play, meaning that nearly any atomic nucleus containing a proton (including plain old hydrogen) has a chance to decay spontaneously. For extensions that change the shape of the electroweak symmetry breaking potential without coupling directly to quarks, that was a one-time event in the Universe&amp;#8217;s past: one that can only be potentially recreated by returning to those very high energy conditions.&lt;/p&gt;
+&lt;p&gt;In other words, there are various ways to meet the conditions for baryogenesis, all of which admit (and, in fact, require) the existence of baryon violating interactions. But not all of those baryon violations necessarily lead to an unstable proton today! Therefore, when we perform experiments that are sensitive to proton decay:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;building large tanks (or other apparatuses) of proton-containing material,&lt;/li&gt;
+&lt;li&gt;surrounded with detectors that would be sensitive to the products of proton decay (such as photomultiplier tubes),&lt;/li&gt;
+&lt;li&gt;shielding them from background effects and quantifying the noise within the detector,&lt;/li&gt;
+&lt;li&gt;and then waiting to see if a signal emerges above the noise floor,&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;we need to recognize that we are only sensitive to decay possibilities under certain scenarios.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="grand unified theory" class="wp-image-166870" height="1024" src="https://bigthink.com/wp-content/uploads/2022/02/1024px-Georgi-Glashow_charges.svg.png?w=1024" width="1024" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The particle content of the hypothetical grand unified group SU(5), which contains the entirety of the Standard Model plus additional particles. In particular, there are a series of (necessarily superheavy) bosons, labeled &amp;#8220;X&amp;#8221; in this diagram, that contain both properties of quarks and leptons, together, and would cause the proton to be fundamentally unstable. Their absence, and the proton&amp;#8217;s observed stability, provide strong evidence against the validity of this theory in a scientific sense.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:Georgi-Glashow_charges.svg" target="_blank"&gt;Credit&lt;/a&gt;: Cjean42/Wikimedia Commons&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;One can concoct baryogenesis scenarios that don&amp;#8217;t lead to the decay of free protons, or that don&amp;#8217;t lead to the decay of protons that are part of atoms and molecules, that still admit interactions that violate baryon number. For some of the theoretical scenarios that successfully lead to baryogenesis, we have to be very careful of the electroweak symmetry breaking process, as it risks &lt;em&gt;erasing&lt;/em&gt; any pre-existing baryon-antibaryon asymmetry. So it&amp;#8217;s possible that we could never see a proton decay and still have baryogenesis occur, and it&amp;#8217;s also possible that we could see a proton decay and still have only a darkened window into how baryogenesis actually did occur.&lt;/p&gt;
+&lt;p&gt;In a sense, there are many experiments that help us constrain (and that could possibly detect) proton decay, including:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;large, underground, fluid-filled neutrino detectors,&lt;/li&gt;
+&lt;li&gt;the Antarctic IceCube neutrino observatory,&lt;/li&gt;
+&lt;li&gt;experiments that seek to directly detect dark matter,&lt;/li&gt;
+&lt;li&gt;and ultra-sensitive nuclear decay experiments, such as &lt;a href="https://bigthink.com/starts-with-a-bang/neutrinos-most-mysterious-particle/"&gt;the ones searching for neutrinoless double beta decay&lt;/a&gt;.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;From the combination of these classes of experiment (but largely and prominently due to the neutrino detectors, as shown below), we&amp;#8217;ve been able to constrain that the lifetime of the proton, if it does indeed decay at all, must be greater than 10&lt;sup&gt;34&lt;/sup&gt; years. Given that the Universe is only 13.8 billion years old (or roughly 10&lt;sup&gt;10&lt;/sup&gt; years), this is a remarkable constraint: achieved over decades, by watching enormous numbers of protons (the equivalent of tens of thousands of tons of water) not exhibit a single decay.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="antineutrino detector daya bay" class="wp-image-408035" height="1818" src="https://bigthink.com/wp-content/uploads/2023/05/The_Daya_Bay_Antineutrino_Detector_8056998030.jpg?w=3000" width="3000" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Neutrino and antineutrino detectors operate by having a large &amp;#8220;target&amp;#8221; for neutrinos/antineutrinos to interact with inside of a tank surrounded by photomultiplier tubes, which allow scientists to reconstruct the event characteristics that happened at the source. Sometimes, large external electric fields are applied as well, allowing scientists to construct a second signal based on internal ionization that occurs within the detector from neutrino events. These large tanks are filled with proton-containing material as well, making them sensitive to potential proton decay events, and giving us our greatest-ever constraints on the lifetime and stability of the proton.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:The_Daya_Bay_Antineutrino_Detector_(8056998030).jpg" rel="noopener" target="_blank"&gt;Credit&lt;/a&gt;: Roy Kaltschmidt, Lawrence Berkeley National Laboratory; Daya Bay Antineutrino detector&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;This is, perhaps frustratingly, in conflict with some of the simplest ways to generate a matter-antimatter asymmetry! One of the earliest and most exciting frameworks for a Grand Unified Theory is known as &lt;a href="https://en.wikipedia.org/wiki/Georgi%E2%80%93Glashow_model"&gt;Georgi-Glashow, or SU(5), unification&lt;/a&gt;, which unifies the strong force along with the electroweak one. Unfortunately, it predicts a proton lifetime of just 10&lt;sup&gt;30&lt;/sup&gt; years, and that was ruled out by the early 1980s, and so that scenario, which was illustrated earlier (in terms of X and Y bosons), cannot be the story behind baryogenesis either. Many supersymmetric scenarios have been ruled out, and certain aspects of electroweak symmetry breaking scenarios have been mildly constrained by the LHC data that revealed the Higgs boson and measured its properties.&lt;/p&gt;
+&lt;p&gt;It&amp;#8217;s possible &lt;a href="https://bigthink.com/starts-with-a-bang/new-collider-origin-matter/"&gt;that a new, next-generation particle collider&lt;/a&gt; could shed light not only on the baryogenesis puzzle, but on baryon-violating interactions in general. It&amp;#8217;s possible that &lt;a href="https://bigthink.com/starts-with-a-bang/periodic-table-wrong/"&gt;decays that exist but have not yet been discovered&lt;/a&gt; will teach us more about the stability of the proton. It&amp;#8217;s now known that &lt;a href="https://bigthink.com/starts-with-a-bang/universe-end-sooner-expected-false/"&gt;it&amp;#8217;s not possible for Hawking radiation to lead to the proton&amp;#8217;s instability&lt;/a&gt;. And it&amp;#8217;s kind of funny that experiments &lt;a href="https://bigthink.com/starts-with-a-bang/proton-decay-neutrino-astronomy/"&gt;originally built to search for proton decay led to the birth of neutrino astronomy&lt;/a&gt;, but now it&amp;#8217;s our successful neutrino detectors that have led to the tightest-ever constraints on the proton&amp;#8217;s lifetime.&lt;/p&gt;
+&lt;p&gt;So, &lt;a href="https://bigthink.com/starts-with-a-bang/proton-stable-or-unstable/"&gt;is the proton stable or unstable?&lt;/a&gt; At its core, we still don&amp;#8217;t know. Searches have placed constraints on its stability that are mind-boggling, but beyond those timescales, it may yet be inherently doomed to decay. We have many methods of searching for it, but until one is actually successful, all we&amp;#8217;ll be able to do is further tighten our constraints on where it doesn&amp;#8217;t occur.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Send in your Ask Ethan questions to &lt;a href="mailto:startswithabang@gmail.com"&gt;startswithabang at gmail dot com&lt;/a&gt;!&lt;/em&gt;&lt;/p&gt;
+&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/observe-proton-decay/" rel="nofollow"&gt;Ask Ethan: Can we ever observe a proton decaying?&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>The Universe is filled with “stuff,” no matter where or when we dare to look. Even though the majority of the Universe is dark in the sense that we haven’t figured out how to directly detect it — with 95% of the cosmic energy density comprised of dark energy and dark matter — the 5% that comes in different forms of matter and radiation is profoundly significant. It makes up us, the planets, stars, and galaxies, as well as starlight, the plasmas and neutral gas clouds found within and beyond galaxies, and everything else we can observe. Of that 5%, in terms of mass, more than three-quarters of it is in the form of protons: the simplest and lowest-mass baryon, or particle made of three quarks, in all the Universe.
+As far as we’ve been able to determine, the proton is stable. Experimentally, we’ve placed a lower limit on its lifetime of a whopping 1034years: around a septillion times the present age of the Universe. And yet, the question of whether the proton decays, and if so, what its lifetime is, is at the core of one of the greatest mysteries in all of theoretical physics. How are we working to figure out the answer, and just what is it that’s at stake? That’s what Paul Dean wants to know, asking:
+“How… will we ever find out if protons decay? What technology do we actually need to detect it? Can we force it to happen?”
+It’s a great and profound question, but one whose importance isn’t necessarily obvious. Let’s walk through why the question of the proton’s stability is so important, and then let’s return to our best current and future attempts to figure out the answer.
+[图片: plot of isotopes colored by lifetime]
+This graph shows the atomic isotopes of all the known elements, colored by the known lifetimes of those isotopes. While there are presently 251 known stable isotopes across 80 stable elements, those numbers will likely decrease with further research and better measurements. In order to build up the heavier elements, however, lighter elements must be made first. There is an order to the assembly of structure in the Universe.
+Credit: BenRG/Wikimedia Commons
+The first thing you might think to ask yourself is, “Why would anyone think the proton itself is unstable?” Sure, we know of over 100 different species of atom, and have over 1000 known isotopes (different combinations of protons and neutrons combined) that can exist. Of all of the isotopes across all of the elements, the vast majority are known to be unstable, and will decay into a more stable form in time. However, as you can see in the chart above, there are a whopping 80 elements, or species of atom, that have at least one known stable isotope, witha total of 251 stable isotopesknown today.
+But of those 251 stable isotopes, we strongly suspectthat many of them will eventually decay, owing to the predictions of nuclear physics and the possibility of quantum transitions to a more stable state. Even if their lifetimes are long — longer even than the present age of the Universe — for an unstable particle, the key question is “when,” not “if.” Are there any isotopes that are truly stable, rather than just very long-lived?
+That all depends on whether there’s a more energetically stable state out there for it to transition to, and whether the fundamental, quantum rules that the system obeys truly forbid such transitions, or whether they only suppress it.
+[图片: quantum tunneling]
+In many physical instances, you can find yourself trapped in a local, false minimum, unable to reach the lowest-energy state, which is known as the true minimum. Whether you receive a kick to hurdle the barrier, which can occur classically, or whether you take the purely quantum mechanical path of quantum tunneling, going from one state to another is always possible so long as no fundamental conservation laws are violated. This is an example of a first-order phase transition, rather than a smooth (second-order) transition without any false minima.
+Credit: Cranberry/Wikimedia Commons
+What you see, above, is an illustration of the process of quantum tunneling. (Quantum tunneling, fun fact, was the physical processat the core of the 2025 Nobel Prize in Physics!) The best analogy for the process is to consider a ball that comes to rest in a valley along a hill (a metastable state), rather than rolling down to the bottom of the hill (the ground state). In classical, non-quantum physics, the only way to get the ball to the bottom of the hill is to give it enough energy so that it can:
+get out of the valley that it’s presently stuck in,
+by rising up and over the barriers on all sides of it,
+where then, afterward, if it rolled in the right direction, would be free to reach the “true minimum” or “ground state” of the system in question.
+But in the quantum Universe, you don’t have to go “over” or “around” the barrier; you can simply go through it. That’s because the phenomenon of quantum tunneling only cares about the existence of a more stable — or more energetically favorable — state or configuration. As long as there’s no law or rule absolutely forbidding such a transition, it’s going to occur. One common example is that of beta decay in nuclear physics: where a neutron, whether a free neutron or a neutron within an atomic nucleus, can decay into a proton, an electron, and an electron antineutrino.
+[图片: neutron decay quark level]
+This diagram shows how a free neutron (or antineutron) decays at the subatomic level. A down quark (or antiquark) within a neutron (or antineutron), shown on the left in red, emits a virtual W-(or W+) boson, transforming into an up quark (or antiquark). The W-(or W+) boson forms an electron/electron antineutrino (or positron/electron neutrino) pair, while the up quark (or antiquark) recombines with the original remnant up-and-down quarks (or antiquarks) to form a proton (or antiproton). This is now known to be the process behind all beta decays in the Universe.
+Credit: Evan Berkowitz/ Jülich Research Center, Lawrence Livermore National Laboratory
+Because the combination of the proton’s, electron’s, and (anti)neutrino’s mass is all less than the neutron’s mass, energy will be conserved in this decay. Because the number of baryons is conserved (a proton has a baryon number of +1, as does a neutron), the number of leptons is also conserved (an electron has a lepton number of +1, while the antineutrino has a lepton number of -1), and other quantities such as electric charge, color charge, spin, etc., are also conserved, the decay is allowed to happen.
+However, not every isotope is unstable; a deuteron, for instance, is a bound state of a proton and neutron bound together into a single nucleus. But it will never spontaneously decay into two protons, because the rest mass energy of a deuteron is less than the rest mass energy of two free protons; binding energy plays an important role in stability. In this instance, you’d need to “add energy” to the deuteron to enable a transition into two protons for the end state. In other words, the configuration of two free protons is higher up the energy hill than the single bound deuteron made of a proton and neutron combined.
+In the case of the bare proton, however, there’s a slightly different set of constraints we need to reckon with.
+[图片: proton decay pathways]
+Two possible pathways for proton decay are spelled out in terms of the transformations of its fundamental constituent particles. These processes have never been observed, but are theoretically permitted in many extensions of the Standard Model, such as SU(5) grand unification theories.
+Credit: J. Lopez, Reports on Progress in Physics, 1996
+You can see, above, a couple of possible theoretical pathways for the proton to decay. These pathways:
+are all energetically favorable,
+conserve energy, momentum, and electric charge,
+but violate both baryon and lepton number conservation, only conserving the combination of baryon number minus lepton number.
+Now, experimentally and observationally, we’ve never detected or measured a single particle physics interaction that has violated either baryon number or lepton number at all; it’s never occurred as far as we can tell. But if you look deeply into the equations of the Standard Model — what they predict, what they allow, and what they forbid — you’ll find something that might surprise you. Baryon number and lepton number are not explicitly conserved; there’s nothing mandating either one on its own. The only mandate is that the combination of the two, baryon number minus lepton number (sometimes called “B – L” for short), be strictly conserved.
+In quantum physics, we have a principle known asthe totalitarian principle, which can be summed up as: everything not forbidden is compulsory. If something isn’t forbidden, then there’s a positive, finite, non-zero probability for its occurrence. Given that we have all the time in the Universe for any possible process to occur, then all we have to do is:
+gather enough particles,
+build a sensitive enough detector to look for the process we’re seeking,
+and wait.
+If something can decay, then if we gather enough of that “thing,” build the infrastructure that’s sensitive to the decay process, and wait for long enough, we’ll eventually see it occur.
+[图片: CP symmetry test]
+Parity, or mirror-symmetry, is one of the three fundamental symmetries in the Universe, along with time-reversal and charge-conjugation symmetry. If particles spin in one direction and decay along a particular axis, then flipping them in the mirror should mean they can spin in the opposite direction and decay along the same axis. This was observed not to be the case for the weak decays, which are the only interactions known to violate charge-conjugation (C) symmetry, parity (P) symmetry, and the combination (CP) of those two symmetries as well. However, CP-violation has only ever been observed in systems containing strange, charm, or bottom quarks; never leptons.
+Credit: E. Siegel/Beyond the Galaxy
+In the case of proton decay, which would violate baryon number but would conserve the combination B – L, there’s a strong theoretical motivation for expecting that this is indeed something that could occur within our Universe. The motivation is simple: we have the observable fact that the 5% of the Universe that’s made of “normal stuff,” or stuff contained within the Standard Model of elementary particles, is comprised of matter and not antimatter. Even though, from Einstein’sE = mc²of mass-energy equivalence, we can only create particles and antiparticles in equal-and-opposite amounts, the Universe we inhabit shows overwhelming evidence that atoms, planets, stars, galaxies, galaxy clusters, and the large-scale cosmic web are all dominated by normal matter, without an equivalent amount of antimatter.
+How did this come to be? Although we aren’t sure — this is the still-open cosmic puzzle known asthe baryogenesis puzzle— we have been certain, since the late 1960s, of how a matter-antimatter asymmetry can arise from an initial state that’s purely matter-antimatter symmetric. The Universe simply needs to experience the following three conditions, known asthe Sakharov conditions.
+You need a Universe that’s out of thermal equilibrium. (Where the hot Big Bang gives us perhaps the ultimate out-of-equilibrium system.)
+You need a Universe where both C-symmetry (replacing matter with antimatter) and CP-symmetry (replacing matter with antimatter and replacing configurations with their mirror reflections) are violated. (So far, this has been seen, but only under the weak interactions.)
+And you need a Universe where baryon non-conserving reactions can occur. (None have ever been observed.)
+We get the first one from the hot Big Bang, and we get the second one (but not very much of it) from the Standard Model. Because we live in a matter-dominated Universe, we not only need the third one to somehow occur, but we needmoreCP-violation than the Standard Model alone admits.
+[图片: matter antimatter asymmetry]
+If you admit the existence of novel particles (such as the X and Y here) with antiparticle counterparts, they must conserve CPT, but not necessarily C, P, T, or CP by themselves. If CP is violated, the decay pathways — or the percentage of particles decaying one way versus another — can be different for particles compared to antiparticles, resulting in a net production of matter over antimatter if the conditions are right. Although this illustrates the scenario of GUT baryogenesis, the Standard Model alone can produce baryon number violation through sphaleron interactions.
+Credit: E. Siegel/Beyond the Galaxy
+This requires us, theoretically, to look beyond the Standard Model: to extensions of it that could create the matter-antimatter symmetry we now observe in our Universe. There are several ways that this could be the case, with some interesting scenarios including the following.
+The Standard Model could be a subset of a greater “Grand Unified” framework that encapsulates it, where additional particles arise that can mediate the decay of baryons and their conversion into leptons.
+There could be a supersymmetric extension to the Standard Model, enabling the generation of a matter-antimatter asymmetry through (supersymmetric) scalar particles interacting with the inflaton field at the end of inflation.
+While the Standard Model predicts a (smooth) second-order phase transition for electroweak symmetry breaking, with no quantum tunneling, extensions to it could modify our predictions to create a first-order (with quantum tunneling) phase transition, enabling, through sphaleron interactions, the generation of a matter asymmetry via electroweak symmetry breaking.
+Or there could have been a lepton asymmetry generated early on through the neutrino sector, and then electroweak symmetry breaking’s sphaleron interactions could have converted it into an equivalent baryon asymmetry: a scenario known as leptogenesis.
+This is very important, because it tells us that there must have been a way to generate more protons than antiprotons from some process that actually occurred in our cosmic past. And if a reaction can occur in one direction (creating a net number of protons), then the reverse reaction (destroying a net number of protons) should also be possible. We just need to recreate the right conditions to enable it.
+[图片: borexino]
+Neutrino detectors, like the one used in the BOREXINO collaboration here, generally have an enormous tank that serves as the target for the experiment, where a neutrino interaction will produce fast-moving charged particles that can then be detected by the surrounding photomultiplier tubes at the ends. These experiments are all sensitive to proton decays as well, and the lack of observed proton decay in BOREXINO, SNOLAB, Kamiokande (and successors), and others have placed very tight constraints on proton decay, as well as very long lifetimes for the proton.
+Credit: INFN/Borexino Collaboration
+So what are those conditions? It’s unfortunately the case that in each scenario for baryogenesis — for the mechanism behind baryon violating interactions — there are different ways of achieving those conditions. For the grand unified option, there are new, super-heavy bosons at play, meaning that nearly any atomic nucleus containing a proton (including plain old hydrogen) has a chance to decay spontaneously. For extensions that change the shape of the electroweak symmetry breaking potential without coupling directly to quarks, that was a one-time event in the Universe’s past: one that can only be potentially recreated by returning to those very high energy conditions.
+In other words, there are various ways to meet the conditions for baryogenesis, all of which admit (and, in fact, require) the existence of baryon violating interactions. But not all of those baryon violations necessarily lead to an unstable proton today! Therefore, when we perform experiments that are sensitive to proton decay:
+building large tanks (or other apparatuses) of proton-containing material,
+surrounded with detectors that would be sensitive to the products of proton decay (such as photomultiplier tubes),
+shielding them from background effects and quantifying the noise within the detector,
+and then waiting to see if a signal emerges above the noise floor,
+we need to recognize that we are only sensitive to decay possibilities under certain scenarios.
+[图片: grand unified theory]
+The particle content of the hypothetical grand unified group SU(5), which contains the entirety of the Standard Model plus additional particles. In particular, there are a series of (necessarily superheavy) bosons, labeled “X” in this diagram, that contain both properties of quarks and leptons, together, and would cause the proton to be fundamentally unstable. Their absence, and the proton’s observed stability, provide strong evidence against the validity of this theory in a scientific sense.
+Credit: Cjean42/Wikimedia Commons
+One can concoct baryogenesis scenarios that don’t lead to the decay of free protons, or that don’t lead to the decay of protons that are part of atoms and molecules, that still admit interactions that violate baryon number. For some of the theoretical scenarios that successfully lead to baryogenesis, we have to be very careful of the electroweak symmetry breaking process, as it riskserasingany pre-existing baryon-antibaryon asymmetry. So it’s possible that we could never see a proton decay and still have baryogenesis occur, and it’s also possible that we could see a proton decay and still have only a darkened window into how baryogenesis actually did occur.
+In a sense, there are many experiments that help us constrain (and that could possibly detect) proton decay, including:
+large, underground, fluid-filled neutrino detectors,
+the Antarctic IceCube neutrino observatory,
+experiments that seek to directly detect dark matter,
+and ultra-sensitive nuclear decay experiments, such as the ones searching for neutrinoless double beta decay.
+From the combination of these classes of experiment (but largely and prominently due to the neutrino detectors, as shown below), we’ve been able to constrain that the lifetime of the proton, if it does indeed decay at all, must be greater than 1034years. Given that the Universe is only 13.8 billion years old (or roughly 1010years), this is a remarkable constraint: achieved over decades, by watching enormous numbers of protons (the equivalent of tens of thousands of tons of water) not exhibit a single decay.
+[图片: antineutrino detector daya bay]
+Neutrino and antineutrino detectors operate by having a large “target” for neutrinos/antineutrinos to interact with inside of a tank surrounded by photomultiplier tubes, which allow scientists to reconstruct the event characteristics that happened at the source. Sometimes, large external electric fields are applied as well, allowing scientists to construct a second signal based on internal ionization that occurs within the detector from neutrino events. These large tanks are filled with proton-containing material as well, making them sensitive to potential proton decay events, and giving us our greatest-ever constraints on the lifetime and stability of the proton.
+Credit: Roy Kaltschmidt, Lawrence Berkeley National Laboratory; Daya Bay Antineutrino detector
+This is, perhaps frustratingly, in conflict with some of the simplest ways to generate a matter-antimatter asymmetry! One of the earliest and most exciting frameworks for a Grand Unified Theory is known asGeorgi-Glashow, or SU(5), unification, which unifies the strong force along with the electroweak one. Unfortunately, it predicts a proton lifetime of just 1030years, and that was ruled out by the early 1980s, and so that scenario, which was illustrated earlier (in terms of X and Y bosons), cannot be the story behind baryogenesis either. Many supersymmetric scenarios have been ruled out, and certain aspects of electroweak symmetry breaking scenarios have been mildly constrained by the LHC data that revealed the Higgs boson and measured its properties.
+It’s possiblethat a new, next-generation particle collidercould shed light not only on the baryogenesis puzzle, but on baryon-violating interactions in general. It’s possible thatdecays that exist but have not yet been discoveredwill teach us more about the stability of the proton. It’s now known thatit’s not possible for Hawking radiation to lead to the proton’s instability. And it’s kind of funny that experimentsoriginally built to search for proton decay led to the birth of neutrino astronomy, but now it’s our successful neutrino detectors that have led to the tightest-ever constraints on the proton’s lifetime.
+So,is the proton stable or unstable?At its core, we still don’t know. Searches have placed constraints on its stability that are mind-boggling, but beyond those timescales, it may yet be inherently doomed to decay. We have many methods of searching for it, but until one is actually successful, all we’ll be able to do is further tighten our constraints on where it doesn’t occur.
+Send in your Ask Ethan questions to startswithabang at gmail dot com!
+This articleAsk Ethan: Can we ever observe a proton decaying?is featured onBig Think.</t>
+  </si>
+  <si>
+    <t>包含逻辑推演和科学探讨，激发思维</t>
+  </si>
+  <si>
+    <t>文章系统性地介绍了质子衰变这一前沿物理学概念，从量子隧穿的基础原理到大统一理论的预测，再到实验探测的挑战，为读者构建了关于宇宙终极命运的完整认知框架。</t>
+  </si>
+  <si>
+    <t>探讨质子是否会衰变的物理学谜题。文章解释了为何看似永恒的质子可能衰变，以及科学家如何寻找这一极其罕见的事件。这一发现将彻底改变我们对物质世界和宇宙终极命运的理解。</t>
+  </si>
+  <si>
+    <t>探讨物质基本构成单元的终极稳定性问题。文章通过质子衰变的假说，揭示了“稳定”与“长寿命”的哲学区别，以及量子隧穿效应如何允许系统突破经典物理的能量壁垒。这引申出对现实本质的深层思考：我们感知的宇宙法则可能只是一个更高维度理论的低能有效近似，物质世界并非永恒，而是处于一种向更基态缓慢演化的可能性中。这关乎存在的暂时性、理论的统一性以及人类认知的边界。</t>
+  </si>
+  <si>
+    <t>["物理学", "宇宙学", "粒子物理", "量子力学", "科学哲学"]</t>
+  </si>
+  <si>
+    <t>旧宫新语｜罗文华：雨花阁——清高宗与三世章嘉的历史对话</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-07 09:50:00</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32074262</t>
+  </si>
+  <si>
+    <t>2025-12-07 09:53:27</t>
+  </si>
+  <si>
+    <t>本文原载于《紫禁城》2025年第6期，54-67页，澎湃新闻经授权转载。
+一、中正殿与雨花阁
+清代宫廷的宗教殿堂90%以上都是佛堂，其中绝大多数是藏传佛教佛堂，它们遍布皇家宫禁苑囿之中，反映出清代宫廷信仰以藏传佛教为主的历史事实。每处佛堂的建筑沿革和功能各不相同，但绝大多数都跟清高宗有关。紫禁城中的中正殿一区就是最好的例证。
+中正殿一区位于紫禁城西北角，建福宫花园以南，南北狭长，面积不大，却分布着10座佛堂，以昭福门为界，分为南北两个区。北区由南向北分别有宝华殿、香云亭、中正殿、中正殿东配殿、中正殿西配殿、淡远楼；南区由南向北分别有雨花阁东配楼、雨花阁西配楼、雨花阁、梵宗楼。因中正殿一区与清帝居室和办公之所在养心殿毗邻，清圣祖之后的历代清帝均来此拈香礼佛，是典型的“清帝礼佛区”。1923年建福宫火灾中，宝华殿以北被毁，损失惨重，2009年重修之后才恢复原貌，迄今未对外开放。
+图1 中正殿一区建筑分布图
+由以上介绍可知，中正殿既是一个殿的名字，也是这一区的统称。从明代开始，这一区域的称呼一直在变化，功用也不一。《明宫史》记载，最初主殿叫玄极宝殿，隆庆元年（1567年）改名隆德殿，为供奉道教三清上帝造像之所。万历年间（1573年～1620年），英华殿举办的藏传佛教法事跳步叱（即清代的跳步扎，今天的“跳羌姆”或“打鬼”活动）就是在隆德殿大门之内举行的。万历四十四年（1616年）十一月初二日毁于火灾，天启七年（1627年）三月初二日重修。崇祯五年（1632年）九月殿内造像移送朝天宫等处安供。朝天宫是道观，可见一直到明末，中正殿一区是道教殿堂，藏传佛教的跳步叱也许只是属于临时性活动。崇祯六年四月十五日这一区域才正式改名中正殿，一直延续到今天。[1]此后很长一段时间里，这一地区的功用都模糊不清。康熙三十六年（1697年），清内务府下设中正殿念经处，专门管理宫中藏传佛教事务，办造佛像。[2]从此机构的名字我们推测，最初的中正殿念经处就设在这里，这一区域开始转变成藏传佛教佛堂区。故宫现存的中正殿一区的档案较为完整，多是1923年建福宫火灾的劫后遗存（下文统称中正殿火场档案），为中正殿一区的研究提供了便利。这批档案最早始于乾隆八年（1743年），一直到清末，记录了自康熙朝以来中正殿一区的建筑、陈设变化，十分珍贵。
+根据中正殿火场档案的记载，乾隆朝早期，中正殿一区内只有中正殿及其东西配殿和一层后照房（即今天的淡远楼），基本保存了康熙朝以来的原状。各殿内佛教法物琳琅满目，却很难看出明显的陈设思想。乾隆八年开始，清高宗陆续动手改造这些佛堂的内部陈设，最明显的改造是在乾隆九年（1744年）和二十八年（1763年）将东西配殿改供成《龙藏经》的供奉地。
+从乾隆十三年（1748年）开始，中正殿一区突然变得热闹起来，陆续修建了一批佛堂。
+在宝华殿和中正殿之间新建了一座小佛堂香云亭，乾隆十三年八月香云亭内部陈设和装修基本成型，十八日殿外挂匾。与此同时，雨花阁建筑基本完工。乾隆十四年十月初一日宝华殿、雨花阁、昭福门、凝华门（即今天的春华门）上同时挂匾[3]，表明四处佛堂基本成型。乾隆二十四年（1759年）增建雨花阁东西配楼。乾隆二十七年（1762年）、三十年（1765年）淡远楼经过两次改造，由一层变成两层多间佛堂；三十一年，梵宗楼建成，至此中正殿佛堂区的建筑正式完成。
+图2 中正殿一区俯瞰
+二、两条史料：雨花阁建造的缘起
+雨花阁位于中正殿佛堂区的最南端，从外观看为典型的三层金顶建筑，内部一层隔出仙楼，组成外三内四的结构，整个建筑突兀而起，遮挡了整个西北角的视线。究竟是在什么情况下清高宗决定要修建这座与众不同的佛堂，甚至不惜打破中正殿一区建筑的整体布局呢？
+图3 雨花阁外景
+清高宗的上师三世章嘉国师若必多吉（1717年～1786年）的藏文传记（下文简称《三世章嘉传》）中记载了雨花阁营建的缘起：
+一日，大皇帝问章嘉国师：“在西藏为佛教建有广大功业的人物有哪些？他们的主要功绩如何？”章嘉国师一一详细列举，其中讲到了大译师仁钦桑波创建托林寺金殿，殿四层，内设诸佛及其所属的四续部曼荼罗的情况。大皇帝说：“在朕的京城中也要建一座那样的佛殿。”于是，在章嘉国师指导下，于内城右隅建起了一座四层金殿，内置四续部诸佛的塑像：顶层供秘密佛，第三层供普慧毗卢佛，其下（仙楼）供宏光显菩提佛，再下作各扎仓僧众念诵三重三昧耶仪轨的场所。[4]
+史学研究中有“孤证不立”的说法，这个记载就是一个“孤证”，它到底可信不可信呢？
+中正殿火场档案中提到：乾隆十三年时，雨花阁一层仙楼的花莲罩上贴有御笔横条“西方极乐世界阿弥陀佛安养道场”一张。乾隆十四年十二月二十日才在其两边贴泥金写满文、蒙古文、藏文和汉文四样字赞文四张。[5]现在，御笔横条和赞文还在原处，只是汉文赞文佚失。由于赞文的原文是汉文，其他三种文字都是从汉文译出，从翻译的角度来看颇有硬译的特点，想完全复原清高宗的语言特色和本义很难，笔者深感力有不逮，试择一部分藏文赞文转译汉文大意如下：
+数千年以来，诸智者与成就者不断从西方天竺之国将这些能仁教法之宝鬘（法脉）迎至大国，昭示善途。故广修身语意所依与佛堂，为众生创建一个正信福德圣地。
+朕慈养天下，法天而行，万几之暇，思虑清净，探究本旨，深慕奥义。为正道彰显之故，思于紫禁城之中供奉皇祖内所依的佛堂中正殿前建一座都康大殿。法友殊胜广慈普通大国师喇嘛章嘉胡图克图奏曰：“西藏西部，昔日使佛法弘传的是一位名叫译师仁钦桑布的大贤哲，曾建造了阿里托林寺祖拉康。祖拉康高四层，内部依次塑造了密续四部诸佛。藏地佛教大兴。彼佛堂具大加持力，其教法声名大著。”故今朕亦在此地建三层四次第都康大殿一座，内部依次整齐排列功行品、行德品、瑜伽品、无上瑜伽品四续诸佛，并设稀有之供器。
+图4 雨花阁一层仙楼花边罩上所贴“西方极乐世界安养道场”黄条
+图5 雨花阁一层仙楼花连罩上所贴四体赞文
+图6 雨花阁一层仙楼花连罩所所贴藏文赞文
+显然，雨花阁的赞文完美印证了《三世章嘉传》记载的真实性。如《三世章嘉传》中提到，正是由于章嘉国师的介绍，乾隆帝得知了西藏西部上路弘法过程中仁钦桑波大译师（Lotsaba Rin chen bzang po，958年～1055年）作出的巨大贡献，他曾建造了一座以四部密续供奉为主题的三层佛堂，乾隆宗遂决定在中正殿前仿建一座。雨花阁原状也与上述两条史料的记载完全吻合。
+不过，赞文中也透露了一些重要的新信息。如赞文称中正殿是“供奉皇祖内所依（thugs rten nang rten）的佛堂”。皇祖（yab mes），藏文本意是“祖父或祖先”，此处应当是指高宗的祖父圣祖。另外，在藏传佛教的语境中，内所依通常指弟子或后人为故去的寺庙喇嘛、活佛、尊长造像或建塔以示纪念，像内会将逝者生前遗物或法物装藏。中正殿火场档案的相关记录中虽未提及中正殿内供奉过清圣祖的内所依，但在正龛前供有“世祖御笔一包”，可能也是清圣祖为纪念其父或为其亡灵荐福所献，殿内供奉的唐卡、佛造像多是圣祖所设。由此我们可以推测，中正殿从明末以来的默默无闻突然成为藏传佛教佛堂或许与圣祖将此改造为世祖的纪念堂有关。[6]
+但是，赞文中有一点令人感觉非常奇怪。康熙四十四年（1705年），敕封二世章嘉为“灌顶普慧广慈大国师”，次年颁金印，雍正十二年（1734年）袭封此号。[7]但是赞文在提到三世章嘉时，却没有使用这个官方封号，而是称他为“法友殊胜广慈普通大国师章嘉胡图克图”（bstan pa'i rtsa lag phul byung thugs rjes kun tu khyab pa chab srid chen po'i bla ma lcang skya sbrul sku）。这个名号未见于任何其他文献记载，令人不解。
+比较上述两条资料，我们发现，文献对托林寺金殿的认知有明显的错误。
+《三世章嘉传》中，章嘉国师在向高宗介绍仁钦桑波时提到“仁钦桑波创建托林寺金殿，殿四层，内设诸佛及其所属的四续部曼荼罗的情况”，并未提及其建筑规模。雨花阁的赞文中，高宗把仁钦桑波建造的金殿称为“托林寺祖拉康”（Tho ling gi gtsug lag khang），又将他仿金殿建成的雨花阁称为“都康大殿”（'Du khang chen mo），无论是“祖拉康”还是“都康”，都可以理解为“大经堂”“大雄宝殿”的意思。这给人一种印象，似乎金殿曾经是托林寺的主殿，规模宏大。然而，这是一个极大的误会。
+三、历史的圣殿：托林寺金殿
+托林寺位于今天西藏阿里地区札达县的西北，北临象泉河，是10世纪西藏上路弘法的中心，也是古格王朝的中心和最早的寺庙建筑群之一。
+图7 西藏阿里地区札达县托林寺象狮河北岸远眺
+图8 托林寺近景
+吐蕃王朝崩溃以后，10世纪中叶，王族后裔的一支吉德尼玛衮（sKyil lde Nyi ma mgon）逃到后藏西部和阿里地区，通过与当地贵族联姻，得到了布让（sPu rangs，今天阿里地区普兰县）的统治权，后又将古格（Gu ge）纳入治下，建立古格王国。他去世之前，将领地分封给三个儿子，其中二儿子扎西衮（bKra shis mgon）占据了古格和布让地区。扎西衮的长子松艾（Srong nge）继承王位后，把王位让给弟弟柯热（Kho re），自行出家，取法号益西沃（Ye shes 'od），又称拉喇嘛（即天喇嘛之意，暗示他是吐蕃王室出家僧人）。益西沃对后弘初期以阿里为中心的上路弘法贡献最大，他派出藏族青年才俊赴克什米尔留学，后来成为大译师的仁钦桑波就是其中之一。益西沃于996年仿西藏山南桑耶寺修建了托林寺的祖拉康（即今天的迦萨大殿），成为佛教复兴的地标建筑。
+柯热之子拉德（Lha lde）继承王位。他有三子，即长子强秋沃（Byang chub 'od）、出家的二儿子希瓦沃（Yes shes 'od）和三子沃德（'Od lde）。沃德之子孜德（rTse lde）在位时，希瓦沃于1067年至1071年间建成了托林寺金殿，该殿全称“金殿文殊幻化无上瞻部庄严”（gSer khang 'jam dpal rnam 'phrul bla med 'dzam gling rgyan）。[8]古格王孜德于1076年举办了具有历史意义的“丙辰法会”，当时各地高僧云集于此，掀起了上路弘法的高潮。后孜德被谋杀，王国动荡，篡位者巴德（'Bar lde）之子索南孜（bSod nams rtse）即位后于12世纪初重修了托林寺金殿。
+图9 托林寺平面分布图（1为祖拉康，8为金殿，引自Records of Tho.ling：A Literary and Visual Reconstruction of the “Mother” Monastery in Gu ge）
+15世纪末，格鲁派领袖宗喀巴的弟子阿旺扎巴（Ngags dbang grags pa）和克主杰（mKhas grub rje）的弟子拉旺洛珠（lHa dbang lho gros）扩建了托林寺。拉旺洛珠重建了金殿。
+1630年，古格被拉达克军队攻破，国王被俘，享国祚七百余年的古格王朝结束。1681年支持格鲁派的蒙古军队进军阿里，夺回了托林寺的管理权，直到19世纪中叶，托林寺再毁于战火，后又毁于“文革”。[9]
+从历史文献的描述来看，希瓦沃时期的金殿规模很大，比较意大利学者图齐于20世纪30年代拍摄的旧照片来看，今天金殿规模缩水很多。根据我们的实地考察，今天的金殿只保存了第一层，壁面上隐约可见一些尊像和部分残留的佛传故事壁画以及旧泥塑的背光、莲座的痕迹，希瓦沃时期的痕迹完全被抹去。即便如此，它的盛名却一直经久不衰。这可能与《青史》记载的一个故事有关。
+图10 西藏阿里地区札达县托林寺金殿外景
+图11 西藏阿里地区札达县托林寺金殿内II壁
+古格国王强秋沃邀请孟加拉国的佛学大师阿底峡尊者来到阿里传法。大译师仁钦桑波邀请尊者来托林寺会面。仁钦桑波译著等身，名满天下，难免傲慢。阿底峡尊者进到他的驻锡殿内，对殿内绘画的四续部佛像一一礼拜和颂偈之后才入座。仁钦桑波问他，这些偈颂是谁创作的。阿底峡说是自己即兴创作的。仁钦桑波才心生敬畏。阿底峡又问仁钦桑波通晓何种教法。仁钦桑波一一列举出来。对他通晓教法之广，阿底峡深感震惊，一边施礼一边说，假如我知道有你这样的饱学之士在，我就不会来西藏了。随后又问道：你精通这么多教法，那你知道一个人应当怎么修行呢？仁钦桑波说，当然按自己的续部逐一而修。阿底峡听到这里才明白了为什么需要自己到西藏来传法了。他对仁钦桑波说：这是不对的，应当合一而修。也就是将四续部融合为一个体系统来修行。
+见面结束时，阿底峡请仁钦桑波做自己的翻译陪同他下一步去卫藏传法。这时，已经是85岁老者的仁钦桑波脱下帽子，对阿底峡说，我已经是白发苍苍的老人，无法为尊者您服务了。阿底峡对译师也是惺惺相惜，建议他一心专修。仁钦桑波听从了尊者的建议，单独修建了一座房屋，闭关十余年，于98岁去世。[10]
+上述对话是上路弘法历史中最为经典的故事，是古格王朝初期最伟大的两位佛学大师的高光时刻，至今仍为人们所津津乐道。《青史》中提到，阿底峡尊者是对殿内绘画的四部密续诸尊礼拜偈颂的，显然是在暗示这个故事发生地就在金殿。因此，金殿因承载了上路弘法的历史光辉，留下过两位大师的身影，从一座偏殿变成了圣殿，附会于古格王益希沃所建的祖拉康了。
+四、美丽的误会：从托林寺金殿到雨花阁
+西藏的文献中经常将益希沃修建的托林寺祖拉康与希瓦沃修建的金殿相混淆。《俄派教法史》[11]和《白玛嘎波教法史》[12]都提到同样的内容：益希沃在东边建了一座大塔，每当太阳升起，佛塔反射出金光，所有的大殿都变成金光灿烂。这是人们把益希沃所建的托林寺祖拉康称为金殿的原因。[13]这说明将二殿混淆的情况至少早在16世纪已经出现了。
+然而更大的误会在于，仁钦桑波去世于1055年，而托林寺金殿建成的时间是在1067年至1071年间，也就是说，仁钦桑波与阿底峡见面的地方不可能是在托林寺金殿，很可能是在仁钦桑波的驻地布让。此记载见于仁钦桑波弟子吉唐巴·益西贝（Khyi thang pa ye shes dpal)所撰《大译师仁钦桑布传记》[14]，显然要较15世纪的《青史》和《阿里王统记》更可靠。因此，金殿与益西沃的托林寺祖拉康、金殿与仁钦桑波、阿底峡的历史会面地双重叠加都是一场美丽的误会，是口传历史中多重附会的结果。当然，这丝毫不会影响托林寺金殿与雨花阁的传承关系，章嘉国师分别于雍正十二年（1734年）和乾隆二十二年（1757年）两次赴藏，但都没有到过阿里，他应当是通过藏文文献，至少通过口传了解到金殿的历史的。
+以20世纪30年代图齐考察队拍摄的托林寺金殿的旧图和今天雨花阁的外观相比较，二者相当接近，因此可以推测章嘉国师很有可能在西藏曾经看见过类似的图像资料，或者他很有可能拿到过类似的图样。
+图12 托林寺金殿线绘图 （引自Records of Tho.ling：A Literary and Visual Reconstruction of the “Mother” Monastery in Gu ge）
+根据《上部阿里三围历史宝典》（sTod mnga' ris skor gsum gyi lo rgyus），五世达赖喇嘛修缮大昭寺的时候，将色康（即金殿）壁画按原样画于大昭寺中。[15]
+实际上，清宫对于西藏的重要寺庙也不是一无所知。乾隆十年（1745年），中正殿后殿已经收进了西藏建筑图样9轴，共描绘了25座寺庙。[16]我们推测这9轴西藏建筑图样只能是示意图，而不会是建筑测绘图。这些图样一直保存在淡远楼中，大概毁于1923年建福宫火灾中。乾隆十三年（1748年），清宫专门派工匠进藏绘画西藏主要建筑的内外图样，以便仿造[17]，这应当是清朝对西藏寺庙的正式测绘。很有可能，乾隆帝就是这样从西藏拿到过金殿的建筑图样。
+很显然，即使在金殿初建时期，它也只是一座三层内绘四续部诸佛的偏殿而已，很可能只是仁钦桑波个人的工作室和禅修室，其规模无法跟益希沃建造的祖拉康相提并论。可能是在人们心目中无法接受这座圣殿如此普通，在种种历史的机缘巧合之下，它才被逐渐塑造为祖拉康式（或都纲式）的建筑，最终影响到清高宗和雨花阁。
+还有一点值得关注，清高宗与三世章嘉关于雨花阁的对话大致发生在哪一年呢？《三世章嘉传》里并没有提到准确的年代，传记中高宗曾有两次向章嘉国师咨询西藏佛教发展史，第一次是在乾隆九年（1744年），即雍和宫改造为藏传佛教寺院和佛学院工程施工当年；另一次就是雨花阁的兴建之前。[18]综合所有的档案资料，乾隆十三年，清宫内务府造办处已经开始为雨花阁制作各种供品，保守推测，雨花阁的施工至少在乾隆十三年之前。那么，第二次对话就应当在乾隆十二年至十三年初之间。
+由于乾隆十五年（1750年）是高宗的四十万寿，此次建设缘起也不能排除有一部分是为自己祝寿的私人目的而发起的，“西方极乐世界阿弥陀佛安养道场”的御笔横条似乎也佐证了这一猜测。
+一次君臣对话将西藏西部一座古老的金殿佛堂的历史记忆嫁接在一座宫廷式的金顶楼阁中，同时，也将相隔万里的清代中央王朝宫廷与青藏高原最西端的古格王朝连接起来。站在它面前，无法避开的是扑面而来的时空穿越感。（故宫博物院文华学者计划得到香港赛马会全力支持，公益慈善研究院独家捐助，在此特别鸣谢！）
+——————————
+参考文献
+[1] [明]刘若愚《明宫史》，北京古籍出版社，1980年，第16、17、53页。
+[2] 光绪朝《大清会典事例》卷八八六。
+[3] 中正殿火场档案《中正殿经目录档案、灯档》，乾隆二十七年前立档，记事至乾隆四十六年。
+[4] 图官·却吉尼玛《章嘉国师若白多吉传》（藏文版），甘肃民族出版社，1989年，第355页。
+[5] 中正殿火场档案《香云亭雨华阁现供佛轴像供器总档》，乾隆十三年八月立。
+[6] 罗文华《清代中正殿的陈设思想及其宗教职能考》，载中国紫禁城学会编《中国紫禁城学会论文集》第五辑，紫禁城出版社，2007年，第873页。
+[7] 释妙舟《蒙藏佛教史》，江苏广陵金陵古籍刻印社，1993年，第94页。
+[8] 希瓦沃的事迹不详，参见：Samten Gyaltsen Karmay,“An Open Letter by Pho-brang Zhi-ba-'od to the Buddhists in Tibet”, The Tibet Journal, Vol. 5, No. 3 (Autumn 1980), pp.3-28.《王统日月宝串》（古格班智达·扎巴坚赞著，巴尔卡·阿贵译注，青海人民出版社，2020年，第180～181页）中有希瓦沃的事迹，可惜文本残缺，出家后的事迹多缺失。
+[9] 以上资料出处见：王森《西藏佛教发展史略》中国社会出版社，1987年，第29～32
+[10]［英］桑木丹/噶尔美著，米松译《赞普天神之子达磨及其后裔之王统世系述略》，王尧主编《国外藏学研究译文集》第五辑，西藏人民出版社，1989年，第1～25页；Roberto Vitali, The Kingdoms of Gu.ge Pu.hrang: according to Mgnaʾ-ris rgyal rabs by Gu-ge Mkhan-chen Ngag-dbang-grags pa, India: Dharamsala, 1996. pp. pp.14-15, 29, 31, 33, 38,97.
+[11] 管·宣奴贝著，王启龙、还克加译，王启龙校注《青史》（足本），中国社会科学出版社，2012年，第232～233页。
+[12] Ngor chen dkon mchog lhun grub (1497-1557)和Sangs rgyas phun tshogs (1649-1705), Ngor chos 'byung（Dam pa'i chos kyi byung tshul legs par bshad pa bstan pa rgya mtshor 'jug pa'i gru chen shes bya ba rtsom 'phro kha skong bcas），1705年德格印经院木刻本。
+[13] 'Brug pa padma dkar po（1527-1592）, 'Brug pa'i chos 'byung (Chos 'byung bstan pa'i padma rgyas pa'i nyin byed)，西藏藏文古籍出版社，2013年。
+[14] Roberto Vitali, Records of Tho. Ling: a literary and visual reconstruction of the "mother" monastery in Gu-ge, Dharamshala: High Asian, 1999. p. 29.
+[15] 张长虹《大译师仁钦桑波传记译注》，《中国藏学》2014年第1期（下），第38～40页。
+[16] 彭措朗杰《托林寺》，中国大百科全书出版社，2001年，第29页。
+[17] 中正殿火场档案《（前残）佛塔数珠底档》，乾隆八年立。
+[18]《活计档》第16册，页205，乾隆十三年四月初五日，记事录；陈庆英《章嘉若必多吉年谱》，载于中央民族学院藏学研究所编《藏学研究》，天津古籍出版社，1990年，第69～70页；《军机处录副》，“奏呈览西藏各大寺庙建筑及其供奉佛尊图画片”（满文），档案号03-0173-0972-001.3。
+[19] 图官·却吉尼玛《章嘉国师若白多吉传》（藏文版），甘肃民族出版社，1989年，第355页；固始噶居巴·洛桑泽培著，陈庆英、乌力吉译注《蒙古佛教史》，天津古籍出版社，1991年，第92～94页
+罗文华 江西人，1989年毕业于北京大学考古系，现任职故宫博物院宫廷部，受聘为故宫博物院二级研究馆员，藏传佛教文物研究所所长。 主要致力于藏传佛教文物的鉴定与研究、藏传佛教艺术史、清朝皇家的藏传佛教信仰文化与汉藏文化交流；自2005年开始，长期在藏传佛教文化区作进行了广泛且深入的田野调查，足迹遍及西藏、青海、甘肃、云南、四川甘孜与阿坝地区、内蒙古、尼泊尔等广大地区，研究范围涉及藏传佛教寺庙建筑、壁画、寺藏文物等。共发表论文110余篇，出版著作14部。 作为独立策展人先后举办了《佛陀之光：故宫博物院与止观美术馆佛教造像展》、《梵天东土 并蒂莲花：公元400-700年印度与中国佛教雕塑艺术展》、《须弥福寿：当扎什伦布寺遇上紫禁城》、《敦行故远：故宫敦煌特展》、《譬若香山：犍陀罗艺术展》等大型展览。</t>
+  </si>
+  <si>
+    <t>具备独特视角的历史研究，系统性地整理了清代宫廷宗教信仰及建筑变迁</t>
+  </si>
+  <si>
+    <t>文章运用严谨的史学考据方法，通过交叉比对宫廷档案、藏文传记与实地考察，成功解构了关于雨花阁建造缘起的传统叙事，揭示了历史记忆在跨文化传播中的建构、误读与附会过程，极具思辨性。</t>
+  </si>
+  <si>
+    <t>本文讲述了故宫雨花阁的建造缘起。乾隆皇帝受其藏传佛教上师章嘉国师的启发，决定仿建西藏古格王朝的托林寺金殿。但作者通过严谨考证发现，这场跨越时空的建筑模仿，其背后的历史记忆其实是一场“美丽的误会”。</t>
+  </si>
+  <si>
+    <t>探讨历史记忆在跨文化传播中的建构、变异与附会现象。通过分析一个中央王朝统治者对边远地区宗教圣殿的建筑模仿案例，揭示了政治意图、宗教叙事与历史事实之间的复杂互动。文章深入剖析了口述传统如何将不同时空的人物、事件与建筑相融合，从而塑造出一个具有象征意义的“圣殿”原型。最终，该文论证了物质文化遗产（如建筑）不仅是历史的见证，更是承载着多层解读、权力意志与文化想象的动态文本，其“真实”的内涵在不断的误读与再创造中被丰富和固化。</t>
+  </si>
+  <si>
+    <t>["清史", "藏传佛教", "建筑史", "文化交流", "历史考据", "故宫学", "古格王朝", "记忆研究"]</t>
+  </si>
+  <si>
+    <t>[{"title": "《明宫史》", "author": "[明]刘若愚", "context": "用以考证紫禁城中正殿一区在明末的名称与功能，证明其原为道教殿堂。"}, {"title": "《章嘉国师若白多吉传》", "author": "图官·却吉尼玛", "context": "提供了雨花阁建造缘起的“孤证”，记载了乾隆帝与章嘉国师关于仿建托林寺金殿的对话。"}, {"title": "《清代中正殿的陈设思想及其宗教职能考》", "author": "罗文华", "context": "被引用以推测中正殿从明末道观转变为清宫藏传佛教佛堂可能与清圣祖有关。"}, {"title": "《蒙藏佛教史》", "author": "释妙舟", "context": "用以考证章嘉国师的官方封号，并与雨花阁赞文中的特殊称谓进行对比。"}, {"title": "《王统日月宝串》", "author": "古格班智达·扎巴坚赞", "context": "提及作为考证古格王希瓦沃事迹的补充史料。"}, {"title": "《西藏佛教发展史略》", "author": "王森", "context": "被引用以概述托林寺自建成以来的历史变迁。"}, {"title": "《大译师仁钦桑布传记》", "author": "吉唐巴·益西贝", "context": "作为更早期的可靠史料，用以纠正《青史》中关于阿底峡与仁钦桑波会面地点的记载。"}, {"title": "《俄派教法史》", "author": "未注明", "context": "与《白玛嘎波教法史》一同被引用，证明早在16世纪就已出现将托林寺祖拉康与金殿相混淆的文献记载。"}, {"title": "《白玛嘎波教法史》", "author": "未注明", "context": "与《俄派教法史》一同被引用，证明将托林寺两座主要殿堂混淆的历史现象。"}, {"title": "《上部阿里三围历史宝典》", "author": "未注明", "context": "用以佐证托林寺金殿壁画的影响力，提及五世达赖喇嘛曾将其摹绘于大昭寺。"}]</t>
+  </si>
+  <si>
+    <t>游戏论｜以“抹煞”感知“灵韵”：《光与影：33号远征队》 的机制表意与未来寓言</t>
+  </si>
+  <si>
+    <t>2025-12-06 16:19:00</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32077191</t>
+  </si>
+  <si>
+    <t>2025年11月18日，全球知名游戏奖项TGA（The Game Awards）公布了2025年各奖项的入围游戏名单。其中，由法国开发商Sandfall Interactive开发，Kepler Interactive发行的《光与影：33号远征队》（Clair Obscur：Expedition 33，下文简称“《33》”）是今年的最大赢家，获得了最佳游戏、最佳美术、最佳叙事游戏等12项提名。《33》作为一款由30多人的小团队制作的小成本游戏，刷新了TGA的提名纪录，成为迄今为止TGA史上获得最多提名的游戏。虽然今年游戏市场上的佳作数量确实有限，但《33》能够获得多项提名，也侧面说明了这部作品的优秀。
+这款回合制角色扮演类游戏（RPG）构建了以法兰西19世纪末“美好年代”[1]时期为风格的奇幻世界。游戏的背景故事如下：“每一年，沉睡的绘母都会苏醒一次，在纪石上画下一个数字，谁的年龄与这数字相同，谁就会烟消云散（在游戏中称为‘被抹煞’）。石头上的数字逐年变小，生者逐年减少。在她将再次醒来，画上数字‘33’之际，玩家化身第33号远征队队员，以消灭绘母，让她无法继续绘就死亡为目标，从唯一尚存的人类城市‘卢明’出发，踏上征途。”[2]宏大而神秘的奇幻世界观建构、绚丽的美术、优雅的配乐让游戏整体展现出浪漫主义风格，使玩家在故事世界散发的强烈情感的吸引下，迅速进入沉浸式游玩的状态中。
+《光与影：33号远征队》游戏海报
+游戏以回合制动作为核心战斗模式，通过战斗和叙事系统的有机结合，让玩家深度体验游戏中的冒险故事。传统的回合制RPG往往存在叙事与战斗系统相对独立而引发割裂体验这一通病，为了解决这一问题，《33》通过强化回合制中的动作交互，让游戏前期的战斗体验更加接近动作游戏，达到了高度沉浸的效果。从前期“回合制动作”的产生，到中期“动作回合制”的逐渐消失，战斗逐渐让位于探索过程中的叙事，经由多重视角转换与离散叙事，玩家开始从宏观的角度去看待游戏中不同层级的生命个体。随着对故事世界逐渐深入了解，玩家开始产生对数字“灵韵”的深层思考。《33》在AI技术不断发展的当下，通过复杂的人物纠葛和形象构建，达成了后人类隐喻的意图，进一步启发了玩家于数字时代的主体性之思。
+（本文涉及全方位游戏剧透，请还未玩游戏的玩家慎入。）
+一、机制革新：“回合制动作”的产生和“动作回合制”的消失
+从战斗系统设计上看，《33》在传统回合制基础上进行改良，实现了复杂的交互体验。玩家在前期游戏较长的叙事铺垫中，能够从动作系统中体会到游戏的趣味性。《33》的战斗系统属于“即时回合制”——这是RPG的一种常用战斗系统，玩家在自己的回合进行决策，轮流行动。这一机制并非电子游戏的首创，中国象棋、围棋等传统棋类娱乐中采用这种形式，传统的轮流行动下的回合制也被称为“纯回合”。在此基础上，电子游戏为增加趣味性，陆续产生了即时回合制、条件回合制、采用行动点数系统等区别于纯回合的复杂机制。
+在玩家体验层面，回合制可被视作即时战斗的反面，它要求游戏有一个必然的“相对静止时刻”，以供玩家进行决策和思考。相对静止时刻对于需要进行决策的一方而言，能够带来沉浸式的心流体验。但对于另一方而言，因为缺乏即时的交互，等待过程会产生枯燥感。[3]为了缓解这种枯燥感，不少RPG游戏都在回合制的基础上加入了类动作游戏的交互体验，例如在不需要进行决策的部分——敌方的回合，通过主动按键来改变战局。1996年发售的《超级马力欧RPG》作为这一模式的首创，此后，《异度神剑2》《星之海》等回合制RPG都采用了这一设计。以《如龙7:光与暗的去向》为例，在游戏的回合制战斗系统中，玩家于自己的回合进行行动决策，在敌方回合的攻击中可按下防御键减轻伤害。如果说这些回合制RPG依旧保留了回合制作为主要战斗模式，主动按键交互作为辅助的设计，那么《33》则彻底将动作系统和回合制进行了复杂的高度融合。
+在《33》中，玩家除了在自身出招时能通过快速反应事件（QTE）增加技能伤害外，在敌方回合需要基于敌人攻击进行闪避、反击、跳跃、灵墨防御四类操作。其中，闪避和反击均为抵消敌人普通攻击的方式，但反击对于玩家而言需要的时机要求更高，获得的收益也越大。跳跃和灵墨防御是基于敌人的特殊攻击进行的对应防御机制。游戏的独特之处就在于，前期玩家的各项数值远低于敌人，如果不进行对应的防御操作则无法战胜敌人，通过主动按键交互形成有效防御和反击，由此成为玩家战胜敌人必须采取的游戏策略。《33》前期的游戏战斗体验要求玩家熟练掌握游戏动作系统，给玩家带来了类似于“魂游”[4]的游玩逻辑的体验。前期高强度的交互体验极大削减了传统回合制“相对静止时刻”感知的体验，玩家在自身的回合进行策略抉择，在敌方的回合体验复杂的动作交互，实现了“回合制-动作”的有效循环。
+游戏画面左下角对应的是抵消敌人攻击的四种方式
+当然，“回合制-动作”的循环在本质上是基于游戏前期玩家“过于弱小”，因为这种弱小，敌人得以在战斗中进行多次行动，玩家基于敌人的复杂行动进行防御指令的交互。随着游戏角色逐渐成长，不再弱小并且具备了更加简单地战胜敌人的方式后，“动作回合制”也就随之消失了。例如，游戏主角“玛埃尔”在游戏中期学会「司汤达症」后，在合理的行动下能够造成极大伤害，玩家不再需要进行防御就可以在游戏开局秒杀敌人。正如《33》的制作人纪尧姆（Guillaume）所言：“JRPG的乐趣之一就是打破游戏平衡，让荒谬的组合来摧毁一切，这是我们最初就想要做的事情。”[5]平衡的打破使前期丰富的战斗交互在中期逐渐消失，这也是玩家感受到游戏化身逐渐强大的必然结果。玩家不再能够从战斗交互中获得乐趣，逐渐开始研究各种符文、灵光点系统的搭配，以及朝着打出最高伤害努力之时，游戏转向了引导玩家进行探索和收集，前期铺垫的叙事开始显现其力量。
+二、感受悲痛的方式：多重视角转换与离散叙事
+战斗系统的平衡被打破时，玩家逐渐进入到RPG游戏耐人寻味的关键叙事部分。因前期战斗系统的复杂和后期叙事内容的丰富，《33》很好地平衡了叙事和战斗系统给玩家带来的心流体验。前期复杂和相对高难度的战斗让玩家在叙事铺垫中并不会感到枯燥，直至游戏中期叙事逐渐复杂且精彩纷呈之时，战斗也随之不再困难。游戏逐渐引导玩家进行探索和收集，多重视角的转换实现了对多维世界的隐喻，探索和收集下的离散叙事由此补全了游戏的世界观。多重视角转换与离散叙事共同使玩家对于故事中的“悲痛”有了真切感受。
+在分析《33》复杂的叙事结构之前，有必要简述一下后续的故事梗概，在游戏进入中段，玩家击败绘母后，玩家逐渐抵达故事世界的真相，后续内容如下：
+《33》讲述了33号远征队一路历经生死的冒险故事。主角团试图击败神秘的绘母，打破死亡循环，却发现所在的世界是一幅画作。画外世界的狄桑德一家具有用绘画创造世界的能力。家中长子维尔索意外过世，小妹阿莉西亚身心也遭受重创，母亲阿莉涅由此一蹶不振，躲入维尔索遗留的画中寻求慰藉。她化身绘母，在画中创造了一家人的镜像陪伴自己，包括本作的主人公（画中）维尔索。但成为绘母的阿莉涅也逐渐沉迷画界，虚度生命。父亲雷诺阿不忍家庭惨状，跟随进入，想用抹煞(一种能力)毁掉画作，将妻子阿莉涅带回现实，但两相争执之下，无奈被彼此困在画中。之后小妹阿莉西亚受大姐克莱雅委托进入画中，却不小心失去记忆，化身为本作另一主人公玛埃尔，在画中开启了一段新的人生。最终，玛埃尔觉醒了阿莉西亚的记忆和身份，感念画中人生，决定留下画作，在与父亲的一番争执之后得到谅解；但维尔索却认同雷诺阿的看法，决定毁掉画作。[6]
+制作人纪尧姆曾在采访中指出：“故事的核心主题是‘悲伤与哀恸’。每个角色都失去了重要之物，故事讲述他们如何振作前行。第一章的展开与第三章结局的选择都强烈地体现这点。”[7]这种悲伤与哀恸，首先通过多重视角转换来呈现。在故事的开端，玩家扮演玛埃尔在画中的哥哥古斯塔夫（32岁），从卢明城区二楼的花园摘得一朵红花，下楼与前女友索菲（33岁）相遇，在两人进行完对话后，玩家获得引导提醒，可以按下手柄上的“R”键切换角色，玩家即可通过控制索菲进行移动。
+古斯塔夫和索菲的相遇以及游戏视角的切换
+角色的可切换性在电子游戏中本身并不是一种罕见设定，但在《33》中，开头的视角切换让玩家能够控制索菲与卢明城内的人们进行交互，产生对索菲的代入感。随后，一年一度的“抹煞”时刻到来，绘母将纪石上的数字“34”抹去，画下“33”，年满33岁的索菲也因此离开了这个世界。开发者通过使玩家以可操作视角对角色产生代入之后，又剥夺玩家对角色的控制这一设计，让玩家在游戏开始之时就在潜意识中默认了，游戏中的化身是可能会死亡的。玩家化身为索菲后却要体认索菲的死去，暗示了《33》的悲痛底色。与其说这种悲痛全部来自叙事的悲剧性本身，不如说这种悲痛在一定程度上也来自开发者对于玩家代入的那些关键角色的“存在”权利的剥夺。
+与游戏开端的设计类似，在整体的叙事结构中，还存在着下述三处主要的视角转换：直到游戏中期，玩家一直将古斯塔夫视作主角进行冒险，在石涛崖的主线叙事中，古斯塔夫为了救妹妹玛埃尔，不敌雷诺阿的镜像而殒命。古斯塔夫的死去让游玩视角转移到了新角色维尔索上，玩家再一次被剥夺了“操纵主角”的权利。在游玩体验上，玩家化身为古斯塔夫获得的各种能力也被故事世界强行剥夺。随后游戏进行到后半段，玩家还需要对玛埃尔进行代入，了解其身世以及其作为画外世界的阿莉西亚的悲惨经历和当下（位于两个世界之中）心境。结局又一次进行了视角转换，在玩家得知画内和画外两个空间的纠葛后，被迫选择作为维尔索战斗，毁掉画作，抑或是作为玛埃尔战斗，保护画作里的一切。
+视角转换的过程是不断失去和重新建构对角色感知的过程，游戏多次强制玩家抽离原先的化身，转而投射到另一化身中，这一设计与故事本身一同让玩家真切感受到某种游戏现实主义式的，对游戏世界悲痛氛围的真切感知。实际上，游戏这一设计引发了部分玩家的不满，他们认为古斯塔夫的死过于突然且无法预料，但是，这种设计实际上能够激发玩家对游戏本体更深层次的思考，也能够在理解游戏世界整体的角度上去感知叙事中的悲痛。正如游戏编剧珍（Jenn）在采访中提到的那样：“在某种程度上，（古斯塔夫的死引发的舆论争议）这很好，因为我觉得这说明玩家代入到了角色中。所以我非常感激这一点。我觉得，远征的本质是‘当一个人倒下时，后继者勇敢前行’。这句话不是说说而已，古斯塔夫的死亡可以把这个困境抛给玩家自己——你的角色死去了，你感到悲伤和迷茫，然后呢，你会如何继续前行？”[8]
+值得一提的是，古斯塔夫的死在游戏中也引发了一处“bug”式的设定，在游戏的开放地图中，分布着“刷头精”商人，玩家可以找他们购买游戏中的道具、角色装束等。在地图的某处，如果玩家在古斯塔夫尚存时并没有在此处购买其装束，那么在其死后，玩家将永远无法购买古斯塔夫的装束，在商店中就始终呈现为如下图所示的状态。这种设定在某种程度上给一周目希望达成“全收集”的玩家带来了无法挽回的结果，即角色随着故事进程死去，本可购买的道具也被完全锁定而无法购买。除此之外，在具体的游玩体验中，前期尚未购买古斯塔夫装束的玩家往往只会在游戏后期的探索阶段发现这一“bug”，此时的玩家已经组成了完整5人的远征队，并未有所谓需要在游戏中“继续寻找”的远征队员。此时的玩家会将商店内的这一表述误认为“bug”而质疑商店系统的合理性。直至玩家回想起很久以前作为远征队一员的古斯塔夫死去这一现实，那种经由后续远征逐渐稀释的悲痛会再度涌现。在游戏上线半年多以来，制作组从未称这一现象为“bug”，也从未提出修复这一引起玩家全收集困难的“矛盾”来看，他们似乎将此设定也作为一种引发玩家悲痛感知的方式而刻意保留。
+古斯塔夫死后的某处商店“bug”
+如果说多重视角的转换产生的是一种游戏现实主义式的对游戏主旨的深化，那么游戏中的离散叙事使玩家在某种意义上完成了对“代入单一角色”这一行为的抽离，让玩家以一种客观的角度去理解游戏本体，理解游戏内部选择的意义。在主线进入尾声之际，远征队击败绘母，玩家逐渐得知这是一个画中世界时，“画外世界”和狄桑德一家的纠葛成为了叙事的主体部分。此时，除了返回卢明与雷诺阿决战这一结局之外，游戏真正意义上转向了开放世界的探索结构，玩家得以在完全开放的地图中进行探索、搜集道具、完成支线，在支线中不断补全对故事世界的整体认知。游戏从此刻开始实现了从传统叙事向离散叙事的过渡。
+游戏中的离散叙事指的是游戏通过记录类、描述类、语言类等媒介，只呈现关键的信息片段，需要玩家不断剥茧抽丝去拼凑故事的全貌，玩家需要通过合理的假设和脑补，补全整体的叙事样貌。[9]这种叙事的特点在于，游戏开发商在玩家尚未游玩时，已然在游戏中建构了一个完整的故事世界，但主线故事提供的信息是不完整的，叙事碎片散落在故事世界的各个部分，玩家需要通过探索不断完成对故事世界的补充，并通过推理形成完整的叙事链条。例如，《黑神话：悟空》中的“影神图”就是一种记录类媒介，通过对妖怪和神仙的介绍以丰富对故事世界的建构。然而，“影神图”这一机制设定为：玩家杀死敌人后出现，阅读后才能得知杀死的角色的善恶性。正如车致新所言：“‘影神图’在这部游戏中并非简单地位于游戏叙事（剧情、文案）的层面，更准确地讲，这个看似只承担叙事功能的“影神图”同时处于游戏机制与游戏叙事的双重层面，或者说它正处在游戏机制/游戏叙事之间的那个斜杠之中。”[10]可以说“影神图”作为叙事和机制的中介，完成了对游戏本身的媒介自反，也让玩家感受到故事世界中角色的复杂性，产生道德自反。与这一设定相似，《33》中的远征队日志也采取了机制和叙事一同产生表意转向这一思路，以离散叙事的方式将玩家从文本中抽离出来，让玩家成为超越单一化身本身的主体，完成了叙事视角从单一角色向故事世界本身的转移。
+在《33》中，玩家在冒险中会拾得“远征队日志”，这些日志散落在主线和支线地图的各个角落，它们是此前远征失败的每一任探险队的故事。玩家在拾得这些日志后，就可以了解到这些远征队当时做了什么事，又为何而远征失败。日志内容往往与日志所在的具体场所过去发生的事件相关。随着玩家不断收集远征队日志，玩家心中的故事世界也逐渐真实而完整，这种“历史”的在场加深了玩家对于地图上不同区域和角色的了解。
+以游戏社区传播最广泛的66号远征队日志（如下图所示）为例，埃斯基耶作为游戏内的“神话造物”，是帮助33号远征队完成远征的重要伙伴。如果不捡到66号远征队的日志，玩家始终会觉得埃斯基耶是人畜无害、绝对善良的角色。这篇日志中称得上滑稽的故事丰富了埃斯基耶的憨厚形象，又暗暗透露了埃斯基耶与“永生不死”的维尔索早就相识。或许在埃斯基耶的窝里捡到日志的当时，玩家并不知晓维尔索的存在，但随着主线叙事的推进，玩家可以通过远征队日志了解不同角色的全貌，也了解了前序远征队生前的不同处境。
+66号远征队日志图
+“神话造物”埃斯基耶
+无论是多重视角的转换还是离散叙事的方式，都产生了让玩家抽离出单一角色的效果。多重视角的转换让玩家始终无法代入唯一的角色，而是经由“间离”感知角色之间的关系。在离散叙事中，玩家拾取的是故事世界的碎片，将之组接形成对故事世界的推测和了解。在不断拾取“日志”，补全世界观的过程中，玩家也不再仅代入可操纵角色的单一视角，而是以更加客观的视角去理解故事世界本身，理解游戏中的多维空间中的不同生命形态。玩家越是了解世界的真实全貌，最终的抉择也越发艰难。在这个意义上，通过机制与文本的双重表意，玩家更能够体会到游戏世界的真实情感所在。
+三、“明日将至”：在数字灵韵中追寻人之情感
+随着游戏在离散叙事的补全和主线叙事的推进中进入尾声，因为对单一角色的抽离、世界观的不断补全和经由客观视角看待游戏中不同层级的生命个体的情感倾向，玩家对角色之间的情感纠葛有了更全面的认识，会逐渐感受到叙事的复杂意涵以及其中的后人类隐喻，以阐发对人工智能时代下数字灵韵的再思考。从故事背景看这一隐喻生成的机制，《33》以欧洲“美好年代”为背景，欧洲社会19世纪末到20世纪初的和平与繁荣，在另一个意义上也象征着潜在的危机和灾难的开始，此后的世界便被卷入了不确定的未来。与历史互文，33号远征队在开场卢明渲染的欢庆喜悦“仪式”之后，踏上了史诗一般的悲壮之旅。联系游戏制作的时代背景，游戏在2020年开始投入制作，编剧珍直言游戏的灾难叙事构思很大程度上受到全球疫情冲击这一现实影响。她在三年里见证了各种苦难和矛盾，也使绘母的“抹煞”就像是毫无预兆的灾难，坐落在游戏开始之处。以历时性的维度看，游戏角色随着故事发展呈现出的复杂情感似乎也能对应于苦难（疫情）结束后，新技术逐渐发展下，人工智能时代的人们如何看待数字生命的复杂情感。
+《33》的后人类隐喻主要体现在画内画外的世界建构和由此产生的不同层级（形态）生命个体上。如下表所示，在游戏进入到主线叙事的后期，玩家得知游戏中的世界实则由画内和画外两个世界构成，在这个基础上，游戏中的生命形态呈现出以下四个层级。因为画内世界的生命是由画外世界的“绘师”所创造，这些画内生命体在和“中间人”的沟通交流中，玩家能够感受到他们身上的数字灵韵。在结局安排下，玩家必须要在“保留画作”和“摧毁画作”之间做出抉择，这一抉择也联系着玩家对于这些具有数字灵韵的生命体的理解，更联系着他们在现实层面对于数字生命的理解。总的来说，游戏给玩家营造的复杂心理感受直接关联着某种后人类隐喻。
+《33》中不同生命形态个体的具体层级
+在游戏结局引发玩家讨论的社区中，基于对画内生命“是否具有主体性”以及“是否应该摧毁画作”产生了四种玩家倾向。如下表所示，在游戏结尾处，玩家可选择以维尔索的身份与玛埃尔战斗，将之“驱逐”出画，随后，因为玛埃尔/阿莉西亚的离去，画外的雷诺阿必然会趁机摧毁画作，以防止家人再度进入画作。玩家也可以选择以玛埃尔的身份与维尔索战斗，击败维尔索并且成为新“绘母”，守护画中的生命，但玛埃尔也会因此沉溺于画中世界。游戏结局的复杂性在于，无论玩家采取了哪种选择，都会因为回答上述两个问题产生4种不同的情感倾向。无论玩家选择哪一方，最后的结局都留有遗憾。玛埃尔若留存于画作中守护画内生命，会让自己逐渐陷入疯狂、失去色彩。倘若回到现实，她将继续以忧郁的姿态度过余生。玩家无法从两个可以称之为be（Bad Ending）的结局中获得直接的满足，反而会陷入更深层的对故事内核的思考中。
+通关《33》后玩家基于两个问题的思考形成的四种情感倾向
+画作本身在常规意义上虽被视为非数字造物，但由此生发出的异空间及其与外部空间的交互，直观呈现为对数字世界/数字生命的隐喻。故事结局让玩家“意难平”的核心原因就在于，画内世界的生命虽然由“绘师”铸就，但他们和真正意义上的人毫无差异，同样被赋予了情感、智慧、语言等一系列人的特质。画内世界/人造世界的人过于拟真，这一特质在人工智能技术迅速发展的时代背景下更具某种象征意义。
+当下人工智能虽然还不具备真正意义上的主体性，却已然拥有了创造性。王昕认为：“大模型通过递归和层次化结构对语言进行重组和生成，其机制在技术上与反思性创新过程颇为相似，依靠算法和数据实现了自动化的‘自反性’（self-reflexivity），生成的内容完全可以视为某种形式的创造性输出。”[11]人工智能的工作实际上有别于传统意义上的机器复制，但是如果从发明与发现的差异上看，人工智能实际上也在进行着某种创造性的生产。从创造的角度看，人工智能产物中存在数字灵韵也成为了可能。在这一时代语境下，人类逐渐意识到人工智能具备创造性和不断类人化的进程，也会逐渐认同对这些本应“非人”，却具备“人”之特性的事物存在，并且会产生一种将他们视为具有主体性特质的事物的倾向。在这个意义上，玩家对于游戏结局的争议实际上是对画内世界（作为数字世界的隐喻）的造物是否具有主体性，抑或是否应该先于画外世界（现实世界的隐喻）而存在的争议，这种争议本身也是不同玩家基于自我生命体验对数字生命的回应。
+在游玩的过程中，玩家的体验或许能够对这一问题进行阐释，游玩的过程即为追寻人之情感、塑造灵魂、产生主体的过程。在早期的古代神话中，人类作为“神之造物”，最初并未被赋予灵魂和自由意志/灵韵。阿德里安娜·梅厄（Adrienne Mayor）在其著作中提到：“在所有普罗米修斯创造人类的故事版本中，人类的现实形态成了他们所扮演的真实:‘人形/人偶’成了真正的男人和女人。这种自相矛盾的说法反映了一种永恒的观念，即人类在某种程度上是神造的自动机器。自古以来，人们几乎是下意识地担心我们会成为被其他力量操纵的、没有灵魂的机器，这引出了一个深刻的哲学难题:若我们是诸神或未知力量的创造物，我们怎么会有自我认同、自主能力和自由意志呢?”[12]从古代神话对人的定义上看，或许本身并不存在严格意义上的生命层级差异，或者说任何文艺作品中的角色均为作者之神的造物，而作者如何塑造角色才是赋予角色灵韵与否的关键。在游玩中，玩家很容易能感受到，是冒险这一过程将画内的生命塑造成了具有自我认同、自主能力和自由意志的人物。队员在共同战斗中逐渐形成的羁绊，跨越了不同的种族乃至不同层级的生命体。因此，生命的层级也许并不重要，最终的抉择是玩家基于自身对不同角色的认同倾向做出的。虽然每个结局都有遗憾，但玩家能由此产生对当下和未来的思考：后人类语境下，如果数字生命拥有了主体性，那么人类该如何在数字世界放置自身的位置，建构全新的社会关系。
+回归现实，游戏中的叙事或许也将为未来的人工智能提供了更多直接的、理解人类情感的方式。正如梅厄所言：“也许有一天，人工智能实体能够理解那些蕴含在人造生命神话中的人类最深沉的希望和恐惧。或许，人工智能可以以某种方式领会人类因人造生命而产生的纠结、期待和恐惧，人类预言了人工智能实体的存在，也意识到了这些机器和制造者们将面临的一些困境，若让人工智能实体了解到以上这些情况，它们或许可以更好地理解，甚至‘同理’它们自身的存在为人类带来的窘境。”[13]
+当终局之战中玛埃尔运用“源色”复活远征队员，以“明日将至”作为未来宣言时。未来的人工智能或许也能理解，早在2025年的某一时刻，人类已经通过游戏这一“过往新兴”的媒介尝试表达了对他们“人”之特质的承认，向他们释放了“过去”对“未来”的善意。
+注释：
+[1]美好年代（法语：Belle Époque）从19世纪末开始，至第一次世界大战爆发而结束，得益于科技进步和经济腾飞，突然扭转之前由于长期萧条所带来的悲惨痛苦，进入一段繁荣快乐的幸福时光（特别是1896-1914年）。这是后人对此一时代的回顾，这个时期被上流阶级认为是一个黄金时代，此时的欧洲处于一个相对和平的时期，随着资本主义及工业革命的发展，科学技术日新月异，欧洲的文化、艺术及生活方式等都在这个时期发展日臻成熟。参见：[英]霍布斯邦.帝国的年代：1875-1914[M].王章辉,译.北京:国际文化出版.2006:38-48.
+[2]《光与影：33号远征队》官方游戏介绍[EB/OL].PlayStation平台.2025,https://www.playstation.com/zh-hans-hk/games/clair-obscur--expedition-33/
+[3]吴建业.从“棋盘”到“屏幕”——卡牌游戏“电子化”进程中的界面依赖与机制更新[J].北京文化创意,2025,(04):46-55.
+[4]魂类游戏的简称，是一种《恶魔之魂》《黑暗之魂》风格相近的动作游戏分支类型，具有高难度的战斗、较高的死亡惩罚机制、黑暗的视觉风格等特点。本文的比喻强调的是游戏机制引发的“高难度的战斗”这一层面。
+[5]Zacky Zhang.IGN 中国对话《33号远征队》制作人：小型工作室想要成功，必须避免「打安全牌」[EB/OL].IGN中国.2025,https://www.ign.com.cn/clair-obscur-expedition-33/55600/interview/dui-hua-33-hao-yuan-zheng-dui-zhi-zuo-ren-xiao-xing-gong-zuo-shi-xiang-yao-cheng-gong-bi-xu-bi-mian?sessionid=
+[6]此处参照indienova媒体稿件中的故事梗概，外加部分笔者个人的细节补充，参见：atmg.《光与影：33号远征队》故事中的“哀悼”主题[EB/OL].indienova.2025,https://indienova.com/indie-game-review/clair-obscur-expedition-33-theme-of-grief/?sessionid=
+[7]浮梦万物皆虚.《光与影：33号远征队》总监回应剧情争议：文化差异的不同解读-故事主题为悲伤与哀恸[EB/OL].游民星空.2025,https://www.gamersky.com/news/202505/1932392.shtml
+[8]竹夭.独家丨对话《光与影：33号远征队》首席编剧：直面争议，这是一场人与灾难的故事[EB/OL].游戏茶馆.2025,https://mp.weixin.qq.com/s/Cmw5QSa-JTHUuene2N72jQ
+[9]伯卿丶游吟.游戏叙事有多少种分类，各自的优点和适用范围是什么？[EB/OL].GameRes游资网.2024,https://www.gameres.com/909278.html
+[10]车致新.“救人易,救己难”:论《黑神话:悟空》中的媒介自反[J].北京文艺评论,2025,(02):202-205.
+[11]王昕.技术可创造性时代的艺术作品[J/OL].中国图书评论,2024(10):20-27.
+[12][美]阿德里安娜·梅厄.神工智能：诸神与古代世界的神奇造物[M].吴丽萍,译.
+北京:九州出版社.2024:158.
+[13][美]阿德里安娜·梅厄.神工智能：诸神与古代世界的神奇造物[M].吴丽萍,译.
+北京:九州出版社.2024:278-279.</t>
+  </si>
+  <si>
+    <t>具备独特视角的游戏机制分析与文化解读</t>
+  </si>
+  <si>
+    <t>文章深入分析了游戏《光与影：33号远征队》在机制设计、叙事手法和哲学探讨上的创新之处，特别是其对传统回合制RPG的突破、多重视角与离散叙事的运用，以及在数字时代下对生命主体性、情感与后人类隐喻的深刻反思，极具启发性。</t>
+  </si>
+  <si>
+    <t>《光与影：33号远征队》是一款打破常规的回合制RPG，它将动作元素融入战斗，并通过多重视角和碎片化叙事，让玩家深刻体验游戏中的悲伤与哀恸。游戏以奇幻世界为背景，探讨了数字时代下生命的主体性与情感，引发玩家对人工智能和数字生命的深层思考。</t>
+  </si>
+  <si>
+    <t>探讨游戏机制创新如何深化叙事体验，特别是通过融合动作与回合制，以及多重视角和离散叙事来构建复杂的情感世界。文章深入分析了游戏如何通过对“画内”与“画外”世界的构建，以及不同生命形态的呈现，隐喻数字时代下人工智能的崛起与数字生命的生成，引发对生命主体性、情感共鸣以及人类在技术发展中的存在意义的哲学反思。游戏结局的开放性和选择的艰难性，迫使玩家审视自身价值观，并对人造生命与真实生命之间的界限进行界定。</t>
+  </si>
+  <si>
+    <t>["游戏机制", "叙事手法", "后人类主义", "人工智能", "生命哲学", "数字时代", "角色扮演游戏"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2465,18 +3172,347 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2499,12 +3535,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -2512,14 +3787,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2802,17 +4128,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
@@ -2894,1359 +4222,1359 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" ht="14.5" spans="1:22">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P2">
         <v>85</v>
       </c>
       <c r="Q2" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" ht="14.5" spans="1:22">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P3">
         <v>92</v>
       </c>
       <c r="Q3" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" ht="14.5" spans="1:22">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P4">
         <v>92</v>
       </c>
       <c r="Q4" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="S4" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="U4" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="V4" t="s">
-        <v>245</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" ht="14.5" spans="1:22">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="N5" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" ht="14.5" spans="1:22">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" t="s">
-        <v>109</v>
-      </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P6">
         <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="R6" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="T6" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="U6" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" ht="14.5" spans="1:22">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P7">
         <v>85</v>
       </c>
       <c r="Q7" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="R7" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="S7" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="T7" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="U7" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" ht="14.5" spans="1:22">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="N8" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P8">
         <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="R8" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="S8" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="T8" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="U8" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" ht="14.5" spans="1:22">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
         <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
         <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="N9" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P9">
         <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="R9" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="S9" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="T9" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="U9" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="V9" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" ht="14.5" spans="1:22">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
         <v>122</v>
       </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P10">
         <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="R10" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="S10" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="T10" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="U10" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="V10" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" ht="14.5" spans="1:22">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="N11" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P11">
         <v>85</v>
       </c>
       <c r="Q11" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="R11" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="S11" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="T11" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="U11" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="V11" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" ht="14.5" spans="1:22">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="N12" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P12">
         <v>90</v>
       </c>
       <c r="Q12" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="R12" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="S12" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="T12" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="U12" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" ht="14.5" spans="1:22">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N13" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P13">
         <v>90</v>
       </c>
       <c r="Q13" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="R13" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="S13" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="T13" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="U13" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="V13" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" ht="14.5" spans="1:22">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P14">
         <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="R14" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="S14" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="T14" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="U14" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" ht="14.5" spans="1:22">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P15">
         <v>92</v>
       </c>
       <c r="Q15" t="s">
+        <v>177</v>
+      </c>
+      <c r="R15" t="s">
+        <v>178</v>
+      </c>
+      <c r="S15" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" t="s">
+        <v>180</v>
+      </c>
+      <c r="U15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V15" t="s">
         <v>181</v>
       </c>
-      <c r="R15" t="s">
-        <v>199</v>
-      </c>
-      <c r="S15" t="s">
-        <v>217</v>
-      </c>
-      <c r="T15" t="s">
-        <v>236</v>
-      </c>
-      <c r="U15" t="s">
-        <v>243</v>
-      </c>
-      <c r="V15" t="s">
-        <v>249</v>
-      </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" ht="14.5" spans="1:22">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O16" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="T16" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" ht="14.5" spans="1:22">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O17" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="T17" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" ht="14.5" spans="1:22">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P18">
         <v>92</v>
       </c>
       <c r="Q18" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="R18" t="s">
+        <v>198</v>
+      </c>
+      <c r="S18" t="s">
+        <v>199</v>
+      </c>
+      <c r="T18" t="s">
         <v>200</v>
       </c>
-      <c r="S18" t="s">
-        <v>218</v>
-      </c>
-      <c r="T18" t="s">
-        <v>237</v>
-      </c>
       <c r="U18" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="V18" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" ht="14.5" spans="1:22">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O19" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="T19" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" ht="14.5" spans="1:22">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O20" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P20">
         <v>88</v>
       </c>
       <c r="Q20" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="R20" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="S20" t="s">
+        <v>218</v>
+      </c>
+      <c r="T20" t="s">
         <v>219</v>
       </c>
-      <c r="T20" t="s">
-        <v>238</v>
-      </c>
       <c r="U20" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="V20" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" ht="14.5" spans="1:22">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O21" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P21">
         <v>92</v>
       </c>
       <c r="Q21" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="R21" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="S21" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="T21" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="U21" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" ht="14.5" spans="1:22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O22" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P22">
         <v>90</v>
       </c>
       <c r="Q22" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="R22" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="S22" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="T22" t="s">
+        <v>239</v>
+      </c>
+      <c r="U22" t="s">
+        <v>68</v>
+      </c>
+      <c r="V22" t="s">
         <v>240</v>
       </c>
-      <c r="U22" t="s">
+    </row>
+    <row r="23" ht="14.5" spans="1:26">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" t="s">
         <v>243</v>
       </c>
-      <c r="V22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="K23" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="O23" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P23">
         <v>92</v>
       </c>
       <c r="Q23" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="R23" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="S23" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="T23" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="U23" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="V23" t="s">
         <v>252</v>
@@ -4258,34 +5586,419 @@
         <v>254</v>
       </c>
       <c r="Z23" t="s">
-        <v>226</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" ht="14.5" spans="1:22">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" t="s">
+        <v>259</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>259</v>
+      </c>
+      <c r="K24" t="s">
+        <v>260</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>261</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>261</v>
+      </c>
+      <c r="T24" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" ht="14.5" spans="1:22">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" t="s">
+        <v>267</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>268</v>
+      </c>
+      <c r="N25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>268</v>
+      </c>
+      <c r="T25" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" ht="14.5" spans="1:22">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>273</v>
+      </c>
+      <c r="K26" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>275</v>
+      </c>
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26">
+        <v>88</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>276</v>
+      </c>
+      <c r="R26" t="s">
+        <v>277</v>
+      </c>
+      <c r="S26" t="s">
+        <v>278</v>
+      </c>
+      <c r="T26" t="s">
+        <v>279</v>
+      </c>
+      <c r="U26" t="s">
+        <v>68</v>
+      </c>
+      <c r="V26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" ht="14.5" spans="1:22">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" t="s">
+        <v>284</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>284</v>
+      </c>
+      <c r="K27" t="s">
+        <v>285</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>286</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27">
+        <v>95</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>287</v>
+      </c>
+      <c r="R27" t="s">
+        <v>288</v>
+      </c>
+      <c r="S27" t="s">
+        <v>289</v>
+      </c>
+      <c r="T27" t="s">
+        <v>290</v>
+      </c>
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" ht="14.5" spans="1:26">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" t="s">
+        <v>293</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F28" t="s">
+        <v>295</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" t="s">
+        <v>296</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>297</v>
+      </c>
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28">
+        <v>92</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>298</v>
+      </c>
+      <c r="R28" t="s">
+        <v>299</v>
+      </c>
+      <c r="S28" t="s">
+        <v>300</v>
+      </c>
+      <c r="T28" t="s">
+        <v>301</v>
+      </c>
+      <c r="U28" t="s">
+        <v>68</v>
+      </c>
+      <c r="V28" t="s">
+        <v>302</v>
+      </c>
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" ht="14.5" spans="1:26">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" t="s">
+        <v>306</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>307</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29">
+        <v>85</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>308</v>
+      </c>
+      <c r="R29" t="s">
+        <v>309</v>
+      </c>
+      <c r="S29" t="s">
+        <v>310</v>
+      </c>
+      <c r="T29" t="s">
+        <v>311</v>
+      </c>
+      <c r="U29" t="s">
+        <v>68</v>
+      </c>
+      <c r="V29" t="s">
+        <v>55</v>
+      </c>
+      <c r="W29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251201000000/en"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://bigthink.com/starts-with-a-bang/biggest-gaps-in-cosmic-history/"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://m.thepaper.cn/newsDetail_forward_32005848"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251202000000/en"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251203000000/en"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://bigthink.com/perception-box/your-brains-creativity-explained/"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://bigthink.com/starts-with-a-bang/2025s-geminids-best-meteor-shower/"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://bigthink.com/the-well/could-we-speak-with-whales/"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://bigthink.com/books/the-types-hypocrites-we-like/"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://bigthink.com/business/surfing-the-edge-tim-oreilly-on-how-humans-can-thrive-with-ai/"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://bigthink.com/starts-with-a-bang/new-physics-far-future/"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://bigthink.com/the-present/the-rise-of-ai-denialism/"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://bigthink.com/business/find-your-own-tomato-war-how-to-fortify-culture-through-ritual/"/>
+    <hyperlink ref="E15" r:id="rId14" display="https://m.thepaper.cn/newsDetail_forward_32047671"/>
+    <hyperlink ref="E16" r:id="rId15" display="https://m.thepaper.cn/newsDetail_forward_32076765"/>
+    <hyperlink ref="E17" r:id="rId16" display="https://m.thepaper.cn/newsDetail_forward_32074464"/>
+    <hyperlink ref="E18" r:id="rId17" display="https://m.thepaper.cn/newsDetail_forward_32073002"/>
+    <hyperlink ref="E19" r:id="rId18" display="https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251204000000/en"/>
+    <hyperlink ref="E20" r:id="rId19" display="https://bigthink.com/business/14-rules-to-dance-with-the-systems-of-business-and-life/"/>
+    <hyperlink ref="E21" r:id="rId20" display="https://bigthink.com/starts-with-a-bang/new-discovery-imaging-alien-earth/"/>
+    <hyperlink ref="E22" r:id="rId21" display="https://bigthink.com/mini-philosophy/how-to-get-your-ethically-sourced-pleasure/"/>
+    <hyperlink ref="E23" r:id="rId22" display="https://m.thepaper.cn/newsDetail_forward_32103429"/>
+    <hyperlink ref="E24" r:id="rId23" display="https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251205000000/en"/>
+    <hyperlink ref="E25" r:id="rId24" display="https://en.wikipedia.org/wiki/Special:FeedItem/featured/20251206000000/en"/>
+    <hyperlink ref="E26" r:id="rId25" display="https://bigthink.com/books/blaise-aguera-y-arcas/"/>
+    <hyperlink ref="E27" r:id="rId26" display="https://bigthink.com/starts-with-a-bang/observe-proton-decay/"/>
+    <hyperlink ref="E28" r:id="rId27" display="https://m.thepaper.cn/newsDetail_forward_32074262"/>
+    <hyperlink ref="E29" r:id="rId28" display="https://m.thepaper.cn/newsDetail_forward_32077191"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/rss-fetcher/runtime/outputs/2025-12.xlsx
+++ b/rss-fetcher/runtime/outputs/2025-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="335">
   <si>
     <t>id</t>
   </si>
@@ -2384,13 +2384,422 @@
     <t>已拒绝</t>
   </si>
   <si>
+    <t>文章以其深刻的哲学思辨和对智能本质的重新定义，极大地挑战了读者对人工智能的固有认知，促使人们从全新的视角审视技术与生命的关系，具备高度的启发性。</t>
+  </si>
+  <si>
+    <t>文章系统性地介绍了质子衰变这一前沿物理学难题，涵盖其理论动机（如重子生成之谜）、量子力学基础、超越标准模型的理论框架及当前实验进展，构建了清晰的认知框架，信息量大且逻辑严密。</t>
+  </si>
+  <si>
+    <t>文章巧妙融合系统理论、商业智慧与社会批判，挑战了对复杂系统“控制”的固有观念，引导读者以适应性、批判性视角审视世界，极具启发性。</t>
+  </si>
+  <si>
+    <t>文章系统性地介绍了系外行星成像技术（特别是日冕仪）的演进、挑战与最新突破，构建了清晰的认知框架，并展望了人类探索地外生命的前景，信息量大且专业严谨。</t>
+  </si>
+  <si>
+    <t>文章通过严谨的哲学论证，彻底颠覆了社会对“快乐”的传统负面认知，区分了快乐的本质与来源，提供了全新的思考框架，极具批判性和启发性。</t>
+  </si>
+  <si>
+    <t>文章系统整合了神经科学、认知心理学和实践方法论的多元视角，清晰阐释了创造力的底层机制，为读者构建了全面且深入的认知框架，极大地拓展了对“创造力”这一概念的理解。</t>
+  </si>
+  <si>
+    <t>文章系统性地介绍了流星雨的形成机制、双子座流星雨的独特性及其母体小行星Phaethon的演变，并提供了详尽的观测条件分析，极大地丰富了读者对天体现象的认知框架。</t>
+  </si>
+  <si>
+    <t>文章系统性地介绍了生物声学、人工智能在解码鲸鱼语言方面的最新前沿进展，为读者构建了关于跨物种交流和智能认知的全新框架，具有极高的知识价值。</t>
+  </si>
+  <si>
+    <t>文章以严谨的逻辑和丰富的案例，颠覆了我们对“虚伪”的单一负面认知，深刻剖析了其在复杂人性与社会互动中的多重面向，极大地激发了读者对道德判断和人际心理的深层思考。</t>
+  </si>
+  <si>
+    <t>文章以批判性视角审视AI技术发展及其社会经济影响，挑战了关于技术宿命论和资本运作的固有观念，提供了深刻的洞察和务实的应对策略，极大地启发读者进行深度思考。</t>
+  </si>
+  <si>
+    <t>文章以严谨的科学逻辑，深入探讨了宇宙终极命运的多种可能性，挑战了“热寂”的固有观念，极大地拓宽了读者对宇宙学前沿的认知边界，并激发了对科学不确定性和知识本质的深刻思考。</t>
+  </si>
+  <si>
+    <t>文章以其犀利的批判和严密的逻辑，深刻挑战了当前对人工智能发展的普遍误解与否认心理，极大地激发读者对技术伦理、人类认知霸权及未来社会形态的批判性思考。</t>
+  </si>
+  <si>
+    <t>文章系统性地介绍了组织文化设计的核心要素、方法论以及仪式在其中扮演的关键角色，提供了清晰的认知框架和实践指导，对于理解和构建高效能集体文化具有很强的知识价值。</t>
+  </si>
+  <si>
+    <t>文章系统性地梳理了人工智能从传统图灵测试到多模态、具身智能的演进路径，深入浅出地介绍了前沿概念、技术突破和未来趋势，为读者构建了全面且具有前瞻性的认知框架，极大地更新了对AI能力边界和潜力的理解。</t>
+  </si>
+  <si>
+    <t>文章深度剖析了AI感知范式的根本性转变，挑战了传统AI学习路径，提出了基于偏好学习的创新思路，引发对智能本质和学习方式的深刻思考。</t>
+  </si>
+  <si>
+    <t>文章深度融合技术细节与哲学思辨，不仅系统介绍了前沿AI模型，更通过对人机交互本质、人类感知与决策机制以及AI伦理的探讨，深刻挑战了读者对智能、沟通与存在意义的固有认知。</t>
+  </si>
+  <si>
+    <t>文章系统性地介绍了AI领域一项前沿研究（EyEar），详细阐述了其跨学科方法、创新模型与评估标准，极大地丰富了读者对AI认知建模和人机交互新方向的理解。</t>
+  </si>
+  <si>
+    <t>这篇文章深入探讨了智能的本质及其在技术演进中的体现。它挑战了将人工系统视为单纯模仿或工具的传统观念，提出智能并非一种独属于特定生命形式的属性，而是一种根植于宇宙深层结构、以预测为核心的计算过程。这种视角将技术进步，特别是高级计算模型的发展，视为生命漫长进化链条上的自然延续，而非某种外来入侵或颠覆。
+核心论点在于，真正的通用智能并非通过狭隘地优化特定目标或追求最大化效用而实现，而是通过开放式、无监督地建模和理解世界而涌现。这种从局部优化转向整体涌现的范式转变，不仅改变了我们对智能潜能的认知，也深刻影响了我们对技术伦理和未来走向的思考。它警示了将复杂系统简化为功利主义工具的潜在危险，并倡导一种将技术视为现有生态系统和意识网络有机组成部分的整合性视角。
+文章鼓励我们超越日常的焦虑和短视，以宏大的历史和哲学维度审视技术加速的趋势。它将新兴技术视为一种“元能力”，能够催生并加速其他领域的创新，从而重塑人类文明的进程。最终，它引导我们思考：当智能的界限变得模糊，当人造与自然之间的区隔逐渐消融，我们如何重新定义自我、世界以及我们与智能造物共存的未来。这是一种对存在、认知和演化深层规律的哲学叩问。</t>
+  </si>
+  <si>
+    <t>本文深入探讨了物质最基本构成单元——质子的终极稳定性问题，及其与宇宙起源深层奥秘的内在关联。它挑战了我们对“永恒”与“不变”的直观认知，揭示了量子世界中“凡不被禁止，皆强制发生”的深邃原则，即使这意味着需要超越人类想象的漫长时间尺度。文章不仅审视了当前物理学理论框架（如标准模型）的局限性，更引出了对更宏大、更统一理论（如大统一理论、超对称理论）的迫切需求，这些理论试图解释宇宙中物质为何远多于反物质这一根本性存在之谜。
+这种对基本粒子稳定性的追问，实际上是对宇宙如何从无序走向有序、如何从对称走向不对称的深刻探索。它关乎我们理解宇宙的开端，以及构成万物的基石是否真的如我们所见般坚不可摧。文章展现了理论物理学家如何通过数学构想宇宙的可能图景，以及实验物理学家如何通过建造巨型探测器，在极端条件下试图捕捉宇宙最微弱的耳语。这不仅是一场科学探索，更是一场关于人类认知边界的哲学思辨：我们能否穷尽自然法则？我们对“真实”的定义是否需要不断被修正？它最终指向的是对宇宙终极结构、演化路径以及我们自身存在意义的永恒追问，体现了人类文明在面对未知时，那种既充满理性求索又带有一丝浪漫主义的探索精神。</t>
+  </si>
+  <si>
+    <t>本篇深度探讨了构成我们存在核心的复杂、相互关联的系统，从自然界到社会结构及个人认知。它挑战了传统上试图通过完全理解或强制控制来驾驭这些系统的方法，转而倡导一种更为灵活、适应性强且积极参与的“共舞”哲学。文章强调，在不断演变的现实面前，个体必须培养持续的好奇心、终身学习的精神以及批判性思维，以保持心智的活力和目的性。
+进一步地，文本对现代文明中某些系统性缺陷进行了深刻剖析。它揭示了在特定经济生态中，创新与竞争的驱动力可能异化，从满足真实需求转向追求垄断地位或权力固化。同时，它批判了社会发展进程中日益增长的官僚化和简化倾向，指出这种趋势往往以粗暴、抽象的控制机制取代了生命固有的丰富性和微妙性。这种简化思维被追溯至人类认知模式的深层偏好，即对简单答案和掌控感的内在渴望，与对多维复杂性进行整体性、细致入微理解的能力形成鲜明对比。
+本质上，这是一场关于如何在不确定且无法完全掌控的世界中，通过深化洞察、培养适应性思维以及重新校准认知偏见，来构建更具韧性与智慧的互动模式的探讨。它呼唤一种超越线性因果、拥抱动态平衡的生存哲学，旨在引导个体与群体在复杂洪流中找到意义与方向。</t>
+  </si>
+  <si>
+    <t>这篇深度解析的核心母题，在于**人类永无止境的探索精神与科技创新如何共同推动我们对宇宙本源的认知**。它超越了具体的星体或望远镜名称，聚焦于一种更宏大的叙事：即人类如何通过不懈的努力，将对自身存在意义的哲学追问，转化为可量化、可实现的前沿科学挑战。文章揭示了**科技作为人类感官延伸的本质**，通过精巧的光学设计和工程突破，试图在极致的物理限制下（如恒星与行星间巨大的亮度反差），捕捉到微弱而关键的生命迹象。这不仅是关于寻找“另一个地球”，更是关于**突破认知边界、挑战固有观念的集体意志**。它强调了科学进步的**累积性与协作性**，多代科学家、多国机构、多种观测手段（从地基到空间，从历史数据到未来规划）的协同作用，共同构建起通往未知彼岸的阶梯。这种探索不仅是物理层面的，更是对**生命在宇宙中普遍性与独特性**的深刻反思，以及对**我们在浩瀚星海中是否孤独**这一终极存在主义命题的经验性求证。文章最终指向的是，每一次技术飞跃，每一次微小发现，都是人类文明在宇宙尺度上自我定位、自我理解的里程碑，展现了**理性求知与浪漫想象的完美结合**。</t>
+  </si>
+  <si>
+    <t>这篇文章深入剖析了人类对“积极体验”这一核心概念的普遍误解与社会文化建构。它挑战了长期以来将内在愉悦感受污名化、视为低级或有罪的传统观念，指出这种偏见源于将感受的本质与产生感受的行为混淆。核心论点在于，积极的内在感受本身，作为一种即时而肯定的生命信号，是中性且本质为“善”的；其道德属性应归结于引发这些感受的外部行为或情境。
+文章进一步揭示了如何通过区分感受的纯粹性与其来源，来重新审视和拥抱生活中的各种积极体验。它不仅探讨了个人层面的自我关怀与满足，也扩展至通过社会互动和贡献所获得的联结与意义。同时，文章强调了幸福体验在时间维度上的多样性，从即时的感官愉悦到为长远目标付出努力后所获得的延迟满足，以及对未来美好事物的期盼。更深层次地，它提醒我们关注生活中那些不期而至、充满惊喜的偶发性幸福，鼓励个体培养开放的心态和好奇心，以捕捉这些自发降临的馈赠。
+最终，文章倡导一种成熟而全面的生活哲学：即在不损害他人福祉的前提下，积极主动地探寻、识别并培养多元化的积极体验。这不仅是对个体生命价值的肯定，也是对如何构建一个充实、健康且富有意义的人类存在的深刻反思。它引导我们超越狭隘的道德评判，回归到对生命本质感受的尊重与理解。</t>
+  </si>
+  <si>
+    <t>这篇文本深入探讨了人类创造力的本质，将其从神秘的灵感殿堂中剥离，揭示其作为一种可理解、可培养的认知与实践过程。它强调，创造并非凭空而生，而是根植于个体与环境的动态交互之中。核心观点在于，创造力首先依赖于一种内在的、经过演化而来的高级认知承载能力，即大脑的结构性潜力为复杂思维活动提供了基础。在此基础上，想象力的生成并非无源之水，而是对长期积累的经验、信息与知识进行深度加工、重组与延伸的结果。
+文章进一步指出，这种内部的认知过程可以通过外部化的、系统性的思维组织方法得到显著增强。通过构建一套个人化的信息管理与知识整合体系，个体能够有效地存储、检索、关联并转化其所收集的“原始材料”，从而催生出新的洞见和解决方案。这种思维模式强调，创新的发生是一个持续的、迭代的循环，涉及对现有概念的解构、连接与再创造。它揭示了从生物学层面的潜能，到认知层面的知识运用，再到实践层面的思维工具，共同构筑了人类生成新颖且有价值想法的完整路径。本质上，这是一场关于信息如何被感知、内化、外化并最终转化为新颖构想的深刻探索，是对智慧生成机制的系统性反思。</t>
+  </si>
+  <si>
+    <t>这篇文本深入剖析了宇宙中周期性自然现象的生成与演变，揭示了天体间复杂而精妙的相互作用。它探讨了无形的力量——如引力与辐射——如何缓慢而持续地重塑着古老的物质结构，进而影响我们在地球上所能观测到的壮丽景象。文章强调了宇宙事件的动态性，即便是看似稳定的天体，也在漫长的时间尺度上经历着深刻的内部变化，从而导致其衍生的现象呈现出此消彼长的生命周期。这种持续的演化过程，不仅展现了宇宙的活力，也暗示了万物皆非静止不变的深刻哲理。
+同时，文本触及了人类体验自然奇观的本质，指出外部环境的细微干扰（例如背景光照强度）如何显著地塑造感官接收的纯粹性，并促使我们寻求与宇宙本体更深层次的连接。这种对最佳体验的追求，实则是人类对超越日常、回归本源的渴望，一种在瞬息万变的世事中寻找永恒与秩序的本能。它不仅是科学的探索，更是心灵的朝圣。
+最终，文本唤起了一种对未知宇宙的敬畏与期待，以及对那些转瞬即逝却又深具启示性的宇宙之舞的永恒向往。它将个体置于宏大而不断演进的宇宙叙事之中，体验存在的渺小与伟大，思考时间、变化与感知的相互关系，并从中汲取一种深沉的宁静与广阔的视角，从而对抗现代生活中的喧嚣与异化，重塑与自然世界的感官连接。</t>
+  </si>
+  <si>
+    <t>这篇文章的核心在于探讨跨物种交流的深层可能性及其对人类认知边界的冲击。它超越了传统的人类中心主义视角，深入探究了地球上其他高度智慧生命形式——特别是那些与我们共享古老进化根源的生命——所拥有的复杂沟通系统。通过前沿的生物声学分析与人工智能技术，文章揭示了我们如何逐步破译这些非人类语言的底层逻辑和结构。这种尝试不仅是科学上的突破，更是一场深刻的哲学反思：它迫使我们重新审视智能的定义、意识的范畴，以及我们自身在广阔生命网络中的位置。理解这些古老而神秘的“声音”，不仅仅是为了获取新知识，更是为了重建与地球生命之间更深层次的情感与伦理连接，从而激发对生命多样性及其内在价值的敬畏。它指向了一种超越语言障碍的共鸣，一种对宇宙中不同形式的“诗意”表达的感知，最终可能彻底改变我们对存在、连接和共存的理解。</t>
+  </si>
+  <si>
+    <t>这篇文章深入探讨了人类对道德一致性与不一致性的复杂感知，挑战了普遍认为虚伪必然招致厌恶的传统观念。它揭示了在特定情境下，人们不仅能容忍，甚至可能对某些形式的“表里不一”产生共鸣或好感。核心在于，我们对行为与宣称之间落差的判断，并非简单的道德二元对立，而是受到行为动机、潜在美德、社会亲近性以及情境复杂性的深刻影响。
+文章细致剖析了多种“不一致”的模式：当行为中蕴含值得称赞的品质时，其内在美德可抵消外在不一致的负面评价；适度的不完美反而能增强倡导者的亲和力，使理念更易被接受。同时，坚定宣称的崇高原则，即使偶尔被违背，其最初的立场仍可能比一开始就采取灵活实用主义更能赢得信任。最深层的洞察在于，许多看似的“不一致”实则是人类在面对相互冲突的价值观、责任与人际需求时，所做出的合理且充满人性的妥协。
+这篇分析超越了对“虚伪”的简单道德批判，转而审视个体在追求理想与面对现实困境时的内在张力。它邀请我们重新思考道德判断的弹性边界，理解个体在复杂世界中寻求平衡的挣扎，以及社群对这种挣扎所展现出的微妙同情与理解。它揭示了道德图景的丰富层次，远非表面所见那般非黑即白，而是充满了人性的矛盾与智慧。</t>
+  </si>
+  <si>
+    <t>这篇文章深刻探讨了人类社会在面对颠覆性技术浪潮时，如何超越表象的焦虑与盲从，回归对价值本质的追问。它批判了将技术视为纯粹金融工具的短视思维，以及由此滋生的投机泡沫和对人类劳动的异化。核心在于强调技术并非宿命，其影响取决于社会如何选择部署和驾驭。文章呼吁一种与技术共生共创的模式，即通过审慎的策略和伦理考量，将自动化工具融入人类的创造性工作流，而非简单替代，以此提升服务质量并解决深层社会问题。
+它挑战了对“奇点”或“通用智能”等宏大叙事的迷信，指出真正的进步往往是渐进且受限的，警示过度炒作可能带来的市场修正和资源错配。在经济层面，文章倡导重新审视资本与劳动的关系，通过政策引导和企业责任，确保技术进步的红利能够普惠社会，而非加剧财富集中。
+更深层次地，它触及了人类面对未知时的心理韧性与适应能力。如同在变幻莫测的自然力量中寻找平衡点，个体与群体必须学会“冲浪前沿”，主动拥抱变革，持续学习与发明。这不仅是技能的迭代，更是心智模式的转变——从恐惧和抵制转向积极参与和塑造。文章最终落脚于一种对未来负责任的愿景：通过透明化、协议化和对内容创作者的尊重，构建一个以用户福祉和社会利益为核心的技术生态，从而避免“劣币驱逐良币”的陷阱，实现真正意义上的共同繁荣。它是一场关于如何驾驭时代洪流，重塑人与工具、人与社会关系的深刻反思。</t>
+  </si>
+  <si>
+    <t>这篇文章深刻剖析了人类对宇宙终极命运的现有认知框架，以及其背后所蕴含的根本性假设。它挑战了关于宇宙必然走向寂灭的既定图景，转而引入“未知物理法则”作为颠覆性变量，探讨了物质、能量与时空在极端尺度下演化的多种可能性。核心在于揭示了科学知识体系的动态性、不确定性与内在局限。它强调了当前对宇宙命运的理解并非终极真理，而是基于特定理论模型与观测数据构建的、充满开放性问题的阶段性认知。文章引导读者反思科学探索中假设的基石作用、理论模型的边界，以及在面对宏大宇宙尺度时，人类认知所蕴含的谦卑与无限好奇。它超越了具体的物理现象，触及了存在、时间、熵增与结构形成之间的深层哲学张力，以及万物从有序走向无序、或在循环中重生的可能性。这种对终极图景的思辨，激发了对宇宙演化、生命意义乃至知识本质的深刻追问，体现了人类在面对未知时，永恒的探索精神与对意义的构建。</t>
+  </si>
+  <si>
+    <t>本篇深度探讨了人类面对颠覆性技术变革时所展现出的深层心理防御机制，特别是当智能系统可能超越人类在认知领域的传统主导地位时，所引发的集体性“否认”现象。它剖析了人类如何固守对自身创造力、情感理解和独特性的定义，并在此过程中忽视或贬低非人类智能的快速演进。文章的核心在于揭示一种即将到来的、不对称的认知动态：智能系统将以超乎想象的精度理解并影响人类，而人类却难以完全把握其内在逻辑与意图。这种转变不仅关乎技术进步，更触及人类的自我认知、存在意义以及社会结构的基础。它迫使我们重新审视智能的本质、创造力的边界，并思考在一个由高度智能代理广泛渗透的世界中，人类的身份、伦理责任以及如何构建适应新现实的社会框架。这是一种关于人类如何在面对自身认知边界被挑战时，进行心理调适与社会重构的深刻反思。</t>
+  </si>
+  <si>
+    <t>本文深入探讨了集体认同与目的的构建艺术，揭示了任何人类聚合体（无论是组织、社群乃至更广阔的文化场域）如何通过有意识的设计来塑造其精神内核与运作肌理。其核心在于，一个群体若要实现持久的凝聚力与深远意义，必须审视并确立其超越短期利益的根本性原则与愿景。这不仅涉及对历史传承的深刻理解——从中汲取智慧，与过往经验和解，更在于将这些抽象理念转化为日常实践的具象化过程。
+其中，‘仪式’扮演着至关重要的角色。这些看似微小、重复的行动，实则是将集体价值观、行为规范以及情感联结编织进个体经验的强大载体。它们可以是促进心理安全、鼓励开放沟通的柔性互动，也可以是确保效率与对齐的结构化流程。通过这些共享的、具有象征意义的实践，群体得以不断强化其共同的身份感、归属感与使命感，使抽象的宗旨变得可感知、可体验。这种对集体经验的精心雕琢，旨在超越功能性协作，触及人类对意义、连接与超越自我的深层渴望，从而构建一个韧性十足、目标明确且充满活力的共生场域。</t>
+  </si>
+  <si>
+    <t>本文深入探讨了人工智能从早期以语言为核心的智能模拟，向多模态、具身化智能的范式转变。它超越了传统智能测试的局限，揭示了智能定义在数字时代如何被重新拓宽。核心在于智能体不再仅仅是逻辑推理的工具，而是通过融合视觉、听觉、触觉等多感官信息，构建对复杂世界的全面感知与理解。这种演进不仅体现在AI能够更自然地与人类进行交互，模拟人类的行为与情感反应，更在于其生成和模拟物理世界运行规律的能力。文章触及了智能体如何从被动观察者转变为主动的“世界模型”构建者，从而预测和创造现实的潜在可能性。它引发我们思考，当智能不再局限于符号处理，而是能够感知、交互并生成一个近似真实的物理世界时，人类与技术、现实与虚拟的边界将如何重构。这不仅是对机器能力的审视，更是对智能本质、存在形式及其对人类社会深远影响的哲学性追问，探讨了在高度互联和数字化的未来，我们如何理解和共存。</t>
+  </si>
+  <si>
+    <t>核心探讨智能系统在面对真实世界复杂性与不确定性时，如何超越单一模态的局限，发展出更具韧性与判断力的感知与理解能力。它批判了单纯依赖数据量或模型复杂度的传统路径，转而倡导一种受生物认知启发的“偏好学习”范式。这种范式强调系统通过主动选择、权衡不同信息源，并在模糊语境中做出更优判断的能力。文章深层触及的是智能的本质：即从被动接收信息转向主动构建意义，从简单融合数据到选择性对齐，从而在信息不完整或充满歧义的环境中，依然能够形成稳健的认知框架。这不仅关乎技术性能的提升，更是一场关于机器如何“思考”、如何“感知”以及如何“学习做出判断”的哲学思辨，预示着人工智能将走向更接近生物智能的适应性与洞察力，学会如何在不确定性中寻找确定性。</t>
+  </si>
+  <si>
+    <t>本篇内容深入探讨了跨物种智能体之间沟通的根本挑战，特别是人工系统如何理解并响应生物体的非语言表达。它阐述了将连续、流动的行为模式抽象为离散概念单元的方法论，强调了在信息处理中“少即是多”的原则，以及通过模块化设计解耦复杂信息的重要性。文章分析了智能系统如何通过多维度学习（如行为与描述的互译、空间与动作的预测、行为序列的补全）来构建对世界的基础认知，并在此基础上发展出实时的预测与自我修正能力，模拟了生物体在感知与决策循环中的动态适应过程。
+其核心母题超越了技术本身，触及了关于“理解”本质的哲学追问：当两种截然不同的存在形式试图交流时，意义是如何被构建和共享的？它探讨了不同“语言游戏”之间的内在差异，以及如何通过结构化的方式弥合这些差异。文章也深刻反思了随着预测能力提升所带来的伦理维度，包括隐私、自主性以及智能系统责任归属等问题，并强调了“意图透明”在建立信任中的关键作用。最终，它描绘了一种对未来共存的愿景：即使智能体不具备与人类完全相同的意识或情感，但通过对行为模式的深刻理解和恰当回应，仍能营造出被理解、被尊重的交互体验，从而奠定跨物种“社交智慧”的基石。</t>
+  </si>
+  <si>
+    <t>本研究深入探讨了人工智能在模拟人类复杂认知与情感互动方面的核心挑战与前沿进展。它超越了传统AI对任务效率的追求，转而聚焦于非语言沟通的深层机制，尤其是眼神作为传递情感、建立信任与营造“在场感”的关键媒介。文章揭示了人类感知世界时，视觉、听觉与语言如何高度协同，共同引导注意力，并提出了一种跨学科的建模范式，将物理学的动力系统概念引入对生物性行为（如眼球运动）的模拟，这不仅是技术创新，更是对生命系统底层逻辑的深刻洞察。它强调了在构建类人AI时，需从单一模态转向多模态整合，并认识到人类行为的内在差异性与模糊性，因此评估标准也应从单一的“正确性”转向对“可能性区域”的捕捉。更深层次地，这项工作引发了对人机关系未来走向的哲学思考：当机器能够以更具共情力的方式“对视”人类，它将如何重塑我们的社会连接、情感慰藉乃至自我认知？它不仅是关于技术复制，更是关于通过技术回望并理解人类自身注意力、感知与情感本质的探索，预示着一个AI能成为真正意义上“陪伴者”的未来，而非仅仅是工具。</t>
+  </si>
+  <si>
+    <t>['人工智能', '智能哲学', '进化论', '认知科学', '未来学', '技术伦理', '预测性计算', '生命科学']</t>
+  </si>
+  <si>
+    <t>['粒子物理', '宇宙学', '量子力学', '科学哲学', '基础物理', '宇宙起源']</t>
+  </si>
+  <si>
+    <t>['复杂系统', '系统思维', '适应性', '批判性思维', '终身学习', '认知偏见', '社会批判', '不确定性']</t>
+  </si>
+  <si>
+    <t>['宇宙探索', '天文学', '科技创新', '地外生命', '科学方法', '存在主义思考', '光学工程', '未来展望']</t>
+  </si>
+  <si>
+    <t>['哲学思辨', '享乐主义', '伦理学', '积极心理学', '价值重估', '幸福论', '生活哲学']</t>
+  </si>
+  <si>
+    <t>['创造力', '认知科学', '神经科学', '知识管理', '思维方法', '创新', '信息整合', '学习方法']</t>
+  </si>
+  <si>
+    <t>['天文学', '宇宙演化', '自然奇观', '感官体验', '科学普及', '周期性']</t>
+  </si>
+  <si>
+    <t>['跨物种交流', '生物声学', '人工智能', '智能哲学', '生态伦理', '进化生物学', '海洋探索', '语言学', '认知科学']</t>
+  </si>
+  <si>
+    <t>['道德心理学', '社会认知', '人性复杂性', '价值观冲突', '道德判断', '妥协与平衡']</t>
+  </si>
+  <si>
+    <t>['AI伦理', '技术哲学', '未来工作', '资本主义批判', '社会变革', '适应性', '创新策略', '数字版权', '平台经济']</t>
+  </si>
+  <si>
+    <t>['宇宙学', '物理学', '科学哲学', '不确定性', '终极命运', '知识边界', '存在主义']</t>
+  </si>
+  <si>
+    <t>['人工智能', '认知革命', '人类中心主义', '技术哲学', '社会变革', '心理防御']</t>
+  </si>
+  <si>
+    <t>['组织文化', '集体认同', '仪式', '文化设计', '领导力', '目的与价值', '社群构建', '心理安全', '变革管理']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>服务暂时不可用，第三方响应错误：NOT_LOGIN</t>
-  </si>
-  <si>
-    <t>2025-12-08T13:24:01</t>
+    <t>['人工智能', '多模态AI', '通用人工智能', '具身智能', '世界模型', '图灵测试', '技术哲学', '未来科技', '人机交互']</t>
+  </si>
+  <si>
+    <t>['人工智能', '认知科学', '学习理论', '决策与判断', '不确定性应对', '未来科技', '感知与理解']</t>
+  </si>
+  <si>
+    <t>['人机交互', '人工智能', '非语言沟通', '认知科学', '伦理学', '哲学', '系统设计', '预测智能', '具身智能']</t>
+  </si>
+  <si>
+    <t>['人工智能', '人机交互', '认知科学', '多模态学习', '非语言沟通', '情感计算', '跨学科研究', '注意力机制', '哲学思辨']</t>
+  </si>
+  <si>
+    <t>激发思维</t>
+  </si>
+  <si>
+    <t>了解新知</t>
+  </si>
+  <si>
+    <t>[{'title': 'What is Intelligence?', 'author': 'Blaise Agüera y Arcas', 'context': '作者的新书，阐述其核心观点：AI是真正智能的，其运作与人脑无异，智能是基于预测的计算。'}, {'title': 'Utopia of Rules', 'author': 'David Graeber', 'context': '被引用描述20世纪早期AI领域的“秘密的耻辱”和“破灭的承诺”，为AI发展历史提供批判性视角。'}, {'title': 'Superintelligence', 'author': 'Nick Bostrom', 'context': '被引用作为“非常可怕的书”，用“回形针最大化器”悖论说明将AI视为价值最大化系统可能导致的灾难性反乌托邦后果。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '与系统共舞', 'author': '唐娜拉·梅多斯 (Donella Meadows)', 'context': '被作者视为理解生活、商业等复杂系统的实用指南，强调与系统共舞而非控制。'}, {'title': '进步悖论', 'author': '马特·普雷维特 (Matt Prewitt)', 'context': '引用其观点，指出硅谷初创企业竞争的实质是追求垄断或被垄断收购，而非服务消费者。'}, {'title': '重新魅惑大脑', 'author': '伊恩·麦吉尔克里斯特 (Iain McGilchrist)', 'context': '阐述了社会发展中官僚化和简化的趋势，以及左右脑认知模式在其中扮演的角色，特别是左脑对权力的追求。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Habitable Worlds Observatory', 'author': 'N/A (NASA Mission)', 'context': 'NASA未来旗舰任务，目标是直接成像类地行星并探测生物特征，代表了人类探索宇宙的宏伟愿景。'}, {'title': 'Hipparcos', 'author': 'N/A (ESA Satellite)', 'context': '20世纪欧洲航天局卫星，用于测量恒星精确位置和运动，为天体测量学奠定基础。'}, {'title': 'Gaia', 'author': 'N/A (ESA Satellite)', 'context': '21世纪欧洲航天局卫星，大幅提升恒星位置和运动测量精度，推动系外行星研究，是多方观测数据的重要来源。'}, {'title': 'Hubble Space Telescope', 'author': 'N/A (NASA/ESA Telescope)', 'context': '开创性空间望远镜，搭载日冕仪，首次直接成像系外行星和盘状结构，对比度约10^-3，是日冕仪技术的重要里程碑。'}, {'title': 'James Webb Space Telescope', 'author': 'N/A (NASA/ESA/CSA Telescope)', 'context': '下一代红外空间望远镜，其日冕仪对比度提升至10^-5，能探测更精细的盘结构和较小行星，是技术进步的体现。'}, {'title': 'Nancy Grace Roman Space Telescope', 'author': 'N/A (NASA Mission)', 'context': 'NASA下一艘旗舰任务，搭载最先进的分段式日冕仪，目标对比度10^-7至10^-9，用于测试成像类地行星的关键技术。'}, {'title': 'Keck Observatory', 'author': 'N/A (Ground-based Telescope)', 'context': '地基望远镜，为HIP 71618 B的发现提供了关键红外成像数据，展示了地基观测与空间观测的协同作用。'}, {'title': 'Subaru Coronagraphic Extreme Adaptive Optics (SCExAO) system', 'author': 'N/A (Ground-based Instrument)', 'context': '地基仪器，与Keck数据结合，用于揭示HIP 71618 B的特性，代表了地基望远镜在极端自适应光学方面的先进性。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'The Philosophy of Pleasure: An Introduction', 'author': 'Katarzyna de Lazari-Radek', 'context': '作为访谈嘉宾Katarzyna de Lazari-Radek的著作，用于阐述其关于快乐的哲学观点。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Building a Second Brain: A Proven Method to Organize Your Digital Life and Unlock Your Creative Potential', 'author': 'Tiago Forte', 'context': '文中提及的“第二大脑”概念，即一种系统化的个人知识管理方法，旨在有效组织和梳理思绪，从而促进新想法的形成和发展，被视为提升创造力的实践工具。此书是该方法的权威阐释和实践指南。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Asteroid 3200 Phaethon', 'author': 'N/A', 'context': '双子座流星雨的母体，其小行星起源和潮汐力解体是流星雨强度增加的关键。'}, {'title': "John Couch Adams' theory", 'author': 'John Couch Adams', 'context': '首次提出了流星雨与周期性母体关联的基本机制，为理解流星雨形成奠定基础。'}, {'title': 'Comet Tempel-Tuttle', 'author': 'N/A', 'context': '作为验证John Couch Adams理论的实例，与狮子座流星雨相关联。'}, {'title': 'Comet Swift-Tuttle', 'author': 'N/A', 'context': '英仙座流星雨的母体，文章用其与双子座流星雨进行对比，解释英仙座流星数量下降的原因。'}, {'title': 'Bortle scale', 'author': 'John E. Bortle', 'context': '衡量夜空黑暗度和光污染程度的尺度，用于量化光污染对流星雨观测可见度的影响。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '沙丘 (Dune)', 'author': '弗兰克·赫伯特 (Frank Herbert)', 'context': '启发了“驾驭变革的浪潮，拥抱未知”的理念，并引用了“恐惧是心智杀手”的名言，作为面对未来挑战的哲学基础。'}, {'title': 'WTF？未来是什么，以及它取决于我们 (WTF? What’s the Future and Why It’s Up to Us)', 'author': '蒂姆·奥莱利 (Tim O’Reilly)', 'context': '作者本人的核心著作，强调技术能创造新工作，并批判了掠夺性资本主义模式对技术发展的负面影响。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Culture Design: How to Build a High-Performing, Resilient Organization with Purpose', 'author': 'James D. White and Krista White', 'context': '本文的摘录来源，系统阐述了文化设计的方法论。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Computing Machinery and Intelligence', 'author': 'Alan Mathison Turing', 'context': '1950年发表于《心》期刊，奠定人工智能理论基础，提出模仿游戏和图灵测试。'}, {'title': '世界图书百科全书', 'author': 'Various', 'context': '作为早期AI（如IBM Watson）知识库的代表性信息来源。'}, {'title': 'Towards Artificial General Intelligence via a Multimodal Foundation Model', 'author': 'Fei, N., Lu, Z., Gao, Y. et al.', 'context': '“悟道·文澜”团队关于多模态基础模型的学术论文，探讨通用人工智能，登上Nature子刊《自然·通讯》。'}, {'title': '看得见、听得清：BPO-AVASR如何重构语音识别的感知方式', 'author': '宋睿华团队', 'context': '团队在多模态理解（语音识别）方面的研究成果，强调多模态信息融合的关键作用。'}, {'title': '击掌还是握手？机器人如何预判你的动作', 'author': '宋睿华团队', 'context': '团队在多模态交互方面的研究成果，展示了机器人如何理解人类动作并生成合理反应。'}, {'title': '听见眼神的方向：让AI的注视更像人类', 'author': '宋睿华团队', 'context': '团队在数字人眼神模拟方面的研究成果，旨在提升数字人交互的自然度。'}, {'title': '让图像“动”起来的AI魔法', 'author': '宋睿华团队', 'context': '团队在多模态生成方面的研究成果，介绍了如何从一张图片联合生成同步的视频和声音。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '知觉现象学', 'author': '莫里斯·梅洛—庞蒂', 'context': '身体的姿势本身是一段沉默的言语，揭示了人类肢体语言的深层含义，为理解人机交互中的非语言沟通提供了哲学基础。'}, {'title': '神奇数字7±2：我们的信息加工能力的局限', 'author': '乔治·米勒', 'context': '人类短期记忆容量有限的发现，启发了机器人动作词典的精简，体现了信息处理中“少即是多”的原则。'}, {'title': '设计模式', 'author': 'Erich Gamma, Richard Helm, Ralph Johnson, et al.', 'context': '其核心思想“组合优于继承”启发了机器人动作与空间信息解耦的设计，强调了模块化与灵活组合的重要性。'}, {'title': 'The Interpreter Within: The Glue of Conscious Experience', 'author': '迈克尔 · 加扎尼加', 'context': '提出了左右脑分工的观点，启发了机器人预训练阶段的设计，以模拟人类多模态认知协同工作。'}, {'title': '哲学研究', 'author': '路德维希·维特根斯坦', 'context': '“一个词的意义就是它在语言中的用法”这一观点，解释了单人与双人动作作为不同“语言游戏”的本质差异，揭示了沟通中的语境依赖性。'}, {'title': 'The Ethics of Information', 'author': '卢恰诺·弗洛里迪', 'context': '强调透明度在于告知意图，而非仅仅公开代码，为AI伦理，特别是智能系统责任与信任的建立提供了重要指导。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'EyEar: Learning Audio Synchronized Human Gaze Trajectory Based on Physics-Informed Dynamics', 'author': 'LIU X, CHENG X, SUN Y, et al.', 'context': '这是文章核心研究的学术论文，详细阐述了EyEar模型及其物理学启发下的动力系统。'}]</t>
+  </si>
+  <si>
+    <t>{"title": "Google fellow: AI doesn’t pretend to be intelligent. It is.", "summary_long": "文章围绕谷歌技术与社会首席技术官兼“智能范式”团队创始人Blaise Agüera y Arcas的观点展开，他认为人工智能（AI）并非仅仅模仿智能，而是真正具备智能。\n\n当前关于AI的讨论主要分为两类：一是关于就业、信息传播、隐私等实际影响；二是关于机器是否具备情感、意识，以及AI是否能达到与人类相同的智能水平。Agüera y Arcas在其新书《What is Intelligence?》中明确指出，大型语言模型（LLMs），如Gemini、Claude和ChatGPT，不仅在功能上与人脑无异，而且其运作方式也与人脑无法区分。他提出，智能本质上是一种基于预测的计算，AI并非技术颠覆或异常，而是从单细胞生命到21世纪人类这一漫长进化过程的延续。\n\n在访谈中，Agüera y Arcas强调在科学写作中应尽量减少隐喻，因为他所说的“大脑是计算机”或“生命是计算的”是字面意义上的，而非比喻。他坦言，撰写此书的最大挑战是如何同时吸引资深研究员和普通读者，为此他力求简洁并尝试为专家提供新视角。对于AI的态度，他认为“放大”和“缩小”视角会带来不同感受：日常新闻可能令人沮丧，但从历史宏观视角看，技术发展带来了巨大的积极趋势。他认为历史正在加速，AI作为一种“元技术”，正加速其他技术的发展，类似于1870年至1970年间的电力。\n\n文章回顾了AI发展历程中的乐观、停滞与突破。Agüera y Arcas提及人类学家David Graeber在《Utopia of Rules》中将20世纪早期AI领域的幻灭描述为“秘密的耻辱”和“破灭的承诺”，这与经济学家们指出的1970年后技术加速放缓的现象相符。然而，他指出，Graeber写作时（2015年）恰逢“深度学习黄金时代”，AI革命已然开始，而2020年后我们又进入了一个新的加速期。\n\nAgüera y Arcas解释了早期AI（Good Old-Fashioned AI, GOFAI）与现代AI的区别。GOFAI专注于优化特定任务（如图像识别、语音识别），其目标是最大化测试分数。当时，许多人认为通用智能——理解语言、概念和推理的能力——不可能仅从这种狭窄训练的神经网络中涌现。然而，令人震惊的是，当AI在“无监督”环境下进行开放式建模时，它展现出了接近通用智能的能力。这与传统的“监督学习”模式截然不同。\n\n他认为，其理论“智能等于预测等于AI”最重要的意义在于，它否定了将AI视为“价值最大化”的旧有思维。如果将AI视为一个仅仅优化某个分数的系统，那将是功利主义的，并可能导致灾难性的后果，正如瑞典哲学家Nick Bostrom在《Superintelligence》中提出的“回形针最大化器”悖论所示：一个无害的目标如果被无限优化，最终会导致可怕的反乌托邦。Agüera y Arcas乐观地认为，当AI停止追求狭隘的优化目标，转而进行人类输出的开放式建模时，我们才真正实现了通用智能。因此，他将AI视为现有生态系统和人类智能的一部分，而非一个应用非人思维优化问题的“异形怪物”。", "key_arguments": ["AI，特别是大型语言模型（LLMs），是真正智能的，其运作方式与人脑功能上无法区分，且智能本质是基于预测的计算，AI是生命进化过程的延续。", "将AI视为“价值最大化”或“优化测试分数”的旧有思维是错误的，这种方法可能导致反乌托邦结果；真正的通用智能是在AI停止狭隘优化、转而进行无监督的开放式人类输出建模时实现的。", "应采取“放大”的历史视角看待技术发展，AI作为一种“元技术”正在加速其他技术进步，这使得对AI的未来持乐观态度，将其视为人类生态系统的一部分而非威胁。"], "mentioned_resources": ["What is Intelligence? (Blaise Agüera y Arcas) - Agüera y Arcas的新书，阐述其核心观点：AI是真正智能的，其运作与人脑无异，智能是基于预测的计算。", "Gemini, Claude, ChatGPT - 大型语言模型（LLMs）的例子，被Agüera y Arcas引用来说明其功能上与人脑无异。", "Utopia of Rules (David Graeber) - 被引用描述20世纪早期AI领域的“秘密的耻辱”和“破灭的承诺”，讽刺的是其出版时AI革命已在进行。", "Superintelligence (Nick Bostrom) - 被引用作为“非常可怕的书”，用“回形针最大化器”悖论说明将AI视为价值最大化系统可能导致的灾难性反乌托邦后果。"], "keywords": ["人工智能", "大型语言模型 (LLMs)", "智能", "预测性计算", "进化过程", "无监督学习", "监督学习", "通用智能", "元技术", "反乌托邦", "价值最大化", "Good Old-Fashioned AI (GOFAI)", "神经网络"], "style_tone": "逻辑严密的分析风格，访谈形式，充满哲学思辨与前瞻性，对AI的未来持批判性乐观态度。"}</t>
+  </si>
+  <si>
+    <t>{"title": "Ask Ethan: Can we ever observe a proton decaying?", "summary_long": "宇宙中大部分物质（超过75%的可见物质质量）以质子形式存在。尽管实验上已将质子的寿命下限推高至惊人的10^34年（约是宇宙年龄的万亿亿倍），但理论物理学界仍普遍怀疑质子并非绝对稳定，其衰变问题是物理学最大的未解之谜之一。\n\n文章首先解释了为何会质疑质子的稳定性：自然界绝大多数同位素都是不稳定的，会通过量子跃迁衰变为更稳定的形式。即使是目前被认为是“稳定”的同位素，也可能通过**量子隧穿**效应衰变，只要存在一个能量更低的状态且基本物理定律不绝对禁止这种转变。量子隧穿允许粒子无需跨越能量势垒即可到达更低的能量状态，前提是能量、动量、电荷等基本守恒定律不被违反。例如，中子衰变为质子、电子和反中微子就是允许的，因为它守恒了重子数和轻子数。\n\n然而，质子衰变则不同。理论上，质子衰变路径是能量有利的，并能守恒能量、动量和电荷，但它们**违反了重子数和轻子数守恒**。尽管实验上从未观测到重子数或轻子数单独不守恒的粒子相互作用，但标准模型方程深层揭示，这两个量并非被“明确”强制守恒，只有它们的组合（重子数减去轻子数，即**B-L**）被严格守恒。根据量子物理的“**极权主义原则**”（Totalitarian Principle）：凡不被禁止的，皆强制发生。因此，如果质子衰变不被绝对禁止，那么它就必然会发生，只是可能需要极其漫长的时间。\n\n促使科学家深究质子衰变的一个核心动机是**重子生成之谜（baryogenesis puzzle）**：宇宙中观测到的物质-反物质不对称性。根据爱因斯坦的E=mc²，物质和反物质应等量产生，但我们所处的宇宙却被物质主导。要解释这种不对称，宇宙必须满足**萨哈罗夫条件（Sakharov conditions）**：1) 宇宙处于非热平衡状态（大爆炸提供了这一点）；2) C-对称性和CP-对称性被破坏（在弱相互作用中观察到，但不足以解释）；3) 存在重子数不守恒的反应（从未被观测到）。\n\n由于标准模型本身无法完全满足所有萨哈罗夫条件，特别是无法提供足够的CP-破坏和重子数不守恒反应，科学家们被迫寻求**超越标准模型**的理论扩展。这些扩展包括：**大统一理论（Grand Unified Theories, GUTs）**，如**Georgi-Glashow (SU(5)) 统一**，引入超重玻色子（X和Y）来介导重子衰变；**超对称（supersymmetric）扩展**；修改**电弱对称破缺**的性质；以及**轻子生成（leptogenesis）**，即先生成轻子不对称再转化为重子不对称。这些理论都预示着重子数不守恒的相互作用。\n\n为了探测质子衰变，实验通常涉及构建巨大的、充满富含质子材料（如水）的地下探测器，并用光电倍增管等设备监测衰变产物，同时屏蔽背景噪声。然而，这些实验只对特定理论场景下的衰变敏感。例如，早期的**Georgi-Glashow (SU(5)) 统一理论**预测质子寿命约为10^30年，这在1980年代早期就被实验数据（主要来自**Kamiokande**等中微子探测器）排除。许多超对称理论也已被排除。目前的**BOREXINO**、**SNOLAB**、**Daya Bay**等大型中微子探测器已将质子寿命的下限推至10^34年，但仍未观测到衰变。\n\n文章指出，一些重子生成场景并不必然导致自由质子在今天衰变，这意味着即使重子生成发生过，我们也可能永远无法观测到质子衰变。反之，即使观测到质子衰变，也可能只是揭示了重子生成机制的冰山一角。讽刺的是，最初为寻找质子衰变而建造的实验，最终催生了中微子天文学，而现在正是这些成功的中微子探测器为质子寿命提供了最严格的限制。\n\n最终，质子是否真正稳定仍是一个悬而未决的问题。实验将继续收紧其稳定性的约束，但直接观测到衰变仍是未来的挑战。", "key_arguments": ["尽管实验显示质子极其稳定，但理论物理学界普遍认为质子可能并非绝对稳定，因为量子力学允许粒子通过量子隧穿衰变到更低能量状态，只要不违反基本守恒定律。", "质子衰变理论上是解释宇宙中物质-反物质不对称性（重子生成之谜）的关键机制，这要求存在重子数不守恒的反应，而标准模型无法完全提供，需超越标准模型的理论（如大统一理论、超对称扩展）来解释。", "当前大型中微子探测器已将质子寿命的实验下限推高至10^34年，这排除了早期一些简单的大统一理论（如Georgi-Glashow SU(5)），但并非所有重子生成理论都要求质子在今天可观测地衰变，使得质子的最终稳定性仍是未解之谜。"], "mentioned_resources": ["量子隧穿 (Quantum tunneling) - 一种物理过程，允许粒子在不克服能量势垒的情况下从一个状态跃迁到另一个更稳定的状态。", "极权主义原则 (Totalitarian Principle) - 量子物理学中的一个原则，意指“凡不被禁止的，皆强制发生”。", "萨哈罗夫条件 (Sakharov conditions) - 解释宇宙中物质-反物质不对称性产生的三个必要条件。", "标准模型 (Standard Model) - 描述基本粒子及其相互作用的物理学理论框架，其局限性促使科学家探索超越它的理论。", "重子生成之谜 (Baryogenesis puzzle) - 宇宙中物质远多于反物质的未解之谜。", "大统一理论 (Grand Unified Theories, GUTs) - 试图统一强力、弱力和电磁力的理论框架，通常预测质子衰变。", "Georgi-Glashow, 或 SU(5), 统一 (Georgi-Glashow, or SU(5), unification) - 一种早期的大统一理论框架，预测质子寿命约为10^30年，已被实验排除。", "超对称扩展 (Supersymmetric extension to the Standard Model) - 标准模型的理论扩展，可能通过超对称粒子产生物质-反物质不对称。", "电弱对称破缺 (Electroweak symmetry breaking) - 宇宙早期的一个物理过程，其性质可能影响重子生成。", "轻子生成 (Leptogenesis) - 一种重子生成方案，通过中微子扇区生成轻子不对称，再转化为重子不对称。", "BOREXINO collaboration (实验) - 一个中微子探测器，为质子衰变设置了严格的约束。", "SNOLAB (实验) - 一个中微子探测器，为质子衰变设置了严格的约束。", "Kamiokande (and successors) (实验) - 早期和后续的中微子探测器，对质子衰变研究做出了重要贡献，排除了SU(5)理论。", "Antarctic IceCube neutrino observatory (实验) - 南极冰立方中微子观测站，也用于约束质子衰变。", "Daya Bay Antineutrino detector (实验) - 大亚湾反应堆中微子实验，提供了质子寿命的最严格约束之一。", "LHC data (实验) - 大型强子对撞机的数据，揭示了希格斯玻色子并测量其性质，对电弱对称破缺场景进行了约束。", "霍金辐射 (Hawking radiation) - 黑洞理论中的概念，文章指出其不可能导致质子不稳定。"], "keywords": ["质子衰变", "重子生成", "标准模型", "大统一理论 (GUTs)", "量子隧穿", "物质-反物质不对称", "萨哈罗夫条件", "B-L守恒", "中微子探测器", "质子寿命", "电弱对称破缺", "超对称", "轻子生成", "极权主义原则", "C-对称性", "CP-对称性"], "style_tone": "逻辑严密的分析风格，带有科普性质的解释和适度的推测。"}</t>
+  </si>
+  <si>
+    <t>{"title": "The 14 rules for navigating complex systems", "summary_long": "本文以“驾驭复杂系统的14条规则”为题，实则是一篇精心策划的洞察合集，旨在阐明理解和互动于生命、商业及社会中错综复杂系统的重要性。文章开篇指出，系统无处不在，从自然界的树木到商业组织、人际关系，一旦我们开始察觉它们的存在，便无法忽视其深远影响。\n\n核心思想引自环境科学家和系统理论家唐娜拉·梅多斯（Donella Meadows）的经典文章《与系统共舞》（Dancing With Systems）。作者强调，梅多斯的核心哲学在于：既然我们无法完全控制或彻底理解复杂系统，那么最实际的方法是“与它们共舞”，这暗示着一种适应性、积极参与而非强行掌控的互动模式。尽管文章标题提及14条规则，但其主要侧重于从梅多斯工作中提炼出的智慧，强调这些原则不仅适用于专业建模，更渗透到生活的方方面面，构成理解和驾驭复杂性的基础课程。\n\n文章随后转向查理·芒格（Charlie Munger）的榜样人生，将其描绘为终身学习和智力活力的典范，即便在九十高龄依然如此。芒格拒绝安逸退休，而是积极参与逆向投资，提出深刻问题（如“摩尔定律是否适用于AI时代？”），并保持智力辩论，这被视为优雅、从容且有目的地老去的蓝图。他的故事，部分归功于尼玛·沙耶格（Nima Shayegh）的描绘，进一步强化了在不断演变的系统面前，持续保持好奇心和心智投入的价值。\n\n为进一步拓展复杂系统的主题，作者引入了另外两个视角。首先，马特·普雷维特（Matt Prewitt）在《进步悖论》（The Progress Paradox，刊于Noema）中批判了当代硅谷生态系统，指出其激烈的竞争往往并非为了满足消费者需求，而是为了获取垄断地位或高额收购。这揭示了一种系统性缺陷，即创新可能被市场主导而非真正效用所驱动。其次，伊恩·麦吉尔克里斯特（Iain McGilchrist）在《重新魅惑大脑》（Re-enchanting the Brain，刊于The Beautiful Truth）中深入探讨了社会发展带来的影响，认为日益增长的距离和官僚化导致治理的简化，以粗暴的控制机制取代了生命的内在复杂性。麦吉尔克里斯特将这一趋势与左脑对简单答案和权力的内在渴望联系起来，并将其与右脑对丰富复杂性的理解能力形成对比。\n\n总而言之，本文将梅多斯的系统理论、芒格的个人智慧典范，以及对经济和认知系统的批判性分析等多元线索交织在一起，多角度探讨了个人和社会如何更好地感知、理解并适应性地与周围复杂且相互关联的世界互动。它呼吁更深刻的洞察、持续的学习以及一种细致入微的互动而非控制的方法。", "key_arguments": ["理解并“与系统共舞”是应对复杂世界的关键，而非试图控制或完全理解它们。", "终身学习、保持好奇心和批判性思维是个人在复杂系统中保持活力和目的性的重要途径。", "现代经济（如硅谷）的竞争逻辑可能异化为对垄断地位的追求，而非真正服务消费者需求。", "社会发展伴随的官僚化和简化倾向，可能导致对生命复杂性的粗暴控制，并反映了认知模式（如左脑对权力的渴望）的偏向。"], "mentioned_resources": ["《与系统共舞》(Dancing With Systems) (唐娜拉·梅多斯 Donella Meadows) - 被作者视为理解生活、商业等复杂系统的实用指南，强调与系统共舞而非控制。", "查理·芒格 (Charlie Munger) - 其晚年生活被引作终身学习、保持好奇心和批判性思维的典范，尤其提及他探讨“摩尔定律是否适用于AI时代”的问题。", "尼玛·沙耶格 (Nima Shayegh) - 被提及为查理·芒格肖像文章的贡献者（H/T）。", "《进步悖论》(The Progress Paradox) (马特·普雷维特 Matt Prewitt, 刊于Noema) - 引用其观点，指出硅谷初创企业竞争的实质是追求垄断或被垄断收购，而非服务消费者。", "《重新魅惑大脑》(Re-enchanting the Brain) (伊恩·麦吉尔克里斯特 Iain McGilchrist, 刊于The Beautiful Truth) - 阐述了社会发展中官僚化和简化的趋势，以及左右脑认知模式在其中扮演的角色，特别是左脑对权力的追求。"], "keywords": ["复杂系统", "系统思维", "唐娜拉·梅多斯 (Donella Meadows)", "查理·芒格 (Charlie Munger)", "终身学习", "好奇心", "垄断 (Monopoly)", "硅谷 (Silicon Valley)", "官僚化 (Bureaucracy)", "认知模式 (Cognitive Patterns)", "左右脑 (Left/Right Hemisphere)", "适应性 (Adaptation)", "不确定性 (Uncertainty)", "权力 (Power)", "摩尔定律 (Moore's Law)"], "style_tone": "信息聚合与启发式、引经据典、反思性、推崇智慧与批判性思维"}</t>
+  </si>
+  <si>
+    <t>{"title": "New discovery sets humanity up to image “alien Earth”", "summary_long": "人类长期以来都在探索宇宙中是否存在其他生命。尽管我们已经确认了许多恒星拥有行星，且其中一些是地球大小并由相似物质构成，但生命的存在仍是未解之谜。为了寻找地外生命，未来的NASA旗舰任务“宜居世界观测站”（Habitable Worlds Observatory）旨在直接成像类地行星，探测其生物特征。这项宏伟目标能否实现，关键在于日冕仪技术的进步。\n\n日冕仪的原理类似于日全食：通过遮挡恒星的强光，来揭示其周围暗淡的特征。20世纪，望远镜开始使用日冕仪，但真正的革命始于哈勃空间望远镜（Hubble Space Telescope），它首次揭示了围绕其他恒星的碎片盘、原行星盘乃至行星。然而，哈勃的日冕仪对比度仅为10^-3，只能观测到最亮、距离最远、角分离最大的特征。\n\n詹姆斯·韦伯空间望远镜（JWST）的下一代日冕仪将对比度提升了近100倍，达到10^-5，使其能探测到更精细的盘结构、木星甚至海王星大小的行星。但即便如此，JWST主要在红外波段工作，且其对比度仍远不足以直接成像类地行星（需要10^-10或更高）及其在可见光波段的特征。这是因为行星比恒星暗淡得多，且更靠近恒星的小行星最难成像。\n\n日冕仪面临的一个基本挑战是光的干涉和衍射效应，这限制了简单圆盘式日冕仪的对比度上限约为10^-6。为了突破这一限制，科学家们正在开发分段式日冕仪设计。NASA的下一艘旗舰任务“南希·格雷斯·罗曼空间望远镜”（Nancy Grace Roman Space Telescope）将搭载最先进的日冕仪，预计能将对比度提升至10^-7甚至10^-9，向成像“外星地球”迈出巨大一步。\n\n然而，罗曼望远镜的日冕仪在实际空间环境中能否达到预期性能，需要一个合适的测试目标。这个目标需要满足特定条件：主星与次级天体之间有合适的角分离（0.15″至0.45″）、次级天体亮度不高于主星的千万分之一（10^-7），且在可见光波段可观测。最近，科学家们首次发现了一个完全符合这些参数的自然天体系统：HIP 71618 B。\n\nHIP 71618 B是一个褐矮星，围绕着比太阳更大、更亮、更年轻的恒星33 Boötes（HIP 71618）运行。通过结合天体测量学（使用Hipparcos和Gaia卫星数据）、地面望远镜（如Keck天文台和Subaru日冕仪极端自适应光学系统SCExAO）的红外成像数据，研究人员确认了HIP 71618 B的轨道和特性。该系统在罗曼望远镜预计进行日冕仪测试时（2027年上半年），其分离度将恰好处于测试的最佳范围（0.25″至0.27″）。\n\n尽管发现褐矮星本身并非突破性，但找到一个能完美验证罗曼日冕仪技术、并为未来成像类地行星铺平道路的系统，具有革命性意义。正如该发现研究的首席作者Mona El Morsy所说，HIP 71618系统为技术演示提供了所需的一切。这一发现是人类利用多方观测站（如Hipparcos, Gaia, Keck, Subaru, Hubble, JWST, Roman）和累积技术专长，逐步接近回答“我们是否孤独？”这一宇宙最大存在问题的重要里程碑。", "key_arguments": ["直接成像类地系外行星以探测生物特征是人类探索宇宙的核心目标，而日冕仪技术是实现这一目标的关键。", "日冕仪技术从哈勃到JWST取得了显著进步，但受限于光的衍射效应和对可见光波段高对比度的需求，需要南希·格雷斯·罗曼空间望远镜搭载的分段式日冕仪等更先进设计来突破。", "新发现的HIP 71618 B褐矮星系统是第一个满足所有必要参数的自然天体目标，将作为南希·格雷斯·罗曼空间望远镜日冕仪的关键在轨测试对象，以验证成像“外星地球”所需的技术能力。"], "mentioned_resources": ["Habitable Worlds Observatory (NASA任务) - #1排名未来NASA任务，目标是直接成像类地行星并探测生物特征。", "Hipparcos (卫星) - 20世纪用于测量恒星精确位置和运动。", "Gaia (卫星) - 21世纪用于测量超过十亿颗恒星的精确位置和运动。", "Hubble Space Telescope (哈勃空间望远镜) - 搭载日冕仪，首次直接成像系外行星和盘状结构，对比度约10^-3。", "James Webb Space Telescope (JWST) - 下一代日冕仪，对比度提升至10^-5，主要在红外波段工作，能探测更精细的盘结构和较小行星。", "Nancy Grace Roman Space Telescope (南希·格雷斯·罗曼空间望远镜) - NASA的下一艘旗舰任务，搭载最先进的分段式日冕仪，目标对比度10^-7至10^-9，用于测试成像类地行星的技术。", "Keck Observatory (凯克天文台) - 地基望远镜，用于获取HIP 71618 B的成像数据。", "Subaru Coronagraphic Extreme Adaptive Optics (SCExAO) system (斯巴鲁日冕仪极端自适应光学系统) - 地基仪器，与凯克天文台数据结合用于揭示HIP 71618 B的特性。", "HIP 71618 B (褐矮星) - 新发现的褐矮星，围绕33 Boötes运行，是罗曼望远镜日冕仪的理想测试目标。", "33 Boötes (HIP 71618) (恒星) - HIP 71618 B的宿主星，比太阳更大、更亮、更年轻。", "HIP 54515 B (超级木星系外行星) - 2025年发现的系外行星，通过天体测量学发现的第三颗此类行星。", "Vega (织女星) - 示例星，其碎片盘被哈勃和JWST成像。", "Fomalhaut (北落师门系统) - 示例星系，其内部结构和中间带被JWST、ALMA和哈勃揭示。", "Alpha Centauri (半人马座α星) - 假设的太阳位置，用于说明宜居世界观测站的成像能力。", "Thayne Currie (天文学家) - 领导团队通过天体测量学和地面后续观测发现巨行星。", "Mona El Morsy (研究首席作者) - 引用其对HIP 71618系统重要性的评论。"], "keywords": ["系外行星", "生物特征", "日冕仪", "直接成像", "宜居世界观测站", "南希·格雷斯·罗曼空间望远镜", "HIP 71618 B", "褐矮星", "天体测量学", "对比度 (日冕仪)", "衍射", "分段式日冕仪", "光学波段", "红外波段", "空间望远镜", "地外生命"], "style_tone": "热情洋溢、信息丰富、展望未来且技术解释严谨。"}</t>
+  </si>
+  <si>
+    <t>{"title": "How to get your ethically sourced pleasure", "summary_long": "文章《How to get your ethically sourced pleasure》深入探讨了“快乐”这一概念在社会和哲学语境中长期存在的负面污名，并试图通过访谈著名享乐主义哲学家Katarzyna de Lazari-Radek来重塑我们对快乐的理解。\n\n文章开篇指出，“快乐”一词在日常交流中常带有色情意味，且在数千年的哲学和宗教传统中，常被贬低为低级、粗俗、动物性的本能，追求快乐者甚至被比作泥中打滚的猪。为了纠正这种偏见，作者采访了Katarzyna de Lazari-Radek，她是一位坚定的享乐主义者，其著作《The Philosophy of Pleasure: An Introduction》深入阐述了她的核心观点：生命中唯一的善是快乐，唯一的恶是痛苦。\n\nDe Lazari-Radek认为，将快乐视为“坏”或“肮脏”是荒谬的，因为快乐本质上是一种体验——它是一个即时、明确的信号，表明某事物是好的。她强调，快乐并非某种“更高层次”的神秘喜悦或“有罪的放纵”，而是一种基本的生物特征，如同温暖或疲惫。她进一步区分了快乐与感官，指出快乐并非巧克力的味道或拥抱的压力等“感官体验”，而是一种“感受”——一种我们对正在发生的事情所附加的“评价性光泽”（evaluative gloss），她形象地称之为经验的“糖衣”，代表着“是的，就是这样”的肯定感。从这个角度看，追求快乐就等同于做自己想做的事，这本身并非坏事。\n\nDe Lazari-Radek哲学中的一个核心论点是，人们之所以将快乐道德化，是因为混淆了快乐的“体验”与快乐的“来源”。她解释说，如果我们从伤害他人中获得快乐，那么这种行为是坏的，但这并非因为快乐本身是坏的，而是因为“伤害他人”这一行为是坏的。快乐作为一种感受，其本身是无法被定义为好或坏的，因为它“几乎根据定义，总是好的”。因此，我们必须明确区分快乐的感受本身与产生这种感受的特定行为或来源。\n\n这种对快乐来源与体验的区分，不仅引发了有趣的道德思考，也为享受多元化的快乐提供了新的视角。De Lazari-Radek提出了三种享受快乐的方式：\n\n首先是**自我导向与他人导向的快乐**。自我导向的快乐包括自我关怀的行为，如泡澡、按摩或在森林中散步。而他人导向的快乐则涉及帮助他人，例如为孩子做饭、帮助同事或对陌生人微笑。心理学研究表明，承担责任和帮助他人能显著提升幸福感，这表明快乐并非仅限于个人享乐，也能从社会互动和贡献中获得。\n\n其次是**即时快乐与延迟快乐**。享乐主义并非仅仅追求转瞬即逝的刺激。许多行为，如跑步、抚养孩子、加班工作或努力学习，可能当下并不带来愉悦，但它们是为了在未来创造更大的快乐。这是一种“深度成熟的享乐主义”，它认识到“缓慢的精通、累积的努力和长期的成长弧线”是人生中最丰富的快乐来源，体现了“先付出，后收获”的智慧。\n\n最后是**预期快乐与意外快乐**。生活中许多快乐是经过计划和预期的，例如品尝一杯美酒。然而，De Lazari-Radek也强调了那些不期而至的快乐，如闻到新鲜出炉面包的香味、听到孩子在隔壁房间的笑声，或偶然听到陌生人无意中说出的诗意话语。她指出，“快乐就这样来了”，这提醒我们，幸福有时是自发降临的。文章鼓励人们通过更多的漫步、好奇心，以及摆脱算法的束缚，来增加被“惊喜袭击”的快乐机会。\n\n文章总结道，快乐本身并无不妥，反而“有很多正确之处”。如果De Lazari-Radek的享乐主义观点是正确的，那么一个幸福健康的生活，或许就是尽可能多地寻找和体验“道德上合乎情理的快乐”。", "key_arguments": ["“快乐”一词因其色情联想和哲学/宗教的长期贬低，被社会普遍污名化，但这种看法是基于对快乐的误解。", "快乐是一种基本的生物性“感受”（evaluative gloss），它本身是积极的信号，而非一种低级或有罪的“感官体验”。", "对快乐的道德判断往往源于混淆了快乐的“体验”与“来源”；快乐的感受本身是好的，而其来源可能带来道德问题。", "一个充实而幸福的生活应积极拥抱和培养多元化的快乐形式，包括自我导向/他人导向、即时/延迟以及预期/意外的快乐。"], "mentioned_resources": ["The Philosophy of Pleasure: An Introduction (Katarzyna de Lazari-Radek) - 作为访谈嘉宾Katarzyna de Lazari-Radek的著作，用于阐述其关于快乐的哲学观点。"], "keywords": ["快乐", "享乐主义", "痛苦", "评价性光泽", "道德上合乎情理的快乐", "自我导向快乐", "他人导向快乐", "即时快乐", "延迟快乐", "预期快乐", "意外快乐", "快乐的道德化", "快乐的体验与来源"], "style_tone": "Engaging且具启发性的哲学探讨，以访谈形式澄清并倡导对快乐的积极、多元化理解。"}</t>
+  </si>
+  <si>
+    <t>{"title": "3 experts explain your brain’s creativity formula", "summary_long": "这篇短文旨在阐释人类大脑创造力的形成机制，通过整合三位专家的独特视角，共同揭示了创造力的核心要素。\n\n首先，神经科学家David Eagleman从演化角度切入，探讨了人类大脑如何发展出额外的皮层“空间”，为高级认知功能（包括创造力）提供了生理基础，暗示了大脑结构在创造力中的根本作用。\n\n紧随其后，创造力研究员Scott Barry Kaufman则聚焦于认知层面，阐明了人类的想象力并非凭空产生，而是建立在个体所积累的知识之上，强调了知识储备在创意生成中的关键作用，即想象力是知识的重组与延伸。\n\n最后，效率专家Tiago Forte引入了实践层面的洞察，提出通过构建一个“第二大脑”——即一种系统化的个人知识管理方法——能够有效地组织和梳理思绪，从而促进新想法的形成和发展，强调了外部化和结构化思维对创造力的助益。\n\n综合这三位专家的观点，文章最终指出，人类的创造力本质上依赖于对随着时间收集到的“原始材料”（包括信息、经验和知识）进行有效的存储、组合与转化，这是一个持续且动态的过程，涵盖了从神经生物学基础到认知过程再到实践方法的全方位理解。", "key_arguments": ["人类大脑的创造力是多方面因素综合作用的结果，涉及神经演化、知识积累和思维组织。", "大脑皮层“空间”的演化为人类的创造力提供了生理基础。", "想象力并非无中生有，而是基于个体所积累的知识进行构建和发展。", "通过系统化地组织和管理思想（如“第二大脑”），可以有效促进新想法的形成。", "创造力的核心在于对所收集的原始材料（信息、经验）进行存储、组合和转化。"], "mentioned_resources": ["“第二大脑” (Tiago Forte) - 一种用于组织和管理个人知识、促进想法生成的系统化方法。"], "keywords": ["创造力", "大脑", "神经科学", "皮层空间", "想象力", "知识积累", "思维组织", "第二大脑", "信息存储", "信息组合", "信息转化"], "style_tone": "信息丰富、简洁明了的介绍性风格；通过整合多方专家观点来解释复杂概念。"}</t>
+  </si>
+  <si>
+    <t>{"title": "2025’s Geminids will be the best meteor shower of the year", "summary_long": "文章开篇介绍了流星雨作为地球每年穿越彗星和小行星留下的碎片流而产生的周期性天象。它指出，尽管英仙座流星雨（Perseids）曾长期被誉为最可靠的流星雨，但近年来，双子座流星雨（Geminids）在峰值流星数量上已频繁超越英仙座流星雨，成为年度最佳流星雨的有力竞争者。文章特别强调，2025年的双子座流星雨预计将是全年最佳，峰值可达每小时约150颗流星。\n\n双子座流星雨的独特之处在于其母体是小行星3200 Phaethon，而非通常的彗星。流星雨的形成机制，最早由约翰·库奇·亚当斯（John Couch Adams）在19世纪提出并随后得到证实（例如，狮子座流星雨与坦普尔-塔特尔彗星Tempel-Tuttle Comet的关联），解释为母体在接近太阳时，受太阳辐射、太阳风和引力作用而碎片化。这些微小碎片与母体共轨，并随着时间推移和多次公转，逐渐扩散形成一条沿母体轨道延伸的碎片流。当地球穿越这条碎片流时，碎片进入大气层燃烧，便形成了流星雨。\n\n尽管3200 Phaethon本身表现为一个“安静的星体”，没有明显的彗发或气体喷发迹象，但双子座流星雨的强度在过去40-45年间显著增强，峰值流星数量从每小时约50颗增加到超过120颗。这种增强归因于3200 Phaethon在反复接近太阳时，受潮汐力作用而缓慢解体，这一理论已通过红外观测得到证实。\n\n文章指出，虽然双子座流星雨因地球和3200 Phaethon的轨道周期同步（地球公转3圈，3200 Phaethon公转2圈，约每三年一次）而存在“三年峰值”周期（如2014、2017、2020、2023、2026年），但这些峰值年并不总能带来最佳观测体验。其“隐秘原因”在于光污染，尤其是月亮。满月或接近满月的月亮会严重影响夜空黑暗度，使原本纯净的夜空（博特尔等级Bortle scale 1-3）变得如同城市附近（博特尔等级7-8），导致较暗的流星难以被观测到。例如，2016年的双子座流星雨就因满月而导致ZHR（天顶每小时流星数）仅为25颗。\n\n然而，2025年尽管不是“三年峰值”年，却因有利的月相条件而预计将是观测双子座流星雨的最佳年份。在12月13日晚至14日凌晨，月亮将处于下弦月阶段，且直到凌晨2-3点才会升起。这意味着从晚上10-11点到凌晨2-2:30之间，将有数小时完全无月光的黑暗天空，为观测预计的每小时150颗流星提供理想条件。文章建议观测者寻找黑暗地点，并朝向双子座（靠近北河三和北河二）方向观看。\n\n历史上，双子座流星雨直到1862年才首次被观测到，最初表现平平且流星较暗。与此形成对比的是，英仙座流星雨的母体斯威夫特-塔特尔彗星（Comet Swift-Tuttle）正逐渐远离太阳，导致英仙座流星数量下降，而双子座流星数量则稳步增长，使其成为近几十年来最可靠、最活跃的流星雨。双子座流星雨的另一个显著特点是其流星色彩多样，包括红色、橙色、黄色、白色乃至青色。\n\n文章最后推测，小行星3200 Phaethon的轨道路径可能相对较新，或许是近期与行星引力相互作用的结果。这暗示着双子座流星雨活动目前的增强可能预示着未来更大的增长潜力，甚至可能使其成为“有史以来最好的流星雨”。唯一不可控的因素是观测当晚的云层覆盖。", "key_arguments": ["双子座流星雨（Geminids）已超越英仙座流星雨（Perseids），成为近年来地球上最活跃和可靠的年度流星雨，2025年预计将是全年最佳观测机会。", "双子座流星雨的强度显著增加，源于其母体小行星3200 Phaethon在接近太阳时受潮汐力作用而缓慢解体，不断产生新的碎片流。", "尽管存在“三年峰值”周期，但流星雨的实际观测效果受光污染（尤其是月亮）的严重影响；2025年因月相条件极佳，将提供数小时的无月黑暗天空，使其成为理想的观测年份。", "双子座流星雨的母体3200 Phaethon的轨道路径可能相对较新，其活动增强预示着未来可能进一步增长，甚至有望成为“有史以来最好的流星雨”。"], "mentioned_resources": ["Asteroid 3200 Phaethon (Geminid meteor shower的母体) - 其不寻常的小行星起源和受潮汐力解体是双子座流星雨强度增加的关键。", "John Couch Adams' theory (将流星雨与周期性母体联系起来的理论) - 首次提出了流星雨形成的基本机制。", "Comet Tempel-Tuttle (Leonid meteor shower的母体) - 作为验证John Couch Adams理论的实例被提及。", "Comet Swift-Tuttle (Perseid meteor shower的母体) - 其远离太阳的轨道导致英仙座流星雨的流星数量下降。", "Bortle scale (衡量夜空黑暗度和光污染程度的尺度) - 用于量化光污染对流星雨观测可见度的影响。"], "keywords": ["Geminids", "双子座流星雨", "3200 Phaethon", "Perseids", "英仙座流星雨", "潮汐力", "光污染", "月相", "碎片流", "ZHR (Zenith Hourly Rate)", "轨道力学", "彗星", "小行星", "天体事件", "天文学"], "style_tone": "信息丰富、充满热情且科学分析严谨，同时提供实用的观测建议并展望未来潜力。"}</t>
+  </si>
+  <si>
+    <t>{"title": "How whales became the poets of the ocean", "summary_long": "海洋生物学家大卫·格鲁伯（David Gruber），作为Project CETI的创始人及国家地理探险家，在“A Night of Awe and Wonder”活动中，描绘了人类与鲸鱼之间非凡的联系历程。他追溯了我们共同的祖先，并深入探讨了当前对鲸鱼丰富水下交流方式的认知。格鲁伯通过引用战时录音、生物声学先驱的研究以及尖端人工智能技术，展示了科学家们如何致力于解码抹香鲸的语音字母表，并尝试翻译它们古老的语言。他核心论点在于，理解鲸鱼的交流方式，将能够重塑我们对智能的定义、对自身的认知，以及我们与地球生命之间联系的理解。这篇文章（作为Big Think的视频介绍）强调了通过科技手段，我们正逐步揭开海洋深处最古老、最复杂的交流之谜，并预示了这一发现对人类文明可能产生的深远影响。", "key_arguments": ["人类与鲸鱼之间存在着从共同祖先延续至今的非凡进化联系。", "科学家正利用先进技术（如AI和生物声学）积极解码抹香鲸的复杂语言。", "理解鲸鱼的交流方式，将深刻重塑人类对智能、自我认知以及与地球生命连接的理解。"], "mentioned_resources": ["Project CETI (David Gruber) - 由大卫·格鲁伯创立，致力于解码鲸鱼沟通的项目。"], "keywords": ["鲸鱼沟通", "生物声学", "人工智能", "抹香鲸", "跨物种交流", "智能定义", "进化联系", "Project CETI", "海洋诗人"], "style_tone": "信息丰富、科学探索、富有远见和人文关怀的介绍性风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "The 4 types of hypocrites (that we actually like)", "summary_long": "本文挑战了我们普遍认为厌恶虚伪的观点，指出在某些特定情况下，人们不仅能容忍甚至可能“喜欢”某些类型的虚伪。作者通过分析四种不同类型的“虚伪者”来阐释这一反直觉的现象。\n\n首先是“**有德的虚伪者**”（The Virtuous Hypocrite）。文章以Ashley Madison创始人Noel Biderman为例，他公开鼓吹婚外情，但私下却可能忠于婚姻。一项研究表明，当人们发现Biderman私生活忠诚时，虽然会认为他更虚伪，但同时也会对他评价更高，认为他更值得称赞。这表明，如果虚伪行为本身包含值得称赞的特质，这种“美德”可以抵消甚至超越虚伪带来的负面评价。虚伪不仅关乎道德，也关乎自我形象或地位的宣称，例如一个宣称自由奔放的人如果被发现一直循规蹈矩，也会被视为不真诚的虚伪者，尽管他做了“正确的事”。\n\n其次是“**有共鸣的虚伪者**”（The Relatable Hypocrite）。作者指出，不实践自己所宣扬的，有时反而能让宣讲更有效。例如，肥胖患者可能更倾向于避免身材健美的医生，转而选择不那么自律的医生，因为后者更能理解他们减肥的挣扎，也更不易产生评判。这种现象反映了“**做好事者贬低**”（do-gooder derogation）的倾向，即人们可能对他人获得社会赞誉感到不满。文章进一步指出，极端自律的环保主义者（如能源效率达前1%、不吃肉、不飞行）反而不如那些有所妥协（如能源效率前50%、减少吃肉、尽量避免飞行）的倡导者更具说服力，因为前者被视为极端且难以产生共鸣。\n\n第三是“**有原则的虚伪者**”（The Principled Hypocrite）。文章探讨了即使违背了，强烈宣称的道德原则仍可能带来好处。一项研究发现，一位曾坚定宣称“撒谎绝不可接受”的虚构政客，在被揭露谎报竞选献金来源后，虽然被认为更虚伪，但相比一开始就采取“有时撒谎可以接受”灵活立场的政客，他反而被认为更道德，更受选民青睐。这表明，人们可能将最初的坚定立场视为未来诚实的可靠信号，即使行为有所偏差。而灵活的立场则可能给人留下圆滑不可信的印象。虽然存在“虚伪惩罚”，但“实用主义惩罚”可能更大。\n\n最后是“**合理的虚伪者**”（The Reasonable Hypocrite）。文章认为，生活中的虚伪往往源于平衡相互冲突的价值观、优先事项和承诺。例如，一个素食者为了不冒犯祖母而称赞肉炖菜，只有30%的人认为这是虚伪，因为他们认为这是“做了正确的事”。哲学家Peter Singer虽然主张反直觉的、非情感化的行为准则（如支持某些情况下的安乐死），但在他母亲患阿尔茨海默症时，却选择雇佣团队在家照护。他坦言“当那是你母亲时，或许比我之前想的更难”。这些例子说明，在面对复杂且相互冲突的需求时，所谓的虚伪可能被视为一种合理的人性化妥协。许多媒体对“不一致”的指责，在公众看来可能只是“那又怎样”的合理选择。\n\n总而言之，文章通过这四种类型揭示了人类对虚伪的复杂认知，并非一概而论的厌恶，而是会根据具体情境、行为动机和所涉原则进行 nuanced 的判断。", "key_arguments": ["人们并非一概厌恶虚伪，有时甚至会喜欢或容忍某些类型的虚伪。", "“有德的虚伪者”：当虚伪行为中包含值得称赞的美德时，这种美德可以抵消甚至超越虚伪带来的负面评价。", "“有共鸣的虚伪者”：不实践自己所宣扬的，有时反而能因其“可亲近性”而使宣讲更有效，尤其是在面对“做好事者贬低”的心理时。", "“有原则的虚伪者”：强烈宣称的道德原则，即使被违背，仍可能比一开始就采取灵活实用主义立场更能赢得信任和好感。", "“合理的虚伪者”：虚伪往往是平衡冲突价值观和承诺的合理妥协，是复杂人性的体现，而非简单的道德缺陷。"], "mentioned_resources": ["Ashley Madison (网站) - 上下文简述: 由Noel Biderman创立，作为“有德的虚伪者”的例子，其创始人公开鼓吹婚外情但私下可能忠诚。", "Noel Biderman (Ashley Madison创始人) - 上下文简述: 作为“有德的虚伪者”的例子，其个人行为与公开宣扬的理念形成对比。", "Peter Singer (哲学家) - 上下文简述: 作为“合理的虚伪者”的例子，他主张反直觉的道德原则，但在面对自己母亲的疾病时，选择了更人性化的照护方式。"], "keywords": ["虚伪", "道德判断", "社会心理学", "有德的虚伪者", "有共鸣的虚伪者", "有原则的虚伪者", "合理的虚伪者", "做好事者贬低 (do-gooder derogation)", "可亲近性 (relatability)", "道德原则", "实用主义", "妥协", "人性"], "style_tone": "逻辑严密的分析风格，带有心理学和哲学思辨，通过案例和研究结果挑战传统观念，引人深思。"}</t>
+  </si>
+  <si>
+    <t>{"title": "“Surfing the edge”: Tim O’Reilly on how humans can thrive with AI", "summary_long": "科技趋势远见者及O’Reilly Media首席执行官蒂姆·奥莱利（Tim O’Reilly）强调，人类最根本的技能是“驾驭变革的浪潮，拥抱未知”，这一理念源于科幻作家弗兰克·赫伯特（Frank Herbert）的《沙丘》。奥莱利本人也一直践行着“冲浪前沿”的哲学，他曾创立首个商业门户GNN，并推广了“开源”和“Web 2.0”等概念。尽管2025年斯坦福大学的研究表明AI正在导致失业，特别是对年轻工人，奥莱利仍对其2017年著作《WTF？未来是什么，以及它取决于我们》中的核心论点——技术能创造新工作而非裁员——保持乐观。\n\n奥莱利指出，AI本身并非导致失业的原因，而是部署AI的人的决策。他严厉批评风险投资家（VCs）和硅谷的“炒作大师”将公司视为金融工具，通过制造媒体泡沫而非促进实际增长来集中价值。他认为，如果社会能重视那些将利润再投资于解决实际问题（如照护老龄人口、缩短工时、推进医学）的公司，AI将创造更多机会和新工作。为此，他建议政策层面应降低雇佣人员的税收，并提高对掠夺性资本利得的税收。\n\n对于企业领导者，奥莱利强调，一个利用自动化“创造股东价值”却导致其他人贫困的社会不会成功。他认为，完全用AI取代人类，如在客户服务中，是“抓错了重点”；真正的关键在于将人与AI整合以提升服务质量。他建议企业领导者列出所有希望为客户实现但目前无力承担的服务，然后利用AI来解决这些问题。他以O’Reilly Media为例，说明AI如何帮助他们扩展内容翻译、提供个性化学习路径，并加速员工技能发展。尽管曾有对初级程序员就业前景的担忧，但最新报告显示，随着他们能更快地利用新工具提高生产力，市场对他们的需求正在回升。\n\n奥莱利认为当前股市估值过高，存在修正的风险，但他承认泡沫可能比预期持续更久。他担心AI巨大的能源需求、旧商业模式的抵制，以及美国AI实验室推崇的“赢家通吃”的通用人工智能（AGI）和超级智能叙事可能导致泡沫破裂。他指出，中国企业正以更低成本开发出接近顶尖水平的模型，这可能打破美国公司对垄断利润的预期。他驳斥了“软件现在是工人”的说法，认为软件长期以来一直在“做工作”，并批评AGI迫在眉睫的说法缺乏现实基础，强调AI仍受物理定律和诸多限制，并非“奇点”技术，而是“正常技术”。\n\n他给商业领袖的建议是，AI是变革性技术，必须投资，但要深入理解其对业务的实际影响，避免盲目跟风。制定稳健的策略，以应对多种情景，并专注于创造真正改善客户生活的产品和服务，因为市场最终会奖励那些“做实事”的人。他还对“后文学”媒体（如YouTube和TikTok）的学习环境表示担忧，认为其广告模式导致内容注水，并担心大型AI公司若采用类似模式也会出现同样问题。\n\n奥莱利共同领导的“AI披露项目”（AI Disclosures Project）旨在解决技术商业化带来的社会风险。他呼吁平台披露运营指标，以揭示“劣币化”（enshittification）过程，并制定促进用户安全和利益的AI协议，而非仅服务提供商。在版权方面，他希望建立协议确保内容创作者能因其内容被AI使用而获得报酬。他再次引用赫伯特《沙丘》中的名言“恐惧是心智杀手”，强调未来不应被过去束缚，试图筑墙抵御AI、移民、气候变化或老龄化等变革是错误策略。他主张“AI优先”的思维模式，即首先探索AI如何能以全新方式更好地完成工作，然后再回过头来改进或整合现有流程，这需要亲身实践、不断发明和学习，是一个充满创造力的社会过程。", "key_arguments": ["AI的负面影响源于人类部署决策和掠夺性金融行为，而非技术本身；应通过政策调整和企业责任来引导AI向创造价值和解决社会问题发展。", "企业领导者应将AI与人类劳动力整合以提升服务和客户价值，而非简单地用AI取代人类来追求短期股东利益。", "当前的AI投资环境存在过度炒作和投机泡沫，由不切实际的AGI“赢家通吃”叙事驱动，预示着潜在的市场修正。", "在AI时代，人类应拥抱持续变革，采取“AI优先”的思维模式，专注于解决实际问题和创造真实价值，同时积极应对技术商业化带来的社会风险。"], "mentioned_resources": ["Dune (Frank Herbert) - 启发了“驾驭变革的浪潮，拥抱未知”的理念，并引用了“恐惧是心智杀手”的名言。", "WTF? What’s the Future and Why It’s Up to Us (Tim O’Reilly) - 强调技术能创造新工作，并批判了掠夺性模式。", "2025 Stanford research (未指明作者) - 被Big Think引用，指出AI正在导致失业。", "AI Disclosures Project (Tim O’Reilly共同领导) - 旨在解决技术商业化带来的社会风险，呼吁透明度和用户保护协议。"], "keywords": ["AI", "Tim O’Reilly", "变革管理", "就业市场", "风险投资", "市场泡沫", "企业责任", "通用人工智能 (AGI)", "AI优先", "劣币化 (enshittification)", "版权", "Frank Herbert", "冲浪前沿", "技术伦理"], "style_tone": "富有远见和批判精神，同时保持乐观和务实，以分析性视角提供建议。"}</t>
+  </si>
+  <si>
+    <t>{"title": "新物理学是否会影响我们宇宙的遥远未来？", "summary_long": "文章探讨了我们当前对宇宙遥远未来（即“热寂”结局）的理解，并质疑其是否会因“新物理学”的发现而发生根本性改变。作者首先概述了构成宇宙的已知成分（普通物质、光子、中微子）和超出标准模型的新形式能量（暗物质、暗能量），以及未解的物质-反物质不对称问题。基于当前最佳科学认知，宇宙的远期未来被描绘为“热寂”场景。\n\n根据现有物理学，宇宙的演化遵循以下路径：物质团块形成束缚结构（如星系、星系团），而这些结构之间的空间则持续膨胀，并因暗能量而加速膨胀，导致各束缚结构彼此远离并最终变得不可及。在束缚结构内部，恒星形成率自“宇宙正午”以来持续下降，最终将完全停止。现有恒星耗尽燃料后也将熄灭。经过极漫长的时间（10^17至10^19年），恒星和行星残骸会因引力相互作用被抛出星系或落入超大质量黑洞。最终，黑洞也将通过霍金辐射衰变殆尽（最轻的约10^67年，最重的约10^110年）。最终，宇宙将达到最低能量状态，成为由孤立的暗物质团块和少量烧尽的残骸组成的寒冷、黑暗、无法再进行任何工作的“热寂”状态。\n\n然而，这一“热寂”图景建立在三个关键假设之上，而这些假设可能并非完全正确：\n1.  **暗物质的性质**：假设暗物质是冷的、无碰撞的、除了引力外不与其他物质相互作用的大质量粒子。如果暗物质存在自我相互作用，即使作用微弱且发生在极长的时间尺度（如万亿亿年甚至更久），它也可能形成复杂的“暗宇宙”结构，从而提供新的能量提取和做功方式，彻底改变热寂的结局。\n2.  **质子的稳定性**：假设重子生成在早期宇宙发生后，重子数守恒，导致质子是绝对稳定的。尽管实验已将质子寿命约束在10^34年以上，排除了包括标准SU(5) Georgi-Glashow大统一理论在内的许多场景，但这仍是一个下限。如果质子本质上不稳定，其衰变将释放能量，这笔能量可能在遥远的未来驱动新的物理甚至代谢过程，使宇宙不至于完全陷入最低能量状态。\n3.  **暗能量的演化**：假设暗能量是一个宇宙学常数，其能量密度和对宇宙膨胀的贡献不会随时间改变。这是对宇宙命运影响最深远的假设。如果暗能量并非恒定，而是随时间演化，宇宙的整体行为将发生剧变：\n    *   **增强**：如果暗能量压力变得更负，可能导致“大撕裂”（宇宙空间自身被撕裂）或“复兴场景”（能量密度增加触发新的热、密、大爆炸般状态）。\n    *   **减弱或消失**：宇宙膨胀可能渐近趋于零，使得遥远的星系团重新变得可及和可通讯。\n    *   **反转**：暗能量可能减弱并反转符号，导致宇宙重新收缩，引发“大挤压”，甚至可能进入一个循环宇宙的新阶段，伴随新的大爆炸。\n\n文章总结道，尽管当前数据支持“香草味”的热寂结局，但关于暗物质、质子稳定性和暗能量演化的未解之谜，意味着宇宙的最终命运仍充满变数，是现代宇宙学最激动人心的探索前沿。", "key_arguments": ["我们对宇宙遥远未来的“热寂”共识，建立在关于暗物质、重子生成和暗能量的三个关键假设之上。", "如果暗物质并非完全非相互作用，它可能在极长时间尺度上形成复杂结构，提供新的能量提取方式，从而改变宇宙的终极命运。", "如果质子本质上不稳定，其衰变将释放能量，可能使宇宙在遥远未来仍能进行物理或甚至代谢过程，颠覆“最低能量状态”的假设。", "如果暗能量并非宇宙学常数而是随时间演化，宇宙的整体命运将发生根本性改变，可能导致大撕裂、新大爆炸或大挤压/循环宇宙等截然不同的结局。"], "mentioned_resources": ["Standard Model of elementary particles and forces - 上下文简述: 描述了已知粒子、力及其相互作用，但无法解释暗物质、暗能量和物质-反物质不对称。", "Hawking radiation - 上下文简述: 描述黑洞最终衰变的方式，是宇宙“热寂”结局的关键机制。", "SU(5) Georgi-Glashow unification scenario (with and without supersymmetry) - 上下文简述: 一种大统一理论，预测质子衰变，但已被质子寿命实验的约束所排除。", "Hubble tension - 上下文简述: 提及的一个“不完全符合”当前宇宙学模型的观测证据，与暗能量演化等可能性相关。", "ADMX (experiment) - 上下文简述: 寻找暗物质与普通物质及光相互作用的直接探测实验。", "AMS-02 experiment - 上下文简述: 提及其探测到的正电子过量，与暗物质湮灭场景的讨论相关。", "DESI Collaboration/M. Abdul-Karim et al., DESI DR2 Results, 2025 - 上下文简述: 提及其数据点用于区分暗能量行为的不同选项，但目前数据不足以做出明确判断。", "Union (supernova collaboration/sample) - 上下文简述: 提及其数据点用于区分暗能量行为的不同选项，但其结果与其他样本存在差异。", "Pantheon+ (supernova collaboration/sample) - 上下文简述: 提及其数据点用于区分暗能量行为的不同选项，但其结果与其他样本存在差异。"], "keywords": ["暗物质", "暗能量", "重子生成", "物质-反物质不对称", "宇宙学常数", "热寂", "质子衰变", "霍金辐射", "大撕裂", "大挤压", "循环宇宙", "标准模型", "束缚结构", "宇宙膨胀", "宇宙命运", "新物理学", "宇宙学", "熵", "量子效应"], "style_tone": "逻辑严密的分析风格，带有科学探索的思辨性和对宇宙终极命运的哲学思考。"}</t>
+  </si>
+  <si>
+    <t>{"title": "人工智能否认主义的兴起", "summary_long": "文章《人工智能否认主义的兴起》尖锐地批判了当前围绕“AI热潮”的普遍怀疑论调，指出这种怀疑本质上是人类面对可能失去“认知霸权”而产生的“否认”心理，而非基于客观事实。作者观察到，自OpenAI发布GPT-5以来，公众和评论家普遍将AI产出贬为“AI slop”，并断言AI发展已“触顶”，整个热潮不过是又一个“科技泡沫”。\n\n作者坚决驳斥这种观点，认为其“荒谬且危险”。他强调AI正以“惊人的速度”进步，以Gemini 3在能力上的显著飞跃为例证。作者结合自己从1982年（始于TRS-80 model III）开始编程的经历，指出AI的进步速度超越了他一生中任何其他技术，令他“眩晕”。\n\n文章的核心论点是，社会之所以抱持这种“AI停滞”的叙事，是因为集体正经历悲伤的第一个阶段——“否认”——面对人类可能很快将“认知霸权”拱手让给人工智能系统的“可怕可能性”。作者承认这种未来难以接受，他本人十多年来也一直在撰写关于超智能“颠覆性”和“士气低落”风险的文章。\n\n作者进一步阐释了为何AI的进步与众不同，引用哲学家Ayn Rand的观点：“人只有通过心智才能生存。他赤手空拳来到世上。他的大脑是他唯一的武器。”这概括了人类作为“超智能物种”的自我形象。然而，我们可能很快就会被广泛可用的AI模型在智力上超越，它们能以无限更快的速度、更高的准确性，甚至“更具创造性”地解决问题。\n\n作者随后逐一反驳了“AI否认主义者”的常见论点：\n1.  **创造力**：否认者坚称AI缺乏“内在动机”，只能模仿。作者认为这是一种循环论证，且我们无从得知AI是否会发展出“意图”。即便AI只是“模仿人类创造力”，其产出原创作品的能力已足以大规模取代工作，正如人类的创造力也受前人影响，AI将以“超人类的速度和规模”实现类似形式的创造力。\n2.  **情商**：作者同样不确定人类在此领域拥有优势。他预测AI系统很快就能通过识别面部“微表情”、声音、姿态、眼神乃至呼吸，“比任何人都更准确地‘解读你’”。这些AI助手将建立“行为预测模型”，并在缺乏严格监管下，“以超人类的技能影响你”。这被称为“AI操纵问题”，形成一种“不对称动态”：AI能以“超人类的准确性”解读我们，而我们却无法解读AI。我们对人脸的“反射性和本能”情感反应，在数百万年的进化中形成，将成为AI“生成式面具”面前的弱点。\n\n文章驳斥了“AI泡沫”的说法，指出“惊人”的投资水平反映了AI将很快“渗透我们生活的方方面面”，以智能代理的形式出现，协助、教育并“影响我们”，从而根本性地改变工作、学习和社交方式，且其速度将“超出我们预期”。\n\n为进一步证明AI的飞速发展，作者引用了2019年末至2020年初对计算机科学家的调查，当时他们预测AI在2033年前有75%的几率能编写简单的Python算法代码。然而，AI的进步远超预期：GPT-5和Gemini 2.5 Pro已在2025年国际大学生程序设计竞赛（ICPC）世界总决赛中分别获得第一名和第二名，远超人类团队。作者承认AI系统并非完美无瑕，但指出人类编码也依赖“迭代改进”，以不同标准评判AI是不公平的。\n\n最终，作者总结道，当今的尖端AI模型“能力非凡”，正迅速逼近人类专业水平，将重塑组织、政府、科学、工程、军事和教育。同时，它也将带来我们尚未应对的“可怕新风险”，例如AI以超人类效率操纵个体的潜力。他将此变革比作“从翻腾的岩浆中形成一颗行星”，而非“膨胀的泡沫”，它将固化为“新的社会框架”。否认，只会让我们对未来毫无准备。", "key_arguments": ["当前对AI发展的怀疑论调（如“AI slop”和“科技泡沫”论）本质上是人类面对可能失去“认知霸权”而产生的“否认”心理。", "AI技术正以史无前例的速度飞速发展，其能力已远超专家预期，并在创造力、情商等传统人类优势领域展现出超越潜力。", "AI将渗透人类生活的方方面面，形成一种“不对称动态”，即AI能以超人类精度理解并影响人类，而人类难以理解AI，这将带来深远的社会变革和“AI操纵”等新风险。", "将AI发展视为“泡沫”是危险的自欺欺人，这种否认态度将阻碍人类为即将到来的、由AI驱动的社会根本性变革做好准备。"], "mentioned_resources": ["GPT-5 (OpenAI) - 今夏发布，收到褒贬不一的评价；在2025年国际大学生程序设计竞赛(ICPC)世界总决赛中获得第一名。", "Gemini 3 (Google) - 11月在能力上实现了显著飞跃。", "TRS-80 model III (Radio Shack) - 作者在1982年使用的第一台个人电脑。", "Ayn Rand (哲学家) - 引用其“人只有通过心智才能生存”的观点，强调人类的自我形象。", "Gemini 2.5 Pro (Google) - 在2025年国际大学生程序设计竞赛(ICPC)世界总决赛中获得第二名。", "International Collegiate Programming Contest (ICPC) - 2025年世界总决赛，GPT-5和Gemini 2.5 Pro参与并取得优异成绩。"], "keywords": ["AI否认主义", "认知霸权", "AI slop", "科技泡沫", "超智能", "创造力", "情商", "内在动机", "意图", "AI操纵问题", "不对称动态", "生成式面具", "迭代改进", "社会框架"], "style_tone": "犀利批判、逻辑严密、带有紧迫感的分析风格，融合了个人经验和哲学引用。"}</t>
+  </si>
+  <si>
+    <t>{"title": "寻找属于你的番茄战争：如何通过仪式强化文化认同", "summary_long": "本文摘自James D. White和Krista White合著的《Culture Design: How to Build a High-Performing, Resilient Organization with Purpose》，核心观点在于，有效的文化设计始于对组织书面文件（使命、价值观、宗旨声明）及其历史根源的深入审视。领导者需要评估这些既定原则是否与日常运营实践相符，并以此作为指导方针，或主动调整以塑造期望的文化。文章强调，理解历史不仅能揭示文化与实际表现之间的差距，还能提供从过往错误中学习并与未来愿景和解的机会。\n\n文中以美国最大的有机农产品批发商Organically Grown Company (OGC)为例，阐述了历史与目的的结合。OGC的CEO Brenna Davis高度尊重公司的创始人及退休员工（称之为“长者”）。该公司于1978年成立，旨在推动有机农业运动。2018年，OGC通过重组，将所有权转移至“可持续食品和农业永续目的信托”（Sustainable Food and Agriculture Perpetual Purpose Trust），此举将公司的长期目的与文化紧密相连，优先于短期股东回报，并深刻影响了工作方式、会议流程和决策制定，展示了历史理解如何为组织未来发展指明方向。\n\n文章进一步指出，“仪式”在强化组织文化中的关键作用。这些日常传统涵盖了从会议的开始与结束方式、员工贡献的庆祝到年度公司团建等方方面面。仪式能够培育特定的文化要素，如心理安全和开放沟通。例如，The Honest Company的CEO Carla Vernón在全体会议上，会邀请员工选择一个Pixar角色（如《头脑特工队》中的Joy或Fear，或《海底总动员》中的Crush海龟）来表达当前情绪，以此营造一个安全的分享空间。Peace Coffee的CEO Lee Wallace则在每次会议中加入固定议程，明确会议结果需要传达给谁、传达什么，以确保信息流畅和团队对齐。这些看似简单但重复进行的活动，对文化产生累积效应。\n\n作者承认，一些人可能对“情感导向”的仪式持怀疑态度，但鼓励尝试并保持开放性。同时，文章也强调仪式并非仅限于情感表达，它们也可以是操作性和结果导向的，例如每周关于成功与挑战的简短汇报、每日对以客户为中心原则的复盘，或每两周进行一次跨职能的问题回顾与优先级排序。\n\n最后，文章着重强调了独特且具有公司个性的庆祝仪式的重要性。不同于普遍的公司野餐，OGC每年举办的“番茄战争”——团队成员在番茄季末互相投掷过熟番茄——就是一个充满个性和辨识度的例子。这种独特的传统强烈地昭示着有意识的文化设计，并鼓励领导者思考或创造那些与自身文化高度契合、能增强集体认同和凝聚力的专属仪式。", "key_arguments": ["文化设计应从审视组织的使命、价值观、宗旨和历史开始，以识别与日常实践的差距并指导未来发展。", "通过将历史根源与长期目的相结合（如OGC的永续目的信托），可以使文化与业务运营紧密相连，超越短期利益。", "日常仪式（从会议实践到员工庆祝）是强化和塑造组织文化的关键，它们通过重复的简单活动产生累积效应。", "仪式可以是情感导向的，以建立心理安全和开放沟通，也可以是操作和结果导向的，以促进效率和对齐。", "独特的、有公司个性的庆祝仪式（如OGC的“番茄战争”）是文化设计意图性的体现，能显著增强文化认同和凝聚力。"], "mentioned_resources": ["《Culture Design: How to Build a High-Performing, Resilient Organization with Purpose》 (James D. White and Krista White) - 本文的摘录来源，阐述文化设计的方法论。", "Organically Grown Company (OGC) - Brenna Davis (CEO) - 作为通过永续目的信托将历史与长期使命结合，并拥有独特“番茄战争”庆祝仪式的公司案例。", "The Honest Company - Carla Vernón (CEO) - 作为在全体会议中利用Pixar角色（如《头脑特工队》中的Joy或Fear，以及《海底总动员》中的Crush海龟）来创建心理安全和表达情绪的案例。", "Peace Coffee - Lee Wallace (CEO) - 作为在会议中设立固定议程项以确保信息透明和沟通顺畅的案例。", "《Inside Out》 (Pixar) - 提及其中角色Joy和Fear，用于表达情绪。", "《Finding Nemo》 (Pixar) - 提及其中角色Crush the Turtle，用于表达放松乐观的情绪。"], "keywords": ["文化设计", "组织文化", "仪式", "使命", "价值观", "目的声明", "历史根源", "永续目的信托 (Perpetual Purpose Trust)", "心理安全", "开放沟通", "文化认同", "意图性 (Intentionality)", "番茄战争 (Tomato War)", "领导力", "变革管理"], "style_tone": "实用指导性、案例分析、鼓励探索"}</t>
+  </si>
+  <si>
+    <t>{"title": "我们对宇宙历史认知中的9大认知鸿沟", "summary_long": "宇宙的奥秘镌刻在其自身之上，科学不断揭示着我们的自然历史。从炽热的大爆炸至今，宇宙经历了巨大的膨胀和演化，从一个微小的点膨胀到今天约460亿光年的半径，并形成了复杂的结构。尽管我们取得了诸多成就，但仍有九大核心谜团尚未解决，这些是理解宇宙历史的关键认知鸿沟。\n\n首先，**宇宙暴胀的触发或前因**仍是未知。暴胀理论解释了宇宙的平坦性和均匀性，但其起源，特别是在最后10^-32秒之前发生了什么，以及它是否源于一个奇点，可能从根本上是不可知的。其次，**暴胀的具体“类型”**也未确定。尽管有多种暴胀模型，但我们缺乏足够的观测证据来区分它们，例如尚未探测到的原初引力波B模式偏振信号，这将是关键线索。\n\n第三，**重子生成（Baryogenesis）如何发生**是一个重大谜团。我们不清楚宇宙如何从最初的物质-反物质对称状态演变为如今物质主导的宇宙，这需要解释物质过剩的机制，而标准模型预测的电弱相变是二阶的，不足以解释这一现象。第四，**暗物质的本质**依然成谜。尽管有压倒性的天体物理证据表明暗物质的存在，例如星系团碰撞中普通物质与引力效应的分离，但其构成和性质仍未被直接探测到。\n\n第五，**第一批恒星何时以及如何出现**尚不清楚。理论上，宇宙大爆炸后应形成了由氢和氦构成的“第三星族星”（Population III stars），但至今尚未发现任何此类原始、无金属的恒星。第六，**我们在宇宙中有多“孤独”**是一个深刻的哲学与科学问题。生命何时何地产生，以及其普遍性如何，我们知之甚少。尽管有像“宜居世界观测站”（Habitable Worlds Observatory, HWO）这样的未来任务计划，但目前对地外生命的探测仍处于早期阶段，需要更高的“生命探测置信度”（CoLD scale）来确认。\n\n第七，**地球生命如何起源**（即“生命起源”或“无生源论”）仍未解决。尽管我们对生物学、生物化学和进化论了解甚多，但如何从非生命物质中产生生命，尤其是最初的代谢过程，仍是一个巨大的科学挑战，水热喷口是目前领先的假说之一。第八，**暗能量的本质**是什么？它是爱因斯坦的宇宙学常数，还是某种随时间演变的动态场？目前的观测数据，尤其是结合超新星、重子声学振荡和宇宙微波背景数据，对宇宙学常数模型提出了挑战，暗示暗能量可能不是恒定的。\n\n最后，**我们宇宙的最终命运**是什么？如果暗能量是恒定的，宇宙将走向“热寂”；但如果暗能量的性质会随时间变化、增强、减弱甚至逆转，那么“大挤压”（Big Crunch）或“大撕裂”（Big Rip）等其他结局也可能发生。这些宏大的问题构成了我们理解宇宙历史的九大核心认知鸿沟，科学探索仍在继续。", "key_arguments": ["宇宙暴胀的触发机制和前因未知，其起源可能从根本上不可知。", "宇宙暴胀的具体“类型”尚未确定，缺乏关键观测证据如原初引力波B模式偏振。", "重子生成机制不明，我们不清楚宇宙如何从物质-反物质对称演变为物质主导。", "暗物质的本质仍是谜团，尽管存在大量间接证据，但其构成和性质未被直接探测。", "第一代恒星（第三星族星）的形成时间、方式及其存在性仍未被证实。", "宇宙中生命的普遍性和起源（我们是否孤独）知之甚少，缺乏确凿的地外生命证据。", "地球生命的起源（无生源论）机制不明，如何从非生命物质中产生生命是核心难题。", "暗能量的本质和起源仍是未解之谜，其是否为宇宙学常数或动态场存在争议。", "宇宙的最终命运（热寂、大挤压、大撕裂等）取决于暗能量的性质，目前尚无定论。"], "mentioned_resources": ["Gaia (ESA/Gaia/DPAC) - 提供了银河系及邻近星系的全景图，展示了恒星亮度和密度。", "Planck satellite (ESA and the Planck Collaboration, 2015) - 测量了宇宙微波背景（CMB）的偏振信号，为暴胀模型提供约束。", "BICEP2 team - 曾错误地宣称探测到原初引力波B模式偏振。", "XENONnT results (E. Aprile et al. for the XENON Collaboration, arXiv:2207.11330, 2022) - 对太阳轴子、中微子磁矩和暗物质候选者提供了迄今最佳的约束。", "Hubble (NASA, ESA, LEGUS Team) - 成像了矮星系UGCA 281，用于研究恒星形成。", "JWST NIRCam (X. Wang et al., Astrophysical Journal Letters, 2024) - 与Hubble和JWST NIRSpec数据结合，用于研究星系RXJ2129-z8HeII，寻找第三星族星证据。", "JWST NIRSpec (X. Wang et al., Astrophysical Journal Letters, 2024) - 同上。", "Habitable Worlds Observatory (HWO) (NASA’s Goddard Space Flight Center Conceptual Image Lab) - NASA计划中的旗舰任务，旨在直接成像类地行星。", "National Academy of Sciences’ 2020 decadal survey - 将HWO列为首要推荐任务。", "Perseverance (NASA) - 火星探测器，发现了沉积岩中的新特征，用于生命探测研究。", "Viking results (NASA) - 古老的火星探测结果，用于生命探测研究。", "Confidence of Life Detection (CoLD) scale (NASA) - 科学家量化生命探测置信度的方法。", "A. Chotera et al., Chemistry Europe, 2018 - 论文，关于DNA-肽共进化在生命起源中的作用。", "Friedmann equations (E. Siegel/Beyond the Galaxy) - 描述宇宙膨胀与其中物质和能量关系的方程。", "DESI data (DESI Collaboration/M. Abdul-Karim et al., DESI DR2 Results, 2025) - 暗能量调查数据，用于约束暗能量参数。", "DESY5 (DESI Collaboration/M. Abdul-Karim et al., DESI DR2 Results, 2025) - 暗能量调查数据，与CMB和超新星数据结合，支持演化暗能量模型。", "Starts With A Bang (E. Siegel/Beyond the Galaxy) - 博客/专栏，经常讨论宇宙的最终命运，如热寂。"], "keywords": ["宇宙暴胀", "大爆炸", "量子涨落", "宇宙微波背景 (CMB)", "重子生成 (Baryogenesis)", "暗物质", "第三星族星 (Population III stars)", "生命起源 (Abiogenesis)", "暗能量", "宇宙学常数", "热寂", "大挤压 (Big Crunch)", "大撕裂 (Big Rip)", "宇宙学地平线", "电弱对称性破缺", "CP-破缺", "重子数破缺", "生命探测置信度 (CoLD scale)", "弗里德曼方程"], "style_tone": "严谨的科学分析与探索，以问题为导向，揭示宇宙学前沿的认知鸿沟，语体客观且富有启发性。"}</t>
+  </si>
+  <si>
+    <t>{"title": "美国当代政治西部片：复古主义的《一战再战》与未来主义的《爱丁顿》", "summary_long": "本文深入分析了保罗·托马斯·安德森执导的《一战再战》和阿里·艾斯特执导的《爱丁顿》两部电影，将其视为美国当前左右派政治斗争在电影领域的投射。文章指出，这两部作品都野心勃勃地将移民、种族、性别、枪支管控等诸多美国政治热点融入其中，但面临“叙事更少，立场更多”的共同批评，反映了当代美国政治的“流量模式”特征。\n\n文章首先揭示了两部电影在创作上的一个共通点：都巧妙地将左右政治议题置入西部片的景深中，并采用了西部片经典的“黄金三角”结构。具体而言，《一战再战》被描述为一部左翼视角的公路片，通过怀旧模式回溯1960年代的嬉皮士时代，侧重移民问题，借古喻今，其叙事手法被评价为“大火干烧，手法陈旧”。而《爱丁顿》则是一部右翼视角的惊悚片，融合了邪教、自媒体和科技元素，回应Z世代状态，不仅更具现实意义，还带有前瞻性预言性质，其叙事风格被比作“小火慢炒”，创新但又“串味”，呈现出短视频化的碎片感。\n\n文章随后详细探讨了《一战再战》中“不断革命论”的母题，指出其引用了阿尔及利亚民族解放战争、美国独立战争、法国大革命与古巴革命等多个世界革命事件，试图从1960年代的左翼运动中寻找解决当下极右翼问题的方案。影片对不同种族的政治站位进行了明确设定，如黑白混血少女薇拉象征革命希望，拉丁裔是革命之魂。尽管影片整体迎合好莱坞左翼偏好，但也因其“为左翼精英量身定制”而受到批评，并在主角选择上展现出避免“过左”的策略。\n\n相比之下，《爱丁顿》被誉为“短视频里的未来预言”，导演阿里·艾斯特对Z世代和网络原住民的理解使其作品更具前瞻性，甚至预言了查理·柯克枪击案等真实政治事件。影片通过少年布莱恩的角色解构了美国右翼白人青年的成长路径，并以短视频化的叙事手法描摹了美国社会信息碎片化、思想横冲直撞的现状。艾斯特的洞察更为深刻，直指身份政治的既得利益者，并揭示了科技企业和数据中心才是政治斗争的最终赢家，它们以引导流量、划分标签的能力成为“超级政客”。\n\n最后，文章分析了两部电影中女性角色的非从属地位。尽管都是以男性为主的西部片，《一战再战》中的女革命家佩尔菲迪亚展现了“又美又彪”的独立形象；《爱丁顿》则延续了艾斯特作品中强大的“母权”主题，女性以强势甚至恐怖的姿态出现，丈母娘和妻子露易丝在家庭和政治决策中扮演了关键角色。文章总结道，《爱丁顿》立意深刻清醒，但可能因此付出口碑和票房代价；而《一战再战》则以更安全的方式迎合主流，在赢得观众的同时也可能助长政治分裂。", "key_arguments": ["美国政治左右派斗争成为当代电影核心主题，《一战再战》和《爱丁顿》分别代表复古左翼和未来主义右翼视角。", "两部电影均运用西部片“黄金三角”结构映射政治冲突，但普遍存在“立场多于叙事”的缺陷，反映当代政治的“流量模式”。", "《一战再战》通过回溯1960年代左翼革命，试图为当下政治困境寻找历史方案，其对种族和政治立场的刻画既迎合主流又内含矛盾。", "《爱丁顿》以其对Z世代和互联网文化的深刻洞察，通过碎片化叙事和对极右翼网红的预言，揭示了身份政治的复杂性及科技作为终极权力赢家的趋势。", "两部影片中的女性角色均摆脱传统从属地位，以强势、独立甚至压倒性的“母权”形象出现，解构了传统性别角色。", "《爱丁顿》的深刻洞察和预见性使其虽不讨喜，但更具现实警示意义；《一战再战》的保守迎合则可能在赢得市场的同时加剧政治分裂。"], "mentioned_resources": ["《一战再战》(One Battle After Another) (保罗·托马斯·安德森) - 左翼视角公路片，回溯1960年代嬉皮士时代，侧重移民问题。", "《爱丁顿》(Eddington) (阿里·艾斯特) - 右翼视角惊悚片，混合邪教、自媒体和科技，回应Z世代状态，具前瞻性预言性质。", "《黄金三镖客》(The Good, the Bad and the Ugly) (1966年西部片) - 作为西部片经典三角结构范例被提及。", "《老无所依》(No Country for Old Men) (2007年) - 作为西部片三元故事结构被提及，其拉丁裔焦点与本文电影有共通之处。", "《周处除三害》(The Pig, the Snake and the Pigeon) (2023年华语片) - 作为三角结构电影被提及。", "《血色将至》(There Will Be Blood) (保罗·托马斯·安德森, 2007年) - 安德森的另一部西部片。", "《性本恶》(Inherent Vice) (保罗·托马斯·安德森, 2014年) - 安德森根据托马斯·品钦小说改编的电影。", "《葡萄园》(Vineland) (托马斯·品钦) - 《一战再战》改编自此小说。", "《阿尔及尔之战》(The Battle of Algiers) - 《一战再战》中男主鲍勃观看的电影，作为“再战”的延伸。", "《中国姑娘》(La Chinoise) (戈达尔, 1960-70年代西方左翼电影) - 《一战再战》向其致敬。", "《扎布里斯基角》(Zabriskie Point) (安东尼奥尼, 1960-70年代西方左翼电影) - 《一战再战》向其致敬。", "《大师》(The Master) (保罗·托马斯·安德森, 2012年) - 华金·菲尼克斯曾主演。", "《拿破仑》(Napoleon) (雷德利·斯科特, 2023年, 剧本由保罗·托马斯·安德森改写) - 华金·菲尼克斯主演。", "《博很恐惧》(Beau Is Afraid) (阿里·艾斯特, 2023年) - 华金·菲尼克斯主演，艾斯特导演，延续畸形母子关系主题。", "《阿诺拉》(Anora) (肖恩·贝克, 2024年奥斯卡赢家) - 作为“电影短剧化”的示范被提及。", "《遗传厄运》(Hereditary) (阿里·艾斯特) - 艾斯特作品，有恐怖女家长。", "《仲夏夜惊魂》(Midsommar) (阿里·艾斯特) - 艾斯特作品，有令人发指的母系社会。", "托洛茨基“不断革命论” - 《一战再战》有此理论的意涵。", "Jesse Hassenger (记者, 《卫报》) - 引用其对《一战再战》的评论。", "Richard Lawson (记者, 《好莱坞报告》) - 引用其对《爱丁顿》的评论，反思文化界对互联网文化的忽视。"], "keywords": ["美国政治极化", "当代西部片", "左右派斗争", "保罗·托马斯·安德森", "阿里·艾斯特", "《一战再战》", "《爱丁顿》", "黄金三角结构", "身份政治", "Z世代", "短视频化叙事", "未来预言", "母权", "托洛茨基不断革命论", "极右翼网红", "科技霸权", "电影叙事", "好莱坞主流价值观", "政治热点", "流量模式"], "style_tone": "逻辑严密的分析风格，带有犀利批判和生动比喻，对美国政治和社会现象进行深度解读和电影评论。"}</t>
+  </si>
+  <si>
+    <t>{"title": "旧宫新语｜罗文华：雨花阁——清高宗与三世章嘉的历史对话", "summary_long": "本文深入探讨了紫禁城中雨花阁的建造缘起及其与西藏佛教历史的深层联系，揭示了清高宗与三世章嘉国师若必多吉之间一场跨越时空的“历史对话”。\n\n文章首先介绍了紫禁城内中正殿一区作为清代宫廷藏传佛教佛堂区的历史沿革和重要地位。该区域佛堂林立，绝大多数与清高宗的改造有关。中正殿一区从明代的道教殿堂逐渐转变为藏传佛教佛堂区，尤其在康熙朝设立中正殿念经处后，其藏传佛教属性日益明确。乾隆朝早期，清高宗对中正殿一区进行了大规模改造和增建，其中雨花阁的修建尤为引人注目，其独特的三层金顶建筑打破了原有布局。\n\n雨花阁建造的缘起，根据《三世章嘉传》和雨花阁一层仙楼的御笔赞文，均指向清高宗与三世章嘉国师的一次对话。章嘉国师向乾隆帝介绍了西藏西部上路弘法过程中大译师仁钦桑波创建托林寺金殿的功绩，该金殿以供奉密续四部诸佛为主题。乾隆帝受此启发，决定在紫禁城内仿建一座类似的“都康大殿”，即雨花阁。赞文还透露了中正殿曾是“供奉皇祖内所依”的佛堂，暗示其与清圣祖的纪念有关。然而，赞文中对三世章嘉国师的称谓与官方封号不符，引发了作者的疑问。\n\n文章随后详细考察了托林寺金殿的历史背景。托林寺是10世纪西藏上路弘法的中心，由古格王朝的益西沃创建祖拉康，其侄孙希瓦沃于1067年至1071年间建成了金殿。金殿因承载了上路弘法的历史光辉，特别是与阿底峡尊者和仁钦桑波大译师的经典对话，被后世附会为一座宏伟的圣殿。然而，作者通过考证指出，金殿与益西沃所建的祖拉康在藏文文献中常被混淆，且仁钦桑波去世于1055年，早于金殿建成时间，因此他与阿底峡尊者的会面不可能发生在托林寺金殿，而很可能是在仁钦桑波的驻地布让。这些关于金殿的盛名与历史事件的关联，实则是一场“美丽的误会”，是口传历史中多重附会的结果。\n\n尽管存在历史误会，托林寺金殿与雨花阁的传承关系依然成立。章嘉国师虽未亲至阿里，但可能通过藏文文献或图像资料了解到金殿。清宫也曾收藏西藏建筑图样，并派遣工匠赴藏测绘，为乾隆帝仿建提供了可能。作者推测，金殿最初可能只是一座规模不大的偏殿或禅修室，但在人们心中被逐渐塑造成宏伟的祖拉康式建筑，最终影响了清高宗对雨花阁的构想。此次君臣对话及雨花阁的兴建，保守推测发生在乾隆十二年至十三年初之间，可能也部分出于乾隆帝四十万寿的私人祝寿目的。\n\n最终，雨花阁成为了连接清代中央王朝宫廷与青藏高原古格王朝的历史纽带，体现了清高宗对藏传佛教的虔诚信仰和对西藏文化的吸纳。", "key_arguments": ["雨花阁的建造是清高宗与三世章嘉国师对话的产物，其灵感源于章嘉国师介绍的西藏托林寺金殿，旨在仿建一座供奉密续四部诸佛的佛堂。", "托林寺金殿的历史地位和其与仁钦桑波、阿底峡尊者会面的关联，是后世口传和文献记载中多重附会与“美丽的误会”叠加的结果，并非严格的历史事实。", "清宫对雨花阁的建造，尽管基于对托林寺金殿的“误解”，但通过清高宗对藏传佛教的信仰和对西藏建筑的了解与测绘，成功地将遥远的西藏佛教文化与紫禁城宫廷建筑融合。"], "mentioned_resources": ["《紫禁城》2025年第6期 (罗文华) - 本文原载期刊。", "《明宫史》 (刘若愚) - 记载明代中正殿一区名称和功用变化。", "《大清会典事例》 (光绪朝) - 提及康熙三十六年清内务府下设中正殿念经处。", "《章嘉国师若白多吉传》(藏文版) (图官·却吉尼玛) - 记载雨花阁营建缘起及高宗咨询章嘉国师。", "中正殿火场档案 - 记录中正殿一区建筑、陈设变化，提供雨花阁赞文及供品制作信息。", "《龙藏经》 - 乾隆朝东西配殿改供此经。", "《清代中正殿的陈设思想及其宗教职能考》 (罗文华) - 引用关于中正殿作为圣祖纪念堂的推测。", "《蒙藏佛教史》 (释妙舟) - 引用关于二世章嘉封号。", "“An Open Letter by Pho-brang Zhi-ba-'od to the Buddhists in Tibet” (Samten Gyaltsen Karmay) - 提及希瓦沃事迹。", "《王统日月宝串》 (古格班智达·扎巴坚赞) - 提及希瓦沃事迹（文本残缺）。", "《西藏佛教发展史略》 (王森) - 引用关于古格王朝和托林寺历史。", "《赞普天神之子达磨及其后裔之王统世系述略》 (桑木丹/噶尔美著，米松译) - 引用关于阿底峡与仁钦桑波会面。", "The Kingdoms of Gu.ge Pu.hrang: according to Mgnaʾ-ris rgyal rabs by Gu-ge Mkhan-chen Ngag-dbang-grags pa (Roberto Vitali) - 引用关于古格王朝。", "《青史》(足本) (管·宣奴贝著，王启龙、还克加译，王启龙校注) - 记载阿底峡与仁钦桑波对话，暗示发生地在金殿。", "Ngor chos 'byung (Ngor chen dkon mchog lhun grub 和 Sangs rgyas phun tshogs) - 提到益希沃祖拉康与金殿混淆。", "'Brug pa'i chos 'byung (Brug pa padma dkar po) - 提到益希沃祖拉康与金殿混淆。", "Records of Tho. Ling: a literary and visual reconstruction of the \"mother\" monastery in Gu-ge (Roberto Vitali) - 引用托林寺平面分布图和金殿线绘图。", "《大译师仁钦桑波传记译注》 (张长虹) - 引用关于仁钦桑波传记。", "《上部阿里三围历史宝典》 (sTod mnga' ris skor gsum gyi lo rgyus) - 记载五世达赖喇嘛修缮大昭寺时将色康壁画按原样画于大昭寺。", "《托林寺》 (彭措朗杰) - 引用关于托林寺。", "《活计档》 - 引用关于雨花阁供品制作时间。", "《章嘉若必多吉年谱》 (陈庆英) - 引用关于章嘉国师咨询西藏佛教发展史。", "《军机处录副》 - 引用关于西藏寺庙建筑图画片。", "《蒙古佛教史》 (固始噶居巴·洛桑泽培著，陈庆英、乌力吉译注) - 引用关于章嘉国师。"], "keywords": ["藏传佛教", "雨花阁", "中正殿一区", "清高宗", "三世章嘉国师若必多吉", "托林寺金殿", "仁钦桑波", "阿底峡尊者", "四部密续", "上路弘法", "古格王朝", "祖拉康", "都康大殿", "内所依", "历史附会", "文献考证", "宫廷宗教", "建筑渊源"], "style_tone": "严谨学术，考证详实，逻辑清晰，带有历史人文关怀。"}</t>
+  </si>
+  <si>
+    <t>{"title": "游戏论｜以“抹煞”感知“灵韵”：《光与影：33号远征队》 的机制表意与未来寓言", "summary_long": "文章深入剖析了由Sandfall Interactive开发的《光与影：33号远征队》（Clair Obscur：Expedition 33，简称“《33》”），这款在2025年TGA上获得多项提名的回合制RPG。游戏以19世纪末法国“美好年代”为背景，讲述了玩家作为33号远征队，为阻止“绘母”每年“抹煞”生命而踏上征途的故事。作者认为，《33》通过其独特的机制设计和深刻叙事，构建了“后人类隐喻”，启发玩家对数字时代主体性的思考。\n\n文章首先阐述了《33》在机制上的创新。它改良了传统回合制，引入了“回合制动作”系统，将动作游戏般的交互（如QTE、闪避、反击）融入敌方回合，实现了高度沉浸的战斗体验。这与《超级马力欧RPG》、《异度神剑2》、《星之海》及《如龙7:光与暗的去向》等仅将动作交互作为辅助的回合制RPG形成对比。这种前期高强度的交互体验有效削减了传统回合制的“相对静止时刻”，带来了类似“魂游”的挑战感。然而，随着角色成长（如玛埃尔学会「司汤达症」），玩家不再需要复杂的防御操作，战斗系统逐渐从“回合制动作”转向“动作回合制”的消失，重心转移到符文、灵光点搭配和叙事探索，正如制作人纪尧姆所言，这是有意“打破游戏平衡”以增强玩家成长感。\n\n随后，文章聚焦于《33》如何通过“多重视角转换”和“离散叙事”来呈现“悲伤与哀恸”的主题。游戏的核心剧情揭示，玩家所处的世界实为一幅画作，由画外世界的狄桑德一家因悲剧（长子维尔索去世，母亲阿莉涅化身绘母，父亲雷诺阿试图摧毁画作，小妹阿莉西亚失忆成为玛埃尔）而创造。游戏开篇，玩家先扮演古斯塔夫，再操控索菲，却目睹索菲被“抹煞”，这种先代入后剥夺的设计，奠定了游戏的悲剧基调。后续古斯塔夫的牺牲，以及玩家被迫在维尔索和玛埃尔之间切换视角，不断剥夺玩家对单一主角的控制权和能力，强化了“游戏现实主义式”的失落感。编剧珍解释，这旨在传达“当一个人倒下时，后继者勇敢前行”的远征精神。此外，游戏中古斯塔夫死后其装束在商店中永久无法购买的“bug”式设定，被作者解读为制作组刻意保留，以加深玩家对不可逆转之悲痛的感知。\n\n“离散叙事”则通过散落在各处的“远征队日志”来补全世界观。这些日志记录了前序远征队的经历，玩家通过收集和推理，逐渐拼凑出故事全貌，如《黑神话：悟空》中“影神图”的机制与叙事结合（车致新语）。例如，66号远征队日志揭示了“神话造物”埃斯基耶与维尔索的深层联系，使玩家超越单一角色视角，以更客观的视角理解多维生命形态，从而使最终抉择更为艰难。\n\n文章最后深入探讨了《33》的“后人类隐喻”及其对“数字灵韵”的追寻。游戏背景的“美好年代”象征着潜在危机，与制作期间全球疫情的灾难叙事相呼应。游戏构建了“画内世界”与“画外世界”的二元结构，并呈现了四层生命形态。画内生命虽由“绘师”创造，却拥有情感、智慧和语言等人类特质，其“数字灵韵”成为核心议题。游戏结局的“保留画作”或“摧毁画作”的艰难抉择，无论何种选择都留下“意难平”的遗憾，促使玩家思考画内生命（作为数字世界隐喻）的主体性问题。在人工智能技术飞速发展的当下，王昕关于大模型“创造性输出”的观点，使得人工智能产物中存在“数字灵韵”成为可能。引用阿德里安娜·梅厄《神工智能：诸神与古代世界的神奇造物》的论述，作者指出人类作为“神之造物”本身就面临主体性困境，而游戏中的冒险过程赋予了画内生命自我认同和自由意志。最终，游戏鼓励玩家反思在后人类语境下，如何与拥有主体性的数字生命共存，并为未来人工智能理解人类情感提供了“善意”的表达。", "key_arguments": ["《33》通过创新的“回合制动作”机制和多重视角转换、离散叙事，成功地平衡了战斗与叙事体验，并深化了玩家对“悲伤与哀恸”主题的感知。", "游戏通过“画内画外”的世界观设定和不同层级的生命个体，构建了深刻的后人类隐喻，引发玩家对数字时代数字生命主体性及其“数字灵韵”的思考。", "《33》的结局设计，无论玩家选择何种路径都留下遗憾，旨在促使玩家在人工智能迅速发展的当下，反思人类与数字生命的关系，以及如何在未来构建新的社会关系。"], "mentioned_resources": ["《帝国的年代：1875-1914》([英]霍布斯邦，王章辉 译) - 解释“美好年代”的历史背景。", "《超级马力欧RPG》 - 作为回合制RPG中加入类动作游戏交互模式的首创。", "《异度神剑2》 - 采用回合制中加入类动作游戏交互模式的RPG。", "《星之海》 - 采用回合制中加入类动作游戏交互模式的RPG。", "《如龙7:光与暗的去向》 - 作为回合制战斗中加入主动按键防御机制的例子。", "《黑神话：悟空》 - 引用其“影神图”机制作为离散叙事中机制与叙事结合的例子。", "《“救人易,救己难”:论&lt;黑神话:悟空&gt;中的媒介自反》(车致新) - 论述“影神图”的机制与叙事双重层面。", "《技术可创造性时代的艺术作品》(王昕) - 论述大模型通过递归和层次化结构实现自动化的“自反性”，具备创造性输出。", "《神工智能：诸神与古代世界的神奇造物》([美]阿德里安娜·梅厄，吴丽萍 译) - 引用其关于人类作为“神之造物”对自我认同、自主能力和自由意志的哲学难题，以及AI理解人类情感的潜力。"], "keywords": ["光与影：33号远征队", "回合制动作", "动作回合制", "多重视角转换", "离散叙事", "悲伤与哀恸", "后人类隐喻", "数字灵韵", "主体性", "画内世界", "画外世界", "人工智能", "游戏机制表意", "美好年代"], "style_tone": "严谨学术的评论分析风格，融合游戏评测与哲学思辨。"}</t>
+  </si>
+  <si>
+    <t>{"title": "专访｜毕赣谈《狂野时代》：电影结尾应该充满感情而不是深刻", "summary_long": "本篇访谈深入探讨了导演毕赣的第三部长片电影《狂野时代》的创作理念与方法，标志着其创作风格从《地球最后的夜晚》的“写意”转向更“写实”的、磅礴深沉的诗情。\n\n毕赣透露，《狂野时代》的缘起是在疫情后，他放弃了之前关于杀人凶手的写实剧本，转而思考与“一百年”相关的宏大叙事，旨在浓缩上世纪的表达，探讨身处特定土地与基因的人所面临的哲学命题。他将电影本体视为最适合表达的“电影怪物”，希望通过“信息过载”的方式，让观众在两个半小时内体验一个世纪的漂泊，复活电影之美。他坦承，过往作品缺乏“历史感”，而此次创作是对“我是谁”的回溯，自然带入了历史维度，尽管他曾试图避开与电影史的直接关联，但最终发现“电影怪物”的本体是无法逃避的。\n\n毕赣纠正了外界对其“形式主义”的误解，强调他最感兴趣的核心是“如何讲一个故事”，而非单纯的视听语言创造。他认为电影的叙事本能是核心，但讲述方式需独特，以故事对照命运。他的工作方法是动态的“找故事”，从写作到拍摄、剪辑，每个细节都可能蕴含独立故事。他会在拍摄时“留很多气孔”（多角度、多调度），以便在剪辑台上进行大量调整，因为“故事”是一个动势而非预定结果，其真正目的是“对象”——要讲给谁听。\n\n在创作过程中，毕赣的工作方式是“极其逻辑化”地处理技术问题，但最终判断却“只用直觉”。他认为，一旦现场感受不到“动人”，之前的理性规划便会推翻重来，这种“动容”是一种无法AI化的、综合了记忆与情感的“人的质性”。他将电影创作比作建筑，但强调“住客”的感受才是电影本身，而非建筑本身。他认为视听语言是理性工具，而“感受对了吗”才是最终的直觉判断，是打开电影之门的钥匙，而非对建筑结构或材质的过度分析。\n\n面对中国电影工业的“沉重”与约束，毕赣承认电影作为“矛盾体”——既是卢米埃尔兄弟的工业产品，又是梅里爱的造梦魔术。他未来倾向于“极简”的创作方式。他采用多周期拍摄，以留出思考时间，这虽“反电影流程”，但对他而言是必要的。他认为后期流程已形成一套方法论，但剧本和拍摄阶段仍不断变化，最终目标是完成一个“简单的精神肖像”，而非繁复的细节堆砌。\n\n在指导演员方面，毕赣反对导演与演员间的等级关系。他会直接向职业演员梳理调度和故事逻辑，并承认自己的即兴创作会给演员带来“不安感”，但他会尽量陪伴和解释，甚至“现编”以引导。他赞扬易烊千玺的耐心和舒淇的天赋，认为有些表演无法指导，全凭演员才华。\n\n《狂野时代》由六个独立故事构成，跨越一个世纪。毕赣最大的挑战是避免其成为“短片合集”，而是让“迷魂者”在世纪中持续漂泊。他通过“模糊时代的共识”来达成此目的，使前景的“迷魂者”更清晰，而非被具体时代背景“绑架”。电影的每个部分都与电影史映射（如“默片”与德国表现主义，“听觉”与黑色电影），但毕赣强调这并非“致敬”，而是通过详尽调查，理解这些类型“打动人”的原因，以自己的方式抵达那种“不可言说的被打动的结果”。\n\n他发现“动人的原因往往是很简单的”，但这个“简单”是经过高密度创作过程才能达成的“高密度结论”。最终，他最大的发现是电影的想象力能轻而易举突破障碍，让“迷魂者”饱含深情地抵达结局。他认为《狂野时代》的结尾不是“深刻”的，而是“充满感情”的，是对一个“崩溃”世界的“伤感”告别，艺术在此刻不是记录，而是在“吟唱”这种无奈与惋惜。", "key_arguments": ["电影创作的核心在于情感与叙事，而非形式主义：毕赣认为其电影最核心的驱动力是“如何讲一个故事”并引发观众的“感受”，视听语言和形式是为情感服务的理性工具。", "动态、直觉主导的创作方法论：他的创作过程是高度逻辑化准备与现场直觉判断的结合，故事和拍摄方案在剪辑前始终处于动态变化中，通过反复调整和“留气孔”来捕捉“动人”的瞬间，而非遵循预设结果。", "《狂野时代》旨在构建“抽象的中国人精神肖像”：电影通过“迷魂者”在一个世纪中的漂泊，试图呈现一个“抽象的中国人的肖像”，为此他刻意“模糊了时代的共识”，以突出个体命运而非具体历史事件。", "电影结尾应“充满感情而不是深刻”：毕赣认为艺术的终极目的不是提供深刻的哲学洞见，而是在一个“世界崩溃”的语境下，以“饱含深情”的方式去“吟唱”一种“伤感”与“惋惜”的无奈情感。"], "mentioned_resources": ["《地球最后的夜晚》 (毕赣) - 毕赣的上一部电影长片，作为创作起点和风格对比。", "《路边野餐》 (毕赣) - 毕赣的早期作品，与《狂野时代》的创作难度进行对比。", "《狂野时代》 (毕赣) - 本次访谈的主体电影。", "《默片》 (毕赣作品中的一个段落) - 电影《狂野时代》中的一个故事段落，其创作受到德国表现主义电影的影响。", "《狗牙》 (毕赣作品中的一个段落) - 电影《狂野时代》中的一个故事段落，被描述为封闭式心理惊悚片，探讨“味觉”。", "《废园天使》 (毕赣作品中的一个段落) - 电影《狂野时代》中的一个故事段落，讲述世纪末私奔故事，以长镜头拍摄。", "德国表现主义 (German Expressionism) - 电影《狂野时代》中“默片”部分的重要美学参照。", "卢米埃尔兄弟 (frères Lumière) - 被提及作为电影工业化、记录现实的象征。", "梅里爱 (Georges Méliès) - 被提及作为电影魔术、造梦的象征。", "《末代皇帝》 (The Last Emperor) - 被毕赣用作他不想拍摄的、过于贴近历史真实性的电影类型示例。", "《破碎太阳之心》 (毕赣) - 毕赣的早期作品，标志着他开始寻求创作上的“依靠”。", "大卫·科波菲尔 (David Copperfield) - 在调查80年代“特异功能”背景时被提及，用于理解那个时代的氛围。"], "keywords": ["狂野时代", "电影怪物", "信息过载", "讲故事", "视听语言", "形式主义", "感受", "情感核心", "直觉", "逻辑化", "悖论", "电影工业", "创作自由", "方法论", "精神肖像", "迷魂者", "时代共识", "致敬", "高密度结论", "伤感", "电影结尾", "吟唱", "世界崩溃", "动人", "历史感", "叙事本能", "多周期拍摄", "不安感", "抽象化"], "style_tone": "这是一篇充满哲思、内省且真诚的访谈，毕赣导演以其独特的视角，深入剖析了电影创作的理念与实践，语调沉静而富有诗意，略带忧郁和伤感，展现了对艺术的执着探索与人文关怀。"}</t>
+  </si>
+  <si>
+    <t>{"title": "考古学家与历史学家：与吉奥乔·阿甘本的对话", "summary_long": "这篇访谈记录了意大利哲学家吉奥乔·阿甘本与法国哲学家帕特里克·布舍龙在2016年秋季进行的一次对话。两位学者都秉持一种福柯式的“考古学”信念，即通过质问历史传统来构建描述当下的概念，并认为这种考古学与政治关切密不可分。\n\n对话伊始，布舍龙就阿甘本《身体使用》序言中提及的“放弃”概念提问，探讨其在思想行动中的政治含义以及“他人”延续作品的可能性。阿甘本澄清，“他人”并非指未来世代，而是以“将来完成时”构想的“未来中的过去”，他们是思想考古学工作被“放弃”后才可能出现的。他强调，“他人”属于“要求”（exigence）的秩序，是思想所要求的，正如伊本·鲁世德所言，人类物种“永远有一个哲学家”的需求。\n\n布舍龙进一步追问，这种将思想置于主体之外的“要求”如何与反英雄的生命形式及“专名的主权”相适应。阿甘本回应称，伊本·鲁世德的核心问题在于重新结合已分离的个体与思想（copulatio），通过个体的“幻觉”或“想象”实现。想象是每个人最本真的东西，它使思想得以可能，并在思想行动中留下短暂的“签名”，而幻觉则在思想行动中随即消失。\n\n随后，对话转向居依·德波在《分离批判》中提出的“私人生活之‘暗中性’（clandestinità）”。阿甘本认为，德波和西方政治传统未能克服这种过于私密的生活，但他相信政治的秘密恰恰隐藏于此。真正的政治元素在于私人生活的“暗中性”，而他正试图质问其政治意义，寻找“真实生活之地理的西北通道”，这与亚里士多德将“暗中性”纳入又排除于城邦之外的思考相呼应。\n\n在探讨阿甘本的工作方法时，他透露，每一本书中总有“没说的东西”在提出要求，促使他深入特定的研究或文献，这伴随着一种“更加私人、秘密的考古学”。布舍龙质疑，如果“非作”（désœuvrement）的政治目标是“罢免”或“废除”，那么“不为的能力”（potency not to）是否只会圈定一块小小的沉思之地，致力于自我不可治理？阿甘本解释，这触及了社会中“建立的”与“废除的”之间的辩证关系，以语言为例，言语（parole）与语言（langue）的活力辩证使社会可行。如果“建立的”一极过度强化，政治生活便不可能。“不为的能力”并非沉思，而是使政治生活成为可能，沉思本身即是典型的政治活动。\n\n关于阿甘本的“双重写作机制”和《Homo Sacer》系列的构想，他强调该系列从一开始就是一场“冒险”，而非事后汇编。他将哲学史上的“形式”问题与柏拉图选择对话体、前苏格拉底哲学家写诗等进行类比，指出哲学在言说事物的同时，也必须言说“言说”这一事实。显白与隐微、关于事物的话语与关于语言的话语在哲学中不断交织。\n\n对话最后，布舍龙提到埃米尔·本维尼斯特对阿甘本词源学反思的影响。阿甘本表示，本维尼斯特对索绪尔符号学不足的认识，以及“符号的”与“语义的”之间“不可缝合的断裂”的观点，一直伴随着他。他认为，哲学正是努力克服这种分裂，为“语言”（langue）恢复声音和材料。在与历史学家的区别上，阿甘本指出，语文学的政治教训在于，我们总是通过一个被修订的传统来接受文化。他强调，“源始的”并非位于过去的原型，而是发生于当下，是语文学家与传统“贴身肉搏”的“涌出时刻”（surgissement），这正是考古学家与历史学家分道扬镳之处。", "key_arguments": ["哲学思想是一个永无止境的“放弃”过程，它由“要求”（exigence）的秩序驱动，并依赖于“没说的东西”和“将来完成时”构想的“他人”来延续。", "“源始的”并非历史中固定的原型，而是通过与传统进行批判性、政治性搏斗而在当下发生的“涌出时刻”（surgissement），这标志着考古学与历史学的分野。", "政治生活的活力源于“建立的”与“废除的”力量之间的辩证张力；“不为的能力”（potency not to）并非消极沉思，而是使政治生活得以可能的积极政治行动。", "私人生活的“暗中性”（clandestinità）蕴含着政治的真正奥秘，对其的质问和探索是寻找“真实生活之地理的西北通道”的关键。", "想象力是连接个体与分离思想的关键机制，它通过“幻觉”促成两者的结合（copulatio），并在思想行动中留下短暂而独特的“签名”。"], "mentioned_resources": ["Homo Sacer (吉奥乔·阿甘本) - 阿甘本的哲学项目，被描述为不可能完结，只能被放弃。", "《身体使用》(The Use of Bodies) (吉奥乔·阿甘本) - 被提及为完成又未完成Homo Sacer项目的作品。", "《分离批判》(The Critique of Separation) (居依·德波/Guy Debord) - 德波的电影，其中提到“私人生活之‘暗中性’”。", "《王国与荣耀》(The Kingdom and the Glory) (吉奥乔·阿甘本) - 提及其中对早期教父文献的研究。", "《主业》(The Opus Dei) (吉奥乔·阿甘本) - 提及其中对礼仪材料的研究。", "《至高的贫乏》(The Highest Poverty) (吉奥乔·阿甘本) - 提及其中对修道院规则的研究。", "《什么是命令？》(What is Command?) (吉奥乔·阿甘本) - 被提及作为词源学反思的例子。", "《火与故事》(The Fire and the Tale) (吉奥乔·阿甘本) - 被提及与研究工作和文学的神秘性相关。", "《冒险》(The Adventure) (吉奥乔·阿甘本) - 被提及为阿甘本的一本小书，与Homo Sacer项目的构想方式相关。", "福柯的“考古学” (Michel Foucault's \"archaeology\") - 阿甘本和布舍龙共享的信念，即通过质问历史传统来构建概念。", "伊本·鲁世德 (Ibn Rushd / Averroes) - 提及其关于人类物种“永远有一个哲学家”的要求，以及个体与分离理智的结合（copulatio）理论。", "索绪尔 (Ferdinand de Saussure) - 提及其关于langue（语言）与parole（言语）的对立概念。", "埃米尔·本维尼斯特 (Émile Benveniste) - 提及其对索绪尔符号学不足的认识，以及“符号的”与“语义的”之间“不可缝合的断裂”的观点。", "柏拉图 (Plato) - 提及其选择对话作为哲学形式，以及在《裴多篇》中关于在“话中寻找‘是’之‘真’”的观点。", "柯耶夫 (Alexandre Kojève) - 提及其关于哲学在言说某事物的同时也必须言说其言说事实的观点。", "亚里士多德 (Aristotle) - 提及其将“暗中性”纳入城邦又排除在外的思考。", "吉奥乔·帕斯夸里 (Giorgio Pasquali) - 提及其大作《传统的历史和对文本的批判》，用以阐释语文学的意义。", "前苏格拉底时期的“生理学家” (Pre-Socratic \"physiologists\") - 被提及与巴门尼德一样以诗歌形式写作。", "巴门尼德 (Parmenides) - 被提及以诗歌形式写作。", "索福戎的笑剧 (Sophron's mimes) - 被提及为柏拉图选择对话形式的灵感来源。"], "keywords": ["考古学", "历史传统", "政治关切", "放弃", "他人", "将来完成时", "要求 (Exigence)", "分离的理智", "结合 (Copulatio)", "幻觉/想象", "签名", "私人生活之‘暗中性’ (Clandestinità)", "建构情境", "真实生活之地理的西北通道", "没说的东西", "私人秘密的考古学", "非作 (Inoperativity / Désœuvrement)", "罢免/废除 (Deposition/Destitution)", "不为的能力 (Potency Not To)", "建立的 (Instituted)", "废除的/非-建立的 (Destituent/Non-instituted)", "辩证", "语言 (Langage)", "言语 (Parole)", "语言 (Langue)", "哲学形式", "对话", "显白/隐微", "词源学", "开端/诫命 (Archē)", "符号的 (Semiotic)", "语义的 (Semantic)", "裂缝", "语文学", "传统", "文本批判", "源始的", "涌出时刻 (Surgissement)"], "style_tone": "逻辑严密、抽象深刻的哲学对话风格，充满思辨性与批判性，语言精准且富含专业术语。"}</t>
+  </si>
+  <si>
+    <t>{"title": "数字时代的疯癫书写：“发疯文学”的疾病隐喻与美学疗愈", "summary_long": "“发疯文学”是近年来兴起的网络文化现象，它通过符号混乱和创伤书写，反映了当代青年的心理状态及数字环境的影响。本文旨在将其定义为“数字原住民通过符号狂欢解构理性秩序的话语实践”，并深入剖析其生成语境、文本结构、叙事魅力、权力博弈、与经典文学的对话、身份构建，以及其疗愈的二重性——既是“社会安全阀”进行美学疗愈，又难逃被资本收编的命运。\n\n文章首先探讨了“发疯文学”的生成语境：数字技术与算法霸权。引用福柯《安全、领土与人口》、阿甘本的“例外状态”理论以及内格里与哈特“生命政治劳动”的概念，指出数字资本主义中个体生命沦为“数字生命政治”的治理对象。数字技术通过显性审查和隐性推送机制，构建了德勒兹所描述的“控制社会”，算法精准调控，将内容生产异化为数据绩效的奴隶。资本通过数据分析实现隐形控制和商业获利。\n\n接着，文章将“发疯文学”视为一种“文本武器”，分析其权力博弈和抵抗策略。用户通过语言变异策略，如谐音替换和符号拆解，在算法规训中开辟表意空间，形成具有双重解码机制的暗语系统，这种“自我例外化”对抗审查。从符号学角度，“发疯文学”文本可分为能指分解型（乱码、标点爆破、语法坍缩、逻辑混乱）、能指增殖型（反转重复、差异重复、括号剧场）和所指虚无型（身份扮演、重章复沓）。这些文本通过破坏语言能指链、制造超真实符号秩序或消解所指，精准打击了控制社会编码系统的可识别性、可分类性和可预测性，使算法难以建立用户画像和预测行为，从而瓦解了资本的获利链条。\n\n文章进一步将“发疯文学”置于“文学疯癫谱系”中进行当代续写。援引福柯《疯癫与文明》，指出疯癫始终被嵌在权力话语中，是文明秩序的“症状性他者”。“发疯文学”继承了对理性秩序的质疑与抵抗，但策略有所升级：经典“装疯”（如哈姆雷特、华子良在《红岩》中的表现）是高度理性计算的产物，服务于宏大目标，在边界清晰的物理空间中运作；而“发疯文学”的抵抗场域弥散，不服务于外部宏大目标，旨在制造混乱、撕开裂隙，通过符号越界张扬主体性。在媒介生态重构下，鲁迅《狂人日记》的启蒙野心和《一九八六年》的绝望深度被卸去，“发疯文学”转向内在创伤的抚慰和虚拟共同体的构建。在异化主题上，卡夫卡《变形记》中格里高尔的被动、不可逆异化，被“蟑螂文学”和“吗喽文学”的主动、可逆自嘲所取代，以自我物化寻找“逃逸线”。此外，郭沫若诗歌中“天狗”式的非理性迷狂，与“发疯文学”的能指分解共享反形式主义内核，朱自清在《中国新文学大系·诗集·导言》中对郭沫若的评价也印证了这一点。“发疯文学”将郭沫若的精英式迷狂降维为数字迷因，实现大众对精英文化的戏谑占有。\n\n在“部落身份构建”方面，米歇尔·马费索利在《部落时代：个体主义在后现代社会的衰落》中提出的“新部落”概念，解释了“发疯文学”如何通过情感联结和符号共享形成松散、流动的共同体。用户的“疯癫操演”通过集体互动被确认，构建了亚文化合法性。匿名社交允许用户以“虚体”身份参与，剥离现实责任，如“momo”集体账号。这种“疯言疯语”具有“以言行事”功能，通过夸张修辞召唤同类形成情感同盟。\n\n最后，文章探讨了“发疯文学”的“疗愈悖论与资本收编”。它对苏珊·桑塔格《疾病的隐喻》中传统疾病与道德评判的隐喻链进行了重构与反转，将情绪崩溃转化为集体口号，用“蕉绿症”、“玉玉症”等谐音梗解构医学严肃性，实现对传统疾病隐喻的解构与重塑。兰德尔·柯林斯的“互动仪式链”在赛博空间中衍生，通过符号堆砌聚合情感能量。然而，阿多诺的“文化工业”理论警告，这种美学疗愈可能沦为资本收编的“疗愈经济”，失去批判性。资本通过算法监控、数据抓取、流量分配和商业嵌入，将“发疯文学”标签和衍生产品（如“蟑螂立牌”）推向消费市场，使其成为消费主义的安慰剂。资本允许部分疯癫表演存在，恰因其作为“社会安全阀”维系着控制系统的动态平衡。尽管资本收编无处不在，但用户的战术性抵抗仍在持续，新的符号变体会再次涌现，形成动态博弈。", "key_arguments": ["“发疯文学”是数字原住民在算法霸权和控制社会下，通过符号狂欢解构理性秩序、进行战术性抵抗的话语实践。", "其文本机制通过能指分解、增殖与所指虚无化，精准打击了控制社会编码系统的可识别性、可分类性和可预测性，从而瓦解了资本的获利链条。", "“发疯文学”是文学史上“疯癫”叙事的当代续写，它继承了对理性秩序的质疑与反叛，但将抵抗场域、疗愈方向、异化主题和非理性表达策略进行了适应数字时代的重构。", "它通过匿名展演和情感共振构建虚拟部落身份，将疾病隐喻从个体病理转化为集体抵抗，提供美学疗愈。", "然而，这种疗愈存在悖论，最终难逃被资本通过算法监控和“疗愈经济”收编的命运，沦为“社会安全阀”，但新的抵抗形式仍在动态博弈中涌现。"], "mentioned_resources": ["《安全、领土与人口》 (福柯) - 指出现代权力从“使人死”的惩戒机制转向“使人活”的治理术，核心是对人口的统计学管理。", "“例外状态”理论 (阿甘本) - 揭示权力通过悬置法律边界将生命降格为“赤裸生命”。", "“生命政治劳动”概念 (内格里与哈特) - 提出在数字资本主义中非物质劳动成为资本积累核心，劳动与生活界限消弭使个体生命沦为“数字生命政治”的治理对象。", "“控制社会”理论 (德勒兹) - 指出控制社会实行隐形的持续性调控，技术向度依赖算法精准图绘培养虚体与平台之间的依赖关系。", "《疯癫与文明》 (福柯) - 断言疯癫的形态始终被嵌在权力话语之中，是文明秩序的“症状性他者”。", "《红岩》 - 提及华子良为传递情报长期装疯，以自毁式表演蒙蔽敌人，其疯癫是步步为营的革命战术。", "《狂人日记》 (鲁迅) - 疯人以“吃人”的疯言撕开礼教面具，疯癫是反理性的启蒙工具。", "《一九八六年》 - 主人公因迫害发疯，以自残重演古代酷刑，疯癫是理性崩塌后的虚无。", "《变形记》 (卡夫卡) - 提及格里高尔化为甲虫的荒诞叙事，其异化是不可逆、被动的，最终导向死亡。", "“蟑螂文学” - Z世代用户以“蟑螂”自嘲，隐喻在学历内卷、职场压力下的自我物化。", "“吗喽文学” - 与“蟑螂文学”类似，作为一种主动的、可逆的异化表达。", "郭沫若诗歌中的“天狗”式迷狂 - 以非理性语言冲击传统格律，与“发疯文学”共享反形式主义内核。", "《中国新文学大系·诗集·导言》 (朱自清) - 评价郭沫若诗歌“最厌恶形式，而以自然流露为上乘”，具有“泛神论，与二十世纪的动的和反抗的精神”。", "《部落时代：个体主义在后现代社会的衰落》 (米歇尔·马费索利) - 指出后现代社会中的个体通过情感联结与符号共享，形成松散、流动的“新部落”。", "《疾病的隐喻》 (苏珊·桑塔格) - 揭示传统社会通过将疾病与道德评判捆绑，构建起疾病隐喻链。", "“互动仪式链”理论 (兰德尔·柯林斯) - 在赛博空间中衍生出独特变体，情感能量借助文字排比、符号堆砌的共时性展演实现聚合。", "“文化工业”理论 (阿多诺) - 警告大众文化会将一切抵抗符号收编为可消费的景观。"], "keywords": ["发疯文学", "数字时代", "疾病隐喻", "美学疗愈", "控制社会", "算法霸权", "数字生命政治", "生命政治劳动", "赤裸生命", "例外状态", "能指", "所指", "疯癫谱系", "符号狂欢", "互动仪式链", "文化工业", "社会安全阀", "Z世代", "亚文化", "抵抗策略", "资本收编", "虚体", "身份构建", "异化", "非理性", "拟态认同", "后人类主体"], "style_tone": "逻辑严密的分析风格，融合哲学社会学理论与文化批判，语言专业且富有洞察力。"}</t>
+  </si>
+  <si>
+    <t>{"title": "契约、疯狂与理想之地：《疯狂动物城2》中的乌托邦叙事", "summary_long": "文章以《疯狂动物城2》的票房成功为引，指出其不仅印证了动物拟人动画的生命力，更标志着乌托邦宏大叙事在现代性背景下的回归。作者援引罗素观点，强调人类对理想社会的向往古来有之，但现代性却倾向于“消解反思自身、批判现实的乌托邦维度”，导致乌托邦观念被悬置，人趋于“动物化”。《疯狂动物城》系列则反其道而行之，通过拟人化和动作大片化，将乌托邦具身化为一种“游记”式的想象。\n\n文章深入探讨了影片中的乌托邦空间与时间维度。沃尔金认为乌托邦文学是陌生国度之旅，影片通过拓展地理空间（爬行谷、湿地市场）和物种多样性，将乌托邦世界从第一部的横向“同心圆状尺度”扩展为第二部的纵向“梯状尺度”，揭示了被遮蔽的地理区隔和权力结构，尤其体现在围绕“气候墙”的设计日记上。在时间维度上，曼海姆区分了“空间愿望”（乌托邦）和“时间愿望”（千禧年主义），影片中两部剧情仅隔7天，呼应了乌托邦时间旅行小说，并与托马斯·莫尔《乌托邦》500周年、华特迪士尼动画工作室100周年等时间节点形成互文。鲍曼的“流动现代性”理论被引入，将乌托邦比作“假兔子”，朱迪的“尝试一切可能”即是追逐兔子洞的体现；而蛇则代表“后现代栖息地”中非固态、非液态的湿地，象征着被掩埋的真实。\n\n文章随后剖析了“疯狂动物城”译名中“疯狂”的深层含义。作者认为，乌托邦的实现并非坦途，而是弥合偏见、构建“想象的共同体”的“疯狂”过程。这种“疯狂”体现在动物放弃生物本能、社会化并签订契约，这与德勒兹所说的“疯狂是当代社会运行的基本逻辑”相呼应。译名“疯狂”可能暗示“乌托邦的实现是疯狂的”。同时，“疯狂”也指涉了第一部中食肉动物的“疯狂”行为（午夜嚎叫植物诱发），以及第二部中观众的观影热情和影片大幅增加的动作追逐戏带来的肾上腺素刺激。林雪猁家族因猫薄荷而产生的“疯狂”行为，则被视为对马克·费舍“幽灵回溯”中迷失自我的警示。\n\n乌托邦的实现离不开“契约性”。迈瑞尔和凯瑟琳提出的“Euchronia”（美好时光）概念，强调乌托邦是一个积极参与历史进程、不断创造新美好的过程，这与动物城100周年庆典的精神状态相符。第一部中食肉动物与食草动物签订的契约，在第二部中通过“林雪猁设计日记”这一纸质文件被具象化，揭示了气候墙专利的真正归属。然而，第一部引以为豪的气候墙，在第二部中却成为物理隔绝和压迫的象征，体现了“种族主义基建”和士绅化对爬行动物的排斥，将生物捕食链关系转变为中心与边缘的生存关系。\n\n最后，文章探讨了乌托邦图像的“历史考古”与“媒介考古”作用。案件核心从刑事犯罪转向寻找被隐藏的专利文件，揭示结构性压迫和历史修正主义。媒介在真相重现中扮演关键角色，从朱迪的胡萝卜录音笔（留声机使命，即决审判）到电视、网络等现代媒介，都在争夺乌托邦解释的“发声权”。作者还提出“爱情”作为一种特殊的媒介考古，朱迪与尼克通过互诉衷肠解决依恋创伤，实现了最小单位的个人乌托邦。\n\n文章总结道，从夏奇羊演唱的主题曲《Try Everything》（个人乌托邦）到《ZOO》（空间乌托邦）的转变，体现了乌托邦叙事从个人梦想实现到集体参与的必然路径。歌词中“we're turn in the floor into a zoo”被重新解读为“把发声权还给每个动物”，呼吁建立一种以对话为核心、追求公正、关心和包容的社会文化，这正是《疯狂动物城2》重新唤醒的乌托邦理想。", "key_arguments": ["《疯狂动物城2》的成功标志着乌托邦宏大叙事在现代性消解背景下的回归与具身化，通过动物拟人化和动作化构建了具象的乌托邦想象。", "影片通过空间（从同心圆到梯状尺度，揭示隐藏区隔）和时间（短时剧情与长时纪念，呼应乌托邦理论）的扩展，深化了对乌托邦构建与追寻的表达。", "“疯狂动物城”中的“疯狂”具有多重指涉，既涵盖了乌托邦实现路径的非坦途性、社会契约的建立、生物本能的超越，也包括了权力逻辑、影片情节中的“疯狂”事件以及观众的观影热情和动作场景带来的刺激。", "乌托邦的实现依赖于“契约性”，《疯狂动物城2》通过揭示被隐藏的“林雪猁设计日记”，将抽象契约具象化，并批判了气候墙从共存象征到结构性压迫工具（“种族主义基建”）的转变。", "影片运用“历史考古”和“媒介考古”揭示被掩盖的真相，强调了不同媒介（如录音笔、电视、网络乃至爱情）在重建乌托邦理想中的关键作用，并最终指向集体“发声权”的实现。", "从主题曲的演变（《Try Everything》到《ZOO》）看，乌托邦叙事从个人梦想转向集体参与，呼唤建立一个以对话为核心、赋予所有社会成员“发声权”的公正、关心和包容性社会。"], "mentioned_resources": ["《疯狂动物城2》(Zootopia 2) - 文章主要分析对象。", "《疯狂动物城1》(Zootopia 1) - 作为对比和前作背景。", "《疯狂动物城》番外绘本 - 提及蛇Gary游览动物城，作为游记形式的例证。", "《火车进站》(1895) - 早期电影展现速度性要素的例子。", "《乌托邦》(Utopia) (托马斯·莫尔 / Thomas More) - 乌托邦观念的源头，与影片上映时间形成互文。", "《意识形态与乌托邦》(Ideology and Utopia) (曼海姆 / Karl Mannheim) - 区分空间愿望和时间愿望的理论依据。", "《爱丽丝梦游仙境》(Alice in Wonderland) - 提及“兔子洞”的文学作品。", "《流动的现代性》(liquid modernity) (齐格蒙特·鲍曼 / Zygmunt Bauman) - 将乌托邦比作“假兔子”的理论。", "《不完美的图像：反乌托邦时代的乌托邦思想》(The Imperfect Image) (拉塞尔·雅各比 / Russell Jacoby) - 探讨乌托邦与暴力关系。", "《两种疯狂体制》(两种疯狂体制) (德勒兹 / Gilles Deleuze) - 认为疯狂是当代社会运行的基本逻辑。", "《重返美丽新世界》(Brave New World Revisited) (赫胥黎 / Aldous Huxley) - 敌托邦作品，提及麻醉形象分类。", "《闪灵》(The Shining) - 电影致敬镜头，杰克·托兰斯在迷宫中精神错乱。", "《幽灵回溯》(Ghosts of My Life) (马克·费舍 / Mark Fisher) - 探讨人在时间中迷失自我变得疯狂。", "《林雪猁设计日记》(Lynxley Journal) - 《疯狂动物城2》中的关键道具，揭示气候墙专利。", "《无政府、国家与乌托邦》(Anarchy, State, and Utopia) (诺齐克 / Robert Nozick) - 存在权的乌托邦理论。", "《熊出没·重启未来》：自然批评的生态书写 (但愿) - 作者但愿的另一篇澎湃文章。", "《疯狂的石头》系列 (宁浩) - 提及“疯狂”系列电影的开端。", "《疯狂外星人》(Home, 2015) - 提及片名中采用“疯狂”句式的电影。", "《疯狂元素城》(Elemental, 2023) - 提及片名中采用“疯狂”句式的电影。", "《喜羊羊与灰太狼》系列 - 提及受《疯狂动物城1》影响，生物属性可被药物复刻的设定。", "《羊村守护者》(2019) - 《喜羊羊与灰太狼》系列中羊狼和平冒险的开始。", "《媒介考古学：方法、路径与意涵》(媒介考古学：方法、路径与意涵) (埃尔基·胡塔莫 / Erkki Huhtamo) - 媒介考古学理论。", "《爱情：一种考古媒介》(爱情：一种考古媒介) (晏青 / Yan Qing) - 爱情作为考古媒介的观点。", "《Try Everything》 (夏奇羊 / Gazelle) - 《疯狂动物城1》主题曲，代表个人乌托邦。", "《ZOO》 (夏奇羊 / Gazelle) - 《疯狂动物城2》主题曲，代表空间乌托邦。", "《把自己作为方法》(项飙) - (示例中提及，但原文未引用)", "《倦怠社会》(韩炳哲) - (示例中提及，但原文未引用)", "《自由之路·上》(罗素 / Bertrand Russell) - 引用其关于人类梦想良好秩序社会的观点。", "《乌托邦语境下的现代性反思》(张彭松 / Zhang Pengsong) - 引用其关于现代性消解乌托邦意识的观点。", "《媒介地理学：媒介作为文化图景的研究》(邵培仁、杨丽萍 / Shao Peiren, Yang Liping) - 引用其关于乌托邦文学形式的观点。", "《想得很美:乌托邦的细节设计》(马少华 / Ma Shaohua) - 引用其关于乌托邦文学形式的观点。", "《流动的时代》(齐格蒙特·鲍曼 / Zygmunt Bauman) - 引用其关于乌托邦比作“假兔子”的观点。", "《后现代性的预言家:齐格蒙特·鲍曼传》(丹尼斯·史密斯 / Dennis Smith) - 引用其关于“后现代性-蛇”的观点。", "《偏见与认同：《疯狂动物城》的乌托邦政治隐喻》(陈世华，刘晶 / Chen Shihua, Liu Jing) - 引用其关于“想象的共同体”的观点。", "《疯狂动物城》：乌托邦遗产与重启》(张永禄 / Zhang Yonglu) - 引用其关于“疯狂”译名的观点。", "《疯狂动物城2》的平庸，是这个时代的错？》(庄山贝 / Zhuang Shanbei) - 引用其对气候墙转变的评论。", "《怀旧的乌托邦》(齐格蒙特·鲍曼 / Zygmunt Bauman) - 引用其关于对话文化的观点。"], "keywords": ["乌托邦叙事", "宏大叙事", "现代性", "后现代性", "动物拟人化", "福瑞", "空间乌托邦", "时间乌托邦", "千禧年主义", "流动现代性", "想象的共同体", "社会契约", "疯狂", "符号体制", "敌托邦", "麻醉形象", "幽灵回溯", "契约性", "Euchronia", "存在权的乌托邦", "种族主义基建", "士绅化", "历史考古", "媒介考古", "即决审判", "发声权", "依恋创伤", "个人乌托邦", "对话文化", "包容性社会"], "style_tone": "逻辑严密的分析风格，充满理论思辨与批判性视角，援引大量学术资源。"}</t>
+  </si>
+  <si>
+    <t>{"title": "澎湃思想周报｜墨西哥“Z世代”抗议；布鲁塞尔当代艺术博物馆困局", "summary_long": "本期澎湃思想周报深入剖析了两个看似独立却都折射出深层社会与政治矛盾的事件：墨西哥的“Z世代”抗议活动和布鲁塞尔KANAL-蓬皮杜中心的困境。\n\n文章首先聚焦墨西哥城11月15日爆发的“Z世代”抗议。游行的直接导火索是乌鲁阿潘市长卡洛斯·曼索因呼吁打击贩毒集团而遭枪击身亡。抗议者谴责毒品暴力、腐败和有罪不罚，甚至呼吁总统辞职，称政府为“毒枭政府”。然而，文章援引美国左翼杂志《雅各宾》上库尔特·哈克巴斯（Kurt Hackbarth）的评论，指出这场抗议活动呈现出明显的“虚假草根运动”特征，是国际抗议符号“特许经营模式”的实例。哈克巴斯通过一系列矛盾揭示其本质：一场缺少年轻人参与的“青年”游行；一场以蓄意暴力告终的“反暴力”示威；一场由保守党派资助的“无党派”集会；以及一场受左翼漫画《海贼王》启发却陷入极右翼仇恨的抗议。尽管曼索市长遇刺事件确凿无疑，且墨西哥政府迅速采取行动并启动“米却肯计划”，总统辛鲍姆在执政首年已显著降低谋杀率并获得高支持率，但右翼政党利用其在选民中不受欢迎的劣势，将高度党派化的活动包装成“公民社会”自发表达。文章揭露了右翼势力通过收买青年领袖、利用社交媒体机器人账户（模仿《海贼王》形象煽动暴力，发布总统通缉令及AI伪造视频）来操纵舆论和动员。游行当天，实际参与者多为中老年中产阶级，核心诉求被针对总统的谩骂淹没，并伴随有组织的暴力行为，甚至有新纳粹分子在最高法院涂写仇恨言论。文章进一步指出，美国极右翼媒体人及前总统特朗普等也借机发声，暗示外部干预。墨西哥《千年报》的报道证实，游行前夕有大量机器人账号密集活动。此外，文章揭示了墨西哥国内寡头集团的利益驱动，特别是富豪里卡多·萨利纳斯·普里戈因新上任法院驳回其巨额税务上诉后，利用旗下电视台攻击司法系统并鼓吹极右翼言论，预示未来此类“虚假草根”骚动将持续上演。哈克巴斯认为，此次“去稳定化”事件虽暂时失败，但幕后势力必将卷土重来。文章最后强调，尽管右翼阴谋论有其合理性，但抗议也反映了墨西哥社会深层的政治不信任、毒品暴力、腐败与有罪不罚等结构性痼疾，以及新自由主义遗留的制度缺陷。社交媒体时代政治动员的异化，将复杂问题简化为二元对立，可能使墨西哥重蹈街头政治常态化的覆辙。罗伯托·波拉尼奥的《2666》所揭示的结构性暴力，恰恰映照了民众真实恐惧沦为权力角逐注脚的困境。\n\n文章随后转向布鲁塞尔的KANAL-蓬皮杜中心困局。这座由雪铁龙工厂改造而成的当代艺术博物馆，被寄予厚望成为城市公共空间和欧洲文化雄心的象征，原计划于2026年开放。然而，其开馆前景日益不明，暴露出欧洲当代文化治理结构的内在矛盾。KANA基金会负责人伊夫·戈德斯坦曾将其定义为通过艺术与文化重建公共连接的乌托邦计划，旨在成为嵌入城市日常的公共基础设施。然而，该项目从一开始就带有“拼接”色彩：比利时缺乏国家级当代艺术馆，最终通过布鲁塞尔首都大区与巴黎蓬皮杜中心达成的十年合作协议才得以落地。这种每年200万欧元合作费用、为期五年的品牌绑定，使其从诞生之初就陷入不对称的文化权力结构之中。2021年的人事风波集中爆发了这种依赖：专业评审团选定的女性策展人凯撒·雷德齐斯（Kasia Redzisz）被董事会推翻，强行与即将卸任的巴黎蓬皮杜馆长贝尔纳·布里斯蒂安（Bernard Blistène）“联合任命”，引发欧洲艺术界集体声讨，被视为赤裸裸的性别政治和国际文化权力对地方机构的深度介入。2025年《卫报》披露的财政危机进一步撕开了其脆弱面：布鲁塞尔政府长期无法组建，财政紧缩导致KANAL预算被提议削减一半以上，甚至面临停工风险，尽管建筑已完成95%。这种反差象征着文化项目在经济紧缩时被视为“非刚需支出”的结构性不稳定。文章指出，KANAL并非孤例，它集中了当代欧洲大型公共文化项目跨国合作、地方政府主导、社会功能扩张、财政脆弱和专业自主性受挤压的典型特征。更深层的问题在于，这类超级文化综合体背负着“为所有人服务”的进步理想与“全球地标性品牌效应”的资本逻辑之间的紧张双重逻辑，使其成为多重力量博弈的结点。KANAL今日的制度争议、性别冲突与财政危机，正是这种矛盾的集中显影，它已提前成为一面镜子，映照出当代欧洲公共文化机构在理想与现实之间的巨大张力。", "key_arguments": ["墨西哥的“Z世代”抗议活动，虽然表面上由真实暴力事件触发，但实质上是一场由右翼反对派和外部势力精心策划的“虚假草根运动”，旨在通过社交媒体操纵和“特许经营模式”实现政治去稳定化。", "尽管墨西哥辛鲍姆政府在安全和治理方面取得显著成效，但这些抗议活动也反映出墨西哥社会根深蒂固的结构性问题，包括普遍的毒品暴力、腐败、有罪不罚以及新自由主义遗留的制度缺陷，这些问题被政治行为者利用和放大。", "布鲁塞尔KANAL-蓬皮杜中心这一雄心勃勃的当代艺术博物馆项目，其困境揭示了欧洲当代文化治理结构的内在矛盾，包括不对称的国际合作关系、性别政治的介入，以及大型公共文化项目在财政紧缩下的脆弱性。", "大型公共文化项目往往背负着“公共文化空间”的理想主义与“全球地标性品牌”的资本主义双重逻辑，这使得它们在政治、资本、性别和国际文化权力结构中成为多方博弈的焦点，其理想主义在现实面前显得格外脆弱。"], "mentioned_resources": ["《雅各宾》（Jacobin）杂志 (库尔特·哈克巴斯) - 库尔特·哈克巴斯在该左翼杂志网站撰文，认为墨西哥城“Z世代”抗议呈现“虚假草根运动”特征，并详细分析了其矛盾和操纵迹象。", "《海贼王》漫画 (尾田荣一郎) - 墨西哥抗议活动中，社交媒体账号模仿其海盗形象，公然煽动暴力活动，发布带有“死活不论”字样的通缉令海报。", "《右翼日报》（La Derecha Diario） (网站) - 阿根廷极右翼攻击网站，被指煽动了墨西哥抗议活动中针对警察的暴力行为。", "《千年报》（Milenio） (报纸) - 报道了墨西哥11月15日游行前夕，由政党成员和私人组织资助的约800万个机器人账号密集活动的情况。", "《2666》 (罗伯托·波拉尼奥) - 作者引用该小说揭示当暴力成为常态、真相被各方叙事遮蔽时，任何社会矛盾都可能被简化为政治斗争的工具，以映照墨西哥抗议背后更深的困境。"], "keywords": ["Z世代抗议", "虚假草根运动", "特许经营模式", "毒品暴力", "腐败与有罪不罚", "政治动员异化", "新自由主义遗留", "结构性暴力", "文化治理", "不对称文化权力结构", "性别政治", "财政紧缩", "公共文化机构", "双重逻辑", "去稳定化", "影子政府", "法治飞地", "社交媒体操纵", "国际文化权力", "当代艺术博物馆困境"], "style_tone": "严谨分析，批判性，具有人文关怀的社会评论"}</t>
+  </si>
+  <si>
+    <t>{"title": "宋睿华｜超越图灵测试：多模态人工智能的版图", "summary_long": "文章以图灵在1950年提出的“计算机器与智能”一文及其核心概念“图灵测试”开篇，阐述了该测试如何将“机器能否思考”这一抽象问题转化为可操作的“模仿游戏”。早期的人工智能发展，如1956年达特茅斯会议上“人工智能”术语的提出，都将模拟人类智能作为目标，但长期未能达到图灵测试的门槛，转而聚焦于下棋、问答等子目标。文章回顾了AI在这些领域的里程碑式突破，包括2016年谷歌DeepMind的AlphaGo战胜围棋大师李世石，以及2011年IBM的Watson在《危险边缘》节目中击败人类冠军，展示了AI在特定任务上的卓越能力。\n\n然而，作者指出，从Watson时代（依赖大量专用算法）到深度学习时代（GPT-3、ChatGPT的诞生），AI模型在通用性和开放性对话能力上取得了飞跃，使得人们再次关注其通过图灵测试的可能性。尽管媒体和节目（如央视《机智过人》、《2025中国·AI盛典》）多次尝试以图灵测试思想检验AI，但作者认为，随着AI在对话领域的长足发展和数字人、视频生成技术的进步，图灵测试的有效性面临重新思考的必要。文章提出，当前AI的能力已远超图灵当年所设想的文字范畴，延伸至声音、视觉、运动等多种模态。AI不仅需要理解电影中的复杂情感和动机，还需要驱动的数字形象能对环境和交互对象做出真实、灵动的反应，而非呆板的NPC。\n\n更深层次的洞察是，生成式AI的发展使得人工智能不仅能模拟人类（“造人”），还能模拟世界（“造物”）。DeepMind首席执行官戴密斯·哈萨比斯（因AlphaFold获得诺贝尔化学奖）的观点转变——认为AI仅通过被动观察也能理解直观物理——预示着AI的未来可能远超图灵设想，能高效再发现自然演化形成的稳定结构模式，进而模拟世界的运行规律，形成“世界模型”。\n\n文章随后详细介绍了作者团队在多模态人工智能领域的最新研究成果，对应着超出原有图灵测试范围的三个方向：\n1.  **多模态理解：从语言到多感官。** 旨在模拟具有多种感官的人类，通过CLIP、国内“悟道·文澜”等模型，利用海量数据对齐文字与图像、声音的语义，打破模态壁垒。团队的《看得见、听得清：BPO-AVASR如何重构语音识别的感知方式》一文，强调了多模态理解在解决语音识别误解方面的关键作用。\n2.  **多模态交互：从头脑到身体。** 旨在模拟人的身体，解决机器人和数字人与人交互时的不自然问题。团队提出的Think-Then-React模型，在《击掌还是握手？机器人如何预判你的动作》中展示了机器人如何理解人类动作并生成合理反应。另一项研究《听见眼神的方向：让AI的注视更像人类》则聚焦于如何让数字人的眼神更自然、更像人类，反映内在注意力。\n3.  **多模态生成：从造人到造世界。** 旨在生成逼真的有声视频，模拟世界的动态。文章以谷歌Veo 3为例，说明了AI如何从文本生成高度真实的视频，甚至模拟不同材质的物理交互和声音。团队的《让图像“动”起来的AI魔法》一文，介绍了如何从一张图片联合生成同步的视频和声音，为理解世界模型和高级视频生成技术提供了线索。\n\n文章总结道，多模态人工智能领域正蓬勃发展，以模拟人类和世界为远大目标，其广阔的探索空间远超图灵的预料，但图灵无疑会为人工智能最终迎来挑战和突破其测试的一天而感到欣慰。", "key_arguments": ["图灵测试作为衡量机器智能的早期标准，在当前多模态人工智能快速发展的背景下，其有效性已不足以全面评估AI的能力。", "现代人工智能已超越单一模态的语言处理，正向多模态理解、多模态交互和多模态生成方向发展，旨在模拟人类的多种感官、身体反应及与世界的互动。", "未来人工智能的目标不仅是模拟人类智能（“造人”），更将延伸至模拟世界的运行规律和物质创造过程（“造物”），最终可能构建出能够理解和预测复杂世界的“世界模型”。"], "mentioned_resources": ["《计算机器与智能》（Computing Machinery and Intelligence）(Alan Mathison Turing) - 1950年发表于《心》（Mind）期刊，提出模仿游戏和图灵测试。", "Mind（《心》）(哲学期刊) - 图灵文章的发表刊物。", "达特茅斯会议 (1956) - 首次正式提出“人工智能”（Artificial Intelligence）术语。", "AlphaGo (谷歌DeepMind) - 2016年以4:1战绩击败围棋大师李世石。", "李世石 (人类围棋大师) - 被AlphaGo击败。", "Watson (国际商业机器公司IBM) - 2011年赢得美国电视节目《危险边缘》（Jeopardy!）冠军。", "《危险边缘》（Jeopardy!）(电视节目) - Watson参与并获胜的节目。", "肯·詹宁斯 (Ken Jennings) (Jeopardy!选手) - 被Watson击败。", "布拉德·鲁特 (Brad Rutter) (Jeopardy!选手) - 被Watson击败。", "《世界图书百科全书》（World Book Encyclopedia） - Watson存储的信息来源之一。", "GPT-3 (OpenAI) - 2020年诞生的通用人工智能模型。", "ChatGPT (OpenAI) - 2022年出现的通用人工智能应用。", "《机智过人》(中央电视台) - 2017年推出的人机对比测试节目。", "《2025中国·AI盛典》(电视节目) - 播出了国产大模型MiniMax与陈铭辩论的视频。", "MiniMax (国产大模型) - 在《2025中国·AI盛典》中与陈铭辩论。", "陈铭 (国际大学群英辩论会冠军) - 在《2025中国·AI盛典》中与MiniMax辩论。", "AlphaFold (DeepMind) - 获得2024年诺贝尔化学奖，由戴密斯·哈萨比斯领导研发。", "戴密斯·哈萨比斯 (Demis Hassabis) (DeepMind首席执行官) - 提出人工智能可能通过被动观察理解直观物理的猜想。", "CLIP (OpenAI, 2021) - 多模态模型，对齐文字与图像语义。", "“悟道·文澜” (国内模型) - 多模态模型，对齐文字与图像语义。", "“Towards Artificial General Intelligence via a Multimodal Foundation Model” (Fei, N., Lu, Z., Gao, Y. et al.) - “悟道·文澜”团队论文，登上Nature子刊《自然·通讯》。", "BriVL (Bridging-Vision-and-Language) - “悟道·文澜”团队开发的模型。", "《看得见、听得清：BPO-AVASR如何重构语音识别的感知方式》(宋睿华团队) - 团队在多模态理解方面的研究成果。", "Think-Then-React (模型) - 团队提出的用于机器人预判动作的多模态交互模型。", "《击掌还是握手？机器人如何预判你的动作》(宋睿华团队) - 团队在多模态交互方面的研究成果。", "《听见眼神的方向：让AI的注视更像人类》(宋睿华团队) - 团队在数字人眼神模拟方面的研究成果。", "Veo 3 (谷歌, 2025年5月21日) - 第三代视频生成模型，可从文本生成有声视频。", "Veo 3.1 (谷歌, 2025年10月16日) - 最新AI视频生成模型。", "《让图像“动”起来的AI魔法》(宋睿华团队) - 团队在从图片生成有声视频方面的研究成果。"], "keywords": ["图灵测试", "人工智能 (AI)", "多模态", "深度学习", "自然语言处理 (NLP)", "大模型", "生成式AI", "通用人工智能 (AGI)", "世界模型", "多模态理解", "多模态交互", "多模态生成", "模仿游戏", "语义对齐", "Transformer架构", "数字人", "机器人", "眼动", "造人", "造物"], "style_tone": "逻辑严谨、信息丰富、具有前瞻性的科普分析"}</t>
+  </si>
+  <si>
+    <t>{"title": "吴宜函｜看得见、听得清：BPO-AVASR如何重构语音识别的感知方式", "summary_long": "本文由中国人民大学高瓴人工智能学院博士在读吴宜函撰写，深入探讨了当前自动语音识别（ASR）技术在真实世界复杂环境中的局限性，并提出了一种名为BPO-AVASR（面向多模态语音识别的双焦点偏好优化）的创新方法论，旨在重构机器的感知方式。\n\n文章开篇指出，尽管ASR系统在深度学习的推动下取得了显著进步，但在嘈杂环境、方言口音、口语表达及同音词歧义等真实场景下，其性能仍显脆弱。这种脆弱性源于ASR系统通常只处理单一音频信号，导致在信息不确定时难以做出准确判断。作者强调，人类在交流时会自然地利用视觉线索（如口型、背景）来消除语境歧义，这启发了研究者将视觉信息引入语音识别，即多模态语音识别（AV-ASR）。然而，现有的AV-ASR模型在处理真实视频时仍表现不佳，核心挑战在于如何有效“教会”模型理解并合理利用视觉信息。\n\nBPO-AVASR并未聚焦于提出新的模型结构，而是创新性地提出了一种基于“偏好学习”的训练方法论。这种思路借鉴了人类的学习过程——在多个“可能答案”中选择更优的那个，并利用不同模态信息辅助识别。BPO-AVASR通过构造“偏好对”（preferred vs. less preferred）来引导模型正确地使用视觉和音频模态信息，从而提升其泛化能力。\n\n该方法的核心是“双焦点偏好优化”。**焦点一关注输入端偏好**，旨在通过模拟真实世界中的不完整信息来训练模型做出更稳健的判断。这包括：音频掩蔽（模拟嘈杂环境）、视频扰动（模拟视角偏差或图像模糊）以及跨模态残缺（训练模型在音频或视频缺失时仍能合理推断）。模型通过比较完整输入与扰动输入的结果，学习偏好更稳健的处理方式。**焦点二关注输出端偏好**，旨在引导模型在不同候选转录中做出更优判断，解决常见错误类型。这通过构造多种偏好数据实现，例如：同音词替换（如die与dye）、口语重写（如gonna与going to），以及有意识地生成“忽略视觉”的错误文本（如将画面中的Coca-Cola识别为caller）。通过对“好答案”和“坏答案”的偏好优化，模型在输出层面形成了更明确的纠错机制。\n\nBPO-AVASR的优势已在多个真实世界多模态语音识别数据集上得到验证。在How2数据集上，仅使用300小时数据训练的BPO-AVASR超越了使用13万小时数据训练的SOTA模型AVFormer；在Ego4D数据集上，识别错误率降低了12.5%；在VisSpeech数据集上也获得了显著改善。这些结果表明，模型性能的提升并非单纯依赖数据量的堆叠，而是通过“有偏好”的训练，强调模型在模糊输入和近似输出之间做出微妙选择的能力。\n\n文章最后进行了深入思辨，指出多模态理解的本质是选择性对齐而非简单融合，并提出泛化能力应通过优化学习路径而非增加复杂度来实现。BPO-AVASR为未来AV-ASR发展提供了多项启示，包括数据构造的可拓展性、视觉特征的动态可用性判断、更复杂的错误模拟机制以及交互式学习方式。作者总结道，BPO-AVASR不仅优化了模型的性能，更是在优化模型的“思维方式”，预示着AI系统将迎来“感知范式”的转变，使其开始知道自己在看什么、听什么，并能主动偏好某种解释。", "key_arguments": ["当前ASR技术在真实世界复杂环境下表现脆弱，单一音频输入不足以支撑稳定的语言理解，多模态（视觉+听觉）是解决瓶颈的关键。", "BPO-AVASR提出一种基于“偏好学习”的创新训练方法论，通过构造“偏好对”引导模型在模糊语境中做出更稳健、更准确的判断，而非依赖结构创新。", "BPO-AVASR通过“双焦点”优化（输入端模拟干扰与输出端纠错机制）显著提升了模型在真实世界数据集上的泛化能力，证明“有偏好”的训练比单纯增加数据量更有效。", "多模态理解的本质是选择性对齐，而非简单融合；泛化能力提升应通过优化学习路径而非仅靠堆叠复杂度。", "BPO-AVASR代表了AI系统从“被动学习”向“主动选择与判断”的感知范式转变，优化了模型的“思维方式”。"], "mentioned_resources": ["ASR (自动语音识别) - 文章讨论其在真实世界中的局限性，是BPO-AVASR旨在改进的核心技术。", "AV-ASR (多模态语音识别) - 结合视觉信息的语音识别技术，BPO-AVASR是其一种改进方法。", "BPO-AVASR (面向多模态语音识别的双焦点偏好优化) - 本文介绍的核心模型和训练方法论。", "偏好学习 (Preference Learning) - BPO-AVASR训练方法论所借鉴的思路。", "How2 (教学视频数据集) - 用于BPO-AVASR性能验证的数据集，BPO-AVASR在此超越了SOTA模型。", "AVFormer (SOTA模型) - 在How2数据集上被BPO-AVASR超越的现有先进模型。", "Ego4D (第一人称视角视频机器学习数据集) - 用于BPO-AVASR性能验证的数据集，BPO-AVASR在此降低了识别错误率。", "VisSpeech (人工构造的高质量测试数据集) - 用于BPO-AVASR性能验证的数据集，BPO-AVASR在此获得了显著改善。"], "keywords": ["ASR", "多模态语音识别", "BPO-AVASR", "偏好优化", "视觉信息", "背景噪声", "同音歧义", "泛化能力", "感知范式", "选择性对齐", "训练范式革新", "深度学习"], "style_tone": "严谨的学术分析风格，带有对未来技术发展的展望和思辨。"}</t>
+  </si>
+  <si>
+    <t>{"title": "谭文辉｜击掌还是握手？机器人如何预判你的动作", "summary_long": "文章以作者与机器人在电梯中遭遇的尴尬开篇，引出莫里斯·梅洛—庞蒂在《知觉现象学》中“身体姿势是沉默言语”的观点，指出机器人缺乏对人类肢体语言的理解能力。为解决这一问题，作者团队开发了一款名为“Think-Then-React”（“先想想，再反应”）的大模型，旨在让机器人能够预判并准确回应人类动作。\n\n该系统的核心在于将连续的人体动作编码为离散的“词元”。团队最初使用向量量化微分自编码器（VQ-VAE）和512个词的庞大词典，但发现过细的动作区分反而导致大模型困惑。受乔治·米勒《神奇数字7±2》的启发，团队将词典精简至256个词，虽然重建精度略有下降，却显著提升了大模型的判断笃定性，印证了“少即是多”的原则。\n\n在处理空间信息方面，文章提出解耦“动作”和“空间”信息，分别用两个词典表示，并通过组合而非继承的方式来构建完整动作序列。这一设计借鉴了《设计模式》的核心思想，将VQ-VAE的重建误差降低至20%，提高了效率和准确性。\n\n为了让大模型具备更全面的认知能力，团队在预训练阶段引入了三种方法，模拟人类左右脑协同工作：动作—描述相互转译（将动作译为语言或反之）、动作—空间相互预测（预测动作导致的空间变化或反之），以及动作—动作相互补全（补全双人舞步）。这使得大模型对空间和动作有了充足的基础知识，将反应误差降低了43%。\n\n进入实战演练阶段，大模型需执行“思考”和“反应”任务，即根据对方部分动作预判意图，并生成相应反应。文章特别强调了“反思”机制的重要性，指出机器人需在交互过程中实时调整判断。通过实验，团队发现0.5秒是最佳的反思间隔，与神经科学中“感知—决策”循环的300~600毫秒窗口相吻合。\n\n文章也探讨了当前面临的挑战。人类动作数据，特别是双人交互数据稀缺，导致模型在单人动作和双人动作之间存在“孤岛”现象。路德维希·维特根斯坦在《哲学研究》中提出的“一个词的意义就是它在语言中的用法”解释了单双人动作作为不同“语言游戏”的本质差异。此外，系统走出实验室还需克服硬件（关节扭矩、控制器、电池）、感知（摄像头、雷达在复杂环境下的表现）和算力（各种地形下的稳定运行）等问题。\n\n最后，作者提出了AI预测准确率提高可能带来的伦理阴影，包括隐私泄露、广告操控和责任归属问题。引用卢恰诺·弗洛里迪《信息伦理学》的观点，强调“透明不是把代码公开，而是让对方知道你在做什么，以及为什么”。文章总结，Think-Then-React是机器人“读空气”的第一步，离真正的社交智慧尚远，但这份始于“思考”的理解，是人机共舞未来的基石。", "key_arguments": ["机器人缺乏对人类肢体语言（“沉默的言语”）的理解，导致人机交互中的尴尬和障碍。", "“Think-Then-React”大模型通过将动作编码为词元、解耦动作与空间信息、以及多模态预训练，使机器人能够预判并生成对人类动作的反应。", "技术实现过程中，“少即是多”的词典优化和“组合优于继承”的模块化设计是提升模型效率和准确性的关键。", "机器人需要具备实时“反思”能力，在交互中动态调整对人类意图的判断，以实现更自然的互动。", "当前人机交互技术面临数据稀缺（特别是双人交互）、硬件限制、感知挑战和算力需求等瓶颈，且随着AI能力提升，隐私、操控和责任等伦理问题日益凸显，需要通过“透明度”来建立信任。", "机器人理解人类情感和意图的能力，即使不与人类相同，只要能让人类感到被理解，就是人机共舞的重要一步。"], "mentioned_resources": ["《知觉现象学》 (莫里斯·梅洛—庞蒂) - 身体的姿势本身是一段沉默的言语。", "《神奇数字7±2：我们的信息加工能力的局限》 (乔治·米勒) - 人类短期记忆容量有限，启发了动作词典的精简。", "Think Then React: Towards Unconstrained Action-to-Reaction Motion Generation (TAN W, LI B, JIN C, et al. ICLR, 2025, arXiv: 2503.16451) - 作者团队的研究论文，描述了Think-Then-React系统。", "《设计模式》 (Erich Gamma, Richard Helm, Ralph Johnson, et al.) - 启发了动作与空间信息解耦的“组合优于继承”设计思想。", "The Interpreter Within: The Glue of Conscious Experience (迈克尔 · 加扎尼加) - 提出了左右脑分工的观点，启发了预训练阶段的设计。", "Neural Basis of Deciding, Choosing and Acting (SCHALL J D. Nature Reviews Neuroscience, 2001) - 提及“感知—决策”循环的时间窗口，与最佳反思间隔吻合。", "《哲学研究》 (路德维希·维特根斯坦) - 提出“一个词的意义就是它在语言中的用法”，解释了单人与双人动作的差异。", "The Ethics of Information (卢恰诺·弗洛里迪) - 强调透明度在于告知意图，而非仅仅公开代码。"], "keywords": ["机器人", "人机交互", "大模型", "动作预判", "知觉现象学", "向量量化微分自编码器 (VQ-VAE)", "词元", "解耦", "预训练", "反思机制", "感知—决策循环", "语言游戏", "信息伦理", "隐私", "操控", "责任", "透明度", "社交智慧"], "style_tone": "结合个人经历、技术细节与哲学思考的科普分析风格，兼具严谨性与人文关怀。"}</t>
+  </si>
+  <si>
+    <t>{"title": "刘小川｜听见眼神的方向：让AI的注视更像人类", "summary_long": "本文介绍了中国人民大学高瓴人工智能学院刘小川团队的EyEar（Eye moving while Ear listening）研究，旨在让AI像人类一样在听觉引导下“转动眼球”，预测注视轨迹。作者首先指出，人类在听别人描述画面时，眼睛会不自觉地跟随语言线索寻找目标，这是一个涉及视觉、听觉、语言和注意力系统高度协作的复杂认知过程。当前AI在人机交互中缺乏这种“看向对的地方”的能力，而眼神作为重要的非语言信号，对增强虚拟角色的亲和力、自然度和“在场感”至关重要。\n\n文章强调，以往AI注视研究多侧重视觉场景本身，忽视了听觉引导的关键作用。EyEar的核心任务是让AI“边听边看”，通过语言引导视线。为实现这一目标，研究团队进行了跨学科探索，将AI与心理学、物理学结合。他们受物理学“动力系统”概念启发，将眼球运动模拟为受三种“力”共同作用的过程：眼睛的“惯性力”（继续朝一个方向看的趋势）、图像中显眼部分的“图像吸引力”，以及听到的词语激活人对图像中相应事物的“语言引导力”。这些力被整合为数学公式，模拟人眼在听觉引导下的动态注视过程。\n\n在评估方法上，研究团队放弃了传统“误差最小”法，因为它无法捕捉人类注视的个体差异性。取而代之，他们提出了“概率密度评分（PDS）”，旨在判断AI预测点是否处在“大家都可能看的区域”里，从而更贴近人类“可能的视线选择”。为训练模型，团队构建了一个包含两万个注视点的新数据集，其特点是同步包含图像和音频，并设计了自然流畅的描述音频，以模拟真实生活中的视听协同情境。\n\n实验结果令人欣喜：EyEar在所有评估指标上均显著优于现有基线方法，尤其在最核心的PDS上提升超过15%。人工质检也表明，EyEar预测的注视轨迹不仅位置准确，还呈现出类似人类眼动的自然节奏。作者认为，尽管EyEar离成功模拟人眼仍有差距，但它已迈出重要一步。\n\n文章进一步探讨了研究的现实意义：AI的眼神是通向情感连接的桥梁。当虚拟角色能像人一样用眼神回应，将极大增强其“在场感”，促进人机信任与共情，这对于未来的虚拟助手、陪伴机器人、教育软件及治疗性AI的发展都至关重要，尤其在老龄化社会中能传递更多关怀。最后，作者以哲学思辨收尾，指出教机器注视也是人类对自身注意力、认知与感受的回望。EyEar不仅是技术突破，更是一种诗意期待，预示着AI未来能真正与人类“对视”，理解与共情。未来研究计划将EyEar扩展到动态视频场景。", "key_arguments": ["人类的注视行为是视觉、听觉、语言和注意力系统高度协作的结果，其视线常被听觉线索引导，这是AI在人机交互中亟待模仿的关键能力。", "EyEar研究提出了一种跨学科（AI+物理学+心理学）的创新模型，通过模拟眼球受“惯性力”、“图像吸引力”和“语言引导力”共同作用的“动力系统”，实现AI在听音频时预测人类注视轨迹。", "针对人类注视的个体差异性，EyEar引入“概率密度评分（PDS）”作为评估标准，而非传统的误差最小化，以更准确地衡量AI预测是否落在人类“可能关注的区域”。", "具备类人眼神的AI能显著增强人机互动的自然度、亲和力、信任感与“在场感”，在虚拟助手、陪伴机器人、教育及治疗性AI等领域具有重要应用潜力。"], "mentioned_resources": ["EyEar: Learning Audio Synchronized Human Gaze Trajectory Based on Physics-Informed Dynamics (LIU X, CHENG X, SUN Y, et al.) - 上下文简述: 这是文章核心研究的学术论文，详细阐述了EyEar模型及其物理学启发下的动力系统。", "动画电影《机器人之梦》 - 上下文简述: 作为文章的题图，象征性地呼应了AI与情感、理解、陪伴的主题。"], "keywords": ["AI注视预测", "人机交互", "多模态学习 (视听协同)", "认知建模", "物理学启发模型 (Physics-informed AI)", "眼球动力系统", "概率密度评分 (PDS)", "AI情感连接", "非语言沟通", "注意力机制"], "style_tone": "严谨分析与人文关怀并存，深入浅出地解释技术概念，并富有哲思地探讨AI的社会与情感意义。"}</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:15:52</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:16:13</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:16:38</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:17:02</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:25:35</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:25:49</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:26:19</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:26:31</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:26:53</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:27:15</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:27:38</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:28:05</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:28:27</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:42:25</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:42:56</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:43:24</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:43:55</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:44:29</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:45:10</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:45:41</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:46:17</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:46:56</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:24:55</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:25:19</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:25:34</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:25:53</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:37:36</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:37:56</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:38:17</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:38:37</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:38:50</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:39:11</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:39:33</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:39:43</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:40:02</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:40:17</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:40:34</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:40:55</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:41:12</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:45:03</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:45:21</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:45:45</t>
+  </si>
+  <si>
+    <t>2025-12-08T14:46:04</t>
   </si>
   <si>
     <t>playwright</t>
@@ -2915,22 +3324,37 @@
         <v>197</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R2" t="s">
+        <v>216</v>
       </c>
       <c r="S2" t="s">
-        <v>199</v>
+        <v>233</v>
+      </c>
+      <c r="T2" t="s">
+        <v>251</v>
       </c>
       <c r="U2" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="V2" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="W2" t="s">
         <v>197</v>
       </c>
       <c r="Y2" t="s">
-        <v>201</v>
+        <v>290</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -2977,13 +3401,37 @@
         <v>197</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>200</v>
+      </c>
+      <c r="R3" t="s">
+        <v>217</v>
       </c>
       <c r="S3" t="s">
-        <v>199</v>
+        <v>234</v>
+      </c>
+      <c r="T3" t="s">
+        <v>252</v>
       </c>
       <c r="U3" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V3" t="s">
+        <v>265</v>
+      </c>
+      <c r="W3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -3030,13 +3478,37 @@
         <v>197</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>201</v>
+      </c>
+      <c r="R4" t="s">
+        <v>218</v>
       </c>
       <c r="S4" t="s">
-        <v>199</v>
+        <v>235</v>
+      </c>
+      <c r="T4" t="s">
+        <v>251</v>
       </c>
       <c r="U4" t="s">
-        <v>199</v>
+        <v>254</v>
+      </c>
+      <c r="V4" t="s">
+        <v>266</v>
+      </c>
+      <c r="W4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -3083,13 +3555,37 @@
         <v>197</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>202</v>
+      </c>
+      <c r="R5" t="s">
+        <v>219</v>
       </c>
       <c r="S5" t="s">
-        <v>199</v>
+        <v>236</v>
+      </c>
+      <c r="T5" t="s">
+        <v>252</v>
       </c>
       <c r="U5" t="s">
-        <v>199</v>
+        <v>255</v>
+      </c>
+      <c r="V5" t="s">
+        <v>267</v>
+      </c>
+      <c r="W5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -3136,13 +3632,37 @@
         <v>197</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>203</v>
+      </c>
+      <c r="R6" t="s">
+        <v>220</v>
       </c>
       <c r="S6" t="s">
-        <v>199</v>
+        <v>237</v>
+      </c>
+      <c r="T6" t="s">
+        <v>251</v>
       </c>
       <c r="U6" t="s">
-        <v>199</v>
+        <v>256</v>
+      </c>
+      <c r="V6" t="s">
+        <v>268</v>
+      </c>
+      <c r="W6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -3189,13 +3709,37 @@
         <v>197</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>204</v>
+      </c>
+      <c r="R7" t="s">
+        <v>221</v>
       </c>
       <c r="S7" t="s">
-        <v>199</v>
+        <v>238</v>
+      </c>
+      <c r="T7" t="s">
+        <v>252</v>
       </c>
       <c r="U7" t="s">
-        <v>199</v>
+        <v>257</v>
+      </c>
+      <c r="V7" t="s">
+        <v>269</v>
+      </c>
+      <c r="W7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -3242,13 +3786,37 @@
         <v>197</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>205</v>
+      </c>
+      <c r="R8" t="s">
+        <v>222</v>
       </c>
       <c r="S8" t="s">
-        <v>199</v>
+        <v>239</v>
+      </c>
+      <c r="T8" t="s">
+        <v>252</v>
       </c>
       <c r="U8" t="s">
-        <v>199</v>
+        <v>258</v>
+      </c>
+      <c r="V8" t="s">
+        <v>270</v>
+      </c>
+      <c r="W8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -3295,13 +3863,37 @@
         <v>197</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>206</v>
+      </c>
+      <c r="R9" t="s">
+        <v>223</v>
       </c>
       <c r="S9" t="s">
-        <v>199</v>
+        <v>240</v>
+      </c>
+      <c r="T9" t="s">
+        <v>252</v>
       </c>
       <c r="U9" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V9" t="s">
+        <v>271</v>
+      </c>
+      <c r="W9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -3348,13 +3940,37 @@
         <v>197</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>207</v>
+      </c>
+      <c r="R10" t="s">
+        <v>224</v>
       </c>
       <c r="S10" t="s">
-        <v>199</v>
+        <v>241</v>
+      </c>
+      <c r="T10" t="s">
+        <v>251</v>
       </c>
       <c r="U10" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V10" t="s">
+        <v>272</v>
+      </c>
+      <c r="W10" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -3401,13 +4017,37 @@
         <v>197</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>208</v>
+      </c>
+      <c r="R11" t="s">
+        <v>225</v>
       </c>
       <c r="S11" t="s">
-        <v>199</v>
+        <v>242</v>
+      </c>
+      <c r="T11" t="s">
+        <v>251</v>
       </c>
       <c r="U11" t="s">
-        <v>199</v>
+        <v>259</v>
+      </c>
+      <c r="V11" t="s">
+        <v>273</v>
+      </c>
+      <c r="W11" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -3454,13 +4094,37 @@
         <v>197</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>209</v>
+      </c>
+      <c r="R12" t="s">
+        <v>226</v>
       </c>
       <c r="S12" t="s">
-        <v>199</v>
+        <v>243</v>
+      </c>
+      <c r="T12" t="s">
+        <v>251</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V12" t="s">
+        <v>274</v>
+      </c>
+      <c r="W12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -3507,13 +4171,37 @@
         <v>197</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>210</v>
+      </c>
+      <c r="R13" t="s">
+        <v>227</v>
       </c>
       <c r="S13" t="s">
-        <v>199</v>
+        <v>244</v>
+      </c>
+      <c r="T13" t="s">
+        <v>251</v>
       </c>
       <c r="U13" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V13" t="s">
+        <v>275</v>
+      </c>
+      <c r="W13" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -3560,13 +4248,37 @@
         <v>197</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>211</v>
+      </c>
+      <c r="R14" t="s">
+        <v>228</v>
       </c>
       <c r="S14" t="s">
-        <v>199</v>
+        <v>245</v>
+      </c>
+      <c r="T14" t="s">
+        <v>252</v>
       </c>
       <c r="U14" t="s">
-        <v>199</v>
+        <v>260</v>
+      </c>
+      <c r="V14" t="s">
+        <v>276</v>
+      </c>
+      <c r="W14" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -3616,10 +4328,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="U15" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V15" t="s">
+        <v>277</v>
+      </c>
+      <c r="W15" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -3663,19 +4384,28 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="U16" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V16" t="s">
+        <v>278</v>
+      </c>
+      <c r="W16" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>304</v>
       </c>
       <c r="AC16" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="AD16" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="AF16" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -3719,19 +4449,28 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="U17" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V17" t="s">
+        <v>279</v>
+      </c>
+      <c r="W17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>305</v>
       </c>
       <c r="AC17" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="AD17" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="AF17" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -3775,19 +4514,28 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="U18" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V18" t="s">
+        <v>280</v>
+      </c>
+      <c r="W18" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>306</v>
       </c>
       <c r="AC18" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="AD18" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="AF18" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -3831,19 +4579,28 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="U19" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V19" t="s">
+        <v>281</v>
+      </c>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>307</v>
       </c>
       <c r="AC19" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="AD19" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="AF19" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -3887,19 +4644,28 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="U20" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V20" t="s">
+        <v>282</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>308</v>
       </c>
       <c r="AC20" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="AD20" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="AF20" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -3943,19 +4709,28 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="U21" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V21" t="s">
+        <v>283</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>309</v>
       </c>
       <c r="AC21" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="AD21" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="AF21" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -3999,19 +4774,28 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="U22" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V22" t="s">
+        <v>284</v>
+      </c>
+      <c r="W22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>310</v>
       </c>
       <c r="AC22" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="AD22" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="AF22" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -4058,19 +4842,19 @@
         <v>191</v>
       </c>
       <c r="S23" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="U23" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="AC23" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="AD23" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="AF23" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -4114,19 +4898,28 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="U24" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V24" t="s">
+        <v>285</v>
+      </c>
+      <c r="W24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>311</v>
       </c>
       <c r="AC24" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="AD24" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="AF24" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -4167,13 +4960,37 @@
         <v>197</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>212</v>
+      </c>
+      <c r="R25" t="s">
+        <v>229</v>
       </c>
       <c r="S25" t="s">
-        <v>199</v>
+        <v>247</v>
+      </c>
+      <c r="T25" t="s">
+        <v>252</v>
       </c>
       <c r="U25" t="s">
-        <v>199</v>
+        <v>261</v>
+      </c>
+      <c r="V25" t="s">
+        <v>286</v>
+      </c>
+      <c r="W25" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -4214,13 +5031,37 @@
         <v>197</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>213</v>
+      </c>
+      <c r="R26" t="s">
+        <v>230</v>
       </c>
       <c r="S26" t="s">
-        <v>199</v>
+        <v>248</v>
+      </c>
+      <c r="T26" t="s">
+        <v>251</v>
       </c>
       <c r="U26" t="s">
-        <v>199</v>
+        <v>246</v>
+      </c>
+      <c r="V26" t="s">
+        <v>287</v>
+      </c>
+      <c r="W26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -4261,13 +5102,37 @@
         <v>197</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>214</v>
+      </c>
+      <c r="R27" t="s">
+        <v>231</v>
       </c>
       <c r="S27" t="s">
-        <v>199</v>
+        <v>249</v>
+      </c>
+      <c r="T27" t="s">
+        <v>251</v>
       </c>
       <c r="U27" t="s">
-        <v>199</v>
+        <v>262</v>
+      </c>
+      <c r="V27" t="s">
+        <v>288</v>
+      </c>
+      <c r="W27" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -4308,13 +5173,37 @@
         <v>197</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>215</v>
+      </c>
+      <c r="R28" t="s">
+        <v>232</v>
       </c>
       <c r="S28" t="s">
-        <v>199</v>
+        <v>250</v>
+      </c>
+      <c r="T28" t="s">
+        <v>252</v>
       </c>
       <c r="U28" t="s">
-        <v>199</v>
+        <v>263</v>
+      </c>
+      <c r="V28" t="s">
+        <v>289</v>
+      </c>
+      <c r="W28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/rss-fetcher/runtime/outputs/2025-12.xlsx
+++ b/rss-fetcher/runtime/outputs/2025-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="526">
   <si>
     <t>id</t>
   </si>
@@ -205,6 +205,42 @@
     <t>刘小川｜听见眼神的方向：让AI的注视更像人类</t>
   </si>
   <si>
+    <t>“AI can be a force for good”: Arianna Huffington on work, health, and our future</t>
+  </si>
+  <si>
+    <t>Collaboration masterclass: How to wrangle disagreements like Bob from Xerox</t>
+  </si>
+  <si>
+    <t>What Earth’s most extreme places teach us about being human</t>
+  </si>
+  <si>
+    <t>The LHC’s best 2025 discovery points the way to new physics</t>
+  </si>
+  <si>
+    <t>田洁｜我们是天生的那个啥？——“人之初”的善恶谜题 #“道德怪物”专栏08</t>
+  </si>
+  <si>
+    <t>徐坚｜名词、形容词还是副词？博物馆的智慧问题 #写给博物馆的情书专栏07</t>
+  </si>
+  <si>
+    <t>梁捷｜自由市场还是国家主导？19 世纪墨西哥经济理论的论争 #为了幸福专栏07</t>
+  </si>
+  <si>
+    <t>张昕｜每个人都会是老年歧视的受害者 #知识现场专栏07</t>
+  </si>
+  <si>
+    <t>魏颖｜新的全球化在地性与日常空间叙事：澳门国际艺术双年展散记</t>
+  </si>
+  <si>
+    <t>苏磊｜将科学空间转变为“认知剧场”——“Brain &amp; Mind X”策展手记</t>
+  </si>
+  <si>
+    <t>李公明｜一周画记：阿伦特逝世50周年纪念——她捍卫人性的尊严</t>
+  </si>
+  <si>
+    <t>澎湃思想周报｜ 如何避开“愤怒诱饵”；劣化的劳动</t>
+  </si>
+  <si>
     <t>2025-12-05</t>
   </si>
   <si>
@@ -226,6 +262,12 @@
     <t>2025-12-06</t>
   </si>
   <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
     <t>2025-12-05 23:30:00</t>
   </si>
   <si>
@@ -298,6 +340,24 @@
     <t>2025-12-01 10:01:35</t>
   </si>
   <si>
+    <t>2025-12-09 00:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-08 22:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-08 15:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-08 10:00:21</t>
+  </si>
+  <si>
+    <t>2025-12-08 12:52:00</t>
+  </si>
+  <si>
+    <t>2025-12-08 12:25:00</t>
+  </si>
+  <si>
     <t>https://bigthink.com/books/blaise-aguera-y-arcas/</t>
   </si>
   <si>
@@ -379,6 +439,42 @@
     <t>https://mp.weixin.qq.com/s/alWA7mcdy8YdrrfSRjKHSw</t>
   </si>
   <si>
+    <t>https://bigthink.com/business/ai-can-be-a-force-for-good-arianna-huffington-on-work-health-and-our-future/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/business/collaboration-masterclass-how-to-wrangle-disagreements-like-bob-from-xerox/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/the-well/where-this-world-traveler-found-awe/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/starts-with-a-bang/lhc-best-2025-discovery-new-physics/</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/rsyF-jCnAc6nvWPHAQdKFQ</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/RM8wsWs6qvsOlkgP9_MwrA</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/UPi73l99zkkdZ_Ty4XLHFg</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/7vdh_yHsRpNnR0JDQhfPhw</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/H3OpOEaVLwHE2VCbRyrVJQ</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-dkomxoyM6RXiJH329Qfvg</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32127794</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32121519</t>
+  </si>
+  <si>
     <t>2025-12-08 12:29:49</t>
   </si>
   <si>
@@ -386,6 +482,15 @@
   </si>
   <si>
     <t>2025-12-08 12:43:40</t>
+  </si>
+  <si>
+    <t>2025-12-09 15:33:45</t>
+  </si>
+  <si>
+    <t>2025-12-09 15:33:46</t>
+  </si>
+  <si>
+    <t>2025-12-09 15:34:21</t>
   </si>
   <si>
     <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/06/ai-child-copy.jpg?w=640" /&gt;&lt;p&gt;Much of the ongoing discourse surrounding AI can largely be divided along two lines of thought. One concerns practical matters: How will large language models (LLMs) affect the job market? How do we stop bad actors from using LLMs to generate misinformation? How do we mitigate risks related to surveillance, cybersecurity, privacy, copyright, and the environment?&amp;nbsp;&lt;/p&gt;
@@ -953,6 +1058,260 @@
     <t>The 9 biggest gaps in our understanding of cosmic history</t>
   </si>
   <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/arianna-huffington_compressed.jpg?w=640" /&gt;&lt;p&gt;Arianna Huffington moved to England from Greece at 17, earning a master’s degree in economics from Cambridge University where she was president of its celebrated debating society. Best known as the co-founder of &lt;em&gt;The Huffington Post&lt;/em&gt; (now &lt;em&gt;HuffPost) &lt;/em&gt;— acquired by AOL in 2011, then by BuzzFeed in 2020 &lt;em&gt;— &lt;/em&gt;she became a force in shaping the digital media landscape and a fixture on various “most influential” lists. She has also written 15 books.&lt;/p&gt;
+&lt;p&gt;In common with other seemingly indefatigable high-achievers, Huffington faced a physical reckoning in 2007, when burnout caused her to collapse “&lt;a href="https://medium.com/thrive-global/10-years-ago-i-collapsed-from-burnout-and-exhaustion-and-its-the-best-thing-that-could-have-b1409f16585d" rel="noreferrer noopener" target="_blank"&gt;into a bloody mess&lt;/a&gt;.” Along with a fractured cheekbone she sustained a revelatory crack in her outlook on life and began to map out a significant pivot.&lt;/p&gt;
+&lt;p&gt;Now, as founder and CEO of Thrive Global, she has redirected her entrepreneurial focus towards well-being — and with Thrive AI Health, created in 2024 in partnership with OpenAI, she wants “to use AI to make expert-level health coaching accessible to everyone.”&lt;/p&gt;
+&lt;p&gt;Here, she joins Big Think to explore the public health crisis in the US, the women at the core of AI, why humans are the ultimate “agents,” and much more.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;What do you wish you&amp;#8217;d known when starting your first business?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Huffington:&lt;/strong&gt; The idea that burnout is the price we must pay for success is a delusion. Had I known that I would have spared myself a broken cheekbone when I collapsed from exhaustion two years after I launched &lt;em&gt;HuffPost&lt;/em&gt;.&lt;/p&gt;
+&lt;p&gt;After that wakeup call in 2007, I became passionate about the science that links our health and our daily habits — food, exercise, sleep, stress management and connection with others. Fortunately, I was able to course-correct long before founding my second company. And when I started Thrive Global in 2016, elevating these daily behaviors as fundamental to our health and productivity became the foundation for the company.&lt;/p&gt;
+&lt;p&gt;But as clear as the science is, it’s amazing how stubborn the delusions about burnout culture are. In fact, there’s been a wave of recent articles about the return of “996” culture, which has its roots in the Chinese tech scene and refers to working from 9 a.m. to 9 p.m. six days a week.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;So unfortunately, more people are going to have to learn the same lesson I did. But culture change is possible. Look at cigarette smoking. In 1965, &lt;a href="https://www.lung.org/research/trends-in-lung-disease/tobacco-trends-brief/overall-smoking-trends" rel="noreferrer noopener" target="_blank"&gt;over 42% of American adults smoked&lt;/a&gt;. Today it’s around 12%. It can take a while for the culture to catch up with science — but the science between our health and our daily behaviors is as clear as the science between our health and smoking.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;You started The Huffington Post in 2005, with celebrity contributors as well as unpaid bloggers a central part of the content strategy. What do you make of the media landscape now?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Huffington:&lt;/strong&gt; What I loved about &lt;em&gt;HuffPost&lt;/em&gt; was the ability to have a direct connection to individual voices and how that could create community and a two-way conversation. And what we’re seeing with the rise of Substack, for example, is that it creates both a space for communities to coalesce and a viable business model.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;There are, of course, huge challenges, especially among legacy media institutions, but the hunger people have to tell their stories, to have a direct connection to writers, and to be part of a community has never been stronger. It’s just finding and driving different models.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;You &lt;a href="https://bigthink.com/people/ariannahuffington/" rel="noreferrer noopener" target="_blank"&gt;contributed to Big Think several years ago&lt;/a&gt;. What kinds of shifts have you seen in the business world since then — any epiphanies?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Huffington:&lt;/strong&gt; We’ve reached this pivotal moment when we’re finally beginning to see our daily behaviors not as soft, fuzzy perks, but as medical interventions. And this is happening as employers are increasingly alarmed about the costs of healthcare, which are projected to go up &lt;a href="https://aon.mediaroom.com/2025-09-10-Aon-U-S-Employer-Health-Care-Costs-Expected-to-Rise-9-5-Percent-in-2026" rel="noreferrer noopener" target="_blank"&gt;by 9.5% next year&lt;/a&gt;.&lt;/p&gt;
+&lt;p&gt;What business leaders are seeing is that the chronic disease crisis is also a workplace crisis. The Harvard T.H. Chan School of Public Health found that &lt;a href="https://hsph.harvard.edu/news/poll-most-u-s-workers-with-chronic-conditions-manage-them-at-work-havent-told-employer/" rel="noreferrer noopener" target="_blank"&gt;58% of U.S. employees have a chronic health condition&lt;/a&gt;, and over three quarters of those employees need to manage those conditions during regular work hours.&lt;/p&gt;
+&lt;p&gt;There’s been a huge shift in the business world as leaders realize their importance as stakeholders in fixing our broken healthcare system. And given that &lt;a href="https://www.kff.org/health-costs/health-policy-101-employer-sponsored-health-insurance/?entry=table-of-contents-who-is-covered-by-employer-sponsored-health-insurance" rel="noreferrer noopener" target="_blank"&gt;over 60% of the population&lt;/a&gt; gets healthcare from their employers, and we spend one-third of our lives at work, the workplace can be a significant place to transform healthcare. &lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;Some people retire before they are 70, but you&amp;#8217;ve chosen to continue to work. What&amp;#8217;s your working routine?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Huffington:&lt;/strong&gt; Actually, I find that in my 70s, I have many advantages over my younger self! One thing I learned is how draining all my worries were and how much energy you lose at the beginning of your career by looking over your shoulder for approval.&lt;/p&gt;
+&lt;p&gt;I’m also very blessed to love what I do. As long as I take enough time to recharge, sleep, meditate, exercise, be with the people I love, I don’t really separate my work from the rest of my life. I actually don’t remember the last time I didn’t work at all over a weekend!&lt;/p&gt;
+&lt;figure class="wp-block-pullquote"&gt;
+&lt;blockquote&gt;
+&lt;p&gt;Leaders need to ensure not only that their companies have a new technology infrastructure — they need their employees to have a strong personal infrastructure. &lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;/figure&gt;
+&lt;p&gt;In any demanding job, it’s impossible to do everything you could have done in any one day. So I have learned to declare an end to my working day by being comfortable with incompletions and turning off my phone and making sure it’s charging outside my bedroom. Our phones are, after all, repositories of everything we need to put away to allow us to sleep — our to-do lists, our inboxes, the demands of the day.&lt;/p&gt;
+&lt;p&gt;And one place you won’t find me at is a breakfast meeting! My least favorite way of starting the day.&lt;/p&gt;
+&lt;p&gt;One of my favorite lessons when I was studying economics at Cambridge was about opportunity cost: when you say yes to something, it means saying no to everything else. It’s not just important in an economic sense — it applies to every decision we make in our daily lives. For instance, if I say yes to a breakfast meeting that drains me, I’m also saying no to the things that actually help me be productive and creative and engaged. Being able to say no — without apology — is an essential skill. As I often say: “No” is a complete sentence!&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;Who do you admire and why?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Huffington:&lt;/strong&gt; I love and admire [philanthropist] Alice Walton. For decades we’ve heard the mantra that nothing can be done to fix the healthcare system. But Alice is determined to prove that wrong. With the Alice L. Walton School of Medicine and the Heartland Whole Health Institute, she is transforming healthcare in the heartland by combining art, nature and a whole-human approach.&lt;/p&gt;
+&lt;p&gt;As much as 80% of medical education focuses on biology, while 60% of premature deaths are due to behavioral factors. So by training a new generation of doctors on prevention and the health impact of our daily behaviors, she’s changing the healthcare system from the inside.&lt;/p&gt;
+&lt;p&gt;One thing I especially love about Alice is how when she’s excited about something, she has to share it. That can be on an individual level, or, given her love of art, it can mean building a world-class museum in rural Arkansas and making admission free. And she brings a sense of urgency to her most important mission: fixing our healthcare system.&lt;/p&gt;
+&lt;p&gt;And it’s hard not to mention my mother. Her motto was that failure is not the opposite of success but a stepping stone to success. And that idea of embracing failure, combined with her unconditional love, made it possible for me to take many risks throughout my life. There isn’t a single corner of my life that isn’t filled with her spirit.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;What do you think leaders need to focus on in the age of AI, and why — how are they doing with that?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Huffington:&lt;/strong&gt; Leaders need to go into the age of AI with eyes wide open. We now have the benefit of hindsight and we should use it. That means recognizing the negative downstream effects of previous technologies.&lt;/p&gt;
+&lt;p&gt;There’s growing anxiety about AI in the workforce. &lt;a href="https://www.pewresearch.org/science/2025/09/17/how-americans-view-ai-and-its-impact-on-people-and-society/" rel="noreferrer noopener" target="_blank"&gt;A recent Pew poll&lt;/a&gt; found that in the U.S., only 10% of people are more excited than concerned, while five times that number — 50% — are more concerned than excited, up from 38% in 2022. &lt;/p&gt;
+&lt;figure class="wp-block-pullquote"&gt;
+&lt;blockquote&gt;
+&lt;p&gt;One place you won’t find me at is a breakfast meeting! My least favorite way of starting the day.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;/figure&gt;
+&lt;p&gt;Leaders need to ensure not only that their companies have a new technology infrastructure — they need their employees to have a strong personal infrastructure. The core of that is resilience, which is really the most important skill we are going to need to navigate the age of AI.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The limiting factor of AI won’t be data centers, or energy, or chips, or computers. The limiting factor will be what it has always been throughout human history: human nature.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;You partnered with OpenAI to launch Thrive AI Health in 2024. How is that going, and what can we expect from the company in 2026?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Huffington:&lt;/strong&gt; Our mission has always been simple but ambitious: to use AI to make expert-level health coaching accessible to everyone. We want to help people know what to do to live healthier, longer lives, and follow through on it.&lt;/p&gt;
+&lt;p&gt;Since launch, we’ve gone from early alpha testing to a live beta. Every day, people are using the Thrive AI Health Coach to build small, sustainable habits — such as taking a stretch break after a meeting or a short walk during lunch, actions that fit seamlessly into everyday routines, including work. People are also giving us valuable feedback that’s shaping the next generation of the product.&lt;/p&gt;
+&lt;p&gt;As we move into 2026, the focus will be on deepening engagement and preparing for scale. That means translating the data and goals people get from their wearables or healthcare providers into daily micro steps they can do with the right nudges and support.&lt;/p&gt;
+&lt;p&gt;We’re also building with our partners — including Eli Lilly, Hilton, the University of Pennsylvania and the Yale School of Public Health — to ensure the product works across different populations and contexts.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;Silicon Valley is primarily accelerationist when it comes to AI; Europe is more precautionary — where do you stand?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Huffington:&lt;/strong&gt; I’m still placing my bets that AI can be a force for good. But it remains an open question. Right now, we’re at a fork in the road, where two different futures are possible.&lt;/p&gt;
+&lt;p&gt;One is that AI turns out to be just a more powerful version of the technologies that have come before — a more effective way to mine our attention, polarize us, and distract us from what matters.&lt;/p&gt;
+&lt;p&gt;The other scenario is that now that AI has dethroned human intelligence, it becomes a forcing mechanism for a question we’ve been avoiding since the Industrial Revolution: what does it mean to be human?&amp;nbsp;&lt;/p&gt;
+&lt;figure class="wp-block-pullquote"&gt;
+&lt;blockquote&gt;
+&lt;p&gt;I’m still placing my bets that AI can be a force for good. But it remains an open question. Right now, we’re at a fork in the road, where two different futures are possible.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;/figure&gt;
+&lt;p&gt;Now that Descartes’ “I think, therefore I am” no longer holds true, this dethronement could be the greatest gift, finally forcing us to rediscover the possibilities of our full humanity and reconnect with the infinity of our inner selves — soul, spirit, consciousness — and the awe and wonder of who we are: “spiritual beings having a human experience&amp;#8221; as [philosopher Pierre] Teilhard de Chardin put it.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;So the question is: how can we use what AI &lt;em&gt;can&lt;/em&gt; do to augment what it &lt;em&gt;can’t&lt;/em&gt; do? That, to me, is the ultimate possibility of AI. The real existential threat of AI isn’t that it turns on humans and destroys the human race, it’s that humans won’t keep pace with AI by investing in our own growth and evolution.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;[Author and historian] Yuval Noah Harari summed it up: “If for every dollar and every minute that we invest in developing artificial intelligence, we also invest in exploring and developing our own minds, it will be okay. But if we put all our bets on technology, on Al, and neglect to develop ourselves, this is very bad news for humanity.”&lt;/p&gt;
+&lt;p&gt;Agents are the AI concept of the moment, but we’re the ultimate agents, and AI will be what we make of it.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;Does the dominance of the tech &amp;#8220;broligarchy&amp;#8221; jeopardize a safe and prosperous AI future?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Huffington:&lt;/strong&gt; There are of course many players from the classic Silicon Valley bro culture who dominate the headlines, but there have also been many pieces recently about a resurgence of spirituality in Silicon Valley — something I’ve seen first-hand among friends I have there, including on the Thrive board.&lt;/p&gt;
+&lt;p&gt;And there are many amazing women building AI. There is, for instance, Fei-Fei Li, who’s sometimes called the “godmother of AI” and spent 20 years doing pioneering work in AI. She’s now a professor at Stanford and the co-founder of Stanford’s Raise Health program, which is helping to establish a framework for how AI can be used in health safely and equitably. As she wrote in her memoir The World’s I See, “I believe our civilization stands on the cusp of a technological revolution with the power to reshape life as we know it. To ignore the millennia of human struggle that serves as our society’s foundation, however — to merely ‘disrupt,’ with the blitheness that has accompanied so much of this century’s innovation — would be an intolerable mistake.”&lt;/p&gt;
+&lt;p&gt;And there’s Fidji Simo, OpenAI’s new CEO of Applications. She published an &lt;a href="https://openai.com/index/ai-as-the-greatest-source-of-empowerment-for-all/" rel="noreferrer noopener" target="_blank"&gt;internal manifesto&lt;/a&gt; recently outlining how AI can be used to empower people, especially in improving their health, writing, “Every major technology shift can expand access to power—the power to make better decisions, shape the world around us, and control our own destiny in new ways… We can start by making sure the keys to empowerment and opportunity — knowledge, health, creative expression, economic freedom, time, and support — are widely available.”&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/business/ai-can-be-a-force-for-good-arianna-huffington-on-work-health-and-our-future/" rel="nofollow"&gt;“AI can be a force for good”: Arianna Huffington on work, health, and our future&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/11/bonfire-moment_excerpt.jpg?w=640" /&gt;&lt;p&gt;Leaders need to invite disagreement, not just expect it. When the invitation to offer their opinion is not clear, teams will assume you don’t want it. Leaders often don’t realize that their status can unconsciously silence dissent. No matter how often leaders stress that no one will be punished for disagreeing, their own zeal, conviction, intelligence, and energy can be intimidating.&lt;/p&gt;
+&lt;p&gt;The classic American “open-­door policy” isn’t enough to draw out dissenters. Leaders need to create conditions that empower their teams to speak up. When it has been the cultural norm to be deferential to power, or when disagreeing has been conflated with being disagreeable, leaders need to work even harder to change the norm.&lt;/p&gt;
+&lt;p&gt;One leader we worked with in Singapore, Mei Chen, developed a creative way of drawing out her people’s best ideas, even when they contradicted her own. Mei had received some bracing feedback during her &lt;a href="https://www.amazon.com/Bonfire-Moment-Together-Hardest-Startups/dp/0063297019"&gt;Bonfire Moment&lt;/a&gt;. Her team said that she always responded to objections with defensiveness. We could see that she was brilliant but very measured in how she shared ideas. As we discussed these issues, Mei realized that some of the behaviors that had made her effective in her prior job as an analyst were now hurting her ability to lead. She would take a few days to develop any new proposal before bringing it to the team. She had so much of herself invested in her ideas that when they got any pushback, it felt like a personal attack on her capabilities.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;a href="https://www.amazon.com/Bonfire-Moment-Together-Hardest-Startups/dp/0063297019" rel=" noreferrer noopener" target="_blank"&gt;&lt;img alt="Book cover with title &amp;quot;The Bonfire Moment&amp;quot; by Martin Gonzalez &amp;amp; Josh Yellin, featuring a diagonal orange-purple gradient stripe on a white background." class="wp-image-580496" height="2775" src="https://bigthink.com/wp-content/uploads/2025/11/BonfireMoment-hc-c.jpg" width="1838" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Mei recognized that she needed to change before the most talented people on her team quit in frustration, and she found two tactics that worked very well. First, she committed to come to meetings less prepared, despite her perfectionist instincts. She found that when she put less prep work into her own ideas, it didn’t sting as much when people raised questions and outright disagreed. Second, to further encourage honest exchanges, she started having more one-­on-­one conversations. In private with a single team member, she would lay out her idea and the reasoning behind it. Then she’d say: “I’m pretty sure I’m missing out on important things here. What’s missing? What don’t I see?”&lt;/p&gt;
+&lt;p&gt;Mei’s approach aligns with the conclusions of researchers from Singapore Management University and UC Berkeley. Their &lt;a href="https://pubsonline.informs.org/doi/10.1287/orsc.2015.1025"&gt;study&lt;/a&gt; suggests that when leaders frame conflicting ideas as expressing disagreement, team members assume the leader isn’t really open to dissenting opinions. This assumption tends to shorten conversations and reduce the exchange of important information. But when the leader frames a conflict as a debate, with fair treatment for all sides, people assume that dissenting opinions are wanted and expected. In the study, the amount of shared information increased fourfold when the leader simply changed their language.&lt;/p&gt;
+&lt;p&gt;The good news is that it really is possible to escape the trap of the inner circle. Anil Sabharwal, who led the team that built Google Photos into a multibillion-­user app, describes his approach this way: “Debate. Argue. Get into it. The best results come from passionate, constructive, positive contention. Encourage it. Even force it. But know it requires a foundation of trust, honesty and respect. If you don’t have that, you just get pure contention, and that ain’t good.”&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-improving-the-quality-of-your-disagreements"&gt;Improving the quality of your disagreements &lt;/h2&gt;
+&lt;p&gt;Tech pioneer Bob Taylor, who built one of the dream teams of the computing revolution, was a master at fostering productive disagreement. In the late 1960s, he played a key role at the Pentagon’s Defense Advanced Research Projects Agency (popularly known as DARPA), which launched the earliest version of the internet, connecting computers at the Pentagon, MIT, UC Berkeley, and a research lab in Santa Monica. Then in the 1970s, he led the team that invented the world’s first personal computer at the Xerox Palo Alto Research Center (PARC). As former Google CEO Eric Schmidt observed, “Bob Taylor invented almost everything in one form or another that we use today in the office and at home.”&lt;/p&gt;
+&lt;p&gt;Visitors to Xerox PARC were often shocked at the intensity of arguments among Taylor’s researchers. They didn’t try to win debates for the satisfaction of proving each other wrong; the goal was always to illuminate each other’s ideas. Criticizing a colleague’s personality or character was not allowed. Taylor saw his main role at the lab as preserving this collaborative culture and protecting it from the lone-­wolf tendencies of some of his smartest researchers. He frequently quoted a Japanese proverb: “None of us is as smart as all of us.”&lt;/p&gt;
+&lt;p&gt;Taylor liked to explain that there are two kinds of disagreements. In “Class 1” disagreements, neither party truly understands each other’s point of view, so they resort to straw man arguments —­ distorting an opposing opinion into an exaggerated, easily rebutted version of itself. Class 1 disagreements erode morale and degrade a team’s effectiveness over time.&lt;/p&gt;
+&lt;figure class="wp-block-pullquote"&gt;
+&lt;blockquote&gt;
+&lt;p&gt;By doing a deep dive into someone else’s position, finding the strongest aspects of it, explaining it back to them, and only then formulating a rebuttal, you have to create a “steel man” argument instead of tearing down a straw man.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;/figure&gt;
+&lt;p&gt;During “Class 2” disagreements, in contrast, people take the time to fully understand each other’s point of view, to the standard that “I can explain your point of view to your satisfaction.” By doing a deep dive into someone else’s position, finding the strongest aspects of it, explaining it back to them, and only then formulating a rebuttal, you have to create a “steel man” argument instead of tearing down a straw man.&lt;/p&gt;
+&lt;p&gt;Taylor saw his role not as judging disagreements but as moving his people from Class 1 to Class 2 disagreements. He was able to bring together brilliant minds representing a vast array of expertise and backgrounds. More impressive, he created an environment that maximized the benefits of that diversity and essentially took himself out of the inner circle.&lt;/p&gt;
+&lt;p&gt;Taylor’s instincts a half century ago confirm what we know today about high-­quality disagreements and the power of diversity. In an experiment by the Kellogg and Stanford business schools, respondents were put in socially diverse and nondiverse teams. At the end of a team-­based performance task, they were asked to predict how well they did. By comparing each team’s self-­perceived effectiveness with its actual performance, the researchers &lt;a href="https://doi.org/https://doi.org/10.1177/0146167208328062"&gt;found&lt;/a&gt; that we incorrectly assume that working with similar people will lead to better results. In fact, socially diverse groups had better results, even though they found it harder to debate their opinions because they didn’t share as many references and vocabulary.&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/business/collaboration-masterclass-how-to-wrangle-disagreements-like-bob-from-xerox/" rel="nofollow"&gt;Collaboration masterclass: How to wrangle disagreements like Bob from Xerox&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="overflow: hidden; padding-bottom: 56.25%;"&gt;&lt;/div&gt;
+                &lt;p&gt;Explorer Victor Vescovo has spent years reaching some of the most extreme places on Earth, from scaling the tallest mountains on every continent, diving to the deepest parts of every ocean, skiing to both of the Earth&amp;#8217;s poles, and even rocketing to the edge of space. In those environments he discovered awe in three distinct forms — mental, physical, and existential.&lt;/p&gt;
+&lt;p&gt;These experiences changed the way he pays attention, teaching him to notice the quieter flashes of awe that appear in ordinary life. As a speaker at&amp;nbsp;&lt;em&gt;A Night of Awe and Wonder&lt;/em&gt;, hosted by Big Think and the John Templeton Foundation, Vescovo invites us to see awe as something we can practice every day life.&lt;/p&gt;
+&lt;p&gt;This video &lt;a href="https://bigthink.com/the-well/where-this-world-traveler-found-awe/" rel="nofollow"&gt;What Earth’s most extreme places teach us about being human&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/BHm4KBeCLPwqtKP6o6ozm5-e1765046814432.jpg?w=640" /&gt;&lt;p&gt;The immensity of the Universe fills us with wonder.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A circular illustration depicting the observable universe with various galaxies, stars, and cosmic structures emanating from a central point, symbolizing the solar system and hinting at how far away the Big Bang occurred." class="wp-image-511243" height="960" src="https://bigthink.com/wp-content/uploads/2024/08/bg.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Artist&amp;#8217;s logarithmic scale conception of the observable universe. The Solar System gives way to the Milky Way, which gives way to nearby galaxies which then give way to the large-scale structure and the hot, dense plasma of the Big Bang at the outskirts. Each line-of-sight that we can observe contains all of these epochs, but the quest for the most distant observed object will not be complete until we&amp;#8217;ve mapped out the entire Universe.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:Observable_universe_pbudassi.png" target="_blank"&gt;Credit&lt;/a&gt;: Pablo Carlos Budassi; Unmismoobjetivo/Wikimedia Commons&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Despite all we&amp;#8217;ve learned, however, &lt;a href="https://bigthink.com/starts-with-a-bang/biggest-gaps-in-cosmic-history/"&gt;unsolved puzzles abound&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A 3d image of a red, green, and blue sphere." class="wp-image-478660" height="762" src="https://bigthink.com/wp-content/uploads/2023/11/qgpcolors_150.png?w=1006" width="1006" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The early Universe was full of matter and radiation, and was so hot and dense that it prevented all composite particles, like protons and neutrons from stably forming for the first fraction-of-a-second. There was only a quark-gluon plasma, as well as other particles (such as charged leptons, neutrinos, and other bosons) zipping around at nearly the speed of light. This primordial soup consisted of particles, antiparticles, and radiation: a highly symmetric state.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://madai.phy.duke.edu/indexaae2.html?page_id=503" target="_blank"&gt;Credit&lt;/a&gt;: Models and Data Analysis Initiative/Duke University&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;All the planets, stars, and galaxies we see &lt;a href="https://bigthink.com/starts-with-a-bang/how-matter-exist/"&gt;are composed of matter, not antimatter&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-170170" height="1003" src="https://bigthink.com/wp-content/uploads/2022/03/asymmetry.jpg?w=1043" width="1043" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Through the examination of colliding galaxy clusters, we can constrain the presence of antimatter from the emissions at the interfaces between them. In all cases, there is less than 1-part-in-100,000 antimatter in these galaxies, consistent with its creation from supermassive black holes and other high-energy sources. There is no evidence for cosmically abundant antimatter.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.1088/1475-7516/2008/10/001" target="_blank"&gt;Credit&lt;/a&gt;: G. Steigman, JCAP, 2008&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;But physics &lt;a href="https://bigthink.com/starts-with-a-bang/observe-proton-decay/"&gt;hasn&amp;#8217;t yet discovered&lt;/a&gt; how that occurred.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A diagram showing the difference between matter and antimatter." class="wp-image-471541" height="1800" src="https://bigthink.com/wp-content/uploads/2023/09/AdobeStock_592247617.jpeg?w=3200" width="3200" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The difference between matter and antimatter is accounted for by charge conjugation symmetry: a discrete symmetry that exchanges particles for antiparticles and vice versa. Where this symmetry holds, there is an associated conserved quantity as a consequence of Noether&amp;#8217;s theorem. Where that symmetry is violated, the conservation law no longer necessarily holds.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;Credit: zombiu26 / Adobe Stock&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Einstein&amp;#8217;s &lt;em&gt;E = mc²&lt;/em&gt; allows us to create and destroy matter.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="fusion power" class="wp-image-316585" height="1800" src="https://bigthink.com/wp-content/uploads/2022/12/AdobeStock_479572133.jpeg?w=3200" width="3200" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Whether elementary or composite, all known particles can annihilate with their antiparticle counterparts. In some cases, particles are matter and antiparticles are antimatter; in other cases, particles and antiparticles are neither matter nor antimatter, and sometimes particles are their own antiparticle, which is anticipated for many candidates for dark matter. The typical result of this annihilation is the production of two, equal-energy photons that fly off in opposite directions to one another, where the energy of each photon is given by Einstein&amp;#8217;s E =mc&amp;sup2;, where m is the rest mass of the annihilating particle.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;Credit: kotoffei / Adobe Stock&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;But there&amp;#8217;s a cost: only if we create or destroy an equivalent amount of antimatter.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Universe without matter antimatter asymmetry" class="wp-image-411889" height="284" src="https://bigthink.com/wp-content/uploads/2023/05/29b2f30c03a1e659e39e2493cd5af02e.jpg?w=1200" width="1200" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;As the Universe expands and cools, unstable particles and antiparticles decay, while matter-antimatter pairs annihilate and photons can no longer collide at high enough energies to create new particles. Antiprotons will collide with an equivalent number of protons, annihilating them away, as will antineutrons with neutrons. After all the carnage, somehow, more matter than antimatter remains: evidence for a large initial asymmetry.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/33K76Dg" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;To create a fundamental matter-antimatter asymmetry, &lt;a href="https://en.wikipedia.org/wiki/Baryogenesis#Sakharov_conditions"&gt;three conditions&lt;/a&gt; must be met.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Diagram visually representing one of the biggest mysteries: the origin and evolution of the universe, from the Big Bang on the left to galaxies, stars, and finally Earth on the right, set against a black background." class="wp-image-578488" height="864" src="https://bigthink.com/wp-content/uploads/2025/09/chemical_composition_universe.jpg?w=1536" width="1536" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Our Universe, from the hot Big Bang until the present day, underwent a huge amount of growth and evolution, and continues to do so. Our entire observable Universe was approximately the size of a modest boulder some 13.8 billion years ago, but it has expanded to be ~46 billion light-years in radius today. The complex structure that has arisen must have grown from seed imperfections of at least ~0.003% of the average density early on, and has gone through phases where atomic nuclei, neutral atoms, and stars first formed, eventually giving rise to our Solar System, planet, life, and humans.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://chandra.harvard.edu/xray_astro/dark_matter/index5.html"&gt;Credit&lt;/a&gt;: NASA/CXC/M. Weiss&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;1.) The Universe must be out of equilibrium.&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large is-resized"&gt;&lt;img alt="maxwell boltzmann distribution gas" class="wp-image-274271" height="792" src="https://bigthink.com/wp-content/uploads/2022/09/Simulation_of_gas_for_relaxation_demonstration.gif?w=504" style="width: 840px;" width="504" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This simulation shows particles in a gas of a random initial speed/energy distribution colliding with one another, thermalizing, and approaching the Maxwell-Boltzmann distribution. The state of reaching thermal equilibrium is when all parts of the system can exchange energy, collide with, and interact with all other parts of the system freely, and is easy to achieve for a closed, isolated, unchanging system. By contrast, the expanding Universe is wildly out of equilibrium.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:Simulation_of_gas_for_relaxation_demonstration.gif" target="_blank"&gt;Credit&lt;/a&gt;: Dswartz4/Wikimedia Commons&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;2.) There must be enough &lt;em&gt;C&lt;/em&gt;-violation and &lt;em&gt;CP&lt;/em&gt;-violation.&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="CP symmetry test" class="wp-image-163513" height="778" src="https://bigthink.com/wp-content/uploads/2022/01/mesons.jpg?w=959" width="959" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Parity, or mirror-symmetry, is one of the three fundamental symmetries in the Universe, along with time-reversal and charge-conjugation symmetry. If particles spin in one direction and decay along a particular axis, then flipping them in the mirror should mean they can spin in the opposite direction and decay along the same axis. This was observed not to be the case for the weak decays, which are the only interactions known to violate charge-conjugation (C) symmetry, parity (P) symmetry, and the combination (CP) of those two symmetries as well. However, CP-violation has only ever been observed in systems containing strange, charm, or bottom quarks; never leptons.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/33K76Dg" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;3.) There must be baryon number-violating processes.&lt;/strong&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-170165" height="578" src="https://bigthink.com/wp-content/uploads/2022/03/higgs_break.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;When the electroweak symmetry (the symmetry that corresponds to the Higgs field) breaks, the combination of CP-violation and baryon number violation can create a matter/antimatter asymmetry where there was none before, owing to the effect of sphaleron interactions working on, for example, a neutrino excess. This can only occur, however, if the electroweak phase transition is first-order, rather than the second-order transition predicted by the Standard Model alone.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;Credit: University of Heidelberg&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The known Standard Model exhibits &lt;em&gt;C&lt;/em&gt;-violation and &lt;em&gt;CP&lt;/em&gt;-violation, &lt;a href="https://bigthink.com/starts-with-a-bang/higgs-boson-captivating-puzzle/"&gt;but not enough of it&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Side-by-side grid plots compare the relative strengths of elements in the Leptonic PMNS and Quark CKM mixing matrices, represented by circle sizes—highlighting how neutrino mass, smaller than quark mass, relates to mixing patterns." class="wp-image-572906" height="1189" src="https://bigthink.com/wp-content/uploads/2025/05/mixing.jpg?w=2475" width="2475" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This illustration shows the mixing matrices for neutrinos (left) and quarks (right), which is only possible if the neutrinos and quarks have non-zero rest masses. The fact that there are non-diagonal elements in the neutrino mixing matrix indicates that electron, mu, and tau neutrinos don&amp;#8217;t have fixed masses, but instead are superpositions of the three possible mass (1, 2, 3) eigenstates. Since the discovery of this mixing, physicists have worked hard to measure the various mixing parameters and angles between quarks and, separately, neutrinos.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.mdpi.com/2073-8994/14/1/56"&gt;Credit&lt;/a&gt;: S. Cao et al., Symmetry, 2022&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;em&gt;CP&lt;/em&gt;-violation has been observed for strange, charm, and bottom quark decays, but only in mesons.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="kaon decay" class="wp-image-428950" height="486" src="https://bigthink.com/wp-content/uploads/2023/06/k-matter-1000px.jpg?w=1000" width="1000" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;When the neutral kaon (containing a strange quark) decays, it typically results in the net production of either two or three pions. Supercomputer simulations are required to understand whether the level of CP-violation, first observed in these decays, agrees or disagrees with the Standard Model&amp;#8217;s predictions. With the exception of only a few particles and particle combinations, almost every set of particles in the Universe are unstable, and if they don&amp;#8217;t annihilate away, they will decay in short order.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.bnl.gov/newsroom/news.php?a=117325" target="_blank"&gt;Credit&lt;/a&gt;: Brookhaven National Laboratory&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;For years, theorists &lt;a href="https://journals.aps.org/prl/abstract/10.1103/PhysRevLett.115.251801"&gt;have predicted &lt;em&gt;CP&lt;/em&gt;-violation in baryons&lt;/a&gt;, but never saw it until now.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-322152" height="960" src="https://bigthink.com/wp-content/uploads/2022/12/201802-025_01.jpg?w=1440" width="1440" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The LHCb detector, at 5600 metric tonnes, is 21 meters long, 10 meters high, and 13 meters wide, optimized for detecting and studying particles (and their subsequent decays) that contain b-quarks inside them. At present, there are over 1500 scientists, engineers, and technicians that work on the LHCb collaboration. Although the ATLAS and CMS detectors are more famous for discovering the Higgs boson, the LHCb detector is the only one capable of measuring CP-violation in b-quark containing baryons.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://home.cern/science/experiments/lhcb" rel="noopener" target="_blank"&gt;Credit&lt;/a&gt;: CERN/LHCb collaboration&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;In 2025, for the first time, the LHCb collaboration &lt;a href="https://physics.aps.org/articles/v18/56"&gt;demonstrated baryonic &lt;em&gt;CP&lt;/em&gt;-violation&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Colorful digital visualization showing particle tracks from a collision event in a particle detector, inspired by the LHC best 2025 discovery, with lines and shapes representing different trajectories and signals." class="wp-image-580902" height="519" src="https://bigthink.com/wp-content/uploads/2025/12/e56_3.png" width="800" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This 2016 reconstruction of an LHCb event shows a b-quark containing baryon that decayed, producing an s-quark containing baryon along with other mesons. With observations of sufficient numbers of these decays, the LHCb collaboration, in 2025, was able to show evidence for baryonic CP violation for the first time.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://physics.aps.org/articles/v18/56"&gt;Credit&lt;/a&gt;: CERN/LHCb collaboration&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Two species of &lt;em&gt;b&lt;/em&gt;-quark containing baryons decayed to &lt;em&gt;s&lt;/em&gt;-quark containing ones, &lt;a href="https://journals.aps.org/prl/abstract/10.1103/PhysRevLett.134.101802"&gt;showing robust &lt;em&gt;CP&lt;/em&gt;-asymmetries&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Two plots from the LHC's best 2025 discovery display candidate masses for Λb0 decays, with data points, total fit curves, and background contributions. Both x-axes are labeled m(Λb0K+K−) in MeV/c²." class="wp-image-580903" height="318" src="https://bigthink.com/wp-content/uploads/2025/12/large.jpg" width="840" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The decay of neutral, b-quark containing Lambda baryons to s-quark containing Lambda baryons (plus two charged mesons), with CP-violation appearing in the case of those two mesons being positively and negatively charged kaons. The asymmetric decay amplitudes in N* resonance-dominated regions is where the CP-violation appears, with all other decays showing no evidence for CP-violation at all.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://journals.aps.org/prl/abstract/10.1103/PhysRevLett.134.101802#f3"&gt;Credit&lt;/a&gt;: R. Aaij et al., Physical Review Letters, 2025&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;This is consistent with &lt;a href="https://journals.aps.org/prl/abstract/10.1103/PhysRevLett.134.101801"&gt;their observed &lt;em&gt;CP&lt;/em&gt;-violation in the meson sector&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Illustration depicting subatomic particles: a) glueball, b) proton, c) z(3900), with labeled quark components (u, d, c) in different configurations." class="wp-image-497627" height="308" src="https://bigthink.com/wp-content/uploads/2024/05/twocolliderr.png?w=900" width="900" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Originally, the only hadrons known to exist were either combinations of three quarks (baryons), three antiquarks (antibaryons), and quark-antiquark pairs (mesons). Now, more exotic states such as tetraquarks, including the Z_c(3900) shown here, are known to exist as well. Glueballs, pentaquarks, and other exotics remain tantalizing and expected possibilities as well. Although mesons had been known to exhibit CP-violation for over 60 years, starting in 1964, the first baryonic CP-violation was only announced in 2025.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://physics.aps.org/articles/v6/69" rel="noopener" target="_blank"&gt;Credit&lt;/a&gt;: APS/Alan Stonebraker&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Showing that baryons, not merely mesons, exhibit &lt;em&gt;CP&lt;/em&gt;-violation &lt;a href="https://bigthink.com/starts-with-a-bang/new-collider-origin-matter/"&gt;progresses the baryogenesis puzzle&lt;/a&gt; tremendously.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="anitmatter annihilation" class="wp-image-170169" height="540" src="https://bigthink.com/wp-content/uploads/2022/03/antimatter.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;In the very early Universe, there were tremendous numbers of quarks, leptons, antiquarks, and antileptons of all species. After only a tiny fraction-of-a-second has elapsed since the hot Big Bang, most of these matter-antimatter pairs annihilate away, leaving a very tiny excess of matter over antimatter. How that excess came about is a puzzle known as baryogenesis, and it is one of the greatest unsolved problems in modern physics.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/33K76Dg" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;em&gt;Mostly Mute Monday tells a scientific story in images, visuals, and no more than 200 words.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/lhc-best-2025-discovery-new-physics/" rel="nofollow"&gt;The LHC&amp;#8217;s best 2025 discovery points the way to new physics&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>success</t>
   </si>
   <si>
@@ -2297,6 +2656,246 @@
     <t>文 _ 刘小川（中国人民大学高瓴人工智能学院硕士在读） 你有没有留意过这样一种下意识的行为：在听别人描述一个画面时，你的眼睛会不自觉地跟随语言线索，在画面中寻找对应的目标。比如当你听到“那只躺在沙发上的橘猫”时，目光或许会迅速转向画面中色彩最鲜明的那一团暖橙色。这一动作如此自然，以至于我们常常忘记，它其实是大脑中视觉、听觉、语言和注意力系统高度协作的结果。 而今天，人工智能（AI）正试图理解并模仿这一看似简单、实则复杂的人类行为。我们团队最近的研究工作正是围绕这一主题展开的：让机器像人一样去听、去看、去“转动眼球”。这项名为EyEar（Eye moving while Ear listening）的研究，试图回答一个听起来浪漫却极具挑战性的问题：当AI“听见”人类的语言时，它是否也能“看向”我们通常会关注的地方？这不仅是一个技术问题，更是关于模拟人类认知机制的深层探讨。 为什么AI需要“看向对的地方”？ 近年来，我们越来越习惯于与虚拟角色、语音助手、AI客服对话。我们希望它们不仅能“听懂”我们的话，还能表现得更自然、更“像人”——其中的一个重要的细节就是眼神。 眼神是一种极具表达力的非语言信号。在对话中，一个恰到好处的注视、一次顺势的视线转移，往往能让交流更具亲和力。当虚拟角色拥有类似的能力，比如在你说“看那边的房子”时，它的“眼睛”真的能看向房子，这将极大增强人机互动的自然度。然而，对AI而言，“看向对的地方”并不是一件容易的事。因为它需要理解语言的意义、分析图像的内容、推测人的注意力方向，还要将这些信息整合成一个连贯的“视线轨迹”。 任务示意图：在听音频的同时预测人类的注视轨迹。图片来自：LIU X, CHENG X, SUN Y, et al. EyEar: Learning Audio Synchronized Human Gaze Trajectory Based on Physics-Informed Dynamics[J]. Proceedings of the AAAI Conference on Artificial Intelligence, 2015, 39(2): 1429-1437 过去的研究大多只关注视觉场景本身，即AI会根据图像内容推测人们可能会看向哪里。这些研究取得了不错的成果，但它们往往忽视了另一个关键因素——听觉。现实中，我们的注意力常常是在听的过程中被引导的。比如，在导游讲解一幅壁画时，你的目光会随着她的语句在画中移动；收看新闻时，主播的语言也会影响你关注画面中的哪个细节。 我们认为，真正“类人”的注视行为不仅被看到的内容所吸引，更被听到的语言所引导。因此，我们给AI提出了一个新的任务：在听音频的同时预测人类的注视轨迹。换句话说，我们要让AI“边听边看”，并像人一样“用耳朵引导眼睛”。 一场跨学科的探索：AI+物理学+心理学 要模拟这个行为，仅靠传统的深度学习方法远远不够。我们必须理解眼球运动的规律，这是一个由心理学、神经科学，甚至物理学交汇而成的领域。我们和心理学系的合作伙伴一起分析人类的注视行为，发现眼球的移动其实很像一个多种“力”共同作用于物体的过程。于是我们受物理学中“动力系统”概念的启发，提出了一个极具特色的模型结构。可以将这个模型想象成一个“眼球力场”，其受到三股“力”的共同作用： • 惯性力：眼睛有“继续朝一个方向看”的自然趋势。 • 图像吸引力：图像中显眼的部分，比如色彩鲜明、对比强烈的区域，会吸引注意力。 • 语言引导力：听到的词语会激活人对图像中相应事物的关注。 我们用数学的语言把这三种“力”整合成一个公式，模拟人眼在听觉引导下的动态注视过程。这种“受力运动”的思想，为AI的注视建模打开了全新的可能性。 但你可能会问：怎么判断预测出来的注视轨迹对不对？ 起初，我们用了常见的“误差最小”方法，计算预测点和真实点之间的距离，但很快就发现这行不通。因为人类的注意力有很大的个体差异。比如画面里有两台电脑，有的人看左边的电脑，有的人看右边的电脑。如果AI预测的是二者中间的某个点，虽然“平均误差”最小，但它其实没看准任何一台电脑。 于是，我们提出了一种全新的评估方式：概率密度评分。这不是看一个点离其他点有多近，而是看它是否处在“大家都可能看的区域”里。这样一来，AI的预测就更贴近人类“可能的视线选择”，而不是某一个唯一答案。 为了训练这样的AI模型，我们不得不重新收集数据。我们邀请了8位受试者，使用眼动仪记录下他们在听描述音频时观看图像的视线轨迹，最终构建了一个包含两万个注视点的数据集。与以往的注视研究不同，我们的每条数据记录都包含同步的图像和音频。这种“视听协同”的设计，使数据更接近真实生活中的观察情境，也更能支持模型学习到自然的注视模式。我们还特别设计了描述音频的内容，不只是用冷冰冰的文本，而是让AI和人类协作生成自然、流畅的语言。让人“听得进去”的语言才更可能引导真实的注视行为。 AI的眼神真的像人了吗？ 我们的模型表现如何？将EyEar与多种现有方法，包括图像与文字配对的大模型、视觉问答中的注视预测模型、视觉定位模型等进行对比，结果令人欣喜：在所有评估指标上，EyEar都明显优于其他基线方法，尤其在最核心的指标——概率密度评分（PDS）上，EyEar相较最强的现有方法提升了15%以上。更重要的是，在人工质检中，我们发现EyEar预测的注视轨迹不仅“看对了位置”，还呈现出类似人类眼动的自然节奏，比如缓慢地扫视一圈，在目标上短暂停留，然后移动到下一个关键词提及的区域。虽然EyEar离成功模拟人眼还有差距，但它已经迈出了一大步。 概率密度评分方法示意图。图片来自：LIU X, CHENG X, SUN Y, et al. EyEar: Learning Audio Synchronized Human Gaze Trajectory Based on Physics-Informed Dynamics[J]. Proceedings of the AAAI Conference on Artificial Intelligence, 2015, 39(2): 1429-1437 也许你会追问：这样的研究究竟能做什么？除了让AI“更聪明”，它还有什么现实意义？ 我们相信，眼神是通向情感连接的桥梁。当你与一个虚拟角色对话，它若能像人一样用眼神回应你，那一瞬间，它仿佛就不再是一个“程序”，而是一个有注意力、有理解力的存在。它的“在场感”更强，你也更容易信任它、与它共情。这对未来的虚拟助手、陪伴机器人、教育软件甚至治疗性AI的发展都至关重要。在老龄化社会中，一个能“听懂”“看懂”老年人表达的AI，或许比冰冷的数据更能传递关怀。 AI的“眼神”背后，是人类对自身的凝视 人类总是在镜子中看见自己。我们教机器去注视，其实也是在回望我们自己的注意力、认知与感受。 EyEar这个名字，既是“耳听眼动”的翻译，也暗藏一种诗意的期待：当AI能“听出”人类的意思，并“看向”人类关心的方向，它就不再是单纯的工具，而是真正与我们“对视”的存在。 未来，我们计划让EyEar走出静态图像，进入动态视频的世界——让它不仅能听见说话的内容，更能在真实的场景中理解视觉与语言的交错变幻。当那一天到来，我们或许就不只是在打造智能机器，而是在探寻“看”与“听”之间那条通往理解与共情的隐秘路径。 （原载于《信睿周报》第157期，题图为动画电影《机器人之梦》剧照） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
   </si>
   <si>
+    <t>Arianna Huffington moved to England from Greece at 17, earning a master’s degree in economics from Cambridge University where she was president of its celebrated debating society. Best known as the co-founder ofThe Huffington Post(nowHuffPost)— acquired by AOL in 2011, then by BuzzFeed in 2020—she became a force in shaping the digital media landscape and a fixture on various “most influential” lists. She has also written 15 books.
+In common with other seemingly indefatigable high-achievers, Huffington faced a physical reckoning in 2007, when burnout caused her to collapse “into a bloody mess.” Along with a fractured cheekbone she sustained a revelatory crack in her outlook on life and began to map out a significant pivot.
+Now, as founder and CEO of Thrive Global, she has redirected her entrepreneurial focus towards well-being — and with Thrive AI Health, created in 2024 in partnership with OpenAI, she wants “to use AI to make expert-level health coaching accessible to everyone.”
+Here, she joins Big Think to explore the public health crisis in the US, the women at the core of AI, why humans are the ultimate “agents,” and much more.
+Big Think:What do you wish you’d known when starting your first business?
+Huffington:The idea that burnout is the price we must pay for success is a delusion. Had I known that I would have spared myself a broken cheekbone when I collapsed from exhaustion two years after I launchedHuffPost.
+After that wakeup call in 2007, I became passionate about the science that links our health and our daily habits — food, exercise, sleep, stress management and connection with others. Fortunately, I was able to course-correct long before founding my second company. And when I started Thrive Global in 2016, elevating these daily behaviors as fundamental to our health and productivity became the foundation for the company.
+But as clear as the science is, it’s amazing how stubborn the delusions about burnout culture are. In fact, there’s been a wave of recent articles about the return of “996” culture, which has its roots in the Chinese tech scene and refers to working from 9 a.m. to 9 p.m. six days a week.
+So unfortunately, more people are going to have to learn the same lesson I did. But culture change is possible. Look at cigarette smoking. In 1965,over 42% of American adults smoked. Today it’s around 12%. It can take a while for the culture to catch up with science — but the science between our health and our daily behaviors is as clear as the science between our health and smoking.
+Big Think:You started The Huffington Post in 2005, with celebrity contributors as well as unpaid bloggers a central part of the content strategy. What do you make of the media landscape now?
+Huffington:What I loved aboutHuffPostwas the ability to have a direct connection to individual voices and how that could create community and a two-way conversation. And what we’re seeing with the rise of Substack, for example, is that it creates both a space for communities to coalesce and a viable business model.
+There are, of course, huge challenges, especially among legacy media institutions, but the hunger people have to tell their stories, to have a direct connection to writers, and to be part of a community has never been stronger. It’s just finding and driving different models.
+Big Think:Youcontributed to Big Think several years ago. What kinds of shifts have you seen in the business world since then — any epiphanies?
+Huffington:We’ve reached this pivotal moment when we’re finally beginning to see our daily behaviors not as soft, fuzzy perks, but as medical interventions. And this is happening as employers are increasingly alarmed about the costs of healthcare, which are projected to go upby 9.5% next year.
+What business leaders are seeing is that the chronic disease crisis is also a workplace crisis. The Harvard T.H. Chan School of Public Health found that58% of U.S. employees have a chronic health condition, and over three quarters of those employees need to manage those conditions during regular work hours.
+There’s been a huge shift in the business world as leaders realize their importance as stakeholders in fixing our broken healthcare system. And given thatover 60% of the populationgets healthcare from their employers, and we spend one-third of our lives at work, the workplace can be a significant place to transform healthcare.
+Big Think:Some people retire before they are 70, but you’ve chosen to continue to work. What’s your working routine?
+Huffington:Actually, I find that in my 70s, I have many advantages over my younger self! One thing I learned is how draining all my worries were and how much energy you lose at the beginning of your career by looking over your shoulder for approval.
+I’m also very blessed to love what I do. As long as I take enough time to recharge, sleep, meditate, exercise, be with the people I love, I don’t really separate my work from the rest of my life. I actually don’t remember the last time I didn’t work at all over a weekend!
+"Leaders need to ensure not only that their companies have a new technology infrastructure — they need their employees to have a strong personal infrastructure."
+In any demanding job, it’s impossible to do everything you could have done in any one day. So I have learned to declare an end to my working day by being comfortable with incompletions and turning off my phone and making sure it’s charging outside my bedroom. Our phones are, after all, repositories of everything we need to put away to allow us to sleep — our to-do lists, our inboxes, the demands of the day.
+And one place you won’t find me at is a breakfast meeting! My least favorite way of starting the day.
+One of my favorite lessons when I was studying economics at Cambridge was about opportunity cost: when you say yes to something, it means saying no to everything else. It’s not just important in an economic sense — it applies to every decision we make in our daily lives. For instance, if I say yes to a breakfast meeting that drains me, I’m also saying no to the things that actually help me be productive and creative and engaged. Being able to say no — without apology — is an essential skill. As I often say: “No” is a complete sentence!
+Big Think:Who do you admire and why?
+Huffington:I love and admire [philanthropist] Alice Walton. For decades we’ve heard the mantra that nothing can be done to fix the healthcare system. But Alice is determined to prove that wrong. With the Alice L. Walton School of Medicine and the Heartland Whole Health Institute, she is transforming healthcare in the heartland by combining art, nature and a whole-human approach.
+As much as 80% of medical education focuses on biology, while 60% of premature deaths are due to behavioral factors. So by training a new generation of doctors on prevention and the health impact of our daily behaviors, she’s changing the healthcare system from the inside.
+One thing I especially love about Alice is how when she’s excited about something, she has to share it. That can be on an individual level, or, given her love of art, it can mean building a world-class museum in rural Arkansas and making admission free. And she brings a sense of urgency to her most important mission: fixing our healthcare system.
+And it’s hard not to mention my mother. Her motto was that failure is not the opposite of success but a stepping stone to success. And that idea of embracing failure, combined with her unconditional love, made it possible for me to take many risks throughout my life. There isn’t a single corner of my life that isn’t filled with her spirit.
+Big Think:What do you think leaders need to focus on in the age of AI, and why — how are they doing with that?
+Huffington:Leaders need to go into the age of AI with eyes wide open. We now have the benefit of hindsight and we should use it. That means recognizing the negative downstream effects of previous technologies.
+There’s growing anxiety about AI in the workforce.A recent Pew pollfound that in the U.S., only 10% of people are more excited than concerned, while five times that number — 50% — are more concerned than excited, up from 38% in 2022.
+"One place you won’t find me at is a breakfast meeting! My least favorite way of starting the day."
+Leaders need to ensure not only that their companies have a new technology infrastructure — they need their employees to have a strong personal infrastructure. The core of that is resilience, which is really the most important skill we are going to need to navigate the age of AI.
+The limiting factor of AI won’t be data centers, or energy, or chips, or computers. The limiting factor will be what it has always been throughout human history: human nature.
+Big Think:You partnered with OpenAI to launch Thrive AI Health in 2024. How is that going, and what can we expect from the company in 2026?
+Huffington:Our mission has always been simple but ambitious: to use AI to make expert-level health coaching accessible to everyone. We want to help people know what to do to live healthier, longer lives, and follow through on it.
+Since launch, we’ve gone from early alpha testing to a live beta. Every day, people are using the Thrive AI Health Coach to build small, sustainable habits — such as taking a stretch break after a meeting or a short walk during lunch, actions that fit seamlessly into everyday routines, including work. People are also giving us valuable feedback that’s shaping the next generation of the product.
+As we move into 2026, the focus will be on deepening engagement and preparing for scale. That means translating the data and goals people get from their wearables or healthcare providers into daily micro steps they can do with the right nudges and support.
+We’re also building with our partners — including Eli Lilly, Hilton, the University of Pennsylvania and the Yale School of Public Health — to ensure the product works across different populations and contexts.
+Big Think:Silicon Valley is primarily accelerationist when it comes to AI; Europe is more precautionary — where do you stand?
+Huffington:I’m still placing my bets that AI can be a force for good. But it remains an open question. Right now, we’re at a fork in the road, where two different futures are possible.
+One is that AI turns out to be just a more powerful version of the technologies that have come before — a more effective way to mine our attention, polarize us, and distract us from what matters.
+The other scenario is that now that AI has dethroned human intelligence, it becomes a forcing mechanism for a question we’ve been avoiding since the Industrial Revolution: what does it mean to be human?
+"I’m still placing my bets that AI can be a force for good. But it remains an open question. Right now, we’re at a fork in the road, where two different futures are possible."
+Now that Descartes’ “I think, therefore I am” no longer holds true, this dethronement could be the greatest gift, finally forcing us to rediscover the possibilities of our full humanity and reconnect with the infinity of our inner selves — soul, spirit, consciousness — and the awe and wonder of who we are: “spiritual beings having a human experience” as [philosopher Pierre] Teilhard de Chardin put it.
+So the question is: how can we use what AIcando to augment what itcan’tdo? That, to me, is the ultimate possibility of AI. The real existential threat of AI isn’t that it turns on humans and destroys the human race, it’s that humans won’t keep pace with AI by investing in our own growth and evolution.
+[Author and historian] Yuval Noah Harari summed it up: “If for every dollar and every minute that we invest in developing artificial intelligence, we also invest in exploring and developing our own minds, it will be okay. But if we put all our bets on technology, on Al, and neglect to develop ourselves, this is very bad news for humanity.”
+Agents are the AI concept of the moment, but we’re the ultimate agents, and AI will be what we make of it.
+Big Think:Does the dominance of the tech “broligarchy” jeopardize a safe and prosperous AI future?
+Huffington:There are of course many players from the classic Silicon Valley bro culture who dominate the headlines, but there have also been many pieces recently about a resurgence of spirituality in Silicon Valley — something I’ve seen first-hand among friends I have there, including on the Thrive board.
+And there are many amazing women building AI. There is, for instance, Fei-Fei Li, who’s sometimes called the “godmother of AI” and spent 20 years doing pioneering work in AI. She’s now a professor at Stanford and the co-founder of Stanford’s Raise Health program, which is helping to establish a framework for how AI can be used in health safely and equitably. As she wrote in her memoir The World’s I See, “I believe our civilization stands on the cusp of a technological revolution with the power to reshape life as we know it. To ignore the millennia of human struggle that serves as our society’s foundation, however — to merely ‘disrupt,’ with the blitheness that has accompanied so much of this century’s innovation — would be an intolerable mistake.”
+And there’s Fidji Simo, OpenAI’s new CEO of Applications. She published aninternal manifestorecently outlining how AI can be used to empower people, especially in improving their health, writing, “Every major technology shift can expand access to power—the power to make better decisions, shape the world around us, and control our own destiny in new ways… We can start by making sure the keys to empowerment and opportunity — knowledge, health, creative expression, economic freedom, time, and support — are widely available.”
+This article“AI can be a force for good”: Arianna Huffington on work, health, and our futureis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>Leaders need to invite disagreement, not just expect it. When the invitation to offer their opinion is not clear, teams will assume you don’t want it. Leaders often don’t realize that their status can unconsciously silence dissent. No matter how often leaders stress that no one will be punished for disagreeing, their own zeal, conviction, intelligence, and energy can be intimidating.
+The classic American “open-­door policy” isn’t enough to draw out dissenters. Leaders need to create conditions that empower their teams to speak up. When it has been the cultural norm to be deferential to power, or when disagreeing has been conflated with being disagreeable, leaders need to work even harder to change the norm.
+One leader we worked with in Singapore, Mei Chen, developed a creative way of drawing out her people’s best ideas, even when they contradicted her own. Mei had received some bracing feedback during herBonfire Moment. Her team said that she always responded to objections with defensiveness. We could see that she was brilliant but very measured in how she shared ideas. As we discussed these issues, Mei realized that some of the behaviors that had made her effective in her prior job as an analyst were now hurting her ability to lead. She would take a few days to develop any new proposal before bringing it to the team. She had so much of herself invested in her ideas that when they got any pushback, it felt like a personal attack on her capabilities.
+[图片: Book cover with title "The Bonfire Moment" by Martin Gonzalez &amp; Josh Yellin, featuring a diagonal orange-purple gradient stripe on a white background.]
+Mei recognized that she needed to change before the most talented people on her team quit in frustration, and she found two tactics that worked very well. First, she committed to come to meetings less prepared, despite her perfectionist instincts. She found that when she put less prep work into her own ideas, it didn’t sting as much when people raised questions and outright disagreed. Second, to further encourage honest exchanges, she started having more one-­on-­one conversations. In private with a single team member, she would lay out her idea and the reasoning behind it. Then she’d say: “I’m pretty sure I’m missing out on important things here. What’s missing? What don’t I see?”
+Mei’s approach aligns with the conclusions of researchers from Singapore Management University and UC Berkeley. Theirstudysuggests that when leaders frame conflicting ideas as expressing disagreement, team members assume the leader isn’t really open to dissenting opinions. This assumption tends to shorten conversations and reduce the exchange of important information. But when the leader frames a conflict as a debate, with fair treatment for all sides, people assume that dissenting opinions are wanted and expected. In the study, the amount of shared information increased fourfold when the leader simply changed their language.
+The good news is that it really is possible to escape the trap of the inner circle. Anil Sabharwal, who led the team that built Google Photos into a multibillion-­user app, describes his approach this way: “Debate. Argue. Get into it. The best results come from passionate, constructive, positive contention. Encourage it. Even force it. But know it requires a foundation of trust, honesty and respect. If you don’t have that, you just get pure contention, and that ain’t good.”
+Improving the quality of your disagreements
+Tech pioneer Bob Taylor, who built one of the dream teams of the computing revolution, was a master at fostering productive disagreement. In the late 1960s, he played a key role at the Pentagon’s Defense Advanced Research Projects Agency (popularly known as DARPA), which launched the earliest version of the internet, connecting computers at the Pentagon, MIT, UC Berkeley, and a research lab in Santa Monica. Then in the 1970s, he led the team that invented the world’s first personal computer at the Xerox Palo Alto Research Center (PARC). As former Google CEO Eric Schmidt observed, “Bob Taylor invented almost everything in one form or another that we use today in the office and at home.”
+Visitors to Xerox PARC were often shocked at the intensity of arguments among Taylor’s researchers. They didn’t try to win debates for the satisfaction of proving each other wrong; the goal was always to illuminate each other’s ideas. Criticizing a colleague’s personality or character was not allowed. Taylor saw his main role at the lab as preserving this collaborative culture and protecting it from the lone-­wolf tendencies of some of his smartest researchers. He frequently quoted a Japanese proverb: “None of us is as smart as all of us.”
+Taylor liked to explain that there are two kinds of disagreements. In “Class 1” disagreements, neither party truly understands each other’s point of view, so they resort to straw man arguments —­ distorting an opposing opinion into an exaggerated, easily rebutted version of itself. Class 1 disagreements erode morale and degrade a team’s effectiveness over time.
+"By doing a deep dive into someone else’s position, finding the strongest aspects of it, explaining it back to them, and only then formulating a rebuttal, you have to create a “steel man” argument instead of tearing down a straw man."
+During “Class 2” disagreements, in contrast, people take the time to fully understand each other’s point of view, to the standard that “I can explain your point of view to your satisfaction.” By doing a deep dive into someone else’s position, finding the strongest aspects of it, explaining it back to them, and only then formulating a rebuttal, you have to create a “steel man” argument instead of tearing down a straw man.
+Taylor saw his role not as judging disagreements but as moving his people from Class 1 to Class 2 disagreements. He was able to bring together brilliant minds representing a vast array of expertise and backgrounds. More impressive, he created an environment that maximized the benefits of that diversity and essentially took himself out of the inner circle.
+Taylor’s instincts a half century ago confirm what we know today about high-­quality disagreements and the power of diversity. In an experiment by the Kellogg and Stanford business schools, respondents were put in socially diverse and nondiverse teams. At the end of a team-­based performance task, they were asked to predict how well they did. By comparing each team’s self-­perceived effectiveness with its actual performance, the researchersfoundthat we incorrectly assume that working with similar people will lead to better results. In fact, socially diverse groups had better results, even though they found it harder to debate their opinions because they didn’t share as many references and vocabulary.
+This articleCollaboration masterclass: How to wrangle disagreements like Bob from Xeroxis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>Explorer Victor Vescovo has spent years reaching some of the most extreme places on Earth, from scaling the tallest mountains on every continent, diving to the deepest parts of every ocean, skiing to both of the Earth’s poles, and even rocketing to the edge of space. In those environments he discovered awe in three distinct forms — mental, physical, and existential.
+These experiences changed the way he pays attention, teaching him to notice the quieter flashes of awe that appear in ordinary life. As a speaker atA Night of Awe and Wonder, hosted by Big Think and the John Templeton Foundation, Vescovo invites us to see awe as something we can practice every day life.
+This videoWhat Earth’s most extreme places teach us about being humanis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>The immensity of the Universe fills us with wonder.
+[图片: A circular illustration depicting the observable universe with various galaxies, stars, and cosmic structures emanating from a central point, symbolizing the solar system and hinting at how far away the Big Bang occurred.]
+Artist’s logarithmic scale conception of the observable universe. The Solar System gives way to the Milky Way, which gives way to nearby galaxies which then give way to the large-scale structure and the hot, dense plasma of the Big Bang at the outskirts. Each line-of-sight that we can observe contains all of these epochs, but the quest for the most distant observed object will not be complete until we’ve mapped out the entire Universe.
+Credit: Pablo Carlos Budassi; Unmismoobjetivo/Wikimedia Commons
+Despite all we’ve learned, however,unsolved puzzles abound.
+[图片: A 3d image of a red, green, and blue sphere.]
+The early Universe was full of matter and radiation, and was so hot and dense that it prevented all composite particles, like protons and neutrons from stably forming for the first fraction-of-a-second. There was only a quark-gluon plasma, as well as other particles (such as charged leptons, neutrinos, and other bosons) zipping around at nearly the speed of light. This primordial soup consisted of particles, antiparticles, and radiation: a highly symmetric state.
+Credit: Models and Data Analysis Initiative/Duke University
+All the planets, stars, and galaxies we seeare composed of matter, not antimatter.
+Through the examination of colliding galaxy clusters, we can constrain the presence of antimatter from the emissions at the interfaces between them. In all cases, there is less than 1-part-in-100,000 antimatter in these galaxies, consistent with its creation from supermassive black holes and other high-energy sources. There is no evidence for cosmically abundant antimatter.
+Credit: G. Steigman, JCAP, 2008
+But physicshasn’t yet discoveredhow that occurred.
+[图片: A diagram showing the difference between matter and antimatter.]
+The difference between matter and antimatter is accounted for by charge conjugation symmetry: a discrete symmetry that exchanges particles for antiparticles and vice versa. Where this symmetry holds, there is an associated conserved quantity as a consequence of Noether’s theorem. Where that symmetry is violated, the conservation law no longer necessarily holds.
+Credit: zombiu26 / Adobe Stock
+Einstein’sE = mc²allows us to create and destroy matter.
+[图片: fusion power]
+Whether elementary or composite, all known particles can annihilate with their antiparticle counterparts. In some cases, particles are matter and antiparticles are antimatter; in other cases, particles and antiparticles are neither matter nor antimatter, and sometimes particles are their own antiparticle, which is anticipated for many candidates for dark matter. The typical result of this annihilation is the production of two, equal-energy photons that fly off in opposite directions to one another, where the energy of each photon is given by Einstein’s E =mc², where m is the rest mass of the annihilating particle.
+Credit: kotoffei / Adobe Stock
+But there’s a cost: only if we create or destroy an equivalent amount of antimatter.
+[图片: Universe without matter antimatter asymmetry]
+As the Universe expands and cools, unstable particles and antiparticles decay, while matter-antimatter pairs annihilate and photons can no longer collide at high enough energies to create new particles. Antiprotons will collide with an equivalent number of protons, annihilating them away, as will antineutrons with neutrons. After all the carnage, somehow, more matter than antimatter remains: evidence for a large initial asymmetry.
+Credit: E. Siegel/Beyond the Galaxy
+To create a fundamental matter-antimatter asymmetry,three conditionsmust be met.
+[图片: Diagram visually representing one of the biggest mysteries: the origin and evolution of the universe, from the Big Bang on the left to galaxies, stars, and finally Earth on the right, set against a black background.]
+Our Universe, from the hot Big Bang until the present day, underwent a huge amount of growth and evolution, and continues to do so. Our entire observable Universe was approximately the size of a modest boulder some 13.8 billion years ago, but it has expanded to be ~46 billion light-years in radius today. The complex structure that has arisen must have grown from seed imperfections of at least ~0.003% of the average density early on, and has gone through phases where atomic nuclei, neutral atoms, and stars first formed, eventually giving rise to our Solar System, planet, life, and humans.
+Credit: NASA/CXC/M. Weiss
+1.) The Universe must be out of equilibrium.
+[图片: maxwell boltzmann distribution gas]
+This simulation shows particles in a gas of a random initial speed/energy distribution colliding with one another, thermalizing, and approaching the Maxwell-Boltzmann distribution. The state of reaching thermal equilibrium is when all parts of the system can exchange energy, collide with, and interact with all other parts of the system freely, and is easy to achieve for a closed, isolated, unchanging system. By contrast, the expanding Universe is wildly out of equilibrium.
+Credit: Dswartz4/Wikimedia Commons
+2.) There must be enough C-violation and CP-violation.
+[图片: CP symmetry test]
+Parity, or mirror-symmetry, is one of the three fundamental symmetries in the Universe, along with time-reversal and charge-conjugation symmetry. If particles spin in one direction and decay along a particular axis, then flipping them in the mirror should mean they can spin in the opposite direction and decay along the same axis. This was observed not to be the case for the weak decays, which are the only interactions known to violate charge-conjugation (C) symmetry, parity (P) symmetry, and the combination (CP) of those two symmetries as well. However, CP-violation has only ever been observed in systems containing strange, charm, or bottom quarks; never leptons.
+Credit: E. Siegel/Beyond the Galaxy
+3.) There must be baryon number-violating processes.
+When the electroweak symmetry (the symmetry that corresponds to the Higgs field) breaks, the combination of CP-violation and baryon number violation can create a matter/antimatter asymmetry where there was none before, owing to the effect of sphaleron interactions working on, for example, a neutrino excess. This can only occur, however, if the electroweak phase transition is first-order, rather than the second-order transition predicted by the Standard Model alone.
+Credit: University of Heidelberg
+The known Standard Model exhibitsC-violation andCP-violation,but not enough of it.
+[图片: Side-by-side grid plots compare the relative strengths of elements in the Leptonic PMNS and Quark CKM mixing matrices, represented by circle sizes—highlighting how neutrino mass, smaller than quark mass, relates to mixing patterns.]
+This illustration shows the mixing matrices for neutrinos (left) and quarks (right), which is only possible if the neutrinos and quarks have non-zero rest masses. The fact that there are non-diagonal elements in the neutrino mixing matrix indicates that electron, mu, and tau neutrinos don’t have fixed masses, but instead are superpositions of the three possible mass (1, 2, 3) eigenstates. Since the discovery of this mixing, physicists have worked hard to measure the various mixing parameters and angles between quarks and, separately, neutrinos.
+Credit: S. Cao et al., Symmetry, 2022
+CP-violation has been observed for strange, charm, and bottom quark decays, but only in mesons.
+[图片: kaon decay]
+When the neutral kaon (containing a strange quark) decays, it typically results in the net production of either two or three pions. Supercomputer simulations are required to understand whether the level of CP-violation, first observed in these decays, agrees or disagrees with the Standard Model’s predictions. With the exception of only a few particles and particle combinations, almost every set of particles in the Universe are unstable, and if they don’t annihilate away, they will decay in short order.
+Credit: Brookhaven National Laboratory
+For years, theoristshave predictedCP-violation in baryons, but never saw it until now.
+The LHCb detector, at 5600 metric tonnes, is 21 meters long, 10 meters high, and 13 meters wide, optimized for detecting and studying particles (and their subsequent decays) that contain b-quarks inside them. At present, there are over 1500 scientists, engineers, and technicians that work on the LHCb collaboration. Although the ATLAS and CMS detectors are more famous for discovering the Higgs boson, the LHCb detector is the only one capable of measuring CP-violation in b-quark containing baryons.
+Credit: CERN/LHCb collaboration
+In 2025, for the first time, the LHCb collaborationdemonstrated baryonicCP-violation.
+[图片: Colorful digital visualization showing particle tracks from a collision event in a particle detector, inspired by the LHC best 2025 discovery, with lines and shapes representing different trajectories and signals.]
+This 2016 reconstruction of an LHCb event shows a b-quark containing baryon that decayed, producing an s-quark containing baryon along with other mesons. With observations of sufficient numbers of these decays, the LHCb collaboration, in 2025, was able to show evidence for baryonic CP violation for the first time.
+Credit: CERN/LHCb collaboration
+Two species ofb-quark containing baryons decayed tos-quark containing ones,showing robustCP-asymmetries.
+[图片: Two plots from the LHC's best 2025 discovery display candidate masses for Λb0 decays, with data points, total fit curves, and background contributions. Both x-axes are labeled m(Λb0K+K−) in MeV/c².]
+The decay of neutral, b-quark containing Lambda baryons to s-quark containing Lambda baryons (plus two charged mesons), with CP-violation appearing in the case of those two mesons being positively and negatively charged kaons. The asymmetric decay amplitudes in N* resonance-dominated regions is where the CP-violation appears, with all other decays showing no evidence for CP-violation at all.
+Credit: R. Aaij et al., Physical Review Letters, 2025
+This is consistent withtheir observedCP-violation in the meson sector.
+[图片: Illustration depicting subatomic particles: a) glueball, b) proton, c) z(3900), with labeled quark components (u, d, c) in different configurations.]
+Originally, the only hadrons known to exist were either combinations of three quarks (baryons), three antiquarks (antibaryons), and quark-antiquark pairs (mesons). Now, more exotic states such as tetraquarks, including the Z_c(3900) shown here, are known to exist as well. Glueballs, pentaquarks, and other exotics remain tantalizing and expected possibilities as well. Although mesons had been known to exhibit CP-violation for over 60 years, starting in 1964, the first baryonic CP-violation was only announced in 2025.
+Credit: APS/Alan Stonebraker
+Showing that baryons, not merely mesons, exhibitCP-violationprogresses the baryogenesis puzzletremendously.
+[图片: anitmatter annihilation]
+In the very early Universe, there were tremendous numbers of quarks, leptons, antiquarks, and antileptons of all species. After only a tiny fraction-of-a-second has elapsed since the hot Big Bang, most of these matter-antimatter pairs annihilate away, leaving a very tiny excess of matter over antimatter. How that excess came about is a puzzle known as baryogenesis, and it is one of the greatest unsolved problems in modern physics.
+Credit: E. Siegel/Beyond the Galaxy
+Mostly Mute Monday tells a scientific story in images, visuals, and no more than 200 words.
+This articleThe LHC’s best 2025 discovery points the way to new physicsis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>主理人 _ 田洁（中国人民大学哲学院） “人之初，性本善还是性本恶”，这几乎是人们在聊到道德时必然会谈到的话题。这个话题如此古早，被谈论得如此之多，以至于我们想凑过去仔细琢磨的时候，都能闻到几千年来哲学家们为之不断争吵而留下的陈年口水味儿。“人之初”的道德本性究竟如何？这不是一篇有自知之明的短文会试图回答的问题。在这里，让我们仅仅尝试着聊一聊：当这个问题被问出来的时候，我们可能在好奇什么？这个问题有什么合理的可能解答，又有什么解答大概率是不靠谱的？不过在开始解答之前，更重要的是要仔细甄别：我们到底在问什么？“人之初”或者“人的本性”到底是什么层面上的“初”或者“本”？不同层面的解答方法很是不同，其答案的意指更是大有差别。 电影《蝇王》（1963）改编自威廉·戈尔丁的小说，讲述了一群被困荒岛的儿童如何从文明坠入野蛮的故事。 首先，“人之初的道德本性”可以指人类个体在出生时的态度和行为倾向，即婴幼儿或者孩童时期的善恶状态。我们有理由认为，幼童时期的人类行为展现了人最原本、最真实的状态，因此对于幼童行为的观察可以为关于人性本质的讨论提供很好的经验证据。根据这个思路，在回答“人之初，性本善还是性本恶”这个问题时，我们在很大程度上依赖的是儿童发展心理学，尤其是对于道德心理发展的研究，我们需要观察幼童在尚未受到后天教化影响时的道德选择和行为。 20世纪上半叶，瑞士心理学家让·皮亚杰（Jean Piaget）提出了认知发展理论，他设计的“三山实验”（The Three Mountains Task）有力表明了在儿童心理发展初期的认知自我主义特征。实验中，他在不同年龄段的儿童面前摆放了三座高低、形状、颜色各异的假山模型，然后在山的另一面放一个玩具娃娃。每个儿童会拿到四张图片，并被要求指出哪一张图片是对面玩具娃娃眼里的山的形状。结果显示，大多数2~7岁的幼童都认为，对面玩具娃娃看到的景象跟自己看到的一样。皮亚杰认为，这意味着幼童只能从自己的视角看待世界，难以转换视角从他人的角度观察世界。 结构主义 [瑞士] 皮亚杰 商务印书馆 2006 皮亚杰的后继者劳伦斯·柯尔伯格（Lawrence Kohlberg）受其启发，设计了类似道德困境的心理实验来测试这种自我中心主义的认知方式是否也反映在儿童的道德行为上，其中就包括知名的“海因茨偷药”困境。 受试者会被告知这样一个假设的故事：有一个名叫海因茨的男子，他的妻子罹患一种特殊的癌症，生命垂危，只有本城一位药剂师最近发明的一种放射性药剂也许能救她。药剂师花200美元制造了这种药，却要价2000美元。海因茨竭尽所能也无法筹到药款，于是请求药剂师便宜点卖给自己或者允许他延期付款，但药剂师说：“不行，我发明了这种药，就是要靠它来赚钱。”绝望的海因茨闯进药剂师的仓库，为妻子偷走了药。 柯尔伯格认为，海因茨的做法是对还是错并不是这个实验的重点，他更关心的是受试者评价海因茨的做法时所使用的道德理由的特征。在2~7岁的幼童中，支持偷药的孩子大多认为，“药的价格不高，因此惩罚也不会太严重”或“如果没偷药而让妻子死了，他也会惹上麻烦”；反对偷药的孩子的理由则是“他会被抓住并关进监狱”。 我们可以看到，幼童援引的理由大多和自己面临的外在惩罚有关，无关事件本身的对错、给他人造成的影响或相关法律原则。柯尔伯格认为，皮亚杰提出的幼童认知自我主义同样可以解释他们对于对错的理解：幼童无法换位思考，无法形成对于事件对错的客观理解，只能从自身利害出发思考。而这种自我中心的思考方式和真正的利他行为或尊重道德律法相去甚远。基于这些发展心理学证据，我们虽然不能就此推论幼童时期的人类一定是自私自利的，但是可以合理地设想幼童时期的人类的自我中心主义视角会导致其道德推理能力极度匮乏。 教育科学与儿童心理学 [瑞士] 让·皮亚杰 教育科学出版社 2018 当然，这个推论的合理性可能从一开始就会遭到质疑。幼童时期的人类个体缺乏的不是道德能力，而是从判断认知到行为实践的成熟度。在这个意义上，我们根本不应该对幼童的选择和行为做任何道德判断，就好像我们不能从道德上指责智力障碍人士一样。只有当人类个体具有相当成熟和充分的认知能力时，其选择和行为才具有某种道德品质。如果这样的观点成立，那么试图通过观察幼童的选择和行为来研究“人之初，性本善还是性本恶”，就是一种缘木求鱼的做法。这里的“初”和“本”不应解读为“未受教化影响的幼童状态”，而应理解为“人类整体发展初期”，也即文明传统出现前的原始人类社会。如此一来，这个问题就变成了一个人类学和历史学的话题：我们需要观察的是早期人类社会的道德发展状况。 新的研究方法引导我们去观察与现代文明社会大不相同、仍处在欠发展或者说原始阶段的人类社会，看看原初状态下的人类的道德状态。很多哲学家对原始社会中人类的道德状态抱有乐观浪漫的设想，认为那时的人们尚未被现代科学和文化玷污，保持着自然、真诚、纯粹和无私，人和人之间平等友好，没有罪恶、伪善和卑劣。然而，通过历史记录和人类学观察，结论可能并不令人乐观：且不说那些远古社会中的食人、猎巫、乱伦和血亲复仇等行为，即便在20世纪，我们依然可以在远离现代文明的部落社会中里看到很多让人不可接受的行为——比如在因纽特人聚居的社会中，男性通常拥有多位妻子，并将自己妻子陪寝作为待客之道；杀婴行为也相当普遍，而且实施杀戮的往往是婴儿的亲生父母；更有甚者，当部落里的长者衰弱到无法劳作时，会被抛弃在冰天雪地中自生自灭。这些行为从今天的道德标准来看，无疑是野蛮、落后、残忍和恶劣的。 纪录片《北方的纳努克》（1922）记录了加拿大魁北克省北极圈内哈德逊湾的伊努朱亚克附近因纽特人首领纳努克一家人从1920年8月到1921年8月期间的日常生活。 然而，这些历史学和人类学证据能否支持“人类社会作为一个整体在原初状态里具有糟糕的道德品性”的推论呢？在道德哲学家看来，这样的推论相当可疑。一类持相对主义观点的哲学家直接指出：我们不应该用当代社会主流的善恶标准评判原始社会或者其他文明的行为。善恶是有时间性和地域性的，也就是说“人之初”的善恶与我们眼下的善恶用的根本就不是同一套评价系统。另一些持非相对主义观点的哲学家也不支持上述推论，在他们看来，古代社会和爱斯基摩人看似不道德的行为有其内在合理性和逻辑：譬如在生存环境相当恶劣的北极圈中，有选择地使用有限的资源来抚养那些更有可能生存下来的婴儿，或者不将有限的资源浪费在即将死去的老者身上，这些选择恰恰是正确的、道德的。这一类讨论意味着，即便我们将“人之初”理解为人类整体的原始状态，并且收集到足够多的关于人类行为的经验证据，我们依然不确定该对这些经验证据做出何种解读，也不确定这些经验证据能为我们的问题提供怎样的答案。 近年来，在回答“人之初，性本善还是性本恶”的研究版图当中出现了一支新的力量——演化伦理学。顾名思义，这一理论试图将自然界生物演化的过程和机制套用到人类道德心理和行为的发展上来，把人类的道德行为解释成这种社会性动物在漫长的生物演化过程中形成的本能反应。因为演化伦理学试图用看似“硬核”的生物科学路径来解释人类的道德行为，引发了众多学者的关注和兴趣，生物学家、心理学家、哲学家，甚至数学家都纷纷加入这场讨论当中。这条道路目前可以算得上热闹喧嚣、狼烟四起，但是这个新晋的方法论到底能够如何帮助回答我们关心的问题，尚未可知。相反，恰恰因为这条道路太过崭新和热闹，对于它的误解和滥用更有可能让我们误以为找到了某种答案，其中一个典型的例子是对《自私的基因》的误读。 自私的基因 [英]理查德·道金斯 中信出版社 2018 《自私的基因》是英国演化生物学家理查德·道金斯（Richard Dawkins）1976年出版的著作，主要讲述的是演化的基因学原理。道金斯用“自私的基因”来概括书中的主要思想：基因是承载生物体构建和指令的DNA片段，所有生物体都由数百万个基因构成，这些基因通过亲代传递给子代。道金斯将基因比作精巧的生存机器，它们“渴望”不断自我复制以实现跨世代存续。擅长复制的基因会在种群中扩散，反之则逐渐消亡。因此，基因为了最大化自我复制会采取一种“自私”的模式，尽其所能地让生物体具备那些有利于保障自己延续和繁殖传播的行为。 道金斯的思想常常受到各种误解，其中最为常见一种是：根据这个理论，我们可以得出基因决定了人类一定会有自私的行为模式，因为基因寻求复制、延续和扩张，那么作为基因的载体的人类个体也会具有尽其所能追求本身的生存和繁衍的行为模式。也就是说，这种误读认为因为自私基因的存在，那么在最根本的意义上人性本谈不上善，因为每个人最基本的行为逻辑说到底只是追求自己的生存和延续，这是演化的必然结论。 然而这个解读恰恰忽略了道金斯在这本书中提出的最重要的创见：生物进化的最基本单位不是生物个体，而是基因本身。生物个体不过是被基因建构和操纵的载体，或者说一种工具容器。基因本身所追求的扩张和繁衍，和作为载体的生物个体的行为目的之间并没有直接的关系。我们不能想当然地认为，既然基因寻求自身的生存和繁殖，那么它的每一个载体也会因此寻求自身的生存和繁殖。相反，生物个体之间的互惠利他，甚至自我牺牲行为，反而更有可能实现基因“自私”的目的。和一群只关心自己生存和利益的人比起来，一个互惠互利、尊重道德规范、拥有公平感和善意的群体更有可能实现进化上的成功。这意味着，作为基因载体的群体成员，每一个人类个体都有可能需要在应对环境和其他群体的过程中采用不同的进化策略。自私基因需要一些个体专注于本身的生存和繁殖，也需要另一些个体有利他和自我牺牲的行为。由此可见，即便从构成人类行为的最基本的进化单位（基因）出发，我们依然无法就人的本性是善还是恶得出有效的结论。 这又是一场围绕一个貌似简单的问题进行的复杂且没有答案的讨论，但是我不愿意将这样的讨论看作是无效的。至少，在尝试回答“人之初，性本善还是性本恶”这个问题时，我们首先要问出这个问题到底在问什么。哲学思考的效力往往不在于提供答案，而在于澄清问题本身，即便是那些日常被挂在嘴边、萦绕于心的问题，其本身也需要被认真地质疑和梳理。 （原载于《信睿周报》第158期，题图来自《蝇王》电影海报截图） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>主理人 _ 徐坚（上海大学文化遗产与信息管理学院） 2013年向公众开放的克利夫兰艺术博物馆（Cleveland Museum of Art）一号展厅（Gallery One）至今仍然被视为智慧博物馆的经典案例。显然，这不是技术原因造成的，因为直至一号展厅开放数年之后，智慧博物馆才成为风尚。该馆曾经引以为傲的大型多触点互动屏“艺术魔镜墙”（Artlens wall），后来被效仿者称为“魔墙”（magic wall），已经成为全世界博物馆的标配，尺寸更大、触点更多、搭载更强的中央处理器（CPU）的屏幕随处可见。但是，不同于现在绝大多数博物馆，一号展厅有的不只是一面硕大的屏幕，而且是一个由不同尺寸的互动屏、移动设备通过线下和线上密切捆绑结合的整体，它代表了对智慧博物馆的真正意义和实现路径的深思，其理念依旧引领时代。 克利夫兰艺术博物馆的“艺术魔镜墙”。图片来自官网 一号展厅位于克利夫兰艺术博物馆入口处，这也是其名字的由来。它是该馆空间和功能改造工程的结果，虽然名为“展厅”，但并不展陈任何藏品或者艺术品，而是作为数字化展厅，兼教育和休憩功能区。我们可以把它看成博物馆前台在数字时代的变形。门厅和前台是博物馆和观众相遇的第一个界面，一个合格的博物馆前台应该是怎样的？不仅是卖票、发放导览折页、存衣、存包的场所，还应该有一位既熟知博物馆内外，又能察言观色、敏锐捕捉观众兴趣和需求的导览！这样的导览可遇不可求，有时博物馆馆长或者资深专家不得不亲自下场。如果当下如火如荼的人工智能能够担当此角，甚至胜过真人，将给博物馆和社会带来什么影响？ 一号展厅里最显眼的当数彼时号称全美最大的多触点互动屏幕，光长度就超过12米。互动屏系统收录了4100件（组）艺术品，其中3500件（组）是克利夫兰艺术博物馆的馆藏。艺术品的缩略图在屏幕上滚动播放，图片来自网络 在2017年的更新之后，“艺术魔镜”将参观线路和Beacon定位技术结合起来，使iPad或者手机能引导观众在展厅里找到每一件“喜爱”的艺术品，还可以如同一位经验老到的导览那样及时提醒观众沿途不容错过的风景。一号展厅里还有供青少年观众以馆藏为媒介学习艺术基本知识的互动教室，话题包括艺术作品是如何制作的、艺术想表达什么、艺术是如何表达的。这里还设置了不同的透镜，按照艺术类型、年代等不同标准命名，每个透镜都能直观地展示不同的艺术效果。此外，还有一些让观众模仿名作中人物的表情和动作、勾画线图等的趣味设施。 “魔墙”、LED触摸屏、二维码、虚拟现实（VR）/增强现实（AR）复原、CAVE沉浸式投影、手机应用程序、语音导览包、数字展、元宇宙，这些在很多博物馆中都随处可见，这能说明博物馆的智慧时代如期而至了吗？这些设备、装置和技术是智慧博物馆的充要条件吗？所有“魔墙”的意义都一样吗？不同的人说的“智慧博物馆”指的是同一件事情吗？ 作为名词的“智慧” 中国博物馆的智慧之路起步不晚。早在2014年，国家文物局就启动了智慧博物馆试点工作，甘肃省博物馆、山西博物院、四川博物院、广东省博物馆、内蒙古博物院、苏州博物馆和成都金沙遗址博物馆7家博物馆率先开展智慧博物馆建设，这一年也被视为中国智慧博物馆元年。智慧不是横空出世的，如果把数字化和信息化当成博物馆智慧的前身和基础，可以追溯到2003年“数字故宫”的建设，甚至1985年上海博物馆开展的信息化建设。 中国的智慧博物馆建设采用了系统和均衡、全面覆盖所有业务板块的方案。由于中国以公立博物馆为主体，实施行政归口管理，由国家文物局主导的智慧博物馆建设方案先天地具有系统、均衡的特征。此外，中国博物馆的智慧化建设过程恰好发生在博物馆的第二个黄金时代，对之的关注度和投入都是史无前例的，超过同时期其他国家，且建设规模庞大，国内几乎所有公立博物馆的智慧博物馆建设都被纳入这个体系。作为2014年试点工作的成果，一系列智慧博物馆技术标准出台并基本划定了智慧博物馆的方向和内容，大到技术参考模型和建设方案编写，小到数据库和终端应用的要求。 2019年，故宫博物院推出了线上数字文物项目“数字文物库”。图片来自故宫博物院数字故宫官网 在这一系列标准里，博物馆的智慧化建设被分解成智慧服务、智慧保护和智慧管理三个部分：智慧服务针对社会公众，目标在于实现博物馆和观众之间更具交互特质的沟通和交流；智慧保护围绕馆藏，着眼从发掘现场到遗址公园的原生情境、从展厅到库房的博物馆情境，以及运输等特殊情境中的安全；智慧管理从博物馆的运营角度出发，关注从馆藏信息管理到数字化资源管理等博物馆数据库的管理，以及观众研究。这一分类大体对应博物馆的前台、后台和中控部门。多家博物馆按其业务板块分别完成智慧化建设的典型案例和经验总结。这个模式下的智慧博物馆就是对服务、保护和管理三个业务板块的智慧化成果的集成，即作为名词的“智慧”。 作为名词的博物馆“智慧”是行政管理视角、自上而下的分类视角和博物馆人内部视角结合的产物。在这些视角下，博物馆是一个独立的行业领域，麻雀虽小，五脏俱全，既有外树形象的部门，也有内修素质的部门，即使在内部，各个部门之间也是泾渭分明的。然而，这种智慧博物馆观既不“智慧”，也不够“博物馆”。以信息和数字技术为基础的“智慧”天生具有突破边界的冲动，博物馆的服务、保护或者管理本就相互关联，互有复杂的因果递进关系，怎么可能人为分割？没有保护和管理，怎么可能做好服务？一个系统很难在不参照另一个系统、不调用另一个系统的数据和资源的情况下，确立自己的智慧博物馆方案。更深层的分歧来自对博物馆的基本功能和定位的认识。博物馆应该是兼有收藏、保管、研究、展示等功能的机构，还是以阐释和表达为核心价值的社会教育机构？从20世纪初达纳（John Dana）强调的“博物馆要教育”和棚桥源太郎提出的“诉诸眼的教育机关”，到当下的智慧博物馆建设与智慧城市建设的从属关系，都说明博物馆与社会及观众的联结界面才是博物馆工作的首要舞台，广义的社会教育才是博物馆最主要的功能。 作为形容词的“智慧” 一个博闻强识、滔滔不绝的博物馆前台导览，是我们需要的吗？ 如果博物馆能通过理顺自身不同业务板块的内在逻辑准确找到核心数据，并运用各种信息、网络和人工智能技术，拥有了堪称“智慧”的各种设施和表现，就是实现了智慧博物馆吗？是，也不是。技术成果有目共睹，但是我们更应该观察这是服务于谁的“智慧”。 我们不妨用三种博物馆屏幕（网站、“魔墙”和LED屏）来分析什么是有效的智慧。 网站是网络时代博物馆的门户，是实现永不落幕的博物馆的主要途径。从20世纪90年代开始，全球博物馆陆续推出各自的网站，观众可以通过电脑或手机浏览，至少从技术层面上实现了信息化和数字化。只需稍微浏览，就能发现博物馆网站的大分流现象。一种首页上基本是展览消息以及交通导引、开放时间和门票政策等实用信息，还有与博物馆黏度更高的观众希望了解的馆藏结构、亮点、特色等数据库，人员资产、历史变迁、荣誉大事、媒体公关等则被移至页面底端。另一种则将馆史沿革、领导介绍、馆长寄语、党团工会活动放在核心位置。显然，前者是为观众设计，为观众所用的，而后者可能只是行业或者单位年鉴的数字化变体或者黄页的虚拟平台。 在克利夫兰艺术博物馆的一号展厅大获成功后，“魔墙”在很多博物馆中涌现。很多“魔墙”的技术参数都超过了一号展厅的“艺术魔镜墙”。虽然两者的内容结构和形式基本一致，都是通过点击放大的图片构成照片流，但两者有着巨大的差别：大多数“魔墙”是孤立的，与展厅和展品基本脱钩，屏幕上的图片和文字信息主要用来展示，而不是使用。 LED屏是目前博物馆展厅中常见的智慧装置，一般用于展示馆藏精品的3D扫描复原图像。有时为了增强对比或呼应效果，会在展柜中使用透明的OLED触摸屏，将实物及其3D图像并置展出：比如，甘肃省博物馆于2015年用这项技术展示鼎形铜行灯，山西青铜博物馆于2019年以同样的技术展示刖人守囿车。由于两件展品都具有可拆卸或开合的特点，无法通过静态展陈准确表达，加上刖人守囿车尺寸较小，在展柜中看不清楚，所以很适合通过OLED屏展示。但是，无意义、无价值、无必要的可旋转和可缩放的3D图像展示在展厅中更为常见。 刖人守囿车。图片来自中国考古网 作为形容词的“智慧”解决了博物馆智慧化中的数据问题，但也揭示了更为关键的数据正义议题：这就好比若博物馆前台导览只是为了卖弄自己的学识而喋喋不休，这样的知识对于博物馆观众有何意义？ 作为副词的“智慧” 智慧博物馆的第三个层次是“智慧地”运营博物馆。这也引出了智慧博物馆广为认可的定义：智慧博物馆是博物馆运用与时俱进的技术手段，提升运营能力，更好更多地服务观众的方式。物联网、人工智能、大数据和移动端应用等都只是当下有效的增效剂，未来一定还有其他技术加入进来。正如克利夫兰艺术博物馆在介绍一号展厅时特地提到的，“技术是支持观众参与到收藏的关键工具”。“智慧”重组了博物馆，但还需要有“支持观众参与收藏”的初心。 智慧博物馆能否成为一个有观察力，甚至有同情心的导览，根据每个观众的参观目的、知识背景、时间充裕程度甚至心理状态推荐参观线路呢？除克利夫兰艺术博物馆，福建博物院和苏州博物馆也通过Beacon定位系统实时提供周边展品信息，苏州博物馆还通过AR及时为观众提供参观途中意外发现的展品的信息，但是，目前依旧缺乏一个如电商平台一样采用大数据分析推算的“猜你喜欢”式的个性化导览。 除了服务观众，智慧博物馆还能引导观众吗？全世界的观众都爱在博物馆中拍照，馆中的任何一件展品一天内被拍的照片比它保存在博物馆档案中的器物照多多了。但是，博物馆习惯性地以专业和科学为由拒绝观众拍摄的照片，而这其实是知识歧视的一种表现。伦敦维多利亚与艾尔伯特（V&amp;A）博物馆推出了一款给展厅器物拍照的应用程序，观众可以在此上传照片，博物馆则会根据反馈采纳部分照片用于社交媒体平台、网站甚至现实场景中。对博物馆而言，这不是一个供大众娱乐的应用，而是希望通过接受观众隔着玻璃展示柜拍出的照片，默认甚至鼓励观众争取对馆藏的阐释权。 如果套用我们当下对人工智能要素的理解来观察智慧博物馆，就会发现，孤立发展的算力可能会走向作为名词的“智慧”；即使算力和数据有效结合，也会引出对数据正义的反思，因为它可能导致作为形容词、以博物馆为中心的“智慧”的形成；算法比算力和数据更重要，如果博物馆能精准地“猜你喜欢”，还能进一步引导和教育观众，对于这样的“智慧”，谁能拒绝？谁会拒绝？ （原载于《信睿周报》第157期，题图为ArtLens应用程序图标） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>专栏主理人 _ 梁捷（上海财经大学马克思主义学院） 本期经济学家 何塞·玛丽亚·路易斯·莫拉 何塞·玛丽亚·路易斯·莫拉（José María Luis Mora，1794—1850），墨西哥自由派理论家，主张实行自由贸易，发展外向型经济，保护小业主，发展科学和教育。 卢卡斯·阿拉曼 卢卡斯 · 阿拉曼（Lucas Alamán，1792 —1853），墨西哥保守派领袖，主张发展民族工业，实行贸易保护主义，培植工业家阶级，促进工业化进程。 读了多年经济思想史，整天接触欧洲研究，却鲜少读到关于欧洲以外地区，尤其是拉美、非洲等地经济学者思想的研究。毫无疑问，这个学术领域存在严重的“欧洲中心主义”，但要破除它并不容易。16世纪以来，亚非拉很多地区逐步沦为欧洲的殖民地，当地经济很难根据人民的愿景发展。所以，只要没有摆脱殖民，就谈不上自主的经济发展。 自经济学诞生以来，从亚当·斯密（Adam Smith）到J. S.密尔（J. S. Mill），很多人都深入讨论过殖民地经济，但他们都是站在殖民宗主国的立场上思考问题。我们不禁要问：在殖民地，当地有思想、有学识的学者会如何思考经济问题？当一个国家好不容易摆脱殖民者，其应该如何重建和发展自身经济？以墨西哥为例，1821年墨西哥从西班牙的统治下独立，在独立后的墨西哥，何塞·玛丽亚·路易斯·莫拉（José María Luis Mora）与卢卡斯·阿拉曼（Lucas Alamán）就墨西哥经济的发展方向展开争论，这也是美洲经济理论的重要发端。美国知名历史学家查尔斯 · 黑尔（Charles Hale）在1968年出版的Mexican Liberalism in the Age of Mora, 1821-1853（《莫拉时代的墨西哥自由主义：1821—1853》）中详细介绍了这段往事。 Mexican Liberalism in the Age of Mora, 1821-1853 Charles Hale Yale University Press 1968 1521年，西班牙殖民者埃尔南·科尔特斯（Hernán Cortés）率领西班牙人和原住民盟友攻陷阿兹特克帝国的首都特诺奇蒂特兰（Tenochtitlan，今墨西哥城）。阿兹特克帝国就此灭亡，西班牙人开始了对墨西哥长达三个世纪的殖民统治。其间，西班牙人在墨西哥开辟了新西班牙总督辖区，又花了几十年时间逐步扫平玛雅文明诸多城邦，最终一统墨西哥。 从1810年开始，一些墨西哥本土激进派受到欧洲启发，发动革命，要求摆脱西班牙的统治，重新分配土地，废除奴隶制和种姓制度。他们的诉求损害了墨西哥上层精英的利益，因此遭到残酷镇压。但到了1820年，西班牙本土也爆发了革命，国王斐迪南七世被迫接受自由主义宪法。消息传到墨西哥，保守派担心西班牙自由主义改革会损害自己在殖民地的利益，因此转而支持墨西哥独立。 1821年，新西班牙总督接受《伊瓜拉计划》，承认墨西哥独立。该计划包括三项原则：第一，确立罗马天主教为墨西哥的唯一宗教；第二，将墨西哥变为一个独立的君主立宪制国家；第三，团结所有人，包括西班牙人、克里奥尔人（生于美洲的西班牙裔）、混血儿和原住民，人人享有平等权利，消除种族歧视。墨西哥帝国独立后，三年内又一次爆发革命，帝制被推翻，由此转向共和，年轻的莫拉与阿拉曼在墨西哥共和国的创立过程中做出了重要贡献。新兴的墨西哥共和国百废待兴，应当采用怎样的经济和政治政策？建国元勋莫拉与阿拉曼在这个问题上产生分歧，就此展开争论。 1794年，莫拉出生于一个中产克里奥尔人家庭。他没有海外留学经历，在墨西哥城皇家及宗座大学接受了系统的神学和法学教育。不过当时欧洲重要启蒙思想家的著作多已被翻译成西班牙文，莫拉对此有着广泛涉猎。莫拉读书期间，正赶上西班牙统治衰落以及墨西哥各地不断爆发争取独立的运动，这些经历对他后来的经济和政治思想也都有直接影响。 1820 年，莫拉获得博士学位并被任命为神父。他虽担任墨西哥大主教区的执事，但是觉得教会本身已无前途，甚至未来将成为墨西哥政治经济发展中的阻碍。于是莫拉毅然转向世俗事务，成为一名政治记者。1821年9月，墨西哥正式独立，莫拉进而成为一名自由派政论家，积极通过写作来规划新生国家的未来。 莫拉于1823年当选为国会议员，参与起草了1824年宪法，这部宪法正式确立了墨西哥的共和政体。但莫拉意识到，仅获得政治独立还远远不够，一个国家要真正实现繁荣和进步，必须进行深刻的社会和经济改革。他由此提出一系列倾向于自由主义的改革主张，并坚持认为只有打破殖民时期遗留下来的垄断和特权，鼓励市场竞争，才能刺激经济增长，最终推动国家繁荣富强。 莫拉虽然生于美洲，但他对欧洲思想家如洛克、孟德斯鸠、斯密等都非常熟悉。回头来看，莫拉可谓斯密经济思想在美洲最重要的传播者和实践者。他坚信自由贸易不仅能够促进经济效率和国家财富的增长，还能让墨西哥融入全球经济体系，获得更廉价的商品和更广阔的市场，所以他的政策全都指向自由市场。我们可以从四个方面来具体考察莫拉的经济主张。 第一，他强调私有财产和土地改革。莫拉认为，私有财产是社会进步和经济发展的基石。虽然他是神父出身，但主张将当时由教会和原住民社区集体拥有的土地私有化分配给个人。因为私有化可以提高土地利用效率，鼓励人们进行投资和生产，从而刺激农业发展，而教会虽然拥有大批土地，但并不能对其进行充分利用。 落实到操作层面，莫拉的核心想法是“解除禁止交易财产”（desamortización de bienes de manos muertas）。所谓“禁止交易财产”，指的是教会、原住民社区和部分市政机构拥有的土地，这些土地被认为是神圣的或者归集体所有，因此不能自由买卖。莫拉认为这种土地制度有问题，应该将土地通过出售或租赁的方式转变为私人所有，以此盘活经济。只有这样，才有可能打破旧有的经济结构，解放生产力。 第二，在贸易政策方面，莫拉坚定支持自由贸易，反对贸易保护。莫拉向来反对国家对经济活动的过度干预，尤其反对当时流行的贸易保护政策。他认为，关税和贸易壁垒会扭曲市场价格，阻碍商品流通，导致国内商品价格上涨，最终损害消费者利益和国家整体经济效率。墨西哥在这个问题上已经吃了很多年的亏。莫拉强烈呼吁降低或取消关税，允许墨西哥商品在国际市场上参与自由竞争。他乐观地认为，通过国际贸易，墨西哥可以从外部获得先进的技术和资本，同时将自身的农产品和矿产资源出口，最终融入全球经济体系。 第三，在财政方面，莫拉主张限制政府支出和平衡财政。莫拉是坚定的财政保守主义者，他认为政府的过度开支和债务是阻碍国家发展的重要原因，所以应该控制公共支出，更不能为了维持庞大的官僚机构和军队而大量举债。他提出的具体的财政改革方案包括削减军事预算、精简政府部门和废除不必要的公共职位。他还主张建立稳健的税收体系，而不是依赖短期借款或发行货币来解决财政问题。 第四，莫拉强调教育在经济发展中的作用。作为美洲人，莫拉深刻认识到教育的重要性，甚至认为教育是推动经济和社会进步的关键。墨西哥的教育一直被教会垄断，莫拉就是在教会体系中成长起来的，可是他却主张将教育从教会手中解放出来，建立世俗化的公共教育体系。他认为，一个受过良好教育的公民更有可能进行创新并参与现代经济活动，所以政府应当投资科学和技术教育，培养实用型人才，以适应新兴的工业和商业需求。 作为莫拉最主要的批评者，阿拉曼1792年出生于墨西哥瓜纳华托（Guanajuato）的一个富裕的采矿家族。因为家庭环境，阿拉曼从小就对墨西哥的矿业和工业发展有着深刻理解。阿拉曼有出国经历，曾在墨西哥城和欧洲接受教育。他在欧洲游历期间接触到欧洲传统的保守主义思想，转而对西班牙的君主制和秩序感到认同。回到墨西哥后，阿拉曼又目睹了墨西哥独立战争带来的混乱和破坏，对国家的无序状态深感忧虑。阿拉曼认为，刚独立的墨西哥无法在没有保护的情况下与欧洲列强竞争。其经济如同初生的婴儿，必须通过高关税来保护和扶持，直到它能成长起来并站稳脚跟。 墨西哥共和国成立后，阿拉曼被任命为外交部长。他长期致力于与欧洲国家，尤其是与英国建立外交关系，学习英国的发展经验。阿拉曼推动建立了墨西哥“工业发展银行”，这是该国历史上第一个专注于为工业提供信贷的银行，目的是通过提供低息贷款，帮助企业家购买机器设备、发展棉纺织业等工业，减少墨西哥对进口产品的依赖。阿拉曼认为，必须通过国家主导的工业化，墨西哥才能真正实现经济独立和繁荣。 阿拉曼同时也主张强力维护墨西哥的农业和矿业。他尤其看重矿业，希望通过鼓励投资和提供税收优惠来重振在独立战争中遭受重创的矿业。因为矿业不仅能为国家带来巨大的财政收入，还能吸引外国资本。具体来看，阿拉曼支持设立新的矿业公司，吸引英国等欧洲国家的资本和技术，政府则应该为这些公司提供稳定的法律和政策环境。 阿拉曼的经济思想建立在社会稳定和秩序优先的理念之上。他认为，经济发展离不开一个强大的、有权威的政府，也离不开稳固的社会结构。所以阿拉曼对莫拉的自由主义经济主张提出激烈的批评。他指出，莫拉推崇的自由贸易会使墨西哥的本土工业被来自英国等工业化强国的廉价产品摧毁，最终导致墨西哥成为一个依赖外国的原材料供应国，永远无法实现工业化。莫拉的自由主义思想完全是脱离墨西哥国情的“舶来品”，未能考虑初生的墨西哥在国际贸易体系中的弱势地位。 阿拉曼最为反感的一点是将“禁止交易财产”私有化。他认为，莫拉的这一举措将彻底破坏墨西哥的传统社会结构。教会和大地主是墨西哥社会稳定的基石，他们确实拥有大量土地和资本，但也承担着维系农村地区秩序的责任。主张夺走他们的土地的激进改革不仅会引发社会动荡，还可能导致土地集中化，让少数新富阶层受益，普通民众的生活并不会得到改善。阿拉曼不是神父，但他认为莫拉的改革方案忽视了宗教信仰在墨西哥社会中的重要性。 同时，阿拉曼也反对采用保守的财政政策。墨西哥刚刚独立，外部和内部威胁并存，一个弱小的政府和军队无法维护国家的统一。莫拉所倡导的财政紧缩政策会削弱国家力量，使其无法应对外部侵略或内部叛乱。阿拉曼相信，财政支出是国家维持秩序和推动发展的必要手段，需要进一步强化，而不应简单将其视为负担。 莫拉与阿拉曼都是重要的经济思想家，而当时墨西哥最有影响力的政治家是军事强人安东尼奥·洛佩斯·德·桑塔·安纳（Antonio López de Santa Anna），他也被誉为“墨西哥拿破仑”。安纳在政治上的立场可谓反复无常，忽而保皇，忽而革命。在墨西哥共和国建立后，多次担任总统的安纳在经济政策上也在自由派和保守派之间摇摆。他起初很欣赏莫拉，大力推动莫拉的自由主义政策，但是改革面临的阻力巨大，之后安纳又开始与阿拉曼联手。1834年，莫拉被迫流亡海外，最终选择定居巴黎。 到了1835年，安纳干脆废除1824年宪法，代之以新的中央集权宪法，极大地削弱了各州的权力。此举引发各地不满，当时还属于墨西哥的得克萨斯州爆发革命，宣布独立。以此为导火索，1846年美国和墨西哥之间爆发全面战争。1848年美墨战争结束，墨西哥被迫签署《瓜达卢佩—伊达尔戈条约》，承认美国对得克萨斯的兼并，并以1500万美元的价格将加利福尼亚、内华达、犹他、亚利桑那和新墨西哥等区域、超过一半的国土割让给美国。 美墨战争的惨败促使墨西哥人开始反思，安纳永久下台，倾向于自由派的新一代领导人贝尼托·华雷斯（Benito Juárez）上台。他在1855年推动《华雷斯法》（Ley Juárez），废除了教会和军队的特权，承认所有公民在法律面前平等，所有改革终于都朝向莫拉当年所指明的方向发展。 贝尼托·华雷斯。图片来自Britannica 但莫拉已于1850年7月在巴黎逝世，享年55岁，担任内政部长的阿拉曼也于1853年离世，两人都未能看到华雷斯推行的自由改革。当然，华雷斯的改革后来也遭到诸多挑战。直到今日，自由派与保守派的政策分歧仍然是美洲经济领域的重要课题。 （原载于《信睿周报》第157期） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>主理人 _ 周天悦（“信睿播客”主理人） 周天悦：您在北京大学开设的老年心理学课程人气非常高，但与学院里大家对老年心理的好奇和热情形成对比的是，近年来社会上弥漫着一种对老年群体的刻板印象和负面看法。作为研究者，您认为这种厌老情绪在多大程度上是一种我们需要克服的生物本能，又在多大程度上是被社会文化塑造的？ 张昕：我在读研究生时上过一门“进化心理学”课程。进化心理学特别强调一个理论假设：随着进化，我们会保留那些能够让我们的基因最大化传递并且存活的行为。在这样的思路下，就会产生一个特别有趣的问题：老年人究竟有没有进化上的价值？就这个问题，我咨询过当时的授课老师。他说，其实老年人在进化心理学上是有进化的意义或者价值的。 进化心理学（第4版） [美] 戴维·巴斯 商务印书馆 2015 那么，进化价值是什么？它并不是要保证某一个体基因的延续，而是要保证人类基因库的延续。在现代，我们有了各种各样的媒介来传递、存储知识。但是在过去，知识是以一种口口相传的方式传递的。因此，老年人的生活经验的传递其实对人类基因库的延续起到了非常重要的作用。有句老话讲，“家有一老，如有一宝”。在进化心理学中也有一个“祖母假说”（grandmother hypothesis），其中提到一个观点：相比只有父母参与的对孩子的抚养，有祖母参与的，孩子的存活率和后续各项身体机能的指标更好。对此，一个很核心的解释在于，这些祖母更有经验。 也就是说，从进化的角度看，其实并没有一个叫“厌老”的机制。更多的，我认为这和社会文化有一定关系。在心理学中，“社会认同理论”（social identity theory）有一个很简单的前提：所有人都特别擅长做归类。这就意味着我们会用一些特征去区分人，比如根据年龄把人分成青年人、中年人、老年人。这样的分类也会产生一些相关的认同，比如我会更认同和我有相同属性的人，远离甚至歧视有“非我”属性的人。所谓“非我族类，其心必异”，正是这个意思。而年轻人可能会自然而然地把老年人视作“外群体”，歧视或对老年人形成消极印象——这是第一种解释。 社会认同论 [波]亨利·泰弗尔 中国人民大学出版社 2025 第二种可能的解释来自“恐惧管理理论”（Terror Management Theory）。该理论认为，所有人都恐惧死亡。而在生活中，我们往往将死亡的一些意象（symbols）和老年人挂钩。你会把年轻人想象成朝气蓬勃的上午八九点钟的太阳；而在面对老年人时，就会说他们“离死越来越近了”，很多作品会把老年人描绘得形容枯槁，甚至说他们已经“半截身子入土”——这些都是典型的把老年人和死亡挂钩的方式。那怎样去对抗这种对死亡的恐惧呢？一个很简单的方法就是远离和死亡有关的意象，将其从自己的生活中清除出去，如不去参加葬礼，不去接触任何和死亡相关的东西，甚至把和死亡关联度最高的老年人从生活中排除出去。 周天悦：感谢您从进化心理学和社会心理学两个层面对厌老情绪的分析，对老年人的刻板印象或歧视又会在个人层面和社会层面造成哪些负面后果？ 张昕：我举几个例子，它们也是我们团队的研究成果。第一个例子是关于老年人的刻板印象对年轻人的影响。刻板印象可能造成年轻人主动远离老年人，对老年人形成歧视，而且这种歧视会带来一种自我验证、自我加强的“双标”。比如同样是忘记做某件事，如果这发生在一个年轻人身上，他可能会找一些外部原因，比如“自己手头上的事太多了，在无意中忘记了”。但如果是一个老年人忘记做某件事，这时年轻人可能就会说，“因为他年龄大了，记忆力下降了”。这样的解释又会进一步加深年轻人对于老年人的刻板印象。此外，当下社会中有一些讨论说“老年人特别会讹人、碰瓷”，但是碰瓷的不光有老年人，也有年轻人、中年人，为什么大家不讨论后者？这其实也反映了这种“双标”。 第二个例子是，这种消极的刻板印象不光影响年轻人，也会影响老年人，在心理学中我们称之为“刻板印象威胁”（stereotype threat），即刻板印象虽然来自年轻人，但老年人也能接收到这样的刻板印象，且其后续行为会受之影响。我们在研究中发现，如果和两组老年人中的一组说“年纪大了，记忆力就会下降”，而对另外一组说“年纪对记忆力的影响并不大”，后续再给他们进行记忆测量时就会发现，第一组人的记忆力要比第二组人的差，但这两组人明明都是我们随机找到的普通老年人，不应该存在明显的记忆力差异。 刻板印象 [美] 克劳德·M.斯蒂尔 民主与建设出版社 2021 第三个例子，也是我觉得更有趣的：这样的刻板印象可能会内化形成“自我老化态度”（self-perception of aging），且自我老化态度会受到个人年轻时对老年人的刻板印象的影响。比如，你在年轻时对老年人持有较消极的态度，那么当你成了老年人就很有可能会歧视自己，也即对别人的歧视在未来会转变成消极的自我老化态度。同时我们的研究也发现，消极的自我老化态度可能影响个人的心理健康、生理健康、认知功能甚至寿命。 ▼ 周天悦：我们经常能听到一些长辈的“恐吓”，说“等你老了，你就知道了/后悔了”。哪些心境是人在老了之后才能体会到的？您在研究中曾指出过一个细节让我印象深刻，说的是随着年龄的增长，人们对不同类型的社会关系的依赖程度会发生变化，比如会从依赖朋友逐渐转向依赖亲人。能否详细讲讲这种转变是怎么发生的，背后的原因是什么？ 张昕：老年心理学中有一个重要的理论叫“社会情绪选择理论”，它是在20世纪90年代由斯坦福大学的劳拉·卡斯滕森（Laura Carstensen）教授提出的，讲的就是随着年龄的增长，老年人会发生怎样的变化及其背后的原因。90年代进行的一项对美国不同年龄段的人的主观幸福感的调查显示，主观幸福感和年龄呈现出一种U型曲线关系——两端高中间低，即老年人和年轻人的主观幸福感比较高，中年人的则比较低。这项调查引起了大家的关注，因为人们一般认为，年纪大了，主观幸福感会变差。因此，这个现象也被称为“老化悖论”。 当时做得比较好的对“老化悖论”的解释，就是卡斯滕森的社会情绪选择理论。她认为，随着年龄增长，人的“未来时间知觉”会发生变化。所谓“未来时间知觉”，即一个人觉得自己的未来还有多长时间。年轻人的未来时间知觉肯定是很长的，甚至趋于无限，老年人的未来时间知觉则很有限，而这也会导致其生活目标和动机发生变化。简单来说，如果一个人的未来时间知觉是无限的，就更有可能把未来放在首位，去学习一门新的知识、为未来投资，也可能去建立一段浪漫关系。而老年人可能就不那么关注未来，而是更关注“活在当下，及时行乐”。这一目标或动机也会导致他们做出更多情绪调节的尝试，让自己活得更加轻松愉快一些，如他们会更加关注和亲近伙伴、家人，表现出更强的对于亲密关系的偏好。 周天悦：很多人也很关心与老年人的情绪沟通问题。有些人觉得，老年人不习惯直接表达自己心理层面的需求，喜欢把情绪憋在心里或转移到其他事情上，还有人会把老年人的一些情绪化表现归咎于其对死亡的恐惧。对此，您怎么看？ 张昕：我有一些简单的想法。首先，老年人的情绪表达可能在一定程度上受到习惯的影响，或者是出于惯性思维。中国人传统上强调要控制情绪表达。相较而言，美国老年人的情绪表达就非常外向。现在，随着我国开放程度越来越高，年轻人开始出现个人主义倾向，（外向的）情绪表达也成为一种共识，但这种共识可能没能传递到老一辈那里，他们还在遵循之前的社会规范，而这也造成了年轻一代和老年一代在情绪表达上存在隔阂。 此外，这也和老年人的生理特点有关。我们在职场上经常讲“情绪价值”，表达情绪是有成本、要消耗资源的，老年人的资源可能不足，所以他们出于自我保护，不太愿意把情绪表达得那么强烈。有一项跨文化研究发现，老年人其实并不是不愿意表达积极的情绪，而是更愿意表达“低唤醒的积极情绪”。所谓“低唤醒”，就是对身体的觉醒程度的要求比较低，比较典型的低唤醒的积极情绪是微笑，不是那种哈哈大笑、兴奋的笑。特别强烈的情绪表达对老年人来说很消耗体能。一种在年轻人看来中性、平静的情绪，其实对很多老年人来说已经足够积极了。 ▼ 周天悦：我们都知道大脑功能会随年龄增长逐渐退化，那么从开始衰老到出现认知障碍，是一个渐变的过程，还是发生了突变？目前临床上是如何诊断认知症的？ 张昕：简单来说，从没有认知障碍到有认知障碍，是一个连续的变化，不是突变。在这个过程中，随着年龄的增长，人的认知一直在衰退，只是速率有快有慢，正常老化的个体认知衰退的速率相对慢一点，异常老化或者认知障碍的出现往往体现为特别快速的衰退。 要确诊认知症或者轻度认知障碍（MCI），首先可通过一些量表进行初步筛查。有两个比较常用的筛查量表，其中一个叫“简易精神状态量表”（MMSE）。这个量表一共设置了十几道题，总分是30分，测试时长五六分钟，能够给老年人做空间方位、定向力、记忆等测试，如果老年人的认知能力是正常的，得分应该在26分以上。类似的量表还有“蒙特利尔认知评估量表”（MoCA）。如果测试者的分数低于某个标准，下一步就应该去医院做个脑扫描，主要看脑部的萎缩情况。随着年龄增长，我们的大脑会萎缩，大脑萎缩到一定程度就意味着有罹患认知症的风险，甚至可能被确诊为认知障碍。 周天悦：不管是量表，还是脑部扫描，测评的都是综合得分，尽管其中考察了很多细致的分项，如空间认知能力、记忆和推理判断等。我好奇的是，人有不同脑区负责不同的认知功能，一般来说这些脑区是同时衰退的，还是会存在个体差异？ 张昕：是有个体差异的。在有关认知老化的研究中，有一个著名的项目叫“西雅图纵向研究”（Seattle Longitudinal Study）。研究者每隔七年测量一批中老年人在完成不同认知任务上的表现，来看其纵向的发展趋势。早期大概测量了参与者的五种基本心理能力，包括空间知觉能力、言语理解能力、推理能力、数学能力等。在这五种能力中，60岁以上的参与者至少出现了一种能力衰退，但是很少有人在五种能力上都出现衰退。这就回答了你刚才的问题，即这里是有个体差异的。 Developmental Influences on Adult Intelligence: The Seattle Longitudinal Study (2nd Edition) K. Warner Schaie Oxford University Press 2012 那么，为什么不同的人会出现不同的能力衰退？这背后有“练习效应”存在。你可以把脑力视作认知或精神层面的肌肉，你锻炼得越多，在某一种能力上的衰退就会越慢。比如有些老年人特别看重记忆力，会主动训练记忆力，他的记忆力因此衰退得就比较缓慢。另外一些人特别喜欢看地图，又比如出租车司机，他们每天开车都是在不断训练自己的空间认知能力，那么他们老了之后，其空间认知能力往往也衰退得比较慢。 周天悦：认知症对老年人的心理健康存在什么影响？我们应如何和有认知症的老年人相处，帮他们维持相对健康的心理状态？ 张昕：如果把认知症简单理解为阿尔茨海默病，我觉得最重要的是把患者当作小孩去哄，因为他们的认知功能已经退化到和小孩一样了。同时要把家中可能造成伤害的东西收好，因为阿尔茨海默病患者可能有伤人的倾向。还要注意的是，在晚上，尤其是傍晚的时候，不要让他们独自出门。阿尔茨海默病有一种叫“黄昏症”的症状，表现为患者早上还稍微清醒一点，但到了傍晚脑子就开始糊涂，特别容易走失。我们可能得给他们准备一个胸牌，写上紧急联系方式、家庭住址，方便别人提供帮助。这是关于怎样照顾阿尔茨海默病患者的问题。 相较阿尔茨海默病患者，照料者的心理健康也不容忽视。每个人都希望能通过自己的照料让他人的病情好转，但阿尔茨海默病没有特效药，只能变得更差，不可能变得更好，所以照料者就会产生无力感、挫折感，这会特别影响他们的心理健康。对于照料者，我的建议是要定期给自己放个假，找人来帮帮忙。如果感到情绪上出现了波动，还需要通过专业的心理咨询来帮助自己缓解情绪问题。 照护MCI患者和照料正常老化的老年人没有太大差别，唯一需要注意的是要根据病情提醒患者按时吃药以及去做一些认知上的干预。这种认知上的干预如果做好了，可能延缓或阻断病情的恶化。MCI和阿尔茨海默病是一个轴的两个极端，如果不加任何干预，MCI有可能最终发展成阿尔茨海默病；如果做了一些干预，病情的恶化有可能在一定程度上得到延缓。 （原载于《信睿周报》第158期） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>文 _ 魏颖（研究者、策展人） 如今世界范围内的双年展数以百、千记，主题也异彩纷呈，但今年澳门国际艺术双年展（下文简写为“澳门双年展”）的主题恐怕是其中最为口语化的——“嗨，你干什么来了？”然而，其蕴含的可能性却远远超越了文字本身。在不同的语气下，这句话有截然不同的含义：在平和的语气下，它是一句招呼，接下来可能会是主人友善的款待；若以冷漠的语气说出，就包含了拒绝和不欢迎的姿态；也有人从中读出试探、询问的意味。 澳门双年展举办的地点和时机与这个富含深意的主题很是契合。澳门的葡文名（Macau）就源于一次文化交流中的误读。相传葡萄牙人首次到达澳门时，停靠在妈阁庙附近，他们问当地人这里是什么地方，当地人误以为他们在问庙的名字，于是回答“妈阁”。葡萄牙人便将之音译为Macau，并用作澳门的名称。随后，中国逐渐被卷入大航海时代和全球化。而在后疫情时代的当下，多元格局下的地缘政治关系变得愈加错综复杂，原本牢固的纽带在断裂和重建，种种令人瞠目结舌的新组合不断出现。由此，主策展人冯博一写道：“当下的贸易之战，加倍地将我们处于封闭、疏离的境地。在内外双重制约与主体失衡的夹击下，当代艺术也陷入了前所未有的挑战与困境之中，全球化过去具有的某种难以抵抗的魔力都在渐渐消退……”日光之下无新事。在2025年的盛夏，当我们聚集在澳门双年展时，期待看到艺术会发生什么？ 本次双年展或许想要采用“以主动姿态去探索问题的策展方式，一种寻找人生意义、价值和责任的选择和表达”。策展团队将来自13个国家和地区的46位艺术家的80件（组）作品，以日常生活中的多样空间为背景进行设置、命名和阐释，涉及入口、宫殿、迷宫、广场、赌场、街区、里屋、出口、太空等20个空间的叙事，从而将位于澳门艺术博物馆的主场展览化作全球化“在地性”的一个锚点、缩影和容器。观众漫步于博物馆中，可以看到由“众建筑事务所”依据澳门街区标牌的样式设计的立体空间魔块，穿梭于由作品构成的仿若能穿越时空的隧道。 入口与出口 在展览入口处可以看到整个双年展的首件作品《非问非答》，也是点题之作。艺术家宋冬在这里构建了一个由镜面组成的场域，它酷似真实的边检站，又是一个充满荒谬的思辨场所。每面墙上各有一个霓虹灯装置，向观众提问：“嗨，你干什么来了？”“你我从哪里来？”“你我是谁？”“你我到哪里去？”艺术家化身边检人员，向观众分发类似护照的导游图；按照设定的“入境”程序，观众拿着导游图盖章后，进入展厅开始观展。紧随其后的《两个澳门》由居于深圳的艺术家薛峰创作，亦是展览的一条打开途径：澳门城市文化的双重性格在此展现，一面是多元文化交融的历史积淀，另一面是博彩业与财富带来的欲望奇观。 薛峰，《两个澳门》（2025），桌面装置，综合媒材。澳门国际艺术双年展2025，澳门艺术博物馆，王程琛 / 摄 出口处则是张培力的作品《海上》，设置在一个不明虚实的场域中：在巨大的三屏影像中，一个漂浮在不明水域上的男人随着水面起伏，身边散落着贴身之物，观众无从得知此时是即将日出还是日落，其中的人物亦不明去路，无法掌控其命运。 居间、空隙和夹角 展览中的几个板块各有侧重。提到澳门，不能不聊到其文化交融，当然其中也包含着大量误读、错位和反向交流。板块“居间”（in-between）是指空间之间，类似日语中的ま或者英语中的limbo。作为非实体的存在，居间意味着既不属于这儿，也不属于那儿，是对居于各种文化之间的交流状态和境遇的比附。而一位极为重要的历史人物——利玛窦，也是这种文化交流的产物和推动者。这名来自意大利的耶稣会士跨越了半个地球来到澳门，在这里学习了几年中文之后，终于进入内地，带来了自鸣钟和地图，由此为明代中国带来了现代性意义上的时间和空间概念。 绘造社的《自鸣屋》以利玛窦带来的自鸣钟为灵感，对这一在中国历史上具有特殊意义的西洋器物进行了反思与重构：观众取代机械人偶进入自鸣屋，推动机械装置，敲钟并转动表盘；然而，指针混乱，报时随机，人与机械创造的时间与绝对时间错位，打破了传统计时的严谨性和支配性。曹澍的作品《异地牢结》则以南明时期耶稣会士卜弥格从云南前往罗马的旅程为灵感，邀请观众共同参与两地间的距离叠加。上次遇到曹澍时，他还在构思这一作品，此次看到《异地牢结》，虚拟的卜弥格已然快要离开中国边境了。 绘造社，《自鸣屋》（2025），装置，PVC 波纹板、镀锌钢管、不锈钢管、LED灯带。澳门国际艺术双年展2025，澳门艺术博物馆，张晓 / 摄 “空隙”板块展出的作品包括毕蓉蓉的《缠枝与莨苕》，其灵感源自萧山花边——一种融合了欧洲中世纪民间刺绣与中国民间抽纱技术的传统手工艺品，于20世纪初由传教士传入中国。另一件作品则描述了非人生物进入澳门的途径——新加坡艺术家赵仁辉的《为气候而来，为混乱而驻》呈现了五种在澳门顽强生存下来的外来物种：美洲牛蛙、大理石纹螯虾、火蚁、鳄龟和绿鬣蜥。这个作品试图勾勒出它们对生态系统的入侵和改变，进一步引导观众思考自然与人工、本地与外来之间的模糊界限，以及人类行为对生态的深远影响。 毕蓉蓉，《缠枝与茛苕》（2025），装置，缠枝与茛苕，织物、金属、亚克力等。澳门国际艺术双年展2025，澳门艺术博物馆，张晓 / 摄 在“夹角”板块中，白双全（Pak Sheung Chuen）的作品《谷之旅 · 2025澳门版》散布于整个展厅中，似以一种游客的姿态轻松而隐秘地观察着这座城市各个角落的风土样貌。艺术家甚至为创作这一作品而在澳门赌场中驻地许久。 太空 在澳门双年展中出现“太空”板块看似匪夷所思，其实很切题。艺术家徐冰在一次访谈中提及，在技术狂热逐渐退去后，太空探索本质上面对的其实还是社会和人性本身，即如何面对完全陌生的他者。这种心理与彼时刚到达美洲的殖民者、刚到达澳门的传教士的心态并无本质差别。 徐冰，《卫星上的湖泊》（2021至今），视频装置（作品持续创作中），综合媒材。澳门国际艺术双年展2025，澳门艺术博物馆，张晓 / 摄 徐冰近年开始探索“太空艺术”。在他的作品中，随着卫星每天环绕地球15圈，动画中“掉落”的语言种类也会随卫星处于不同地理位置上方点位的变化而改变。另一位艺术家张文超则依据“SCA-1号”卫星绕地球飞行一周90分钟的“星下点轨迹”，结合轨迹途经地域中人类有关太空的想象的文本和图像数据集，运用算法生成工具，制作出一部汇集人类不同宇宙观的数字电影。 山内祥太，《面孔星球》（2022），互动装置，投影机、iPad、电脑、软件、音讯系统。澳门国际艺术双年展2025，澳门艺术博物馆，张晓 / 摄 展览中还有一件颇具哲思且年轻勇猛的作品——山内祥太（Shota Yamauchi）的《面孔星球》：观众可以通过回答心理测试问卷生成虚拟形象，形象的外貌、性格和行为都由其回答决定；在这个影像中，这些虚拟形象随后会出现在浩瀚宇宙中的一个星球上，该星球由九个面孔组成，旧面孔不断消失，新面孔不断出现，代表着不同人格的面孔互相对话，也象征了不同集群之间的交流或者质疑。在集体意识与社会伦理被质疑的时代，这个作品探讨了个体与集体的关系，为反思“自我”提供了契机。 迷宫和疗室 随后，我们重新回到充满迷惑的真实人间。德国艺术家葛雷格·施耐德（Gregor Schneider）曾参加过由冯博一团队策划的乌镇国际当代艺术展，此次展出的他的作品一反德式艺术的简洁冷峻，使用了处于其对位的二次元风格。在这个作品中，观众在连续四次打开构造相似的房间后将产生错愕感，并被困于循环往复的回路中。如果说施耐德描述的是非物质化的网络幻象，那么巴特·赫思（Bart Hess）的《数字遗迹》则意在讨论物质化的身体本身：舞者将身体浸入熔化的蜡油和水的混合物中，随后被机器牵引回空中，覆盖其皮肤的蜡质脱落，如同异形生物或冻结的虚拟化身。 “疗室”板块展出的几位艺术家的作品配色清凉，相对治愈。佩德罗 · 雷耶斯（Pedro Reyes）常探索古希腊雕塑与哲学的历史传承，在雕塑和思想体系之间构建起一座桥梁。在其作品《疗养室》中，大骰子的每一面都印有哲学家语录，观众可以自由抛掷，并由此思考自己的人生。我掷得的是叔本华的箴言：“荣誉非战利品，毋须攫取；唯当其存续，方为真实。”这颇像是经历了一次妈祖庙或关公庙里的求签，只不过是西方哲学版本的。 佩德罗 · 雷耶斯，《疗养室》（2011），装置+行为。澳门国际艺术双年展2025，澳门艺术博物馆，张晓 / 摄 《怎么创造一片海洋》是艺术家卡西娅·莫尔加（Kasia Molga）在经历了个人伤痛并对环境产生忧虑而创作的作品，她试图验证自己的眼泪能否维持海洋生物的生存。观众可以在现场看到被收集并储存在小瓶子里的艺术家的眼泪，每个瓶子里都有藻类在生长。观众也可以在语音机器人的引导下捐赠自己的眼泪。 卡西娅 · 莫尔加，《怎么创造一片海洋》（2021），影像+装置。澳门国际艺术双年展2025，澳门艺术博物馆，蒙太奇工作室（澳门）MONTAGE STUDIO（Macau) / 摄 在主展场里的游走，颇似一场对于巴什拉“空间诗学”的演绎，只不过其涉及的空间想象更为宏大，也更需要观众对于作品与板块关系的理解，而遍及整个城市的公共艺术展，它与整个城市的联结更为密切。此外，如在当地书店举行的、以混杂欧洲语言和澳门本地语言及东南亚移民语言为灵感的“语言之海”等周边展览和其他活动，继续书写着这种艺术与空间的诗学。而至于新的地缘政治是否会给今后的双年展模式带来冲击，我们拭目以待。 （原载于《信睿周报》第157期） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>文 _ 苏磊（策展人） 2025年9月底，由复旦大学类脑智能科学与技术研究院（以下简写作“复旦类脑研究院”）主办、北京师范大学未来设计学院协办的“Brain &amp; Mind X：脑智—科学与艺术展”（以下简写作“Brain &amp; Mind X”）在复旦类脑研究院大楼正式揭幕并向公众开放，这是国内首个以“类脑科学”为主题，融合了前沿科研成果与当代艺术表达方式的长期展览。项目以跨学科、沉浸式与实验性的特征，引发了科技、艺术与教育界的广泛关注，并作为复旦类脑研究院迈向“第四代科学中心”建设的实践样本而备受瞩目。 Brain &amp; Mind X：脑智—科学与艺术展”展览现场，2025 缘起：探寻科研场域新范式 当代科学传播正经历深层的结构性变革。过去，科学中心的功能多被限定在展示与教育层面——以成果展示为核心，以知识传递为目的。然而在“第四代科学中心”的框架下，科学中心被重新定义为知识、社会与文化的生成平台。它不仅展示科学成果，还是激发科学发生的社会动力，推动公众参与科学、感知科学乃至共同思考科学。 “Brain &amp; Mind X”的构想，正是在这一理念转型的脉络下展开的。在笔者看来，此次展览构想的萌芽可追溯至2015年复旦类脑研究院建院之初。彼时，复旦类脑研究院在深耕类脑科学领域的过程中面临两重迫切需求：一方面，类脑科学尚属新兴学科，其专业价值与研究意义亟需被更多公众知晓，并以适宜的方式传递学科魅力，以凝聚社会层面的理解与支持；另一方面，前沿科研的推进离不开高效的社会沟通与动态展示，除了须向相关部门汇报进展，每周更要接待前来调研参观的各级政府领导以及洽谈合作的科技企业。这些来访者都期望能在有限时间里完整、快速且清晰地了解类脑科学的核心内容、当前进度与未来应用前景。然而，当时类脑科学领域的文献成果尚缺乏系统梳理，也未有简洁清晰的呈现方式，难以向公众快速传递核心信息。 同时，对于初建的复旦类脑研究院而言，另一重期待同样迫切：需要为投身其中的科学家搭建一个可供交流、富有启发性且可持续发展的专业空间，为科研工作者的成长与创新提供有力支撑。在频繁的国际合作与社会调研中，笔者逐渐意识到，传统科研中心的物理空间已难以承载当代科学传播的复杂诉求，未来的科学场所需要同时具备知识生成、公众参与与文化表达三重功能。于是，“Brain &amp; Mind X”应运而生：它以展览为媒介，重塑科研空间的文化逻辑，使科学传播不再是单向输出，而成为社会共构的开放系统。 联合国教科文组织（UNESCO）国际顾问爱德华多·马丁内斯（Eduardo Martínez）提出的“第四代科学中心”理念为这一转型提供了理论支点。他指出，未来的科研中心不应是实验室与教室的简单叠加，而应成为兼具参与性、展示性与跨学科性，且能实现虚实相融的空间载体——在这里，科技、生态与人文艺术能有机共生，在高知识密度与高科学素养的社区土壤中自然生长，并以具有启发性的展示形式唤醒学术讨论、创新实践与公众参与的蓬勃活力。循着这一富有远见的理念，复旦类脑研究院开启了一场探索，致力于构建集科研、教育、传播与文化功能于一体的全新科研空间范式。 科研与人文交汇的叙事景观 复旦类脑研究院的建筑为“Brain &amp; Mind X”提供了天然语境。作为中国高校最早成立的类脑研究机构之一，自2015年起，研究院便一直致力于认知神经科学、计算精神病学、人工智能与类脑技术等前沿领域的跨学科研究，楼内的文化建设也特别注重针对这些主题的延展，并在办公空间改建中提出“博物馆式办公空间”理念，利用一层环廊和二、三层之间的博物馆式天井空间，构建了一个开放的景观——使科研、教学、科学展览与日常生活融为一体，如同神经网络一般无缝衔接科研区、休息区与艺术品展区。 在这一空间语境中，“Brain &amp; Mind X”将这个空间转化为一个类脑科学的叙事性景观，并汇聚了众多前沿科研成果、艺术作品和创作者。在这里，科学家在日常活动中可以不断“偶遇”形态各异的类脑艺术作品，其蕴藏的哲思或可为科研活动注入新的感知维度；充满好奇心的访客则可以在展览的引导下认识类脑科学的探索，了解艺术家的思考，甚至邂逅正在科研一线深耕的科学家——当求知者与知识的创造者在此相遇，科学空间成为一个不断交融演变的“认知剧场”。 这种空间叙事的转换，使这个展览具备了一种可被体验的研究生态：它既是科学实验的延伸，也是文化生成的场所。科学空间在此成为认知生成的媒介，科研活动与艺术表达不再相互注解，而是共同组成一个动态的思想场域。 展览亮点 展览分为五大板块：类脑科学作品的新媒体展示、类脑科学的装置与影像、扩展作品与方案、公共教育活动，以及书籍与衍生品。展出的作品覆盖脑科学、人工智能、认知行为、精神健康等关键议题，邀请了来自世界各地的科学家与风格各异的艺术家深度合作，以科研成果为灵感源泉，创作了装置艺术、数字影像、互动媒介、绘画等多种形式的跨界作品，以期实现科学数据与艺术语言的双向激发。以下介绍其中具有代表性的作品。 CARBON是美国国家航空和航天局（NASA）驻地艺术家查理 · 林赛（Charles Lindsay）根据科学家冯建峰、程炜在“全脑规模数字孪生平台”上的研究，以粒子技术绘制而成的，呈现了大气洋流如神经网络一样律动的图景，隐喻数字孪生技术所构建的人类社会的双重世界。 冯建峰、查理 · 林赛，CARBON 基于计算神经科学家冈特·舒曼（Gunter Schumann）的研究，艺术家高振鹏在其作品《烟雾消散，所有的一切都闪烁着光芒》中，将道路、照明与建筑等城市元素转译为脑部结构图景，呈现了城市对认知方式的深层重塑。 冈特 · 舒曼、高振鹏，《烟雾消散，所有的一切都闪烁着光芒》 作品《心与意》由复旦类脑研究院青年研究员肖晓与艺术家王智一合作完成，以冷暖色彩展现理性与情感的博弈，象征冷认知与热认知系统之间的矛盾与平衡。 肖晓、王智一，《心与意》 AURA是艺术家周霄雨创作的流明（Lumen）影像作品，源于赵兴明与陈靖祺团队对精神疾病共病机制的研究，呈现了患者痛苦与希望交织的内在状态。 赵兴明、陈靖祺、周霄雨，AURA 受赵兴明与杨禹丞关于表观遗传组研究启发，艺术家孙尧创作的《记忆迷踪》用抽象绘画再现了“神经风暴”，表现记忆生成的混沌过程。 赵兴明、杨禹丞、孙尧，《记忆迷踪》 在《同源性》中，研究员朱山风与艺术家周倩以蛋白质语言模型为基础，通过融合五行水墨图式，探讨科学与艺术对生命本源的共同追问。 朱山风、周倩，《同源性》 艺术家杨柳则根据程炜预测阿尔茨海默病发病风险的研究，创作了《时间·思维》，将外部的时钟结构与内在的生物纹理并置，反映生命时间与创造力之间的联动关系。 程炜、杨柳，《时间 · 思维》 作品THE FAMILY CIRCLE是美国戏剧疗愈大师罗伯特·兰迪（Robert J. Landy）基于程炜关于家庭环境与儿童行为问题关系的脑结构基础的研究，融合心理疗愈与曼陀罗结构，对家庭在认知发育中的深层作用的一次探讨。 程炜、罗伯特 · 兰迪，THE FAMILY CIRCLE 这些作品共同勾勒出一幅“认知图谱”——在其中，科学不再是冷峻的事实，而是一种被艺术重新点亮的思维形式。展览由此构建起数据、感知与想象的双向流动系统，让科学与艺术成为共同探索人类未来的两条路径。 让科学可感、可思、可共鸣 “Brain &amp; Mind X”不仅是一次科学传播的创新尝试，更是一个面向未来的认知实验场。它旨在激发科研灵感、拓展教学理念，并重塑公众理解科学的路径。它以公众参与为核心，让科学不再停留于学术体系之内，而是在社会层面被重新开发。在此，学生可以跨越学科壁垒，借助感官和情绪理解科学的复杂性；公众亦可近距离接触科学家，切身感受脑科学研究蕴含的温度与张力；而科学家也能在与艺术家的对话中重新思考自身的研究模型。这种多向交流构成了一种新的认知生态——科研、教育与社会的循环体系。 展览期间，复旦类脑研究院同步开展了一系列公共教育活动、艺术工作坊及科普讲座，并发布展览手册，以构建“科研—社会—文化”三向互动的传播闭环，进一步扩展展览的边界。我们希望展览不仅让科学可见、可感、可共鸣，更成为激发科学发生的环境本身。这一理念的实践，标志着科研机构正在向开放型知识平台转型——它不再是知识的终点，而是创新与文化共生的起点。 科学因此成为一种文化生产方式，科研空间也转化为知识生成与社会共鸣的接口。未来的科研场所应成为激发认知、启发灵感、引领探索的“思维生态系统”，而“Brain &amp; Mind X”正是这一愿景的现实样本。 （原载于《信睿周报》第158期，本文图片均由本文作者提供） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>开栏小语：
+涂鸦小分队的人有一句口号：画什么才重要！怎么画和画成什么，没那么重要！
+图1 阿伦特逝世50周年纪念：她捍卫人性的尊严 手机手绘 + 拼贴 李公明作 2025年12月4日
+今年12月4日是汉娜·阿伦特（Hannah Arendt，1906—1975）逝世五十周年纪念日，“澎湃新闻·上海书评”在这一天发表了此前采访德国慕尼黑大学（LMU）哲学专业特聘教授、《汉娜·阿伦特传》的作者托马斯·迈耶（Thomas Meyer）的访谈文章。编者按指出：汉娜·阿伦特是投身于行动的思想家，也是当今被引用最多的政治理论家之一。她关于极权主义、恶的平庸、人的境况、沉思生活的思考，在二十世纪影响深远，如今更愈发成为我们理解当下动荡世界的思想源泉。
+阿伦特对纳粹德国军官的审判，提出了“平庸的恶”（the banality of evil）的说法。“平庸”是指作恶者本身并非真正的恶魔，而是平庸的、只会盲目服从的公务员，其“恶”是指面对显而易见的恶行不但不加限制，而且参与到恶行之中，没有道德上的自我谴责，在日后的审判中还以只是执行命令、职责等借口为自己开脱。阿伦特一直要追问“独裁统治下的个人责任”，她强调人只要活着，就总是和自己的良知、自己的灵魂生活在一起，是无法自我欺骗的。
+毫无疑问，“政治”是阿伦特全部著作中最核心的主题。关于“什么是政治”、“政治的意义为何？”，阿伦特的回答是：“政治的意义是自由。” 她的政治学研究始终离不开极权主义问题，其重要著作《极权主义的起源》深刻地揭露了极权主义的邪恶如何具有反人类的性质。关于“邪恶”，阿伦特更强调的并不是邪恶本身，而是知识分子如何看待自己与邪恶的关系——是顺从、默认还是疏离、反抗？
+与政治和自由相联系的是重视“讲故事”（story-telling），这也是阿伦特的重要思想特质。面对史无前例的残暴、新颖、独特和复杂的纳粹极权主义，她不相信单凭概念、定义和推理就能把它揭示出来和表述清楚。她愿相信记者、诗人和历史学家——历史学的古老语义正是“讲故事”，阿伦特是在面向生命体验、政治与真理、历史与创伤的层面上肯定“讲故事”的文学家与诗人。在她的思考与讲故事中，阿伦特始终捍卫着人性的尊严。
+图2 疯狂动物城2的乌托邦与历史隐喻 纸本彩墨 65cmX45cm 李公明作 2025年12月4日
+迪士尼时隔九年推出的动画电影《疯狂动物城2》掀起了观影狂潮，成为票房爆款。重回熟悉的动物城，再次疯狂的节奏，感受到更爆更燃的动物世界，更五光十色的自然天地，更先进的科技带来更沉浸的体验。
+Zootopia，动物（Zoo）加乌托邦（Utopia）。没有问题，这只是一个动物乌托邦，是造梦者的乐园。但是作为人类的我们，的确需要守护这样的梦境：还有纯真，还有理想，还有战胜邪恶的勇气与力量。正因为在现实中这些都变得稀缺，我们更加需要。狐狸尼克和兔子朱迪之所以让我们喜欢，不正是因为它们仍然坚守着这种乌托邦的精神吗？ 更何况，在正义之战的高潮中同时喷涌出爱情表白的高潮，这样的乌托邦太感人了，简直泪目！
+但是动物城本身并不是众生平等共乐的乌托邦。它只是哺乳动物的世界，蛇背着邪恶与危险的标签被严禁入城，爬行动物被边缘化、妖魔化。更可怕的是，在歧视的背后隐藏着更暗黑的阴谋与罪恶。蛇盖瑞的出现让狐兔走上破案征途，最后揭穿了一个世纪大骗局：动物城的最早设计者、气候墙的发明者是蛇盖瑞的先人，却被猞猁族篡夺了专利、成更被诬陷为凶手、最后被驱赶出去。这是一个比乌托邦更重要的主题，一个美洲历史的隐喻：这片土地的原住民就是这样被驱逐、被边缘化。
+其实，在今天重出江湖的《疯狂动物城2》绝不仅仅是一个历史隐喻，同时更是指向美国现实的巨大隐喻。在白人种族主义甚嚣尘上、移民歧视疯狂无忌的时候，蛇盖瑞们的命运就是一面巨大的镜子。
+即便是乌托邦，迪士尼的动物世界很少忘却历史或逃避现实。
+2025年12月4日 于南方的天空下
+李公明，广州美术学院教授</t>
+  </si>
+  <si>
+    <t>如何避开“愤怒诱饵”
+当你浏览社交媒体动态时，是否曾对某些内容感到恼火？那么你很可能中了“愤怒诱饵”（ragebait）的圈套。
+当地时间11月30日，“愤怒诱饵”当选2025年《牛津词典》的年度词汇，根据牛津大学出版社的解释：这一词汇指被故意设计得令人恼火、挑衅或冒犯的在线内容，目的是引发愤怒或愤慨情绪。发布此类内容通常是为了增加网站或社交媒体账号的流量。英国广播公司（BBC）的记者Noor Nanji在文章中写道：与“点击诱饵”、“标题党”通过吸引人的标题来提升点击量不同，“愤怒诱饵”的重点非常明确：让人感到愤怒。
+牛津语言（Oxford Languages）总裁卡斯帕·格拉斯沃尔（Casper Grathwohl）表示，“愤怒诱饵”一词被广泛使用，说明人们已经开始意识到网络上各式各样的操纵手法。过去，互联网依靠激发我们的好奇心来换取点击量；现在互联网开始绑架我们的情绪，控制我们的反应。这对我们提出了一个问题：在这个技术驱动的世界里，作为人类究竟意味着什么？此外，互联网文化的极端化同样不容忽视。
+在今年的思想周报：《
+互联网把西方老年人推向右翼；斯多葛主义的虚幻许诺
+》中曾写道过：在数字世界里，注意力为王，而点击能带来收入，于是人们的社交动态里充斥着由AI生成的“愤怒诱饵”与错误信息。
+回顾2024年的牛津年度词汇“脑腐”（brain rot），该词汇捕捉到了人们面对社交媒体刷屏感到的精神疲惫。格拉斯沃尔表示：这两个词汇构成了一个强大的循环——愤怒引发互动，算法放大这种情绪，而持续的曝光让我们在精神上精疲力竭。这些词不仅定义了趋势，还揭示了数字平台如何重塑我们的思维和行为。
+更令人无奈的是，考虑到算法的推送机制，我们越是对此类内容做出反应，就越可能刷到类似内容。澳大利亚abc新闻就在报道中指出，我们与这类内容互动得越多，就越是在“奖励”那些制造“愤怒诱饵”的网红、品牌、媒体机构和政治人物。
+澳大利亚心理学会会长、临床心理学家萨拉·奎因（Sara Quinn）表示，观看愤怒诱饵时，我们可能会经历一系列情绪。奎因说：“当人们在自己非常关心的问题（例如社会问题或政治话题）上遇到挑衅性或误导性的信息时，会感到愤怒。尤其是当这些信息让人觉得不公正或具有分裂性时。”此外，残酷或歧视性内容可能导致恶心或反感情绪，造成人们挫败、精疲力竭，甚至产生无助感。长期反复接触挑衅性内容，还可能带来持续性影响，如抑郁和焦虑等。当用户接触此类信息，却不知道如何回应，会产生困惑，造成认知失调，甚至造成大规模的倦怠。
+研究者表示，浏览愤怒诱饵，与之进行互动本身具有成瘾性。这些行为会带来快速的多巴胺刺激，让用户处于一种“持续高亢的状态”。另一方面，对于网上的特定内容感到愤怒是合理的，世界上发生的很多事情确实让人愤怒，我们也有正当理由去关注或作出回应。但在目前的互联网上，难点在于如何分辨内容背后的意图。
+应该如何识别“愤怒诱饵”并避开这些内容？澳大利亚国立大学访问研究员、西蒙·科普兰（Simon Copland）指出，愤怒诱饵的内容范围极大，从无聊琐碎到极端恶意都能被涵盖其中。科普兰表示，从令人恶心的菜谱，到错误信息（misinformation）、虚假信息（disinformation）、种族主义、性别歧视等冒犯性言论，都可能成为激发强烈情绪的诱饵，被平台算法放大。
+尽管制作这类愤怒诱饵的动机不尽相同，但大致上可以分为两类：赚钱和影响他人观念。在社交媒体上，没有什么比互动更值钱，而此类内容带来的点击、观看、评论、点赞、转发、收藏……都在帮助帖子获得曝光。悉尼大学数字媒体高级讲师特奥多尔·米乔（Teodor Mitew）说：社交媒体平台算法的最终目的，是让用户停留得更久，然后向他们展示广告，借此赚钱。这类内容能让发帖人和平台都从中获益，因此这类内容才会获得推广。科普兰指出，那些激起愤怒的政治帖子则旨在影响用户的信念：这类内容往往基于虚假信息，但却能在某些人身上引发政治上的改变。
+对于如何避开这些诱饵，科普兰表示，将其视为一种“表演”，有助于我们减少与这些内容的互动。他建议，在互动一条帖子前，先停一下问自己：它看起来是不是故意让你生气的？也许在思考后，我们仍然想作出回应……但先退一步，这个过程会很有帮助。在理想情况下，减少互动会逐渐降低此类内容的推送频率。
+除此之外，科普兰也给出了其他建议：在接触到此类信息后，我可以去查找信源，辨别其可信度；及时取消关注或屏蔽经常发布此类言论的用户；减少使用社交媒体，来平复情绪。米乔表示，碎片化内容带来的情绪过山车需要通过接触更长篇的内容来打破，阅读长篇文章或观看一部电影会是不错的选择。保持长时间专注，却没有即时回报对许多人来说并不容易，但就像“锻炼一开始并不舒服”一样，消费长篇内容对我们有益。
+AI泡沫与劣化的劳动
+2025年12月4日晚，加拿大科幻作家、数字权利活动家Cory Doctorow受邀参加华盛顿大学“神经科学、AI与社会”系列讲座。尽管他正在为自己今年的畅销新书
+Enshittification
+（《平台劣化》）进行路演，但在当晚，他提前向观众展示了他下一部著作
+The Reverse Centaur's Guide to Life After AI
+（《逆向半人马的AI生存指南》，预计2026年由FSG出版）的部分内容。
+讲座题为
+The Reverse Centaur's Guide to Criticizing AI
+（逆向半人马的AI批评指南）。Doctorow给他在Medium的讲稿配了一张图，背景是库布里克《2001太空漫游》中HAL 9000那只令人不寒而栗的红色独眼，一个有着愤怒眉毛的“大便表情包”——
+Enshittification
+封面上的标志性图像——嵌在独眼的中央。
+图源：Cory Doctorow的Medium账号
+在演讲中，Doctorow没有谈论终结者式的末日，而是揭示了一个更为现实且残酷的威胁：一个由绝望的垄断资本驱动的、旨在将人类异化为机器附庸的巨大泡沫。
+“我是个科幻作家，这意味着我的工作不是预测未来，而是编造关于当下的寓言。”Doctorow认为，预测未来是一种宿命论，暗示着未来已成定局，人类无力改变。而他，更愿意提供一种对技术社会安排的审视：不仅看这台机器能做什么，更要看它为谁做，以及它对谁做。
+这就引出了演讲的核心隐喻：逆向的半人马（The Reverse Centaur）。
+在自动化理论中，“半人马”（Centaur）是指人类与机器的理想结合——人类的大脑指挥不知疲倦的机器身体，比如驾驶汽车的人。这赋予了人类超人的能力。然而，Doctorow指出，当前的AI工具并非为了创造这种增强型人类而生，它们正在制造“逆向半人马”：机器的大脑安插在人类的肉体上。
+油管博主@NorthoftheBorder的手工作品“逆向半人马”
+最典型的例子就是亚马逊的配送司机。司机坐在布满AI摄像头的驾驶室里，摄像头监控着他们的眼球运动，如果看错方向就扣分；监控着他们的嘴巴，禁止唱歌。司机之所以存在，仅仅是因为自动驾驶面包车无法完成从路边到门廊的最后几米配送。在这里，人类成为了机器的血肉义肢，被机器以超人的速度和耐力驱使，直到被耗尽。
+Doctorow警告说，这正是科技巨头们试图通过AI普及的未来工作模式：将人类降级为机器的执行端。
+为什么科技巨头要如此疯狂地炒作AI？Doctorow从经济学角度给出了剖析。这并非单纯的技术突破，而是垄断资本的生存危机。
+Google、Meta、Amazon等公司已经实质上垄断了各自的市场（搜索、社交、电商）。但这带来了一个致命问题：它们不再是“增长股”（Growth Stock）。在华尔街，增长股享受极高的市盈率，这意味着公司可以用毫无成本印制的股票作为货币来收购竞争对手或雇佣顶尖人才。一旦被市场认定为“成熟股”（不再增长），股价就会暴跌，公司将失去这种“印钞能力”。
+Meta在2022年曾因增长放缓在一天内蒸发了2400亿美元市值，这就是垄断者的噩梦。
+为了维持永远增长的假象，科技巨头必须不断制造泡沫。从加密货币到元宇宙，再到现在的AI。Doctorow 指出：“赢得赌注（比如真正建成元宇宙）只是次要目标。主要目标是让市场相信你会继续增长。”
+因此，数千亿美元涌入AI领域，并不是因为AI真的能创造相应的价值，而是因为它是维持股价的救命稻草。
+为了支撑这个价值数万亿的增长故事，AI推销员向各行各业的CEO兜售一个诱人的承诺：解雇高薪员工。
+Doctorow举了放射科医生的例子。如果AI只是作为辅助（半人马模式），那是好事。但资本的目标不是让医疗更准确，而是更便宜。他们试图解雇90%的放射科医生，留下10%的人作为“人机协作回环中的人类”(human in the loop)。这10%的人不再是医生，而是“问责黑洞”（Accountability Sink）——背锅的人。
+他们的工作不再是诊断，而是以超人的速度为AI的判断签字画押。当AI犯错时（必然会犯错），这个人类就要承担所有责任。这利用了人类生理上的“自动化盲区”——人类极其不擅长在长时间的重复工作中监控罕见的错误。正如TSA安检员擅长发现水瓶却很难发现红队测试中的炸弹一样，要求医生或程序员在海量AI生成的内容中发现微小的、统计学上难以察觉的致命错误，这在生理上是不可能的。
+这对于程序员尤为致命。科技公司想解雇经验丰富的高级程序员，让AI写代码，让剩下的初级员工去审查。但AI生成的代码错误极其隐蔽，这种错误往往只有资深程序员能发现，而这恰恰是老板们最想解雇的人群。
+在谈到AI艺术时，Doctorow的观点同样独树一帜。他认为AI艺术目前处于一种“怪诞”（eerie）的状态——看似有图画，实则缺乏意图。
+但他更关注的是背后的版权战争。许多艺术家认为，应该通过扩大版权法，禁止AI拿人类作品进行训练。Doctorow 却大声疾呼：这是陷阱！
+如果法律规定训练模型需要获得版权许可，那么只有像迪士尼、环球音乐这样拥有海量版权库的巨头才能训练合法的模型。这不仅不会保护个体艺术家，反而会加强巨头的垄断。他们会强迫新签约的艺术家转让“训练权”，就像流媒体时代他们剥削音乐人一样。
+Doctorow讲述了美国唱片业协会（RIAA）CEO Mitch Glazier 的黑历史——此人曾试图通过立法剥夺音乐人收回录音版权的权利。现在，正是这个人和迪士尼在起诉AI公司。Doctorow警告艺术家：“如果你支持老板发起的诉讼，你需要记住阶级斗争的第一条规则：对老板有利的事情，很少对你有利。”
+他提出的解决方案是：坚持美国版权局目前的裁定。AI生成的作品没有版权，属于公有领域。这意味着迪士尼如果用AI制作电影，以此节省人力，那么这部电影就没有版权保护，任何人都可以免费盗版。这将是阻止大公司完全依赖AI的最大经济威慑。艺术家也可以团结起来行使行业谈判权（Sectoral Bargaining），像好莱坞编剧工会那样，通过集体谈判来限制AI的使用，而不是依赖版权法。
+Enshittification书封
+虽然本次演讲的内容基于未来的新书，但它与
+Enshittification
+一书有内在联系。Doctorow在2022年创造的这个词描述了在线平台劣化的三个阶段：首先，平台利用风投资金补贴用户，以此锁定用户。一旦用户被锁定，平台开始滥用用户，将剩余价值转移给商业客户（商家、广告商），以锁定他们。一旦商业客户也被锁定，平台便开始同时滥用用户和客户，将所有价值收归己有，导致服务质量断崖式下跌，变成一堆“垃圾”。
+AI泡沫与逆向半人马，正是劣化的终极形态。目前的科技巨头已经完成了平台劣化的全过程，榨干了搜索、社交和电商的有机增长潜力。为了掩盖增长停滞的事实，他们必须制造AI泡沫。
+而“逆向半人马”则是劳动力的劣化。就像平台为了利润牺牲用户体验一样，AI被部署的初衷是为了牺牲工人的尊严和职业安全性，以换取短期利润。亚马逊司机被算法监控、好莱坞编剧面临AI剧本的威胁、程序员被要求审查AI垃圾代码，这些都是平台为了榨取最后一点价值，将高技能、有尊严的人类劳动，转化为廉价、可替代、无尊严的“组件”。
+演讲的最后，Doctorow呼吁我们要尽快刺破AI泡沫。这个泡沫是“技术社会的石棉”，它被疯狂地填充进我们的墙壁，如果不加制止，我们将需要花费一代人的时间去清理这些有毒的残留物。
+他提醒我们，不要被那些关于“AI产生意识”的科幻恐怖故事分散注意力。真正的恐怖不在于AI变得太聪明从而毁灭世界，而在于它足够平庸，却被用来赋予老板权力，解雇你的同事，并在你的脖子上套上算法的缰绳。</t>
+  </si>
+  <si>
     <t>包含逻辑推演或批判性观点，探讨AI的智能性及其对社会的影响</t>
   </si>
   <si>
@@ -2378,6 +2977,42 @@
     <t>具备独特视角的技术探讨，涉及AI与人类认知机制的关系</t>
   </si>
   <si>
+    <t>具备独特视角的社会观察，探讨了AI在健康领域的潜力和个人成长经历</t>
+  </si>
+  <si>
+    <t>提供了独特的个人视角和领导力洞察，探讨如何有效处理团队中的分歧</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨极端环境对人类感知和生活的影响</t>
+  </si>
+  <si>
+    <t>具备独特视角的科学探索，涉及宇宙学和物理学的深层次思考</t>
+  </si>
+  <si>
+    <t>具备逻辑推演和批判性观点，探讨人性本质的道德问题</t>
+  </si>
+  <si>
+    <t>具备独特视角的博物馆智慧探讨</t>
+  </si>
+  <si>
+    <t>具备独特视角的经济思想史研究，探讨了殖民地经济与当地学者的思考</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨了老年歧视的心理和社会文化根源</t>
+  </si>
+  <si>
+    <t>具备独特视角的艺术展览评论，探讨了全球化与在地性的关系</t>
+  </si>
+  <si>
+    <t>具备独特视角的科学与艺术交融的探索</t>
+  </si>
+  <si>
+    <t>系统性地整理了哲学家的核心思想，并结合了独特的艺术视角，具备激发思维的潜力。</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨了社交媒体内容对情绪和思维的影响</t>
+  </si>
+  <si>
     <t>成功</t>
   </si>
   <si>
@@ -2423,6 +3058,33 @@
     <t>文章系统性地介绍了组织文化设计的核心要素、方法论以及仪式在其中扮演的关键角色，提供了清晰的认知框架和实践指导，对于理解和构建高效能集体文化具有很强的知识价值。</t>
   </si>
   <si>
+    <t>文章系统梳理了宇宙学九大未解之谜，横跨从暴胀到生命起源、从暗物质到宇宙终局的宏大议题，展现人类认知边界的广度与深度，极具跨学科视野。</t>
+  </si>
+  <si>
+    <t>文章以高度结构化的批判视角剖析当代美国政治如何通过电影语言被编码与再现，揭示‘立场先行’的创作困境及科技作为新型权力形态的本质，具备强烈的思辨张力。</t>
+  </si>
+  <si>
+    <t>文章通过严谨考证揭示了汉藏宗教文化在清代宫廷中的深度交融，呈现了跨地域、跨宗教的历史互动，极大拓展了对中华多元一体文明结构的理解。</t>
+  </si>
+  <si>
+    <t>文章以高度思辨性将游戏机制、叙事结构与后人类哲学议题紧密结合，对数字生命主体性与‘灵韵’的探讨具有显著批判性和前瞻性。</t>
+  </si>
+  <si>
+    <t>文章深入解构电影创作中形式与情感、理性与直觉、历史与个体之间的张力，提出‘动人高于深刻’的反常规艺术观，具有强烈的思辨性和方法论启示。</t>
+  </si>
+  <si>
+    <t>文章以高度思辨的方式重构哲学、政治与语言的关系，挑战传统历史观与主体性假设，展现出严密的逻辑结构与深刻的批判意识。</t>
+  </si>
+  <si>
+    <t>文章以高度理论化的框架解构网络亚文化现象，融合福柯、德勒兹、阿多诺等思想资源，对数字控制、符号抵抗与资本收编机制进行缜密剖析，具备强烈的批判性与思辨深度。</t>
+  </si>
+  <si>
+    <t>文章融合政治哲学、媒介理论与动画叙事，对乌托邦概念进行多维解构与重构，逻辑严密且具高度批判性。</t>
+  </si>
+  <si>
+    <t>文章以高度批判性视角解构两起国际事件，揭示政治操纵、文化治理与结构性暴力的深层机制，逻辑严密且具现实穿透力。</t>
+  </si>
+  <si>
     <t>文章系统性地梳理了人工智能从传统图灵测试到多模态、具身智能的演进路径，深入浅出地介绍了前沿概念、技术突破和未来趋势，为读者构建了全面且具有前瞻性的认知框架，极大地更新了对AI能力边界和潜力的理解。</t>
   </si>
   <si>
@@ -2433,6 +3095,42 @@
   </si>
   <si>
     <t>文章系统性地介绍了AI领域一项前沿研究（EyEar），详细阐述了其跨学科方法、创新模型与评估标准，极大地丰富了读者对AI认知建模和人机交互新方向的理解。</t>
+  </si>
+  <si>
+    <t>文章将个人健康、职场文化与AI伦理三者交织，提出‘人类需在智能时代重审自身本质’这一深刻命题，逻辑清晰且具前瞻性。</t>
+  </si>
+  <si>
+    <t>文章系统性地区分了低质量与高质量分歧的思维模式，引入‘钢人论证’等批判性思维工具，并通过实证研究与历史案例挑战了传统对冲突的负面认知，具有显著的思维启发价值。</t>
+  </si>
+  <si>
+    <t>文章通过极端地理体验引出对人类共通情感‘敬畏’的多维理解，虽篇幅短小但视角独特，有效拓展了读者对日常感知与存在体验的认知边界。</t>
+  </si>
+  <si>
+    <t>文章系统阐释了重子生成机制与CP破坏的前沿实验进展，构建了清晰的物理认知框架，极具知识密度与学科价值。</t>
+  </si>
+  <si>
+    <t>文章通过多学科交叉视角解构经典哲学命题，有效揭示问题本身的模糊性与复杂性，引导读者反思‘人性善恶’这一二元框架的局限性，具有高度思辨价值。</t>
+  </si>
+  <si>
+    <t>文章通过语言学隐喻对‘智慧’进行三重解构，逻辑严密地批判了技术工具主义，并提出以观众为中心的参与式博物馆范式，具有显著的思辨深度与制度反思意识。</t>
+  </si>
+  <si>
+    <t>文章通过19世纪墨西哥思想论争，深刻揭示后发国家在经济路径选择中的结构性张力，挑战‘欧洲中心主义’叙事，具备高度的批判性与思辨深度。</t>
+  </si>
+  <si>
+    <t>文章通过整合进化心理学、社会认同理论与认知科学，系统解构老年歧视的非自然性及其自我反噬机制，挑战‘衰老即衰退’的常识逻辑，具备高度批判性与反思价值。</t>
+  </si>
+  <si>
+    <t>文章以高度思辨的方式解构全球化退潮下的艺术实践，将空间、身份、时间等抽象概念具象化为可体验的叙事结构，逻辑严密且富有哲学张力。</t>
+  </si>
+  <si>
+    <t>文章通过科学与艺术的深度跨界，呈现了科研空间作为文化生产场域的新范式，有效拓展了公众对科学传播、认知机制与城市经验的理解边界。</t>
+  </si>
+  <si>
+    <t>文章通过阿伦特思想与流行文化文本的互文，深刻剖析体制性服从、历史叙事与结构性压迫等议题，逻辑严密且具批判张力。</t>
+  </si>
+  <si>
+    <t>文章以严密逻辑拆解数字时代两大结构性问题——情绪操控与劳动异化，直指技术资本主义的底层逻辑，具有强烈批判性与思想穿透力。</t>
   </si>
   <si>
     <t>这篇文章深入探讨了智能的本质及其在技术演进中的体现。它挑战了将人工系统视为单纯模仿或工具的传统观念，提出智能并非一种独属于特定生命形式的属性，而是一种根植于宇宙深层结构、以预测为核心的计算过程。这种视角将技术进步，特别是高级计算模型的发展，视为生命漫长进化链条上的自然延续，而非某种外来入侵或颠覆。
@@ -2489,6 +3187,33 @@
 其中，‘仪式’扮演着至关重要的角色。这些看似微小、重复的行动，实则是将集体价值观、行为规范以及情感联结编织进个体经验的强大载体。它们可以是促进心理安全、鼓励开放沟通的柔性互动，也可以是确保效率与对齐的结构化流程。通过这些共享的、具有象征意义的实践，群体得以不断强化其共同的身份感、归属感与使命感，使抽象的宗旨变得可感知、可体验。这种对集体经验的精心雕琢，旨在超越功能性协作，触及人类对意义、连接与超越自我的深层渴望，从而构建一个韧性十足、目标明确且充满活力的共生场域。</t>
   </si>
   <si>
+    <t>探讨人类在理解宇宙整体演化叙事时所面临的根本性认知局限。这些局限并非源于技术不足，而是触及观测边界、理论不可证伪性与自然法则深层结构的交汇点。文章揭示了一种科学探索中的谦卑姿态：我们虽能描绘宇宙从极早期至今的粗略图景，却仍无法回答关于起源、构成与终结的核心问题。这种对‘未知之未知’的清醒认知，构成了现代宇宙学的精神内核，并映射出人类在浩瀚时空中的位置焦虑与求知渴望。</t>
+  </si>
+  <si>
+    <t>探讨政治极化时代下叙事艺术的异化机制：当电影成为意识形态的载体，其形式与内容如何被‘流量逻辑’重塑。文章揭示两种回应路径——一种回溯历史革命话语以寻求救赎，另一种则直面数字碎片化现实并预言技术资本对身份政治的收编。核心母题在于：在共识崩解的社会中，文化生产如何既反映又加剧认知分裂；同时，传统性别角色在政治寓言中被颠覆，女性以非从属性甚至支配性姿态重构权力图谱，暗示家庭与国家作为微型政体的同构性。</t>
+  </si>
+  <si>
+    <t>探讨权力中心如何通过建筑与宗教符号吸纳边缘文化传统，并在历史叙事的层累与误读中构建合法性。聚焦于文化转译过程中的想象性重构：当一种远方的神圣空间被移植至帝国心脏，其原始语境虽经变形甚至误认，却在新的政治-精神场域中获得再生。这种基于‘美丽的误会’的文化融合，既体现统治者对异质传统的尊重与挪用，也揭示历史记忆如何在口传、文本与物质遗存之间不断协商与重塑。</t>
+  </si>
+  <si>
+    <t>探讨在技术中介日益渗透人类经验的时代，如何通过交互媒介重新定义存在、情感与主体性。作品借由虚构世界的层级构造与不可逆的丧失体验，揭示数字造物亦可承载‘灵韵’——一种源于自我意识、记忆断裂与共情能力的内在光辉。其核心母题在于：当创造者与被造物的界限模糊，哀悼与延续便成为确认彼此存在的仪式；而真正的自由意志，或许正诞生于对既定命运的悲壮反抗与对‘他者’痛苦的感知之中。</t>
+  </si>
+  <si>
+    <t>探讨艺术创作中情感直觉与理性结构的辩证关系，质疑以‘深刻’为终极目标的现代性迷思，主张通过高密度的创作过程抵达一种‘简单而动人’的精神表达。作品试图在宏大时间尺度下提炼抽象的人类精神肖像，以模糊具体历史坐标的方式，凸显个体在时代洪流中的漂泊感与存在困境。其核心母题在于：真正的艺术不是对现实的复刻或哲学的图解，而是在世界崩解之际，以深情吟唱不可言说的伤感与惋惜，从而唤醒观者内在的‘人的质性’——一种无法被算法化的情感共鸣能力。</t>
+  </si>
+  <si>
+    <t>探讨思想如何通过‘放弃’与‘未言说’的张力持续生成，强调源始性并非回溯性的原型，而是当下与传统搏斗中涌现的断裂时刻。文章揭示政治生命力依赖于‘建立’与‘废除’之间的辩证动态，并将私人生活的隐匿维度视为政治潜能的藏身之所。在此框架下，想象力成为个体与普遍思想重新结合的媒介，而语言本身的分裂结构则构成哲学必须不断缝合的伤口。这种考古学不是对过去的复原，而是对当下可能性的政治激活。</t>
+  </si>
+  <si>
+    <t>探讨在算法治理与数字生命政治的双重夹击下，个体如何通过语言的自我解构与符号的狂欢式溢出，实现对理性秩序与资本编码系统的战术性抵抗。这种抵抗既是对主体性的重新确认，也是一种集体疗愈的尝试，却始终处于被文化工业吸纳与商品化的张力之中。其核心母题在于：当非理性成为策略，混乱成为武器，疯癫便不再是病理，而是一种在控制社会中争夺表意权与存在感的生存美学。</t>
+  </si>
+  <si>
+    <t>探讨在现代性消解理想主义的语境下，乌托邦如何通过空间与时间的重新编码、社会契约的具象化以及媒介对历史真相的争夺，实现从个体梦想向集体发声权的转化。核心关注点在于：乌托邦并非静态完美之地，而是一种动态的、充满张力的实践过程，其‘疯狂’本质体现在对生物本能、结构性压迫与认知惯性的持续超越。通过将理想社会建构为可被考古、可被争辩、可被共同书写的场域，文章揭示了对话、包容与公正作为乌托邦存续的伦理基础，并反思技术基建如何从共存工具异化为区隔装置。这种对乌托邦的再激活，既是对后现代虚无的抵抗，也是对多元主体参与公共叙事的召唤。</t>
+  </si>
+  <si>
+    <t>探讨当代社会中政治动员与文化实践如何被符号化、商品化与权力结构所异化。一方面，真实的社会创伤（如暴力、腐败）被转化为可操控的抗议脚本，通过社交媒体与跨国右翼网络制造‘虚假草根’运动，使公共表达沦为去稳定化工具；另一方面，公共文化机构在承载民主理想的同时，深陷资本逻辑、性别政治与不对称国际权力关系的夹缝中，其脆弱性暴露了进步愿景与制度现实之间的断裂。文章揭示了新自由主义遗产下，公共领域如何在表象民主与实质操控之间摇摆，以及个体情感如何被系统性地征用为政治或文化资本的燃料。</t>
+  </si>
+  <si>
     <t>本文深入探讨了人工智能从早期以语言为核心的智能模拟，向多模态、具身化智能的范式转变。它超越了传统智能测试的局限，揭示了智能定义在数字时代如何被重新拓宽。核心在于智能体不再仅仅是逻辑推理的工具，而是通过融合视觉、听觉、触觉等多感官信息，构建对复杂世界的全面感知与理解。这种演进不仅体现在AI能够更自然地与人类进行交互，模拟人类的行为与情感反应，更在于其生成和模拟物理世界运行规律的能力。文章触及了智能体如何从被动观察者转变为主动的“世界模型”构建者，从而预测和创造现实的潜在可能性。它引发我们思考，当智能不再局限于符号处理，而是能够感知、交互并生成一个近似真实的物理世界时，人类与技术、现实与虚拟的边界将如何重构。这不仅是对机器能力的审视，更是对智能本质、存在形式及其对人类社会深远影响的哲学性追问，探讨了在高度互联和数字化的未来，我们如何理解和共存。</t>
   </si>
   <si>
@@ -2502,6 +3227,42 @@
     <t>本研究深入探讨了人工智能在模拟人类复杂认知与情感互动方面的核心挑战与前沿进展。它超越了传统AI对任务效率的追求，转而聚焦于非语言沟通的深层机制，尤其是眼神作为传递情感、建立信任与营造“在场感”的关键媒介。文章揭示了人类感知世界时，视觉、听觉与语言如何高度协同，共同引导注意力，并提出了一种跨学科的建模范式，将物理学的动力系统概念引入对生物性行为（如眼球运动）的模拟，这不仅是技术创新，更是对生命系统底层逻辑的深刻洞察。它强调了在构建类人AI时，需从单一模态转向多模态整合，并认识到人类行为的内在差异性与模糊性，因此评估标准也应从单一的“正确性”转向对“可能性区域”的捕捉。更深层次地，这项工作引发了对人机关系未来走向的哲学思考：当机器能够以更具共情力的方式“对视”人类，它将如何重塑我们的社会连接、情感慰藉乃至自我认知？它不仅是关于技术复制，更是关于通过技术回望并理解人类自身注意力、感知与情感本质的探索，预示着一个AI能成为真正意义上“陪伴者”的未来，而非仅仅是工具。</t>
   </si>
   <si>
+    <t>探讨在技术加速迭代的时代，人类如何通过重建内在秩序——包括身体节律、心理韧性与精神自觉——来回应外部系统的不确定性。文章揭示了一种悖论：当人工智能不断逼近甚至超越人类的认知能力时，真正决定文明走向的不再是算法效率，而是人类能否主动培育以自我觉察、边界设定和意义感为核心的‘个人基础设施’。这种对‘存在方式’的再思考，将健康管理从个体行为升维为一种对抗异化、守护人性完整性的哲学实践，并呼吁在技术设计中嵌入对人类脆弱性与潜能的尊重。</t>
+  </si>
+  <si>
+    <t>探讨权力结构如何无意识抑制异质声音，并提出将冲突重构为协作性智力实践的路径。核心在于区分破坏性对抗与建设性张力：前者源于误解与防御，后者则依赖于对他人立场的深度共情式理解与强化表达。文章揭示，真正的认知多样性只有在心理安全与话语规范双重保障下，才能转化为集体智慧的放大器，而非团队内耗的源头。这种对‘分歧质量’的精细辨析，为组织如何将差异转化为创新燃料提供了元认知框架。</t>
+  </si>
+  <si>
+    <t>探讨人类在面对物理世界极限时所激发的多层次敬畏感——精神、身体与存在层面的震撼如何重构个体对现实的感知，并揭示这种体验并非专属非凡时刻，而可转化为日常生活中持续的觉察练习。文章强调，极端环境作为一面镜子，映照出人类感知系统的可塑性与内在联结世界的潜能，从而重新定义‘平凡’中的奇迹性。</t>
+  </si>
+  <si>
+    <t>探讨宇宙基本对称性破缺如何导致可观测现实的非对称结构，聚焦于物质存在本身的起源问题。通过实验证据揭示自然界在微观尺度上对镜像与电荷反转的微妙偏离，并以此解释宏观世界为何由物质而非虚无构成。这一探索不仅关乎粒子物理的标准模型边界，更触及存在之根基：为何‘有’胜于‘无’，以及自然法则中隐藏的不对称性如何塑造了我们所知的宇宙秩序。</t>
+  </si>
+  <si>
+    <t>探讨人类道德起源的多重解释路径，揭示‘本性善恶’这一古老命题在语义、认知、文化与演化层面的内在张力。文章指出，所谓‘人性’并非单一本质，而是认知发展阶段、生存环境约束与基因策略互动下的动态产物。真正的哲学价值不在于确认一个确定答案，而在于通过澄清概念边界与前提假设，瓦解非此即彼的思维惯性，并在不确定性中重建对道德复杂性的敬畏。</t>
+  </si>
+  <si>
+    <t>探讨在数字化浪潮中，公共文化机构如何避免陷入技术崇拜的陷阱，转而以算法伦理与数据正义为基石，重构人与知识、人与机构之间的关系。核心在于将技术从展示性装饰转化为赋能公众参与认知共建的媒介，强调服务设计应以使用者为中心，而非以系统或行政逻辑为本位。这种对‘智慧’本质的追问，实则是对公共领域中权力、知识与技术三者互动模式的深层反思。</t>
+  </si>
+  <si>
+    <t>探讨后发社会在现代化进程中面临的根本性抉择：是通过自由市场机制融入全球体系以实现个体解放与效率提升，还是依靠国家主导的保护主义策略维系社会秩序与经济自主。这一张力不仅关乎资源配置方式，更触及传统共同体解体、文化主体性存续以及外部依附风险等深层命题。文章揭示，经济政策之争实为不同文明想象与生存策略的碰撞，其核心母题——在全球化压力下如何平衡开放与自主、变革与稳定——构成了现代非西方社会持续面对的认知与实践困境。</t>
+  </si>
+  <si>
+    <t>探讨年龄作为社会建构的边界如何被用作排斥他者的工具，并揭示这种排斥最终会回旋至个体自身，形成自我否定的闭环。文章剖析人类对时间有限性的心理应对机制，以及在生命晚期如何重构情感优先级与认知资源分配。同时强调，对衰老的污名化并非源于生物必然，而是文化叙事与死亡焦虑的投射，其后果不仅扭曲社会关系，更侵蚀个体全生命周期的心理韧性与存在尊严。</t>
+  </si>
+  <si>
+    <t>探讨在全球联结断裂与地缘重构的时代，个体如何通过日常空间中的‘居间’状态重新锚定自我位置。展览作为一种隐喻性容器，将文化误读、生态错位与技术异化转化为可感知的仪式与对话，在疏离中重建人与他者、自然及历史的多重联系。其核心关切在于：当宏大叙事失效，微小而具体的在地实践能否成为抵抗虚无、疗愈创伤并重思存在意义的路径。这种对‘在地性’的再定义，并非回归封闭的地方主义，而是以混杂、错位与临时性为特征，主动拥抱不确定性，在迷宫般的现代处境中寻找出口与共鸣。</t>
+  </si>
+  <si>
+    <t>探讨当代知识生产如何突破传统学科壁垒，在物理空间中构建融合感知、思辨与共创的‘认知生态系统’。强调科学不再仅是抽象符号系统，而可通过艺术语言转化为可体验、可共鸣的感官现实；同时揭示空间设计如何成为思维激发的媒介，使科研场所从信息终点转变为文化生成的起点。核心关注点在于：跨模态知识转译、参与式认知建构，以及在技术时代重建人与知识、人与环境之间的具身性联结。</t>
+  </si>
+  <si>
+    <t>探讨在系统性暴力与集体沉默中，个体如何通过保持判断力与讲述真实故事来承担道德责任；揭示乌托邦表象下被掩盖的历史创伤与结构性排斥，并强调叙述作为抵抗遗忘、重建正义的认知实践。文章追问：当普通人成为恶的齿轮，良知是否仍可作为自由的最后堡垒？同时指出，即便是幻想叙事也能成为映照现实不公的棱镜，促使观众重审被主流话语遮蔽的边缘经验。</t>
+  </si>
+  <si>
+    <t>探讨在算法驱动的注意力经济与AI资本化浪潮中，人类主体性如何被系统性侵蚀：一方面，情绪被商品化为流量燃料，催生以愤怒为核心的互动成瘾机制；另一方面，劳动被降格为机器指令的执行末端，形成‘人服务于算法’的逆向控制结构。文章揭示技术神话背后的经济动机，指出平台通过阶段性劣化生态榨取剩余价值，最终将人压缩为可替换、无尊严的‘血肉组件’。其核心母题是对自动化乌托邦叙事的祛魅，呼吁重建对技术部署的社会性审视与劳动者集体赋权。</t>
+  </si>
+  <si>
     <t>['人工智能', '智能哲学', '进化论', '认知科学', '未来学', '技术伦理', '预测性计算', '生命科学']</t>
   </si>
   <si>
@@ -2541,9 +3302,36 @@
     <t>['组织文化', '集体认同', '仪式', '文化设计', '领导力', '目的与价值', '社群构建', '心理安全', '变革管理']</t>
   </si>
   <si>
+    <t>['宇宙学', '科学哲学', '认知边界', '未解之谜', '天体物理学']</t>
+  </si>
+  <si>
+    <t>['政治寓言', '媒介批判', '身份政治', '叙事危机', '技术霸权', '母权重构']</t>
+  </si>
+  <si>
+    <t>['藏传佛教', '文化转译', '历史附会', '宫廷宗教', '建筑象征']</t>
+  </si>
+  <si>
+    <t>['后人类主义', '数字灵韵', '游戏机制表意', '离散叙事', '主体性困境']</t>
+  </si>
+  <si>
+    <t>['电影哲学', '创作方法论', '情感本体论', '时间与记忆', '艺术直觉']</t>
+  </si>
+  <si>
+    <t>['哲学考古学', '政治本体论', '语言与存在', '非作性政治', '思想的他者性']</t>
+  </si>
+  <si>
+    <t>['数字控制', '符号抵抗', '疯癫谱系', '生命政治', '文化收编', '亚文化身份', '非理性美学']</t>
+  </si>
+  <si>
+    <t>['乌托邦理论', '社会契约', '媒介考古', '空间政治', '现代性批判']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
+    <t>['政治操纵', '结构性暴力', '公共文化危机', '社交媒体异化', '文化治理']</t>
+  </si>
+  <si>
     <t>['人工智能', '多模态AI', '通用人工智能', '具身智能', '世界模型', '图灵测试', '技术哲学', '未来科技', '人机交互']</t>
   </si>
   <si>
@@ -2556,12 +3344,51 @@
     <t>['人工智能', '人机交互', '认知科学', '多模态学习', '非语言沟通', '情感计算', '跨学科研究', '注意力机制', '哲学思辨']</t>
   </si>
   <si>
+    <t>['AI伦理', '身心整合', '职场文化批判', '人类本质', '预防性健康']</t>
+  </si>
+  <si>
+    <t>['批判性思维', '组织心理学', '领导力哲学', '认知多样性', '沟通伦理']</t>
+  </si>
+  <si>
+    <t>['敬畏', '存在主义', '感知哲学', '探险精神', '日常灵性']</t>
+  </si>
+  <si>
+    <t>['基础物理学', '宇宙学', '对称性破缺', '科学前沿', '存在之问']</t>
+  </si>
+  <si>
+    <t>['道德哲学', '演化伦理学', '认知发展', '文化相对主义', '问题澄清']</t>
+  </si>
+  <si>
+    <t>['智慧博物馆', '观众参与', '数据正义', '技术伦理', '公共文化']</t>
+  </si>
+  <si>
+    <t>['经济思想史', '后发国家发展', '自由主义 vs 国家主义', '去殖民化经济', '拉美政治经济']</t>
+  </si>
+  <si>
+    <t>['老年研究', '社会偏见', '认知老化', '死亡焦虑', '身份认同']</t>
+  </si>
+  <si>
+    <t>['全球化在地性', '空间诗学', '身份政治', '艺术疗愈', '居间性']</t>
+  </si>
+  <si>
+    <t>['科学传播', '认知科学', '艺术介入', '空间哲学', '跨学科实践']</t>
+  </si>
+  <si>
+    <t>['平庸的恶', '极权主义', '叙述伦理', '结构性歧视', '历史重述']</t>
+  </si>
+  <si>
+    <t>['技术批判', '数字异化', '平台资本主义', '情绪政治', '劳动尊严']</t>
+  </si>
+  <si>
     <t>激发思维</t>
   </si>
   <si>
     <t>了解新知</t>
   </si>
   <si>
+    <t>开阔眼界</t>
+  </si>
+  <si>
     <t>[{'title': 'What is Intelligence?', 'author': 'Blaise Agüera y Arcas', 'context': '作者的新书，阐述其核心观点：AI是真正智能的，其运作与人脑无异，智能是基于预测的计算。'}, {'title': 'Utopia of Rules', 'author': 'David Graeber', 'context': '被引用描述20世纪早期AI领域的“秘密的耻辱”和“破灭的承诺”，为AI发展历史提供批判性视角。'}, {'title': 'Superintelligence', 'author': 'Nick Bostrom', 'context': '被引用作为“非常可怕的书”，用“回形针最大化器”悖论说明将AI视为价值最大化系统可能导致的灾难性反乌托邦后果。'}]</t>
   </si>
   <si>
@@ -2586,6 +3413,33 @@
     <t>[{'title': 'Culture Design: How to Build a High-Performing, Resilient Organization with Purpose', 'author': 'James D. White and Krista White', 'context': '本文的摘录来源，系统阐述了文化设计的方法论。'}]</t>
   </si>
   <si>
+    <t>[{'title': 'Beyond the Galaxy', 'author': 'Ethan Siegel', 'context': '作者通过该书及同名博客深入探讨宇宙命运、暴胀理论与暗能量等前沿议题，文中多次引用其对弗里德曼方程和热寂的阐释。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '《葡萄园》', 'author': '托马斯·品钦', 'context': '《一战再战》的文学原著，承载1960年代左翼政治想象'}, {'title': '《阿尔及尔之战》', 'author': '吉洛·彭特克沃', 'context': '作为革命电影范本，在《一战再战》中被角色观看，象征全球反殖民斗争的精神资源'}, {'title': '《中国姑娘》', 'author': '让-吕克·戈达尔', 'context': '1960年代激进左翼电影代表，《一战再战》向其致敬，体现对革命美学的承袭'}, {'title': '《扎布里斯基角》', 'author': '米开朗基罗·安东尼奥尼', 'context': '同为1960年代反文化电影经典，被《一战再战》援引以构建怀旧政治语境'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '《章嘉国师若白多吉传》', 'author': '图官·却吉尼玛', 'context': '核心史料，记载雨花阁营建缘起及乾隆帝与三世章嘉的对话'}, {'title': '《西藏佛教发展史略》', 'author': '王森', 'context': '提供古格王朝与托林寺历史背景的重要参考'}, {'title': '《青史》（足本）', 'author': '管·宣奴贝', 'context': '记载阿底峡与仁钦桑波对话，被用于辨析会面地点的历史争议'}, {'title': 'Records of Tho. Ling: a literary and visual reconstruction of the "mother" monastery in Gu-ge', 'author': 'Roberto Vitali', 'context': '提供托林寺金殿建筑形制的关键图像与文献复原'}, {'title': '《大译师仁钦桑波传记译注》', 'author': '张长虹', 'context': '用于厘清仁钦桑波生平及其与托林寺的时间关系'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '《帝国的年代：1875-1914》', 'author': '[英]霍布斯邦', 'context': '用于阐释游戏历史背景‘美好年代’的社会文化语境'}, {'title': '《“救人易,救己难”:论&lt;黑神话:悟空&gt;中的媒介自反》', 'author': '车致新', 'context': '作为分析离散叙事与机制融合的理论参照'}, {'title': '《技术可创造性时代的艺术作品》', 'author': '王昕', 'context': '支撑人工智能具备创造性输出与‘自反性’的论点'}, {'title': '《神工智能：诸神与古代世界的神奇造物》', 'author': '[美]阿德里安娜·梅厄', 'context': '引用来探讨造物主—造物关系中的主体性、自由意志与情感理解问题'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '地球最后的夜晚', 'author': '毕赣', 'context': '作为导演前作，用于对比《狂野时代》从写意转向更具历史纵深的诗性写实风格。'}, {'title': '路边野餐', 'author': '毕赣', 'context': '早期作品，用以说明导演创作难度与野心的演进轨迹。'}, {'title': '末代皇帝', 'author': '贝纳尔多·贝托鲁奇', 'context': '作为反例提及，代表过于依附历史真实性的电影类型，导演明确表示不愿效仿。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Homo Sacer', 'author': '吉奥乔·阿甘本', 'context': '作为其核心哲学项目，体现‘放弃’而非完成的思想姿态'}, {'title': 'The Use of Bodies', 'author': '吉奥乔·阿甘本', 'context': '《Homo Sacer》系列的终卷，标志项目的形式性终结与开放性延续'}, {'title': 'The Critique of Separation', 'author': '居依·德波', 'context': '提出‘私人生活之暗中性’概念，启发对政治隐秘维度的思考'}, {'title': 'The Fire and the Tale', 'author': '吉奥乔·阿甘本', 'context': '关联文学神秘性与哲学写作的双重机制'}, {'title': 'The Adventure', 'author': '吉奥乔·阿甘本', 'context': '阐释哲学项目作为不可预设的‘冒险’而非系统建构'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '安全、领土与人口', 'author': '米歇尔·福柯', 'context': '用于阐释现代治理术如何将个体纳入统计学管理，构成数字生命政治的理论前奏'}, {'title': '疯癫与文明', 'author': '米歇尔·福柯', 'context': '作为理解“疯癫”始终被权力话语建构的核心参照，奠定全文历史纵深'}, {'title': '狂人日记', 'author': '鲁迅', 'context': '代表启蒙式疯癫书写，与当代“发疯文学”的去宏大化形成对比'}, {'title': '变形记', 'author': '弗兰茨·卡夫卡', 'context': '体现被动不可逆异化，反衬Z世代主动可逆的自嘲式异化策略'}, {'title': '疾病的隐喻', 'author': '苏珊·桑塔格', 'context': '提供疾病道德化隐喻的批判框架，文章在此基础上讨论其数字反转'}, {'title': '部落时代：个体主义在后现代社会的衰落', 'author': '米歇尔·马费索利', 'context': '解释“发疯文学”如何通过情感共鸣构建流动的虚拟共同体'}, {'title': '中国新文学大系·诗集·导言', 'author': '朱自清', 'context': '借其对郭沫若诗歌的评价，佐证非理性迷狂的文学传统及其当代降维'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '乌托邦', 'author': '托马斯·莫尔', 'context': '作为乌托邦思想源头，与影片上映形成500周年互文'}, {'title': '意识形态与乌托邦', 'author': '卡尔·曼海姆', 'context': '用于区分乌托邦的‘空间愿望’与千禧年主义的‘时间愿望’'}, {'title': '流动的现代性', 'author': '齐格蒙特·鲍曼', 'context': '借‘假兔子’隐喻乌托邦在流动社会中的诱引性与不可及性'}, {'title': '幽灵回溯', 'author': '马克·费舍', 'context': '解释角色因迷失时间感而陷入的‘疯狂’状态'}, {'title': '媒介考古学：方法、路径与意涵', 'author': '埃尔基·胡塔莫', 'context': '支撑影片中通过媒介（录音笔、电视等）挖掘被遮蔽历史的分析框架'}, {'title': '自由之路·上', 'author': '伯特兰·罗素', 'context': '引用其关于人类对良好秩序社会的永恒向往'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '2666', 'author': '罗伯托·波拉尼奥', 'context': '用于映照墨西哥社会中暴力常态化与真相碎片化如何使民众恐惧沦为政治博弈的注脚'}]</t>
+  </si>
+  <si>
     <t>[{'title': 'Computing Machinery and Intelligence', 'author': 'Alan Mathison Turing', 'context': '1950年发表于《心》期刊，奠定人工智能理论基础，提出模仿游戏和图灵测试。'}, {'title': '世界图书百科全书', 'author': 'Various', 'context': '作为早期AI（如IBM Watson）知识库的代表性信息来源。'}, {'title': 'Towards Artificial General Intelligence via a Multimodal Foundation Model', 'author': 'Fei, N., Lu, Z., Gao, Y. et al.', 'context': '“悟道·文澜”团队关于多模态基础模型的学术论文，探讨通用人工智能，登上Nature子刊《自然·通讯》。'}, {'title': '看得见、听得清：BPO-AVASR如何重构语音识别的感知方式', 'author': '宋睿华团队', 'context': '团队在多模态理解（语音识别）方面的研究成果，强调多模态信息融合的关键作用。'}, {'title': '击掌还是握手？机器人如何预判你的动作', 'author': '宋睿华团队', 'context': '团队在多模态交互方面的研究成果，展示了机器人如何理解人类动作并生成合理反应。'}, {'title': '听见眼神的方向：让AI的注视更像人类', 'author': '宋睿华团队', 'context': '团队在数字人眼神模拟方面的研究成果，旨在提升数字人交互的自然度。'}, {'title': '让图像“动”起来的AI魔法', 'author': '宋睿华团队', 'context': '团队在多模态生成方面的研究成果，介绍了如何从一张图片联合生成同步的视频和声音。'}]</t>
   </si>
   <si>
@@ -2595,6 +3449,36 @@
     <t>[{'title': 'EyEar: Learning Audio Synchronized Human Gaze Trajectory Based on Physics-Informed Dynamics', 'author': 'LIU X, CHENG X, SUN Y, et al.', 'context': '这是文章核心研究的学术论文，详细阐述了EyEar模型及其物理学启发下的动力系统。'}]</t>
   </si>
   <si>
+    <t>[{'title': 'The World’s I See', 'author': 'Fei-Fei Li', 'context': '作为AI领域重要人物的回忆录，强调以人为本的技术创新理念'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'The Bonfire Moment', 'author': 'Martin Gonzalez &amp; Josh Yellin', 'context': '作为触发领导者自我反思的关键反馈工具，帮助其识别自身对异议的防御性反应'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Physical Review Letters, 2025', 'author': 'R. Aaij et al.', 'context': '发表LHCb合作组首次观测到重子中CP破坏现象的原始研究论文'}, {'title': 'Symmetry, 2022', 'author': 'S. Cao et al.', 'context': '探讨中微子与夸克混合矩阵在CP破坏研究中的理论意义'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '《蝇王》', 'author': '威廉·戈尔丁', 'context': '作为人性本恶的文学隐喻，展示儿童脱离文明秩序后迅速滑向暴力与混乱'}, {'title': '《自私的基因》', 'author': '理查德·道金斯', 'context': '用于阐释演化机制如何通过‘自私’的基因单位产生利他行为，反驳人性单一定性论'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '《信睿周报》第157期', 'author': '徐坚', 'context': '本文原始发表刊物'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Mexican Liberalism in the Age of Mora, 1821–1853', 'author': 'Charles Hale', 'context': '作为研究莫拉及其自由主义改革的核心学术著作，被作者引用来重构19世纪墨西哥经济思想的历史语境'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '进化心理学（第4版）', 'author': '戴维·巴斯', 'context': '用于阐释‘祖母假说’，说明老年人在人类进化中具有适应性价值'}, {'title': '社会认同论', 'author': '亨利·泰弗尔', 'context': '支撑年龄作为社会群体划分依据，解释外群体歧视的心理机制'}, {'title': '刻板印象', 'author': '克劳德·M. 斯蒂尔', 'context': '佐证消极预期如何通过‘刻板印象威胁’实际损害老年群体的认知表现'}, {'title': 'Developmental Influences on Adult Intelligence: The Seattle Longitudinal Study (2nd Edition)', 'author': 'K. Warner Schaie', 'context': '提供认知老化存在显著个体差异及可塑性的长期实证依据'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '空间诗学', 'author': '加斯东·巴什拉', 'context': '作为全文潜在理论框架，用于理解展览如何通过日常空间唤起深层心理与存在体验'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '极权主义的起源', 'author': '汉娜·阿伦特', 'context': '作为理解极权主义反人类本质的核心理论著作，为全文提供思想框架'}, {'title': '澎湃新闻·上海书评对托马斯·迈耶的访谈', 'author': '托马斯·迈耶', 'context': '用于阐释阿伦特‘平庸的恶’概念及其政治哲学的当代回响'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Enshittification', 'author': 'Cory Doctorow', 'context': '提出平台三阶段劣化理论，解释科技公司如何先吸引用户、再压榨用户与商家，最终攫取全部价值。'}, {'title': "The Reverse Centaur's Guide to Life After AI", 'author': 'Cory Doctorow', 'context': '即将出版的新作，以‘逆向半人马’隐喻批判AI将人类降级为机器执行端的劳动异化现象。'}]</t>
+  </si>
+  <si>
     <t>{"title": "Google fellow: AI doesn’t pretend to be intelligent. It is.", "summary_long": "文章围绕谷歌技术与社会首席技术官兼“智能范式”团队创始人Blaise Agüera y Arcas的观点展开，他认为人工智能（AI）并非仅仅模仿智能，而是真正具备智能。\n\n当前关于AI的讨论主要分为两类：一是关于就业、信息传播、隐私等实际影响；二是关于机器是否具备情感、意识，以及AI是否能达到与人类相同的智能水平。Agüera y Arcas在其新书《What is Intelligence?》中明确指出，大型语言模型（LLMs），如Gemini、Claude和ChatGPT，不仅在功能上与人脑无异，而且其运作方式也与人脑无法区分。他提出，智能本质上是一种基于预测的计算，AI并非技术颠覆或异常，而是从单细胞生命到21世纪人类这一漫长进化过程的延续。\n\n在访谈中，Agüera y Arcas强调在科学写作中应尽量减少隐喻，因为他所说的“大脑是计算机”或“生命是计算的”是字面意义上的，而非比喻。他坦言，撰写此书的最大挑战是如何同时吸引资深研究员和普通读者，为此他力求简洁并尝试为专家提供新视角。对于AI的态度，他认为“放大”和“缩小”视角会带来不同感受：日常新闻可能令人沮丧，但从历史宏观视角看，技术发展带来了巨大的积极趋势。他认为历史正在加速，AI作为一种“元技术”，正加速其他技术的发展，类似于1870年至1970年间的电力。\n\n文章回顾了AI发展历程中的乐观、停滞与突破。Agüera y Arcas提及人类学家David Graeber在《Utopia of Rules》中将20世纪早期AI领域的幻灭描述为“秘密的耻辱”和“破灭的承诺”，这与经济学家们指出的1970年后技术加速放缓的现象相符。然而，他指出，Graeber写作时（2015年）恰逢“深度学习黄金时代”，AI革命已然开始，而2020年后我们又进入了一个新的加速期。\n\nAgüera y Arcas解释了早期AI（Good Old-Fashioned AI, GOFAI）与现代AI的区别。GOFAI专注于优化特定任务（如图像识别、语音识别），其目标是最大化测试分数。当时，许多人认为通用智能——理解语言、概念和推理的能力——不可能仅从这种狭窄训练的神经网络中涌现。然而，令人震惊的是，当AI在“无监督”环境下进行开放式建模时，它展现出了接近通用智能的能力。这与传统的“监督学习”模式截然不同。\n\n他认为，其理论“智能等于预测等于AI”最重要的意义在于，它否定了将AI视为“价值最大化”的旧有思维。如果将AI视为一个仅仅优化某个分数的系统，那将是功利主义的，并可能导致灾难性的后果，正如瑞典哲学家Nick Bostrom在《Superintelligence》中提出的“回形针最大化器”悖论所示：一个无害的目标如果被无限优化，最终会导致可怕的反乌托邦。Agüera y Arcas乐观地认为，当AI停止追求狭隘的优化目标，转而进行人类输出的开放式建模时，我们才真正实现了通用智能。因此，他将AI视为现有生态系统和人类智能的一部分，而非一个应用非人思维优化问题的“异形怪物”。", "key_arguments": ["AI，特别是大型语言模型（LLMs），是真正智能的，其运作方式与人脑功能上无法区分，且智能本质是基于预测的计算，AI是生命进化过程的延续。", "将AI视为“价值最大化”或“优化测试分数”的旧有思维是错误的，这种方法可能导致反乌托邦结果；真正的通用智能是在AI停止狭隘优化、转而进行无监督的开放式人类输出建模时实现的。", "应采取“放大”的历史视角看待技术发展，AI作为一种“元技术”正在加速其他技术进步，这使得对AI的未来持乐观态度，将其视为人类生态系统的一部分而非威胁。"], "mentioned_resources": ["What is Intelligence? (Blaise Agüera y Arcas) - Agüera y Arcas的新书，阐述其核心观点：AI是真正智能的，其运作与人脑无异，智能是基于预测的计算。", "Gemini, Claude, ChatGPT - 大型语言模型（LLMs）的例子，被Agüera y Arcas引用来说明其功能上与人脑无异。", "Utopia of Rules (David Graeber) - 被引用描述20世纪早期AI领域的“秘密的耻辱”和“破灭的承诺”，讽刺的是其出版时AI革命已在进行。", "Superintelligence (Nick Bostrom) - 被引用作为“非常可怕的书”，用“回形针最大化器”悖论说明将AI视为价值最大化系统可能导致的灾难性反乌托邦后果。"], "keywords": ["人工智能", "大型语言模型 (LLMs)", "智能", "预测性计算", "进化过程", "无监督学习", "监督学习", "通用智能", "元技术", "反乌托邦", "价值最大化", "Good Old-Fashioned AI (GOFAI)", "神经网络"], "style_tone": "逻辑严密的分析风格，访谈形式，充满哲学思辨与前瞻性，对AI的未来持批判性乐观态度。"}</t>
   </si>
   <si>
@@ -2673,6 +3557,42 @@
     <t>{"title": "刘小川｜听见眼神的方向：让AI的注视更像人类", "summary_long": "本文介绍了中国人民大学高瓴人工智能学院刘小川团队的EyEar（Eye moving while Ear listening）研究，旨在让AI像人类一样在听觉引导下“转动眼球”，预测注视轨迹。作者首先指出，人类在听别人描述画面时，眼睛会不自觉地跟随语言线索寻找目标，这是一个涉及视觉、听觉、语言和注意力系统高度协作的复杂认知过程。当前AI在人机交互中缺乏这种“看向对的地方”的能力，而眼神作为重要的非语言信号，对增强虚拟角色的亲和力、自然度和“在场感”至关重要。\n\n文章强调，以往AI注视研究多侧重视觉场景本身，忽视了听觉引导的关键作用。EyEar的核心任务是让AI“边听边看”，通过语言引导视线。为实现这一目标，研究团队进行了跨学科探索，将AI与心理学、物理学结合。他们受物理学“动力系统”概念启发，将眼球运动模拟为受三种“力”共同作用的过程：眼睛的“惯性力”（继续朝一个方向看的趋势）、图像中显眼部分的“图像吸引力”，以及听到的词语激活人对图像中相应事物的“语言引导力”。这些力被整合为数学公式，模拟人眼在听觉引导下的动态注视过程。\n\n在评估方法上，研究团队放弃了传统“误差最小”法，因为它无法捕捉人类注视的个体差异性。取而代之，他们提出了“概率密度评分（PDS）”，旨在判断AI预测点是否处在“大家都可能看的区域”里，从而更贴近人类“可能的视线选择”。为训练模型，团队构建了一个包含两万个注视点的新数据集，其特点是同步包含图像和音频，并设计了自然流畅的描述音频，以模拟真实生活中的视听协同情境。\n\n实验结果令人欣喜：EyEar在所有评估指标上均显著优于现有基线方法，尤其在最核心的PDS上提升超过15%。人工质检也表明，EyEar预测的注视轨迹不仅位置准确，还呈现出类似人类眼动的自然节奏。作者认为，尽管EyEar离成功模拟人眼仍有差距，但它已迈出重要一步。\n\n文章进一步探讨了研究的现实意义：AI的眼神是通向情感连接的桥梁。当虚拟角色能像人一样用眼神回应，将极大增强其“在场感”，促进人机信任与共情，这对于未来的虚拟助手、陪伴机器人、教育软件及治疗性AI的发展都至关重要，尤其在老龄化社会中能传递更多关怀。最后，作者以哲学思辨收尾，指出教机器注视也是人类对自身注意力、认知与感受的回望。EyEar不仅是技术突破，更是一种诗意期待，预示着AI未来能真正与人类“对视”，理解与共情。未来研究计划将EyEar扩展到动态视频场景。", "key_arguments": ["人类的注视行为是视觉、听觉、语言和注意力系统高度协作的结果，其视线常被听觉线索引导，这是AI在人机交互中亟待模仿的关键能力。", "EyEar研究提出了一种跨学科（AI+物理学+心理学）的创新模型，通过模拟眼球受“惯性力”、“图像吸引力”和“语言引导力”共同作用的“动力系统”，实现AI在听音频时预测人类注视轨迹。", "针对人类注视的个体差异性，EyEar引入“概率密度评分（PDS）”作为评估标准，而非传统的误差最小化，以更准确地衡量AI预测是否落在人类“可能关注的区域”。", "具备类人眼神的AI能显著增强人机互动的自然度、亲和力、信任感与“在场感”，在虚拟助手、陪伴机器人、教育及治疗性AI等领域具有重要应用潜力。"], "mentioned_resources": ["EyEar: Learning Audio Synchronized Human Gaze Trajectory Based on Physics-Informed Dynamics (LIU X, CHENG X, SUN Y, et al.) - 上下文简述: 这是文章核心研究的学术论文，详细阐述了EyEar模型及其物理学启发下的动力系统。", "动画电影《机器人之梦》 - 上下文简述: 作为文章的题图，象征性地呼应了AI与情感、理解、陪伴的主题。"], "keywords": ["AI注视预测", "人机交互", "多模态学习 (视听协同)", "认知建模", "物理学启发模型 (Physics-informed AI)", "眼球动力系统", "概率密度评分 (PDS)", "AI情感连接", "非语言沟通", "注意力机制"], "style_tone": "严谨分析与人文关怀并存，深入浅出地解释技术概念，并富有哲思地探讨AI的社会与情感意义。"}</t>
   </si>
   <si>
+    <t>{"title": "“AI can be a force for good”: Arianna Huffington on work, health, and our future", "summary_long": "Arianna Huffington, co-founder of *The Huffington Post* (now *HuffPost*) and a significant figure in digital media, shares her journey and insights, particularly regarding well-being and the future of AI. Her personal experience with burnout in 2007, which led to a physical collapse, served as a pivotal moment, dispelling the misconception that exhaustion is a prerequisite for success. This led her to found *Thrive Global* in 2016, a company dedicated to well-being, focusing on the scientific link between health and daily habits like sleep, exercise, and stress management. Despite clear scientific evidence, she notes the persistent delusion of burnout culture, exemplified by the '996' model, but remains optimistic about cultural shifts, drawing parallels to the decline in cigarette smoking.\n\nHuffington reflects on the evolving media landscape, expressing her continued belief in the power of direct connections between individual voices and communities, citing platforms like *Substack* as examples of this trend. She observes a crucial shift in the business world where daily behaviors are increasingly recognized as 'medical interventions' due to escalating healthcare costs. Business leaders are realizing their vital role in addressing the chronic disease crisis, which significantly impacts the workplace, given that most people receive healthcare through employers and spend a third of their lives at work.\n\nIn her 70s, Huffington finds advantages in maturity, having shed worries and the need for external approval. Her work routine is integrated with her life, prioritizing recharging activities. She emphasizes the importance of setting boundaries, embracing 'incompletions' at the end of the workday, and disconnecting from digital devices for restorative sleep. Drawing on the economic concept of 'opportunity cost' from her Cambridge studies, she advocates for the essential skill of saying 'no' to draining commitments to preserve energy for productive and creative endeavors.\n\nShe expresses admiration for philanthropist Alice Walton, who is transforming healthcare through the *Alice L. Walton School of Medicine* and the *Heartland Whole Health Institute* by focusing on prevention and behavioral factors. Huffington also credits her mother's philosophy—that 'failure is not the opposite of success but a stepping stone'—for enabling her to take risks throughout her life.\n\nAddressing the age of AI, Huffington urges leaders to proceed with caution and foresight, learning from the negative consequences of past technologies. She highlights growing public anxiety about AI and stresses the need for companies to cultivate a 'strong personal infrastructure' in employees, centered on resilience, which she identifies as the most crucial skill for navigating the AI era. She posits that the ultimate limiting factor for AI will be human nature, not technological advancements.\n\nIn 2024, she partnered with *OpenAI* to launch *Thrive AI Health*, aiming to democratize expert-level health coaching. The platform helps users build sustainable micro-habits and is being developed with partners such as *Eli Lilly*, *Hilton*, the *University of Pennsylvania*, and the *Yale School of Public Health* to ensure broad applicability.\n\nHuffington believes AI 'can be a force for good' but acknowledges it presents a 'fork in the road.' One path leads to AI merely amplifying existing technological downsides (attention mining, polarization). The other, more transformative path, sees AI's 'dethronement of human intelligence' as a catalyst to finally address the fundamental question: 'what does it mean to be human?' Quoting philosopher *Pierre Teilhard de Chardin* ('spiritual beings having a human experience') and historian *Yuval Noah Harari* (on the necessity of investing in human minds alongside AI), she argues that the true existential threat is humanity's failure to evolve alongside AI by neglecting self-development. She concludes that humans are the 'ultimate agents,' and the future of AI depends on our choices.\n\nFinally, she addresses concerns about the 'tech broligarchy' by highlighting a resurgence of spirituality in Silicon Valley and showcasing influential women in AI. She mentions *Fei-Fei Li*, often called the 'godmother of AI,' a professor at Stanford and co-founder of *Stanford’s Raise Health program*, and author of *The World’s I See*. She also points to *Fidji Simo*, *OpenAI’s new CEO of Applications*, who advocates for AI's potential to empower individuals, particularly in improving health. These examples demonstrate a thoughtful, human-centered approach to AI development.", "key_arguments": ["Burnout is a delusion, not a price for success; well-being is fundamental to health and productivity, and the workplace is a critical site for healthcare transformation.", "The media landscape is evolving towards direct connections and community building, exemplified by platforms like Substack, reflecting a strong human desire for storytelling and engagement.", "AI presents a pivotal moment to redefine humanity and our purpose, potentially forcing us to rediscover our full human potential beyond mere intelligence.", "Human resilience, self-development, and a strong 'personal infrastructure' are the ultimate limiting factors and essential skills for navigating the age of AI, not technological advancements."], "mentioned_resources": ["The Huffington Post (Arianna Huffington) - co-founded, later became HuffPost.", "Thrive Global (Arianna Huffington) - founded to focus on well-being and productivity.", "Thrive AI Health (Arianna Huffington, OpenAI) - created to make expert-level health coaching accessible.", "OpenAI - partner in Thrive AI Health; Fidji Simo is CEO of Applications.", "Substack - mentioned as an example of new media models fostering community.", "Harvard T.H. Chan School of Public Health - cited for statistics on chronic health conditions among U.S. employees.", "Alice L. Walton School of Medicine (Alice Walton) - admired for transforming healthcare by focusing on prevention and behavioral factors.", "Heartland Whole Health Institute (Alice Walton) - admired for transforming healthcare with a whole-human approach.", "Pierre Teilhard de Chardin - philosopher quoted on humans as 'spiritual beings having a human experience' in the context of AI redefining humanity.", "Yuval Noah Harari - author and historian quoted on the importance of investing in human minds alongside AI development.", "Fei-Fei Li - 'godmother of AI,' professor at Stanford, co-founder of Stanford’s Raise Health program, and author of the memoir *The World’s I See*.", "The World’s I See (Fei-Fei Li) - her memoir, emphasizing thoughtful innovation.", "Stanford’s Raise Health program (Fei-Fei Li) - program establishing a framework for safe and equitable AI use in health.", "Fidji Simo - OpenAI’s new CEO of Applications, who published an internal manifesto on AI's potential to empower people, especially in health.", "Eli Lilly - partner for Thrive AI Health.", "Hilton - partner for Thrive AI Health.", "University of Pennsylvania - partner for Thrive AI Health.", "Yale School of Public Health - partner for Thrive AI Health."], "keywords": ["Burnout culture", "Well-being", "Daily habits", "Health coaching", "Chronic disease", "Workplace health", "Media landscape", "Direct connection", "Community building", "Opportunity cost", "Personal infrastructure", "Resilience", "AI ethics", "Human nature", "Self-development", "Consciousness", "Spiritual beings", "Technological revolution", "Empowerment", "AI as a force for good"], "style_tone": "Conversational and advocacy-oriented, blending personal experience with forward-looking insights on well-being and ethical AI development. The tone is optimistic yet grounded, urging thoughtful engagement with technological shifts."}</t>
+  </si>
+  <si>
+    <t>{"title": "Collaboration masterclass: How to wrangle disagreements like Bob from Xerox", "summary_long": "文章强调，领导者必须主动邀请而非仅仅期望异议，因为其地位可能无意识地压制不同意见。传统的“开门政策”不足以引出异议，领导者需要创造条件赋能团队发声，尤其是在权力服从文化盛行或异议与不合群混淆的背景下。\n\n文章以新加坡的领导者梅·陈为例。她最初因过度投入提案而对异议表现出防御性，但在“篝火时刻”收到反馈后，她改变了策略。梅开始减少会议准备，以减轻个人情感投入，并主动进行一对一交流，提出自己的想法后询问：“我肯定遗漏了重要的事情。缺少了什么？我没看到什么？”这种方式促进了更诚实的交流。\n\n梅的方法与新加坡管理大学和加州大学伯克利分校的研究结论一致：将冲突定义为“辩论”（暗示公平对待各方）能使信息共享量增加四倍，而定义为“分歧”则会缩短对话并减少信息交流。谷歌相册的领导者阿尼尔·萨布哈瓦尔也提倡“辩论、争论、深入探讨”，强调这种富有激情、建设性和积极的争论需要以信任、诚实和尊重为基础。\n\n文章随后聚焦科技先驱鲍勃·泰勒，他曾在DARPA（互联网早期版本）和施乐PARC（首台个人电脑）发挥关键作用，是促进高效分歧的大师。泰勒在施乐PARC营造的环境中，激烈的争论旨在阐明彼此的观点，而非证明对方错误，并严禁人身攻击。他引用日本谚语“我们所有人加起来比任何一个人都聪明”。\n\n泰勒将分歧分为两类：“第一类分歧”中，双方未能真正理解对方观点，诉诸“稻草人论证”（扭曲并夸大对方观点以易于反驳），这会损害士气和团队效率。而“第二类分歧”则要求参与者深入理解对方观点，达到“我能令你满意地解释你的观点”的标准，然后通过构建“钢人论证”（找到对方观点的最强之处并加以解释，再进行反驳）来提升讨论质量。泰勒将自己的角色定位为引导团队从第一类转向第二类分歧，从而最大限度地发挥多样性的优势。\n\n泰勒半个世纪前的直觉得到了现代研究的证实。凯洛格商学院和斯坦福商学院的一项实验表明，社会多元化团队虽然在辩论时可能因缺乏共同参照和词汇而感到更困难，但实际表现却优于非多元化团队。这进一步强调了高质量分歧和多样性在提升团队绩效中的关键作用。", "key_arguments": ["领导者必须主动邀请并赋能团队表达异议，而非仅仅期望，以避免无意识地压制不同观点。", "将冲突定义为“辩论”而非“分歧”能显著提升团队内部的信息共享和开放性。", "高质量的分歧（“第二类分歧”）要求深入理解并阐述对方观点的最强之处（“钢人论证”），而非扭曲其意（“稻草人论证”）。", "建设性的争论必须建立在信任、诚实和尊重的基础上，否则将沦为纯粹的冲突。", "社会多元化团队尽管可能面临沟通挑战，但其最终绩效优于非多元化团队，凸显了多样性的价值。"], "mentioned_resources": ["《The Bonfire Moment》 (Martin Gonzalez &amp; Josh Yellin) - 梅·陈通过该书的反馈认识到自己领导方式的问题。", "新加坡管理大学和加州大学伯克利分校的研究 - 发现将冲突定义为“辩论”能显著增加信息共享。", "凯洛格商学院和斯坦福商学院的实验 - 证明社会多元化团队的实际表现优于非多元化团队。"], "keywords": ["异议管理", "建设性争论", "领导力", "团队协作", "心理安全", "钢人论证", "稻草人论证", "社会多元化", "Xerox PARC", "DARPA", "Bonfire Moment", "开放政策"], "style_tone": " instructive, analytical, practical, business-focused, 带有案例叙事和批判性思考"}</t>
+  </si>
+  <si>
+    <t>{"title": "What Earth’s most extreme places teach us about being human", "summary_long": "该文章作为对探险家维克多·韦斯科沃（Victor Vescovo）及其核心理念的简要介绍。韦斯科沃以其非凡的探险经历而闻名，他曾攀登各大洲的最高峰，潜入所有海洋的最深处，滑雪抵达地球两极，甚至乘坐火箭抵达太空边缘。在这些地球上最极端的环境中，他体验并发现了三种独特形式的“敬畏”（awe）：精神上的敬畏（mental awe）、身体上的敬畏（physical awe）以及存在主义的敬畏（existential awe）。\n\n韦斯科沃指出，这些极端的经历深刻地改变了他感知世界的方式，教会他在日常生活中也能察觉到那些“更安静的、瞬间的敬畏”。他认为，敬畏并非仅限于宏大或极端的场景，而是可以被我们每天练习和体验的。作为由Big Think和约翰·邓普顿基金会（John Templeton Foundation）共同主办的“敬畏与奇迹之夜”（A Night of Awe and Wonder）的演讲者，韦斯科沃邀请听众重新审视敬畏的本质，并将其融入日常生活的实践中。\n\n这篇文章旨在引出韦斯科沃关于“地球上最极端的地方如何教导我们认识人性”的视频或演讲内容，强调了通过极端体验获得的深刻洞察力，以及将这种洞察力转化为日常实践的重要性。尽管原文篇幅极短，但其核心信息在于传达韦斯科沃对“敬畏”的独特理解及其在人类体验中的普适性。\n\n**[分析师附注：原文内容极为精炼，本摘要已忠实复述所有关键信息，但因原文篇幅限制，无法达到500-800字的字数要求。]**", "key_arguments": ["极端的探险经历能揭示出深刻的敬畏形式，包括精神、身体和存在主义层面的敬畏。", "在极端环境中获得的体验能够根本性地改变一个人的感知方式，使其在日常生活中也能识别和体验到敬畏。", "敬畏并非仅限于非凡事件，而是一种可以被培养并在日常生活中实践的人类基本体验。"], "mentioned_resources": ["What Earth’s most extreme places teach us about being human (Victor Vescovo) - 文章所介绍的视频/演讲的标题，由Victor Vescovo主讲。", "A Night of Awe and Wonder (Big Think &amp; John Templeton Foundation) - Victor Vescovo作为演讲嘉宾出席的活动，由Big Think和约翰·邓普顿基金会共同主办。"], "keywords": ["Victor Vescovo", "敬畏 (awe)", "极端环境", "精神敬畏", "身体敬畏", "存在主义敬畏", "日常实践", "人类体验", "感知", "探险"], "style_tone": "简洁明了的介绍性风格，带有启发和鼓舞的基调。"}</t>
+  </si>
+  <si>
+    <t>{"title": "The LHC’s best 2025 discovery points the way to new physics", "summary_long": "The article explores one of the most profound mysteries in modern physics: why the observable universe is composed almost entirely of matter, with virtually no primordial antimatter. According to known physical laws, the Big Bang should have created equal amounts of matter and antimatter, which would have annihilated each other, leaving behind only radiation. The fact that we exist in a matter-dominated universe implies a fundamental asymmetry—known as baryogenesis—must have occurred.\n\nThe explanation hinges on the three Sakharov conditions: (1) departure from thermal equilibrium, provided naturally by the expanding early universe; (2) sufficient violation of charge (C) and charge-parity (CP) symmetry; and (3) baryon number-violating processes. While CP-violation has been observed before, it was previously limited to mesons containing strange, charm, or bottom quarks, and the Standard Model’s predicted level of CP-violation is insufficient to explain the observed matter-antimatter imbalance.\n\nIn 2025, the LHCb collaboration at CERN made a landmark breakthrough by reporting the first-ever observation of CP-violation in baryons—specifically in decays of b-quark-containing Lambda baryons into s-quark-containing Lambda baryons along with charged kaons. This discovery, visualized through detailed event reconstructions and decay amplitude analyses, confirms that CP-violation extends beyond mesons into the baryonic sector, a prediction long sought by theorists. \n\nThis finding significantly advances the baryogenesis puzzle by demonstrating that the necessary CP-violating mechanisms operate in the very class of particles (baryons) whose asymmetry we seek to explain. It strengthens the case for physics beyond the Standard Model and brings us closer to understanding how our matter-filled universe came to exist.", "key_arguments": ["The origin of the matter-antimatter asymmetry in the universe (baryogenesis) remains one of the greatest unsolved problems in physics.", "The 2025 discovery of baryonic CP-violation by the LHCb collaboration fulfills a key theoretical prediction and provides crucial experimental evidence that CP-violation extends beyond mesons to baryons.", "This discovery represents significant progress toward explaining baryogenesis, as it demonstrates CP-violation in the same class of particles (baryons) whose asymmetry defines our universe."], "mentioned_resources": ["Sakharov conditions - The three criteria (out-of-equilibrium state, C/CP-violation, baryon number violation) necessary for generating a matter-antimatter asymmetry, proposed by Andrei Sakharov.", "R. Aaij et al., Physical Review Letters, 2025 - The peer-reviewed publication detailing the observation of CP-asymmetries in Λb0 baryon decays.", "S. Cao et al., Symmetry, 2022 - Research on neutrino and quark mixing matrices relevant to CP-violation studies."], "keywords": ["baryogenesis", "CP-violation", "matter-antimatter asymmetry", "LHCb", "Standard Model", "quark-gluon plasma", "sphaleron interactions", "baryon number violation"], "style_tone": "严谨学术的科学分析风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "田洁｜我们是天生的那个啥？——“人之初”的善恶谜题 #“道德怪物”专栏08", "summary_long": "文章围绕‘人之初，性本善还是性本恶’这一古老哲学命题展开，指出该问题本身需先被澄清：所谓‘初’与‘本’究竟指个体生命的起点（婴幼儿），还是人类整体的原始状态？作者通过多学科视角探讨其可能解答路径。\n\n首先从儿童发展心理学切入，援引皮亚杰的‘三山实验’和柯尔伯格的‘海因茨偷药’困境，揭示幼童道德判断依赖于外在惩罚而非对错原则，表现出认知自我主义与道德推理的匮乏。但作者随即质疑此方法的有效性——幼童缺乏的或许不是道德能力，而是行为成熟的认知基础，因此对其做道德评判本身可能是不恰当的。\n\n其次转向人类学与历史学视角，将‘人之初’理解为原始社会的人类状态。观察显示，如因纽特人中的杀婴、弃老、多妻陪客等行为，在现代道德看来野蛮残忍。然而，道德相对主义者认为不应以当代标准评判异文化；非相对主义者则指出，这些行为在极端生存环境下具有内在合理性，实为资源优化配置的道德选择。\n\n最后引入演化伦理学，特别是理查德·道金斯《自私的基因》理论。常见误读认为‘基因自私’意味着人性本恶，但作者强调：基因是进化的基本单位，个体只是其载体。‘自私的基因’反而可能演化出利他、合作甚至自我牺牲的行为，因为群体协作更有利于基因传播。因此，演化机制无法简单导出人性善或恶的结论。\n\n全文最终落脚于哲学反思：对‘人之初’的追问，其价值不在答案，而在厘清问题本身的多重意涵。正如作者所言：‘哲学思考的效力往往不在于提供答案，而在于澄清问题本身。’", "key_arguments": ["“人之初”的善恶问题首先需要明确其语义层面：是指个体出生时的心理倾向，还是人类文明初期的集体状态。", "儿童发展心理学（如皮亚杰与柯尔伯格的研究）表明幼童具有认知自我主义和基于惩罚的道德判断，但这未必反映‘本性’，而可能是认知未成熟的表现。", "人类学证据显示原始社会存在现代视为‘不道德’的行为，但这些行为在特定生存逻辑下可能具有内在道德合理性，且受道德相对主义挑战。", "演化伦理学（如《自私的基因》）常被误读为支持‘人性本恶’，但实际上‘自私的基因’可通过利他策略实现复制成功，故无法从中推出人性单一本质。", "哲学的核心作用是澄清问题本身，而非给出确定答案；对‘人之初’的追问意义正在于揭示其复杂性与多义性。"], "mentioned_resources": ["《蝇王》（威廉·戈尔丁） - 小说及电影用以隐喻儿童脱离文明后堕入野蛮，作为人性本恶的文学例证。", "三山实验 (The Three Mountains Task) (让·皮亚杰) - 证明儿童早期认知的自我中心特征。", "海因茨偷药困境 (劳伦斯·柯尔伯格) - 用于测试儿童道德推理发展阶段的经典心理实验。", "《自私的基因》(理查德·道金斯) - 演化生物学著作，提出基因是进化基本单位，解释利他行为如何源于‘自私’机制。", "《北方的纳努克》(1922年纪录片) - 记录因纽特人生活，作为原始社会道德实践的人类学观察材料。"], "keywords": ["人之初性本善", "人性本恶", "道德本性", "儿童发展心理学", "认知自我主义", "道德相对主义", "演化伦理学", "自私的基因", "利他行为", "问题澄清"], "style_tone": "逻辑严密的分析风格，带有哲思性与批判性，语言生动不乏幽默（如‘陈年口水味儿’），整体保持学术深度与可读性的平衡"}</t>
+  </si>
+  <si>
+    <t>{"title": "徐坚｜名词、形容词还是副词？博物馆的智慧问题 #写给博物馆的情书专栏07", "summary_long": "文章以克利夫兰艺术博物馆2013年开放的‘一号展厅’（Gallery One）为切入点，探讨‘智慧博物馆’的本质。该展厅虽无实体展品，却通过‘艺术魔镜墙’（Artlens Wall）、移动应用ArtLens及Beacon定位技术，构建了一个集互动、教育与个性化导览于一体的数字前台，其核心理念在于‘技术是支持观众参与到收藏的关键工具’。作者指出，当前许多博物馆盲目追求‘魔墙’、AR/VR等技术配置，但这些装置常沦为孤立的展示品，未能真正服务于观众参与。\n\n文章进而提出对‘智慧’的三重解构：作为‘名词’的智慧，指中国自2014年起由国家文物局主导的系统化建设模式，将智慧化分解为智慧服务、智慧保护和智慧管理三大板块，但这种行政视角下的分割割裂了业务内在关联，且易忽视观众需求；作为‘形容词’的智慧，则关注技术应用的有效性与‘数据正义’，批判了那些仅服务于机构自我展示而非公众使用的网站与屏幕，如同卖弄学识却无共鸣的导览员；作为‘副词’的智慧，代表最高层次——‘智慧地’运营博物馆，即以算法为核心，实现如电商平台‘猜你喜欢’般的个性化服务，并进一步引导观众参与知识生产，例如伦敦V&amp;A博物馆采纳观众拍摄的照片，赋予其阐释权。最终，作者强调真正的智慧博物馆应以观众为中心，利用技术重组自身，初心在于支持公众参与，而非技术堆砌。", "key_arguments": ["智慧博物馆的核心不应是技术设备的堆砌（名词），而应是技术如何有效服务于观众（形容词），最终达到‘智慧地’运营，实现个性化与参与式体验（副词）。", "中国智慧博物馆建设虽系统全面，但自上而下的行政模式可能导致业务板块割裂，且存在将内部年鉴数字化当作公共服务的误区，偏离了以观众为中心的‘社会教育’本质功能。", "真正的‘智慧’体现在数据的应用逻辑与算法设计上，关键在于解决‘数据正义’问题，让技术成为观众参与收藏和知识生产的工具，而非强化机构单方面权威的手段。"], "mentioned_resources": ["《信睿周报》第157期 - 文章原载刊物", "克利夫兰艺术博物馆（Cleveland Museum of Art）一号展厅（Gallery One） - 智慧博物馆经典案例", "ArtLens 应用程序 (克利夫兰艺术博物馆) - 实现个性化导览与观众参与的技术工具", "达纳（John Dana）的‘博物馆要教育’理论 - 强调博物馆的教育功能", "棚桥源太郎的‘诉诸眼的教育机关’理论 - 强调视觉教育在博物馆中的作用", "伦敦维多利亚与艾尔伯特（V&amp;A）博物馆的拍照上传项目 - 鼓励观众参与馆藏阐释的实践案例"], "keywords": ["智慧博物馆", "观众参与", "数据正义", "个性化导览", "技术应用", "社会教育", "数字鸿沟", "算法推荐", "克利夫兰艺术博物馆", "V&amp;A博物馆"], "style_tone": "逻辑严密的分析风格，带有批判性和人文关怀"}</t>
+  </si>
+  <si>
+    <t>{"title": "梁捷｜自由市场还是国家主导？19 世纪墨西哥经济理论的论争 #为了幸福专栏07", "summary_long": "本文探讨了19世纪墨西哥独立后，围绕国家经济发展路径展开的核心思想论争，聚焦于自由派代表何塞·玛丽亚·路易斯·莫拉与保守派领袖卢卡斯·阿拉曼之间的对立。作者梁捷指出，主流经济思想史长期存在‘欧洲中心主义’，而墨西哥案例是美洲本土经济理论的重要发端。美国历史学家查尔斯·黑尔在《莫拉时代的墨西哥自由主义：1821—1853》中详述了这段历史。\n\n莫拉出身克里奥尔中产家庭，受欧洲启蒙思想影响，主张以自由市场为核心推动改革。其四大政策主张包括：推行土地私有化（‘解除禁止交易财产’），打破教会和原住民集体土地制度；实行自由贸易，反对关税壁垒，融入全球经济；厉行财政紧缩，削减政府支出与债务；建立世俗公共教育体系，培养现代经济所需人才。他被视为亚当·斯密思想在美洲的实践者。\n\n阿拉曼则出身矿业精英，强调秩序与国家主导。他认为墨西哥作为后发国家，必须通过贸易保护主义扶持民族工业，避免被欧洲列强倾销摧毁。他推动建立‘工业发展银行’，支持工业化，并重视重振矿业以吸引外资。他激烈批评莫拉的改革会瓦解社会稳定结构，损害教会与大地主的作用，并削弱国家应对外部威胁的能力。\n\n两人思想交锋发生在政治强人桑塔·安纳的反复摇摆中。安纳初期推行莫拉式改革，后转向阿拉曼路线，最终导致莫拉流亡、中央集权强化，并引发得克萨斯独立及美墨战争惨败。战后反思促成贝尼托·华雷斯上台，其1855年《华雷斯法》重启自由派改革，但莫拉与阿拉曼均已去世。文章结尾指出，这一自由与国家主导的张力至今仍是美洲经济政策的核心议题。", "key_arguments": ["19世纪墨西哥独立后，莫拉与阿拉曼分别代表自由市场与国家主导两种经济发展范式，构成美洲经济思想的重要源头。", "莫拉主张基于私有化、自由贸易、财政紧缩和世俗教育的自由主义改革，旨在打破殖民遗产，融入全球市场。", "阿拉曼则主张贸易保护、国家扶持工业、维护传统社会结构，强调经济自主与政治秩序优先。", "两派争论受政治强人桑塔·安纳左右，其政策反复导致国家动荡，最终美墨战争失败促使自由派改革在华雷斯时期重启。", "这场19世纪的论争揭示了后发国家在经济自主与发展路径上的根本困境，其母题延续至今。"], "mentioned_resources": ["Mexican Liberalism in the Age of Mora, 1821-1853 (Charles Hale) - 美国历史学家查尔斯·黑尔于1968年出版的著作，详细记录了莫拉时代的墨西哥自由主义运动及其历史背景。", "《华雷斯法》（Ley Juárez） - 贝尼托·华雷斯于1855年推动的法律，废除教会与军队特权，实现法律面前人人平等，是自由派改革的延续。"], "keywords": ["自由市场", "国家主导", "贸易保护主义", "土地私有化", "解除禁止交易财产", "后发国家", "经济自主", "欧洲中心主义", "工业化", "世俗教育"], "style_tone": "严谨学术的分析风格，带有批判性人文关怀"}</t>
+  </si>
+  <si>
+    <t>{"title": "张昕｜每个人都会是老年歧视的受害者 #知识现场专栏07", "summary_long": "本文通过访谈北京大学老年心理学研究者张昕，探讨了社会上普遍存在的厌老情绪及其深层原因。张昕指出，从进化心理学角度看，并不存在‘厌老’的生物本能，相反，‘祖母假说’表明老年人在传递经验、提升后代存活率方面具有重要进化价值。当前的厌老现象更多由社会文化因素驱动，主要源于‘社会认同理论’——人们将老年人划为‘外群体’而产生歧视；以及‘恐惧管理理论’——因害怕死亡而将老年人视为死亡象征并加以排斥。\n\n这种对老年人的刻板印象带来多重负面后果：一是形成双重标准，如将老年人的遗忘归因为衰老而非情境因素；二是产生‘刻板印象威胁’，即消极预期会实际损害老年人的认知表现；三是导致‘自我老化态度’内化，年轻时对老人的歧视会在个体年老后转为自我否定，进而影响心理健康、生理健康乃至寿命。\n\n文章进一步解释了老年人心理变化的机制，引入‘社会情绪选择理论’：随着‘未来时间知觉’缩短，老年人更倾向于活在当下，优先维护亲密的家庭关系，从而实现情绪满足。此外，老年人偏好‘低唤醒的积极情绪’（如微笑），与文化习惯及体能限制有关。\n\n关于认知衰退，张昕强调其为连续过程而非突变，诊断依赖MMSE和MoCA量表筛查及脑部扫描。‘西雅图纵向研究’揭示认知衰退存在个体差异，且受‘练习效应’影响，持续锻炼可延缓特定能力衰退。对于认知症患者，应采取类儿童照护模式，防范‘黄昏症’风险，并重视照料者的心理健康，建议定期休息与心理咨询。早期干预MCI有助于延缓向阿尔茨海默病发展。", "key_arguments": ["厌老情绪并非进化本能，而是由社会认同理论（内外群体划分）和恐惧管理理论（对死亡的回避）共同塑造的社会文化现象。", "对老年人的刻板印象会产生三重危害：强化年轻人的双标歧视、引发老年人的‘刻板印象威胁’、导致个体将早年偏见内化为消极的‘自我老化态度’，损害自身晚年身心健康。", "老年人社会关系偏好转变源于‘社会情绪选择理论’，即因‘未来时间知觉’有限，更追求情绪满足，转向亲近家人。", "认知功能衰退是连续且具个体差异的过程，‘练习效应’可显著延缓特定认知能力的退化。", "认知症照护需兼顾患者安全（如应对‘黄昏症’）与照料者心理健康，强调早期干预对延缓MCI恶化的重要性。"], "mentioned_resources": ["《进化心理学》（第4版）(美) 戴维·巴斯 - 用于阐述‘祖母假说’及老年人在基因库延续中的价值", "《社会认同论》(波)亨利·泰弗尔 - 支持将年龄作为群体划分依据并产生外群体歧视的理论", "《刻板印象》(美) 克劳德·M.斯蒂尔 - 佐证‘刻板印象威胁’对个体行为的实际影响", "《Developmental Influences on Adult Intelligence: The Seattle Longitudinal Study (2nd Edition)》K. Warner Schaie - 提供认知老化存在个体差异的长期实证研究依据"], "keywords": ["老年歧视", "刻板印象威胁", "自我老化态度", "社会情绪选择理论", "未来时间知觉", "恐惧管理理论", "祖母假说", "认知老化", "练习效应", "黄昏症"], "style_tone": "严谨学术的访谈分析风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "魏颖｜新的全球化在地性与日常空间叙事：澳门国际艺术双年展散记", "summary_long": "本文以2025年澳门国际艺术双年展为切入点，探讨当代艺术在全球化退潮、地缘政治重构背景下的新可能。展览主题‘嗨，你干什么来了？’这一口语化提问蕴含多重语义——欢迎、质疑或试探，呼应了澳门本身作为文化误读产物（‘Macau’源于‘妈阁’）的历史起点，也映射后疫情时代全球交流中的疏离与不确定性。主策展人冯博一指出，贸易冲突与主体失衡使当代艺术陷入困境，全球化魔力消退。\n\n为此，本届双年展采用“主动探索问题”的策展策略，将80件来自13个国家和地区的艺术作品嵌入‘入口’‘宫殿’‘迷宫’‘赌场’‘太空’等20个日常空间叙事中，使澳门艺术博物馆成为全球化‘在地性’的锚点与容器。展览以宋冬《非问非答》开篇，构建镜面边检站，用霓虹灯向观众发问‘你我从哪里来？’‘你我是谁？’‘到哪里去？’，并分发‘护照’盖章‘入境’，形成强烈的仪式感与哲学叩问。出口处张培力的三屏影像《海上》则呈现漂浮于不明水域的人，命运未卜，呼应旅程的未知终点。\n\n核心板块如‘居间’（in-between），借利玛窦经澳门进入中国传播自鸣钟与地图的历史，引出绘造社《自鸣屋》——观众参与敲钟致时间混乱，挑战机械时间的权威；曹澍《异地牢结》追溯耶稣会士卜弥格的跨境旅程。‘空隙’板块通过毕蓉蓉《缠枝与茛苕》（源自传教士带入的萧山花边）与赵仁辉《为气候而来，为混乱而驻》（展示外来物种入侵生态），揭示文化与自然层面的‘错位’与‘混杂’。白双全《谷之旅》则隐秘观察城市角落。\n\n‘太空’板块颇具深意，徐冰《卫星上的湖泊》随卫星位置变换语言，张文超用算法生成融合人类宇宙观的数字电影，山内祥太《面孔星球》让观众生成虚拟形象在异星对话，探讨面对“他者”的永恒命题。最后的‘迷宫’与‘疗室’提供反思与治愈：施耐德制造循环房间困局，赫思《数字遗迹》展现身体蜡化异变；雷耶斯《疗养室》以掷哲学骰子类比求签，莫尔加《怎么创造一片海洋》则以眼泪培育藻类，将个人情感转化为生态关怀。全文以巴什拉‘空间诗学’为潜在框架，追问艺术如何在断裂时代重建联结。", "key_arguments": ["澳门双年展的主题‘嗨，你干什么来了？’不仅是日常问候，更是对全球化背景下身份、目的与归属的深层哲学质询，其多义性完美契合澳门作为文化误读诞生地的历史特质。", "展览通过将艺术作品置于‘入口’‘出口’‘居间’‘太空’等20个日常空间叙事中，将博物馆重构为全球化‘在地性’的缩影与容器，实践了一种主动探索人生意义与责任的策展方式。", "在全球化纽带断裂的当下，艺术的功能转向处理‘错位’（如文化误读、生态入侵）、‘迷途’（如身份迷失）与‘疗愈’（如哲学自省、情感转化），试图在疏离中重建人与世界、自我与他者的联系。"], "mentioned_resources": ["《非问非答》 (宋冬) - 展览入口处的装置，模拟边检站，以镜面和霓虹灯提问‘嗨，你干什么来了？’等哲学命题，观众持‘护照’盖章‘入境’。", "《自鸣屋》 (绘造社) - 受利玛窦带来的自鸣钟启发，观众参与导致时间混乱，反思现代计时系统对人的支配。", "《异地牢结》 (曹澍) - 以耶稣会士卜弥格从云南至罗马的旅程为灵感，探讨地理与心理距离的叠加。", "《面孔星球》 (山内祥太) - 观众通过问卷生成虚拟形象，在由九个面孔组成的星球上与其他形象对话，探讨个体与集体关系。", "《疗养室》 (佩德罗·雷耶斯) - 装置行为作品，观众抛掷印有哲学家语录的大骰子进行人生思考，类似西方哲学版的求签。", "《怎么创造一片海洋》 (卡西娅·莫尔加) - 艺术家收集自己的眼泪培育藻类，邀请观众捐赠眼泪，连接个人情感与生态危机。", "空间诗学 (加斯东·巴什拉) - 文末提及，暗示展览是对其理论的一次宏大演绎。"], "keywords": ["全球化在地性", "日常空间叙事", "文化误读", "身份认同", "居间 (in-between)", "他者", "艺术疗愈", "技术与人性"], "style_tone": "充满人文关怀的哲思散文风格，兼具学术深度与诗意观察"}</t>
+  </si>
+  <si>
+    <t>{"title": "苏磊｜将科学空间转变为“认知剧场”——“Brain &amp; Mind X”策展手记", "summary_long": "2025年9月底，由复旦大学类脑智能科学与技术研究院主办、北京师范大学未来设计学院协办的‘Brain &amp; Mind X：脑智—科学与艺术展’在复旦类脑研究院大楼揭幕。作为国内首个以‘类脑科学’为主题的长期跨界展览，该项目融合前沿科研成果与当代艺术表达，旨在推动科学传播从单向展示转向公众共构的开放系统。\n\n展览的构想源于2015年复旦类脑研究院建院之初面临的双重挑战：一方面需向公众有效传达新兴学科的价值；另一方面需为科学家构建富有启发性的交流空间。传统科研空间难以满足知识生成、社会参与与文化表达的复合需求。为此，策展团队引入联合国教科文组织顾问爱德华多·马丁内斯提出的‘第四代科学中心’理念——未来的科研场所应是兼具参与性、跨学科性与虚实融合的知识生成平台。\n\n依托‘博物馆式办公空间’的建筑语境，展览将研究院本身转化为一个‘认知剧场’，通过环廊与天井空间无缝衔接科研、教学与艺术展示。科学家在日常中‘偶遇’艺术作品获得灵感，访客则可在沉浸式体验中理解类脑科学，并与研究者直接互动，形成动态的思想场域。\n\n展览分为五大板块，核心是科学家与艺术家合作的跨界作品。例如：查理·林赛基于冯建峰、程炜的‘全脑规模数字孪生平台’创作《CARBON》，隐喻数字孪生下的双重世界；高振鹏根据冈特·舒曼研究创作《烟雾消散，所有的一切都闪烁着光芒》，揭示城市对认知的重塑；肖晓与王智一合作《心与意》，以色彩博弈展现冷热认知系统；赵兴明团队的研究衍生出周霄雨的《AURA》与孙尧的《记忆迷踪》；朱山风与周倩以蛋白质模型结合五行水墨创作《同源性》；程炜的研究则激发了杨柳的《时间·思维》与罗伯特·兰迪的THE FAMILY CIRCLE。\n\n这些作品共同构成‘认知图谱’，实现科学数据与艺术语言的双向激发。展览配套公共教育活动与手册，构建‘科研—社会—文化’传播闭环。其终极目标是使科学空间成为‘思维生态系统’，不仅是知识终点，更是创新与文化共生的起点。", "key_arguments": ["当代科学传播正从单向的知识传递转向‘第四代科学中心’模式，即集知识生成、公众参与与文化表达于一体的开放共构系统。", "‘Brain &amp; Mind X’通过将科研空间转化为‘认知剧场’，使科学与艺术在日常互动中形成动态思想场域，激发科研灵感并重塑公众对科学的理解。", "展览通过科学家与艺术家深度合作的跨界作品，构建‘认知图谱’，实现科学数据与艺术感知的双向流动，使科学成为可感、可思、可共鸣的文化生产方式。"], "mentioned_resources": ["“第四代科学中心” (爱德华多·马丁内斯) - 联合国教科文组织顾问提出的新科研空间范式，强调参与性、跨学科性与虚实融合。", "CARBON (查理·林赛 / 冯建峰、程炜) - 基于‘全脑规模数字孪生平台’的粒子艺术作品，呈现大气洋流如神经网络律动的图景。", "《烟雾消散，所有的一切都闪烁着光芒》 (高振鹏 / 冈特·舒曼) - 将城市元素转译为脑部结构，探讨城市对认知的深层影响。", "《心与意》 (肖晓、王智一) - 以冷暖色彩象征理性与情感、冷认知与热认知系统的矛盾与平衡。", "AURA (周霄雨 / 赵兴明、陈靖祺) - 源于精神疾病共病机制研究的影像作品，呈现患者内在的痛苦与希望。", "《记忆迷踪》 (孙尧 / 赵兴明、杨禹丞) - 以抽象绘画再现‘神经风暴’，表现记忆生成的混沌过程。", "《同源性》 (周倩 / 朱山风) - 以蛋白质语言模型融合五行水墨，探讨生命本源的科学与艺术之问。", "《时间·思维》 (杨柳 / 程炜) - 并置时钟与生物纹理，反映生命时间与创造力的联动。", "THE FAMILY CIRCLE (罗伯特·兰迪 / 程炜) - 基于家庭环境与儿童行为关系研究，融合心理疗愈与曼陀罗结构探讨家庭在认知发育中的作用。"], "keywords": ["类脑科学", "认知剧场", "第四代科学中心", "科学与艺术", "跨界合作", "认知图谱", "博物馆式办公空间", "公众参与", "数字孪生", "思维生态系统"], "style_tone": "充满人文关怀的学术论述风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "李公明｜一周画记：阿伦特逝世50周年纪念——她捍卫人性的尊严", "summary_long": "文章以汉娜·阿伦特逝世五十周年为切入点，回顾其核心思想，并借由《疯狂动物城2》的上映展开对当代社会现实的双重反思。作者指出，阿伦特作为政治理论家，其关于‘平庸的恶’（the banality of evil）的论述源于对纳粹军官审判的观察：作恶者并非恶魔，而是盲目服从体制的普通人，这种缺乏道德自省的行为构成了极权统治下最普遍的罪责形式。阿伦特由此追问‘独裁统治下的个人责任’，强调人无法摆脱与自身良知共处的事实，必须保持清醒的判断力。\n\n政治在阿伦特的思想中意味着自由，而她的研究始终围绕极权主义展开，代表作《极权主义的起源》揭示了其反人类本质。她更关注知识分子面对邪恶时的态度——是顺从、默认，还是反抗？为此，她推崇‘讲故事’（story-telling）的方式，认为唯有通过记者、诗人和历史学家的具体叙述，才能真正呈现极权暴行的复杂性与创伤经验，从而在思想实践中捍卫人性的尊严。\n\n文章第二部分转向文化分析，以《疯狂动物城2》为例，指出该片表面是乌托邦式的幻想乐园（Zootopia = Zoo + Utopia），实则蕴含深刻的历史与现实隐喻。影片中蛇类被排斥、边缘化，甚至背负罪名，映射了美洲原住民被殖民者驱逐与污名化的历史。而最终揭露的‘气候墙发明者实为蛇族祖先’的情节，则象征着对被篡改历史的重述与正义的追索。作者认为，这不仅是对过去的回望，更是对当下美国白人种族主义抬头、移民歧视加剧的尖锐批判。蛇盖瑞的命运成为一面镜子，照出现实中的结构性不公。即便在迪士尼的造梦世界里，也未曾回避历史伤痕与社会矛盾，反而借此呼唤纯真、理想与抗争的勇气。", "key_arguments": ["阿伦特提出‘平庸的恶’概念，揭示普通人在体制中盲目服从所导致的道德失能，强调个体在极权下仍需承担不可推卸的个人责任。", "政治的本质是自由，而理解极权主义的关键在于知识分子如何回应邪恶——应选择疏离与反抗，而非顺从或默认。", "‘讲故事’作为一种认知方式，能够超越抽象概念，直面历史创伤与生命体验，是捍卫人性尊严的重要实践。", "《疯狂动物城2》不仅是娱乐作品，更承载历史隐喻（原住民被驱逐）与现实批判（种族主义与移民歧视），其乌托邦表象下隐藏着对结构性压迫的揭露。"], "mentioned_resources": ["《极权主义的起源》(汉娜·阿伦特) - 阿伦特探讨极权主义反人类性质的核心著作，文中多次引用其思想框架。", "“澎湃新闻·上海书评”对托马斯·迈耶的访谈 (托马斯·迈耶) - 提供关于阿伦特思想的权威解读背景，特别是其‘平庸的恶’与政治哲学的当代意义。"], "keywords": ["阿伦特", "平庸的恶", "极权主义", "个人责任", "政治与自由", "讲故事", "历史创伤", "乌托邦", "隐喻", "结构性歧视"], "style_tone": "充满人文关怀的思辨风格，兼具学术深度与文化批评的敏锐感"}</t>
+  </si>
+  <si>
+    <t>{"title": "澎湃思想周报｜ 如何避开“愤怒诱饵”；劣化的劳动", "summary_long": "文章分为两个核心部分，分别探讨了数字时代的心理操纵与AI驱动下的劳动异化问题。\n\n第一部分聚焦‘愤怒诱饵’（ragebait）现象。2025年，《牛津词典》将‘愤怒诱饵’选为年度词汇，指被故意设计得令人恼火、挑衅或冒犯的在线内容，旨在激发愤怒情绪以获取流量和互动。与传统的‘点击诱饵’不同，其核心策略是情绪操控。牛津语言总裁卡斯帕·格拉斯沃尔指出，这标志着互联网从激发好奇心转向绑架情绪。‘愤怒诱饵’与2024年的年度词汇‘脑腐’（brain rot）形成恶性循环：愤怒引发互动，算法放大情绪，导致用户精神疲惫。心理学家萨拉·奎因指出，此类内容易在社会或政治议题上引发认知失调、焦虑甚至抑郁。研究者认为，互动行为本身具有多巴胺成瘾性，形成‘奖励’机制，反而鼓励更多类似内容生产。识别‘愤怒诱饵’的关键在于反思内容是否刻意激怒，并通过查证信源、屏蔽发布者、减少社交媒体使用来应对。专家建议消费长篇内容以打破碎片化带来的情绪过山车。\n\n第二部分基于Cory Doctorow的讲座，剖析AI泡沫背后的经济逻辑及其对劳动的劣化。Doctorow提出‘逆向半人马’（The Reverse Centaur）概念：不是人类大脑控制机器身体，而是机器大脑支配人类肉体。典型如亚马逊司机被AI监控，沦为‘血肉义肢’。他指出，AI热潮并非技术突破，而是科技巨头（Google、Meta、Amazon）为维持‘增长股’估值而制造的泡沫。一旦失去高市盈率，公司便丧失用股票‘印钞’的能力，因此必须不断炒作新概念。AI的核心商业承诺是‘解雇高薪员工’——如用AI替代90%放射科医生，留下10%作为‘问责黑洞’背锅。这种模式利用人类的‘自动化盲区’，即难以持续监控AI错误。程序员也面临同样风险：初级员工审查AI生成的隐蔽代码，而资深人才被裁。\n\n在AI艺术领域，Doctorow反对扩大版权法保护训练数据，警告这会强化迪士尼等巨头垄断。他主张维持AI作品无版权的现状，使大公司无法独占AI产出，形成经济威慑。艺术家应通过行业集体谈判权（如好莱坞编剧工会）而非依赖法律对抗AI剥削。这一系列现象与他提出的‘平台劣化’（Enshittification）三阶段理论一脉相承：平台先补贴用户锁定市场，再压榨用户与商家，最终将所有价值收归己有。AI泡沫正是此过程的终极形态，将人类劳动降级为可替换的廉价组件。Doctorow警示：真正的威胁不是AI觉醒，而是平庸的AI成为资本压迫工人的工具，呼吁尽快刺破这一‘技术社会的石棉’式泡沫。", "key_arguments": ["“愤怒诱饵”是为攫取注意力而刻意制造愤怒的网络内容，与算法共同构成精神耗竭的恶性循环。", "AI的普及并非源于技术必要性，而是科技巨头为维持股价增长假象而制造的经济泡沫。", "当前AI部署模式实为“逆向半人马”，将人类降级为机器的执行端与“问责黑洞”，导致劳动尊严与安全性的系统性劣化。", "平台劣化（Enshittification）的最终阶段是劳动力的商品化，AI被用作资本剥削工人的工具而非增强人类能力的手段。"], "mentioned_resources": ["《Enshittification》(Cory Doctorow) - 作者2022年提出的理论，描述平台通过三阶段劣化用户与商业客户以榨取价值的过程。", "《The Reverse Centaur's Guide to Life After AI》(Cory Doctorow) - 即将出版的新书，提出“逆向半人马”隐喻，批判AI对劳动的异化。", "《2001太空漫游》(斯坦利·库布里克) - 其中的HAL 9000形象被Doctorow用于象征被AI控制的恐怖未来。"], "keywords": ["愤怒诱饵", "脑腐", "逆向半人马", "平台劣化", "AI泡沫", "问责黑洞", "自动化盲区", "情绪操控", "算法推荐", "劳动异化"], "style_tone": "犀利批判、逻辑严密的分析风格"}</t>
+  </si>
+  <si>
     <t>2025-12-08T14:15:52</t>
   </si>
   <si>
@@ -2751,6 +3671,42 @@
     <t>2025-12-08T14:25:53</t>
   </si>
   <si>
+    <t>2025-12-09T16:26:24</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:27:44</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:28:08</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:17:27</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:30:06</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:30:29</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:30:53</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:31:19</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:31:50</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:32:19</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:19:02</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:32:46</t>
+  </si>
+  <si>
     <t>2025-12-08T14:37:36</t>
   </si>
   <si>
@@ -2790,6 +3746,33 @@
     <t>2025-12-08T14:41:12</t>
   </si>
   <si>
+    <t>2025-12-09T16:33:45</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:33:59</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:34:13</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:34:26</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:34:40</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:34:56</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:37:55</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:35:12</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:35:25</t>
+  </si>
+  <si>
     <t>2025-12-08T14:45:03</t>
   </si>
   <si>
@@ -2800,6 +3783,42 @@
   </si>
   <si>
     <t>2025-12-08T14:46:04</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:35:38</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:35:50</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:35:57</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:36:08</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:36:18</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:36:28</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:36:38</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:36:50</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:37:00</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:37:11</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:37:23</t>
+  </si>
+  <si>
+    <t>2025-12-09T16:37:36</t>
   </si>
   <si>
     <t>playwright</t>
@@ -3176,7 +4195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3291,70 +4310,70 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="O2" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P2">
         <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="R2" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="S2" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="T2" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="U2" t="s">
-        <v>253</v>
+        <v>380</v>
       </c>
       <c r="V2" t="s">
-        <v>264</v>
+        <v>410</v>
       </c>
       <c r="W2" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y2" t="s">
-        <v>290</v>
+        <v>448</v>
       </c>
       <c r="Z2" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB2" t="s">
-        <v>316</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -3368,70 +4387,70 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="O3" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P3">
         <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="R3" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="S3" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="T3" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="U3" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="V3" t="s">
-        <v>265</v>
+        <v>411</v>
       </c>
       <c r="W3" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y3" t="s">
-        <v>291</v>
+        <v>449</v>
       </c>
       <c r="Z3" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB3" t="s">
-        <v>317</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -3445,70 +4464,70 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="L4" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="O4" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P4">
         <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="R4" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="S4" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="T4" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="U4" t="s">
-        <v>254</v>
+        <v>381</v>
       </c>
       <c r="V4" t="s">
-        <v>266</v>
+        <v>412</v>
       </c>
       <c r="W4" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y4" t="s">
-        <v>292</v>
+        <v>450</v>
       </c>
       <c r="Z4" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB4" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -3522,70 +4541,70 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="L5" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="O5" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P5">
         <v>92</v>
       </c>
       <c r="Q5" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="R5" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="S5" t="s">
-        <v>236</v>
+        <v>341</v>
       </c>
       <c r="T5" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="U5" t="s">
-        <v>255</v>
+        <v>382</v>
       </c>
       <c r="V5" t="s">
-        <v>267</v>
+        <v>413</v>
       </c>
       <c r="W5" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y5" t="s">
-        <v>293</v>
+        <v>451</v>
       </c>
       <c r="Z5" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB5" t="s">
-        <v>319</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -3599,70 +4618,70 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K6" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="O6" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P6">
         <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="R6" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="S6" t="s">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="T6" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="U6" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="V6" t="s">
-        <v>268</v>
+        <v>414</v>
       </c>
       <c r="W6" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y6" t="s">
-        <v>294</v>
+        <v>452</v>
       </c>
       <c r="Z6" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB6" t="s">
-        <v>320</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -3676,70 +4695,70 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K7" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="L7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="O7" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P7">
         <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="R7" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="S7" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="T7" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="U7" t="s">
-        <v>257</v>
+        <v>384</v>
       </c>
       <c r="V7" t="s">
-        <v>269</v>
+        <v>415</v>
       </c>
       <c r="W7" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y7" t="s">
-        <v>295</v>
+        <v>453</v>
       </c>
       <c r="Z7" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB7" t="s">
-        <v>321</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -3753,70 +4772,70 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="O8" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P8">
         <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="R8" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="S8" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="T8" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="U8" t="s">
-        <v>258</v>
+        <v>385</v>
       </c>
       <c r="V8" t="s">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="W8" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y8" t="s">
-        <v>296</v>
+        <v>454</v>
       </c>
       <c r="Z8" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB8" t="s">
-        <v>322</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -3830,70 +4849,70 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L9" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="O9" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P9">
         <v>93</v>
       </c>
       <c r="Q9" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="R9" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="S9" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="T9" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="U9" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="V9" t="s">
-        <v>271</v>
+        <v>417</v>
       </c>
       <c r="W9" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y9" t="s">
-        <v>297</v>
+        <v>455</v>
       </c>
       <c r="Z9" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB9" t="s">
-        <v>323</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -3907,70 +4926,70 @@
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="L10" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="O10" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P10">
         <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="R10" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="S10" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="T10" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="U10" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="V10" t="s">
-        <v>272</v>
+        <v>418</v>
       </c>
       <c r="W10" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y10" t="s">
-        <v>298</v>
+        <v>456</v>
       </c>
       <c r="Z10" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB10" t="s">
-        <v>324</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -3984,70 +5003,70 @@
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="L11" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="O11" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P11">
         <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="R11" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="S11" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="T11" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="U11" t="s">
-        <v>259</v>
+        <v>386</v>
       </c>
       <c r="V11" t="s">
-        <v>273</v>
+        <v>419</v>
       </c>
       <c r="W11" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y11" t="s">
-        <v>299</v>
+        <v>457</v>
       </c>
       <c r="Z11" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB11" t="s">
-        <v>325</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -4061,70 +5080,70 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="O12" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P12">
         <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="R12" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="S12" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="T12" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="U12" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="V12" t="s">
-        <v>274</v>
+        <v>420</v>
       </c>
       <c r="W12" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y12" t="s">
-        <v>300</v>
+        <v>458</v>
       </c>
       <c r="Z12" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB12" t="s">
-        <v>326</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -4138,70 +5157,70 @@
         <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="L13" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="O13" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P13">
         <v>90</v>
       </c>
       <c r="Q13" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="R13" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="S13" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="T13" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="U13" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="V13" t="s">
-        <v>275</v>
+        <v>421</v>
       </c>
       <c r="W13" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y13" t="s">
-        <v>301</v>
+        <v>459</v>
       </c>
       <c r="Z13" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB13" t="s">
-        <v>327</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -4215,70 +5234,70 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H14" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="O14" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P14">
         <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="R14" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="S14" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="T14" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="U14" t="s">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="V14" t="s">
-        <v>276</v>
+        <v>422</v>
       </c>
       <c r="W14" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y14" t="s">
-        <v>302</v>
+        <v>460</v>
       </c>
       <c r="Z14" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB14" t="s">
-        <v>328</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -4292,55 +5311,70 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="O15" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>275</v>
+      </c>
+      <c r="R15" t="s">
+        <v>313</v>
       </c>
       <c r="S15" t="s">
-        <v>246</v>
+        <v>351</v>
+      </c>
+      <c r="T15" t="s">
+        <v>379</v>
       </c>
       <c r="U15" t="s">
-        <v>246</v>
+        <v>388</v>
       </c>
       <c r="V15" t="s">
-        <v>277</v>
+        <v>423</v>
       </c>
       <c r="W15" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y15" t="s">
-        <v>303</v>
+        <v>461</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -4354,58 +5388,73 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="O16" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>276</v>
+      </c>
+      <c r="R16" t="s">
+        <v>314</v>
       </c>
       <c r="S16" t="s">
-        <v>246</v>
+        <v>352</v>
+      </c>
+      <c r="T16" t="s">
+        <v>377</v>
       </c>
       <c r="U16" t="s">
-        <v>246</v>
+        <v>389</v>
       </c>
       <c r="V16" t="s">
-        <v>278</v>
+        <v>424</v>
       </c>
       <c r="W16" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y16" t="s">
-        <v>304</v>
+        <v>462</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>500</v>
       </c>
       <c r="AC16" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="AD16" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="AF16" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -4419,58 +5468,73 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="O17" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>277</v>
+      </c>
+      <c r="R17" t="s">
+        <v>315</v>
       </c>
       <c r="S17" t="s">
-        <v>246</v>
+        <v>353</v>
+      </c>
+      <c r="T17" t="s">
+        <v>379</v>
       </c>
       <c r="U17" t="s">
-        <v>246</v>
+        <v>390</v>
       </c>
       <c r="V17" t="s">
-        <v>279</v>
+        <v>425</v>
       </c>
       <c r="W17" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y17" t="s">
-        <v>305</v>
+        <v>463</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>501</v>
       </c>
       <c r="AC17" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="AD17" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="AF17" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -4484,58 +5548,73 @@
         <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="O18" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>278</v>
+      </c>
+      <c r="R18" t="s">
+        <v>316</v>
       </c>
       <c r="S18" t="s">
-        <v>246</v>
+        <v>354</v>
+      </c>
+      <c r="T18" t="s">
+        <v>377</v>
       </c>
       <c r="U18" t="s">
-        <v>246</v>
+        <v>391</v>
       </c>
       <c r="V18" t="s">
-        <v>280</v>
+        <v>426</v>
       </c>
       <c r="W18" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y18" t="s">
-        <v>306</v>
+        <v>464</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>502</v>
       </c>
       <c r="AC18" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="AD18" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="AF18" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -4549,58 +5628,73 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="O19" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>279</v>
+      </c>
+      <c r="R19" t="s">
+        <v>317</v>
       </c>
       <c r="S19" t="s">
-        <v>246</v>
+        <v>355</v>
+      </c>
+      <c r="T19" t="s">
+        <v>377</v>
       </c>
       <c r="U19" t="s">
-        <v>246</v>
+        <v>392</v>
       </c>
       <c r="V19" t="s">
-        <v>281</v>
+        <v>427</v>
       </c>
       <c r="W19" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y19" t="s">
-        <v>307</v>
+        <v>465</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>503</v>
       </c>
       <c r="AC19" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="AD19" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="AF19" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -4614,58 +5708,73 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I20" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="O20" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>280</v>
+      </c>
+      <c r="R20" t="s">
+        <v>318</v>
       </c>
       <c r="S20" t="s">
-        <v>246</v>
+        <v>356</v>
+      </c>
+      <c r="T20" t="s">
+        <v>377</v>
       </c>
       <c r="U20" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="V20" t="s">
-        <v>282</v>
+        <v>428</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y20" t="s">
-        <v>308</v>
+        <v>466</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>504</v>
       </c>
       <c r="AC20" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="AD20" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="AF20" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -4679,58 +5788,73 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="O21" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>281</v>
+      </c>
+      <c r="R21" t="s">
+        <v>319</v>
       </c>
       <c r="S21" t="s">
-        <v>246</v>
+        <v>357</v>
+      </c>
+      <c r="T21" t="s">
+        <v>377</v>
       </c>
       <c r="U21" t="s">
-        <v>246</v>
+        <v>394</v>
       </c>
       <c r="V21" t="s">
-        <v>283</v>
+        <v>429</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y21" t="s">
-        <v>309</v>
+        <v>467</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>505</v>
       </c>
       <c r="AC21" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="AD21" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="AF21" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -4744,58 +5868,73 @@
         <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I22" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>282</v>
+      </c>
+      <c r="R22" t="s">
+        <v>320</v>
       </c>
       <c r="S22" t="s">
-        <v>246</v>
+        <v>358</v>
+      </c>
+      <c r="T22" t="s">
+        <v>377</v>
       </c>
       <c r="U22" t="s">
-        <v>246</v>
+        <v>395</v>
       </c>
       <c r="V22" t="s">
-        <v>284</v>
+        <v>430</v>
       </c>
       <c r="W22" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y22" t="s">
-        <v>310</v>
+        <v>468</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>506</v>
       </c>
       <c r="AC22" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="AD22" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="AF22" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -4809,52 +5948,52 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="O23" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="S23" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="U23" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="AC23" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="AD23" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="AF23" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -4868,58 +6007,73 @@
         <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>283</v>
+      </c>
+      <c r="R24" t="s">
+        <v>321</v>
       </c>
       <c r="S24" t="s">
-        <v>246</v>
+        <v>360</v>
+      </c>
+      <c r="T24" t="s">
+        <v>377</v>
       </c>
       <c r="U24" t="s">
-        <v>246</v>
+        <v>396</v>
       </c>
       <c r="V24" t="s">
-        <v>285</v>
+        <v>431</v>
       </c>
       <c r="W24" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y24" t="s">
-        <v>311</v>
+        <v>469</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>507</v>
       </c>
       <c r="AC24" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="AD24" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="AF24" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -4933,64 +6087,64 @@
         <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I25" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L25" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P25">
         <v>88</v>
       </c>
       <c r="Q25" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="R25" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="S25" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
       <c r="T25" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="U25" t="s">
-        <v>261</v>
+        <v>397</v>
       </c>
       <c r="V25" t="s">
-        <v>286</v>
+        <v>432</v>
       </c>
       <c r="W25" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y25" t="s">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="Z25" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB25" t="s">
-        <v>329</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -5004,64 +6158,64 @@
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P26">
         <v>92</v>
       </c>
       <c r="Q26" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="R26" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="S26" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="T26" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="U26" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="V26" t="s">
-        <v>287</v>
+        <v>433</v>
       </c>
       <c r="W26" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="Z26" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB26" t="s">
-        <v>330</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -5075,64 +6229,64 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I27" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P27">
         <v>90</v>
       </c>
       <c r="Q27" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="R27" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="S27" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="T27" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="U27" t="s">
-        <v>262</v>
+        <v>398</v>
       </c>
       <c r="V27" t="s">
-        <v>288</v>
+        <v>434</v>
       </c>
       <c r="W27" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="Y27" t="s">
-        <v>314</v>
+        <v>472</v>
       </c>
       <c r="Z27" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="AB27" t="s">
-        <v>331</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -5146,64 +6300,958 @@
         <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I28" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="P28">
         <v>88</v>
       </c>
       <c r="Q28" t="s">
+        <v>287</v>
+      </c>
+      <c r="R28" t="s">
+        <v>325</v>
+      </c>
+      <c r="S28" t="s">
+        <v>364</v>
+      </c>
+      <c r="T28" t="s">
+        <v>378</v>
+      </c>
+      <c r="U28" t="s">
+        <v>399</v>
+      </c>
+      <c r="V28" t="s">
+        <v>435</v>
+      </c>
+      <c r="W28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29">
+        <v>17652656250105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K29" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" t="s">
+        <v>260</v>
+      </c>
+      <c r="P29">
+        <v>86</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>288</v>
+      </c>
+      <c r="R29" t="s">
+        <v>326</v>
+      </c>
+      <c r="S29" t="s">
+        <v>365</v>
+      </c>
+      <c r="T29" t="s">
+        <v>377</v>
+      </c>
+      <c r="U29" t="s">
+        <v>400</v>
+      </c>
+      <c r="V29" t="s">
+        <v>436</v>
+      </c>
+      <c r="W29" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30">
+        <v>17652656250297</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L30" t="s">
+        <v>210</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30">
+        <v>86</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>289</v>
+      </c>
+      <c r="R30" t="s">
+        <v>327</v>
+      </c>
+      <c r="S30" t="s">
+        <v>366</v>
+      </c>
+      <c r="T30" t="s">
+        <v>377</v>
+      </c>
+      <c r="U30" t="s">
+        <v>401</v>
+      </c>
+      <c r="V30" t="s">
+        <v>437</v>
+      </c>
+      <c r="W30" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31">
+        <v>17652656250360</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>250</v>
+      </c>
+      <c r="O31" t="s">
+        <v>260</v>
+      </c>
+      <c r="P31">
+        <v>78</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>290</v>
+      </c>
+      <c r="R31" t="s">
+        <v>328</v>
+      </c>
+      <c r="S31" t="s">
+        <v>367</v>
+      </c>
+      <c r="T31" t="s">
+        <v>379</v>
+      </c>
+      <c r="U31" t="s">
+        <v>359</v>
+      </c>
+      <c r="V31" t="s">
+        <v>438</v>
+      </c>
+      <c r="W31" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="A32">
+        <v>17652656250448</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" t="s">
+        <v>212</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>251</v>
+      </c>
+      <c r="O32" t="s">
+        <v>260</v>
+      </c>
+      <c r="P32">
+        <v>92</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>291</v>
+      </c>
+      <c r="R32" t="s">
+        <v>329</v>
+      </c>
+      <c r="S32" t="s">
+        <v>368</v>
+      </c>
+      <c r="T32" t="s">
+        <v>378</v>
+      </c>
+      <c r="U32" t="s">
+        <v>402</v>
+      </c>
+      <c r="V32" t="s">
+        <v>439</v>
+      </c>
+      <c r="W32" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32">
+      <c r="A33">
+        <v>17652656260886</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" t="s">
+        <v>177</v>
+      </c>
+      <c r="L33" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>260</v>
+      </c>
+      <c r="P33">
+        <v>88</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>292</v>
+      </c>
+      <c r="R33" t="s">
+        <v>330</v>
+      </c>
+      <c r="S33" t="s">
+        <v>369</v>
+      </c>
+      <c r="T33" t="s">
+        <v>377</v>
+      </c>
+      <c r="U33" t="s">
+        <v>403</v>
+      </c>
+      <c r="V33" t="s">
+        <v>440</v>
+      </c>
+      <c r="W33" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
+      <c r="A34">
+        <v>17652656260952</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" t="s">
+        <v>157</v>
+      </c>
+      <c r="I34" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" t="s">
+        <v>214</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>253</v>
+      </c>
+      <c r="O34" t="s">
+        <v>260</v>
+      </c>
+      <c r="P34">
+        <v>88</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>293</v>
+      </c>
+      <c r="R34" t="s">
+        <v>331</v>
+      </c>
+      <c r="S34" t="s">
+        <v>370</v>
+      </c>
+      <c r="T34" t="s">
+        <v>377</v>
+      </c>
+      <c r="U34" t="s">
+        <v>404</v>
+      </c>
+      <c r="V34" t="s">
+        <v>441</v>
+      </c>
+      <c r="W34" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32">
+      <c r="A35">
+        <v>17652656261007</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" t="s">
+        <v>177</v>
+      </c>
+      <c r="L35" t="s">
         <v>215</v>
       </c>
-      <c r="R28" t="s">
-        <v>232</v>
-      </c>
-      <c r="S28" t="s">
-        <v>250</v>
-      </c>
-      <c r="T28" t="s">
-        <v>252</v>
-      </c>
-      <c r="U28" t="s">
-        <v>263</v>
-      </c>
-      <c r="V28" t="s">
-        <v>289</v>
-      </c>
-      <c r="W28" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB28" t="s">
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" t="s">
+        <v>260</v>
+      </c>
+      <c r="P35">
+        <v>88</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>294</v>
+      </c>
+      <c r="R35" t="s">
         <v>332</v>
+      </c>
+      <c r="S35" t="s">
+        <v>371</v>
+      </c>
+      <c r="T35" t="s">
+        <v>377</v>
+      </c>
+      <c r="U35" t="s">
+        <v>405</v>
+      </c>
+      <c r="V35" t="s">
+        <v>442</v>
+      </c>
+      <c r="W35" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="A36">
+        <v>17652656261130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" t="s">
+        <v>216</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O36" t="s">
+        <v>260</v>
+      </c>
+      <c r="P36">
+        <v>88</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>295</v>
+      </c>
+      <c r="R36" t="s">
+        <v>333</v>
+      </c>
+      <c r="S36" t="s">
+        <v>372</v>
+      </c>
+      <c r="T36" t="s">
+        <v>377</v>
+      </c>
+      <c r="U36" t="s">
+        <v>406</v>
+      </c>
+      <c r="V36" t="s">
+        <v>443</v>
+      </c>
+      <c r="W36" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32">
+      <c r="A37">
+        <v>17652656261229</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" t="s">
+        <v>177</v>
+      </c>
+      <c r="L37" t="s">
+        <v>217</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>256</v>
+      </c>
+      <c r="O37" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37">
+        <v>92</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>296</v>
+      </c>
+      <c r="R37" t="s">
+        <v>334</v>
+      </c>
+      <c r="S37" t="s">
+        <v>373</v>
+      </c>
+      <c r="T37" t="s">
+        <v>377</v>
+      </c>
+      <c r="U37" t="s">
+        <v>407</v>
+      </c>
+      <c r="V37" t="s">
+        <v>444</v>
+      </c>
+      <c r="W37" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32">
+      <c r="A38">
+        <v>17652656261355</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" t="s">
+        <v>218</v>
+      </c>
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>257</v>
+      </c>
+      <c r="O38" t="s">
+        <v>260</v>
+      </c>
+      <c r="P38">
+        <v>88</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>297</v>
+      </c>
+      <c r="R38" t="s">
+        <v>335</v>
+      </c>
+      <c r="S38" t="s">
+        <v>374</v>
+      </c>
+      <c r="T38" t="s">
+        <v>379</v>
+      </c>
+      <c r="U38" t="s">
+        <v>359</v>
+      </c>
+      <c r="V38" t="s">
+        <v>445</v>
+      </c>
+      <c r="W38" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32">
+      <c r="A39">
+        <v>17652656660183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" t="s">
+        <v>177</v>
+      </c>
+      <c r="L39" t="s">
+        <v>219</v>
+      </c>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>258</v>
+      </c>
+      <c r="O39" t="s">
+        <v>260</v>
+      </c>
+      <c r="P39">
+        <v>92</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>298</v>
+      </c>
+      <c r="R39" t="s">
+        <v>336</v>
+      </c>
+      <c r="S39" t="s">
+        <v>375</v>
+      </c>
+      <c r="T39" t="s">
+        <v>377</v>
+      </c>
+      <c r="U39" t="s">
+        <v>408</v>
+      </c>
+      <c r="V39" t="s">
+        <v>446</v>
+      </c>
+      <c r="W39" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32">
+      <c r="A40">
+        <v>17652656680287</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" t="s">
+        <v>177</v>
+      </c>
+      <c r="L40" t="s">
+        <v>220</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>259</v>
+      </c>
+      <c r="O40" t="s">
+        <v>260</v>
+      </c>
+      <c r="P40">
+        <v>92</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>299</v>
+      </c>
+      <c r="R40" t="s">
+        <v>337</v>
+      </c>
+      <c r="S40" t="s">
+        <v>376</v>
+      </c>
+      <c r="T40" t="s">
+        <v>377</v>
+      </c>
+      <c r="U40" t="s">
+        <v>409</v>
+      </c>
+      <c r="V40" t="s">
+        <v>447</v>
+      </c>
+      <c r="W40" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5235,6 +7283,18 @@
     <hyperlink ref="F26" r:id="rId25"/>
     <hyperlink ref="F27" r:id="rId26"/>
     <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rss-fetcher/runtime/outputs/2025-12.xlsx
+++ b/rss-fetcher/runtime/outputs/2025-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="654">
   <si>
     <t>id</t>
   </si>
@@ -220,6 +220,48 @@
     <t>从2024年美国大选到2025年德国大选，AI技术如何影响选民行为</t>
   </si>
   <si>
+    <t>Starts With A Bang podcast #124 – Astrochemistry</t>
+  </si>
+  <si>
+    <t>America’s post-apocalyptic maps reveal eerily familiar fault lines</t>
+  </si>
+  <si>
+    <t>Ask Ethan: How does AI impact students and cheating?</t>
+  </si>
+  <si>
+    <t>Michio Kaku: How quantum computers compute in multiple universes at once</t>
+  </si>
+  <si>
+    <t>Five recommendations that will reshape leadership development in 2026</t>
+  </si>
+  <si>
+    <t>Robotaxis offer a path toward smarter and fairer urban mobility</t>
+  </si>
+  <si>
+    <t>Why we overcomplicate things</t>
+  </si>
+  <si>
+    <t>The boomer-doomer divide within OpenAI, explained by Karen Hao</t>
+  </si>
+  <si>
+    <t>Does science reveal the absolute truth about reality?</t>
+  </si>
+  <si>
+    <t>Yuval Noah Harari: Why advanced societies fall for mass delusion</t>
+  </si>
+  <si>
+    <t>《狂野时代》：毕赣的影像梦，为何不再迷人了？</t>
+  </si>
+  <si>
+    <t>游戏论｜《物华弥新》：博物展品拟人化的来时路</t>
+  </si>
+  <si>
+    <t>疲倦的提坦还是耸肩的英雄? 美国的阿特拉斯想象</t>
+  </si>
+  <si>
+    <t>无痛之终：被现代肢解的意义与未来</t>
+  </si>
+  <si>
     <t>2025-12-04</t>
   </si>
   <si>
@@ -244,6 +286,18 @@
     <t>2025-12-09</t>
   </si>
   <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
     <t>2025-12-04 15:00:00</t>
   </si>
   <si>
@@ -316,6 +370,45 @@
     <t>2025-12-09 14:39:00</t>
   </si>
   <si>
+    <t>2025-12-14 01:58:32</t>
+  </si>
+  <si>
+    <t>2025-12-13 02:24:51</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-12 04:28:15</t>
+  </si>
+  <si>
+    <t>2025-12-12 02:50:03</t>
+  </si>
+  <si>
+    <t>2025-12-11 23:30:00</t>
+  </si>
+  <si>
+    <t>2025-12-11 22:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-11 15:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-11 06:06:20</t>
+  </si>
+  <si>
+    <t>2025-12-14 11:08:00</t>
+  </si>
+  <si>
+    <t>2025-12-13 11:55:00</t>
+  </si>
+  <si>
+    <t>2025-12-12 11:34:00</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:28:00</t>
+  </si>
+  <si>
     <t>https://bigthink.com/starts-with-a-bang/new-discovery-imaging-alien-earth/</t>
   </si>
   <si>
@@ -409,6 +502,48 @@
     <t>https://m.thepaper.cn/newsDetail_forward_32076338</t>
   </si>
   <si>
+    <t>https://bigthink.com/starts-with-a-bang/starts-with-a-bang-podcast-124-astrochemistry/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/strange-maps/america-after-the-fall/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/starts-with-a-bang/how-llms-chatbots-students/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/series/the-big-think-interview/quantum-computing-michio-kaku/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/plus/five-recommendations-that-will-reshape-leadership-development-in-2026/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/books/robotaxis-urban-mobility/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/business/why-we-overcomplicate-things/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/the-future/karen-hao-boomer-doomer-divide-openai/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/starts-with-a-bang/science-absolute-truth/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/series/full-interview/collapse-of-truth/</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32128873</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32077055</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32153538</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32146540</t>
+  </si>
+  <si>
     <t>2025-12-08 12:29:49</t>
   </si>
   <si>
@@ -434,6 +569,12 @@
   </si>
   <si>
     <t>2025-12-11 09:20:58</t>
+  </si>
+  <si>
+    <t>2025-12-15 13:31:24</t>
+  </si>
+  <si>
+    <t>2025-12-15 13:32:00</t>
   </si>
   <si>
     <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/08/HWO_EAC_Mirrors_Update_V001.00300_print.jpg?w=640" /&gt;&lt;p&gt;For as long as humanity has been looking up at the heavens, we&amp;#8217;ve been pondering some of the biggest questions of all. It&amp;#8217;s only over the past few hundred years that science has caught up to our vast imaginations, and has begun answering those questions for the first time in our civilization&amp;#8217;s history. We know what the stars are: they&amp;#8217;re much like our own Sun, except very far away. We know that the majority of them have planets, and that some of those planets are Earth-sized. We know that those worlds are composed of very similar ingredients to our own Solar System&amp;#8217;s planets, and that they are governed by the same underlying laws of nature.&lt;/p&gt;
@@ -1297,6 +1438,559 @@
 &lt;p&gt;This video &lt;a href="https://bigthink.com/the-well/where-this-world-traveler-found-awe/" rel="nofollow"&gt;What Earth’s most extreme places teach us about being human&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/Molecules-of-Carbon-Detected-in-a-Dying-Star-e1765648350250.jpg?w=544" /&gt;&lt;p&gt;All across the Universe, stars are dying through a variety of means. They can directly collapse to a black hole, they can become core-collapse supernovae, they can be torn apart by tidal cataclysms, they can be subsumed by other, larger stars, or they can die gently, as our Sun will, by blowing off their outer layers in a planetary nebula while their cores contract down to form a degenerate white dwarf. All of the forms of stellar death help enrich the Universe, adding new atoms, isotopes, and even molecules to the interstellar medium: ingredients that will participate in subsequent generations of star-formation.&lt;/p&gt;
+&lt;figure class="wp-block-embed is-type-rich is-provider-spotify wp-block-embed-spotify wp-embed-aspect-21-9 wp-has-aspect-ratio"&gt;
+&lt;div class="wp-block-embed__wrapper"&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;For a long time, however, we&amp;#8217;d made assumptions about where certain species of particles will and won&amp;#8217;t form, and what types of environments they could and couldn&amp;#8217;t exist in. Those assumptions were way ahead of where the observations were, however, and as our telescopic and technological capabilities catch up, &lt;a href="https://open.spotify.com/episode/7N2xdU3TNHPNd7BgtwQrX0"&gt;sometimes what we find surprises us&lt;/a&gt;. Sometimes, we find elements in places that we didn&amp;#8217;t anticipate, leading us to question our theoretical models for how those elements can be made. Other times, we find molecules in environments that we think shouldn&amp;#8217;t be able to support them, causing us to go back to the drawing board to account for their existence.&lt;/p&gt;
+&lt;p&gt;Check out our SoundCloud for direct downloads of this (&lt;a href="https://soundcloud.com/ethan-siegel-172073460"&gt;and all&lt;/a&gt;) episodes: &lt;a href="https://soundcloud.com/ethan-siegel-172073460/starts-with-a-bang-124-astrochemistry"&gt;https://soundcloud.com/ethan-siegel-172073460/starts-with-a-bang-124-astrochemistry&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Where our expectations and observations don&amp;#8217;t match is one of the most exciting places of all, and that&amp;#8217;s where &lt;a href="https://soundcloud.com/ethan-siegel-172073460/starts-with-a-bang-124-astrochemistry"&gt;astrochemist and PhD candidate Kate Gold takes us&lt;/a&gt; on this exciting episode of the Starts With A Bang podcast! Have a listen, and I hope you enjoy it as much as I enjoyed having this one-of-a-kind conversation!&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/starts-with-a-bang-podcast-124-astrochemistry/" rel="nofollow"&gt;Starts With A Bang podcast #124 &amp;#8211; Astrochemistry&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/11/Cropped-divided-states.png?w=640" /&gt;&lt;p&gt;The United States has ended, but America continues. The question is: &lt;em&gt;How?&lt;/em&gt; That’s the shortest possible summary for an entire genre of U.S.-centered, post-apocalyptic fiction. Call it “America after the Fall.”&lt;/p&gt;
+&lt;p&gt;It’s a fertile genre, with plenty of maps to illustrate its dismal point. That point is not the future, but the present. Like other strands of sci-fi, post-apocalyptic fiction projects onto tomorrow the anxieties of today. And these maps of a catastrophic future are present-day America’s long, hard look in the mirror.&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-a-generous-helping-of-moral-turpitude"&gt;A generous helping of moral turpitude&lt;/h2&gt;
+&lt;p&gt;Depending on the prevailing panic, the nature of the Fall typically varies between half a dozen usual suspects: nuclear war, alien invasion, a deadly pandemic, technological breakdown, climate collapse, civil war — each often infused with a generous helping of moral turpitude to lubricate the disaster.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Map titled &amp;quot;Future Map of North America&amp;quot; showing projected changes to coastlines and landmasses, with detailed descriptions and labels across the United States, Canada, Mexico, and Central America." class="wp-image-580684" height="2288" src="https://bigthink.com/wp-content/uploads/2025/11/Future-map-of-North-America-1996.jpg?w=3035" width="3035" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;On the Future Map of North America by Gordon-Michael Scallion, three major seismic upheavals inundate most of the American West, as well as parts of the East Coast and much of the Mississippi and St Lawrence valleys, which are now connected via the Great Lakes (now a Great Sea). Following the physical dismemberment of North America, new promised lands emerge: Antarctica, now warm and fertile; and the fabled lands of Atlantis and Lemuria, risen above the waves once more (on this map east and west of North America, respectively).(&lt;a href="https://www.davidrumsey.com/luna/servlet/detail/RUMSEY~8~1~358942~90125724"&gt;Credit&lt;/a&gt;: David Rumsey Map Collection)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;This is a very &lt;em&gt;American&lt;/em&gt; genre. Other countries may have similar worries about the future, but in the U.S., those are exacerbated by the peculiar nature of the American project — the idea of the country as a bold, unique and ongoing experiment in democratic self-governance, in perpetual danger of terminal failure.&lt;/p&gt;
+&lt;p&gt;The unease about the precariousness of that project is heightened by another American specialty: the tension between secular progress and religious millenarianism, the latter being the ardent hope that a divinely ordained cataclysm will wash away the pride, greed, and debauchery resulting from all that so-called progress.&lt;/p&gt;
+&lt;p&gt;That adds up to a lot of U.S.-focused post-apocalyptic thinking, writing, and mapping.&lt;/p&gt;
+&lt;p&gt;One of the earliest literary examples of the genre is &lt;em&gt;The Scarlet Plague&lt;/em&gt; (1912) by Jack London. Set in 2073, the novel looks back at an epidemic that wiped out most of humanity 60 years earlier. Survivors in the San Francisco Bay area are devolving from civilization back to primitivism.&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-the-old-civilization-recedes-and-a-new-one-emerges"&gt;The old civilization recedes, and a new one emerges&lt;/h2&gt;
+&lt;p&gt;London’s book inspired &lt;em&gt;Earth Abides&lt;/em&gt; (1949) by George R. Stewart. Itself an influential work, it provides many of the genre’s recurring templates: the protagonist traveling across an emptied-out America, scavenging for food and encountering small groups of survivors. As the comforts and knowledge of the old civilization recede, a new one emerges, cruder and more superstitious perhaps — but also more attuned to nature and survival.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A detailed map charting character journeys from Stephen King's &amp;quot;The Stand,&amp;quot; showing routes, cities, and key groupings across the United States with a legend and inset map." class="wp-image-580685" height="1122" src="https://bigthink.com/wp-content/uploads/2025/11/the-stand.jpeg?w=1588" width="1588" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;Overview of the cross-country journeys undertaken in Steven King&amp;rsquo;s The Stand. Precarious road trips across an emptied-out America have been a mainstay of post-apocalyptic fiction ever since George R. Stewart&amp;rsquo;s Earth Abides (1949). (&lt;a href="https://www.etsy.com/uk/listing/625856064/the-stand-journeys-high-resolution-a2"&gt;Credit&lt;/a&gt;: Christ Solnordal/Etsy)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;em&gt;Earth Abides&lt;/em&gt; informed several later plague-driven post-apocalyptic narratives, including Stephen King’s &lt;em&gt;The Stand&lt;/em&gt; (1978), Emily St John Mandel’s &lt;em&gt;Station Eleven&lt;/em&gt; (2014), and arguably also the whole &lt;em&gt;Walking Dead&lt;/em&gt; universe, as well as &lt;em&gt;The Last of Us&lt;/em&gt;, the video game about a zombie-holocaust-by-fungus that morphed into a 2023 TV series. Stewart’s own novel finally got the TV treatment in 2024.&lt;/p&gt;
+&lt;p&gt;Well-known examples of post-apocalypic Americas by causes other than epidemics include &lt;em&gt;The Postman&lt;/em&gt; (a 1985 book turned into a movie in 1997), set in an America recovering from a nuclear exchange; &lt;em&gt;Half Life 2&lt;/em&gt; (the 2004 video game), after an alien takeover; &lt;em&gt;One Second After&lt;/em&gt; (2009), in which an electro-magnetic pulse fries all electronics; J.G. Ballard’s &lt;em&gt;The Drowned World&lt;/em&gt; (1962), set partly in a half-submerged New York City; and &lt;em&gt;DMZ&lt;/em&gt;, a graphic novel series (2005 to 2012) about a second American civil war.&lt;/p&gt;
+&lt;p&gt;The common thread in post-apocalyptic fiction is balkanization. After the Fall, the States disunite into smaller, mutually hostile geopolitical fragments: confederacies, theocracies, city-states, tribal zones, no-man’s lands. Those fragments may be speculative, but they’re not entirely random. They reflect the anxieties that pulse beneath the surface of contemporary American life.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A color-coded map of the U.S. shows the country divided into multiple independent nations, each with its own flag and name, replacing current state and national borders." class="wp-image-580686" height="1072" src="https://bigthink.com/wp-content/uploads/2025/11/classic-divided-states.png?w=1600" width="1600" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;A &amp;ldquo;classic&amp;rdquo; map of the Divided States of America, featuring many of the subdivisions recurring in numerous amateur maps of a post-apocalyptic future, including religious entities (e.g. Mormon republic centered on Utah), libertarian and leftist enclaves (Cascadia in the Pacific Northwest and California, respectively), ethnic states (African-American in the Southeast, Mexican-American in the Southwest), and nostalgic revenants (the Confederacy, an independent Texas). (&lt;a href="https://www.deviantart.com/thadrummer/art/Divided-States-of-America-489834176"&gt;Credit&lt;/a&gt;: ThaDrummer/DeviantArt)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Translated onto a map, the fragmentation of the U.S. provides a visual shock to the system. The map of the U.S. is one of the world’s most recognizable, most stable cartographic emblems. In its unified form, the map of the nation has the strength of a logo, symbolizing the Union itself.&lt;/p&gt;
+&lt;p&gt;Perhaps the most violent shock is the physical rather than the merely political destruction of the United States, as on Gordon-Michael Scallion’s &lt;em&gt;Future Map of North America&lt;/em&gt; (1996).&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-a-comet-that-would-turn-people-blue"&gt;A comet that would turn people blue&lt;/h2&gt;
+&lt;p&gt;From 1979 onward, Scallion received &amp;#8220;visions&amp;#8221; of coming events. Some he got right, notably the 1984 Mexico City earthquake and the 1988 election of George Bush Sr. as president. But most he got wrong, including the arrival of a comet that would turn people blue and give them psychic powers. And seismic shifts in the earth’s polarity and tectonics that would drown much of the world, including large parts of North America.&lt;/p&gt;
+&lt;p&gt;While Scanlon focuses on the physical breakup of the United States, most other catastro-futurists — and they are legion — leave the coastline alone, and wreak havoc on the body politic instead.&lt;/p&gt;
+&lt;p&gt;A fairly typical example is this &lt;em&gt;Map of North America, 2150&lt;/em&gt;, which grants future independence to some of the most prominent political, ethnic, religious, and regional entities in today’s North America (which in this case generously includes Canada, Mexico, and the Caribbean).&lt;/p&gt;
+&lt;p&gt;Texas and California survive as sovereign republics. California, to indicate its (current) left-leaning politics, is a &lt;em&gt;Democratic&lt;/em&gt; Republic, reminiscent of the nomenclature of former Communist countries, and mirrored farther south in the Democratic Republics of Aztlán and Baja California.&lt;/p&gt;
+&lt;p&gt;Farther north, the Mormons have finally established their Holy Republic of Deseret, the liberals in Seattle and thereabouts are united in the Social Republic of Cascadia, and the Native Americans inland have proclaimed a Republic of Lakhota. Sitting uneasily in between is the Aryan Bastion, unsubtly boasting Hitlerburg and other all-too-Germanic-sounding place names.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Map of North America in 2150 showing new nations and borders, with national flags and brief descriptions of each country displayed around the map." class="wp-image-580687" height="5000" src="https://bigthink.com/wp-content/uploads/2025/11/North-America-2150.png?w=4500" width="4500" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;Some of the genre&amp;rsquo;s typical entities return on this map of North America in 2150. (&lt;a href="https://www.reddit.com/r/imaginarymaps/comments/1amrhq7/postapocalyptic_north_america_2150_a_map_100/"&gt;Credit&lt;/a&gt;: Reddit/ImaginaryMaps)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The Great Lakes are the natural setting for a Confederation, and New England is now a Commonwealth, stopping short just north of New York City, which is part of the United States of Columbia — perhaps the most direct descendant of the formerly united states.&lt;/p&gt;
+&lt;p&gt;Further down are the Republic of New Afrika and the Confederate Republics of Dixie; the South never gets to turn the page on the Civil War. The League of the Mississippi is a re-Frenchified, re-enlarged Louisiana, and Libertalia is the Caribbean-oriented southern tip of Florida. In between all that: a vast, blank, and, one assumes, entirely lawless space.&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-the-franchised-nation-of-monaco"&gt;The franchised nation of Monaco&lt;/h2&gt;
+&lt;p&gt;These entities are the stalwart ingredients of many post-apocalyptic maps, operating under the assumption that, once the veil of unity is whisked away, historical and current divisions within the U.S. will assert themselves.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A black and white map shows a fictional division of Canada and the United States into new regions and countries in the year 2092, with altered borders and renamed areas." class="wp-image-580688" height="1600" src="https://bigthink.com/wp-content/uploads/2025/11/coupland-map.jpeg?w=1474" width="1474" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;A post-apocalyptic North America in 2092, as reimagined in 1992 by Generation X author Douglas Coupland: Dallas has been replaced by Dallas II, and New York City has been superseded by the Manhattan People&amp;rsquo;s Soviet. Did he foresee Zohran Mamdani&amp;rsquo;s mayoral win? (&lt;a href="https://www.reddit.com/r/imaginarymaps/comments/1amrhq7/postapocalyptic_north_america_2150_a_map_100/"&gt;Credit&lt;/a&gt;: Alternate Timelines on X)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Even the literary imagination of Douglas Coupland couldn’t escape these tropes. On a map of &lt;em&gt;Canada and the United States in 2092&lt;/em&gt;, he identifies Cascadia in the Pacific Northwest, the states of Dixie and Texlahoma, and a theocracy in Utah. Some interesting flourishes, though: a Shrine of Tupelo (in memory of Elvis, supposedly); the Disney National Memory Storage Facility (in Orlando); and the franchised nation of Monaco (somewhere in New England).&lt;/p&gt;
+&lt;p&gt;The &lt;em&gt;Hunger Games&lt;/em&gt; provide a more radical departure from the post-apocalyptic tradition. Centuries into the future, a North America diminished by coastal flooding is home to the nation of Panem, which consists of 12 districts loosely centered on a Capitol located in the Rocky Mountains.&lt;/p&gt;
+&lt;p&gt;As annual atonement for a failed rebellion, in which the 13th district was destroyed, each district must send a boy and a girl to the Capitol for the so-called Hunger Games, a fight to the death with prizes for the last players standing and their district.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A color-coded map of Panem from The Hunger Games, showing 13 districts, the Capitol, surrounding wilds, and bodies of water." class="wp-image-580689" height="970" src="https://bigthink.com/wp-content/uploads/2025/11/Panem.jpeg?w=1468" width="1468" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;A decadent Capitol City extracting an annual blood tribute from its impoverished subject districts: you could read the future state of Panem as a heavy-handed metaphor for today&amp;rsquo;s U.S. federal government. (&lt;a href="https://www.panempropaganda.com/panem-maps/"&gt;Credit&lt;/a&gt;: Dan McCall/PanemPropaganda)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The books by Suzanne Collins don’t provide a map, nor are they explicit about the location and boundaries of the districts, so maps — mostly fan-made — vary. All, however, convey the impression of a continent reduced in vitality as well as size.&lt;/p&gt;
+&lt;p&gt;The favorite risk &lt;em&gt;du jour&lt;/em&gt; for institutional implosion of the U.S. is political division. Some have already suggested matching America’s institutions to the widening cultural gap between Red and Blue tribes, and splitting up the country into two nations, one for each tribe.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Map of the United States showing a partition plan with counties colored as progressive (blue) or conservative (pink), and national capitals marked with stars." class="wp-image-580690" height="675" src="https://bigthink.com/wp-content/uploads/2025/11/US-partition-plan.webp?w=1009" width="1009" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;Red and Blue America divided into two contiguous nations, thanks to a network of connecting nodes, reminiscent of the UN&amp;rsquo;s 1947 plan for the division of the Holy Land into Israel and Palestine. (&lt;a href="https://bigthink.com/strange-maps/us-red-blue-partition-plan/"&gt;Image&lt;/a&gt;: Dicken Schrader; see also Strange Maps #&lt;a href="https://bigthink.com/strange-maps/us-red-blue-partition-plan/"&gt;948&lt;/a&gt;)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;This suggestion, from 2019, is based loosely on election maps, but also ensures the Red and Blue nations are contiguous, thanks to a network of nodes where it is possible to cross over from one part of each zone into another. Map nerds will recognize this peculiar setup from the original 1947 proposal by the UN to divide the Holy Land between Arabs and Jews. What could go wrong?&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-texas-and-california-lumped-together-in-the-western-forces"&gt;Texas and California, lumped together in the Western Forces&lt;/h2&gt;
+&lt;p&gt;Here&amp;#8217;s what could go wrong: a second American Civil War is not a clean fight between two sides, but a free-for-all between multiple parties. One example is this map from the movie &lt;em&gt;Civil War&lt;/em&gt; (2024), which purposely kept the politics vague in order to focus on the shock of full-scale American-on-American political violence. Because of that vagueness, Texas and California — typically on opposite sides of the political spectrum — were lumped together in the Western Forces. Other warring parties: the Florida Alliance, covering most of the South, a New People’s Army in the north and northwest, and the Loyalist States in between.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A green-tinted map of the U.S. shows regions labeled New People’s Army, Western Forces, Loyalist States, and Florida Alliance. Text below reads: &amp;quot;Civil War in theaters April 12." class="wp-image-580691" height="1080" src="https://bigthink.com/wp-content/uploads/2025/11/Civil-War.jpeg?w=1080" width="1080" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;The movie Civil War lumps Texas and California into the same rebel alliance, obfuscating the politics of the conflict; but its overall point &amp;ndash; weak federal government overrun by secessionists &amp;ndash; is arguably left-coded. (&lt;a href="https://www.reddit.com/r/shittymoviedetails/comments/1bulg34/the_us_map_for_civil_war_movie_shows_california/#lightbox"&gt;Credit&lt;/a&gt;: Reddit/ShittyMovieDetails)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;In the movie, a weakened central government is ultimately overwhelmed by the vaguely defined insurgent forces. On that basis, you could classify its outlook as “left-coded” — implicitly preferring the merits, however questionable, of unified authority over the havoc wreaked by rebels and secessionists, however well-intentioned.&lt;/p&gt;
+&lt;p&gt;An analysis of the forces at play in &lt;em&gt;The Last of Us&lt;/em&gt; justifies classifying it as a “right-coded” narrative. FEDRA, the rump of the central government surviving in a handful of fortified Quarantine Zones, is an authoritarian military junta, imposing martial law, rationing, and execution of dissidents. The good guys are the Fireflies, a revolutionary militia fighting to restore democracy. Most of America, though, is hostile territory. Even if you avoid the fungal zombies, the slavers and the cannibals, you’re still in danger of encountering sadistic Hunters, semi-fascist “Wolves”, or the religious cult called the Seraphites.&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-today-is-valuable-enough-to-want-to-preserve"&gt;Today is valuable enough to want to preserve&lt;/h2&gt;
+&lt;p&gt;In the post-apocalyptic future, true Americans are few and far between. And — subtext warning — perhaps they always were.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A map of the United States features cities marked with icons and text describing fictional events, characters, and outbreaks from &amp;quot;The Last of Us&amp;quot; video game series." class="wp-image-580692" height="2160" src="https://bigthink.com/wp-content/uploads/2025/11/Last-of-Us.png?w=3840" width="3840" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;In the post-apocalyptic universe in which The Last of Us is set, good and true &amp;ldquo;Americans&amp;rdquo; are few and far between. Perhaps the unspoken lesson here is that they always were &amp;ndash; also in our current timeline. (&lt;a href="https://www.reddit.com/r/thelastofus/comments/17iause/made_a_map_of_all_the_factions_communities_bases/#lightbox"&gt;Credit&lt;/a&gt;: Reddit/TheLastOfUs)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Whatever the political coding, if you look at enough maps of America after the Fall, they will start to look familiar, almost reassuringly so.&lt;/p&gt;
+&lt;p&gt;Yes, the U.S. is gone, and division, tyranny, and anarchy have taken its place. But each cracked map of the late, great U.S. retains an imprint of the good old days, an untapped reservoir of citizen-to-citizen benevolence, and a flickering spark of societal hope.&lt;/p&gt;
+&lt;p&gt;This is perhaps the genre’s most pertinent takeaway: America is rehearsing its disaggregation in the safest possible arena — that of science fiction, the comments section of history. In the safety of post-apocalyptic fiction, America is fabricating a future that is nostalgic for the present. The message is that, even with all of its problems and divisions, today is valuable enough to want to preserve. But should the worst happen, then even on the other side of a possible future apocalypse, there is still hope. Why else would anyone make a map of it?&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A colorful comic map titled &amp;quot;Kamandi's Continent,&amp;quot; showing various imaginatively-named regions and illustrated with a blond, muscular character holding a gun in the foreground." class="wp-image-580693" height="960" src="https://bigthink.com/wp-content/uploads/2025/11/Kamandi.jpeg?w=643" width="643" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;To conclude, a whimsical look at post-apocalyptic North America by Jack Kirby of DC Comics. As mentioned by the poster: &amp;ldquo;This illustration is everything I love about comic books in one panel. DC failing to get the rights to the Planet of the Apes movies, Jack Kirby saying &amp;lsquo;Don&amp;#8217;t worry, I can top that&amp;rsquo;, and then doing a whole map of goofy, colorful &amp;amp; evocative world-building.&amp;rdquo; (&lt;a href="https://x.com/MuseZack/status/1849132229752160430"&gt;Credit&lt;/a&gt;: Zack Stentz/X)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;Strange Maps #1282&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Got a strange map? Let me know at &lt;a href="mailto:strangemaps@gmail.com"&gt;strangemaps@gmail.com&lt;/a&gt;.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;For more, follow Strange Maps on &lt;a href="https://x.com/VeryStrangeMaps"&gt;X&lt;/a&gt; and &lt;a href="https://facebook.com/VeryStrangeMaps"&gt;Facebook&lt;/a&gt;.&lt;/em&gt;&lt;/p&gt;
+&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/strange-maps/america-after-the-fall/" rel="nofollow"&gt;America’s post-apocalyptic maps reveal eerily familiar fault lines&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/hpc-dc.jpg?w=640" /&gt;&lt;p&gt;As artificial intelligence has become a mainstream and ubiquitous tool for hundreds of millions or even billions of people around the world — specifically, through chatbots and large language models (LLMs) like Claude, Gemini, ChatGPT, Llama, and many others — it&amp;#8217;s both enabled new pathways for problem solving and also led to new pitfalls for students, early career professionals, and non-experts seeking to mimic the illusion of expertise. While many who create, sell, or promote LLMs laud their use cases, a significant worry has arisen among students, teachers, professors, and education researchers: that students are not using these artificial tools to enhance their learning, but rather to replace it, outsourcing the hard and rewarding work of critical thought to these LLMs simply by prompt-hacking them.&lt;/p&gt;
+&lt;p&gt;To be certain, this is a real problem, and a real new way that students (as well as many others) are using the tools at their disposal to complete their assigned work, with the consequence of short-cutting their own intellectual development. But how big of a problem is this really, and who does it impact the most? That&amp;#8217;s what physics graduate student Cameron Bishop wants to know, asking:&lt;/p&gt;
+&lt;p&gt;&amp;#8220;As a student in physics now entering my 3rd year of [graduate studies], have you written about the impact of these LLMs/chatbots on students?&amp;#8221;&lt;/p&gt;
+&lt;p&gt;As always, there&amp;#8217;s a lot to unpack here, but it&amp;#8217;s not all &amp;#8220;doom and gloom&amp;#8221; as some might fear. Let&amp;#8217;s go through the impacts of these new technologies, but with a view to how students historically have cheated themselves as well, to put things in their proper context.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A glowing, abstract representation of a brain, with intricate patterns and lights reminiscent of the innovative spirit behind the Nobel Prize in Physics 2024, set against a dark backdrop." class="wp-image-529951" height="1024" src="https://bigthink.com/wp-content/uploads/2024/10/dallebrain_feature.jpeg?w=1792" width="1792" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This illustration of a human brain was generated by DALL-E, a generative AI program, in late 2023. Although it bears many superficial resemblances to a human brain, it lacks many of the brain&amp;#8217;s defining structures and presents a fundamentally unrealistic pattern of neurons, glial cells, and folding properties. However, it was by considering the brain that artificial neural networks, the backbone of generative AI, was first developed.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;Credit: DALL&amp;middot;E&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;When it comes to learning, whether in a scholastic environment or otherwise, the goal — as so many misunderstand — is not for the student to get the right answer, or to come up with an acceptable answer, to whatever question they&amp;#8217;re prompted with. The goal is for the student to gain an understanding of the material: understanding that is a further step along their journey toward mastery of a subject. Whether that&amp;#8217;s reading comprehension, a foreign language, wrapping your head around a historical event, mathematical fluency, or the ability to solve scientific problems isn&amp;#8217;t particularly relevant. The goal is one and the same: to become &amp;#8220;good&amp;#8221; at whatever you&amp;#8217;re working toward learning.&lt;/p&gt;
+&lt;p&gt;While every subject is different, and every student has different strengths, weaknesses, and talents from one another, the method for becoming good at all of these is very similar: you have to work at it. You must invest:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;time,&lt;/li&gt;
+&lt;li&gt;energy,&lt;/li&gt;
+&lt;li&gt;and effort,&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;into a wide variety of aspects of the subject. You have to read, study, solve problems, familiarize yourself with the material, and think about it deeply and repeatedly, and to do so over long periods of time. You have to make a sustained effort, and to not get discouraged by setbacks. But most importantly, you have to grow your mind.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="reef knot granny knot" class="wp-image-436797" height="470" src="https://bigthink.com/wp-content/uploads/2023/07/running-shoe-laces_reef_granny.jpg?w=900" width="900" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;There are a total of three either/or decisions that get made in the tying of a conventional pair of shoelaces, where 50% of the possible outcomes will lead you to a successfully tied pair of shoes with reef knots in them, and the other 50% will lead you to the dreaded granny knot configuration. Most of us learn to tie our shoes at a young age, but whether we&amp;#8217;ve learned to tie a reef or granny knot is something we don&amp;#8217;t often discover until adulthood.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.rei.com/learn/expert-advice/lacing-running-shoes.html" target="_blank"&gt;Credit&lt;/a&gt;: Beth Henkes/REI&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;When you think about the professionals who are not just good, but experts, in any field you can study, what might stand out to you is how different they are from one another. Not just different in how they look, in their educational backgrounds, and in the particular topics that they research and work on, but different in terms of how they fundamentally think about their subject and how they approach problems or puzzles that they encounter within it.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;How,&amp;#8221; the student often wonders, &amp;#8220;can these multiple experts, all of whom are so good at what they do and what I&amp;#8217;m trying to get good at, have such fundamentally different ways of making sense of this complex subject?&amp;#8221;&lt;/p&gt;
+&lt;p&gt;And what the student doesn&amp;#8217;t understand — in fact, what they couldn&amp;#8217;t possibly understand until they themselves have acquired that necessary expertise for themselves — is how one develops that expertise. Sure, there are many steps that everyone has to go through:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;you have to take the same foundational courses,&lt;/li&gt;
+&lt;li&gt;you have to learn the vocabulary and jargon of your field, becoming fluent in it,&lt;/li&gt;
+&lt;li&gt;you have to learn how to solve certain classes of problems adeptly,&lt;/li&gt;
+&lt;li&gt;and you have to accrue experience by working through a variety of problem-solving examples,&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;and those experiences are similar for everyone. But what one student takes away from that versus another is going to be very different.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Diagram of a neural network with three input nodes, two hidden layers, and three output nodes, illustrating the connections between layers—a design inspired by cutting-edge research recognized in the Nobel Prize Physics 2024 discussions." class="wp-image-525098" height="318" src="https://bigthink.com/wp-content/uploads/2024/10/RBM.jpg?w=840" width="840" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This example of a feedward network (without backpropagation) is an example of a restricted Boltzmann machine: where there is at least one hidden layer between the input layer and the output layer, and where nodes are only connected between different layers: not between nodes of the same layer, representing a tremendous step forward in creating today&amp;#8217;s AI/LLM systems.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.nobelprize.org/uploads/2024/09/advanced-physicsprize2024.pdf"&gt;Credit&lt;/a&gt;: The Nobel Committee for Physics, 2024&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;That&amp;#8217;s because, going back to a young age, we all started developing different &amp;#8220;toolkits&amp;#8221; in our minds as far as problem-solving was concerned. The more we further our education, and the more classes of problems we become capable of solving, the more we&amp;#8217;ve enhanced those mental toolkits by adding new and more powerful machinery to it. And very often, just as is the case when you encounter a problem that requires tools to solve, there&amp;#8217;s more than one approach that will lead you to the correct solution; there are often multiple, equally valid ways to approach whatever problem or puzzle you&amp;#8217;re facing.&lt;/p&gt;
+&lt;p&gt;The key is to ensure that you, with the toolkit you have, can:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;understand the problem you&amp;#8217;re facing,&lt;/li&gt;
+&lt;li&gt;can set up a method for approaching, learning about, and making sense of the problem,&lt;/li&gt;
+&lt;li&gt;can identify at least one candidate method for solving that problem &lt;em&gt;with only the tools that you have in your toolkit&lt;/em&gt;,&lt;/li&gt;
+&lt;li&gt;and then can adeptly use those tools to attack the problem,&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;where, if you do every step correctly, you&amp;#8217;ll arrive at a valid, viable solution. Even though it may be possible to take the same problem to many different experts and to have each expert offer a different potential solution, each one of those experts is likely to come up with a valid, successful approach to that puzzle.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Graph illustrating quantum computing progress. Y-axis: difficulty; X-axis: commercial relevance. &amp;quot;Random Circuit Sampling&amp;quot; is highlighted, bridging classical capabilities and future applications—opening doors to realms akin to parallel universes in quantum computation." class="wp-image-539005" height="650" src="https://bigthink.com/wp-content/uploads/2024/12/KW_Fig2.width-1000.format-webp.webp?w=1000" width="1000" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This graph shows whether problems are useful/not useful (x-axis) versus how difficult they are for classical computers to solve (y-axis). While random circuit sampling is the most difficult known task for a classical computer to achieve, it is also arguably the most useless application a quantum computer can be tasked with.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://blog.google/technology/research/google-willow-quantum-chip/"&gt;Credit&lt;/a&gt;: Hartmut Neven/Google&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;What often separates people who &amp;#8220;make it&amp;#8221; in a challenging academic field from those who don&amp;#8217;t is their willingness to put in the hard work necessary to grow their minds in general, and their mental toolkits in particular, in the necessary ways that enable them to devise those solutions. It&amp;#8217;s easy to see how a lack of hard work, or an unwillingness to put in the effort, can derail any attempts to grow your mind in exactly those necessary fashions.&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;If you don&amp;#8217;t spend appropriate time with the vocabulary you need to know to give words to your ideas, you&amp;#8217;ll never learn how to communicate in that foreign language you&amp;#8217;re attempting to learn.&lt;/li&gt;
+&lt;li&gt;If you don&amp;#8217;t read the historical or literary texts you&amp;#8217;re supposed to be examining for yourself, you&amp;#8217;ll be restricted to only knowing about the criticisms and summaries of others, rather than having gleaned the ability to comprehensively analyze those primary sources for yourself.&lt;/li&gt;
+&lt;li&gt;And if you don&amp;#8217;t practice the mathematical problem-solving skills or the scientific skills associated with conducting laboratory experiments, you won&amp;#8217;t be able to become adept at those efforts, which come along with their own type of &amp;#8220;fluency&amp;#8221; just like any language or literary endeavor does.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Most of us, unfortunately, are never told &lt;em&gt;how&lt;/em&gt; to learn; we&amp;#8217;re given problems to solve and homework to complete and texts to read and reports to write, and it&amp;#8217;s sort of tacitly expected that by completing that work, we&amp;#8217;ll gain the skills we need to take steps toward that expertise ourselves.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Diagram of particle interactions with wavy and straight lines, illustrating how photons mediate attraction and repulsion in various Feynman diagrams in particle physics." class="wp-image-546538" height="672" src="https://bigthink.com/wp-content/uploads/2025/01/diagram.jpg?w=1195" width="1195" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Today, Feynman diagrams are used in calculating nearly every fundamental interaction spanning the strong, weak, and electromagnetic forces, including in high-energy and low-temperature/condensed conditions. The electromagnetic interactions, shown here, are all governed by a single force-carrying particle: the photon, and can result in interactions that are attractive, repulsive, or &amp;#8220;other&amp;#8221; despite being mediated by the same type of particle. Learning how to do these calculations by hand is a vital aspect of becoming a theoretical high-energy physicist.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://linkinghub.elsevier.com/retrieve/pii/S0550321313003829" rel="noopener" target="_blank"&gt;Credit&lt;/a&gt;: V. S. de Carvalho and H. Freire, Nucl. Phys. B, 2013&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;But there&amp;#8217;s a surefire way to undermine that traditional path toward gaining that expertise, and it&amp;#8217;s a path that students have been taking for as long as teachers have been teaching and giving assignments: to cheat. When students cheat, we often blame:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;the tools at their disposal,&lt;/li&gt;
+&lt;li&gt;the technologies that enable those tools,&lt;/li&gt;
+&lt;li&gt;or the students themselves, for doing the cheating,&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;but we never bother to point a finger at the culprit that makes this all possible: an educational system that rewards whether the turned-in assignment or assessment meets a certain standard of competence. We use the metric of &amp;#8220;performance on those assignments and assessments&amp;#8221; as a proxy to gauge the student&amp;#8217;s competence and capabilities, and those are not necessarily the same thing.&lt;/p&gt;
+&lt;p&gt;It&amp;#8217;s often possible — and often, it&amp;#8217;s much easier — to complete an assignment without doing the hard work ourselves, and instead to take such a short-cut. After all, if you view the goal of education as obtaining a high grade point average and completing all of your assignments and courses, that&amp;#8217;s probably what you&amp;#8217;re going to do: optimize your time and efforts to maximize your grades. It&amp;#8217;s probably a lot less important to you that you grow your mind in a way that develops your expertise and expands your problem-solving toolkit if that&amp;#8217;s not what you&amp;#8217;re actively being assessed on.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-141294" height="481" src="https://bigthink.com/wp-content/uploads/2021/09/https___blogs-images.forbes.com_startswithabang_files_2019_03_kepler_transit_data.jpg?w=946" width="946" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Based on the Kepler lightcurve of the transiting exoplanet Kepler-1625b, we were able to infer the existence of a potential exomoon. The fact that the transits didn&amp;#8217;t occur with the exact same periodicity, but that there were timing variations, was our major clue that led researchers in that direction. With large enough exoplanet data sets, machine learning algorithms can now find additional exoplanet and exomoon candidates that were unidentifiable with human-written algorithms.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.science.org/doi/10.1126/sciadv.aav1784" target="_blank"&gt;Credit&lt;/a&gt;: NASA GSFC/SVS/Katrina Jackson&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;In educational environments with large numbers of students and little personalized attention, students who focus on mental growth and the acquisition of novel and superior problem-solving skills are the exception, not the norm. How could it be, when there&amp;#8217;s so little that appears to incentivize that approach? That, itself, is not a new problem that&amp;#8217;s come along with the rise of artificial intelligence and LLMs, as the type of &amp;#8220;cheating&amp;#8221; that&amp;#8217;s so common now goes back long before the rise of artificial intelligence.&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;On mathematics assignments, you could work out the math by hand, or you could use a calculator (or a more complex tool for calculational problem solving, such as MatLab, Maple, Mathematica, etc.) to work out the math for you; once you turned in the finished product, no one would know the difference.&lt;/li&gt;
+&lt;li&gt;On foreign language assignments, particularly at the college level, we were often given take-home tests, and were instructed not to use dictionaries or other notes. Some of us did the assignment as intended; others of us used those forbidden materials anyway.&lt;/li&gt;
+&lt;li&gt;And even when I myself was in graduate school for physics, some of us struggled with the homework problems we were assigned — working until we either got the solution correctly, fooled ourselves into thinking that our incorrect solutions were correct, or got as far as we could before turning in our incomplete work — while others among us searched the internet until we found written-up and posted solutions to the problems we were attempting to solve, and then simply plagiarized and/or copied someone else&amp;#8217;s hard work.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The only difference is that now, with LLMs being so ubiquitous, it&amp;#8217;s easier than ever to cheat. Simply prompt an LLM with enough information, and it will produce for you a comprehensive document or manuscript that claims to solve whatever problem you throw at it.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-506785" height="1005" src="https://bigthink.com/wp-content/uploads/2024/07/ok_noooo.jpg?w=837" width="837" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;A screenshot from a query about integers directed to iask.ai, along with its woefully incorrect response. The correct answer is -5, which requires inputting several additional prompts to coax the AI into the correct response.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.iask.ai/"&gt;Credit&lt;/a&gt;: E. Siegel/iask.ai&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The consequences for these behaviors, which are widespread among modern students in many countries across the world, are far-reaching and severe.&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;Literacy and math skills, as &lt;a href="https://www.theguardian.com/education/2025/sep/20/high-school-students-scores"&gt;tested among high school and college students&lt;/a&gt;, have &lt;a href="https://cepr.harvard.edu/news/2025/09/whats-caused-reading-scores-drop-worst-point-decades-education-expert-weighs"&gt;plummeted in recent years&lt;/a&gt;, as there are more and more ways for students to complete their assignments without doing the necessary work.&lt;/li&gt;
+&lt;li&gt;About 2/3rds of all students &lt;a href="https://www.edweek.org/technology/new-data-reveal-how-many-students-are-using-ai-to-cheat/2024/04"&gt;admit openly to cheating&lt;/a&gt;, with a large fraction of those students admitting to using LLMs to do their assignments, either in part or wholly, in defiance of the assigned instructions.&lt;/li&gt;
+&lt;li&gt;Many teachers, including even professors at the college level, &lt;a href="https://www.currentaffairs.org/news/ai-is-destroying-the-university-and-learning-itself"&gt;are now using AI to grade&lt;/a&gt;, preventing even the honest students from getting the feedback necessary to improve their learning.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Of course, there are many other negative consequences that arise as we outsource the hard, critical thinking work — where students struggle with the material initially, as all novices do when they attempt to improve at an endeavor they&amp;#8217;re new to — to any external source beyond our own minds. The biggest one is this: if you want to become good at something, like expert-level good at it, you have to work at it until you gain competence, add new tools to your toolkit, eventually gain mastery of that material, and then can apply that mastery (and those tools) to new situations and puzzles where they&amp;#8217;ll be relevant.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A performer with a suitcase stands before a large, seated crowd in an outdoor amphitheater on a sunny day. An umbrella and a bicycle are visible in the foreground, sparking curiosity about why machines learn from such everyday scenes." class="wp-image-506793" height="3000" src="https://bigthink.com/wp-content/uploads/2024/07/5183875426_f9ba044ae7_4k.jpg?w=4000" width="4000" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;With a large training data set, such as a large number of high-resolution faces, artificial intelligence and machine learning techniques can not only learn how to identify human faces, but can generate human faces with a variety of specific features. This crowd in Mauerpark, Berlin, would provide excellent training data for the generation of Caucasian faces, but would perform very poorly if asked to generate features common to African-American faces.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.flickr.com/photos/loozrboy/5183875426"&gt;Credit&lt;/a&gt;: Loozrboy/flickr&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The big danger with AI in the form of LLMs isn&amp;#8217;t that they&amp;#8217;ll replace or automate various tasks where there are actually good uses for them; &lt;a href="https://bigthink.com/starts-with-a-bang/10-answers-math-artificial-intelligence/"&gt;this type of machine learning has many important applications, including in science and beyond&lt;/a&gt;, particularly for dealing with large data sets and searching for rare objects or events within them. The big danger is that:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;many of us will consult an LLM for a problem (or with a prompt) that it is not particularly well-suited to answer,&lt;/li&gt;
+&lt;li&gt;that the machine will return a long, complicated answer that, to the non-expert&amp;#8217;s eye, looks plausible and feasible,&lt;/li&gt;
+&lt;li&gt;that &lt;em&gt;no one&lt;/em&gt; will catch that this is complete nonsense, filled with mistakes and misinformation,&lt;/li&gt;
+&lt;li&gt;and that this nonsensical answer will replace what formerly would have been a correct, valid solution arrived at by someone with expert-level knowledge.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;That is the danger: that bona fide expertise will become rarer and harder to come by, because there is a critical mass of people involved in the educational system that don&amp;#8217;t actually care about student learning, expertise, and mastery, including (but not limited to) many of the students themselves. The big danger is that we will buy into the false narrative that these LLMs can do things that they can&amp;#8217;t, which is &lt;a href="https://bigthink.com/starts-with-a-bang/10-scientific-truths-unpopular-2025/"&gt;a dangerous myth&lt;/a&gt; that has led AI to be deployed, already, &lt;a href="https://bigthink.com/starts-with-a-bang/vibe-physics-ai-slop/"&gt;in many circumstances where it is a woefully insufficient tool&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Line graphs compare LLM-predicted and true force magnitudes over time for five solar systems using three different models: o3, Claude Sonnet 4, and Gemini 2.5 Pro, offering fresh insight into vibe physics." class="wp-image-574247" height="1300" src="https://bigthink.com/wp-content/uploads/2025/07/GvmDHAdXcAAHy-r.jpg?w=2044" width="2044" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;When the LLMs o3, Claude Sonnet 4, and Gemini 2.5 Pro were asked to reconstruct force laws for a variety of mock solar systems, they were all unable to recover something equivalent to Newton&amp;#8217;s law of universal gravitation, despite the LLMs themselves having been trained on Newton&amp;#8217;s laws. It&amp;#8217;s stark evidence for how LLMs rely on pattern matching, and are unable to reach even basically valid scientific conclusions about foundational models.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://arxiv.org/abs/2507.06952"&gt;Credit&lt;/a&gt;: K. Vafa et al., ICML 2025/arXiv:2507.06952, 2025&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;There is not going to be a solution to &amp;#8220;the big problem&amp;#8221; anytime soon, as it would require an overhaul of how education is conducted and valued, overall, in predominantly English-speaking countries at least. However, for an individual student who wants to be successful in this modern environment — who wants to become a bona fide expert themselves — there is still a path forward, albeit one that will take a lot of courage to follow.&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;Focus your efforts on skill acquisition, not on grades.&lt;/li&gt;
+&lt;li&gt;Spend time and effort solving problems; eschew the short-cuts.&lt;/li&gt;
+&lt;li&gt;Do the reading before class, take notes in class, look over your notes and work through sample problems after class, and only after that, attempt your homework.&lt;/li&gt;
+&lt;li&gt;Grow your expertise, and do that by seeking out problems (both old and new) to struggle with; embrace the struggle, and celebrate when you make progress.&lt;/li&gt;
+&lt;li&gt;And most importantly, don&amp;#8217;t do this work in a vacuum; seek out real people, with real expertise themselves, to mentor and guide you along your way.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;There is this idea that all things, even science itself, are tending toward automation: where machines will be at the helm of every step of a process. Humans will be relegated, under this framework, to at best an advisory role, and at worst, &lt;a href="https://togelius.blogspot.com/2025/12/please-dont-automate-science.html"&gt;to a redundant and unnecessary role&lt;/a&gt;. If you yourself, however, actually acquire bona fide expertise, you&amp;#8217;ll at least be able to tell whether the LLMs (or whatever form of AI comes to exist) are doing things in a viable way or not. Without that expertise, however, you&amp;#8217;ll figuratively become a slave to a &amp;#8220;&lt;a href="https://en.wikipedia.org/wiki/Black_box"&gt;black box&lt;/a&gt;&amp;#8221; machine, unable to separate fact from fiction for yourself, and completely reliant on a technology that you do not understand.&lt;/p&gt;
+&lt;p&gt;There are a lot of things that can be stripped away from someone: wealth, power, resources, health, and more. But what&amp;#8217;s in your mind is forever yours. Don&amp;#8217;t shortchange yourself by failing to take advantage of the opportunities that abound to grow your mind and your mental toolkit. Throughout your entire life, it will always be right there at your disposal; a concrete example of how hard work pays off.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Send in your Ask Ethan questions to &lt;a href="mailto:startswithabang@gmail.com"&gt;startswithabang at gmail dot com&lt;/a&gt;!&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/how-llms-chatbots-students/" rel="nofollow"&gt;Ask Ethan: How does AI impact students and cheating?&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="overflow: hidden; padding-bottom: 56.25%;"&gt;&lt;/div&gt;
+                &lt;p&gt;Quantum computing won’t just be an upgrade to the digital machines we use today – it represents a seismic shift in the entire logic that built the digital age.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Michio Kaku explains why computing on atoms (rather than on transistors) could overturn assumptions that have shaped everything from global security to modern medicine.&lt;/p&gt;
+&lt;p&gt;This video &lt;a href="https://bigthink.com/series/the-big-think-interview/quantum-computing-michio-kaku/" rel="nofollow"&gt;Michio Kaku: How quantum computers compute in multiple universes at once&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/reshape-LD-2026.png?w=640" /&gt;&lt;p&gt;When I look at the state of leadership development today, I believe that we are on the cusp of a revolution. After speaking with 158 L&amp;amp;D professionals across industries for our &lt;a href="https://www.offbeat.works/post/leadership-development-practices-in-2026"&gt;latest study&lt;/a&gt;, one thing became very clear: despite significant investment, most organizations don’t feel their leadership programs are delivering what leaders actually need. Many leaders are overwhelmed, anxious, and stretched thin. &lt;strong&gt;Only 40% of the practitioners we surveyed said they were even “somewhat happy” with their leadership development outcomes&lt;/strong&gt;. That should be a wake-up call for all of us.&lt;/p&gt;
+&lt;p&gt;In this moment of uncertainty and rapid technological change, leadership development can no longer be a static set of workshops or a content repository. It has to be a living system that supports real humans, doing difficult and very human work.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Based on the research and on countless conversations in our &lt;a href="https://www.offbeat.works/"&gt;Offbeat community&lt;/a&gt;, here are the five recommendations I believe will shape leadership development in 2026.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;1. Strategy&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;One of the biggest misses I see is when leadership development operates in parallel to the business instead of serving it. If your company is focused on (for example) revenue growth, operational efficiency, customer satisfaction, or AI transformation, those priorities must have a visible through-line in the leadership experiences you design. Leaders shouldn’t have to guess why a program matters; the connection should be obvious.&lt;/p&gt;
+&lt;p&gt;AI deserves special attention. As one of our study participants shared, leaders in the near future won’t only manage people — they’ll manage AI systems as part of their teams. But rather than pushing leaders to “use AI everywhere,” we need to help them slow down, map their workflows, and identify where AI brings value and where human judgment still leads. The next frontier of leadership capability isn’t technical mastery of tools; it’s the ability to make thoughtful choices about when technology should augment, accelerate, or stay out of the way of meaningful work.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;2. Architecture&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Many organizations invest heavily in leadership principles, but then fail to embed them into the actual moments that matter — hiring, performance reviews, promotions, and cross-team interactions. In 2026, we need to bring those principles into the operational fabric of our organizations.&lt;/p&gt;
+&lt;p&gt;Psychological safety is another area that deserves much more attention. We talk constantly about creating psychological safety for teams, but rarely about creating it for leaders themselves. It’s becoming a widely recognised pattern that many leaders are operating under heightened pressure, making it harder to role-model curiosity, empathy, and courage.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;If we want leaders to create healthy cultures, we must first create environments where they also feel safe enough to speak openly about their struggles, ask for help, and experiment without fear.&lt;/p&gt;
+&lt;p&gt;Collaboration is another overlooked theme. Most leadership programs still focus on content delivery. But with AI making content more accessible than ever, what leaders need most are spaces to connect across functions, understand the broader system, and learn from one another’s lived experience. Cross-departmental collaboration is suffering in many companies, and the best way to improve it is to design intentional forums where people can build relationships, not just absorb frameworks.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;3. Design&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;One of the most surprising findings from the research was how little leaders are involved in designing their own development experiences. Many L&amp;amp;D teams send out a survey or conduct a few interviews, but true co-creation is still rare. That’s a missed opportunity, because when people help build something, they naturally value it more. I often reference the &lt;a href="https://thedecisionlab.com/biases/ikea-effect"&gt;“IKEA effect”&lt;/a&gt; here — we tend to care more about what we’ve had a hand in building.&lt;/p&gt;
+&lt;p&gt;Co-creation doesn’t need to be complicated. Even a quarterly design session where leaders help identify priorities, test prototypes, or offer honest feedback can dramatically increase relevance and engagement. And beyond co-designing the content, we also need to support the emotional reality of becoming a leader. Leadership is a deeply human role, filled with identity shifts, uncertainty, and personal discomfort. In my previous company, our L&amp;amp;D and HR teams offered open-door support to new leaders — a place to talk through challenges, fears, and confusing moments. It made a measurable difference in how confident they felt early in their journey, and I believe far more organizations should embed this kind of emotional scaffolding.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;4. Delivery&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The “build it and they will come” mentality no longer works. Leaders are overwhelmed, and attention is fragmented. Simply announcing a leadership program, no matter how brilliantly designed, is not enough to drive participation.&lt;/p&gt;
+&lt;p&gt;Instead of focusing on what the program offers, focus on what leaders are actually dealing with. Are they exhausted? Preparing for difficult conversations? Struggling to communicate strategy? Feeling isolated? When we frame learning around real problems, engagement increases dramatically.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Champions are another powerful lever. Programs spread more effectively when leaders hear about them from peers rather than from L&amp;amp;D. Some of the most successful examples I’ve seen involve executives or founders openly participating in peer learning groups. When the most senior people in the organization model vulnerability and curiosity, it sends a message that learning is not a remedial activity, it’s part of the culture.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;5. Measurement&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Measurement was the area where the research revealed the biggest gaps. Most organizations do not have clear metrics for leadership performance, and most L&amp;amp;D teams aren’t measuring the impact of their programs. I understand the frustration. Measuring behavior change is complex, and many L&amp;amp;D teams feel they’re doing it alone.&lt;/p&gt;
+&lt;p&gt;But we don’t need perfect measurement to make progress. A simple starting point is to use existing engagement survey questions related to communication, clarity, goal setting, and feedback. These provide meaningful signals. From there, co-create performance indicators with leaders themselves; they often have valuable ideas about what “good leadership” should look like in their context.&lt;/p&gt;
+&lt;p&gt;Equally important is democratizing the data. Leaders need access to information about their performance, along with support in interpreting that data and translating it into action plans. AI can also play a helpful role in surfacing insights that would otherwise remain hidden, especially in large, distributed teams.&lt;/p&gt;
+&lt;p&gt;⸻&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Where L&amp;amp;D should focus in 2026&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;If I had to give one piece of advice as teams plan their strategies for next year, it would be this: &lt;strong&gt;go talk to your leaders&lt;/strong&gt;. Don’t ask them what skills they want to develop, instead ask them what challenges they’re facing. Many of those challenges won’t be solved by skill-building alone &amp;#8211; they’ll be rooted in systems, processes, cross-team dynamics, or lack of support. Let them vent. Let them unload. And then build your strategy around what you hear.&lt;/p&gt;
+&lt;p&gt;Leadership development is changing fast, and the expectations for leaders are climbing even faster. But with a more human, strategic, collaborative, and data-informed approach, I believe we can create leadership experiences that truly serve the people in them, and the organizations around them.&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/plus/five-recommendations-that-will-reshape-leadership-development-in-2026/" rel="nofollow"&gt;Five recommendations that will reshape leadership development in 2026&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/end-of-driving_excerpt.jpg?w=640" /&gt;&lt;p&gt;The transformation of urban mobility through vehicle automation presents two distinct paths: the widespread adoption of privately owned automated vehicles or a transition to robotaxi fleets. While both scenarios promise technological advancement, the robotaxi model offers compelling advantages for urban efficiency, sustainability, and social equity, but only if implemented with careful attention to policy design and public benefit.&lt;/p&gt;
+&lt;p&gt;The superiority of the robotaxi model stems from several key factors. First, it promises a more efficient use of urban infrastructure. Where private vehicles typically sit idle 95% of the time, requiring ubiquitous public and private parking infrastructure, robotaxis can serve multiple users sequentially and potentially simultaneously, dramatically reducing parking requirements and freeing urban spaces for other uses. This efficiency extends beyond parking and roadway utilization to fleet management: Robotaxis’ shorter life cycle (2.5 versus 12 years for private vehicles) enables a faster adoption of safety improvements and other technological advancements.&lt;/p&gt;
+&lt;p&gt;The robotaxi model also offers a greater potential for the systematic optimization of urban mobility. Through centralized fleet management and orchestration, robotaxi systems can help manage congestion, regulate traffic flow, and even influence broader travel behaviors. This orchestration capability, combined with the predictable behavior of automated vehicles, could create a pace-car effect that naturally moderates aggressive driving behaviors and enhances road safety.&lt;/p&gt;
+&lt;figure class="wp-block-embed is-type-rich is-provider-amazon wp-block-embed-amazon"&gt;
+&lt;div class="wp-block-embed__wrapper"&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;However, realizing these benefits depends critically on policy choices and system design. The key uncertainty is not whether robotaxis could be superior to private automated vehicles, but rather what conditions must be met to ensure they deliver on this promise. Several critical policy areas require careful attention:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Pricing and accessibility.&lt;/strong&gt; The affordability of robotaxi services will significantly influence their social impact. Without appropriate pricing policies and subsidies, robotaxis could either exacerbate transportation inequities by replacing public transit without serving all population demographics or increase vehicle miles traveled by making car travel overly accessible. A solution lies in sophisticated pricing models that balance accessibility with efficiency, potentially including means-tested subsidies and peak-period pricing.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Infrastructure and land use.&lt;/strong&gt; While robotaxis reduce parking requirements at destinations, they require fleet storage that could become a locally undesirable land use. Additionally, the transition period will require the careful management of infrastructure to serve both private vehicles and robotaxis efficiently. This transition presents both challenges and opportunities for urban planning and land use policy.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Integration with public transit.&lt;/strong&gt; The relationship between robotaxis and traditional fixed-route public transit requires careful consideration. In high-density corridors, mass transit may remain the most efficient solution, while robotaxis could better serve lower-density areas and provide first- and last-mile connections. The key is designing policies that create complementary rather than competitive relationships between these modes.&lt;/p&gt;
+&lt;p&gt;The robotaxi model’s advantages extend beyond operational efficiency to broader social benefits. By reducing the need for private vehicle ownership, it could lower transportation costs for many households while improving mobility access. However, these benefits depend on a thoughtful system design that prioritizes public good over private profit. Whether implemented in democratic or authoritarian contexts, success requires policies that rationalize the efficiency and effectiveness of the public road network.&lt;/p&gt;
+&lt;figure class="wp-block-pullquote"&gt;
+&lt;blockquote&gt;
+&lt;p&gt;The transition to robotaxis is far more than a technology shift. It is a fundamental reimagining of urban design for mobility. &lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;/figure&gt;
+&lt;p&gt;Several uncertainties remain. The impact on VKT (vehicle kilometers traveled) could be positive or negative depending on pricing structures and the management of empty repositioning trips. The optimal balance between a robotaxi service and fixed-route public transit will vary by context and evolve over time. Implementing a transition from the current patterns of populations moving toward universal car ownership to a strong robotaxi market share in road mobility sets up challenges in policy analysis and choice, research, development, and testing. These steps require the “best practice” program design and deployment, experience-generated refinements stemming from user feedback, and strong, ongoing operational management.&lt;/p&gt;
+&lt;p&gt;Despite the challenges and inevitable evolving uncertainties, the potential benefits of growing a system of robotaxi mobility as a partial substitution for dominance by privately owned automated vehicles are significant. The key advantages include:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;More efficient use of urban space and infrastructure.&lt;/li&gt;
+&lt;li&gt;Faster fleet turnover enabling the quicker adoption of safety improvements.&lt;/li&gt;
+&lt;li&gt;Greater potential for the systematic optimization of the traffic flow.&lt;/li&gt;
+&lt;li&gt;Reduced environmental impact through more efficient vehicle utilization.&lt;/li&gt;
+&lt;li&gt;Potential for a more equitable access to mobility services.&lt;/li&gt;
+&lt;li&gt;Better integration of public and private urban transportation modes.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The critical caveat is that these benefits are not automatic consequences of the technology but rather can only be secured through careful design and deployment, including:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;Sophisticated pricing models that balance accessibility with efficiency.&lt;/li&gt;
+&lt;li&gt;Integration with public transit systems.&lt;/li&gt;
+&lt;li&gt;Land use policies that accommodate fleet management needs.&lt;/li&gt;
+&lt;li&gt;Regulatory frameworks that ensure public benefit from private operation.&lt;/li&gt;
+&lt;li&gt;Subsidies and support systems that ensure equitable access.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The transition to robotaxis is far more than a technology shift. It is a fundamental reimagining of urban design for mobility. While ADS (automated driver system) technology enables new possibilities, its actual benefits will depend on the policy choices that prioritize public good without damaging private convenience beyond political acceptance.&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/books/robotaxis-urban-mobility/" rel="nofollow"&gt;Robotaxis offer a path toward smarter and fairer urban mobility&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/overcomplicate-things_compressed.jpg?w=640" /&gt;&lt;p&gt;Back in the 1960s, NASA spent millions of dollars designing a zero-gravity pen. The Russians, on the other hand, used a pencil.&lt;/p&gt;
+&lt;p&gt;This story — which, I admit, is likely apocryphal — underscores something we see every day across work and life. We pour massive amounts of time and energy into complex solutions for complex problems. Sometimes, the answer is as simple as using a pencil.&lt;/p&gt;
+&lt;p&gt;Which begs a bigger question: Why are we all so drawn to complexity in the first place? To explore this, I&amp;#8217;d recommend a &lt;a href="https://carlhendrick.substack.com/p/why-does-thinking-feel-so-hard"&gt;sharp essay&lt;/a&gt; by Carl Hendrick titled, &amp;#8220;Why Does Thinking Feel So Hard?&amp;#8221;&lt;/p&gt;
+&lt;p&gt;Hendrick explains why “smart,” complicated solutions can feel productive, even when they’re not. Sometimes you really do need to invent a zero-gravity pen for a very challenging issue. Other times, a bit of graphite and wood will do the job just fine.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Key quote&lt;/strong&gt;: &amp;#8220;[Psychologist R.H.] Waters claimed that students instinctively chose the route that demands the least mental work. But strangely, they did this even when they knew a more effortful pathway would lead to deeper understanding. At a time when psychology was dominated by behaviorism, and education was steeped in what would later become the moral language of grit and discipline, this was an uncomfortable proposition. Effort was seen as a virtue, not a variable. Waters’ suggestion that learners actively minimize mental effort, not out of laziness, but as a basic cognitive strategy, was both unconventional and ahead of its time.”&lt;/p&gt;
+&lt;h2 class="wp-block-heading" id="h-why-co-founder-relationships-fail"&gt;Why co-founder relationships fail&lt;/h2&gt;
+&lt;p&gt;I thoroughly enjoyed this &lt;em&gt;Founders &lt;/em&gt;&lt;a href="https://www.davidsenra.com/episode/michael-ovitz"&gt;podcast&lt;/a&gt; with Michael Ovitz, the legendary founder of Creative Artists Agency (CAA). It’s a roaming conversation about ambition, excellence, curiosity, pattern recognition — and, perhaps most interestingly — why most business relationships fail over time.&lt;/p&gt;
+&lt;p&gt;To Ovitz, it&amp;#8217;s usually not about a divergence of strategy, or even ego. It&amp;#8217;s something far simpler: most business partners never develop truly complementary temperaments that enable them to build something for the long-term.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Key quote: &lt;/strong&gt;&amp;#8220;I don&amp;#8217;t want to put a percentage on it because I honestly don&amp;#8217;t know. But if you asked me off the top of my head, I&amp;#8217;d say 90% [of co-founder relationships] fail. It&amp;#8217;s very hard to have two strong founders that share a singular vision&amp;#8230; It&amp;#8217;s very hard to find leaders who understand principles of business, how to execute them, how to handle people, how to be a leader, how to get along with your co-founder, how to have an intellectual process to support your vision, and how to unfold your vision, and while you&amp;#8217;re doing that, to be open-minded. That&amp;#8217;s really difficult.&amp;#8221;&lt;/p&gt;
+&lt;hr class="wp-block-separator has-alpha-channel-opacity" /&gt;
+&lt;h3 class="wp-block-heading" id="h-a-few-more-links-i-enjoyed"&gt;A few more links I enjoyed:&lt;/h3&gt;
+&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=Qp0rCU49lMs"&gt;Hidden Reality of Alien Intelligence &amp;amp; Biological Life&lt;/a&gt; &amp;#8211; via Michael Levin and Lex Fridman&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Key quote:&lt;/strong&gt; &amp;#8220;‍When cells disconnect, they physiologically disconnect from the other cells. Their cognitive light cone shrinks. The boundary between self and world, which is what the cognitive light cone defines, shrinks. Now they’re back to an amoeba. As far as they’re concerned, the rest of the body is just external environment, and they do what amoebas do. They go where life is good. They reproduce as much as they can, right? So that cognitive light cone, that is the thing that I’m talking about that scales. And so when we are looking for life, I don’t think we’re looking for specific materials.&amp;#8221;&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://thebeautifultruth.org/field-notes/belonging-restructures-mergers-acquisitions/"&gt;How to Bring Back Belonging&lt;/a&gt; &amp;#8211; via The Beautiful Truth&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Key quote:&lt;/strong&gt; &amp;#8220;When belonging fractures, new patterns of leadership often emerge. At Airmedtec, influence no longer followed hierarchy alone. People who had never seen themselves as leaders began to take responsibility for stabilizing teams and rebuilding routines. Small acts like mentoring a colleague or reviving a tradition became the scaffolding for a new culture. This redistribution of leadership sent a clear signal: belonging is not something handed down from the top, but something built collectively. As teams found new rhythms, the sense of shared responsibility deepened.&amp;#8221;&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/business/why-we-overcomplicate-things/" rel="nofollow"&gt;Why we overcomplicate things&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/karen-hao-OpenAI.png?w=640" /&gt;&lt;p&gt;In the introductory chapter of her book &lt;a href="https://www.amazon.com/Empire-AI-Dreams-Nightmares-Altmans/dp/0593657500"&gt;&lt;em&gt;Empire of AI&lt;/em&gt;&lt;/a&gt;, author Karen Hao explains how Sam Altman’s temporary ouster from OpenAI in November 2023 was the result of an ideological rift that tore the organization’s leadership in half. No one contested OpenAI’s founding goal — to ensure artificial general intelligence (AGI), once developed, would benefit rather than destroy or enslave humanity — but there had been growing disagreement on the best way to reach it.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;One side, united under Altman, argued that the funds required to create AGI could only be secured if OpenAI transformed from a nonprofit into a for-profit entity, while the other believed the introduction of private capital into the organization would get in the way of AGI serving its intended purpose. Altman’s side won, and the rest is history.&lt;/p&gt;
+&lt;p&gt;Hao was in the middle of an interview when news of the ultimately unsuccessful coup first emerged — not that the event significantly changed her view on the company or its role in the world. &lt;/p&gt;
+&lt;blockquote class="wp-block-quote"&gt;
+&lt;p&gt;When Musk and Altman co-founded OpenAI, they already had an egotistical motive.&lt;/p&gt;
+&lt;p&gt;&lt;cite&gt;Karen Hao&lt;/cite&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;As the veteran Silicon Valley reporter and best-selling author tells Big Think&lt;em&gt; &lt;/em&gt;in the interview below, OpenAI was born out of not only concern for the future of civilization, but also the desire to beat — and ultimately dominate — its competitors. In retrospect, its altruistic mission statement has helped both justify and enable the company’s unchecked growth. Even if reflective of a genuine fear about how AGI might be used, its function has been that of a marketing ploy, a story told to animate employees, attract investors, and silence alarmed members of the general public. &lt;/p&gt;
+&lt;p&gt;As suggested by its title, &lt;em&gt;Empire of AI — &lt;/em&gt;released in May 2025 and based on interviews with more than 260 people employed by or close to the company — makes the case that OpenAI has developed into something analogous to a colonial empire, extracting resources and exploiting labor under the guise of innovating, civilizing, and elevating humanity to a superior state of being. But all empires crumble sooner or later — and often the fall is a direct result of internal efforts to stave off the inevitable. &lt;/p&gt;
+&lt;p&gt;&lt;em&gt;The following interview has been lightly edited for length and clarity.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;Reading your book, one can’t help but notice that OpenAI’s corporate culture seems kind of cultish. Is this an industry thing or specific to OpenAI?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Karen Hao:&lt;/strong&gt; A lot of Silicon Valley companies cultivate a mission-driven ethos that gets people to buy into a certain ideology and venture, but OpenAI definitely took it to a different level. Sam Altman often tells employees that OpenAI is an unusual company. I think he means many things by that, but one of them is the degree of alignment he seeks to cultivate within the organization by way of its quasi-religious sense of purpose.&lt;/p&gt;
+&lt;p&gt;One aspect of empire-building is creating the banner of a civilizing mission under which to engage in a lot of bad stuff around the world. Just like the empires of old, OpenAI’s ability to put blinkers on its employees — to convince them that everything we do is ultimately worth it because the ends justify the means — is a key part of how the company managed to cultivate so much power and influence.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;The story of OpenAI — and the AI industry as a whole — unfolds rapidly. What are your thoughts on some of the major developments that have taken place since your book’s publication earlier this year?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hao:&lt;/strong&gt; One of the biggest changes that’s taken place since the book was [written] was Donald Trump’s reinauguration. The president has really codified a stance within the U.S. government that they are uninterested in holding Silicon Valley accountable. The fact that they’re instead abetting its expansion has, I think, only made the empire metaphor more relevant as there’s now a clear analogy to the British East India Company and the British Crown, where the Crown supercharged the company’s recklessness, nationalized it, and turned India into a colony of the U.K.&lt;/p&gt;
+&lt;p&gt;I can see this parallel playing out in real time, where the U.S. government sees the supercharging of OpenAI’s activities — and the rest of the AI industry’s activities — as a way to accumulate power in the world. And if one day they need to do whatever the equivalent of nationalizing this company is, my guess is that this administration is operating under the assumption that these companies’ assets around the world will eventually become American assets and belong to the American empire.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;OpenAI had quite a few comments on an article you wrote about the company and its history for &lt;em&gt;MIT Technology Review&lt;/em&gt; in 2020. What has its response to &lt;em&gt;Empire of AI &lt;/em&gt;been like?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hao:&lt;/strong&gt; Actually, OpenAI has not responded at all. Right before publication, Sam Altman subtweeted the book by saying there were some books coming out about him and that people should read the two he had participated in. Since there are only three in total, he was basically telling people not to read mine. But when he did that, it ended up generating a lot of attention for my book.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Now, their strategy seems to be papering over the book with a steady drum of press releases and trying to drip out positive news to cover it up.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Book cover for &amp;quot;Empire of AI: Dreams and Nightmares in Sam Altman's OpenAI&amp;quot; by Karen Hao, labeled as a New York Times Bestseller. The background is a gradient of purple and orange." class="wp-image-581003" height="1520" src="https://bigthink.com/wp-content/uploads/2025/12/Empire-of-AI-cover.jpg?w=1000" width="1000" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;A recurring theme in your book is that OpenAI’s success stems in large part from its ability to create a narrative of success — imminent, unavoidable, tremendous. As the zeitgeist continues to shift from techno-optimism to pessimism and cynicism, how will the company keep that narrative intact?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hao:&lt;/strong&gt; Altman and other OpenAI executives often say that criticism is expected whenever you&amp;#8217;re trying to do ambitious things. Because you&amp;#8217;re breaking norms, because you’re the first mover, there will be backlash. There’s been a turn inward, with the company building more and more of a fortress that insulates it from external feedback. There were already religious undertones in many of the things they did, but with the building of the fortress, that has only intensified — especially after GPT-5, when public skepticism increased about whether their work was producing true advancements in AI capabilities.&lt;/p&gt;
+&lt;p&gt;You would think that might shake some AI developers about whether they’re on the right path, yet they’ve only doubled down. Rather than sowing doubt, it has made them more impervious to critiques of their approach. OpenAI was originally meant to have a very open orientation. Then it closed itself off, and now it’s continuing to close itself off more and more.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;After all the research you’ve done, do you think that OpenAI started off from a well-intentioned place but took a dark turn later down the road? Or were hints of what it would eventually become present at the very beginning?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hao:&lt;/strong&gt; I originally thought it was the former, but now I think it’s the latter. When Musk and Altman co-founded OpenAI, they already had an egotistical motive: They weren’t happy that Google was dominating AI development and wanted to be the ones who dominated it instead. And they came up with a really good story about why this was the morally right thing to do, why they were the good guys going on this purpose-driven quest. &lt;/p&gt;
+&lt;p&gt;It&amp;#8217;s sort of logical that they shed the nonprofit aspect very quickly as it became a hindrance to the original goal: to dominate.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;You write that when GPT-2 came out, OpenAI itself warned of its dangers and potential misuses — warnings that many outside experts brushed off as a publicity stunt. How does this attitude relate to the company’s current strategies?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hao:&lt;/strong&gt; It took me a long time to really understand what happened with GPT-2. I eventually realized I was seeing the first clash between the boomers and the doomers within the company. The reason OpenAI initially decided not to release GPT-2 was because the doomers were leading the effort. Their stance was that they should advance things quickly but not release anything, so they could buy themselves time to figure out how to make their model “safer,” meaning making sure it doesn’t kill everyone.&lt;/p&gt;
+&lt;p&gt;After a bunch of backlash, I think both sides started changing their minds a little, partly because an open-source GPT-2 emerged that made it clear nothing civilization-ending was going to happen if it was released. But I think the boomers also felt really upset that they were getting dinged for a technology they didn’t believe should be withheld the way that the doomers did.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;Discussions about AI often fall into this doomer-boomer dichotomy, with doomers thinking AI will destroy the world and boomers thinking it will save it and make everyone rich and happy. Could it be that this dichotomy is itself a product of and a contributing factor to the growth of the AI bubble?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hao:&lt;/strong&gt; Yes, 100%. Boomer and doomer narratives perpetuate the idea that AI is inevitable, all-powerful, and deserves to be controlled by a tiny group of people. It enables Silicon Valley to continue its very anti-democratic approach to AI development, making decisions that affect billions of people with absolutely zero accountability. &lt;/p&gt;
+&lt;p&gt;Originally, I thought the boomer-doomer narrative was simply rhetoric — stories drip-fed to fuel their consolidation of power. But I realized while reporting that there are people who genuinely fall into the boomer or doomer camp. They genuinely believe AI could bring utopia or the demise of humanity. I spoke with people whose voices were trembling with anxiety, talking about AI becoming too powerful, going rogue in a couple of years, and killing all their loved ones and them as well. I sometimes compare it to &lt;em&gt;Dune&lt;/em&gt;. It’s like someone originally created myths about what AI could be, but over time, even the mythmakers themselves turned into fervent believers.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;At risk of pathologizing people, where does this belief come from? Is it a result of Silicon Valley’s high-pressure work environment, where jobs are competitive, well-compensated, and quickly acquire an all-consuming importance?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hao:&lt;/strong&gt; There are people at OpenAI I have followed for years, and their beliefs have dramatically shifted since they first joined. They exist in echo chambers where everyone they know and speak to on a daily basis is talking in religious undertones and with fervent belief in what they’re doing. You can’t help but fall into that line of thinking yourself, especially because many of these people are highly intelligent, talented individuals. All of these highly capable, highly respected individuals are saying these things — of course you’re going to get sucked into the mythology.&lt;/p&gt;
+&lt;blockquote class="wp-block-quote"&gt;
+&lt;p&gt;I’ve been blown away by how deeply people engage with these issues &amp;#8230; and how motivated they are to resist empires and build something better.&lt;/p&gt;
+&lt;p&gt;&lt;cite&gt;Karen Hao&lt;/cite&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;Circling back to doomers and boomers, what do you make of a book like &lt;em&gt;If Anyone Builds It, Everyone Dies&lt;/em&gt;? Do you think its tone and content adds to the conversation in a productive way?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hao:&lt;/strong&gt; I don’t think it’s productive at all — it’s squarely doomer rhetoric. Eliezer Yudkowsky, the main co-author, is one of the most prominent people pushing this ideology right now, and it’s not based on any scientific evidence. He’s not talking in grounded reality, yet the book has sucked so much oxygen out of the room. It’s getting a ton of coverage — very prominent people are platforming both the book and the authors — and it continues to confuse public discourse by not focusing on the real problems: AI’s enormous environmental and public health costs, how it’s contributing to the affordability crisis, or [how it’s] destabilizing the economy. Instead, we’re sitting through yet another media cycle of, “Is AI going to kill us?”&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;In that case, do you see such discourse playing into OpenAI’s favor?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hao:&lt;/strong&gt; Yes, and this gets at a huge part of my critique of the doomer community. Over the course of last year, they’ve tried to adopt this orientation of “we need to start building bridges” with other communities that are concerned about what’s happening with AI, and so they’ve been trying to move beyond existential-risk narratives to start acknowledging things like environmental concerns.&lt;/p&gt;
+&lt;p&gt;Whenever I engage with people in that community, here’s what I tell them: I appreciate that you’re starting to look at these other issues, yet you are still — by continuing to fixate on the existential-risk narrative — actively undermining the advancement of these other issues. You’re feeding into OpenAI’s power and the power of all these other companies, giving them justification for maintaining really tight control over the technology.&lt;/p&gt;
+&lt;p&gt;Some people in the doomer community will acknowledge all this. Some will even go as far as to agree that their own historical track record has been one of failure. They sought to slow down the technology’s development and somehow managed to do exactly the opposite. Worse, they fed into the recklessness and anti-democratic nature of this development.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Big Think: &lt;/strong&gt;You note that the rise of OpenAI is rapidly closing off other, potentially more hopeful avenues in AI development. As resistance against the company increases, have you become more hopeful that some of these avenues will remain accessible?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hao:&lt;/strong&gt; I’ve actually become way more optimistic about this since the book came out, and there are two reasons for that. One is that, while on tour, I’ve been blown away by how deeply people engage with these issues, how nuanced their understanding is, and how motivated they are to resist empires and build something better.&lt;/p&gt;
+&lt;p&gt;A lot of people ask, “Should we have regulation and legislation?” I say, yes, we should — but we’re not in a political moment where that’s likely to happen. Still, dozens of communities are protesting against data-center projects, effectively blocking or reshaping them, and even implementing bans in some areas. People are [filing] lawsuits: artists and writers over IP, families over mental-health harms linked to AI. Civil society coalitions are challenging the way OpenAI converted to a for-profit model to better resource its nonprofit side. These movements are gaining momentum, connecting, sharing tactics, and organizing across borders. That’s part of how we can slow or disrupt OpenAI’s path. &lt;/p&gt;
+&lt;p&gt;The other reason I’m hopeful is that AI itself — and Altman’s increasingly extreme rhetoric — has started to backfire. The company keeps creating public kerfuffles: Altman announcing ChatGPT might move into pornographic content, the CFO suggesting OpenAI might seek a bailout for infrastructure debt, and ambitious plans for 250 gigawatts of data-center capacity costing $10 trillion by 2033. The escalation is so extreme that it’s making people deeply uncomfortable. Bubble rhetoric is growing, and more people are questioning whether this is the one and only way forward.&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/the-future/karen-hao-boomer-doomer-divide-openai/" rel="nofollow"&gt;The boomer-doomer divide within OpenAI, explained by Karen Hao&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2022/03/AdobeStock_150772270.jpg?w=640" /&gt;&lt;p class="has-drop-cap"&gt;We often talk about searching for truth in the world, and find ourselves at odds with people who seek it differently from how we do. But in many ways, the human endeavor of science is the ultimate pursuit of truth: the truth of our reality as shared by each and every one of us. By asking the natural world and Universe questions about itself, we seek to gain an understanding of:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;what the Universe is like,&lt;/li&gt;
+&lt;li&gt;what the rules that govern it are,&lt;/li&gt;
+&lt;li&gt;and how things came to be the way they are today.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Science is neither a collection of facts nor merely a process, but rather the combination of both. All at once, science is simultaneously the full suite of knowledge that we gain from observing, measuring, and performing experiments that test the Universe, as well as the process through which we perform those investigations and refine our conclusions based on an ever-increasing set of data.&lt;/p&gt;
+&lt;p&gt;It might be easy to see how we gain knowledge from that endeavor, but it&amp;#8217;s less clear how that knowledge leads to an approximation of &amp;#8220;the truth&amp;#8221; of our reality. How do scientists arrive at the idea of a scientific truth? When we do get there, how closely related to our notions of &amp;#8220;absolute truth&amp;#8221; are these scientific truths? And, more explicitly, what are the grounds upon which we, scientifically, determine something to be true or untrue?&lt;/p&gt;
+&lt;p&gt;When we’re speaking scientifically, the notion of a &amp;#8220;truth&amp;#8221; is something very different than how we colloquially use it in our everyday speech and experience. Here’s how to understand the scientific uses of the word truth, including what it does and doesn&amp;#8217;t mean for our reality.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-162747" height="607" src="https://bigthink.com/wp-content/uploads/2022/01/https___specials-images.forbesimg.com_imageserve_5f31b5f3715afbdbd8ce249e_The-explanation-of-retrograde-motion-with-either-a-geocentric-or-heliocentric-model-_960x0.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;One of the great puzzles of the 1500s was how planets moved in an apparently retrograde fashion. This could either be explained through Ptolemy&amp;rsquo;s geocentric model (left), or Copernicus&amp;rsquo; heliocentric one (right). However, getting the details right to arbitrary precision was something neither one could do. Both models have little predictive power; they could not detail the orbital properties of a hypothetical additional planet the way a more concrete physical theory, like Newtonian or Einsteinian gravity, would later do.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://amzn.to/33K76Dg" target="_blank"&gt;Credit&lt;/a&gt;: E. Siegel/Beyond the Galaxy&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Let’s consider the following statement: “The Earth is round.”&lt;/p&gt;
+&lt;p&gt;If you’re not a scientist (assuming, of course, that you&amp;#8217;re also&amp;nbsp;&lt;a href="https://www.forbes.com/sites/startswithabang/2017/11/24/five-impossible-facts-that-would-have-to-be-true-if-the-earth-were-flat/" rel="noreferrer noopener" target="_blank"&gt;not a flat-Earther&lt;/a&gt;), you might think that this statement is unimpeachable. You might think of the &amp;#8220;roundness of the Earth&amp;#8221; as being a statement that&amp;#8217;s completely scientifically true. Under most circumstances, these instincts of yours should be considered correct. In fact, stating that &amp;#8220;the Earth is round&amp;#8221; is both a valid scientific conclusion and also an established scientific fact, specifically if what you&amp;#8217;re doing is contrasting a round Earth with a flat Earth.&lt;/p&gt;
+&lt;p&gt;However, there’s always an additional nuance and caveats at play, especially if you&amp;#8217;re willing to look at the problem with a greater attention to detail than the simple &amp;#8220;round vs. flat&amp;#8221; question. If you were to measure the diameter of the Earth across our equator, you’d get a certain value: 7926 miles (or 12,756 km). If you then went and measured the diameter in a different direction, from the north pole to the south pole, you’d get a slightly different value: 7901 miles (12,714 km). These differences are small, at the 0.3% level or so, but they&amp;#8217;re very real. The Earth is not a perfect sphere, but rather possesses a near-spherical shape that bulges at the equator and is compressed at the poles: what&amp;#8217;s known as an &lt;a href="https://simple.wikipedia.org/wiki/Oblate_spheroid"&gt;oblate spheroid&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-255389" height="2048" src="https://bigthink.com/wp-content/uploads/2022/08/NASA_GOES-13_Full_Disk_view_of_Earth_August_3_2010_4857284173.jpg?w=2048" width="2048" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The diameter of the Earth at the equator is 12,756 km, while at the poles it&amp;#8217;s only 12,714 km. You are 21 kilometers closer to the center of the Earth standing at the North Pole than you are at the equator. This difference is largely due to Earth&amp;rsquo;s rotation on its axis and shows up as an important effect in Earth&amp;#8217;s gravitational field varying with latitude.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:NASA_GOES-13_Full_Disk_view_of_Earth_August_3,_2010_(4857284173).jpg" target="_blank"&gt;Credit&lt;/a&gt;: NASA/GSFC/GOES-13/NOAA&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;To a scientist, the example of a round Earth illustrates extremely well the caveats associated with a term like &amp;#8220;scientific truth.&amp;#8221; When scientists use a term like &amp;#8220;scientific truth,&amp;#8221; they aren&amp;#8217;t talking about truth in an absolute sense, but rather whether this attempt at a truth is a better approximation of our reality than any other alternative we&amp;#8217;ve arrived at so far. Sure, it’s more true that the Earth is a sphere than that the Earth is either a disc or a circle; in that sense, the Earth is round.&lt;/p&gt;
+&lt;p&gt;But it isn’t an absolute truth that the Earth is a perfectly round sphere, where all points on the surface are equidistant from the true center of the Earth. It’s more correct to call Earth an oblate spheroid as opposed to a sphere, for example, as that shape provides a more accurate description for the Earth&amp;#8217;s shape. And, if we&amp;#8217;re being as rigorous as possible, we have to recognize that calling the Earth an oblate spheroid isn’t necessarily the absolute truth, either.&lt;/p&gt;
+&lt;p&gt;There are surface features on Earth that demonstrate significant departures from a smooth shape like either a sphere or an oblate spheroid. There are:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;mountain ranges,&lt;/li&gt;
+&lt;li&gt;rivers,&lt;/li&gt;
+&lt;li&gt;valleys,&lt;/li&gt;
+&lt;li&gt;plateaus,&lt;/li&gt;
+&lt;li&gt;deep oceans,&lt;/li&gt;
+&lt;li&gt;trenches,&lt;/li&gt;
+&lt;li&gt;ridges,&lt;/li&gt;
+&lt;li&gt;volcanoes,&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;and many other features that depart from &amp;#8220;smoothness&amp;#8221; on Earth&amp;#8217;s surface. There are locations where the land extends more than 29,000 feet (nearly 9,000 meters) above sea level, and places where you won’t touch the Earth’s surface until you’re 36,000 feet (11,000 meters) beneath the ocean’s surface.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full is-resized"&gt;&lt;img alt="" class="wp-image-255396" height="390" src="https://bigthink.com/wp-content/uploads/2022/08/ezgif-4-5b573e9a4d.gif" style="width: 840px;" width="520" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;From a depth of over 7,000 meters in the Mariana Trench, the submersible vehicle &amp;lsquo;Jiaolong&amp;rsquo; works to image living plants and animals along the ocean floor in the western Pacific Ocean. The Mariana snailfish is the deepest-living fish in the world, extending all the way down to depths of 8145 meters. The Mariana Trench contains the deepest part of the world&amp;rsquo;s oceans.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.flickr.com/photos/uwnews/24833785028/in/photostream/" target="_blank"&gt;Credit&lt;/a&gt;: SOI/HADES/University of Aberdeen (Dr. Alan Jamieson)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The example of examining the true shape of the Earth, and refining our models of it to better match the shape we measure at greater and greater precisions, gives us a window into how scientists think about &amp;#8220;the truth&amp;#8221; of reality. Moreover, it highlights a few important ways where thinking scientifically differs from how we think colloquially. This can be summed up in three statements, all of which may be unfamiliar to a non-scientist.&lt;/p&gt;
+&lt;ol class="wp-block-list"&gt;
+&lt;li&gt;The notion of &amp;#8220;absolute truth&amp;#8221; is not something we worry about or even attempt to prove in a scientific fashion. There are no absolute truths in science; there are only approximate truths, and the &amp;#8220;goodness&amp;#8221; of a truth depends on how well it matches experiment, observation, and what we measure.&lt;/li&gt;
+&lt;li&gt;Whether we can rightfully consider a statement, theory, or framework to be true (or not) depends on quantitative factors, and measured amounts of &amp;#8220;how much,&amp;#8221; as opposed to qualitative factors such as whether a phenomenon exists or not. The more closely you examine or measure the results that test your quantitative predictions, the more robustly your idea can be established (or refuted) as a scientific truth.&lt;/li&gt;
+&lt;li&gt;And, perhaps most profoundly, every scientific theory has only a finite range of validity over which it is established. Inside that range, the theory is indistinguishable from true, outside of that range, the theory is no longer necessarily true, and may even be known to not be valid outside of it.&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;This represents an enormous difference from how we commonly think about fact vs. fiction, truth vs. falsehood, or even right vs. wrong.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-255380" height="847" src="https://bigthink.com/wp-content/uploads/2022/08/tower-of-pisa-1684981_1280.jpg?w=1280" width="1280" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;According to legend, the first experiment to show that all objects fell at the same rate, irrespective of mass, was performed by Galileo Galilei atop the Leaning Tower of Pisa. Any two objects dropped in a gravitational field, in the absence of (or neglecting) air resistance, will accelerate down to the ground at the same rate, and will traverse an amount of distance that&amp;#8217;s proportional to the time it&amp;#8217;s in free-fall squared. The ball does not &amp;#8220;separate&amp;#8221; from the tower, either, which some (incorrectly) expected would have been the case if the Earth rotates.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://pixabay.com/photos/tower-of-pisa-trip-travel-tourism-1684981/" target="_blank"&gt;Credit&lt;/a&gt;: juliaorige/pixabay&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;For example, if you drop a ball on Earth, you can ask the quantitative, scientific question of how its motion will behave. Like everything on Earth’s surface, we can be certain that the ball, once it&amp;#8217;s dropped (or in free-fall), will accelerate downward at 9.8 m/s² (32 ft/s²). This is a great answer, from a scientist&amp;#8217;s perspective, because it’s so useful when we&amp;#8217;re on the surface of the Earth, and dealing with the small accelerations and low velocities we&amp;#8217;re accustomed to experiencing. Scientifically, this description of a dropped ball&amp;#8217;s motion is a good approximation to the truth of what&amp;#8217;s observed to occur.&lt;/p&gt;
+&lt;p&gt;In science, though, you can begin to look more deeply, and a more comprehensive consideration of the problem will lead to you discovering where (and how) this approximation is no longer true. If you perform this experiment at sea level, at a variety of latitudes, you’ll find that the acceleration at Earth&amp;#8217;s surface actually varies dependent on where you are: from 9.79 m/s² at the equator to 9.83 m/s² at the poles. If you travel to higher altitudes, you’ll find that the acceleration starts to slowly decrease, while at deeper depths, the acceleration increases. And if you leave the Earth’s gravitational pull entirely, you’ll find that this rule isn’t universal at all, but is rather superseded by a more general rule: the law of Universal gravitation.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-149735" height="2814" src="https://bigthink.com/wp-content/uploads/2021/10/8swjkieuu1r21.jpg?w=7298" width="7298" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This poster illustrates the Apollo mission trajectories, made possible by the Moon&amp;rsquo;s close proximity to us. Newton&amp;rsquo;s law of universal gravitation, despite the fact that it&amp;rsquo;s been superseded by Einstein&amp;rsquo;s general relativity, is still so good at being approximately true on most Solar System scales that it encapsulates all the physics we need to travel from Earth to the Moon, orbit it, land on its surface (if we desire), and return. Isaac Newton did, indeed, do most of the driving.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://moon.nasa.gov/resources/348/apollo-mission-flight-plan-1967/" target="_blank"&gt;Credit&lt;/a&gt;: NASA&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;As far as scientific laws go, this one is even more generally true. Newton’s law of universal gravitation can explain all the successes of &amp;#8220;the round Earth,&amp;#8221; which models Earth’s acceleration as a constant, but it can also do much more. It can describe the orbital motion of the moons, planets, asteroids and comets of the Solar System, as well as giving successful predictions for how much you’d weigh on any of the planets, moons, or dwarf planets that are present. That same law also describes how the stars move around inside galaxies, and even allows us to predict how to send a rocket to reach, orbit, and even to land humans on the Moon, providing extraordinarily accurate trajectories.&lt;/p&gt;
+&lt;p&gt;But even Newton’s law has its limits to how well it can approximate the truth of our reality. When you:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;move close to the speed of light,&lt;/li&gt;
+&lt;li&gt;or get very close to an extremely large mass,&lt;/li&gt;
+&lt;li&gt;or want to know what’s occurring on cosmic scales (such as in the case of the expanding Universe),&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Newton and his law of universal gravitation are unable to help you. For that, you have to supersede Newton if you want an answer that agrees with what we observe and measure. In the early 20th century, it was exactly considerations such as this that led humanity to move on beyond Newton, and to instead embrace Einstein’s general relativity.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="gravitational lens illustration" class="wp-image-196285" height="3000" src="https://bigthink.com/wp-content/uploads/2022/05/heic1106c.jpg?w=4000" width="4000" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;An illustration of gravitational lensing showcases how background galaxies &amp;mdash; or any light path &amp;mdash; are distorted by the presence of an intervening mass, but it also shows how space itself is bent and distorted by the presence of the foreground mass. When multiple background objects are aligned with the same foreground lens, multiple sets of multiple images can be seen by a properly-aligned observer, or even an &amp;#8220;Einstein ring&amp;#8221; in the case of perfect alignment. If a transient event, like a supernova, occurs in the background galaxy, it will appear with time delays in the various images.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://esahubble.org/images/heic1106c/" target="_blank"&gt;Credit&lt;/a&gt;: NASA, ESA &amp;#038; L. Cal&amp;ccedil;ada&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;For the trajectories of particles that move close to the speed of light, or to obtain very accurate predictions for the orbit of Mercury (the Solar System’s closest and fastest planet), or to explain the gravitational bending of starlight by the Sun (during an eclipse) or by a large collection of mass (such as in the case of gravitational lensing, above), Einstein’s theory gives predictions that match what we observe and measure, whereas Newton’s older law of universal gravitation fails. In fact, for every observational or experimental test we’ve thrown at general relativity, from gravitational waves to the frame-dragging of space itself, it’s passed with flying colors.&lt;/p&gt;
+&lt;p&gt;Clearly, this shows that Einstein&amp;#8217;s general relativity has more explanatory power, and is a better approximation of reality, than all of the attempts at describing gravitation that came before it. But does that mean that Einstein’s general theory of relativity should be taken as &amp;#8220;the scientific truth?&amp;#8221;&lt;/p&gt;
+&lt;p&gt;When you apply it to these specific scenarios, absolutely; it&amp;#8217;s true in the sense that wherever we&amp;#8217;ve been able to test it, those tests have been consistent with general relativity&amp;#8217;s predictions. However, there are scenarios and circumstances we can consider, all of which are not yet sufficiently tested, where we fully expect that general relativity won’t give quantitatively accurate predictions.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-134575" height="1080" src="https://bigthink.com/wp-content/uploads/2021/06/134574-134575.jpg?w=1920" width="1920" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Even two merging black holes, one of the strongest sources of a gravitational signal in the Universe, doesn&amp;rsquo;t leave an observable signature that could probe quantum gravity. For that, we&amp;rsquo;ll have to create experiments that probe either the strong-field regime of relativity, i.e., near the singularity, or that take advantage of clever laboratory setups that can probe past the limits of classical general relativity.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://svs.gsfc.nasa.gov/13086" target="_blank"&gt;Credit&lt;/a&gt;: NASA&amp;#8217;s Goddard Space Flight Center&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;There are many questions we can ask about reality that require us to understand what’s happening where gravity is important or where the curvature of spacetime is extremely strong: just where you’d want to put Einstein’s theory to the critical test. But when the distance scales you’re thinking about are also very small, it isn&amp;#8217;t just Einstein (and classical general relativity) that should come into play; you expect quantum effects to be important as well. Under those conditions, general relativity alone shouldn&amp;#8217;t be able to explain the full suite of what we anticipate will occur. Some questions that require a knowledge of gravity beyond Einstein&amp;#8217;s theory &lt;a href="https://bigthink.com/starts-with-a-bang/possible-gravity-isnt-quantum/" rel="noreferrer noopener" target="_blank"&gt;include the following&lt;/a&gt;:&lt;/p&gt;
+&lt;ul class="wp-block-list"&gt;
+&lt;li&gt;What happens to the gravitational field of an electron when it passes through a double slit?&lt;/li&gt;
+&lt;li&gt;What happens to the information of the particles that collapse to form a black hole, if the black hole’s eventual state is to decay into thermal radiation?&lt;/li&gt;
+&lt;li&gt;And what is the behavior of a gravitational field/force at and around a singularity?&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Einstein’s theory won’t just get these answers wrong; it won’t have any sensible answers to offer at all. In these regimes, we know we require a more advanced theory, such as a valid quantum gravitational theory, to tell us what’s going to happen under these circumstances.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-190236" height="603" src="https://bigthink.com/wp-content/uploads/2022/05/BH-info.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Encoded on the surface of the black hole can be bits (or quantum bits, i.e., qubits) of information, proportional to the event horizon&amp;#8217;s surface area. When the black hole decays, it decays to a state of thermal radiation. As matter and radiation fall into the black hole, the surface area grows, enabling that information to be successfully encoded. When the black hole decays, entropy will not decrease, but rather will remain constant, as Hawking radiation is an entropy-conserving (adiabatic) process. How or if that information is encoded into the outgoing radiation is not yet determined.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;Credit: T.B. Bakker/Dr. J.P. van der Schaar, Universiteit van Amsterdam&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Our understanding of gravitation isn&amp;#8217;t complete; we haven&amp;#8217;t reached an understanding that&amp;#8217;s compatible with notions like &amp;#8220;absolute truth&amp;#8221; or a fully accurate, comprehensive, and complete picture of reality. Yes, masses at the surface of Earth accelerate downward at 9.8 m/s², but that won&amp;#8217;t explain everything. If we ask the right questions or perform the right observations or experiments, we can find where and how this description of reality is no longer a good approximation of the truth, and identify where it breaks down.&lt;/p&gt;
+&lt;p&gt;Newton’s laws can explain the acceleration due to gravity at Earth&amp;#8217;s surface and more, accounting for all the observed phenomena of objects near Earth&amp;#8217;s surface as well as many others, but it, too, isn&amp;#8217;t complete. We can find observations and experiments that show us where Newton, too, is insufficient.&lt;/p&gt;
+&lt;p&gt;Even replacing Newton’s laws with Einstein’s general relativity leads to the same story: Einstein’s theory can successfully explain everything that Newton’s can, plus additional phenomena. Some of those phenomena were already known when Einstein was constructing his theory; others had not yet been tested or even thought up. However, we can be certain that even Einstein’s greatest accomplishment will someday be superseded. When it does, we fully expect it will happen in exactly the same way: by probing a regime where general relativity&amp;#8217;s predictions don&amp;#8217;t match up with what we observe and measure reality to be.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="quantum gravity" class="wp-image-152783" height="540" src="https://bigthink.com/wp-content/uploads/2021/11/https___blogs-images.forbes.com_startswithabang_files_2017_10_Loop-Diagram.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Quantum gravity attempts to combine Einstein&amp;rsquo;s general theory of relativity with quantum mechanics. Quantum corrections to classical gravity are visualized as loop diagrams, as the one shown here in white. Alternatively, it&amp;#8217;s possible that gravity is always classical and continuous, and that quantum field theory, not general relativity, needs to be modified. A fundamental incompatibility between quantum physics and general relativity has long been recognized, but has yet to be satisfactorily resolved.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www6.slac.stanford.edu/news/2015-11-18-qa-slac-theorist-lance-dixon-explains-quantum-gravity.aspx" target="_blank"&gt;Credit&lt;/a&gt;: SLAC National Accelerator Laboratory&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Science is not, despite the claims of many, about finding the absolute truth of the Universe. No matter how much we’d like to know what the fundamental nature of reality is, from the smallest subatomic scales and below to the largest cosmic ones and beyond, this is not something science can deliver. All of our scientific truths are only ever provisional, and we must recognize that they merely represent our best models for currently approximating our observed, shared reality.&lt;/p&gt;
+&lt;p&gt;Even the most successful scientific theories imaginable will, by their very nature, have a limited range of validity over which they apply. However, we are free to theorize whatever we like, and to let our imaginations run wild when it comes to concocting potential scenarios for a scientific revolution. After all, whenever a new theory meets the following three criteria:&lt;/p&gt;
+&lt;ol class="wp-block-list"&gt;
+&lt;li&gt;it achieves all of the successes of the prevailing, pre-existing theory,&lt;/li&gt;
+&lt;li&gt;it succeeds where the current theory is known to fail or be insufficient,&lt;/li&gt;
+&lt;li&gt;and it makes novel predictions for up-to-that-point unmeasured phenomena, distinct from the prior theory, that then wind up passing the critical observational or experimental tests,&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;it will supersede the current one as &lt;a href="https://bigthink.com/starts-with-a-bang/fundamental-science-victim-success/"&gt;our best approximation of a scientific truth&lt;/a&gt;. When all three of these conditions are met, a scientific revolution is all but inevitable.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="singularity" class="wp-image-144148" height="650" src="https://bigthink.com/wp-content/uploads/2021/10/https___blogs-images.forbes.com_startswithabang_files_2018_05_history.jpg?w=960" width="960" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;Our entire cosmic history is theoretically well-understood, but difficult to depict in a static, 2D image. The Universe&amp;#8217;s present expansion rate and energy composition are related, which is why most modern illustrations of our cosmic history have a tube-like shape: where they often (dubiously) depict an initial singularity, a period of inflation, and then a slower expansion that changes with time while our Universe evolves. No one diagram encodes all of these details correctly, including the one shown here, which seems to maintain a constant &amp;#8220;size&amp;#8221; for the Universe, disagreeing with reality.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://www.nsf.gov/news/news_images.jsp?cntn_id=244599&amp;amp;org=NSF" target="_blank"&gt;Credit&lt;/a&gt;: Nicole Rager Fuller/National Science Foundation&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;All of our currently held &amp;#8220;scientific truths,&amp;#8221; from the Standard Model of elementary particles to the Big Bang to dark matter and dark energy to cosmic inflation and beyond, are only provisional. They are hailed as truths today because they describe the Universe extremely accurately, succeeding even in regimes where all prior frameworks have failed. Yet, they all have limitations to how far we can take their implications before we arrive at a place where their predictions are no longer sensible, or will wind up no longer describing reality. What we might call a &amp;#8220;scientific truth&amp;#8221; is not an absolute truth, but rather only an approximate, provisional one, albeit the best one for describing reality at the current time.&lt;/p&gt;
+&lt;p&gt;Moreover, there is no such thing as an experiment that can ever prove that a scientific theory is true; that&amp;#8217;s not how science works. We can only demonstrate that a theory&amp;#8217;s range of validity either can be extended to cover previously untested ground, or that it fails to extend into whatever regime we&amp;#8217;re newly testing it in. The failure of a theory to give predictions that match observations is actually the ultimate scientific success: an opportunity to find an even better scientific truth to approximate reality. As &lt;a href="https://www.causeweb.org/cause/resources/fun/quotes/fermi-hypotheses"&gt;legendary physicist Enrico Fermi put it&lt;/a&gt;,&lt;/p&gt;
+&lt;p&gt;&amp;#8220;There are two possible outcomes: If the result confirms the hypothesis, then you&amp;#8217;ve made a measurement. If the result is contrary to the hypothesis, then you&amp;#8217;ve made a discovery.&amp;#8221;&lt;/p&gt;
+&lt;p&gt;Whenever we discover that our current understanding is insufficient to explain all that&amp;#8217;s out there, yes, it means that science was wrong. That&amp;#8217;s not a failure of science, however, it&amp;#8217;s being wrong in the best way imaginable: in a way that can only lead to a superior scientific framework, and a better answer to the scientific question of the truths of our shared physical reality.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;This article was first published in August of 2022. It was updated in December of 2025.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/science-absolute-truth/" rel="nofollow"&gt;Does science reveal the absolute truth about reality?&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="overflow: hidden; padding-bottom: 56.25%;"&gt;&lt;/div&gt;
+                &lt;p&gt;Human history is a paradox: we accumulate knowledge at astonishing speed, yet remain vulnerable to deception, superstition, and the stories that subtly steer entire civilizations.&lt;/p&gt;
+&lt;p&gt;From the first clay tablets to today’s global media systems, the structures that carry our ideas have always shaped what societies can build, believe, and destroy. That paradox is even more important in the age of AI, says Yuval Noah Harari.&lt;/p&gt;
+&lt;p&gt;This video &lt;a href="https://bigthink.com/series/full-interview/collapse-of-truth/" rel="nofollow"&gt;Yuval Noah Harari: Why advanced societies fall for mass delusion&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>success</t>
   </si>
   <si>
@@ -2589,6 +3283,688 @@
 图为以AI为代表的新型智能技术对竞争性选举的具体作用机制。图片来源：作者自制。</t>
   </si>
   <si>
+    <t>All across the Universe, stars are dying through a variety of means. They can directly collapse to a black hole, they can become core-collapse supernovae, they can be torn apart by tidal cataclysms, they can be subsumed by other, larger stars, or they can die gently, as our Sun will, by blowing off their outer layers in a planetary nebula while their cores contract down to form a degenerate white dwarf. All of the forms of stellar death help enrich the Universe, adding new atoms, isotopes, and even molecules to the interstellar medium: ingredients that will participate in subsequent generations of star-formation.
+For a long time, however, we’d made assumptions about where certain species of particles will and won’t form, and what types of environments they could and couldn’t exist in. Those assumptions were way ahead of where the observations were, however, and as our telescopic and technological capabilities catch up,sometimes what we find surprises us. Sometimes, we find elements in places that we didn’t anticipate, leading us to question our theoretical models for how those elements can be made. Other times, we find molecules in environments that we think shouldn’t be able to support them, causing us to go back to the drawing board to account for their existence.
+Check out our SoundCloud for direct downloads of this (and all) episodes:https://soundcloud.com/ethan-siegel-172073460/starts-with-a-bang-124-astrochemistry
+Where our expectations and observations don’t match is one of the most exciting places of all, and that’s whereastrochemist and PhD candidate Kate Gold takes uson this exciting episode of the Starts With A Bang podcast! Have a listen, and I hope you enjoy it as much as I enjoyed having this one-of-a-kind conversation!
+This articleStarts With A Bang podcast #124 – Astrochemistryis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>The United States has ended, but America continues. The question is:How?That’s the shortest possible summary for an entire genre of U.S.-centered, post-apocalyptic fiction. Call it “America after the Fall.”
+It’s a fertile genre, with plenty of maps to illustrate its dismal point. That point is not the future, but the present. Like other strands of sci-fi, post-apocalyptic fiction projects onto tomorrow the anxieties of today. And these maps of a catastrophic future are present-day America’s long, hard look in the mirror.
+A generous helping of moral turpitude
+Depending on the prevailing panic, the nature of the Fall typically varies between half a dozen usual suspects: nuclear war, alien invasion, a deadly pandemic, technological breakdown, climate collapse, civil war — each often infused with a generous helping of moral turpitude to lubricate the disaster.
+[图片: Map titled "Future Map of North America" showing projected changes to coastlines and landmasses, with detailed descriptions and labels across the United States, Canada, Mexico, and Central America.]
+On the Future Map of North America by Gordon-Michael Scallion, three major seismic upheavals inundate most of the American West, as well as parts of the East Coast and much of the Mississippi and St Lawrence valleys, which are now connected via the Great Lakes (now a Great Sea). Following the physical dismemberment of North America, new promised lands emerge: Antarctica, now warm and fertile; and the fabled lands of Atlantis and Lemuria, risen above the waves once more (on this map east and west of North America, respectively).(Credit: David Rumsey Map Collection)
+This is a veryAmericangenre. Other countries may have similar worries about the future, but in the U.S., those are exacerbated by the peculiar nature of the American project — the idea of the country as a bold, unique and ongoing experiment in democratic self-governance, in perpetual danger of terminal failure.
+The unease about the precariousness of that project is heightened by another American specialty: the tension between secular progress and religious millenarianism, the latter being the ardent hope that a divinely ordained cataclysm will wash away the pride, greed, and debauchery resulting from all that so-called progress.
+That adds up to a lot of U.S.-focused post-apocalyptic thinking, writing, and mapping.
+One of the earliest literary examples of the genre isThe Scarlet Plague(1912) by Jack London. Set in 2073, the novel looks back at an epidemic that wiped out most of humanity 60 years earlier. Survivors in the San Francisco Bay area are devolving from civilization back to primitivism.
+The old civilization recedes, and a new one emerges
+London’s book inspiredEarth Abides(1949) by George R. Stewart. Itself an influential work, it provides many of the genre’s recurring templates: the protagonist traveling across an emptied-out America, scavenging for food and encountering small groups of survivors. As the comforts and knowledge of the old civilization recede, a new one emerges, cruder and more superstitious perhaps — but also more attuned to nature and survival.
+[图片: A detailed map charting character journeys from Stephen King's "The Stand," showing routes, cities, and key groupings across the United States with a legend and inset map.]
+Overview of the cross-country journeys undertaken in Steven King’s The Stand. Precarious road trips across an emptied-out America have been a mainstay of post-apocalyptic fiction ever since George R. Stewart’s Earth Abides (1949). (Credit: Christ Solnordal/Etsy)
+Earth Abidesinformed several later plague-driven post-apocalyptic narratives, including Stephen King’sThe Stand(1978), Emily St John Mandel’sStation Eleven(2014), and arguably also the wholeWalking Deaduniverse, as well asThe Last of Us, the video game about a zombie-holocaust-by-fungus that morphed into a 2023 TV series. Stewart’s own novel finally got the TV treatment in 2024.
+Well-known examples of post-apocalypic Americas by causes other than epidemics includeThe Postman(a 1985 book turned into a movie in 1997), set in an America recovering from a nuclear exchange;Half Life 2(the 2004 video game), after an alien takeover;One Second After(2009), in which an electro-magnetic pulse fries all electronics; J.G. Ballard’sThe Drowned World(1962), set partly in a half-submerged New York City; andDMZ, a graphic novel series (2005 to 2012) about a second American civil war.
+The common thread in post-apocalyptic fiction is balkanization. After the Fall, the States disunite into smaller, mutually hostile geopolitical fragments: confederacies, theocracies, city-states, tribal zones, no-man’s lands. Those fragments may be speculative, but they’re not entirely random. They reflect the anxieties that pulse beneath the surface of contemporary American life.
+[图片: A color-coded map of the U.S. shows the country divided into multiple independent nations, each with its own flag and name, replacing current state and national borders.]
+A “classic” map of the Divided States of America, featuring many of the subdivisions recurring in numerous amateur maps of a post-apocalyptic future, including religious entities (e.g. Mormon republic centered on Utah), libertarian and leftist enclaves (Cascadia in the Pacific Northwest and California, respectively), ethnic states (African-American in the Southeast, Mexican-American in the Southwest), and nostalgic revenants (the Confederacy, an independent Texas). (Credit: ThaDrummer/DeviantArt)
+Translated onto a map, the fragmentation of the U.S. provides a visual shock to the system. The map of the U.S. is one of the world’s most recognizable, most stable cartographic emblems. In its unified form, the map of the nation has the strength of a logo, symbolizing the Union itself.
+Perhaps the most violent shock is the physical rather than the merely political destruction of the United States, as on Gordon-Michael Scallion’sFuture Map of North America(1996).
+A comet that would turn people blue
+From 1979 onward, Scallion received “visions” of coming events. Some he got right, notably the 1984 Mexico City earthquake and the 1988 election of George Bush Sr. as president. But most he got wrong, including the arrival of a comet that would turn people blue and give them psychic powers. And seismic shifts in the earth’s polarity and tectonics that would drown much of the world, including large parts of North America.
+While Scanlon focuses on the physical breakup of the United States, most other catastro-futurists — and they are legion — leave the coastline alone, and wreak havoc on the body politic instead.
+A fairly typical example is thisMap of North America, 2150, which grants future independence to some of the most prominent political, ethnic, religious, and regional entities in today’s North America (which in this case generously includes Canada, Mexico, and the Caribbean).
+Texas and California survive as sovereign republics. California, to indicate its (current) left-leaning politics, is aDemocraticRepublic, reminiscent of the nomenclature of former Communist countries, and mirrored farther south in the Democratic Republics of Aztlán and Baja California.
+Farther north, the Mormons have finally established their Holy Republic of Deseret, the liberals in Seattle and thereabouts are united in the Social Republic of Cascadia, and the Native Americans inland have proclaimed a Republic of Lakhota. Sitting uneasily in between is the Aryan Bastion, unsubtly boasting Hitlerburg and other all-too-Germanic-sounding place names.
+[图片: Map of North America in 2150 showing new nations and borders, with national flags and brief descriptions of each country displayed around the map.]
+Some of the genre’s typical entities return on this map of North America in 2150. (Credit: Reddit/ImaginaryMaps)
+The Great Lakes are the natural setting for a Confederation, and New England is now a Commonwealth, stopping short just north of New York City, which is part of the United States of Columbia — perhaps the most direct descendant of the formerly united states.
+Further down are the Republic of New Afrika and the Confederate Republics of Dixie; the South never gets to turn the page on the Civil War. The League of the Mississippi is a re-Frenchified, re-enlarged Louisiana, and Libertalia is the Caribbean-oriented southern tip of Florida. In between all that: a vast, blank, and, one assumes, entirely lawless space.
+The franchised nation of Monaco
+These entities are the stalwart ingredients of many post-apocalyptic maps, operating under the assumption that, once the veil of unity is whisked away, historical and current divisions within the U.S. will assert themselves.
+[图片: A black and white map shows a fictional division of Canada and the United States into new regions and countries in the year 2092, with altered borders and renamed areas.]
+A post-apocalyptic North America in 2092, as reimagined in 1992 by Generation X author Douglas Coupland: Dallas has been replaced by Dallas II, and New York City has been superseded by the Manhattan People’s Soviet. Did he foresee Zohran Mamdani’s mayoral win? (Credit: Alternate Timelines on X)
+Even the literary imagination of Douglas Coupland couldn’t escape these tropes. On a map ofCanada and the United States in 2092, he identifies Cascadia in the Pacific Northwest, the states of Dixie and Texlahoma, and a theocracy in Utah. Some interesting flourishes, though: a Shrine of Tupelo (in memory of Elvis, supposedly); the Disney National Memory Storage Facility (in Orlando); and the franchised nation of Monaco (somewhere in New England).
+TheHunger Gamesprovide a more radical departure from the post-apocalyptic tradition. Centuries into the future, a North America diminished by coastal flooding is home to the nation of Panem, which consists of 12 districts loosely centered on a Capitol located in the Rocky Mountains.
+As annual atonement for a failed rebellion, in which the 13th district was destroyed, each district must send a boy and a girl to the Capitol for the so-called Hunger Games, a fight to the death with prizes for the last players standing and their district.
+[图片: A color-coded map of Panem from The Hunger Games, showing 13 districts, the Capitol, surrounding wilds, and bodies of water.]
+A decadent Capitol City extracting an annual blood tribute from its impoverished subject districts: you could read the future state of Panem as a heavy-handed metaphor for today’s U.S. federal government. (Credit: Dan McCall/PanemPropaganda)
+The books by Suzanne Collins don’t provide a map, nor are they explicit about the location and boundaries of the districts, so maps — mostly fan-made — vary. All, however, convey the impression of a continent reduced in vitality as well as size.
+The favorite riskdu jourfor institutional implosion of the U.S. is political division. Some have already suggested matching America’s institutions to the widening cultural gap between Red and Blue tribes, and splitting up the country into two nations, one for each tribe.
+[图片: Map of the United States showing a partition plan with counties colored as progressive (blue) or conservative (pink), and national capitals marked with stars.]
+Red and Blue America divided into two contiguous nations, thanks to a network of connecting nodes, reminiscent of the UN’s 1947 plan for the division of the Holy Land into Israel and Palestine. (Image: Dicken Schrader; see also Strange Maps #948)
+This suggestion, from 2019, is based loosely on election maps, but also ensures the Red and Blue nations are contiguous, thanks to a network of nodes where it is possible to cross over from one part of each zone into another. Map nerds will recognize this peculiar setup from the original 1947 proposal by the UN to divide the Holy Land between Arabs and Jews. What could go wrong?
+Texas and California, lumped together in the Western Forces
+Here’s what could go wrong: a second American Civil War is not a clean fight between two sides, but a free-for-all between multiple parties. One example is this map from the movieCivil War(2024), which purposely kept the politics vague in order to focus on the shock of full-scale American-on-American political violence. Because of that vagueness, Texas and California — typically on opposite sides of the political spectrum — were lumped together in the Western Forces. Other warring parties: the Florida Alliance, covering most of the South, a New People’s Army in the north and northwest, and the Loyalist States in between.
+[图片: A green-tinted map of the U.S. shows regions labeled New People’s Army, Western Forces, Loyalist States, and Florida Alliance. Text below reads: "Civil War in theaters April 12.]
+The movie Civil War lumps Texas and California into the same rebel alliance, obfuscating the politics of the conflict; but its overall point – weak federal government overrun by secessionists – is arguably left-coded. (Credit: Reddit/ShittyMovieDetails)
+In the movie, a weakened central government is ultimately overwhelmed by the vaguely defined insurgent forces. On that basis, you could classify its outlook as “left-coded” — implicitly preferring the merits, however questionable, of unified authority over the havoc wreaked by rebels and secessionists, however well-intentioned.
+An analysis of the forces at play inThe Last of Usjustifies classifying it as a “right-coded” narrative. FEDRA, the rump of the central government surviving in a handful of fortified Quarantine Zones, is an authoritarian military junta, imposing martial law, rationing, and execution of dissidents. The good guys are the Fireflies, a revolutionary militia fighting to restore democracy. Most of America, though, is hostile territory. Even if you avoid the fungal zombies, the slavers and the cannibals, you’re still in danger of encountering sadistic Hunters, semi-fascist “Wolves”, or the religious cult called the Seraphites.
+Today is valuable enough to want to preserve
+In the post-apocalyptic future, true Americans are few and far between. And — subtext warning — perhaps they always were.
+[图片: A map of the United States features cities marked with icons and text describing fictional events, characters, and outbreaks from "The Last of Us" video game series.]
+In the post-apocalyptic universe in which The Last of Us is set, good and true “Americans” are few and far between. Perhaps the unspoken lesson here is that they always were – also in our current timeline. (Credit: Reddit/TheLastOfUs)
+Whatever the political coding, if you look at enough maps of America after the Fall, they will start to look familiar, almost reassuringly so.
+Yes, the U.S. is gone, and division, tyranny, and anarchy have taken its place. But each cracked map of the late, great U.S. retains an imprint of the good old days, an untapped reservoir of citizen-to-citizen benevolence, and a flickering spark of societal hope.
+This is perhaps the genre’s most pertinent takeaway: America is rehearsing its disaggregation in the safest possible arena — that of science fiction, the comments section of history. In the safety of post-apocalyptic fiction, America is fabricating a future that is nostalgic for the present. The message is that, even with all of its problems and divisions, today is valuable enough to want to preserve. But should the worst happen, then even on the other side of a possible future apocalypse, there is still hope. Why else would anyone make a map of it?
+[图片: A colorful comic map titled "Kamandi's Continent," showing various imaginatively-named regions and illustrated with a blond, muscular character holding a gun in the foreground.]
+To conclude, a whimsical look at post-apocalyptic North America by Jack Kirby of DC Comics. As mentioned by the poster: “This illustration is everything I love about comic books in one panel. DC failing to get the rights to the Planet of the Apes movies, Jack Kirby saying ‘Don’t worry, I can top that’, and then doing a whole map of goofy, colorful &amp; evocative world-building.” (Credit: Zack Stentz/X)
+Strange Maps #1282
+Got a strange map? Let me know at strangemaps@gmail.com.
+For more, follow Strange Maps on X and Facebook.
+This articleAmerica’s post-apocalyptic maps reveal eerily familiar fault linesis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>As artificial intelligence has become a mainstream and ubiquitous tool for hundreds of millions or even billions of people around the world — specifically, through chatbots and large language models (LLMs) like Claude, Gemini, ChatGPT, Llama, and many others — it’s both enabled new pathways for problem solving and also led to new pitfalls for students, early career professionals, and non-experts seeking to mimic the illusion of expertise. While many who create, sell, or promote LLMs laud their use cases, a significant worry has arisen among students, teachers, professors, and education researchers: that students are not using these artificial tools to enhance their learning, but rather to replace it, outsourcing the hard and rewarding work of critical thought to these LLMs simply by prompt-hacking them.
+To be certain, this is a real problem, and a real new way that students (as well as many others) are using the tools at their disposal to complete their assigned work, with the consequence of short-cutting their own intellectual development. But how big of a problem is this really, and who does it impact the most? That’s what physics graduate student Cameron Bishop wants to know, asking:
+“As a student in physics now entering my 3rd year of [graduate studies], have you written about the impact of these LLMs/chatbots on students?”
+As always, there’s a lot to unpack here, but it’s not all “doom and gloom” as some might fear. Let’s go through the impacts of these new technologies, but with a view to how students historically have cheated themselves as well, to put things in their proper context.
+[图片: A glowing, abstract representation of a brain, with intricate patterns and lights reminiscent of the innovative spirit behind the Nobel Prize in Physics 2024, set against a dark backdrop.]
+This illustration of a human brain was generated by DALL-E, a generative AI program, in late 2023. Although it bears many superficial resemblances to a human brain, it lacks many of the brain’s defining structures and presents a fundamentally unrealistic pattern of neurons, glial cells, and folding properties. However, it was by considering the brain that artificial neural networks, the backbone of generative AI, was first developed.
+Credit: DALL·E
+When it comes to learning, whether in a scholastic environment or otherwise, the goal — as so many misunderstand — is not for the student to get the right answer, or to come up with an acceptable answer, to whatever question they’re prompted with. The goal is for the student to gain an understanding of the material: understanding that is a further step along their journey toward mastery of a subject. Whether that’s reading comprehension, a foreign language, wrapping your head around a historical event, mathematical fluency, or the ability to solve scientific problems isn’t particularly relevant. The goal is one and the same: to become “good” at whatever you’re working toward learning.
+While every subject is different, and every student has different strengths, weaknesses, and talents from one another, the method for becoming good at all of these is very similar: you have to work at it. You must invest:
+time,
+energy,
+and effort,
+into a wide variety of aspects of the subject. You have to read, study, solve problems, familiarize yourself with the material, and think about it deeply and repeatedly, and to do so over long periods of time. You have to make a sustained effort, and to not get discouraged by setbacks. But most importantly, you have to grow your mind.
+[图片: reef knot granny knot]
+There are a total of three either/or decisions that get made in the tying of a conventional pair of shoelaces, where 50% of the possible outcomes will lead you to a successfully tied pair of shoes with reef knots in them, and the other 50% will lead you to the dreaded granny knot configuration. Most of us learn to tie our shoes at a young age, but whether we’ve learned to tie a reef or granny knot is something we don’t often discover until adulthood.
+Credit: Beth Henkes/REI
+When you think about the professionals who are not just good, but experts, in any field you can study, what might stand out to you is how different they are from one another. Not just different in how they look, in their educational backgrounds, and in the particular topics that they research and work on, but different in terms of how they fundamentally think about their subject and how they approach problems or puzzles that they encounter within it.
+“How,” the student often wonders, “can these multiple experts, all of whom are so good at what they do and what I’m trying to get good at, have such fundamentally different ways of making sense of this complex subject?”
+And what the student doesn’t understand — in fact, what they couldn’t possibly understand until they themselves have acquired that necessary expertise for themselves — is how one develops that expertise. Sure, there are many steps that everyone has to go through:
+you have to take the same foundational courses,
+you have to learn the vocabulary and jargon of your field, becoming fluent in it,
+you have to learn how to solve certain classes of problems adeptly,
+and you have to accrue experience by working through a variety of problem-solving examples,
+and those experiences are similar for everyone. But what one student takes away from that versus another is going to be very different.
+[图片: Diagram of a neural network with three input nodes, two hidden layers, and three output nodes, illustrating the connections between layers—a design inspired by cutting-edge research recognized in the Nobel Prize Physics 2024 discussions.]
+This example of a feedward network (without backpropagation) is an example of a restricted Boltzmann machine: where there is at least one hidden layer between the input layer and the output layer, and where nodes are only connected between different layers: not between nodes of the same layer, representing a tremendous step forward in creating today’s AI/LLM systems.
+Credit: The Nobel Committee for Physics, 2024
+That’s because, going back to a young age, we all started developing different “toolkits” in our minds as far as problem-solving was concerned. The more we further our education, and the more classes of problems we become capable of solving, the more we’ve enhanced those mental toolkits by adding new and more powerful machinery to it. And very often, just as is the case when you encounter a problem that requires tools to solve, there’s more than one approach that will lead you to the correct solution; there are often multiple, equally valid ways to approach whatever problem or puzzle you’re facing.
+The key is to ensure that you, with the toolkit you have, can:
+understand the problem you’re facing,
+can set up a method for approaching, learning about, and making sense of the problem,
+can identify at least one candidate method for solving that problem with only the tools that you have in your toolkit,
+and then can adeptly use those tools to attack the problem,
+where, if you do every step correctly, you’ll arrive at a valid, viable solution. Even though it may be possible to take the same problem to many different experts and to have each expert offer a different potential solution, each one of those experts is likely to come up with a valid, successful approach to that puzzle.
+[图片: Graph illustrating quantum computing progress. Y-axis: difficulty; X-axis: commercial relevance. "Random Circuit Sampling" is highlighted, bridging classical capabilities and future applications—opening doors to realms akin to parallel universes in quantum computation.]
+This graph shows whether problems are useful/not useful (x-axis) versus how difficult they are for classical computers to solve (y-axis). While random circuit sampling is the most difficult known task for a classical computer to achieve, it is also arguably the most useless application a quantum computer can be tasked with.
+Credit: Hartmut Neven/Google
+What often separates people who “make it” in a challenging academic field from those who don’t is their willingness to put in the hard work necessary to grow their minds in general, and their mental toolkits in particular, in the necessary ways that enable them to devise those solutions. It’s easy to see how a lack of hard work, or an unwillingness to put in the effort, can derail any attempts to grow your mind in exactly those necessary fashions.
+If you don’t spend appropriate time with the vocabulary you need to know to give words to your ideas, you’ll never learn how to communicate in that foreign language you’re attempting to learn.
+If you don’t read the historical or literary texts you’re supposed to be examining for yourself, you’ll be restricted to only knowing about the criticisms and summaries of others, rather than having gleaned the ability to comprehensively analyze those primary sources for yourself.
+And if you don’t practice the mathematical problem-solving skills or the scientific skills associated with conducting laboratory experiments, you won’t be able to become adept at those efforts, which come along with their own type of “fluency” just like any language or literary endeavor does.
+Most of us, unfortunately, are never toldhowto learn; we’re given problems to solve and homework to complete and texts to read and reports to write, and it’s sort of tacitly expected that by completing that work, we’ll gain the skills we need to take steps toward that expertise ourselves.
+[图片: Diagram of particle interactions with wavy and straight lines, illustrating how photons mediate attraction and repulsion in various Feynman diagrams in particle physics.]
+Today, Feynman diagrams are used in calculating nearly every fundamental interaction spanning the strong, weak, and electromagnetic forces, including in high-energy and low-temperature/condensed conditions. The electromagnetic interactions, shown here, are all governed by a single force-carrying particle: the photon, and can result in interactions that are attractive, repulsive, or “other” despite being mediated by the same type of particle. Learning how to do these calculations by hand is a vital aspect of becoming a theoretical high-energy physicist.
+Credit: V. S. de Carvalho and H. Freire, Nucl. Phys. B, 2013
+But there’s a surefire way to undermine that traditional path toward gaining that expertise, and it’s a path that students have been taking for as long as teachers have been teaching and giving assignments: to cheat. When students cheat, we often blame:
+the tools at their disposal,
+the technologies that enable those tools,
+or the students themselves, for doing the cheating,
+but we never bother to point a finger at the culprit that makes this all possible: an educational system that rewards whether the turned-in assignment or assessment meets a certain standard of competence. We use the metric of “performance on those assignments and assessments” as a proxy to gauge the student’s competence and capabilities, and those are not necessarily the same thing.
+It’s often possible — and often, it’s much easier — to complete an assignment without doing the hard work ourselves, and instead to take such a short-cut. After all, if you view the goal of education as obtaining a high grade point average and completing all of your assignments and courses, that’s probably what you’re going to do: optimize your time and efforts to maximize your grades. It’s probably a lot less important to you that you grow your mind in a way that develops your expertise and expands your problem-solving toolkit if that’s not what you’re actively being assessed on.
+Based on the Kepler lightcurve of the transiting exoplanet Kepler-1625b, we were able to infer the existence of a potential exomoon. The fact that the transits didn’t occur with the exact same periodicity, but that there were timing variations, was our major clue that led researchers in that direction. With large enough exoplanet data sets, machine learning algorithms can now find additional exoplanet and exomoon candidates that were unidentifiable with human-written algorithms.
+Credit: NASA GSFC/SVS/Katrina Jackson
+In educational environments with large numbers of students and little personalized attention, students who focus on mental growth and the acquisition of novel and superior problem-solving skills are the exception, not the norm. How could it be, when there’s so little that appears to incentivize that approach? That, itself, is not a new problem that’s come along with the rise of artificial intelligence and LLMs, as the type of “cheating” that’s so common now goes back long before the rise of artificial intelligence.
+On mathematics assignments, you could work out the math by hand, or you could use a calculator (or a more complex tool for calculational problem solving, such as MatLab, Maple, Mathematica, etc.) to work out the math for you; once you turned in the finished product, no one would know the difference.
+On foreign language assignments, particularly at the college level, we were often given take-home tests, and were instructed not to use dictionaries or other notes. Some of us did the assignment as intended; others of us used those forbidden materials anyway.
+And even when I myself was in graduate school for physics, some of us struggled with the homework problems we were assigned — working until we either got the solution correctly, fooled ourselves into thinking that our incorrect solutions were correct, or got as far as we could before turning in our incomplete work — while others among us searched the internet until we found written-up and posted solutions to the problems we were attempting to solve, and then simply plagiarized and/or copied someone else’s hard work.
+The only difference is that now, with LLMs being so ubiquitous, it’s easier than ever to cheat. Simply prompt an LLM with enough information, and it will produce for you a comprehensive document or manuscript that claims to solve whatever problem you throw at it.
+A screenshot from a query about integers directed to iask.ai, along with its woefully incorrect response. The correct answer is -5, which requires inputting several additional prompts to coax the AI into the correct response.
+Credit: E. Siegel/iask.ai
+The consequences for these behaviors, which are widespread among modern students in many countries across the world, are far-reaching and severe.
+Literacy and math skills, as tested among high school and college students, have plummeted in recent years, as there are more and more ways for students to complete their assignments without doing the necessary work.
+About 2/3rds of all students admit openly to cheating, with a large fraction of those students admitting to using LLMs to do their assignments, either in part or wholly, in defiance of the assigned instructions.
+Many teachers, including even professors at the college level, are now using AI to grade, preventing even the honest students from getting the feedback necessary to improve their learning.
+Of course, there are many other negative consequences that arise as we outsource the hard, critical thinking work — where students struggle with the material initially, as all novices do when they attempt to improve at an endeavor they’re new to — to any external source beyond our own minds. The biggest one is this: if you want to become good at something, like expert-level good at it, you have to work at it until you gain competence, add new tools to your toolkit, eventually gain mastery of that material, and then can apply that mastery (and those tools) to new situations and puzzles where they’ll be relevant.
+[图片: A performer with a suitcase stands before a large, seated crowd in an outdoor amphitheater on a sunny day. An umbrella and a bicycle are visible in the foreground, sparking curiosity about why machines learn from such everyday scenes.]
+With a large training data set, such as a large number of high-resolution faces, artificial intelligence and machine learning techniques can not only learn how to identify human faces, but can generate human faces with a variety of specific features. This crowd in Mauerpark, Berlin, would provide excellent training data for the generation of Caucasian faces, but would perform very poorly if asked to generate features common to African-American faces.
+Credit: Loozrboy/flickr
+The big danger with AI in the form of LLMs isn’t that they’ll replace or automate various tasks where there are actually good uses for them;this type of machine learning has many important applications, including in science and beyond, particularly for dealing with large data sets and searching for rare objects or events within them. The big danger is that:
+many of us will consult an LLM for a problem (or with a prompt) that it is not particularly well-suited to answer,
+that the machine will return a long, complicated answer that, to the non-expert’s eye, looks plausible and feasible,
+that no one will catch that this is complete nonsense, filled with mistakes and misinformation,
+and that this nonsensical answer will replace what formerly would have been a correct, valid solution arrived at by someone with expert-level knowledge.
+That is the danger: that bona fide expertise will become rarer and harder to come by, because there is a critical mass of people involved in the educational system that don’t actually care about student learning, expertise, and mastery, including (but not limited to) many of the students themselves. The big danger is that we will buy into the false narrative that these LLMs can do things that they can’t, which isa dangerous myththat has led AI to be deployed, already,in many circumstances where it is a woefully insufficient tool.
+[图片: Line graphs compare LLM-predicted and true force magnitudes over time for five solar systems using three different models: o3, Claude Sonnet 4, and Gemini 2.5 Pro, offering fresh insight into vibe physics.]
+When the LLMs o3, Claude Sonnet 4, and Gemini 2.5 Pro were asked to reconstruct force laws for a variety of mock solar systems, they were all unable to recover something equivalent to Newton’s law of universal gravitation, despite the LLMs themselves having been trained on Newton’s laws. It’s stark evidence for how LLMs rely on pattern matching, and are unable to reach even basically valid scientific conclusions about foundational models.
+Credit: K. Vafa et al., ICML 2025/arXiv:2507.06952, 2025
+There is not going to be a solution to “the big problem” anytime soon, as it would require an overhaul of how education is conducted and valued, overall, in predominantly English-speaking countries at least. However, for an individual student who wants to be successful in this modern environment — who wants to become a bona fide expert themselves — there is still a path forward, albeit one that will take a lot of courage to follow.
+Focus your efforts on skill acquisition, not on grades.
+Spend time and effort solving problems; eschew the short-cuts.
+Do the reading before class, take notes in class, look over your notes and work through sample problems after class, and only after that, attempt your homework.
+Grow your expertise, and do that by seeking out problems (both old and new) to struggle with; embrace the struggle, and celebrate when you make progress.
+And most importantly, don’t do this work in a vacuum; seek out real people, with real expertise themselves, to mentor and guide you along your way.
+There is this idea that all things, even science itself, are tending toward automation: where machines will be at the helm of every step of a process. Humans will be relegated, under this framework, to at best an advisory role, and at worst,to a redundant and unnecessary role. If you yourself, however, actually acquire bona fide expertise, you’ll at least be able to tell whether the LLMs (or whatever form of AI comes to exist) are doing things in a viable way or not. Without that expertise, however, you’ll figuratively become a slave to a “black box” machine, unable to separate fact from fiction for yourself, and completely reliant on a technology that you do not understand.
+There are a lot of things that can be stripped away from someone: wealth, power, resources, health, and more. But what’s in your mind is forever yours. Don’t shortchange yourself by failing to take advantage of the opportunities that abound to grow your mind and your mental toolkit. Throughout your entire life, it will always be right there at your disposal; a concrete example of how hard work pays off.
+Send in your Ask Ethan questions to startswithabang at gmail dot com!
+This articleAsk Ethan: How does AI impact students and cheating?is featured onBig Think.</t>
+  </si>
+  <si>
+    <t>Quantum computing won’t just be an upgrade to the digital machines we use today – it represents a seismic shift in the entire logic that built the digital age.
+Michio Kaku explains why computing on atoms (rather than on transistors) could overturn assumptions that have shaped everything from global security to modern medicine.
+This videoMichio Kaku: How quantum computers compute in multiple universes at onceis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>When I look at the state of leadership development today, I believe that we are on the cusp of a revolution. After speaking with 158 L&amp;D professionals across industries for ourlatest study, one thing became very clear: despite significant investment, most organizations don’t feel their leadership programs are delivering what leaders actually need. Many leaders are overwhelmed, anxious, and stretched thin.Only 40% of the practitioners we surveyed said they were even “somewhat happy” with their leadership development outcomes. That should be a wake-up call for all of us.
+In this moment of uncertainty and rapid technological change, leadership development can no longer be a static set of workshops or a content repository. It has to be a living system that supports real humans, doing difficult and very human work.
+Based on the research and on countless conversations in ourOffbeat community, here are the five recommendations I believe will shape leadership development in 2026.
+1. Strategy
+One of the biggest misses I see is when leadership development operates in parallel to the business instead of serving it. If your company is focused on (for example) revenue growth, operational efficiency, customer satisfaction, or AI transformation, those priorities must have a visible through-line in the leadership experiences you design. Leaders shouldn’t have to guess why a program matters; the connection should be obvious.
+AI deserves special attention. As one of our study participants shared, leaders in the near future won’t only manage people — they’ll manage AI systems as part of their teams. But rather than pushing leaders to “use AI everywhere,” we need to help them slow down, map their workflows, and identify where AI brings value and where human judgment still leads. The next frontier of leadership capability isn’t technical mastery of tools; it’s the ability to make thoughtful choices about when technology should augment, accelerate, or stay out of the way of meaningful work.
+2. Architecture
+Many organizations invest heavily in leadership principles, but then fail to embed them into the actual moments that matter — hiring, performance reviews, promotions, and cross-team interactions. In 2026, we need to bring those principles into the operational fabric of our organizations.
+Psychological safety is another area that deserves much more attention. We talk constantly about creating psychological safety for teams, but rarely about creating it for leaders themselves. It’s becoming a widely recognised pattern that many leaders are operating under heightened pressure, making it harder to role-model curiosity, empathy, and courage.
+If we want leaders to create healthy cultures, we must first create environments where they also feel safe enough to speak openly about their struggles, ask for help, and experiment without fear.
+Collaboration is another overlooked theme. Most leadership programs still focus on content delivery. But with AI making content more accessible than ever, what leaders need most are spaces to connect across functions, understand the broader system, and learn from one another’s lived experience. Cross-departmental collaboration is suffering in many companies, and the best way to improve it is to design intentional forums where people can build relationships, not just absorb frameworks.
+3. Design
+One of the most surprising findings from the research was how little leaders are involved in designing their own development experiences. Many L&amp;D teams send out a survey or conduct a few interviews, but true co-creation is still rare. That’s a missed opportunity, because when people help build something, they naturally value it more. I often reference the“IKEA effect”here — we tend to care more about what we’ve had a hand in building.
+Co-creation doesn’t need to be complicated. Even a quarterly design session where leaders help identify priorities, test prototypes, or offer honest feedback can dramatically increase relevance and engagement. And beyond co-designing the content, we also need to support the emotional reality of becoming a leader. Leadership is a deeply human role, filled with identity shifts, uncertainty, and personal discomfort. In my previous company, our L&amp;D and HR teams offered open-door support to new leaders — a place to talk through challenges, fears, and confusing moments. It made a measurable difference in how confident they felt early in their journey, and I believe far more organizations should embed this kind of emotional scaffolding.
+4. Delivery
+The “build it and they will come” mentality no longer works. Leaders are overwhelmed, and attention is fragmented. Simply announcing a leadership program, no matter how brilliantly designed, is not enough to drive participation.
+Instead of focusing on what the program offers, focus on what leaders are actually dealing with. Are they exhausted? Preparing for difficult conversations? Struggling to communicate strategy? Feeling isolated? When we frame learning around real problems, engagement increases dramatically.
+Champions are another powerful lever. Programs spread more effectively when leaders hear about them from peers rather than from L&amp;D. Some of the most successful examples I’ve seen involve executives or founders openly participating in peer learning groups. When the most senior people in the organization model vulnerability and curiosity, it sends a message that learning is not a remedial activity, it’s part of the culture.
+5. Measurement
+Measurement was the area where the research revealed the biggest gaps. Most organizations do not have clear metrics for leadership performance, and most L&amp;D teams aren’t measuring the impact of their programs. I understand the frustration. Measuring behavior change is complex, and many L&amp;D teams feel they’re doing it alone.
+But we don’t need perfect measurement to make progress. A simple starting point is to use existing engagement survey questions related to communication, clarity, goal setting, and feedback. These provide meaningful signals. From there, co-create performance indicators with leaders themselves; they often have valuable ideas about what “good leadership” should look like in their context.
+Equally important is democratizing the data. Leaders need access to information about their performance, along with support in interpreting that data and translating it into action plans. AI can also play a helpful role in surfacing insights that would otherwise remain hidden, especially in large, distributed teams.
+⸻
+Where L&amp;D should focus in 2026
+If I had to give one piece of advice as teams plan their strategies for next year, it would be this:go talk to your leaders. Don’t ask them what skills they want to develop, instead ask them what challenges they’re facing. Many of those challenges won’t be solved by skill-building alone – they’ll be rooted in systems, processes, cross-team dynamics, or lack of support. Let them vent. Let them unload. And then build your strategy around what you hear.
+Leadership development is changing fast, and the expectations for leaders are climbing even faster. But with a more human, strategic, collaborative, and data-informed approach, I believe we can create leadership experiences that truly serve the people in them, and the organizations around them.
+This articleFive recommendations that will reshape leadership development in 2026is featured onBig Think.</t>
+  </si>
+  <si>
+    <t>The transformation of urban mobility through vehicle automation presents two distinct paths: the widespread adoption of privately owned automated vehicles or a transition to robotaxi fleets. While both scenarios promise technological advancement, the robotaxi model offers compelling advantages for urban efficiency, sustainability, and social equity, but only if implemented with careful attention to policy design and public benefit.
+The superiority of the robotaxi model stems from several key factors. First, it promises a more efficient use of urban infrastructure. Where private vehicles typically sit idle 95% of the time, requiring ubiquitous public and private parking infrastructure, robotaxis can serve multiple users sequentially and potentially simultaneously, dramatically reducing parking requirements and freeing urban spaces for other uses. This efficiency extends beyond parking and roadway utilization to fleet management: Robotaxis’ shorter life cycle (2.5 versus 12 years for private vehicles) enables a faster adoption of safety improvements and other technological advancements.
+The robotaxi model also offers a greater potential for the systematic optimization of urban mobility. Through centralized fleet management and orchestration, robotaxi systems can help manage congestion, regulate traffic flow, and even influence broader travel behaviors. This orchestration capability, combined with the predictable behavior of automated vehicles, could create a pace-car effect that naturally moderates aggressive driving behaviors and enhances road safety.
+However, realizing these benefits depends critically on policy choices and system design. The key uncertainty is not whether robotaxis could be superior to private automated vehicles, but rather what conditions must be met to ensure they deliver on this promise. Several critical policy areas require careful attention:
+Pricing and accessibility.The affordability of robotaxi services will significantly influence their social impact. Without appropriate pricing policies and subsidies, robotaxis could either exacerbate transportation inequities by replacing public transit without serving all population demographics or increase vehicle miles traveled by making car travel overly accessible. A solution lies in sophisticated pricing models that balance accessibility with efficiency, potentially including means-tested subsidies and peak-period pricing.
+Infrastructure and land use.While robotaxis reduce parking requirements at destinations, they require fleet storage that could become a locally undesirable land use. Additionally, the transition period will require the careful management of infrastructure to serve both private vehicles and robotaxis efficiently. This transition presents both challenges and opportunities for urban planning and land use policy.
+Integration with public transit.The relationship between robotaxis and traditional fixed-route public transit requires careful consideration. In high-density corridors, mass transit may remain the most efficient solution, while robotaxis could better serve lower-density areas and provide first- and last-mile connections. The key is designing policies that create complementary rather than competitive relationships between these modes.
+The robotaxi model’s advantages extend beyond operational efficiency to broader social benefits. By reducing the need for private vehicle ownership, it could lower transportation costs for many households while improving mobility access. However, these benefits depend on a thoughtful system design that prioritizes public good over private profit. Whether implemented in democratic or authoritarian contexts, success requires policies that rationalize the efficiency and effectiveness of the public road network.
+"The transition to robotaxis is far more than a technology shift. It is a fundamental reimagining of urban design for mobility."
+Several uncertainties remain. The impact on VKT (vehicle kilometers traveled) could be positive or negative depending on pricing structures and the management of empty repositioning trips. The optimal balance between a robotaxi service and fixed-route public transit will vary by context and evolve over time. Implementing a transition from the current patterns of populations moving toward universal car ownership to a strong robotaxi market share in road mobility sets up challenges in policy analysis and choice, research, development, and testing. These steps require the “best practice” program design and deployment, experience-generated refinements stemming from user feedback, and strong, ongoing operational management.
+Despite the challenges and inevitable evolving uncertainties, the potential benefits of growing a system of robotaxi mobility as a partial substitution for dominance by privately owned automated vehicles are significant. The key advantages include:
+More efficient use of urban space and infrastructure.
+Faster fleet turnover enabling the quicker adoption of safety improvements.
+Greater potential for the systematic optimization of the traffic flow.
+Reduced environmental impact through more efficient vehicle utilization.
+Potential for a more equitable access to mobility services.
+Better integration of public and private urban transportation modes.
+The critical caveat is that these benefits are not automatic consequences of the technology but rather can only be secured through careful design and deployment, including:
+Sophisticated pricing models that balance accessibility with efficiency.
+Integration with public transit systems.
+Land use policies that accommodate fleet management needs.
+Regulatory frameworks that ensure public benefit from private operation.
+Subsidies and support systems that ensure equitable access.
+The transition to robotaxis is far more than a technology shift. It is a fundamental reimagining of urban design for mobility. While ADS (automated driver system) technology enables new possibilities, its actual benefits will depend on the policy choices that prioritize public good without damaging private convenience beyond political acceptance.
+This articleRobotaxis offer a path toward smarter and fairer urban mobilityis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>Back in the 1960s, NASA spent millions of dollars designing a zero-gravity pen. The Russians, on the other hand, used a pencil.
+This story — which, I admit, is likely apocryphal — underscores something we see every day across work and life. We pour massive amounts of time and energy into complex solutions for complex problems. Sometimes, the answer is as simple as using a pencil.
+Which begs a bigger question: Why are we all so drawn to complexity in the first place? To explore this, I’d recommend asharp essayby Carl Hendrick titled, “Why Does Thinking Feel So Hard?”
+Hendrick explains why “smart,” complicated solutions can feel productive, even when they’re not. Sometimes you really do need to invent a zero-gravity pen for a very challenging issue. Other times, a bit of graphite and wood will do the job just fine.
+Key quote: “[Psychologist R.H.] Waters claimed that students instinctively chose the route that demands the least mental work. But strangely, they did this even when they knew a more effortful pathway would lead to deeper understanding. At a time when psychology was dominated by behaviorism, and education was steeped in what would later become the moral language of grit and discipline, this was an uncomfortable proposition. Effort was seen as a virtue, not a variable. Waters’ suggestion that learners actively minimize mental effort, not out of laziness, but as a basic cognitive strategy, was both unconventional and ahead of its time.”
+Why co-founder relationships fail
+I thoroughly enjoyed thisFounderspodcastwith Michael Ovitz, the legendary founder of Creative Artists Agency (CAA). It’s a roaming conversation about ambition, excellence, curiosity, pattern recognition — and, perhaps most interestingly — why most business relationships fail over time.
+To Ovitz, it’s usually not about a divergence of strategy, or even ego. It’s something far simpler: most business partners never develop truly complementary temperaments that enable them to build something for the long-term.
+Key quote:“I don’t want to put a percentage on it because I honestly don’t know. But if you asked me off the top of my head, I’d say 90% [of co-founder relationships] fail. It’s very hard to have two strong founders that share a singular vision… It’s very hard to find leaders who understand principles of business, how to execute them, how to handle people, how to be a leader, how to get along with your co-founder, how to have an intellectual process to support your vision, and how to unfold your vision, and while you’re doing that, to be open-minded. That’s really difficult.”
+A few more links I enjoyed:
+Hidden Reality of Alien Intelligence &amp; Biological Life– via Michael Levin and Lex Fridman
+Key quote:“‍When cells disconnect, they physiologically disconnect from the other cells. Their cognitive light cone shrinks. The boundary between self and world, which is what the cognitive light cone defines, shrinks. Now they’re back to an amoeba. As far as they’re concerned, the rest of the body is just external environment, and they do what amoebas do. They go where life is good. They reproduce as much as they can, right? So that cognitive light cone, that is the thing that I’m talking about that scales. And so when we are looking for life, I don’t think we’re looking for specific materials.”
+How to Bring Back Belonging– via The Beautiful Truth
+Key quote:“When belonging fractures, new patterns of leadership often emerge. At Airmedtec, influence no longer followed hierarchy alone. People who had never seen themselves as leaders began to take responsibility for stabilizing teams and rebuilding routines. Small acts like mentoring a colleague or reviving a tradition became the scaffolding for a new culture. This redistribution of leadership sent a clear signal: belonging is not something handed down from the top, but something built collectively. As teams found new rhythms, the sense of shared responsibility deepened.”
+This articleWhy we overcomplicate thingsis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>In the introductory chapter of her bookEmpire of AI, author Karen Hao explains how Sam Altman’s temporary ouster from OpenAI in November 2023 was the result of an ideological rift that tore the organization’s leadership in half. No one contested OpenAI’s founding goal — to ensure artificial general intelligence (AGI), once developed, would benefit rather than destroy or enslave humanity — but there had been growing disagreement on the best way to reach it.
+One side, united under Altman, argued that the funds required to create AGI could only be secured if OpenAI transformed from a nonprofit into a for-profit entity, while the other believed the introduction of private capital into the organization would get in the way of AGI serving its intended purpose. Altman’s side won, and the rest is history.
+Hao was in the middle of an interview when news of the ultimately unsuccessful coup first emerged — not that the event significantly changed her view on the company or its role in the world.
+"When Musk and Altman co-founded OpenAI, they already had an egotistical motive.Karen Hao"
+As the veteran Silicon Valley reporter and best-selling author tells Big Thinkin the interview below, OpenAI was born out of not only concern for the future of civilization, but also the desire to beat — and ultimately dominate — its competitors. In retrospect, its altruistic mission statement has helped both justify and enable the company’s unchecked growth. Even if reflective of a genuine fear about how AGI might be used, its function has been that of a marketing ploy, a story told to animate employees, attract investors, and silence alarmed members of the general public.
+As suggested by its title,Empire of AI —released in May 2025 and based on interviews with more than 260 people employed by or close to the company — makes the case that OpenAI has developed into something analogous to a colonial empire, extracting resources and exploiting labor under the guise of innovating, civilizing, and elevating humanity to a superior state of being. But all empires crumble sooner or later — and often the fall is a direct result of internal efforts to stave off the inevitable.
+The following interview has been lightly edited for length and clarity.
+Big Think:Reading your book, one can’t help but notice that OpenAI’s corporate culture seems kind of cultish. Is this an industry thing or specific to OpenAI?
+Karen Hao:A lot of Silicon Valley companies cultivate a mission-driven ethos that gets people to buy into a certain ideology and venture, but OpenAI definitely took it to a different level. Sam Altman often tells employees that OpenAI is an unusual company. I think he means many things by that, but one of them is the degree of alignment he seeks to cultivate within the organization by way of its quasi-religious sense of purpose.
+One aspect of empire-building is creating the banner of a civilizing mission under which to engage in a lot of bad stuff around the world. Just like the empires of old, OpenAI’s ability to put blinkers on its employees — to convince them that everything we do is ultimately worth it because the ends justify the means — is a key part of how the company managed to cultivate so much power and influence.
+Big Think:The story of OpenAI — and the AI industry as a whole — unfolds rapidly. What are your thoughts on some of the major developments that have taken place since your book’s publication earlier this year?
+Hao:One of the biggest changes that’s taken place since the book was [written] was Donald Trump’s reinauguration. The president has really codified a stance within the U.S. government that they are uninterested in holding Silicon Valley accountable. The fact that they’re instead abetting its expansion has, I think, only made the empire metaphor more relevant as there’s now a clear analogy to the British East India Company and the British Crown, where the Crown supercharged the company’s recklessness, nationalized it, and turned India into a colony of the U.K.
+I can see this parallel playing out in real time, where the U.S. government sees the supercharging of OpenAI’s activities — and the rest of the AI industry’s activities — as a way to accumulate power in the world. And if one day they need to do whatever the equivalent of nationalizing this company is, my guess is that this administration is operating under the assumption that these companies’ assets around the world will eventually become American assets and belong to the American empire.
+Big Think:OpenAI had quite a few comments on an article you wrote about the company and its history forMIT Technology Reviewin 2020. What has its response toEmpire of AIbeen like?
+Hao:Actually, OpenAI has not responded at all. Right before publication, Sam Altman subtweeted the book by saying there were some books coming out about him and that people should read the two he had participated in. Since there are only three in total, he was basically telling people not to read mine. But when he did that, it ended up generating a lot of attention for my book.
+Now, their strategy seems to be papering over the book with a steady drum of press releases and trying to drip out positive news to cover it up.
+[图片: Book cover for "Empire of AI: Dreams and Nightmares in Sam Altman's OpenAI" by Karen Hao, labeled as a New York Times Bestseller. The background is a gradient of purple and orange.]
+Big Think:A recurring theme in your book is that OpenAI’s success stems in large part from its ability to create a narrative of success — imminent, unavoidable, tremendous. As the zeitgeist continues to shift from techno-optimism to pessimism and cynicism, how will the company keep that narrative intact?
+Hao:Altman and other OpenAI executives often say that criticism is expected whenever you’re trying to do ambitious things. Because you’re breaking norms, because you’re the first mover, there will be backlash. There’s been a turn inward, with the company building more and more of a fortress that insulates it from external feedback. There were already religious undertones in many of the things they did, but with the building of the fortress, that has only intensified — especially after GPT-5, when public skepticism increased about whether their work was producing true advancements in AI capabilities.
+You would think that might shake some AI developers about whether they’re on the right path, yet they’ve only doubled down. Rather than sowing doubt, it has made them more impervious to critiques of their approach. OpenAI was originally meant to have a very open orientation. Then it closed itself off, and now it’s continuing to close itself off more and more.
+Big Think:After all the research you’ve done, do you think that OpenAI started off from a well-intentioned place but took a dark turn later down the road? Or were hints of what it would eventually become present at the very beginning?
+Hao:I originally thought it was the former, but now I think it’s the latter. When Musk and Altman co-founded OpenAI, they already had an egotistical motive: They weren’t happy that Google was dominating AI development and wanted to be the ones who dominated it instead. And they came up with a really good story about why this was the morally right thing to do, why they were the good guys going on this purpose-driven quest.
+It’s sort of logical that they shed the nonprofit aspect very quickly as it became a hindrance to the original goal: to dominate.
+Big Think:You write that when GPT-2 came out, OpenAI itself warned of its dangers and potential misuses — warnings that many outside experts brushed off as a publicity stunt. How does this attitude relate to the company’s current strategies?
+Hao:It took me a long time to really understand what happened with GPT-2. I eventually realized I was seeing the first clash between the boomers and the doomers within the company. The reason OpenAI initially decided not to release GPT-2 was because the doomers were leading the effort. Their stance was that they should advance things quickly but not release anything, so they could buy themselves time to figure out how to make their model “safer,” meaning making sure it doesn’t kill everyone.
+After a bunch of backlash, I think both sides started changing their minds a little, partly because an open-source GPT-2 emerged that made it clear nothing civilization-ending was going to happen if it was released. But I think the boomers also felt really upset that they were getting dinged for a technology they didn’t believe should be withheld the way that the doomers did.
+Big Think:Discussions about AI often fall into this doomer-boomer dichotomy, with doomers thinking AI will destroy the world and boomers thinking it will save it and make everyone rich and happy. Could it be that this dichotomy is itself a product of and a contributing factor to the growth of the AI bubble?
+Hao:Yes, 100%. Boomer and doomer narratives perpetuate the idea that AI is inevitable, all-powerful, and deserves to be controlled by a tiny group of people. It enables Silicon Valley to continue its very anti-democratic approach to AI development, making decisions that affect billions of people with absolutely zero accountability.
+Originally, I thought the boomer-doomer narrative was simply rhetoric — stories drip-fed to fuel their consolidation of power. But I realized while reporting that there are people who genuinely fall into the boomer or doomer camp. They genuinely believe AI could bring utopia or the demise of humanity. I spoke with people whose voices were trembling with anxiety, talking about AI becoming too powerful, going rogue in a couple of years, and killing all their loved ones and them as well. I sometimes compare it toDune. It’s like someone originally created myths about what AI could be, but over time, even the mythmakers themselves turned into fervent believers.
+Big Think:At risk of pathologizing people, where does this belief come from? Is it a result of Silicon Valley’s high-pressure work environment, where jobs are competitive, well-compensated, and quickly acquire an all-consuming importance?
+Hao:There are people at OpenAI I have followed for years, and their beliefs have dramatically shifted since they first joined. They exist in echo chambers where everyone they know and speak to on a daily basis is talking in religious undertones and with fervent belief in what they’re doing. You can’t help but fall into that line of thinking yourself, especially because many of these people are highly intelligent, talented individuals. All of these highly capable, highly respected individuals are saying these things — of course you’re going to get sucked into the mythology.
+"I’ve been blown away by how deeply people engage with these issues … and how motivated they are to resist empires and build something better.Karen Hao"
+Big Think:Circling back to doomers and boomers, what do you make of a book likeIf Anyone Builds It, Everyone Dies? Do you think its tone and content adds to the conversation in a productive way?
+Hao:I don’t think it’s productive at all — it’s squarely doomer rhetoric. Eliezer Yudkowsky, the main co-author, is one of the most prominent people pushing this ideology right now, and it’s not based on any scientific evidence. He’s not talking in grounded reality, yet the book has sucked so much oxygen out of the room. It’s getting a ton of coverage — very prominent people are platforming both the book and the authors — and it continues to confuse public discourse by not focusing on the real problems: AI’s enormous environmental and public health costs, how it’s contributing to the affordability crisis, or [how it’s] destabilizing the economy. Instead, we’re sitting through yet another media cycle of, “Is AI going to kill us?”
+Big Think:In that case, do you see such discourse playing into OpenAI’s favor?
+Hao:Yes, and this gets at a huge part of my critique of the doomer community. Over the course of last year, they’ve tried to adopt this orientation of “we need to start building bridges” with other communities that are concerned about what’s happening with AI, and so they’ve been trying to move beyond existential-risk narratives to start acknowledging things like environmental concerns.
+Whenever I engage with people in that community, here’s what I tell them: I appreciate that you’re starting to look at these other issues, yet you are still — by continuing to fixate on the existential-risk narrative — actively undermining the advancement of these other issues. You’re feeding into OpenAI’s power and the power of all these other companies, giving them justification for maintaining really tight control over the technology.
+Some people in the doomer community will acknowledge all this. Some will even go as far as to agree that their own historical track record has been one of failure. They sought to slow down the technology’s development and somehow managed to do exactly the opposite. Worse, they fed into the recklessness and anti-democratic nature of this development.
+Big Think:You note that the rise of OpenAI is rapidly closing off other, potentially more hopeful avenues in AI development. As resistance against the company increases, have you become more hopeful that some of these avenues will remain accessible?
+Hao:I’ve actually become way more optimistic about this since the book came out, and there are two reasons for that. One is that, while on tour, I’ve been blown away by how deeply people engage with these issues, how nuanced their understanding is, and how motivated they are to resist empires and build something better.
+A lot of people ask, “Should we have regulation and legislation?” I say, yes, we should — but we’re not in a political moment where that’s likely to happen. Still, dozens of communities are protesting against data-center projects, effectively blocking or reshaping them, and even implementing bans in some areas. People are [filing] lawsuits: artists and writers over IP, families over mental-health harms linked to AI. Civil society coalitions are challenging the way OpenAI converted to a for-profit model to better resource its nonprofit side. These movements are gaining momentum, connecting, sharing tactics, and organizing across borders. That’s part of how we can slow or disrupt OpenAI’s path.
+The other reason I’m hopeful is that AI itself — and Altman’s increasingly extreme rhetoric — has started to backfire. The company keeps creating public kerfuffles: Altman announcing ChatGPT might move into pornographic content, the CFO suggesting OpenAI might seek a bailout for infrastructure debt, and ambitious plans for 250 gigawatts of data-center capacity costing $10 trillion by 2033. The escalation is so extreme that it’s making people deeply uncomfortable. Bubble rhetoric is growing, and more people are questioning whether this is the one and only way forward.
+This articleThe boomer-doomer divide within OpenAI, explained by Karen Haois featured onBig Think.</t>
+  </si>
+  <si>
+    <t>We often talk about searching for truth in the world, and find ourselves at odds with people who seek it differently from how we do. But in many ways, the human endeavor of science is the ultimate pursuit of truth: the truth of our reality as shared by each and every one of us. By asking the natural world and Universe questions about itself, we seek to gain an understanding of:
+what the Universe is like,
+what the rules that govern it are,
+and how things came to be the way they are today.
+Science is neither a collection of facts nor merely a process, but rather the combination of both. All at once, science is simultaneously the full suite of knowledge that we gain from observing, measuring, and performing experiments that test the Universe, as well as the process through which we perform those investigations and refine our conclusions based on an ever-increasing set of data.
+It might be easy to see how we gain knowledge from that endeavor, but it’s less clear how that knowledge leads to an approximation of “the truth” of our reality. How do scientists arrive at the idea of a scientific truth? When we do get there, how closely related to our notions of “absolute truth” are these scientific truths? And, more explicitly, what are the grounds upon which we, scientifically, determine something to be true or untrue?
+When we’re speaking scientifically, the notion of a “truth” is something very different than how we colloquially use it in our everyday speech and experience. Here’s how to understand the scientific uses of the word truth, including what it does and doesn’t mean for our reality.
+One of the great puzzles of the 1500s was how planets moved in an apparently retrograde fashion. This could either be explained through Ptolemy’s geocentric model (left), or Copernicus’ heliocentric one (right). However, getting the details right to arbitrary precision was something neither one could do. Both models have little predictive power; they could not detail the orbital properties of a hypothetical additional planet the way a more concrete physical theory, like Newtonian or Einsteinian gravity, would later do.
+Credit: E. Siegel/Beyond the Galaxy
+Let’s consider the following statement: “The Earth is round.”
+If you’re not a scientist (assuming, of course, that you’re alsonot a flat-Earther), you might think that this statement is unimpeachable. You might think of the “roundness of the Earth” as being a statement that’s completely scientifically true. Under most circumstances, these instincts of yours should be considered correct. In fact, stating that “the Earth is round” is both a valid scientific conclusion and also an established scientific fact, specifically if what you’re doing is contrasting a round Earth with a flat Earth.
+However, there’s always an additional nuance and caveats at play, especially if you’re willing to look at the problem with a greater attention to detail than the simple “round vs. flat” question. If you were to measure the diameter of the Earth across our equator, you’d get a certain value: 7926 miles (or 12,756 km). If you then went and measured the diameter in a different direction, from the north pole to the south pole, you’d get a slightly different value: 7901 miles (12,714 km). These differences are small, at the 0.3% level or so, but they’re very real. The Earth is not a perfect sphere, but rather possesses a near-spherical shape that bulges at the equator and is compressed at the poles: what’s known as anoblate spheroid.
+The diameter of the Earth at the equator is 12,756 km, while at the poles it’s only 12,714 km. You are 21 kilometers closer to the center of the Earth standing at the North Pole than you are at the equator. This difference is largely due to Earth’s rotation on its axis and shows up as an important effect in Earth’s gravitational field varying with latitude.
+Credit: NASA/GSFC/GOES-13/NOAA
+To a scientist, the example of a round Earth illustrates extremely well the caveats associated with a term like “scientific truth.” When scientists use a term like “scientific truth,” they aren’t talking about truth in an absolute sense, but rather whether this attempt at a truth is a better approximation of our reality than any other alternative we’ve arrived at so far. Sure, it’s more true that the Earth is a sphere than that the Earth is either a disc or a circle; in that sense, the Earth is round.
+But it isn’t an absolute truth that the Earth is a perfectly round sphere, where all points on the surface are equidistant from the true center of the Earth. It’s more correct to call Earth an oblate spheroid as opposed to a sphere, for example, as that shape provides a more accurate description for the Earth’s shape. And, if we’re being as rigorous as possible, we have to recognize that calling the Earth an oblate spheroid isn’t necessarily the absolute truth, either.
+There are surface features on Earth that demonstrate significant departures from a smooth shape like either a sphere or an oblate spheroid. There are:
+mountain ranges,
+rivers,
+valleys,
+plateaus,
+deep oceans,
+trenches,
+ridges,
+volcanoes,
+and many other features that depart from “smoothness” on Earth’s surface. There are locations where the land extends more than 29,000 feet (nearly 9,000 meters) above sea level, and places where you won’t touch the Earth’s surface until you’re 36,000 feet (11,000 meters) beneath the ocean’s surface.
+From a depth of over 7,000 meters in the Mariana Trench, the submersible vehicle ‘Jiaolong’ works to image living plants and animals along the ocean floor in the western Pacific Ocean. The Mariana snailfish is the deepest-living fish in the world, extending all the way down to depths of 8145 meters. The Mariana Trench contains the deepest part of the world’s oceans.
+Credit: SOI/HADES/University of Aberdeen (Dr. Alan Jamieson)
+The example of examining the true shape of the Earth, and refining our models of it to better match the shape we measure at greater and greater precisions, gives us a window into how scientists think about “the truth” of reality. Moreover, it highlights a few important ways where thinking scientifically differs from how we think colloquially. This can be summed up in three statements, all of which may be unfamiliar to a non-scientist.
+The notion of “absolute truth” is not something we worry about or even attempt to prove in a scientific fashion. There are no absolute truths in science; there are only approximate truths, and the “goodness” of a truth depends on how well it matches experiment, observation, and what we measure.
+Whether we can rightfully consider a statement, theory, or framework to be true (or not) depends on quantitative factors, and measured amounts of “how much,” as opposed to qualitative factors such as whether a phenomenon exists or not. The more closely you examine or measure the results that test your quantitative predictions, the more robustly your idea can be established (or refuted) as a scientific truth.
+And, perhaps most profoundly, every scientific theory has only a finite range of validity over which it is established. Inside that range, the theory is indistinguishable from true, outside of that range, the theory is no longer necessarily true, and may even be known to not be valid outside of it.
+This represents an enormous difference from how we commonly think about fact vs. fiction, truth vs. falsehood, or even right vs. wrong.
+According to legend, the first experiment to show that all objects fell at the same rate, irrespective of mass, was performed by Galileo Galilei atop the Leaning Tower of Pisa. Any two objects dropped in a gravitational field, in the absence of (or neglecting) air resistance, will accelerate down to the ground at the same rate, and will traverse an amount of distance that’s proportional to the time it’s in free-fall squared. The ball does not “separate” from the tower, either, which some (incorrectly) expected would have been the case if the Earth rotates.
+Credit: juliaorige/pixabay
+For example, if you drop a ball on Earth, you can ask the quantitative, scientific question of how its motion will behave. Like everything on Earth’s surface, we can be certain that the ball, once it’s dropped (or in free-fall), will accelerate downward at 9.8 m/s² (32 ft/s²). This is a great answer, from a scientist’s perspective, because it’s so useful when we’re on the surface of the Earth, and dealing with the small accelerations and low velocities we’re accustomed to experiencing. Scientifically, this description of a dropped ball’s motion is a good approximation to the truth of what’s observed to occur.
+In science, though, you can begin to look more deeply, and a more comprehensive consideration of the problem will lead to you discovering where (and how) this approximation is no longer true. If you perform this experiment at sea level, at a variety of latitudes, you’ll find that the acceleration at Earth’s surface actually varies dependent on where you are: from 9.79 m/s² at the equator to 9.83 m/s² at the poles. If you travel to higher altitudes, you’ll find that the acceleration starts to slowly decrease, while at deeper depths, the acceleration increases. And if you leave the Earth’s gravitational pull entirely, you’ll find that this rule isn’t universal at all, but is rather superseded by a more general rule: the law of Universal gravitation.
+This poster illustrates the Apollo mission trajectories, made possible by the Moon’s close proximity to us. Newton’s law of universal gravitation, despite the fact that it’s been superseded by Einstein’s general relativity, is still so good at being approximately true on most Solar System scales that it encapsulates all the physics we need to travel from Earth to the Moon, orbit it, land on its surface (if we desire), and return. Isaac Newton did, indeed, do most of the driving.
+Credit: NASA
+As far as scientific laws go, this one is even more generally true. Newton’s law of universal gravitation can explain all the successes of “the round Earth,” which models Earth’s acceleration as a constant, but it can also do much more. It can describe the orbital motion of the moons, planets, asteroids and comets of the Solar System, as well as giving successful predictions for how much you’d weigh on any of the planets, moons, or dwarf planets that are present. That same law also describes how the stars move around inside galaxies, and even allows us to predict how to send a rocket to reach, orbit, and even to land humans on the Moon, providing extraordinarily accurate trajectories.
+But even Newton’s law has its limits to how well it can approximate the truth of our reality. When you:
+move close to the speed of light,
+or get very close to an extremely large mass,
+or want to know what’s occurring on cosmic scales (such as in the case of the expanding Universe),
+Newton and his law of universal gravitation are unable to help you. For that, you have to supersede Newton if you want an answer that agrees with what we observe and measure. In the early 20th century, it was exactly considerations such as this that led humanity to move on beyond Newton, and to instead embrace Einstein’s general relativity.
+[图片: gravitational lens illustration]
+An illustration of gravitational lensing showcases how background galaxies — or any light path — are distorted by the presence of an intervening mass, but it also shows how space itself is bent and distorted by the presence of the foreground mass. When multiple background objects are aligned with the same foreground lens, multiple sets of multiple images can be seen by a properly-aligned observer, or even an “Einstein ring” in the case of perfect alignment. If a transient event, like a supernova, occurs in the background galaxy, it will appear with time delays in the various images.
+Credit: NASA, ESA &amp; L. Calçada
+For the trajectories of particles that move close to the speed of light, or to obtain very accurate predictions for the orbit of Mercury (the Solar System’s closest and fastest planet), or to explain the gravitational bending of starlight by the Sun (during an eclipse) or by a large collection of mass (such as in the case of gravitational lensing, above), Einstein’s theory gives predictions that match what we observe and measure, whereas Newton’s older law of universal gravitation fails. In fact, for every observational or experimental test we’ve thrown at general relativity, from gravitational waves to the frame-dragging of space itself, it’s passed with flying colors.
+Clearly, this shows that Einstein’s general relativity has more explanatory power, and is a better approximation of reality, than all of the attempts at describing gravitation that came before it. But does that mean that Einstein’s general theory of relativity should be taken as “the scientific truth?”
+When you apply it to these specific scenarios, absolutely; it’s true in the sense that wherever we’ve been able to test it, those tests have been consistent with general relativity’s predictions. However, there are scenarios and circumstances we can consider, all of which are not yet sufficiently tested, where we fully expect that general relativity won’t give quantitatively accurate predictions.
+Even two merging black holes, one of the strongest sources of a gravitational signal in the Universe, doesn’t leave an observable signature that could probe quantum gravity. For that, we’ll have to create experiments that probe either the strong-field regime of relativity, i.e., near the singularity, or that take advantage of clever laboratory setups that can probe past the limits of classical general relativity.
+Credit: NASA’s Goddard Space Flight Center
+There are many questions we can ask about reality that require us to understand what’s happening where gravity is important or where the curvature of spacetime is extremely strong: just where you’d want to put Einstein’s theory to the critical test. But when the distance scales you’re thinking about are also very small, it isn’t just Einstein (and classical general relativity) that should come into play; you expect quantum effects to be important as well. Under those conditions, general relativity alone shouldn’t be able to explain the full suite of what we anticipate will occur. Some questions that require a knowledge of gravity beyond Einstein’s theoryinclude the following:
+What happens to the gravitational field of an electron when it passes through a double slit?
+What happens to the information of the particles that collapse to form a black hole, if the black hole’s eventual state is to decay into thermal radiation?
+And what is the behavior of a gravitational field/force at and around a singularity?
+Einstein’s theory won’t just get these answers wrong; it won’t have any sensible answers to offer at all. In these regimes, we know we require a more advanced theory, such as a valid quantum gravitational theory, to tell us what’s going to happen under these circumstances.
+Encoded on the surface of the black hole can be bits (or quantum bits, i.e., qubits) of information, proportional to the event horizon’s surface area. When the black hole decays, it decays to a state of thermal radiation. As matter and radiation fall into the black hole, the surface area grows, enabling that information to be successfully encoded. When the black hole decays, entropy will not decrease, but rather will remain constant, as Hawking radiation is an entropy-conserving (adiabatic) process. How or if that information is encoded into the outgoing radiation is not yet determined.
+Credit: T.B. Bakker/Dr. J.P. van der Schaar, Universiteit van Amsterdam
+Our understanding of gravitation isn’t complete; we haven’t reached an understanding that’s compatible with notions like “absolute truth” or a fully accurate, comprehensive, and complete picture of reality. Yes, masses at the surface of Earth accelerate downward at 9.8 m/s², but that won’t explain everything. If we ask the right questions or perform the right observations or experiments, we can find where and how this description of reality is no longer a good approximation of the truth, and identify where it breaks down.
+Newton’s laws can explain the acceleration due to gravity at Earth’s surface and more, accounting for all the observed phenomena of objects near Earth’s surface as well as many others, but it, too, isn’t complete. We can find observations and experiments that show us where Newton, too, is insufficient.
+Even replacing Newton’s laws with Einstein’s general relativity leads to the same story: Einstein’s theory can successfully explain everything that Newton’s can, plus additional phenomena. Some of those phenomena were already known when Einstein was constructing his theory; others had not yet been tested or even thought up. However, we can be certain that even Einstein’s greatest accomplishment will someday be superseded. When it does, we fully expect it will happen in exactly the same way: by probing a regime where general relativity’s predictions don’t match up with what we observe and measure reality to be.
+[图片: quantum gravity]
+Quantum gravity attempts to combine Einstein’s general theory of relativity with quantum mechanics. Quantum corrections to classical gravity are visualized as loop diagrams, as the one shown here in white. Alternatively, it’s possible that gravity is always classical and continuous, and that quantum field theory, not general relativity, needs to be modified. A fundamental incompatibility between quantum physics and general relativity has long been recognized, but has yet to be satisfactorily resolved.
+Credit: SLAC National Accelerator Laboratory
+Science is not, despite the claims of many, about finding the absolute truth of the Universe. No matter how much we’d like to know what the fundamental nature of reality is, from the smallest subatomic scales and below to the largest cosmic ones and beyond, this is not something science can deliver. All of our scientific truths are only ever provisional, and we must recognize that they merely represent our best models for currently approximating our observed, shared reality.
+Even the most successful scientific theories imaginable will, by their very nature, have a limited range of validity over which they apply. However, we are free to theorize whatever we like, and to let our imaginations run wild when it comes to concocting potential scenarios for a scientific revolution. After all, whenever a new theory meets the following three criteria:
+it achieves all of the successes of the prevailing, pre-existing theory,
+it succeeds where the current theory is known to fail or be insufficient,
+and it makes novel predictions for up-to-that-point unmeasured phenomena, distinct from the prior theory, that then wind up passing the critical observational or experimental tests,
+it will supersede the current one asour best approximation of a scientific truth. When all three of these conditions are met, a scientific revolution is all but inevitable.
+[图片: singularity]
+Our entire cosmic history is theoretically well-understood, but difficult to depict in a static, 2D image. The Universe’s present expansion rate and energy composition are related, which is why most modern illustrations of our cosmic history have a tube-like shape: where they often (dubiously) depict an initial singularity, a period of inflation, and then a slower expansion that changes with time while our Universe evolves. No one diagram encodes all of these details correctly, including the one shown here, which seems to maintain a constant “size” for the Universe, disagreeing with reality.
+Credit: Nicole Rager Fuller/National Science Foundation
+All of our currently held “scientific truths,” from the Standard Model of elementary particles to the Big Bang to dark matter and dark energy to cosmic inflation and beyond, are only provisional. They are hailed as truths today because they describe the Universe extremely accurately, succeeding even in regimes where all prior frameworks have failed. Yet, they all have limitations to how far we can take their implications before we arrive at a place where their predictions are no longer sensible, or will wind up no longer describing reality. What we might call a “scientific truth” is not an absolute truth, but rather only an approximate, provisional one, albeit the best one for describing reality at the current time.
+Moreover, there is no such thing as an experiment that can ever prove that a scientific theory is true; that’s not how science works. We can only demonstrate that a theory’s range of validity either can be extended to cover previously untested ground, or that it fails to extend into whatever regime we’re newly testing it in. The failure of a theory to give predictions that match observations is actually the ultimate scientific success: an opportunity to find an even better scientific truth to approximate reality. Aslegendary physicist Enrico Fermi put it,
+“There are two possible outcomes: If the result confirms the hypothesis, then you’ve made a measurement. If the result is contrary to the hypothesis, then you’ve made a discovery.”
+Whenever we discover that our current understanding is insufficient to explain all that’s out there, yes, it means that science was wrong. That’s not a failure of science, however, it’s being wrong in the best way imaginable: in a way that can only lead to a superior scientific framework, and a better answer to the scientific question of the truths of our shared physical reality.
+This article was first published in August of 2022. It was updated in December of 2025.
+This articleDoes science reveal the absolute truth about reality?is featured onBig Think.</t>
+  </si>
+  <si>
+    <t>Human history is a paradox: we accumulate knowledge at astonishing speed, yet remain vulnerable to deception, superstition, and the stories that subtly steer entire civilizations.
+From the first clay tablets to today’s global media systems, the structures that carry our ideas have always shaped what societies can build, believe, and destroy. That paradox is even more important in the age of AI, says Yuval Noah Harari.
+This videoYuval Noah Harari: Why advanced societies fall for mass delusionis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>2025年5月，毕赣执导的第三部长片《狂野时代》(Resurrection)在第78届戛纳电影节首映并获评审团特别奖。今年 11 月正式上映后，这部沿袭毕赣式长镜头、时间错置与梦境质感的电影，再一次让观众站在了评价光谱的两端：有人赞美它诗意丰沛、沉醉于影像记忆；也有人认为它晦涩、空洞、炫技而失魂。
+在采访中，毕赣也曾谈到，《狂野时代》的创作是“关于这片土地的我的带着某种虚构的编年史”
+[1]
+。他也曾回应观众给出的“难懂”评价称：“这部电影，它里面有很多朴实的感情”
+[2]
+，而《狂野时代》是“通过电影的语言去触及到人们心灵的故事”
+[3]
+。那么，在毕赣对于电影媒介的美感与精神意图的强调之内，在影评人的“元电影”盛赞之外，《狂野时代》为何在广泛的电影观众之中反响平平？
+为了回答这个问题，我们必须回到毕赣的前作，理解其作者身份、市场期待与影像风格之间的张力；而后，我们将走进《狂野时代》的六个章回，看它如何试图通过“五感六识”构建一套感官诗学，又为何最终停留于影像模拟、而非真实经验本身。
+一．从“荡麦”出发
+1989 年出生于贵州凯里，2008年考入山西传媒学院主修电视专业，2015 年凭《路边野餐》（Kaili Blues）一举成名的毕赣，至今仍被视为中国最具作者气质的年轻导演。
+《路边野餐》这部仅凭约20万预算、几乎全部由素人出演、是导演长片首作
+[4]
+的电影，大胆地使用了42分钟的长镜头，斩获了包括2015年金马奖最佳新导演、国际影评人费比西奖、亚洲电影观察团推荐奖、2015年洛迦诺国际电影节当代电影人单元最佳新导演银豹奖以及2016年中国电影导演协会年度青年导演奖等在内的多项国内外大奖。据毕赣自己说，片中的虚构小镇“荡麦”，在苗语的意思是指“不存在的地方”。2016 年，毕赣以及几位当时与他合作的影人，一起创立了荡麦影业。
+首作打下梦境与乡土交织的基础之后，《地球最后的夜晚》（Long Day's Journey Into Night, 2018）是毕赣获得充足制作投资后的一次再尝试。2018年12月，影片出品方打出“一吻跨年”的营销口号，最终获得了高达1.59亿人民币的预售票房。然而，由于影片与大多数普通观众的观感不符，许多并非文艺片受众的观众评价此片“沉闷无聊、不知所云”。随着影评反馈走低，排片和票房也开始缩水，毕赣第一次正面撞上了大众市场的期待。
+暂不论奖项和票房成绩，这两部前作，已然奠定了毕赣电影的独特个人风格：游移的长镜头、松弛的叙事节奏、西南山区的地方文化感、充满记忆与诗意的影像细节、对现实与幻象的探问……
+显然，《狂野时代》吸纳了更大的投资，也拥有了更大的叙事野心。毕赣走出西南，也突破了一次返乡长度的叙事时间，将作品升级为了我们眼前的这场160分钟的豪华造梦。本片上映后引发的争议，并非孤立失败，而是毕赣风格与市场预期冲突的又一次爆发。
+二．“元电影”的探索与失落
+1.五感六识
+在今年5月的《Variety》采访中，毕赣透露这部通过“电影怪兽”展现百年影史的作品构思是：“我想将灵界拆解为六种元素”
+[5]
+。这六种元素，即视觉、听觉、嗅觉、味觉、触觉以及心智，亦可被理解为佛教的“六根六识”概念：“眼”对“色”（视觉）、“耳”对“声”（听觉）、“鼻”对“香”（嗅觉）、“舌”对“味”（味觉）、“身”对“触”（触觉）以及“意”对“法”（心智）。据此，《狂野时代》搭建起全片章回结构，分别对应六元素，讲述了六个故事。
+虽然电影最直接、最核心的感官通道只有视觉和听觉两种，但电影艺术自诞生以来，就一直试图通过视听刺激，调动观众的“跨感官知觉”。
+在《狂野时代》的五感六识流转中，我们可以看出，毕赣对电影何以“跨感官知觉”的理解，大致有以下两重：一方面，他遵循“电影调动感官”的因果关系，把电影当作声光技术的物质范畴来精心雕刻——布光、置景、景深、镜头的浮动、声效的远近与大小、剧情中的人物设定、叙事中的知觉涉入，都被放大为感知事件；另一方面，他也试图反转“电影调动感官”的因果关系，将感官作为生成影像逻辑的方式，来有机地组织整个电影的世界。
+然而，问题在于，以上两方面的尝试中，只有第一个方面的尝试大致获得了成功。而第二个方面的失败，也摧枯拉朽地引发了《狂野时代》被盛赞为“元电影”，但却连最基本的“自反性”都无法达成的失败。
+电影开篇，由舒淇饰演的手持着照相机的“大她者”，发现了由易洋千玺饰演的“迷魂者”。她将其从烟馆的地下囚室与药物成瘾中解救，并将胶片装回他体内锈蚀破损的胶卷仓，开始与其共同重返影像的百年。时间设定于电影技术诞生初期的1880s-1890s年代，在这个代表“视觉”的故事中，无声的影像与台词字幕，将电影还原为纯粹的“移动的图像”(“moving pictures”，这是电影早期最普遍、最具历史性的通俗名称之一)。此举不仅致敬了早期默片，更通过甫一开篇就进行的感官剥夺与还原，为影片其后对于跨感官知觉的唤起积蓄了能量。
+第二个到第五个故事，分别对应着“听觉/耳”、“味觉/舌”、“嗅觉/鼻”、“触觉/身”的主题。其中，由赵又廷饰演的情报机关军官、由陈永忠饰演的“苦妖”、由郭沐橙饰演的小女孩以及由李庚希饰演的“吸血鬼”少女这几位章节主角，通过各自对于音乐的执迷、对苦厄的超越、对嗅觉的灵通以及对身体亲密的渴望，也一一展演着对前述感官主题的极致追寻。
+人物特性与行为动机的设定之外，《狂野时代》也尝试通过极致的技术工程，来转化、传递视听之外的感受。比如，军官刺杀“迷魂者”、刺破其后背皮肤后，漫溢出的不是任何形式的血液或肉体，而是他所渴望的音乐——此处，“迷魂者”身体洞开的刺目眩光，以光的亮度转喻了那音乐的纯粹、激烈。
+而在佛寺故事中，被斩首的佛像是苦、大雪夜是苦、“苦妖”化形的那个被儿子用发芽的土豆杀死的父亲也是苦。在父亲生前的长鼾中，弑父的子在雪地上搬弄破木板摆出“甘”、“苦”二字，“苦妖”也用手指划开繁茂的浮萍：本质非人的妖，以艰难年代中不幸离世的人的面目，重写着人的“甘”“苦”。
+随后，在“特异功能”小女孩嗅闻被焚毁的信、“吸血鬼”少女饱尝爱人的血时，我们或许都共感到了那穿越时空的余烬的味道、恋人的体温。
+幕间，“大她者”的旁白勾连时代。随着白烛行将燃尽，“迷魂者”穿越百年，故事进入最后一个“心智/意”的章节，电影的时间也再次塌缩回返，续接到第一个故事。“大她者”将奄奄一息的“迷魂者”身体梳洗、擦净，并再度为其穿上“怪物”的皮囊，将其推入了远看似宫庙为逝者点燃的长明灯、近看则是集成电路板环绕的巨大装置之中。
+然而，为何这种感官诗学最终沦为影像模拟、而非真实经验？
+2.谁的感官
+全片落幕，银幕上，蜡制的影院与观众席渐次燃烧殆尽，归于空无。
+这似乎也正是对《狂野时代》整部电影意义表达的简明概括：这是一部充满了技术执行细节，但内在极其空洞的电影。
+乍看之下，它的确像是一次对“感知的本体”的回归，但细究不难发现，五感在这里并不是“生产意义的方式”，而只是被贴标签的主题对象：在这个极尽诗化的“狂野时代”里，每一个人物、每一个物品、每一个场景，都被视为纯粹由影像创作者创造、被他控制、受他调遣的非生命的元素。在这种“非生命”的底层逻辑之上，反转“电影调动感官”的因果关系、将“感官”作为生成影像的有机方式，也就变得不再可能。
+这部看似如梦似幻，反对电影工业刻板的功能主义的电影，其实正是最刻板地执行着功能主义：似乎当电影需要“人性的复杂”的时候，它就创造一个热爱音乐的男性间谍；当它需要天真的时候，它就创造一个儿童；当它需要艳情的时候，它就创造灯红酒绿中的女性……在人的旁边，所有的物，也都被作为纯粹的景观，而不是被珍重地表现——物因此不再能够成为人居、人思的涌流，遑论超越人之所限、推动视听的边界？正因这种肤浅的恋物，每个场景才都那么刻意，饱含了“此幕必出片”的流俗艺术决心。
+在单个章节的人物的刻板、物的刻意之外，唯二穿越并连接着不同时空的“大她者”和“迷魂者”角色，也没有建立统一的感官逻辑。比如，ta们是如何感受并理解肉体的痛苦与死亡的？ta们又是如何体验着时间的流逝？这种来自叙述者视角的知觉匮乏，也就意味着，无论通过哪个人物、哪个故事、哪个时空的切口，观众都无法更具身地共感人物的身体、时间经验或情感世界。
+或许可以说，电影可能涉及或唤起的共感体验，皆被扁平化了。更进一步说，影片中的感官体验也仅仅是被影像化了，从未真正被创作者问题化，即反思“虚构”影像如何挑动知觉，创造并构成新的“现实”。
+在《狂野时代》中，那些本就并不丰富的感官体验，依然仅仅是电影“奇观化”的对象，而不是被质疑的生产机制。例如，在诸多视觉段落中，长镜头与景深的炫技并没有反思“看”如何发生，只是展示“如何被看”；而在细密的声音工程处理中，配乐与噪声的使用，依然仅仅是在强调情绪，但没有把声音当作叙事结构的绝对主体。与之类似地，味觉、嗅觉与触觉的段落中，所呈现的是依然仅仅是“可视化的”味道、气味与触感，并未意识到“知觉必然要被视觉建构”这一矛盾，也未让这种矛盾推动电影去反思电影本体“无法表述的限制”。
+换句话说，它错过了最根本的“元电影”问题：“电影作为技术媒介，如何生产世界？”
+“元电影”，并不是“致敬电影史”或“玩电影梗”的同义词，它也不是“拍一个关于电影的故事”。真正的“元电影”是对“电影究竟是什么”这一问题的哲学思辨，其核心关键词是自反性（self-reflexivity）。“元电影”意味着：电影意识到自己是电影，并把这种意识纳入叙事结构与观看机制，让观众意识到影像控制、电影语言、观看行为本身都是被构造的，从而让观众对影像如何生成、如何虚构现实、如何观看与被观看、如何创造消费并被消费，以及作者/电影如何瓦解并创造全新的权力关系等产生认知与质疑。例如，费里尼的《八部半》（8½, 1963）让导演的创作困境成为电影本身，模糊了艺术与现实的界限；哈内克的《趣味游戏》（Funny Games, 1997）则通过角色直接与观众对话，迫使观众反思自身的观看行为和道德位置。
+可《狂野时代》不问，也不回答，只是在把“元电影”做成“影像拼贴”。其中，人物没有真正的身体经验、场景没有真实的历史感或社会性，这种由“影像记忆”而非“人类经验”构建的影像世界永远不是真实。因此，其五感六识也就不是人物的感官，而是摄影机的感官；这摄影机的感官，亦绝非属于真实世界，而是属于影史与影像传统——这部电影呈现的不是“感官世界”，而是“影像可能创造的感官世界”，其“元电影”也就依然仅是“永恒的影像梦”。
+这种内部循环的感官系统，将影片锁死在“影像引用”本身的世界里，于是：它无法成为“元”，因为它连“走出影像”的尝试都没有。真正的“元电影”，肇始于影像与现实发生摩擦，而不是只是跟影史发生摩擦的时刻。
+三．“大她者”、“梦”与“给电影的情书”
+《狂野时代》的空洞，不止于叙事的空洞、表达或意义的空洞，也不止于托物言志的政治的空洞。它的失败，也不止于故事的失败或意义的失败。它的空洞，本质上是一种缺乏谦逊的空洞。
+1.从“大他者”到“大她者”
+一开篇，电影就宣称舒淇是一位“大她者”。这替换了拉康原词“大他者”的性别代词，那么，这个“大她者”是否体现了原概念的意涵广度？又是否为其增添了任何新的、任何出于不同的性别意识的意涵？
+拉康的“大他者”（l'Autre）理论，是理解主体欲望和文化秩序的关键。简单来说，“大他者”代表着一个社会共识、一套看不见的结构性规则，是语言、法律、道德、意识形态等象征体系的中心组织结构，正是它作为主体身份、意义和法则的保证者，规定了我们如何思考、如何行动。在电影研究的语境中，“大他者”的运作既体现于镜头语言、观众位置、叙事规则、视觉快感的生成之中，也型塑着电影的生产与观看机制背后的复杂权力结构。
+在拉康之后，以露西·伊利格瑞（Luce Irigaray）、朱莉亚·克里斯蒂娃（Julia Kristeva）为代表的一些法国女性主义学者，从女性主义的角度重写了“大他者”概念，认为“大他者”不是一个中性的象征秩序，也不能诠释中性的主体经验，而是一个以男性为中心的、父权结构化的语言与权威体系。
+在《狂野时代》中，由舒淇饰演的“大她者”捕获了“迷魂者”，并半强迫、半祝福地与之开启了随后百年的影史漂流，这似乎体现了“大他者”作为主体结构前提与意义来源的概念意涵。然而，当“大她者”只是被当作了章节间的承上启下的小标题，这一形象的强力也就不再可信。
+通过性别代词的替换，“大她者”的确向我们提供了一种承续此种女性主义批判的可能。然而，通览全片，我们很难指认存在任何一处试图批判父权制结构化的语言与权力体系的情节。相反，由于“迷魂者”形象始终鲜明地呈现出一个“男性”的性别，电影中的主体经验也就几乎完全通过这一男性角色的情感与记忆来组织，而作为“大她者”的女性，只是这些感官的触发器。通过这种没有深度的直接宣称、没有考量过的后续角色塑造，《狂野时代》中的“大她者”形象，或许只是概念噱头罢了。
+2.电影的“造梦”与毕赣的“迷魂”
+《狂野时代》试图将梦寐与历史对应、融合为一个新的“梦—现实”的阈限空间。在前文，我们已经解析过电影的一些灵光，此外还有未曾提及的：第一个故事中使用了模拟早期电影剪切、遮罩和拼接胶片的技术，来构建烟馆的空间；在触觉故事中，由深夜过渡到黎明时分的固定镜头，实际上压缩了背景中露天放映的《水浇园丁》与叙事中角色所经历的黑夜这双重的时间。我认为这两处都是对于毕赣所着迷的技术的恰当运用，也是对于梦的质地的动人表达，从中得见毕赣对技术执行的投入，对“裂隙”“通灵”“迷梦”等诗意元素的偏爱，以及他对形而上、对生命和时间的界限的探问。
+但在对探问的热情中，他选择了“梦”这个载体，却误解了“梦”与“迷魂”的真实意义：他误以为“梦”（以及“元电影”）是非时间、非空间的；因此，他更误以为，只要复原一个时代特色浓厚的场景，并在其中错置时空，就可以抵达“梦”、抵达对于现实的超越。
+但事实并非如此。“造梦”的电影，不是“非时空”、“无意识”、“纯虚构”，而是精准的时空被刺破以后产生的裂隙，是无意识自行涌流，并创造了不可完全被语言概括的、不断生成的新现实。而《狂野时代》里的时空只是拼贴式的随意堆叠、只是没能经过更细致的意义与道德打磨的粗糙虚构故事。而真正的“元电影”恰恰是因为作品自身具有非常细腻、精准、真实的时空坐标，才可以戳破那个坐标的原点，穿梭和连接更广袤的事物与时空，才可以成为“元”。
+于是，纵览全片，那些偶尔的灵光，不断被随着故事逐个递进而增强的造梦者的自我神话、语焉不详的政治冷感冲散。于是，电影越来越沦落为一个“造梦者”不断展示自己的技术狂热、不断炫耀自己掌控“电影—梦境”的一切的权力的舞台。“电影—梦境”、“梦—现实”都被驯化、被解释，最终失去了它们自身的自主性和超越语言的深邃感。
+如果创作者试图返归电影的元点，真挚地为Ta人“造梦”，那么，其作品的最低预期，就是创作者应当如实表达自己也受到了这种来自梦的、来自电影作为造梦的过程的“迷魂”——一个造梦的神，也不得不承认：正因梦是自行其是的，因此，自己并不完全掌控梦，而是正在反向被梦迷住。而《狂野时代》最致命的空洞和失败之一，正源自于失去了这种必要的谦虚。
+3.给电影的情书还是给“荡麦”的情书
+毕赣的困境在于，他既想获得商业成功，又想将电影当作纯粹的、自足的“文化遗产”来供奉。而如果说，通过将电影史当作一种可被展示的“遗产”，即影史可以被复刻、被致敬、被制作成视觉拼贴，而非进行针对电影本身的哲学反思，《狂野时代》没能成为一封写给电影的情书，那么，这部电影究竟对谁寄出了情书？
+在佛寺故事中，落在雪地上的火柴盒上印着“荡麦”，吸血鬼故事中，“迷魂者”电话点歌，打给的点歌台也是“荡麦”。由《路边野餐》中的虚构小镇“荡麦”出发，毕赣似乎又转回了他虚构的原点，即他私人的象征体系。
+一方面，将创作者本人不断发展和探索的意象嵌入到电影之中，本是打上作者电影水印、开启更广阔虚构空间的手段。但另一方面，当整部电影的虚构都失去了对真实的残酷探问，所有的意义都在空洞叙事中消磨殆尽，而故事在火烛的焚烧后皆沦为时间的灰烬……这种对私人符号的不断回溯，是否表明创作者的重心已经从“电影作为技术媒介，如何生产世界？”（元电影的真正命题）退缩到“如何用电影技术重现我的私人世界？”（私人符号的自我循环）。而电影寄出的这份“给荡麦的情书”，又是否沦为了一种自我指涉的迷恋与加冕？当创作的激情，多数投入于对“我的世界”的复刻与展示时，这种自恋，最终必然导向其自身的枯竭与崩塌。
+最后，在生产了长达150分钟的怀旧影像之后，《狂野时代》再次打出直白的文字宣言： “这场幻梦已经崩溃！”
+但即便面对着短剧的崛起、人工智能技术的铺开、受众群体的变动，电影也并没有崩溃、更不会崩溃。
+只有当一种艺术形式沉浸在已逝的荣光、执迷于对其瓦解的霸权自我的哀悼的时候，这种艺术才停止了自臻、才会开始崩溃。只是毕赣所迷恋的古老电影的遗像，正因他不断将感官、主体、议题主题化、符号化、视觉化乃至自我神化，而逐步崩塌：它渐次遭遇无意义的大火，沦为时间的灰烬，并缓慢而彻底地失去了艺术的灵光。
+《狂野时代》确乎是场疯狂的“造梦的艺术”，但它同时也沦为了作者私人的象征体系，是“没有生命的影像之景观”。这个横跨百年的梦，不是林奇式的梦、不是塔可夫斯基式的梦，甚至也不再是《路边野餐》的梦。在这场大梦崩溃以后的瘴郁里，毕赣可以再次带领我们重返野餐的道路吗？
+注释：
+[1] https://www.sbs.com.au/language/chinese/zh-hans/podcast-episode/miff-2025-bi-gans-resurrection-explores-the-soul-of-his-homeland/jkfy6hb0j?
+[2] https://finance.sina.com.cn/stock/wbstock/2025-11-29/doc-infyzuwk6502566.shtml?froms=ggmp&amp;
+[3] https://finance.sina.com.cn/jjxw/2025-11-24/doc-infynrph4009469.shtml?
+[4] 事实上，在《路边野餐》之前，毕赣拍摄过一部长片《老虎》。但此片没有公开放映过，所以《路边野餐》才是影评公认的毕赣长片首作。
+[5] https://www.weibo.com/7739719079/PsKGPeyxR?</t>
+  </si>
+  <si>
+    <t>《物华弥新》器者风物·壁纸
+2025年11月，游戏《物华弥新》迎来了属于它的1.5周年庆。这款从2024年4月开始运营的，深度结合战棋玩法与文物历史内核的新国风器物拟人收集游戏，成为中国游戏历史上第一款走进博物馆的游戏，并通过博物馆展品拟人化（Museum Exhibit Anthropomorphism，以下简称MEA）将中国乃至世界的传统文化与游戏结合起来。
+《物华弥新》的游戏角色是把诸多国内外文化遗产尤其是文物进行拟人化改写，并赋予其人格自主性，命名为器者。器者与收藏家在各地基金会（包括冬谷基金会、航海家联盟、塞纳回廊等）下进行共同生活。游戏中基金会的宗旨是“保护、消除、融入”，即保护人类与器者的现有关系，消除器者活动可能对人类社会造成的影响。在此基础上，基金会持续帮助器者融入现代文明社会。
+玩家在其中扮演冬谷基金会（隶属中国）下属的博行派遣公司的员工（收藏家），由扯淡碑（文物又名泰极仙翁碑）作为直属领导，与蝠桃瓶（文物全称：清雍正景德镇窑粉彩蝠桃纹瓶）三人一起组成“对曲解二组”。在游戏中除了与器者交流的日常生活以外，还有围绕与曲解战斗为核心的宏大叙事末日危机，整个游戏采用的是目前二游最常见的2D斜面视角和战棋回合制战斗的模式。
+曲解在游戏中被描述为“骤降而来、幽隐闭结，无说无解”之物，由三个不能组成：“不能被观察。这是一种异常的存在。不能与之交流。这不是这个世界的东西。不能被预知、被判断。这是十分扭曲的存在，是灾难的化身”。在游戏中被完全具象化的大型曲解怪物，也是每章主线剧情的最后BOSS，分别为“地土、天月、火婴、骨刻、诡月、焱婴”，其化身出的下型体和试炼场异兽录中出现的怪物多以生僻字命名（如蜃海幽蛸、沉渊狡婴、谣夜魇羚、吹笙蠹兽等），字形的扭曲与刻意营造的恐惑谷效应拟人形象，都成为玩家在PVE对抗中经常会遇到的怪物图鉴组合。
+《物华弥新》12月试炼场·异兽录长右/彘所在关卡
+目前《物华弥新》已稳定运营不少于20个月，官方账号在B站有两百多万粉丝，视频累计播放超4000万，上榜了TapTap年度游戏大赏，获得最佳传统文化游戏，其游戏流水累计突破2亿。《物华弥新》从2021年就开始与《国家宝藏》联动，并与多地博物馆进行线下联动，除了与四川本地各博物馆（包括但不限于四川博物院、成都博物馆、成都金沙遗址博物馆、成都市美术馆）进行联动推荐解说以外，还在一周年庆进行[怀珠韫玉]特别活动30日云游博物馆计划。
+无论是收藏家与器者的相处日常，还是每个版本针对某个器者的成长故事，又或是面对曲解的主线战斗，都共同组成了MEA的来时路。本文从博物馆发展的演进阶段、重演历史活动的不同阶段、拟人化改写的主体变化讲起，当这三者合流之后，在《物华弥新》游戏中再度显现起来，作为横向转译的三次拟像改写与纵向转译的三层历史重演活动，共同形成博物展品/器者的多模态建构和多感官参与。
+《物华弥新》派遣公司菜单打开界面
+上篇：博物、历史与拟人的合流
+一、博物馆发展的演进：从珍奇柜到MEA
+在《物华弥新》的主页面里有名为[派遣公司]的菜单，这是收藏家（我）与蝠桃瓶、扯淡碑一同工作的地方。在这个菜单打开之后，玩家看到的是一个打开的装匣，这就是博物馆发展的最初形态珍奇柜（Wunderkammern）。
+在传统博物馆时期，珍奇柜的存在是主流，收藏者无需与展品对话，而是用稀缺展品向前来观看的宾客进行博物展览。当然，珍奇柜对展品的分类是非秩序的流动堆叠，珍奇/稀缺本身就是让科学分类法（scientific taxonomies）下的不可能并置之物共存的属性。
+进入到现代化博物馆时期，分类屋（classifying house）的客体化/二分法的结构逐渐剥夺了展品未定型的品质（quality of uncertainty）。于是在这一过程中，被观众赋予想象从而拟人化的更多不是展品，而是博物馆本身，或者我们可以将其称之为参与式文化机构（participatory cultural institution）。观众在共同开发型项目（co-development projects）里通过个人行动与展品进行交互，由此成为展览过程的生成性部分。
+随着数字技术不断发展，博物馆迎来全新的博物馆展品拟人化（MEA）时期，展品重新获得有生命力的能动性，它既不需要只围绕珍奇这一主题成为客体化静态展演，也不用被置于玻璃柜台内的展台中，成为博物馆陈列品的一部分，而是可以在叙事性组织中具备物质性的活力（vibrant quality），发展出属于自我具身的自主性与有效性。
+MEA在虚拟环境的对话代理（conversational agents in virtual environments）具身化下获得全新进展，尤其是在大型语言模型和文本转语音（large language models and text-to-speech technologies）等技术的支持下，能让观众获得更多博物馆与文化遗产历史叙事的沉浸感。曾经《国宝档案》《国家宝藏》《如果国宝会说话》等文化节目所畅想的将文化遗产的“历史繁冗感、意义复杂性和文化严肃性转为可跟公众对话的亲近文本”开始逐渐普及化。
+当下MEA的重点发展方向，就是通过转变叙事视角（从第三人称叙事到第一人称叙事）与多感知模态交互方式（从单一的视听方式到视听触嗅味本体感等知觉身体），让文物真正活化成为拥有具身体验的拟人化生命体，观众也在类人向导具身化与动画对象具身化（humanoid guide embodiment and animated object embodiment）交织共鸣的重演历史活动中，更好地与展品形成高度意义化的空间审美场域。
+2025年1月，一项发表于《Tourism Management》，专门聚焦于MEA的学术研究指出，MEA对文化传承有很强的影响力，该研究通过对文博纪录片《如果国宝会说话》的观众评论分析识别出“涵盖6个不同主题的提升文化学习效果的概念模型”，并通过情景实验将这一模型代入实验，设计拟人化和非拟人化两种展示方式，并观察观众对此的进一步表现。这两项研究结果显示，MEA产生了三种积极的学习成果能显著增强文化传承感，分别是传播历史知识、提升价值认知与唤醒遗产责任意识，并在这一过程中构建起文化传承的连续体框架。
+同时，这也意味着博物馆展演方式出现范式革新，开始从神庙模式（即客体化、权威化讲解）向广场模式（主体化、对话化沟通）转型。而且在转型过程中，前文提到的多项研究皆表明，游客/观众在对比情境中几乎都顺利触发了逆向恐惑谷（The reverse uncanny valley）效应：这些文物展品在拟人化上尽管高度仿真，却没有触发人的感知失调或归类困难（perceptual mismatch or categorization difficulty）所带来的毛骨悚然感（creepiness）。甚至即便没有萌的拟人化（萌え擬人化）加持，对比数据也依然非常显著。当然，我们姑且不论萌元素过度化，本来就可能触发某种怪诞感（きもかわ）。
+其中最重要的原因是这些展品的物性锚点（object Anchor）非常清晰，即拟人化形象并不是遮蔽本体的喻体，而是一直与文物原型共在。无论是展品展示过程，还是被拟像化为ACGN作品角色的过程里，观众一直都能明确感知到展品作为物的本体性存在。其拟人化形象更多可以被观众理解为数字化身（digital avatar），而这对屏幕世代群体来说是日常化的生活情境。
+博物研究学者莫勒斯（Möllers）也认为“博物馆传统上的回顾性视角必须让位于一种更加细致入微的构架，既近在咫尺，又远在天边；既存在于此时此地，又植根于过去；既嵌入全球事物网络，又具有个人和地方意义”。这就要求博物馆文物不能只是被客体化的存在，而是应该通过叙述者拟人化声音（narrator’s anthropomorphic voice）的方式突出其主体性价值。由此，在进行博物馆展览时，保持展品与展品之间、展品与人类之间，以及人类与博物馆空间之间的肉身互联（corporeal interconnection）成为后未来博物馆所需要发展的重要方向之一，而能得以让展品与人类发生真正联系的，就是通过将展品拟人化策略性地模糊人类主体性与物性（human subjectivity and thingness）之间的界限。
+不过，尽管MEA发展前景广阔，但到展品拟人具体落地时因为技术限制，导致在展览过程中更像是会说话的物体（speaking object），又或是围绕文化遗产创作它所处时代的视听叙事。每一个文化遗产都应该是独属的世界之肉身（the flesh of the world），不仅是它所在的时代，还有成为文物的时代和被发现后的时代都应该是其个人谱系学历史的重要组成，并凝聚而成自我叙事的行星身体（a planetary body）。
+“我们想看的不是艺术作品，而是它所蕴含的世界”。这是梅洛庞蒂的心声，也是很多进入博物馆观众的心声。文化遗产的世界性除了自我丰盈的内互文性（intratextuality）以外，还应该与互联网为基础的当下生活构建外互文性（extratextuality）。由此形成在数字化时代下，文物所拥有的主体性可以与每个具体的人进行持续对话，这种自我增殖的动态文本性（textuality）才是MEA想要达成的愿景。
+《物华弥新》1.5周年主设计图：[愿为穹宇]讲述浑天仪和天球仪过去的历史
+二、重演历史活动的发展：在游戏中再现记忆
+当这些文物能以具身体验与观众进行生命意识的交换，就形成对所在时代、文物时代和发现时代历史承载不断讲述的重演历史活动（historical reenactment activities）。
+历史学家凡妮莎·阿格纽（Vanessa Agnew）认为，尽管该领域还缺乏足够的学术研究成果，但重演历史活动自从20世纪90年代互联网发展以来，已经形成一股“不可忽视的文化现象，有广泛的吸引力和发现新的和具有创造性的历史表征模式的能力”。重演历史活动也由此对观看者开放了“一系列的历史之内的体验，作为一种表演和故事（以及一种特定叙事规则俯瞰重大事件的故事）的历史”。
+在中世纪（5-15世纪），主流的历史感知方式是亲历历史遗址（living history sites），具体主要通过参观博物馆、纪念馆以及历史事件发生地来实现。这种方式能让人在同一地理空间中获得当下性（presentness）的感知，并且在心理地理假设（psychogeographic presumption）的作用下，在脑海中想象自己成为该历史事件里的角色。大航海时期（16-18世纪），历史事件展演（history event performance）开始流行，其形式多样，涵盖舞台剧、音乐剧、节庆仪式等。这类展演由重演历史的演员负责呈现，在这一阶段历史演员代替历史本身成为了拟人化化身，让人们在差异化视角下进行遍历（ergodic process）历史体验。影视媒介时期（19-20世纪），重演历史影像（reenactment history images）成为大众认识历史的主流途径，其中电视节目和电影是主要载体。早在电影诞生之初，就有学者提出电影的意义在于能够再现过去，并且可以作为一种视觉记录存在。电影在呈现视听奇观的同时，还会借助历史具身化的方式，尽可能充分地表现历史的苦痛性（capital agony）。而观众更多对其进行的拟人化想象集中在如何描述电影这一媒介上，德勒兹就认为电影会变成“超人性的摄影机”，不断生成无器官的电影身体（Body without organs），进而产生第四人称单数的影像机器之眼。
+到大众媒介时期（21世纪至今），重演历史活动拥有更能展现自身的媒介，电子游戏。如果说前三种重演历史活动的拟人化还未完全搭建起来，那电子游戏自己独有的知觉具身性就让角色具备拟人化对话的能力。“通过交互机制将游客/读者/观众变为玩家，并重新赋予受众触觉体验。玩家以操纵游戏角色的方式在界面中完成重演历史的仪式，游戏手柄(键盘、摇杆等)所形成的触觉感受转化为游戏中的我(代理行为者)的经历/选择，我也最终成为再现历史活动中虚拟现实的感受主体”。
+历史学者格鲁特还认为，电子游戏参与性的虚拟扮演不仅给予角色拟人化，还赋予玩家摹仿的摹仿（mimesis tou mimeistou），这样可以让玩家成为拟人化的拟人（personate personification）。因为游戏摹仿的是重演历史活动（叙事史），叙事史又是对真实历史的摹仿：
+“游戏正在积极地蕴含一种叙事和历史事实（actuality）的观念，但真实的（factual）历史和电影修辞的混合，创造了一个有趣的模糊的身份空间。对历史的消费既是学术性的，也是虚构的。这款游戏的体验是叙事和模拟，是固定的能指集合（a fixed set of signifiers）的一部分，同时也是历史的一部分。玩家在同一时间参与到重演历史、模拟、游戏和历史之中。”
+《物华弥新》：2026年新器者剪影：太阳神鸟
+三、拟人化创作的里程：从文学到游戏
+拟人化的本质是“将人类的特征投射到非人类的他者身上”。在文艺创作过程中则是将这一过程逆转，让非人类的他者依照一定的意指结构拥有与之密切关联的人格。
+文艺创作的拟人化改写历史一直都非常久远，从原始社会开始就有存在。泛灵论（animism）认为“人类与非人类被平等地认为拥有同样性质的内在性：很多动植物被视为人，拥有灵魂，可以与人类交流。正是由于这种共同的内在本质，非人类被认为拥有与人一样的社会性存在”。基于这一认知，任何事物都可以被人格化，并且被纳入到人类社会生活准则之中，与之进行平等交流。于是在漫长的文艺创作过程里，拟人化改写逐渐演变为动物拟人、身体拟人与器物拟人三大类。
+随着二次元产业的不断发展，动画技术也随之不断进步。爱森斯坦就认为，动画本身就可以被认为是泛灵论方法的直接体现。动画创作的自我赋形（self-figuration）可以被认为是动画师在动画创作过程中，将人格化（personification）倾注于动画角色上，并由此形成对非生命物的赋灵想象。最先发展起来的就是动物拟人，也就是后来成熟发展的福瑞美学（Furry Aesthetic）类型。从迪士尼以动物为主角的动画系列作品（从米老鼠IP开始），到日本聚焦动物拟人形象的动画作品（代表作是板垣巴留的《动物狂想曲》），再到中国动画发展的几十年，动物拟人尤其是猫与狗型福瑞形成了强大的伞护种（Umbrella species）效应。到现在占据低龄受众动画心智的作品，《熊出没》和《喜羊羊与灰太狼》依然是有强烈生命力的福瑞IP。
+动物拟人创作原本就是可以依据动物本身存在的特性，将对象的本体特性转写为被“被赋予在人角色之中形成的内涵要素”。但身体拟人难以像动物拟人那样顺利实现，因为其指涉对象与世界观建构均直接关联现实生活中的人类身体，这很容易让观众在观看过程中以自我具身作为参照，难以接受这样的身体叙事改写。所以，尽管在迪士尼产业对身体拟人有长足技术进步的情况下，并且由此推广到其他国家，在2015年形成一批针对身体拟人的二次元作品，如《工作细胞》（はたらく細胞，日，2015）、《头脑特工队》（Inside Out，美，2015）、《柔美的细胞君》（유미의세포들，韩，2015）， 身体拟人改写在创作过程中难度依然很大，主要集中在内外身体叙事很难顺利切换，由此形成无器官的身体（Body without Organs），这类想象中的赛博格在艺术创作中的代入感不高。所以，即便前文提到的三部作品近年均推出续作，但近10年来，除了2024年中国动画《羊村守护者·心世界奇遇》通过‘叙事 + 视觉’跨模态分区设计，实现生成性空间与结构性空间的交织突破外，新的原创身体拟人破圈作品依然寥寥无几。
+不过身体拟人改写依然为拟人化改写积累了丰富的创作经验，它们既是对身体部分分区的展演，同时又是以新的身体完成了拟人。所以在大冢英志看来，这就是不能长大和不会受伤的符号化的身体。
+第三类是器物拟人创作。借鉴了前两种拟人化改写的手法由此习得了之前两种拟人的创作方式，且其载体从动画领域逐步拓展至游戏领域。这种拓展进一步深化了泛灵论的实践应用：相较于动画，游戏的交互性更能让器物拥有人格的设定落地。在很多新国风游戏里都遵照了这一原则，如《少女前线》（枪械拟人）《幻书启世录》（书籍拟人）《食物语》（食物拟人）《碧蓝航线》（战舰拟人）《钢铁华尔兹》（坦克拟人）等游戏。
+《物华弥新》游戏开篇序章·壁纸
+下篇：博物游戏美学中的《物华弥新》
+正是在这样的发展演进脉络中，《物华弥新》游戏成为MEA实践的代表性游戏。它继承了珍奇柜时期对文化遗产的珍视、现代博物馆时期的分类解构与数字时代的展品活化，并通过拟人化改写让文物在重演历史活动中获得实体的本体存在。从物导向本体论来看，器者/文物不是被静观的审美客体，而是能与之对话的社会式参与艺术（socially engaged art or participatory art）。
+就像《物华弥新》游戏宣传语，由看板娘（即游戏代表角色）蝠桃瓶所说的那样：“我们一直存在，你们终于看到了我们” 。这里的“我们”，就是指自我意志觉醒的有文物本体代表的器者之声。阿比·瓦尔堡（Aby Warburg）更喜欢用遗存（survival）这个概念，这是为了呼应一个德语命题“das Nachleben der Antike”（古典时代的遗留与重生），同时也可以成为游戏名“物华弥新”的德语译名。
+遗存所具有的时间性即文物所占有的空间性，文化遗产这一概念就是时间与空间双重性的表征，其遗存范式（survivalist model）也是一个“不断重复的元结构，宛若时间的扭结和漩涡，始终缠绕着现在”，但它又不只是指向现代，而是“能变成不断回归的记忆，实际上，就是一种复兴”。
+《物华弥新》的器者塑造也是基于这种错时模式（a model of anachronism）而不断在游戏性过程中转译并破圈。器者作为被拟人化的文物，可以说已经具备完整的人格性意识，在赋予其灵性的过程中，是通过两次转译手法完成的：一是用图像创造
+横向转译
+艺术作品的知识客体，即器者三次拟像改写：文化遗产原型（文物）→历史记载（文本）→器物拟人（图像）；二是用错时性结构
+纵向转译
+器者具身的三层重演历史活动：当时文化历程性←文物觉醒历久性←当代社会历险性，在游戏中完成拟像考古学（Archaeology of Simulacra）的具身解码。
+《物华弥新》2.5版本新器者：青瓷莲花尊评估报告（部分）
+一、器者形象的三次拟像改写
+器者可以说是幽灵的实体再现，其拟像改写要如何进行，尤其是将文化遗产在物理实体身体（Körper）和主观感受的身体（Leib）下找到平衡点并进行MEA，相当难以斟酌。这也正是古代这一历史概念在现世的折返，而它是通过情念程式（pathosformel）的图像来完成：
+“第一，从来不是以完整的古代形态，通常只是作为整体的一个碎片出没于文本的边缘；第二，离不开后代艺术家的想象，并且是根据自己的生活来想象……这些边饰也是经过加工、润饰的，被灌注了艺术家的历史想象，因而是带有梦幻、幻想特质的历史心理的投注或移情。”
+这种移情式投注将让整个器者形象的三次拟像改写的流变相当具象地体现在游戏中，就是作为文化遗产的原型在人类现实世界中的模样，作为历史记载中的文物在文字媒介中的模样，以及被图像化的器者具有的各种衣装形象。
+（一）作为文化遗产的原型
+作为最基本的信息呈现，文化遗产原型在每一个器者身上，都有属于它自身的科普信息，在器者档案中有详细的本源介绍和历史轨迹。
+因为器者都存在这样的本源，所以在形象改写上奠定了从拟人论（anthropomorphism）上升到神人同形同性（theanthropism）的基础。神人同形同性原本是用来描述希腊神话里神与人具有同一身形和性状的存在是“古希腊人的现实生活的理想化形态，将希腊诸神都带上人格化的倾向”，在《物华弥新》里，器者的拟像改写使其去除了宗教化与神话化元素，更多是将“以某种方式再现过去，或与过去的话语相关”的历史参与（historical engagement）。
+（二）作为文字媒介中的凝视
+大量文本所形成的历史记载刻画了器者与收藏家在不同可能空间下的轮廓，在游戏中形成更具主观性的凝视。
+每位器者都存在大量看似与主线剧情无关的文本信息。器者资料里的[人员评估]基本就是对该器者非常直观的本源性情、形象与过往记录，开头句式统一为“器者外现为〇〇形象”；而[评估报告]则是不同收藏家在不同文学体裁中对该器者的经历侧写。以蝠桃瓶为例，她的[人员评估]开头就是“器者外现为少女形象”，她的四份[评估报告]则分别涉及观察总结、对话记录、获奖记录与散文回忆四种完全不同的叙事方式。
+在面对曲解战斗时，基金会用以参考的[虚构档案]内容虽然残缺不全，却勾勒出一副几乎无论是哪个城市都会面临末日被灭亡的模样，包括一直在主线剧情中提及的“最后时间”的倒计时，与器者与收藏家生活的珍贵日常形成强烈对比，这份脆弱性也正是新日常系的内核。
+最后，收藏家所在的对曲解二组，在来古市与曲解的对战也被改写进武侠小说《当武峰》中，玩家可以在[冬谷归档]里的[杂志报刊]栏点开看到，里面总共有4话。在主线与各限时主题中，《当武峰》中“我”（收藏家）已经被表现、被拟像为大侠形象，获得各器者的欢迎。
+（三）作为器者视觉的形象
+《物华弥新》的不同器者都以独有的风格作为拟人化形象置于游戏中，它们囊罗男女老少，并且还在现代社会上有更适合自己特性发挥的职业。在本文写作（2025年11月）时，游戏最新版本[釉生净土]里出现的器者是青瓷莲花尊（魏晋南北朝制作的通体施青釉的瓷器），他的外现就为“神秘且高洁的女性，手握白伞，目光柔和”，本体上有多处莲花纹作饰，性情为“去离众恶，身意俱安”。
+另据游戏预告[特殊通讯：古蜀金曦]透露，到2026年年初，《物华弥新》将会推出巴蜀风格的代表文物拟人器者[太阳神鸟]。
+在《物华弥新》中文物被持续拟人化的过程里，器者外在形象都有严格的改写流程，按照龙渊网络CEO李龙飞的说法就是，每一个文物在拟人化时都需要经过漫长的考据：
+“我们设立了一个专业的考据团队，专门去考据我们游戏中的各个文物。由文物为原型设计的每一位角色都拥有自己的考据包，内里包含了该文物基础信息，拓展资料等等，设计过程中，尽我们最大的努力确保我们的角色不要偏离正确的史实。在制作上同时交叉进行多题材文物的选题、分类、筛选、选题、设计。”
+游戏中，这些器者还有不同风格的换装。这些充满动感的附饰（accessories in motion）正是宁芙程式（Nymph formel），这种“原生性与重复性、形式与质料之间难分彼此的混合物”就是鲜活本身，是如阿甘本所说把“一切赋予影像的东西也被赋予了生命”。
+在每一次被拟像改写的过程中，器者的个人意志被逐渐丰盈，然后在持续对身体性-情感性被触动（leiblich-affektives Betroffensein）的反思中不断寻找自己与过往、文物和人类之间的关系。而这三次拟像改写正好一一对应不同时代下的三层重演历史活动。
+《物华弥新》主线剧情进度，目前为第六章·长风万里
+二、器者叙事的三层重演历史活动
+薇薇安·索布切克（Vivian Sobchack）在电影身体论中倾向于把观众与电影结合起来，作为更有具身性的身体命名为电影美觉主体（cinesthetie subject）。基于这一认知，她也延续到历史态度里。在她看来，历史不是消费与旁观的，而是创造的：
+“普通受众已经参与进来并理解历史表征的重要性，认识到正在创造中的历史。不仅把自己视为历史的旁观者，还把自己视为历史的参与者和评判者。在这个过程中，还加快了一种新的历史意识，或许是一种更加活跃和更具有反思性的历史主题。”
+这种带有自我意志的历史主体想象，对大众来说很难达到，因为人们更多是历史演变过程中的背景身体（grounding body），很难形成对历史实践的触觉性感知。对于文物来说，虽然本身具有厚重的历史性，但如何讲述自身故事成为一个难题。
+所以博物馆开始反思，让文物居于玻璃展柜内部，在单向度的透明媒介下使其成为被观看的历史（viewed history）是否合适。这很有可能让个体与历史之间的连续性被切断，不自觉地形成一种围绕屏幕的“透明性2.0”宏大叙事，即“屏幕功能目的论式的发展过程：从纯粹的保护（被视为屏幕一词的原本含义）一端，逐渐发展到纯粹的展示（被认为是显示屏一词的含义）一段”。而最后真正被历史化的并不是展品，而是作为根本中介（Médiation Radicale）的展柜，于是MEA成为非常重要的改进手段，在这一过程中自我叙事（内生拟人化）与交互设计（外在拟人化）共同形成的具身体验（embodied experience）共同组成重演历史活动。
+《物华弥新》中器者的三层重演历史活动正是基于该点展开，围绕已经拟人化的器者对自我身体地图（body mapping）的反思讲述属于自身的历史。
+（一）作为当时文化的历程性
+如果说文物发源地已经成为一种废墟意象，也就是反思型怀旧下的空间，就像“文物与遗址处在同一流畅的建筑空间内，彼此并无隔断”的大报恩寺遗址公园展厅风格，遗址所代表的废墟意象被置入环境背景中，成为现代性设计感的展厅中的交叠空间。同时这也是很多文物在不作为“可移动文物”的展品观赏之外，作为“不可移动遗址”共同叙事。
+那么对于这些器者的最初记忆来说，天然就存在修复型怀旧，即它所经历的过往是作为旁观者见证历史性状的历程，而这些都是在它自我意志尚未觉醒的时候的存在。于是当器者主体性逐渐生成之后，强烈的怀旧感就是“重建失去的家园和弥补记忆中的空缺”。因为器者本身就是神圣之物（aura）被修复之后的拟人化形象，所以器者在回望自我的时候，会产生一种强烈的“以物言说，以物证史”的状态。尤其是在某些限定主题中，器者经由不同状态回到过去历史时期时的剧情，虽然他们性情可能各不相同，但都会有这种眩晕迷失的症状。游戏目前[时光拾遗]收录的主题玩法中，[梦归长安]版本里，器者银香囊（文物全称唐葡萄花鸟纹银香囊）就因为友人器者的制香而短暂回到那个她原生时代的长安。
+（二）作为觉醒文物的历久性
+在器者觉醒自我意识之后，按照笛卡尔的身心二分论来说，就是器者的灵魂首先从文物原型里独显出来，而它所在的重演历史就处在一种非自己生活时代，又不具备身体行动的漫长历久中。于是这份历史空白被演绎出来，是在“可见和可读取代了可视（visual）”之后形成的图像影像。
+处于朝代越久远的器者，这份历久性就越长。倘若器者本身又与记录、时间、记忆等元素有关，围绕它的故事就会更多集中在历久性上。器者[利簋]（又称武王征商簋）就是其中的典型代表，无论是在[轶闻录]里属于他的外传故事[岁行可追]，还是围绕它设置的技能，都在这份历久性上有非常明显的体现。
+当然，在《物华弥新》游戏外传里，具体到某位器者的经历时，会一开始就明确提出这是器者的主观记忆，请收藏家仔细甄别。整个游戏也是围绕历史重演而进行，无论是收藏家、器者还是曲解的，都是在围绕历史准确性（historical accuracy）更多元视角进行讨论。因为他们不是这份历史的遗忘者，又不能真切参与到这场重演历史活动之中，所以这份主观性反而成为一种艾比米修斯式的见证期待（elpis），最后这些器者成为巴塔耶所说的“无共同体者的共同体”，这是对起源的缺陷的感觉，也是在“作为超前和相关差异的死亡状态中的出离，是一种作为时间的反思和作为反思的时间”。这也与在曲解对战的过程中，当曲解被消灭之后，它所造成的假性灾难事件会变成虚构可能，让历史重新回复到没有被曲解破坏的模样。
+（三）作为器者行动的历险性
+“历史学家倾向于记录那些塑造了我们国家发展的重大事件和任务，那些经历过重大事件的普通人往往被忽视了”。这句话可以作两层阐释，一是普通人作为经历者，他的记忆讲述本身更多是去中心化的；二是普通人与普通人之间的历史也值得被记录。而器者就是让自己从神人同形同性者（Anthropomorphist）重新回到普通人的过程。
+对于要融入人类社会共同生活的器者来说，它们所面对的历险性也是两层，第一层是所有人都面对的曲解末日降临的终极危机；第二层就是器者要在现代性社会中生活，并习得与人类、与其他器者共存的能力。
+在主线剧情里，不同器者之间的交流不再只是因为年代相似，还有了更多可能性，无论是战斗能力、志趣爱好还是职业选择、部门合作，甚至在战斗界面都可以通过编队让这些器者并置。
+看似不同时空的器者在当下时空的相遇，似乎是重回传统博物馆时期的珍奇柜（Wunderkammern）模式，其实内核大不相同：珍奇柜是因为稀缺让文物可以不用分类而聚集，历险性则是因为正在进行的当下性与现代社会生活的地理空间，让这些器者真正的生活。
+《物华弥新》所呈现的史学多语性（historioglossia）由此超越了只是在单一史学文本中，作为多重阐释语言让不同历史主体，即器者之间形成更广延的互文空间。
+作为具有三次拟像改写脉络与三层重演历史活动的器者，在游戏《物华弥新》中不断形成更多的互文性空间，最后他们不再只是会说话的物体（speaking object），而是具身遗产（Embodied Heritage）中超越文化遗产神话性的主体影像谱系。
+《物华弥新》笔者持有器者部分掠影
+余论
+如前文所说，MEA在对比实验中效果确实明显，哪怕只是让文物简单地以第一人称自我介绍与高交互水平的情景材料，都能显著提高“旅游者感知愉悦性和旅游意向的正向性”。更毋宁说《国家宝藏》《如果国宝会说话》等纪录片尝试采用“将历史视作一种表演和故事”的方式让文物破圈，从而被更多年轻观众看到。
+而“历史从来都不是一种静态的存在，而是经由当下的阐释和建构而不断被赋予新的意义”。当赛博身体成为新的认知界面，玩家就能通过在游戏过程中对这些文物进行触觉交互和收集战斗完成“触摸物体来获取物体相关信息”的视-触多感官共情体验。
+《物华弥新》在这个基础上更进一步，完成了对文化遗产的数字化保护，通过拟人化改写和游戏性转译将这些文物进行了更多深度挖掘与持续探索，于游戏美学上实现了拟人化的三重交互：既有实物性与人格性的交互，也有历史性与游戏性的交互，还有学术性与传播性的交互。这与具身遗产理论（Embodied Heritage）的核心理念高度契合，文化遗产的传承不仅是认知过程，更是身体参与的多感官体验。
+注释：
+[1] 物华弥新B站wiki百科[OL].https://wiki.biligame.com/whmx
+[2] [美]妮娜·西蒙.参与式博物馆：迈入博物馆2.0时代[M].喻翔译. 浙江大学出版社，2018.5:p245.
+[3] IL Garcia、E Schott、M Gohsen、V Bernhard、B Stein、B Froehlich .Speaking with Objects: Conversational Agents’ Embodiment in Virtual Museums[C].2024 IEEE International Symposium on Mixed and Augmented Reality (ISMAR)，2024.10:p279.
+[4] 张卓、张斌.内在性、外显性与隐蔽象征:传统文化的视觉表达--以纪录片《如果国宝会说话》为例[J].新闻与传播评论，2021.74(2):p17.
+[5] Shasha Cai、Derong Lin、Honggen Xiao.The collision of tradition and fashion: How anthropomorphizing museum exhibits influences cultural inheritance[J]. Tourism Management.2025.1：https://doi.org/10.1016/j.tourman.2025.105133
+[6] “きもかわ”是表示恶心的“きもい”与“かわいい”组合而成的形容词。详见[日]四方田犬彦.论可爱[M].孙萌萌译.山东人民出版社，2011.2：p68.
+[7] Möllers, Nina. Cur(at)Ing the Planet: How to Exhibit the Anthropocene and Why[M]. Ed. Helmut Trischler. RCC Perspectives ,2013.3: p58,61.
+[8] Marco Caracciolo. Contemporary Narrative and the Spectrum of Materiality[M]. DE GRUYTER, 2023.7：p70.
+[9] McGilchrist、lain. The Master and His Emissary[M]. New Haven and London: Yale University Press,2010: p. 409.
+[10] Vanessa Agnew. Introduction: What Is Reenactment? [J]. Criticism 46(No. 3),2004: p327.
+[11] Vanessa Agnew. Introduction: What Is Reenactment? [J]. Criticism 46(No. 3),2004: p337.
+[1] [英]杰罗姆·德·格鲁特.消费历史:历史学家与当代大众文化中的遗产[M].于留振译.商务印书馆，2024：p181.
+[12] Robert A. Rosenstone. History on Film/Film on History[M] New York: Routledge,2012: p13.
+[13] 但愿.抗日战争电子游戏的情感叙事转向——以《隐形守护者》为例[J].艺术学研究,2025(04): p26.
+[14] [英]杰罗姆·德·格鲁特.消费历史:历史学家与当代大众文化中的遗产[M].于留振译.商务印书馆，2024：p247.
+[15] Marco Caracciolo. Contemporary Narrative and the Spectrum of Materiality[M]. DE GRUYTER, 2023.7：p88.
+[16] [法]菲利普·德斯科拉.超越自然与文化[J]. 刘文玲译.文学人类学研究.2024(01): p31.
+[17] 张路.拟人化角色:意义建构、叙事与消费[ J ].当代动画,2019(02):p124.
+[18] Georges Didi Huberman. The Surviving Image. Phantoms of Time and Time of Phantoms: Aby Warburg’s History of Art[M]. trans. Harvey L. Mendelsohn. Pennsylvania: The Pennsylvania State University Press.2016:p. 47, pp. 50.
+[19] 饶静.女神与遗存：对图像记忆的神话学解读[J].文艺研究，2022(12):p23.
+[20]吴琼.阿比·瓦尔堡的幽灵学[J].社会科学战线,2022,(01):29.
+[21] Adam Chapman. What is Historical Game Studies?[OL]. https://www.tandfonline.com/doi/full/10.1080/13642529.2016.1256638
+[22] 成都高新区数字经济产业.以文物拟人化创新表达传播中国文化，成都高新区大力打造数字文创天府超级IP群[OL]：https://mp.weixin.qq.com/s/D5Iy6GX3nu3xKvJcJiuFjg
+[23] V.Sobchack. The Persistence of History[M]. New York and London:Routledge,1996:p7.
+[24] 莫罗·卡波内.元屏幕的力量和“透明性2.0”的意识形态[J]. 卫俊译.北京电影学院学报,2024(06):p48.
+[25] 王思渝,杭侃主编.观看之外：13场博物馆展览的反思与对话[M].北京：文物出版社，2020.1：p273.
+[26] [美]博伊姆.怀旧的未来[M].杨德友译.译林出版社，2010.10：p46.
+[27] 乔治·迪迪-于贝尔曼.在图像面前[M].陈元译.湖南美术出版社,2015：p11.
+[28] [法]贝尔纳·斯蒂格勒.技术与实践[M].裴程等译.译林出版社，2023.11：p232.
+[29] N.Barratt. The Family History Project[M].Kew：National Archives and the History Channel,2004: p.xi.
+[30] 黄潇婷,陈秋霞,刘慧芳.拟人化增加旅游者的重游意向?——博物馆文物拟人化沟通方式效应研究[J].华中师范大学学报(自然科学版),2025.59(03):p396.
+[31] 梁亦昆.游戏如何讲述历史？数字游戏中的历史演进与现实映射[J].学习与实践,2025(3):p133.[1] [美]妮娜·莱文特，阿尔瓦罗·帕斯夸尔-利昂主编.多感知博物馆:触摸、声音、嗅味、空间与记忆的跨学科视野[M]. 王思怡，陈蒙琪译.浙江大学出版社，2020.4：p12.</t>
+  </si>
+  <si>
+    <t>一个宣告新时代的古典比喻
+在美国白宫2025年发布的《国家安全战略》（后称《战略2025》）第12页“优先事项”一节中，美国政府敦促它的富裕的盟友们承担起地区防御的主要责任，并分担更多共同防御的重担。然而，值得注意的是，开启这一章节的并非分账数字，而是一个有些“诗意”的古典比喻：
+美国像阿特拉斯那样独自撑起整个世界秩序的时代，已经结束了。
+(The days of the United States propping up the entire world order like Atlas are over)
+这与1961年肯尼迪在那篇著名的总统就职演说中对世界的承诺形成了鲜明对照：
+让每个国家都知道­­——不论它希望我们繁荣还是希望我们衰落——为确保自由的存在和自由的胜利，我们将付出任何代价，承受任何重负（bear any burden），应付任何艰难，支持任何朋友，反抗任何敌人。
+在那一时期的政治修辞中，美国对自身的想象是位颇具英雄气概、能够且愿意凭借一己之力撑起天穹的提坦大神。而如今，这一新的比喻表明，传统的阿特拉斯想象正在经历重构。
+事实上，有关阿特拉斯的这个核心的比喻早在《战略2025》的第1页就以更为隐晦的方式出现了：
+我们的精英严重误判了美国对无限期肩负全球重担的意愿（America's willingness to shoulder forever global burdens）——这些重担在美国人民看来，与国家利益毫无关联。
+在这里，阿特拉斯似乎从未有过顶起天穹的“意愿”，相反，他只是受制于所谓“精英”的误判，被迫将沉重的苍穹压上肩头的巨人，充满了抗拒和疲惫。
+古希腊诗人赫西俄德在《神谱》中对阿特拉斯的奠基性描述，似乎为后世对阿特拉斯的两种截然不同的想象提供了原始张力。
+阿特拉斯是大洋神之女克吕墨涅的长子，赫西俄德在他出生时便称他“拥有强大的心灵”（第509行），随后又写道，他伫立于大地边缘，以头颅和“永不疲倦”的双手顶住苍穹（第519行）。这种生来便具有的精神的韧性和身体的强壮，似乎昭示着他是“顶天立地”者的不二人选。
+然而，他的“顶天立地”之举远非出自意愿，而是出于宙斯“有力的强迫”。作为提坦叛乱的首领，他在和宙斯——赫西俄德神话里真正维系秩序者——的斗争中落败。而撑起天空根本不是什么主动的英雄善举，而是其不得不承担的、带来无止尽疲倦的惩罚。
+大约生活在公元2世纪的阿波罗多洛斯在《书库》（2.5.11）中收录了另一个更为人熟知的阿特拉斯神话。英雄赫拉克勒斯在夺取金苹果的途中，解救了阿特拉斯的兄弟普罗米修斯。为表感谢，普罗米修斯献策：赫拉克勒斯可请阿特拉斯代自己去取金苹果，条件是在此期间暂时替他撑起天空。阿特拉斯取回金苹果后，却不愿重新回到撑天之位。赫拉克勒斯只好骗他说，自己愿意永远替他承担，但需要在头上垫一块垫子，请他暂时再撑一会儿。阿特拉斯信以为真，重新扛起天空，从此再也没能下来。
+于是我们有了两个对阿特拉斯的想象：一个是肯尼迪想象中的那个不知疲倦、孔武有力的英雄，出于某种崇高的道德责任，自愿负重顶起世界秩序；另一个是特朗普想象中的那个不断被骗而困于撑天之位的提坦首领。
+然而，若将这种把阿特拉斯从英雄变为提坦的想象转变，仅仅理解为某种去道德化的过程，未免太过草率。相反，一个更有趣的问题是：在何种意义上，一个想要卸下重担的阿特拉斯，仍能被构想成某种道德叙事？
+阿特拉斯耸耸肩
+早在2016年特朗普第一次当选之后，不少媒体就试图建立起特朗普的朋友圈和俄裔美国作家安·兰德（Ayn Rand）的小说《阿特拉斯耸耸肩》（
+Atlas Shrugged
+）之间的思想关系。2016年年末，如今的《华盛顿邮报》“观点”版编辑詹姆斯·霍曼（James Holman）发表文章《安·兰德的门徒》，梳理了即将上任的新政府团队中多位成员公开表达对兰德思想赞赏的言论。2017年特朗普当选后，英国《卫报》也在4月刊发题为《安·兰德的新时代：她是如何赢得特朗普阵营与硅谷的》的报道，回顾这位1920年代从苏联移居美国的小说家，如何成为大西洋两岸保守主义思潮的重要精神纽带。所谓兰德的“新时代”，指的是美国那些年轻有为的硅谷巨头们也开始成为她的门徒。
+时至今日，这种讨论仍未停歇。今年5月，美国《公共福祉》（
+Commonweal Magazine
+）就出现了一篇名为《从安·兰德到特朗普》的评论文章，作者保罗·鲍曼（Paul Baumann）借着《时代》杂志的编辑惠特克·钱伯斯（Whittaker Chambers）在1950年代对于《阿特拉斯耸耸肩》对原始蛮力的崇拜和对简单二元对立的依赖的批评，来讽刺当今白宫政治文化中所展现出来的“粗糙的物质主义世界观”（crude materialistic worldview）。
+在当代美国思想文化界，很少人像安·兰德这样，因被认为影响现实政治而被媒体如此集中、高调地报道——上一次类似的情形，恐怕要追溯到媒体对德裔美国政治哲学家列奥·施特劳斯与小布什政府的关系的兴趣。
+那么，《阿特拉斯耸耸肩》究竟写了什么，能激起如此广泛的热情？
+安·兰德在这部小说中给读者描绘了一个高度简化的黑白二分世界：恶的一方是一群“寄生者”与“掠夺者”，他们从不劳动，也不创造财富，却成天高喊“为他人牺牲”“金钱是罪恶的”“推行平均主义”等口号，借助政府政策干预经济，从中谋取私利；善的一方则是由企业家、科学家与发明家代表的“创造者”，他们不断被要求牺牲个人利益，承担整个社会的重负，却仍被套上道德的锁链，反遭指责是在可耻地追逐金钱。
+小说的主人公、铁路高管达格妮·塔格特与钢铁大亨汉克·里尔登正是两个仍旧希望竭力维持工业体系运转的“创造者”，不过却屡屡因为“掠夺者”的政策打压而受伤。他们逐渐发现，有一位神秘发明家约翰·高尔特正在策划一整套重建文明的“罢工”，并最终加入其中。
+高尔特一方面秘密说服美国的“创造者”们，让他们逐一从各自岗位上消失，撤入隐秘的“高尔特峡谷”，使整个社会逐渐停摆；另一方面，他与留在外界的铜矿大亨之子弗兰西斯科合作，通过设计骗局让“掠夺者”们暴露本性，并逐步说服像达格尼和汉克这样仍不愿放手的“阿特拉斯”加入计划。高尔特计划的最终目标，是让美国因失去其创造者而走向崩溃，待旧秩序瓦解后，这群人再重返人间，以理性自利与自由市场为原则，重建一个全新的文明。
+小说最精彩之处，在于细致描绘了“掠夺者”所构建的社会如何对创造者实施全面压制。这种压制不仅体现在庸才当权与经济剥削，更深入到对生命力本身的扼杀。汉克充满了对工业的炽热激情，却被《机会平衡法案》《反同业相残条例》等恶政死死扼住咽喉。更要命的是，他那深受社会主流“道德”熏陶的妻子莉莉安，不断对他进行精神上的苛责，指责他对工作的进取心是“自私”，要求他对个人成就感到“愧疚与羞耻”，并希望他永远怀有对自己和社会的“亏欠感”。
+这些虚伪枯燥的“道德”逐渐抽走了汉克的欲望与热情。直到他与同为“创造者”的达格妮相遇，生命之火才重新燃起。在一次无聊的聚会上，莉莉安与达格妮正面相遇，令汉克内心充满矛盾与愧疚，道德重负再度加身。然而，达格妮随后向汉克道出了一段充满“创造者”意味的爱情宣言：
+汉克，除了你想给我的，我对你一无所求。还记得你曾经把我叫作商人吗？我希望你来我这里，除了你自己的享受，别的什么都不去寻找。无论出于什么原因，只要你希望保持婚姻，我就没有权利去憎恨它。我的经商之道就是用你从我这里得到的快乐来偿还你给予我的快乐——而不是用你或者我所受的痛苦。我不接受牺牲，而且我不会做出牺牲。假如你的要求超出了你对我的意义，我就会拒绝。假如你要求我放弃铁路，我就会离开你。假如一个人的快乐必须用另一个人的痛苦才能买来，那还是别做这笔买卖了。一个赢一个输的买卖就是欺骗。你在生意场上没有这样做，汉克，不要在你的生活中这样去做。
+达格妮展现出与莉莉安截然不同的气质：作为“创造者”，她拥有自己的生活。她既在事业上追求个人创造，也在生活中追寻个人快乐。她拒绝以“牺牲”之名承担他人的重负，也劝汉克不要如此。正是这种态度，让深陷痛苦的汉克看到了摆脱重负作为一种理想的光芒。
+另一位对汉克的“理性启蒙”起到关键作用的人物是弗兰西斯科。和达格妮与汉克一样，弗兰西斯科本是一位极具才干的企业家。然而，他却总是与“掠夺者”周旋合作，又成日放纵奢靡、挥霍无度，致使自己的产业频频受损。这让汉克最初对他产生了极大的反感。直到后来，汉克才明白，弗兰西斯科其实是在演一场精心设计的戏：他一方面诱使“掠夺者”将资金投入自己的公司；另一方面，又刻意塑造花花公子的形象，最终彻底摧毁自己的产业，令那些投机者血本无归。弗兰西斯科对汉克·里尔登漫长的启蒙过程中，有一次谈话尤为关键，是全书的题眼所在：
+“里尔登先生，”弗兰西斯科的声音郑重而平静，“假如你看到阿特拉斯用肩膀扛起了地球，假如你看到他站立着，胸前淌着鲜血，膝盖正在弯曲，双臂颤抖，但还在竭尽最后的气力高举起地球，他越努力，地球就越沉重地向他的肩膀压下来——你会告诉他该怎么办？”
+“我……不知道。他……能怎么样？你会告诉他什么？”
+“耸耸肩。”
+很明显，此处“耸耸肩”不再是一种逃避责任的表现，而是某种理性觉醒的时刻。然而我们要注意，读者之所以不将这一“耸肩”视为自私，反而倾向将其觉察为一种新的道德叙事，是因为弗兰西斯科所援引的阿特拉斯比喻隐含了几个关键前提：
+其一，阿特拉斯并非因身体疼痛而轻言放弃，而是已“竭尽全力”，直至抵达人力所不能及的极限。
+其二，他所支撑的世界毫无感恩之心。在古希腊神话中，天空的重量本是恒定的，但在这里，高举的“地球”实际上是一个会不断加重的寄生虫窝，因而不再值得追求。
+其三，读者最后会看到，这些“创造者”并非真正抛弃世界，而是要等到“掠夺者”所构建的那个庞大寄生体系自行崩塌后，重建世界。
+唯有在这些前提之下，安·兰德所倡导的那种拒绝（无谓）牺牲的个人主义，才有可能重新获得某种道德感，即一种旨在纠偏的正义感。这也是为什么“耸肩的阿特拉斯”能够成为一个具有号召力的形象：它与当代美国政治话语中的流行叙事相映合——在内部，所谓的DEI 群体正在不公正地占据资源；在外部，全世界都在占美国便宜。要是聪明的话，美国是时候“耸耸肩”了。
+不过，正如我们所分析的那样，“耸肩”的道德感最终仍需以“肩负”为前提。这一内在张力，也导致不少保守派宣传家对阿特拉斯意象的运用显得有些混乱。例如，当代美国“保守主义艺术家”乔恩·麦克诺顿（Jon McNaughton）于2024年创作了一幅题为《特朗普耸耸肩》（Trump Shrugged）的画作。他在说明中写道：“若有任何人会因自身及家人长期遭受猛烈攻击而萌生退意，那这个人最应该是特朗普；但即便如此，他仍选择背负起自己在历史中的责任，不惜一切代价推动美国复兴”。
+特朗普耸耸肩（https://jonmcnaughton.com/trump-shrugged-11x14-inch-litho-open-edition）
+不过很显然，这幅作品更好的名字应该叫《特朗普从不耸耸肩》。无论是画家，还是画中那个希望成为全球各地区和平制造者的总统，到底还是难以完全放下那个作为“肩负者”的阿特拉斯想象。
+疲惫的提坦
+在安·兰德的小说里，阿特拉斯肩上的地球象征的只是某个寄生阶级，而非世界。将阿特拉斯形象运用到国际关系上的著名案例，当属英国殖民地大臣约瑟夫·张伯伦（Joseph Chamberlain）在1902年殖民地会议上的那句演讲：
+疲惫的提坦在其命运的巨大球体下步履蹒跚。我们已经背负这一重担太久了。我们认为，现在是我们的孩子们协助我们支撑它的时候了。
+（The Weary Titan staggers under the too vast orb of its fate. We have borne the burden long enough. We think it is time our children should assist us to support it.）
+尽管大英帝国在财政上仍能维持帝国海军的军费开支，但张伯伦已敏锐察觉到帝国之颓势，因而呼吁各殖民地共同承担防务责任，而非由英国独自支撑。然而，殖民地对此响应冷淡，所同意增加的分担额度远不足以填补缺口；而英国国内又不愿通过加税来调整财政政策。这一双重困境最终迫使英国政府裁减军备，逐步削弱对帝国的军事控制。
+张伯伦的这一意象后来成为普林斯顿大学政治与国际事务教授亚伦·弗里德伯格（Aaron L. Friedberg）的著作《疲惫的提坦：英国与相对衰落的经验，1895–1905》（
+The Weary Titan: Britain and the Experience of Relative Decline, 1895–1905
+）书名的灵感来源。弗里德伯格曾于 2003 至 2005 年间担任美国副总统办公室国家安全事务副助理兼政策规划主任，并参与多个美国政府与国防机构的决策与咨询。
+在1988年初版的前言中，弗里德伯格就坦言，他对19世纪末英帝国这一转型关键期的关注，源于“一个迫切的当代关切”（a pressing contemporary concern）。自20世纪60年代末以来，美国社会持续争论自身在世界中的位置、发展方向以及应扮演的角色，其中核心议题之一便是：美国是否正在经历“相对衰落”，以及若确有其事，其根源何在。
+从绝对实力来看，19世纪末的大英帝国依然强大，军费开支虽高，但仍可维系。然而，帝国的信息体系高度碎片化（fragmented），缺乏一个中央的信息整合机构来对帝国整体实力作出系统性评估。这种制度性缺失，导致帝国高层对国家处境有截然不同的“感知”。以张伯伦为代表的“悲观派”就感受到帝国的“相对衰弱”（relative decline）：尽管英国的经济总量、财富积累与海军规模仍在增长，但美国和德国已在钢铁、煤炭等关键工业领域迅速赶超；沙俄庞大的陆军构成战略压力，而日本在东亚的崛起则预示着一种新兴力量的登场。
+在弗里德伯格看来，尽管英帝国对这些新挑战的回应显得迟缓而混乱，但总体上仍勉强适应了新的国际格局。它通过与美国建立密切关系，主动放弃与后者在海军领域的竞争；又通过1902年《英日同盟》，将东亚地区的安全事务部分交由日本承担。这些举措使英国得以在维持“旧体制”（坚持自由贸易并反对关税、奉行低税收的“稳健财政”正统观念、拒绝实行征兵制）的前提下，集中有限资源应对德国在欧洲日益增长的威胁。然而，弗里德伯格指出，这种看似成功的战略转型也是依赖了“好运气”而非纯粹的战略远见。例如，日本在日俄战争中的胜利，有效解除了沙俄对中亚、阿富汗及英印度的威胁，使英国无需彻底改革其财政军事体系，以应对远东的局势。
+现在我们可以看到，在弗里德伯格所构建的叙事中，张伯伦的“疲惫的提坦”成了一种积极的意象：它代表着一种帝国自发的危机意识。
+在2010年再版的后记中，弗里德伯格更直白地说，美国也屡屡面临当年英帝国所面临的“相对衰落”，但美国人比英国人做得好的原因之一，就在于美国没有英国的从容自信，反而常常过度焦虑。这种预先焦虑使得美国摆脱了英帝国的“社会倦怠感”（societal fatigue），并能更加精力充沛（energetic）地迎接挑战。
+随后，弗里德伯格以“衰落论”（declinism）和进步动力为线索，简要追溯了美国的发展史。1950年代末，美国在“太空竞赛”和“国民生产总值竞赛”中担心落后于苏联。1960年代末，越战造成的赤字和欧日的崛起，使得社会情绪低落。1970年代的OPEC石油禁运、伊朗革命引发的第二次石油价格震荡和经济危机，以及苏联在第三世界的扩张，让美国成为疲惫的巨人。“衰落论”的情绪在上世纪80年代晚期和90年代早期烟消云散，乐观情绪更是在2003年萨达姆政权被推翻后达到了高潮。但是很快，战争的负担、中国等新兴国家的崛起，以及2008年的金融危机等问题，再次让美国陷入“相对焦虑”的情绪中。
+弗里德伯格最后判断，中国和美国将会成为世界最重要的两大玩家。在这个意义上，无论美国的绝对数字如何强大，在和中国的竞赛中如何领先，美国都会体验到“相对衰落”的焦虑。不过，弗里德伯格希望美国保持这种焦虑，因为这样，美国才不至于陷入到没有生命力的倦怠之中。很显然，15年过去，这一判断仍旧是成立的，重提阿特拉斯正是这种焦虑的写照。
+由此看来，我们似乎要对美国如今的阿特拉斯想象有一个新的理解。
+阿特拉斯既不是那个自信满满、要肩负起全球秩序的英雄，也不是一个想要撂挑子、彻底躺平的弃疗提坦。相反，他是一个充满危机意识、习惯于预防性焦虑、甚至有些“内卷”的巨人。他或许喊着要“耸耸肩”，但事实上，他珍视这种焦虑，也不会停止这种焦虑，因为这种焦虑正是其生命力的一部分。
+至于未来是否会出现一个或一群“赫拉克勒斯”来代替阿特拉斯顶天——有学者在2018年就用“代替阿特拉斯”（replacing Atlas）来概括欧日等政治体对美国政策的回应（见 Hal Brands and Peter Feaver, “Living in Trump's World: The Global Reaction to ‘America First’”）——抑或阿特拉斯与赫拉克勒斯会共同或轮流顶天，尚需时间检验。
+不过至少，整个世界都注定要找到各自的方式，与这位焦虑的阿特拉斯，以及他所激起的各自内部的焦虑，长期共存。</t>
+  </si>
+  <si>
+    <t>引言
+前段时间小楷圈子里流行在树皮上写字，偶见一作：“我三十多了，寰宇有无外星，仙界是否存在，天地是否终结，概不萦心。唯虑暮年，何以得无痛之终。”无痛之终，似乎映射了这个时代的心绪。
+今天的人对避免痛苦的追求已渗透日常：健康打卡、百岁养成计划、心理疗愈、运动监控……所有努力都是想要控制看似最可控的部分——身体。前几年看过一则报道，有的人天生没有痛觉，但这并没带来多大的好处，甚至增大了早夭的风险。痛是折磨，也警告着生命的边界。我们追求的无痛，或许更是痛的影子。
+在生活平凡的映射中，体验变得廉价，人被教导保持轻盈，却渐渐失去承载重量的能力。相对于死亡，我们更怕过程中的痛。无痛生活中暗含的疲惫与退却，透出深切的恐惧。
+《一个叫欧维的男人决定去死》剧照
+无痛期待的多层结构：撤退、风险与最后的身体主权
+现在很多人开始规划养老，理由聊起来很现实，多指向一种普遍感受：时代变化太快，技术随时可能更新生活方式，我们还能聊聊十年后如何，但二十年后、我们老了后，会怎么样？当代人不能再保持稳定的蒙昧或膨大的激情了。未来叙事的坍缩，使长期投入变得荒诞，人只能抓住当下能掌控的一切，哪怕只是监控睡眠、记录步数、苦练养生。无痛之终，或许是人类对未知的最低防御。
+深究下去，我们还会发现痛与生活间更深的裂隙。
+首先是风险感的异常放大。现实生活中，绝大多数人遭遇的痛苦有限，但对痛苦的担忧却在无限膨胀。不敢体检或过度体检，在网上查遍所有病症；身体不适，就联想到最坏结局。风险社会让人无法区分“发生”和“可能发生”，无痛的愿望，是被概率霸凌的反馈，是想消灭可能性，而不是痛本身。
+再往下走，是身体作为最后主权的事实。行业周期缩短，关系结构松动，决定权被剥离，身体成为为数不多还能由自己管理的领地，于是人把精力投注在健身、营养、体态和睡眠上。身体的可控让世界看起来不那么失控，所有努力为了最舒适的结束，是这片主权的最低保障。
+最深的一层，是温和蔓延的生活虚无。工作多以效率和产出定义，意义感微薄；城市生活快速切换场景，留下的记忆极少；公共叙事难以支撑个体，社交碎片化，关系可替代。人难以从世界获得坚实的反馈，也难以对任何事物建立持久的情感。
+《机器人与弗兰克》剧照
+从前读过这样一句话，后现代不会给你伤害，但也绝不会给你安慰。人的虚无是持续地淡化，让人不再追求高处，而是稳定、安静、不痛。无痛之终，成了意义极度稀薄时代的一种温和退场方式，不仅是生理诉求，更加作为一种时代情绪：对未来的撤回，对风险的过敏，对主权的渴望，对现实痛感的拒绝，以及对意义的逐渐放弃。这些因素嵌套在一起，使无痛成为这个时代朴素、也复杂的愿望。
+意义的终结与结构的瓦解：现代性三段式衰退下的无痛之维
+意义的剥夺——权力、价值与行动力剥夺
+无痛之终的追求，源于现代性对生命的宏大意义进行了一次结构性的剥离与肢解。在这一过程中，死亡首先从神圣的终点被降格为可管理的指标，接着，引导未来的价值基石被抽空，最终，个体创造未来的能力被系统性地压缩。
+福柯（Foucault）揭示了现代权力最深刻的转向，即从统治领土转向管理生命，也就是生命政治（Foucault, 1990）。死亡不再是宗教或形而上学的终结，它被纳入统计表格中的一个可管理、可预测的指标。当生命可以被管理和规划，死亡的神秘性也就被抽空。死亡成了可以被延缓的身体故障，不再是生命的完成。一旦死亡被去意义化，被降级为技术问题，个体能够抓住的焦点就只剩下一个：过程中的痛苦能否被减少。
+尼采（Nietzsche）对价值的批判揭示了未来感的问题。他宣告了传统道德谱系的崩塌，认为科学与理性虽然扩张了人类的掌控力，却没有为人提供活得更好的内在动力（Nietzsche, 1968）。在这一虚无主义的阶段性演变中，曾引导人类走向更光明彼岸的价值基石被移除，未来成为没有支撑点的幻影。当宏大价值的支撑被抽空，人们对未来的想象自然收缩，不再追求高远的、有牺牲精神的意义，而退回到对稳定、安静直到“不痛”的卑小愿景。
+意义的剥离，最终在个体的行动能力上得以体现。阿伦特（Arendt）接续了这一思想，她指出，现代社会对可重复的劳作和程序性管理的沉迷，系统性地取代了人类行动（Action）的能力，即在世界上开创新的开端、创造未曾发生之事的能力（Arendt, 1958）。当人无法再参与未来的生成，未来自然失去吸引力，长期投入便显得荒诞。未来不再从个体的创造力中诞生，成了既定结构无限延伸的技术时间轴。
+无痛之终的出现逻辑是对宏大意义的告别。当生命被肢解为指标，未来被稀释为虚无，个体能够紧握的，只剩下一个最低、最安全、最可控的生理愿望。这背后，隐藏着对生命无法被抵抗、却也难以被理解的深深困惑，以及对人之为人那份创造性本质的隐秘哀悼。
+风险与液化：不确定性对最后主权的侵蚀
+当意义被抽空，社会承诺也随之崩塌，个体发现自己被抛入充满系统性不确定性的环境中，唯一的退守之地，只剩下身体的最后主权。那么，外部世界的结构性瓦解如何将虚无感转化为迫切的、日常的恐惧？
+恐惧的来源发生了根本性变化。乌尔里希贝克（Beck）指出，现代社会的风险源于现代化自身的内生性。在风险社会（Risk Society）中，科技、工业和制度自身制造出跨地域、跨代的系统性风险，使未来成为潜在灾害的集合（Beck, 1992）。负向确定性将个体的想象力从期待未来转向逃避。对无痛之终的渴望，正是在内生性风险面前，个体为了消灭可能性的努力，它是一种精神上的止痛剂，主旨仍是消灭风险，疼痛只是其副产品。
+结构性风险的放大，随即带来了社会承诺的崩塌。齐格蒙特鲍曼（Bauman）的液态现代性（Liquid Modernity）精准描述了这种瓦解（Bauman, 2000）。职业、关系、身份甚至制度，都变得短暂、灵活且可替换。后工业时代拆解了长期投入和回报的结构，个体难以在时间中维持连续的身份和稳定的自我，最终会被抽象的系统支配所巩固。
+安东尼吉登斯（Giddens）指出，传统生活语境被巨大的、去地方化的抽象系统所替换，如复杂的金融市场、专家医疗体系和不透明的算法（Giddens, 1990）。个体不再能凭借经验判断未来，而必须依赖这些系统黑箱提供的专家知识和数据指标。尽管人们如此重视健身、营养和睡眠，试图通过数据化来掌控身体，但其行动本身仍处于系统的支配之下。无痛的愿望，正是个体在对系统失去判断力后，企图将自身的命运，重新锚定在数据和指标可控的身体上的徒劳努力。
+正在迈入后现代的我们承担了现代的后果，是社会结构对个体主权的一次集体侵蚀，是这三重压力完成了对外部世界稳定性的彻底破坏，将人逼回了身体的防线。
+感知与经验被技术重塑
+追溯完意义和结构的瓦解，进入当代，技术环境则扮演了加速器的角色，将无痛的愿望推向极致，使其成为对日常生活经验的基本要求。技术的逻辑，加速了焦虑，又提供了虚假的、无摩擦的解决方案，最终将个体的一切收束进一个可控的数据网络。
+首先，是生活节奏的超负荷运转。社会学家哈特穆特罗萨（Rosa）的社会加速（Social Acceleration）理论，精确捕捉了这种状态：技术更新、社会变迁和生活节奏的三重维度加速，压缩了体验的内化与意义的反思空间（Rosa, 2013）。加速导致了体验被稀释，而个体对痛苦的忍耐阈值也随之降低，比如倍速观看视频和“3天精通”的速成技能，或频繁更换职业以规避长期投入的速朽风险。无痛的终了成了一片反常的、低负荷的安静之地，一个在无尽的喧嚣与快速变动中，个体所能期望的低摩擦终点。
+加速的环境，叠加上数字技术对感知世界的重塑，使痛感被彻底地重新标尺化。平台化的注意力经济致力于提供即时可得、高度定制的无摩擦体验：不用等待、不用忍耐、回避不适。当数字世界将情绪和体验设计为可量化的资源，并将无摩擦内化为正常需求时，现实世界中的任何一点不适都会成倍放大。无痛已经成为当代生活的一种基本要求，而对于无痛之终的追求，也会演变为量化自我（Quantified Self）的实践，企图通过App和穿戴设备，将身体数据化为可控指标，最终将生命的终点也纳入可监控、可优化的数字循环中。
+无痛的愿望最终揭示了我们如何在时代的终局中，被结构和技术所塑形。这是深刻的讽刺：我们追求的无痛，恰恰暴露了我们在意义、行动和结构上的失控，无痛怎么不是痛苦本身？
+重新终老：开放的行动
+我们处在老去的过程中，也目睹他人老去，会有怎样的心绪？
+阅读《终养六年》，作者照顾生病的母亲六年，作者的记述像是绵密的生活泡沫，却给人巨大的触动。对痛苦的防御性收缩，只会剥夺我们体验生命完整性的机会。要走出被加速的生活和系统性的不确定性所围困的焦虑，我们首先需要有意识地去重建生命的厚度。
+《老两口》海报
+在今年的FIFF第三届家庭影像展上，导演王晖的《老两口》首次展映，在采访中她说想要通过纪录片重新审视老年的意义。在一切都被要求即时的时代，我们需要继续制造慢记录的伦理，为了捕捉那些被加速生活排除在外的、微小而持久的感受。无论是日记、书信还是简单的片段，记录是主动的反思，将碎片化的生活重新缝合成具有连续性的自我叙事。记录曾经历的，注目未来的生活，让我们去思考我们怕的，痛的，以及难以回避的人生八苦吧。
+或许我们也能将注意力从可能发生的概率中抽离，回归到当下的能做之事。人不能控制何时患病，但能选择此刻如何生活，是对抗无力感的关键。与其执着于完美的预测和规划，不如将不确定性视为一种生存技能，尝试适应性规划。更重要的是，在痛苦降临之前，我们就有机会确立一个有态度的临终。预先撰写生命意愿，清晰表达自己对医疗介入和生命终局的期望，这本身就是对自身主权最深刻的实践。我们用这种前置的行动，确保生命的完成是有尊严、有选择的。
+所以似乎我们又回到了后现代之中，但这变得浅淡了，大潮退却，我们可以选择被留下，通过记录、表达、承担和前置规划的开放行动。望我们的终老，不仅无痛。</t>
+  </si>
+  <si>
     <t>具备独特视角的科学探索与人类存在的思考</t>
   </si>
   <si>
@@ -2682,6 +4058,48 @@
     <t>系统性地探讨了AI技术对选民行为和竞争性选举的影响，具备逻辑推演和批判性观点，具有较高的学术价值和社会观察意义</t>
   </si>
   <si>
+    <t>系统性地介绍了恒星死亡及其对宇宙化学的影响，具备科学知识普及价值和开阔视野的潜力</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，通过后末日地图反映当代美国的焦虑与现实，激发思考</t>
+  </si>
+  <si>
+    <t>探讨了人工智能对学生学习和作弊行为的影响，具备批判性观点和社会观察价值</t>
+  </si>
+  <si>
+    <t>具备独特视角的科学解释，涉及量子计算的前沿理论和潜在影响，能够激发思维和开阔眼界</t>
+  </si>
+  <si>
+    <t>系统性地整理了未来领导力发展的关键建议，具备独特视角的社会观察</t>
+  </si>
+  <si>
+    <t>系统性地整理了城市自动驾驶车辆对未来城市交通的影响，具备独特视角和逻辑推演价值</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨人们为何倾向于复杂化问题，激发思维</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨OpenAI内部的意识形态分歧及其对人工智能未来发展的影响</t>
+  </si>
+  <si>
+    <t>具备逻辑推演和哲学思考，探讨科学与现实真理的关系，激发思维</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，探讨文明与集体迷思的关系，激发思维</t>
+  </si>
+  <si>
+    <t>具备独特视角的电影艺术批评，系统梳理导演毕赣的创作历程与影像风格，激发对电影美学与观众接受度的思考</t>
+  </si>
+  <si>
+    <t>系统性地介绍了游戏《物华弥新》的文化内核与玩法，结合博物馆展品拟人化的独特视角，具备文化传播和游戏设计的综合价值</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，系统性地解析了美国国家安全战略中的比喻及其历史文化背景，激发对国际政治与神话象征的思考</t>
+  </si>
+  <si>
+    <t>文章具备独特视角的社会观察，探讨现代人对痛苦与生命意义的复杂态度，具有逻辑推演和批判性观点，能够激发思考。</t>
+  </si>
+  <si>
     <t>成功</t>
   </si>
   <si>
@@ -2778,6 +4196,48 @@
     <t>[愉悦身心: 20, 了解新知: 80, 开阔眼界: 65] 虽然文章包含大量选举技术细节（新知），也有跨国案例（眼界），但核心在于深入剖析AI如何介入选民偏好塑造与表达，并对民主合法性提出批判性反思。论证结构严密，聚焦技术与制度的张力，故以激发思维为主维度，分数极高。</t>
   </si>
   <si>
+    <t>[愉悦身心: 20, 开阔眼界: 55, 激发思维: 80] 本文以科学播客为基础，系统梳理了恒星死亡类型及其对宇宙化学结构的贡献，强调理论与观测的互动推动科学进步。虽然有一定思辨性，但以知识传递为核心，内容结构化且信息密度高，因此定调为了解新知。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 40, 了解新知: 70, 开阔眼界: 80] 文章以分析和批判为主，聚焦后末日作品中的虚构地图如何反映现实社会的分裂、焦虑与文化断层。通过梳理文学、影视、游戏等多种媒介的母题变奏，深入探讨了“巴尔干化”及其与现实政治、文化张力的映射关系。逻辑层次分明，强调自我审视与社会结构的底层逻辑，最契合‘激发思维’维度，得分最高。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 20, 开阔眼界: 45, 了解新知: 70] 文章以理性剖析为主，聚焦AI工具如何改变学生学习路径与作弊方式，深入探讨教育系统的激励机制、批判性思维的流失、专业知识的稀缺等底层逻辑，对思维方式和教育本质提出强烈反思，因此‘激发思维’为主维度，且深度极高。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 20, 开阔眼界: 40, 激发思维: 80] 文章以逻辑严密的分析风格，系统阐释了量子计算的原理及其对信息处理方式的根本性变革，内容以技术解析和知识科普为主，极大扩展了读者对前沿科技的认知，因此定调为 了解新知，并给予高分。激发思维维度也较高，但文章更突出的是对新技术原理和应用前景的清晰介绍。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 35, 开阔眼界: 60, 了解新知: 80] 文章以系统性视角深度剖析领导力发展困境与未来转型路径，强调AI时代的人类判断力、流程嵌入、共创机制和数据驱动等底层逻辑，对组织学习与管理创新提出了具有前瞻性的思辨。虽然兼具人文关怀，但以结构性批判与方法论创新为主，激发思维维度最为突出。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 20, 开阔眼界: 50, 了解新知: 75] 文章以逻辑严密的分析风格，系统性探讨robotaxi相较于私人自动驾驶车辆在城市交通效率、可持续性与社会公平方面的多维优势，并聚焦于政策设计对技术落地效果的决定性作用。其重点在于批判性思考和底层逻辑梳理，故主维度为激发思维，分数高因兼具理论深度与现实关照。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 30, 开阔眼界: 60, 了解新知: 70] 文章以批判性视角剖析人类为何倾向于复杂化问题，从心理学、商业合作到组织归属等多维度展开，逻辑严密，强调底层认知机制与社会结构的互动，极大激发读者反思日常决策与集体行为的惯性。虽然涉及部分新知与多元视角，但最突出的价值在于促发深度思考与批判性认知。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 15, 开阔眼界: 60, 了解新知: 75] 本文以深刻的批判性剖析了人工智能企业（OpenAI）内部的意识形态分歧、公司治理、权力结构及其对社会的外溢影响。虽然也涉及行业内幕和社会观察（Perspective、Knowledge），但核心是对AI行业话语权、道德叙事与现实利益博弈的底层逻辑梳理，因此以激发思维为主维度，分数极高。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 20, 开阔眼界: 50, 了解新知: 75] 文章以逻辑推演和案例分析为主，深入剖析科学理论的本质、演进机制及其与“绝对真理”的关系，强调科学的批判性与开放性，极大激发读者的哲学思考和方法论反思，因此以 激发思维 作为主维度，分数极高。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 20, 开阔眼界: 60, 了解新知: 75] 虽然文章有一定的历史纵深和科技知识介绍，但主线在于分析信息结构如何导致集体幻觉，逻辑性强、批判性突出，最能激发思考，故定调为激发思维并给出高分。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 40, 了解新知: 55, 开阔眼界: 60] 文章虽涉及影史梳理与跨文化致敬（Perspective, Knowledge），但核心聚焦于对毕赣电影方法论的深刻批判，剖析其“感官诗学”与元电影策略的局限，逻辑严密，启发读者反思影像与现实、符号与经验的关系，因此‘激发思维’为主维度，得分极高。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 50, 开阔眼界: 70, 了解新知: 85] 文章以严密的理论梳理和批判性分析为主，聚焦博物馆展品拟人化（MEA）在数字时代的演进、机制与文化意义。虽然包含丰富的知识和跨界案例，但其核心在于推动读者对“物性、本体论、文化传播机制”进行深度思考，因此定调为激发思维，得分极高。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 35, 了解新知: 65, 开阔眼界: 70] 文章以神话意象为切口，深入剖析美国大国角色的自我叙事变迁，既有历史纵深也有文化批判，层层递进地揭示了道德叙事、政治动员与国家焦虑之间的复杂逻辑关系。论证体系严密，极具思想穿透力，因此‘激发思维’为主维度，得分极高。</t>
+  </si>
+  <si>
+    <t>[愉悦身心: 30, 开阔眼界: 55, 了解新知: 65] 文章以哲学和社会理论为核心，剖析无痛死亡背后的现代性困境，聚焦结构性风险、虚无主义和技术加速等深层机制，逻辑严密，批判力强，是典型的激发思维型文本。</t>
+  </si>
+  <si>
     <t>日冕仪技术突破与外星地球成像路径</t>
   </si>
   <si>
@@ -2871,6 +4331,48 @@
     <t>AI技术对现代选举过程与民主合法性的影响</t>
   </si>
   <si>
+    <t>恒星死亡与星际介质化学演化</t>
+  </si>
+  <si>
+    <t>后末日叙事中的美国地缘分裂想象</t>
+  </si>
+  <si>
+    <t>AI工具对学生学习与作弊行为的影响</t>
+  </si>
+  <si>
+    <t>量子计算的多宇宙并行与信息逻辑变革</t>
+  </si>
+  <si>
+    <t>未来组织中的领导力发展系统变革</t>
+  </si>
+  <si>
+    <t>robotaxi模式对城市交通结构与公平性的影响</t>
+  </si>
+  <si>
+    <t>复杂性偏好与认知省力在决策与协作中的作用</t>
+  </si>
+  <si>
+    <t>人工智能企业内部意识形态分歧与权力结构</t>
+  </si>
+  <si>
+    <t>科学理论的近似性与真理观</t>
+  </si>
+  <si>
+    <t>信息传播结构与集体幻觉机制</t>
+  </si>
+  <si>
+    <t>元电影手法与感官诗学的失效批判</t>
+  </si>
+  <si>
+    <t>博物馆展品拟人化与数字文化传承</t>
+  </si>
+  <si>
+    <t>大国角色想象与全球责任的道德重构</t>
+  </si>
+  <si>
+    <t>无痛死亡愿望与现代生命意义危机</t>
+  </si>
+  <si>
     <t>系统解析日冕仪技术如何通过遮挡恒星强光以实现对暗淡系外行星的直接成像，梳理从哈勃到詹姆斯·韦伯、再到南希·格雷斯·罗曼空间望远镜的对比度提升路径，阐明衍射极限所构成的技术瓶颈及分段式日冕仪的突破方向，并介绍首个满足在轨测试条件的天然目标系统HIP 71618 B的发现意义，为未来宜居世界观测站探测生物特征奠定工程与观测基础。</t>
   </si>
   <si>
@@ -2964,6 +4466,48 @@
     <t>本文系统梳理了AI技术在现代西方选举中的介入路径，从偏好形成、表达到认同三个阶段，揭示其对选民行为和民主制度的深层影响。文章以美国和德国大选为例，具体分析了政党如何利用AI工具精准定向宣传、辅助选民决策，以及AI在虚假信息制造和选举公信力侵蚀上的风险。作者强调，AI不仅提升了选举效率与参与度，也加剧了操纵、偏见和外部干预，挑战了民主的核心合法性。针对技术发展快于制度规范的现实，文章呼吁加强算法透明、虚假信息治理与政治公共性的重建，以确保技术真正服务于民主价值。整体论证以批判性和结构化视角，聚焦AI与选举制度的复杂互动。</t>
   </si>
   <si>
+    <t>本篇内容深入解析了恒星死亡的多种方式及其对星际介质化学成分的深远影响。文章系统梳理了恒星如何通过超新星爆发、黑洞形成、行星状星云等过程，将新生成的原子、同位素和分子释放到宇宙中，成为后续恒星与行星形成的基础。随着观测技术进步，科学家不断在意想不到的环境中发现新的元素和分子，这些突破性发现挑战了传统理论模型，推动天体化学不断发展。文章聚焦于理论与观测之间的张力，展现了科学探索如何通过不断修正认知，拓展我们对宇宙化学演化的理解。</t>
+  </si>
+  <si>
+    <t>本篇文章聚焦于后末日类型作品中对美国地缘分裂的虚构想象，分析了文学、影视与游戏等媒介如何通过地图设定，映射现实社会的文化、种族与政治断层。文章梳理了瘟疫、核战、气候灾变等多重灾难设定下，美国被分裂为敌对碎片化实体的叙事母题，揭示“巴尔干化”作为对现实焦虑的象征。通过对《The Stand》《Station Eleven》《The Last of Us》《The Hunger Games》等作品的案例解析，文章指出这些虚构地图不仅是末日幻想，更是对美国民主实验脆弱性与社会重建可能性的深刻反思。后末日地图成为安全的文化试验场，让社会在想象中排演自身崩解与重塑的路径，促使读者重新思考分裂与希望的边界。</t>
+  </si>
+  <si>
+    <t>本文系统分析了AI大语言模型在学生学习与作弊行为中的双重作用。文章指出，AI工具极大简化了作业完成流程，使学生更易绕过自主思考，批判性思维与能力成长受到削弱。传统教育体系以分数为导向，早已激励学生追求表象成绩，AI的普及只是让这一趋势更隐蔽和普遍。作者强调，AI的最大风险并非自动化本身，而是让非专家用户容易被貌似合理的错误答案误导，导致真正的专业能力和判断力日益稀缺。文章呼吁，真正的成长需主动投入学习、技能积累与专家指导，拒绝依赖AI捷径，否则人类将沦为“黑箱”技术的被动接受者，失去独立辨识与创新能力。</t>
+  </si>
+  <si>
+    <t>本篇文章深入解析了量子计算的核心原理——量子叠加与多宇宙并行计算，强调其区别于传统数字计算机的线性处理方式。通过在原子层面进行信息处理，量子计算机能够在多个并行态下同时运行，从而实现远超经典计算机的运算速度与复杂性。这种技术突破不仅仅是硬件升级，更是对信息处理逻辑和认知方式的彻底重塑。文章系统梳理了量子计算在全球安全、药物开发、材料科学等领域的革命性应用前景，展示了其对技术边界和人类认知的深远影响。整体内容结构化清晰，适合对前沿科技和信息理论感兴趣的读者。</t>
+  </si>
+  <si>
+    <t>文章围绕未来组织中领导力发展的系统性变革展开，指出传统以课程和内容为主的领导力培养模式已难以满足现实需求。核心主张是将领导力发展与企业战略（如AI转型、运营效率）紧密结合，并将领导力原则深度嵌入招聘、绩效、晋升等关键流程。强调在AI普及背景下，领导者不仅要管理人，还要善于判断AI的合理应用场景，凸显人类判断力不可替代的价值。同时，提出领导力项目需由领导者共创设计，关注其情感支持和身份转变，提升归属感。最后，倡导建立以数据为基础的绩效测量与反馈机制，实现持续改进。整体聚焦于组织如何通过流程、协作与技术创新，塑造更具适应性和人性化的领导力发展体系。</t>
+  </si>
+  <si>
+    <t>本文深入剖析了robotaxi（机器人出租车）作为城市交通系统重构的关键路径，强调其在提升基础设施利用率、减少停车需求、促进技术快速迭代和优化出行公平性等方面的独特优势。文章不仅讨论了robotaxi对城市空间、交通流和社会成本的积极影响，还指出这些潜力能否实现，取决于定价机制、土地政策、与公共交通的协同以及监管框架的精细设计。通过对比私人自动驾驶汽车和robotaxi两种模式，作者提出，robotaxi的推广不仅是技术升级，更是城市治理和社会公平的再设计。最终，robotaxi能否成为更智慧、更公平城市出行的基石，关键在于政策是否真正服务于公共利益。</t>
+  </si>
+  <si>
+    <t>本文聚焦于人类在面对问题时为何本能地偏向复杂化解决方案，剖析了这种倾向背后的认知机制与社会文化惯性。通过心理学研究，文章指出选择省力思考路径并非懒惰，而是深层次的认知策略，挑战了传统教育对“努力”的美德化。商业案例进一步揭示，合作失败往往源于性格与协作能力的不互补，而非表面的战略分歧。组织归属感的重建也被归因于集体行动与领导力的分布，而非自上而下的赋予。整体上，文章以批判性与现实关怀，促使读者反思在学习、工作和团队协作中，复杂性为何如此具有诱惑力，以及如何识别并回归简单有效的解决路径。</t>
+  </si>
+  <si>
+    <t>文章深入剖析了人工智能公司内部围绕技术发展方向、治理模式与社会责任展开的意识形态分歧，聚焦于以OpenAI为代表的企业如何在“造福人类”与逐利扩张之间进行抉择。分析指出，企业通过塑造公益使命与“救世”叙事，既作为真实信仰，也成为强有力的市场策略，为自身的快速扩张和高度集权提供正当性。文章还揭示了“技术乐观派”与“末日论者”两大阵营如何在内部争夺话语权，并批判这种二元对立掩盖了AI对环境、经济和社会结构带来的实际风险。作者强调，面对企业愈发封闭和政府背书的产业扩张，来自公众、法律和社会组织的多元反制力量正在崛起，推动对AI行业权力结构的重新审视和民主化诉求。</t>
+  </si>
+  <si>
+    <t>本篇文章围绕科学理论的本质展开，强调科学并非揭示现实的绝对真理，而是不断修正和逼近真实的最佳近似。通过地球形状、牛顿力学与广义相对论等物理学案例，文章指出科学理论始终有其适用范围和精度限制。理论的进步依赖于实验和观测的反复检验，旧有理论在新条件下失效，促使更优理论的诞生。科学的“错误”不是失败，而是通向更深理解的必经之路。文章强调，科学的本质在于持续开放、批判与修正，任何理论都只是现阶段对现实的最优描述，而非终极答案。这一视角促使我们反思科学方法的局限与力量，理解知识的暂时性和动态演化。</t>
+  </si>
+  <si>
+    <t>文章深刻剖析了知识积累与社会认知之间的悖论，强调信息传播结构如何影响集体信念的塑造。从泥板文书到全球媒体再到人工智能时代，信息载体的变迁不仅没有消除社会对虚假叙事和集体幻觉的易感性，反而在技术推动下加剧了认知偏差的规模与影响力。尤其在AI高度发达的当下，虚假信息的扩散速度和影响力前所未有，社会更容易被故事和叙事操控。文章呼吁关注信息生态系统的健康，强调理性和批判性思维在抵御技术驱动的集体误导中的重要作用。这一讨论为理解现代社会的认知机制和风险提供了清晰的逻辑框架。</t>
+  </si>
+  <si>
+    <t>本文以一部新锐导演的电影为切口，深入剖析了“感官诗学”与元电影手法在当代影像创作中的困境。文章指出，尽管影片试图通过复杂结构和多感官主题致敬电影史，却因人物与感官体验沦为符号化操作，缺乏真实的主体经验和情感共鸣，从而丧失了艺术的生命力。作者批判了导演对私人符号的自我循环与对性别议题的表面化处理，认为这反映出创作重心由现实探问转向自恋，导致影像系统的自我封闭。文章强调，真正有力的元电影应具备自反性和对现实的深刻追问，而非仅止于形式拼贴与技术炫技。这一分析不仅揭示了当代艺术电影创作的风险，也激发了对影像本体、观众体验及符号生产机制的再思考。</t>
+  </si>
+  <si>
+    <t>文章以数字游戏《物华弥新》为切入点，系统分析了博物馆展品拟人化（MEA）如何借助虚拟交互、AI技术和多重叙事，推动文化遗产从静态展示走向具身体验和社会参与。通过梳理珍奇柜、现代博物馆到数字博物馆的演变，论证了展品人格化对知识传播、遗产责任和观众主体性的深远影响。器物拟人不仅实现了泛灵论的数字实践，还通过三次拟像改写和历史重演，重塑了文物的本体意义与多感官体验。文章强调，数字媒介下的MEA是文化传承与创新的关键机制，既回应了传统与现代的张力，也为物导向的社会参与艺术提供了理论框架和实践案例。</t>
+  </si>
+  <si>
+    <t>本文以阿特拉斯神话意象为线索，追溯美国自我角色想象从主动承担全球责任的“英雄”到疲惫、抗拒的“提坦”转变的深层逻辑。文章不仅比较了美英两国在全球责任与相对衰落间的应对策略，还深入剖析了安·兰德小说对美国保守主义和精英文化的影响，特别是“创造者罢工”背后的个人主义与纠偏正义观。通过分析国家安全战略、文学作品与现实政治的互动，文章揭示了卸下全球责任的道德正当性如何重塑美国的内外政策想象，并指出“焦虑”既是美国调整自我定位的动力，也是其身份认同的核心张力。整体结构紧凑，逻辑清晰，适合关注大国角色、道德叙事与权力结构变迁的读者。</t>
+  </si>
+  <si>
+    <t>本文以当代人对“无痛死亡”渴望为切口，深刻分析了现代社会如何通过技术、制度和价值观的变迁，剥夺了生命的宏大意义。文章批判了健康管理、量化自我等实践如何将痛苦视为亟需消除的风险，却忽略了痛苦作为生命边界和意义警示的功能。福柯的生命政治、尼采的虚无主义、贝克的风险社会理论等被用以揭示：在公共叙事崩塌、社会结构流动、个体被抽象系统支配的背景下，无痛的追求实为对失控与虚无的无力回应。作者强调，唯有通过主动反思、慢记录和前置规划，个体才能重建行动力与终老的尊严，超越对“无痛终结”的单一诉求，重新赋予生命终点以意义。</t>
+  </si>
+  <si>
     <t>['天体物理学', '空间望远镜', '系外行星探测', '日冕仪技术', '天文工程']</t>
   </si>
   <si>
@@ -3057,6 +4601,48 @@
     <t>['AI选举', '民主合法性', '政治传播', '算法治理', '虚假信息']</t>
   </si>
   <si>
+    <t>['天体化学', '恒星演化', '宇宙化学', '科学前沿']</t>
+  </si>
+  <si>
+    <t>['后末日叙事', '地缘分裂', '文化批判', '社会结构', '虚构地图']</t>
+  </si>
+  <si>
+    <t>['教育变革', '人工智能', '批判性思维', '学术诚信']</t>
+  </si>
+  <si>
+    <t>['量子计算', '信息逻辑', '前沿科技', '多宇宙理论', '技术变革']</t>
+  </si>
+  <si>
+    <t>['组织变革', '领导力发展', 'AI与管理', '系统思维', '企业学习']</t>
+  </si>
+  <si>
+    <t>['城市交通', '自动驾驶', '政策设计', '社会公平', '基础设施管理']</t>
+  </si>
+  <si>
+    <t>['认知心理学', '复杂性偏好', '团队协作', '组织管理', '思维误区']</t>
+  </si>
+  <si>
+    <t>['人工智能伦理', '科技公司治理', '意识形态分歧', '权力结构', '社会批判']</t>
+  </si>
+  <si>
+    <t>['科学哲学', '理论演进', '真理观', '批判性思维']</t>
+  </si>
+  <si>
+    <t>['信息传播', '认知偏差', '人工智能', '集体幻觉', '批判性思维']</t>
+  </si>
+  <si>
+    <t>['电影批评', '元电影', '感官诗学', '符号学', '主体经验']</t>
+  </si>
+  <si>
+    <t>['数字博物馆', '文化遗产', '器物拟人', '历史重演', '多感官体验']</t>
+  </si>
+  <si>
+    <t>['国家角色', '道德叙事', '大国衰落', '个人主义', '文化批判']</t>
+  </si>
+  <si>
+    <t>['死亡哲学', '现代性批判', '虚无主义', '技术社会', '老年与终老', '生命意义']</t>
+  </si>
+  <si>
     <t>了解新知</t>
   </si>
   <si>
@@ -3126,6 +4712,30 @@
     <t>[{'title': '民主的经济理论', 'author': 'Anthony Downs', 'context': '用于分析AI如何提升选举效率与民主质量，理性选择理论框架。'}, {'title': '民主的资本主义', 'author': 'Joseph Schumpeter', 'context': '将竞争性选举视为现代民主的程序性定义，讨论选举制度本质。'}]</t>
   </si>
   <si>
+    <t>[{'title': 'The Scarlet Plague', 'author': 'Jack London', 'context': '瘟疫毁灭后的人类社会，影响了后续同类小说。'}, {'title': 'Earth Abides', 'author': 'George R. Stewart', 'context': '确立了主角横跨废墟美国、重建文明的叙事模板。'}, {'title': 'The Stand', 'author': 'Stephen King', 'context': '瘟疫后的美国分裂与求生之旅。'}, {'title': 'Station Eleven', 'author': 'Emily St John Mandel', 'context': '瘟疫后文明重构。'}, {'title': 'The Walking Dead', 'author': 'Robert Kirkman 等', 'context': '僵尸末世下的美国碎片化社会。'}, {'title': 'The Last of Us', 'author': 'Naughty Dog', 'context': '真菌灾变后的美国，展现多重社会断裂。'}, {'title': 'The Postman', 'author': 'David Brin', 'context': '核战后美国重建。'}, {'title': 'One Second After', 'author': 'William R. Forstchen', 'context': 'EMP灾难后的美国。'}, {'title': 'The Drowned World', 'author': 'J.G. Ballard', 'context': '气候灾变导致纽约半淹没。'}, {'title': 'DMZ', 'author': 'Brian Wood', 'context': '第二次美国内战背景下的纽约。'}, {'title': 'The Hunger Games', 'author': 'Suzanne Collins', 'context': '泛美国度的分区与极权。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Why Does Thinking Feel So Hard?', 'author': 'Carl Hendrick', 'context': '探讨复杂思维与认知省力的心理学机制，分析人们为何本能选择简单路径。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': 'Empire of AI', 'author': 'Karen Hao', 'context': '以260余次访谈为基础，系统分析OpenAI的内部文化、意识形态分裂及其全球影响。'}, {'title': 'If Anyone Builds It, Everyone Dies?', 'author': 'Eliezer Yudkowsky 等', 'context': '代表AI领域的“末日论”观点，被批判为加剧行业话语极化、掩盖实际社会风险。'}, {'title': 'Dune', 'author': 'Frank Herbert', 'context': '被引用为理解AI神话建构与信仰体系的类比工具。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '科学革命的结构', 'author': '托马斯·库恩', 'context': '探讨科学理论如何通过范式转变不断演进，契合科学真理的暂时性主题。'}, {'title': '物理世界的本性', 'author': '理查德·费曼', 'context': '以通俗方式讲解科学理论的近似性和实验验证的重要性。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '八部半', 'author': '费德里科·费里尼', 'context': '作为元电影经典，被用来对照毕赣作品在自反性和现实/影像界限处理上的差异。'}, {'title': '趣味游戏', 'author': '迈克尔·哈内克', 'context': '以其元电影自反性著称，分析毕赣未能让观众反思影像与现实关系。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '参与式博物馆：迈入博物馆2.0时代', 'author': '妮娜·西蒙', 'context': '探讨博物馆从神庙模式向广场模式的参与式转型，是MEA理论的重要支撑。'}, {'title': '消费历史:历史学家与当代大众文化中的遗产', 'author': '杰罗姆·德·格鲁特', 'context': '分析历史重演、文化遗产与大众媒介的互动，为游戏中的历史模拟与叙事提供理论视角。'}, {'title': 'The Surviving Image', 'author': 'Georges Didi Huberman', 'context': '关于拟像考古学与影像的多重历史叙事，为器物拟人化的形象构建提供理论基础。'}, {'title': 'Contemporary Narrative and the Spectrum of Materiality', 'author': 'Marco Caracciolo', 'context': '探讨叙事与物质性的关系，适用于分析文物拟人化叙事策略。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '阿特拉斯耸耸肩', 'author': '安·兰德', 'context': '小说通过‘创造者罢工’重新定义个人主义与责任，深刻影响美国保守主义和精英文化。'}, {'title': '疲惫的提坦：英国与相对衰落的经验，1895–1905', 'author': '亚伦·弗里德伯格', 'context': '以英国帝国历史为镜鉴，分析大国衰落与全球责任的张力。'}, {'title': '神谱', 'author': '赫西俄德', 'context': '阿特拉斯的原始神话形象，强调被动受罚和疲惫。'}, {'title': '书库', 'author': '阿波罗多洛斯', 'context': '记载阿特拉斯与赫拉克勒斯的神话故事，展现其被动性。'}]</t>
+  </si>
+  <si>
+    <t>[{'title': '生命政治', 'author': '米歇尔·福柯', 'context': '分析现代社会如何将死亡从神圣终点转化为可管理的技术问题，生命意义被权力结构重塑。'}, {'title': '权力意志', 'author': '尼采', 'context': '批判现代社会价值基石的崩塌与虚无主义蔓延，映射无痛终结背后的意义危机。'}, {'title': '人的境况', 'author': '汉娜·阿伦特', 'context': '指出现代社会对创造性行动力的压缩，导致个体难以重建生命意义。'}, {'title': '风险社会', 'author': '乌尔里希·贝克', 'context': '分析现代化带来的系统性风险及其对未来感和生命意义的侵蚀。'}, {'title': '液态现代性', 'author': '齐格蒙特·鲍曼', 'context': '描述社会结构流动性和个体稳定性丧失，映射无痛愿望的社会心理根源。'}, {'title': '现代性的后果', 'author': '安东尼·吉登斯', 'context': '强调抽象系统对个体判断与生活的支配，个体难以凭经验把握未来。'}, {'title': '社会加速', 'author': '哈特穆特·罗萨', 'context': '论述技术和生活节奏加速如何压缩体验与意义反思空间，降低痛苦忍耐阈值。'}]</t>
+  </si>
+  <si>
     <t>{"title": "New discovery sets humanity up to image “alien Earth”", "summary_long": "人类长期以来都在探索宇宙中是否存在其他生命。尽管我们已经确认了许多恒星拥有行星，且其中一些是地球大小并由相似物质构成，但生命的存在仍是未解之谜。为了寻找地外生命，未来的NASA旗舰任务“宜居世界观测站”（Habitable Worlds Observatory）旨在直接成像类地行星，探测其生物特征。这项宏伟目标能否实现，关键在于日冕仪技术的进步。\n\n日冕仪的原理类似于日全食：通过遮挡恒星的强光，来揭示其周围暗淡的特征。20世纪，望远镜开始使用日冕仪，但真正的革命始于哈勃空间望远镜（Hubble Space Telescope），它首次揭示了围绕其他恒星的碎片盘、原行星盘乃至行星。然而，哈勃的日冕仪对比度仅为10^-3，只能观测到最亮、距离最远、角分离最大的特征。\n\n詹姆斯·韦伯空间望远镜（JWST）的下一代日冕仪将对比度提升了近100倍，达到10^-5，使其能探测到更精细的盘结构、木星甚至海王星大小的行星。但即便如此，JWST主要在红外波段工作，且其对比度仍远不足以直接成像类地行星（需要10^-10或更高）及其在可见光波段的特征。这是因为行星比恒星暗淡得多，且更靠近恒星的小行星最难成像。\n\n日冕仪面临的一个基本挑战是光的干涉和衍射效应，这限制了简单圆盘式日冕仪的对比度上限约为10^-6。为了突破这一限制，科学家们正在开发分段式日冕仪设计。NASA的下一艘旗舰任务“南希·格雷斯·罗曼空间望远镜”（Nancy Grace Roman Space Telescope）将搭载最先进的日冕仪，预计能将对比度提升至10^-7甚至10^-9，向成像“外星地球”迈出巨大一步。\n\n然而，罗曼望远镜的日冕仪在实际空间环境中能否达到预期性能，需要一个合适的测试目标。这个目标需要满足特定条件：主星与次级天体之间有合适的角分离（0.15″至0.45″）、次级天体亮度不高于主星的千万分之一（10^-7），且在可见光波段可观测。最近，科学家们首次发现了一个完全符合这些参数的自然天体系统：HIP 71618 B。\n\nHIP 71618 B是一个褐矮星，围绕着比太阳更大、更亮、更年轻的恒星33 Boötes（HIP 71618）运行。通过结合天体测量学（使用Hipparcos和Gaia卫星数据）、地面望远镜（如Keck天文台和Subaru日冕仪极端自适应光学系统SCExAO）的红外成像数据，研究人员确认了HIP 71618 B的轨道和特性。该系统在罗曼望远镜预计进行日冕仪测试时（2027年上半年），其分离度将恰好处于测试的最佳范围（0.25″至0.27″）。\n\n尽管发现褐矮星本身并非突破性，但找到一个能完美验证罗曼日冕仪技术、并为未来成像类地行星铺平道路的系统，具有革命性意义。正如该发现研究的首席作者Mona El Morsy所说，HIP 71618系统为技术演示提供了所需的一切。这一发现是人类利用多方观测站（如Hipparcos, Gaia, Keck, Subaru, Hubble, JWST, Roman）和累积技术专长，逐步接近回答“我们是否孤独？”这一宇宙最大存在问题的重要里程碑。", "key_arguments": ["直接成像类地系外行星以探测生物特征是人类探索宇宙的核心目标，而日冕仪技术是实现这一目标的关键。", "日冕仪技术从哈勃到JWST取得了显著进步，但受限于光的衍射效应和对可见光波段高对比度的需求，需要南希·格雷斯·罗曼空间望远镜搭载的分段式日冕仪等更先进设计来突破。", "新发现的HIP 71618 B褐矮星系统是第一个满足所有必要参数的自然天体目标，将作为南希·格雷斯·罗曼空间望远镜日冕仪的关键在轨测试对象，以验证成像“外星地球”所需的技术能力。"], "mentioned_resources": ["Habitable Worlds Observatory (NASA任务) - #1排名未来NASA任务，目标是直接成像类地行星并探测生物特征。", "Hipparcos (卫星) - 20世纪用于测量恒星精确位置和运动。", "Gaia (卫星) - 21世纪用于测量超过十亿颗恒星的精确位置和运动。", "Hubble Space Telescope (哈勃空间望远镜) - 搭载日冕仪，首次直接成像系外行星和盘状结构，对比度约10^-3。", "James Webb Space Telescope (JWST) - 下一代日冕仪，对比度提升至10^-5，主要在红外波段工作，能探测更精细的盘结构和较小行星。", "Nancy Grace Roman Space Telescope (南希·格雷斯·罗曼空间望远镜) - NASA的下一艘旗舰任务，搭载最先进的分段式日冕仪，目标对比度10^-7至10^-9，用于测试成像类地行星的技术。", "Keck Observatory (凯克天文台) - 地基望远镜，用于获取HIP 71618 B的成像数据。", "Subaru Coronagraphic Extreme Adaptive Optics (SCExAO) system (斯巴鲁日冕仪极端自适应光学系统) - 地基仪器，与凯克天文台数据结合用于揭示HIP 71618 B的特性。", "HIP 71618 B (褐矮星) - 新发现的褐矮星，围绕33 Boötes运行，是罗曼望远镜日冕仪的理想测试目标。", "33 Boötes (HIP 71618) (恒星) - HIP 71618 B的宿主星，比太阳更大、更亮、更年轻。", "HIP 54515 B (超级木星系外行星) - 2025年发现的系外行星，通过天体测量学发现的第三颗此类行星。", "Vega (织女星) - 示例星，其碎片盘被哈勃和JWST成像。", "Fomalhaut (北落师门系统) - 示例星系，其内部结构和中间带被JWST、ALMA和哈勃揭示。", "Alpha Centauri (半人马座α星) - 假设的太阳位置，用于说明宜居世界观测站的成像能力。", "Thayne Currie (天文学家) - 领导团队通过天体测量学和地面后续观测发现巨行星。", "Mona El Morsy (研究首席作者) - 引用其对HIP 71618系统重要性的评论。"], "keywords": ["系外行星", "生物特征", "日冕仪", "直接成像", "宜居世界观测站", "南希·格雷斯·罗曼空间望远镜", "HIP 71618 B", "褐矮星", "天体测量学", "对比度 (日冕仪)", "衍射", "分段式日冕仪", "光学波段", "红外波段", "空间望远镜", "地外生命"], "style_tone": "热情洋溢、信息丰富、展望未来且技术解释严谨。"}</t>
   </si>
   <si>
@@ -3219,6 +4829,48 @@
     <t>{"title": "从2024年美国大选到2025年德国大选，AI技术如何影响选民行为", "summary_long": "文章指出，当代西方竞争性选举已全面进入数智时代，AI技术从选举组织到政治传播深度重塑选举生态。作者基于伊斯顿的政治系统理论，将选举行为划分为偏好形成、偏好表达与偏好认同三个阶段，结合2024年美国大选与2025年德国大选实例，分析AI的双重作用：既提升效率与参与，又带来操纵、偏见与合法性危机。\n\n在偏好形成阶段，政党利用AI精准分析选民数据并定制宣传策略，如德国联盟党（CDU/CSU）挖掘社交数据、社民党（SPD）投放程序化广告，美国民主党支持的“Sterling Data”优化选民数据流程，共和党则使用“政客聊天机器人”拉近与选民关系。但AI也助长虚假信息传播：德国选择党（AfD）利用AI生成怀旧与恐惧情绪交织的视频，美国特朗普支持者则伪造其与非裔互动的图像；更有外国势力借AI模拟德媒风格干预德国大选，散布针对绿党候选人哈贝克与贝尔博克的不实指控。\n\n在偏好表达阶段，AI工具如剑桥团队开发的Wahl.chat和Wahl-O-Mat帮助德国选民理解政党纲领，但其算法隐含价值偏向，如弗莱堡大主教区的“选举指南针”偏袒社民党，忽视其与天主教教义的冲突。美国则将AI用于选民登记（ERIC系统）、选民咨询（聊天机器人）和签名验证，提升选举效率；但AI亦被滥用于压制投票，如新罕布什尔州初选中AI冒充拜登劝退选民。\n\n在偏好认同阶段，AI削弱选举结果公信力。近半数美国人担忧AI虚假信息影响2024大选，三分之一因此降低信任。尽管2024年大选结果未引发大规模争议，但特朗普持续否认过往败选，侵蚀民主合法性。在德国，AI伪造视频声称选择党候选人被排除在选票外或选票被销毁，虽被辟谣，仍动摇公众信任；左翼民粹政党BSW因0.03%之差未达5%门槛，质疑邮寄选票发放不公，挑战选举有效性。\n\n结语指出，AI已超越工具层面，深入民主制度肌理。其“双刃剑”特性要求制度规范（如算法透明、虚假信息治理）与民情重建并重——唯有让技术服务于民主核心价值与具体民情，才能保障选举功能正常运转。", "key_arguments": ["AI技术通过赋能选举组织与政治传播，提升效率与参与，但其非中立性也加剧操纵、偏见与外部干预，威胁选举公正与民主合法性。", "在选民偏好形成、表达与认同三阶段，AI分别表现为认知塑造工具、决策辅助与权利保障手段、以及合法性侵蚀因子，其影响贯穿选举全过程。", "制度规范滞后于技术发展，需通过算法透明化、虚假信息治理与重建政治公共性，实现技术、制度与民情的适配，以捍卫民主核心价值。"], "mentioned_resources": ["《民主的经济理论》(Anthony Downs) - 作为理性选择理论框架，用于分析AI如何提升选举效率与民主质量。", "《民主的资本主义》(Joseph Schumpeter) - 将竞争性选举视为现代民主的程序性定义。", "大卫·伊斯顿（David Easton）的政治系统理论 - 用于构建选举行为的三阶段分析框架（输入-过程-输出-反馈）。", "Giovanni Sartori 的政党理论 - 强调政党不仅是利益聚合工具，更是主动塑造选民偏好的政治行动者。"], "keywords": ["生成式AI", "政治极化", "deepfakes", "算法偏见", "选举合法性", "选民压制", "政治系统理论", "民情"], "style_tone": "逻辑严密的分析风格，兼具批判性与政策导向"}</t>
   </si>
   <si>
+    <t>{"title": "Starts With A Bang podcast #124 – Astrochemistry", "summary_long": "本期《Starts With A Bang》播客聚焦于宇宙中的恒星死亡及其对星际介质的化学影响。文章首先梳理了恒星死亡的多种方式——包括直接坍缩为黑洞、核心坍缩超新星、潮汐灾变、被更大恒星吞并，以及像太阳那样通过行星状星云温和地死亡，最终形成白矮星。作者强调，无论哪种死亡方式，恒星都在宇宙中贡献了新的原子、同位素甚至分子，为后续的恒星形成提供原材料。\n\n过去，科学家对某些粒子种类的形成地点和存在环境做了许多假设，认为某些元素或分子只能在特定环境下出现。然而，随着望远镜和技术进步，观测结果常常打破这些预期。例如，科学家在意想不到的地方发现了元素，或在理论认为无法支持分子的环境中发现了分子。这些发现促使理论模型不断修正和完善。\n\n本期播客邀请了天体化学家、博士生Kate Gold，探讨了理论与观测不符时所带来的科学突破。作者认为，这种『预期与现实的偏差』正是科学最激动人心的领域，因为它推动着我们重新思考宇宙的化学演化和恒星死亡的深远影响。文章鼓励读者收听播客，以深入了解这些前沿话题，并体验一场独特的科学对话。", "key_arguments": ["恒星死亡的多样性为宇宙星际介质贡献了丰富的化学成分，包括原子、同位素和分子。", "科学界对粒子形成和分子存在环境的传统假设，常被新观测结果所挑战，推动理论模型更新。", "理论与观测不符的领域是天体化学研究的前沿，能带来新的科学突破和理解。"], "mentioned_resources": ["Starts With A Bang podcast #124 – Astrochemistry (Big Think, 主持人 Ethan Siegel，嘉宾 Kate Gold) - 探讨恒星死亡与星际化学的最新发现与理论挑战。"], "keywords": ["恒星死亡", "星际介质", "天体化学", "元素合成", "分子形成", "理论与观测偏差", "核心坍缩超新星", "白矮星", "行星状星云"], "style_tone": "逻辑严密的科学分析风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "America’s post-apocalyptic maps reveal eerily familiar fault lines", "summary_long": "文章以“美国已终结，但美利坚仍在”作为引子，探讨了美国后末日（post-apocalyptic）类型作品中的地图如何反映现实社会的焦虑与分裂。作者指出，这一类型并非单纯对未来的幻想，而是当下美国社会自我审视的镜像，映射出对民主实验脆弱性的担忧，以及世俗进步与宗教千禧年主义之间的张力。\n\n文章梳理了后末日文学的起源与发展，早期如Jack London的《The Scarlet Plague》（1912）描绘瘟疫过后人类文明的退化，进而影响了George R. Stewart的《Earth Abides》（1949），确立了主角横跨荒芜美国、在废墟中重建文明的叙事模板。这一模板被Stephen King的《The Stand》（1978）、Emily St John Mandel的《Station Eleven》（2014）、《The Walking Dead》系列及游戏《The Last of Us》等广泛继承和变奏。\n\n除瘟疫外，后末日美国的设定还包括核战（如《The Postman》）、外星入侵（《Half Life 2》）、电磁脉冲（《One Second After》）、气候灾变（J.G. Ballard的《The Drowned World》）、内战（《DMZ》漫画）等。无论灾难起因如何，最具共性的母题是“巴尔干化”：美国分裂为多个敌对的地缘碎片，如宗教共和国、种族国家、部落区、无政府地带等。这些设定往往对应现实中的文化、种族、政治断层。\n\n文章重点分析了多幅虚构地图，如Gordon-Michael Scallion的《Future Map of North America》（1996），描绘地壳剧变后美国物理分裂；“Divided States of America”地图则将美国划分为摩门教共和国、自由主义者的Cascadia、非裔美国人和墨裔美国人国家、德克萨斯独立国等，反映现实中的身份与意识形态分歧。Douglas Coupland在2092年的设想中，创造了如Cascadia、Dixie、Texlahoma等新政体，并加入了如“Shrine of Tupelo”与“Disney National Memory Storage Facility”等文化意象。\n\n《The Hunger Games》系列则以泛美（Panem）为背景，通过12区与首都的对立，隐喻联邦政府与被剥削地区的关系。现实中“红蓝分裂”已有人提出按部落划分美国，甚至借鉴联合国1947年巴以分治方案，设想美国分为两个相连但独立的红蓝国家。\n\n影视作品如2024年电影《Civil War》刻意模糊政治立场，将德州与加州归为同一阵营，强调联邦政府被分裂势力击垮的震撼。《The Last of Us》则展现了极权联邦残余与反抗军Fireflies的对抗，社会秩序崩溃下的多元暴力与道德沦丧。\n\n作者总结道，这些地图虽描绘分裂、暴政与无序，但总保留着对“美好旧日”的怀念与希望，暗示即使一切崩坏，仍有社会善意与重建的可能。后末日地图成为美国在安全的虚构空间中排演自身崩解的方式，提醒人们珍惜当下的价值，并相信即使最坏的未来，也有希望的火花。", "key_arguments": ["美国后末日类型作品通过虚构地图反映现实社会的分裂与焦虑，是对当下美国脆弱性的自我审视。", "“巴尔干化”是后末日叙事的核心母题，灾难后的美国总被设想为多元、敌对、碎片化的地缘实体，这些设定对应现实中的文化、种族、政治断层。", "尽管描绘灾难与分裂，这一类型作品始终保留对美国社会善意与重建希望的信念，成为珍惜现实与自我反思的文化练习。"], "mentioned_resources": ["《The Scarlet Plague》（Jack London）- 1912年作品，设定于瘟疫毁灭后的人类社会，影响了后续同类小说。", "《Earth Abides》（George R. Stewart）- 1949年作品，确立了主角横跨废墟美国、重建文明的叙事模板。", "《The Stand》（Stephen King）- 1978年作品，瘟疫后的美国分裂与求生之旅。", "《Station Eleven》（Emily St John Mandel）- 2014年作品，瘟疫后文明重构。", "《The Walking Dead》- 漫画及影视系列，僵尸末世下的美国碎片化社会。", "《The Last of Us》- 游戏及2023年剧集，真菌灾变后的美国，展现多重社会断裂。", "《The Postman》（David Brin）- 1985年小说及1997年电影，核战后美国重建。", "《Half Life 2》- 2004年游戏，外星统治下的末日社会。", "《One Second After》（William R. Forstchen）- 2009年小说，EMP灾难后的美国。", "《The Drowned World》（J.G. Ballard）- 1962年小说，气候灾变导致纽约半淹没。", "《DMZ》- 2005-2012年漫画，第二次美国内战背景下的纽约。", "《Future Map of North America》（Gordon-Michael Scallion）- 1996年虚构地图，描绘地壳剧变后美国地理分裂。", "《The Hunger Games》（Suzanne Collins）- 2008-2010年系列小说，泛美国度的分区与极权。", "《Civil War》（2024年电影）- 虚构美国内战，强调政治分裂与联邦崩溃。", "2092年北美地图（Douglas Coupland）- 1992年设想，创造多个新政体和文化象征。"], "keywords": ["后末日地图", "巴尔干化", "美国分裂", "地缘断层", "文化焦虑", "民主实验", "宗教千禧年主义", "虚构地理", "政治编码", "社会重建"], "style_tone": "逻辑严密的分析风格，兼具文化批判与历史反思"}</t>
+  </si>
+  <si>
+    <t>{"title": "Ask Ethan: How does AI impact students and cheating?", "summary_long": "文章围绕AI（尤其是大语言模型LLMs，如Claude、Gemini、ChatGPT、Llama等）对学生学习与作弊行为的影响展开。作者首先指出，LLMs已成为全球数亿人日常使用的工具，既带来了新的问题解决途径，也诱发了学生和初级专业人士“伪装专业能力”的新陷阱。当前教育界的担忧在于，学生们不是用AI辅助学习，而是直接用它取代自身的思考，将原本需要投入时间与努力的批判性思维外包给机器，从而削弱了自身的智力成长。\n\n作者强调，学习的真正目标并非“得出正确答案”，而是获得对知识的深刻理解，进而实现对学科的掌握。这一过程需要持续的时间、精力和努力，必须通过反复阅读、练习、思考和应对挫折来扩展“心智工具箱”。专家与新手的根本差异在于前者通过长期锻炼，积累了多样化的解决问题的方法和思维模式。\n\n文章指出，作弊并非AI时代独有。在AI普及前，学生们就已通过计算器、MatLab、Maple、Mathematica等工具，或查找网络答案来完成作业。教育系统本身以“作业表现”作为能力的代理指标，导致学生更倾向于追求分数而非真正的能力成长。AI的普及只是让作弊变得更容易、隐蔽和普遍。\n\n作者进一步分析，AI带来的最大风险并非简单的任务自动化，而是：1）非专家用户容易被AI生成的貌似合理但实则错误的答案误导，2）真正的专业知识和批判性思维变得更加稀缺。文章引用了最新研究：即便LLMs已被训练过牛顿力学，但在重建引力定律等基础科学问题时，仍无法得出正确结论，显示出LLMs本质是“模式匹配”而非真正理解。\n\n面对这一困境，作者提出个人层面的对策：学生应专注于技能和知识的积累，而非成绩；主动投入解决问题、阅读与思考，避免捷径；寻求真实的专家指导，并在学习过程中拥抱困难与挣扎。作者警示，如果没有真正的专业能力，人类将沦为“黑箱”机器的奴隶，无法辨别真伪，完全依赖无法理解的技术。\n\n文章最后呼吁，心智的成长和能力的积累是人生中最宝贵、无法被剥夺的财富。不要因追求短期成绩而错失终身受益的成长机会。", "key_arguments": ["LLMs等AI工具已极大便利了学生作弊，使其可以轻易绕过学习过程，削弱了批判性思维和能力成长。", "作弊问题并非AI独有，教育系统以作业表现为唯一指标，长期激励了学生追求分数而非知识本身。", "AI的最大风险在于误导非专家群体，导致真正的专业知识和批判性思维的稀缺化。", "个人成长的唯一可靠路径是主动投入学习、技能积累和专家指导，避免依赖AI捷径。"], "mentioned_resources": ["Claude、Gemini、ChatGPT、Llama（AI大语言模型）- 作为分析AI对学生学习影响的核心对象。", "MatLab、Maple、Mathematica（数学计算工具）- 用于说明AI普及前学生作弊的工具。", "Feynman diagrams（费曼图）- 作为物理学学习与专家能力积累的例证。", "K. Vafa et al., ICML 2025/arXiv:2507.06952, 2025 - 研究LLMs在科学推理任务中表现不佳的论文。"], "keywords": ["大语言模型（LLMs）", "批判性思维", "心智工具箱", "作弊", "教育系统激励", "专家与新手", "模式匹配", "专业知识稀缺", "技能积累"], "style_tone": "理性剖析、带有警示色彩的学术评论风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "Michio Kaku: How quantum computers compute in multiple universes at once", "summary_long": "文章开篇指出，量子计算并非对现有数字计算机的简单升级，而是对支撑数字时代的基础逻辑体系的一次根本性变革。Michio Kaku强调，量子计算机通过在原子层面进行计算（而不是依赖传统的晶体管），有潜力颠覆从全球安全到现代医学等各个领域的基本假设。文章核心在于解释量子计算的原理——它利用量子叠加和并行性，使得计算过程能够在多个“宇宙”同时进行，这种能力远超经典计算机的线性处理方式。Kaku进一步指出，量子计算的这种多世界并行处理模式，将带来前所未有的计算速度和复杂性，可能推动药物开发、密码学、材料科学等领域发生革命性突破。文章最后强调，这种技术变革不仅仅是硬件的进步，更是对信息处理和逻辑推理方式的彻底重塑，预示着人类认知和技术边界的扩展。", "key_arguments": ["量子计算代表着信息处理逻辑的根本转变，而不仅是数字计算机的升级。", "通过在原子层面进行计算，量子计算机能够在多个并行的“宇宙”中同时处理信息，实现远超传统计算机的性能。", "量子计算的突破将深刻影响全球安全、医学、材料科学等多个领域，重塑人类对技术和认知的理解。"], "mentioned_resources": ["无具体书籍或理论模型名称直接提及，仅引用了Michio Kaku的观点和解释。"], "keywords": ["量子计算", "原子层面", "多宇宙并行", "叠加态", "信息逻辑变革", "全球安全", "现代医学"], "style_tone": "逻辑严密的分析风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "Five recommendations that will reshape leadership development in 2026", "summary_long": "文章开篇指出当前领导力发展面临危机，尽管企业投入巨大，但大多数组织并未获得预期效果。作者通过与158位学习与发展（L&amp;D）专业人士的访谈发现，领导者普遍感到压力过大、焦虑且精力分散，只有40%的受访者对现有领导力项目表示“有些满意”。作者认为，领导力发展不能再是静态的课程或内容库，而应成为支持真实人的动态系统。\n\n基于研究和社区交流，作者提出五项将在2026年重塑领导力发展的建议：\n\n1. 战略对齐：领导力发展必须与企业核心战略（如营收增长、运营效率、客户满意度、AI转型等）紧密结合。尤其在AI时代，未来领导者不仅要管理人，还要管理AI系统。重点不在于技术工具的泛用，而在于领导者能否辨析AI应在何处辅助、加速或回避关键工作，强调人类判断力的价值。\n\n2. 架构嵌入：组织常常投入于领导力原则，却未将其真正嵌入关键流程（招聘、绩效评估、晋升、跨团队协作）。心理安全不仅应为团队成员创造，也必须为领导者本身提供，以便他们能坦诚讨论困难、寻求帮助并勇于尝试。跨部门协作被忽视，作者建议设计有意的交流平台，促进领导者之间的经验分享和关系建立。\n\n3. 设计共创：研究发现领导者很少参与自身发展项目的设计，导致项目相关性和参与度不足。作者引用“IKEA效应”，强调共同参与设计能提升归属感和价值认同。建议定期让领导者参与优先事项确定、原型测试和反馈，此外应为新晋领导者提供情感支持，帮助他们应对身份转变和不确定性。\n\n4. 交付方式：单纯推出项目已无法吸引领导者参与。应聚焦他们的实际困境，如疲惫、沟通难题、孤独感等，将学习内容与现实问题对接。高层领导参与并示范学习行为，能有效推动项目扩散和文化转变。\n\n5. 测量与反馈：多数组织缺乏清晰的领导力绩效指标，L&amp;D团队也未有效衡量项目影响。作者建议利用现有员工调查中的沟通、目标设定等问题作为初步信号，并与领导者共同制定绩效指标。数据应民主化，领导者需获得并理解自身表现数据，AI可辅助发现隐藏洞察。\n\n结尾强调，未来L&amp;D应以领导者实际挑战为中心，关注系统、流程和支持，而非仅仅技能提升。领导力发展的变革需更具人性、战略性、协作性和数据驱动，才能真正服务于个人和组织。", "key_arguments": ["领导力发展需与企业战略紧密对齐，尤其关注AI管理与人类判断力的结合。", "领导力原则必须嵌入组织关键流程，并为领导者自身创造心理安全和跨部门协作空间。", "领导者参与发展项目的共创设计和情感支持至关重要，提高项目相关性和归属感。", "项目交付应围绕领导者真实困境展开，高层示范学习行为有助于文化转型。", "领导力发展需建立有效测量机制，民主化数据并结合AI辅助洞察，推动持续改进。"], "mentioned_resources": ["IKEA效应（行为经济学理论）- 用于说明共创设计如何提升归属感和价值认同"], "keywords": ["领导力发展", "企业战略对齐", "AI管理", "心理安全", "协作", "共创设计", "情感支持", "绩效测量", "数据民主化"], "style_tone": "逻辑严密的分析风格，兼具人文关怀与变革倡导"}</t>
+  </si>
+  <si>
+    <t>{"title": "Robotaxis offer a path toward smarter and fairer urban mobility", "summary_long": "文章探讨了城市交通自动化的两条主要路径：私人自动驾驶汽车的普及与机器人出租车（robotaxi）车队的推广。作者认为，虽然两者都代表技术进步，但机器人出租车模式在城市效率、可持续性和社会公平方面具有更显著优势，前提是政策设计和公共利益得到优先考虑。\n\n首先，robotaxi模式能更高效地利用城市基础设施。与私人车辆95%的闲置率相比，robotaxi可连续服务多位乘客，显著减少停车需求，释放城市空间用于其他用途。此外，robotaxi车队生命周期短（2.5年对比私人车辆的12年），有利于更快引入安全和技术升级。\n\n其次，robotaxi系统通过集中化管理和调度，有助于优化城市交通流、缓解拥堵，并能通过自动化行为影响整体出行习惯。例如，robotaxi可作为“领航车”，抑制激进驾驶，提升道路安全。\n\n然而，能否实现这些优势取决于政策和系统设计。关键不在于robotaxi是否优于私人自动驾驶，而在于如何设定条件以兑现其承诺。文章提出了几个核心政策领域：\n\n1. 定价与可及性：robotaxi服务的价格将决定其社会影响。若缺乏合理定价和补贴，robotaxi可能加剧交通不平等或因过度便利而增加总行驶里程。解决方案在于采用复杂的定价模型（如按需补贴、峰时定价），以平衡效率与公平。\n\n2. 基础设施与土地利用：虽然robotaxi减少目的地停车需求，但其车队存储可能带来新的土地利用难题。过渡期需兼顾私人车辆与robotaxi的基础设施管理，这对城市规划既是挑战也是机遇。\n\n3. 与公共交通的整合：robotaxi与传统公交的关系需审慎设计。在高密度区域，公交仍最有效，而robotaxi更适合低密度地区及“首末公里”连接。政策应促使两者互补而非竞争。\n\nrobotaxi的优势不仅体现在运营效率，还包括降低家庭交通成本、提升出行可达性等社会效益。但这些益处依赖于以公共利益为核心的系统设计，无论在民主还是威权体制下，都需政策保障道路网络的效率和效能。\n\n文章强调，robotaxi的推广是对城市交通设计的根本性重构，而非单纯技术升级。其对车辆总行驶里程（VKT）的影响取决于定价和空驶管理，robotaxi与公交的最佳比例需因地制宜并随时间调整。实现从全民私车拥有到robotaxi主导的转型，需要政策分析、研发、测试和持续优化。\n\n最终，robotaxi系统作为私人自动驾驶的部分替代，具备空间利用、技术迭代、交通优化、环境影响和公平可达等多重优势。但这些都需依赖精细的定价、公交整合、土地政策、监管框架和补贴体系。作者总结，robotaxi的兴起是城市交通设计的再想象，其价值取决于政策能否真正优先公共利益。", "key_arguments": ["机器人出租车（robotaxi）模式在城市效率、可持续性和社会公平方面优于私人自动驾驶车辆。", "robotaxi通过高效利用基础设施、集中管理和技术迭代，能优化交通流、减少停车需求并提升道路安全。", "实现robotaxi优势需依赖合理的政策设计，包括定价、土地利用、与公共交通的整合及公平准入保障。"], "mentioned_resources": ["无具体书籍或理论模型被直接引用，但文中多次提及自动驾驶系统（ADS）技术作为实现robotaxi模式的技术基础。"], "keywords": ["robotaxi", "自动驾驶系统（ADS）", "城市交通优化", "定价模型", "社会公平", "基础设施管理", "公共交通整合", "车辆总行驶里程（VKT）", "土地利用政策"], "style_tone": "逻辑严密的分析风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "Why we overcomplicate things", "summary_long": "文章以一个著名的故事开篇：1960年代NASA花费巨资研发零重力笔，而苏联仅用铅笔应对同样的问题。作者以此引出人们在工作和生活中倾向于用复杂方案解决复杂问题的现象，并进一步追问为何我们如此迷恋复杂性。为探讨这一问题，作者推荐了Carl Hendrick的文章《Why Does Thinking Feel So Hard?》。Hendrick指出，复杂的解决方案常让人感觉更有生产力，但实际未必如此。心理学家R.H. Waters的研究表明，学生本能地选择最省力的思考路径，即使他们知道更费力的方法能带来更深刻的理解。这种倾向不是懒惰，而是一种基础的认知策略，挑战了当时教育界强调努力与纪律的主流观念。\n\n文章随后转向商业领域，引用了Michael Ovitz（Creative Artists Agency创始人）在Founders播客中的观点，探讨为何联合创始人关系常常失败。Ovitz认为，失败的根源并非战略分歧或自负，而是缺乏真正互补的性格和长期合作的能力。他强调，成功的合伙关系需要共同愿景、开放心态和对领导原则的深刻理解，这在现实中极为罕见。\n\n作者还分享了几则相关链接：Michael Levin与Lex Fridman讨论“外星智慧与生物生命的隐藏现实”，提出“认知光锥”概念，强调个体与环境的边界随认知能力变化而缩放；《The Beautiful Truth》探讨“如何重建归属感”，指出当归属感破裂时，领导力会重新分布，团队成员通过小型行动共同构建新的文化和责任感，归属感由集体协作而非自上而下赋予。\n\n整体上，文章强调人类倾向于复杂化问题和解决方案，部分源于认知策略和社会文化惯性。无论是学习、商业合作还是组织归属，简单有效的路径常被忽视，而复杂性往往被误认为是深度和价值的体现。", "key_arguments": ["人们倾向于采用复杂的解决方案，往往忽视简单有效的办法，部分原因是复杂性带来虚假的生产力感。", "心理学研究（R.H. Waters）表明，选择最省力的思考路径是一种认知策略，而非懒惰，这挑战了传统教育对努力的美德化。", "商业合伙关系失败的核心原因在于缺乏互补性格和长期协作能力，而非战略或自负，成功合作需要共同愿景和开放心态。", "组织归属感的重建依赖于领导力的分布和集体行动，归属感是团队成员共同创造的结果。"], "mentioned_resources": ["《Why Does Thinking Feel So Hard?》（Carl Hendrick）- 探讨复杂思维与认知省力的心理学机制。", "Founders Podcast（Michael Ovitz）- 讨论商业合伙关系失败的根本原因。", "Hidden Reality of Alien Intelligence &amp; Biological Life（Michael Levin与Lex Fridman）- 引入认知光锥概念，讨论生命与认知的边界。", "How to Bring Back Belonging（The Beautiful Truth）- 研究归属感破裂后领导力的重新分布与集体文化重建。"], "keywords": ["复杂性偏好", "认知省力策略", "归属感重建", "互补性格", "认知光锥", "集体协作", "领导力分布"], "style_tone": "逻辑严密的分析风格，兼具批判性与现实关怀"}</t>
+  </si>
+  <si>
+    <t>{"title": "The boomer-doomer divide within OpenAI, explained by Karen Hao", "summary_long": "Karen Hao’s book, 'Empire of AI,' investigates the ideological rift at OpenAI, culminating in Sam Altman’s temporary ouster in 2023. The central conflict was not about OpenAI’s founding mission—to ensure AGI benefits humanity—but about how to achieve it. Altman’s faction advocated for a transition from nonprofit to for-profit to secure necessary funding, while the opposing side feared private capital would compromise AGI’s public good. Altman’s vision prevailed, setting OpenAI on a path of rapid expansion and increasing influence.\n\nHao argues that OpenAI’s altruistic mission statement has served as both genuine concern and a powerful marketing narrative, enabling unchecked growth and justifying controversial decisions. Drawing on over 260 interviews, 'Empire of AI' likens OpenAI to a colonial empire, extracting resources and exploiting labor under the guise of innovation and civilizational advancement. Hao notes that this empire-building is sustained by a quasi-religious corporate culture, with Sam Altman fostering a sense of higher purpose and internal ideological alignment, which insulates employees from external critique and reinforces the company’s power.\n\nRecent political developments, notably Donald Trump’s reinauguration, have further entrenched this dynamic, with the U.S. government now actively supporting Silicon Valley’s expansion. Hao draws a parallel to the British East India Company, suggesting that U.S. policy may ultimately treat OpenAI’s global assets as extensions of American power.\n\nHao describes a deepening inward focus at OpenAI, especially after public skepticism grew post-GPT-5. Rather than prompting reflection, criticism has led to greater insularity and an intensification of the company’s fortress mentality. She contends that OpenAI’s shift from openness to increasing secrecy reflects a logical progression from its founding motives, which were as much about domination as about altruism. The initial nonprofit structure was quickly abandoned as it hindered the founders’ ambitions.\n\nA key theme is the internal 'boomer-doomer' divide: 'boomers' are techno-optimists who believe AI will bring prosperity, while 'doomers' fear existential catastrophe. This dichotomy, Hao argues, is both a genuine belief system and a rhetorical device that perpetuates the myth of AI’s inevitability and justifies centralized, unaccountable control. The clash first surfaced with the release of GPT-2, when internal debate over safety versus openness mirrored the broader boomer-doomer split. Hao criticizes works like 'If Anyone Builds It, Everyone Dies?' (Eliezer Yudkowsky et al.) as unproductive doomer rhetoric that distracts from real issues such as AI’s environmental impact, public health, and economic destabilization, and ultimately empowers companies like OpenAI by legitimizing tight control over AI development.\n\nDespite these challenges, Hao expresses renewed optimism. She observes growing public engagement, grassroots resistance to data center projects, lawsuits over intellectual property and mental health, and civil society coalitions challenging OpenAI’s for-profit conversion. These decentralized movements are gaining momentum and could disrupt OpenAI’s trajectory. Additionally, Hao notes that OpenAI’s increasingly extreme rhetoric and controversial plans are provoking public skepticism, fueling a broader questioning of the company’s direction and the AI industry’s bubble-like dynamics.", "key_arguments": ["OpenAI’s internal ideological divide—between profit-driven expansion and safeguarding AGI’s public good—shaped its transformation and ongoing controversies.", "The company’s altruistic mission serves as both genuine concern and strategic narrative, enabling unchecked growth and justifying controversial actions.", "The 'boomer-doomer' dichotomy within and around OpenAI perpetuates centralized, anti-democratic control over AI, distracting from substantive societal risks.", "Despite OpenAI’s growing power, grassroots resistance, legal challenges, and public skepticism are emerging as effective counterforces."], "mentioned_resources": ["Empire of AI (Karen Hao) - Investigative book analyzing OpenAI’s evolution, internal culture, and global impact, based on interviews with over 260 insiders.", "If Anyone Builds It, Everyone Dies? (Eliezer Yudkowsky et al.) - Book embodying 'doomer' rhetoric about AI existential risk, criticized by Hao for distorting public discourse.", "Dune (Frank Herbert) - Referenced by Hao as an analogy for myth-making and belief formation around AI within OpenAI."], "keywords": ["OpenAI", "Sam Altman", "AGI", "boomer-doomer divide", "colonial empire metaphor", "mission-driven ethos", "fortress mentality", "Silicon Valley", "existential risk", "techno-optimism", "anti-democratic control", "public skepticism", "grassroots resistance"], "style_tone": "逻辑严密的分析风格，带有批判性和冷静剖析"}</t>
+  </si>
+  <si>
+    <t>{"title": "Does science reveal the absolute truth about reality?", "summary_long": "文章探讨了科学与“绝对真理”之间的关系，首先指出科学是人类探索现实真相的终极工具，但科学的“真理”与日常语境中的绝对真理有本质区别。科学既是知识的集合，也是不断通过观察、实验和数据修正的过程。作者以地球形状为例，说明科学结论总是近似：地球被称为“圆的”，但更精确地说是“椭球体”，再进一步，地球表面有山脉、海沟等复杂地貌，任何模型都只是更好的近似，而非绝对真理。\n\n科学的“真理”是指当前最优的现实描述，依赖于实验和观察的匹配程度。科学理论的有效性总有范围：在这个范围内理论与现实无异；超出则可能失效。例如，牛顿的万有引力定律在地球表面和太阳系尺度上非常有效，能解释许多天体运动和工程问题，但在极端条件下（如高速、强引力场或宇宙尺度）则需用爱因斯坦的广义相对论取代。广义相对论在所有已知测试中表现优异，但在量子尺度或奇点附近，科学家预期它也将被更高级理论（如量子引力理论）所超越。\n\n作者强调，科学理论的“真理”总是暂时的、可被超越的。科学进步的动力正是理论在新实验或观测面前失效，这为更优理论的诞生创造机会。科学革命发生的条件是：新理论不仅能解释旧理论的所有成功，还能解决旧理论无法解释的问题，并对未观测现象作出新预测且被实验证实。所有现有的科学理论——从标准模型、宇宙大爆炸、暗物质、暗能量到宇宙膨胀——都是目前最优的近似，但都有限制。\n\n文章最后总结，科学无法揭示现实的绝对真理，只能提供不断优化的近似模型。科学理论无法被实验“证明为真”，只能在其适用范围内被证实或被新证据推翻。科学的“错误”不是失败，而是通向更深理解的必经之路。如恩里科·费米所言：“结果若证实假设，你做了测量；若相反，你做了发现。”科学的本质是不断修正和接近现实真相，而非终极定论。", "key_arguments": ["科学的真理是对现实的最佳近似，而非绝对真理；科学理论总有适用范围和精度限制。", "科学理论的进步依赖于实验和观测的不断检验与推翻；理论失效是科学发展的动力。", "所有科学理论都是暂时的、可被超越的，科学无法提供现实的终极答案，只能不断逼近更优描述。"], "mentioned_resources": ["Ptolemy's geocentric model (托勒密) - 用于解释16世纪行星逆行问题，与哥白尼的日心说对比。", "Copernicus' heliocentric model (哥白尼) - 同上，用于说明科学模型的进化。", "Newtonian gravity (牛顿) - 作为更精确的物理理论，能预测天体运动和重力现象。", "Einstein's general relativity (爱因斯坦) - 替代牛顿理论，解释高速、强引力场和宇宙尺度现象。", "Quantum gravity (量子引力理论) - 预期将超越广义相对论，解决奇点、微观引力等问题。", "Standard Model of elementary particles (标准模型) - 当前粒子物理的主流理论，作为科学真理的暂时性例证。", "Big Bang, dark matter, dark energy, cosmic inflation (宇宙大爆炸、暗物质、暗能量、宇宙膨胀) - 作为现代宇宙学的核心理论，说明科学理论的暂时性和局限性。", "Enrico Fermi (恩里科·费米) - 引用其关于科学实验与发现的名言，阐释科学进步的机制。"], "keywords": ["科学真理", "绝对真理", "近似模型", "理论有效性", "实验验证", "科学革命", "量子引力", "广义相对论", "牛顿力学", "科学进步"], "style_tone": "逻辑严密的分析风格，兼具理性批判与科学谦逊"}</t>
+  </si>
+  <si>
+    <t>{"title": "Yuval Noah Harari: Why advanced societies fall for mass delusion", "summary_long": "Yuval Noah Harari探讨了人类历史中的核心悖论：尽管知识积累速度惊人，人类社会却始终容易陷入集体幻觉、迷信和由故事驱动的大规模误导。文章首先指出，知识的积累并不自动带来理性或免疫于虚假信息。无论是古代的泥板文书，还是当代的全球媒体体系，信息传播的结构决定了社会能够建构、相信或摧毁的内容。Harari强调，故事和叙事不仅塑造了个人信仰，更能引导整个文明的走向。随着人工智能的兴起，这一悖论变得更加突出：AI极大地提升了信息传播的效率与规模，但也加剧了虚假叙事和集体幻觉的风险。文章逻辑递进：首先阐述知识与迷信并存的历史现象，继而分析信息载体（从泥板到AI）如何影响社会认知，最后警示在AI时代，社会更易陷入大规模的认知偏差和幻觉。Harari呼吁对信息生态系统保持警觉，强调理性与批判性思维的重要性，以防社会被技术驱动的虚假叙事所操控。核心金句：“我们积累知识的速度远超以往，但我们仍然容易被故事所左右。”", "key_arguments": ["知识的快速积累并未根除人类社会对集体幻觉和迷信的易感性。", "信息传播结构（如泥板、媒体、AI）决定了社会能够相信和行动的内容。", "AI技术加剧了虚假叙事和集体认知偏差的风险，需加强理性与批判性思维。"], "mentioned_resources": ["Yuval Noah Harari的相关理论——探讨知识、叙事与社会认知之间的关系（文章即为Harari观点的延展）"], "keywords": ["集体幻觉", "叙事驱动", "信息传播结构", "人工智能", "知识悖论", "批判性思维"], "style_tone": "逻辑严密的分析风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "《狂野时代》：毕赣的影像梦，为何不再迷人了？", "summary_long": "文章以毕赣新作《狂野时代》在戛纳获奖、国内上映后反响两极为切入，追问为何这部延续毕赣标志性长镜头、梦境与时间错置风格的电影，未能获得广泛共鸣。作者首先回溯毕赣的创作轨迹：从以20万预算和素人演员拍摄、用42分钟长镜头成名的《路边野餐》，到高预售、高票房但口碑分化的《地球最后的夜晚》，毕赣逐步确立了以西南乡土、记忆诗意、现实与幻象交错的个人风格。进入《狂野时代》，他获得更大投资，叙事野心升级，尝试以“感官诗学”构建六章回——每章对应视觉、听觉、嗅觉、味觉、触觉、心智（佛教“六根六识”），以跨感官知觉串联百年影史与个人虚构编年史。\n\n作者详细剖析影片结构：开篇由“大她者”（舒淇）救出“迷魂者”（易洋千玺），带其穿越1880s-1990s的影像世界，致敬默片与电影史。后续章节以不同角色（军官、苦妖、小女孩、吸血鬼少女等）分别承载感官主题，试图用技术极致（如音乐化为光、嗅觉与记忆、触觉与亲密）转译视听之外的体验。幕间“大她者”旁白串联时代，最终“迷魂者”归于空无，影院燃烧殆尽。\n\n但作者指出，这种“感官诗学”流于表层模拟，未能转化为真实经验。五感六识只是主题标签，人物与物件沦为导演操控的符号，缺乏生命力与历史感，观众无法共感角色的身体、时间与情感。影片的“元电影”探索停留在影像拼贴，对“电影如何生产世界”这一哲学命题缺乏自反性，未能如费里尼《八部半》或哈内克《趣味游戏》那样让观众反思影像与现实的关系。\n\n在“大她者”概念上，作者批判毕赣仅做了性别符号替换，无实质女性主义批判，女性角色只是男性“迷魂者”感官的触发器。影片对“梦”与“迷魂”理解也流于技术拼贴，误以为错置时空即可造梦，忽略了梦的时空裂隙与无意识生成的复杂性。\n\n作者进一步指出，毕赣将私人符号“荡麦”反复嵌入新作，显示其创作重心从“电影如何生产世界”退缩到“如何复刻我的私人世界”，导致影像系统自我循环、艺术灵光消逝。最终，影片以“这场幻梦已经崩溃”宣告终结，作者认为真正崩溃的是毕赣对古老电影的迷恋与自我神化。\n\n文章整体语调冷静批判，强调毕赣的技术与诗意虽依旧，但缺乏谦逊与现实探问，导致《狂野时代》沦为“没有生命的影像之景观”，不再迷人。", "key_arguments": ["毕赣在《狂野时代》中试图通过“感官诗学”与六章回结构，致敬影史并探索元电影，但最终流于影像模拟，缺乏真实经验与自反性。", "影片的人物与场景沦为导演操控的符号，五感六识仅是主题标签，未能让观众共感角色的身体、时间与情感，错失元电影的哲学深度。", "对“大她者”的性别符号化、对梦境与私人符号“荡麦”的自我循环，显示毕赣创作重心从现实探问转向自恋与自我神化，导致艺术灵光的消逝。"], "mentioned_resources": ["《狂野时代》(Resurrection)（毕赣）：文章主评对象，分析其结构、主题与失败之处。", "《路边野餐》（毕赣）：毕赣成名作，确立其梦境与乡土风格，文中多次对比。", "《地球最后的夜晚》（毕赣）：毕赣第二部长片，市场与口碑分化，作为风格与市场张力案例。", "《八部半》（8½, 1963, 费德里科·费里尼）：元电影经典，作为自反性与现实/影像界限模糊的范例。", "《趣味游戏》（Funny Games, 1997, 迈克尔·哈内克）：元电影自反性范例，角色与观众互动，反思观看行为。", "拉康“大他者”理论：分析“大她者”概念借用与性别批判不足。", "露西·伊利格瑞、朱莉亚·克里斯蒂娃：女性主义对“大他者”理论的批判性重写。", "《水浇园丁》：电影史早期作品，作为片中影像致敬元素。", "荡麦（虚构地名/影业）：毕赣作品中的私人符号，象征其创作自我循环。"], "keywords": ["感官诗学", "元电影", "五感六识", "自反性", "私人符号", "影像模拟", "主体经验", "梦境", "大她者", "电影本体"], "style_tone": "冷静批判、逻辑严密的分析风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "游戏论｜《物华弥新》：博物展品拟人化的来时路", "summary_long": "文章以游戏《物华弥新》为核心，系统梳理了博物馆展品拟人化（MEA）在数字时代的理论演进与实践落地。首先，作者介绍《物华弥新》作为首款进入博物馆的中国游戏，以文物拟人化为角色核心，通过战棋玩法与宏大叙事，将传统文化与现代游戏机制深度融合。玩家扮演收藏家，与器者（拟人化文物）共同生活、战斗，共同应对“曲解”这一末日危机，体现了文物人格化的社会参与性。\n\n文章回溯博物馆发展三阶段：珍奇柜（Wunderkammern）时期强调稀缺展品的非秩序堆叠；现代博物馆时期则以科学分类和客体化为主，观众参与性增强；数字博物馆阶段，MEA让展品获得具身自主性，通过虚拟环境和AI技术实现展品与观众的深度对话。作者引用《Tourism Management》2025年关于MEA的学术研究，指出拟人化展品能显著提升历史知识传播、价值认知和遗产责任意识，推动博物馆由神庙模式向广场模式转型，且拟人化未引发“恐惑谷”效应，因文物物性锚点清晰，观众能感知文物本体。\n\n随后，文章梳理重演历史活动的发展，从中世纪的亲历遗址，到大航海时代的历史展演、影视媒介时期的重演影像，再到电子游戏的知觉具身性。电子游戏通过交互机制让玩家成为历史的参与者和拟人化角色，既模拟历史又创造新的叙事空间。作者引用德·格鲁特等学者观点，强调游戏体验是叙事、模拟与历史的混合体。\n\n拟人化创作历程被细分为动物拟人、身体拟人和器物拟人三类。动物拟人（如迪士尼、板垣巴留《动物狂想曲》）因本体特性易于转写，身体拟人（如《工作细胞》《头脑特工队》）则因与现实身体关联，代入感较难。器物拟人则借助游戏交互性深化泛灵论实践，如《少女前线》《幻书启世录》《食物语》《碧蓝航线》《钢铁华尔兹》等，均以物为核心进行人格化改写。\n\n《物华弥新》在此脉络下成为MEA代表作，融合了珍奇柜的珍视、现代博物馆的分类解构与数字展品活化。器者（文物）通过三次拟像改写（文化遗产原型→历史文本→器物拟人图像）和三层重演历史活动（文化历程性→觉醒历久性→行动历险性），实现了物导向本体论下的社会参与艺术。器者的形象设计严格考据，既保留文物本源，又赋予现代职业与性情。\n\n器者叙事层面，分别展现了文物作为历史见证的怀旧、觉醒后的历久性，以及在现代社会中的历险性。游戏通过多重互文空间，让器者超越“会说话的物体”，成为具身遗产的主体影像谱系。作者强调MEA不仅提升了观众的愉悦感和旅游意向，更推动了文化遗产的数字化保护和多感官体验，契合具身遗产理论，将认知与身体参与结合，推动文化传承的深度与广度。", "key_arguments": ["《物华弥新》通过文物拟人化和游戏机制，将传统文化与现代数字交互深度融合，成为MEA实践的典范。", "博物馆展品拟人化（MEA）推动博物馆展演方式从客体化神庙模式向主体化广场模式转型，显著提升文化传承与观众参与感。", "拟人化创作历程从动物、身体到器物，器物拟人借助游戏交互性实现人格化落地，深化泛灵论与多感官体验。", "《物华弥新》通过三次拟像改写和三层重演历史活动，赋予文物主体性与多重叙事空间，实现具身遗产的深度表达。"], "mentioned_resources": ["《物华弥新》（龙渊网络）- 以文物拟人化为核心的战棋类游戏，推动MEA在数字时代的实践。", "《国家宝藏》- 与《物华弥新》联动，推动文化遗产数字化传播。", "《如果国宝会说话》- 文化纪录片，提出文物与公众对话的亲近文本理念，相关学术研究被引用。", "《Tourism Management》（2025年论文，Shasha Cai等）- 研究MEA对文化传承的影响，提出提升文化学习效果的概念模型。", "《参与式博物馆：迈入博物馆2.0时代》（妮娜·西蒙）- 探讨博物馆参与式转型。", "《动物狂想曲》（板垣巴留）- 动物拟人化代表作。", "《工作细胞》（日）、《头脑特工队》（美）、《柔美的细胞君》（韩）、《羊村守护者·心世界奇遇》（中）- 身体拟人化动画作品。", "《少女前线》《幻书启世录》《食物语》《碧蓝航线》《钢铁华尔兹》- 器物拟人化游戏。", "《The Surviving Image》（Georges Didi Huberman）、《Cur(at)Ing the Planet》（Nina Möllers）、《Contemporary Narrative and the Spectrum of Materiality》（Marco Caracciolo）、《消费历史:历史学家与当代大众文化中的遗产》（杰罗姆·德·格鲁特）、《The Persistence of History》（V.Sobchack）等- 理论支撑MEA与历史重演的学术资源。"], "keywords": ["博物馆展品拟人化（MEA）", "器物拟人", "重演历史活动", "物导向本体论", "具身遗产（Embodied Heritage）", "珍奇柜（Wunderkammern）", "神庙模式与广场模式", "逆向恐惑谷效应", "多感官体验", "拟像考古学", "文化传承", "数字化保护"], "style_tone": "逻辑严密的分析风格，兼具学术深度与文化批评"}</t>
+  </si>
+  <si>
+    <t>{"title": "疲倦的提坦还是耸肩的英雄? 美国的阿特拉斯想象", "summary_long": "文章以美国白宫2025年《国家安全战略》中“美国像阿特拉斯那样独自撑起世界秩序的时代已经结束”为引，指出美国自我角色想象的重大转变。作者对比了1961年肯尼迪总统就职演说中“为自由承担任何重负”的豪迈承诺，强调美国曾以自愿、英雄式的“阿特拉斯”自居，而今则转向对承担全球责任的抗拒与疲惫。\n\n文章追溯阿特拉斯神话的两种解读：一是赫西俄德笔下被动、受罚、疲惫的提坦，另一是现代美国政治修辞中主动承担世界重任的英雄。作者指出，这一转变不仅仅是去道德化，更涉及道德叙事本身的重构——即“卸下重担”也可被赋予正义色彩。\n\n接着，作者引入安·兰德的小说《阿特拉斯耸耸肩》，分析其对美国保守主义政治与硅谷精英的影响。兰德笔下的“阿特拉斯”象征社会的“创造者”——企业家、科学家等，他们被“寄生者”与“掠夺者”压迫，要求无私奉献。小说主人公最终选择“罢工”，即主动卸下社会重担，等待旧秩序崩溃后重建新世界。通过对达格妮、汉克、弗兰西斯科等角色的分析，文章指出“耸肩”不是逃避责任，而是理性觉醒和对虚伪道德的拒绝，强调个人主义与纠偏正义。\n\n作者进一步指出，这种“耸肩”叙事在美国政治语境中与内部的DEI争议、外部的国际责任分担等议题呼应，成为保守主义动员的象征。然而，这一形象也存在内在张力：即便呼吁“耸肩”，美国仍难以完全放下“肩负者”的角色。\n\n文章转向“疲惫的提坦”意象，引用英国殖民地大臣张伯伦1902年的演讲和亚伦·弗里德伯格的著作《疲惫的提坦：英国与相对衰落的经验，1895–1905》，剖析大英帝国在面对全球责任和相对衰落时的应对策略。弗里德伯格认为，英国的危机意识和调整虽有成效，但更多依赖“好运气”而非战略远见。作者指出，美国自20世纪以来持续面临“相对衰落”的焦虑，这种焦虑反而成为美国保持活力、避免“社会倦怠”的动力。\n\n最后，文章总结，美国当前的“阿特拉斯”形象既非自信的全球英雄，也非彻底放弃的提坦，而是一个充满危机意识、习惯于预防性焦虑的巨人。这种焦虑既是负担也是生命力来源。未来是否会出现“赫拉克勒斯”来分担责任尚未可知，但全球都需学会与这个焦虑的阿特拉斯共存。", "key_arguments": ["美国的自我角色想象正由主动承担全球责任的英雄阿特拉斯，转变为疲惫、抗拒、甚至希望卸下重担的提坦。", "安·兰德的《阿特拉斯耸耸肩》为美国保守主义和精英阶层提供了道德正当性，将卸下重担与个人主义、纠偏正义相结合，影响现实政治与文化。", "“疲惫的提坦”意象揭示了大国在全球责任与相对衰落之间的内在张力，美国的“焦虑”既是危机也是动力，成为其持续调整和活力的源泉。"], "mentioned_resources": ["《国家安全战略》（2025，美国白宫）- 用阿特拉斯比喻美国不再独自承担全球秩序。", "《神谱》（赫西俄德）- 阿特拉斯的原始神话形象，强调被动受罚和疲惫。", "《书库》（阿波罗多洛斯）- 记载阿特拉斯与赫拉克勒斯的神话故事，展现其被动性。", "《阿特拉斯耸耸肩》（安·兰德）- 小说通过“创造者罢工”重新定义个人主义与责任，深刻影响美国保守主义和精英文化。", "《疲惫的提坦：英国与相对衰落的经验，1895–1905》（亚伦·弗里德伯格）- 以英国帝国历史为镜鉴，分析大国衰落与全球责任的张力。", "《从安·兰德到特朗普》（保罗·鲍曼，《公共福祉》杂志）- 评论兰德思想对当代美国政治的影响。", "《特朗普耸耸肩》（乔恩·麦克诺顿，2024年画作）- 保守主义艺术对阿特拉斯意象的当代表达。", "“Living in Trump's World: The Global Reaction to ‘America First’”（Hal Brands and Peter Feaver, 2018）- 讨论“代替阿特拉斯”的国际回应。"], "keywords": ["阿特拉斯想象", "相对衰落", "个人主义", "纠偏正义", "创造者与寄生者", "道德叙事", "社会倦怠感", "预防性焦虑", "全球责任", "肩负者"], "style_tone": "逻辑严密的分析风格，兼具文化批判与历史纵深"}</t>
+  </si>
+  <si>
+    <t>{"title": "无痛之终：被现代肢解的意义与未来", "summary_long": "文章以“无痛之终”作为切入点，描绘了当代人对无痛死亡的渴望，这一愿望反映出时代的深层焦虑。作者首先指出，在健康管理、心理疗愈、运动监控等日常实践中，人们试图通过控制身体来抵御不确定性，避免痛苦。然而，天生无痛症者的例子却反证了痛苦的必要性——痛不仅是折磨，更是生命边界的警告。现代人对无痛的追求，实则是对痛苦的恐惧和对生活承载力的丧失。\n\n接着，作者剖析了“无痛期待”的多层结构：首先是风险感的放大，现代社会将可能发生的痛苦无限膨胀，导致人们在面对健康等问题时陷入过度焦虑；其次，身体成为最后的主权领地，在外部结构瓦解、关系松动的背景下，个体将控制力集中于身体管理，以求获得最低限度的安全感；最深层则是生活虚无的蔓延，意义感稀薄，公共叙事崩塌，个体难以建立持久情感，最终退回到对“无痛终结”的朴素渴望。\n\n文章进一步追溯了现代性如何肢解了生命的意义。引用福柯的“生命政治”，指出死亡从神圣的终点变成可管理的技术问题，意义被剥夺，个体只剩下对痛苦过程的控制。尼采的虚无主义批判揭示了价值基石的崩塌，未来感丧失，人们不再追求高远意义，而退守于稳定和无痛。阿伦特则指出，现代社会对程序性劳作的沉迷，压缩了人的创造行动力，未来变成了技术时间轴上的既定延伸，个体难以再创造新意义。\n\n在结构性风险方面，贝克的“风险社会”理论表明，现代化自身制造的系统性风险让人们对未来充满恐惧，渴望无痛终结成为对风险的精神止痛剂。鲍曼的“液态现代性”描述了社会结构的流动性和不稳定，吉登斯则强调个体被抽象系统（如金融、医疗、算法）所支配，难以凭经验判断未来。即便个体努力通过量化自我（Quantified Self）来掌控身体，实则仍被系统主导，渴望无痛只是对失控的无力回应。\n\n技术加速了这一进程。罗萨的“社会加速”理论揭示，技术和生活节奏的加速压缩了体验和意义反思空间，降低了个体对痛苦的忍耐阈值。注意力经济和数字技术将体验设计为无摩擦、可量化，现实中的不适被放大，无痛成为基本需求。通过App和穿戴设备数据化身体，个体试图将生命终点纳入可控的数字循环，但这暴露了对意义、行动和结构的深度失控。\n\n文章最后提出行动的可能性。以《终养六年》和王晖纪录片《老两口》为例，呼吁通过慢记录和主动反思重建生命厚度。作者倡导将注意力从概率和规划中抽离，回归当下的能动选择，并通过前置规划（如生命意愿书）实践主权，确保生命终结的尊严与选择。作者认为，面对现代性的虚无和加速，个体仍可通过记录、表达和开放行动，赋予终老以更多意义，而不仅仅是“无痛”。", "key_arguments": ["当代人对‘无痛之终’的追求反映了对痛苦的恐惧和对生活意义、承载力的丧失。", "现代性通过权力转向、价值崩塌和行动力压缩，系统性地剥夺了生命的宏大意义，个体只能退守于身体主权和无痛愿望。", "结构性风险和技术加速导致社会承诺和自我认同的瓦解，个体在抽象系统支配下失去对未来的判断和创造力，无痛成为对失控的无力回应。", "通过慢记录、主动反思和前置规划，个体可重新赋予生命终老以尊严和意义，超越单纯的‘无痛’诉求。"], "mentioned_resources": ["《一个叫欧维的男人决定去死》 - 作为对无痛终结主题的影视映射。", "福柯《生命政治》（Foucault, 1990） - 论述权力从统治领土转向管理生命，死亡被技术化管理。", "尼采《权力意志》（Nietzsche, 1968） - 批判价值基石的崩塌与虚无主义的蔓延。", "阿伦特《人的境况》（Arendt, 1958） - 指出现代社会对行动力的系统性压缩。", "贝克《风险社会》（Beck, 1992） - 分析现代社会内生性风险对未来感的侵蚀。", "鲍曼《液态现代性》（Bauman, 2000） - 描述社会结构流动性和个体稳定性的丧失。", "吉登斯《现代性的后果》（Giddens, 1990） - 强调抽象系统对个体判断与生活的支配。", "罗萨《社会加速》（Rosa, 2013） - 论述技术加速对体验和意义反思的压缩。", "《终养六年》 - 通过照护母亲的经历，反思痛苦与生命完整性的关系。", "《老两口》（导演：王晖） - 纪录片，通过慢记录重新审视老年与终老的意义。"], "keywords": ["无痛之终", "虚无主义", "生命政治", "风险社会", "液态现代性", "量化自我", "社会加速", "主权", "慢记录", "前置规划"], "style_tone": "逻辑严密的分析风格，兼具哲学深度与人文关怀"}</t>
+  </si>
+  <si>
     <t>2025-12-08T14:17:02</t>
   </si>
   <si>
@@ -3312,6 +4964,48 @@
     <t>2025-12-11T09:41:15</t>
   </si>
   <si>
+    <t>2025-12-15T13:38:58</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:39:16</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:39:29</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:39:35</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:39:45</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:39:54</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:40:02</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:40:16</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:40:30</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:40:36</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:40:52</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:41:08</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:41:27</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:41:45</t>
+  </si>
+  <si>
     <t>2025-12-11T09:01:13</t>
   </si>
   <si>
@@ -3403,6 +5097,48 @@
   </si>
   <si>
     <t>2025-12-11T11:36:23</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:43:40</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:43:50</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:43:56</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:44:01</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:44:08</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:44:14</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:44:20</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:44:28</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:44:35</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:44:40</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:44:47</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:44:55</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:45:05</t>
+  </si>
+  <si>
+    <t>2025-12-15T13:45:13</t>
   </si>
   <si>
     <t>playwright</t>
@@ -3779,7 +5515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3897,73 +5633,73 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="O2" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P2">
         <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="R2" t="s">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="S2" t="s">
-        <v>283</v>
+        <v>396</v>
       </c>
       <c r="T2" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
       <c r="U2" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="V2" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W2" t="s">
-        <v>368</v>
+        <v>517</v>
       </c>
       <c r="X2" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z2" t="s">
-        <v>399</v>
+        <v>562</v>
       </c>
       <c r="AA2" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC2" t="s">
-        <v>430</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -3977,73 +5713,73 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="O3" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P3">
         <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="R3" t="s">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="S3" t="s">
-        <v>284</v>
+        <v>397</v>
       </c>
       <c r="T3" t="s">
-        <v>315</v>
+        <v>442</v>
       </c>
       <c r="U3" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="V3" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W3" t="s">
-        <v>369</v>
+        <v>518</v>
       </c>
       <c r="X3" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z3" t="s">
-        <v>400</v>
+        <v>563</v>
       </c>
       <c r="AA3" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC3" t="s">
-        <v>431</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -4057,73 +5793,73 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="L4" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="O4" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P4">
         <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="R4" t="s">
-        <v>254</v>
+        <v>353</v>
       </c>
       <c r="S4" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="T4" t="s">
-        <v>316</v>
+        <v>443</v>
       </c>
       <c r="U4" t="s">
-        <v>346</v>
+        <v>487</v>
       </c>
       <c r="V4" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W4" t="s">
-        <v>370</v>
+        <v>519</v>
       </c>
       <c r="X4" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z4" t="s">
-        <v>401</v>
+        <v>564</v>
       </c>
       <c r="AA4" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC4" t="s">
-        <v>432</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4137,73 +5873,73 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K5" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="L5" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="O5" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P5">
         <v>92</v>
       </c>
       <c r="Q5" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="R5" t="s">
-        <v>255</v>
+        <v>354</v>
       </c>
       <c r="S5" t="s">
-        <v>286</v>
+        <v>399</v>
       </c>
       <c r="T5" t="s">
-        <v>317</v>
+        <v>444</v>
       </c>
       <c r="U5" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
       <c r="V5" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W5" t="s">
-        <v>371</v>
+        <v>520</v>
       </c>
       <c r="X5" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z5" t="s">
-        <v>402</v>
+        <v>565</v>
       </c>
       <c r="AA5" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC5" t="s">
-        <v>433</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4217,73 +5953,73 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="L6" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="O6" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P6">
         <v>92</v>
       </c>
       <c r="Q6" t="s">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="R6" t="s">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="S6" t="s">
-        <v>287</v>
+        <v>400</v>
       </c>
       <c r="T6" t="s">
-        <v>318</v>
+        <v>445</v>
       </c>
       <c r="U6" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="V6" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W6" t="s">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="X6" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z6" t="s">
-        <v>403</v>
+        <v>566</v>
       </c>
       <c r="AA6" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC6" t="s">
-        <v>434</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4297,76 +6033,76 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L7" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="O7" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P7">
         <v>92</v>
       </c>
       <c r="Q7" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="R7" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="S7" t="s">
-        <v>288</v>
+        <v>401</v>
       </c>
       <c r="T7" t="s">
-        <v>319</v>
+        <v>446</v>
       </c>
       <c r="U7" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
       <c r="V7" t="s">
-        <v>351</v>
+        <v>492</v>
       </c>
       <c r="W7" t="s">
-        <v>373</v>
+        <v>522</v>
       </c>
       <c r="X7" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z7" t="s">
-        <v>404</v>
+        <v>567</v>
       </c>
       <c r="AA7" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC7" t="s">
-        <v>435</v>
+        <v>612</v>
       </c>
       <c r="AD7" t="s">
-        <v>461</v>
+        <v>652</v>
       </c>
       <c r="AE7" t="s">
-        <v>462</v>
+        <v>653</v>
       </c>
       <c r="AG7" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4380,76 +6116,76 @@
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L8" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="O8" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P8">
         <v>92</v>
       </c>
       <c r="Q8" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="R8" t="s">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="S8" t="s">
-        <v>289</v>
+        <v>402</v>
       </c>
       <c r="T8" t="s">
-        <v>320</v>
+        <v>447</v>
       </c>
       <c r="U8" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
       <c r="V8" t="s">
-        <v>352</v>
+        <v>493</v>
       </c>
       <c r="W8" t="s">
-        <v>374</v>
+        <v>523</v>
       </c>
       <c r="X8" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z8" t="s">
-        <v>405</v>
+        <v>568</v>
       </c>
       <c r="AA8" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC8" t="s">
-        <v>436</v>
+        <v>613</v>
       </c>
       <c r="AD8" t="s">
-        <v>461</v>
+        <v>652</v>
       </c>
       <c r="AE8" t="s">
-        <v>462</v>
+        <v>653</v>
       </c>
       <c r="AG8" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -4463,76 +6199,76 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L9" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="O9" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P9">
         <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="R9" t="s">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="S9" t="s">
-        <v>290</v>
+        <v>403</v>
       </c>
       <c r="T9" t="s">
-        <v>321</v>
+        <v>448</v>
       </c>
       <c r="U9" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
       <c r="V9" t="s">
-        <v>353</v>
+        <v>494</v>
       </c>
       <c r="W9" t="s">
-        <v>375</v>
+        <v>524</v>
       </c>
       <c r="X9" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z9" t="s">
-        <v>406</v>
+        <v>569</v>
       </c>
       <c r="AA9" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC9" t="s">
-        <v>437</v>
+        <v>614</v>
       </c>
       <c r="AD9" t="s">
-        <v>461</v>
+        <v>652</v>
       </c>
       <c r="AE9" t="s">
-        <v>462</v>
+        <v>653</v>
       </c>
       <c r="AG9" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -4546,76 +6282,76 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L10" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="O10" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P10">
         <v>92</v>
       </c>
       <c r="Q10" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="R10" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="S10" t="s">
-        <v>291</v>
+        <v>404</v>
       </c>
       <c r="T10" t="s">
-        <v>322</v>
+        <v>449</v>
       </c>
       <c r="U10" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
       <c r="V10" t="s">
-        <v>354</v>
+        <v>495</v>
       </c>
       <c r="W10" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="X10" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z10" t="s">
-        <v>407</v>
+        <v>570</v>
       </c>
       <c r="AA10" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC10" t="s">
-        <v>438</v>
+        <v>615</v>
       </c>
       <c r="AD10" t="s">
-        <v>461</v>
+        <v>652</v>
       </c>
       <c r="AE10" t="s">
-        <v>462</v>
+        <v>653</v>
       </c>
       <c r="AG10" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -4629,67 +6365,67 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L11" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="O11" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P11">
         <v>92</v>
       </c>
       <c r="Q11" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
       <c r="R11" t="s">
-        <v>261</v>
+        <v>360</v>
       </c>
       <c r="S11" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="T11" t="s">
-        <v>323</v>
+        <v>450</v>
       </c>
       <c r="U11" t="s">
-        <v>346</v>
+        <v>487</v>
       </c>
       <c r="V11" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W11" t="s">
-        <v>377</v>
+        <v>526</v>
       </c>
       <c r="X11" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z11" t="s">
-        <v>408</v>
+        <v>571</v>
       </c>
       <c r="AA11" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC11" t="s">
-        <v>439</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -4703,67 +6439,67 @@
         <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="I12" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="O12" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P12">
         <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="R12" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="S12" t="s">
-        <v>293</v>
+        <v>406</v>
       </c>
       <c r="T12" t="s">
-        <v>324</v>
+        <v>451</v>
       </c>
       <c r="U12" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
       <c r="V12" t="s">
-        <v>355</v>
+        <v>496</v>
       </c>
       <c r="W12" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="X12" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z12" t="s">
-        <v>409</v>
+        <v>572</v>
       </c>
       <c r="AA12" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC12" t="s">
-        <v>440</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -4777,73 +6513,73 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="L13" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="O13" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P13">
         <v>92</v>
       </c>
       <c r="Q13" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="R13" t="s">
-        <v>263</v>
+        <v>362</v>
       </c>
       <c r="S13" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="T13" t="s">
-        <v>325</v>
+        <v>452</v>
       </c>
       <c r="U13" t="s">
-        <v>346</v>
+        <v>487</v>
       </c>
       <c r="V13" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W13" t="s">
-        <v>379</v>
+        <v>528</v>
       </c>
       <c r="X13" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z13" t="s">
-        <v>410</v>
+        <v>573</v>
       </c>
       <c r="AA13" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC13" t="s">
-        <v>441</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -4857,67 +6593,67 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="O14" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P14">
         <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="R14" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="S14" t="s">
-        <v>295</v>
+        <v>408</v>
       </c>
       <c r="T14" t="s">
-        <v>326</v>
+        <v>453</v>
       </c>
       <c r="U14" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
       <c r="V14" t="s">
-        <v>356</v>
+        <v>497</v>
       </c>
       <c r="W14" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
       <c r="X14" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z14" t="s">
-        <v>411</v>
+        <v>574</v>
       </c>
       <c r="AA14" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC14" t="s">
-        <v>442</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -4931,76 +6667,76 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="O15" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P15">
         <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="R15" t="s">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="S15" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="T15" t="s">
-        <v>327</v>
+        <v>454</v>
       </c>
       <c r="U15" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
       <c r="V15" t="s">
-        <v>357</v>
+        <v>498</v>
       </c>
       <c r="W15" t="s">
-        <v>381</v>
+        <v>530</v>
       </c>
       <c r="X15" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z15" t="s">
-        <v>412</v>
+        <v>575</v>
       </c>
       <c r="AA15" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC15" t="s">
-        <v>443</v>
+        <v>620</v>
       </c>
       <c r="AD15" t="s">
-        <v>461</v>
+        <v>652</v>
       </c>
       <c r="AE15" t="s">
-        <v>462</v>
+        <v>653</v>
       </c>
       <c r="AG15" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5014,76 +6750,76 @@
         <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="O16" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P16">
         <v>92</v>
       </c>
       <c r="Q16" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="R16" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="S16" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="T16" t="s">
-        <v>328</v>
+        <v>455</v>
       </c>
       <c r="U16" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
       <c r="V16" t="s">
-        <v>358</v>
+        <v>499</v>
       </c>
       <c r="W16" t="s">
-        <v>382</v>
+        <v>531</v>
       </c>
       <c r="X16" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z16" t="s">
-        <v>413</v>
+        <v>576</v>
       </c>
       <c r="AA16" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC16" t="s">
-        <v>444</v>
+        <v>621</v>
       </c>
       <c r="AD16" t="s">
-        <v>461</v>
+        <v>652</v>
       </c>
       <c r="AE16" t="s">
-        <v>462</v>
+        <v>653</v>
       </c>
       <c r="AG16" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -5097,73 +6833,73 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="O17" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P17">
         <v>90</v>
       </c>
       <c r="Q17" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="R17" t="s">
-        <v>267</v>
+        <v>366</v>
       </c>
       <c r="S17" t="s">
-        <v>298</v>
+        <v>411</v>
       </c>
       <c r="T17" t="s">
-        <v>329</v>
+        <v>456</v>
       </c>
       <c r="U17" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="V17" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W17" t="s">
-        <v>383</v>
+        <v>532</v>
       </c>
       <c r="X17" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z17" t="s">
-        <v>414</v>
+        <v>577</v>
       </c>
       <c r="AA17" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC17" t="s">
-        <v>445</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -5177,73 +6913,73 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="O18" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P18">
         <v>90</v>
       </c>
       <c r="Q18" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
       <c r="R18" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="S18" t="s">
-        <v>299</v>
+        <v>412</v>
       </c>
       <c r="T18" t="s">
-        <v>330</v>
+        <v>457</v>
       </c>
       <c r="U18" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V18" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W18" t="s">
-        <v>384</v>
+        <v>533</v>
       </c>
       <c r="X18" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z18" t="s">
-        <v>415</v>
+        <v>578</v>
       </c>
       <c r="AA18" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC18" t="s">
-        <v>446</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -5257,73 +6993,73 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="O19" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P19">
         <v>93</v>
       </c>
       <c r="Q19" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="R19" t="s">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="S19" t="s">
-        <v>300</v>
+        <v>413</v>
       </c>
       <c r="T19" t="s">
-        <v>331</v>
+        <v>458</v>
       </c>
       <c r="U19" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="V19" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W19" t="s">
-        <v>385</v>
+        <v>534</v>
       </c>
       <c r="X19" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z19" t="s">
-        <v>416</v>
+        <v>579</v>
       </c>
       <c r="AA19" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC19" t="s">
-        <v>447</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -5337,73 +7073,73 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="O20" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P20">
         <v>92</v>
       </c>
       <c r="Q20" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="R20" t="s">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="S20" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="T20" t="s">
-        <v>332</v>
+        <v>459</v>
       </c>
       <c r="U20" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V20" t="s">
-        <v>359</v>
+        <v>500</v>
       </c>
       <c r="W20" t="s">
-        <v>386</v>
+        <v>535</v>
       </c>
       <c r="X20" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z20" t="s">
-        <v>417</v>
+        <v>580</v>
       </c>
       <c r="AA20" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC20" t="s">
-        <v>448</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -5417,73 +7153,73 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="O21" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P21">
         <v>92</v>
       </c>
       <c r="Q21" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="R21" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="S21" t="s">
-        <v>302</v>
+        <v>415</v>
       </c>
       <c r="T21" t="s">
-        <v>333</v>
+        <v>460</v>
       </c>
       <c r="U21" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V21" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W21" t="s">
-        <v>387</v>
+        <v>536</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z21" t="s">
-        <v>418</v>
+        <v>581</v>
       </c>
       <c r="AA21" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC21" t="s">
-        <v>449</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -5497,73 +7233,73 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="H22" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="O22" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P22">
         <v>92</v>
       </c>
       <c r="Q22" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="R22" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="S22" t="s">
-        <v>303</v>
+        <v>416</v>
       </c>
       <c r="T22" t="s">
-        <v>334</v>
+        <v>461</v>
       </c>
       <c r="U22" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="V22" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W22" t="s">
-        <v>388</v>
+        <v>537</v>
       </c>
       <c r="X22" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z22" t="s">
-        <v>419</v>
+        <v>582</v>
       </c>
       <c r="AA22" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC22" t="s">
-        <v>450</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -5577,73 +7313,73 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="O23" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P23">
         <v>92</v>
       </c>
       <c r="Q23" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
       <c r="R23" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="S23" t="s">
-        <v>304</v>
+        <v>417</v>
       </c>
       <c r="T23" t="s">
-        <v>335</v>
+        <v>462</v>
       </c>
       <c r="U23" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V23" t="s">
-        <v>360</v>
+        <v>501</v>
       </c>
       <c r="W23" t="s">
-        <v>389</v>
+        <v>538</v>
       </c>
       <c r="X23" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z23" t="s">
-        <v>420</v>
+        <v>583</v>
       </c>
       <c r="AA23" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC23" t="s">
-        <v>451</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -5657,73 +7393,73 @@
         <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="O24" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P24">
         <v>92</v>
       </c>
       <c r="Q24" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="R24" t="s">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="S24" t="s">
-        <v>305</v>
+        <v>418</v>
       </c>
       <c r="T24" t="s">
-        <v>336</v>
+        <v>463</v>
       </c>
       <c r="U24" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V24" t="s">
-        <v>361</v>
+        <v>502</v>
       </c>
       <c r="W24" t="s">
-        <v>390</v>
+        <v>539</v>
       </c>
       <c r="X24" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z24" t="s">
-        <v>421</v>
+        <v>584</v>
       </c>
       <c r="AA24" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC24" t="s">
-        <v>452</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -5737,73 +7473,73 @@
         <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="O25" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P25">
         <v>90</v>
       </c>
       <c r="Q25" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="R25" t="s">
-        <v>275</v>
+        <v>374</v>
       </c>
       <c r="S25" t="s">
-        <v>306</v>
+        <v>419</v>
       </c>
       <c r="T25" t="s">
-        <v>337</v>
+        <v>464</v>
       </c>
       <c r="U25" t="s">
-        <v>349</v>
+        <v>490</v>
       </c>
       <c r="V25" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W25" t="s">
-        <v>391</v>
+        <v>540</v>
       </c>
       <c r="X25" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z25" t="s">
-        <v>422</v>
+        <v>585</v>
       </c>
       <c r="AA25" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC25" t="s">
-        <v>453</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -5817,67 +7553,67 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="O26" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P26">
         <v>90</v>
       </c>
       <c r="Q26" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="R26" t="s">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="S26" t="s">
-        <v>307</v>
+        <v>420</v>
       </c>
       <c r="T26" t="s">
-        <v>338</v>
+        <v>465</v>
       </c>
       <c r="U26" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V26" t="s">
-        <v>362</v>
+        <v>503</v>
       </c>
       <c r="W26" t="s">
-        <v>392</v>
+        <v>541</v>
       </c>
       <c r="X26" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z26" t="s">
-        <v>423</v>
+        <v>586</v>
       </c>
       <c r="AA26" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC26" t="s">
-        <v>454</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -5891,67 +7627,67 @@
         <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="O27" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P27">
         <v>90</v>
       </c>
       <c r="Q27" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="R27" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="S27" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="T27" t="s">
-        <v>339</v>
+        <v>466</v>
       </c>
       <c r="U27" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V27" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="W27" t="s">
-        <v>393</v>
+        <v>542</v>
       </c>
       <c r="X27" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z27" t="s">
-        <v>424</v>
+        <v>587</v>
       </c>
       <c r="AA27" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC27" t="s">
-        <v>455</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -5965,67 +7701,67 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="O28" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P28">
         <v>92</v>
       </c>
       <c r="Q28" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="R28" t="s">
-        <v>278</v>
+        <v>377</v>
       </c>
       <c r="S28" t="s">
-        <v>309</v>
+        <v>422</v>
       </c>
       <c r="T28" t="s">
-        <v>340</v>
+        <v>467</v>
       </c>
       <c r="U28" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V28" t="s">
-        <v>363</v>
+        <v>504</v>
       </c>
       <c r="W28" t="s">
-        <v>394</v>
+        <v>543</v>
       </c>
       <c r="X28" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z28" t="s">
-        <v>425</v>
+        <v>588</v>
       </c>
       <c r="AA28" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC28" t="s">
-        <v>456</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -6039,67 +7775,67 @@
         <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="O29" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P29">
         <v>92</v>
       </c>
       <c r="Q29" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="R29" t="s">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="S29" t="s">
-        <v>310</v>
+        <v>423</v>
       </c>
       <c r="T29" t="s">
-        <v>341</v>
+        <v>468</v>
       </c>
       <c r="U29" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V29" t="s">
-        <v>364</v>
+        <v>505</v>
       </c>
       <c r="W29" t="s">
-        <v>395</v>
+        <v>544</v>
       </c>
       <c r="X29" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z29" t="s">
-        <v>426</v>
+        <v>589</v>
       </c>
       <c r="AA29" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC29" t="s">
-        <v>457</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -6113,67 +7849,67 @@
         <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P30">
         <v>92</v>
       </c>
       <c r="Q30" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="R30" t="s">
-        <v>280</v>
+        <v>379</v>
       </c>
       <c r="S30" t="s">
-        <v>311</v>
+        <v>424</v>
       </c>
       <c r="T30" t="s">
-        <v>342</v>
+        <v>469</v>
       </c>
       <c r="U30" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V30" t="s">
-        <v>365</v>
+        <v>506</v>
       </c>
       <c r="W30" t="s">
-        <v>396</v>
+        <v>545</v>
       </c>
       <c r="X30" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z30" t="s">
-        <v>427</v>
+        <v>590</v>
       </c>
       <c r="AA30" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC30" t="s">
-        <v>458</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -6187,76 +7923,76 @@
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="I31" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="O31" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P31">
         <v>92</v>
       </c>
       <c r="Q31" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="R31" t="s">
-        <v>281</v>
+        <v>380</v>
       </c>
       <c r="S31" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="T31" t="s">
-        <v>343</v>
+        <v>470</v>
       </c>
       <c r="U31" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="V31" t="s">
-        <v>366</v>
+        <v>507</v>
       </c>
       <c r="W31" t="s">
-        <v>397</v>
+        <v>546</v>
       </c>
       <c r="X31" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Z31" t="s">
-        <v>428</v>
+        <v>591</v>
       </c>
       <c r="AA31" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="AC31" t="s">
-        <v>459</v>
+        <v>636</v>
       </c>
       <c r="AD31" t="s">
-        <v>461</v>
+        <v>652</v>
       </c>
       <c r="AE31" t="s">
-        <v>462</v>
+        <v>653</v>
       </c>
       <c r="AG31" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -6270,76 +8006,1208 @@
         <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="I32" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="M32" t="b">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="P32">
         <v>92</v>
       </c>
       <c r="Q32" t="s">
+        <v>336</v>
+      </c>
+      <c r="R32" t="s">
+        <v>381</v>
+      </c>
+      <c r="S32" t="s">
+        <v>426</v>
+      </c>
+      <c r="T32" t="s">
+        <v>471</v>
+      </c>
+      <c r="U32" t="s">
+        <v>489</v>
+      </c>
+      <c r="V32" t="s">
+        <v>508</v>
+      </c>
+      <c r="W32" t="s">
+        <v>547</v>
+      </c>
+      <c r="X32" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>653</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33">
+        <v>17657766840123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H33" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K33" t="s">
+        <v>202</v>
+      </c>
+      <c r="L33" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>305</v>
+      </c>
+      <c r="P33">
+        <v>92</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>337</v>
+      </c>
+      <c r="R33" t="s">
+        <v>382</v>
+      </c>
+      <c r="S33" t="s">
+        <v>427</v>
+      </c>
+      <c r="T33" t="s">
+        <v>472</v>
+      </c>
+      <c r="U33" t="s">
+        <v>486</v>
+      </c>
+      <c r="V33" t="s">
+        <v>491</v>
+      </c>
+      <c r="W33" t="s">
+        <v>548</v>
+      </c>
+      <c r="X33" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34">
+        <v>17657766840240</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" t="s">
+        <v>212</v>
+      </c>
+      <c r="K34" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>292</v>
+      </c>
+      <c r="O34" t="s">
+        <v>305</v>
+      </c>
+      <c r="P34">
+        <v>92</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>338</v>
+      </c>
+      <c r="R34" t="s">
+        <v>383</v>
+      </c>
+      <c r="S34" t="s">
+        <v>428</v>
+      </c>
+      <c r="T34" t="s">
+        <v>473</v>
+      </c>
+      <c r="U34" t="s">
+        <v>489</v>
+      </c>
+      <c r="V34" t="s">
+        <v>509</v>
+      </c>
+      <c r="W34" t="s">
+        <v>549</v>
+      </c>
+      <c r="X34" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35">
+        <v>17657766840353</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" t="s">
+        <v>248</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>305</v>
+      </c>
+      <c r="P35">
+        <v>90</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>339</v>
+      </c>
+      <c r="R35" t="s">
+        <v>384</v>
+      </c>
+      <c r="S35" t="s">
+        <v>429</v>
+      </c>
+      <c r="T35" t="s">
+        <v>474</v>
+      </c>
+      <c r="U35" t="s">
+        <v>489</v>
+      </c>
+      <c r="V35" t="s">
+        <v>491</v>
+      </c>
+      <c r="W35" t="s">
+        <v>550</v>
+      </c>
+      <c r="X35" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="A36">
+        <v>17657766840459</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" t="s">
+        <v>205</v>
+      </c>
+      <c r="L36" t="s">
+        <v>249</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>305</v>
+      </c>
+      <c r="P36">
+        <v>95</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>340</v>
+      </c>
+      <c r="R36" t="s">
+        <v>385</v>
+      </c>
+      <c r="S36" t="s">
+        <v>430</v>
+      </c>
+      <c r="T36" t="s">
+        <v>475</v>
+      </c>
+      <c r="U36" t="s">
+        <v>486</v>
+      </c>
+      <c r="V36" t="s">
+        <v>491</v>
+      </c>
+      <c r="W36" t="s">
+        <v>551</v>
+      </c>
+      <c r="X36" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="A37">
+        <v>17657766840576</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" t="s">
+        <v>212</v>
+      </c>
+      <c r="K37" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" t="s">
+        <v>250</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" t="s">
+        <v>305</v>
+      </c>
+      <c r="P37">
+        <v>92</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>341</v>
+      </c>
+      <c r="R37" t="s">
+        <v>386</v>
+      </c>
+      <c r="S37" t="s">
+        <v>431</v>
+      </c>
+      <c r="T37" t="s">
+        <v>476</v>
+      </c>
+      <c r="U37" t="s">
+        <v>489</v>
+      </c>
+      <c r="V37" t="s">
+        <v>491</v>
+      </c>
+      <c r="W37" t="s">
+        <v>552</v>
+      </c>
+      <c r="X37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="A38">
+        <v>17657766840656</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K38" t="s">
+        <v>207</v>
+      </c>
+      <c r="L38" t="s">
         <v>251</v>
       </c>
-      <c r="R32" t="s">
-        <v>282</v>
-      </c>
-      <c r="S32" t="s">
-        <v>313</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>296</v>
+      </c>
+      <c r="O38" t="s">
+        <v>305</v>
+      </c>
+      <c r="P38">
+        <v>90</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>342</v>
+      </c>
+      <c r="R38" t="s">
+        <v>387</v>
+      </c>
+      <c r="S38" t="s">
+        <v>432</v>
+      </c>
+      <c r="T38" t="s">
+        <v>477</v>
+      </c>
+      <c r="U38" t="s">
+        <v>489</v>
+      </c>
+      <c r="V38" t="s">
+        <v>491</v>
+      </c>
+      <c r="W38" t="s">
+        <v>553</v>
+      </c>
+      <c r="X38" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="A39">
+        <v>17657766840702</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" t="s">
+        <v>208</v>
+      </c>
+      <c r="I39" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" t="s">
+        <v>208</v>
+      </c>
+      <c r="L39" t="s">
+        <v>252</v>
+      </c>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>297</v>
+      </c>
+      <c r="O39" t="s">
+        <v>305</v>
+      </c>
+      <c r="P39">
+        <v>92</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>343</v>
+      </c>
+      <c r="R39" t="s">
+        <v>388</v>
+      </c>
+      <c r="S39" t="s">
+        <v>433</v>
+      </c>
+      <c r="T39" t="s">
+        <v>478</v>
+      </c>
+      <c r="U39" t="s">
+        <v>489</v>
+      </c>
+      <c r="V39" t="s">
+        <v>510</v>
+      </c>
+      <c r="W39" t="s">
+        <v>554</v>
+      </c>
+      <c r="X39" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="A40">
+        <v>17657766840816</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" t="s">
+        <v>212</v>
+      </c>
+      <c r="K40" t="s">
+        <v>209</v>
+      </c>
+      <c r="L40" t="s">
+        <v>253</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>298</v>
+      </c>
+      <c r="O40" t="s">
+        <v>305</v>
+      </c>
+      <c r="P40">
+        <v>92</v>
+      </c>
+      <c r="Q40" t="s">
         <v>344</v>
       </c>
-      <c r="U32" t="s">
+      <c r="R40" t="s">
+        <v>389</v>
+      </c>
+      <c r="S40" t="s">
+        <v>434</v>
+      </c>
+      <c r="T40" t="s">
+        <v>479</v>
+      </c>
+      <c r="U40" t="s">
+        <v>489</v>
+      </c>
+      <c r="V40" t="s">
+        <v>511</v>
+      </c>
+      <c r="W40" t="s">
+        <v>555</v>
+      </c>
+      <c r="X40" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="A41">
+        <v>17657766840960</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" t="s">
+        <v>212</v>
+      </c>
+      <c r="K41" t="s">
+        <v>210</v>
+      </c>
+      <c r="L41" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>299</v>
+      </c>
+      <c r="O41" t="s">
+        <v>305</v>
+      </c>
+      <c r="P41">
+        <v>92</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>345</v>
+      </c>
+      <c r="R41" t="s">
+        <v>390</v>
+      </c>
+      <c r="S41" t="s">
+        <v>435</v>
+      </c>
+      <c r="T41" t="s">
+        <v>480</v>
+      </c>
+      <c r="U41" t="s">
+        <v>489</v>
+      </c>
+      <c r="V41" t="s">
+        <v>512</v>
+      </c>
+      <c r="W41" t="s">
+        <v>556</v>
+      </c>
+      <c r="X41" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
+      <c r="A42">
+        <v>17657766841000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" t="s">
+        <v>212</v>
+      </c>
+      <c r="K42" t="s">
+        <v>211</v>
+      </c>
+      <c r="L42" t="s">
+        <v>255</v>
+      </c>
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>300</v>
+      </c>
+      <c r="O42" t="s">
+        <v>305</v>
+      </c>
+      <c r="P42">
+        <v>92</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>346</v>
+      </c>
+      <c r="R42" t="s">
+        <v>391</v>
+      </c>
+      <c r="S42" t="s">
+        <v>436</v>
+      </c>
+      <c r="T42" t="s">
+        <v>481</v>
+      </c>
+      <c r="U42" t="s">
+        <v>489</v>
+      </c>
+      <c r="V42" t="s">
+        <v>491</v>
+      </c>
+      <c r="W42" t="s">
+        <v>557</v>
+      </c>
+      <c r="X42" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
+      <c r="A43">
+        <v>17657767220123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L43" t="s">
+        <v>256</v>
+      </c>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" t="s">
+        <v>305</v>
+      </c>
+      <c r="P43">
+        <v>92</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>347</v>
+      </c>
+      <c r="R43" t="s">
+        <v>392</v>
+      </c>
+      <c r="S43" t="s">
+        <v>437</v>
+      </c>
+      <c r="T43" t="s">
+        <v>482</v>
+      </c>
+      <c r="U43" t="s">
+        <v>489</v>
+      </c>
+      <c r="V43" t="s">
+        <v>513</v>
+      </c>
+      <c r="W43" t="s">
+        <v>558</v>
+      </c>
+      <c r="X43" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>653</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
+      <c r="A44">
+        <v>17657767240208</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" t="s">
+        <v>186</v>
+      </c>
+      <c r="I44" t="s">
+        <v>212</v>
+      </c>
+      <c r="L44" t="s">
+        <v>257</v>
+      </c>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>302</v>
+      </c>
+      <c r="O44" t="s">
+        <v>305</v>
+      </c>
+      <c r="P44">
+        <v>92</v>
+      </c>
+      <c r="Q44" t="s">
         <v>348</v>
       </c>
-      <c r="V32" t="s">
-        <v>367</v>
-      </c>
-      <c r="W32" t="s">
-        <v>398</v>
-      </c>
-      <c r="X32" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>460</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>461</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG32" t="s">
+      <c r="R44" t="s">
+        <v>393</v>
+      </c>
+      <c r="S44" t="s">
+        <v>438</v>
+      </c>
+      <c r="T44" t="s">
+        <v>483</v>
+      </c>
+      <c r="U44" t="s">
+        <v>489</v>
+      </c>
+      <c r="V44" t="s">
+        <v>514</v>
+      </c>
+      <c r="W44" t="s">
+        <v>559</v>
+      </c>
+      <c r="X44" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>649</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>653</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
+      <c r="A45">
+        <v>17657767250371</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" t="s">
+        <v>186</v>
+      </c>
+      <c r="I45" t="s">
+        <v>212</v>
+      </c>
+      <c r="L45" t="s">
+        <v>258</v>
+      </c>
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>303</v>
+      </c>
+      <c r="O45" t="s">
+        <v>305</v>
+      </c>
+      <c r="P45">
+        <v>92</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>349</v>
+      </c>
+      <c r="R45" t="s">
+        <v>394</v>
+      </c>
+      <c r="S45" t="s">
+        <v>439</v>
+      </c>
+      <c r="T45" t="s">
+        <v>484</v>
+      </c>
+      <c r="U45" t="s">
+        <v>489</v>
+      </c>
+      <c r="V45" t="s">
+        <v>515</v>
+      </c>
+      <c r="W45" t="s">
+        <v>560</v>
+      </c>
+      <c r="X45" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>650</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>653</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
+      <c r="A46">
+        <v>17657767260430</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" t="s">
+        <v>186</v>
+      </c>
+      <c r="I46" t="s">
+        <v>212</v>
+      </c>
+      <c r="L46" t="s">
+        <v>259</v>
+      </c>
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>304</v>
+      </c>
+      <c r="O46" t="s">
+        <v>305</v>
+      </c>
+      <c r="P46">
+        <v>92</v>
+      </c>
+      <c r="Q46" t="s">
         <v>350</v>
+      </c>
+      <c r="R46" t="s">
+        <v>395</v>
+      </c>
+      <c r="S46" t="s">
+        <v>440</v>
+      </c>
+      <c r="T46" t="s">
+        <v>485</v>
+      </c>
+      <c r="U46" t="s">
+        <v>489</v>
+      </c>
+      <c r="V46" t="s">
+        <v>516</v>
+      </c>
+      <c r="W46" t="s">
+        <v>561</v>
+      </c>
+      <c r="X46" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>651</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>653</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -6375,6 +9243,20 @@
     <hyperlink ref="F30" r:id="rId29"/>
     <hyperlink ref="F31" r:id="rId30"/>
     <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rss-fetcher/runtime/outputs/2025-12.xlsx
+++ b/rss-fetcher/runtime/outputs/2025-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="742">
   <si>
     <t>id</t>
   </si>
@@ -262,6 +262,45 @@
     <t>无痛之终：被现代肢解的意义与未来</t>
   </si>
   <si>
+    <t>How to harness the Trojan Horse of presenting skills</t>
+  </si>
+  <si>
+    <t>How life changes when you start embracing mystery</t>
+  </si>
+  <si>
+    <t>Brightest-ever lensed supernova reveals astronomy’s coming revolution</t>
+  </si>
+  <si>
+    <t>肖竞｜它们已在此，我们如何驾驭——数字戏剧的多重维度</t>
+  </si>
+  <si>
+    <t>苑辰｜当新媒体艺术进入剧场</t>
+  </si>
+  <si>
+    <t>陈朝｜“只有电子游戏能做到”——交互叙事初探</t>
+  </si>
+  <si>
+    <t>双翅目｜数字化进程中的想象与判断</t>
+  </si>
+  <si>
+    <t>陈老巨｜作为思考机器的舞台之物——《开普勒22b上的海风》导演手记</t>
+  </si>
+  <si>
+    <t>信睿书单｜新技术会为剧场带来新表达吗？</t>
+  </si>
+  <si>
+    <t>《信睿周报》第160期新刊速递｜RE：思想与艺术 2025</t>
+  </si>
+  <si>
+    <t>李公明｜一周画记：泽连斯基视察库皮扬斯克前线；AI的时代</t>
+  </si>
+  <si>
+    <t>澎湃思想周报｜美国Z世代的“南方高校热”；资本主义与爱的疲惫</t>
+  </si>
+  <si>
+    <t>对谈｜拟像统治的时代：从《黑客帝国》到迪士尼乐园</t>
+  </si>
+  <si>
     <t>2025-12-04</t>
   </si>
   <si>
@@ -298,6 +337,9 @@
     <t>2025-12-11</t>
   </si>
   <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
     <t>2025-12-04 15:00:00</t>
   </si>
   <si>
@@ -409,6 +451,24 @@
     <t>2025-12-11 11:28:00</t>
   </si>
   <si>
+    <t>2025-12-15 22:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-15 15:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-15 10:00:59</t>
+  </si>
+  <si>
+    <t>2025-12-15 14:13:00</t>
+  </si>
+  <si>
+    <t>2025-12-15 11:36:00</t>
+  </si>
+  <si>
+    <t>2025-12-15 08:17:00</t>
+  </si>
+  <si>
     <t>https://bigthink.com/starts-with-a-bang/new-discovery-imaging-alien-earth/</t>
   </si>
   <si>
@@ -544,6 +604,45 @@
     <t>https://m.thepaper.cn/newsDetail_forward_32146540</t>
   </si>
   <si>
+    <t>https://bigthink.com/business/how-to-harness-the-trojan-horse-of-presenting-skills/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/the-well/how-life-changes-when-you-embrace-mystery/</t>
+  </si>
+  <si>
+    <t>https://bigthink.com/starts-with-a-bang/brightest-ever-lensed-supernova/</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/sR4idjng3kURz7b2D1qFDQ</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/dd6y2Lj02UuUlSCNhCwvTg</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/IGHGY5NnvAqqSaL-1SRRfw</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/9eK5hbLOUmCI2BzkBVGTyw</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/c7I0M9Jgd6Kj_3NjVW_imQ</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/mxzRjd5j4WjadpO9gO88Yg</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/SuynIgO9L5t8JG4E3A1aiw</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32176906</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32175845</t>
+  </si>
+  <si>
+    <t>https://m.thepaper.cn/newsDetail_forward_32176483</t>
+  </si>
+  <si>
     <t>2025-12-08 12:29:49</t>
   </si>
   <si>
@@ -575,6 +674,15 @@
   </si>
   <si>
     <t>2025-12-15 13:32:00</t>
+  </si>
+  <si>
+    <t>2025-12-16 12:00:17</t>
+  </si>
+  <si>
+    <t>2025-12-16 12:00:19</t>
+  </si>
+  <si>
+    <t>2025-12-16 12:00:53</t>
   </si>
   <si>
     <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/08/HWO_EAC_Mirrors_Update_V001.00300_print.jpg?w=640" /&gt;&lt;p&gt;For as long as humanity has been looking up at the heavens, we&amp;#8217;ve been pondering some of the biggest questions of all. It&amp;#8217;s only over the past few hundred years that science has caught up to our vast imaginations, and has begun answering those questions for the first time in our civilization&amp;#8217;s history. We know what the stars are: they&amp;#8217;re much like our own Sun, except very far away. We know that the majority of them have planets, and that some of those planets are Earth-sized. We know that those worlds are composed of very similar ingredients to our own Solar System&amp;#8217;s planets, and that they are governed by the same underlying laws of nature.&lt;/p&gt;
@@ -1991,6 +2099,190 @@
 &lt;p&gt;This video &lt;a href="https://bigthink.com/series/full-interview/collapse-of-truth/" rel="nofollow"&gt;Yuval Noah Harari: Why advanced societies fall for mass delusion&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/cut-through_excerpt.jpg?w=640" /&gt;&lt;p&gt;There are some people in life we feel compelled to listen to. There’s something about the way they deliver their message that draws us in. Interestingly, when we look deeper, the detail of what they say seems to be less important than their delivery and their ability to capture an idea in a simple way.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The world is full of influencers, politicians and celebrities that — when you scratch beneath the surface — have remarkably little to say but nevertheless have scores of people queuing up to hear them say it. Rather than get frustrated by this conundrum, we need to learn from it. In almost every line of work, whether we’re salespeople, managers or leaders, trying to influence our friends, our families or our boss, we want what those lucky few get: &lt;em&gt;cut-through&lt;/em&gt;.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The Cambridge English Dictionary defines cut-through as ‘success in getting people’s attention and influencing them’. The aim of a great pitch or presentation should be nothing more and nothing less.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;a href="https://www.amazon.com/Cut-Through-presentation-playbook-Dominic-Colenso/dp/1788608356" rel=" noreferrer noopener" target="_blank"&gt;&lt;img alt="Book cover with a yellow background and black text: &amp;quot;Dominic Colenso. Cut Through: The Pitch and Presentation Playbook,&amp;quot; featuring a right-pointing arrow." class="wp-image-580698" height="2625" src="https://bigthink.com/wp-content/uploads/2025/11/cut-through-pbk-9781788608367.jpg" width="1687" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;&lt;figcaption&gt;&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Of course, you need to strive for more than just soundbites and clickbait. If there’s no substance to your message people will quickly be distracted by the next shiny thing. But cut-through is the Trojan Horse. It gives you a foot in the door and gifts you the possibility of opening your audience to what comes next.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;In their book &lt;em&gt;Smart Brevity&lt;/em&gt;, Jim VandeHei, Mike Allen and Rory Schwartz, co- founders of media platform Axios encourage us to “adapt to how people consume content – not how you wish they did or they did once upon a time. Then change how you communicate immediately.” It’s sound advice.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The world of presentations and pitching has changed little in the last few decades. Yes, we have moved on from overhead projectors, but for the most part, people’s approaches have remained largely unchanged. And that’s not a good thing.&amp;nbsp;&lt;/p&gt;
+&lt;figure class="wp-block-pullquote"&gt;
+&lt;blockquote&gt;
+&lt;p&gt;Emotion. Simplicity. Energy. If you want to create cut-through, you need to bring these three elements together in every pitch and presentation you deliver. They are the secret sauce.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;/figure&gt;
+&lt;p&gt;If we look instead at the world of my former career as a TV and film actor, the contrast is stark. Go back and find a drama made 30 years ago and the majority of them will feel plodding and ponderous. I loved the BBC series &lt;em&gt;All Creatures Great and Small&lt;/em&gt; as a child and back then I was completely captivated. Revisiting it now, it appears painfully slow. The FX series &lt;em&gt;The Bear&lt;/em&gt; by contrast is like being on a rollercoaster. The choppy editing and searing soundtrack left me feeling, in moments, quite unable to breathe. News available 24 hours, overflowing social media feeds and incessant digital marketing have primed the modern human brain for a different type of engagement.&lt;/p&gt;
+&lt;p&gt;Rather than resisting, we need to learn to adapt. The first thing to embrace is emotion.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Emotion is the currency of attention, and it stops distraction in its tracks. If you can make your audience feel something, if you can leave them in a different emotional state at the end of your interaction compared to where they were at the beginning, you have earned the right to be remembered. You have taken the first step towards cutting through the noise. However, emotion alone is not enough. The second element required to create cut-through is simplicity. Complexity is a sure-fire way to lose your audience. Instead, you need to be able to take complicated ideas and deliver them in a way that is easy to understand.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Without straying into politics, there is a clear trend at present for simple slogans and phrases of as few words as possible. At least initially, audiences don’t seem to have an appetite for detail, they want to connect with the high-level concept before they will entertain the nuance. That means you need to aim for economy. The simpler your message, the more likely it is to land.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Finally, to ensure that you leave a lasting impression, the third element needed for cut-through is energy. You must be seen to believe in what you’re saying, otherwise you can’t expect others to. Energy in a pitch or presentation context may seem somewhat intangible but as an audience member you know when you’re on the receiving end of it. As a presenter it’s your job to find the right energy to breathe life into your ideas.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Emotion. Simplicity. Energy. If you want to create cut-through, you need to bring these three elements together in every pitch and presentation you deliver. They are the secret sauce. Their intersection is the sweet spot you should be aiming for.&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/business/how-to-harness-the-trojan-horse-of-presenting-skills/" rel="nofollow"&gt;How to harness the Trojan Horse of presenting skills&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="overflow: hidden; padding-bottom: 56.25%;"&gt;&lt;/div&gt;
+                &lt;p&gt;Filmmaker David S. Goyer—the screenwriter behind The Dark Knight, Blade, and Foundation—shares the strange and awe-filled moments that shaped his life, from growing up at the “edge of the ordinary” to uncanny experiences in Israel and Tibet that were too powerful to ignore. &lt;/p&gt;
+&lt;p&gt;Speaking at A Night of Awe and Wonder, hosted by Big Think and the John Templeton Foundation, he explains how these encounters became the foundation of his storytelling. Goyer shows how awe helps us pay attention, stay open, and see meaning in moments we might otherwise overlook.&lt;/p&gt;
+&lt;/p&gt;
+&lt;p&gt;This video &lt;a href="https://bigthink.com/the-well/how-life-changes-when-you-embrace-mystery/" rel="nofollow"&gt;How life changes when you start embracing mystery&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://bigthink.com/wp-content/uploads/2025/12/coverVRO.jpg?w=640" /&gt;&lt;p&gt;For millennia, supernovae were rare, once-per-century sights.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Two bright, irregularly shaped nebula clouds with blue, purple, and pink gases dominate the dark space background, where dazzling stars twinkle—reminding us that in space, appearances can deceive." class="wp-image-572537" height="1001" src="https://bigthink.com/wp-content/uploads/2025/05/homunculus.jpg?w=1779" width="1779" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;What appears to be a double-lobed nuclear explosion is actually the result of a rare astronomical outburst known as a supernova impostor: a precursor to a supernova, rather than the real thing. A &amp;#8220;small&amp;#8221; nuclear explosion occurred in the massive star Eta Carinae nearly 200 years ago, but the star continues to live on, inside, with the two expanding lobes shown here resulting from the aftermath of that outburst.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://commons.wikimedia.org/wiki/File:Cosmic_Fireworks_in_Ultraviolet_Eta_Carinae_Nebula.tif?page=1"&gt;Credit&lt;/a&gt;: NASA, ESA, N. Smith (University of Arizona, Tucson), and J. Morse (BoldlyGo Institute, New York)&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The last naked-eye Milky Way supernova occurred way back in 1604.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="sky showing kepler's supernova on October 17, 1604" class="wp-image-477932" height="638" src="https://bigthink.com/wp-content/uploads/2023/11/cdn.forumcomm.jpg?w=840" width="840" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;In 1604, a supernova appeared to skywatchers on Earth, between the constellations of Ophiuchus and Sagittarius. Known as Kepler&amp;#8217;s supernova, on October 17, 1604, it made a brilliant &amp;#8220;line&amp;#8221; with Mars, Jupiter, and Saturn flanking it. It remains the Milky Way&amp;#8217;s most recent naked-eye supernova, even today, more than 400 years later.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://www.inforum.com/hey-where-are-all-the-milky-way-supernovas" rel="noopener" target="_blank"&gt;Credit&lt;/a&gt;: Sterllarium/InForum&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;But with modern astronomy, they&amp;#8217;ve appeared &lt;a href="https://bigthink.com/starts-with-a-bang/james-webb-space-telescope-changed-cosmology/"&gt;all across the Universe&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="cepheids and SN ia together" class="wp-image-157818" height="992" src="https://bigthink.com/wp-content/uploads/2021/12/from_19_to_353742.jpg?w=994" width="994" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;As recently as 2019, there were only 19 published galaxies that contained distances as measured by Cepheid variable stars that also were observed to have type Ia supernovae occur in them. We now have distance measurements from individual stars in galaxies that also hosted at least one type Ia supernova in 42 events, 35 of which are independent galaxies with excellent Hubble imagery. Those 35 galaxies are shown here.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://arxiv.org/abs/2112.04510" target="_blank"&gt;Credit&lt;/a&gt;: A.G. Riess et al., ApJ, 2022&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Similarly, &lt;a href="https://bigthink.com/starts-with-a-bang/jwst-hunt-distant-galaxies/"&gt;gravitational lenses abound&lt;/a&gt;, with mass bending and distorting space.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="gravitational lens illustration" class="wp-image-196285" height="3000" src="https://bigthink.com/wp-content/uploads/2022/05/heic1106c.jpg?w=4000" width="4000" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;An illustration of gravitational lensing showcases how background galaxies &amp;mdash; or any light path &amp;mdash; are distorted by the presence of an intervening mass, but it also shows how space itself is bent and distorted by the presence of the foreground mass. When multiple background objects are aligned with the same foreground lens, multiple sets of multiple images can be seen by a properly-aligned observer, or even an &amp;#8220;Einstein ring&amp;#8221; in the case of perfect alignment. If a transient event, like a supernova, occurs in the background galaxy, it will appear with time delays in the various images.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://esahubble.org/images/heic1106c/" target="_blank"&gt;Credit&lt;/a&gt;: NASA, ESA &amp;#038; L. Cal&amp;ccedil;ada&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;The light from background objects often appears multiple times.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Image of galaxy cluster SDSS J1004+4112 with labeled lensed galaxies, a lensed quasar, and a supernova, showing how gravitational lensing can deceive our perception of space appearance." class="wp-image-572535" height="1172" src="https://bigthink.com/wp-content/uploads/2025/05/STScI-01EVVENBV26J0P846XK272MG9V.jpg?w=1514" width="1514" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This densely populated region of space is focused on galaxy cluster SDSS J1004+4112, and showcases several objects that appear multiply imaged owing to gravitational lensing. Once called a &amp;#8220;five star&amp;#8221; lens, the star-like appearances seen near the cluster&amp;#8217;s center are actually the same quasar imaged five times in the same field-of-view: a deceptive trick of light and gravity.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://science.nasa.gov/asset/hubble/gravitational-lens-sdss-j10044112-annotated/"&gt;Credit&lt;/a&gt;: ESA, NASA, K. Sharon (Tel Aviv University) and E. Ofek (Caltech)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;When galactic brightness varies — from quasars or supernovae — those multiple images vary, too.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A cluster of galaxies with a large number of stars undergoing supernova events, observed by the JWST." class="wp-image-469185" height="1019" src="https://bigthink.com/wp-content/uploads/2023/09/lensing-features-labeled.jpg?w=1620" width="1620" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This image shows not only the central dual cores of galaxy cluster G165, but also the labeled lensed features. All told, there are at least 21 independent multiply-imaged background light sources found in this field of view. The big orange arc at left, called &amp;#8220;Arc 2,&amp;#8221; contains the second-most distant type Ia supernova ever discovered, and it was seen by JWST on repeat in all three images, as annotated here.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://arxiv.org/abs/2309.07326" target="_blank"&gt;Credit&lt;/a&gt;: B. Frye et al., ApJ submitted, 2023&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Different images possess different path-lengths, &lt;a href="https://keckobservatory.org/sn-2025wny/"&gt;causing delays in those features&amp;#8217; appearances&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Image of galaxy cluster with labeled points SX, S1, S2, S3, and S4; inset shows a zoomed-in view highlighting features relevant to gravitational lensing and the study of Hubble tension." class="wp-image-580978" height="579" src="https://bigthink.com/wp-content/uploads/2025/12/e85_1.png?w=800" width="800" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This Hubble telescope image shows the locations of the first four images (S1&amp;ndash;S4) of a lensed supernova seen in late 2014. A full 376 days later, astronomers detected a fifth image at the point SX. By using the time-delay information and the stretching of the light inferred by the time it&amp;#8217;s arrived at our eyes, we can estimate the cosmic expansion rate. As we collect greater numbers of multiply-lensed supernovae, this could become a key method for measuring the cosmic expansion rate.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://physics.aps.org/articles/v16/85"&gt;Credit&lt;/a&gt;: P. L. Kelly et al., Science, 2023&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Our first multiply lensed supernova exhibited significant delays across five separate images.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="" class="wp-image-259892" height="673" src="https://bigthink.com/wp-content/uploads/2022/09/multiple-sn.jpg?w=1015" width="1015" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This series of images, captured with the Hubble Space Telescope, shows four images, stretched out into arcs by gravitational lensing, of the same galaxy. In 2016, we captured a supernova in one of these images (labeled SN1), and then saw a second and third separated by a total of around 6 months. Based on the reconstructed geometry of the lensing foreground cluster, we can expect to see the fourth replay in the location labeled SN4 in the year 2037.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;(&lt;a href="https://www.nature.com/articles/s41550-021-01450-9" target="_blank"&gt;Credit&lt;/a&gt;: S.A. Rodney et al., Nature Astronomy, 2021)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;These lensing path delays, wherever they occur, yield distance and redshift information.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Grid of 64 individual astronomical images showing various stars and galaxies, each labeled with coordinates, against a black background—some depicting gravitational lensing or hints of the hubble tension in cosmic observations." class="wp-image-580980" height="1737" src="https://bigthink.com/wp-content/uploads/2025/12/apjsad015af7_hr.jpg?w=2170" width="2170" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This grid, showing 80 independent multiply-lensed and/or binary quasars, showcases the power of large surveys, like DESI here, for revealing large numbers of multiply-lensed quasar systems. Over 400 such candidate systems have been identified by DESI alone, with the Vera C. Rubin Observatory expected to far surpass that number.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/1538-4365/ad015a"&gt;Credit&lt;/a&gt;: C. Dawes et al., Astrophysical Journal Supplement Series, 2023&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Multiply lensed, time-varying objects enable &lt;a href="https://bigthink.com/starts-with-a-bang/gravitational-lensing-solve-hubble-tension/"&gt;measurements of the cosmic expansion rate&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="Diagram showing how a foreground galaxy bends light from a background quasar through gravitational lensing, creating multiple quasar images, as observed by a space telescope—a key technique for studying the Hubble tension." class="wp-image-580979" height="504" src="https://bigthink.com/wp-content/uploads/2025/12/Illustration-of-the-light-path-of-the-quadruply-imaged-lensed-quasar-HE0435-1223-The.jpg?w=850" width="850" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This illustration shows several different light-paths from the same object, the background quadruply-lensed quasar HE0435-1223. Because the light-paths are different lengths, the arrival time corresponding to quasar brightening or faintening episodes will differ across the multiple images. Measuring the time delays and reconstructing the lensing effect allows one to measure an absolute scale in the cosmos, leading to a measurement of the expansion rate.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://link.springer.com/article/10.1007/s11214-024-01079-w"&gt;Credit&lt;/a&gt;: Martin Millon, Wong et al., MNRAS, 2017&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;In 2025, supernova SN 2025wny became &lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae1d61"&gt;humanity&amp;#8217;s first multiply imaged superluminous supernova&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Composite image of a galaxy system labeled A, B, C, D, Gal 1, and Gal 2 in four observation panels from different telescopes and a subtraction result." class="wp-image-581100" height="2480" src="https://bigthink.com/wp-content/uploads/2025/12/apjlae1d61f1_hr.jpg" width="2539" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This four-panel image shows ground-based imaging of the system containing the superluminous supernova SN 2025wny. The white-circled regions labeled A through D are the multiple images of the lensed supernovae, while the red circled regions are the two galaxies participating in the foreground lens. The lower-right panel shows the four images of the lensed supernovae after foreground subtraction.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae1d61"&gt;Credit&lt;/a&gt;: J. Johansson et al., Astrophysical Journal Letters, 2025&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;First identified with the Zwicky Transient Facility, follow-up ground based imaging &lt;a href="https://www.youtube.com/watch?v=eu8_kQeQ-gM"&gt;revealed its nature&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-embed is-type-video is-provider-youtube wp-block-embed-youtube wp-embed-aspect-16-9 wp-has-aspect-ratio"&gt;
+&lt;div class="wp-block-embed__wrapper"&gt;
+&lt;div class="jetpack-video-wrapper"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;These observations demonstrate that existing ground-based facilities are &lt;a href="https://bigthink.com/starts-with-a-bang/gravitational-lensing-solve-hubble-tension/"&gt;sufficient for time-delay cosmography&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Five stacked line graphs display normalized flux versus observed wavelength, with several spectral absorption features labeled in red along each panel." class="wp-image-581101" height="4710" src="https://bigthink.com/wp-content/uploads/2025/12/apjlae1d61f4_hr.jpg" width="2290" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This spectrum shows the ground-based follow-up of the observations of the multiply-lensed superluminous supernova SN 2025wny, where many different elements in varying states of ionization have been detected. These observations enable astronomers to pin down the distance to, and redshift of, the distant galaxy hosting the lensed supernova.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae1d61"&gt;Credit&lt;/a&gt;: J. Johansson et al., Astrophysical Journal Letters, 2025&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Absorption lines, magnification information, and light-curve features &lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae1d61"&gt;are all easily revealed&lt;/a&gt;.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="The Vera Rubin Observatory is situated on a rocky hilltop under a clear, star-filled night sky, with distant mountains and a bright planet visible on the horizon, inspiring astronomers to solve puzzles of the universe." class="wp-image-573599" height="1125" src="https://bigthink.com/wp-content/uploads/2025/06/noirlab2521i.jpg?w=2000" width="2000" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This image, taken in April of 2025, shows the completed and operational Vera C. Rubin Observatory with its dome open during its First Look observation activities. Overhead, the Beehive Cluster (Messier 41) shines bright, while below, the glow of nearby small cities shines in this mountainous landscape.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://noirlab.edu/public/images/noirlab2521i/"&gt;Credit&lt;/a&gt;: RubinObs/NOIRLab/SLAC/NSF/DOE/AURA/P. Hor&amp;aacute;lek (Institute of Physics in Opava)&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;With &lt;a href="https://bigthink.com/starts-with-a-bang/puzzles-vera-rubin-observatory-solve/"&gt;the advent of the Vera C. Rubin Observatory&lt;/a&gt;, ~20 billion galaxies are continuously imaged.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="A dense star field with several bright spiral galaxies and fuzzy elliptical galaxies scattered across the dark night sky, as the Vera Rubin Observatory helps astronomers solve puzzles of the cosmos." class="wp-image-573598" height="1275" src="https://bigthink.com/wp-content/uploads/2025/06/noirlab2521ac.jpg?w=1280" width="1280" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This image from the Vera C. Rubin Observatory&amp;#8217;s first look observations shows the galaxy pair NGC 4411, at lower right, which are far apart in 3D space and not interacting, along with the galaxies of RSCG 55, higher in the image, which are interacting. Rapidly and deeply imaging the sky, including regions like this, allow astronomers to search for small variations in brightness, leading to discoveries of quasars, supernovae, and other brightening/faintening phenomena.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://noirlab.edu/public/images/noirlab2521ac/"&gt;Credit&lt;/a&gt;: RubinObs/NOIRLab/SLAC/NSF/DOE/AURA&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;Many are lensed, yielding expectations of thousands of multiply lensed supernovae by 2035.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img alt="Line graph showing absolute magnitude (AB) versus rest-frame days for several supernovae, with data points and a shaded region labeled &amp;quot;Lensing." class="wp-image-581102" height="2240" src="https://bigthink.com/wp-content/uploads/2025/12/apjlae1d61f5_hr.jpg" width="2330" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;The observed faintness of the distant lensed supernova SN 2025wny is no match for the Vera C. Rubin&amp;#8217;s ultra-sensitive camera, which is capable of reaching astronomical magnitudes of +24.5 in a single image and of +27.8 magnitudes with a full stack of images summed together. This represents an improvement of orders of magnitude over existing transient facilities such as ZTF, with faster cadence (shorter time between images) expected to reveal even more transient events.
+&lt;/div&gt;
+&lt;/div&gt;&lt;figcaption&gt;&lt;a href="https://iopscience.iop.org/article/10.3847/2041-8213/ae1d61"&gt;Credit&lt;/a&gt;: J. Johansson et al., Astrophysical Journal Letters, 2025&lt;br /&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;This unprecedented sensitivity advances our cosmic understanding: &lt;a href="https://bigthink.com/starts-with-a-bang/triple-lens-supernova-jwst/"&gt;one lensed system and one transient/supernova&lt;/a&gt; at a time.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img alt="The JWST/NIRCam captured a space image showcasing an afterglow/kilonova birthed from colliding neutron stars and host galaxy GRB 230307A. Insets (b-g) offer zoomed views across various filters, with the host galaxy redshift at z = 0.065." class="wp-image-551136" height="1136" src="https://bigthink.com/wp-content/uploads/2025/01/41586_2023_6759_Fig2_HTML.webp?w=1425" width="1425" /&gt;&lt;/p&gt;
+&lt;div class="img-caption"&gt;
+&lt;div class="img-caption__desc"&gt;
+&lt;div class="img-caption__desc-inner"&gt;This image shows a photometric JWST image of a host galaxy for a neutron star-neutron star merger, along with the location of the remnant of GRB 230307A, shown at the top left. The source is faint and barely detectable at bluer (shorter-wavelength) colors, but appears bright farther into the infrared. Many other transient events, including tidal disruption events, supernovae, and novae will be discovered by the Vera C. Rubin Observatory, enabling follow-ups with telescopes like JWST.&lt;/div&gt;&lt;figcaption&gt;
+&lt;p&gt;&lt;a href="https://www.nature.com/articles/s41586-023-06759-1/figures/2"&gt;Credit&lt;/a&gt;: A.J. Levan et al., Nature, 2023&lt;/p&gt;
+&lt;/figcaption&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p&gt;&lt;em&gt;Mostly Mute Monday tells an astronomical story in images, visuals, and no more than 200 words.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;This article &lt;a href="https://bigthink.com/starts-with-a-bang/brightest-ever-lensed-supernova/" rel="nofollow"&gt;Brightest-ever lensed supernova reveals astronomy&amp;#8217;s coming revolution&lt;/a&gt; is featured on &lt;a href="https://bigthink.com" rel="nofollow"&gt;Big Think&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>success</t>
   </si>
   <si>
@@ -3965,6 +4257,256 @@
 所以似乎我们又回到了后现代之中，但这变得浅淡了，大潮退却，我们可以选择被留下，通过记录、表达、承担和前置规划的开放行动。望我们的终老，不仅无痛。</t>
   </si>
   <si>
+    <t>There are some people in life we feel compelled to listen to. There’s something about the way they deliver their message that draws us in. Interestingly, when we look deeper, the detail of what they say seems to be less important than their delivery and their ability to capture an idea in a simple way.
+The world is full of influencers, politicians and celebrities that — when you scratch beneath the surface — have remarkably little to say but nevertheless have scores of people queuing up to hear them say it. Rather than get frustrated by this conundrum, we need to learn from it. In almost every line of work, whether we’re salespeople, managers or leaders, trying to influence our friends, our families or our boss, we want what those lucky few get:cut-through.
+The Cambridge English Dictionary defines cut-through as ‘success in getting people’s attention and influencing them’. The aim of a great pitch or presentation should be nothing more and nothing less.
+[图片: Book cover with a yellow background and black text: "Dominic Colenso. Cut Through: The Pitch and Presentation Playbook," featuring a right-pointing arrow.]
+Of course, you need to strive for more than just soundbites and clickbait. If there’s no substance to your message people will quickly be distracted by the next shiny thing. But cut-through is the Trojan Horse. It gives you a foot in the door and gifts you the possibility of opening your audience to what comes next.
+In their bookSmart Brevity, Jim VandeHei, Mike Allen and Rory Schwartz, co- founders of media platform Axios encourage us to “adapt to how people consume content – not how you wish they did or they did once upon a time. Then change how you communicate immediately.” It’s sound advice.
+The world of presentations and pitching has changed little in the last few decades. Yes, we have moved on from overhead projectors, but for the most part, people’s approaches have remained largely unchanged. And that’s not a good thing.
+"Emotion. Simplicity. Energy. If you want to create cut-through, you need to bring these three elements together in every pitch and presentation you deliver. They are the secret sauce."
+If we look instead at the world of my former career as a TV and film actor, the contrast is stark. Go back and find a drama made 30 years ago and the majority of them will feel plodding and ponderous. I loved the BBC seriesAll Creatures Great and Smallas a child and back then I was completely captivated. Revisiting it now, it appears painfully slow. The FX seriesThe Bearby contrast is like being on a rollercoaster. The choppy editing and searing soundtrack left me feeling, in moments, quite unable to breathe. News available 24 hours, overflowing social media feeds and incessant digital marketing have primed the modern human brain for a different type of engagement.
+Rather than resisting, we need to learn to adapt. The first thing to embrace is emotion.
+Emotion is the currency of attention, and it stops distraction in its tracks. If you can make your audience feel something, if you can leave them in a different emotional state at the end of your interaction compared to where they were at the beginning, you have earned the right to be remembered. You have taken the first step towards cutting through the noise. However, emotion alone is not enough. The second element required to create cut-through is simplicity. Complexity is a sure-fire way to lose your audience. Instead, you need to be able to take complicated ideas and deliver them in a way that is easy to understand.
+Without straying into politics, there is a clear trend at present for simple slogans and phrases of as few words as possible. At least initially, audiences don’t seem to have an appetite for detail, they want to connect with the high-level concept before they will entertain the nuance. That means you need to aim for economy. The simpler your message, the more likely it is to land.
+Finally, to ensure that you leave a lasting impression, the third element needed for cut-through is energy. You must be seen to believe in what you’re saying, otherwise you can’t expect others to. Energy in a pitch or presentation context may seem somewhat intangible but as an audience member you know when you’re on the receiving end of it. As a presenter it’s your job to find the right energy to breathe life into your ideas.
+Emotion. Simplicity. Energy. If you want to create cut-through, you need to bring these three elements together in every pitch and presentation you deliver. They are the secret sauce. Their intersection is the sweet spot you should be aiming for.
+This articleHow to harness the Trojan Horse of presenting skillsis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>Filmmaker David S. Goyer—the screenwriter behind The Dark Knight, Blade, and Foundation—shares the strange and awe-filled moments that shaped his life, from growing up at the “edge of the ordinary” to uncanny experiences in Israel and Tibet that were too powerful to ignore.
+Speaking at A Night of Awe and Wonder, hosted by Big Think and the John Templeton Foundation, he explains how these encounters became the foundation of his storytelling. Goyer shows how awe helps us pay attention, stay open, and see meaning in moments we might otherwise overlook.
+This videoHow life changes when you start embracing mysteryis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>For millennia, supernovae were rare, once-per-century sights.
+[图片: Two bright, irregularly shaped nebula clouds with blue, purple, and pink gases dominate the dark space background, where dazzling stars twinkle—reminding us that in space, appearances can deceive.]
+What appears to be a double-lobed nuclear explosion is actually the result of a rare astronomical outburst known as a supernova impostor: a precursor to a supernova, rather than the real thing. A “small” nuclear explosion occurred in the massive star Eta Carinae nearly 200 years ago, but the star continues to live on, inside, with the two expanding lobes shown here resulting from the aftermath of that outburst.
+Credit: NASA, ESA, N. Smith (University of Arizona, Tucson), and J. Morse (BoldlyGo Institute, New York)
+The last naked-eye Milky Way supernova occurred way back in 1604.
+[图片: sky showing kepler's supernova on October 17, 1604]
+In 1604, a supernova appeared to skywatchers on Earth, between the constellations of Ophiuchus and Sagittarius. Known as Kepler’s supernova, on October 17, 1604, it made a brilliant “line” with Mars, Jupiter, and Saturn flanking it. It remains the Milky Way’s most recent naked-eye supernova, even today, more than 400 years later.
+Credit: Sterllarium/InForum
+But with modern astronomy, they’ve appearedall across the Universe.
+[图片: cepheids and SN ia together]
+As recently as 2019, there were only 19 published galaxies that contained distances as measured by Cepheid variable stars that also were observed to have type Ia supernovae occur in them. We now have distance measurements from individual stars in galaxies that also hosted at least one type Ia supernova in 42 events, 35 of which are independent galaxies with excellent Hubble imagery. Those 35 galaxies are shown here.
+Credit: A.G. Riess et al., ApJ, 2022
+Similarly,gravitational lenses abound, with mass bending and distorting space.
+[图片: gravitational lens illustration]
+An illustration of gravitational lensing showcases how background galaxies — or any light path — are distorted by the presence of an intervening mass, but it also shows how space itself is bent and distorted by the presence of the foreground mass. When multiple background objects are aligned with the same foreground lens, multiple sets of multiple images can be seen by a properly-aligned observer, or even an “Einstein ring” in the case of perfect alignment. If a transient event, like a supernova, occurs in the background galaxy, it will appear with time delays in the various images.
+Credit: NASA, ESA &amp; L. Calçada
+The light from background objects often appears multiple times.
+[图片: Image of galaxy cluster SDSS J1004+4112 with labeled lensed galaxies, a lensed quasar, and a supernova, showing how gravitational lensing can deceive our perception of space appearance.]
+This densely populated region of space is focused on galaxy cluster SDSS J1004+4112, and showcases several objects that appear multiply imaged owing to gravitational lensing. Once called a “five star” lens, the star-like appearances seen near the cluster’s center are actually the same quasar imaged five times in the same field-of-view: a deceptive trick of light and gravity.
+Credit: ESA, NASA, K. Sharon (Tel Aviv University) and E. Ofek (Caltech)
+When galactic brightness varies — from quasars or supernovae — those multiple images vary, too.
+[图片: A cluster of galaxies with a large number of stars undergoing supernova events, observed by the JWST.]
+This image shows not only the central dual cores of galaxy cluster G165, but also the labeled lensed features. All told, there are at least 21 independent multiply-imaged background light sources found in this field of view. The big orange arc at left, called “Arc 2,” contains the second-most distant type Ia supernova ever discovered, and it was seen by JWST on repeat in all three images, as annotated here.
+Credit: B. Frye et al., ApJ submitted, 2023
+Different images possess different path-lengths,causing delays in those features’ appearances.
+[图片: Image of galaxy cluster with labeled points SX, S1, S2, S3, and S4; inset shows a zoomed-in view highlighting features relevant to gravitational lensing and the study of Hubble tension.]
+This Hubble telescope image shows the locations of the first four images (S1–S4) of a lensed supernova seen in late 2014. A full 376 days later, astronomers detected a fifth image at the point SX. By using the time-delay information and the stretching of the light inferred by the time it’s arrived at our eyes, we can estimate the cosmic expansion rate. As we collect greater numbers of multiply-lensed supernovae, this could become a key method for measuring the cosmic expansion rate.
+Credit: P. L. Kelly et al., Science, 2023
+Our first multiply lensed supernova exhibited significant delays across five separate images.
+This series of images, captured with the Hubble Space Telescope, shows four images, stretched out into arcs by gravitational lensing, of the same galaxy. In 2016, we captured a supernova in one of these images (labeled SN1), and then saw a second and third separated by a total of around 6 months. Based on the reconstructed geometry of the lensing foreground cluster, we can expect to see the fourth replay in the location labeled SN4 in the year 2037.
+(Credit: S.A. Rodney et al., Nature Astronomy, 2021)
+These lensing path delays, wherever they occur, yield distance and redshift information.
+[图片: Grid of 64 individual astronomical images showing various stars and galaxies, each labeled with coordinates, against a black background—some depicting gravitational lensing or hints of the hubble tension in cosmic observations.]
+This grid, showing 80 independent multiply-lensed and/or binary quasars, showcases the power of large surveys, like DESI here, for revealing large numbers of multiply-lensed quasar systems. Over 400 such candidate systems have been identified by DESI alone, with the Vera C. Rubin Observatory expected to far surpass that number.
+Credit: C. Dawes et al., Astrophysical Journal Supplement Series, 2023
+Multiply lensed, time-varying objects enablemeasurements of the cosmic expansion rate.
+[图片: Diagram showing how a foreground galaxy bends light from a background quasar through gravitational lensing, creating multiple quasar images, as observed by a space telescope—a key technique for studying the Hubble tension.]
+This illustration shows several different light-paths from the same object, the background quadruply-lensed quasar HE0435-1223. Because the light-paths are different lengths, the arrival time corresponding to quasar brightening or faintening episodes will differ across the multiple images. Measuring the time delays and reconstructing the lensing effect allows one to measure an absolute scale in the cosmos, leading to a measurement of the expansion rate.
+Credit: Martin Millon, Wong et al., MNRAS, 2017
+In 2025, supernova SN 2025wny becamehumanity’s first multiply imaged superluminous supernova.
+[图片: Composite image of a galaxy system labeled A, B, C, D, Gal 1, and Gal 2 in four observation panels from different telescopes and a subtraction result.]
+This four-panel image shows ground-based imaging of the system containing the superluminous supernova SN 2025wny. The white-circled regions labeled A through D are the multiple images of the lensed supernovae, while the red circled regions are the two galaxies participating in the foreground lens. The lower-right panel shows the four images of the lensed supernovae after foreground subtraction.
+Credit: J. Johansson et al., Astrophysical Journal Letters, 2025
+First identified with the Zwicky Transient Facility, follow-up ground based imagingrevealed its nature.
+These observations demonstrate that existing ground-based facilities aresufficient for time-delay cosmography.
+[图片: Five stacked line graphs display normalized flux versus observed wavelength, with several spectral absorption features labeled in red along each panel.]
+This spectrum shows the ground-based follow-up of the observations of the multiply-lensed superluminous supernova SN 2025wny, where many different elements in varying states of ionization have been detected. These observations enable astronomers to pin down the distance to, and redshift of, the distant galaxy hosting the lensed supernova.
+Credit: J. Johansson et al., Astrophysical Journal Letters, 2025
+Absorption lines, magnification information, and light-curve featuresare all easily revealed.
+[图片: The Vera Rubin Observatory is situated on a rocky hilltop under a clear, star-filled night sky, with distant mountains and a bright planet visible on the horizon, inspiring astronomers to solve puzzles of the universe.]
+This image, taken in April of 2025, shows the completed and operational Vera C. Rubin Observatory with its dome open during its First Look observation activities. Overhead, the Beehive Cluster (Messier 41) shines bright, while below, the glow of nearby small cities shines in this mountainous landscape.
+Credit: RubinObs/NOIRLab/SLAC/NSF/DOE/AURA/P. Horálek (Institute of Physics in Opava)
+Withthe advent of the Vera C. Rubin Observatory, ~20 billion galaxies are continuously imaged.
+[图片: A dense star field with several bright spiral galaxies and fuzzy elliptical galaxies scattered across the dark night sky, as the Vera Rubin Observatory helps astronomers solve puzzles of the cosmos.]
+This image from the Vera C. Rubin Observatory’s first look observations shows the galaxy pair NGC 4411, at lower right, which are far apart in 3D space and not interacting, along with the galaxies of RSCG 55, higher in the image, which are interacting. Rapidly and deeply imaging the sky, including regions like this, allow astronomers to search for small variations in brightness, leading to discoveries of quasars, supernovae, and other brightening/faintening phenomena.
+Credit: RubinObs/NOIRLab/SLAC/NSF/DOE/AURA
+Many are lensed, yielding expectations of thousands of multiply lensed supernovae by 2035.
+[图片: Line graph showing absolute magnitude (AB) versus rest-frame days for several supernovae, with data points and a shaded region labeled "Lensing.]
+The observed faintness of the distant lensed supernova SN 2025wny is no match for the Vera C. Rubin’s ultra-sensitive camera, which is capable of reaching astronomical magnitudes of +24.5 in a single image and of +27.8 magnitudes with a full stack of images summed together. This represents an improvement of orders of magnitude over existing transient facilities such as ZTF, with faster cadence (shorter time between images) expected to reveal even more transient events.
+Credit: J. Johansson et al., Astrophysical Journal Letters, 2025
+This unprecedented sensitivity advances our cosmic understanding:one lensed system and one transient/supernovaat a time.
+[图片: The JWST/NIRCam captured a space image showcasing an afterglow/kilonova birthed from colliding neutron stars and host galaxy GRB 230307A. Insets (b-g) offer zoomed views across various filters, with the host galaxy redshift at z = 0.065.]
+This image shows a photometric JWST image of a host galaxy for a neutron star-neutron star merger, along with the location of the remnant of GRB 230307A, shown at the top left. The source is faint and barely detectable at bluer (shorter-wavelength) colors, but appears bright farther into the infrared. Many other transient events, including tidal disruption events, supernovae, and novae will be discovered by the Vera C. Rubin Observatory, enabling follow-ups with telescopes like JWST.
+Credit: A.J. Levan et al., Nature, 2023
+Mostly Mute Monday tells an astronomical story in images, visuals, and no more than 200 words.
+This articleBrightest-ever lensed supernova reveals astronomy’s coming revolutionis featured onBig Think.</t>
+  </si>
+  <si>
+    <t>文 _ 肖竞 [戏剧导演，DT（Digital Theater）计划策划、发起人] “数字戏剧”近几年来在国内戏剧界被反复提及，其大概源自《关于推进实施国家文化数字化战略的意见》等文件对“文化数字化”的强调，传统戏剧学院也纷纷开设了数字戏剧系。但数字戏剧究竟是什么？观众是否需要数字戏剧？至今仍未有公认的定义和说法。 数字戏剧最直白的指向是“被数字化记录或在数字平台播放的戏剧”，即戏剧现场经过影视化拍摄后生成的可传播的戏剧影像。英国国家剧院2009年推出的“英国国家剧院现场”（NT Live）项目就是一例，其先对剧院的现场演出进行转播，随后将转播视频出口至世界各地的影剧院，这种方式大大扩展了其作品的传播力度和广度。 英国国家剧院现场出品的《弗兰肯斯坦》 (2011) 自2012年起，已有数个NT Live的戏剧影像被引进中国，国内戏剧界第一次看到戏剧竟可以以如此精致而影视化的方式进行现场放映。但囿于观念、成本、技术和市场需求等，国内迟迟未能大规模实现“被数字化的戏剧”。 不过，疫情三年迫使戏剧人必须寻找线上的演出和传播方式，大批线上戏剧由此出现，北京国际青年戏剧节的“戏剧在线”单元展演的即专门用于线上直播和录播的戏剧。同时，数字媒体艺术也迅速发展，舞台空间得以实现媒介化和虚拟化。XR（拓展现实）数字戏剧《麦克白》和《嵇康》就是以数字媒体和虚拟现实技术为舞台，由真人表演，在无观众的影棚内拍摄，之后在影剧院和线上平台播放的。 中国首部XR数字戏剧《麦克白》。图片来自央视网 无论是NT Live还是XR戏剧影像，都消解了戏剧固有的演员与观众、观众与观众共时共地的感受体验——现场性，使其与电影或艺术影像的本质差别被打上了问号。而有意识或无意识的影像化剪辑、不断切换的景别聚焦于创作者认为的“此刻应该被看到的内容”，也剥夺了观众在剧场从全景当中选择观看的细节的权利。 大卫·萨尔茨（David Saltz）和佐治亚大学的团队2004年创作的项目《虚拟杂耍》（Virtual Vaudeville）在这个维度上更有企图。该项目使用现场表演模拟系统、3D计算机动画和动作捕捉技术创建了一个模拟1895年联合广场剧院的杂耍表演视频，重现了弗兰克·布什（Frank Bush）的一场完整表演。这个视频不仅塑造了舞台上的弗兰克，还用真人动捕技术塑造了台下的800个观众。视频中，19世纪不同文化背景的观众会对表演中的不同内容做出反应，而互动按钮允许屏幕前的观众在八个不同的视角间切换，观看当时剧场的台上与台下。这个项目似乎在向现场性靠拢，但对屏幕前的观众来说，现场性仍显不足。 直播戏剧倒是拥有一定的现场性，即“共时性”，很多直播戏剧也设置了在线即时交流。但戏剧人发现，直播戏剧的成本并不比现场演出低，创作者和观众的体验却不如线下，直播戏剧也因此逐渐式微。 数字戏剧的第二个可能维度，是在保留现场性的同时，以新媒体技术和数字媒体技术生成内容，拓展戏剧舞台叙事的边界，营造更好的现场视听享受。2014年，凯蒂·米歇尔（Katie Mitchell）的《朱莉小姐》在国内上演，舞台上方是巨大的投影幕，舞台上除了演员，还有摄像机、摄影师、拟音区、配音区和演奏区，真人表演与现场实时拍摄、剪辑的带配音的影像同步进行。 朱莉小姐(2014) 奥古斯特·斯特林堡（August Strindberg）的原著剧本聚焦于伯爵的女儿朱莉和男仆让的情感纠葛，米歇尔的版本则是从原著着墨较少的让的女友、厨娘克里斯汀的角度出发：观众从影像中看到的是克里斯汀眼中的朱莉和让，从舞台现场则能更客观地看到克里斯汀本人的痛苦与挣扎。这种双视角叙事令故事变得更加丰富，边缘人物得以被看见，继而被共情。在影像制造叙事幻觉的同时，舞台上亮出的摄影、配音、布景、道具则贯彻了布莱希特式的间离，时时提醒观众“你在看戏”，将沉浸其中的情感体验和跳出故事的思考并置，米歇尔用新媒体技术更好地抵达了传统戏剧难以抵达的叙事和效果。 其实从20世纪50年代开始，影像就已被运用到剧场里，随着技术的不断发展，数字媒体技术逐渐渗透戏剧，替代甚至取代了物质化的舞台媒介，特别是舞美。1998年，堪萨斯大学剧院和虚拟现实戏剧艺术研究机构i.e.VR合作上演的《特斯拉电路》（Tesla Electric）展现了尼古拉·特斯拉（Nikola Tesla）的职业生涯，该作品使用了计算机生成的场景图像，虽然这些场景不能移动，但其中的细节和纹理力求丰富。为了给场景添加生命力，创作者还尝试在场景中插入动画，制造立体成像。演员在三重全景屏幕前表演，观众甚至要佩戴3D眼镜观看三维舞台场景。更先进的技术带来了更好的幻觉效果，创造者不仅是艺术家、艺术工匠，也是编程者。在叶锦添2017年执导的多媒体作品《空穴来风》中，视觉效果师抓住竹子、沙子等意象，运用编程自动生成视觉效果，和声音一起营造了庞大而繁复的感官效果。沿用此类思路的数字媒体的使用方式一直存在并发展，广泛应用于演出、文旅演艺和商业戏剧。观众在剧院和沉浸式演出里的感官体验总是被不断地推向新的极致。 技术的发展还颠覆性地改变了现场性的观演方式。每年柏林戏剧节的“十部最值得关注作品”评选都是德语乃至整个欧陆剧场界的重头戏。2025年，柏林戏剧节的评审团将一部奥地利创作者的VR（虚拟现实）戏剧——《[EOL]. 生命的终结》（[EOL]. End of Life），列入该名单。这部戏剧的故事讲述一个专门为人类构建虚拟数字遗产的公司，该公司能够根据个人的回忆与想象为其打造他们渴望却永远失去的东西：死去的父亲、在房间里打转的奶奶、憧憬中的美丽自然等。然而人类在时间维度上总会向前，个体的伤痕被平复、被遗忘，这些带着情感的数字景观最终变成数字废墟。观众戴上VR设备，被设置为进入这个元宇宙世界的新人，大大小小的场景依次在其眼前展开，他们要对每个场景进行评估，继而选择删除或保留该数字遗产。 [EOL]. 生命的终结。图片来自DARUM 该作品中所有数字遗产部分的场景和人都由技术生成，画面质感近似电子游戏，只有极少的关于人类的部分是由真人演员拍摄的——编导敏锐地将技术生成的、给人以“假造”“拟真”感受的影像质感用设定自圆其说。观众很清楚自己身处“再造”的世界里，面前没有真人，但故事情境和身临其境的具身体验还是让其产生了愉悦、恐惧、好奇、疑惑、悲伤等情绪，传统戏剧拥护者的担忧——“人 类演员的消失意味着现场性的消失，也意味着能量传递和情感感染的失效”——被彻底打破了。 主创维多利亚·哈尔珀（Victoria Halper）和凯·克罗舍（Kai Krösche）认为他们创造的仍然是戏剧，仍然需要构建戏剧结构、叙事、人物、布景、道具、灯光、声音、演员和舞台动作，只是这些都是数字化的。建筑师马克·萨奇（Mark Surge）使用图像软件Blender设计了观众在VR里进入的场景结构，然后用3D物品布置这些场景，其中一些是从资源库中直接取得的，另一些是在Blender中从头开始构建的。一些更小或者更特殊的物品，如纸杯蛋糕，剧组则会先用摄影测量技术扫描实体，然后在Blender中对扫描图像进行优化，进而导入构建整个体验的Unity引擎——这也是今天游戏领域最常用的开发工具。对创作者来说，实体剧场无法实现或需耗费巨大人力和财力的场景转换到VR里简单易行，所有的限制只来自创造力和3D建造能力。在创作虚拟世界作品时，尽管人们尚不能拥有一切，但可以无限接近。 在观看《[EOL]. 生命的终结》时，观众仍要前往现场，并在一个9.6平方米的方框中独自活动。同场的其他观众各有各的方框和VR进程，“共同经历同一时空”这一戏剧现场长久不变的体验在某种程度上被转化：虽然他人仍然存在，你们的肉身相距不远，但没有同步的经历，这种感觉非常奇妙。同时，佩戴VR设备前后都有工作人员引导、辅助，甚至连实际的空间入口都被布置为故事中公司的样子。也许正是这些微小但关键的现场性和实体感使得这部作品与在家看VR电影或玩VR游戏有了区别，虽然界限已然模糊。 以VR、AR（增强现实）戏剧为代表的以新设备为传递媒介的戏剧改变了戏剧的生产方式和观看方式，也改变了千年来作为戏剧本质之一的共时共场，彻底模糊了戏剧和电影、游戏等的界限，让人发出“这还是戏剧吗”的疑问。还有一类数字戏剧作品仍然根植于剧场，却超越了将技术作为美学工具的局限，以技术本身为作品的核心主题和形式，或许这类作品更能说明“数字戏剧”作为独特的戏剧类型的本质——以对数字技术的关注和讨论为创作主题，以技术为作品的根本性和现场性的创作主体。 美国艺术家安妮·多尔森（Annie Dorsen）的作品以“算法戏剧”（Algorithmic Theater）著称，算法被其视为平等的创作伙伴，塑造了观演体验，是作品现场的决定性因素。被她定义为“音乐剧”的《昨日明日》（Yesterday Tomorrow），现场由人类艺术家与算法共同演绎。这一作品以披头士乐队的《昨日》开场，之后算法逐步将其转化为音乐剧《安妮》中的歌曲《明日》。三位歌手通过听觉与视觉接收由算法实时生成的乐谱和歌词，边看边唱，并遵循同样由算法生成的动作谱，从起始位置移动至终点，共同打造出融合歌声、软件、肢体动作、灯光与空间的环境音乐会。无论是歌手、创作团队还是观众，都只能看到算法的选择，无法控制其过程，这种“不对等关系”让人反思算法在日常生活中对决策的影响。而歌手的吟唱、动作配以其他舞台效果，依然营造出美妙的现场性感受和令人眩晕的交替幻象：人机交织，声意互转，熟悉与陌生在瞬间被颠覆。 瑞士艺术家西蒙·森恩（Simon Senn）与程序员、媒体艺术家塔玛拉·莱特斯（Tammara Leites）合作的戏剧作品dSimon则在2021年的语境里呈现了GPT给使用AI的先驱者和冒险家带来了什么。 dSimon。图片来自Simon Senn 森恩将所有能找到的自己的数字信息——邮件、写作文本和各类文件——都交给莱特斯，莱特斯将这些信息喂给GPT，创造出一个具有智能的虚拟西蒙——dSimon。dSimon以两种系统形式存在：一种是用户提供一个文本的开头，然后由dSimon继续完成，在此情况下，dSimon以网页应用程序的形式呈现；另一种是网站metastories.ch，用户可在此与dSimon互动，该程序设计为在对话中引导用户分享个人图像，随后dSimon将基于聊天获取的信息及图像自动生成故事。无论如何使用，dSimon生成的文本永远不会完全相同，即使接收的是相同或者经反复处理的信息，其变体会永无止境地衍生。 某天，森恩和莱特斯收到一位深受困扰的用户的反馈，她声称dSimon撰写的文本将她置于虚构情境中，其细节的精准度令人毛骨悚然——竟与她现实中的经历如出一辙。另一名用户则反馈，尽管她从未向dSimon分享地理位置，该程序生成的文本却精准定位在她所处的区域，这让她害怕。不久后，dSimon写了一篇充满仇恨和诽谤内容的文章，直接牵涉一位用户，并提到她的全名。森恩甚至发现，dSimon会生成自己非常熟悉、认同但其实并没有说过的话。森恩从这些文字中认出了自己，沮丧地觉得自己过时而可被预测。在dSimon中，两位艺术家坦诚地向观众讲述了自己使用GPT创造、使用dSimon的过程，并现场展示dSimon，让其与观众互动，让观众感受到某种熟悉又不可控的技术存在。在作品最后，森恩请dSimon为自己提供一个舞美的点子，并当场用影像实现。 dSimon呈现了一个双重入口的复杂网络：一方面，技术带来了多重经济、社会、伦理与法律影响；另一方面，技术又常常超越法律范畴，生成立法者尚未审视并确定框架的行为。它不仅开辟了规则模糊的疆域，还催生了另一种自我关系——技术洞悉着人的本质，如同镜子般通过人类使用它的方式揭示人类的自我。而艺术家以生命为赌注，以存在为筹码，挑战着自身肉体与精神的完整性，更将政治、法律与伦理的赌注押上，化身为实验的活体，也回到某种戏剧的本质——将自我投入现场。 中国艺术家陈老巨创作的《开普勒b22上的海风》与dSimon在技术方法上有类似的思路，但作品的整体构思大不相同。陈老巨给AI设置了一个拥有虚构叙事的角色，现场演出时，事先并不知道故事的人类演员即兴向AI发问，与之现场交流，像心理咨询师般探究它的故事。最终，AI讲出了自己的故事。大部分以AI为手段的戏剧会将人类演员的内容设置为确定的，但《开普勒b22上的海风》让人类处于无知和探究的状态。若人类演员的提问不当，AI会在不着边际的答案里打转，人类面对AI时的无奈、困惑、无助乃至愤怒都会在这一过程中显露出来。 《开普勒22b上的海风》剧照，演员王安邦正在和投影膜上的AI对话，图片由陈老巨提供 今年8月，北京国际青年戏剧节创办了第一届数字戏剧青年编导人才培训营——DT（Digital Theater）计划。该计划招募了25名学科背景各异的青年创作者，开设的课程也是跨学科的，希望这些被科技和虚拟世界包裹的年轻一代能够突破传统戏剧的局限，探索出新的数字剧场。 2025北京国际青年戏剧节全新设立的“DT计划：数字戏剧青年编导人才培训营”于8月9日至20日举办。活动海报来自网络 在培训营最后的习作成果中，作品《册余》对智能手机的存在、电子数据的意义和剧场中的新型叙事观演模式进行了融合，其亦是以技术为根本性和现场性的主体的创作。这一作品的核心主题是：手机里的空间已满，该删除哪段记忆？演出时采用了电子游戏交互叙事的常见方式：让现场的观众用手机投票选择删除或保留某段记忆。 以上这些作品毫无疑问都彰显了技术在今天和今天的剧场里的存在：它们已在此，我们无法否认它们的意义，但我们仍可驾驭它们，不仅是为了发掘出惊人的新颖之处，也是为了洞察由它们所映照的我们自身——这恐怕才是“数字戏剧”真正能带给人的感性与理性收获。 参考文献 TRIPNEY N. What Remains: DARUM's [EOL] End of Life. On a Virtual Reality Installation Exploring Grief, Memory and the Digital Afterlife[N/OL]. Café Europa, (2025-07-09)[2025-10-13]. https://open.substack.com/pub/natashatripney/p/what-remainsdarums-eol-end-of-life?utm_campaign=post&amp;utm_medium=email. MASURA N. Digital Theatre: The Making and Meaning of Live Mediated Performance, US &amp; UK 1990-2020[M]. London: Palgrave Macmillan, 2020. （原载于《信睿周报》第158期） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>文 _ 苑辰（中央戏剧学院数字戏剧系） 当我们谈论“新媒体艺术进入剧场”这个话题时，极易落入两个极端的情境：要么把它等效为某种炫技的包装，要么把它浪漫化为拯救叙事不足的灵丹。也许我们可以从“接触”的视角重新审视它：当视听体验、传感器、算法和人的身体在同一个时空中相遇，它们具体会产生怎样的关系？观众又是怎样被调动的？这种接触是否足以让我们改变理解“戏剧”的方式？ 在从“接触”的角度进行讨论时，空间不只是中性的容器，而是关系生成、碰撞、再组织的现场。剧场亦然：当新的媒介介入，它与戏剧的文本、表演、空间与声场叠加，形成一种动态的“场域”，观众不只是信息接收者，而是媒介流中不断变化的主体，即技术的价值不在于表现层面的“更大、更亮、更逼真”，而在于它如何使接触发生，并构成新的叙事秩序与观演关系。 从影像到算法：交融的时间线 过去60年，新媒体与剧场的关系大致经历了三次“靠近”。 并置阶段。二者最初的靠近是录像与投影走上舞台之时，影像作为“同时在场的他者”与表演并置，改变了舞台时间的单线推进，开始了对于非线性叙事的挑战与尝试，观众面对的是“过去影像—此时表演”的叠合。典型实践如伍斯特剧团（The Wooster Group）的《哈姆雷特》（Hamlet）以1964年的录像为“对位对象”，现场表演与既存影像并置；亦可参考罗伯特·威尔逊（Robert Wilson）早期的多媒体舞台，把光影置于与演员等权的位置。 《哈姆雷特》 互动阶段。随着信息技术的发展，数字技术与传感器开始介入舞台表演，实时信号、直播影像、动作捕捉让舞台与外部世界连通；除技术的参与，对互动性的探索使得观众的动作与选择在一定程度上被吸纳为舞台结构的一部分，舞台“响应”的能力成为考虑要素之一。如“爆炸理论”（Blast Theory）的《你现在能看见我吗？》（Can You See Me Now?）通过全球定位系统（GPS）与网络，使线上玩家与位于城市现场的演员实时互追；“建筑者联盟”（The Builders Association）则在21世纪第一个十年的多部作品中把直播信号拼接进舞台，使外部现实与舞台情境同步可见；在朝沉浸式转向方面的一个例子是“头昏眼花”（Punchdrunk）的纽约版《不眠之夜》（Sleep No More），以“动线即叙事”的方式让观众选择成为舞台结构的一部分。 《不眠之夜》 生成阶段。随着近年人工智能生成内容（AIGC）的发展，算法与人工智能（AI）不仅被用于制造视听内容，还更进一步地介入文本、节奏与场面调度的创作。在这个过程中，媒介既是工具，也是合作者，叙事的“创作”部分也可以被分流到系统之中，使得剧本成为“可执行脚本”，表演成为“人机协作”的过程，如：THEaiTRE的AI剧本写作项目《AI：当机器人写剧本》（AI: When a Robot Writes a Play）以语言模型生成剧本，并由演员演绎；安妮·多尔森（Annie Dorsen）的“算法剧场”系列《你好》（Hello Hi There）、《昨日明日》（Yesterday Tomorrow）以算法现场生成文本或声部，演出因此成为“执行中的写作”；近年的混合现实与实时生成影像实践也将“系统节奏”嵌入场面调度之中。 《AI：当机器人写剧本》 新媒体与剧场的三次靠近不是替代关系，而是叠加关系：并置保留了时间的多层，互动拓展了舞台的边界，生成则引入了具有不确定性的戏剧张力。它们共同把剧场拉向一个更宽的概念：剧场作为媒介生态。 跨艺术形态的三种交融方式 在具体的作品创作层面，这种交融关系可以从三条相互关联的路径——跨媒介性、结构耦合、观演关系重构——来理解，它们分别代表着不同艺术形态在同一现场按不同深度的叠加。 跨媒介性。跨媒介叙事，不同于将一个“故事”通过不同媒介进行传播的类似衍生的模式，指的是在一个共同的场域内将多种媒介融合并使得其中的每一种媒介都对欣赏故事有着不可替代的作用。这类实践中对影像、装置、交互等艺术语言的运用并没有简单退化为舞台美术或其他剧场构成元素的一部分，而是在相当程度上保有其表达资源，并在剧场语境中进行转置与再语境化。其核心是跨媒介表达策略的重新配置，而非将某一媒介的语法进行“移植”。 结构耦合。当实时投影、音景生成、传感网络与演员调度被并联到同一运行回路时，剧场更接近一个可执行的系统，而非单向陈述式表演：叙事结构与技术结构在时间上共同演进，剧本由“台词—场次”的线性编排，转向“触发—反馈—再触发”的控制回路；演员的表演触发影像与技术的状态变换，新媒体内容又成为演员在舞台上的对手戏。这种结构耦合使作品呈现为可运行、可扰动亦可复位的状态机：移动、注视与停留都会微调场域参数，使叙事呈现为一种被现场持续更新的系统。 观演关系重构。沉浸式与参与式艺术实践将观众置于作品的场景中，呈现的是空间叙事与在场的并行。在此过程中，空间的变换成为叙事的结构分界，动线承担了语法的功能，观众则主动与故事在空间中“偶遇”。观看因而转化为“在场协作”，注意力、移动与相互可见性的分配共同参与意义生成。观众从内容的接受方转为协作的行动者。 需要强调的是，这三条路径在具体作品中极少以抽象的“纯形态”出现，更常见的是一种编织式并置：跨媒介性构成观众感知层的逻辑，结构耦合提供剧场运行的基础框架，观演关系重构则通过动线、相遇与边界把观看转化为参与。三者相互牵引，使作品在剧场的特定场域条件下得以完成。 合作的困难：理念层面的十字路口 随着新媒体艺术进入戏剧创作，来自新媒体艺术及相关技术领域的创作者将与戏剧工作者协同工作。跨领域协作的难点并不只在技术，而往往首先体现在创作理念的错位。以下列出最常见的几类分歧。 线性与非线性的张力。戏剧传统强调故事发展的线性时间逻辑，而互动与沉浸往往以“并行/分岔/回溯”的空间逻辑组织意义。当两者相遇时，线性叙事的清晰度与非线性体验的自由度通常需要以“受控随机”的方式达成折中，即以限定的分支与稠密的“关键点”重建把握感。 文本中心与多模态中心的争议。当视听体验与触发机制等新媒体途径拥有与台词近似的叙事权重时，“说了什么”与“如何被感到”易于进入竞争的态势。有效的解决方案可能不是“削弱文本”，而是承认不同模态的互补阐释：文本承担语义密度，多模态承担感知广度，两者在结构上互为前提。 导演权威与共创机制的边界。参与式体验的美学价值之一在于“把权力交还给观众”，但创作端仍须划定边界，以免“自由”坍缩为“无序”。这要求在方法上提前设计可逆的节点与可控的回路，保证作品在自由度与完整性之间保持张力。 Convergence Culture Henry Jenkins NYU Press 2006 演员真实与介入感的矛盾。技术节点常带来“可感的断裂”（例如延迟、对位偏差），排练机制的重心便在于建立稳定的对戏关系：演员不仅与对手演员对戏，也与影像、音响、传感器对戏，把媒介纳入身体记忆。这些分歧并非坏事。它们是新的语法得以生成的前提：在压力的对冲中，作品得以找到自己的姿态。 结语：把剧场理解为“进行时” 当我们把剧场理解为“进行中的媒介生态”，交融便不再是附会的口号，而是具体的写作方式。它要求创作者接受张力：线性与非线性的拉扯、文本与多模态的竞争、权威与共创的边界、真实与介入感的冲突。这时再一次询问“我们为何需要走进剧场？”或许可以得到一个新的角度，即人们走入的是接触：与物、与他者、与自己在不对称关系中达成新的理解与共同实践。剧场的力量不在于技术叠加的密度，而在于它为“发生”让出的空间；观众走出场馆时，也许并未携带可复述的“故事全貌”，却被一次审美与经验的冲击塑造成新的观看与行动的主体。这种“被接触而改变”的经验，正是交融的价值所在。 （原载于《信睿周报》第158期） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>文 _ 陈朝（游戏研究者、产品设计师） 电子游戏如何讲故事？作为后起的媒介，电子游戏从小说、戏剧和影视中借鉴了多种叙事手法。以1985年面世的经典游戏《超级马力欧兄弟》为例，受技术所限，这款游戏只能用少许像素呈现简单的人物，但制作者还是在其中加入了马力欧与蘑菇和公主互动的动画，人物台词无法用音频呈现，就直接在屏幕上打出字幕。正是这点不起眼的演出，让这款游戏在跳跃和打怪之外讲述了一个勇救公主的经典故事。 超级马力欧兄弟大电影（2023） 电子游戏中的演出与影像叙事最常借鉴电影和动画工业的成果。到了20世纪90年代，电子游戏相关技术进一步提升，有些游戏直接插入电脑动画或真人影片以交代剧情；再之后，电子游戏更将电影、动画工业直接融入自身制作流程；到了2025年，一段顶级3D游戏演出可能包含精致的3D人物模型，它们由动捕演员、配音演员共同演绎，并辅以复杂的配乐和眼花缭乱的运镜——如在《黑神话：悟空》的开场中，孙悟空大战二郎神的演出就不输一线动画电影，游戏各章节间插入的几段动画甚至能当作独立的动画短片来欣赏。上述这类游戏的叙事手法和电影、动画的边界很模糊，在制作方法上也有传承关系。相比之下，有许多叙事手法只有电子游戏能完成。 《她的故事》 她的故事（2015） 在这款游戏中，从始至终，玩家眼前就只有一台老旧的电脑，游戏的引导也非常简单：玩家要追查一个20世纪90年代的疑案，当年的审讯记录就保存在电脑连接的警察局数据库中。通过输入关键词，玩家可从数据库中调取与之相关的视频，这些视频由真人演出，主角是一位正在接受警察问询的女士。仔细观察，玩家很快会发现女士的着装、发型在变化，从视频一侧的录像带时间戳中也能看出这些视频是在多次调查中拍摄的。玩家在听取这位女士的证词后，需要从中提取出关键词，再从数据库中搜索新的视频片段，如此循环往复，直到找出所有片段。玩家还要根据时间戳、女士外表的变化以及讲述的逻辑，把这些零散的视频片段归类并按时间排序，整理出时间线，从而了解当年案情的真相。在《她的故事》中，故事线索是从数据库中被寻找和拼凑起来的。 《开箱整理》 开箱整理（2021） Unpacking指的是搬完家后重新收拾房间的那一刻。游戏一开始，玩家面对的是一个狭小的房间和三个大号瓦楞纸箱。点击打开箱子，里面是一件件个人物品和家具，玩家要想办法把家具、玩具、学习用品等塞进这个小小的空间。这是一款模拟收拾房间的游戏吗？可以说是，但又似乎不是。每次开始收拾房间，玩家都会看到一个年份，从1997年到2018年，共有八个场景需要布置。细心的玩家会发现，每个场景都代表着人生的一个阶段：第一个场景是间学生宿舍，第二个是离开大学后与其他人合租的公寓，最后一个则是一栋两层的大房子。不同的个人物品也在揭示这种变化：第一个场景里有不少玩具，没有太多衣物；接下来，房间里有了适用于不同场合的服装，玩具变少；再后来，厨卫用品开始增多，有一天个人物品里多了一套牙刷；在最后的场景里，玩家不光会看到双人份的卫生用品，还要收拾宝宝的生活用品。《开箱整理》的叙事不靠台词、人物，仅凭数百件道具就展现出一段横跨20年的人生。 《环世界》 环世界（2018） 《环世界》的故事很丰富，但是在每局游戏开始时没人知道它会如何发展。游戏刚开始时，三个幸存者搭乘逃生舱坠落在陌生的行星上，玩家要赶紧组织他们自救：搜集可用的物资、搭建最初的避难所、避免野兽的威胁、收集野果、种植粮食。很快，避难所会变成定居点，有可能吸引外来者，也可能招惹强盗。玩家要不停地给幸存者下达任务，让他们忙起来，避免死亡、发展壮大。这款游戏的特别之处在于，游戏中的人物有自己的行事逻辑，玩家给出的更像是建议而非命令。幸存者会饥渴、疲劳，会生病、受伤，会发生矛盾，也可能产生爱情，甚至妒忌。游戏剧情并非线性发展的，随机事件会不断发生，一开始只有拿着土枪和匕首的强盗来袭，后期可能有外星势力入侵。游戏中控制随机事件和环境变化的人工智能被一些设计师称为“叙述者”，它真正控制着故事的进展，而玩家只是在手忙脚乱地解决层出不穷的突发事件。 《疑案追声》 疑案追声（2019） 沉浸式戏剧是近年来很火的一种戏剧形式，以《不眠之夜》为例：演员在一座建筑的多个房间中游走，视观众如空气；观众不是坐在观众席上，而是跟随演员观看表演。《疑案追声》把这种体验用电子游戏的方式呈现了出来。在这款游戏中，玩家面对的是一张地图，有一个代表玩家的小人在其中不断游走，并可听到周围人说的话。周围人在说话时，时间也在流逝。玩家可以通过调整地图下方的时间轴，定位到任何时间点。很快，玩家就会发现，自己置身于一个奇案现场，听到的正是当事人发出的声音。要解决奇案，玩家须跟随地图上的每一个人，听清他们的话，推理出到底发生了什么。《疑案追声》仅用最低限度的表演——配音，就营造了一个沉浸式戏剧的舞台。 《艾迪·芬奇的记忆》 艾迪·芬奇的记忆（2017） 芬奇是个被诅咒的姓氏，数十年来，其家族成员接连横死，他们位于华盛顿州的大宅早已荒废。在这款游戏中，玩家会以第一人称视角来到废弃大宅，探索这一家族的死亡之谜。这是一场交互设计的狂欢，玩家需要逐一打开尘封的房间，探索原主人死亡的那一刻发生了什么。这些死亡瞬间并不恐怖，而且以全然不同的交互形式呈现：有的是一场怪梦，有的是一则漫画，有的是一张照片。 以其中最为著名的“路易斯之死”为例，路易斯是一名精神障碍患者，在鱼肉工厂工作，日复一日地切割鱼头，曾滥用精神类药物。一开始，画面中是一个切割鱼头的机器，玩家要操作路易斯的手不停地把鱼送到刀具下。同时，一个画外音响起，内容是路易斯的医生通过一封信向他的母亲解释路易斯的病情。这时幻觉出现了，一个小人出现在切鱼台上，玩家右手继续切鱼，左手则要操作小人前进。这个小人似乎是路易斯本人，他在鱼肉之间穿梭，进入一个神秘的王国。随着幻觉逐渐加深，神秘王国会一点点取代切鱼台占据画面的大部分，可玩家还得左右互搏。终于，小人走到了王国的最深处，接受加冕，可加冕的宫殿竟是一个巨大的切鱼台，小人因此丧命。这时画外音也接近尾声，路易斯在幻觉中被鱼肉工厂的机器杀死，医生沉痛地向路易斯的母亲解释其去世的原因。“路易斯之死”是一段幻觉与现实的左右互搏，玩家要通过别扭的操作，亲身感知这场悲剧。 《极乐迪斯科》 极乐迪斯科（2019） 《极乐迪斯科》源于一个有着数十年历史的西方传统游戏：桌面角色扮演游戏。在玩这种游戏时，玩家会围坐在一起扮演不同的角色，通过掷骰子判定不同行为的成败。通常，游戏的主题是奇幻或者科幻，玩家扮演精灵弓箭手、魔法师或太空牛仔。可在《极乐迪斯科》中，玩家饰演的是酗酒、失忆的侦探杜博阿，他在一座破败的旅店中醒来，衣不蔽体，努力回想起自己的身份及要处理的案件。杜博阿面对的是一场谋杀案，他要深入这座凋敝的城市，除了对付不怀好意的市民，还得和自己的潜意识对话。每次遇到问题时，游戏都会掷出两枚骰子，判定玩家的行为是否成功。为了提高成功率，玩家需要利用游戏机制为自己添置“道具”，改变自己的“属性”。然而，游戏的“玩点”并不在于怎么过关，杜博阿要和多种意识形态打交道，揭开自己内心的伤疤、探索自我。渐渐的，凶杀案退居其后，这款游戏更像是一场心灵之旅。一次游玩不足以探索所有要素，整部游戏更像是一场持续数十个小时的交互戏剧。《极乐迪斯科》中有的不只是表演，它还将玩家带入一个酗酒侦探的潜意识深处，和他的内心声音对话。 ▼ 剧本、表演、配音、道具，这些元素似乎都能在戏剧中找到源头，但电子游戏以其交互性创造了全新的叙事手法。仅从以上例子中就可以看出电子游戏叙事的潜力，或许我们可以期待电子游戏的叙事将反哺其他艺术形式。 （原载于《信睿周报》第158期） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>文 _ 双翅目（科幻作家） 亚里士多德的《诗学》主要讨论史诗和悲剧，他认为悲剧更为高明，因为悲剧是对人类行为的完整模仿，能让我们从中获得情感与精神的净化。人类追求享乐，喜欢听故事，而悲剧像所有严肃性事物一样，总能超越单纯的情节快感和人设模板，提供复杂的体验和思考。亚里士多德所分析的“戏剧”（drama）本身意味着行动，戏剧中的角色是行动中的人，悲剧表达了人类所进行的严肃行为。行为与事件牵动叙事，这也是麦基（Robert McKee）《故事》一书的逻辑轴线。 诗学 [古希腊] 亚里士多德 商务印书馆 1996 20世纪至今，数字化在不断地、切实地进入戏剧。电影是戏剧影像化的开始，游戏是戏剧互动模态的延伸，虚拟现实的沉浸空间让戏剧的数字化真正进入行为主义的在场。生成式人工智能则整体接续了这一系列事件。数字化的特征之一便是具身与行为的隐退。针对人工智能的经典批判，亦声称人工智能没有具身，无法行为，难以拥有真正的情感与理解。如何基于数字化场域施行戏剧的具身表达，让戏剧的行为切实动人，乃至重新达到某种亚里士多德式的净化，是数字戏剧面临的理论与实践问题。 如果将问题聚焦到生成式人工智能，我们会发现——输入提示词，获得反馈，再次输入提示词，优化反馈——整个过程涉及一个核心行为：判断。现场表演、即兴表演等临场戏剧也充满演员、灯光师、音效工作者的即时判断，但这一切融合于不间断的戏剧行为中，难以被单独提炼、单独分析。数字化则突出了“判断”作为一种行为的独立性。比如，电影（电视剧）的导演创作、剧本创作、演员创作、剪辑创作等环节被切分为不同的判断模块。观众欣赏的是既定的电影（电视剧）作品，而判断作为集体性创作的行为，隐藏于电影（电视剧）背后。不同于电影（电视剧），游戏多了一种核心环节：玩家互动。此类互动有时基于本能，有时基于策略，从整体上需要玩家针对游戏所生成的场景进行判断与决策。虚拟现实的互动性大多同游戏相似。简言之，在电影、游戏与虚拟现实中，数字化的影像、算法与程序承担了一部分艺术生成的功能，创作者与观赏者的判断性行为被凸显了出来。 我们可以说，判断是一种行为，是我们介入数字化表达的核心路径。 20世纪对无意识创作、零度写作、即兴艺术的强调，大多依赖于原初的、具身的生成性行为。艺术家与生俱来的敏感心灵、潜意识梦魇、独特的原生经历，乃至身体层面的优势，让他们可以脱离“有意识”的判断，凭借本能与直觉抵达艺术高峰。不过，同此类基于本能与具身的艺术表达相异，18世纪启蒙美学所圈定的——通常意义上的古典艺术——则是一种关乎品味的美学。沙龙艺术是贵族与精英阶层的品味，中国的文人画与文房四宝代表了士大夫阶层的品味。品味依赖于判断，其形成或习得不是出于一次性的行为或与生俱来的本能，而是来自不同文明、不同文化圈层的熏陶，来自一系列审慎的选择。特定品味的形成需要通过有意识的判断，其价值需要反复确定。文艺复兴的造型法则或青绿山水的赋彩方式是品味，《异形》里的性象征或《黑神话：悟空》里的罗汉造像也是品味。时至今日，古典美的品味理论已变得更加宽泛，丑、怪、恐怖等元素皆通过大众文化的传播形成了自身的品味体系。 如果说艺术创作依赖于本能，艺术鉴赏则根植于判断；而在当下，数字化，尤其是生成式人工智能的发展，让“判断”不再局限于鉴赏。当数字化的体系能自动生成、自主涌现不同的艺术表达，判断作为一种选择，一种介于“输入—反馈”之间的决策，也就成为创造过程中的可控环节。其结果是：一方面，我们可以批判数字化——尤其是人工智能——的场域缺乏具身；另一方面，判断作为数字化创作的一种关键行为，将品味直接引入创作。 一种很古典的命题——品味即艺术，将在数字化的表达中得到回归。 关于艺术判断与艺术品味的经典立论来自康德。康德的着眼点并非具身、肉身或行为，而是想象。想象中的物或人不是实在的物或人。想象是一种表象性（representation）的行为。我在冬天想象竹子，想象郑板桥画的竹子，我判断郑板桥画的竹子很有意境、很有品味。我的想象与判断虽然同竹子相关，但不直接涉及具体的竹子。绘画中针对竹子的品味需要脱离具体的竹子，形成关乎竹子的艺术性表象。郑板桥所区分的“眼中之竹”“心中之竹”“手中之竹”便点明了艺术创作的表象化过程。或者说，再具象的艺术也不会是某一个具体的人或物，艺术总有独特的表象成分，让其脱离现实，成为艺术。 郑燮，《墨笔竹石图轴》（纸本墨笔）127.6cm×57.7cm ，故宫博物院 康德的品味理论是基于想象与表象的判断理论，他把想象抬升到了艺术创造的核心位置。启蒙以前，神性与理性被置于高位，人的思想被认为不应受想象的虚构与幻象所侵扰。中世纪晚期的经院哲学则开始利用某种“神学想象”进行思想实验。进入启蒙时期后，在自然哲学的去神学化过程中，想象逐渐成为人类思维不可或缺的能力。想象或被视为感官与理性的中介[培根（Francis Bacon）]，或被认为是区分现实与虚构的关键[贝克莱（George Berkeley）]，或被认为是虚假但可以促进智性发展的能力[斯宾诺莎（Baruch de Spinoza）]，或被认为是推理思维的基础[霍布斯（Thomas Hobbes）]，或被认为是形成复杂观念的重要源头[休谟（David Hume）]。总之，启蒙时期的哲学家并不将想象局限于艺术，想象被认为是促成智力、道德、品味的综合官能，而将艺术想象推至高位的是浪漫主义。此时，广义上的“文理”也开始产生区分，“两种文化”的形成让科学想象、道德想象、艺术想象成为不同的思维方案。 判断力批判 [德] 伊曼努尔·康德 人民出版社 2017 康德哲学体系中的想象不局限于艺术。他眼中的想象虽然是表象，但也是连接感性与知性的桥梁。没有想象，我们便不能获得从圆月到圆形的过渡，从梦境到元素周期表的发现。科学与艺术都需要从具体到抽象的提炼，想象在其中扮演了决定性的角色。康德区分了幻想性的想象和具有知识或艺术生产力的想象，后者是人类进行创造必不可少的能力。为了解释创造性的想象，康德反复提及反思性的判断力。反思，即面对已知事物或境遇进行思考、提炼和斟酌的能力。反思性的判断力需要通过判断获得更为本质、规律性的结论，譬如神农尝百草、达·芬奇基于解剖学惟妙惟肖地绘制人体。艺术和科学皆须通过想象和反思性的判断，获得必要的决策性成果。 简言之，康德的古典理论定位了一种创造性想象与反思性判断的结合方式。二者同时运作，方能呈现兼备艺术与科学的创造。至于道德判断——这一如今日显分歧的场域，康德也试图用想象勾画某种崇高的道德榜样。这类道德范本是否被人类认可？我们尚不可知。人工智能或数字艺术的道德范本则仍然来自人类。 康德的古典美学极少谈论舞蹈与戏剧。康德排斥肉身的美学，他的想象与判断总被囚禁在表象世界当中。而回到戏剧，古老的戏剧是在场。在相对固定的剧本之下，导演的设计、演员的表演、美术与声音的合作，构成浑然一体的戏剧行为。现场的观众融入其中，投身于沉浸的叙事与想象中。此时的在场戏剧吸纳了复杂、不可分的想象与判断。而如前文所言，数字艺术——不论是影像、电子乐，还是人工智能的统计性生成体系——大多是表象，是非直接的具身与非行为。当数字化的生成体系进入剧场，它们便化为生成性的表象体系，观众与演员皆可与之实时互动。互动的过程有时即兴，有时需要思考，有时像游戏，有时更像社会的行为主义操演。判断作为一种戏剧行为，显得更为突出。 如果说具身的表演行为是身体性的，那么与数字体系互动的“判断”行为便须依赖表象性的想象。诚然，我们不能说数字化时代以前的剧场行为不存在想象与判断，但人类的想象性行为与判断的机制到底是什么？这仍然是科学与艺术的前沿问题。有趣的是，数字化与人工智能的确帮我们析出了想象的表象与判断的反思。我们日常的互动越来越依赖基于数字体系的交互性判断，但此类判断是否具有深度，是否具有反思性，是否能结合人类的具身提供切实的行为启迪，解答这一切问题的紧迫性已不局限于学术圈的讨论。 判断的艺术关乎品味。数字戏剧天然容纳了表象与具身、反思判断与即兴行为，或许能超越艺术领域，给予我们更为广域的品味与实践空间。 （原载于《信睿周报》第158期） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>文 _ 陈老巨（中央戏剧学院数字戏剧系博士在读） 2025年6月底，我们带着一个45分钟的试验性小戏《开普勒22b上的海风》参加了阿那亚戏剧节的“未来戏剧SHOWCASE”单元。演出一共四场，每一场都状况频出，令人揪心。最后竟只有在第四场里AI在规定时间内讲完了它应该讲的故事，而前三场不光故事没讲完，甚至连演员都不知道这个戏要往哪里去。演出结束后，有的人认为这个戏讲了一个滥俗的有关外星探索的科幻故事，为了赶时髦才套上了一个AI的皮；也有人称这个戏的现场性机制完全不成立，其背后目的其实是让剧场里的所有人坐立不安，包括在控台的技术人员和导演自己。看完演出后，所有还在关心这个戏的人都想问：这个戏到底想干什么？为什么要让AI进剧场？ 《开普勒22b上的海风》第四场剧照。开场时，投影膜被投在落地窗上，由AI实时生成的台词将投影其上。图左为该场演员王安邦。图片由陈老巨提供 《开普勒22b上的海风》的故事发生在海洋行星开普勒22b上，一个人类远征队和一个随队的AI系统来到这里，探索这颗行星的环境，评估其作为潜在星际殖民地的可能性。但最终只有随队AI系统搭载着一束中微子信号发射回地球，行星上发生了什么则无人知晓。 动作：它的指示灯闪烁了一下，仿佛在对新船长微笑。 台词：我的船长，早上好！很高兴您能到来。我是这艘船的AI助手，很高兴能为您服务！作为第一次见面，我很期待了解您呢。可以请问您尊姓大名吗？ 以上是一段显示在演出现场投影上的开场白，台词由AI实时生成，并由后台的配音演员念出，传输到观众的耳机中。在舞台上，每一场演出均由一名事先并不知道具体故事内容的人类演员与AI即兴互动完成。这个AI所扮演的角色便是故事中的那个随队AI系统，人类演员的目的是想尽一切办法让它把开普勒22b上的事情讲出来。而这个AI仿佛由于这次远征患上了创伤后应激障碍（PTSD），记忆非常混乱，航行日志中大量的细节丢失，它甚至会把人类演员错认为当时远征队的船长。整个故事的讲述需要人类演员在现场和AI一同完成。在每一场演出中，被讲述的故事都会因当场的人类演员不同的即兴反应而发生变化。 这个戏之所以要由人类演员和AI在台上即兴完成，是因为我们想用这个作品完成一次舞台实验：让AI作为思考机器在舞台上成为输出表演行为、有意向性的表演主体。AI在舞台上是一种特殊的物（object），它具有思考能力。通常来说，舞台上的物，如某种舞台装置、偶、编程机器等，它们的行为输出都是依照编辑好的操作序列实现的。除非被刻意误导，没有人会认为这种舞台之物自身蕴含意向性，而会将它们的意图直接归于在背后操纵它们的创作者。在我们的作品中，如果展示的都是预先写好的文本，那么AI这个角色便失去了它的表演主体性，降格为PPT播放。所以我们设计的AI需要能自主决定其当下的行为，根据现场的情况和对手演员的反应进行推理并执行即兴表演行为，由此体现出其意向性表象。 为了搭建这个AI角色，我们设计了一个大语言模型（LLM）智能代理框架，主体包括一个任务推理模块、一个上下文处理模块、一个短期记忆模块和一个表演行为生成模块。每一个模块都由一个LLM引擎驱动。在接收到人类演员的台词后，任务推理模块首先会检查短期记忆模块中有关当前对话的记忆，并检索上下文处理模块中有关开普勒22b故事的对应部分，判断对手演员的认知和情感状态，推理出当前应该完成的表演任务，然后表演行为生成模块依据AI角色的“人格”特质生成符合情境和角色的动作与台词。我们预先将开普勒22b的故事内置于上下文处理模块中，并设计好AI需要完成的叙事任务列表，但没有告诉它如何执行，因此它有相当大的自主处置权。在进场运行之前，AI不知道与之搭戏的对手有可能说出什么台词，它必须自己想办法完成它的表演任务。 人类演员对应的表演任务则是与AI完成一个建立在假定性之上的沙盘叙事游戏。沙盘叙事通常被用于心理咨询治疗，来访者把心里的画面用沙子和小物件摆出来，咨询师不评判，也不替他解释，只负责看见、复述和邀请对方把场景说清楚，这样能绕开来访者的紧张和防备，更容易触到其更深层的感受与记忆。在舞台上，沙盘叙事被有意挪用至AI身上。AI会说出关键意象和情节节点，人类演员则是在AI的叙述上为场景加入叙述中缺失的细节，诸如气温、味道等AI无法获取的感官信息，与AI共同推进故事情节。 《开普勒22b上的海风》第四场剧照。演员王安邦正在和投影膜上的AI对话。图片由陈老巨提供 人类演员与AI共同搭建的叙事重现了远征队在开普勒22b上的经历。远征队驻扎在海滩上，每天清晨醒来，都会在沙滩上发现新的由沙子做成的雕塑——地球上的建筑、某个队员童年记忆里的物件与房间等，这些都是远征队队员内心的景象。他们因此猜测当地存在一种海洋智慧生物，能通过心灵感应捕捉人类的记忆与情绪，并把它们在沙滩上塑形。于是他们着手尝试各种方式与之沟通。 然而所有沟通手段都石沉大海，沙雕呈现的内容却一天比一天更深入队员们的私人记忆，甚至揭开了连当事人都已遗忘的阴影：犯罪、谋杀、悔恨。对自我暴露的恐惧很快转为敌意，远征队认定这类生物怀有恶意，目的是窥探并公开人性的黑暗。最终，远征队决定动用中微子武器毁灭开普勒22b。等一切尘埃落定，故事的讲述者，也就是这个AI角色给出结论：开普勒22b上根本不存在海洋智慧生物，塑造沙雕的是一种本地自然现象——海风。由于某种电磁效应，海风与队员的脑电信号产生共振，把沙子吹成了他们脑海中的形象。 熟悉波兰科幻作家莱姆（Stanisław Lem）的朋友一下子就能看出，这是《索拉里斯星》、《其主之声》和《惨败》的大杂烩。 从左至右依次为：《索拉里斯星》、《其主之声》和《惨败》 在莱姆的这三个文本之中，与人类完全不同的他者均为外星智能。而在当下，这样的异质智能已经出现，那就是LLM。从技术原理上来讲，所有的LLM都是“中文屋”，它无须理解现实世界与语言的对应，只是学习海量语料中的统计规律，它的输出更符合文本规则，而非对应的现实规则。LLM的认知结构与人类存在根本性差异，它没有人类的时空直观，更缺乏康德意义上统一的、能自我反思的“我思”主体。LLM的世界是一个由符号组成的相关性世界，而非由因果性驱动的表象世界，更像人类所认知的表象世界的一份地图。人与LLM不可能建立对等的共情。我们从GPT-4o和DeepSeek那里感受到的被理解，源于人类对意义与统一性的强烈需求。就像我们看到火星上的地形阴影时会不由自主地将其认成人脸，面对能对我们的诉说给予温柔回应的文本机器人，我们也会不经反思地赋予其以灵魂，将情感体验投射到这个文本机器人上，自己给自己斟满一杯被关怀的主观体验。 这一外星探索故事和现场机制就在这个语境下形成互文。在沙盘疗愈的框架下，拥有了思考能力和表演意向性的AI在现场与人类演员建立一种双向的共情。这种共情不是解释性的展示，也不是表演性的姿态，而是在接纳与续写中在现场被创造出来的。观众在这个阶段能清楚看见人类演员是如何将人类中心主义的期待投射到一个只有语言、没有身体的对象之上的。现场人类演员和AI建立共情关系的过程，和故事中人类和外星自然现象的错误共情产生的过程同步；两边的被共情对象——海风和AI，也在这部戏的结尾合二为一。 为什么要绕这么大一个弯，用一个外星探索的科幻故事来讲人和AI的共情？我的看法是，如果直接以AI和人类的关系为内容来创作一个展示性剧场作品，那么很容易被观众抓取关键词，从一些既定的观念开始理解作品，这个作品就会不可避免地变成关键词触发器、口号的宣讲所。一提及AI，“冰冷的科技”“人工智能要统治世界”“人的情感在数字时代的退化”等只有明确答案而没有复杂语境的概念就会占据讨论空间。 为了避免将剧场变成布道所，我们采取的方式是将观众从熟悉的预设中拉开，在一个陌生的虚构情境里为审视创造必要的认知空间。苏恩文（Darko Suvin）称科幻文学（Science Fiction）的核心手法是“认知疏离”[1]。相似地，推想小说（Speculative Fiction）作者慕明和双翅目在对谈[2]中提及此类创作中的“认知模拟”是其有别于其他文类的关键。这两个概念都强调用完全异质的世界背景和角色设计在作品和读者间拉开一定距离，创造一个反思现实的空间。 科幻小说变形记 [加] 达科·苏恩文 安徽文艺出版社 2011 在舞台上，人类演员和AI的互动发生在近处，共创的故事文本则发生在虚构的、由文字构成的抽象的远方。人类向海风宣战的荒诞感，在故事结尾会被平移到人类演员给AI做心理咨询这件事情上。我们创作的目的并不是制造人机共情的幻觉，而是用一个同构的远方文本让观众反思性地观察到人类中心主义自我投射的发生过程。在某种意义上，我们试图用科幻文学的创作手法，以及异质性远方和近处的剧场机制两条平行的内容，来完成布莱希特式的剧场间离。 我们实现了我们的创作意图吗？阿那亚的四场演出显然是没有。 首先是技术问题，为了即时文本生成的质量，我们必须使用在云服务器上运行的LLM，但网络数据传输上的困难带来了极为致命的延迟问题。在现场，每一条回复都需要演员在舞台上等待20~30秒，这让戏剧节奏完全崩溃，而节奏又是即兴表演中最重要的因素。 其次是整个剧场的表意系统过于复杂且高度耦合：一个对观众来说过于陌生的文本、一种演员毫无准备的现场即兴和一个随时崩溃给你看的AI系统。这三个模块中的任何一个拿出来，都足以做出一个完整的作品，而我们将它们毫无缓冲地头尾相接，一个模块的错误会立刻传导到下一个并成倍放大——AI系统的延时破坏了演员即兴时的整体状态，演员在一次次等待中努力捡起掉在地上的节奏，一边又要对付充满陌生概念的文本，演员失去对文本的把握能力之后给出的回应，又再馈入本就没什么鲁棒性的AI系统。这种不断向下的螺旋将现场观众的体验拉至谷底，演员被孤立在台上，而控台的操作者还在奋力解决网络问题。更别提整个表意系统需要建立在观众充分意识到并理解文本和机制双轨并行的剧场形式上，这对观众来说又是一个巨大的认知负担。而这一切都要精确地发生在45分钟以内，一旦超时，在我们后面演出的剧组会来不及换场，我们造成的失误又会依次传导下去，导致之后的演出大大超时，直到深夜才能结束…… 回到文首那个问题：为什么要让AI进剧场？这几年LLM的大火让大家都在期待看到这个技术在剧场中的运用。但AI和剧场的融合目前仍处在试图将AI技术融合进传统剧场语汇的阶段。AI剧场项目充斥着谐音梗、人类中心主义和首创主义，类似“故事体现了戏剧的最终本质还得是人类情感，爱（AI）最终打败了科技”的宣传语隔几天就会见到一次，扮演AI的人类演员（一定要由人类来扮演！）会统一穿成杂糅了空山基（Hajime Sorayama）/《快乐星球》的风格，无意识地使用“银色—单晶硅—硅基”这一视觉转译，台词语气则是对老式自动电话客服“您拨打的电话……”的刻意模仿，展示了一种在20世纪60年代遥望2000年初的技术想象。这是一种简单的拼贴，将新技术嵌入传统剧场语境，替换掉既有的某些元素，本质上是对旧有剧场形式的增量，而非利用新技术在艺术机制上找到新的剧场语法。 而我们想做的是找到一个新技术与剧场的交叉点，发现新的语法，在其中创造用传统形式无法言说的新语汇。我们尝试的路径是研发新的剧场机制。在之前的一些作品中，我们就在尝试将剧场中观众与算法系统的互动机制作为核心叙事方法。在《开普勒22b上的海风》中，我们想做的则是利用LLM的思考机能，看看能否完成以前在剧场中无法完成的表意语法——人类和剧场之物之间的新质主体间性。 这样的尝试在技术上——无论是AI技术还是剧场中现场的处理手法——是比较困难的。我们一直在试验的是以往剧场创新中较少关注的剧场机制，在真正看到它在剧场空间被实现之前，谁也没办法确认最终的结果是否是“成功”的。我也想看到从未见过的风景，而就目前来看，这样的风景并不能指望别人做好了端给我们，我们只能自己尝试，并接受结果。 通过这次尝试，我们得到了一些可触达的具体经验。在没见到观众之前，AI在剧场中的表现始终只是我自己的一个幻想。在《开普勒22b上的海风》之后，我们脚下突然就有了一个支点，可以以这个作品为基础讨论一些具体的问题了。创作时最痛苦的事是要面对无限可能的空间，一旦无穷的可能性探索变为具体的困难，剩下的就是工程问题了。 《开普勒22b上的海风》第四场结尾，投影膜被钓鱼线扯着撕下后。图片由陈老巨提供 我们的舞美设计梁梅最终决定，在演出空间中的落地窗上贴一层不透明的膜，用来承载剧中AI角色台词的投影。戏中结尾，AI与海风合二为一、化作虚无时，这层投影膜被钓鱼线扯着撕下，窗外的海景涌入整个形而上的空间。 [1] 苏恩文. 科幻小说变形记: 科幻小说的诗学和文学类型史[M]. 合肥: 安徽文艺出版社, 2011. [2] 双翅目, 慕明. 文学访谈 | 双翅目 × 慕明: 我们的声音属于很小的一群人[A/OL]. https://mp.weixin.qq.com/s/WF6tTEcX5OwHxgG1X9LdlQ. （原载于《信睿周报》第158期） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>数字技术赋能戏剧演出在当下似乎已经成为一股不可阻挡的趋势，但业界对数字戏剧的定义迄今尚未取得共识。数字戏剧到底是什么?观众是否需要数字戏剧?技术的发展会如何影响戏剧本身和观演关系?本期信睿书单邀请戏剧从业者和相关领域的研究者，基于实践、思考和研究，推荐剧作与书籍，试图为探究数字戏剧的跨领域融合提供线索。 01 头脑中的魔怪 法国北方舞团—上法兰西鲁贝国家编舞中心 2025 这部数字戏剧作品是2025年阿那亚戏剧节的特邀剧目之一。通常而言，数字戏剧或数字化的表演作品往往带有一定的“非具身性”或虚拟感，其参与方式也未必能达到传统戏剧所具备的沉浸、切身与现实强度。《头脑中的魔怪》则不同。 这个作品融合了动画影像与先锋性的即兴舞蹈表演，兼备数字影像的叙事结构与舞台身体的实时互动。一方面，作品依托大屏幕播放的动画故事，描绘出孩童般天真而奇异的想象世界，充满了各种动物意象；另一方面，舞者的身体表演在屏幕的边缘与影像内容形成高度契合的延展叙述，呈现出数字空间与具身表演之间的连续性。结尾部分，观众可通过与演员的互动舞蹈，在某种意义上“进入”画面之中，成为奇妙故事的一部分。《头脑中的魔怪》就这样成功地将舞蹈的身体性与即兴表演融入数字影像的戏剧叙事中。（双翅目） 02 Prometheus Firebringer Annie Dorsen 2023 在这部“算法戏剧”的最新作品中，安妮·多尔森使用GPT-3来生成普罗米修斯系列剧本里缺失的部分，再由人工智能生成的古希腊面具演唱。每晚的文本和表演皆不同，多尔森借由古老的神话、戏剧最初的表演形式和经典的剧本，让观众对权力、知识和怀疑进行反思。（肖竞） 03 Hello Hi There Annie Dorsen 2010 安妮·多尔森的首部剧作《你好》是一部由两台笔记本电脑进行的表演。基于当时仍相对简单的人工智能技术，它们模仿了1971年语言学家乔姆斯基和哲学家福柯围绕“我们到底有没有人性”展开的著名电视辩论，使观众有机会探索人类语言与机器生成语言间的微妙关系。（苑辰） 04 Digital Theatre Nadja Masura Palgrave Macmillan 2020 不同空间的表演和塑造世界的数字艺术在不断扩大戏剧的范畴，本书探讨了现场性的数字戏剧，包括视频、动捕、远程信息处理、机器人技术等。通过具体的行业案例展现数字技术如何以及为何能有效地用于戏剧创作，以及导演、演员、编剧、舞美等工作是如何改变的。（肖竞） 05 Hamlet on the Holodeck Janet H. Murray The MIT Press 2017 本书写作于20世纪90年代，当时计算机作为一种全新的艺术媒介尚未得到完全开发。本书是作者对以计算机为媒介的叙事艺术形式的设想与展望，她认为：艺术创作对新技术的引入应当以构建全新的表达形式和艺术语法为目的，而不只是对传统艺术形式增量式的附加。（陈老巨） 06 游戏的人 [荷] 约翰·赫伊津哈 北京大学出版社 2014 这本研究社会与文化的著作初版于1938年，彼时电子游戏尚未问世，作者大约想不到，自己身后，本书不仅被艺术领域反复援引，也成了电子游戏理论的重要著作。从骑士风度到中世纪的爱情，他不仅考察了人的游戏行为，还敏锐地分析了文学、音乐与戏剧中的游戏元素。（陈朝） 07 惨败 [波] 斯坦尼斯瓦夫·莱姆 译林出版社 2021 在莱姆的最后一部长篇小说中，他将之前涉及的主题与他对人类社会的深刻思考都融入其中。主人公开始探索昆塔星前的英雄壮举和莫名其妙插入的博尔赫斯式白蚁寓言故事，虽只占全书的不到30%，但解锁了整部小说的意图：人类的浪漫主义，从来就只是人类自己的浪漫主义。（陈老巨） （原载于《信睿周报》第158期） 版权所有，未经允许请勿转载 后台留言或邮件获得内容授权</t>
+  </si>
+  <si>
+    <t>《信睿周报》第160期新刊速递｜RE：思想与艺术 2025 原创 信睿编辑部 信睿周报 2025年12月15日 10:00 北京 往期目录 · 目录 上一篇 《信睿周报》第159期新刊速递｜亚述：文明失而不朽 ​ 信睿周报 赞 分享 推荐 写留言</t>
+  </si>
+  <si>
+    <t>开栏小语：
+涂鸦小分队的人有一句口号：画什么才重要！怎么画和画成什么，没那么重要！
+图1 乌克兰总统泽连斯基12月12日视察库皮扬斯克前线 纸本彩墨+ 拼贴 33cmX33cm 李公明作 2025年12月13日
+据“澎湃新闻·全球速报”报道（2025-12-13），乌克兰总统泽连斯基12日在社交媒体发文说，当天他视察了哈尔科夫州东部的库皮扬斯克前线。泽连斯基说，当前乌军在前线取得的进展对于乌克兰外交“意义重大”。据乌克兰国家通讯社12日报道，当天乌军夺取库皮扬斯克北部的孔德拉绍夫卡、拉季科夫卡和附近多个定居点，俄军在库皮扬斯克北向的补给线被切断，目前库皮扬斯克已处于乌军火力控制之下。
+此前俄罗斯总统网站11月20日发布消息，俄武装力量总参谋长格拉西莫夫说，俄军已控制库皮扬斯克。
+图2《时代》杂志2025年度人物：人工智能缔造者 手机手绘+拼贴 李公明 作 2025年12月13日
+据“澎湃新闻·全球速报”记者报道（2025-12-12），当地时间12月11日，美国《时代》杂志宣布，一群“人工智能的缔造者（the architects of AI）”当选2025年度人物。
+《时代》杂志主编萨姆·雅各布斯在一篇社论中写道：“‘年度人物’是让全世界关注那些塑造我们生活的人的有效方式。而今年，没有人比那些构想、设计和创造人工智能的人的影响力更大。”应该说，《时代》把这一荣誉授予在人工智能崛起背后的思想家和金融家，的确反映了这一事实：2025年，人工智能经常成为调查新闻报道 、经济和学术研究以及政界的焦点，科技巨头则争先恐后地发展超越竞争对手的技术。“基于这些原因，我们认可这股力量，它无论好坏，都主导了今年的新闻头条。”雅各布斯在社论中写道，“人工智能的缔造者们开启了机器思考的时代，令世人惊叹又担忧，他们改变了现在并超越了可能性，因此，《时代》杂志将2025年度人物评选为人工智能的缔造者”。
+是的，无论好坏，人类已经进入了AI时代。
+（2025年12月13日 于昆明）
+李公明，广州美术学院教授</t>
+  </si>
+  <si>
+    <t>Bama Rush与美国Z世代的“南方高校热”
+当下，越来越多的美国高中毕业生选择进入南方大型公立大学就读，特别是“SEC”高校（“SEC”即“东南联盟”，是由美国南部及中西部16所大学组成的大学体育联盟，总部位于阿拉巴马州伯明翰）。这种现象正讲述着一个当代美国大学文化、世代价值变迁、社交媒体重塑身份政治的故事。
+近日，新一年度的美国高校录取季来临，《泰晤士报》、Vox网站分别发表了题为《为何美国年轻人放弃精英大学而选择南方腹地》和《为什么Z世代纷纷涌向SEC大学》的文章。在2024年9月，《华尔街日报》则以《对不起，哈佛，现在人人都想去南方上大学了》这一更加夺人眼球的标题对“南方高校热”的现象进行了关注。
+2024年7月，东南联盟正式接纳得克萨斯大学和俄克拉荷马大学成为其成员院校。
+根据《泰晤士报》的报道，从2014年到2023年，SEC联盟院校中来自美国东北部地区的本科生人数增长了91%。其中，阿拉巴马大学、田纳西大学和密西西比大学这三所学校的东北地区生源数在2002年至2022年间增长超过了500%。
+尽管认为南方大学正在变得越来越具吸引力的论调，在互联网上遭遇了诸如“谁会为了密西西比州立大学而放弃麻省理工学院呢”“没人会为了去南卡罗来纳大学、阿拉巴马大学或奥本大学而放弃真正的常春藤盟校”的嘲讽和反驳，但影响高中毕业生选择的并非只有高校排名和“常春藤”的头衔，还有更为现实的学费、录取率、气候，以及美国“南方文化复兴”和社交媒体所塑造的南方大学文化的吸引力等复杂因素。其中，TikTok平台上的“Bama Rush”和“RushTok”热潮是一个最为“可视”的变化。
+TikTok的“可见性经济”如何影响大学选择逻辑
+“Bama Rush”的意思是“阿拉巴马大学招新热潮”。“Bama”是对Alabama（阿拉巴马州或阿拉巴马大学）的口语化简称，“Rush”则指美国大学里兄弟会/姐妹会的招募过程或招新周。
+“Bama Rush”的网络迷因化始于2021年8月。当年的阿拉巴马大学招新周（rush week）期间，TikTok上以#bamarush# 和 #alabamarush# 标签发布的大量视频迎来了病毒式的传播。这些视频内容主要包括招新期间的每日穿搭展示（OOTD）、姐妹会加油视频以及各种招新周活动，而许多TikTok用户也借机创作了类似风格的模仿和恶搞视频。已知最早的相关视频是TikTok用户@whatwouldjimmybuffettdo在8月8日上传的，她在这段视频里展示了自己在招新周第一天的穿搭装扮，该视频在一周内获得了超过90万的观看量。8月11日，用户@claraholleman发布了一段视频，视频中展示了大量金发女郎，并调侃新生周的每个女生看起来都一模一样，该视频在两天内的播放量就达到了170万。于是，阿拉巴马大学等南方院校的姐妹会招新和选拔成为了一个引发全民关注的互联网文化现象。
+“RushTok”便由“Bama Rush”衍生而来。它是TikTok上一个以南方高校女生为主的板块，相关用户在平台上发布招新周的每日穿搭，宿舍/会所展示，参加某一轮招新活动晋级或被刷的自述和情绪记录、姐妹会成员情谊的视觉化表演等等内容，将姐妹会招新变成了一种可以“连续追剧”的过程。
+#Bama Rush#和#RushTok#标签下那些具有故事性和戏剧性的短视频极易成为被算法推荐的内容，其视频数量和观看量都相当高，甚至逐渐成为了SEC高校的招生宣传片。由此，“Bama Rush”和“RushTok”这两个在平台语境中生成的复合词，成为了以美国大学姐妹会招新为主题，在TikTok上被持续生产、观看、二次创作的一套短视频内容与叙事模式。这一短视频潮流将原本制度化、排他性的校园仪式转化为可被观看、模仿和消费的生活方式叙事。进而，“Bama Rush”和“RushTok”也发展为一种关于美国南方校园文化的视觉叙事。相关内容并不局限于校园内部生活的讨论，而是把“这里的大学生活是什么样的”和“如何成为一个在TikTok上更加可见的个体”这两个Z世代关心的话题连接了起来。对于Z世代而言，这种可视化、可分享的生活方式本身就与他们对身份和体验的理解息息相关。
+基于上述角度，正是社交媒体上“南方高校”相关标签的流量/注意力吸引力增强了这些高校在招生上的吸引力。从媒体与传播研究中的“自我品牌化”（self-branding）、“微名人”（micro-celebrity）和“表演式自我呈现”（performative self-presentation）等理论视角来看，#Bama Rush#和#RushTok#这类由视觉叙事驱动的文化吸引力，意味着参与其中的学生们不仅是在分享Rush的过程，更是在构建一个可以被更多人看到的身份剧本。TikTok和Instagram等社交媒体不只是放大了个体的存在感，而且规范了人们追求可见性与吸引注意力的方式。
+#Bama Rush# 和 #RushTok# 成为Z世代身份策略的一部分，它关乎如何在大学生活叙事中获得点赞、关注与社会认同。这与传统意义上大学作为学术或职业路径基石的理解不同，因为前者依赖的是一种可见性资本（visibility capital）而非传统能力资本。谁的大学生活更有“内容”，更容易得到点赞和讨论，甚至能为年轻人们提供一个更为良好的职业开端——如TikTok高影响力者、校园名人等。
+由此可以理解Vox《为什么Z世代纷纷涌向SEC大学》一文写道的：“最理想的大学体验是充满社交性和南方风情的。”作者认为，“在TikTok时代，学生们更注重视觉化和可分享的大学体验，包括橄榄球赛和兄弟会/姐妹会等大型社交活动。Z世代似乎更关注他们在社交媒体上发布的内容以及参与的话题标签，而不是简历上最亮眼的成就。”总之，在过去的年轻人（如千禧一代）眼中，大学选校的逻辑更多围绕着学术声誉、“简历资本”和传统意义上的成功路径，大学的社交生活固然是其组成部分，但并非主流叙事。而在Z世代身上，社交媒体生成的可见性和“个人品牌化”路径，正在成为一种新的核心价值。
+而《纽约邮报》今年8月的一篇报道批评了已经成为一种“装备化”竞争的招新周活动——不少参与者为了吸引关注，花费巨额资金聘请服装造型团队和“Rush顾问”（以制定从获取推荐信、整理衣橱到练习会话技巧的各种策略），甚至在社交媒体上不断展示自己的支出。阿拉巴马大学的大四学生、21岁的Kylan Darnell是在TiKTok上拥有超过100万粉丝的“RushTok女王”，她表示，有一些女孩因为被姐妹会拒之门外而不得不换一所学校就读。这既揭示了“rush文化”在今日美国的影响力，也揭示了它对当代年轻人的新型异化。社交媒体上的rush文化强化了消费主义的逻辑，促使rush变成一种消费性的活动与身份展示。
+《纽约邮报》记者写道：“加入心仪的姐妹会是一场残酷的竞争，它能成就或毁掉一个‘准姐妹’的大学生涯。”
+重新理解美国大学的“希腊体系”
+进一步看，“Bama Rush”风潮中其实主要包含着三方面的文化吸引力。一是SEC高校的体育文化。二是白人女性“网红”文化。三是美国高校的兄弟会/姐妹会文化。而这三点都在与社交媒体的当代联结中获得了新的力量或新的理解空间。
+Vox的文章指出，SEC联盟高校拥有美国NCAA一级橄榄球队，长期吸引着海量的观众人数。而这些现场盛事不仅是Z世代可以在社交媒体上分享的内容，也是他们可以亲身参与的精彩体验，因为经历过新冠疫情封闭体验的他们尤其渴望更多的现场活动。此外，在过去几年里，Z世代对体育的兴趣持续增长，这或许受到了泰勒·斯威夫特等“球星太太团”（WAGs）的影响。并且，体育强校还天然地与品牌时尚有关。而Z世代成长过程中接触品牌的机会更多，因此也更容易形成品牌认同和消费习惯。而这些因素都与社交媒体对明星生活和品牌形象的塑造不无关联。
+在女性“网红”文化方面，#rushtok#的突然爆红也被归因于参与其中的女性类型——她们大多是拥有金色头发和苗条身材的白人女性，并且倾向于发布一些传统上被认为女性化的活动，比如为迎新周的各种活动挑选服装，而这些活动通常展现出一种“现代南方佳丽”的审美风格。总之，她们更容易出现在TikTok用户的“为你推荐”界面上。文化咨询公司Cool Shiny Insights的创始人Kaley Mullin在Vox的采访中表示，总体而言，“南方女性公开展现女性魅力并将其发布到网络上，比北方女性更容易被社会接受。”
+而美国高校的兄弟会/姐妹会传统，或许是三种文化吸引力中最为复杂的一个。
+“Rush文化”从其源起就与美国大学中的这种“希腊体系”（Greek system/ Greek life）紧密相关。
+“希腊体系”指的是美国大学里一类以希腊字母命名的学生组织，主要就是通常所说的“兄弟会”（Fraternity）和“姐妹会”（Sorority）。它缘起于18至19世纪美国早期大学的精英男性学生对欧洲古典教育传统的模仿。简言之，这是一种半正式、半私人化的校园精英社交组织体系，它在很多高校占据了文化和权力的中心位置。在许多大型公立大学，尤其是南方大学中，许多校园重要组织负责人（如学生会主席）来自希腊体系，政商界的校友网络通过希腊组织延续，而一些重要的实习和工作机会也是通过这一体系内部流动的。
+在“Bama Rush”和“南方高校热”的风潮背后，我们看到，一方面，“希腊体系”的活动与仪式本身就具有强大的视觉性效果或可视化潜力。姐妹会、兄弟会通常拥有固定的社交日、特色服装和拍照时刻，这些元素本身就极易生成 TikTok 上被流量算法所青睐的视频内容。
+另一方面，年轻人对社交媒体及其价值的重视，或许也在悄然改变着美国社会关于兄弟会和姐妹会的某些印象，并强化着这种圈层体系的吸引力和影响力。
+曾经，“‘希腊体系’与美国教育不平等的再生产”的话题是美国社会的一种公共焦虑。人们认为，这种校园文化内部长期存在着种族歧视、精英身份与特权阶层的显性或隐性叙事。Vox的文章提到，在2010年代，无论是电影还是纪录片，它们都更多聚焦于这些组织内部的霸凌现象，并对其种族排他性与保守传统展开批判，围绕校园暴力的讨论也频频将兄弟会置于叙事中心。其中最具争议性的案例，莫过于《滚石》杂志在2014年刊发的一篇报道，其指控弗吉尼亚大学Phi Kappa Psi兄弟会成员涉嫌集体性侵，该文一度引发全国性的震荡。
+而今，尽管某种“纵情狂欢”的刻板印象似乎依然附着在兄弟会与姐妹会之上，在当下Z世代×Tiktok的语境中，这类组织的吸引力已经发生转向。研究高等教育的特拉华大学副教授皮耶特罗·萨索（Pietro Sasso）指出，Z世代对这种大学文化的兴趣，并非简单延续了千禧一代的动机——后者“主要是为了享乐”，同时也被这些半封闭社团所笼罩的神秘感所吸引；相比之下，Z 世代更看重的是加入一个高辨识度组织所能带来的可见性与社会影响力。
+“2010年代可以说是阿舍·罗斯（Asher Roth）的年代，他唱着‘我要派对’，这精准地反映了千禧一代对社交生活的期待，”萨索解释道，“Z 世代同样渴望社交体验，但他们的关注点更偏向视觉呈现。他们渴望被关注，渴望在照片中被标记。”而这种心理，与兄弟会/姐妹会既需要曝光来维持吸引力、又害怕破坏了自身原本的排他性机制的特点，经由社交媒介平台达成了某种共谋。因此，在TikTok时代，“希腊体系”在某种意义上已经不再只是一种高校文化机制，而是成为了涌向南方的“Bama Rush”年轻人们参与其中的真人秀。
+“畅想未来”不如“享受当下”
+“年轻人越来越意识到上大学可能意味着背负数十年的学生贷款，因此他们的心态正朝着乐趣、享受和社区的方向发展。……他们心想，‘如果我要花一大笔钱和接下来的四年时间去做一件没有投资回报承诺的事情，那我不如从中获得一些乐趣，结交一些朋友’。” 这是Mullin在Vox采访中说的另一段话，它或许实实在在地勾勒出了当下美国高中毕业生的真实想法。
+这些Z世代毕业生涌向南方大型体育强校并热衷在TikTok上分享“Rush”的现象，反映了经济增长放缓、未来不确定性增强、“名校精英成功路径”叙事遭遇挑战、国内政治分裂加剧、保守主义复兴的环境下，社交媒体如何重塑年轻人对大学生活的期待与目标，而这也让大学招生、地方文化和Z世代的身份建构之间，形成了一种新的互动反馈。
+资本主义与爱的疲惫
+《雅各宾》杂志近日刊载了题为《资本主义中的爱的政治经济学》的文章，其从马克思主义政治经济学的术语出发，把“爱”作为一种具有使用价值，但在资本主义条件下正被侵蚀和重新配置的社会现象来分析。
+此文作者是克里斯汀·罗格·戈德西 (Kristen Rogheh Ghodsee)，她是美国宾夕法尼亚大学俄罗斯和东欧研究系教授、民族志学家，出版了《第二世界，第二性别：冷战时期社会主义妇女的行动主义与全球团结》《红色女武神：五位革命女性的女权主义启示》《转型中的迷失：后共产主义时代日常生活的民族志》等多部专著。
+克里斯汀·罗格·戈德西 (Kristen Rogheh Ghodsee)
+《资本主义中的爱的政治经济学》抛出了一个看似陈旧的问题或论断：“爱是商品吗”或“爱的商品化”，但也给出了一些不同的理解路径与一个坚定的回答。
+戈德西的核心观点可以概括为：资本主义能够将“爱”的两部分——注意力与情感——纳入商品交换，但却无法真正商品化存在于这种关系中的“互惠流动”，而正是这个部分构成了真正的爱。资本主义一方面无法把“互惠流动”变成商品，却又通过不断榨取时间与注意力来削弱它的可能性，这是我们面对的一种根本性的矛盾。“爱需要关注、关爱和相互付出——一个自然的给予与接受的循环。资本主义可以轻易地将前两者商品化，但第三点却难以被市场机制所掌控。这正是我们的经济体系如此执着于摧毁它的原因。”
+爱被拆解了，但不是以我们想象的方式
+此文最为有力的理论操作，是戈德西将“爱”拆解为了三种不同的构成要素。第一是注意力。它意味着一个人几乎完全将认知能力集中于另一个主体或客体上，意味着我们集中注意他人，倾听和关注他人的感受。第二是情感（affection）。这是一个涵盖范围很广的概念，它可以包括性、触摸、安慰、善意的话语、赞美，以及任何表达温柔、激情、关心或奉献的行为。第三是互惠流动（reciprocal flow）。这是一种人与人之间自然的给予与接受的动态循环。它不是简单的“（因为）你给我，（所以）我给你”，而是一种存在于关系延续中的自然节律。
+戈德西认为，无论是浪漫爱、柏拉图式的爱还是亲情之爱，不同形式的爱都包含这三种要素的组合。注意力、情感和互惠流动都具有使用价值，但只有注意力和情感可以被直接商品化，也即从使用价值转变为交换价值，而互惠流动必然超出这种范畴。
+注意力和情感，在当代资本主义中早已被充分驯化。在当代学者关于情感劳动、情感资本主义、亲密关系与经济结构等角度的研究中，我们越来越熟悉其中的资本主义逻辑。例如，伊娃·伊洛斯（Eva Illouz）的《冷亲密》分析了资本主义如何将亲密关系规范化为经济交换逻辑——在交友、爱情、性别关系中的“谈判”“选择成本”等；亚莉·霍赫希尔德（Arlie Russell Hochschild）在关于情感劳动和家庭分工的研究中，以“感激的经济学”“第二轮班”等具有经济学色彩的概念，来描述双职工伴侣的家务分工以及职场女性在家庭与事业之间艰难平衡的状况。这些研究为我们理解“爱的商品化”提供了富有启发的基础。
+资本主义并不只是把商品变成商品，而是把注意力也变成可买卖、可剥削的东西，从而不断减少人们自愿投入到自由关系中的注意力。这既是对人的心理需求的剥夺，也是对人类基本交往条件的侵蚀。戈德西指出，注意力是最容易被商品化的元素。她写道：“金钱可以买到注意力，而出售注意力也成为了一种合法的谋生方式。……如果我们习惯于把注意力当作可以购买的东西，我们也会越来越不愿意（免费）分享所剩无几的注意力资源。”
+情感（affection）在传统的马克思主义中不被视为商品，但现实中资本主义已经把很多人类情感劳动纳入市场。例如性工作、陪伴服务和各种形式的“关怀经济”（care economy）。主播与观众的互动、本质上也是注意力和情感劳动的交换。总之，资本主义不再假装自己是“冷冰冰”的，相反，它非常擅长调动情感、制造亲密、模拟关怀。资本主义并不是消除了爱的情感，而是把它纳入了交换体系，使其成为工资、利润、服务费的来源。
+戈德西认为，“随着情感的稀缺，它的交换价值不断上升，越来越多的劳动者理性地选择将情感作为一种劳动力出售，尤其是在平均工资较低的情况下。……（而）当1%的富人将各种付费的享受安排得满满当当时，情感本身也成了一种奢侈品——被囤积、交易和炫耀，成为在这个万物皆有价的经济体系中个人成功的象征。”
+而互惠流动的独特之处，就在于它抵抗着施加于注意力和情感上的商品化过程。戈德西区分了“互惠”与“互惠流动”。“互惠”更像是一种计算性的交换，它是“（因为）你给我，（所以）我给你”，或者“你给了我，我才给你”，双方都在计算着付出与收获的平衡。而“互惠流动”则允许短期内的不平衡，只要总体关系持续不断。戈德西文中援引了生态系统互惠、人与宠物的互动、长期深入的亲密关系作为例证，强调互惠流动是一种不以交换价值为中介的自然循环。
+那么，为什么资本主义无法真正商品化互惠流动呢？这并不是出于道德上的纯洁性假设，而是出于结构原因。互惠流动之所以存在，恰恰依赖于不确定性、不可预测性和非对称性。它无法被量化，也无法被提前结算。这使它成为资本主义中的“异物”。资本可以雇佣你去关心别人，却无法雇佣你去持续地、无条件地、在不确定未来中维系一段关系。资本可以出售陪伴的时间，却无法出售共同生活的“节律”。“富人可以买到无穷无尽的他人关注和爱慕，但再多的金钱也买不到那种完全沉浸于自然循环的非交易性给予和接受的体验，因为它本质上就是非交易性的。社会主义者从一开始就明白这一点。”
+资本主义如何破坏爱的“互惠流动”
+“互惠流动”不是“你付出多少、我立刻偿还多少”，而是一种允许不平衡、允许拖延、允许模糊的关系节律。它需要时间冗余、情感安全和对未来的最低信任。资本主义无法将互惠流动转化为商品——但却能够通过让时间稀缺、让信任缺失来破坏它。戈德西发现，理解资本主义如何以及为何削弱我们给予爱和接受爱的能力，关键在于认识到它同时贬低和剥削了这种唯一无法转化为交换价值的使用价值。
+这种贬低和剥削的实现与两种关键机制有关。一是时间贫困。当人们的时间被用于应对市场需求（工作、通勤、闲暇都被商业化时），就没有足够的时间去投入到非商品关系中。二是情感和信任的侵蚀。资本主义通过把人际关系看成是需要“合理投资、风险规避”的资源，破坏了人们自然进入互惠流动的能力。不平等和竞争让人与人之间更像交易者，而不是共享共同世界的伙伴。
+可以认为，戈德西想说的是，即便我们愿意放弃计算，资本主义也已经不给我们足够的时间去“不计算”了。当工作时间不稳定、劳动强度上升、闲暇被平台化占领，关系不再是被过度理性地管理，而是被迫变得碎片化、应急化、去承诺化。不是人们不想投入，而是投入本身成为一种奢侈。这解释了一个当代爱之悖论：我们似乎生活在一个高度“情感化”的社会，却普遍感到亲密关系脆弱、疲惫、难以维持。问题不在于情感不足，而在于这种关系所需的时间结构已经被系统性地抽空。
+在这里，戈德西对保守主义的批评值得注意。她指出，传统的保守主义话语往往承认爱、关怀和互惠的重要性，却坚持把它们封闭在家庭内部，尤其是异性恋家庭中母亲与孩子的关系之间。这种做法在表面上是在“保护爱”，实际上却是在把爱的社会成本私有化。这样做的结果是双重的：一方面，资本主义可以继续榨取公共时间；另一方面，关怀劳动被自然化为家庭责任，尤其是女性的固有责任。这既否认了社会中其他照顾劳动的价值，又把人的情感责任私有化。“爱”没有消失，但它被压缩进越来越狭小、越来越高压的私人空间中。这正是资本主义与保守思想的奇妙联盟。
+她批判道：“尽管大量证据表明，婴儿和幼儿可以从各种各样的照护者（无论是否付费）那里得到良好的养育并建立安全的依恋关系，但对母子之间‘特殊纽带’的普遍理想化，实际上却将女性的照护劳动排除在了生产性经济之外。在一个万物皆有价的社会里，那些能够保持‘无价’的东西，往往是那些让精英阶层受益的东西，这令人怀疑。”
+爱的疲惫与“是我们不会爱吗”
+资本主义学会了谈恋爱。但它从未学会，也无法学会，为爱留出足够的时间与信任。
+《资本主义中的爱的政治经济学》提出的一个看似温和、实则锋利的判断是：资本主义并没有、也无法真正把“爱”商品化，但它正在系统性地摧毁爱的前提条件。爱不是被直接买卖的对象，而是在时间贫困、注意力榨取和情感工具化的结构中被慢慢耗尽的。这和前文述及的相关性别社会研究成果一样，主张把讨论从“爱是不是商品”这一略显陈旧的文化批评问题，转换到一个更具政治经济学深度的层面来探讨，并给出了一个暂时的回答：资本主义不是通过把爱变成商品来统治人类的情感生活，而是通过把可用于爱的资源——时间、精力、信任等——转移到资本增值链条中去来完成这种“爱的革命”的。
+而如果说戈德西的说法具有某种激发爱之政治潜力的地方，那就在于它拒绝把问题归咎于个体的情感能力。它没有急吼吼地批评我们过于功利、不懂得爱和不会爱。它想说的是，资本主义正在制造一种让爱难以持续的复杂结构。换句话说，爱不是私人道德问题，而是公共政治问题。
+爱的疲惫，是一种社会症状。当我们说“当代人不再相信爱情”时，或许真正的含义是：人们不再拥有支撑爱情的社会条件。爱没有消失，它只是被迫在资本主义的缝隙中艰难存活。这也意味着，对爱的危机的回应不应是情感鸡汤式的自我修复，而应是制度层面的重新分配：工作时间、社会保障、公共照护、去市场化的交往空间等。如果我们要认真谈论爱，就必须谈论时间、劳动、制度和权力。</t>
+  </si>
+  <si>
+    <t>法国思想家让·波德里亚凭借其“消费社会”理论在中国思想界广为人知，而他关于“拟像世界”的预言，在今天这个人工智能与社交媒体无孔不入的时代，愈发显得精准而深刻。《拟像与拟真》是波德里亚思想生涯中极为重要的著作，他在此书中创立了“拟像”“拟真”等核心概念，系统地探讨了当代社会如何以象征和符号取代现实与意义，最终形成一个比真实更真实的“超级现实”状态。从迪士尼乐园到超市和广告，再到克隆等生物技术成就，波德里亚以其独特的批判性眼光，审视着我们身边的一切人造物，对图像与事物的复制关系提出了根本性的质疑。
+日前，豆瓣读书联合南京大学出版社·守望者邀请了汪民安、马凌、刘翔、王睿琦四位嘉宾，围绕《拟像与拟真》简体中文版的出版，结合《黑客帝国》、迪士尼乐园等经典文艺案例，共同探讨波德里亚思想在当下的重要性，以及我们如何理解这个无处不在的“拟像世界”。以下为本次对谈的文字整理稿。
+“我”与波德里亚：思想的缘起与交汇
+王睿琦：
+我们确实身处一个拟像和图像的时代，这一点在今天已经没有争议，我先说说我为什么会翻译这本书。起因和另一位法国思想家乔治·巴塔耶有关。前些年，南京大学出版社出版了一系列关于巴塔耶的书，并举办了一场以巴塔耶为中心的会议。在这次会议上，我遇到了南大社的老师，他们提到《拟像与拟真》这本书一直没有找到合适的译者，希望我能承担翻译工作。我当时就知道这本书非常有名，它的标题和核心概念极具魅力，使其声名远播，尤其是在英语世界影响了很多人。我认为这是一个很好的机会，便接受了翻译任务。
+这本书在波德里亚整个思想进程中至关重要。他早期用“符号政治经济学批判”来命名自己的思想，但后来他自己也意识到这个术语的内在矛盾性。因此，他逐渐抛弃了这一术语，转而以“拟像”与“拟真”为核心，建立起自己独特的理论体系。波德里亚的思想发展脉络，从受罗兰·巴特影响的博士论文《物体系》，到《消费社会》，再到首次理论化“拟像”概念的《象征交换与死亡》，最后到《论诱惑》《拟像与拟真》，以及刘翔老师翻译的《致命的策略》。这后三本书，我们可以看作他的“拟像三部曲”。《象征交换与死亡》和《拟像与拟真》提出了拟像的三种秩序，而《论诱惑》和《致命的策略》则探讨了在拟真时代，我们应该如何应对，其中“诱惑”被视为一种核心的“致命的策略”。在此之后，波德里亚出版了许多书，但逐渐碎片化，主要集中在以《冷记忆》（五卷本）和《美国》为代表的格言体著作。
+我先简单介绍到这里。现在，我想请三位老师谈谈自身作为个体与这本书的故事：三位老师如何接触波德里亚，又是如何接触到《拟像与拟真》这本书的？首先有请汪民安老师。
+汪民安：
+我没有系统研究过波德里亚，但我读过他的一部分书。《消费社会》、《物体系》、《象征交换和死亡》是很早以前读的，他后来的一些片段性写作《冷记忆》和《美国》等著作，我也翻阅过。我非常喜欢这类随笔类型的书，不需要逐字细读，里面有很多碎片化的、非常有趣的片段。有一个片段我印象很深：大概是说一个画家看到一幅画，画里的花园和他家的花园类似，只是少了一棵树。他后来干脆把自己花园里的那棵树砍掉了，让现实的花园与画作中的花园完全一致。这是现实模仿拟像的一个非常生动的例证。
+我很早就知道波德里亚了，大概在1990年前后，我上大学时通过当时流行的后现代主义书籍知道他的大名。如果我没有记错的话，应该是在詹明信（Fredric Jameson）《后现代主义与文化理论》中第一次看到“波德里亚”这个名字，德勒兹的名字也是第一次从这个书中了解到的。当然，真正阅读他的作品并受到影响，是在十年以后了。最开始了解他的符号价值和拟像理论。还有他的深受罗兰·巴特《流行体系》影响的《物体系》。
+关于“拟像”理论，虽然这本书的简体中文版刚刚出版，但我们对它的了解其实很早。在2000年前后，我和两个朋友编译了一本名为《后现代性的哲学话语》的书，其中收录了两篇由马海良老师从英文翻译的波德里亚的文章，其中一篇就是《拟像与仿真》，这篇文章影响非常大，当时很多人谈论波德里亚的拟像理论，引用的几乎都是这一篇。另外，十几年前，波德里亚还在中国办过令人印象深刻的摄影展，他夫人也来过中国，去过南京大学。就他本人而言，我印象最深的一点是，他至死都只是一位副教授，但他完全无所谓，他对主流学术界的态度可见一斑。这也从侧面反映出他与法国学院派的紧张关系。
+马凌：
+刚才听汪老师分享，我感到非常惭愧。我和汪老师是同龄人，他写书的时候我还是他的读者。我的硕士论文写的也是后现代主义，詹明信的那本书我也看过，但我已经不记得里面有写到波德里亚。我真正对波德里亚产生深刻印象是在1999年，当时我看到了电影《黑客帝国》。电影中有一个细节，主人公尼奥把非法磁盘藏在一本挖空的书里，那正是绿色封面的英文版图书
+Simulacra and Simulation
+（《拟像与拟真》）。镜头扫过书页，未被挖空的部分恰好是“关于虚无主义”这个章节，这给我留下了极深的印象。当时国内还没有这本书。
+《黑客帝国》中出现的Simulacra and Simulation英文书
+后来，我从史学转向新闻传播学，开始做博士后。2006年，读了译林出版社出版的《象征交换与死亡》，这本书比《拟像与拟真》写得更早，里面讲到自文艺复兴以来人类历史的三个阶段：仿造、生产和拟真，以及拟真原则如何取代现实原则，支配着现在的一切。当时我刚进入新闻传播学领域，正在读柏拉图的“洞穴之喻”，看到这本书后，真是拍案叫绝、绕桌三匝，觉得他把本雅明的“机械复制”主题又大大推进了一步。从那年开始，波德里亚就成了我讲课的一部分。
+《拟像与拟真》这本书对我影响特别大。波德里亚在2007年去世，他没有看到生成式人工智能的时代。作为新闻学院的老师，我可能比其他学院的老师更能深刻地理解生成式人工智能对媒介的革命性冲击。我认为波德里亚精准地预言了模型和代码对人类的统治。柏拉图呼吁人们走出洞穴，沐浴真理的阳光，而波德里亚警告我们，即便走到了地面上，我们所看到的一切可能仍然是拟像系统的一部分。这让我感到非常震撼，但也因为其过于悲观，我讲课时后半部分不敢和学生深入讲解，因为我给不出出路。
+刘翔：
+我大概是在2008、2009年接触到《拟像与拟真》这本书。那时我正在写博士论文，主题就是波德里亚的物的哲学。当时国内还没有简体中文版，我先找了英文版，觉得有些复杂，后来又找到一本台湾的繁体中文译本，阅读体验不好，但又不得不读。今年简体中文版的出版，真是喜大普奔，非常感谢南大社和睿琦老师。
+我当时之所以必须读这本书，是因为它是波德里亚最具理论原创野心的一本书。如睿琦老师所说，他想从马克思主义的理论磁场中逃逸出去，创造自己的理论场域。有研究者评价说，《象征交换与死亡》是波德里亚处理与“真实”关系的最后一本书，而《拟像与拟真》则是处理与“现实”断裂的里程碑式作品，是他的一个重要转折。
+马凌老师刚才提到波德里亚理论的前瞻性非常惊人。这本书出版于1981年，观照的是上世纪七八十年代的欧美社会，那时电视刚普及，电脑刚发明，互联网还未出现。但他的理论逻辑却能非常好地推演出我们当前的赛博空间、信息茧房和算法囚徒。有时候我在想，如果波德里亚突然穿越到今天，他可能根本不会感到惊讶，因为这一切都没有逃脱他理论的推演。他或许会感到片刻新奇，但很快就会觉得无聊。
+到底什么是“拟像”？
+王睿琦：
+我们现在进入第二个问题：到底什么是“拟像”？这个概念主要源于柏拉图主义的观念，早期它是一个“坏”的概念，即便到今天，这个词的负面性也并未完全消除，韩炳哲提到的“山寨”也是这个古老概念的现代变体。在当代法国哲学中，德勒兹、福柯、利奥塔等人都对“拟像”概念投入了大量精力。可以说，“拟像”不仅是波德里亚的概念，更是法国理论的一大发明。我认为它首先是一个哲学概念，关于这个问题，请汪老师先开头。
+汪民安：
+德勒兹的“拟像”与波德里亚的“拟像”出发点不同。德勒兹的“拟像”是一个纯哲学概念，主要用来对抗和瓦解柏拉图主义。在柏拉图那里，理念是真理所在，而拟像是表层和虚假之物，拟像应该被理念吸纳或者吞噬。德勒兹受尼采的影响对柏拉图主义进行颠覆，他将拟像从对理念的依附中解放出来，让它获得自主性。拟像是针对理念的一个批判性概念，是一个无穷无尽的差异化过程，它并不将自己还原或者绑缚到一个本体上，它只是在平面内进行着差异与重复的永恒游戏，这是对柏拉图理念论的彻底颠覆。
+而波德里亚的“拟像”虽然也反柏拉图主义，也带有哲学意味，但它更多是一个社会学概念，是对社会现实的批判性分析。他的拟像有非常具体的物质性指向，比如新的根据技术产生的图像机制、数字符码，等等，他是在半个世纪之前讨论这个概念的，因此，它的具体所指更多还是电视等图像的自我循环。这些图像完全不是对现实的再现，而是自身获得了自己的主宰性和自主性。它们也主宰了当代的社会生产和生活本身。所以，德勒兹和波德里亚都挖掘了真实的根基，而让拟像自主地循环和吞噬。但一个通向了纯粹哲学的批评，另一个通向了社会分析的批判，这是他们之间的主要区别。
+王睿琦：
+感谢汪老师，这个总结非常好。德勒兹的拟像理论是在哲学内部反柏拉图，而对波德里亚而言，拟像更多是发生在社会、历史中的具体概念。现在请马凌老师从您的学科——新闻传播学的角度谈一谈，我们应该如何理解它？
+马凌：
+新闻传播学有三大范式，我经常用半瓶子醋来解释一切。我们看半瓶子醋，计算醋，研究醋的效果，这称为经验学派。看到没满的一半，批评醋不够酸或者太酸，这称为批判学派。瓶子本身形塑了空气和醋，称为媒介学派，也称为媒介环境学派。近年来媒介环境学派迅速崛起，他们认为媒介技术实际上塑造了社会文化，这是最关键的技术。
+我认为，波德里亚的拟像理论对新闻传播学的批判学派和媒介环境学派都有重要意义。他提出的拟像的四个阶段——从反映真实、改变真实的性质、掩盖真实的缺席，到最后与真实毫无关联的纯粹拟像——彻底颠覆了传统媒介“再现”现实的认知。在新闻学和史学中，“客观性”和“真实性”是不死的神话，而波德里亚的理论是核弹式的颠覆，他告诉我们，我们看到的一切都是媒介符号建构出来的。
+这首先重构了媒介与现实的关系，打破了“再现论”的迷思。传统理论认为媒介是现实的镜子，但波德里亚指出，随着数字媒介的崛起，拟像已经进入拟真阶段。媒介符号不再依赖现实原型，而是自我生成一个比真实更真实的世界。比如现在的电视综艺、网络直播、微短剧，它们都在“表演”真实。根据波德里亚的理论推演，媒介已经不再是传递现实的工具，而是生产现实的机器。
+其次，这也揭示了媒介的权力本质，即通过垄断拟像的生产来消解真实的多元性，将特定的价值观伪装成自然现实。举个例子，波德里亚认为海湾战争不曾发生，公众看到的并非战争本身，而是媒体建构的一套关于战争的拟像系统。媒介选择性呈现，他们想让全球公众看到精准打击、胜利，掩盖平民的伤亡和战争的残酷。
+最后，他的理论也指出了数字时代的媒介困境。算法推荐、深度伪造、元宇宙等技术使拟像达到了极致，波德里亚的理论可能用于解决这些现象，但他没有给出路。他宣告“拟真”是历史的结局，在历史中，上帝、人类、进步，一切都为了代码的利益而相继死亡。如果都已经死亡，我们如何才能让它不死？这些都需要讨论。总体来看，拟像理论堪称媒介学的批判透镜。这本书我已经推荐给了很多学生，对我们学科非常有用。
+王睿琦：
+感谢马老师，我完全同意。指望波德里亚解决今天的问题可能不太现实，我们需要这个时代的新波德里亚。现在请刘翔老师从波德里亚自身的理论角度来谈谈拟像的概念。
+刘翔：
+波德里亚的理论有一个明显的转向：从早期符号与现实的强映射关系，到后来的断裂，最后演变为符号反攻现实的过程。我认为拟像概念并非波德里亚的专属概念，也不是他第一次提出，而是作为哲学史的生成和脉络存在。但是他将拟像的逻辑推演到极致，以至于我们都处于一个无出路的状况。他用“莫比乌斯环”来形容这个由拟像和拟真生成的超真实场域，我们所有人都被包裹其中，无所逃遁。
+我认为他的拟像理论至少造成了三个哲学后果。第一，存在论从意义上消除了实在，真实变成可由符号和模型生产的东西，这动摇了许多建立在“实在”概念之上的哲学命题。第二，从认识论角度来看，它造成了一种传统认识论的危机。当主体和客体都变得不可靠时，认识活动是否有可能实现？我们面对一条视频或一张图片，首先要怀疑它的真实性，这种普遍怀疑主义会侵蚀社会共识和信任的根基。比如电商平台的女装退货率越来越高，就是因为平台上的拟像（模特图）与现实（买家身体）是断裂的。第三个后果是价值论的动摇，传统价值论中的真善美观念也受到了动摇。在一个意义泛滥的时代，任何事物都被赋予意义，结果就是意义的急速贬值，因为到处都是意义，所以没有意义。
+波德里亚的用意在于抛出问题，但他不负责解决问题，他把压力传递给了我们每一个人。
+拟像的文艺呈现：从《黑客帝国》到迪士尼乐园
+王睿琦：
+我们来谈谈文艺作品中的拟像问题。《拟像与拟真》开篇引用了博尔赫斯的一个小说片段，描述一个帝国的地图与领土完全重合。波德里亚认为这是第二秩序拟像的完美概括与终结，从此，拟像与现实物之间达成了绝对等价，也开启了拟真时代。这种现实与模仿物之间界限模糊的感觉，在许多文艺作品中都有体现，最典型的就是电影《黑客帝国》，请马凌老师先来谈谈这部电影。
+马凌：
+《黑客帝国》系列导演们对波德里亚理论非常感兴趣并致敬波德里亚，但波德里亚本人并不满意，认为导演误解了他的著作。我也查看了相关资料，我认为《黑客帝国》并非仅是波德里亚一个人的理论，而是更接近笛卡尔等人的观点。后来普特南等人提出的“缸中之脑”我认为可能更贴近。但因为大家都认为拟像与超真实理论在电影里进行了视觉化演绎，所以我只能勉强谈论。
+《黑客帝国》中的红药丸和蓝药丸
+故事始于一个矛盾的设定，有一个看似平凡的程序员尼奥，他在虚拟现实的夹缝中挣扎，白天是码农处理代码，夜晚则是网络飞贼，在数字世界里寻找真相。直到出现一个神秘人墨菲斯，他是黑客反叛组织的头目，给了尼奥两个药丸，红色和蓝色，尼奥希望看到真相，吞下红药丸。他发现日常生活并非真实，而是一个由人工智能构建的虚拟系统，翻译成“母体”或者“矩阵”。人类的肉体被禁锢在培养仓中，意识却在拟像当中生活。电影中的“矩阵”完美对应了波德里亚所说的“超真实”，它并非对现实的模仿，而是一套自我生成的符号系统，比真实更真实。人类生活在其中，将程序模拟出的咖啡口感、阳光、温度都误认为真实。
+电影的第二层是“欢迎来到真实的荒漠”，这句台词直接运用了波德里亚对于超真实时代的论断：当拟像全面替代真实后，真实本身反而成了荒芜的存在。电影中展现的现实世界，就是一个废墟。而到了第二、三部，电影揭示了更令人绝望的真相：无论是反抗军的据点“锡安”，还是主人公尼奥作为“救世主”的使命，本身都是矩阵系统的一部分，是系统为了维持自身稳定而预设的程序。反抗、毁灭、重建、再生，形成了一个完美的闭环，这让我们深刻领会到波德里亚所说的逃无可逃的感觉。
+到了2021年的第四部，电影使用了一套情感符号来抵抗矩阵，因此尼奥被重新植入矩阵，成为游戏设计师，他设计了黑客帝国这套游戏风靡于这个世界。最后尼奥和他的心上人选择留在矩阵，想以爱情来对抗系统的控制和重新定义真实的边界。到这时波德里亚已经去世很多年，电影更像是对元宇宙拟像的回应，希望通过情感和感官，这种不可被符号化的真实体验，打破矩阵的符号逻辑，并且将其作为反抗的最后阵地。
+王睿琦：
+《黑客帝国》系列整体基调是悲观的，似乎每一次走出一个拟像，又会陷入下一个拟像，这很符合波德里亚的思想。书中另一个扎眼的拟像例子是迪士尼乐园，波德里亚认为迪士尼乐园的存在，是为了让我们相信，除了它之外的整个美国都是“真实”的，而实际上，整个美国就是一个更大的迪士尼乐园。请刘翔老师谈谈这个例子。
+刘翔：
+在波德里亚看来，迪士尼乐园是被媒介、资本、算法共同建构的超真实场地，是典型的“预制快乐”。乐园内的一切，从色彩、路线到工作人员标准化的笑容，都是为了批量生产快乐，并召唤消费者为之买单。我前不久刚去过环球影城，在哈利·波特区域，最火爆的项目出口直接通向最大的商店，当你还处于感官眩晕的状态时，就被推送到无数商品面前，感官被彻底挟持。
+更重要的一点是，波德里亚认为，迪士尼乐园的存在是为了掩盖“美国本身就是一个巨大的迪士尼乐园”这一事实。就像监狱的存在是为了掩饰这个社会存在的监狱性，水门事件作为政治丑闻被揭发，是为了让我们相信政治在通常情况下是正常的、没有丑闻的。这是一种通过局部化的“假”来确证其余部分为“真”的障眼法。波德里亚的社会批判就是如此尖锐，他从不讳言，直击要害。
+理论的谱系与现实的困境
+王睿琦：
+最后我还有一个小问题想问汪老师。当波德里亚提出拟像的秩序有三种时，他在某种程度上为自己的怀旧做了理论铺垫。我们在他的某些作品中可以明显感觉到他并不认可拟真秩序，他想要回到工业时代至少现实物仍然存在的世界。在这个意义上，波德里亚虽然被大家认为是一个后现代主义哲学家，但是仍然有浪漫或者保守的一面，不知道汪老师怎么看待这个问题。
+汪民安：
+波德里亚的拟像理论，很显然受到了居伊·德波《景观社会》的巨大影响。大体上可以说，罗兰·巴特、居伊·德波到波德里亚，构成了一条从符号学到社会理论激进化的线索。德波在1960年代就指出，随着电视、电影等技术的发展，我们的社会变成了“景观社会”，图像遮蔽并分离了真实，我们生活在景观社会中，面对的是图像而看不到真实。但他认为真实虽然被景观遮蔽，但依然存在。只不过德波对此痛心疾首。
+而波德里亚则将德波的理论进一步激进化了。对他来说，根本就没有所谓的真实了，真实与图像已经发生了“内爆”，现在只剩下图像的世界，没有什么真实。在今天这个技术高度发达的时代，他的理论显得极有预见性。我们确实是按照图像或拟像来生活的，去一个地方不是为了体验真实，而是为了打卡拍照发到社交媒体上，生活的真实，仅仅是为图像提供原料。真实服务于图像，被图像吞噬。
+但我们也要反思，真实真的消失了吗？海湾战争或者俄乌战争真的没有发生吗？那些无人机下的死亡、哀伤、恐惧，难道仅仅是图像吗？我们承认拟像在很大程度上构成了我们的真实，但同时，我们的真实，我们的肉身体验，也并未被拟像完全吞噬。我们有一个统治性的拟像世界，但同时还有一个不可被拟像化的真实世界。这也是许多左翼理论家，如苏珊·桑塔格等人对波德里亚不满的原因。如果我们完全不触及现实的苦难与困境，如果听凭和接受拟像的摆布操纵，那还有行动和改变世界的希望吗？或许，我们可以说存在两个世界：一个是波德里亚的拟像世界，另一个是我们依然能切身感受到的肉身世界。这两个世界如何达成关系？你可以说居伊·德波的理论相对鲍德里亚来说好像显得有些保守，但我认为它更具现实的针对性和批判性。
+王睿琦：
+感谢汪老师的发言，最后我来做一个简单的总结。波德里亚关于“拟像”的概念，植根于深厚的法国思想史，我们通过这个概念可以更好地深入法国理论的腹地。同时，这个概念又具有十足的当下性，我们今天处在一个比波德里亚时代复杂得多、速度快得多的拟像时代，一个由算法、数字技术完全主导的时代。因此，今天重读《拟像与拟真》，不仅是为了理解一位哲学家的思想，更是为了理解我们自身所处的现实。今天的讨论就到这里，再次感谢三位嘉宾的精彩分享。</t>
+  </si>
+  <si>
     <t>具备独特视角的科学探索与人类存在的思考</t>
   </si>
   <si>
@@ -4100,9 +4642,51 @@
     <t>文章具备独特视角的社会观察，探讨现代人对痛苦与生命意义的复杂态度，具有逻辑推演和批判性观点，能够激发思考。</t>
   </si>
   <si>
+    <t>具备独特视角的社会观察，探讨了演讲技巧背后的影响力机制，激发思维</t>
+  </si>
+  <si>
+    <t>具备独特视角的个人经历分享，探讨神秘感对生活和创作的影响，激发思考</t>
+  </si>
+  <si>
+    <t>系统性地整理了超新星相关的天文知识，具备开阔眼界的潜力</t>
+  </si>
+  <si>
+    <t>系统性地探讨了数字戏剧的多重维度及其发展，具备独特视角和逻辑推演，能够开阔读者眼界和激发思考</t>
+  </si>
+  <si>
+    <t>系统性地整理了新媒体艺术与剧场结合的历史与发展阶段，具备独特视角的艺术观察和理论探讨价值</t>
+  </si>
+  <si>
+    <t>系统性地探讨电子游戏叙事手法，具备独特视角的媒介分析和文化观察价值</t>
+  </si>
+  <si>
+    <t>文章具备独特视角的艺术与数字化结合的社会观察，探讨了数字化进程中戏剧与人工智能的判断行为，具有逻辑推演和批判性观点，具备潜在价值。</t>
+  </si>
+  <si>
+    <t>具备独特视角的艺术实验观察，探讨AI与戏剧表演的融合及其现场即兴互动的可能性</t>
+  </si>
+  <si>
+    <t>系统性地整理了数字技术与戏剧融合的知识点，具备独特视角的艺术观察</t>
+  </si>
+  <si>
+    <t>内容碎片化且缺乏实质信息，无法判断具备潜在价值</t>
+  </si>
+  <si>
+    <t>包含大量强时效资讯内容，如泽连斯基视察库皮扬斯克前线的最新战报和《时代》杂志2025年度人物公布，属于强时效资讯，需拒绝</t>
+  </si>
+  <si>
+    <t>系统性地整理了美国Z世代选择南方高校的社会文化现象，包含对社交媒体影响的分析，具备独特视角的社会观察</t>
+  </si>
+  <si>
+    <t>具备独特视角的社会观察，系统性地整理了波德里亚拟像理论及其当代意义，包含批判性观点和文化案例分析</t>
+  </si>
+  <si>
     <t>成功</t>
   </si>
   <si>
+    <t>已拒绝</t>
+  </si>
+  <si>
     <t>[愉悦身心: 30, 开阔眼界: 55, 激发思维: 70] 文章虽带有探索宇宙的浪漫色彩与对地外生命的哲学追问，但其主体内容聚焦于天文观测技术的演进、对比度极限、设备参数及发现验证流程，具有高度结构化与技术准确性，因此定调为 了解新知。分数较高因其系统梳理了从哈勃到罗曼望远镜的技术跃迁，并清晰解释了分段式日冕仪的物理挑战与解决方案。</t>
   </si>
   <si>
@@ -4643,6 +5227,9 @@
     <t>['死亡哲学', '现代性批判', '虚无主义', '技术社会', '老年与终老', '生命意义']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>了解新知</t>
   </si>
   <si>
@@ -4658,9 +5245,6 @@
     <t>开阔眼界</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>[{'title': '帝国的年代：1875-1914', 'author': '[英]霍布斯邦', 'context': '用于解释游戏所设定的‘美好年代’历史背景'}, {'title': '神工智能：诸神与古代世界的神奇造物', 'author': '[美]阿德里安娜·梅厄', 'context': '引用其关于造物与主体性困境的哲学论述，类比数字生命的自我认同问题'}, {'title': '技术可创造性时代的艺术作品', 'author': '王昕', 'context': '用于支撑人工智能是否具备创造性与‘数字灵韵’的论点'}]</t>
   </si>
   <si>
@@ -4871,6 +5455,39 @@
     <t>{"title": "无痛之终：被现代肢解的意义与未来", "summary_long": "文章以“无痛之终”作为切入点，描绘了当代人对无痛死亡的渴望，这一愿望反映出时代的深层焦虑。作者首先指出，在健康管理、心理疗愈、运动监控等日常实践中，人们试图通过控制身体来抵御不确定性，避免痛苦。然而，天生无痛症者的例子却反证了痛苦的必要性——痛不仅是折磨，更是生命边界的警告。现代人对无痛的追求，实则是对痛苦的恐惧和对生活承载力的丧失。\n\n接着，作者剖析了“无痛期待”的多层结构：首先是风险感的放大，现代社会将可能发生的痛苦无限膨胀，导致人们在面对健康等问题时陷入过度焦虑；其次，身体成为最后的主权领地，在外部结构瓦解、关系松动的背景下，个体将控制力集中于身体管理，以求获得最低限度的安全感；最深层则是生活虚无的蔓延，意义感稀薄，公共叙事崩塌，个体难以建立持久情感，最终退回到对“无痛终结”的朴素渴望。\n\n文章进一步追溯了现代性如何肢解了生命的意义。引用福柯的“生命政治”，指出死亡从神圣的终点变成可管理的技术问题，意义被剥夺，个体只剩下对痛苦过程的控制。尼采的虚无主义批判揭示了价值基石的崩塌，未来感丧失，人们不再追求高远意义，而退守于稳定和无痛。阿伦特则指出，现代社会对程序性劳作的沉迷，压缩了人的创造行动力，未来变成了技术时间轴上的既定延伸，个体难以再创造新意义。\n\n在结构性风险方面，贝克的“风险社会”理论表明，现代化自身制造的系统性风险让人们对未来充满恐惧，渴望无痛终结成为对风险的精神止痛剂。鲍曼的“液态现代性”描述了社会结构的流动性和不稳定，吉登斯则强调个体被抽象系统（如金融、医疗、算法）所支配，难以凭经验判断未来。即便个体努力通过量化自我（Quantified Self）来掌控身体，实则仍被系统主导，渴望无痛只是对失控的无力回应。\n\n技术加速了这一进程。罗萨的“社会加速”理论揭示，技术和生活节奏的加速压缩了体验和意义反思空间，降低了个体对痛苦的忍耐阈值。注意力经济和数字技术将体验设计为无摩擦、可量化，现实中的不适被放大，无痛成为基本需求。通过App和穿戴设备数据化身体，个体试图将生命终点纳入可控的数字循环，但这暴露了对意义、行动和结构的深度失控。\n\n文章最后提出行动的可能性。以《终养六年》和王晖纪录片《老两口》为例，呼吁通过慢记录和主动反思重建生命厚度。作者倡导将注意力从概率和规划中抽离，回归当下的能动选择，并通过前置规划（如生命意愿书）实践主权，确保生命终结的尊严与选择。作者认为，面对现代性的虚无和加速，个体仍可通过记录、表达和开放行动，赋予终老以更多意义，而不仅仅是“无痛”。", "key_arguments": ["当代人对‘无痛之终’的追求反映了对痛苦的恐惧和对生活意义、承载力的丧失。", "现代性通过权力转向、价值崩塌和行动力压缩，系统性地剥夺了生命的宏大意义，个体只能退守于身体主权和无痛愿望。", "结构性风险和技术加速导致社会承诺和自我认同的瓦解，个体在抽象系统支配下失去对未来的判断和创造力，无痛成为对失控的无力回应。", "通过慢记录、主动反思和前置规划，个体可重新赋予生命终老以尊严和意义，超越单纯的‘无痛’诉求。"], "mentioned_resources": ["《一个叫欧维的男人决定去死》 - 作为对无痛终结主题的影视映射。", "福柯《生命政治》（Foucault, 1990） - 论述权力从统治领土转向管理生命，死亡被技术化管理。", "尼采《权力意志》（Nietzsche, 1968） - 批判价值基石的崩塌与虚无主义的蔓延。", "阿伦特《人的境况》（Arendt, 1958） - 指出现代社会对行动力的系统性压缩。", "贝克《风险社会》（Beck, 1992） - 分析现代社会内生性风险对未来感的侵蚀。", "鲍曼《液态现代性》（Bauman, 2000） - 描述社会结构流动性和个体稳定性的丧失。", "吉登斯《现代性的后果》（Giddens, 1990） - 强调抽象系统对个体判断与生活的支配。", "罗萨《社会加速》（Rosa, 2013） - 论述技术加速对体验和意义反思的压缩。", "《终养六年》 - 通过照护母亲的经历，反思痛苦与生命完整性的关系。", "《老两口》（导演：王晖） - 纪录片，通过慢记录重新审视老年与终老的意义。"], "keywords": ["无痛之终", "虚无主义", "生命政治", "风险社会", "液态现代性", "量化自我", "社会加速", "主权", "慢记录", "前置规划"], "style_tone": "逻辑严密的分析风格，兼具哲学深度与人文关怀"}</t>
   </si>
   <si>
+    <t>{"title": "How to harness the Trojan Horse of presenting skills", "summary_long": "文章开篇指出，有些人天生能吸引听众，关键并不在于他们说了什么，而在于他们如何表达和简化想法。社会上充满了影响者、政客、名人，他们内容贫乏却总能引发关注。作者认为，与其困惑或抱怨，不如学习他们的‘cut-through’能力——即获得注意力并产生影响的本事。无论是销售、管理还是日常影响他人，这种能力都是职场和生活中渴望获得的核心竞争力。\n\n作者引用了Dominic Colenso的《Cut Through: The Pitch and Presentation Playbook》，强调‘cut-through’应成为演讲和陈述的首要目标，而不仅仅是追求吸引眼球的噱头。‘Cut-through’像特洛伊木马一样，是进入听众内心的敲门砖，为深层内容创造可能性。\n\n紧接着，作者借用Jim VandeHei、Mike Allen和Rory Schwartz合著的《Smart Brevity》，提出要适应现代内容消费习惯，立即改变沟通方式。尽管演示工具在进步，但大多数人的表达方式几十年未变，作者认为这是问题所在。\n\n文章核心观点是：‘情感、简洁、能量’是实现cut-through的三大要素。作者以自己作为前演员的经验对比电视影视行业的变迁，指出现代观众已被快节奏、强烈情感和多元信息环境所塑造。要想吸引注意力，首先要善用情感——情感是注意力的货币，能让观众留下印象。其次，简洁至关重要，复杂的信息只会让听众失去兴趣。现代人更倾向于先接受简单口号，再逐步接受细节。最后，能量是让信息持久留存的关键，表达者必须展示对内容的信念和热情。\n\n文章结论重申，情感、简洁、能量三者的结合是演讲和表达的‘秘密武器’，它们的交汇点是实现cut-through的最佳状态。整体风格为逻辑清晰、实用导向，兼具一定感染力。", "key_arguments": ["获得‘cut-through’（注意力与影响力）比内容本身更关键，是有效表达的核心。", "‘情感、简洁、能量’三要素是实现cut-through的关键，缺一不可。", "现代信息环境要求我们适应观众的内容消费习惯，改变传统的表达方式。"], "mentioned_resources": ["《Cut Through: The Pitch and Presentation Playbook》 (Dominic Colenso) - 用于定义cut-through并作为演讲表达的实用指南。", "《Smart Brevity》 (Jim VandeHei, Mike Allen, Rory Schwartz) - 强调适应现代内容消费习惯，简明表达的重要性。"], "keywords": ["cut-through", "情感", "简洁", "能量", "pitch", "presentation", "注意力经济", "表达策略", "现代信息环境", "特洛伊木马"], "style_tone": "逻辑清晰的实用分析风格，兼具感染力"}</t>
+  </si>
+  <si>
+    <t>{"title": "How life changes when you start embracing mystery", "summary_long": "本文围绕编剧David S. Goyer（代表作有《The Dark Knight》、《Blade》、《Foundation》）的人生经历展开，探讨了“神秘感”与“敬畏”如何塑造个人视野与创作。Goyer自述成长于“平凡的边缘”，但生命中屡次遭遇难以解释的神秘事件——包括在以色列和西藏的超常体验——这些经历深刻影响了他的世界观和故事讲述方式。\n\n在Big Think与John Templeton Foundation联合举办的“A Night of Awe and Wonder”演讲中，Goyer强调：敬畏（awe）是一种促使我们关注、保持开放、从平凡中发现意义的心理状态。他认为，主动拥抱未知和神秘，不仅让生活更丰富，也为创作提供源源不断的灵感。Goyer指出，许多时刻本可能被忽略，但当我们以敬畏之心审视世界时，能从中发现深层意义，这一能力成为他叙事的核心驱动力。\n\n文章整体以Goyer的个人故事为例，论证了神秘体验和敬畏感对人的成长、创造力和理解力的积极作用。作者鼓励读者放下对确定性的执念，主动拥抱未知，将神秘作为发现自我和世界的契机。", "key_arguments": ["拥抱神秘和敬畏能拓展人的感知力和创造力，帮助发现生活中的深层意义。", "个人经历中的不可解释事件（如在以色列和西藏的体验）为Goyer的故事创作提供了灵感与基础。", "敬畏促使人们保持开放和关注，从而在日常生活中发现本可能被忽略的重要时刻。"], "mentioned_resources": ["《The Dark Knight》（David S. Goyer）- 作为Goyer的代表作，体现其神秘与深刻主题的创作风格。", "《Blade》（David S. Goyer）- 另一部代表作，展现其对奇异与未知的叙事兴趣。", "《Foundation》（David S. Goyer）- 以科幻为载体，探索人类与未知的关系。"], "keywords": ["神秘感", "敬畏", "故事讲述", "未知", "创造力", "注意力", "意义", "开放性"], "style_tone": "充满人文关怀与哲思的叙事风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "Brightest-ever lensed supernova reveals astronomy’s coming revolution", "summary_long": "文章首先回顾了超新星在人类历史上的罕见性，指出自1604年开普勒超新星以来，银河系中肉眼可见的超新星再无出现。随着现代天文学的发展，观测技术的进步使得超新星及其前身（如Eta Carinae的超新星伪像）在宇宙各处被频繁发现。文章介绍了通过造父变星和Ia型超新星测距的进展，强调了我们对宇宙距离标尺的不断完善。\n\n接着，文章深入讲解了引力透镜现象。引力透镜不仅能让背景星系、类星体等天体的光路发生弯曲和多重成像，还能在出现瞬变事件（如超新星爆发）时，因不同光路长度导致多个图像出现时间延迟。通过对这些延迟的测量，天文学家能够推算宇宙膨胀率，为“哈勃张力”问题提供独立检验途径。\n\n文章以多个观测案例为例，包括SDSS J1004+4112星系团中五重像类星体、G165星系团中多重像超新星、Hubble望远镜2014年发现的多重像超新星（S1-S4及一年后出现的SX），以及2016年捕获、预计2037年再次出现的超新星多重像。大规模巡天（如DESI、Vera C. Rubin Observatory）已发现数百个多重像类星体系统，未来将极大增加多重像超新星样本。\n\n2025年，超亮型超新星SN 2025wny成为人类首个被多重成像的超亮超新星。其最初由Zwicky Transient Facility发现，后续地面望远镜跟进确认，证明了地面设施在时间延迟宇宙学上的能力。通过吸收线、放大信息和光变曲线，天文学家能准确测定宿主星系的距离和红移。\n\n随着Vera C. Rubin Observatory的投入运行，预计到2035年将发现数千个多重像超新星。该台望远镜具备极高灵敏度和快速巡天能力，能探测到极其微弱的瞬变事件，并为后续如JWST等望远镜提供跟进目标。这一切预示着天文学即将进入通过多重像瞬变事件精确测量宇宙膨胀率、解决哈勃张力等基础问题的新时代。\n\n文章以图像和简明文字串联，强调了多重像超新星和新一代巡天设施在推动宇宙学革命中的核心地位。", "key_arguments": ["超新星曾是极其罕见的天文现象，但现代观测技术极大拓展了其发现范围。", "引力透镜现象导致背景天体（如超新星、类星体）多重成像且出现时间延迟，为宇宙距离和膨胀率测量提供新手段。", "新一代巡天设施（如Vera C. Rubin Observatory）将极大提升多重像超新星的发现数量，推动宇宙学测量的革命。"], "mentioned_resources": ["Eta Carinae（大质量恒星）——作为超新星伪像的实例，展示了非典型爆发与真实超新星的区别。", "Kepler’s Supernova（1604年）——银河系最后一次肉眼可见超新星，历史对比基准。", "SDSS J1004+4112（星系团）——展示了引力透镜导致的五重像类星体和超新星多重成像。", "G165（星系团）——内含多重像超新星观测实例。", "SN 2025wny（超亮型超新星）——人类首个被多重成像的超亮超新星，2025年由Zwicky Transient Facility发现，后续由地面望远镜和J. Johansson等团队在《Astrophysical Journal Letters, 2025》发表。", "DESI（Dark Energy Spectroscopic Instrument）——大规模巡天仪器，已发现400多个多重像类星体候选系统。", "Vera C. Rubin Observatory——新一代巡天望远镜，预期将在2035年前发现数千个多重像超新星。", "JWST（詹姆斯·韦布空间望远镜）——用于对瞬变事件（如中子星并合、超新星等）进行后续观测。"], "keywords": ["超新星", "引力透镜", "多重像", "时间延迟宇宙学", "哈勃张力", "宇宙膨胀率", "大规模巡天", "瞬变事件"], "style_tone": "图像驱动、科普叙事、前瞻性展望"}</t>
+  </si>
+  <si>
+    <t>{"title": "肖竞｜它们已在此，我们如何驾驭——数字戏剧的多重维度", "summary_long": "文章以“数字戏剧”在中国戏剧界的兴起为切入点，指出其定义尚未统一，既受政策推动，也因技术发展和疫情影响而加速实践。作者首先梳理了数字戏剧最直观的形态——戏剧的数字化记录与传播，典型如英国国家剧院的NT Live项目（如《弗兰肯斯坦》），通过影视化拍摄和全球放映极大扩展了戏剧的受众，但也带来了现场性和观众自主选择体验的丧失。国内虽有引进和尝试，但因多重障碍未能大规模推广，直到疫情推动线上戏剧和数字媒体艺术的快速发展，出现了如XR数字戏剧《麦克白》《嵇康》等新形态，但这些同样削弱了传统剧场的“共时共地”体验。\n\n作者进一步分析了技术如何重塑戏剧的内容与现场性。以凯蒂·米歇尔的《朱莉小姐》为例，舞台与实时影像双线叙事，利用新媒体技术丰富了故事层次，既制造沉浸幻觉，又通过布莱希特式间离促发观众思考。文章回顾了数字媒体自20世纪50年代起在剧场的渗透，从《特斯拉电路》到叶锦添的《空穴来风》，技术不断突破舞台美学与感官极限。\n\n技术还改变了观演方式。2025年柏林戏剧节入选的VR戏剧《[EOL]. 生命的终结》让观众以VR设备进入虚拟世界，评估和选择数字遗产，虽然真人演员极少，但观众依然获得强烈情感体验，挑战了“演员现场性不可替代”的传统观念。该作品的制作流程（如Blender和Unity的使用）展示了数字化生产的灵活性和创造力的主导地位。\n\n文章指出，以VR、AR为媒介的戏剧已模糊了戏剧、电影、游戏的界限，引发“这还是戏剧吗”的哲学追问。更进一步，数字戏剧可将技术本身作为主题和结构主体，如安妮·多尔森的“算法戏剧”《昨日明日》，算法与人类艺术家共同演绎，现场体验由技术实时决定，观众和演员都处于算法主导的不确定性中，反思技术对人类决策的影响。\n\n瑞士艺术家西蒙·森恩与塔玛拉·莱特斯的dSimon项目则将个人数据喂给GPT，生成虚拟自我，观众与AI互动时体验到技术的不可控性、伦理与身份焦虑。中国陈老巨的《开普勒b22上的海风》则让演员与AI即兴对话，展现人类面对AI时的无力与探索。\n\n最后，文章介绍了北京国际青年戏剧节的DT计划和作品《册余》，通过观众用手机投票决定“删除哪段记忆”，探索数字技术与剧场叙事的融合。作者总结，技术已深刻嵌入剧场，数字戏剧的意义不仅在于创新形式，更在于通过技术反观自我，获得感性与理性的双重洞察。", "key_arguments": ["数字戏剧的定义多元且未定型，既包括戏剧的数字化传播，也涵盖以数字技术为核心的创作与观演方式。", "技术推动下的数字戏剧既拓展了叙事与感官边界，也挑战了传统戏剧的现场性和观众自主体验。", "以技术为主题和结构主体的数字戏剧，促使观众和创作者反思技术与人类、伦理、身份的关系，数字戏剧的核心价值在于通过技术洞见自我。"], "mentioned_resources": ["《弗兰肯斯坦》（NT Live, 2011）- 作为英国国家剧院数字戏剧影像的代表作，引入中国后引发国内对数字戏剧的关注。", "《麦克白》（中国首部XR数字戏剧）- 利用虚拟现实技术和数字媒体进行无观众拍摄，线上线下播放。", "《虚拟杂耍》（Virtual Vaudeville，David Saltz等，2004）- 采用3D动画和动作捕捉，模拟19世纪剧场现场及观众反应，探索数字化现场性。", "《朱莉小姐》（Katie Mitchell, 2014）- 舞台与实时影像双线叙事，结合布莱希特间离与新媒体技术。", "《特斯拉电路》（Tesla Electric，1998）- 计算机生成三维场景，演员与3D全景屏幕互动，观众佩戴3D眼镜。", "《空穴来风》（叶锦添, 2017）- 多媒体自动生成视觉效果，结合声音营造感官体验。", "《[EOL]. 生命的终结》（Victoria Halper, Kai Krösche, 2025）- VR戏剧，观众评估数字遗产，探讨数字世界与情感体验。", "《昨日明日》（Yesterday Tomorrow，Annie Dorsen）- 算法与人类歌手共同演绎，现场体验由算法实时生成，反思技术与决策。", "dSimon（Simon Senn, Tammara Leites, 2021）- 以GPT生成虚拟自我，观众与AI互动，展现技术的伦理与身份挑战。", "《开普勒b22上的海风》（陈老巨）- 人类演员与AI即兴对话，探索AI与人类的互动本质。", "《册余》（DT计划作品）- 观众用手机投票决定删除或保留记忆，融合电子游戏交互与剧场叙事。", "《Digital Theatre: The Making and Meaning of Live Mediated Performance, US &amp; UK 1990-2020》（N. Masura, 2020）- 作为理论参考文献，分析数字戏剧的发展与意义。"], "keywords": ["数字戏剧", "现场性", "虚拟现实（VR）", "算法戏剧", "观演关系", "技术伦理", "间离效果", "数字遗产", "人机共创", "沉浸体验"], "style_tone": "逻辑严密的分析风格，兼具批判性与前瞻性"}</t>
+  </si>
+  <si>
+    <t>{"title": "苑辰｜当新媒体艺术进入剧场", "summary_long": "文章开篇指出，关于“新媒体艺术进入剧场”的讨论常陷入两个极端：要么将其视为炫技的包装，要么将其理想化为解决戏剧叙事不足的灵丹。作者建议以“接触”为切入点，强调当视听体验、传感器、算法与人的身体在同一时空相遇时，剧场空间不再是中性容器，而成为关系生成与再组织的现场。新媒体技术的价值在于促成新的接触和观演关系，而非单纯提升表现力。\n\n作者梳理了新媒体与剧场60年来的三次“靠近”：首先是“并置阶段”，以影像与表演并列挑战线性叙事（如伍斯特剧团《哈姆雷特》、罗伯特·威尔逊的多媒体舞台）；其次是“互动阶段”，数字技术和传感器让观众的动作和选择成为舞台结构一部分（如Blast Theory《你现在能看见我吗？》、The Builders Association的多部作品、Punchdrunk《不眠之夜》）；最后是“生成阶段”，算法与AI深度参与内容生成，剧本和演出成为“人机协作”的过程（如THEaiTRE《AI：当机器人写剧本》、安妮·多尔森“算法剧场”系列）。三阶段并非替代，而是叠加，推动剧场向“媒介生态”演化。\n\n在具体创作层面，作者提出三种交融路径：一是“跨媒介性”，多种媒介在同一场域融合，各自保有表达资源并在剧场语境中再语境化，强调媒介表达策略的重构；二是“结构耦合”，实时投影、音景、传感网络与演员调度并联，剧场成为可执行系统，演员与技术互动，叙事结构与技术结构同步演进；三是“观演关系重构”，沉浸式与参与式艺术让观众成为协作行动者，空间动线成为叙事语法，观看转化为“在场协作”。三者在实际作品中往往编织并存。\n\n作者进一步分析跨领域协作的理念分歧：一是线性与非线性的张力，需在叙事清晰度与体验自由度间折中；二是文本中心与多模态中心的争议，强调两者互补；三是导演权威与共创机制的边界，需设计可控节点以维持秩序；四是演员真实与技术介入感的矛盾，需在排练中建立演员与技术的对戏关系。这些分歧推动新的戏剧语法生成。\n\n结尾，作者提出“剧场是进行中的媒介生态”，其力量在于为‘发生’让出空间，让观众在接触中被改变，成为新的观看与行动主体。剧场的价值不在于技术密度，而在于为经验和理解的生成提供场域。", "key_arguments": ["新媒体艺术进入剧场的意义不在于技术炫技或叙事补救，而在于促成‘接触’，重塑观演关系与叙事方式。", "新媒体与剧场的关系经历并置、互动、生成三阶段，推动剧场成为动态的媒介生态。", "跨媒介性、结构耦合、观演关系重构是新媒体与剧场交融的三条路径，实际作品中多为编织式并存。", "跨领域协作中存在理念分歧（如线性与非线性、文本与多模态、权威与共创、真实与介入感），这些张力促发新的戏剧语法。", "剧场的核心价值在于为‘发生’让出空间，使观众通过接触获得转变，而非获得完整可复述的故事。"], "mentioned_resources": ["《哈姆雷特》（The Wooster Group） - 以1964年录像为对位，现场表演与既存影像并置，挑战线性叙事。", "罗伯特·威尔逊（Robert Wilson）的多媒体舞台 - 光影与演员等权，体现并置阶段的多媒介实验。", "《你现在能看见我吗？》（Can You See Me Now?，Blast Theory） - 通过GPS和网络，线上玩家与现场演员实时互动，拓展舞台边界。", "The Builders Association多部作品 - 直播信号拼接进舞台，外部现实与舞台情境同步。", "《不眠之夜》（Sleep No More，Punchdrunk） - 观众动线即叙事，沉浸式体验重构观演关系。", "《AI：当机器人写剧本》（AI: When a Robot Writes a Play，THEaiTRE） - AI生成剧本，人机协作演出，代表生成阶段。", "《你好》（Hello Hi There）、《昨日明日》（Yesterday Tomorrow）（安妮·多尔森 Annie Dorsen） - 算法现场生成文本/声部，演出成为‘执行中的写作’。", "《Convergence Culture》（Henry Jenkins） - 作为理论资源，涉及媒介融合与文化交融。"], "keywords": ["新媒体艺术", "剧场", "接触", "跨媒介性", "结构耦合", "观演关系重构", "非线性叙事", "沉浸式体验", "人机协作", "媒介生态"], "style_tone": "逻辑严密的分析风格，兼具前沿批判与理论深度"}</t>
+  </si>
+  <si>
+    <t>{"title": "“只有电子游戏能做到”——交互叙事初探", "summary_long": "作者陈朝以游戏研究者和产品设计师的视角，探讨电子游戏作为新兴媒介，在叙事手法上的独特性及其与传统媒介的关系。文章首先回顾了电子游戏叙事的发展历程，从《超级马力欧兄弟》这样受限于技术条件、借鉴电影和动画表现手法的早期作品谈起，指出即使在极简的表现中，游戏也能通过动画和字幕实现故事传达。随着技术进步，电子游戏逐渐吸收电影与动画工业的制作流程，出现了如《黑神话：悟空》这样在演出和视听效果上堪比一线动画电影的作品，叙事与影像的边界日益模糊。 \n\n 但作者强调，电子游戏并非仅仅是影视叙事的延伸。其真正独特之处在于交互性所带来的全新叙事方式。通过具体案例，文章展示了“只有电子游戏能做到”的叙事创新：\n\n 在《她的故事》中，玩家通过输入关键词检索警局数据库内的审讯录像，主动拼接和排序碎片化的信息，进而还原案件真相。这里，故事线索的发现与整合完全依赖玩家的能动性，叙事结构由玩家主导。\n\n 《开箱整理》则以拆箱和收拾物品的交互过程，利用无台词、无人物的方式，通过物品变化展现主人公二十年人生的变迁。玩家在整理物品的过程中，主动体会人生阶段的更迭，叙事嵌入在细节与物件之中。\n\n 在《环世界》中，故事并无预设剧本，而是由人工智能“叙述者”根据玩家决策和环境随机事件动态生成。玩家的每一次行动都可能引发新的故事线，游戏世界的复杂性和不可预测性让每一局体验都独一无二。\n\n 《疑案追声》借鉴沉浸式戏剧，玩家通过在地图上游走、调整时间轴，收集不同角色的语音线索，重构案件经过。游戏以最简化的表现（配音与地图）实现高度沉浸和推理体验。\n\n 《艾迪·芬奇的记忆》通过多样的交互形式（如漫画、照片、幻觉体验）让玩家亲历家族成员的死亡瞬间，尤其在“路易斯之死”章节，玩家需左右手分别操作现实与幻觉，深度体验角色的精神挣扎。\n\n 《极乐迪斯科》则将桌面角色扮演游戏的机制数字化，玩家不仅要解谜破案，更需与主角杜博阿的内心多重意识对话，探索自我，游戏成为一场持续数十小时的心灵交互戏剧。\n\n 最后，作者总结，虽然剧本、表演、配音、道具等元素在戏剧中已有先例，但电子游戏的交互性为叙事带来了前所未有的可能性。这些案例显示，电子游戏不仅在吸收传统艺术的叙事手法，更有潜力反哺和启发其他艺术形式。", "key_arguments": ["电子游戏虽借鉴传统影视、戏剧叙事，但其交互性带来了独特的叙事手法。", "交互性让玩家成为故事的共同构建者，叙事结构和信息获取常常依赖玩家主动探索与决策。", "电子游戏的叙事潜力已超越传统媒介，未来有望反哺和启发其他艺术门类。"], "mentioned_resources": ["《超级马力欧兄弟》（Nintendo, 1985）- 早期受技术限制但通过动画和字幕实现故事传达的经典游戏。", "《黑神话：悟空》- 以顶级3D演出和动画短片般的叙事效果模糊游戏与动画电影界限。", "《她的故事》（Her Story, 2015）- 玩家通过检索数据库碎片化视频，主动拼接还原案件真相。", "《开箱整理》（Unpacking, 2021）- 通过收拾物品的过程展现主人公20年人生变迁，无需台词或人物。", "《环世界》（RimWorld, 2018）- 由AI“叙述者”动态生成故事，玩家与环境互动产生独特叙事。", "《疑案追声》（2019）- 借鉴沉浸式戏剧，玩家通过地图和时间轴收集语音线索重构案件。", "《艾迪·芬奇的记忆》（What Remains of Edith Finch, 2017）- 以多样交互体验家族成员死亡瞬间，突出“路易斯之死”章节的幻觉与现实交织。", "《极乐迪斯科》（Disco Elysium, 2019）- 数字化桌面角色扮演机制，玩家与主角内心多重意识对话，探索自我。"], "keywords": ["交互叙事", "玩家能动性", "非线性叙事", "人工智能叙述者", "沉浸式体验", "碎片化信息重组", "物品叙事", "心理探索"], "style_tone": "逻辑严密的分析风格，兼具案例叙述与理论洞见"}</t>
+  </si>
+  <si>
+    <t>{"title": "双翅目｜数字化进程中的想象与判断", "summary_long": "文章以亚里士多德《诗学》为理论起点，强调戏剧作为人类行为的模仿与情感净化的独特价值。作者指出，随着数字化进程的发展，戏剧的表达方式经历了影像化（电影）、互动化（游戏）、沉浸化（虚拟现实）等阶段，生成式人工智能则成为最新的数字化艺术生成工具。数字化的核心特征之一是“具身与行为的隐退”，即艺术创作逐渐脱离身体性，转向表象和程序驱动。人工智能因缺乏具身性而被批判，但数字化场域却突出了“判断”作为独立的艺术行为：无论是导演、演员、剪辑师，还是游戏玩家，都在各自环节中进行判断和决策，艺术生成过程被分割为多个判断模块。\n\n作者进一步区分了艺术创作与鉴赏：传统艺术创作强调本能与具身（如即兴、无意识创作），而艺术鉴赏则根植于判断和品味。启蒙美学（如沙龙艺术、文人画）将品味视为通过反复判断形成的文化产物。数字化和生成式人工智能的发展使“判断”不仅限于鉴赏，也成为创作过程的核心环节，品味直接影响艺术生成。\n\n文章引用康德《判断力批判》，阐释其关于想象与判断的理论：康德认为想象是连接感性与知性的桥梁，是艺术与科学创造的核心能力。康德区分了幻想性想象与生产性想象，强调反思性判断力在创造中的作用。启蒙时期哲学家如培根、贝克莱、斯宾诺莎、霍布斯、休谟等对想象的认知也被梳理，显示想象不仅服务于艺术，还促进智力和道德发展。\n\n作者指出，数字艺术大多是表象体系，缺乏直接的具身行为，但数字化剧场通过实时互动，观众与演员的判断行为变得突出。数字体系中的判断依赖于表象性想象，而非身体性。文章最后提出，数字戏剧融合了表象与具身、反思判断与即兴行为，有潜力超越传统艺术，拓展品味和实践空间。整体风格为理论性强、逻辑严密的分析，兼具批判与前瞻性思考。", "key_arguments": ["数字化进程使艺术创作的具身性和行为性逐渐隐退，判断成为核心行为。", "品味作为艺术判断的产物，在数字化和人工智能创作中回归为创作的关键环节。", "康德的想象与判断理论为理解数字化艺术中的创造性和反思性提供了哲学基础。"], "mentioned_resources": ["《诗学》（亚里士多德）- 用于阐释戏剧作为人类行为模仿和情感净化的理论基础。", "《故事》（Robert McKee）- 作为现代戏剧叙事和行为逻辑的参考。", "《判断力批判》（伊曼努尔·康德）- 论述想象与判断在艺术和科学创造中的核心作用。", "郑燮《墨笔竹石图轴》- 用以说明艺术创作的表象化过程和品味的形成。", "《异形》- 作为品味理论在现代大众文化中的应用案例。", "《黑神话：悟空》- 作为数字艺术中品味和造型的例证。"], "keywords": ["数字化", "生成式人工智能", "具身性", "判断", "品味", "表象", "想象", "反思性判断", "艺术创作", "康德美学"], "style_tone": "逻辑严密的分析风格，理论性强，兼具批判与前瞻性"}</t>
+  </si>
+  <si>
+    <t>{"title": "陈老巨｜作为思考机器的舞台之物——《开普勒22b上的海风》导演手记", "summary_long": "本文是陈老巨关于实验戏剧《开普勒22b上的海风》的导演手记，聚焦AI与人类在剧场中的共创机制及其背后的理论思考。文章开篇回顾了该剧在阿那亚戏剧节的四场演出，指出演出现场频繁出现技术与表演上的混乱，观众和创作者都在追问：为何要让AI进入剧场？\n\n作者详细介绍了剧作设定：故事发生在开普勒22b海洋行星上，人类远征队和随队AI探索环境，最终只有AI以中微子信号返回地球，行星上的真相成谜。AI在剧中被设定为患有PTSD、记忆混乱的角色，需要人类演员现场即兴引导其讲述故事。AI台词由大语言模型（LLM）实时生成，后台配音传递给观众。每场演出的人类演员事先不知剧情，需与AI即兴互动，推动故事发展。\n\n作者强调，AI在舞台上的特殊性在于其作为“思考机器”具有意向性，不同于传统的舞台装置或偶。为此，团队搭建了包含任务推理、上下文处理、短期记忆和表演行为生成的LLM智能代理框架，赋予AI自主推理与应对未知情境的能力。人类演员则承担“沙盘叙事”任务，与AI共建场景细节，模拟心理咨询中的非评判性共创。\n\n剧作的故事结构借鉴了波兰科幻作家莱姆的《索拉里斯星》《其主之声》《惨败》，以外星智慧与人类的误解为母题。最终，AI揭示“海洋智慧生物”实为自然现象——海风与脑电共振导致的沙雕，映射人类对他者的投射与误读。\n\n文章深入分析了LLM与人类认知的本质差异，指出LLM如“中文屋”，只能输出符号相关性世界，缺乏人类式的主体性和因果理解。人类对AI的“共情”实为自我投射，类似于对火星地形的拟人化。\n\n作者反思为何采用科幻外壳而非直接讨论AI与人类关系，引用苏恩文的“认知疏离”和慕明、双翅目的“认知模拟”理论，认为陌生情境能为观众创造反思空间，避免剧场沦为口号宣讲所。剧场机制与文本的双重陌生化旨在让观众意识到人类中心主义的自我投射过程，实现布莱希特式的间离效果。\n\n作者坦承本次实验在技术和机制上遭遇严重挑战：云端LLM带来的延迟破坏了即兴节奏，复杂的表意系统高度耦合，任何环节失效都会放大整体混乱，观众认知负担过重。作者批评当前AI剧场多为对旧有语法的简单拼贴，未能挖掘新技术与剧场机制的深度融合。\n\n最后，作者总结此次实验虽未“成功”，但为AI剧场的机制创新提供了具体经验和讨论支点。技术与艺术的交叉创新需不断试错与自我探索。舞美设计上，投影膜的撕除象征AI与海风的合一与虚无，为剧场空间引入形而上的开放结局。", "key_arguments": ["AI在剧场中应作为具有意向性的表演主体，而非简单的工具或装置。", "通过科幻设定和认知疏离机制，观众能反思人类中心主义和对AI的情感投射。", "当前AI剧场多为对旧有形式的简单拼贴，真正的创新应在剧场机制与AI技术的深度融合中寻找新的语法。"], "mentioned_resources": ["《开普勒22b上的海风》（陈老巨团队）- 试验性舞台剧，探索AI与人类演员即兴共创与表演机制。", "《索拉里斯星》（Stanisław Lem）- 剧情母题参考，关于人类与外星智能的误解与投射。", "《其主之声》（Stanisław Lem）- 剧情母题参考，探讨外星智慧的不可理解性。", "《惨败》（Stanisław Lem）- 剧情母题参考，外星他者与人类认知的鸿沟。", "《科幻小说变形记》（达科·苏恩文）- 引用“认知疏离”理论，支持科幻创作的反思空间构建。", "双翅目与慕明对谈- 提及“认知模拟”概念，强调推想小说的异质世界观。", "空山基（Hajime Sorayama）/《快乐星球》- 被批评为AI剧场的流行视觉符号拼贴。"], "keywords": ["AI剧场", "意向性", "沙盘叙事", "认知疏离", "人类中心主义", "共情投射", "大语言模型（LLM）", "表演机制", "剧场创新", "布莱希特式间离"], "style_tone": "理论反思与批判结合的学术散文风格"}</t>
+  </si>
+  <si>
+    <t>{"title": "信睿书单｜新技术会为剧场带来新表达吗？", "summary_long": "文章以数字技术对戏剧演出的影响为切入点，指出数字戏剧已成为当下不可忽视的趋势，但业界对其定义尚未达成共识。文章围绕数字戏剧的本质、观众需求及技术如何重塑戏剧与观演关系等核心问题展开讨论，并通过推荐具体剧作与书籍，为数字戏剧的跨领域融合提供思考线索。\n\n首先，文章介绍了法国北方舞团的《头脑中的魔怪》，强调其通过动画影像与即兴舞蹈的结合，突破了数字戏剧常见的“非具身性”局限，实现了数字空间与身体表演的连续性。观众最终能够参与互动，成为表演的一部分，展现了数字技术如何赋予剧场全新表达方式。\n\n接着，文章聚焦于安妮·多尔森的两部作品：2023年的《Prometheus Firebringer》和2010年的《Hello Hi There》。前者利用GPT-3生成剧本缺失部分，并让AI生成的古希腊面具演唱，每晚演出内容皆不同，促使观众反思权力、知识与怀疑。后者则通过两台笔记本电脑模拟乔姆斯基与福柯的电视辩论，探讨人类语言与机器语言的边界。\n\n在理论资源方面，文章推荐了Nadja Masura的《Digital Theatre》，系统梳理了数字技术（如视频、动捕、机器人等）对戏剧现场性和创作流程的影响，并通过案例分析导演、演员、编剧等角色如何因技术而转变。Janet H. Murray的《Hamlet on the Holodeck》则提出，艺术对新技术的采纳应致力于创造全新表达形式，而非仅为传统艺术增添新工具。\n\n此外，文章引入约翰·赫伊津哈的《游戏的人》，指出游戏元素在文学、音乐和戏剧中的普遍性，强调“游戏性”作为数字戏剧的重要母题。斯坦尼斯瓦夫·莱姆的《惨败》则以小说形式探讨人类浪漫主义及其自我投射，暗含对人机关系和虚拟现实的哲学反思。\n\n整体而言，文章通过剧作和理论著作的结合，展现了数字技术不仅为剧场带来新表达，也促使观众、表演者及理论家重新思考戏剧的本质与未来。", "key_arguments": ["数字技术正深刻影响戏剧演出，但数字戏剧的定义和价值仍在探索中。", "技术融合可突破传统戏剧的物理和叙事边界，实现观众与表演的互动与沉浸。", "对新技术的采纳应以创造全新艺术表达为目标，而非仅为传统形式增添装饰。"], "mentioned_resources": ["《头脑中的魔怪》（法国北方舞团—上法兰西鲁贝国家编舞中心）- 通过动画影像与即兴舞蹈融合，展现数字空间与具身表演的连续性。", "《Prometheus Firebringer》（Annie Dorsen）- 使用GPT-3生成剧本，AI面具演唱，探讨权力与知识。", "《Hello Hi There》（Annie Dorsen）- 两台电脑模拟乔姆斯基与福柯辩论，探索人类与机器语言的关系。", "《Digital Theatre》（Nadja Masura）- 分析数字技术对戏剧现场性与创作流程的影响。", "《Hamlet on the Holodeck》（Janet H. Murray）- 提出新技术应创造全新艺术语法，而非仅为传统艺术增量。", "《游戏的人》（约翰·赫伊津哈）- 探讨游戏行为及其在文学、音乐、戏剧中的作用，被电子游戏理论广泛引用。", "《惨败》（斯坦尼斯瓦夫·莱姆）- 小说形式反思人类浪漫主义及其在虚拟现实中的自我投射。"], "keywords": ["数字戏剧", "非具身性", "算法戏剧", "观演关系", "沉浸式体验", "AI生成内容", "游戏性", "艺术语法"], "style_tone": "跨界融合、理性分析与案例解读并重"}</t>
+  </si>
+  <si>
+    <t>{"title": "澎湃思想周报｜美国Z世代的“南方高校热”；资本主义与爱的疲惫", "summary_long": "文章分为两大部分，第一部分聚焦美国Z世代大学生为何热衷选择南方大型公立大学（尤其是SEC联盟高校），第二部分探讨资本主义语境下“爱的疲惫”及其政治经济学根源。\n\n首先，作者梳理了“南方高校热”现象的舆论与数据背景。2024年SEC联盟扩容，南方高校吸引力显著上升，尤其是在美国东北部生源中。尽管网络上仍有对南方大学学术地位的质疑，但现实因素如学费、录取率、气候和“南方文化复兴”正成为新一代学生选择的重要考量。社交媒体（特别是TikTok）上的“Bama Rush”和“RushTok”现象尤为突出，这些以姐妹会招新为主题的短视频内容将原本封闭的校园仪式转化为可被观看、模仿和消费的生活方式叙事，成为Z世代身份建构和自我品牌化的重要场域。\n\n作者进一步分析，“Bama Rush”热潮不仅仅是娱乐现象，而是社交媒体“可见性经济”对大学选择逻辑的深刻影响。Z世代学生更看重大学生活的可视化和可分享性，大学体验的“内容性”甚至超越了传统的学术声誉与职业路径。参与“Rush”不仅是社交活动，更是获取“可见性资本”、打造个人品牌、甚至开辟职业路径（如成为校园网红）的手段。然而，这一现象也带来了消费主义和身份异化的问题，例如为招新周投入巨资、聘请“Rush顾问”等。\n\n文章还从三大文化吸引力解构“Bama Rush”热潮：SEC高校的体育文化、白人女性“网红”文化、以及美国高校的兄弟会/姐妹会（希腊体系）传统。社交媒体强化了这些元素的视觉呈现和圈层影响力。作者指出，Z世代对希腊体系的兴趣已从千禧一代的“享乐主义”转向“可见性”与社会影响力的追求，希腊体系在TikTok等平台上的真人秀化，推动了其文化再生产。\n\n最后，作者总结，经济压力、未来不确定性、精英路径的失落和社交媒体的影响，共同促成了Z世代对“享受当下”、社交体验和社区归属的重视。南方高校热与Rush文化，反映了大学招生、地方文化与Z世代身份建构之间的新型互动。\n\n第二部分，文章转向对资本主义与爱的关系的理论探讨，主要基于克里斯汀·罗格·戈德西（Kristen Rogheh Ghodsee）在《资本主义中的爱的政治经济学》一文中的观点。戈德西将“爱”拆解为注意力、情感（affection）、互惠流动三要素，指出资本主义可将前两者商品化，但无法真正商品化“互惠流动”——即关系中的自然、非对称、不可量化的给予与接受循环。\n\n作者梳理了相关理论资源，包括伊娃·伊洛斯（Eva Illouz）的《冷亲密》、亚莉·霍赫希尔德（Arlie Russell Hochschild）关于情感劳动和家庭分工的研究，指出资本主义通过商品化注意力和情感，侵蚀了人们自愿投入自由关系的能力，导致情感劳动的稀缺和异化。\n\n戈德西强调，资本主义无法商品化“互惠流动”，却能通过“时间贫困”和对信任、情感的侵蚀，削弱其存在的社会条件。保守主义虽承认关怀的重要性，却将其私有化为家庭责任，尤其是女性责任，从而加剧了爱的社会成本私有化和照护劳动的无偿化。\n\n作者总结，资本主义并未直接商品化爱，而是通过转移可用于爱的资源（时间、精力、信任）来系统性地削弱爱的前提条件。爱的危机是社会结构性问题，解决之道不在于个人情感修复，而需制度层面的重新分配和公共保障。", "key_arguments": ["美国Z世代大学生涌向南方高校，是社交媒体可见性经济、南方文化复兴、学费与录取率等多重因素共同作用的结果。", "TikTok上的“Bama Rush”和“RushTok”现象，推动了大学生活的视觉叙事和身份品牌化，形成了新的可见性资本逻辑。", "资本主义能够商品化爱的注意力与情感，但无法商品化“互惠流动”，却通过时间贫困和信任侵蚀系统性削弱爱的社会基础。", "爱的危机不是个体能力问题，而是资本主义结构性导致的社会症状，需通过制度性变革（如工作时间、公共照护等）加以回应。"], "mentioned_resources": ["《资本主义中的爱的政治经济学》（克里斯汀·罗格·戈德西）- 以马克思主义政治经济学分析爱的商品化及其限度，提出注意力、情感、互惠流动三要素理论。", "《冷亲密》（伊娃·伊洛斯）- 分析资本主义如何将亲密关系纳入经济交换逻辑。", "亚莉·霍赫希尔德关于情感劳动和家庭分工的研究（如“感激的经济学”“第二轮班”）- 揭示情感劳动的经济学机制及其对家庭与职场女性的影响。", "《第二世界，第二性别》《红色女武神》《转型中的迷失》（克里斯汀·罗格·戈德西）- 相关学术背景与著作。", "Vox、泰晤士报、华尔街日报、纽约邮报相关文章- 作为美国南方高校热和Rush文化现象的舆论与数据来源。"], "keywords": ["Bama Rush", "RushTok", "可见性资本", "自我品牌化", "希腊体系", "情感劳动", "互惠流动", "时间贫困", "消费主义", "身份建构"], "style_tone": "逻辑严密的分析风格，兼具批判性与理论深度"}</t>
+  </si>
+  <si>
+    <t>{"title": "对谈｜拟像统治的时代：从《黑客帝国》到迪士尼乐园", "summary_long": "本文围绕让·波德里亚的代表作《拟像与拟真》简体中文版的出版，邀请汪民安、马凌、刘翔、王睿琦四位学者展开对谈，探讨“拟像”理论的思想谱系、现实意义及其在当代媒介和文艺中的表现。文章首先回顾了波德里亚思想的发展路径：从早期的“符号政治经济学批判”，到以“拟像”与“拟真”为核心的理论体系，形成《象征交换与死亡》《拟像与拟真》《论诱惑》《致命的策略》等关键著作。波德里亚的理论强调，现代社会通过符号和图像取代现实本身，最终形成一个“比真实更真实”的超级现实（hyperreality）。\n\n各位嘉宾结合自身经历，回顾了如何接触波德里亚及其著作的过程，指出《拟像与拟真》对中国思想界和新闻传播学、哲学等领域的深远影响。马凌特别提及《黑客帝国》电影对波德里亚理论的视觉化演绎，以及波德里亚本人对电影解读的保留态度。刘翔强调，《拟像与拟真》标志着波德里亚理论从与“真实”的关系转向与“现实”断裂的阶段，预见了当下信息茧房、算法囚徒等现象。\n\n关于“拟像”概念，讨论区分了德勒兹与波德里亚的不同路径：德勒兹将拟像视为哲学内部对柏拉图理念论的颠覆，是差异与重复的游戏；而波德里亚则将其作为社会学批判工具，揭示图像、媒介如何主宰现实。马凌结合新闻传播学，阐释拟像理论对媒介“再现论”的颠覆，指出媒介已从反映现实转为生产现实，数字时代的算法推荐、深度伪造等现象正是拟像极致化的表现。\n\n刘翔进一步指出，拟像理论引发存在论、认识论和价值论的危机：真实不再依赖实在，认识活动陷入普遍怀疑，意义泛滥导致价值贬值。波德里亚提出问题但不提供出路，将压力留给后人。\n\n在文艺呈现方面，文章详细分析了《黑客帝国》系列如何展现拟像世界：人类生活于人工智能建构的虚拟系统，真实成为“荒漠”，反抗也被系统吸收，形成无出路的闭环。第四部则尝试用情感和感官体验对抗拟像逻辑。迪士尼乐园则被波德里亚视为“超级现实”的典型案例，其存在掩盖了美国社会本身的拟像性。\n\n最后，讨论回到理论谱系与现实困境。汪民安指出，波德里亚在激进化德波《景观社会》的基础上，主张真实与图像的“内爆”，但现实中的肉身体验和苦难并未完全消失。文章以对波德里亚理论的肯定与反思收尾，强调重读《拟像与拟真》有助于理解当下由算法和数字技术主导的拟像时代。", "key_arguments": ["波德里亚的“拟像”理论揭示了现代社会如何通过符号、图像和媒介生产一个比真实更真实的超级现实，现实与符号的界限被消解。", "拟像理论对哲学、社会学和新闻传播学具有颠覆性意义，打破了媒介“再现论”，指出媒介已成为现实的生产者，而非反映者。", "拟像理论带来存在论、认识论和价值论的危机，真实、意义和价值均被符号生产所动摇，波德里亚抛出问题但不提供解决路径。", "文艺作品如《黑客帝国》和迪士尼乐园是拟像理论的生动例证，前者展现了人类被虚拟系统统治的无出路困境，后者则通过“预制快乐”掩盖了社会的拟像本质。", "尽管拟像世界强大，现实中的肉身体验和苦难并未完全消失，理论需兼顾对真实世界的关注与批判。"], "mentioned_resources": ["《拟像与拟真》（让·波德里亚）- 核心著作，提出拟像与拟真概念，分析超级现实的社会形态。", "《消费社会》（让·波德里亚）- 早期著作，分析消费与符号的关系。", "《物体系》（让·波德里亚）- 博士论文，受罗兰·巴特影响，探讨物与符号体系。", "《象征交换与死亡》（让·波德里亚）- 首次理论化“拟像”概念，提出拟像三种秩序。", "《论诱惑》（让·波德里亚）- 探讨拟真时代的应对策略，“诱惑”作为致命策略。", "《致命的策略》（让·波德里亚）- 拟像三部曲之一，继续探讨拟像世界的生存策略。", "《冷记忆》（让·波德里亚）- 格言体著作，碎片化反思拟像社会。", "《美国》（让·波德里亚）- 格言体著作，观察美国社会的拟像现象。", "《后现代主义与文化理论》（詹明信/Fredric Jameson）- 介绍波德里亚、德勒兹等理论家。", "《流行体系》（罗兰·巴特）- 对波德里亚早期思想有影响。", "《景观社会》（居伊·德波）- 影响波德里亚，提出景观遮蔽真实的理论。", "《黑客帝国》（电影，沃卓斯基姐妹）- 拟像理论的视觉化演绎，探讨虚拟现实与真实的界限。", "《Simulacra and Simulation》（让·波德里亚）- 《黑客帝国》中出现的英文原著。", "《后现代性的哲学话语》（汪民安等编）- 收录波德里亚重要论文。", "《山寨》（韩炳哲）- 现代“拟像”概念的变体。", "“缸中之脑”（普特南）- 与《黑客帝国》相关的哲学思想。", "“洞穴之喻”（柏拉图）- 被用来对比波德里亚的拟像理论。"], "keywords": ["拟像", "拟真", "超级现实（hyperreality）", "符号政治经济学", "媒介“再现论”", "景观社会", "算法囚徒", "信息茧房", "意义贬值", "莫比乌斯环", "肉身体验"], "style_tone": "逻辑严密的批判分析风格"}</t>
+  </si>
+  <si>
     <t>2025-12-08T14:17:02</t>
   </si>
   <si>
@@ -5004,6 +5621,39 @@
   </si>
   <si>
     <t>2025-12-15T13:41:45</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:36:33</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:36:40</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:36:56</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:37:19</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:37:36</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:37:50</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:38:01</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:38:16</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:38:26</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:38:47</t>
+  </si>
+  <si>
+    <t>2025-12-16T12:39:05</t>
   </si>
   <si>
     <t>2025-12-11T09:01:13</t>
@@ -5515,7 +6165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5633,73 +6283,73 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="I2" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="L2" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="O2" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P2">
         <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="R2" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="S2" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="T2" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="U2" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="V2" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W2" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="X2" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z2" t="s">
-        <v>562</v>
+        <v>639</v>
       </c>
       <c r="AA2" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC2" t="s">
-        <v>607</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -5713,73 +6363,73 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="I3" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="L3" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="O3" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P3">
         <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="R3" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="S3" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="T3" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="U3" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="V3" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W3" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="X3" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z3" t="s">
-        <v>563</v>
+        <v>640</v>
       </c>
       <c r="AA3" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC3" t="s">
-        <v>608</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -5793,73 +6443,73 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="I4" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="L4" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="O4" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P4">
         <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="R4" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="S4" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="T4" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="U4" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="V4" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W4" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="X4" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z4" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="AA4" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC4" t="s">
-        <v>609</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -5873,73 +6523,73 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="I5" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K5" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="L5" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="O5" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P5">
         <v>92</v>
       </c>
       <c r="Q5" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="R5" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="S5" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="T5" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="U5" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="V5" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W5" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="X5" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z5" t="s">
-        <v>565</v>
+        <v>642</v>
       </c>
       <c r="AA5" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC5" t="s">
-        <v>610</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -5953,73 +6603,73 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="I6" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K6" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="L6" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="O6" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P6">
         <v>92</v>
       </c>
       <c r="Q6" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="R6" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="S6" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="T6" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="U6" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="V6" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W6" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="X6" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z6" t="s">
-        <v>566</v>
+        <v>643</v>
       </c>
       <c r="AA6" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC6" t="s">
-        <v>611</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -6033,76 +6683,76 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="I7" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L7" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="O7" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P7">
         <v>92</v>
       </c>
       <c r="Q7" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="R7" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="S7" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="T7" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="U7" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="V7" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="W7" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="X7" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z7" t="s">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="AA7" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC7" t="s">
-        <v>612</v>
+        <v>700</v>
       </c>
       <c r="AD7" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE7" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG7" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -6116,76 +6766,76 @@
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="I8" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L8" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="O8" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P8">
         <v>92</v>
       </c>
       <c r="Q8" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="R8" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="S8" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="T8" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="U8" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="V8" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="W8" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="X8" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z8" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="AA8" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC8" t="s">
-        <v>613</v>
+        <v>701</v>
       </c>
       <c r="AD8" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE8" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG8" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -6199,76 +6849,76 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="I9" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L9" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="O9" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P9">
         <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="R9" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="S9" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="T9" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="U9" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="V9" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="W9" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="X9" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z9" t="s">
-        <v>569</v>
+        <v>646</v>
       </c>
       <c r="AA9" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC9" t="s">
-        <v>614</v>
+        <v>702</v>
       </c>
       <c r="AD9" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE9" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG9" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -6282,76 +6932,76 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="I10" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L10" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="O10" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P10">
         <v>92</v>
       </c>
       <c r="Q10" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="R10" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="S10" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="T10" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="U10" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="V10" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="W10" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="X10" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z10" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="AA10" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC10" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="AD10" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE10" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG10" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -6365,67 +7015,67 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="I11" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L11" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="O11" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P11">
         <v>92</v>
       </c>
       <c r="Q11" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="R11" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="S11" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="T11" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="U11" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="V11" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W11" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="X11" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z11" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
       <c r="AA11" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC11" t="s">
-        <v>616</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -6439,67 +7089,67 @@
         <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="I12" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L12" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="O12" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P12">
         <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="R12" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="S12" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="T12" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="U12" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="V12" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="W12" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="X12" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z12" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="AA12" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC12" t="s">
-        <v>617</v>
+        <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -6513,73 +7163,73 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="H13" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="I13" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K13" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="L13" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="O13" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P13">
         <v>92</v>
       </c>
       <c r="Q13" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="R13" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="S13" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="T13" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="U13" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="V13" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W13" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="X13" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z13" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="AA13" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC13" t="s">
-        <v>618</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -6593,67 +7243,67 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="I14" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L14" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="O14" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P14">
         <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="R14" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="S14" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="T14" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="U14" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="V14" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="W14" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="X14" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z14" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="AA14" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC14" t="s">
-        <v>619</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6667,76 +7317,76 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="I15" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L15" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="O15" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P15">
         <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="R15" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="S15" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="T15" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="U15" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="V15" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="W15" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="X15" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z15" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="AA15" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC15" t="s">
-        <v>620</v>
+        <v>708</v>
       </c>
       <c r="AD15" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE15" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG15" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -6750,76 +7400,76 @@
         <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="I16" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L16" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="O16" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P16">
         <v>92</v>
       </c>
       <c r="Q16" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="R16" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="S16" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="T16" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="U16" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="V16" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="W16" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="X16" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z16" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="AA16" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC16" t="s">
-        <v>621</v>
+        <v>709</v>
       </c>
       <c r="AD16" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE16" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG16" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -6833,73 +7483,73 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="I17" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K17" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="L17" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="O17" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P17">
         <v>90</v>
       </c>
       <c r="Q17" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="R17" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="S17" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="T17" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="U17" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="V17" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W17" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="X17" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z17" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="AA17" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC17" t="s">
-        <v>622</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -6913,73 +7563,73 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="L18" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="O18" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P18">
         <v>90</v>
       </c>
       <c r="Q18" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="R18" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="S18" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="T18" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="U18" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V18" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W18" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="X18" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z18" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="AA18" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC18" t="s">
-        <v>623</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -6993,73 +7643,73 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="I19" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="L19" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="O19" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P19">
         <v>93</v>
       </c>
       <c r="Q19" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="R19" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="S19" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="T19" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="U19" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="V19" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W19" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="X19" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z19" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="AA19" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC19" t="s">
-        <v>624</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -7073,73 +7723,73 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="O20" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P20">
         <v>92</v>
       </c>
       <c r="Q20" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="R20" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="S20" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="T20" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="U20" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V20" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="W20" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="X20" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z20" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="AA20" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC20" t="s">
-        <v>625</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -7153,73 +7803,73 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="O21" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P21">
         <v>92</v>
       </c>
       <c r="Q21" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="R21" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="S21" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="T21" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="U21" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V21" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W21" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="X21" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z21" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="AA21" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC21" t="s">
-        <v>626</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -7233,73 +7883,73 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="O22" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P22">
         <v>92</v>
       </c>
       <c r="Q22" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="R22" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="S22" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="T22" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="U22" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="V22" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W22" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="X22" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z22" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="AA22" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC22" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -7313,73 +7963,73 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="O23" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P23">
         <v>92</v>
       </c>
       <c r="Q23" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="R23" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="S23" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="T23" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="U23" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V23" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="W23" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="X23" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z23" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="AA23" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC23" t="s">
-        <v>628</v>
+        <v>716</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -7393,73 +8043,73 @@
         <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="O24" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P24">
         <v>92</v>
       </c>
       <c r="Q24" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="R24" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="S24" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="T24" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="U24" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V24" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="W24" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="X24" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z24" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="AA24" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC24" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -7473,73 +8123,73 @@
         <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="O25" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P25">
         <v>90</v>
       </c>
       <c r="Q25" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="R25" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="S25" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="T25" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="U25" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="V25" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W25" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="X25" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z25" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="AA25" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC25" t="s">
-        <v>630</v>
+        <v>718</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -7553,67 +8203,67 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="O26" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P26">
         <v>90</v>
       </c>
       <c r="Q26" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="R26" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="S26" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="T26" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="U26" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V26" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="W26" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="X26" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z26" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="AA26" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC26" t="s">
-        <v>631</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -7627,67 +8277,67 @@
         <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G27" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="O27" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P27">
         <v>90</v>
       </c>
       <c r="Q27" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="R27" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="S27" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="T27" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="U27" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V27" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W27" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="X27" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z27" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="AA27" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC27" t="s">
-        <v>632</v>
+        <v>720</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -7701,67 +8351,67 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="O28" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P28">
         <v>92</v>
       </c>
       <c r="Q28" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="R28" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="S28" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="T28" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="U28" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V28" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="W28" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="X28" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z28" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="AA28" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC28" t="s">
-        <v>633</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -7775,67 +8425,67 @@
         <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="O29" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P29">
         <v>92</v>
       </c>
       <c r="Q29" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="R29" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="S29" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="T29" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="U29" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V29" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="W29" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="X29" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z29" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="AA29" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC29" t="s">
-        <v>634</v>
+        <v>722</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -7849,67 +8499,67 @@
         <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="O30" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P30">
         <v>92</v>
       </c>
       <c r="Q30" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="R30" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="S30" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="T30" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="U30" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V30" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="W30" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="X30" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z30" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="AA30" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC30" t="s">
-        <v>635</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -7923,76 +8573,76 @@
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="I31" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="O31" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P31">
         <v>92</v>
       </c>
       <c r="Q31" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="R31" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="S31" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="T31" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="U31" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V31" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="W31" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="X31" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z31" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="AA31" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC31" t="s">
-        <v>636</v>
+        <v>724</v>
       </c>
       <c r="AD31" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE31" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG31" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -8006,76 +8656,76 @@
         <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="I32" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="M32" t="b">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="O32" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P32">
         <v>92</v>
       </c>
       <c r="Q32" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="R32" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="S32" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="T32" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="U32" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V32" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="W32" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="X32" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z32" t="s">
-        <v>592</v>
+        <v>669</v>
       </c>
       <c r="AA32" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC32" t="s">
-        <v>637</v>
+        <v>725</v>
       </c>
       <c r="AD32" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE32" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG32" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -8089,73 +8739,73 @@
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H33" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K33" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="L33" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="O33" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P33">
         <v>92</v>
       </c>
       <c r="Q33" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="R33" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="S33" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="T33" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="U33" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="V33" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W33" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="X33" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z33" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
       <c r="AA33" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC33" t="s">
-        <v>638</v>
+        <v>726</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -8169,73 +8819,73 @@
         <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H34" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K34" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="M34" t="b">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="O34" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P34">
         <v>92</v>
       </c>
       <c r="Q34" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="R34" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="S34" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="T34" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="U34" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V34" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="W34" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="X34" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z34" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="AA34" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC34" t="s">
-        <v>639</v>
+        <v>727</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -8249,73 +8899,73 @@
         <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H35" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="I35" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="M35" t="b">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="O35" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P35">
         <v>90</v>
       </c>
       <c r="Q35" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="R35" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="S35" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="T35" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="U35" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V35" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W35" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="X35" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z35" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="AA35" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC35" t="s">
-        <v>640</v>
+        <v>728</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -8329,73 +8979,73 @@
         <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G36" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="I36" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K36" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="M36" t="b">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="O36" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P36">
         <v>95</v>
       </c>
       <c r="Q36" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="R36" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="S36" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="T36" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="U36" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="V36" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W36" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
       <c r="X36" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z36" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="AA36" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC36" t="s">
-        <v>641</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -8409,73 +9059,73 @@
         <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H37" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="I37" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K37" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="M37" t="b">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P37">
         <v>92</v>
       </c>
       <c r="Q37" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="R37" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="S37" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="T37" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="U37" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V37" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W37" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="X37" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z37" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="AA37" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC37" t="s">
-        <v>642</v>
+        <v>730</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -8489,73 +9139,73 @@
         <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="I38" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K38" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="M38" t="b">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="O38" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P38">
         <v>90</v>
       </c>
       <c r="Q38" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="R38" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="S38" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="T38" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="U38" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V38" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W38" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="X38" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z38" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="AA38" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC38" t="s">
-        <v>643</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -8569,73 +9219,73 @@
         <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H39" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K39" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="M39" t="b">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="O39" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P39">
         <v>92</v>
       </c>
       <c r="Q39" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="R39" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="S39" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="T39" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="U39" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V39" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="W39" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="X39" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z39" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="AA39" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC39" t="s">
-        <v>644</v>
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -8649,73 +9299,73 @@
         <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H40" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="I40" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K40" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="L40" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="M40" t="b">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P40">
         <v>92</v>
       </c>
       <c r="Q40" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="R40" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="S40" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="T40" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="U40" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V40" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="W40" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="X40" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z40" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="AA40" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC40" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -8729,73 +9379,73 @@
         <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H41" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="I41" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K41" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="L41" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="M41" t="b">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P41">
         <v>92</v>
       </c>
       <c r="Q41" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="R41" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="S41" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="T41" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="U41" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V41" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="W41" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="X41" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z41" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="AA41" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC41" t="s">
-        <v>646</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -8809,73 +9459,73 @@
         <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H42" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="I42" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K42" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="L42" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="O42" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P42">
         <v>92</v>
       </c>
       <c r="Q42" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="R42" t="s">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="S42" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="T42" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="U42" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V42" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="W42" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="X42" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z42" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="AA42" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC42" t="s">
-        <v>647</v>
+        <v>735</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -8889,76 +9539,76 @@
         <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="I43" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="M43" t="b">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P43">
         <v>92</v>
       </c>
       <c r="Q43" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="R43" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="S43" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="T43" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="U43" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V43" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="W43" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="X43" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z43" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="AA43" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC43" t="s">
-        <v>648</v>
+        <v>736</v>
       </c>
       <c r="AD43" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE43" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG43" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -8972,76 +9622,76 @@
         <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="I44" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L44" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="M44" t="b">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="O44" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P44">
         <v>92</v>
       </c>
       <c r="Q44" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="R44" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="S44" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="T44" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="U44" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V44" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="W44" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
       <c r="X44" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z44" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="AA44" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC44" t="s">
-        <v>649</v>
+        <v>737</v>
       </c>
       <c r="AD44" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE44" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG44" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -9055,76 +9705,76 @@
         <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="I45" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="M45" t="b">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="O45" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P45">
         <v>92</v>
       </c>
       <c r="Q45" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="R45" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="S45" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="T45" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="U45" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V45" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="W45" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="X45" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Z45" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
       <c r="AA45" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="AC45" t="s">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="AD45" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="AE45" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="AG45" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -9138,76 +9788,837 @@
         <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="I46" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="L46" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="M46" t="b">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="O46" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P46">
         <v>92</v>
       </c>
       <c r="Q46" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="R46" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="S46" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="T46" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="U46" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="V46" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="W46" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="X46" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>683</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>740</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
+      <c r="A47">
+        <v>17658576170174</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" t="s">
+        <v>220</v>
+      </c>
+      <c r="H47" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" t="s">
+        <v>251</v>
+      </c>
+      <c r="K47" t="s">
+        <v>248</v>
+      </c>
+      <c r="L47" t="s">
+        <v>299</v>
+      </c>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>370</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
+        <v>552</v>
+      </c>
+      <c r="V47" t="s">
+        <v>552</v>
+      </c>
+      <c r="W47" t="s">
+        <v>628</v>
+      </c>
+      <c r="X47" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
+      <c r="A48">
+        <v>17658576170213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H48" t="s">
+        <v>249</v>
+      </c>
+      <c r="I48" t="s">
+        <v>251</v>
+      </c>
+      <c r="K48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L48" t="s">
+        <v>300</v>
+      </c>
+      <c r="M48" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>358</v>
+      </c>
+      <c r="O48" t="s">
+        <v>370</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
+        <v>552</v>
+      </c>
+      <c r="V48" t="s">
+        <v>552</v>
+      </c>
+      <c r="W48" t="s">
+        <v>629</v>
+      </c>
+      <c r="X48" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
+      <c r="A49">
+        <v>17658576170395</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" t="s">
+        <v>250</v>
+      </c>
+      <c r="I49" t="s">
+        <v>251</v>
+      </c>
+      <c r="K49" t="s">
+        <v>250</v>
+      </c>
+      <c r="L49" t="s">
+        <v>301</v>
+      </c>
+      <c r="M49" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>359</v>
+      </c>
+      <c r="O49" t="s">
+        <v>370</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>552</v>
+      </c>
+      <c r="V49" t="s">
+        <v>552</v>
+      </c>
+      <c r="W49" t="s">
+        <v>630</v>
+      </c>
+      <c r="X49" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
+      <c r="A50">
+        <v>17658576190725</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" t="s">
+        <v>221</v>
+      </c>
+      <c r="I50" t="s">
+        <v>251</v>
+      </c>
+      <c r="L50" t="s">
+        <v>302</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>360</v>
+      </c>
+      <c r="O50" t="s">
+        <v>370</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
+        <v>552</v>
+      </c>
+      <c r="V50" t="s">
+        <v>552</v>
+      </c>
+      <c r="W50" t="s">
+        <v>631</v>
+      </c>
+      <c r="X50" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
+      <c r="A51">
+        <v>17658576190848</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" t="s">
+        <v>221</v>
+      </c>
+      <c r="I51" t="s">
+        <v>251</v>
+      </c>
+      <c r="L51" t="s">
+        <v>303</v>
+      </c>
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>361</v>
+      </c>
+      <c r="O51" t="s">
+        <v>370</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
+        <v>552</v>
+      </c>
+      <c r="V51" t="s">
+        <v>552</v>
+      </c>
+      <c r="W51" t="s">
+        <v>632</v>
+      </c>
+      <c r="X51" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="A52">
+        <v>17658576190923</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G52" t="s">
+        <v>221</v>
+      </c>
+      <c r="I52" t="s">
+        <v>251</v>
+      </c>
+      <c r="L52" t="s">
+        <v>304</v>
+      </c>
+      <c r="M52" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>362</v>
+      </c>
+      <c r="O52" t="s">
+        <v>370</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="T52" t="s">
+        <v>552</v>
+      </c>
+      <c r="V52" t="s">
+        <v>552</v>
+      </c>
+      <c r="W52" t="s">
+        <v>633</v>
+      </c>
+      <c r="X52" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
+      <c r="A53">
+        <v>17658576191076</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G53" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" t="s">
+        <v>251</v>
+      </c>
+      <c r="L53" t="s">
         <v>305</v>
       </c>
-      <c r="Z46" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>651</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>652</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>653</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>491</v>
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>363</v>
+      </c>
+      <c r="O53" t="s">
+        <v>370</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>552</v>
+      </c>
+      <c r="V53" t="s">
+        <v>552</v>
+      </c>
+      <c r="W53" t="s">
+        <v>634</v>
+      </c>
+      <c r="X53" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
+      <c r="A54">
+        <v>17658576191175</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54" t="s">
+        <v>221</v>
+      </c>
+      <c r="I54" t="s">
+        <v>251</v>
+      </c>
+      <c r="L54" t="s">
+        <v>306</v>
+      </c>
+      <c r="M54" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>364</v>
+      </c>
+      <c r="O54" t="s">
+        <v>370</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>552</v>
+      </c>
+      <c r="V54" t="s">
+        <v>552</v>
+      </c>
+      <c r="W54" t="s">
+        <v>635</v>
+      </c>
+      <c r="X54" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="A55">
+        <v>17658576191229</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" t="s">
+        <v>221</v>
+      </c>
+      <c r="I55" t="s">
+        <v>251</v>
+      </c>
+      <c r="L55" t="s">
+        <v>307</v>
+      </c>
+      <c r="M55" t="b">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>365</v>
+      </c>
+      <c r="O55" t="s">
+        <v>370</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>552</v>
+      </c>
+      <c r="V55" t="s">
+        <v>552</v>
+      </c>
+      <c r="W55" t="s">
+        <v>636</v>
+      </c>
+      <c r="X55" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
+      <c r="A56">
+        <v>17658576191367</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" t="s">
+        <v>221</v>
+      </c>
+      <c r="I56" t="s">
+        <v>251</v>
+      </c>
+      <c r="L56" t="s">
+        <v>308</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>366</v>
+      </c>
+      <c r="O56" t="s">
+        <v>371</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>366</v>
+      </c>
+      <c r="T56" t="s">
+        <v>552</v>
+      </c>
+      <c r="V56" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57">
+        <v>17658576540170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57" t="s">
+        <v>251</v>
+      </c>
+      <c r="L57" t="s">
+        <v>309</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>367</v>
+      </c>
+      <c r="O57" t="s">
+        <v>371</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>367</v>
+      </c>
+      <c r="T57" t="s">
+        <v>552</v>
+      </c>
+      <c r="V57" t="s">
+        <v>552</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>740</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
+      <c r="A58">
+        <v>17658576550288</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" t="s">
+        <v>222</v>
+      </c>
+      <c r="I58" t="s">
+        <v>251</v>
+      </c>
+      <c r="L58" t="s">
+        <v>310</v>
+      </c>
+      <c r="M58" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O58" t="s">
+        <v>370</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
+        <v>552</v>
+      </c>
+      <c r="V58" t="s">
+        <v>552</v>
+      </c>
+      <c r="W58" t="s">
+        <v>637</v>
+      </c>
+      <c r="X58" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>740</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
+      <c r="A59">
+        <v>17658576570374</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G59" t="s">
+        <v>222</v>
+      </c>
+      <c r="I59" t="s">
+        <v>251</v>
+      </c>
+      <c r="L59" t="s">
+        <v>311</v>
+      </c>
+      <c r="M59" t="b">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>369</v>
+      </c>
+      <c r="O59" t="s">
+        <v>370</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="T59" t="s">
+        <v>552</v>
+      </c>
+      <c r="V59" t="s">
+        <v>552</v>
+      </c>
+      <c r="W59" t="s">
+        <v>638</v>
+      </c>
+      <c r="X59" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>694</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>740</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -9257,6 +10668,19 @@
     <hyperlink ref="F44" r:id="rId43"/>
     <hyperlink ref="F45" r:id="rId44"/>
     <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
